--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,66 +412,66 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.2834439319705378</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.1831814446779793</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.1020520630846833</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.05347151941882693</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.0204075803000731</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0.1633599476103005</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0.06913256624526391</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0.03779568078973405</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01270453674132845</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.8486291982287837</v>
+        <v>-0.2105001018008387</v>
       </c>
       <c r="D3">
-        <v>-0.8392207204978817</v>
+        <v>-0.0983984109806469</v>
       </c>
       <c r="E3">
-        <v>-0.8578617165510122</v>
+        <v>-0.00885697840643087</v>
       </c>
       <c r="F3">
-        <v>-0.8008763138643638</v>
+        <v>0.03958323693437767</v>
       </c>
       <c r="G3">
-        <v>-0.7669502201481383</v>
+        <v>0.08121057524241085</v>
       </c>
       <c r="H3">
-        <v>-0.8112054273097283</v>
+        <v>-0.07518059050257198</v>
       </c>
       <c r="I3">
-        <v>-0.9339891658675074</v>
+        <v>0.0325883611970265</v>
       </c>
       <c r="J3">
-        <v>-0.7776501076482173</v>
+        <v>0.04653231675924697</v>
       </c>
       <c r="K3">
-        <v>-0.7329735415199399</v>
+        <v>0.1228621554384288</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,66 +412,66 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2834439319705378</v>
+        <v>-0.07078005303383683</v>
       </c>
       <c r="D2">
-        <v>-0.1831814446779793</v>
+        <v>0.06387495820539799</v>
       </c>
       <c r="E2">
-        <v>-0.1020520630846833</v>
+        <v>0.1711200075114923</v>
       </c>
       <c r="F2">
-        <v>-0.05347151941882693</v>
+        <v>0.2407168984175228</v>
       </c>
       <c r="G2">
-        <v>-0.0204075803000731</v>
+        <v>0.2820190358573262</v>
       </c>
       <c r="H2">
-        <v>-0.1633599476103005</v>
+        <v>0.09181485283251323</v>
       </c>
       <c r="I2">
-        <v>-0.06913256624526391</v>
+        <v>0.2090360378690408</v>
       </c>
       <c r="J2">
-        <v>-0.03779568078973405</v>
+        <v>0.2691315358166332</v>
       </c>
       <c r="K2">
-        <v>0.01270453674132845</v>
+        <v>0.3233450788697655</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.2105001018008387</v>
+        <v>-0.1962202465086784</v>
       </c>
       <c r="D3">
-        <v>-0.0983984109806469</v>
+        <v>-0.08185087655608322</v>
       </c>
       <c r="E3">
-        <v>-0.00885697840643087</v>
+        <v>0.008350479820429709</v>
       </c>
       <c r="F3">
-        <v>0.03958323693437767</v>
+        <v>0.06409757872819273</v>
       </c>
       <c r="G3">
-        <v>0.08121057524241085</v>
+        <v>0.09918877801086443</v>
       </c>
       <c r="H3">
-        <v>-0.07518059050257198</v>
+        <v>-0.05703256349581114</v>
       </c>
       <c r="I3">
-        <v>0.0325883611970265</v>
+        <v>0.04315255035339957</v>
       </c>
       <c r="J3">
-        <v>0.04653231675924697</v>
+        <v>0.08490801759435118</v>
       </c>
       <c r="K3">
-        <v>0.1228621554384288</v>
+        <v>0.134323252878758</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.07078005303383683</v>
+        <v>-0.1464835680183212</v>
       </c>
       <c r="D2">
-        <v>0.06387495820539799</v>
+        <v>-0.0240510495200979</v>
       </c>
       <c r="E2">
-        <v>0.1711200075114923</v>
+        <v>0.06746968723436876</v>
       </c>
       <c r="F2">
-        <v>0.2407168984175228</v>
+        <v>0.1244225118368499</v>
       </c>
       <c r="G2">
-        <v>0.2820190358573262</v>
+        <v>0.1594553985552223</v>
       </c>
       <c r="H2">
-        <v>0.09181485283251323</v>
+        <v>0.007482242852619463</v>
       </c>
       <c r="I2">
-        <v>0.2090360378690408</v>
+        <v>0.1023799263485091</v>
       </c>
       <c r="J2">
-        <v>0.2691315358166332</v>
+        <v>0.1464955132087257</v>
       </c>
       <c r="K2">
-        <v>0.3233450788697655</v>
+        <v>0.1945314256908851</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.1962202465086784</v>
+        <v>-0.199426285057882</v>
       </c>
       <c r="D3">
-        <v>-0.08185087655608322</v>
+        <v>-0.08553050933038693</v>
       </c>
       <c r="E3">
-        <v>0.008350479820429709</v>
+        <v>-0.001910689756011565</v>
       </c>
       <c r="F3">
-        <v>0.06409757872819273</v>
+        <v>0.04708231560455951</v>
       </c>
       <c r="G3">
-        <v>0.09918877801086443</v>
+        <v>0.08189882435641084</v>
       </c>
       <c r="H3">
-        <v>-0.05703256349581114</v>
+        <v>-0.05459425926460519</v>
       </c>
       <c r="I3">
-        <v>0.04315255035339957</v>
+        <v>0.03307927814560724</v>
       </c>
       <c r="J3">
-        <v>0.08490801759435118</v>
+        <v>0.06141414252119569</v>
       </c>
       <c r="K3">
-        <v>0.134323252878758</v>
+        <v>0.1167594648217411</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,66 +412,66 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1464835680183212</v>
+        <v>-0.1730886903769808</v>
       </c>
       <c r="D2">
-        <v>-0.0240510495200979</v>
+        <v>-0.05492172868311176</v>
       </c>
       <c r="E2">
-        <v>0.06746968723436876</v>
+        <v>0.02911889389037105</v>
       </c>
       <c r="F2">
-        <v>0.1244225118368499</v>
+        <v>0.07888216210728016</v>
       </c>
       <c r="G2">
-        <v>0.1594553985552223</v>
+        <v>0.1138308094624324</v>
       </c>
       <c r="H2">
-        <v>0.007482242852619463</v>
+        <v>-0.02015030881098215</v>
       </c>
       <c r="I2">
-        <v>0.1023799263485091</v>
+        <v>0.06375830977882029</v>
       </c>
       <c r="J2">
-        <v>0.1464955132087257</v>
+        <v>0.09385202513880553</v>
       </c>
       <c r="K2">
-        <v>0.1945314256908851</v>
+        <v>0.1488231498640391</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.199426285057882</v>
+        <v>-0.3920118456361024</v>
       </c>
       <c r="D3">
-        <v>-0.08553050933038693</v>
+        <v>-0.3089241627190564</v>
       </c>
       <c r="E3">
-        <v>-0.001910689756011565</v>
+        <v>-0.2601514133366861</v>
       </c>
       <c r="F3">
-        <v>0.04708231560455951</v>
+        <v>-0.2529415190795412</v>
       </c>
       <c r="G3">
-        <v>0.08189882435641084</v>
+        <v>-0.241060372680467</v>
       </c>
       <c r="H3">
-        <v>-0.05459425926460519</v>
+        <v>-0.2739381108365492</v>
       </c>
       <c r="I3">
-        <v>0.03307927814560724</v>
+        <v>-0.2183200689834985</v>
       </c>
       <c r="J3">
-        <v>0.06141414252119569</v>
+        <v>-0.2575686055570127</v>
       </c>
       <c r="K3">
-        <v>0.1167594648217411</v>
+        <v>-0.2291346678826717</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1730886903769808</v>
+        <v>-0.01132772767135682</v>
       </c>
       <c r="D2">
-        <v>-0.05492172868311176</v>
+        <v>0.1329501444668215</v>
       </c>
       <c r="E2">
-        <v>0.02911889389037105</v>
+        <v>0.2452044431023112</v>
       </c>
       <c r="F2">
-        <v>0.07888216210728016</v>
+        <v>0.3210583506375297</v>
       </c>
       <c r="G2">
-        <v>0.1138308094624324</v>
+        <v>0.3622452035370414</v>
       </c>
       <c r="H2">
-        <v>-0.02015030881098215</v>
+        <v>0.1654327651585601</v>
       </c>
       <c r="I2">
-        <v>0.06375830977882029</v>
+        <v>0.2818359714947122</v>
       </c>
       <c r="J2">
-        <v>0.09385202513880553</v>
+        <v>0.355822772016644</v>
       </c>
       <c r="K2">
-        <v>0.1488231498640391</v>
+        <v>0.4034558434828278</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.3920118456361024</v>
+        <v>0.04167199304037311</v>
       </c>
       <c r="D3">
-        <v>-0.3089241627190564</v>
+        <v>0.1945323064040473</v>
       </c>
       <c r="E3">
-        <v>-0.2601514133366861</v>
+        <v>0.315326141460165</v>
       </c>
       <c r="F3">
-        <v>-0.2529415190795412</v>
+        <v>0.3952634884591798</v>
       </c>
       <c r="G3">
-        <v>-0.241060372680467</v>
+        <v>0.4363374629815695</v>
       </c>
       <c r="H3">
-        <v>-0.2739381108365492</v>
+        <v>0.2269676979385108</v>
       </c>
       <c r="I3">
-        <v>-0.2183200689834985</v>
+        <v>0.3563520789343781</v>
       </c>
       <c r="J3">
-        <v>-0.2575686055570127</v>
+        <v>0.4342047310983628</v>
       </c>
       <c r="K3">
-        <v>-0.2291346678826717</v>
+        <v>0.4774351088200124</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.01132772767135682</v>
+        <v>-0.05087865687076728</v>
       </c>
       <c r="D2">
-        <v>0.1329501444668215</v>
+        <v>0.0870040663304853</v>
       </c>
       <c r="E2">
-        <v>0.2452044431023112</v>
+        <v>0.1928855763980075</v>
       </c>
       <c r="F2">
-        <v>0.3210583506375297</v>
+        <v>0.2622391942724226</v>
       </c>
       <c r="G2">
-        <v>0.3622452035370414</v>
+        <v>0.2947218356378359</v>
       </c>
       <c r="H2">
-        <v>0.1654327651585601</v>
+        <v>0.1195221178323933</v>
       </c>
       <c r="I2">
-        <v>0.2818359714947122</v>
+        <v>0.2296878997644399</v>
       </c>
       <c r="J2">
-        <v>0.355822772016644</v>
+        <v>0.2992342705499433</v>
       </c>
       <c r="K2">
-        <v>0.4034558434828278</v>
+        <v>0.3272520472469266</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04167199304037311</v>
+        <v>0.1005847822643243</v>
       </c>
       <c r="D3">
-        <v>0.1945323064040473</v>
+        <v>0.2630062173415413</v>
       </c>
       <c r="E3">
-        <v>0.315326141460165</v>
+        <v>0.3916029647132896</v>
       </c>
       <c r="F3">
-        <v>0.3952634884591798</v>
+        <v>0.4815428525589079</v>
       </c>
       <c r="G3">
-        <v>0.4363374629815695</v>
+        <v>0.5348150938948735</v>
       </c>
       <c r="H3">
-        <v>0.2269676979385108</v>
+        <v>0.2970910130494503</v>
       </c>
       <c r="I3">
-        <v>0.3563520789343781</v>
+        <v>0.4303496723071445</v>
       </c>
       <c r="J3">
-        <v>0.4342047310983628</v>
+        <v>0.5182230139111837</v>
       </c>
       <c r="K3">
-        <v>0.4774351088200124</v>
+        <v>0.5880525373395998</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.05087865687076728</v>
+        <v>-0.03073838356816078</v>
       </c>
       <c r="D2">
-        <v>0.0870040663304853</v>
+        <v>0.1103953264405628</v>
       </c>
       <c r="E2">
-        <v>0.1928855763980075</v>
+        <v>0.2203687944236038</v>
       </c>
       <c r="F2">
-        <v>0.2622391942724226</v>
+        <v>0.2984173663849913</v>
       </c>
       <c r="G2">
-        <v>0.2947218356378359</v>
+        <v>0.3396271737463568</v>
       </c>
       <c r="H2">
-        <v>0.1195221178323933</v>
+        <v>0.1420413390573121</v>
       </c>
       <c r="I2">
-        <v>0.2296878997644399</v>
+        <v>0.2525333222225323</v>
       </c>
       <c r="J2">
-        <v>0.2992342705499433</v>
+        <v>0.3353444977170092</v>
       </c>
       <c r="K2">
-        <v>0.3272520472469266</v>
+        <v>0.3808607917274153</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -447,31 +447,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1005847822643243</v>
+        <v>0.001594388907581552</v>
       </c>
       <c r="D3">
-        <v>0.2630062173415413</v>
+        <v>0.1479671853865113</v>
       </c>
       <c r="E3">
-        <v>0.3916029647132896</v>
+        <v>0.2623073227449058</v>
       </c>
       <c r="F3">
-        <v>0.4815428525589079</v>
+        <v>0.3357708147817765</v>
       </c>
       <c r="G3">
-        <v>0.5348150938948735</v>
+        <v>0.3724482494876078</v>
       </c>
       <c r="H3">
-        <v>0.2970910130494503</v>
+        <v>0.1804382791030193</v>
       </c>
       <c r="I3">
-        <v>0.4303496723071445</v>
+        <v>0.3034052846052124</v>
       </c>
       <c r="J3">
-        <v>0.5182230139111837</v>
+        <v>0.3726650190200617</v>
       </c>
       <c r="K3">
-        <v>0.5880525373395998</v>
+        <v>0.4091634066071575</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -412,66 +412,66 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.03073838356816078</v>
+        <v>-0.3955679064921799</v>
       </c>
       <c r="D2">
-        <v>0.1103953264405628</v>
+        <v>-0.3135526085529318</v>
       </c>
       <c r="E2">
-        <v>0.2203687944236038</v>
+        <v>-0.219670687897636</v>
       </c>
       <c r="F2">
-        <v>0.2984173663849913</v>
+        <v>-0.1582138509973569</v>
       </c>
       <c r="G2">
-        <v>0.3396271737463568</v>
+        <v>-0.1253459904459567</v>
       </c>
       <c r="H2">
-        <v>0.1420413390573121</v>
+        <v>-0.3248105319531392</v>
       </c>
       <c r="I2">
-        <v>0.2525333222225323</v>
+        <v>-0.186905187417177</v>
       </c>
       <c r="J2">
-        <v>0.3353444977170092</v>
+        <v>-0.1294736865881621</v>
       </c>
       <c r="K2">
-        <v>0.3808607917274153</v>
+        <v>-0.09242948704970184</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001594388907581552</v>
+        <v>-0.4535728184682561</v>
       </c>
       <c r="D3">
-        <v>0.1479671853865113</v>
+        <v>-0.3809226417101971</v>
       </c>
       <c r="E3">
-        <v>0.2623073227449058</v>
+        <v>-0.3007008387427232</v>
       </c>
       <c r="F3">
-        <v>0.3357708147817765</v>
+        <v>-0.2529676474746937</v>
       </c>
       <c r="G3">
-        <v>0.3724482494876078</v>
+        <v>-0.2199545933085434</v>
       </c>
       <c r="H3">
-        <v>0.1804382791030193</v>
+        <v>-0.387860987107398</v>
       </c>
       <c r="I3">
-        <v>0.3034052846052124</v>
+        <v>-0.2678362558876907</v>
       </c>
       <c r="J3">
-        <v>0.3726650190200617</v>
+        <v>-0.2380870939725943</v>
       </c>
       <c r="K3">
-        <v>0.4091634066071575</v>
+        <v>-0.1868924887586276</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,2722 +3103,2722 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1083444830197207</v>
+        <v>-0.06313098659170203</v>
       </c>
       <c r="D2">
-        <v>-0.1091352350773519</v>
+        <v>-0.06352026142244045</v>
       </c>
       <c r="E2">
-        <v>-0.1092181442975328</v>
+        <v>-0.06356107431464054</v>
       </c>
       <c r="F2">
-        <v>-0.1092958189247163</v>
+        <v>-0.06359931007898106</v>
       </c>
       <c r="G2">
-        <v>-0.1093635413929218</v>
+        <v>-0.06363264656404963</v>
       </c>
       <c r="H2">
-        <v>-0.1094702334159607</v>
+        <v>-0.06368516535221162</v>
       </c>
       <c r="I2">
-        <v>-0.1167427910249172</v>
+        <v>-0.0672635644381657</v>
       </c>
       <c r="J2">
-        <v>-0.1170688554992283</v>
+        <v>-0.06742393275502272</v>
       </c>
       <c r="K2">
-        <v>-0.1173402671839688</v>
+        <v>-0.06755741667934406</v>
       </c>
       <c r="L2">
-        <v>-0.1175784691322777</v>
+        <v>-0.0676745642343457</v>
       </c>
       <c r="M2">
-        <v>-0.117756222896176</v>
+        <v>-0.06776198135906436</v>
       </c>
       <c r="N2">
-        <v>-0.1179230977805508</v>
+        <v>-0.06784404678598599</v>
       </c>
       <c r="O2">
-        <v>-0.1180257143662878</v>
+        <v>-0.06789451061533804</v>
       </c>
       <c r="P2">
-        <v>-0.118281196150856</v>
+        <v>-0.06802014652722685</v>
       </c>
       <c r="Q2">
-        <v>-0.1203514682079455</v>
+        <v>-0.06903809128332085</v>
       </c>
       <c r="R2">
-        <v>-0.1203514682079433</v>
+        <v>-0.06903809128332683</v>
       </c>
       <c r="S2">
-        <v>-0.1228635946838249</v>
+        <v>-0.07027297443254357</v>
       </c>
       <c r="T2">
-        <v>-0.1203514682079425</v>
+        <v>-0.06903809128333008</v>
       </c>
       <c r="U2">
-        <v>-0.1230365075332513</v>
+        <v>-0.07035796011414905</v>
       </c>
       <c r="V2">
-        <v>-0.1203514682079419</v>
+        <v>-0.06903809128333331</v>
       </c>
       <c r="W2">
-        <v>-0.1232306781871208</v>
+        <v>-0.07045339190700593</v>
       </c>
       <c r="X2">
-        <v>-0.1203514682079418</v>
+        <v>-0.06903809128333532</v>
       </c>
       <c r="Y2">
-        <v>-0.1235468492728491</v>
+        <v>-0.07060878049560269</v>
       </c>
       <c r="Z2">
-        <v>-0.1203514682079427</v>
+        <v>-0.06903809128333825</v>
       </c>
       <c r="AA2">
-        <v>-0.1241221108458535</v>
+        <v>-0.07089149003958536</v>
       </c>
       <c r="AB2">
-        <v>-0.1203514682079436</v>
+        <v>-0.06903809128334162</v>
       </c>
       <c r="AC2">
-        <v>-0.1240055903819563</v>
+        <v>-0.07101190264706371</v>
       </c>
       <c r="AD2">
-        <v>-0.1312395690219439</v>
+        <v>-0.07401512205454806</v>
       </c>
       <c r="AE2">
-        <v>-0.1203514682079442</v>
+        <v>-0.06903809128334422</v>
       </c>
       <c r="AF2">
-        <v>-0.1240199227429376</v>
+        <v>-0.07109773563008051</v>
       </c>
       <c r="AG2">
-        <v>-0.1239603535283951</v>
+        <v>-0.07096059556685187</v>
       </c>
       <c r="AH2">
-        <v>-0.1331366171499635</v>
+        <v>-0.07484721104917572</v>
       </c>
       <c r="AI2">
-        <v>-0.1203514682079454</v>
+        <v>-0.06903809128335124</v>
       </c>
       <c r="AJ2">
-        <v>-0.124052745380117</v>
+        <v>-0.07129431287332558</v>
       </c>
       <c r="AK2">
-        <v>-0.1239588215616814</v>
+        <v>-0.07095885803169689</v>
       </c>
       <c r="AL2">
-        <v>-0.1334187749812158</v>
+        <v>-0.07515076663361282</v>
       </c>
       <c r="AM2">
-        <v>-0.138558756846864</v>
+        <v>-0.07702075714682068</v>
       </c>
       <c r="AN2">
-        <v>-0.1203514682079466</v>
+        <v>-0.06903809128335775</v>
       </c>
       <c r="AO2">
-        <v>-0.1239566188686877</v>
+        <v>-0.07095635976849912</v>
       </c>
       <c r="AP2">
-        <v>-0.1334240062682521</v>
+        <v>-0.07516095859922745</v>
       </c>
       <c r="AQ2">
-        <v>-0.1334841614667332</v>
+        <v>-0.07520050420175053</v>
       </c>
       <c r="AR2">
-        <v>-0.142325992161227</v>
+        <v>-0.07852999001998937</v>
       </c>
       <c r="AS2">
-        <v>-0.1385587568468617</v>
+        <v>-0.07702075714684486</v>
       </c>
       <c r="AT2">
-        <v>-0.1203514682079467</v>
+        <v>-0.06903809128335914</v>
       </c>
       <c r="AU2">
-        <v>-0.1239537940619505</v>
+        <v>-0.07095315591321041</v>
       </c>
       <c r="AV2">
-        <v>-0.1334263641699434</v>
+        <v>-0.07516555243860769</v>
       </c>
       <c r="AW2">
-        <v>-0.1336415017522985</v>
+        <v>-0.07532018685461205</v>
       </c>
       <c r="AX2">
-        <v>-0.1451752505124488</v>
+        <v>-0.07967096166191139</v>
       </c>
       <c r="AY2">
-        <v>-0.1385587568468568</v>
+        <v>-0.07702075714686049</v>
       </c>
       <c r="AZ2">
-        <v>-0.1203514682079469</v>
+        <v>-0.06903809128336023</v>
       </c>
       <c r="BA2">
-        <v>-0.1239469143696093</v>
+        <v>-0.07094535306720338</v>
       </c>
       <c r="BB2">
-        <v>-0.1334288630437419</v>
+        <v>-0.07517042093544182</v>
       </c>
       <c r="BC2">
-        <v>-0.1455862353118227</v>
+        <v>-0.07983550296572388</v>
       </c>
       <c r="BD2">
-        <v>-0.1451752505124094</v>
+        <v>-0.07967096166187733</v>
       </c>
       <c r="BE2">
-        <v>-0.1385587568468522</v>
+        <v>-0.07702075714687283</v>
       </c>
       <c r="BF2">
-        <v>-0.1203514682079468</v>
+        <v>-0.06903809128336223</v>
       </c>
       <c r="BG2">
-        <v>-0.1239410240792904</v>
+        <v>-0.07093867238912099</v>
       </c>
       <c r="BH2">
-        <v>-0.1334312430507493</v>
+        <v>-0.07517505785181047</v>
       </c>
       <c r="BI2">
-        <v>-0.1474484537174743</v>
+        <v>-0.080580945839098</v>
       </c>
       <c r="BJ2">
-        <v>-0.1451752505124053</v>
+        <v>-0.07967096166187487</v>
       </c>
       <c r="BK2">
-        <v>-0.1385587568468471</v>
+        <v>-0.07702075714688723</v>
       </c>
       <c r="BL2">
-        <v>-0.1203514682079471</v>
+        <v>-0.06903809128336327</v>
       </c>
       <c r="BM2">
-        <v>-0.1239127879140452</v>
+        <v>-0.07090664739245006</v>
       </c>
       <c r="BN2">
-        <v>-0.1334326684407781</v>
+        <v>-0.07517783491077666</v>
       </c>
       <c r="BO2">
-        <v>-0.1478193343474923</v>
+        <v>-0.0807286010083593</v>
       </c>
       <c r="BP2">
-        <v>-0.1473971892213745</v>
+        <v>-0.08045917421111896</v>
       </c>
       <c r="BQ2">
-        <v>-0.1451752505124001</v>
+        <v>-0.0796709616618738</v>
       </c>
       <c r="BR2">
-        <v>-0.1385587568468451</v>
+        <v>-0.07702075714689811</v>
       </c>
       <c r="BS2">
-        <v>-0.1203514682079469</v>
+        <v>-0.06903809128336358</v>
       </c>
       <c r="BT2">
-        <v>-0.1238129797596463</v>
+        <v>-0.07079344707243558</v>
       </c>
       <c r="BU2">
-        <v>-0.1334354649540584</v>
+        <v>-0.07518328330680822</v>
       </c>
       <c r="BV2">
-        <v>-0.15220388755651</v>
+        <v>-0.08247362962014664</v>
       </c>
       <c r="BW2">
-        <v>-0.1474133099627031</v>
+        <v>-0.08048936524972938</v>
       </c>
       <c r="BX2">
-        <v>-0.1473560078998018</v>
+        <v>-0.08036945751469675</v>
       </c>
       <c r="BY2">
-        <v>-0.1451752505123856</v>
+        <v>-0.07967096166187396</v>
       </c>
       <c r="BZ2">
-        <v>-0.1385587568468337</v>
+        <v>-0.07702075714691239</v>
       </c>
       <c r="CA2">
-        <v>-0.1203514682079465</v>
+        <v>-0.06903809128336418</v>
       </c>
       <c r="CB2">
-        <v>-0.1334496378453903</v>
+        <v>-0.07521089619494142</v>
       </c>
       <c r="CC2">
-        <v>-0.1537334162216885</v>
+        <v>-0.08308213454189324</v>
       </c>
       <c r="CD2">
-        <v>-0.1451752505123758</v>
+        <v>-0.07967096166187311</v>
       </c>
       <c r="CE2">
-        <v>-0.1385587568467934</v>
+        <v>-0.07702075714694036</v>
       </c>
       <c r="CF2">
-        <v>-0.1203514682079463</v>
+        <v>-0.06903809128336499</v>
       </c>
       <c r="CG2">
-        <v>-0.133503045282156</v>
+        <v>-0.07531495083702006</v>
       </c>
       <c r="CH2">
-        <v>-0.1540672910657278</v>
+        <v>-0.08321494625795781</v>
       </c>
       <c r="CI2">
-        <v>-0.1451752505123712</v>
+        <v>-0.07967096166187387</v>
       </c>
       <c r="CJ2">
-        <v>-0.1385587568467076</v>
+        <v>-0.07702075714699984</v>
       </c>
       <c r="CK2">
-        <v>-0.1203514682079463</v>
+        <v>-0.06903809128336615</v>
       </c>
       <c r="CL2">
-        <v>-0.1547444263718504</v>
+        <v>-0.08348428508830756</v>
       </c>
       <c r="CM2">
-        <v>-0.1451752505123712</v>
+        <v>-0.07967096166187387</v>
       </c>
       <c r="CN2">
-        <v>-0.1385587568466903</v>
+        <v>-0.07702075714701138</v>
       </c>
       <c r="CO2">
-        <v>-0.1203514682079463</v>
+        <v>-0.06903809128336676</v>
       </c>
       <c r="CP2">
-        <v>-0.1553831066482544</v>
+        <v>-0.08373830574889107</v>
       </c>
       <c r="CQ2">
-        <v>-0.1385587568466863</v>
+        <v>-0.07702075714701119</v>
       </c>
       <c r="CR2">
-        <v>-0.1203514682079461</v>
+        <v>-0.06903809128336671</v>
       </c>
       <c r="CS2">
-        <v>-0.1557543806877166</v>
+        <v>-0.08388596170615054</v>
       </c>
       <c r="CT2">
-        <v>-0.1385587568466825</v>
+        <v>-0.07702075714701299</v>
       </c>
       <c r="CU2">
-        <v>-0.1203514682079458</v>
+        <v>-0.06903809128336663</v>
       </c>
       <c r="CV2">
-        <v>-0.155999599286586</v>
+        <v>-0.08398348132748081</v>
       </c>
       <c r="CW2">
-        <v>-0.1385587568466859</v>
+        <v>-0.07702075714701294</v>
       </c>
       <c r="CX2">
-        <v>-0.1203514682079458</v>
+        <v>-0.06903809128336676</v>
       </c>
       <c r="CY2">
-        <v>-0.1563382036892238</v>
+        <v>-0.08411813380631315</v>
       </c>
       <c r="CZ2">
-        <v>-0.1385587568470059</v>
+        <v>-0.07702075714721901</v>
       </c>
       <c r="DA2">
-        <v>-0.1203514682079458</v>
+        <v>-0.06903809128336676</v>
       </c>
       <c r="DB2">
-        <v>-0.1563798417113739</v>
+        <v>-0.08414281561657164</v>
       </c>
       <c r="DC2">
-        <v>-0.15651412066178</v>
+        <v>-0.08418012143185868</v>
       </c>
       <c r="DD2">
-        <v>-0.138558756847024</v>
+        <v>-0.07702075714722796</v>
       </c>
       <c r="DE2">
-        <v>-0.1564302180841814</v>
+        <v>-0.08417267724155925</v>
       </c>
       <c r="DF2">
-        <v>-0.156613877997257</v>
+        <v>-0.08421527209636168</v>
       </c>
       <c r="DG2">
-        <v>-0.138558756847065</v>
+        <v>-0.0770207571472544</v>
       </c>
       <c r="DH2">
-        <v>-0.1564886080434298</v>
+        <v>-0.08420728904847537</v>
       </c>
       <c r="DI2">
-        <v>-0.1605521681256553</v>
+        <v>-0.08560257420719841</v>
       </c>
       <c r="DJ2">
-        <v>-0.1385587568481026</v>
+        <v>-0.07702075714784698</v>
       </c>
       <c r="DK2">
-        <v>-0.1565776357202902</v>
+        <v>-0.08426006189747444</v>
       </c>
       <c r="DL2">
-        <v>-0.1609469283268102</v>
+        <v>-0.08574158937568216</v>
       </c>
       <c r="DM2">
-        <v>-0.1385587568490268</v>
+        <v>-0.0770207571483776</v>
       </c>
       <c r="DN2">
-        <v>-0.156692093407997</v>
+        <v>-0.08432790873971714</v>
       </c>
       <c r="DO2">
-        <v>-0.161011603147096</v>
+        <v>-0.08580656885769469</v>
       </c>
       <c r="DP2">
-        <v>-0.1628720985793297</v>
+        <v>-0.08638567378194995</v>
       </c>
       <c r="DQ2">
-        <v>-0.1385587568491085</v>
+        <v>-0.0770207571484286</v>
       </c>
       <c r="DR2">
-        <v>-0.1567742634707284</v>
+        <v>-0.08437661642478965</v>
       </c>
       <c r="DS2">
-        <v>-0.1610116031470984</v>
+        <v>-0.08580656885769489</v>
       </c>
       <c r="DT2">
-        <v>-0.1610430929995131</v>
+        <v>-0.08583820704872343</v>
       </c>
       <c r="DU2">
-        <v>-0.1663452809520314</v>
+        <v>-0.08754738633774251</v>
       </c>
       <c r="DV2">
-        <v>-0.138558756849174</v>
+        <v>-0.07702075714847251</v>
       </c>
       <c r="DW2">
-        <v>-0.1568903697051835</v>
+        <v>-0.0844454402178404</v>
       </c>
       <c r="DX2">
-        <v>-0.1610116031471</v>
+        <v>-0.08580656885769515</v>
       </c>
       <c r="DY2">
-        <v>-0.1611910224178857</v>
+        <v>-0.0859868333180026</v>
       </c>
       <c r="DZ2">
-        <v>-0.1679077521462993</v>
+        <v>-0.08806988774777399</v>
       </c>
       <c r="EA2">
-        <v>-0.1385587568492345</v>
+        <v>-0.07702075714850982</v>
       </c>
       <c r="EB2">
-        <v>-0.1570159890193995</v>
+        <v>-0.08451990286953373</v>
       </c>
       <c r="EC2">
-        <v>-0.1610116031471004</v>
+        <v>-0.08580656885769478</v>
       </c>
       <c r="ED2">
-        <v>-0.1611516342100746</v>
+        <v>-0.08597752838503644</v>
       </c>
       <c r="EE2">
-        <v>-0.1615479466591606</v>
+        <v>-0.08630319601091282</v>
       </c>
       <c r="EF2">
-        <v>-0.1683727000499965</v>
+        <v>-0.0882253558282019</v>
       </c>
       <c r="EG2">
-        <v>-0.1385587568494356</v>
+        <v>-0.07702075714863033</v>
       </c>
       <c r="EH2">
-        <v>-0.157134458824605</v>
+        <v>-0.08459012738645151</v>
       </c>
       <c r="EI2">
-        <v>-0.1610116031471014</v>
+        <v>-0.08580656885769478</v>
       </c>
       <c r="EJ2">
-        <v>-0.1611482420704841</v>
+        <v>-0.0859767270319502</v>
       </c>
       <c r="EK2">
-        <v>-0.1618134831611124</v>
+        <v>-0.08653855605807918</v>
       </c>
       <c r="EL2">
-        <v>-0.1688975726901517</v>
+        <v>-0.0884008537910784</v>
       </c>
       <c r="EM2">
-        <v>-0.1385587568495895</v>
+        <v>-0.07702075714871835</v>
       </c>
       <c r="EN2">
-        <v>-0.1573292435296922</v>
+        <v>-0.08470558821318495</v>
       </c>
       <c r="EO2">
-        <v>-0.1610116031471021</v>
+        <v>-0.08580656885769479</v>
       </c>
       <c r="EP2">
-        <v>-0.1611449137302181</v>
+        <v>-0.08597594074980539</v>
       </c>
       <c r="EQ2">
-        <v>-0.1619913082121569</v>
+        <v>-0.08669617229401939</v>
       </c>
       <c r="ER2">
-        <v>-0.1693912430352089</v>
+        <v>-0.08856591151106302</v>
       </c>
       <c r="ES2">
-        <v>-0.1385587568496084</v>
+        <v>-0.07702075714872894</v>
       </c>
       <c r="ET2">
-        <v>-0.1582554267586881</v>
+        <v>-0.08525458797990447</v>
       </c>
       <c r="EU2">
-        <v>-0.1610116031471024</v>
+        <v>-0.08580656885769501</v>
       </c>
       <c r="EV2">
-        <v>-0.1611422262314137</v>
+        <v>-0.08597530585844229</v>
       </c>
       <c r="EW2">
-        <v>-0.1621178419949704</v>
+        <v>-0.08675797541500481</v>
       </c>
       <c r="EX2">
-        <v>-0.1620868725865919</v>
+        <v>-0.08687517767481856</v>
       </c>
       <c r="EY2">
-        <v>-0.1699673076709197</v>
+        <v>-0.08875850859291121</v>
       </c>
       <c r="EZ2">
-        <v>-0.1385587568496144</v>
+        <v>-0.07702075714873201</v>
       </c>
       <c r="FA2">
-        <v>-0.158457196323559</v>
+        <v>-0.08537418663963454</v>
       </c>
       <c r="FB2">
-        <v>-0.1610116031471027</v>
+        <v>-0.08580656885769522</v>
       </c>
       <c r="FC2">
-        <v>-0.1611381925008295</v>
+        <v>-0.08597435293386908</v>
       </c>
       <c r="FD2">
-        <v>-0.162453420676075</v>
+        <v>-0.08692188181674508</v>
       </c>
       <c r="FE2">
-        <v>-0.1620926893832254</v>
+        <v>-0.08688607356495398</v>
       </c>
       <c r="FF2">
-        <v>-0.1701330763791731</v>
+        <v>-0.08881392864807808</v>
       </c>
       <c r="FG2">
-        <v>-0.1385587568496132</v>
+        <v>-0.07702075714872819</v>
       </c>
       <c r="FH2">
-        <v>-0.1585688675192457</v>
+        <v>-0.08562940819480264</v>
       </c>
       <c r="FI2">
-        <v>-0.1591817055877611</v>
+        <v>-0.08573837030104368</v>
       </c>
       <c r="FJ2">
-        <v>-0.1610116031471022</v>
+        <v>-0.08580656885769469</v>
       </c>
       <c r="FK2">
-        <v>-0.1611333293744956</v>
+        <v>-0.0859732040719092</v>
       </c>
       <c r="FL2">
-        <v>-0.1625699867006823</v>
+        <v>-0.08697881575525623</v>
       </c>
       <c r="FM2">
-        <v>-0.1620980033485406</v>
+        <v>-0.08689602758505977</v>
       </c>
       <c r="FN2">
-        <v>-0.1710749121711799</v>
+        <v>-0.08912878942224393</v>
       </c>
       <c r="FO2">
-        <v>-0.1385587568496132</v>
+        <v>-0.07702075714872819</v>
       </c>
       <c r="FP2">
-        <v>-0.1585899647348138</v>
+        <v>-0.08567762719852175</v>
       </c>
       <c r="FQ2">
-        <v>-0.1601436066258022</v>
+        <v>-0.08622187257926368</v>
       </c>
       <c r="FR2">
-        <v>-0.1610116031471022</v>
+        <v>-0.08580656885769401</v>
       </c>
       <c r="FS2">
-        <v>-0.1611296553736384</v>
+        <v>-0.08597233612695238</v>
       </c>
       <c r="FT2">
-        <v>-0.1625699867014571</v>
+        <v>-0.08697881575599202</v>
       </c>
       <c r="FU2">
-        <v>-0.1627641408981097</v>
+        <v>-0.0870736287719056</v>
       </c>
       <c r="FV2">
-        <v>-0.1621002108465021</v>
+        <v>-0.08690016263501013</v>
       </c>
       <c r="FW2">
-        <v>-0.1716069246931227</v>
+        <v>-0.08930663261089471</v>
       </c>
       <c r="FX2">
-        <v>-0.1586334931836605</v>
+        <v>-0.08577711607213774</v>
       </c>
       <c r="FY2">
-        <v>-0.1601795712194193</v>
+        <v>-0.08626397818644319</v>
       </c>
       <c r="FZ2">
-        <v>-0.1604801236964216</v>
+        <v>-0.08632673832462726</v>
       </c>
       <c r="GA2">
-        <v>-0.1610116031471014</v>
+        <v>-0.0858065688576933</v>
       </c>
       <c r="GB2">
-        <v>-0.1611254039046414</v>
+        <v>-0.085971331759723</v>
       </c>
       <c r="GC2">
-        <v>-0.162569986701579</v>
+        <v>-0.08697881575609197</v>
       </c>
       <c r="GD2">
-        <v>-0.1627851107656978</v>
+        <v>-0.08708386891364771</v>
       </c>
       <c r="GE2">
-        <v>-0.1621049690898574</v>
+        <v>-0.08690907571288788</v>
       </c>
       <c r="GF2">
-        <v>-0.1720018793179304</v>
+        <v>-0.08943865420873508</v>
       </c>
       <c r="GG2">
-        <v>-0.1603211021881206</v>
+        <v>-0.08642967591615804</v>
       </c>
       <c r="GH2">
-        <v>-0.1618734466451608</v>
+        <v>-0.08676080891167724</v>
       </c>
       <c r="GI2">
-        <v>-0.1610116031471011</v>
+        <v>-0.08580656885769261</v>
       </c>
       <c r="GJ2">
-        <v>-0.1611214064164978</v>
+        <v>-0.08597038739161315</v>
       </c>
       <c r="GK2">
-        <v>-0.1625699867016027</v>
+        <v>-0.08697881575610374</v>
       </c>
       <c r="GL2">
-        <v>-0.1625699867016338</v>
+        <v>-0.0869788157561364</v>
       </c>
       <c r="GM2">
-        <v>-0.1628053945892738</v>
+        <v>-0.08709377399425247</v>
       </c>
       <c r="GN2">
-        <v>-0.162117088325014</v>
+        <v>-0.08693177737858229</v>
       </c>
       <c r="GO2">
-        <v>-0.1723569816182802</v>
+        <v>-0.08955735046601714</v>
       </c>
       <c r="GP2">
-        <v>-0.1605738014952817</v>
+        <v>-0.08672552470815011</v>
       </c>
       <c r="GQ2">
-        <v>-0.162028989572537</v>
+        <v>-0.0868052398154821</v>
       </c>
       <c r="GR2">
-        <v>-0.1619409921156192</v>
+        <v>-0.08678416715570184</v>
       </c>
       <c r="GS2">
-        <v>-0.1610116031471012</v>
+        <v>-0.08580656885769256</v>
       </c>
       <c r="GT2">
-        <v>-0.1611171053433086</v>
+        <v>-0.08596937130301961</v>
       </c>
       <c r="GU2">
-        <v>-0.1625699867016027</v>
+        <v>-0.08697881575610374</v>
       </c>
       <c r="GV2">
-        <v>-0.1625699867016695</v>
+        <v>-0.08697881575616603</v>
       </c>
       <c r="GW2">
-        <v>-0.1628216197505484</v>
+        <v>-0.08710169709835046</v>
       </c>
       <c r="GX2">
-        <v>-0.1621241986504078</v>
+        <v>-0.08694509644091081</v>
       </c>
       <c r="GY2">
-        <v>-0.1727981454336424</v>
+        <v>-0.08970480845430659</v>
       </c>
       <c r="GZ2">
-        <v>-0.1605193713859837</v>
+        <v>-0.08667206551031854</v>
       </c>
       <c r="HA2">
-        <v>-0.1606186599914653</v>
+        <v>-0.08678129428654237</v>
       </c>
       <c r="HB2">
-        <v>-0.16242228980393</v>
+        <v>-0.08691757615094191</v>
       </c>
       <c r="HC2">
-        <v>-0.16195053990305</v>
+        <v>-0.08678746888685138</v>
       </c>
       <c r="HD2">
-        <v>-0.161011603147101</v>
+        <v>-0.08580656885769214</v>
       </c>
       <c r="HE2">
-        <v>-0.1611105302711267</v>
+        <v>-0.08596781800040212</v>
       </c>
       <c r="HF2">
-        <v>-0.1625699867017063</v>
+        <v>-0.08697881575619545</v>
       </c>
       <c r="HG2">
-        <v>-0.1628345444567319</v>
+        <v>-0.08710800849597018</v>
       </c>
       <c r="HH2">
-        <v>-0.1621291787599877</v>
+        <v>-0.08695442520520408</v>
       </c>
       <c r="HI2">
-        <v>-0.17361231538032</v>
+        <v>-0.08997692794769531</v>
       </c>
       <c r="HJ2">
-        <v>-0.1603412054949212</v>
+        <v>-0.08649707764527888</v>
       </c>
       <c r="HK2">
-        <v>-0.160699622134276</v>
+        <v>-0.08688194919334867</v>
       </c>
       <c r="HL2">
-        <v>-0.1619582399538342</v>
+        <v>-0.0867901316432529</v>
       </c>
       <c r="HM2">
-        <v>-0.1610116031471009</v>
+        <v>-0.08580656885769213</v>
       </c>
       <c r="HN2">
-        <v>-0.1610925743177291</v>
+        <v>-0.08596357604755953</v>
       </c>
       <c r="HO2">
-        <v>-0.1625699867017483</v>
+        <v>-0.08697881575622263</v>
       </c>
       <c r="HP2">
-        <v>-0.1628618696067944</v>
+        <v>-0.08712135186135953</v>
       </c>
       <c r="HQ2">
-        <v>-0.1621387585183836</v>
+        <v>-0.08697237010498066</v>
       </c>
       <c r="HR2">
-        <v>-0.1743222224672477</v>
+        <v>-0.09021418392487182</v>
       </c>
       <c r="HS2">
-        <v>-0.1602643969527467</v>
+        <v>-0.08642163914592857</v>
       </c>
       <c r="HT2">
-        <v>-0.1607285302123951</v>
+        <v>-0.08691788872753943</v>
       </c>
       <c r="HU2">
-        <v>-0.1619643934534572</v>
+        <v>-0.08679225958203039</v>
       </c>
       <c r="HV2">
-        <v>-0.1610910433260459</v>
+        <v>-0.08596321436160635</v>
       </c>
       <c r="HW2">
-        <v>-0.1625699867018037</v>
+        <v>-0.0869788157562751</v>
       </c>
       <c r="HX2">
-        <v>-0.162883389053725</v>
+        <v>-0.08713186013693691</v>
       </c>
       <c r="HY2">
-        <v>-0.1621435267159857</v>
+        <v>-0.08698130196621504</v>
       </c>
       <c r="HZ2">
-        <v>-0.1748051770362652</v>
+        <v>-0.09037558234646441</v>
       </c>
       <c r="IA2">
-        <v>-0.1610539021035786</v>
+        <v>-0.08732243036237052</v>
       </c>
       <c r="IB2">
-        <v>-0.1607285302123951</v>
+        <v>-0.08691788872753943</v>
       </c>
       <c r="IC2">
-        <v>-0.1619737868628585</v>
+        <v>-0.08679550790493319</v>
       </c>
       <c r="ID2">
-        <v>-0.1610903361748421</v>
+        <v>-0.08596304730207378</v>
       </c>
       <c r="IE2">
-        <v>-0.1625699867018499</v>
+        <v>-0.08697881575631775</v>
       </c>
       <c r="IF2">
-        <v>-0.1628983161387623</v>
+        <v>-0.08713914923022419</v>
       </c>
       <c r="IG2">
-        <v>-0.1621469124370186</v>
+        <v>-0.08698764416133629</v>
       </c>
       <c r="IH2">
-        <v>-0.1751224556099087</v>
+        <v>-0.09048160985501932</v>
       </c>
       <c r="II2">
-        <v>-0.1611011572441597</v>
+        <v>-0.08738118487670789</v>
       </c>
       <c r="IJ2">
-        <v>-0.1619847978826265</v>
+        <v>-0.08679931560001941</v>
       </c>
       <c r="IK2">
-        <v>-0.1610895797906836</v>
+        <v>-0.08596286861155433</v>
       </c>
       <c r="IL2">
-        <v>-0.1625699867018735</v>
+        <v>-0.08697881575634724</v>
       </c>
       <c r="IM2">
-        <v>-0.1629132077646129</v>
+        <v>-0.08714642098302085</v>
       </c>
       <c r="IN2">
-        <v>-0.1621856440116675</v>
+        <v>-0.08706019747045642</v>
       </c>
       <c r="IO2">
-        <v>-0.1758053436446679</v>
+        <v>-0.09070980601296731</v>
       </c>
       <c r="IP2">
-        <v>-0.1611966197103208</v>
+        <v>-0.08753396873539607</v>
       </c>
       <c r="IQ2">
-        <v>-0.1611507471529555</v>
+        <v>-0.08740875407227951</v>
       </c>
       <c r="IR2">
-        <v>-0.1620017102628685</v>
+        <v>-0.08680516400645497</v>
       </c>
       <c r="IS2">
-        <v>-0.1610888570319804</v>
+        <v>-0.08596269786477169</v>
       </c>
       <c r="IT2">
-        <v>-0.162569986701899</v>
+        <v>-0.0869788157563639</v>
       </c>
       <c r="IU2">
-        <v>-0.1629349937315459</v>
+        <v>-0.08715705927662594</v>
       </c>
       <c r="IV2">
-        <v>-0.162197065449771</v>
+        <v>-0.08708159271234499</v>
       </c>
       <c r="IW2">
-        <v>-0.1758230806382495</v>
+        <v>-0.09072739980393876</v>
       </c>
       <c r="IX2">
-        <v>-0.1762521033124638</v>
+        <v>-0.09085554053667318</v>
       </c>
       <c r="IY2">
-        <v>-0.1620635991741107</v>
+        <v>-0.08682656532588337</v>
       </c>
       <c r="IZ2">
-        <v>-0.1610880518474294</v>
+        <v>-0.08596250764539815</v>
       </c>
       <c r="JA2">
-        <v>-0.1625699867019217</v>
+        <v>-0.08697881575638555</v>
       </c>
       <c r="JB2">
-        <v>-0.163016933777918</v>
+        <v>-0.08719707089166721</v>
       </c>
       <c r="JC2">
-        <v>-0.1621996207727575</v>
+        <v>-0.0870863794918301</v>
       </c>
       <c r="JD2">
-        <v>-0.1758255325364555</v>
+        <v>-0.09072983190612363</v>
       </c>
       <c r="JE2">
-        <v>-0.177927649647151</v>
+        <v>-0.09140205814943722</v>
       </c>
       <c r="JF2">
-        <v>-0.1623648375118467</v>
+        <v>-0.08693072855226731</v>
       </c>
       <c r="JG2">
-        <v>-0.1610863898323527</v>
+        <v>-0.08596211500547525</v>
       </c>
       <c r="JH2">
-        <v>-0.1625699867019333</v>
+        <v>-0.08697881575641754</v>
       </c>
       <c r="JI2">
-        <v>-0.1630360591054606</v>
+        <v>-0.08720640974676797</v>
       </c>
       <c r="JJ2">
-        <v>-0.1622183757361311</v>
+        <v>-0.08709151561866711</v>
       </c>
       <c r="JK2">
-        <v>-0.1622011878496738</v>
+        <v>-0.08709034485213553</v>
       </c>
       <c r="JL2">
-        <v>-0.1758266597663218</v>
+        <v>-0.09073095003499768</v>
       </c>
       <c r="JM2">
-        <v>-0.1779508589034205</v>
+        <v>-0.09145789283872141</v>
       </c>
       <c r="JN2">
-        <v>-0.1784856815407254</v>
+        <v>-0.09157389628934529</v>
       </c>
       <c r="JO2">
-        <v>-0.1610846588524938</v>
+        <v>-0.08596170607284767</v>
       </c>
       <c r="JP2">
-        <v>-0.1625699867019422</v>
+        <v>-0.08697881575643091</v>
       </c>
       <c r="JQ2">
-        <v>-0.1630448209719143</v>
+        <v>-0.08721068813284141</v>
       </c>
       <c r="JR2">
-        <v>-0.1622369627152324</v>
+        <v>-0.08709660571082174</v>
       </c>
       <c r="JS2">
-        <v>-0.162203025150171</v>
+        <v>-0.08709499399669557</v>
       </c>
       <c r="JT2">
-        <v>-0.1758279985941326</v>
+        <v>-0.0907322780534094</v>
       </c>
       <c r="JU2">
-        <v>-0.1779525459711427</v>
+        <v>-0.09146195146312998</v>
       </c>
       <c r="JV2">
-        <v>-0.1805089334403704</v>
+        <v>-0.09219685546210764</v>
       </c>
       <c r="JW2">
-        <v>-0.1610780765352099</v>
+        <v>-0.08596015104140144</v>
       </c>
       <c r="JX2">
-        <v>-0.1625699867019368</v>
+        <v>-0.08697881575643246</v>
       </c>
       <c r="JY2">
-        <v>-0.1630505812564582</v>
+        <v>-0.08721350085311461</v>
       </c>
       <c r="JZ2">
-        <v>-0.1622046855600086</v>
+        <v>-0.0870991955384707</v>
       </c>
       <c r="KA2">
-        <v>-0.1758300642489275</v>
+        <v>-0.09073432703053554</v>
       </c>
       <c r="KB2">
-        <v>-0.1779539365061162</v>
+        <v>-0.09146529671399338</v>
       </c>
       <c r="KC2">
-        <v>-0.1807632116098157</v>
+        <v>-0.09237830287783756</v>
       </c>
       <c r="KD2">
-        <v>-0.1808290643239946</v>
+        <v>-0.09222721981598309</v>
       </c>
       <c r="KE2">
-        <v>-0.1610431296232322</v>
+        <v>-0.08595189499269097</v>
       </c>
       <c r="KF2">
-        <v>-0.1625699867019368</v>
+        <v>-0.08697881575643246</v>
       </c>
       <c r="KG2">
-        <v>-0.1630793392240634</v>
+        <v>-0.08722188880954972</v>
       </c>
       <c r="KH2">
-        <v>-0.1630520255070029</v>
+        <v>-0.08721490349271799</v>
       </c>
       <c r="KI2">
-        <v>-0.1622063672245165</v>
+        <v>-0.0871034508685479</v>
       </c>
       <c r="KJ2">
-        <v>-0.1758319048964918</v>
+        <v>-0.09073615281706092</v>
       </c>
       <c r="KK2">
-        <v>-0.1779559116553145</v>
+        <v>-0.09147004839360948</v>
       </c>
       <c r="KL2">
-        <v>-0.1808802572534725</v>
+        <v>-0.092461823140415</v>
       </c>
       <c r="KM2">
-        <v>-0.1821708775089736</v>
+        <v>-0.09235447799354321</v>
       </c>
       <c r="KN2">
-        <v>-0.1630925495427305</v>
+        <v>-0.08722574189221156</v>
       </c>
       <c r="KO2">
-        <v>-0.1630530476552319</v>
+        <v>-0.08721589619136666</v>
       </c>
       <c r="KP2">
-        <v>-0.162208175355305</v>
+        <v>-0.08710802621795367</v>
       </c>
       <c r="KQ2">
-        <v>-0.1758333359607666</v>
+        <v>-0.0907375723271749</v>
       </c>
       <c r="KR2">
-        <v>-0.1779647831566382</v>
+        <v>-0.0914913909223956</v>
       </c>
       <c r="KS2">
-        <v>-0.1816449843350244</v>
+        <v>-0.09300749420262024</v>
       </c>
       <c r="KT2">
-        <v>-0.1824671021524244</v>
+        <v>-0.09238256934417634</v>
       </c>
       <c r="KU2">
-        <v>-0.1631149079462041</v>
+        <v>-0.08723226317939861</v>
       </c>
       <c r="KV2">
-        <v>-0.1630542371351381</v>
+        <v>-0.08721705140060741</v>
       </c>
       <c r="KW2">
-        <v>-0.1622186615396484</v>
+        <v>-0.08713456089316787</v>
       </c>
       <c r="KX2">
-        <v>-0.1758351172801209</v>
+        <v>-0.09073933926444812</v>
       </c>
       <c r="KY2">
-        <v>-0.1779664910188384</v>
+        <v>-0.09149549960935809</v>
       </c>
       <c r="KZ2">
-        <v>-0.1817021107719184</v>
+        <v>-0.0930482557132913</v>
       </c>
       <c r="LA2">
-        <v>-0.1825655343132934</v>
+        <v>-0.09239190356960547</v>
       </c>
       <c r="LB2">
-        <v>-0.1631578240881597</v>
+        <v>-0.08724478042091004</v>
       </c>
       <c r="LC2">
-        <v>-0.1630565122315651</v>
+        <v>-0.08721926094811004</v>
       </c>
       <c r="LD2">
-        <v>-0.1622630146873221</v>
+        <v>-0.08724679608383402</v>
       </c>
       <c r="LE2">
-        <v>-0.1758369596872362</v>
+        <v>-0.09074116679624347</v>
       </c>
       <c r="LF2">
-        <v>-0.1779677555512392</v>
+        <v>-0.09149854175920755</v>
       </c>
       <c r="LG2">
-        <v>-0.1817093055001789</v>
+        <v>-0.09305906576294415</v>
       </c>
       <c r="LH2">
-        <v>-0.1826415435566867</v>
+        <v>-0.09365392812478805</v>
       </c>
       <c r="LI2">
-        <v>-0.1826169095171442</v>
+        <v>-0.09239677538657959</v>
       </c>
       <c r="LJ2">
-        <v>-0.16328418131766</v>
+        <v>-0.08728163370373643</v>
       </c>
       <c r="LK2">
-        <v>-0.1630652376439473</v>
+        <v>-0.08722773496772536</v>
       </c>
       <c r="LL2">
-        <v>-0.1758391329110467</v>
+        <v>-0.09074332247373292</v>
       </c>
       <c r="LM2">
-        <v>-0.1779692121563771</v>
+        <v>-0.09150204599125444</v>
       </c>
       <c r="LN2">
-        <v>-0.1817463613046167</v>
+        <v>-0.09311474223424598</v>
       </c>
       <c r="LO2">
-        <v>-0.183092478160532</v>
+        <v>-0.09394463945091366</v>
       </c>
       <c r="LP2">
-        <v>-0.1826608885842053</v>
+        <v>-0.09240094581778402</v>
       </c>
       <c r="LQ2">
-        <v>-0.1630950144277147</v>
+        <v>-0.08725665382854265</v>
       </c>
       <c r="LR2">
-        <v>-0.1758403713616243</v>
+        <v>-0.09074455092520431</v>
       </c>
       <c r="LS2">
-        <v>-0.1779706570886583</v>
+        <v>-0.09150552214452404</v>
       </c>
       <c r="LT2">
-        <v>-0.1817592984995302</v>
+        <v>-0.09313418052269291</v>
       </c>
       <c r="LU2">
-        <v>-0.183543824678732</v>
+        <v>-0.09409931963704769</v>
       </c>
       <c r="LV2">
-        <v>-0.1836804356114597</v>
+        <v>-0.09440854073373921</v>
       </c>
       <c r="LW2">
-        <v>-0.1827109072157329</v>
+        <v>-0.09240568894019036</v>
       </c>
       <c r="LX2">
-        <v>-0.1758459662035512</v>
+        <v>-0.09075010059486834</v>
       </c>
       <c r="LY2">
-        <v>-0.1779833510198344</v>
+        <v>-0.09153606077320514</v>
       </c>
       <c r="LZ2">
-        <v>-0.1817874560195375</v>
+        <v>-0.09317648772543183</v>
       </c>
       <c r="MA2">
-        <v>-0.1837226059655254</v>
+        <v>-0.09416058367761988</v>
       </c>
       <c r="MB2">
-        <v>-0.1838443288731332</v>
+        <v>-0.0946242292216902</v>
       </c>
       <c r="MC2">
-        <v>-0.1837623908037559</v>
+        <v>-0.09446007664166396</v>
       </c>
       <c r="MD2">
-        <v>-0.1827503135310285</v>
+        <v>-0.09240942570746626</v>
       </c>
       <c r="ME2">
-        <v>-0.1758481436088842</v>
+        <v>-0.09075226041995166</v>
       </c>
       <c r="MF2">
-        <v>-0.1780092993445695</v>
+        <v>-0.09159848714545871</v>
       </c>
       <c r="MG2">
-        <v>-0.1817952735088684</v>
+        <v>-0.09317549282162844</v>
       </c>
       <c r="MH2">
-        <v>-0.1817946379235687</v>
+        <v>-0.09319327342708031</v>
       </c>
       <c r="MI2">
-        <v>-0.1839267316138178</v>
+        <v>-0.09473267564669312</v>
       </c>
       <c r="MJ2">
-        <v>-0.1838326046329463</v>
+        <v>-0.09450422894657742</v>
       </c>
       <c r="MK2">
-        <v>-0.182783351733936</v>
+        <v>-0.09241255859477697</v>
       </c>
       <c r="ML2">
-        <v>-0.1758489000386346</v>
+        <v>-0.09075301074231905</v>
       </c>
       <c r="MM2">
-        <v>-0.1818069709653676</v>
+        <v>-0.09317400413588922</v>
       </c>
       <c r="MN2">
-        <v>-0.181795637939016</v>
+        <v>-0.09319561069064559</v>
       </c>
       <c r="MO2">
-        <v>-0.1839344001553269</v>
+        <v>-0.09474276792406236</v>
       </c>
       <c r="MP2">
-        <v>-0.1838819947550369</v>
+        <v>-0.0945352866022718</v>
       </c>
       <c r="MQ2">
-        <v>-0.1828131627751008</v>
+        <v>-0.09241538545205304</v>
       </c>
       <c r="MR2">
-        <v>-0.1758494699082161</v>
+        <v>-0.09075357601079341</v>
       </c>
       <c r="MS2">
-        <v>-0.1817967240270606</v>
+        <v>-0.09319814912705254</v>
       </c>
       <c r="MT2">
-        <v>-0.1839375671752058</v>
+        <v>-0.09474693592237332</v>
       </c>
       <c r="MU2">
-        <v>-0.1839444016664703</v>
+        <v>-0.09457452933574345</v>
       </c>
       <c r="MV2">
-        <v>-0.1828378355396217</v>
+        <v>-0.09241772506032186</v>
       </c>
       <c r="MW2">
-        <v>-0.1758498868510671</v>
+        <v>-0.09075398958726133</v>
       </c>
       <c r="MX2">
-        <v>-0.1817976753629962</v>
+        <v>-0.09320037261830538</v>
       </c>
       <c r="MY2">
-        <v>-0.1839398018387816</v>
+        <v>-0.09474987688201383</v>
       </c>
       <c r="MZ2">
-        <v>-0.1839835061532816</v>
+        <v>-0.09459911892797264</v>
       </c>
       <c r="NA2">
-        <v>-0.1828664575135855</v>
+        <v>-0.092420439145939</v>
       </c>
       <c r="NB2">
-        <v>-0.175850098577077</v>
+        <v>-0.09075419960380381</v>
       </c>
       <c r="NC2">
-        <v>-0.1817986861582733</v>
+        <v>-0.09320273508114545</v>
       </c>
       <c r="ND2">
-        <v>-0.1839420875547498</v>
+        <v>-0.09475288503083519</v>
       </c>
       <c r="NE2">
-        <v>-0.1840435565461357</v>
+        <v>-0.09463687952099611</v>
       </c>
       <c r="NF2">
-        <v>-0.1828979151955157</v>
+        <v>-0.09242342211761134</v>
       </c>
       <c r="NG2">
-        <v>-0.1758504098593457</v>
+        <v>-0.09075450837279278</v>
       </c>
       <c r="NH2">
-        <v>-0.1818001287809778</v>
+        <v>-0.09320610682727862</v>
       </c>
       <c r="NI2">
-        <v>-0.1839447845394212</v>
+        <v>-0.094756434436921</v>
       </c>
       <c r="NJ2">
-        <v>-0.1841034212497607</v>
+        <v>-0.09467452316295014</v>
       </c>
       <c r="NK2">
-        <v>-0.183069413807238</v>
+        <v>-0.09243968426122663</v>
       </c>
       <c r="NL2">
-        <v>-0.1758509316703221</v>
+        <v>-0.09075502597069075</v>
       </c>
       <c r="NM2">
-        <v>-0.1818018825557104</v>
+        <v>-0.09321020581233865</v>
       </c>
       <c r="NN2">
-        <v>-0.1839481865977556</v>
+        <v>-0.09476091176747292</v>
       </c>
       <c r="NO2">
-        <v>-0.1841705931000631</v>
+        <v>-0.09471676140402641</v>
       </c>
       <c r="NP2">
-        <v>-0.184285177040735</v>
+        <v>-0.09334841161783022</v>
       </c>
       <c r="NQ2">
-        <v>-0.1831048301798656</v>
+        <v>-0.0920763780285849</v>
       </c>
       <c r="NR2">
-        <v>-0.1758532591763159</v>
+        <v>-0.09075733468447375</v>
       </c>
       <c r="NS2">
-        <v>-0.1818127530698602</v>
+        <v>-0.09323561286431252</v>
       </c>
       <c r="NT2">
-        <v>-0.1839512334765934</v>
+        <v>-0.09476492166051592</v>
       </c>
       <c r="NU2">
-        <v>-0.1842192021948833</v>
+        <v>-0.0947473270772219</v>
       </c>
       <c r="NV2">
-        <v>-0.1854497972396233</v>
+        <v>-0.09421887751262197</v>
       </c>
       <c r="NW2">
-        <v>-0.183322304021604</v>
+        <v>-0.08984694621348412</v>
       </c>
       <c r="NX2">
-        <v>-0.1831048301798364</v>
+        <v>-0.09207637802857055</v>
       </c>
       <c r="NY2">
-        <v>-0.1758618150725145</v>
+        <v>-0.0907658215002476</v>
       </c>
       <c r="NZ2">
-        <v>-0.1818499497993859</v>
+        <v>-0.09332255199254101</v>
       </c>
       <c r="OA2">
-        <v>-0.1839536443981384</v>
+        <v>-0.09476809459316547</v>
       </c>
       <c r="OB2">
-        <v>-0.1842771410677722</v>
+        <v>-0.09478375920682795</v>
       </c>
       <c r="OC2">
-        <v>-0.1855016472844844</v>
+        <v>-0.09425763073420833</v>
       </c>
       <c r="OD2">
-        <v>-0.1834017906867997</v>
+        <v>-0.08903270924534304</v>
       </c>
       <c r="OE2">
-        <v>-0.1831048301796792</v>
+        <v>-0.09207637802849397</v>
       </c>
       <c r="OF2">
-        <v>-0.1839577821256778</v>
+        <v>-0.09477354011959799</v>
       </c>
       <c r="OG2">
-        <v>-0.1843612119811548</v>
+        <v>-0.09483662292772851</v>
       </c>
       <c r="OH2">
-        <v>-0.18589611862352</v>
+        <v>-0.09435787242012041</v>
       </c>
       <c r="OI2">
-        <v>-0.1862197896828056</v>
+        <v>-0.09490887146387816</v>
       </c>
       <c r="OJ2">
-        <v>-0.1834098815492711</v>
+        <v>-0.08894984753756958</v>
       </c>
       <c r="OK2">
-        <v>-0.1831048301796683</v>
+        <v>-0.0920763780284881</v>
       </c>
       <c r="OL2">
-        <v>-0.183972226547682</v>
+        <v>-0.09479254997138563</v>
       </c>
       <c r="OM2">
-        <v>-0.18442354220924</v>
+        <v>-0.09487581588612778</v>
       </c>
       <c r="ON2">
-        <v>-0.1859322659356656</v>
+        <v>-0.09436705737660442</v>
       </c>
       <c r="OO2">
-        <v>-0.1865662795509127</v>
+        <v>-0.09522308050257046</v>
       </c>
       <c r="OP2">
-        <v>-0.1834155279304891</v>
+        <v>-0.08889202276030533</v>
       </c>
       <c r="OQ2">
-        <v>-0.1831048301796643</v>
+        <v>-0.09207637802848616</v>
       </c>
       <c r="OR2">
-        <v>-0.1840605364760453</v>
+        <v>-0.09490877276605988</v>
       </c>
       <c r="OS2">
-        <v>-0.1844836712669127</v>
+        <v>-0.09491362456709518</v>
       </c>
       <c r="OT2">
-        <v>-0.1859528152021705</v>
+        <v>-0.09437227885192477</v>
       </c>
       <c r="OU2">
-        <v>-0.1876116909833994</v>
+        <v>-0.09617108773484899</v>
       </c>
       <c r="OV2">
-        <v>-0.1865662795510089</v>
+        <v>-0.09522308050267275</v>
       </c>
       <c r="OW2">
-        <v>-0.1834213770950991</v>
+        <v>-0.0888321230361768</v>
       </c>
       <c r="OX2">
-        <v>-0.1831048301796628</v>
+        <v>-0.09207637802848469</v>
       </c>
       <c r="OY2">
-        <v>-0.18454252095666</v>
+        <v>-0.09495062860925749</v>
       </c>
       <c r="OZ2">
-        <v>-0.1859667687577057</v>
+        <v>-0.09437582436622577</v>
       </c>
       <c r="PA2">
-        <v>-0.1891008894305068</v>
+        <v>-0.09752151186684366</v>
       </c>
       <c r="PB2">
-        <v>-0.1865662795510331</v>
+        <v>-0.09522308050269546</v>
       </c>
       <c r="PC2">
-        <v>-0.1834459403434104</v>
+        <v>-0.08858059700860438</v>
       </c>
       <c r="PD2">
-        <v>-0.1831048301796583</v>
+        <v>-0.09207637802848299</v>
       </c>
       <c r="PE2">
-        <v>-0.1846132985128327</v>
+        <v>-0.09499513252473252</v>
       </c>
       <c r="PF2">
-        <v>-0.1859895095506064</v>
+        <v>-0.09438160262847338</v>
       </c>
       <c r="PG2">
-        <v>-0.1894125622720803</v>
+        <v>-0.09780413763250015</v>
       </c>
       <c r="PH2">
-        <v>-0.1865662795510475</v>
+        <v>-0.09522308050271121</v>
       </c>
       <c r="PI2">
-        <v>-0.1834519381542727</v>
+        <v>-0.08851918463410362</v>
       </c>
       <c r="PJ2">
-        <v>-0.1831048301796095</v>
+        <v>-0.09207637802846051</v>
       </c>
       <c r="PK2">
-        <v>-0.1847318426018562</v>
+        <v>-0.09506967076897949</v>
       </c>
       <c r="PL2">
-        <v>-0.1846132985128327</v>
+        <v>-0.09499513252473252</v>
       </c>
       <c r="PM2">
-        <v>-0.1860651030321289</v>
+        <v>-0.09440081003500531</v>
       </c>
       <c r="PN2">
-        <v>-0.1894922245067063</v>
+        <v>-0.09787637538538559</v>
       </c>
       <c r="PO2">
-        <v>-0.1865662795510579</v>
+        <v>-0.09522308050272069</v>
       </c>
       <c r="PP2">
-        <v>-0.1834576594285127</v>
+        <v>-0.08846060551352607</v>
       </c>
       <c r="PQ2">
-        <v>-0.183104830179592</v>
+        <v>-0.09207637802845207</v>
       </c>
       <c r="PR2">
-        <v>-0.1851317264817249</v>
+        <v>-0.09532110466886744</v>
       </c>
       <c r="PS2">
-        <v>-0.1847318426018562</v>
+        <v>-0.09506967076897949</v>
       </c>
       <c r="PT2">
-        <v>-0.1861492653424406</v>
+        <v>-0.09442219409811692</v>
       </c>
       <c r="PU2">
-        <v>-0.1895339587698476</v>
+        <v>-0.09791422000704873</v>
       </c>
       <c r="PV2">
-        <v>-0.1865662795510668</v>
+        <v>-0.09522308050273115</v>
       </c>
       <c r="PW2">
-        <v>-0.1834633495991835</v>
+        <v>-0.08840234656040682</v>
       </c>
       <c r="PX2">
-        <v>-0.1831048301795861</v>
+        <v>-0.09207637802844922</v>
       </c>
       <c r="PY2">
-        <v>-0.1856974354714183</v>
+        <v>-0.09567678975434959</v>
       </c>
       <c r="PZ2">
-        <v>-0.1851317264817249</v>
+        <v>-0.09532110466886744</v>
       </c>
       <c r="QA2">
-        <v>-0.1861965993151654</v>
+        <v>-0.09443422050299878</v>
       </c>
       <c r="QB2">
-        <v>-0.1895685561753781</v>
+        <v>-0.09794559291285794</v>
       </c>
       <c r="QC2">
-        <v>-0.1865662795510714</v>
+        <v>-0.09522308050273526</v>
       </c>
       <c r="QD2">
-        <v>-0.1834698769765264</v>
+        <v>-0.08833551793816592</v>
       </c>
       <c r="QE2">
-        <v>-0.1831048301795771</v>
+        <v>-0.09207637802844174</v>
       </c>
       <c r="QF2">
-        <v>-0.1861034467849239</v>
+        <v>-0.09593205591162612</v>
       </c>
       <c r="QG2">
-        <v>-0.1856974354714183</v>
+        <v>-0.09567678975434959</v>
       </c>
       <c r="QH2">
-        <v>-0.1862410654946401</v>
+        <v>-0.09444551809533427</v>
       </c>
       <c r="QI2">
-        <v>-0.1895965955738636</v>
+        <v>-0.09797101901213655</v>
       </c>
       <c r="QJ2">
-        <v>-0.1865662795510791</v>
+        <v>-0.0952230805027395</v>
       </c>
       <c r="QK2">
-        <v>-0.183492419038731</v>
+        <v>-0.08810474489075497</v>
       </c>
       <c r="QL2">
-        <v>-0.1831048301795715</v>
+        <v>-0.09207637802843364</v>
       </c>
       <c r="QM2">
-        <v>-0.1862266441898807</v>
+        <v>-0.09600951050021893</v>
       </c>
       <c r="QN2">
-        <v>-0.1861034467849239</v>
+        <v>-0.09593205591162612</v>
       </c>
       <c r="QO2">
-        <v>-0.1862834907405608</v>
+        <v>-0.09445629698514947</v>
       </c>
       <c r="QP2">
-        <v>-0.1896394559442293</v>
+        <v>-0.09800988473731724</v>
       </c>
       <c r="QQ2">
-        <v>-0.1865662795510825</v>
+        <v>-0.09522308050273713</v>
       </c>
       <c r="QR2">
-        <v>-0.1836022742496729</v>
+        <v>-0.08698048995961544</v>
       </c>
       <c r="QS2">
-        <v>-0.1831048301795686</v>
+        <v>-0.09207637802842562</v>
       </c>
       <c r="QT2">
-        <v>-0.1865780085037758</v>
+        <v>-0.09622514877430975</v>
       </c>
       <c r="QU2">
-        <v>-0.1862266441898808</v>
+        <v>-0.09600951050021896</v>
       </c>
       <c r="QV2">
-        <v>-0.1861981346836712</v>
+        <v>-0.09598161563359239</v>
       </c>
       <c r="QW2">
-        <v>-0.1863531484461921</v>
+        <v>-0.09447399442927601</v>
       </c>
       <c r="QX2">
-        <v>-0.1896780941421906</v>
+        <v>-0.09804492178472976</v>
       </c>
       <c r="QY2">
-        <v>-0.1865662795510847</v>
+        <v>-0.09522308050273774</v>
       </c>
       <c r="QZ2">
-        <v>-0.1831048301795648</v>
+        <v>-0.09207637802841902</v>
       </c>
       <c r="RA2">
-        <v>-0.1869684484544508</v>
+        <v>-0.09646476080137865</v>
       </c>
       <c r="RB2">
-        <v>-0.1865780085037758</v>
+        <v>-0.09622514877430974</v>
       </c>
       <c r="RC2">
-        <v>-0.1865780085037758</v>
+        <v>-0.09622514877430975</v>
       </c>
       <c r="RD2">
-        <v>-0.1861939711725738</v>
+        <v>-0.09597754188413941</v>
       </c>
       <c r="RE2">
-        <v>-0.1864016676705425</v>
+        <v>-0.09448632112011389</v>
       </c>
       <c r="RF2">
-        <v>-0.1897148683820567</v>
+        <v>-0.09807826858283662</v>
       </c>
       <c r="RG2">
-        <v>-0.1865662795510841</v>
+        <v>-0.09522308050274009</v>
       </c>
       <c r="RH2">
-        <v>-0.1831048301795453</v>
+        <v>-0.09207637802838729</v>
       </c>
       <c r="RI2">
-        <v>-0.1871115400016027</v>
+        <v>-0.096552573716506</v>
       </c>
       <c r="RJ2">
-        <v>-0.1869684484544508</v>
+        <v>-0.09646476080137865</v>
       </c>
       <c r="RK2">
-        <v>-0.1861917009133773</v>
+        <v>-0.09597532056974578</v>
       </c>
       <c r="RL2">
-        <v>-0.1864357589883482</v>
+        <v>-0.09449498216602992</v>
       </c>
       <c r="RM2">
-        <v>-0.1897562970322081</v>
+        <v>-0.09811583597160881</v>
       </c>
       <c r="RN2">
-        <v>-0.1865662795510837</v>
+        <v>-0.09522308050273479</v>
       </c>
       <c r="RO2">
-        <v>-0.1831048301795452</v>
+        <v>-0.09207637802838618</v>
       </c>
       <c r="RP2">
-        <v>-0.1873790060585688</v>
+        <v>-0.09670223278455346</v>
       </c>
       <c r="RQ2">
-        <v>-0.1871115400016027</v>
+        <v>-0.096552573716506</v>
       </c>
       <c r="RR2">
-        <v>-0.1871392567719504</v>
+        <v>-0.09658305788172108</v>
       </c>
       <c r="RS2">
-        <v>-0.1861901629886437</v>
+        <v>-0.0959738158013267</v>
       </c>
       <c r="RT2">
-        <v>-0.1864520482108426</v>
+        <v>-0.09449912047760092</v>
       </c>
       <c r="RU2">
-        <v>-0.1898000592916681</v>
+        <v>-0.09815551945018283</v>
       </c>
       <c r="RV2">
-        <v>-0.1865662795510849</v>
+        <v>-0.09522308050272033</v>
       </c>
       <c r="RW2">
-        <v>-0.1831048301795469</v>
+        <v>-0.09207637802838553</v>
       </c>
       <c r="RX2">
-        <v>-0.1877623982041437</v>
+        <v>-0.09691675079485423</v>
       </c>
       <c r="RY2">
-        <v>-0.1873790060585688</v>
+        <v>-0.09670223278455346</v>
       </c>
       <c r="RZ2">
-        <v>-0.187136535297297</v>
+        <v>-0.09658036086387169</v>
       </c>
       <c r="SA2">
-        <v>-0.1871694182027719</v>
+        <v>-0.09661414371862691</v>
       </c>
       <c r="SB2">
-        <v>-0.1861878269763259</v>
+        <v>-0.0959715301513982</v>
       </c>
       <c r="SC2">
-        <v>-0.1864623670493262</v>
+        <v>-0.09450174198856981</v>
       </c>
       <c r="SD2">
-        <v>-0.189895745281123</v>
+        <v>-0.09824228712839025</v>
       </c>
       <c r="SE2">
-        <v>-0.1865662795510884</v>
+        <v>-0.09522308050270926</v>
       </c>
       <c r="SF2">
-        <v>-0.1831048301795453</v>
+        <v>-0.09207637802838553</v>
       </c>
       <c r="SG2">
-        <v>-0.1879963986033491</v>
+        <v>-0.09704767623576602</v>
       </c>
       <c r="SH2">
-        <v>-0.1877623982041437</v>
+        <v>-0.09691675079485423</v>
       </c>
       <c r="SI2">
-        <v>-0.187135384994161</v>
+        <v>-0.0965792208980535</v>
       </c>
       <c r="SJ2">
-        <v>-0.1871887184711347</v>
+        <v>-0.09663403551888294</v>
       </c>
       <c r="SK2">
-        <v>-0.1861842818392177</v>
+        <v>-0.09596806144436019</v>
       </c>
       <c r="SL2">
-        <v>-0.1864693438828978</v>
+        <v>-0.09450351445472066</v>
       </c>
       <c r="SM2">
-        <v>-0.1920662918418332</v>
+        <v>-0.1002105026860131</v>
       </c>
       <c r="SN2">
-        <v>-0.1865662795510925</v>
+        <v>-0.09522308050270782</v>
       </c>
       <c r="SO2">
-        <v>-0.1831048301795453</v>
+        <v>-0.09207637802838553</v>
       </c>
       <c r="SP2">
-        <v>-0.188036698079345</v>
+        <v>-0.09707022387228137</v>
       </c>
       <c r="SQ2">
-        <v>-0.1879963986033491</v>
+        <v>-0.09704767623576602</v>
       </c>
       <c r="SR2">
-        <v>-0.1871347090985097</v>
+        <v>-0.0965785510764107</v>
       </c>
       <c r="SS2">
-        <v>-0.186181766675823</v>
+        <v>-0.09596560050570384</v>
       </c>
       <c r="ST2">
-        <v>-0.1864790757587376</v>
+        <v>-0.09450598683296052</v>
       </c>
       <c r="SU2">
-        <v>-0.1920713665333312</v>
+        <v>-0.1002601432298168</v>
       </c>
       <c r="SV2">
-        <v>-0.1923990278981768</v>
+        <v>-0.1005032409879039</v>
       </c>
       <c r="SW2">
-        <v>-0.1865662795510935</v>
+        <v>-0.09522308050270691</v>
       </c>
       <c r="SX2">
-        <v>-0.1881367166154673</v>
+        <v>-0.09714448060048995</v>
       </c>
       <c r="SY2">
-        <v>-0.188036698079345</v>
+        <v>-0.09707022387228138</v>
       </c>
       <c r="SZ2">
-        <v>-0.1877748289321726</v>
+        <v>-0.09674590263526553</v>
       </c>
       <c r="TA2">
-        <v>-0.1871340870710465</v>
+        <v>-0.09657793463886463</v>
       </c>
       <c r="TB2">
-        <v>-0.1861800482836033</v>
+        <v>-0.09596391916053165</v>
       </c>
       <c r="TC2">
-        <v>-0.1864865032319924</v>
+        <v>-0.0945078737733567</v>
       </c>
       <c r="TD2">
-        <v>-0.1920758417336852</v>
+        <v>-0.1003039203990205</v>
       </c>
       <c r="TE2">
-        <v>-0.1925785362793837</v>
+        <v>-0.1006611702657826</v>
       </c>
       <c r="TF2">
-        <v>-0.1865662795510966</v>
+        <v>-0.09522308050270394</v>
       </c>
       <c r="TG2">
-        <v>-0.1882103435742045</v>
+        <v>-0.09719914317218194</v>
       </c>
       <c r="TH2">
-        <v>-0.1881367166154673</v>
+        <v>-0.09714448060048995</v>
       </c>
       <c r="TI2">
-        <v>-0.1876200686465909</v>
+        <v>-0.09655423889845663</v>
       </c>
       <c r="TJ2">
-        <v>-0.18713353289682</v>
+        <v>-0.09657738544478592</v>
       </c>
       <c r="TK2">
-        <v>-0.1861786904149562</v>
+        <v>-0.09596259056635596</v>
       </c>
       <c r="TL2">
-        <v>-0.1865395080533719</v>
+        <v>-0.09452133944427268</v>
       </c>
       <c r="TM2">
-        <v>-0.1926053452092598</v>
+        <v>-0.1006847563957209</v>
       </c>
       <c r="TN2">
-        <v>-0.1865662795511015</v>
+        <v>-0.09522308050269938</v>
       </c>
       <c r="TO2">
-        <v>-0.1883105886784417</v>
+        <v>-0.09727356738490234</v>
       </c>
       <c r="TP2">
-        <v>-0.1882103435742045</v>
+        <v>-0.09719914317218194</v>
       </c>
       <c r="TQ2">
-        <v>-0.1874974362638955</v>
+        <v>-0.09640236661560363</v>
       </c>
       <c r="TR2">
-        <v>-0.1871329580039724</v>
+        <v>-0.09657681571827761</v>
       </c>
       <c r="TS2">
-        <v>-0.1861743367175292</v>
+        <v>-0.09595833073087938</v>
       </c>
       <c r="TT2">
-        <v>-0.1865485344485504</v>
+        <v>-0.09454587250948315</v>
       </c>
       <c r="TU2">
-        <v>-0.1870560648761982</v>
+        <v>-0.09458796654526326</v>
       </c>
       <c r="TV2">
-        <v>-0.1926258095191224</v>
+        <v>-0.1007027606089718</v>
       </c>
       <c r="TW2">
-        <v>-0.1865662795511004</v>
+        <v>-0.09522308050269447</v>
       </c>
       <c r="TX2">
-        <v>-0.188381529107121</v>
+        <v>-0.09732623489631829</v>
       </c>
       <c r="TY2">
-        <v>-0.1883105886784417</v>
+        <v>-0.09727356738490234</v>
       </c>
       <c r="TZ2">
-        <v>-0.1874467614051077</v>
+        <v>-0.09633960971569547</v>
       </c>
       <c r="UA2">
-        <v>-0.1871312224949779</v>
+        <v>-0.09657509580563109</v>
       </c>
       <c r="UB2">
-        <v>-0.1861391212572406</v>
+        <v>-0.09592387448596051</v>
       </c>
       <c r="UC2">
-        <v>-0.1865585016939847</v>
+        <v>-0.09457296293675956</v>
       </c>
       <c r="UD2">
-        <v>-0.1926449489898847</v>
+        <v>-0.1007195992420405</v>
       </c>
       <c r="UE2">
-        <v>-0.1865662795510989</v>
+        <v>-0.09522308050269061</v>
       </c>
       <c r="UF2">
-        <v>-0.188579923067817</v>
+        <v>-0.09747352519816489</v>
       </c>
       <c r="UG2">
-        <v>-0.188381529107121</v>
+        <v>-0.09732623489631829</v>
       </c>
       <c r="UH2">
-        <v>-0.1874471094173568</v>
+        <v>-0.09633837555263113</v>
       </c>
       <c r="UI2">
-        <v>-0.1872324260403777</v>
+        <v>-0.09609607929040581</v>
       </c>
       <c r="UJ2">
-        <v>-0.187129473518468</v>
+        <v>-0.09657336254650117</v>
       </c>
       <c r="UK2">
-        <v>-0.1861373675374425</v>
+        <v>-0.09592215857489454</v>
       </c>
       <c r="UL2">
-        <v>-0.1865855187864154</v>
+        <v>-0.09464639497873967</v>
       </c>
       <c r="UM2">
-        <v>-0.1926653589074445</v>
+        <v>-0.1007375555904255</v>
       </c>
       <c r="UN2">
-        <v>-0.1865662795510999</v>
+        <v>-0.09522308050268764</v>
       </c>
       <c r="UO2">
-        <v>-0.1887235851543743</v>
+        <v>-0.09758018080778558</v>
       </c>
       <c r="UP2">
-        <v>-0.188579923067817</v>
+        <v>-0.09747352519816489</v>
       </c>
       <c r="UQ2">
-        <v>-0.1874472374755924</v>
+        <v>-0.09633792141728956</v>
       </c>
       <c r="UR2">
-        <v>-0.1870702704387375</v>
+        <v>-0.09591183853839426</v>
       </c>
       <c r="US2">
-        <v>-0.1871131317297386</v>
+        <v>-0.09655716761533309</v>
       </c>
       <c r="UT2">
-        <v>-0.1861359837896691</v>
+        <v>-0.09592080465956654</v>
       </c>
       <c r="UU2">
-        <v>-0.1926834192450643</v>
+        <v>-0.1007534448077333</v>
       </c>
       <c r="UV2">
-        <v>-0.1865662795510999</v>
+        <v>-0.09522308050268767</v>
       </c>
       <c r="UW2">
-        <v>-0.1887397599570831</v>
+        <v>-0.09759430391055895</v>
       </c>
       <c r="UX2">
-        <v>-0.1887235851543743</v>
+        <v>-0.09758018080778559</v>
       </c>
       <c r="UY2">
-        <v>-0.1888414976192754</v>
+        <v>-0.09765181778116293</v>
       </c>
       <c r="UZ2">
-        <v>-0.1874474282281244</v>
+        <v>-0.09633724494820189</v>
       </c>
       <c r="VA2">
-        <v>-0.1861344194234954</v>
+        <v>-0.09591927401982234</v>
       </c>
       <c r="VB2">
-        <v>-0.1927018918134745</v>
+        <v>-0.100769696694866</v>
       </c>
       <c r="VC2">
-        <v>-0.1887435898617463</v>
+        <v>-0.09759764800835839</v>
       </c>
       <c r="VD2">
-        <v>-0.1887397599570831</v>
+        <v>-0.09759430391055894</v>
       </c>
       <c r="VE2">
-        <v>-0.188856404275882</v>
+        <v>-0.09766087411864034</v>
       </c>
       <c r="VF2">
-        <v>-0.1874475430084274</v>
+        <v>-0.09633683790090629</v>
       </c>
       <c r="VG2">
-        <v>-0.1861330270865283</v>
+        <v>-0.09591791170047984</v>
       </c>
       <c r="VH2">
-        <v>-0.1927972348098289</v>
+        <v>-0.1008535779495965</v>
       </c>
       <c r="VI2">
-        <v>-0.1888474183112048</v>
+        <v>-0.09768830613278091</v>
       </c>
       <c r="VJ2">
-        <v>-0.1887435898617462</v>
+        <v>-0.09759764800835838</v>
       </c>
       <c r="VK2">
-        <v>-0.1887435898617117</v>
+        <v>-0.09759764800831436</v>
       </c>
       <c r="VL2">
-        <v>-0.1888674044648274</v>
+        <v>-0.09766755711907164</v>
       </c>
       <c r="VM2">
-        <v>-0.1874476815061069</v>
+        <v>-0.09633634674441642</v>
       </c>
       <c r="VN2">
-        <v>-0.1861314245049184</v>
+        <v>-0.09591634366919674</v>
       </c>
       <c r="VO2">
-        <v>-0.1928382620046842</v>
+        <v>-0.100895162614355</v>
       </c>
       <c r="VP2">
-        <v>-0.1929969472893669</v>
+        <v>-0.1010284860302213</v>
       </c>
       <c r="VQ2">
-        <v>-0.1889201841838997</v>
+        <v>-0.09775184171942848</v>
       </c>
       <c r="VR2">
-        <v>-0.1888474183112048</v>
+        <v>-0.09768830613278091</v>
       </c>
       <c r="VS2">
-        <v>-0.1887435898617008</v>
+        <v>-0.09759764800829641</v>
       </c>
       <c r="VT2">
-        <v>-0.1888781077860711</v>
+        <v>-0.09767405974934111</v>
       </c>
       <c r="VU2">
-        <v>-0.1874478031130816</v>
+        <v>-0.09633591548782337</v>
       </c>
       <c r="VV2">
-        <v>-0.1861297813114601</v>
+        <v>-0.09591473590162339</v>
       </c>
       <c r="VW2">
-        <v>-0.1928406263070236</v>
+        <v>-0.1008975590427239</v>
       </c>
       <c r="VX2">
-        <v>-0.1939513917883104</v>
+        <v>-0.1018643800929634</v>
       </c>
       <c r="VY2">
-        <v>-0.1889619921657985</v>
+        <v>-0.09781133609264839</v>
       </c>
       <c r="VZ2">
-        <v>-0.1889325222108205</v>
+        <v>-0.09775988701767399</v>
       </c>
       <c r="WA2">
-        <v>-0.1887435898616938</v>
+        <v>-0.09759764800828412</v>
       </c>
       <c r="WB2">
-        <v>-0.1889786535303642</v>
+        <v>-0.09773514408746012</v>
       </c>
       <c r="WC2">
-        <v>-0.1874485988715529</v>
+        <v>-0.09633309348063669</v>
       </c>
       <c r="WD2">
-        <v>-0.1861278061967354</v>
+        <v>-0.09591280336873279</v>
       </c>
       <c r="WE2">
-        <v>-0.192841813748245</v>
+        <v>-0.1008987626188543</v>
       </c>
       <c r="WF2">
-        <v>-0.1940393372894259</v>
+        <v>-0.1019515354752279</v>
       </c>
       <c r="WG2">
-        <v>-0.1950368234853212</v>
+        <v>-0.1028107156636327</v>
       </c>
       <c r="WH2">
-        <v>-0.1889992761994486</v>
+        <v>-0.09786439290661404</v>
       </c>
       <c r="WI2">
-        <v>-0.1889619921657985</v>
+        <v>-0.09781133609264839</v>
       </c>
       <c r="WJ2">
-        <v>-0.1889619921657985</v>
+        <v>-0.09781133609264839</v>
       </c>
       <c r="WK2">
-        <v>-0.1891952153225515</v>
+        <v>-0.09793112114391368</v>
       </c>
       <c r="WL2">
-        <v>-0.1889325222108205</v>
+        <v>-0.09775988701767399</v>
       </c>
       <c r="WM2">
-        <v>-0.1887435898616905</v>
+        <v>-0.09759764800826927</v>
       </c>
       <c r="WN2">
-        <v>-0.1890254499955877</v>
+        <v>-0.09776357386784668</v>
       </c>
       <c r="WO2">
-        <v>-0.1874544663996493</v>
+        <v>-0.0963122855486844</v>
       </c>
       <c r="WP2">
-        <v>-0.1861265679389714</v>
+        <v>-0.09591159180677969</v>
       </c>
       <c r="WQ2">
-        <v>-0.1928428094825934</v>
+        <v>-0.1008997718832121</v>
       </c>
       <c r="WR2">
-        <v>-0.1940857478086724</v>
+        <v>-0.1019975290213701</v>
       </c>
       <c r="WS2">
-        <v>-0.1960766359162864</v>
+        <v>-0.1037172617020123</v>
       </c>
       <c r="WT2">
-        <v>-0.1890336581423605</v>
+        <v>-0.09791332509108062</v>
       </c>
       <c r="WU2">
-        <v>-0.1889992761994487</v>
+        <v>-0.09786439290661407</v>
       </c>
       <c r="WV2">
-        <v>-0.1889992761994486</v>
+        <v>-0.09786439290661404</v>
       </c>
       <c r="WW2">
-        <v>-0.1892570499200048</v>
+        <v>-0.09797142642851213</v>
       </c>
       <c r="WX2">
-        <v>-0.1887435898616868</v>
+        <v>-0.09759764800825801</v>
       </c>
       <c r="WY2">
-        <v>-0.1890474138210256</v>
+        <v>-0.0977769172451726</v>
       </c>
       <c r="WZ2">
-        <v>-0.1861212463103383</v>
+        <v>-0.09590638490806351</v>
       </c>
       <c r="XA2">
-        <v>-0.1928436214694469</v>
+        <v>-0.1009005949033256</v>
       </c>
       <c r="XB2">
-        <v>-0.1960866230804413</v>
+        <v>-0.1037527032261525</v>
       </c>
       <c r="XC2">
-        <v>-0.1963628566492384</v>
+        <v>-0.1039497934773348</v>
       </c>
       <c r="XD2">
-        <v>-0.1890804952393017</v>
+        <v>-0.09797998397120211</v>
       </c>
       <c r="XE2">
-        <v>-0.188743589861681</v>
+        <v>-0.09759764800824637</v>
       </c>
       <c r="XF2">
-        <v>-0.1890620641542514</v>
+        <v>-0.0977858175291651</v>
       </c>
       <c r="XG2">
-        <v>-0.1860988107214185</v>
+        <v>-0.0958844330121375</v>
       </c>
       <c r="XH2">
-        <v>-0.1928448960521834</v>
+        <v>-0.100901886805077</v>
       </c>
       <c r="XI2">
-        <v>-0.1960890719679207</v>
+        <v>-0.1037613936743031</v>
       </c>
       <c r="XJ2">
-        <v>-0.1964287090077586</v>
+        <v>-0.1040032930931713</v>
       </c>
       <c r="XK2">
-        <v>-0.1890942332977003</v>
+        <v>-0.09799953620031973</v>
       </c>
       <c r="XL2">
-        <v>-0.1887435898616723</v>
+        <v>-0.09759764800823667</v>
       </c>
       <c r="XM2">
-        <v>-0.1890844619752564</v>
+        <v>-0.09779942447612311</v>
       </c>
       <c r="XN2">
-        <v>-0.1928479353714083</v>
+        <v>-0.1009049674225768</v>
       </c>
       <c r="XO2">
-        <v>-0.1960907535527925</v>
+        <v>-0.1037673611845836</v>
       </c>
       <c r="XP2">
-        <v>-0.1964613883376866</v>
+        <v>-0.1040298423240347</v>
       </c>
       <c r="XQ2">
-        <v>-0.1891397044056407</v>
+        <v>-0.09806425184267661</v>
       </c>
       <c r="XR2">
-        <v>-0.1887435898616624</v>
+        <v>-0.0975976480082295</v>
       </c>
       <c r="XS2">
-        <v>-0.1891282053153654</v>
+        <v>-0.09782599892669276</v>
       </c>
       <c r="XT2">
-        <v>-0.1928500380906087</v>
+        <v>-0.1009070987135646</v>
       </c>
       <c r="XU2">
-        <v>-0.1960930845956028</v>
+        <v>-0.1037756334725996</v>
       </c>
       <c r="XV2">
-        <v>-0.1964973005465298</v>
+        <v>-0.1040590179747459</v>
       </c>
       <c r="XW2">
-        <v>-0.1887435898616555</v>
+        <v>-0.09759764800822582</v>
       </c>
       <c r="XX2">
-        <v>-0.1891402972510818</v>
+        <v>-0.09783334484363197</v>
       </c>
       <c r="XY2">
-        <v>-0.1928527116882482</v>
+        <v>-0.1009098086401412</v>
       </c>
       <c r="XZ2">
-        <v>-0.1960986122044418</v>
+        <v>-0.1037952496637163</v>
       </c>
       <c r="YA2">
-        <v>-0.1965387381219095</v>
+        <v>-0.1040926824891243</v>
       </c>
       <c r="YB2">
-        <v>-0.1887435898616486</v>
+        <v>-0.09759764800822435</v>
       </c>
       <c r="YC2">
-        <v>-0.1891438077464356</v>
+        <v>-0.09783547748573893</v>
       </c>
       <c r="YD2">
-        <v>-0.1928543358776475</v>
+        <v>-0.1009114548991058</v>
       </c>
       <c r="YE2">
-        <v>-0.1961028141071364</v>
+        <v>-0.1038101613180913</v>
       </c>
       <c r="YF2">
-        <v>-0.1965806289439429</v>
+        <v>-0.1041267151929334</v>
       </c>
       <c r="YG2">
-        <v>-0.1887435898616437</v>
+        <v>-0.09759764800822505</v>
       </c>
       <c r="YH2">
-        <v>-0.189145498635817</v>
+        <v>-0.09783679293320098</v>
       </c>
       <c r="YI2">
-        <v>-0.1891510015761166</v>
+        <v>-0.09783831680930058</v>
       </c>
       <c r="YJ2">
-        <v>-0.1928558021753073</v>
+        <v>-0.1009129411209062</v>
       </c>
       <c r="YK2">
-        <v>-0.1961057637838065</v>
+        <v>-0.1038206291335269</v>
       </c>
       <c r="YL2">
-        <v>-0.1966270706313891</v>
+        <v>-0.1041644450438238</v>
       </c>
       <c r="YM2">
-        <v>-0.1887435898616288</v>
+        <v>-0.09759764800822866</v>
       </c>
       <c r="YN2">
-        <v>-0.1891470811657379</v>
+        <v>-0.09783802408092841</v>
       </c>
       <c r="YO2">
-        <v>-0.1891604943430415</v>
+        <v>-0.09784206348887964</v>
       </c>
       <c r="YP2">
-        <v>-0.1928582751403679</v>
+        <v>-0.1009154476887993</v>
       </c>
       <c r="YQ2">
-        <v>-0.1961088538324138</v>
+        <v>-0.1038315951395358</v>
       </c>
       <c r="YR2">
-        <v>-0.1966946071342231</v>
+        <v>-0.1042193125289456</v>
       </c>
       <c r="YS2">
-        <v>-0.1887435898616208</v>
+        <v>-0.09759764800823068</v>
       </c>
       <c r="YT2">
-        <v>-0.1891487113769555</v>
+        <v>-0.09783929232267524</v>
       </c>
       <c r="YU2">
-        <v>-0.1891999321282051</v>
+        <v>-0.09785762899764182</v>
       </c>
       <c r="YV2">
-        <v>-0.1928607064022562</v>
+        <v>-0.1009179119868926</v>
       </c>
       <c r="YW2">
-        <v>-0.1961113907961419</v>
+        <v>-0.1038405983799514</v>
       </c>
       <c r="YX2">
-        <v>-0.1967111908144278</v>
+        <v>-0.1042285139042206</v>
       </c>
       <c r="YY2">
-        <v>-0.1968487578326391</v>
+        <v>-0.1043490596157867</v>
       </c>
       <c r="YZ2">
-        <v>-0.1887435898616183</v>
+        <v>-0.0975976480082309</v>
       </c>
       <c r="ZA2">
-        <v>-0.1891604982063299</v>
+        <v>-0.09784846201723654</v>
       </c>
       <c r="ZB2">
-        <v>-0.1892166806240398</v>
+        <v>-0.09786423932924229</v>
       </c>
       <c r="ZC2">
-        <v>-0.1928618567437918</v>
+        <v>-0.1009190779593867</v>
       </c>
       <c r="ZD2">
-        <v>-0.1961155913162007</v>
+        <v>-0.1038555053491265</v>
       </c>
       <c r="ZE2">
-        <v>-0.196721149403888</v>
+        <v>-0.1042340393646966</v>
       </c>
       <c r="ZF2">
-        <v>-0.1978249554784329</v>
+        <v>-0.1051707056301295</v>
       </c>
       <c r="ZG2">
-        <v>-0.1887435898616183</v>
+        <v>-0.09759764800823091</v>
       </c>
       <c r="ZH2">
-        <v>-0.1892463331179053</v>
+        <v>-0.09791523790843169</v>
       </c>
       <c r="ZI2">
-        <v>-0.1928631202386135</v>
+        <v>-0.1009203586227158</v>
       </c>
       <c r="ZJ2">
-        <v>-0.1961291662075556</v>
+        <v>-0.1039036809500745</v>
       </c>
       <c r="ZK2">
-        <v>-0.1967303874976861</v>
+        <v>-0.1042391650526185</v>
       </c>
       <c r="ZL2">
-        <v>-0.1985238007196979</v>
+        <v>-0.1057588993986929</v>
       </c>
       <c r="ZM2">
-        <v>-0.1928643329238164</v>
+        <v>-0.1009215877860301</v>
       </c>
       <c r="ZN2">
-        <v>-0.1961608859519589</v>
+        <v>-0.1040162533418705</v>
       </c>
       <c r="ZO2">
-        <v>-0.1967394014665642</v>
+        <v>-0.1042441663771329</v>
       </c>
       <c r="ZP2">
-        <v>-0.1987471592505482</v>
+        <v>-0.1059786373374295</v>
       </c>
       <c r="ZQ2">
-        <v>-0.2002841227693818</v>
+        <v>-0.1072064118117524</v>
       </c>
       <c r="ZR2">
-        <v>-0.1928657954129883</v>
+        <v>-0.1009230701476936</v>
       </c>
       <c r="ZS2">
-        <v>-0.1967461625839665</v>
+        <v>-0.1042479177199656</v>
       </c>
       <c r="ZT2">
-        <v>-0.1987608977787878</v>
+        <v>-0.1059919530985802</v>
       </c>
       <c r="ZU2">
-        <v>-0.1987671152822229</v>
+        <v>-0.1059988283761042</v>
       </c>
       <c r="ZV2">
-        <v>-0.2004449100951252</v>
+        <v>-0.1072933517692233</v>
       </c>
       <c r="ZW2">
-        <v>-0.2006197391228791</v>
+        <v>-0.1074910586919756</v>
       </c>
       <c r="ZX2">
-        <v>-0.1928681282704813</v>
+        <v>-0.1009254347043865</v>
       </c>
       <c r="ZY2">
-        <v>-0.1967569031284827</v>
+        <v>-0.1042538770000692</v>
       </c>
       <c r="ZZ2">
-        <v>-0.1987651966675053</v>
+        <v>-0.1059961196997753</v>
       </c>
       <c r="AAA2">
-        <v>-0.1988077694177646</v>
+        <v>-0.106039961271311</v>
       </c>
       <c r="AAB2">
-        <v>-0.2005380638485599</v>
+        <v>-0.1073437199685096</v>
       </c>
       <c r="AAC2">
-        <v>-0.2009655743925776</v>
+        <v>-0.1077798708065384</v>
       </c>
       <c r="AAD2">
-        <v>-0.1928745130548027</v>
+        <v>-0.1009319062462465</v>
       </c>
       <c r="AAE2">
-        <v>-0.1967750122822618</v>
+        <v>-0.1042639246471471</v>
       </c>
       <c r="AAF2">
-        <v>-0.1987679607329209</v>
+        <v>-0.1059987987078742</v>
       </c>
       <c r="AAG2">
-        <v>-0.2018779850189921</v>
+        <v>-0.1085418208380054</v>
       </c>
       <c r="AAH2">
-        <v>-0.2009655743925673</v>
+        <v>-0.1077798708065344</v>
       </c>
       <c r="AAI2">
-        <v>-0.1928830100596517</v>
+        <v>-0.100940518710252</v>
       </c>
       <c r="AAJ2">
-        <v>-0.1969107102762525</v>
+        <v>-0.1043392138668767</v>
       </c>
       <c r="AAK2">
-        <v>-0.1987696279412299</v>
+        <v>-0.1060004146118995</v>
       </c>
       <c r="AAL2">
-        <v>-0.2029261247170721</v>
+        <v>-0.1092259107660687</v>
       </c>
       <c r="AAM2">
-        <v>-0.2018745225156173</v>
+        <v>-0.1086530912641665</v>
       </c>
       <c r="AAN2">
-        <v>-0.2009655743925607</v>
+        <v>-0.1077798708065274</v>
       </c>
       <c r="AAO2">
-        <v>-0.1928838193734489</v>
+        <v>-0.100941339021205</v>
       </c>
       <c r="AAP2">
-        <v>-0.1970220424126567</v>
+        <v>-0.1044009826314683</v>
       </c>
       <c r="AAQ2">
-        <v>-0.1987713130103508</v>
+        <v>-0.1060020478270749</v>
       </c>
       <c r="AAR2">
-        <v>-0.2040082234706726</v>
+        <v>-0.1099321074267623</v>
       </c>
       <c r="AAS2">
-        <v>-0.2018741518425359</v>
+        <v>-0.1086650034958481</v>
       </c>
       <c r="AAT2">
-        <v>-0.2009655743925582</v>
+        <v>-0.1077798708065257</v>
       </c>
       <c r="AAU2">
-        <v>-0.1928844594250366</v>
+        <v>-0.1009419877699762</v>
       </c>
       <c r="AAV2">
-        <v>-0.1970573180739012</v>
+        <v>-0.1044205538113901</v>
       </c>
       <c r="AAW2">
-        <v>-0.1987728181327094</v>
+        <v>-0.1060035066328859</v>
       </c>
       <c r="AAX2">
-        <v>-0.2043213793714257</v>
+        <v>-0.1101217367631152</v>
       </c>
       <c r="AAY2">
-        <v>-0.2044850316819711</v>
+        <v>-0.1102927606172899</v>
       </c>
       <c r="AAZ2">
-        <v>-0.2018740103142142</v>
+        <v>-0.1086695517750121</v>
       </c>
       <c r="ABA2">
-        <v>-0.2009655743925552</v>
+        <v>-0.1077798708065276</v>
       </c>
       <c r="ABB2">
-        <v>-0.1928850810687126</v>
+        <v>-0.1009426178607072</v>
       </c>
       <c r="ABC2">
-        <v>-0.1970894327976292</v>
+        <v>-0.104438371158329</v>
       </c>
       <c r="ABD2">
-        <v>-0.1987745138839293</v>
+        <v>-0.106005150201372</v>
       </c>
       <c r="ABE2">
-        <v>-0.2047469541639699</v>
+        <v>-0.1103794323101172</v>
       </c>
       <c r="ABF2">
-        <v>-0.2045489999800032</v>
+        <v>-0.1103411441764815</v>
       </c>
       <c r="ABG2">
-        <v>-0.2018738606051388</v>
+        <v>-0.1086743629686858</v>
       </c>
       <c r="ABH2">
-        <v>-0.2009655743925571</v>
+        <v>-0.107779870806533</v>
       </c>
       <c r="ABI2">
-        <v>-0.1928857469162903</v>
+        <v>-0.1009432927559972</v>
       </c>
       <c r="ABJ2">
-        <v>-0.1971069244921985</v>
+        <v>-0.1044480755546287</v>
       </c>
       <c r="ABK2">
-        <v>-0.198775872524334</v>
+        <v>-0.1060064670328039</v>
       </c>
       <c r="ABL2">
-        <v>-0.2052452819119773</v>
+        <v>-0.1106811693980605</v>
       </c>
       <c r="ABM2">
-        <v>-0.2045826081891076</v>
+        <v>-0.1103665642051198</v>
       </c>
       <c r="ABN2">
-        <v>-0.2018737363595017</v>
+        <v>-0.1086783558532978</v>
       </c>
       <c r="ABO2">
-        <v>-0.2009655743925642</v>
+        <v>-0.1077798708065448</v>
       </c>
       <c r="ABP2">
-        <v>-0.1928863625428382</v>
+        <v>-0.100943916747842</v>
       </c>
       <c r="ABQ2">
-        <v>-0.1971208945026129</v>
+        <v>-0.1044558260947304</v>
       </c>
       <c r="ABR2">
-        <v>-0.1987775022155902</v>
+        <v>-0.106008046574102</v>
       </c>
       <c r="ABS2">
-        <v>-0.2056454701614019</v>
+        <v>-0.1109234736535988</v>
       </c>
       <c r="ABT2">
-        <v>-0.2046333652305913</v>
+        <v>-0.1104161121617532</v>
       </c>
       <c r="ABU2">
-        <v>-0.2045871767490183</v>
+        <v>-0.1103696555546354</v>
       </c>
       <c r="ABV2">
-        <v>-0.2018735892220092</v>
+        <v>-0.1086830844236369</v>
       </c>
       <c r="ABW2">
-        <v>-0.2009655743925758</v>
+        <v>-0.1077798708065613</v>
       </c>
       <c r="ABX2">
-        <v>-0.1928869427059456</v>
+        <v>-0.1009445047943618</v>
       </c>
       <c r="ABY2">
-        <v>-0.1971328070553949</v>
+        <v>-0.1044624351429984</v>
       </c>
       <c r="ABZ2">
-        <v>-0.1987792584042043</v>
+        <v>-0.106009748720056</v>
       </c>
       <c r="ACA2">
-        <v>-0.2057458805431421</v>
+        <v>-0.1109762727065258</v>
       </c>
       <c r="ACB2">
-        <v>-0.2058623697366265</v>
+        <v>-0.1110907363278512</v>
       </c>
       <c r="ACC2">
-        <v>-0.2046746252854849</v>
+        <v>-0.1104563893398705</v>
       </c>
       <c r="ACD2">
-        <v>-0.2045904804804081</v>
+        <v>-0.1103718910473737</v>
       </c>
       <c r="ACE2">
-        <v>-0.2018734457270695</v>
+        <v>-0.1086876959430276</v>
       </c>
       <c r="ACF2">
-        <v>-0.2009655743925856</v>
+        <v>-0.1077798708065738</v>
       </c>
       <c r="ACG2">
-        <v>-0.1928877496020731</v>
+        <v>-0.1009453226548152</v>
       </c>
       <c r="ACH2">
-        <v>-0.1971467866436251</v>
+        <v>-0.1044701909557045</v>
       </c>
       <c r="ACI2">
-        <v>-0.198782462482363</v>
+        <v>-0.1060128541999813</v>
       </c>
       <c r="ACJ2">
-        <v>-0.2058843224980033</v>
+        <v>-0.1110490690932736</v>
       </c>
       <c r="ACK2">
-        <v>-0.2060436858178086</v>
+        <v>-0.1112305557950473</v>
       </c>
       <c r="ACL2">
-        <v>-0.2045932685390217</v>
+        <v>-0.1103737776057061</v>
       </c>
       <c r="ACM2">
-        <v>-0.2018732484520634</v>
+        <v>-0.1086940358171467</v>
       </c>
       <c r="ACN2">
-        <v>-0.2009655743925968</v>
+        <v>-0.1077798708065859</v>
       </c>
       <c r="ACO2">
-        <v>-0.1928887384206437</v>
+        <v>-0.100946324909731</v>
       </c>
       <c r="ACP2">
-        <v>-0.1971595604672429</v>
+        <v>-0.1044772777961895</v>
       </c>
       <c r="ACQ2">
-        <v>-0.1988064341365808</v>
+        <v>-0.1060360881765567</v>
       </c>
       <c r="ACR2">
-        <v>-0.2062249197706397</v>
+        <v>-0.1112281595354716</v>
       </c>
       <c r="ACS2">
-        <v>-0.2061069442032314</v>
+        <v>-0.1112649878014978</v>
       </c>
       <c r="ACT2">
-        <v>-0.2060461706640937</v>
+        <v>-0.1112329914672128</v>
       </c>
       <c r="ACU2">
-        <v>-0.2045979779006081</v>
+        <v>-0.1103769642246606</v>
       </c>
       <c r="ACV2">
-        <v>-0.2018729770679937</v>
+        <v>-0.1087027573827349</v>
       </c>
       <c r="ACW2">
-        <v>-0.2009655743926018</v>
+        <v>-0.1077798708065938</v>
       </c>
       <c r="ACX2">
-        <v>-0.1928934251701971</v>
+        <v>-0.1009510753442569</v>
       </c>
       <c r="ACY2">
-        <v>-0.197179377753037</v>
+        <v>-0.1044882722703847</v>
       </c>
       <c r="ACZ2">
-        <v>-0.1988798967654992</v>
+        <v>-0.1061072900980757</v>
       </c>
       <c r="ADA2">
-        <v>-0.2065010056672885</v>
+        <v>-0.1113733243914564</v>
       </c>
       <c r="ADB2">
-        <v>-0.2061689324086568</v>
+        <v>-0.1112987280007155</v>
       </c>
       <c r="ADC2">
-        <v>-0.2060485464985492</v>
+        <v>-0.1112353202847987</v>
       </c>
       <c r="ADD2">
-        <v>-0.2046045728210763</v>
+        <v>-0.1103814267151018</v>
       </c>
       <c r="ADE2">
-        <v>-0.2018726898663524</v>
+        <v>-0.1087119873220961</v>
       </c>
       <c r="ADF2">
-        <v>-0.2009655743926099</v>
+        <v>-0.107779870806606</v>
       </c>
       <c r="ADG2">
-        <v>-0.192933498621109</v>
+        <v>-0.1009916933310936</v>
       </c>
       <c r="ADH2">
-        <v>-0.1972193877014891</v>
+        <v>-0.1045104693387895</v>
       </c>
       <c r="ADI2">
-        <v>-0.206716747873528</v>
+        <v>-0.1114867578657293</v>
       </c>
       <c r="ADJ2">
-        <v>-0.2060511077751014</v>
+        <v>-0.1112378308745972</v>
       </c>
       <c r="ADK2">
-        <v>-0.204609466419231</v>
+        <v>-0.1103847379933189</v>
       </c>
       <c r="ADL2">
-        <v>-0.2018724990859049</v>
+        <v>-0.1087181185485307</v>
       </c>
       <c r="ADM2">
-        <v>-0.2009655743926141</v>
+        <v>-0.1077798708066144</v>
       </c>
       <c r="ADN2">
-        <v>-0.1972273805467533</v>
+        <v>-0.104512906576588</v>
       </c>
       <c r="ADO2">
-        <v>-0.1972429889328249</v>
+        <v>-0.1045354688645069</v>
       </c>
       <c r="ADP2">
-        <v>-0.2069117497740336</v>
+        <v>-0.1115892842527027</v>
       </c>
       <c r="ADQ2">
-        <v>-0.2060533948019264</v>
+        <v>-0.1112400726419249</v>
       </c>
       <c r="ADR2">
-        <v>-0.2046175728924035</v>
+        <v>-0.1103902232745919</v>
       </c>
       <c r="ADS2">
-        <v>-0.2018723049171094</v>
+        <v>-0.1087243586865281</v>
       </c>
       <c r="ADT2">
-        <v>-0.200965574392619</v>
+        <v>-0.1077798708066197</v>
       </c>
       <c r="ADU2">
-        <v>-0.1972343510977164</v>
+        <v>-0.1045150320837363</v>
       </c>
       <c r="ADV2">
-        <v>-0.197280755127876</v>
+        <v>-0.1045754726117222</v>
       </c>
       <c r="ADW2">
-        <v>-0.2069065430899719</v>
+        <v>-0.1115849332208425</v>
       </c>
       <c r="ADX2">
-        <v>-0.2070660265043233</v>
+        <v>-0.111649194555734</v>
       </c>
       <c r="ADY2">
-        <v>-0.2060559204447082</v>
+        <v>-0.1112425483030273</v>
       </c>
       <c r="ADZ2">
-        <v>-0.204673840904299</v>
+        <v>-0.1104282970955207</v>
       </c>
       <c r="AEA2">
-        <v>-0.2018722120765909</v>
+        <v>-0.1087273423734016</v>
       </c>
       <c r="AEB2">
-        <v>-0.2009655743926251</v>
+        <v>-0.1077798708066203</v>
       </c>
       <c r="AEC2">
-        <v>-0.1972401160859089</v>
+        <v>-0.1045167899790287</v>
       </c>
       <c r="AED2">
-        <v>-0.197313023417819</v>
+        <v>-0.104609652746843</v>
       </c>
       <c r="AEE2">
-        <v>-0.2069013227054135</v>
+        <v>-0.1115805707385521</v>
       </c>
       <c r="AEF2">
-        <v>-0.2072375290643402</v>
+        <v>-0.1117157858320363</v>
       </c>
       <c r="AEG2">
-        <v>-0.2070660265043233</v>
+        <v>-0.111649194555734</v>
       </c>
       <c r="AEH2">
-        <v>-0.2060575488111595</v>
+        <v>-0.111244144444587</v>
       </c>
       <c r="AEI2">
-        <v>-0.2047981351330373</v>
+        <v>-0.1105123998226149</v>
       </c>
       <c r="AEJ2">
-        <v>-0.2018720644023931</v>
+        <v>-0.1087320883008343</v>
       </c>
       <c r="AEK2">
-        <v>-0.2009655743926311</v>
+        <v>-0.1077798708066225</v>
       </c>
       <c r="AEL2">
-        <v>-0.197244599236548</v>
+        <v>-0.1045181570063766</v>
       </c>
       <c r="AEM2">
-        <v>-0.1973312863202407</v>
+        <v>-0.1046289977096493</v>
       </c>
       <c r="AEN2">
-        <v>-0.2068960921665935</v>
+        <v>-0.111576199769278</v>
       </c>
       <c r="AEO2">
-        <v>-0.2073813331320274</v>
+        <v>-0.1117716211204507</v>
       </c>
       <c r="AEP2">
-        <v>-0.2072375290643402</v>
+        <v>-0.1117157858320363</v>
       </c>
       <c r="AEQ2">
-        <v>-0.2060600498731451</v>
+        <v>-0.111246596011251</v>
       </c>
       <c r="AER2">
-        <v>-0.2018719257690069</v>
+        <v>-0.1087365436858572</v>
       </c>
       <c r="AES2">
-        <v>-0.2009655743926343</v>
+        <v>-0.1077798708066241</v>
       </c>
       <c r="AET2">
-        <v>-0.19724915889238</v>
+        <v>-0.1045195473601119</v>
       </c>
       <c r="AEU2">
-        <v>-0.2068908932696396</v>
+        <v>-0.1115718552405169</v>
       </c>
       <c r="AEV2">
-        <v>-0.2075359239111793</v>
+        <v>-0.1118316434062898</v>
       </c>
       <c r="AEW2">
-        <v>-0.2073813331320274</v>
+        <v>-0.1117716211204507</v>
       </c>
       <c r="AEX2">
-        <v>-0.206080621849118</v>
+        <v>-0.1112667608714602</v>
       </c>
       <c r="AEY2">
-        <v>-0.2018717276847594</v>
+        <v>-0.1087429097124516</v>
       </c>
       <c r="AEZ2">
-        <v>-0.2009655743926343</v>
+        <v>-0.1077798708066241</v>
       </c>
       <c r="AFA2">
-        <v>-0.1972531158745176</v>
+        <v>-0.1045207539418451</v>
       </c>
       <c r="AFB2">
-        <v>-0.2068856745925265</v>
+        <v>-0.1115674941807647</v>
       </c>
       <c r="AFC2">
-        <v>-0.2076628523323263</v>
+        <v>-0.1118809244234861</v>
       </c>
       <c r="AFD2">
-        <v>-0.2075359239111793</v>
+        <v>-0.1118316434062898</v>
       </c>
       <c r="AFE2">
-        <v>-0.2061515236574043</v>
+        <v>-0.1113362595172192</v>
       </c>
       <c r="AFF2">
-        <v>-0.2018696367574382</v>
+        <v>-0.1088101090412058</v>
       </c>
       <c r="AFG2">
-        <v>-0.1972559578460394</v>
+        <v>-0.1045216205283227</v>
       </c>
       <c r="AFH2">
-        <v>-0.2068804594400004</v>
+        <v>-0.1115631360649457</v>
       </c>
       <c r="AFI2">
-        <v>-0.2077991278936905</v>
+        <v>-0.1119338336164232</v>
       </c>
       <c r="AFJ2">
-        <v>-0.2076628523323263</v>
+        <v>-0.1118809244234861</v>
       </c>
       <c r="AFK2">
-        <v>-0.2018688004322662</v>
+        <v>-0.1088369878946531</v>
       </c>
       <c r="AFL2">
-        <v>-0.1972592573871437</v>
+        <v>-0.1045226266379493</v>
       </c>
       <c r="AFM2">
-        <v>-0.2068752409727806</v>
+        <v>-0.1115587751777188</v>
       </c>
       <c r="AFN2">
-        <v>-0.2081030212791597</v>
+        <v>-0.1120517496068947</v>
       </c>
       <c r="AFO2">
-        <v>-0.2077991278936751</v>
+        <v>-0.1119338336163948</v>
       </c>
       <c r="AFP2">
-        <v>-0.2077991278936905</v>
+        <v>-0.1119338336164232</v>
       </c>
       <c r="AFQ2">
-        <v>-0.2018683757463032</v>
+        <v>-0.108850637107378</v>
       </c>
       <c r="AFR2">
-        <v>-0.1972642282043087</v>
+        <v>-0.1045241423579371</v>
       </c>
       <c r="AFS2">
-        <v>-0.2068726936658144</v>
+        <v>-0.1115566464834736</v>
       </c>
       <c r="AFT2">
-        <v>-0.2081474857699216</v>
+        <v>-0.1120690016641308</v>
       </c>
       <c r="AFU2">
-        <v>-0.2077991278936612</v>
+        <v>-0.1119338336163611</v>
       </c>
       <c r="AFV2">
-        <v>-0.2077991278936751</v>
+        <v>-0.1119338336163948</v>
       </c>
       <c r="AFW2">
-        <v>-0.2018682817713877</v>
+        <v>-0.1088536574300137</v>
       </c>
       <c r="AFX2">
-        <v>-0.1972723495534179</v>
+        <v>-0.1045266187446296</v>
       </c>
       <c r="AFY2">
-        <v>-0.2068154412097929</v>
+        <v>-0.1115088025426654</v>
       </c>
       <c r="AFZ2">
-        <v>-0.2082727577630891</v>
+        <v>-0.1121176054295025</v>
       </c>
       <c r="AGA2">
-        <v>-0.2077991278936456</v>
+        <v>-0.1119338336163133</v>
       </c>
       <c r="AGB2">
-        <v>-0.2077991278936612</v>
+        <v>-0.1119338336163611</v>
       </c>
       <c r="AGC2">
-        <v>-0.2018682077614958</v>
+        <v>-0.108856036086322</v>
       </c>
       <c r="AGD2">
-        <v>-0.1973053796863967</v>
+        <v>-0.1045378236126544</v>
       </c>
       <c r="AGE2">
-        <v>-0.1973579319721924</v>
+        <v>-0.1045496966554079</v>
       </c>
       <c r="AGF2">
-        <v>-0.2067782096169199</v>
+        <v>-0.1114776892671376</v>
       </c>
       <c r="AGG2">
-        <v>-0.208419868856054</v>
+        <v>-0.112174680002734</v>
       </c>
       <c r="AGH2">
-        <v>-0.2077991278936402</v>
+        <v>-0.111933833616292</v>
       </c>
       <c r="AGI2">
-        <v>-0.2077991278936456</v>
+        <v>-0.1119338336163133</v>
       </c>
       <c r="AGJ2">
-        <v>-0.2018681284647086</v>
+        <v>-0.1088585846648497</v>
       </c>
       <c r="AGK2">
-        <v>-0.2067456459440496</v>
+        <v>-0.1114504767661289</v>
       </c>
       <c r="AGL2">
-        <v>-0.2084389531605884</v>
+        <v>-0.1121820839308365</v>
       </c>
       <c r="AGM2">
-        <v>-0.2077991278936339</v>
+        <v>-0.1119338336162838</v>
       </c>
       <c r="AGN2">
-        <v>-0.2077991278936402</v>
+        <v>-0.111933833616292</v>
       </c>
       <c r="AGO2">
-        <v>-0.2018680650214595</v>
+        <v>-0.1088606237168663</v>
       </c>
       <c r="AGP2">
-        <v>-0.2067114878793528</v>
+        <v>-0.1114219318187687</v>
       </c>
       <c r="AGQ2">
-        <v>-0.2084568358023476</v>
+        <v>-0.1121854890967985</v>
       </c>
       <c r="AGR2">
-        <v>-0.2084525369510191</v>
+        <v>-0.1121952133530037</v>
       </c>
       <c r="AGS2">
-        <v>-0.2077991278936298</v>
+        <v>-0.1119338336162889</v>
       </c>
       <c r="AGT2">
-        <v>-0.2077991278936339</v>
+        <v>-0.1119338336162838</v>
       </c>
       <c r="AGU2">
-        <v>-0.2018680034206448</v>
+        <v>-0.1088626035553076</v>
       </c>
       <c r="AGV2">
-        <v>-0.2066531613817794</v>
+        <v>-0.1113731898400099</v>
       </c>
       <c r="AGW2">
-        <v>-0.2084733832357457</v>
+        <v>-0.11218863999321</v>
       </c>
       <c r="AGX2">
-        <v>-0.2084843270517811</v>
+        <v>-0.1122259400852573</v>
       </c>
       <c r="AGY2">
-        <v>-0.2077991278936298</v>
+        <v>-0.1119338336162889</v>
       </c>
       <c r="AGZ2">
-        <v>-0.2077991278936298</v>
+        <v>-0.1119338336162889</v>
       </c>
       <c r="AHA2">
-        <v>-0.2018679419760522</v>
+        <v>-0.1088645783746179</v>
       </c>
       <c r="AHB2">
-        <v>-0.2066388547327349</v>
+        <v>-0.1113612341078501</v>
       </c>
       <c r="AHC2">
-        <v>-0.2084985453302294</v>
+        <v>-0.1121934312173596</v>
       </c>
       <c r="AHD2">
-        <v>-0.2085597447680733</v>
+        <v>-0.112298835036655</v>
       </c>
       <c r="AHE2">
-        <v>-0.2018678812503431</v>
+        <v>-0.1088665300909114</v>
       </c>
       <c r="AHF2">
-        <v>-0.2066456674914061</v>
+        <v>-0.1113679815937452</v>
       </c>
       <c r="AHG2">
-        <v>-0.2065770760278451</v>
+        <v>-0.1113129892848589</v>
       </c>
       <c r="AHH2">
-        <v>-0.2085303438056714</v>
+        <v>-0.1121994860317168</v>
       </c>
       <c r="AHI2">
-        <v>-0.2018667953449749</v>
+        <v>-0.1089014312480909</v>
       </c>
       <c r="AHJ2">
-        <v>-0.2066568535553476</v>
+        <v>-0.1113790604837773</v>
       </c>
       <c r="AHK2">
-        <v>-0.2065246779340414</v>
+        <v>-0.1112720699085726</v>
       </c>
       <c r="AHL2">
-        <v>-0.2086541396250228</v>
+        <v>-0.1122230574871094</v>
       </c>
       <c r="AHM2">
-        <v>-0.2018419358604336</v>
+        <v>-0.1090228156905989</v>
       </c>
       <c r="AHN2">
-        <v>-0.2018778424247729</v>
+        <v>-0.1089254619074146</v>
       </c>
       <c r="AHO2">
-        <v>-0.2066590652963911</v>
+        <v>-0.1113812510339855</v>
       </c>
       <c r="AHP2">
-        <v>-0.2064366045181504</v>
+        <v>-0.111203290200851</v>
       </c>
       <c r="AHQ2">
-        <v>-0.208879043097335</v>
+        <v>-0.1122658773183644</v>
       </c>
       <c r="AHR2">
-        <v>-0.2018254262713397</v>
+        <v>-0.1091034335439353</v>
       </c>
       <c r="AHS2">
-        <v>-0.2066609341726995</v>
+        <v>-0.1113831020044426</v>
       </c>
       <c r="AHT2">
-        <v>-0.2066625090705083</v>
+        <v>-0.1113846618130116</v>
       </c>
       <c r="AHU2">
-        <v>-0.2066645577526287</v>
+        <v>-0.1113866908664952</v>
       </c>
       <c r="AHV2">
-        <v>-0.206668265555906</v>
+        <v>-0.1113903631448502</v>
       </c>
       <c r="AHW2">
-        <v>-0.2066746942463772</v>
+        <v>-0.1113967302410247</v>
       </c>
       <c r="AHX2">
-        <v>-0.206727353109176</v>
+        <v>-0.1114488845606193</v>
       </c>
     </row>
     <row r="3" spans="1:908">
@@ -5829,2722 +5829,2722 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.1158180245504689</v>
+        <v>-0.06410232925649734</v>
       </c>
       <c r="D3">
-        <v>-0.1166744276411385</v>
+        <v>-0.06450022424335547</v>
       </c>
       <c r="E3">
-        <v>-0.1167642209555015</v>
+        <v>-0.06454194094525087</v>
       </c>
       <c r="F3">
-        <v>-0.1168483451563139</v>
+        <v>-0.06458102345573338</v>
       </c>
       <c r="G3">
-        <v>-0.1169216909305327</v>
+        <v>-0.06461509819635214</v>
       </c>
       <c r="H3">
-        <v>-0.11703724225385</v>
+        <v>-0.06466878005427674</v>
       </c>
       <c r="I3">
-        <v>-0.1249141874026039</v>
+        <v>-0.06832645767040867</v>
       </c>
       <c r="J3">
-        <v>-0.1252673727202716</v>
+        <v>-0.06849038038769807</v>
       </c>
       <c r="K3">
-        <v>-0.125561360947866</v>
+        <v>-0.06862682294415828</v>
       </c>
       <c r="L3">
-        <v>-0.1258193781256179</v>
+        <v>-0.06874656711298509</v>
       </c>
       <c r="M3">
-        <v>-0.1260119193270435</v>
+        <v>-0.06883592191100844</v>
       </c>
       <c r="N3">
-        <v>-0.1261926771669052</v>
+        <v>-0.06891980642076233</v>
       </c>
       <c r="O3">
-        <v>-0.1263038310749878</v>
+        <v>-0.06897138886053564</v>
       </c>
       <c r="P3">
-        <v>-0.1265805688601279</v>
+        <v>-0.06909980974535403</v>
       </c>
       <c r="Q3">
-        <v>-0.1288231319343746</v>
+        <v>-0.07014032217251698</v>
       </c>
       <c r="R3">
-        <v>-0.1288231319343751</v>
+        <v>-0.07014032217251454</v>
       </c>
       <c r="S3">
-        <v>-0.1315444289344244</v>
+        <v>-0.07140258935673408</v>
       </c>
       <c r="T3">
-        <v>-0.1288231319343756</v>
+        <v>-0.07014032217251362</v>
       </c>
       <c r="U3">
-        <v>-0.1317317436022961</v>
+        <v>-0.07148945990755824</v>
       </c>
       <c r="V3">
-        <v>-0.1288231319343759</v>
+        <v>-0.07014032217251255</v>
       </c>
       <c r="W3">
-        <v>-0.1319420872930063</v>
+        <v>-0.07158700829302779</v>
       </c>
       <c r="X3">
-        <v>-0.1288231319343759</v>
+        <v>-0.07014032217251166</v>
       </c>
       <c r="Y3">
-        <v>-0.1322845946959007</v>
+        <v>-0.07174584335918112</v>
       </c>
       <c r="Z3">
-        <v>-0.1288231319343766</v>
+        <v>-0.07014032217251123</v>
       </c>
       <c r="AA3">
-        <v>-0.1329077790228211</v>
+        <v>-0.0720348236317998</v>
       </c>
       <c r="AB3">
-        <v>-0.1288231319343772</v>
+        <v>-0.07014032217251143</v>
       </c>
       <c r="AC3">
-        <v>-0.1328159127695238</v>
+        <v>-0.07220109483388293</v>
       </c>
       <c r="AD3">
-        <v>-0.1405931814430753</v>
+        <v>-0.07517457766225075</v>
       </c>
       <c r="AE3">
-        <v>-0.1288231319343777</v>
+        <v>-0.07014032217251165</v>
       </c>
       <c r="AF3">
-        <v>-0.1328497066051703</v>
+        <v>-0.07231219698932867</v>
       </c>
       <c r="AG3">
-        <v>-0.1327583313972413</v>
+        <v>-0.07213747780483099</v>
       </c>
       <c r="AH3">
-        <v>-0.1426417597864451</v>
+        <v>-0.07601096333347</v>
       </c>
       <c r="AI3">
-        <v>-0.1288231319343796</v>
+        <v>-0.07014032217251234</v>
       </c>
       <c r="AJ3">
-        <v>-0.1329270985770872</v>
+        <v>-0.07256665016929244</v>
       </c>
       <c r="AK3">
-        <v>-0.1327563813822107</v>
+        <v>-0.07213532339328795</v>
       </c>
       <c r="AL3">
-        <v>-0.1429240544115713</v>
+        <v>-0.07624551965403931</v>
       </c>
       <c r="AM3">
-        <v>-0.1485227560564857</v>
+        <v>-0.07827556637133302</v>
       </c>
       <c r="AN3">
-        <v>-0.1288231319343813</v>
+        <v>-0.07014032217251299</v>
       </c>
       <c r="AO3">
-        <v>-0.1327535776113284</v>
+        <v>-0.07213222573736187</v>
       </c>
       <c r="AP3">
-        <v>-0.1429261682930183</v>
+        <v>-0.07625089063275867</v>
       </c>
       <c r="AQ3">
-        <v>-0.1430035604568594</v>
+        <v>-0.07629525797898255</v>
       </c>
       <c r="AR3">
-        <v>-0.1526091282948724</v>
+        <v>-0.07984805175813285</v>
       </c>
       <c r="AS3">
-        <v>-0.1485227560564633</v>
+        <v>-0.07827556637142469</v>
       </c>
       <c r="AT3">
-        <v>-0.1288231319343817</v>
+        <v>-0.07014032217251318</v>
       </c>
       <c r="AU3">
-        <v>-0.1327499819631986</v>
+        <v>-0.07212825320202761</v>
       </c>
       <c r="AV3">
-        <v>-0.14292712108186</v>
+        <v>-0.07625331149442505</v>
       </c>
       <c r="AW3">
-        <v>-0.1431948785358323</v>
+        <v>-0.07641494245316194</v>
       </c>
       <c r="AX3">
-        <v>-0.155699937479561</v>
+        <v>-0.08103685600127614</v>
       </c>
       <c r="AY3">
-        <v>-0.1485227560564558</v>
+        <v>-0.07827556637147347</v>
       </c>
       <c r="AZ3">
-        <v>-0.1288231319343819</v>
+        <v>-0.07014032217251299</v>
       </c>
       <c r="BA3">
-        <v>-0.1327412249247542</v>
+        <v>-0.07211857827490499</v>
       </c>
       <c r="BB3">
-        <v>-0.1429281308335354</v>
+        <v>-0.07625587709011843</v>
       </c>
       <c r="BC3">
-        <v>-0.1561457769727368</v>
+        <v>-0.08120829631778342</v>
       </c>
       <c r="BD3">
-        <v>-0.1556999374795348</v>
+        <v>-0.08103685600122547</v>
       </c>
       <c r="BE3">
-        <v>-0.1485227560564477</v>
+        <v>-0.0782755663715192</v>
       </c>
       <c r="BF3">
-        <v>-0.1288231319343827</v>
+        <v>-0.07014032217251347</v>
       </c>
       <c r="BG3">
-        <v>-0.1327337272832783</v>
+        <v>-0.07211029475473844</v>
       </c>
       <c r="BH3">
-        <v>-0.1429290925516185</v>
+        <v>-0.07625832064301072</v>
       </c>
       <c r="BI3">
-        <v>-0.1581659661821422</v>
+        <v>-0.0819849978391881</v>
       </c>
       <c r="BJ3">
-        <v>-0.1556999374795321</v>
+        <v>-0.08103685600121864</v>
       </c>
       <c r="BK3">
-        <v>-0.1485227560564414</v>
+        <v>-0.07827556637155185</v>
       </c>
       <c r="BL3">
-        <v>-0.1288231319343829</v>
+        <v>-0.07014032217251313</v>
       </c>
       <c r="BM3">
-        <v>-0.1326977860512045</v>
+        <v>-0.07207058632252865</v>
       </c>
       <c r="BN3">
-        <v>-0.1429296685253903</v>
+        <v>-0.07625978408975606</v>
       </c>
       <c r="BO3">
-        <v>-0.1585762081742406</v>
+        <v>-0.0821444516447675</v>
       </c>
       <c r="BP3">
-        <v>-0.1579821309959231</v>
+        <v>-0.08176350683605325</v>
       </c>
       <c r="BQ3">
-        <v>-0.1556999374795285</v>
+        <v>-0.08103685600121512</v>
       </c>
       <c r="BR3">
-        <v>-0.1485227560564353</v>
+        <v>-0.07827556637158023</v>
       </c>
       <c r="BS3">
-        <v>-0.128823131934382</v>
+        <v>-0.07014032217251281</v>
       </c>
       <c r="BT3">
-        <v>-0.1325707431043507</v>
+        <v>-0.07193022788681402</v>
       </c>
       <c r="BU3">
-        <v>-0.1429307985431268</v>
+        <v>-0.07626265526538004</v>
       </c>
       <c r="BV3">
-        <v>-0.1634263386853404</v>
+        <v>-0.08402894882964272</v>
       </c>
       <c r="BW3">
-        <v>-0.1579650793626861</v>
+        <v>-0.08177797654991058</v>
       </c>
       <c r="BX3">
-        <v>-0.1579093173743809</v>
+        <v>-0.08164076770871904</v>
       </c>
       <c r="BY3">
-        <v>-0.1556999374795185</v>
+        <v>-0.08103685600121015</v>
       </c>
       <c r="BZ3">
-        <v>-0.1485227560564168</v>
+        <v>-0.07827556637163864</v>
       </c>
       <c r="CA3">
-        <v>-0.1288231319343769</v>
+        <v>-0.07014032217251029</v>
       </c>
       <c r="CB3">
-        <v>-0.1429365255058032</v>
+        <v>-0.07627720650471291</v>
       </c>
       <c r="CC3">
-        <v>-0.1651183887645165</v>
+        <v>-0.08468610013963808</v>
       </c>
       <c r="CD3">
-        <v>-0.1556999374795126</v>
+        <v>-0.08103685600120504</v>
       </c>
       <c r="CE3">
-        <v>-0.1485227560563655</v>
+        <v>-0.07827556637183422</v>
       </c>
       <c r="CF3">
-        <v>-0.1288231319343698</v>
+        <v>-0.0701403221725069</v>
       </c>
       <c r="CG3">
-        <v>-0.1429581058197469</v>
+        <v>-0.07633203898643695</v>
       </c>
       <c r="CH3">
-        <v>-0.1654877471465087</v>
+        <v>-0.08482953023877471</v>
       </c>
       <c r="CI3">
-        <v>-0.1556999374795108</v>
+        <v>-0.08103685600120361</v>
       </c>
       <c r="CJ3">
-        <v>-0.1485227560562684</v>
+        <v>-0.07827556637221106</v>
       </c>
       <c r="CK3">
-        <v>-0.1288231319343653</v>
+        <v>-0.07014032217250496</v>
       </c>
       <c r="CL3">
-        <v>-0.1662368551258855</v>
+        <v>-0.08512040383848488</v>
       </c>
       <c r="CM3">
-        <v>-0.1556999374795108</v>
+        <v>-0.08103685600120361</v>
       </c>
       <c r="CN3">
-        <v>-0.1485227560562473</v>
+        <v>-0.07827556637230342</v>
       </c>
       <c r="CO3">
-        <v>-0.1288231319343641</v>
+        <v>-0.07014032217250425</v>
       </c>
       <c r="CP3">
-        <v>-0.1669434306522122</v>
+        <v>-0.08539473568831965</v>
       </c>
       <c r="CQ3">
-        <v>-0.1485227560562361</v>
+        <v>-0.07827556637231706</v>
       </c>
       <c r="CR3">
-        <v>-0.1288231319343638</v>
+        <v>-0.07014032217250382</v>
       </c>
       <c r="CS3">
-        <v>-0.1673541776218974</v>
+        <v>-0.08555419856271622</v>
       </c>
       <c r="CT3">
-        <v>-0.1485227560562188</v>
+        <v>-0.07827556637233617</v>
       </c>
       <c r="CU3">
-        <v>-0.1288231319343633</v>
+        <v>-0.0701403221725036</v>
       </c>
       <c r="CV3">
-        <v>-0.1676254690425283</v>
+        <v>-0.08565951629276121</v>
       </c>
       <c r="CW3">
-        <v>-0.1485227560562103</v>
+        <v>-0.07827556637234488</v>
       </c>
       <c r="CX3">
-        <v>-0.1288231319343634</v>
+        <v>-0.07014032217250397</v>
       </c>
       <c r="CY3">
-        <v>-0.1680000778380583</v>
+        <v>-0.08580493646662375</v>
       </c>
       <c r="CZ3">
-        <v>-0.1485227560554769</v>
+        <v>-0.07827556637319812</v>
       </c>
       <c r="DA3">
-        <v>-0.1288231319343634</v>
+        <v>-0.07014032217250397</v>
       </c>
       <c r="DB3">
-        <v>-0.1680419312205197</v>
+        <v>-0.08582798318526835</v>
       </c>
       <c r="DC3">
-        <v>-0.1681995096656553</v>
+        <v>-0.08587603717831981</v>
       </c>
       <c r="DD3">
-        <v>-0.1485227560554416</v>
+        <v>-0.07827556637323863</v>
       </c>
       <c r="DE3">
-        <v>-0.1680925681507271</v>
+        <v>-0.08585586656986301</v>
       </c>
       <c r="DF3">
-        <v>-0.1683126019925761</v>
+        <v>-0.08591635555906561</v>
       </c>
       <c r="DG3">
-        <v>-0.148522756055383</v>
+        <v>-0.07827556637331633</v>
       </c>
       <c r="DH3">
-        <v>-0.1681512601161542</v>
+        <v>-0.08588818544811268</v>
       </c>
       <c r="DI3">
-        <v>-0.1727775771056577</v>
+        <v>-0.08750764545924317</v>
       </c>
       <c r="DJ3">
-        <v>-0.1485227560536896</v>
+        <v>-0.07827556637542757</v>
       </c>
       <c r="DK3">
-        <v>-0.1682407482660818</v>
+        <v>-0.08593746224671858</v>
       </c>
       <c r="DL3">
-        <v>-0.1732251558131373</v>
+        <v>-0.08766710474090483</v>
       </c>
       <c r="DM3">
-        <v>-0.1485227560521879</v>
+        <v>-0.07827556637730185</v>
       </c>
       <c r="DN3">
-        <v>-0.1683557979600429</v>
+        <v>-0.08600081441713935</v>
       </c>
       <c r="DO3">
-        <v>-0.1732867366678767</v>
+        <v>-0.08773606774326589</v>
       </c>
       <c r="DP3">
-        <v>-0.1754263871631991</v>
+        <v>-0.08839909315043683</v>
       </c>
       <c r="DQ3">
-        <v>-0.1485227560520479</v>
+        <v>-0.07827556637747903</v>
       </c>
       <c r="DR3">
-        <v>-0.1684383930306846</v>
+        <v>-0.08604629533972519</v>
       </c>
       <c r="DS3">
-        <v>-0.1732867366678801</v>
+        <v>-0.08773606774326542</v>
       </c>
       <c r="DT3">
-        <v>-0.1733167200803621</v>
+        <v>-0.0877696454951449</v>
       </c>
       <c r="DU3">
-        <v>-0.1793977867610311</v>
+        <v>-0.08971937390355457</v>
       </c>
       <c r="DV3">
-        <v>-0.1485227560519463</v>
+        <v>-0.0782755663776121</v>
       </c>
       <c r="DW3">
-        <v>-0.1685550998038554</v>
+        <v>-0.08611055971604868</v>
       </c>
       <c r="DX3">
-        <v>-0.1732867366678831</v>
+        <v>-0.08773606774326487</v>
       </c>
       <c r="DY3">
-        <v>-0.1734575726888911</v>
+        <v>-0.08792738324901057</v>
       </c>
       <c r="DZ3">
-        <v>-0.1811844642438558</v>
+        <v>-0.09031320214550227</v>
       </c>
       <c r="EA3">
-        <v>-0.1485227560518564</v>
+        <v>-0.07827556637772633</v>
       </c>
       <c r="EB3">
-        <v>-0.1686813688652919</v>
+        <v>-0.08618008937344865</v>
       </c>
       <c r="EC3">
-        <v>-0.1732867366678849</v>
+        <v>-0.08773606774326395</v>
       </c>
       <c r="ED3">
-        <v>-0.1734181409856525</v>
+        <v>-0.08791807637111576</v>
       </c>
       <c r="EE3">
-        <v>-0.1737943388108915</v>
+        <v>-0.08826958733569575</v>
       </c>
       <c r="EF3">
-        <v>-0.181716138637179</v>
+        <v>-0.09048989416792264</v>
       </c>
       <c r="EG3">
-        <v>-0.1485227560515812</v>
+        <v>-0.07827556637805734</v>
       </c>
       <c r="EH3">
-        <v>-0.1688004514415633</v>
+        <v>-0.0862456616481347</v>
       </c>
       <c r="EI3">
-        <v>-0.1732867366678867</v>
+        <v>-0.08773606774326281</v>
       </c>
       <c r="EJ3">
-        <v>-0.1734147451001449</v>
+        <v>-0.0879172748505241</v>
       </c>
       <c r="EK3">
-        <v>-0.1740448783128481</v>
+        <v>-0.08852417249726494</v>
       </c>
       <c r="EL3">
-        <v>-0.1823163427291606</v>
+        <v>-0.09068935100113389</v>
       </c>
       <c r="EM3">
-        <v>-0.1485227560513815</v>
+        <v>-0.07827556637830622</v>
       </c>
       <c r="EN3">
-        <v>-0.1689962436551563</v>
+        <v>-0.086353473379487</v>
       </c>
       <c r="EO3">
-        <v>-0.173286736667888</v>
+        <v>-0.08773606774326168</v>
       </c>
       <c r="EP3">
-        <v>-0.173411413084406</v>
+        <v>-0.08791648840401975</v>
       </c>
       <c r="EQ3">
-        <v>-0.1742126600388854</v>
+        <v>-0.08869466355046449</v>
       </c>
       <c r="ER3">
-        <v>-0.1828808710405479</v>
+        <v>-0.09087694280031848</v>
       </c>
       <c r="ES3">
-        <v>-0.1485227560513483</v>
+        <v>-0.07827556637835237</v>
       </c>
       <c r="ET3">
-        <v>-0.1699272176235706</v>
+        <v>-0.0868661022327176</v>
       </c>
       <c r="EU3">
-        <v>-0.1732867366678894</v>
+        <v>-0.08773606774326044</v>
       </c>
       <c r="EV3">
-        <v>-0.1734087226178012</v>
+        <v>-0.08791585337994078</v>
       </c>
       <c r="EW3">
-        <v>-0.1743398697421057</v>
+        <v>-0.08878961544340715</v>
       </c>
       <c r="EX3">
-        <v>-0.1742881718541127</v>
+        <v>-0.08883566675170443</v>
       </c>
       <c r="EY3">
-        <v>-0.1835396257859505</v>
+        <v>-0.09109583431951886</v>
       </c>
       <c r="EZ3">
-        <v>-0.1485227560513419</v>
+        <v>-0.07827556637836827</v>
       </c>
       <c r="FA3">
-        <v>-0.1701300308823192</v>
+        <v>-0.08697777742938687</v>
       </c>
       <c r="FB3">
-        <v>-0.173286736667891</v>
+        <v>-0.08773606774325957</v>
       </c>
       <c r="FC3">
-        <v>-0.1734046844327625</v>
+        <v>-0.08791490025617336</v>
       </c>
       <c r="FD3">
-        <v>-0.1746772410433468</v>
+        <v>-0.08904143527212366</v>
       </c>
       <c r="FE3">
-        <v>-0.1742927680666677</v>
+        <v>-0.08884424938451675</v>
       </c>
       <c r="FF3">
-        <v>-0.1837291906169959</v>
+        <v>-0.0911588207557516</v>
       </c>
       <c r="FG3">
-        <v>-0.1485227560513386</v>
+        <v>-0.07827556637837277</v>
       </c>
       <c r="FH3">
-        <v>-0.1702890352021704</v>
+        <v>-0.08723303944102744</v>
       </c>
       <c r="FI3">
-        <v>-0.1708421472406145</v>
+        <v>-0.08731198096770976</v>
       </c>
       <c r="FJ3">
-        <v>-0.1732867366678924</v>
+        <v>-0.08773606774325912</v>
       </c>
       <c r="FK3">
-        <v>-0.1733998159360503</v>
+        <v>-0.08791375115406141</v>
       </c>
       <c r="FL3">
-        <v>-0.1747944297561357</v>
+        <v>-0.08912890665783345</v>
       </c>
       <c r="FM3">
-        <v>-0.1742969669581164</v>
+        <v>-0.08885209010142972</v>
       </c>
       <c r="FN3">
-        <v>-0.1848062369752861</v>
+        <v>-0.09151666984070347</v>
       </c>
       <c r="FO3">
-        <v>-0.1485227560513386</v>
+        <v>-0.07827556637837277</v>
       </c>
       <c r="FP3">
-        <v>-0.1703190749868717</v>
+        <v>-0.08728126608895255</v>
       </c>
       <c r="FQ3">
-        <v>-0.1717875941002878</v>
+        <v>-0.08775567986676613</v>
       </c>
       <c r="FR3">
-        <v>-0.1732867366678928</v>
+        <v>-0.08773606774325796</v>
       </c>
       <c r="FS3">
-        <v>-0.1733961378779585</v>
+        <v>-0.08791288302767318</v>
       </c>
       <c r="FT3">
-        <v>-0.1747944297569993</v>
+        <v>-0.08912890665732533</v>
       </c>
       <c r="FU3">
-        <v>-0.1749896238117655</v>
+        <v>-0.08927459576715947</v>
       </c>
       <c r="FV3">
-        <v>-0.1742987112374904</v>
+        <v>-0.08885534725056882</v>
       </c>
       <c r="FW3">
-        <v>-0.1854146330048912</v>
+        <v>-0.0917187949544444</v>
       </c>
       <c r="FX3">
-        <v>-0.1703810543020838</v>
+        <v>-0.08738077073540566</v>
       </c>
       <c r="FY3">
-        <v>-0.1718121204312144</v>
+        <v>-0.08778718476229269</v>
       </c>
       <c r="FZ3">
-        <v>-0.172147252209034</v>
+        <v>-0.08787095311961567</v>
       </c>
       <c r="GA3">
-        <v>-0.1732867366678926</v>
+        <v>-0.08773606774325728</v>
       </c>
       <c r="GB3">
-        <v>-0.1733918817140096</v>
+        <v>-0.0879118784504939</v>
       </c>
       <c r="GC3">
-        <v>-0.1747944297571287</v>
+        <v>-0.08912890665725491</v>
       </c>
       <c r="GD3">
-        <v>-0.1750107059962974</v>
+        <v>-0.08929033083887863</v>
       </c>
       <c r="GE3">
-        <v>-0.1743024710154744</v>
+        <v>-0.0888623680123496</v>
       </c>
       <c r="GF3">
-        <v>-0.1858662965725634</v>
+        <v>-0.09186884256627427</v>
       </c>
       <c r="GG3">
-        <v>-0.1719086383789452</v>
+        <v>-0.08791116542935201</v>
       </c>
       <c r="GH3">
-        <v>-0.1736364268136674</v>
+        <v>-0.08834810878444832</v>
       </c>
       <c r="GI3">
-        <v>-0.1732867366678919</v>
+        <v>-0.08773606774325705</v>
       </c>
       <c r="GJ3">
-        <v>-0.173387879811374</v>
+        <v>-0.08791093388497342</v>
       </c>
       <c r="GK3">
-        <v>-0.1747944297571611</v>
+        <v>-0.08912890665726392</v>
       </c>
       <c r="GL3">
-        <v>-0.1747944297571999</v>
+        <v>-0.08912890665722045</v>
       </c>
       <c r="GM3">
-        <v>-0.1750310984633574</v>
+        <v>-0.08930555107779542</v>
       </c>
       <c r="GN3">
-        <v>-0.1743120471517871</v>
+        <v>-0.08888024990223349</v>
       </c>
       <c r="GO3">
-        <v>-0.186272388209227</v>
+        <v>-0.09200374568417817</v>
       </c>
       <c r="GP3">
-        <v>-0.1720809675563587</v>
+        <v>-0.08813252874905296</v>
       </c>
       <c r="GQ3">
-        <v>-0.1737921285664202</v>
+        <v>-0.08841700544066035</v>
       </c>
       <c r="GR3">
-        <v>-0.1737147149955999</v>
+        <v>-0.08836219494119088</v>
       </c>
       <c r="GS3">
-        <v>-0.1732867366678916</v>
+        <v>-0.08773606774325697</v>
       </c>
       <c r="GT3">
-        <v>-0.1733835739884244</v>
+        <v>-0.08790991758397639</v>
       </c>
       <c r="GU3">
-        <v>-0.1747944297571611</v>
+        <v>-0.08912890665726392</v>
       </c>
       <c r="GV3">
-        <v>-0.1747944297572239</v>
+        <v>-0.08912890665720009</v>
       </c>
       <c r="GW3">
-        <v>-0.1750474105300123</v>
+        <v>-0.08931772581048195</v>
       </c>
       <c r="GX3">
-        <v>-0.1743176654408205</v>
+        <v>-0.08889074117990931</v>
       </c>
       <c r="GY3">
-        <v>-0.1867769023147283</v>
+        <v>-0.09217133802972571</v>
       </c>
       <c r="GZ3">
-        <v>-0.172013423751536</v>
+        <v>-0.08807906150927702</v>
       </c>
       <c r="HA3">
-        <v>-0.172111715343185</v>
+        <v>-0.08816912463557372</v>
       </c>
       <c r="HB3">
-        <v>-0.1741858304600051</v>
+        <v>-0.08859120167614155</v>
       </c>
       <c r="HC3">
-        <v>-0.1737257813294549</v>
+        <v>-0.08836418603762321</v>
       </c>
       <c r="HD3">
-        <v>-0.1732867366678915</v>
+        <v>-0.08773606774325704</v>
       </c>
       <c r="HE3">
-        <v>-0.1733769916552279</v>
+        <v>-0.08790836395665534</v>
       </c>
       <c r="HF3">
-        <v>-0.1747944297572416</v>
+        <v>-0.08912890665718086</v>
       </c>
       <c r="HG3">
-        <v>-0.1750604044641227</v>
+        <v>-0.08932742398749756</v>
       </c>
       <c r="HH3">
-        <v>-0.1743216005173481</v>
+        <v>-0.08889808933384902</v>
       </c>
       <c r="HI3">
-        <v>-0.1877079952249063</v>
+        <v>-0.09248061456137313</v>
       </c>
       <c r="HJ3">
-        <v>-0.1717923351031475</v>
+        <v>-0.08790404731864294</v>
       </c>
       <c r="HK3">
-        <v>-0.1721672099231146</v>
+        <v>-0.08823517406084298</v>
       </c>
       <c r="HL3">
-        <v>-0.1737347060546224</v>
+        <v>-0.08836579180132284</v>
       </c>
       <c r="HM3">
-        <v>-0.1732867366678915</v>
+        <v>-0.0877360677432573</v>
       </c>
       <c r="HN3">
-        <v>-0.1733590158724445</v>
+        <v>-0.08790412111705588</v>
       </c>
       <c r="HO3">
-        <v>-0.1747944297572593</v>
+        <v>-0.08912890665715473</v>
       </c>
       <c r="HP3">
-        <v>-0.1750878759758552</v>
+        <v>-0.08934792761126009</v>
       </c>
       <c r="HQ3">
-        <v>-0.1743291700393821</v>
+        <v>-0.08891222428899993</v>
       </c>
       <c r="HR3">
-        <v>-0.1885198623501103</v>
+        <v>-0.09275026816025637</v>
       </c>
       <c r="HS3">
-        <v>-0.171697023331654</v>
+        <v>-0.08782859746923537</v>
       </c>
       <c r="HT3">
-        <v>-0.172187024613483</v>
+        <v>-0.08825875742844869</v>
       </c>
       <c r="HU3">
-        <v>-0.1737418382565181</v>
+        <v>-0.08836707504465172</v>
       </c>
       <c r="HV3">
-        <v>-0.1733574831900212</v>
+        <v>-0.08790375935549369</v>
       </c>
       <c r="HW3">
-        <v>-0.1747944297572918</v>
+        <v>-0.0891289066571307</v>
       </c>
       <c r="HX3">
-        <v>-0.175109510688719</v>
+        <v>-0.08936407482239775</v>
       </c>
       <c r="HY3">
-        <v>-0.1743329376652437</v>
+        <v>-0.08891925978381782</v>
       </c>
       <c r="HZ3">
-        <v>-0.1890721864858431</v>
+        <v>-0.09293370632979668</v>
       </c>
       <c r="IA3">
-        <v>-0.1724100081556696</v>
+        <v>-0.088524176495586</v>
       </c>
       <c r="IB3">
-        <v>-0.172187024613483</v>
+        <v>-0.08825875742844869</v>
       </c>
       <c r="IC3">
-        <v>-0.1737527256749185</v>
+        <v>-0.08836903392870053</v>
       </c>
       <c r="ID3">
-        <v>-0.1733567752578787</v>
+        <v>-0.08790359226103851</v>
       </c>
       <c r="IE3">
-        <v>-0.1747944297573115</v>
+        <v>-0.08912890665712275</v>
       </c>
       <c r="IF3">
-        <v>-0.1751245177293123</v>
+        <v>-0.08937527539420655</v>
       </c>
       <c r="IG3">
-        <v>-0.1743356129159116</v>
+        <v>-0.08892425543229932</v>
       </c>
       <c r="IH3">
-        <v>-0.189435040030969</v>
+        <v>-0.09305421267025515</v>
       </c>
       <c r="II3">
-        <v>-0.1724423917384194</v>
+        <v>-0.08856272309559908</v>
       </c>
       <c r="IJ3">
-        <v>-0.1737654879905816</v>
+        <v>-0.08837133013677027</v>
       </c>
       <c r="IK3">
-        <v>-0.1733560180384118</v>
+        <v>-0.08790341353316682</v>
       </c>
       <c r="IL3">
-        <v>-0.1747944297573255</v>
+        <v>-0.08912890665712984</v>
       </c>
       <c r="IM3">
-        <v>-0.1751394891213519</v>
+        <v>-0.08938644933322365</v>
       </c>
       <c r="IN3">
-        <v>-0.1743662168569434</v>
+        <v>-0.08898140426859509</v>
       </c>
       <c r="IO3">
-        <v>-0.1902160269024036</v>
+        <v>-0.09331357136700841</v>
       </c>
       <c r="IP3">
-        <v>-0.172492158583513</v>
+        <v>-0.08865347146086275</v>
       </c>
       <c r="IQ3">
-        <v>-0.1724920265155857</v>
+        <v>-0.08859029423933708</v>
       </c>
       <c r="IR3">
-        <v>-0.1737850902916241</v>
+        <v>-0.08837485697867448</v>
       </c>
       <c r="IS3">
-        <v>-0.1733552944815342</v>
+        <v>-0.08790324275069109</v>
       </c>
       <c r="IT3">
-        <v>-0.1747944297573488</v>
+        <v>-0.08912890665714887</v>
       </c>
       <c r="IU3">
-        <v>-0.1751613917846612</v>
+        <v>-0.08940279639794431</v>
       </c>
       <c r="IV3">
-        <v>-0.1743752415341069</v>
+        <v>-0.08899825678889407</v>
       </c>
       <c r="IW3">
-        <v>-0.190233788564603</v>
+        <v>-0.09333117057930869</v>
       </c>
       <c r="IX3">
-        <v>-0.1907277372826711</v>
+        <v>-0.09347993712579297</v>
       </c>
       <c r="IY3">
-        <v>-0.1738568228360595</v>
+        <v>-0.08838776284666346</v>
       </c>
       <c r="IZ3">
-        <v>-0.173354488407783</v>
+        <v>-0.08790305249155346</v>
       </c>
       <c r="JA3">
-        <v>-0.1747944297573648</v>
+        <v>-0.08912890665716515</v>
       </c>
       <c r="JB3">
-        <v>-0.1752437707531513</v>
+        <v>-0.08946427948201013</v>
       </c>
       <c r="JC3">
-        <v>-0.1743772606270853</v>
+        <v>-0.08900202721453526</v>
       </c>
       <c r="JD3">
-        <v>-0.1902362438729543</v>
+        <v>-0.0933336034309295</v>
       </c>
       <c r="JE3">
-        <v>-0.1926469116590242</v>
+        <v>-0.09410382724936506</v>
       </c>
       <c r="JF3">
-        <v>-0.1742059780897834</v>
+        <v>-0.08845057633402117</v>
       </c>
       <c r="JG3">
-        <v>-0.1733528245572672</v>
+        <v>-0.08790265976955393</v>
       </c>
       <c r="JH3">
-        <v>-0.1747944297573847</v>
+        <v>-0.0891289066571891</v>
       </c>
       <c r="JI3">
-        <v>-0.1752629985303738</v>
+        <v>-0.08947862991176155</v>
       </c>
       <c r="JJ3">
-        <v>-0.1743960358328259</v>
+        <v>-0.08903549964584337</v>
       </c>
       <c r="JK3">
-        <v>-0.1743783630441634</v>
+        <v>-0.08900414037286829</v>
       </c>
       <c r="JL3">
-        <v>-0.1902373726705981</v>
+        <v>-0.09333472190434805</v>
       </c>
       <c r="JM3">
-        <v>-0.1926701540369976</v>
+        <v>-0.09419457405296383</v>
       </c>
       <c r="JN3">
-        <v>-0.1932867983675064</v>
+        <v>-0.09429431178349985</v>
       </c>
       <c r="JO3">
-        <v>-0.1733510916658055</v>
+        <v>-0.08790225075144466</v>
       </c>
       <c r="JP3">
-        <v>-0.1747944297573959</v>
+        <v>-0.08912890665719522</v>
       </c>
       <c r="JQ3">
-        <v>-0.175271807332307</v>
+        <v>-0.08948520424498935</v>
       </c>
       <c r="JR3">
-        <v>-0.1744146428731982</v>
+        <v>-0.08906867213201632</v>
       </c>
       <c r="JS3">
-        <v>-0.174379655559395</v>
+        <v>-0.08900661791863893</v>
       </c>
       <c r="JT3">
-        <v>-0.1902387133604854</v>
+        <v>-0.09333605033198276</v>
       </c>
       <c r="JU3">
-        <v>-0.192671843512333</v>
+        <v>-0.09420117047416901</v>
       </c>
       <c r="JV3">
-        <v>-0.1956068812171588</v>
+        <v>-0.09498487264936904</v>
       </c>
       <c r="JW3">
-        <v>-0.1733445020793426</v>
+        <v>-0.08790069539493837</v>
       </c>
       <c r="JX3">
-        <v>-0.174794429757398</v>
+        <v>-0.08912890665720052</v>
       </c>
       <c r="JY3">
-        <v>-0.1752775984735914</v>
+        <v>-0.08948952638200133</v>
       </c>
       <c r="JZ3">
-        <v>-0.1743808236341275</v>
+        <v>-0.0890088569313222</v>
       </c>
       <c r="KA3">
-        <v>-0.1902407818882526</v>
+        <v>-0.09333809994049472</v>
       </c>
       <c r="KB3">
-        <v>-0.1926732360317402</v>
+        <v>-0.09420660746361585</v>
       </c>
       <c r="KC3">
-        <v>-0.1959042412045301</v>
+        <v>-0.09522035341974819</v>
       </c>
       <c r="KD3">
-        <v>-0.1959744202993841</v>
+        <v>-0.09500361723847384</v>
       </c>
       <c r="KE3">
-        <v>-0.1733095165731554</v>
+        <v>-0.08789243762035975</v>
       </c>
       <c r="KF3">
-        <v>-0.174794429757398</v>
+        <v>-0.08912890665720052</v>
       </c>
       <c r="KG3">
-        <v>-0.1752995028400002</v>
+        <v>-0.08949757482694419</v>
       </c>
       <c r="KH3">
-        <v>-0.1752799147895931</v>
+        <v>-0.08949227881119848</v>
       </c>
       <c r="KI3">
-        <v>-0.1743820066608394</v>
+        <v>-0.08901112460409866</v>
       </c>
       <c r="KJ3">
-        <v>-0.1902426250958457</v>
+        <v>-0.09333992628963277</v>
       </c>
       <c r="KK3">
-        <v>-0.1926752139996773</v>
+        <v>-0.09421433030753468</v>
       </c>
       <c r="KL3">
-        <v>-0.1960411184593413</v>
+        <v>-0.09532874596211133</v>
       </c>
       <c r="KM3">
-        <v>-0.1975149644588558</v>
+        <v>-0.09508217603064154</v>
       </c>
       <c r="KN3">
-        <v>-0.1753095648443236</v>
+        <v>-0.08950127195153651</v>
       </c>
       <c r="KO3">
-        <v>-0.1752815541303631</v>
+        <v>-0.08949422680515838</v>
       </c>
       <c r="KP3">
-        <v>-0.1743832786543288</v>
+        <v>-0.08901356281142381</v>
       </c>
       <c r="KQ3">
-        <v>-0.1902440581504924</v>
+        <v>-0.09334134623716747</v>
       </c>
       <c r="KR3">
-        <v>-0.1926840981615685</v>
+        <v>-0.09424901812519676</v>
       </c>
       <c r="KS3">
-        <v>-0.1969354295704046</v>
+        <v>-0.0960369287053697</v>
       </c>
       <c r="KT3">
-        <v>-0.1978550665775488</v>
+        <v>-0.09509951722382023</v>
       </c>
       <c r="KU3">
-        <v>-0.1753265946970778</v>
+        <v>-0.08950752928130437</v>
       </c>
       <c r="KV3">
-        <v>-0.1752834618412224</v>
+        <v>-0.08949649369769722</v>
       </c>
       <c r="KW3">
-        <v>-0.1743906555224957</v>
+        <v>-0.08902770307292629</v>
       </c>
       <c r="KX3">
-        <v>-0.1902458419473733</v>
+        <v>-0.09334311371892337</v>
       </c>
       <c r="KY3">
-        <v>-0.1926858084610763</v>
+        <v>-0.09425569595161648</v>
       </c>
       <c r="KZ3">
-        <v>-0.1970022370366809</v>
+        <v>-0.09608983058295437</v>
       </c>
       <c r="LA3">
-        <v>-0.1979680791160289</v>
+        <v>-0.09510527936613233</v>
       </c>
       <c r="LB3">
-        <v>-0.1753592827276441</v>
+        <v>-0.08951953986929993</v>
       </c>
       <c r="LC3">
-        <v>-0.1752871106859155</v>
+        <v>-0.08950082954305737</v>
       </c>
       <c r="LD3">
-        <v>-0.1744218571100757</v>
+        <v>-0.08908751126372277</v>
       </c>
       <c r="LE3">
-        <v>-0.1902476869169854</v>
+        <v>-0.09334494181387337</v>
       </c>
       <c r="LF3">
-        <v>-0.1926870747981057</v>
+        <v>-0.094260640344211</v>
       </c>
       <c r="LG3">
-        <v>-0.1970068210200192</v>
+        <v>-0.09610334967688941</v>
       </c>
       <c r="LH3">
-        <v>-0.1981437322887881</v>
+        <v>-0.09689222652162398</v>
       </c>
       <c r="LI3">
-        <v>-0.1980270644065429</v>
+        <v>-0.09510828680223218</v>
       </c>
       <c r="LJ3">
-        <v>-0.1754555243498275</v>
+        <v>-0.0895549014452548</v>
       </c>
       <c r="LK3">
-        <v>-0.1753011046882674</v>
+        <v>-0.0895174583245162</v>
       </c>
       <c r="LL3">
-        <v>-0.1902498631634151</v>
+        <v>-0.09334709815563727</v>
       </c>
       <c r="LM3">
-        <v>-0.192688533481981</v>
+        <v>-0.09426633576021615</v>
       </c>
       <c r="LN3">
-        <v>-0.1970304302812918</v>
+        <v>-0.09617297912002716</v>
       </c>
       <c r="LO3">
-        <v>-0.1986916732087888</v>
+        <v>-0.09727737069492887</v>
       </c>
       <c r="LP3">
-        <v>-0.1980775580291129</v>
+        <v>-0.09511086126281168</v>
       </c>
       <c r="LQ3">
-        <v>-0.1753488614867361</v>
+        <v>-0.08957420676858587</v>
       </c>
       <c r="LR3">
-        <v>-0.1902511033364888</v>
+        <v>-0.09334832698565981</v>
       </c>
       <c r="LS3">
-        <v>-0.1926899804763428</v>
+        <v>-0.09427198554334737</v>
       </c>
       <c r="LT3">
-        <v>-0.1970386728669584</v>
+        <v>-0.0961972888836523</v>
       </c>
       <c r="LU3">
-        <v>-0.1989204356524536</v>
+        <v>-0.09743212023867544</v>
       </c>
       <c r="LV3">
-        <v>-0.1996052201098247</v>
+        <v>-0.09792322985499918</v>
       </c>
       <c r="LW3">
-        <v>-0.1981349858940331</v>
+        <v>-0.09511378925193922</v>
       </c>
       <c r="LX3">
-        <v>-0.1902567059600277</v>
+        <v>-0.09335387836548253</v>
       </c>
       <c r="LY3">
-        <v>-0.1927026925232601</v>
+        <v>-0.09432162004761967</v>
       </c>
       <c r="LZ3">
-        <v>-0.1970566125780316</v>
+        <v>-0.09625019894359586</v>
       </c>
       <c r="MA3">
-        <v>-0.1990110372725643</v>
+        <v>-0.09749341175132747</v>
       </c>
       <c r="MB3">
-        <v>-0.1998526023830929</v>
+        <v>-0.09819224570514824</v>
       </c>
       <c r="MC3">
-        <v>-0.1997336880067917</v>
+        <v>-0.09799974575105419</v>
       </c>
       <c r="MD3">
-        <v>-0.1981802294803797</v>
+        <v>-0.09511609600458469</v>
       </c>
       <c r="ME3">
-        <v>-0.1902588863938315</v>
+        <v>-0.09335603885613016</v>
       </c>
       <c r="MF3">
-        <v>-0.1927286778797192</v>
+        <v>-0.0944230826036561</v>
       </c>
       <c r="MG3">
-        <v>-0.1970644418556252</v>
+        <v>-0.09624920364344713</v>
       </c>
       <c r="MH3">
-        <v>-0.1970598479883953</v>
+        <v>-0.09627107433404225</v>
       </c>
       <c r="MI3">
-        <v>-0.1999769843377814</v>
+        <v>-0.09832750667970154</v>
       </c>
       <c r="MJ3">
-        <v>-0.1998437515342125</v>
+        <v>-0.09806529935960612</v>
       </c>
       <c r="MK3">
-        <v>-0.1982181616670488</v>
+        <v>-0.09511802997412239</v>
       </c>
       <c r="ML3">
-        <v>-0.190259643875672</v>
+        <v>-0.09335678940971585</v>
       </c>
       <c r="MM3">
-        <v>-0.1970761569513703</v>
+        <v>-0.0962477143646477</v>
       </c>
       <c r="MN3">
-        <v>-0.1970602984891243</v>
+        <v>-0.09627398105383736</v>
       </c>
       <c r="MO3">
-        <v>-0.19998855961787</v>
+        <v>-0.09834009444913649</v>
       </c>
       <c r="MP3">
-        <v>-0.1999211732753931</v>
+        <v>-0.09811141126438799</v>
       </c>
       <c r="MQ3">
-        <v>-0.1982523886674319</v>
+        <v>-0.09511977502716283</v>
       </c>
       <c r="MR3">
-        <v>-0.1902602145378635</v>
+        <v>-0.09335735485238213</v>
       </c>
       <c r="MS3">
-        <v>-0.1970607877647384</v>
+        <v>-0.09627713796137398</v>
       </c>
       <c r="MT3">
-        <v>-0.1999933400800655</v>
+        <v>-0.09834529306126921</v>
       </c>
       <c r="MU3">
-        <v>-0.2000189999868842</v>
+        <v>-0.09816967585964764</v>
       </c>
       <c r="MV3">
-        <v>-0.1982807162628296</v>
+        <v>-0.09512121929521934</v>
       </c>
       <c r="MW3">
-        <v>-0.1902606320606265</v>
+        <v>-0.09335776855629647</v>
       </c>
       <c r="MX3">
-        <v>-0.1970612163351586</v>
+        <v>-0.0962799031903034</v>
       </c>
       <c r="MY3">
-        <v>-0.1999967131972572</v>
+        <v>-0.0983489612281566</v>
       </c>
       <c r="MZ3">
-        <v>-0.2000802989472589</v>
+        <v>-0.09820618468007447</v>
       </c>
       <c r="NA3">
-        <v>-0.1983135780876642</v>
+        <v>-0.09512289473225789</v>
       </c>
       <c r="NB3">
-        <v>-0.1902608440811191</v>
+        <v>-0.09335797863755435</v>
       </c>
       <c r="NC3">
-        <v>-0.1970616716913613</v>
+        <v>-0.09628284125085083</v>
       </c>
       <c r="ND3">
-        <v>-0.2000001633767819</v>
+        <v>-0.09835271319901381</v>
       </c>
       <c r="NE3">
-        <v>-0.2001744324205722</v>
+        <v>-0.09826224896007449</v>
       </c>
       <c r="NF3">
-        <v>-0.1983496957000705</v>
+        <v>-0.09512473615540057</v>
       </c>
       <c r="NG3">
-        <v>-0.1902611557963392</v>
+        <v>-0.09335828750168848</v>
       </c>
       <c r="NH3">
-        <v>-0.1970623215823575</v>
+        <v>-0.09628703450065018</v>
       </c>
       <c r="NI3">
-        <v>-0.2000042343484103</v>
+        <v>-0.0983571402646068</v>
       </c>
       <c r="NJ3">
-        <v>-0.2002682752596298</v>
+        <v>-0.09831813975004909</v>
       </c>
       <c r="NK3">
-        <v>-0.1985465993085432</v>
+        <v>-0.09513477495812325</v>
       </c>
       <c r="NL3">
-        <v>-0.1902616783330858</v>
+        <v>-0.09335880525907903</v>
       </c>
       <c r="NM3">
-        <v>-0.1970631116443712</v>
+        <v>-0.09629213217804147</v>
       </c>
       <c r="NN3">
-        <v>-0.2000093695980147</v>
+        <v>-0.09836272470402051</v>
       </c>
       <c r="NO3">
-        <v>-0.2003735731830788</v>
+        <v>-0.09838085247608802</v>
       </c>
       <c r="NP3">
-        <v>-0.1999778255201099</v>
+        <v>-0.09595870260038934</v>
       </c>
       <c r="NQ3">
-        <v>-0.1985709447555877</v>
+        <v>-0.09478899419085336</v>
       </c>
       <c r="NR3">
-        <v>-0.1902640090763281</v>
+        <v>-0.09336111468426971</v>
       </c>
       <c r="NS3">
-        <v>-0.1970680087101472</v>
+        <v>-0.09632372954264629</v>
       </c>
       <c r="NT3">
-        <v>-0.2000139687228907</v>
+        <v>-0.09836772612464346</v>
       </c>
       <c r="NU3">
-        <v>-0.2004497726667508</v>
+        <v>-0.09842623461396295</v>
       </c>
       <c r="NV3">
-        <v>-0.2013488772831105</v>
+        <v>-0.09674792976391958</v>
       </c>
       <c r="NW3">
-        <v>-0.1987204337828856</v>
+        <v>-0.09266704420399438</v>
       </c>
       <c r="NX3">
-        <v>-0.1985709447555631</v>
+        <v>-0.09478899419083014</v>
       </c>
       <c r="NY3">
-        <v>-0.1902725768727099</v>
+        <v>-0.09336960411518989</v>
       </c>
       <c r="NZ3">
-        <v>-0.1970847652682577</v>
+        <v>-0.09643185153748629</v>
       </c>
       <c r="OA3">
-        <v>-0.2000176079007217</v>
+        <v>-0.09837168363068369</v>
       </c>
       <c r="OB3">
-        <v>-0.2005405978697299</v>
+        <v>-0.09848032705549821</v>
       </c>
       <c r="OC3">
-        <v>-0.2014099186024574</v>
+        <v>-0.09678306601446136</v>
       </c>
       <c r="OD3">
-        <v>-0.1987750703237929</v>
+        <v>-0.09189203477725975</v>
       </c>
       <c r="OE3">
-        <v>-0.1985709447554247</v>
+        <v>-0.09478899419069917</v>
       </c>
       <c r="OF3">
-        <v>-0.2000238536178246</v>
+        <v>-0.09837847567909261</v>
       </c>
       <c r="OG3">
-        <v>-0.2006723885054391</v>
+        <v>-0.09855881647938187</v>
       </c>
       <c r="OH3">
-        <v>-0.2017729981974231</v>
+        <v>-0.0968190874278362</v>
       </c>
       <c r="OI3">
-        <v>-0.2023149993419458</v>
+        <v>-0.09740579960021357</v>
       </c>
       <c r="OJ3">
-        <v>-0.1987806316682482</v>
+        <v>-0.09181316428808618</v>
       </c>
       <c r="OK3">
-        <v>-0.1985709447554131</v>
+        <v>-0.09478899419069034</v>
       </c>
       <c r="OL3">
-        <v>-0.2000456568665595</v>
+        <v>-0.0984021861464022</v>
       </c>
       <c r="OM3">
-        <v>-0.2007700987344938</v>
+        <v>-0.09861700842652341</v>
       </c>
       <c r="ON3">
-        <v>-0.2018062686510189</v>
+        <v>-0.09682238785508016</v>
       </c>
       <c r="OO3">
-        <v>-0.2027516896786356</v>
+        <v>-0.09770625371346489</v>
       </c>
       <c r="OP3">
-        <v>-0.1987845127657537</v>
+        <v>-0.09175812468077466</v>
       </c>
       <c r="OQ3">
-        <v>-0.1985709447554091</v>
+        <v>-0.09478899419068711</v>
       </c>
       <c r="OR3">
-        <v>-0.2001789580523211</v>
+        <v>-0.0985471485409367</v>
       </c>
       <c r="OS3">
-        <v>-0.2008643588196378</v>
+        <v>-0.09867314521519799</v>
       </c>
       <c r="OT3">
-        <v>-0.2018251824405993</v>
+        <v>-0.09682426407501211</v>
       </c>
       <c r="OU3">
-        <v>-0.2040692742660271</v>
+        <v>-0.09861275722397955</v>
       </c>
       <c r="OV3">
-        <v>-0.2027516896788745</v>
+        <v>-0.0977062537134807</v>
       </c>
       <c r="OW3">
-        <v>-0.1987885332436907</v>
+        <v>-0.0917011099905492</v>
       </c>
       <c r="OX3">
-        <v>-0.1985709447554077</v>
+        <v>-0.09478899419068477</v>
       </c>
       <c r="OY3">
-        <v>-0.2009566137663244</v>
+        <v>-0.09872808745596003</v>
       </c>
       <c r="OZ3">
-        <v>-0.2018380254505577</v>
+        <v>-0.09682553807143571</v>
       </c>
       <c r="PA3">
-        <v>-0.2059462506227645</v>
+        <v>-0.09990405095466977</v>
       </c>
       <c r="PB3">
-        <v>-0.2027516896789286</v>
+        <v>-0.09770625371348489</v>
       </c>
       <c r="PC3">
-        <v>-0.1988054169686483</v>
+        <v>-0.09146169770312312</v>
       </c>
       <c r="PD3">
-        <v>-0.1985709447554035</v>
+        <v>-0.09478899419068262</v>
       </c>
       <c r="PE3">
-        <v>-0.2010675678487613</v>
+        <v>-0.09879416542537114</v>
       </c>
       <c r="PF3">
-        <v>-0.2018589563178441</v>
+        <v>-0.09682761434497496</v>
       </c>
       <c r="PG3">
-        <v>-0.2063390907306826</v>
+        <v>-0.1001743001949632</v>
       </c>
       <c r="PH3">
-        <v>-0.2027516896789659</v>
+        <v>-0.09770625371348089</v>
       </c>
       <c r="PI3">
-        <v>-0.1988095395939144</v>
+        <v>-0.09140324279817238</v>
       </c>
       <c r="PJ3">
-        <v>-0.1985709447553476</v>
+        <v>-0.09478899419065995</v>
       </c>
       <c r="PK3">
-        <v>-0.20125340429683</v>
+        <v>-0.09890483786260029</v>
       </c>
       <c r="PL3">
-        <v>-0.2010675678487613</v>
+        <v>-0.09879416542537114</v>
       </c>
       <c r="PM3">
-        <v>-0.2019285332265557</v>
+        <v>-0.09683451597438845</v>
       </c>
       <c r="PN3">
-        <v>-0.2064394995028951</v>
+        <v>-0.1002433744956036</v>
       </c>
       <c r="PO3">
-        <v>-0.2027516896790028</v>
+        <v>-0.09770625371347126</v>
       </c>
       <c r="PP3">
-        <v>-0.198813472135573</v>
+        <v>-0.09134748462753781</v>
       </c>
       <c r="PQ3">
-        <v>-0.1985709447553284</v>
+        <v>-0.09478899419065256</v>
       </c>
       <c r="PR3">
-        <v>-0.2018802979057708</v>
+        <v>-0.09927816469871711</v>
       </c>
       <c r="PS3">
-        <v>-0.20125340429683</v>
+        <v>-0.09890483786260029</v>
       </c>
       <c r="PT3">
-        <v>-0.2020059967178293</v>
+        <v>-0.09684219959592799</v>
       </c>
       <c r="PU3">
-        <v>-0.206492102760354</v>
+        <v>-0.1002795618049923</v>
       </c>
       <c r="PV3">
-        <v>-0.2027516896790365</v>
+        <v>-0.09770625371346044</v>
       </c>
       <c r="PW3">
-        <v>-0.198817383293436</v>
+        <v>-0.09129203113169961</v>
       </c>
       <c r="PX3">
-        <v>-0.1985709447553219</v>
+        <v>-0.0947889941906493</v>
       </c>
       <c r="PY3">
-        <v>-0.2027671877863501</v>
+        <v>-0.09980629424184</v>
       </c>
       <c r="PZ3">
-        <v>-0.2018802979057708</v>
+        <v>-0.09927816469871711</v>
       </c>
       <c r="QA3">
-        <v>-0.2020495630754295</v>
+        <v>-0.09684652080876244</v>
       </c>
       <c r="QB3">
-        <v>-0.2065357105296718</v>
+        <v>-0.1003095608052171</v>
       </c>
       <c r="QC3">
-        <v>-0.2027516896790661</v>
+        <v>-0.09770625371344142</v>
       </c>
       <c r="QD3">
-        <v>-0.1988218699024258</v>
+        <v>-0.09122842054715261</v>
       </c>
       <c r="QE3">
-        <v>-0.1985709447553106</v>
+        <v>-0.09478899419064261</v>
       </c>
       <c r="QF3">
-        <v>-0.2034037363384288</v>
+        <v>-0.1001853276903187</v>
       </c>
       <c r="QG3">
-        <v>-0.2027671877863501</v>
+        <v>-0.09980629424184</v>
       </c>
       <c r="QH3">
-        <v>-0.2020904898320386</v>
+        <v>-0.09685058011313311</v>
       </c>
       <c r="QI3">
-        <v>-0.2065710523896652</v>
+        <v>-0.1003338734217454</v>
       </c>
       <c r="QJ3">
-        <v>-0.2027516896790914</v>
+        <v>-0.09770625371342236</v>
       </c>
       <c r="QK3">
-        <v>-0.1988373641980398</v>
+        <v>-0.09100875929640601</v>
       </c>
       <c r="QL3">
-        <v>-0.1985709447553011</v>
+        <v>-0.09478899419063601</v>
       </c>
       <c r="QM3">
-        <v>-0.2035968905123953</v>
+        <v>-0.1003003379581964</v>
       </c>
       <c r="QN3">
-        <v>-0.2034037363384288</v>
+        <v>-0.1001853276903187</v>
       </c>
       <c r="QO3">
-        <v>-0.2021295380428197</v>
+        <v>-0.09685445300926585</v>
       </c>
       <c r="QP3">
-        <v>-0.2066250751844139</v>
+        <v>-0.1003710370967678</v>
       </c>
       <c r="QQ3">
-        <v>-0.202751689679105</v>
+        <v>-0.0977062537134003</v>
       </c>
       <c r="QR3">
-        <v>-0.1989128721854377</v>
+        <v>-0.08993862090577068</v>
       </c>
       <c r="QS3">
-        <v>-0.1985709447552911</v>
+        <v>-0.09478899419063064</v>
       </c>
       <c r="QT3">
-        <v>-0.2041190200720075</v>
+        <v>-0.1005902736530314</v>
       </c>
       <c r="QU3">
-        <v>-0.2035968905123953</v>
+        <v>-0.1003003379581965</v>
       </c>
       <c r="QV3">
-        <v>-0.203597426552142</v>
+        <v>-0.1003019882084657</v>
       </c>
       <c r="QW3">
-        <v>-0.2021936508775607</v>
+        <v>-0.09686081169464887</v>
       </c>
       <c r="QX3">
-        <v>-0.2066737762509928</v>
+        <v>-0.1004045397562391</v>
       </c>
       <c r="QY3">
-        <v>-0.2027516896791152</v>
+        <v>-0.09770625371338934</v>
       </c>
       <c r="QZ3">
-        <v>-0.1985709447552807</v>
+        <v>-0.09478899419062606</v>
       </c>
       <c r="RA3">
-        <v>-0.2046992317295058</v>
+        <v>-0.1009124472944551</v>
       </c>
       <c r="RB3">
-        <v>-0.2041190200720075</v>
+        <v>-0.1005902736530314</v>
       </c>
       <c r="RC3">
-        <v>-0.2041190200720075</v>
+        <v>-0.1005902736530314</v>
       </c>
       <c r="RD3">
-        <v>-0.2035975048032867</v>
+        <v>-0.1003022291785005</v>
       </c>
       <c r="RE3">
-        <v>-0.2022383077860758</v>
+        <v>-0.09686524061620154</v>
       </c>
       <c r="RF3">
-        <v>-0.2067201279608168</v>
+        <v>-0.1004364261814673</v>
       </c>
       <c r="RG3">
-        <v>-0.2027516896791241</v>
+        <v>-0.09770625371337277</v>
       </c>
       <c r="RH3">
-        <v>-0.1985709447552323</v>
+        <v>-0.09478899419060405</v>
       </c>
       <c r="RI3">
-        <v>-0.2049118764000122</v>
+        <v>-0.1010305184413299</v>
       </c>
       <c r="RJ3">
-        <v>-0.2046992317295058</v>
+        <v>-0.1009124472944551</v>
       </c>
       <c r="RK3">
-        <v>-0.2035975474682815</v>
+        <v>-0.1003023605700911</v>
       </c>
       <c r="RL3">
-        <v>-0.20226968525365</v>
+        <v>-0.09686835246235508</v>
       </c>
       <c r="RM3">
-        <v>-0.2067723463294027</v>
+        <v>-0.100472348355318</v>
       </c>
       <c r="RN3">
-        <v>-0.2027516896791304</v>
+        <v>-0.09770625371335498</v>
       </c>
       <c r="RO3">
-        <v>-0.1985709447552305</v>
+        <v>-0.09478899419060274</v>
       </c>
       <c r="RP3">
-        <v>-0.2052592298750934</v>
+        <v>-0.1012433996971005</v>
       </c>
       <c r="RQ3">
-        <v>-0.2049118764000122</v>
+        <v>-0.1010305184413299</v>
       </c>
       <c r="RR3">
-        <v>-0.2051141711366105</v>
+        <v>-0.1010630351184389</v>
       </c>
       <c r="RS3">
-        <v>-0.203597576369141</v>
+        <v>-0.100302449576357</v>
       </c>
       <c r="RT3">
-        <v>-0.2022846777525466</v>
+        <v>-0.09686983931764177</v>
       </c>
       <c r="RU3">
-        <v>-0.2068275061386927</v>
+        <v>-0.1005102939387963</v>
       </c>
       <c r="RV3">
-        <v>-0.202751689679145</v>
+        <v>-0.09770625371332602</v>
       </c>
       <c r="RW3">
-        <v>-0.1985709447552296</v>
+        <v>-0.09478899419060399</v>
       </c>
       <c r="RX3">
-        <v>-0.2057571427401665</v>
+        <v>-0.1015485426145461</v>
       </c>
       <c r="RY3">
-        <v>-0.2052592298750934</v>
+        <v>-0.1012433996971005</v>
       </c>
       <c r="RZ3">
-        <v>-0.2051162372303842</v>
+        <v>-0.1010650865444198</v>
       </c>
       <c r="SA3">
-        <v>-0.2051797833617507</v>
+        <v>-0.1010614658444097</v>
       </c>
       <c r="SB3">
-        <v>-0.2035976202656404</v>
+        <v>-0.1003025847692607</v>
       </c>
       <c r="SC3">
-        <v>-0.2022941751422312</v>
+        <v>-0.09687078119856536</v>
       </c>
       <c r="SD3">
-        <v>-0.206948113049809</v>
+        <v>-0.1005932616888289</v>
       </c>
       <c r="SE3">
-        <v>-0.2027516896791652</v>
+        <v>-0.09770625371329185</v>
       </c>
       <c r="SF3">
-        <v>-0.1985709447552278</v>
+        <v>-0.09478899419060387</v>
       </c>
       <c r="SG3">
-        <v>-0.2060610447203239</v>
+        <v>-0.101734780684148</v>
       </c>
       <c r="SH3">
-        <v>-0.2057571427401665</v>
+        <v>-0.1015485426145461</v>
       </c>
       <c r="SI3">
-        <v>-0.2051171105176929</v>
+        <v>-0.1010659536320284</v>
       </c>
       <c r="SJ3">
-        <v>-0.2052217688133287</v>
+        <v>-0.1010604614244625</v>
       </c>
       <c r="SK3">
-        <v>-0.2035976868781854</v>
+        <v>-0.1003027899334562</v>
       </c>
       <c r="SL3">
-        <v>-0.2023005965708453</v>
+        <v>-0.09687141802560477</v>
       </c>
       <c r="SM3">
-        <v>-0.2096840515456532</v>
+        <v>-0.1024752690855977</v>
       </c>
       <c r="SN3">
-        <v>-0.2027516896791796</v>
+        <v>-0.09770625371326815</v>
       </c>
       <c r="SO3">
-        <v>-0.1985709447552278</v>
+        <v>-0.09478899419060387</v>
       </c>
       <c r="SP3">
-        <v>-0.2061133829886882</v>
+        <v>-0.1017668542768954</v>
       </c>
       <c r="SQ3">
-        <v>-0.2060610447203239</v>
+        <v>-0.101734780684148</v>
       </c>
       <c r="SR3">
-        <v>-0.2051176236437574</v>
+        <v>-0.1010664631152786</v>
       </c>
       <c r="SS3">
-        <v>-0.2035977341341332</v>
+        <v>-0.1003029354874778</v>
       </c>
       <c r="ST3">
-        <v>-0.2023095537180723</v>
+        <v>-0.09687230632160718</v>
       </c>
       <c r="SU3">
-        <v>-0.2097330514705878</v>
+        <v>-0.1025472282744953</v>
       </c>
       <c r="SV3">
-        <v>-0.2100949841288646</v>
+        <v>-0.1027503018456017</v>
       </c>
       <c r="SW3">
-        <v>-0.2027516896791889</v>
+        <v>-0.09770625371325592</v>
       </c>
       <c r="SX3">
-        <v>-0.2062204413463975</v>
+        <v>-0.101873098450844</v>
       </c>
       <c r="SY3">
-        <v>-0.2061133829886882</v>
+        <v>-0.1017668542768954</v>
       </c>
       <c r="SZ3">
-        <v>-0.2059257261865191</v>
+        <v>-0.1014237686268752</v>
       </c>
       <c r="TA3">
-        <v>-0.2051180958738799</v>
+        <v>-0.101066931992921</v>
       </c>
       <c r="TB3">
-        <v>-0.2035977664183083</v>
+        <v>-0.1003030349301856</v>
       </c>
       <c r="TC3">
-        <v>-0.2023163899077378</v>
+        <v>-0.09687298427557378</v>
       </c>
       <c r="TD3">
-        <v>-0.2097762629465571</v>
+        <v>-0.1026106883048032</v>
       </c>
       <c r="TE3">
-        <v>-0.2103166803188518</v>
+        <v>-0.1028986788858631</v>
       </c>
       <c r="TF3">
-        <v>-0.2027516896792027</v>
+        <v>-0.09770625371324826</v>
       </c>
       <c r="TG3">
-        <v>-0.2062992506499275</v>
+        <v>-0.1019513082579901</v>
       </c>
       <c r="TH3">
-        <v>-0.2062204413463975</v>
+        <v>-0.101873098450844</v>
       </c>
       <c r="TI3">
-        <v>-0.2058148199146891</v>
+        <v>-0.1012210169819873</v>
       </c>
       <c r="TJ3">
-        <v>-0.2051185165909946</v>
+        <v>-0.101067349723262</v>
       </c>
       <c r="TK3">
-        <v>-0.2035977919281953</v>
+        <v>-0.100303113508564</v>
       </c>
       <c r="TL3">
-        <v>-0.2023651750826389</v>
+        <v>-0.09687782229166493</v>
       </c>
       <c r="TM3">
-        <v>-0.2103497899314833</v>
+        <v>-0.1029208384089499</v>
       </c>
       <c r="TN3">
-        <v>-0.2027516896792092</v>
+        <v>-0.09770625371324544</v>
       </c>
       <c r="TO3">
-        <v>-0.2064065517921207</v>
+        <v>-0.1020577929667818</v>
       </c>
       <c r="TP3">
-        <v>-0.2062992506499275</v>
+        <v>-0.1019513082579901</v>
       </c>
       <c r="TQ3">
-        <v>-0.205726935309318</v>
+        <v>-0.1010603594326121</v>
       </c>
       <c r="TR3">
-        <v>-0.2051189530369792</v>
+        <v>-0.1010677830708101</v>
       </c>
       <c r="TS3">
-        <v>-0.2035978737140439</v>
+        <v>-0.1003033654465262</v>
       </c>
       <c r="TT3">
-        <v>-0.2023742154074338</v>
+        <v>-0.0968869585037789</v>
       </c>
       <c r="TU3">
-        <v>-0.2028384763537514</v>
+        <v>-0.09690082456024557</v>
       </c>
       <c r="TV3">
-        <v>-0.2103750638150885</v>
+        <v>-0.1029377536345591</v>
       </c>
       <c r="TW3">
-        <v>-0.2027516896792121</v>
+        <v>-0.09770625371324267</v>
       </c>
       <c r="TX3">
-        <v>-0.2064824856593652</v>
+        <v>-0.1021331489275148</v>
       </c>
       <c r="TY3">
-        <v>-0.2064065517921207</v>
+        <v>-0.1020577929667818</v>
       </c>
       <c r="TZ3">
-        <v>-0.2056906185493818</v>
+        <v>-0.1009939724448932</v>
       </c>
       <c r="UA3">
-        <v>-0.2051202705955587</v>
+        <v>-0.1010690912757396</v>
       </c>
       <c r="UB3">
-        <v>-0.2035985349242621</v>
+        <v>-0.1003054029573592</v>
       </c>
       <c r="UC3">
-        <v>-0.2023841980344937</v>
+        <v>-0.09689704688762081</v>
       </c>
       <c r="UD3">
-        <v>-0.2103987015042885</v>
+        <v>-0.1029535737779657</v>
       </c>
       <c r="UE3">
-        <v>-0.202751689679208</v>
+        <v>-0.09770625371323902</v>
       </c>
       <c r="UF3">
-        <v>-0.2066948448212911</v>
+        <v>-0.1023438912784636</v>
       </c>
       <c r="UG3">
-        <v>-0.2064824856593652</v>
+        <v>-0.1021331489275148</v>
       </c>
       <c r="UH3">
-        <v>-0.2056909673304873</v>
+        <v>-0.1009916095352247</v>
       </c>
       <c r="UI3">
-        <v>-0.2055357015838222</v>
+        <v>-0.1007502648314581</v>
       </c>
       <c r="UJ3">
-        <v>-0.2051215983759206</v>
+        <v>-0.1010704096299064</v>
       </c>
       <c r="UK3">
-        <v>-0.2035985678371982</v>
+        <v>-0.1003055044097911</v>
       </c>
       <c r="UL3">
-        <v>-0.2024112568206009</v>
+        <v>-0.09692439167602132</v>
       </c>
       <c r="UM3">
-        <v>-0.2104239082371568</v>
+        <v>-0.1029704440288769</v>
       </c>
       <c r="UN3">
-        <v>-0.2027516896792032</v>
+        <v>-0.09770625371323782</v>
       </c>
       <c r="UO3">
-        <v>-0.2068486198433243</v>
+        <v>-0.1024964949550263</v>
       </c>
       <c r="UP3">
-        <v>-0.2066948448212911</v>
+        <v>-0.1023438912784636</v>
       </c>
       <c r="UQ3">
-        <v>-0.2056910956716383</v>
+        <v>-0.1009907400548286</v>
       </c>
       <c r="UR3">
-        <v>-0.2054184951065302</v>
+        <v>-0.100565890021932</v>
       </c>
       <c r="US3">
-        <v>-0.2051340045450348</v>
+        <v>-0.101082727726146</v>
       </c>
       <c r="UT3">
-        <v>-0.2035985938056693</v>
+        <v>-0.1003055844583911</v>
       </c>
       <c r="UU3">
-        <v>-0.2104462131937472</v>
+        <v>-0.1029853721778934</v>
       </c>
       <c r="UV3">
-        <v>-0.2027516896792032</v>
+        <v>-0.09770625371323785</v>
       </c>
       <c r="UW3">
-        <v>-0.2068648294418693</v>
+        <v>-0.1025086248171367</v>
       </c>
       <c r="UX3">
-        <v>-0.2068486198433243</v>
+        <v>-0.1024964949550263</v>
       </c>
       <c r="UY3">
-        <v>-0.2069831310900016</v>
+        <v>-0.1026597192626752</v>
       </c>
       <c r="UZ3">
-        <v>-0.2056912868455968</v>
+        <v>-0.1009894448978929</v>
       </c>
       <c r="VA3">
-        <v>-0.203598623162689</v>
+        <v>-0.1003056749545387</v>
       </c>
       <c r="VB3">
-        <v>-0.2104690272758394</v>
+        <v>-0.1030006410583848</v>
       </c>
       <c r="VC3">
-        <v>-0.2068686675855855</v>
+        <v>-0.1025114969503454</v>
       </c>
       <c r="VD3">
-        <v>-0.2068648294418693</v>
+        <v>-0.1025086248171367</v>
       </c>
       <c r="VE3">
-        <v>-0.2070001362513073</v>
+        <v>-0.1026803542730105</v>
       </c>
       <c r="VF3">
-        <v>-0.2056914018794858</v>
+        <v>-0.1009886655717138</v>
       </c>
       <c r="VG3">
-        <v>-0.2035986492904345</v>
+        <v>-0.1003057554981108</v>
       </c>
       <c r="VH3">
-        <v>-0.2105867784188931</v>
+        <v>-0.1030794486641536</v>
       </c>
       <c r="VI3">
-        <v>-0.2069727193978513</v>
+        <v>-0.1025893600352474</v>
       </c>
       <c r="VJ3">
-        <v>-0.2068686675855854</v>
+        <v>-0.1025114969503453</v>
       </c>
       <c r="VK3">
-        <v>-0.2068686675855924</v>
+        <v>-0.102511496950313</v>
       </c>
       <c r="VL3">
-        <v>-0.2070126850158777</v>
+        <v>-0.1026955816274665</v>
       </c>
       <c r="VM3">
-        <v>-0.2056915406831511</v>
+        <v>-0.1009877252115201</v>
       </c>
       <c r="VN3">
-        <v>-0.2035986793623815</v>
+        <v>-0.10030584820275</v>
       </c>
       <c r="VO3">
-        <v>-0.2106278807629242</v>
+        <v>-0.1031400125649273</v>
       </c>
       <c r="VP3">
-        <v>-0.2108348158317549</v>
+        <v>-0.1032406633521105</v>
       </c>
       <c r="VQ3">
-        <v>-0.2070456418130228</v>
+        <v>-0.102643928372484</v>
       </c>
       <c r="VR3">
-        <v>-0.2069727193978513</v>
+        <v>-0.1025893600352474</v>
       </c>
       <c r="VS3">
-        <v>-0.2068686675855954</v>
+        <v>-0.1025114969502994</v>
       </c>
       <c r="VT3">
-        <v>-0.2070248951280322</v>
+        <v>-0.1027103980297965</v>
       </c>
       <c r="VU3">
-        <v>-0.2056916625587938</v>
+        <v>-0.1009868995347741</v>
       </c>
       <c r="VV3">
-        <v>-0.2035987101951545</v>
+        <v>-0.1003059432554314</v>
       </c>
       <c r="VW3">
-        <v>-0.2106302493959895</v>
+        <v>-0.1031435027338928</v>
       </c>
       <c r="VX3">
-        <v>-0.2120202272163315</v>
+        <v>-0.1040111117120213</v>
       </c>
       <c r="VY3">
-        <v>-0.2070510716381523</v>
+        <v>-0.1026854018256286</v>
       </c>
       <c r="VZ3">
-        <v>-0.2070623331954722</v>
+        <v>-0.1026519800085585</v>
       </c>
       <c r="WA3">
-        <v>-0.206868667585597</v>
+        <v>-0.102511496950291</v>
       </c>
       <c r="WB3">
-        <v>-0.2071395958497815</v>
+        <v>-0.1028495813945755</v>
       </c>
       <c r="WC3">
-        <v>-0.2056924600753606</v>
+        <v>-0.1009814965683684</v>
       </c>
       <c r="WD3">
-        <v>-0.2035987472544054</v>
+        <v>-0.1003060575068786</v>
       </c>
       <c r="WE3">
-        <v>-0.2106314390122652</v>
+        <v>-0.1031452556279859</v>
       </c>
       <c r="WF3">
-        <v>-0.2121454243272074</v>
+        <v>-0.104135042355895</v>
       </c>
       <c r="WG3">
-        <v>-0.2133616536063341</v>
+        <v>-0.1048650257270051</v>
       </c>
       <c r="WH3">
-        <v>-0.2070559136340115</v>
+        <v>-0.1027223874669075</v>
       </c>
       <c r="WI3">
-        <v>-0.2070510716381523</v>
+        <v>-0.1026854018256286</v>
       </c>
       <c r="WJ3">
-        <v>-0.2070510716381523</v>
+        <v>-0.1026854018256286</v>
       </c>
       <c r="WK3">
-        <v>-0.2074177789722452</v>
+        <v>-0.1028233490298503</v>
       </c>
       <c r="WL3">
-        <v>-0.2070623331954722</v>
+        <v>-0.1026519800085585</v>
       </c>
       <c r="WM3">
-        <v>-0.2068686675856004</v>
+        <v>-0.1025114969502817</v>
       </c>
       <c r="WN3">
-        <v>-0.2071929806122208</v>
+        <v>-0.1029143606483529</v>
       </c>
       <c r="WO3">
-        <v>-0.2056983405672065</v>
+        <v>-0.1009416581619092</v>
       </c>
       <c r="WP3">
-        <v>-0.2035987704870142</v>
+        <v>-0.1003061291335628</v>
       </c>
       <c r="WQ3">
-        <v>-0.2106324365705182</v>
+        <v>-0.103146725525708</v>
       </c>
       <c r="WR3">
-        <v>-0.2122114938350211</v>
+        <v>-0.1042004434938255</v>
       </c>
       <c r="WS3">
-        <v>-0.2146467359024849</v>
+        <v>-0.1056830254275199</v>
       </c>
       <c r="WT3">
-        <v>-0.2070603682062168</v>
+        <v>-0.102756494300825</v>
       </c>
       <c r="WU3">
-        <v>-0.2070559136340115</v>
+        <v>-0.1027223874669075</v>
       </c>
       <c r="WV3">
-        <v>-0.2070559136340115</v>
+        <v>-0.1027223874669075</v>
       </c>
       <c r="WW3">
-        <v>-0.207501447979049</v>
+        <v>-0.1028636860679941</v>
       </c>
       <c r="WX3">
-        <v>-0.2068686675856022</v>
+        <v>-0.1025114969502763</v>
       </c>
       <c r="WY3">
-        <v>-0.2072180366901713</v>
+        <v>-0.1029447646344866</v>
       </c>
       <c r="WZ3">
-        <v>-0.2035988703250477</v>
+        <v>-0.1003064369536404</v>
       </c>
       <c r="XA3">
-        <v>-0.2106332500447047</v>
+        <v>-0.1031479241765261</v>
       </c>
       <c r="XB3">
-        <v>-0.2146702752768115</v>
+        <v>-0.1057057024928504</v>
       </c>
       <c r="XC3">
-        <v>-0.2149933608502556</v>
+        <v>-0.105898757043673</v>
       </c>
       <c r="XD3">
-        <v>-0.2070664356308112</v>
+        <v>-0.10280295643819</v>
       </c>
       <c r="XE3">
-        <v>-0.2068686675856062</v>
+        <v>-0.1025114969502729</v>
       </c>
       <c r="XF3">
-        <v>-0.2072347496381024</v>
+        <v>-0.1029650447236294</v>
       </c>
       <c r="XG3">
-        <v>-0.2035992910892769</v>
+        <v>-0.1003077345558091</v>
       </c>
       <c r="XH3">
-        <v>-0.2106345269621226</v>
+        <v>-0.1031498057093088</v>
       </c>
       <c r="XI3">
-        <v>-0.2146760472229228</v>
+        <v>-0.1057112629970554</v>
       </c>
       <c r="XJ3">
-        <v>-0.2150731110565656</v>
+        <v>-0.1059483913002145</v>
       </c>
       <c r="XK3">
-        <v>-0.2070682151150676</v>
+        <v>-0.1028165844734748</v>
       </c>
       <c r="XL3">
-        <v>-0.2068686675856081</v>
+        <v>-0.1025114969502654</v>
       </c>
       <c r="XM3">
-        <v>-0.207260300866335</v>
+        <v>-0.1029960494525397</v>
       </c>
       <c r="XN3">
-        <v>-0.2106375718485444</v>
+        <v>-0.1031542923389069</v>
       </c>
       <c r="XO3">
-        <v>-0.2146800106645245</v>
+        <v>-0.1057150812470459</v>
       </c>
       <c r="XP3">
-        <v>-0.2151126872586536</v>
+        <v>-0.1059730223331379</v>
       </c>
       <c r="XQ3">
-        <v>-0.2070741043614721</v>
+        <v>-0.1028616912853737</v>
       </c>
       <c r="XR3">
-        <v>-0.2068686675856106</v>
+        <v>-0.1025114969502582</v>
       </c>
       <c r="XS3">
-        <v>-0.207310202959687</v>
+        <v>-0.1030566021890735</v>
       </c>
       <c r="XT3">
-        <v>-0.2106396784193539</v>
+        <v>-0.103157396364901</v>
       </c>
       <c r="XU3">
-        <v>-0.2146855048605511</v>
+        <v>-0.1057203741756577</v>
       </c>
       <c r="XV3">
-        <v>-0.2151561786630265</v>
+        <v>-0.1060000900178241</v>
       </c>
       <c r="XW3">
-        <v>-0.20686866758561</v>
+        <v>-0.1025114969502557</v>
       </c>
       <c r="XX3">
-        <v>-0.2073239973762771</v>
+        <v>-0.1030733407215772</v>
       </c>
       <c r="XY3">
-        <v>-0.2106423569143036</v>
+        <v>-0.1031613431208773</v>
       </c>
       <c r="XZ3">
-        <v>-0.2146985332775976</v>
+        <v>-0.105732925325631</v>
       </c>
       <c r="YA3">
-        <v>-0.2152063615953564</v>
+        <v>-0.1060313222319005</v>
       </c>
       <c r="YB3">
-        <v>-0.2068686675856092</v>
+        <v>-0.1025114969502534</v>
       </c>
       <c r="YC3">
-        <v>-0.2073280021326565</v>
+        <v>-0.1030782002024119</v>
       </c>
       <c r="YD3">
-        <v>-0.2106439840787839</v>
+        <v>-0.1031637407446671</v>
       </c>
       <c r="YE3">
-        <v>-0.2147084370555744</v>
+        <v>-0.1057424663002128</v>
       </c>
       <c r="YF3">
-        <v>-0.2152570934800549</v>
+        <v>-0.1060628960224109</v>
       </c>
       <c r="YG3">
-        <v>-0.2068686675856062</v>
+        <v>-0.1025114969502493</v>
       </c>
       <c r="YH3">
-        <v>-0.2073289113021055</v>
+        <v>-0.1030807133274109</v>
       </c>
       <c r="YI3">
-        <v>-0.2073416256199459</v>
+        <v>-0.1030872422891818</v>
       </c>
       <c r="YJ3">
-        <v>-0.210645453062313</v>
+        <v>-0.103165905289625</v>
       </c>
       <c r="YK3">
-        <v>-0.2147153893751351</v>
+        <v>-0.1057491639363793</v>
       </c>
       <c r="YL3">
-        <v>-0.215313336747804</v>
+        <v>-0.1060978998228677</v>
       </c>
       <c r="YM3">
-        <v>-0.2068686675856022</v>
+        <v>-0.1025114969502391</v>
       </c>
       <c r="YN3">
-        <v>-0.2073297622075226</v>
+        <v>-0.103083065400818</v>
       </c>
       <c r="YO3">
-        <v>-0.2073596028070318</v>
+        <v>-0.103099173946846</v>
       </c>
       <c r="YP3">
-        <v>-0.2106479305571997</v>
+        <v>-0.1031695558755855</v>
       </c>
       <c r="YQ3">
-        <v>-0.2147226725538831</v>
+        <v>-0.1057561803111706</v>
       </c>
       <c r="YR3">
-        <v>-0.2153951270268866</v>
+        <v>-0.1061488030082935</v>
       </c>
       <c r="YS3">
-        <v>-0.2068686675855974</v>
+        <v>-0.1025114969502335</v>
       </c>
       <c r="YT3">
-        <v>-0.2073306387499896</v>
+        <v>-0.1030854883419712</v>
       </c>
       <c r="YU3">
-        <v>-0.2074342895854367</v>
+        <v>-0.1031487439405584</v>
       </c>
       <c r="YV3">
-        <v>-0.2106503662725311</v>
+        <v>-0.1031731449007393</v>
       </c>
       <c r="YW3">
-        <v>-0.2147286521277773</v>
+        <v>-0.1057619408357509</v>
       </c>
       <c r="YX3">
-        <v>-0.2154078568795581</v>
+        <v>-0.1061523237175333</v>
       </c>
       <c r="YY3">
-        <v>-0.2155938590325539</v>
+        <v>-0.1062756165532082</v>
       </c>
       <c r="YZ3">
-        <v>-0.2068686675855965</v>
+        <v>-0.1025114969502335</v>
       </c>
       <c r="ZA3">
-        <v>-0.2073369763516592</v>
+        <v>-0.1031030068124025</v>
       </c>
       <c r="ZB3">
-        <v>-0.207466007866881</v>
+        <v>-0.1031697953072736</v>
       </c>
       <c r="ZC3">
-        <v>-0.2106515187211979</v>
+        <v>-0.1031748430336494</v>
       </c>
       <c r="ZD3">
-        <v>-0.2147385526801766</v>
+        <v>-0.1057714787015427</v>
       </c>
       <c r="ZE3">
-        <v>-0.215415501210855</v>
+        <v>-0.1061544379052234</v>
       </c>
       <c r="ZF3">
-        <v>-0.216852399878834</v>
+        <v>-0.1070786842553812</v>
       </c>
       <c r="ZG3">
-        <v>-0.2068686675855965</v>
+        <v>-0.1025114969502335</v>
       </c>
       <c r="ZH3">
-        <v>-0.2073831276152179</v>
+        <v>-0.1032305815235788</v>
       </c>
       <c r="ZI3">
-        <v>-0.2106527845304205</v>
+        <v>-0.1031767082036554</v>
       </c>
       <c r="ZJ3">
-        <v>-0.2147705485366876</v>
+        <v>-0.1058023024518184</v>
       </c>
       <c r="ZK3">
-        <v>-0.2154225924717963</v>
+        <v>-0.1061563991216475</v>
       </c>
       <c r="ZL3">
-        <v>-0.2177533926379636</v>
+        <v>-0.1076535771046118</v>
       </c>
       <c r="ZM3">
-        <v>-0.2106539994369555</v>
+        <v>-0.1031784983688817</v>
       </c>
       <c r="ZN3">
-        <v>-0.2148453120397253</v>
+        <v>-0.1058743271202967</v>
       </c>
       <c r="ZO3">
-        <v>-0.2154295116833486</v>
+        <v>-0.1061583127463898</v>
       </c>
       <c r="ZP3">
-        <v>-0.2182369799431687</v>
+        <v>-0.1078080106602303</v>
       </c>
       <c r="ZQ3">
-        <v>-0.2198132440051805</v>
+        <v>-0.1091330470708661</v>
       </c>
       <c r="ZR3">
-        <v>-0.2106554646050395</v>
+        <v>-0.1031806572950279</v>
       </c>
       <c r="ZS3">
-        <v>-0.2154347015782336</v>
+        <v>-0.1061597480940296</v>
       </c>
       <c r="ZT3">
-        <v>-0.2182657888696224</v>
+        <v>-0.1078152180115779</v>
       </c>
       <c r="ZU3">
-        <v>-0.2182828029029284</v>
+        <v>-0.1078282053991699</v>
       </c>
       <c r="ZV3">
-        <v>-0.2199743624906814</v>
+        <v>-0.1091819594942111</v>
       </c>
       <c r="ZW3">
-        <v>-0.220211157539198</v>
+        <v>-0.1094316358321951</v>
       </c>
       <c r="ZX3">
-        <v>-0.2106578017357489</v>
+        <v>-0.1031841010596626</v>
       </c>
       <c r="ZY3">
-        <v>-0.2154429461074671</v>
+        <v>-0.1061620282396891</v>
       </c>
       <c r="ZZ3">
-        <v>-0.2182748034185961</v>
+        <v>-0.1078174732380681</v>
       </c>
       <c r="AAA3">
-        <v>-0.2183761534946351</v>
+        <v>-0.1078693458326821</v>
       </c>
       <c r="AAB3">
-        <v>-0.2200677081181403</v>
+        <v>-0.1092102959551531</v>
       </c>
       <c r="AAC3">
-        <v>-0.2206270199668677</v>
+        <v>-0.1097361270119754</v>
       </c>
       <c r="AAD3">
-        <v>-0.2106641982154409</v>
+        <v>-0.1031935262855967</v>
       </c>
       <c r="AAE3">
-        <v>-0.2154568468135036</v>
+        <v>-0.1061658726577311</v>
       </c>
       <c r="AAF3">
-        <v>-0.2182805995267786</v>
+        <v>-0.1078189232837414</v>
       </c>
       <c r="AAG3">
-        <v>-0.2217242074566899</v>
+        <v>-0.1105394466457997</v>
       </c>
       <c r="AAH3">
-        <v>-0.2206270199668729</v>
+        <v>-0.1097361270119757</v>
       </c>
       <c r="AAI3">
-        <v>-0.2106727107847949</v>
+        <v>-0.1032060695880129</v>
       </c>
       <c r="AAJ3">
-        <v>-0.2155610083899124</v>
+        <v>-0.1061946788193684</v>
       </c>
       <c r="AAK3">
-        <v>-0.218284095581825</v>
+        <v>-0.1078197979106945</v>
       </c>
       <c r="AAL3">
-        <v>-0.222886451944045</v>
+        <v>-0.1112712805727203</v>
       </c>
       <c r="AAM3">
-        <v>-0.2217854383598805</v>
+        <v>-0.110651515012951</v>
       </c>
       <c r="AAN3">
-        <v>-0.2206270199668777</v>
+        <v>-0.1097361270119778</v>
       </c>
       <c r="AAO3">
-        <v>-0.2106735215810671</v>
+        <v>-0.1032072643001524</v>
       </c>
       <c r="AAP3">
-        <v>-0.2156464653212161</v>
+        <v>-0.1062183107720477</v>
       </c>
       <c r="AAQ3">
-        <v>-0.2182876290915454</v>
+        <v>-0.1078206819069551</v>
       </c>
       <c r="AAR3">
-        <v>-0.2240863801008399</v>
+        <v>-0.1120267716213461</v>
       </c>
       <c r="AAS3">
-        <v>-0.2217919933359254</v>
+        <v>-0.1106635126719575</v>
       </c>
       <c r="AAT3">
-        <v>-0.2206270199668774</v>
+        <v>-0.1097361270119796</v>
       </c>
       <c r="AAU3">
-        <v>-0.210674162805081</v>
+        <v>-0.1032082091468721</v>
       </c>
       <c r="AAV3">
-        <v>-0.2156735421340144</v>
+        <v>-0.1062257982352807</v>
       </c>
       <c r="AAW3">
-        <v>-0.218290785262673</v>
+        <v>-0.1078214715016929</v>
       </c>
       <c r="AAX3">
-        <v>-0.2244377855965562</v>
+        <v>-0.1122365475803618</v>
       </c>
       <c r="AAY3">
-        <v>-0.2246011973391859</v>
+        <v>-0.1123893467992103</v>
       </c>
       <c r="AAZ3">
-        <v>-0.2217944961198773</v>
+        <v>-0.1106680935687576</v>
       </c>
       <c r="ABA3">
-        <v>-0.2206270199668778</v>
+        <v>-0.1097361270119822</v>
       </c>
       <c r="ABB3">
-        <v>-0.2106747855874646</v>
+        <v>-0.1032091268198455</v>
       </c>
       <c r="ABC3">
-        <v>-0.2156981925674407</v>
+        <v>-0.1062326146303603</v>
       </c>
       <c r="ABD3">
-        <v>-0.218294341174959</v>
+        <v>-0.1078223611007332</v>
       </c>
       <c r="ABE3">
-        <v>-0.224915345332835</v>
+        <v>-0.112521622590807</v>
       </c>
       <c r="ABF3">
-        <v>-0.224670265537804</v>
+        <v>-0.1124379882280119</v>
       </c>
       <c r="ABG3">
-        <v>-0.2217971435719446</v>
+        <v>-0.1106729392656174</v>
       </c>
       <c r="ABH3">
-        <v>-0.2206270199668837</v>
+        <v>-0.1097361270119859</v>
       </c>
       <c r="ABI3">
-        <v>-0.2106754526547197</v>
+        <v>-0.1032101097468979</v>
       </c>
       <c r="ABJ3">
-        <v>-0.2157116186952059</v>
+        <v>-0.1062363272105453</v>
       </c>
       <c r="ABK3">
-        <v>-0.2182971901824163</v>
+        <v>-0.1078230738494368</v>
       </c>
       <c r="ABL3">
-        <v>-0.2254745511786972</v>
+        <v>-0.1128554204038525</v>
       </c>
       <c r="ABM3">
-        <v>-0.2247065532360919</v>
+        <v>-0.112463543739991</v>
       </c>
       <c r="ABN3">
-        <v>-0.2217993407290002</v>
+        <v>-0.1106769607850215</v>
       </c>
       <c r="ABO3">
-        <v>-0.2206270199668937</v>
+        <v>-0.1097361270119938</v>
       </c>
       <c r="ABP3">
-        <v>-0.2106760694089507</v>
+        <v>-0.1032110185375368</v>
       </c>
       <c r="ABQ3">
-        <v>-0.2157223416551133</v>
+        <v>-0.106239292291101</v>
       </c>
       <c r="ABR3">
-        <v>-0.2183006075724677</v>
+        <v>-0.1078239287921077</v>
       </c>
       <c r="ABS3">
-        <v>-0.225923633188239</v>
+        <v>-0.1131234719526985</v>
       </c>
       <c r="ABT3">
-        <v>-0.2248017869335855</v>
+        <v>-0.1125431356416356</v>
       </c>
       <c r="ABU3">
-        <v>-0.224710166555752</v>
+        <v>-0.1124656796607726</v>
       </c>
       <c r="ABV3">
-        <v>-0.2218019427049605</v>
+        <v>-0.1106817232661606</v>
       </c>
       <c r="ABW3">
-        <v>-0.2206270199669099</v>
+        <v>-0.1097361270119999</v>
       </c>
       <c r="ABX3">
-        <v>-0.2106766506347791</v>
+        <v>-0.103211874976967</v>
       </c>
       <c r="ABY3">
-        <v>-0.2157314853561619</v>
+        <v>-0.1062418206641807</v>
       </c>
       <c r="ABZ3">
-        <v>-0.2183042902233416</v>
+        <v>-0.1078248500952012</v>
       </c>
       <c r="ACA3">
-        <v>-0.22605276526305</v>
+        <v>-0.1131863383633982</v>
       </c>
       <c r="ACB3">
-        <v>-0.2260929752347408</v>
+        <v>-0.1132884592979044</v>
       </c>
       <c r="ACC3">
-        <v>-0.224879202520143</v>
+        <v>-0.1126078358274569</v>
       </c>
       <c r="ACD3">
-        <v>-0.2247127795086649</v>
+        <v>-0.1124672242395348</v>
       </c>
       <c r="ACE3">
-        <v>-0.2218044802659225</v>
+        <v>-0.1106863678569961</v>
       </c>
       <c r="ACF3">
-        <v>-0.2206270199669194</v>
+        <v>-0.1097361270120052</v>
       </c>
       <c r="ACG3">
-        <v>-0.2106774590089484</v>
+        <v>-0.1032130661208406</v>
       </c>
       <c r="ACH3">
-        <v>-0.2157422156295696</v>
+        <v>-0.1062447877304808</v>
       </c>
       <c r="ACI3">
-        <v>-0.2183110090393752</v>
+        <v>-0.1078265309649299</v>
       </c>
       <c r="ACJ3">
-        <v>-0.2262308086183093</v>
+        <v>-0.1132730152519535</v>
       </c>
       <c r="ACK3">
-        <v>-0.226234532239355</v>
+        <v>-0.1134263766232373</v>
       </c>
       <c r="ACL3">
-        <v>-0.2247149846102142</v>
+        <v>-0.1124685277269757</v>
       </c>
       <c r="ACM3">
-        <v>-0.2218079688719759</v>
+        <v>-0.1106927531975498</v>
       </c>
       <c r="ACN3">
-        <v>-0.2206270199669287</v>
+        <v>-0.1097361270120129</v>
       </c>
       <c r="ACO3">
-        <v>-0.2106784496388018</v>
+        <v>-0.1032145258196829</v>
       </c>
       <c r="ACP3">
-        <v>-0.2157520203795991</v>
+        <v>-0.1062474988597342</v>
       </c>
       <c r="ACQ3">
-        <v>-0.2183612767449156</v>
+        <v>-0.1078391065055984</v>
       </c>
       <c r="ACR3">
-        <v>-0.2266688390656954</v>
+        <v>-0.1134862548310407</v>
       </c>
       <c r="ACS3">
-        <v>-0.2262687199723578</v>
+        <v>-0.1134594067756857</v>
       </c>
       <c r="ACT3">
-        <v>-0.2262370225031101</v>
+        <v>-0.1134288129568454</v>
       </c>
       <c r="ACU3">
-        <v>-0.2247187092865149</v>
+        <v>-0.1124707294694681</v>
       </c>
       <c r="ACV3">
-        <v>-0.2218127680202099</v>
+        <v>-0.1107015373101052</v>
       </c>
       <c r="ACW3">
-        <v>-0.2206270199669345</v>
+        <v>-0.1097361270120177</v>
       </c>
       <c r="ACX3">
-        <v>-0.2106831449734006</v>
+        <v>-0.1032214444254349</v>
       </c>
       <c r="ACY3">
-        <v>-0.2157672314162107</v>
+        <v>-0.1062517048584899</v>
       </c>
       <c r="ACZ3">
-        <v>-0.2185153270548969</v>
+        <v>-0.1078776443044359</v>
       </c>
       <c r="ADA3">
-        <v>-0.2270239090027005</v>
+        <v>-0.1136591008435342</v>
       </c>
       <c r="ADB3">
-        <v>-0.2263022204284482</v>
+        <v>-0.1134917732656383</v>
       </c>
       <c r="ADC3">
-        <v>-0.2262394035173728</v>
+        <v>-0.1134311424068559</v>
       </c>
       <c r="ADD3">
-        <v>-0.2247239252646896</v>
+        <v>-0.1124738127521893</v>
       </c>
       <c r="ADE3">
-        <v>-0.2218178468852883</v>
+        <v>-0.1107108334425315</v>
       </c>
       <c r="ADF3">
-        <v>-0.2206270199669441</v>
+        <v>-0.1097361270120247</v>
       </c>
       <c r="ADG3">
-        <v>-0.2107232918305421</v>
+        <v>-0.1032806012767649</v>
       </c>
       <c r="ADH3">
-        <v>-0.2157979414890784</v>
+        <v>-0.1062601963697714</v>
       </c>
       <c r="ADI3">
-        <v>-0.2273013751594957</v>
+        <v>-0.1137941653017542</v>
       </c>
       <c r="ADJ3">
-        <v>-0.2262419703780414</v>
+        <v>-0.1134336536784419</v>
       </c>
       <c r="ADK3">
-        <v>-0.2247277956500339</v>
+        <v>-0.1124761006223742</v>
       </c>
       <c r="ADL3">
-        <v>-0.2218212206405137</v>
+        <v>-0.1107170086395855</v>
       </c>
       <c r="ADM3">
-        <v>-0.2206270199669527</v>
+        <v>-0.1097361270120302</v>
       </c>
       <c r="ADN3">
-        <v>-0.2158031487616664</v>
+        <v>-0.1062612463701766</v>
       </c>
       <c r="ADO3">
-        <v>-0.2158215874405529</v>
+        <v>-0.106269058459933</v>
       </c>
       <c r="ADP3">
-        <v>-0.2275521697173991</v>
+        <v>-0.1139162432284247</v>
       </c>
       <c r="ADQ3">
-        <v>-0.2262442623910672</v>
+        <v>-0.113435896054556</v>
       </c>
       <c r="ADR3">
-        <v>-0.2247342071185316</v>
+        <v>-0.1124798905788194</v>
       </c>
       <c r="ADS3">
-        <v>-0.2218246543149051</v>
+        <v>-0.1107232935294037</v>
       </c>
       <c r="ADT3">
-        <v>-0.2206270199669595</v>
+        <v>-0.1097361270120314</v>
       </c>
       <c r="ADU3">
-        <v>-0.2158076900097119</v>
+        <v>-0.1062621620708527</v>
       </c>
       <c r="ADV3">
-        <v>-0.2158594251976458</v>
+        <v>-0.1062832390187434</v>
       </c>
       <c r="ADW3">
-        <v>-0.2275494525429057</v>
+        <v>-0.1139118708069155</v>
       </c>
       <c r="ADX3">
-        <v>-0.2277292016252501</v>
+        <v>-0.1139944227450465</v>
       </c>
       <c r="ADY3">
-        <v>-0.2262467935402912</v>
+        <v>-0.1134383723879627</v>
       </c>
       <c r="ADZ3">
-        <v>-0.2247787097252502</v>
+        <v>-0.1125061968837701</v>
       </c>
       <c r="AEA3">
-        <v>-0.2218262961033331</v>
+        <v>-0.1107262986141546</v>
       </c>
       <c r="AEB3">
-        <v>-0.2206270199669647</v>
+        <v>-0.1097361270120308</v>
       </c>
       <c r="AEC3">
-        <v>-0.2158114458391977</v>
+        <v>-0.1062629193978861</v>
       </c>
       <c r="AED3">
-        <v>-0.2158917546335846</v>
+        <v>-0.1062953548458283</v>
       </c>
       <c r="AEE3">
-        <v>-0.2275467282126109</v>
+        <v>-0.1139074868787175</v>
       </c>
       <c r="AEF3">
-        <v>-0.2279260015750025</v>
+        <v>-0.1140813250874006</v>
       </c>
       <c r="AEG3">
-        <v>-0.2277292016252501</v>
+        <v>-0.1139944227450465</v>
       </c>
       <c r="AEH3">
-        <v>-0.2262484254569335</v>
+        <v>-0.1134399689629796</v>
       </c>
       <c r="AEI3">
-        <v>-0.2248770134837162</v>
+        <v>-0.1125643051681802</v>
       </c>
       <c r="AEJ3">
-        <v>-0.2218289075684453</v>
+        <v>-0.1107310785776508</v>
       </c>
       <c r="AEK3">
-        <v>-0.2206270199669656</v>
+        <v>-0.1097361270120289</v>
       </c>
       <c r="AEL3">
-        <v>-0.2158143665612909</v>
+        <v>-0.1062635083327313</v>
       </c>
       <c r="AEM3">
-        <v>-0.2159100521435638</v>
+        <v>-0.1063022118993024</v>
       </c>
       <c r="AEN3">
-        <v>-0.2275439985771268</v>
+        <v>-0.1139030944218453</v>
       </c>
       <c r="AEO3">
-        <v>-0.2280910181146117</v>
+        <v>-0.1141541909759062</v>
       </c>
       <c r="AEP3">
-        <v>-0.2279260015750025</v>
+        <v>-0.1140813250874006</v>
       </c>
       <c r="AEQ3">
-        <v>-0.2262509319717809</v>
+        <v>-0.1134424211954046</v>
       </c>
       <c r="AER3">
-        <v>-0.221831359156008</v>
+        <v>-0.1107355659151439</v>
       </c>
       <c r="AES3">
-        <v>-0.2206270199669687</v>
+        <v>-0.1097361270120294</v>
       </c>
       <c r="AET3">
-        <v>-0.2158173371223901</v>
+        <v>-0.1062641073164194</v>
       </c>
       <c r="AEU3">
-        <v>-0.2275412854484291</v>
+        <v>-0.1138987285354999</v>
       </c>
       <c r="AEV3">
-        <v>-0.22826841325415</v>
+        <v>-0.1142325211905012</v>
       </c>
       <c r="AEW3">
-        <v>-0.2280910181146117</v>
+        <v>-0.1141541909759062</v>
       </c>
       <c r="AEX3">
-        <v>-0.2262715487994374</v>
+        <v>-0.1134625915317497</v>
       </c>
       <c r="AEY3">
-        <v>-0.2218348620700558</v>
+        <v>-0.1107419775967795</v>
       </c>
       <c r="AEZ3">
-        <v>-0.2206270199669687</v>
+        <v>-0.1097361270120294</v>
       </c>
       <c r="AFA3">
-        <v>-0.2158199150461352</v>
+        <v>-0.1062646271281715</v>
       </c>
       <c r="AFB3">
-        <v>-0.2275385619911199</v>
+        <v>-0.1138943460369281</v>
       </c>
       <c r="AFC3">
-        <v>-0.2284140660181201</v>
+        <v>-0.1142968340264774</v>
       </c>
       <c r="AFD3">
-        <v>-0.22826841325415</v>
+        <v>-0.1142325211905012</v>
       </c>
       <c r="AFE3">
-        <v>-0.2263426051940223</v>
+        <v>-0.1135321090517371</v>
       </c>
       <c r="AFF3">
-        <v>-0.2218718379264891</v>
+        <v>-0.110809658865308</v>
       </c>
       <c r="AFG3">
-        <v>-0.2158217665530586</v>
+        <v>-0.1062650004651307</v>
       </c>
       <c r="AFH3">
-        <v>-0.227535840367156</v>
+        <v>-0.1138899664967935</v>
       </c>
       <c r="AFI3">
-        <v>-0.2285704453820494</v>
+        <v>-0.1143658818935337</v>
       </c>
       <c r="AFJ3">
-        <v>-0.2284140660181201</v>
+        <v>-0.1142968340264774</v>
       </c>
       <c r="AFK3">
-        <v>-0.221886627449475</v>
+        <v>-0.1108367304926588</v>
       </c>
       <c r="AFL3">
-        <v>-0.2158239161589211</v>
+        <v>-0.1062654339102689</v>
       </c>
       <c r="AFM3">
-        <v>-0.2275331170073338</v>
+        <v>-0.1138855841716611</v>
       </c>
       <c r="AFN3">
-        <v>-0.2289191847751046</v>
+        <v>-0.1145198023439476</v>
       </c>
       <c r="AFO3">
-        <v>-0.2285704453820143</v>
+        <v>-0.114365881893534</v>
       </c>
       <c r="AFP3">
-        <v>-0.2285704453820494</v>
+        <v>-0.1143658818935337</v>
       </c>
       <c r="AFQ3">
-        <v>-0.221894137567696</v>
+        <v>-0.1108504775978492</v>
       </c>
       <c r="AFR3">
-        <v>-0.2158271545750031</v>
+        <v>-0.1062660869016934</v>
       </c>
       <c r="AFS3">
-        <v>-0.2275317876428722</v>
+        <v>-0.1138834450128717</v>
       </c>
       <c r="AFT3">
-        <v>-0.2289702115506052</v>
+        <v>-0.1145423223270157</v>
       </c>
       <c r="AFU3">
-        <v>-0.2285704453819727</v>
+        <v>-0.1143658818935398</v>
       </c>
       <c r="AFV3">
-        <v>-0.2285704453820143</v>
+        <v>-0.114365881893534</v>
       </c>
       <c r="AFW3">
-        <v>-0.2218957994136272</v>
+        <v>-0.110853519582395</v>
       </c>
       <c r="AFX3">
-        <v>-0.2158324455090365</v>
+        <v>-0.1062671537592542</v>
       </c>
       <c r="AFY3">
-        <v>-0.2275019088939809</v>
+        <v>-0.1138353658758666</v>
       </c>
       <c r="AFZ3">
-        <v>-0.2291139726040614</v>
+        <v>-0.1146057675332203</v>
       </c>
       <c r="AGA3">
-        <v>-0.2285704453819069</v>
+        <v>-0.114365881893548</v>
       </c>
       <c r="AGB3">
-        <v>-0.2285704453819727</v>
+        <v>-0.1143658818935398</v>
       </c>
       <c r="AGC3">
-        <v>-0.2218971081993502</v>
+        <v>-0.110855915298572</v>
       </c>
       <c r="AGD3">
-        <v>-0.2158655380438922</v>
+        <v>-0.1062670468626863</v>
       </c>
       <c r="AGE3">
-        <v>-0.215857380226445</v>
+        <v>-0.1062902345433515</v>
       </c>
       <c r="AGF3">
-        <v>-0.2274824781869994</v>
+        <v>-0.1138040996524953</v>
       </c>
       <c r="AGG3">
-        <v>-0.229282797551747</v>
+        <v>-0.1146802706331949</v>
       </c>
       <c r="AGH3">
-        <v>-0.2285704453818796</v>
+        <v>-0.1143658818935527</v>
       </c>
       <c r="AGI3">
-        <v>-0.2285704453819069</v>
+        <v>-0.114365881893548</v>
       </c>
       <c r="AGJ3">
-        <v>-0.221898510478109</v>
+        <v>-0.1108584821556854</v>
       </c>
       <c r="AGK3">
-        <v>-0.2274654833581718</v>
+        <v>-0.1137767533805271</v>
       </c>
       <c r="AGL3">
-        <v>-0.2293046988543352</v>
+        <v>-0.1146899354929313</v>
       </c>
       <c r="AGM3">
-        <v>-0.2285704453818659</v>
+        <v>-0.1143658818935548</v>
       </c>
       <c r="AGN3">
-        <v>-0.2285704453818796</v>
+        <v>-0.1143658818935527</v>
       </c>
       <c r="AGO3">
-        <v>-0.2218996324039691</v>
+        <v>-0.1108605358319408</v>
       </c>
       <c r="AGP3">
-        <v>-0.227447656171544</v>
+        <v>-0.1137480681134897</v>
       </c>
       <c r="AGQ3">
-        <v>-0.2293261078471481</v>
+        <v>-0.1146918687545694</v>
       </c>
       <c r="AGR3">
-        <v>-0.2293183149278824</v>
+        <v>-0.1147126626293654</v>
       </c>
       <c r="AGS3">
-        <v>-0.2285704453818617</v>
+        <v>-0.1143658818935613</v>
       </c>
       <c r="AGT3">
-        <v>-0.2285704453818659</v>
+        <v>-0.1143658818935548</v>
       </c>
       <c r="AGU3">
-        <v>-0.2219007217483163</v>
+        <v>-0.1108625298699501</v>
       </c>
       <c r="AGV3">
-        <v>-0.2274172148174235</v>
+        <v>-0.1136990865346899</v>
       </c>
       <c r="AGW3">
-        <v>-0.2293459183655061</v>
+        <v>-0.1146936576539588</v>
       </c>
       <c r="AGX3">
-        <v>-0.2293501805817805</v>
+        <v>-0.1147658511068878</v>
       </c>
       <c r="AGY3">
-        <v>-0.2285704453818617</v>
+        <v>-0.1143658818935613</v>
       </c>
       <c r="AGZ3">
-        <v>-0.2285704453818617</v>
+        <v>-0.1143658818935613</v>
       </c>
       <c r="AHA3">
-        <v>-0.2219018083300045</v>
+        <v>-0.1108645188528441</v>
       </c>
       <c r="AHB3">
-        <v>-0.2274097478771188</v>
+        <v>-0.1136870720325552</v>
       </c>
       <c r="AHC3">
-        <v>-0.2293760423738225</v>
+        <v>-0.1146963778336967</v>
       </c>
       <c r="AHD3">
-        <v>-0.2294257775436456</v>
+        <v>-0.1148920348891886</v>
       </c>
       <c r="AHE3">
-        <v>-0.2219028821989701</v>
+        <v>-0.1108664845670366</v>
       </c>
       <c r="AHF3">
-        <v>-0.2274165767036035</v>
+        <v>-0.1136987062234365</v>
       </c>
       <c r="AHG3">
-        <v>-0.2273880050682097</v>
+        <v>-0.1136126050063014</v>
       </c>
       <c r="AHH3">
-        <v>-0.2294141115363931</v>
+        <v>-0.1146998153994891</v>
       </c>
       <c r="AHI3">
-        <v>-0.2219220852643463</v>
+        <v>-0.110901636040876</v>
       </c>
       <c r="AHJ3">
-        <v>-0.2274277891499571</v>
+        <v>-0.1137178087667682</v>
       </c>
       <c r="AHK3">
-        <v>-0.2273695630895918</v>
+        <v>-0.1135494453061373</v>
       </c>
       <c r="AHL3">
-        <v>-0.2295623209828679</v>
+        <v>-0.1147131978010443</v>
       </c>
       <c r="AHM3">
-        <v>-0.2219455171956782</v>
+        <v>-0.1109774156879408</v>
       </c>
       <c r="AHN3">
-        <v>-0.2219595604253426</v>
+        <v>-0.1109518381754326</v>
       </c>
       <c r="AHO3">
-        <v>-0.227430006107438</v>
+        <v>-0.113721585781739</v>
       </c>
       <c r="AHP3">
-        <v>-0.2273385635289956</v>
+        <v>-0.1134432834202437</v>
       </c>
       <c r="AHQ3">
-        <v>-0.2298315814069512</v>
+        <v>-0.1147375079122337</v>
       </c>
       <c r="AHR3">
-        <v>-0.2219610784203581</v>
+        <v>-0.1110277435802043</v>
       </c>
       <c r="AHS3">
-        <v>-0.2274318793915372</v>
+        <v>-0.1137247772839505</v>
       </c>
       <c r="AHT3">
-        <v>-0.2274334580037869</v>
+        <v>-0.1137274667564454</v>
       </c>
       <c r="AHU3">
-        <v>-0.2274355115177896</v>
+        <v>-0.1137309653174385</v>
       </c>
       <c r="AHV3">
-        <v>-0.2274392280660632</v>
+        <v>-0.113737297184459</v>
       </c>
       <c r="AHW3">
-        <v>-0.2274456719189143</v>
+        <v>-0.11374827555843</v>
       </c>
       <c r="AHX3">
-        <v>-0.2274984549833877</v>
+        <v>-0.113838202398219</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.06313098659170203</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.06352026142244045</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.06356107431464054</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.06359931007898106</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.06363264656404963</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.06368516535221162</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0672635644381657</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.06742393275502272</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-0.06755741667934406</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.0676745642343457</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.06776198135906436</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.06784404678598599</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.06789451061533804</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-0.06802014652722685</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.06903809128332085</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.06903809128332683</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-0.07027297443254357</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-0.06903809128333008</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-0.07035796011414905</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-0.06903809128333331</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.07045339190700593</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-0.06903809128333532</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-0.07060878049560269</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.06903809128333825</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.07089149003958536</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-0.06903809128334162</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.07101190264706371</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-0.07401512205454806</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.06903809128334422</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-0.07109773563008051</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.07096059556685187</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-0.07484721104917572</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-0.06903809128335124</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.07129431287332558</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.07095885803169689</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.07515076663361282</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.07702075714682068</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.06903809128335775</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-0.07095635976849912</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.07516095859922745</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.07520050420175053</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>-0.07852999001998937</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>-0.07702075714684486</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>-0.06903809128335914</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>-0.07095315591321041</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>-0.07516555243860769</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>-0.07532018685461205</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>-0.07967096166191139</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>-0.07702075714686049</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-0.06903809128336023</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>-0.07094535306720338</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>-0.07517042093544182</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>-0.07983550296572388</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>-0.07967096166187733</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>-0.07702075714687283</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>-0.06903809128336223</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>-0.07093867238912099</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>-0.07517505785181047</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>-0.080580945839098</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>-0.07967096166187487</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>-0.07702075714688723</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>-0.06903809128336327</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>-0.07090664739245006</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>-0.07517783491077666</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>-0.0807286010083593</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>-0.08045917421111896</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>-0.0796709616618738</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>-0.07702075714689811</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>-0.06903809128336358</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>-0.07079344707243558</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>-0.07518328330680822</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>-0.08247362962014664</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>-0.08048936524972938</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>-0.08036945751469675</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>-0.07967096166187396</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>-0.07702075714691239</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>-0.06903809128336418</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>-0.07521089619494142</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>-0.08308213454189324</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>-0.07967096166187311</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>-0.07702075714694036</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>-0.06903809128336499</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>-0.07531495083702006</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>-0.08321494625795781</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>-0.07967096166187387</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>-0.07702075714699984</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>-0.06903809128336615</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>-0.08348428508830756</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>-0.07967096166187387</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>-0.07702075714701138</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>-0.06903809128336676</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>-0.08373830574889107</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>-0.07702075714701119</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>-0.06903809128336671</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>-0.08388596170615054</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>-0.07702075714701299</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>-0.06903809128336663</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>-0.08398348132748081</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>-0.07702075714701294</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>-0.06903809128336676</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>-0.08411813380631315</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>-0.07702075714721901</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>-0.06903809128336676</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>-0.08414281561657164</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>-0.08418012143185868</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>-0.07702075714722796</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>-0.08417267724155925</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>-0.08421527209636168</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>-0.0770207571472544</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>-0.08420728904847537</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>-0.08560257420719841</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>-0.07702075714784698</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>-0.08426006189747444</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>-0.08574158937568216</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>-0.0770207571483776</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>-0.08432790873971714</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>-0.08580656885769469</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>-0.08638567378194995</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>-0.0770207571484286</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>-0.08437661642478965</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>-0.08580656885769489</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>-0.08583820704872343</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>-0.08754738633774251</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>-0.07702075714847251</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>-0.0844454402178404</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>-0.08580656885769515</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>-0.0859868333180026</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>-0.08806988774777399</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>-0.07702075714850982</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>-0.08451990286953373</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>-0.08580656885769478</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>-0.08597752838503644</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>-0.08630319601091282</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>-0.0882253558282019</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>-0.07702075714863033</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>-0.08459012738645151</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>-0.08580656885769478</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>-0.0859767270319502</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>-0.08653855605807918</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>-0.0884008537910784</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>-0.07702075714871835</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>-0.08470558821318495</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>-0.08580656885769479</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>-0.08597594074980539</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>-0.08669617229401939</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>-0.08856591151106302</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>-0.07702075714872894</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>-0.08525458797990447</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>-0.08580656885769501</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>-0.08597530585844229</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>-0.08675797541500481</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>-0.08687517767481856</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>-0.08875850859291121</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>-0.07702075714873201</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>-0.08537418663963454</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>-0.08580656885769522</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>-0.08597435293386908</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>-0.08692188181674508</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>-0.08688607356495398</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>-0.08881392864807808</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>-0.07702075714872819</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>-0.08562940819480264</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>-0.08573837030104368</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>-0.08580656885769469</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>-0.0859732040719092</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>-0.08697881575525623</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>-0.08689602758505977</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>-0.08912878942224393</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>-0.07702075714872819</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>-0.08567762719852175</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>-0.08622187257926368</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>-0.08580656885769401</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>-0.08597233612695238</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>-0.08697881575599202</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>-0.0870736287719056</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>-0.08690016263501013</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>-0.08930663261089471</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>-0.08577711607213774</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>-0.08626397818644319</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>-0.08632673832462726</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>-0.0858065688576933</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>-0.085971331759723</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>-0.08697881575609197</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>-0.08708386891364771</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>-0.08690907571288788</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>-0.08943865420873508</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>-0.08642967591615804</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>-0.08676080891167724</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>-0.08580656885769261</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>-0.08597038739161315</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>-0.08697881575610374</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>-0.0869788157561364</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>-0.08709377399425247</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>-0.08693177737858229</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>-0.08955735046601714</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>-0.08672552470815011</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>-0.0868052398154821</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>-0.08678416715570184</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>-0.08580656885769256</v>
+        <v>0</v>
       </c>
       <c r="GT2">
-        <v>-0.08596937130301961</v>
+        <v>0</v>
       </c>
       <c r="GU2">
-        <v>-0.08697881575610374</v>
+        <v>0</v>
       </c>
       <c r="GV2">
-        <v>-0.08697881575616603</v>
+        <v>0</v>
       </c>
       <c r="GW2">
-        <v>-0.08710169709835046</v>
+        <v>0</v>
       </c>
       <c r="GX2">
-        <v>-0.08694509644091081</v>
+        <v>0</v>
       </c>
       <c r="GY2">
-        <v>-0.08970480845430659</v>
+        <v>0</v>
       </c>
       <c r="GZ2">
-        <v>-0.08667206551031854</v>
+        <v>0</v>
       </c>
       <c r="HA2">
-        <v>-0.08678129428654237</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>-0.08691757615094191</v>
+        <v>0</v>
       </c>
       <c r="HC2">
-        <v>-0.08678746888685138</v>
+        <v>0</v>
       </c>
       <c r="HD2">
-        <v>-0.08580656885769214</v>
+        <v>0</v>
       </c>
       <c r="HE2">
-        <v>-0.08596781800040212</v>
+        <v>0</v>
       </c>
       <c r="HF2">
-        <v>-0.08697881575619545</v>
+        <v>0</v>
       </c>
       <c r="HG2">
-        <v>-0.08710800849597018</v>
+        <v>0</v>
       </c>
       <c r="HH2">
-        <v>-0.08695442520520408</v>
+        <v>0</v>
       </c>
       <c r="HI2">
-        <v>-0.08997692794769531</v>
+        <v>0</v>
       </c>
       <c r="HJ2">
-        <v>-0.08649707764527888</v>
+        <v>0</v>
       </c>
       <c r="HK2">
-        <v>-0.08688194919334867</v>
+        <v>0</v>
       </c>
       <c r="HL2">
-        <v>-0.0867901316432529</v>
+        <v>0</v>
       </c>
       <c r="HM2">
-        <v>-0.08580656885769213</v>
+        <v>0</v>
       </c>
       <c r="HN2">
-        <v>-0.08596357604755953</v>
+        <v>0</v>
       </c>
       <c r="HO2">
-        <v>-0.08697881575622263</v>
+        <v>0</v>
       </c>
       <c r="HP2">
-        <v>-0.08712135186135953</v>
+        <v>0</v>
       </c>
       <c r="HQ2">
-        <v>-0.08697237010498066</v>
+        <v>0</v>
       </c>
       <c r="HR2">
-        <v>-0.09021418392487182</v>
+        <v>0</v>
       </c>
       <c r="HS2">
-        <v>-0.08642163914592857</v>
+        <v>0</v>
       </c>
       <c r="HT2">
-        <v>-0.08691788872753943</v>
+        <v>0</v>
       </c>
       <c r="HU2">
-        <v>-0.08679225958203039</v>
+        <v>0</v>
       </c>
       <c r="HV2">
-        <v>-0.08596321436160635</v>
+        <v>0</v>
       </c>
       <c r="HW2">
-        <v>-0.0869788157562751</v>
+        <v>0</v>
       </c>
       <c r="HX2">
-        <v>-0.08713186013693691</v>
+        <v>0</v>
       </c>
       <c r="HY2">
-        <v>-0.08698130196621504</v>
+        <v>0</v>
       </c>
       <c r="HZ2">
-        <v>-0.09037558234646441</v>
+        <v>0</v>
       </c>
       <c r="IA2">
-        <v>-0.08732243036237052</v>
+        <v>0</v>
       </c>
       <c r="IB2">
-        <v>-0.08691788872753943</v>
+        <v>0</v>
       </c>
       <c r="IC2">
-        <v>-0.08679550790493319</v>
+        <v>0</v>
       </c>
       <c r="ID2">
-        <v>-0.08596304730207378</v>
+        <v>0</v>
       </c>
       <c r="IE2">
-        <v>-0.08697881575631775</v>
+        <v>0</v>
       </c>
       <c r="IF2">
-        <v>-0.08713914923022419</v>
+        <v>0</v>
       </c>
       <c r="IG2">
-        <v>-0.08698764416133629</v>
+        <v>0</v>
       </c>
       <c r="IH2">
-        <v>-0.09048160985501932</v>
+        <v>0</v>
       </c>
       <c r="II2">
-        <v>-0.08738118487670789</v>
+        <v>0</v>
       </c>
       <c r="IJ2">
-        <v>-0.08679931560001941</v>
+        <v>0</v>
       </c>
       <c r="IK2">
-        <v>-0.08596286861155433</v>
+        <v>0</v>
       </c>
       <c r="IL2">
-        <v>-0.08697881575634724</v>
+        <v>0</v>
       </c>
       <c r="IM2">
-        <v>-0.08714642098302085</v>
+        <v>0</v>
       </c>
       <c r="IN2">
-        <v>-0.08706019747045642</v>
+        <v>0</v>
       </c>
       <c r="IO2">
-        <v>-0.09070980601296731</v>
+        <v>0</v>
       </c>
       <c r="IP2">
-        <v>-0.08753396873539607</v>
+        <v>0</v>
       </c>
       <c r="IQ2">
-        <v>-0.08740875407227951</v>
+        <v>0</v>
       </c>
       <c r="IR2">
-        <v>-0.08680516400645497</v>
+        <v>0</v>
       </c>
       <c r="IS2">
-        <v>-0.08596269786477169</v>
+        <v>0</v>
       </c>
       <c r="IT2">
-        <v>-0.0869788157563639</v>
+        <v>0</v>
       </c>
       <c r="IU2">
-        <v>-0.08715705927662594</v>
+        <v>0</v>
       </c>
       <c r="IV2">
-        <v>-0.08708159271234499</v>
+        <v>0</v>
       </c>
       <c r="IW2">
-        <v>-0.09072739980393876</v>
+        <v>0</v>
       </c>
       <c r="IX2">
-        <v>-0.09085554053667318</v>
+        <v>0</v>
       </c>
       <c r="IY2">
-        <v>-0.08682656532588337</v>
+        <v>0</v>
       </c>
       <c r="IZ2">
-        <v>-0.08596250764539815</v>
+        <v>0</v>
       </c>
       <c r="JA2">
-        <v>-0.08697881575638555</v>
+        <v>0</v>
       </c>
       <c r="JB2">
-        <v>-0.08719707089166721</v>
+        <v>0</v>
       </c>
       <c r="JC2">
-        <v>-0.0870863794918301</v>
+        <v>0</v>
       </c>
       <c r="JD2">
-        <v>-0.09072983190612363</v>
+        <v>0</v>
       </c>
       <c r="JE2">
-        <v>-0.09140205814943722</v>
+        <v>0</v>
       </c>
       <c r="JF2">
-        <v>-0.08693072855226731</v>
+        <v>0</v>
       </c>
       <c r="JG2">
-        <v>-0.08596211500547525</v>
+        <v>0</v>
       </c>
       <c r="JH2">
-        <v>-0.08697881575641754</v>
+        <v>0</v>
       </c>
       <c r="JI2">
-        <v>-0.08720640974676797</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
-        <v>-0.08709151561866711</v>
+        <v>0</v>
       </c>
       <c r="JK2">
-        <v>-0.08709034485213553</v>
+        <v>0</v>
       </c>
       <c r="JL2">
-        <v>-0.09073095003499768</v>
+        <v>0</v>
       </c>
       <c r="JM2">
-        <v>-0.09145789283872141</v>
+        <v>0</v>
       </c>
       <c r="JN2">
-        <v>-0.09157389628934529</v>
+        <v>0</v>
       </c>
       <c r="JO2">
-        <v>-0.08596170607284767</v>
+        <v>0</v>
       </c>
       <c r="JP2">
-        <v>-0.08697881575643091</v>
+        <v>0</v>
       </c>
       <c r="JQ2">
-        <v>-0.08721068813284141</v>
+        <v>0</v>
       </c>
       <c r="JR2">
-        <v>-0.08709660571082174</v>
+        <v>0</v>
       </c>
       <c r="JS2">
-        <v>-0.08709499399669557</v>
+        <v>0</v>
       </c>
       <c r="JT2">
-        <v>-0.0907322780534094</v>
+        <v>0</v>
       </c>
       <c r="JU2">
-        <v>-0.09146195146312998</v>
+        <v>0</v>
       </c>
       <c r="JV2">
-        <v>-0.09219685546210764</v>
+        <v>0</v>
       </c>
       <c r="JW2">
-        <v>-0.08596015104140144</v>
+        <v>0</v>
       </c>
       <c r="JX2">
-        <v>-0.08697881575643246</v>
+        <v>0</v>
       </c>
       <c r="JY2">
-        <v>-0.08721350085311461</v>
+        <v>0</v>
       </c>
       <c r="JZ2">
-        <v>-0.0870991955384707</v>
+        <v>0</v>
       </c>
       <c r="KA2">
-        <v>-0.09073432703053554</v>
+        <v>0</v>
       </c>
       <c r="KB2">
-        <v>-0.09146529671399338</v>
+        <v>0</v>
       </c>
       <c r="KC2">
-        <v>-0.09237830287783756</v>
+        <v>0</v>
       </c>
       <c r="KD2">
-        <v>-0.09222721981598309</v>
+        <v>0</v>
       </c>
       <c r="KE2">
-        <v>-0.08595189499269097</v>
+        <v>0</v>
       </c>
       <c r="KF2">
-        <v>-0.08697881575643246</v>
+        <v>0</v>
       </c>
       <c r="KG2">
-        <v>-0.08722188880954972</v>
+        <v>0</v>
       </c>
       <c r="KH2">
-        <v>-0.08721490349271799</v>
+        <v>0</v>
       </c>
       <c r="KI2">
-        <v>-0.0871034508685479</v>
+        <v>0</v>
       </c>
       <c r="KJ2">
-        <v>-0.09073615281706092</v>
+        <v>0</v>
       </c>
       <c r="KK2">
-        <v>-0.09147004839360948</v>
+        <v>0</v>
       </c>
       <c r="KL2">
-        <v>-0.092461823140415</v>
+        <v>0</v>
       </c>
       <c r="KM2">
-        <v>-0.09235447799354321</v>
+        <v>0</v>
       </c>
       <c r="KN2">
-        <v>-0.08722574189221156</v>
+        <v>0</v>
       </c>
       <c r="KO2">
-        <v>-0.08721589619136666</v>
+        <v>0</v>
       </c>
       <c r="KP2">
-        <v>-0.08710802621795367</v>
+        <v>0</v>
       </c>
       <c r="KQ2">
-        <v>-0.0907375723271749</v>
+        <v>0</v>
       </c>
       <c r="KR2">
-        <v>-0.0914913909223956</v>
+        <v>0</v>
       </c>
       <c r="KS2">
-        <v>-0.09300749420262024</v>
+        <v>0</v>
       </c>
       <c r="KT2">
-        <v>-0.09238256934417634</v>
+        <v>0</v>
       </c>
       <c r="KU2">
-        <v>-0.08723226317939861</v>
+        <v>0</v>
       </c>
       <c r="KV2">
-        <v>-0.08721705140060741</v>
+        <v>0</v>
       </c>
       <c r="KW2">
-        <v>-0.08713456089316787</v>
+        <v>0</v>
       </c>
       <c r="KX2">
-        <v>-0.09073933926444812</v>
+        <v>0</v>
       </c>
       <c r="KY2">
-        <v>-0.09149549960935809</v>
+        <v>0</v>
       </c>
       <c r="KZ2">
-        <v>-0.0930482557132913</v>
+        <v>0</v>
       </c>
       <c r="LA2">
-        <v>-0.09239190356960547</v>
+        <v>0</v>
       </c>
       <c r="LB2">
-        <v>-0.08724478042091004</v>
+        <v>0</v>
       </c>
       <c r="LC2">
-        <v>-0.08721926094811004</v>
+        <v>0</v>
       </c>
       <c r="LD2">
-        <v>-0.08724679608383402</v>
+        <v>0</v>
       </c>
       <c r="LE2">
-        <v>-0.09074116679624347</v>
+        <v>0</v>
       </c>
       <c r="LF2">
-        <v>-0.09149854175920755</v>
+        <v>0</v>
       </c>
       <c r="LG2">
-        <v>-0.09305906576294415</v>
+        <v>0</v>
       </c>
       <c r="LH2">
-        <v>-0.09365392812478805</v>
+        <v>0</v>
       </c>
       <c r="LI2">
-        <v>-0.09239677538657959</v>
+        <v>0</v>
       </c>
       <c r="LJ2">
-        <v>-0.08728163370373643</v>
+        <v>0</v>
       </c>
       <c r="LK2">
-        <v>-0.08722773496772536</v>
+        <v>0</v>
       </c>
       <c r="LL2">
-        <v>-0.09074332247373292</v>
+        <v>0</v>
       </c>
       <c r="LM2">
-        <v>-0.09150204599125444</v>
+        <v>0</v>
       </c>
       <c r="LN2">
-        <v>-0.09311474223424598</v>
+        <v>0</v>
       </c>
       <c r="LO2">
-        <v>-0.09394463945091366</v>
+        <v>0</v>
       </c>
       <c r="LP2">
-        <v>-0.09240094581778402</v>
+        <v>0</v>
       </c>
       <c r="LQ2">
-        <v>-0.08725665382854265</v>
+        <v>0</v>
       </c>
       <c r="LR2">
-        <v>-0.09074455092520431</v>
+        <v>0</v>
       </c>
       <c r="LS2">
-        <v>-0.09150552214452404</v>
+        <v>0</v>
       </c>
       <c r="LT2">
-        <v>-0.09313418052269291</v>
+        <v>0</v>
       </c>
       <c r="LU2">
-        <v>-0.09409931963704769</v>
+        <v>0</v>
       </c>
       <c r="LV2">
-        <v>-0.09440854073373921</v>
+        <v>0</v>
       </c>
       <c r="LW2">
-        <v>-0.09240568894019036</v>
+        <v>0</v>
       </c>
       <c r="LX2">
-        <v>-0.09075010059486834</v>
+        <v>0</v>
       </c>
       <c r="LY2">
-        <v>-0.09153606077320514</v>
+        <v>0</v>
       </c>
       <c r="LZ2">
-        <v>-0.09317648772543183</v>
+        <v>0</v>
       </c>
       <c r="MA2">
-        <v>-0.09416058367761988</v>
+        <v>0</v>
       </c>
       <c r="MB2">
-        <v>-0.0946242292216902</v>
+        <v>0</v>
       </c>
       <c r="MC2">
-        <v>-0.09446007664166396</v>
+        <v>0</v>
       </c>
       <c r="MD2">
-        <v>-0.09240942570746626</v>
+        <v>0</v>
       </c>
       <c r="ME2">
-        <v>-0.09075226041995166</v>
+        <v>0</v>
       </c>
       <c r="MF2">
-        <v>-0.09159848714545871</v>
+        <v>0</v>
       </c>
       <c r="MG2">
-        <v>-0.09317549282162844</v>
+        <v>0</v>
       </c>
       <c r="MH2">
-        <v>-0.09319327342708031</v>
+        <v>0</v>
       </c>
       <c r="MI2">
-        <v>-0.09473267564669312</v>
+        <v>0</v>
       </c>
       <c r="MJ2">
-        <v>-0.09450422894657742</v>
+        <v>0</v>
       </c>
       <c r="MK2">
-        <v>-0.09241255859477697</v>
+        <v>0</v>
       </c>
       <c r="ML2">
-        <v>-0.09075301074231905</v>
+        <v>0</v>
       </c>
       <c r="MM2">
-        <v>-0.09317400413588922</v>
+        <v>0</v>
       </c>
       <c r="MN2">
-        <v>-0.09319561069064559</v>
+        <v>0</v>
       </c>
       <c r="MO2">
-        <v>-0.09474276792406236</v>
+        <v>0</v>
       </c>
       <c r="MP2">
-        <v>-0.0945352866022718</v>
+        <v>0</v>
       </c>
       <c r="MQ2">
-        <v>-0.09241538545205304</v>
+        <v>0</v>
       </c>
       <c r="MR2">
-        <v>-0.09075357601079341</v>
+        <v>0</v>
       </c>
       <c r="MS2">
-        <v>-0.09319814912705254</v>
+        <v>0</v>
       </c>
       <c r="MT2">
-        <v>-0.09474693592237332</v>
+        <v>0</v>
       </c>
       <c r="MU2">
-        <v>-0.09457452933574345</v>
+        <v>0</v>
       </c>
       <c r="MV2">
-        <v>-0.09241772506032186</v>
+        <v>0</v>
       </c>
       <c r="MW2">
-        <v>-0.09075398958726133</v>
+        <v>0</v>
       </c>
       <c r="MX2">
-        <v>-0.09320037261830538</v>
+        <v>0</v>
       </c>
       <c r="MY2">
-        <v>-0.09474987688201383</v>
+        <v>0</v>
       </c>
       <c r="MZ2">
-        <v>-0.09459911892797264</v>
+        <v>0</v>
       </c>
       <c r="NA2">
-        <v>-0.092420439145939</v>
+        <v>0</v>
       </c>
       <c r="NB2">
-        <v>-0.09075419960380381</v>
+        <v>0</v>
       </c>
       <c r="NC2">
-        <v>-0.09320273508114545</v>
+        <v>0</v>
       </c>
       <c r="ND2">
-        <v>-0.09475288503083519</v>
+        <v>0</v>
       </c>
       <c r="NE2">
-        <v>-0.09463687952099611</v>
+        <v>0</v>
       </c>
       <c r="NF2">
-        <v>-0.09242342211761134</v>
+        <v>0</v>
       </c>
       <c r="NG2">
-        <v>-0.09075450837279278</v>
+        <v>0</v>
       </c>
       <c r="NH2">
-        <v>-0.09320610682727862</v>
+        <v>0</v>
       </c>
       <c r="NI2">
-        <v>-0.094756434436921</v>
+        <v>0</v>
       </c>
       <c r="NJ2">
-        <v>-0.09467452316295014</v>
+        <v>0</v>
       </c>
       <c r="NK2">
-        <v>-0.09243968426122663</v>
+        <v>0</v>
       </c>
       <c r="NL2">
-        <v>-0.09075502597069075</v>
+        <v>0</v>
       </c>
       <c r="NM2">
-        <v>-0.09321020581233865</v>
+        <v>0</v>
       </c>
       <c r="NN2">
-        <v>-0.09476091176747292</v>
+        <v>0</v>
       </c>
       <c r="NO2">
-        <v>-0.09471676140402641</v>
+        <v>0</v>
       </c>
       <c r="NP2">
-        <v>-0.09334841161783022</v>
+        <v>0</v>
       </c>
       <c r="NQ2">
-        <v>-0.0920763780285849</v>
+        <v>0</v>
       </c>
       <c r="NR2">
-        <v>-0.09075733468447375</v>
+        <v>0</v>
       </c>
       <c r="NS2">
-        <v>-0.09323561286431252</v>
+        <v>0</v>
       </c>
       <c r="NT2">
-        <v>-0.09476492166051592</v>
+        <v>0</v>
       </c>
       <c r="NU2">
-        <v>-0.0947473270772219</v>
+        <v>0</v>
       </c>
       <c r="NV2">
-        <v>-0.09421887751262197</v>
+        <v>0</v>
       </c>
       <c r="NW2">
-        <v>-0.08984694621348412</v>
+        <v>0</v>
       </c>
       <c r="NX2">
-        <v>-0.09207637802857055</v>
+        <v>0</v>
       </c>
       <c r="NY2">
-        <v>-0.0907658215002476</v>
+        <v>0</v>
       </c>
       <c r="NZ2">
-        <v>-0.09332255199254101</v>
+        <v>0</v>
       </c>
       <c r="OA2">
-        <v>-0.09476809459316547</v>
+        <v>0</v>
       </c>
       <c r="OB2">
-        <v>-0.09478375920682795</v>
+        <v>0</v>
       </c>
       <c r="OC2">
-        <v>-0.09425763073420833</v>
+        <v>0</v>
       </c>
       <c r="OD2">
-        <v>-0.08903270924534304</v>
+        <v>0</v>
       </c>
       <c r="OE2">
-        <v>-0.09207637802849397</v>
+        <v>0</v>
       </c>
       <c r="OF2">
-        <v>-0.09477354011959799</v>
+        <v>0</v>
       </c>
       <c r="OG2">
-        <v>-0.09483662292772851</v>
+        <v>0</v>
       </c>
       <c r="OH2">
-        <v>-0.09435787242012041</v>
+        <v>0</v>
       </c>
       <c r="OI2">
-        <v>-0.09490887146387816</v>
+        <v>0</v>
       </c>
       <c r="OJ2">
-        <v>-0.08894984753756958</v>
+        <v>0</v>
       </c>
       <c r="OK2">
-        <v>-0.0920763780284881</v>
+        <v>0</v>
       </c>
       <c r="OL2">
-        <v>-0.09479254997138563</v>
+        <v>0</v>
       </c>
       <c r="OM2">
-        <v>-0.09487581588612778</v>
+        <v>0</v>
       </c>
       <c r="ON2">
-        <v>-0.09436705737660442</v>
+        <v>0</v>
       </c>
       <c r="OO2">
-        <v>-0.09522308050257046</v>
+        <v>0</v>
       </c>
       <c r="OP2">
-        <v>-0.08889202276030533</v>
+        <v>0</v>
       </c>
       <c r="OQ2">
-        <v>-0.09207637802848616</v>
+        <v>0</v>
       </c>
       <c r="OR2">
-        <v>-0.09490877276605988</v>
+        <v>0</v>
       </c>
       <c r="OS2">
-        <v>-0.09491362456709518</v>
+        <v>0</v>
       </c>
       <c r="OT2">
-        <v>-0.09437227885192477</v>
+        <v>0</v>
       </c>
       <c r="OU2">
-        <v>-0.09617108773484899</v>
+        <v>0</v>
       </c>
       <c r="OV2">
-        <v>-0.09522308050267275</v>
+        <v>0</v>
       </c>
       <c r="OW2">
-        <v>-0.0888321230361768</v>
+        <v>0</v>
       </c>
       <c r="OX2">
-        <v>-0.09207637802848469</v>
+        <v>0</v>
       </c>
       <c r="OY2">
-        <v>-0.09495062860925749</v>
+        <v>0</v>
       </c>
       <c r="OZ2">
-        <v>-0.09437582436622577</v>
+        <v>0</v>
       </c>
       <c r="PA2">
-        <v>-0.09752151186684366</v>
+        <v>0</v>
       </c>
       <c r="PB2">
-        <v>-0.09522308050269546</v>
+        <v>0</v>
       </c>
       <c r="PC2">
-        <v>-0.08858059700860438</v>
+        <v>0</v>
       </c>
       <c r="PD2">
-        <v>-0.09207637802848299</v>
+        <v>0</v>
       </c>
       <c r="PE2">
-        <v>-0.09499513252473252</v>
+        <v>0</v>
       </c>
       <c r="PF2">
-        <v>-0.09438160262847338</v>
+        <v>0</v>
       </c>
       <c r="PG2">
-        <v>-0.09780413763250015</v>
+        <v>0</v>
       </c>
       <c r="PH2">
-        <v>-0.09522308050271121</v>
+        <v>0</v>
       </c>
       <c r="PI2">
-        <v>-0.08851918463410362</v>
+        <v>0</v>
       </c>
       <c r="PJ2">
-        <v>-0.09207637802846051</v>
+        <v>0</v>
       </c>
       <c r="PK2">
-        <v>-0.09506967076897949</v>
+        <v>0</v>
       </c>
       <c r="PL2">
-        <v>-0.09499513252473252</v>
+        <v>0</v>
       </c>
       <c r="PM2">
-        <v>-0.09440081003500531</v>
+        <v>0</v>
       </c>
       <c r="PN2">
-        <v>-0.09787637538538559</v>
+        <v>0</v>
       </c>
       <c r="PO2">
-        <v>-0.09522308050272069</v>
+        <v>0</v>
       </c>
       <c r="PP2">
-        <v>-0.08846060551352607</v>
+        <v>0</v>
       </c>
       <c r="PQ2">
-        <v>-0.09207637802845207</v>
+        <v>0</v>
       </c>
       <c r="PR2">
-        <v>-0.09532110466886744</v>
+        <v>0</v>
       </c>
       <c r="PS2">
-        <v>-0.09506967076897949</v>
+        <v>0</v>
       </c>
       <c r="PT2">
-        <v>-0.09442219409811692</v>
+        <v>0</v>
       </c>
       <c r="PU2">
-        <v>-0.09791422000704873</v>
+        <v>0</v>
       </c>
       <c r="PV2">
-        <v>-0.09522308050273115</v>
+        <v>0</v>
       </c>
       <c r="PW2">
-        <v>-0.08840234656040682</v>
+        <v>0</v>
       </c>
       <c r="PX2">
-        <v>-0.09207637802844922</v>
+        <v>0</v>
       </c>
       <c r="PY2">
-        <v>-0.09567678975434959</v>
+        <v>0</v>
       </c>
       <c r="PZ2">
-        <v>-0.09532110466886744</v>
+        <v>0</v>
       </c>
       <c r="QA2">
-        <v>-0.09443422050299878</v>
+        <v>0</v>
       </c>
       <c r="QB2">
-        <v>-0.09794559291285794</v>
+        <v>0</v>
       </c>
       <c r="QC2">
-        <v>-0.09522308050273526</v>
+        <v>0</v>
       </c>
       <c r="QD2">
-        <v>-0.08833551793816592</v>
+        <v>0</v>
       </c>
       <c r="QE2">
-        <v>-0.09207637802844174</v>
+        <v>0</v>
       </c>
       <c r="QF2">
-        <v>-0.09593205591162612</v>
+        <v>0</v>
       </c>
       <c r="QG2">
-        <v>-0.09567678975434959</v>
+        <v>0</v>
       </c>
       <c r="QH2">
-        <v>-0.09444551809533427</v>
+        <v>0</v>
       </c>
       <c r="QI2">
-        <v>-0.09797101901213655</v>
+        <v>0</v>
       </c>
       <c r="QJ2">
-        <v>-0.0952230805027395</v>
+        <v>0</v>
       </c>
       <c r="QK2">
-        <v>-0.08810474489075497</v>
+        <v>0</v>
       </c>
       <c r="QL2">
-        <v>-0.09207637802843364</v>
+        <v>0</v>
       </c>
       <c r="QM2">
-        <v>-0.09600951050021893</v>
+        <v>0</v>
       </c>
       <c r="QN2">
-        <v>-0.09593205591162612</v>
+        <v>0</v>
       </c>
       <c r="QO2">
-        <v>-0.09445629698514947</v>
+        <v>0</v>
       </c>
       <c r="QP2">
-        <v>-0.09800988473731724</v>
+        <v>0</v>
       </c>
       <c r="QQ2">
-        <v>-0.09522308050273713</v>
+        <v>0</v>
       </c>
       <c r="QR2">
-        <v>-0.08698048995961544</v>
+        <v>0</v>
       </c>
       <c r="QS2">
-        <v>-0.09207637802842562</v>
+        <v>0</v>
       </c>
       <c r="QT2">
-        <v>-0.09622514877430975</v>
+        <v>0</v>
       </c>
       <c r="QU2">
-        <v>-0.09600951050021896</v>
+        <v>0</v>
       </c>
       <c r="QV2">
-        <v>-0.09598161563359239</v>
+        <v>0</v>
       </c>
       <c r="QW2">
-        <v>-0.09447399442927601</v>
+        <v>0</v>
       </c>
       <c r="QX2">
-        <v>-0.09804492178472976</v>
+        <v>0</v>
       </c>
       <c r="QY2">
-        <v>-0.09522308050273774</v>
+        <v>0</v>
       </c>
       <c r="QZ2">
-        <v>-0.09207637802841902</v>
+        <v>0</v>
       </c>
       <c r="RA2">
-        <v>-0.09646476080137865</v>
+        <v>0</v>
       </c>
       <c r="RB2">
-        <v>-0.09622514877430974</v>
+        <v>0</v>
       </c>
       <c r="RC2">
-        <v>-0.09622514877430975</v>
+        <v>0</v>
       </c>
       <c r="RD2">
-        <v>-0.09597754188413941</v>
+        <v>0</v>
       </c>
       <c r="RE2">
-        <v>-0.09448632112011389</v>
+        <v>0</v>
       </c>
       <c r="RF2">
-        <v>-0.09807826858283662</v>
+        <v>0</v>
       </c>
       <c r="RG2">
-        <v>-0.09522308050274009</v>
+        <v>0</v>
       </c>
       <c r="RH2">
-        <v>-0.09207637802838729</v>
+        <v>0</v>
       </c>
       <c r="RI2">
-        <v>-0.096552573716506</v>
+        <v>0</v>
       </c>
       <c r="RJ2">
-        <v>-0.09646476080137865</v>
+        <v>0</v>
       </c>
       <c r="RK2">
-        <v>-0.09597532056974578</v>
+        <v>0</v>
       </c>
       <c r="RL2">
-        <v>-0.09449498216602992</v>
+        <v>0</v>
       </c>
       <c r="RM2">
-        <v>-0.09811583597160881</v>
+        <v>0</v>
       </c>
       <c r="RN2">
-        <v>-0.09522308050273479</v>
+        <v>0</v>
       </c>
       <c r="RO2">
-        <v>-0.09207637802838618</v>
+        <v>0</v>
       </c>
       <c r="RP2">
-        <v>-0.09670223278455346</v>
+        <v>0</v>
       </c>
       <c r="RQ2">
-        <v>-0.096552573716506</v>
+        <v>0</v>
       </c>
       <c r="RR2">
-        <v>-0.09658305788172108</v>
+        <v>0</v>
       </c>
       <c r="RS2">
-        <v>-0.0959738158013267</v>
+        <v>0</v>
       </c>
       <c r="RT2">
-        <v>-0.09449912047760092</v>
+        <v>0</v>
       </c>
       <c r="RU2">
-        <v>-0.09815551945018283</v>
+        <v>0</v>
       </c>
       <c r="RV2">
-        <v>-0.09522308050272033</v>
+        <v>0</v>
       </c>
       <c r="RW2">
-        <v>-0.09207637802838553</v>
+        <v>0</v>
       </c>
       <c r="RX2">
-        <v>-0.09691675079485423</v>
+        <v>0</v>
       </c>
       <c r="RY2">
-        <v>-0.09670223278455346</v>
+        <v>0</v>
       </c>
       <c r="RZ2">
-        <v>-0.09658036086387169</v>
+        <v>0</v>
       </c>
       <c r="SA2">
-        <v>-0.09661414371862691</v>
+        <v>0</v>
       </c>
       <c r="SB2">
-        <v>-0.0959715301513982</v>
+        <v>0</v>
       </c>
       <c r="SC2">
-        <v>-0.09450174198856981</v>
+        <v>0</v>
       </c>
       <c r="SD2">
-        <v>-0.09824228712839025</v>
+        <v>0</v>
       </c>
       <c r="SE2">
-        <v>-0.09522308050270926</v>
+        <v>0</v>
       </c>
       <c r="SF2">
-        <v>-0.09207637802838553</v>
+        <v>0</v>
       </c>
       <c r="SG2">
-        <v>-0.09704767623576602</v>
+        <v>0</v>
       </c>
       <c r="SH2">
-        <v>-0.09691675079485423</v>
+        <v>0</v>
       </c>
       <c r="SI2">
-        <v>-0.0965792208980535</v>
+        <v>0</v>
       </c>
       <c r="SJ2">
-        <v>-0.09663403551888294</v>
+        <v>0</v>
       </c>
       <c r="SK2">
-        <v>-0.09596806144436019</v>
+        <v>0</v>
       </c>
       <c r="SL2">
-        <v>-0.09450351445472066</v>
+        <v>0</v>
       </c>
       <c r="SM2">
-        <v>-0.1002105026860131</v>
+        <v>0</v>
       </c>
       <c r="SN2">
-        <v>-0.09522308050270782</v>
+        <v>0</v>
       </c>
       <c r="SO2">
-        <v>-0.09207637802838553</v>
+        <v>0</v>
       </c>
       <c r="SP2">
-        <v>-0.09707022387228137</v>
+        <v>0</v>
       </c>
       <c r="SQ2">
-        <v>-0.09704767623576602</v>
+        <v>0</v>
       </c>
       <c r="SR2">
-        <v>-0.0965785510764107</v>
+        <v>0</v>
       </c>
       <c r="SS2">
-        <v>-0.09596560050570384</v>
+        <v>0</v>
       </c>
       <c r="ST2">
-        <v>-0.09450598683296052</v>
+        <v>0</v>
       </c>
       <c r="SU2">
-        <v>-0.1002601432298168</v>
+        <v>0</v>
       </c>
       <c r="SV2">
-        <v>-0.1005032409879039</v>
+        <v>0</v>
       </c>
       <c r="SW2">
-        <v>-0.09522308050270691</v>
+        <v>0</v>
       </c>
       <c r="SX2">
-        <v>-0.09714448060048995</v>
+        <v>0</v>
       </c>
       <c r="SY2">
-        <v>-0.09707022387228138</v>
+        <v>0</v>
       </c>
       <c r="SZ2">
-        <v>-0.09674590263526553</v>
+        <v>0</v>
       </c>
       <c r="TA2">
-        <v>-0.09657793463886463</v>
+        <v>0</v>
       </c>
       <c r="TB2">
-        <v>-0.09596391916053165</v>
+        <v>0</v>
       </c>
       <c r="TC2">
-        <v>-0.0945078737733567</v>
+        <v>0</v>
       </c>
       <c r="TD2">
-        <v>-0.1003039203990205</v>
+        <v>0</v>
       </c>
       <c r="TE2">
-        <v>-0.1006611702657826</v>
+        <v>0</v>
       </c>
       <c r="TF2">
-        <v>-0.09522308050270394</v>
+        <v>0</v>
       </c>
       <c r="TG2">
-        <v>-0.09719914317218194</v>
+        <v>0</v>
       </c>
       <c r="TH2">
-        <v>-0.09714448060048995</v>
+        <v>0</v>
       </c>
       <c r="TI2">
-        <v>-0.09655423889845663</v>
+        <v>0</v>
       </c>
       <c r="TJ2">
-        <v>-0.09657738544478592</v>
+        <v>0</v>
       </c>
       <c r="TK2">
-        <v>-0.09596259056635596</v>
+        <v>0</v>
       </c>
       <c r="TL2">
-        <v>-0.09452133944427268</v>
+        <v>0</v>
       </c>
       <c r="TM2">
-        <v>-0.1006847563957209</v>
+        <v>0</v>
       </c>
       <c r="TN2">
-        <v>-0.09522308050269938</v>
+        <v>0</v>
       </c>
       <c r="TO2">
-        <v>-0.09727356738490234</v>
+        <v>0</v>
       </c>
       <c r="TP2">
-        <v>-0.09719914317218194</v>
+        <v>0</v>
       </c>
       <c r="TQ2">
-        <v>-0.09640236661560363</v>
+        <v>0</v>
       </c>
       <c r="TR2">
-        <v>-0.09657681571827761</v>
+        <v>0</v>
       </c>
       <c r="TS2">
-        <v>-0.09595833073087938</v>
+        <v>0</v>
       </c>
       <c r="TT2">
-        <v>-0.09454587250948315</v>
+        <v>0</v>
       </c>
       <c r="TU2">
-        <v>-0.09458796654526326</v>
+        <v>0</v>
       </c>
       <c r="TV2">
-        <v>-0.1007027606089718</v>
+        <v>0</v>
       </c>
       <c r="TW2">
-        <v>-0.09522308050269447</v>
+        <v>0</v>
       </c>
       <c r="TX2">
-        <v>-0.09732623489631829</v>
+        <v>0</v>
       </c>
       <c r="TY2">
-        <v>-0.09727356738490234</v>
+        <v>0</v>
       </c>
       <c r="TZ2">
-        <v>-0.09633960971569547</v>
+        <v>0</v>
       </c>
       <c r="UA2">
-        <v>-0.09657509580563109</v>
+        <v>0</v>
       </c>
       <c r="UB2">
-        <v>-0.09592387448596051</v>
+        <v>0</v>
       </c>
       <c r="UC2">
-        <v>-0.09457296293675956</v>
+        <v>0</v>
       </c>
       <c r="UD2">
-        <v>-0.1007195992420405</v>
+        <v>0</v>
       </c>
       <c r="UE2">
-        <v>-0.09522308050269061</v>
+        <v>0</v>
       </c>
       <c r="UF2">
-        <v>-0.09747352519816489</v>
+        <v>0</v>
       </c>
       <c r="UG2">
-        <v>-0.09732623489631829</v>
+        <v>0</v>
       </c>
       <c r="UH2">
-        <v>-0.09633837555263113</v>
+        <v>0</v>
       </c>
       <c r="UI2">
-        <v>-0.09609607929040581</v>
+        <v>0</v>
       </c>
       <c r="UJ2">
-        <v>-0.09657336254650117</v>
+        <v>0</v>
       </c>
       <c r="UK2">
-        <v>-0.09592215857489454</v>
+        <v>0</v>
       </c>
       <c r="UL2">
-        <v>-0.09464639497873967</v>
+        <v>0</v>
       </c>
       <c r="UM2">
-        <v>-0.1007375555904255</v>
+        <v>0</v>
       </c>
       <c r="UN2">
-        <v>-0.09522308050268764</v>
+        <v>0</v>
       </c>
       <c r="UO2">
-        <v>-0.09758018080778558</v>
+        <v>0</v>
       </c>
       <c r="UP2">
-        <v>-0.09747352519816489</v>
+        <v>0</v>
       </c>
       <c r="UQ2">
-        <v>-0.09633792141728956</v>
+        <v>0</v>
       </c>
       <c r="UR2">
-        <v>-0.09591183853839426</v>
+        <v>0</v>
       </c>
       <c r="US2">
-        <v>-0.09655716761533309</v>
+        <v>0</v>
       </c>
       <c r="UT2">
-        <v>-0.09592080465956654</v>
+        <v>0</v>
       </c>
       <c r="UU2">
-        <v>-0.1007534448077333</v>
+        <v>0</v>
       </c>
       <c r="UV2">
-        <v>-0.09522308050268767</v>
+        <v>0</v>
       </c>
       <c r="UW2">
-        <v>-0.09759430391055895</v>
+        <v>0</v>
       </c>
       <c r="UX2">
-        <v>-0.09758018080778559</v>
+        <v>0</v>
       </c>
       <c r="UY2">
-        <v>-0.09765181778116293</v>
+        <v>0</v>
       </c>
       <c r="UZ2">
-        <v>-0.09633724494820189</v>
+        <v>0</v>
       </c>
       <c r="VA2">
-        <v>-0.09591927401982234</v>
+        <v>0</v>
       </c>
       <c r="VB2">
-        <v>-0.100769696694866</v>
+        <v>0</v>
       </c>
       <c r="VC2">
-        <v>-0.09759764800835839</v>
+        <v>0</v>
       </c>
       <c r="VD2">
-        <v>-0.09759430391055894</v>
+        <v>0</v>
       </c>
       <c r="VE2">
-        <v>-0.09766087411864034</v>
+        <v>0</v>
       </c>
       <c r="VF2">
-        <v>-0.09633683790090629</v>
+        <v>0</v>
       </c>
       <c r="VG2">
-        <v>-0.09591791170047984</v>
+        <v>0</v>
       </c>
       <c r="VH2">
-        <v>-0.1008535779495965</v>
+        <v>0</v>
       </c>
       <c r="VI2">
-        <v>-0.09768830613278091</v>
+        <v>0</v>
       </c>
       <c r="VJ2">
-        <v>-0.09759764800835838</v>
+        <v>0</v>
       </c>
       <c r="VK2">
-        <v>-0.09759764800831436</v>
+        <v>0</v>
       </c>
       <c r="VL2">
-        <v>-0.09766755711907164</v>
+        <v>0</v>
       </c>
       <c r="VM2">
-        <v>-0.09633634674441642</v>
+        <v>0</v>
       </c>
       <c r="VN2">
-        <v>-0.09591634366919674</v>
+        <v>0</v>
       </c>
       <c r="VO2">
-        <v>-0.100895162614355</v>
+        <v>0</v>
       </c>
       <c r="VP2">
-        <v>-0.1010284860302213</v>
+        <v>0</v>
       </c>
       <c r="VQ2">
-        <v>-0.09775184171942848</v>
+        <v>0</v>
       </c>
       <c r="VR2">
-        <v>-0.09768830613278091</v>
+        <v>0</v>
       </c>
       <c r="VS2">
-        <v>-0.09759764800829641</v>
+        <v>0</v>
       </c>
       <c r="VT2">
-        <v>-0.09767405974934111</v>
+        <v>0</v>
       </c>
       <c r="VU2">
-        <v>-0.09633591548782337</v>
+        <v>0</v>
       </c>
       <c r="VV2">
-        <v>-0.09591473590162339</v>
+        <v>0</v>
       </c>
       <c r="VW2">
-        <v>-0.1008975590427239</v>
+        <v>0</v>
       </c>
       <c r="VX2">
-        <v>-0.1018643800929634</v>
+        <v>0</v>
       </c>
       <c r="VY2">
-        <v>-0.09781133609264839</v>
+        <v>0</v>
       </c>
       <c r="VZ2">
-        <v>-0.09775988701767399</v>
+        <v>0</v>
       </c>
       <c r="WA2">
-        <v>-0.09759764800828412</v>
+        <v>0</v>
       </c>
       <c r="WB2">
-        <v>-0.09773514408746012</v>
+        <v>0</v>
       </c>
       <c r="WC2">
-        <v>-0.09633309348063669</v>
+        <v>0</v>
       </c>
       <c r="WD2">
-        <v>-0.09591280336873279</v>
+        <v>0</v>
       </c>
       <c r="WE2">
-        <v>-0.1008987626188543</v>
+        <v>0</v>
       </c>
       <c r="WF2">
-        <v>-0.1019515354752279</v>
+        <v>0</v>
       </c>
       <c r="WG2">
-        <v>-0.1028107156636327</v>
+        <v>0</v>
       </c>
       <c r="WH2">
-        <v>-0.09786439290661404</v>
+        <v>0</v>
       </c>
       <c r="WI2">
-        <v>-0.09781133609264839</v>
+        <v>0</v>
       </c>
       <c r="WJ2">
-        <v>-0.09781133609264839</v>
+        <v>0</v>
       </c>
       <c r="WK2">
-        <v>-0.09793112114391368</v>
+        <v>0</v>
       </c>
       <c r="WL2">
-        <v>-0.09775988701767399</v>
+        <v>0</v>
       </c>
       <c r="WM2">
-        <v>-0.09759764800826927</v>
+        <v>0</v>
       </c>
       <c r="WN2">
-        <v>-0.09776357386784668</v>
+        <v>0</v>
       </c>
       <c r="WO2">
-        <v>-0.0963122855486844</v>
+        <v>0</v>
       </c>
       <c r="WP2">
-        <v>-0.09591159180677969</v>
+        <v>0</v>
       </c>
       <c r="WQ2">
-        <v>-0.1008997718832121</v>
+        <v>0</v>
       </c>
       <c r="WR2">
-        <v>-0.1019975290213701</v>
+        <v>0</v>
       </c>
       <c r="WS2">
-        <v>-0.1037172617020123</v>
+        <v>0</v>
       </c>
       <c r="WT2">
-        <v>-0.09791332509108062</v>
+        <v>0</v>
       </c>
       <c r="WU2">
-        <v>-0.09786439290661407</v>
+        <v>0</v>
       </c>
       <c r="WV2">
-        <v>-0.09786439290661404</v>
+        <v>0</v>
       </c>
       <c r="WW2">
-        <v>-0.09797142642851213</v>
+        <v>0</v>
       </c>
       <c r="WX2">
-        <v>-0.09759764800825801</v>
+        <v>0</v>
       </c>
       <c r="WY2">
-        <v>-0.0977769172451726</v>
+        <v>0</v>
       </c>
       <c r="WZ2">
-        <v>-0.09590638490806351</v>
+        <v>0</v>
       </c>
       <c r="XA2">
-        <v>-0.1009005949033256</v>
+        <v>0</v>
       </c>
       <c r="XB2">
-        <v>-0.1037527032261525</v>
+        <v>0</v>
       </c>
       <c r="XC2">
-        <v>-0.1039497934773348</v>
+        <v>0</v>
       </c>
       <c r="XD2">
-        <v>-0.09797998397120211</v>
+        <v>0</v>
       </c>
       <c r="XE2">
-        <v>-0.09759764800824637</v>
+        <v>0</v>
       </c>
       <c r="XF2">
-        <v>-0.0977858175291651</v>
+        <v>0</v>
       </c>
       <c r="XG2">
-        <v>-0.0958844330121375</v>
+        <v>0</v>
       </c>
       <c r="XH2">
-        <v>-0.100901886805077</v>
+        <v>0</v>
       </c>
       <c r="XI2">
-        <v>-0.1037613936743031</v>
+        <v>0</v>
       </c>
       <c r="XJ2">
-        <v>-0.1040032930931713</v>
+        <v>0</v>
       </c>
       <c r="XK2">
-        <v>-0.09799953620031973</v>
+        <v>0</v>
       </c>
       <c r="XL2">
-        <v>-0.09759764800823667</v>
+        <v>0</v>
       </c>
       <c r="XM2">
-        <v>-0.09779942447612311</v>
+        <v>0</v>
       </c>
       <c r="XN2">
-        <v>-0.1009049674225768</v>
+        <v>0</v>
       </c>
       <c r="XO2">
-        <v>-0.1037673611845836</v>
+        <v>0</v>
       </c>
       <c r="XP2">
-        <v>-0.1040298423240347</v>
+        <v>0</v>
       </c>
       <c r="XQ2">
-        <v>-0.09806425184267661</v>
+        <v>0</v>
       </c>
       <c r="XR2">
-        <v>-0.0975976480082295</v>
+        <v>0</v>
       </c>
       <c r="XS2">
-        <v>-0.09782599892669276</v>
+        <v>0</v>
       </c>
       <c r="XT2">
-        <v>-0.1009070987135646</v>
+        <v>0</v>
       </c>
       <c r="XU2">
-        <v>-0.1037756334725996</v>
+        <v>0</v>
       </c>
       <c r="XV2">
-        <v>-0.1040590179747459</v>
+        <v>0</v>
       </c>
       <c r="XW2">
-        <v>-0.09759764800822582</v>
+        <v>0</v>
       </c>
       <c r="XX2">
-        <v>-0.09783334484363197</v>
+        <v>0</v>
       </c>
       <c r="XY2">
-        <v>-0.1009098086401412</v>
+        <v>0</v>
       </c>
       <c r="XZ2">
-        <v>-0.1037952496637163</v>
+        <v>0</v>
       </c>
       <c r="YA2">
-        <v>-0.1040926824891243</v>
+        <v>0</v>
       </c>
       <c r="YB2">
-        <v>-0.09759764800822435</v>
+        <v>0</v>
       </c>
       <c r="YC2">
-        <v>-0.09783547748573893</v>
+        <v>0</v>
       </c>
       <c r="YD2">
-        <v>-0.1009114548991058</v>
+        <v>0</v>
       </c>
       <c r="YE2">
-        <v>-0.1038101613180913</v>
+        <v>0</v>
       </c>
       <c r="YF2">
-        <v>-0.1041267151929334</v>
+        <v>0</v>
       </c>
       <c r="YG2">
-        <v>-0.09759764800822505</v>
+        <v>0</v>
       </c>
       <c r="YH2">
-        <v>-0.09783679293320098</v>
+        <v>0</v>
       </c>
       <c r="YI2">
-        <v>-0.09783831680930058</v>
+        <v>0</v>
       </c>
       <c r="YJ2">
-        <v>-0.1009129411209062</v>
+        <v>0</v>
       </c>
       <c r="YK2">
-        <v>-0.1038206291335269</v>
+        <v>0</v>
       </c>
       <c r="YL2">
-        <v>-0.1041644450438238</v>
+        <v>0</v>
       </c>
       <c r="YM2">
-        <v>-0.09759764800822866</v>
+        <v>0</v>
       </c>
       <c r="YN2">
-        <v>-0.09783802408092841</v>
+        <v>0</v>
       </c>
       <c r="YO2">
-        <v>-0.09784206348887964</v>
+        <v>0</v>
       </c>
       <c r="YP2">
-        <v>-0.1009154476887993</v>
+        <v>0</v>
       </c>
       <c r="YQ2">
-        <v>-0.1038315951395358</v>
+        <v>0</v>
       </c>
       <c r="YR2">
-        <v>-0.1042193125289456</v>
+        <v>0</v>
       </c>
       <c r="YS2">
-        <v>-0.09759764800823068</v>
+        <v>0</v>
       </c>
       <c r="YT2">
-        <v>-0.09783929232267524</v>
+        <v>0</v>
       </c>
       <c r="YU2">
-        <v>-0.09785762899764182</v>
+        <v>0</v>
       </c>
       <c r="YV2">
-        <v>-0.1009179119868926</v>
+        <v>0</v>
       </c>
       <c r="YW2">
-        <v>-0.1038405983799514</v>
+        <v>0</v>
       </c>
       <c r="YX2">
-        <v>-0.1042285139042206</v>
+        <v>0</v>
       </c>
       <c r="YY2">
-        <v>-0.1043490596157867</v>
+        <v>0</v>
       </c>
       <c r="YZ2">
-        <v>-0.0975976480082309</v>
+        <v>0</v>
       </c>
       <c r="ZA2">
-        <v>-0.09784846201723654</v>
+        <v>0</v>
       </c>
       <c r="ZB2">
-        <v>-0.09786423932924229</v>
+        <v>0</v>
       </c>
       <c r="ZC2">
-        <v>-0.1009190779593867</v>
+        <v>0</v>
       </c>
       <c r="ZD2">
-        <v>-0.1038555053491265</v>
+        <v>0</v>
       </c>
       <c r="ZE2">
-        <v>-0.1042340393646966</v>
+        <v>0</v>
       </c>
       <c r="ZF2">
-        <v>-0.1051707056301295</v>
+        <v>0</v>
       </c>
       <c r="ZG2">
-        <v>-0.09759764800823091</v>
+        <v>0</v>
       </c>
       <c r="ZH2">
-        <v>-0.09791523790843169</v>
+        <v>0</v>
       </c>
       <c r="ZI2">
-        <v>-0.1009203586227158</v>
+        <v>0</v>
       </c>
       <c r="ZJ2">
-        <v>-0.1039036809500745</v>
+        <v>0</v>
       </c>
       <c r="ZK2">
-        <v>-0.1042391650526185</v>
+        <v>0</v>
       </c>
       <c r="ZL2">
-        <v>-0.1057588993986929</v>
+        <v>0</v>
       </c>
       <c r="ZM2">
-        <v>-0.1009215877860301</v>
+        <v>0</v>
       </c>
       <c r="ZN2">
-        <v>-0.1040162533418705</v>
+        <v>0</v>
       </c>
       <c r="ZO2">
-        <v>-0.1042441663771329</v>
+        <v>0</v>
       </c>
       <c r="ZP2">
-        <v>-0.1059786373374295</v>
+        <v>0</v>
       </c>
       <c r="ZQ2">
-        <v>-0.1072064118117524</v>
+        <v>0</v>
       </c>
       <c r="ZR2">
-        <v>-0.1009230701476936</v>
+        <v>0</v>
       </c>
       <c r="ZS2">
-        <v>-0.1042479177199656</v>
+        <v>0</v>
       </c>
       <c r="ZT2">
-        <v>-0.1059919530985802</v>
+        <v>0</v>
       </c>
       <c r="ZU2">
-        <v>-0.1059988283761042</v>
+        <v>0</v>
       </c>
       <c r="ZV2">
-        <v>-0.1072933517692233</v>
+        <v>0</v>
       </c>
       <c r="ZW2">
-        <v>-0.1074910586919756</v>
+        <v>0</v>
       </c>
       <c r="ZX2">
-        <v>-0.1009254347043865</v>
+        <v>0</v>
       </c>
       <c r="ZY2">
-        <v>-0.1042538770000692</v>
+        <v>0</v>
       </c>
       <c r="ZZ2">
-        <v>-0.1059961196997753</v>
+        <v>0</v>
       </c>
       <c r="AAA2">
-        <v>-0.106039961271311</v>
+        <v>0</v>
       </c>
       <c r="AAB2">
-        <v>-0.1073437199685096</v>
+        <v>0</v>
       </c>
       <c r="AAC2">
-        <v>-0.1077798708065384</v>
+        <v>0</v>
       </c>
       <c r="AAD2">
-        <v>-0.1009319062462465</v>
+        <v>0</v>
       </c>
       <c r="AAE2">
-        <v>-0.1042639246471471</v>
+        <v>0</v>
       </c>
       <c r="AAF2">
-        <v>-0.1059987987078742</v>
+        <v>0</v>
       </c>
       <c r="AAG2">
-        <v>-0.1085418208380054</v>
+        <v>0</v>
       </c>
       <c r="AAH2">
-        <v>-0.1077798708065344</v>
+        <v>0</v>
       </c>
       <c r="AAI2">
-        <v>-0.100940518710252</v>
+        <v>0</v>
       </c>
       <c r="AAJ2">
-        <v>-0.1043392138668767</v>
+        <v>0</v>
       </c>
       <c r="AAK2">
-        <v>-0.1060004146118995</v>
+        <v>0</v>
       </c>
       <c r="AAL2">
-        <v>-0.1092259107660687</v>
+        <v>0</v>
       </c>
       <c r="AAM2">
-        <v>-0.1086530912641665</v>
+        <v>0</v>
       </c>
       <c r="AAN2">
-        <v>-0.1077798708065274</v>
+        <v>0</v>
       </c>
       <c r="AAO2">
-        <v>-0.100941339021205</v>
+        <v>0</v>
       </c>
       <c r="AAP2">
-        <v>-0.1044009826314683</v>
+        <v>0</v>
       </c>
       <c r="AAQ2">
-        <v>-0.1060020478270749</v>
+        <v>0</v>
       </c>
       <c r="AAR2">
-        <v>-0.1099321074267623</v>
+        <v>0</v>
       </c>
       <c r="AAS2">
-        <v>-0.1086650034958481</v>
+        <v>0</v>
       </c>
       <c r="AAT2">
-        <v>-0.1077798708065257</v>
+        <v>0</v>
       </c>
       <c r="AAU2">
-        <v>-0.1009419877699762</v>
+        <v>0</v>
       </c>
       <c r="AAV2">
-        <v>-0.1044205538113901</v>
+        <v>0</v>
       </c>
       <c r="AAW2">
-        <v>-0.1060035066328859</v>
+        <v>0</v>
       </c>
       <c r="AAX2">
-        <v>-0.1101217367631152</v>
+        <v>0</v>
       </c>
       <c r="AAY2">
-        <v>-0.1102927606172899</v>
+        <v>0</v>
       </c>
       <c r="AAZ2">
-        <v>-0.1086695517750121</v>
+        <v>0</v>
       </c>
       <c r="ABA2">
-        <v>-0.1077798708065276</v>
+        <v>0</v>
       </c>
       <c r="ABB2">
-        <v>-0.1009426178607072</v>
+        <v>0</v>
       </c>
       <c r="ABC2">
-        <v>-0.104438371158329</v>
+        <v>0</v>
       </c>
       <c r="ABD2">
-        <v>-0.106005150201372</v>
+        <v>0</v>
       </c>
       <c r="ABE2">
-        <v>-0.1103794323101172</v>
+        <v>0</v>
       </c>
       <c r="ABF2">
-        <v>-0.1103411441764815</v>
+        <v>0</v>
       </c>
       <c r="ABG2">
-        <v>-0.1086743629686858</v>
+        <v>0</v>
       </c>
       <c r="ABH2">
-        <v>-0.107779870806533</v>
+        <v>0</v>
       </c>
       <c r="ABI2">
-        <v>-0.1009432927559972</v>
+        <v>0</v>
       </c>
       <c r="ABJ2">
-        <v>-0.1044480755546287</v>
+        <v>0</v>
       </c>
       <c r="ABK2">
-        <v>-0.1060064670328039</v>
+        <v>0</v>
       </c>
       <c r="ABL2">
-        <v>-0.1106811693980605</v>
+        <v>0</v>
       </c>
       <c r="ABM2">
-        <v>-0.1103665642051198</v>
+        <v>0</v>
       </c>
       <c r="ABN2">
-        <v>-0.1086783558532978</v>
+        <v>0</v>
       </c>
       <c r="ABO2">
-        <v>-0.1077798708065448</v>
+        <v>0</v>
       </c>
       <c r="ABP2">
-        <v>-0.100943916747842</v>
+        <v>0</v>
       </c>
       <c r="ABQ2">
-        <v>-0.1044558260947304</v>
+        <v>0</v>
       </c>
       <c r="ABR2">
-        <v>-0.106008046574102</v>
+        <v>0</v>
       </c>
       <c r="ABS2">
-        <v>-0.1109234736535988</v>
+        <v>0</v>
       </c>
       <c r="ABT2">
-        <v>-0.1104161121617532</v>
+        <v>0</v>
       </c>
       <c r="ABU2">
-        <v>-0.1103696555546354</v>
+        <v>0</v>
       </c>
       <c r="ABV2">
-        <v>-0.1086830844236369</v>
+        <v>0</v>
       </c>
       <c r="ABW2">
-        <v>-0.1077798708065613</v>
+        <v>0</v>
       </c>
       <c r="ABX2">
-        <v>-0.1009445047943618</v>
+        <v>0</v>
       </c>
       <c r="ABY2">
-        <v>-0.1044624351429984</v>
+        <v>0</v>
       </c>
       <c r="ABZ2">
-        <v>-0.106009748720056</v>
+        <v>0</v>
       </c>
       <c r="ACA2">
-        <v>-0.1109762727065258</v>
+        <v>0</v>
       </c>
       <c r="ACB2">
-        <v>-0.1110907363278512</v>
+        <v>0</v>
       </c>
       <c r="ACC2">
-        <v>-0.1104563893398705</v>
+        <v>0</v>
       </c>
       <c r="ACD2">
-        <v>-0.1103718910473737</v>
+        <v>0</v>
       </c>
       <c r="ACE2">
-        <v>-0.1086876959430276</v>
+        <v>0</v>
       </c>
       <c r="ACF2">
-        <v>-0.1077798708065738</v>
+        <v>0</v>
       </c>
       <c r="ACG2">
-        <v>-0.1009453226548152</v>
+        <v>0</v>
       </c>
       <c r="ACH2">
-        <v>-0.1044701909557045</v>
+        <v>0</v>
       </c>
       <c r="ACI2">
-        <v>-0.1060128541999813</v>
+        <v>0</v>
       </c>
       <c r="ACJ2">
-        <v>-0.1110490690932736</v>
+        <v>0</v>
       </c>
       <c r="ACK2">
-        <v>-0.1112305557950473</v>
+        <v>0</v>
       </c>
       <c r="ACL2">
-        <v>-0.1103737776057061</v>
+        <v>0</v>
       </c>
       <c r="ACM2">
-        <v>-0.1086940358171467</v>
+        <v>0</v>
       </c>
       <c r="ACN2">
-        <v>-0.1077798708065859</v>
+        <v>0</v>
       </c>
       <c r="ACO2">
-        <v>-0.100946324909731</v>
+        <v>0</v>
       </c>
       <c r="ACP2">
-        <v>-0.1044772777961895</v>
+        <v>0</v>
       </c>
       <c r="ACQ2">
-        <v>-0.1060360881765567</v>
+        <v>0</v>
       </c>
       <c r="ACR2">
-        <v>-0.1112281595354716</v>
+        <v>0</v>
       </c>
       <c r="ACS2">
-        <v>-0.1112649878014978</v>
+        <v>0</v>
       </c>
       <c r="ACT2">
-        <v>-0.1112329914672128</v>
+        <v>0</v>
       </c>
       <c r="ACU2">
-        <v>-0.1103769642246606</v>
+        <v>0</v>
       </c>
       <c r="ACV2">
-        <v>-0.1087027573827349</v>
+        <v>0</v>
       </c>
       <c r="ACW2">
-        <v>-0.1077798708065938</v>
+        <v>0</v>
       </c>
       <c r="ACX2">
-        <v>-0.1009510753442569</v>
+        <v>0</v>
       </c>
       <c r="ACY2">
-        <v>-0.1044882722703847</v>
+        <v>0</v>
       </c>
       <c r="ACZ2">
-        <v>-0.1061072900980757</v>
+        <v>0</v>
       </c>
       <c r="ADA2">
-        <v>-0.1113733243914564</v>
+        <v>0</v>
       </c>
       <c r="ADB2">
-        <v>-0.1112987280007155</v>
+        <v>0</v>
       </c>
       <c r="ADC2">
-        <v>-0.1112353202847987</v>
+        <v>0</v>
       </c>
       <c r="ADD2">
-        <v>-0.1103814267151018</v>
+        <v>0</v>
       </c>
       <c r="ADE2">
-        <v>-0.1087119873220961</v>
+        <v>0</v>
       </c>
       <c r="ADF2">
-        <v>-0.107779870806606</v>
+        <v>0</v>
       </c>
       <c r="ADG2">
-        <v>-0.1009916933310936</v>
+        <v>0</v>
       </c>
       <c r="ADH2">
-        <v>-0.1045104693387895</v>
+        <v>0</v>
       </c>
       <c r="ADI2">
-        <v>-0.1114867578657293</v>
+        <v>0</v>
       </c>
       <c r="ADJ2">
-        <v>-0.1112378308745972</v>
+        <v>0</v>
       </c>
       <c r="ADK2">
-        <v>-0.1103847379933189</v>
+        <v>0</v>
       </c>
       <c r="ADL2">
-        <v>-0.1087181185485307</v>
+        <v>0</v>
       </c>
       <c r="ADM2">
-        <v>-0.1077798708066144</v>
+        <v>0</v>
       </c>
       <c r="ADN2">
-        <v>-0.104512906576588</v>
+        <v>0</v>
       </c>
       <c r="ADO2">
-        <v>-0.1045354688645069</v>
+        <v>0</v>
       </c>
       <c r="ADP2">
-        <v>-0.1115892842527027</v>
+        <v>0</v>
       </c>
       <c r="ADQ2">
-        <v>-0.1112400726419249</v>
+        <v>0</v>
       </c>
       <c r="ADR2">
-        <v>-0.1103902232745919</v>
+        <v>0</v>
       </c>
       <c r="ADS2">
-        <v>-0.1087243586865281</v>
+        <v>0</v>
       </c>
       <c r="ADT2">
-        <v>-0.1077798708066197</v>
+        <v>0</v>
       </c>
       <c r="ADU2">
-        <v>-0.1045150320837363</v>
+        <v>0</v>
       </c>
       <c r="ADV2">
-        <v>-0.1045754726117222</v>
+        <v>0</v>
       </c>
       <c r="ADW2">
-        <v>-0.1115849332208425</v>
+        <v>0</v>
       </c>
       <c r="ADX2">
-        <v>-0.111649194555734</v>
+        <v>0</v>
       </c>
       <c r="ADY2">
-        <v>-0.1112425483030273</v>
+        <v>0</v>
       </c>
       <c r="ADZ2">
-        <v>-0.1104282970955207</v>
+        <v>0</v>
       </c>
       <c r="AEA2">
-        <v>-0.1087273423734016</v>
+        <v>0</v>
       </c>
       <c r="AEB2">
-        <v>-0.1077798708066203</v>
+        <v>0</v>
       </c>
       <c r="AEC2">
-        <v>-0.1045167899790287</v>
+        <v>0</v>
       </c>
       <c r="AED2">
-        <v>-0.104609652746843</v>
+        <v>0</v>
       </c>
       <c r="AEE2">
-        <v>-0.1115805707385521</v>
+        <v>0</v>
       </c>
       <c r="AEF2">
-        <v>-0.1117157858320363</v>
+        <v>0</v>
       </c>
       <c r="AEG2">
-        <v>-0.111649194555734</v>
+        <v>0</v>
       </c>
       <c r="AEH2">
-        <v>-0.111244144444587</v>
+        <v>0</v>
       </c>
       <c r="AEI2">
-        <v>-0.1105123998226149</v>
+        <v>0</v>
       </c>
       <c r="AEJ2">
-        <v>-0.1087320883008343</v>
+        <v>0</v>
       </c>
       <c r="AEK2">
-        <v>-0.1077798708066225</v>
+        <v>0</v>
       </c>
       <c r="AEL2">
-        <v>-0.1045181570063766</v>
+        <v>0</v>
       </c>
       <c r="AEM2">
-        <v>-0.1046289977096493</v>
+        <v>0</v>
       </c>
       <c r="AEN2">
-        <v>-0.111576199769278</v>
+        <v>0</v>
       </c>
       <c r="AEO2">
-        <v>-0.1117716211204507</v>
+        <v>0</v>
       </c>
       <c r="AEP2">
-        <v>-0.1117157858320363</v>
+        <v>0</v>
       </c>
       <c r="AEQ2">
-        <v>-0.111246596011251</v>
+        <v>0</v>
       </c>
       <c r="AER2">
-        <v>-0.1087365436858572</v>
+        <v>0</v>
       </c>
       <c r="AES2">
-        <v>-0.1077798708066241</v>
+        <v>0</v>
       </c>
       <c r="AET2">
-        <v>-0.1045195473601119</v>
+        <v>0</v>
       </c>
       <c r="AEU2">
-        <v>-0.1115718552405169</v>
+        <v>0</v>
       </c>
       <c r="AEV2">
-        <v>-0.1118316434062898</v>
+        <v>0</v>
       </c>
       <c r="AEW2">
-        <v>-0.1117716211204507</v>
+        <v>0</v>
       </c>
       <c r="AEX2">
-        <v>-0.1112667608714602</v>
+        <v>0</v>
       </c>
       <c r="AEY2">
-        <v>-0.1087429097124516</v>
+        <v>0</v>
       </c>
       <c r="AEZ2">
-        <v>-0.1077798708066241</v>
+        <v>0</v>
       </c>
       <c r="AFA2">
-        <v>-0.1045207539418451</v>
+        <v>0</v>
       </c>
       <c r="AFB2">
-        <v>-0.1115674941807647</v>
+        <v>0</v>
       </c>
       <c r="AFC2">
-        <v>-0.1118809244234861</v>
+        <v>0</v>
       </c>
       <c r="AFD2">
-        <v>-0.1118316434062898</v>
+        <v>0</v>
       </c>
       <c r="AFE2">
-        <v>-0.1113362595172192</v>
+        <v>0</v>
       </c>
       <c r="AFF2">
-        <v>-0.1088101090412058</v>
+        <v>0</v>
       </c>
       <c r="AFG2">
-        <v>-0.1045216205283227</v>
+        <v>0</v>
       </c>
       <c r="AFH2">
-        <v>-0.1115631360649457</v>
+        <v>0</v>
       </c>
       <c r="AFI2">
-        <v>-0.1119338336164232</v>
+        <v>0</v>
       </c>
       <c r="AFJ2">
-        <v>-0.1118809244234861</v>
+        <v>0</v>
       </c>
       <c r="AFK2">
-        <v>-0.1088369878946531</v>
+        <v>0</v>
       </c>
       <c r="AFL2">
-        <v>-0.1045226266379493</v>
+        <v>0</v>
       </c>
       <c r="AFM2">
-        <v>-0.1115587751777188</v>
+        <v>0</v>
       </c>
       <c r="AFN2">
-        <v>-0.1120517496068947</v>
+        <v>0</v>
       </c>
       <c r="AFO2">
-        <v>-0.1119338336163948</v>
+        <v>0</v>
       </c>
       <c r="AFP2">
-        <v>-0.1119338336164232</v>
+        <v>0</v>
       </c>
       <c r="AFQ2">
-        <v>-0.108850637107378</v>
+        <v>0</v>
       </c>
       <c r="AFR2">
-        <v>-0.1045241423579371</v>
+        <v>0</v>
       </c>
       <c r="AFS2">
-        <v>-0.1115566464834736</v>
+        <v>0</v>
       </c>
       <c r="AFT2">
-        <v>-0.1120690016641308</v>
+        <v>0</v>
       </c>
       <c r="AFU2">
-        <v>-0.1119338336163611</v>
+        <v>0</v>
       </c>
       <c r="AFV2">
-        <v>-0.1119338336163948</v>
+        <v>0</v>
       </c>
       <c r="AFW2">
-        <v>-0.1088536574300137</v>
+        <v>0</v>
       </c>
       <c r="AFX2">
-        <v>-0.1045266187446296</v>
+        <v>0</v>
       </c>
       <c r="AFY2">
-        <v>-0.1115088025426654</v>
+        <v>0</v>
       </c>
       <c r="AFZ2">
-        <v>-0.1121176054295025</v>
+        <v>0</v>
       </c>
       <c r="AGA2">
-        <v>-0.1119338336163133</v>
+        <v>0</v>
       </c>
       <c r="AGB2">
-        <v>-0.1119338336163611</v>
+        <v>0</v>
       </c>
       <c r="AGC2">
-        <v>-0.108856036086322</v>
+        <v>0</v>
       </c>
       <c r="AGD2">
-        <v>-0.1045378236126544</v>
+        <v>0</v>
       </c>
       <c r="AGE2">
-        <v>-0.1045496966554079</v>
+        <v>0</v>
       </c>
       <c r="AGF2">
-        <v>-0.1114776892671376</v>
+        <v>0</v>
       </c>
       <c r="AGG2">
-        <v>-0.112174680002734</v>
+        <v>0</v>
       </c>
       <c r="AGH2">
-        <v>-0.111933833616292</v>
+        <v>0</v>
       </c>
       <c r="AGI2">
-        <v>-0.1119338336163133</v>
+        <v>0</v>
       </c>
       <c r="AGJ2">
-        <v>-0.1088585846648497</v>
+        <v>0</v>
       </c>
       <c r="AGK2">
-        <v>-0.1114504767661289</v>
+        <v>0</v>
       </c>
       <c r="AGL2">
-        <v>-0.1121820839308365</v>
+        <v>0</v>
       </c>
       <c r="AGM2">
-        <v>-0.1119338336162838</v>
+        <v>0</v>
       </c>
       <c r="AGN2">
-        <v>-0.111933833616292</v>
+        <v>0</v>
       </c>
       <c r="AGO2">
-        <v>-0.1088606237168663</v>
+        <v>0</v>
       </c>
       <c r="AGP2">
-        <v>-0.1114219318187687</v>
+        <v>0</v>
       </c>
       <c r="AGQ2">
-        <v>-0.1121854890967985</v>
+        <v>0</v>
       </c>
       <c r="AGR2">
-        <v>-0.1121952133530037</v>
+        <v>0</v>
       </c>
       <c r="AGS2">
-        <v>-0.1119338336162889</v>
+        <v>0</v>
       </c>
       <c r="AGT2">
-        <v>-0.1119338336162838</v>
+        <v>0</v>
       </c>
       <c r="AGU2">
-        <v>-0.1088626035553076</v>
+        <v>0</v>
       </c>
       <c r="AGV2">
-        <v>-0.1113731898400099</v>
+        <v>0</v>
       </c>
       <c r="AGW2">
-        <v>-0.11218863999321</v>
+        <v>0</v>
       </c>
       <c r="AGX2">
-        <v>-0.1122259400852573</v>
+        <v>0</v>
       </c>
       <c r="AGY2">
-        <v>-0.1119338336162889</v>
+        <v>0</v>
       </c>
       <c r="AGZ2">
-        <v>-0.1119338336162889</v>
+        <v>0</v>
       </c>
       <c r="AHA2">
-        <v>-0.1088645783746179</v>
+        <v>0</v>
       </c>
       <c r="AHB2">
-        <v>-0.1113612341078501</v>
+        <v>0</v>
       </c>
       <c r="AHC2">
-        <v>-0.1121934312173596</v>
+        <v>0</v>
       </c>
       <c r="AHD2">
-        <v>-0.112298835036655</v>
+        <v>0</v>
       </c>
       <c r="AHE2">
-        <v>-0.1088665300909114</v>
+        <v>0</v>
       </c>
       <c r="AHF2">
-        <v>-0.1113679815937452</v>
+        <v>0</v>
       </c>
       <c r="AHG2">
-        <v>-0.1113129892848589</v>
+        <v>0</v>
       </c>
       <c r="AHH2">
-        <v>-0.1121994860317168</v>
+        <v>0</v>
       </c>
       <c r="AHI2">
-        <v>-0.1089014312480909</v>
+        <v>0</v>
       </c>
       <c r="AHJ2">
-        <v>-0.1113790604837773</v>
+        <v>0</v>
       </c>
       <c r="AHK2">
-        <v>-0.1112720699085726</v>
+        <v>0</v>
       </c>
       <c r="AHL2">
-        <v>-0.1122230574871094</v>
+        <v>0</v>
       </c>
       <c r="AHM2">
-        <v>-0.1090228156905989</v>
+        <v>0</v>
       </c>
       <c r="AHN2">
-        <v>-0.1089254619074146</v>
+        <v>0</v>
       </c>
       <c r="AHO2">
-        <v>-0.1113812510339855</v>
+        <v>0</v>
       </c>
       <c r="AHP2">
-        <v>-0.111203290200851</v>
+        <v>0</v>
       </c>
       <c r="AHQ2">
-        <v>-0.1122658773183644</v>
+        <v>0</v>
       </c>
       <c r="AHR2">
-        <v>-0.1091034335439353</v>
+        <v>0</v>
       </c>
       <c r="AHS2">
-        <v>-0.1113831020044426</v>
+        <v>0</v>
       </c>
       <c r="AHT2">
-        <v>-0.1113846618130116</v>
+        <v>0</v>
       </c>
       <c r="AHU2">
-        <v>-0.1113866908664952</v>
+        <v>0</v>
       </c>
       <c r="AHV2">
-        <v>-0.1113903631448502</v>
+        <v>0</v>
       </c>
       <c r="AHW2">
-        <v>-0.1113967302410247</v>
+        <v>0</v>
       </c>
       <c r="AHX2">
-        <v>-0.1114488845606193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.06410232925649734</v>
+        <v>-0.07389476076042259</v>
       </c>
       <c r="D3">
-        <v>-0.06450022424335547</v>
+        <v>-0.07372340523960064</v>
       </c>
       <c r="E3">
-        <v>-0.06454194094525087</v>
+        <v>-0.07370543947482767</v>
       </c>
       <c r="F3">
-        <v>-0.06458102345573338</v>
+        <v>-0.07368860811056326</v>
       </c>
       <c r="G3">
-        <v>-0.06461509819635214</v>
+        <v>-0.07367393336968786</v>
       </c>
       <c r="H3">
-        <v>-0.06466878005427674</v>
+        <v>-0.07365081449769006</v>
       </c>
       <c r="I3">
-        <v>-0.06832645767040867</v>
+        <v>-0.07207539540065469</v>
       </c>
       <c r="J3">
-        <v>-0.06849038038769807</v>
+        <v>-0.07200478268177446</v>
       </c>
       <c r="K3">
-        <v>-0.06862682294415828</v>
+        <v>-0.07194600698157262</v>
       </c>
       <c r="L3">
-        <v>-0.06874656711298509</v>
+        <v>-0.07189442406457072</v>
       </c>
       <c r="M3">
-        <v>-0.06883592191100844</v>
+        <v>-0.07185593190235597</v>
       </c>
       <c r="N3">
-        <v>-0.06891980642076233</v>
+        <v>-0.07181979602461414</v>
       </c>
       <c r="O3">
-        <v>-0.06897138886053564</v>
+        <v>-0.07179757517808405</v>
       </c>
       <c r="P3">
-        <v>-0.06909980974535403</v>
+        <v>-0.07174225330454748</v>
       </c>
       <c r="Q3">
-        <v>-0.07014032217251698</v>
+        <v>-0.07129399872161109</v>
       </c>
       <c r="R3">
-        <v>-0.07014032217251454</v>
+        <v>-0.07129399872161069</v>
       </c>
       <c r="S3">
-        <v>-0.07140258935673408</v>
+        <v>-0.07075017172669568</v>
       </c>
       <c r="T3">
-        <v>-0.07014032217251362</v>
+        <v>-0.07129399872161081</v>
       </c>
       <c r="U3">
-        <v>-0.07148945990755824</v>
+        <v>-0.07071274336698821</v>
       </c>
       <c r="V3">
-        <v>-0.07014032217251255</v>
+        <v>-0.07129399872161102</v>
       </c>
       <c r="W3">
-        <v>-0.07158700829302779</v>
+        <v>-0.07067071419170999</v>
       </c>
       <c r="X3">
-        <v>-0.07014032217251166</v>
+        <v>-0.07129399872161099</v>
       </c>
       <c r="Y3">
-        <v>-0.07174584335918112</v>
+        <v>-0.07060227880373668</v>
       </c>
       <c r="Z3">
-        <v>-0.07014032217251123</v>
+        <v>-0.07129399872161098</v>
       </c>
       <c r="AA3">
-        <v>-0.0720348236317998</v>
+        <v>-0.07047776750431888</v>
       </c>
       <c r="AB3">
-        <v>-0.07014032217251143</v>
+        <v>-0.07129399872161113</v>
       </c>
       <c r="AC3">
-        <v>-0.07220109483388293</v>
+        <v>-0.07013014198066103</v>
       </c>
       <c r="AD3">
-        <v>-0.07517457766225075</v>
+        <v>-0.06906246422658784</v>
       </c>
       <c r="AE3">
-        <v>-0.07014032217251165</v>
+        <v>-0.07129399872161139</v>
       </c>
       <c r="AF3">
-        <v>-0.07231219698932867</v>
+        <v>-0.07003023180497289</v>
       </c>
       <c r="AG3">
-        <v>-0.07213747780483099</v>
+        <v>-0.07013418950022769</v>
       </c>
       <c r="AH3">
-        <v>-0.07601096333347</v>
+        <v>-0.06868536289473634</v>
       </c>
       <c r="AI3">
-        <v>-0.07014032217251234</v>
+        <v>-0.07129399872161198</v>
       </c>
       <c r="AJ3">
-        <v>-0.07256665016929244</v>
+        <v>-0.06980142922821941</v>
       </c>
       <c r="AK3">
-        <v>-0.07213532339328795</v>
+        <v>-0.07013432657062681</v>
       </c>
       <c r="AL3">
-        <v>-0.07624551965403931</v>
+        <v>-0.06885004063966398</v>
       </c>
       <c r="AM3">
-        <v>-0.07827556637133302</v>
+        <v>-0.06735785100913746</v>
       </c>
       <c r="AN3">
-        <v>-0.07014032217251299</v>
+        <v>-0.07129399872161206</v>
       </c>
       <c r="AO3">
-        <v>-0.07213222573736187</v>
+        <v>-0.07013452365315977</v>
       </c>
       <c r="AP3">
-        <v>-0.07625089063275867</v>
+        <v>-0.06885344880149183</v>
       </c>
       <c r="AQ3">
-        <v>-0.07629525797898255</v>
+        <v>-0.06888659806076769</v>
       </c>
       <c r="AR3">
-        <v>-0.07984805175813285</v>
+        <v>-0.06643582129903165</v>
       </c>
       <c r="AS3">
-        <v>-0.07827556637142469</v>
+        <v>-0.06735785100919602</v>
       </c>
       <c r="AT3">
-        <v>-0.07014032217251318</v>
+        <v>-0.07129399872161207</v>
       </c>
       <c r="AU3">
-        <v>-0.07212825320202761</v>
+        <v>-0.07013477639821743</v>
       </c>
       <c r="AV3">
-        <v>-0.07625331149442505</v>
+        <v>-0.06885498496375513</v>
       </c>
       <c r="AW3">
-        <v>-0.07641494245316194</v>
+        <v>-0.06897456463803739</v>
       </c>
       <c r="AX3">
-        <v>-0.08103685600127614</v>
+        <v>-0.06573863439297634</v>
       </c>
       <c r="AY3">
-        <v>-0.07827556637147347</v>
+        <v>-0.06735785100922176</v>
       </c>
       <c r="AZ3">
-        <v>-0.07014032217251299</v>
+        <v>-0.07129399872161182</v>
       </c>
       <c r="BA3">
-        <v>-0.07211857827490499</v>
+        <v>-0.07013539194701861</v>
       </c>
       <c r="BB3">
-        <v>-0.07625587709011843</v>
+        <v>-0.06885661296808299</v>
       </c>
       <c r="BC3">
-        <v>-0.08120829631778342</v>
+        <v>-0.06563808220379976</v>
       </c>
       <c r="BD3">
-        <v>-0.08103685600122547</v>
+        <v>-0.0657386343929451</v>
       </c>
       <c r="BE3">
-        <v>-0.0782755663715192</v>
+        <v>-0.06735785100924545</v>
       </c>
       <c r="BF3">
-        <v>-0.07014032217251347</v>
+        <v>-0.07129399872161103</v>
       </c>
       <c r="BG3">
-        <v>-0.07211029475473844</v>
+        <v>-0.07013591897001815</v>
       </c>
       <c r="BH3">
-        <v>-0.07625832064301072</v>
+        <v>-0.06885816353067174</v>
       </c>
       <c r="BI3">
-        <v>-0.0819849978391881</v>
+        <v>-0.06518250666554558</v>
       </c>
       <c r="BJ3">
-        <v>-0.08103685600121864</v>
+        <v>-0.06573863439294354</v>
       </c>
       <c r="BK3">
-        <v>-0.07827556637155185</v>
+        <v>-0.06735785100925605</v>
       </c>
       <c r="BL3">
-        <v>-0.07014032217251313</v>
+        <v>-0.07129399872160981</v>
       </c>
       <c r="BM3">
-        <v>-0.07207058632252865</v>
+        <v>-0.07013844534007253</v>
       </c>
       <c r="BN3">
-        <v>-0.07625978408975606</v>
+        <v>-0.06885909216482498</v>
       </c>
       <c r="BO3">
-        <v>-0.0821444516447675</v>
+        <v>-0.06508573282292879</v>
       </c>
       <c r="BP3">
-        <v>-0.08176350683605325</v>
+        <v>-0.0651277072060551</v>
       </c>
       <c r="BQ3">
-        <v>-0.08103685600121512</v>
+        <v>-0.06573863439294293</v>
       </c>
       <c r="BR3">
-        <v>-0.07827556637158023</v>
+        <v>-0.06735785100927039</v>
       </c>
       <c r="BS3">
-        <v>-0.07014032217251281</v>
+        <v>-0.07129399872160766</v>
       </c>
       <c r="BT3">
-        <v>-0.07193022788681402</v>
+        <v>-0.0701473753348658</v>
       </c>
       <c r="BU3">
-        <v>-0.07626265526538004</v>
+        <v>-0.0688609140780049</v>
       </c>
       <c r="BV3">
-        <v>-0.08402894882964272</v>
+        <v>-0.06394186305152148</v>
       </c>
       <c r="BW3">
-        <v>-0.08177797654991058</v>
+        <v>-0.06505405824325904</v>
       </c>
       <c r="BX3">
-        <v>-0.08164076770871904</v>
+        <v>-0.06517456947073634</v>
       </c>
       <c r="BY3">
-        <v>-0.08103685600121015</v>
+        <v>-0.06573863439294088</v>
       </c>
       <c r="BZ3">
-        <v>-0.07827556637163864</v>
+        <v>-0.06735785100929169</v>
       </c>
       <c r="CA3">
-        <v>-0.07014032217251029</v>
+        <v>-0.07129399872159815</v>
       </c>
       <c r="CB3">
-        <v>-0.07627720650471291</v>
+        <v>-0.06887014762721379</v>
       </c>
       <c r="CC3">
-        <v>-0.08468610013963808</v>
+        <v>-0.06354291294763052</v>
       </c>
       <c r="CD3">
-        <v>-0.08103685600120504</v>
+        <v>-0.06573863439293873</v>
       </c>
       <c r="CE3">
-        <v>-0.07827556637183422</v>
+        <v>-0.06735785100934978</v>
       </c>
       <c r="CF3">
-        <v>-0.0701403221725069</v>
+        <v>-0.07129399872158579</v>
       </c>
       <c r="CG3">
-        <v>-0.07633203898643695</v>
+        <v>-0.06890494204975944</v>
       </c>
       <c r="CH3">
-        <v>-0.08482953023877471</v>
+        <v>-0.06345583338898007</v>
       </c>
       <c r="CI3">
-        <v>-0.08103685600120361</v>
+        <v>-0.06573863439294089</v>
       </c>
       <c r="CJ3">
-        <v>-0.07827556637221106</v>
+        <v>-0.06735785100945908</v>
       </c>
       <c r="CK3">
-        <v>-0.07014032217250496</v>
+        <v>-0.07129399872157874</v>
       </c>
       <c r="CL3">
-        <v>-0.08512040383848488</v>
+        <v>-0.06327923263653706</v>
       </c>
       <c r="CM3">
-        <v>-0.08103685600120361</v>
+        <v>-0.06573863439294089</v>
       </c>
       <c r="CN3">
-        <v>-0.07827556637230342</v>
+        <v>-0.06735785100948252</v>
       </c>
       <c r="CO3">
-        <v>-0.07014032217250425</v>
+        <v>-0.07129399872157635</v>
       </c>
       <c r="CP3">
-        <v>-0.08539473568831965</v>
+        <v>-0.06311266887729595</v>
       </c>
       <c r="CQ3">
-        <v>-0.07827556637231706</v>
+        <v>-0.06735785100948058</v>
       </c>
       <c r="CR3">
-        <v>-0.07014032217250382</v>
+        <v>-0.07129399872157582</v>
       </c>
       <c r="CS3">
-        <v>-0.08555419856271622</v>
+        <v>-0.06301584640239684</v>
       </c>
       <c r="CT3">
-        <v>-0.07827556637233617</v>
+        <v>-0.0673578510094775</v>
       </c>
       <c r="CU3">
-        <v>-0.0701403221725036</v>
+        <v>-0.0712939987215757</v>
       </c>
       <c r="CV3">
-        <v>-0.08565951629276121</v>
+        <v>-0.06295189860434293</v>
       </c>
       <c r="CW3">
-        <v>-0.07827556637234488</v>
+        <v>-0.06735785100948395</v>
       </c>
       <c r="CX3">
-        <v>-0.07014032217250397</v>
+        <v>-0.07129399872157582</v>
       </c>
       <c r="CY3">
-        <v>-0.08580493646662375</v>
+        <v>-0.0628635995851916</v>
       </c>
       <c r="CZ3">
-        <v>-0.07827556637319812</v>
+        <v>-0.06735785101002652</v>
       </c>
       <c r="DA3">
-        <v>-0.07014032217250397</v>
+        <v>-0.07129399872157582</v>
       </c>
       <c r="DB3">
-        <v>-0.08582798318526835</v>
+        <v>-0.06287641873746179</v>
       </c>
       <c r="DC3">
-        <v>-0.08587603717831981</v>
+        <v>-0.06279120461877945</v>
       </c>
       <c r="DD3">
-        <v>-0.07827556637323863</v>
+        <v>-0.06735785101005014</v>
       </c>
       <c r="DE3">
-        <v>-0.08585586656986301</v>
+        <v>-0.06289192815396404</v>
       </c>
       <c r="DF3">
-        <v>-0.08591635555906561</v>
+        <v>-0.06275015181758256</v>
       </c>
       <c r="DG3">
-        <v>-0.07827556637331633</v>
+        <v>-0.0673578510101067</v>
       </c>
       <c r="DH3">
-        <v>-0.08588818544811268</v>
+        <v>-0.06290990468831693</v>
       </c>
       <c r="DI3">
-        <v>-0.08750764545924317</v>
+        <v>-0.06112958660714583</v>
       </c>
       <c r="DJ3">
-        <v>-0.07827556637542757</v>
+        <v>-0.06735785101160147</v>
       </c>
       <c r="DK3">
-        <v>-0.08593746224671858</v>
+        <v>-0.06293731360034245</v>
       </c>
       <c r="DL3">
-        <v>-0.08766710474090483</v>
+        <v>-0.06096716262379215</v>
       </c>
       <c r="DM3">
-        <v>-0.07827556637730185</v>
+        <v>-0.06735785101293151</v>
       </c>
       <c r="DN3">
-        <v>-0.08600081441713935</v>
+        <v>-0.06297255152216838</v>
       </c>
       <c r="DO3">
-        <v>-0.08773606774326589</v>
+        <v>-0.06103261162003996</v>
       </c>
       <c r="DP3">
-        <v>-0.08839909315043683</v>
+        <v>-0.06104283911357485</v>
       </c>
       <c r="DQ3">
-        <v>-0.07827556637747903</v>
+        <v>-0.06735785101305712</v>
       </c>
       <c r="DR3">
-        <v>-0.08604629533972519</v>
+        <v>-0.06299784901901698</v>
       </c>
       <c r="DS3">
-        <v>-0.08773606774326542</v>
+        <v>-0.06103261162004066</v>
       </c>
       <c r="DT3">
-        <v>-0.0877696454951449</v>
+        <v>-0.06106447841585751</v>
       </c>
       <c r="DU3">
-        <v>-0.08971937390355457</v>
+        <v>-0.06117935724609731</v>
       </c>
       <c r="DV3">
-        <v>-0.0782755663776121</v>
+        <v>-0.06735785101315538</v>
       </c>
       <c r="DW3">
-        <v>-0.08611055971604868</v>
+        <v>-0.06303359424710964</v>
       </c>
       <c r="DX3">
-        <v>-0.08773606774326487</v>
+        <v>-0.06103261162004134</v>
       </c>
       <c r="DY3">
-        <v>-0.08792738324901057</v>
+        <v>-0.06121417860380719</v>
       </c>
       <c r="DZ3">
-        <v>-0.09031320214550227</v>
+        <v>-0.06124076845413077</v>
       </c>
       <c r="EA3">
-        <v>-0.07827556637772633</v>
+        <v>-0.06735785101323956</v>
       </c>
       <c r="EB3">
-        <v>-0.08618008937344865</v>
+        <v>-0.06307226808251366</v>
       </c>
       <c r="EC3">
-        <v>-0.08773606774326395</v>
+        <v>-0.06103261162004119</v>
       </c>
       <c r="ED3">
-        <v>-0.08791807637111576</v>
+        <v>-0.06115198895122473</v>
       </c>
       <c r="EE3">
-        <v>-0.08826958733569575</v>
+        <v>-0.06160940407061749</v>
       </c>
       <c r="EF3">
-        <v>-0.09048989416792264</v>
+        <v>-0.06125904225942567</v>
       </c>
       <c r="EG3">
-        <v>-0.07827556637805734</v>
+        <v>-0.06735785101349298</v>
       </c>
       <c r="EH3">
-        <v>-0.0862456616481347</v>
+        <v>-0.06310874068705997</v>
       </c>
       <c r="EI3">
-        <v>-0.08773606774326281</v>
+        <v>-0.06103261162004107</v>
       </c>
       <c r="EJ3">
-        <v>-0.0879172748505241</v>
+        <v>-0.06114663316617588</v>
       </c>
       <c r="EK3">
-        <v>-0.08852417249726494</v>
+        <v>-0.06190343551862033</v>
       </c>
       <c r="EL3">
-        <v>-0.09068935100113389</v>
+        <v>-0.06127967102793586</v>
       </c>
       <c r="EM3">
-        <v>-0.07827556637830622</v>
+        <v>-0.06735785101368093</v>
       </c>
       <c r="EN3">
-        <v>-0.086353473379487</v>
+        <v>-0.06316870760721752</v>
       </c>
       <c r="EO3">
-        <v>-0.08773606774326168</v>
+        <v>-0.06103261162004015</v>
       </c>
       <c r="EP3">
-        <v>-0.08791648840401975</v>
+        <v>-0.06114137811740254</v>
       </c>
       <c r="EQ3">
-        <v>-0.08869466355046449</v>
+        <v>-0.06210034334449402</v>
       </c>
       <c r="ER3">
-        <v>-0.09087694280031848</v>
+        <v>-0.06129907322541175</v>
       </c>
       <c r="ES3">
-        <v>-0.07827556637835237</v>
+        <v>-0.06735785101371161</v>
       </c>
       <c r="ET3">
-        <v>-0.0868661022327176</v>
+        <v>-0.06345383956286407</v>
       </c>
       <c r="EU3">
-        <v>-0.08773606774326044</v>
+        <v>-0.06103261162003944</v>
       </c>
       <c r="EV3">
-        <v>-0.08791585337994078</v>
+        <v>-0.06113713488360147</v>
       </c>
       <c r="EW3">
-        <v>-0.08878961544340715</v>
+        <v>-0.06227568009595016</v>
       </c>
       <c r="EX3">
-        <v>-0.08883566675170443</v>
+        <v>-0.06213784216234119</v>
       </c>
       <c r="EY3">
-        <v>-0.09109583431951886</v>
+        <v>-0.06132171337716145</v>
       </c>
       <c r="EZ3">
-        <v>-0.07827556637836827</v>
+        <v>-0.06735785101371598</v>
       </c>
       <c r="FA3">
-        <v>-0.08697777742938687</v>
+        <v>-0.06351595458956273</v>
       </c>
       <c r="FB3">
-        <v>-0.08773606774325957</v>
+        <v>-0.06103261162003901</v>
       </c>
       <c r="FC3">
-        <v>-0.08791490025617336</v>
+        <v>-0.06113076611925846</v>
       </c>
       <c r="FD3">
-        <v>-0.08904143527212366</v>
+        <v>-0.06274069043541158</v>
       </c>
       <c r="FE3">
-        <v>-0.08884424938451675</v>
+        <v>-0.06214012460361183</v>
       </c>
       <c r="FF3">
-        <v>-0.0911588207557516</v>
+        <v>-0.06132822826098978</v>
       </c>
       <c r="FG3">
-        <v>-0.07827556637837277</v>
+        <v>-0.06735785101371856</v>
       </c>
       <c r="FH3">
-        <v>-0.08723303944102744</v>
+        <v>-0.06356294535380821</v>
       </c>
       <c r="FI3">
-        <v>-0.08731198096770976</v>
+        <v>-0.06373462259844311</v>
       </c>
       <c r="FJ3">
-        <v>-0.08773606774325912</v>
+        <v>-0.0610326116200381</v>
       </c>
       <c r="FK3">
-        <v>-0.08791375115406141</v>
+        <v>-0.06112308785020473</v>
       </c>
       <c r="FL3">
-        <v>-0.08912890665783345</v>
+        <v>-0.06290221626343991</v>
       </c>
       <c r="FM3">
-        <v>-0.08885209010142972</v>
+        <v>-0.06214220973683054</v>
       </c>
       <c r="FN3">
-        <v>-0.09151666984070347</v>
+        <v>-0.0613652428854503</v>
       </c>
       <c r="FO3">
-        <v>-0.07827556637837277</v>
+        <v>-0.06735785101371855</v>
       </c>
       <c r="FP3">
-        <v>-0.08728126608895255</v>
+        <v>-0.0635718228167301</v>
       </c>
       <c r="FQ3">
-        <v>-0.08775567986676613</v>
+        <v>-0.06402493105296572</v>
       </c>
       <c r="FR3">
-        <v>-0.08773606774325796</v>
+        <v>-0.06103261162003655</v>
       </c>
       <c r="FS3">
-        <v>-0.08791288302767318</v>
+        <v>-0.06111728706838079</v>
       </c>
       <c r="FT3">
-        <v>-0.08912890665732533</v>
+        <v>-0.06290221626309718</v>
       </c>
       <c r="FU3">
-        <v>-0.08927459576715947</v>
+        <v>-0.06317106949358819</v>
       </c>
       <c r="FV3">
-        <v>-0.08885534725056882</v>
+        <v>-0.06214307593043113</v>
       </c>
       <c r="FW3">
-        <v>-0.0917187949544444</v>
+        <v>-0.06138615086529393</v>
       </c>
       <c r="FX3">
-        <v>-0.08738077073540566</v>
+        <v>-0.0635901389253765</v>
       </c>
       <c r="FY3">
-        <v>-0.08778718476229269</v>
+        <v>-0.06405259688870932</v>
       </c>
       <c r="FZ3">
-        <v>-0.08787095311961567</v>
+        <v>-0.06408090094323989</v>
       </c>
       <c r="GA3">
-        <v>-0.08773606774325728</v>
+        <v>-0.0610326116200347</v>
       </c>
       <c r="GB3">
-        <v>-0.0879118784504939</v>
+        <v>-0.06111057454465681</v>
       </c>
       <c r="GC3">
-        <v>-0.08912890665725491</v>
+        <v>-0.06290221626306054</v>
       </c>
       <c r="GD3">
-        <v>-0.08929033083887863</v>
+        <v>-0.0632001078738811</v>
       </c>
       <c r="GE3">
-        <v>-0.0888623680123496</v>
+        <v>-0.06214494300175644</v>
       </c>
       <c r="GF3">
-        <v>-0.09186884256627427</v>
+        <v>-0.06140167232026189</v>
       </c>
       <c r="GG3">
-        <v>-0.08791116542935201</v>
+        <v>-0.06416146973726661</v>
       </c>
       <c r="GH3">
-        <v>-0.08834810878444832</v>
+        <v>-0.0643125638853293</v>
       </c>
       <c r="GI3">
-        <v>-0.08773606774325705</v>
+        <v>-0.06103261162003336</v>
       </c>
       <c r="GJ3">
-        <v>-0.08791093388497342</v>
+        <v>-0.06110426303106267</v>
       </c>
       <c r="GK3">
-        <v>-0.08912890665726392</v>
+        <v>-0.06290221626306083</v>
       </c>
       <c r="GL3">
-        <v>-0.08912890665722045</v>
+        <v>-0.06290221626304579</v>
       </c>
       <c r="GM3">
-        <v>-0.08930555107779542</v>
+        <v>-0.06322819634509655</v>
       </c>
       <c r="GN3">
-        <v>-0.08888024990223349</v>
+        <v>-0.06214969841761907</v>
       </c>
       <c r="GO3">
-        <v>-0.09200374568417817</v>
+        <v>-0.0614156274754736</v>
       </c>
       <c r="GP3">
-        <v>-0.08813252874905296</v>
+        <v>-0.06435585842190489</v>
       </c>
       <c r="GQ3">
-        <v>-0.08841700544066035</v>
+        <v>-0.06432725381698799</v>
       </c>
       <c r="GR3">
-        <v>-0.08836219494119088</v>
+        <v>-0.06433024360543985</v>
       </c>
       <c r="GS3">
-        <v>-0.08773606774325697</v>
+        <v>-0.06103261162003259</v>
       </c>
       <c r="GT3">
-        <v>-0.08790991758397639</v>
+        <v>-0.0610974722037309</v>
       </c>
       <c r="GU3">
-        <v>-0.08912890665726392</v>
+        <v>-0.06290221626306083</v>
       </c>
       <c r="GV3">
-        <v>-0.08912890665720009</v>
+        <v>-0.06290221626303383</v>
       </c>
       <c r="GW3">
-        <v>-0.08931772581048195</v>
+        <v>-0.06325066456656847</v>
       </c>
       <c r="GX3">
-        <v>-0.08889074117990931</v>
+        <v>-0.06215248840128624</v>
       </c>
       <c r="GY3">
-        <v>-0.09217133802972571</v>
+        <v>-0.0614329645885095</v>
       </c>
       <c r="GZ3">
-        <v>-0.08807906150927702</v>
+        <v>-0.06433374517468327</v>
       </c>
       <c r="HA3">
-        <v>-0.08816912463557372</v>
+        <v>-0.06439491083182143</v>
       </c>
       <c r="HB3">
-        <v>-0.08859120167614155</v>
+        <v>-0.06436439405355823</v>
       </c>
       <c r="HC3">
-        <v>-0.08836418603762321</v>
+        <v>-0.06433274266298322</v>
       </c>
       <c r="HD3">
-        <v>-0.08773606774325704</v>
+        <v>-0.06103261162003171</v>
       </c>
       <c r="HE3">
-        <v>-0.08790836395665534</v>
+        <v>-0.06108709104700253</v>
       </c>
       <c r="HF3">
-        <v>-0.08912890665718086</v>
+        <v>-0.06290221626301626</v>
       </c>
       <c r="HG3">
-        <v>-0.08932742398749756</v>
+        <v>-0.06326856244144402</v>
       </c>
       <c r="HH3">
-        <v>-0.08889808933384902</v>
+        <v>-0.06215444251750409</v>
       </c>
       <c r="HI3">
-        <v>-0.09248061456137313</v>
+        <v>-0.0614649598160538</v>
       </c>
       <c r="HJ3">
-        <v>-0.08790404731864294</v>
+        <v>-0.06426136366685807</v>
       </c>
       <c r="HK3">
-        <v>-0.08823517406084298</v>
+        <v>-0.06446539392623032</v>
       </c>
       <c r="HL3">
-        <v>-0.08836579180132284</v>
+        <v>-0.0643347580842771</v>
       </c>
       <c r="HM3">
-        <v>-0.0877360677432573</v>
+        <v>-0.06103261162003169</v>
       </c>
       <c r="HN3">
-        <v>-0.08790412111705588</v>
+        <v>-0.06105874109903288</v>
       </c>
       <c r="HO3">
-        <v>-0.08912890665715473</v>
+        <v>-0.06290221626300375</v>
       </c>
       <c r="HP3">
-        <v>-0.08934792761126009</v>
+        <v>-0.06330640189736256</v>
       </c>
       <c r="HQ3">
-        <v>-0.08891222428899993</v>
+        <v>-0.06215820145591454</v>
       </c>
       <c r="HR3">
-        <v>-0.09275026816025637</v>
+        <v>-0.06149285719742207</v>
       </c>
       <c r="HS3">
-        <v>-0.08782859746923537</v>
+        <v>-0.06423016030809768</v>
       </c>
       <c r="HT3">
-        <v>-0.08825875742844869</v>
+        <v>-0.06449056038146245</v>
       </c>
       <c r="HU3">
-        <v>-0.08836707504465172</v>
+        <v>-0.06433636870550456</v>
       </c>
       <c r="HV3">
-        <v>-0.08790375935549369</v>
+        <v>-0.06105632388283869</v>
       </c>
       <c r="HW3">
-        <v>-0.0891289066571307</v>
+        <v>-0.06290221626300199</v>
       </c>
       <c r="HX3">
-        <v>-0.08936407482239775</v>
+        <v>-0.06333620183125445</v>
       </c>
       <c r="HY3">
-        <v>-0.08891925978381782</v>
+        <v>-0.06216007241407082</v>
       </c>
       <c r="HZ3">
-        <v>-0.09293370632979668</v>
+        <v>-0.06151183569298829</v>
       </c>
       <c r="IA3">
-        <v>-0.088524176495586</v>
+        <v>-0.06477044138718141</v>
       </c>
       <c r="IB3">
-        <v>-0.08825875742844869</v>
+        <v>-0.06449056038146245</v>
       </c>
       <c r="IC3">
-        <v>-0.08836903392870053</v>
+        <v>-0.06433882733650993</v>
       </c>
       <c r="ID3">
-        <v>-0.08790359226103851</v>
+        <v>-0.06105520739288709</v>
       </c>
       <c r="IE3">
-        <v>-0.08912890665712275</v>
+        <v>-0.06290221626300459</v>
       </c>
       <c r="IF3">
-        <v>-0.08937527539420655</v>
+        <v>-0.06335687278884113</v>
       </c>
       <c r="IG3">
-        <v>-0.08892425543229932</v>
+        <v>-0.06216140091093187</v>
       </c>
       <c r="IH3">
-        <v>-0.09305421267025515</v>
+        <v>-0.06152430355360824</v>
       </c>
       <c r="II3">
-        <v>-0.08856272309559908</v>
+        <v>-0.06481108925064955</v>
       </c>
       <c r="IJ3">
-        <v>-0.08837133013677027</v>
+        <v>-0.06434170935095221</v>
       </c>
       <c r="IK3">
-        <v>-0.08790341353316682</v>
+        <v>-0.0610540131714234</v>
       </c>
       <c r="IL3">
-        <v>-0.08912890665712984</v>
+        <v>-0.06290221626300498</v>
       </c>
       <c r="IM3">
-        <v>-0.08938644933322365</v>
+        <v>-0.06337749469685355</v>
       </c>
       <c r="IN3">
-        <v>-0.08898140426859509</v>
+        <v>-0.06217659840894387</v>
       </c>
       <c r="IO3">
-        <v>-0.09331357136700841</v>
+        <v>-0.06155113816505876</v>
       </c>
       <c r="IP3">
-        <v>-0.08865347146086275</v>
+        <v>-0.0648923400282381</v>
       </c>
       <c r="IQ3">
-        <v>-0.08859029423933708</v>
+        <v>-0.06485460895676658</v>
       </c>
       <c r="IR3">
-        <v>-0.08837485697867448</v>
+        <v>-0.06434613596137463</v>
       </c>
       <c r="IS3">
-        <v>-0.08790324275069109</v>
+        <v>-0.06105287203992765</v>
       </c>
       <c r="IT3">
-        <v>-0.08912890665714887</v>
+        <v>-0.06290221626301065</v>
       </c>
       <c r="IU3">
-        <v>-0.08940279639794431</v>
+        <v>-0.0634076639786636</v>
       </c>
       <c r="IV3">
-        <v>-0.08899825678889407</v>
+        <v>-0.06218107992390668</v>
       </c>
       <c r="IW3">
-        <v>-0.09333117057930869</v>
+        <v>-0.06156331134955013</v>
       </c>
       <c r="IX3">
-        <v>-0.09347993712579297</v>
+        <v>-0.0615643875021896</v>
       </c>
       <c r="IY3">
-        <v>-0.08838776284666346</v>
+        <v>-0.06436233441832706</v>
       </c>
       <c r="IZ3">
-        <v>-0.08790305249155346</v>
+        <v>-0.06105160077019516</v>
       </c>
       <c r="JA3">
-        <v>-0.08912890665716515</v>
+        <v>-0.06290221626301119</v>
       </c>
       <c r="JB3">
-        <v>-0.08946427948201013</v>
+        <v>-0.06352113587251045</v>
       </c>
       <c r="JC3">
-        <v>-0.08900202721453526</v>
+        <v>-0.0621820825732155</v>
       </c>
       <c r="JD3">
-        <v>-0.0933336034309295</v>
+        <v>-0.06156499412432778</v>
       </c>
       <c r="JE3">
-        <v>-0.09410382724936506</v>
+        <v>-0.06161407706598709</v>
       </c>
       <c r="JF3">
-        <v>-0.08845057633402117</v>
+        <v>-0.06444117403125463</v>
       </c>
       <c r="JG3">
-        <v>-0.08790265976955393</v>
+        <v>-0.06104897669008751</v>
       </c>
       <c r="JH3">
-        <v>-0.0891289066571891</v>
+        <v>-0.0629022162630138</v>
       </c>
       <c r="JI3">
-        <v>-0.08947862991176155</v>
+        <v>-0.0635476211693107</v>
       </c>
       <c r="JJ3">
-        <v>-0.08903549964584337</v>
+        <v>-0.06220827733905523</v>
       </c>
       <c r="JK3">
-        <v>-0.08900414037286829</v>
+        <v>-0.06218205080997537</v>
       </c>
       <c r="JL3">
-        <v>-0.09333472190434805</v>
+        <v>-0.06156576775901249</v>
       </c>
       <c r="JM3">
-        <v>-0.09419457405296383</v>
+        <v>-0.06166392093328941</v>
       </c>
       <c r="JN3">
-        <v>-0.09429431178349985</v>
+        <v>-0.06162024849997669</v>
       </c>
       <c r="JO3">
-        <v>-0.08790225075144466</v>
+        <v>-0.06104624372585947</v>
       </c>
       <c r="JP3">
-        <v>-0.08912890665719522</v>
+        <v>-0.06290221626301795</v>
       </c>
       <c r="JQ3">
-        <v>-0.08948520424498935</v>
+        <v>-0.06355975488063485</v>
       </c>
       <c r="JR3">
-        <v>-0.08906867213201632</v>
+        <v>-0.06223423758173165</v>
       </c>
       <c r="JS3">
-        <v>-0.08900661791863893</v>
+        <v>-0.06218201356957668</v>
       </c>
       <c r="JT3">
-        <v>-0.09333605033198276</v>
+        <v>-0.06156668661635877</v>
       </c>
       <c r="JU3">
-        <v>-0.09420117047416901</v>
+        <v>-0.06166754407961848</v>
       </c>
       <c r="JV3">
-        <v>-0.09498487264936904</v>
+        <v>-0.06164262345745004</v>
       </c>
       <c r="JW3">
-        <v>-0.08790069539493837</v>
+        <v>-0.06103585122039056</v>
       </c>
       <c r="JX3">
-        <v>-0.08912890665720052</v>
+        <v>-0.06290221626300867</v>
       </c>
       <c r="JY3">
-        <v>-0.08948952638200133</v>
+        <v>-0.06356773191606598</v>
       </c>
       <c r="JZ3">
-        <v>-0.0890088569313222</v>
+        <v>-0.06218197991461642</v>
       </c>
       <c r="KA3">
-        <v>-0.09333809994049472</v>
+        <v>-0.0615681043054736</v>
       </c>
       <c r="KB3">
-        <v>-0.09420660746361585</v>
+        <v>-0.06167053039469503</v>
       </c>
       <c r="KC3">
-        <v>-0.09522035341974819</v>
+        <v>-0.06077721750781134</v>
       </c>
       <c r="KD3">
-        <v>-0.09500361723847384</v>
+        <v>-0.06186595552158424</v>
       </c>
       <c r="KE3">
-        <v>-0.08789243762035975</v>
+        <v>-0.06098067552176351</v>
       </c>
       <c r="KF3">
-        <v>-0.08912890665720052</v>
+        <v>-0.06290221626300867</v>
       </c>
       <c r="KG3">
-        <v>-0.08949757482694419</v>
+        <v>-0.06357454255052693</v>
       </c>
       <c r="KH3">
-        <v>-0.08949227881119848</v>
+        <v>-0.06357380400862009</v>
       </c>
       <c r="KI3">
-        <v>-0.08901112460409866</v>
+        <v>-0.06218194582886941</v>
       </c>
       <c r="KJ3">
-        <v>-0.09333992628963277</v>
+        <v>-0.06156936756847477</v>
       </c>
       <c r="KK3">
-        <v>-0.09421433030753468</v>
+        <v>-0.0616747722319554</v>
       </c>
       <c r="KL3">
-        <v>-0.09532874596211133</v>
+        <v>-0.06037887413354483</v>
       </c>
       <c r="KM3">
-        <v>-0.09508217603064154</v>
+        <v>-0.06280202789157277</v>
       </c>
       <c r="KN3">
-        <v>-0.08950127195153651</v>
+        <v>-0.06357767107466659</v>
       </c>
       <c r="KO3">
-        <v>-0.08949422680515838</v>
+        <v>-0.06357810145538864</v>
       </c>
       <c r="KP3">
-        <v>-0.08901356281142381</v>
+        <v>-0.06218190917979848</v>
       </c>
       <c r="KQ3">
-        <v>-0.09334134623716747</v>
+        <v>-0.06157034972831547</v>
       </c>
       <c r="KR3">
-        <v>-0.09424901812519676</v>
+        <v>-0.06169382475341813</v>
       </c>
       <c r="KS3">
-        <v>-0.0960369287053697</v>
+        <v>-0.05777638615557642</v>
       </c>
       <c r="KT3">
-        <v>-0.09509951722382023</v>
+        <v>-0.0630086765118197</v>
       </c>
       <c r="KU3">
-        <v>-0.08950752928130437</v>
+        <v>-0.06358296605464994</v>
       </c>
       <c r="KV3">
-        <v>-0.08949649369769722</v>
+        <v>-0.06358310242754978</v>
       </c>
       <c r="KW3">
-        <v>-0.08902770307292629</v>
+        <v>-0.06218169663552819</v>
       </c>
       <c r="KX3">
-        <v>-0.09334311371892337</v>
+        <v>-0.06157157227293118</v>
       </c>
       <c r="KY3">
-        <v>-0.09425569595161648</v>
+        <v>-0.06169749258491844</v>
       </c>
       <c r="KZ3">
-        <v>-0.09608983058295437</v>
+        <v>-0.05758198417679288</v>
       </c>
       <c r="LA3">
-        <v>-0.09510527936613233</v>
+        <v>-0.06307734332414716</v>
       </c>
       <c r="LB3">
-        <v>-0.08951953986929993</v>
+        <v>-0.06359312946086512</v>
       </c>
       <c r="LC3">
-        <v>-0.08950082954305737</v>
+        <v>-0.06359266771960013</v>
       </c>
       <c r="LD3">
-        <v>-0.08908751126372277</v>
+        <v>-0.06218079765366733</v>
       </c>
       <c r="LE3">
-        <v>-0.09334494181387337</v>
+        <v>-0.061572836742607</v>
       </c>
       <c r="LF3">
-        <v>-0.094260640344211</v>
+        <v>-0.06170020831655288</v>
       </c>
       <c r="LG3">
-        <v>-0.09610334967688941</v>
+        <v>-0.05758458525295138</v>
       </c>
       <c r="LH3">
-        <v>-0.09689222652162398</v>
+        <v>-0.05395735193856145</v>
       </c>
       <c r="LI3">
-        <v>-0.09510828680223218</v>
+        <v>-0.06311318290094214</v>
       </c>
       <c r="LJ3">
-        <v>-0.0895549014452548</v>
+        <v>-0.06362305251646928</v>
       </c>
       <c r="LK3">
-        <v>-0.0895174583245162</v>
+        <v>-0.06362935266518593</v>
       </c>
       <c r="LL3">
-        <v>-0.09334709815563727</v>
+        <v>-0.06157432825595555</v>
       </c>
       <c r="LM3">
-        <v>-0.09426633576021615</v>
+        <v>-0.06170333654915856</v>
       </c>
       <c r="LN3">
-        <v>-0.09617297912002716</v>
+        <v>-0.05759798177618016</v>
       </c>
       <c r="LO3">
-        <v>-0.09727737069492887</v>
+        <v>-0.052217630968115</v>
       </c>
       <c r="LP3">
-        <v>-0.09511086126281168</v>
+        <v>-0.06314386287407669</v>
       </c>
       <c r="LQ3">
-        <v>-0.08957420676858587</v>
+        <v>-0.06375454908930174</v>
       </c>
       <c r="LR3">
-        <v>-0.09334832698565981</v>
+        <v>-0.061575178221383</v>
       </c>
       <c r="LS3">
-        <v>-0.09427198554334737</v>
+        <v>-0.06170643971529067</v>
       </c>
       <c r="LT3">
-        <v>-0.0961972888836523</v>
+        <v>-0.0576026588345994</v>
       </c>
       <c r="LU3">
-        <v>-0.09743212023867544</v>
+        <v>-0.05225305511421487</v>
       </c>
       <c r="LV3">
-        <v>-0.09792322985499918</v>
+        <v>-0.04884276652847062</v>
       </c>
       <c r="LW3">
-        <v>-0.09511378925193922</v>
+        <v>-0.06317875604366989</v>
       </c>
       <c r="LX3">
-        <v>-0.09335387836548253</v>
+        <v>-0.06157901803537655</v>
       </c>
       <c r="LY3">
-        <v>-0.09432162004761967</v>
+        <v>-0.06173370156323965</v>
       </c>
       <c r="LZ3">
-        <v>-0.09625019894359586</v>
+        <v>-0.05761283828799613</v>
       </c>
       <c r="MA3">
-        <v>-0.09749341175132747</v>
+        <v>-0.05226708499248896</v>
       </c>
       <c r="MB3">
-        <v>-0.09819224570514824</v>
+        <v>-0.04908848627332149</v>
       </c>
       <c r="MC3">
-        <v>-0.09799974575105419</v>
+        <v>-0.04819193779459025</v>
       </c>
       <c r="MD3">
-        <v>-0.09511609600458469</v>
+        <v>-0.06320624600402124</v>
       </c>
       <c r="ME3">
-        <v>-0.09335603885613016</v>
+        <v>-0.06158051241660364</v>
       </c>
       <c r="MF3">
-        <v>-0.0944230826036561</v>
+        <v>-0.06178942949194877</v>
       </c>
       <c r="MG3">
-        <v>-0.09624920364344713</v>
+        <v>-0.05761696131396928</v>
       </c>
       <c r="MH3">
-        <v>-0.09627107433404225</v>
+        <v>-0.05761482447167964</v>
       </c>
       <c r="MI3">
-        <v>-0.09832750667970154</v>
+        <v>-0.0492120334296101</v>
       </c>
       <c r="MJ3">
-        <v>-0.09806529935960612</v>
+        <v>-0.04763435526453872</v>
       </c>
       <c r="MK3">
-        <v>-0.09511802997412239</v>
+        <v>-0.0632292935364276</v>
       </c>
       <c r="ML3">
-        <v>-0.09335678940971585</v>
+        <v>-0.06158103156393904</v>
       </c>
       <c r="MM3">
-        <v>-0.0962477143646477</v>
+        <v>-0.05762313066223095</v>
       </c>
       <c r="MN3">
-        <v>-0.09627398105383736</v>
+        <v>-0.05761510102949207</v>
       </c>
       <c r="MO3">
-        <v>-0.09834009444913649</v>
+        <v>-0.04922353105910357</v>
       </c>
       <c r="MP3">
-        <v>-0.09811141126438799</v>
+        <v>-0.04724214075517449</v>
       </c>
       <c r="MQ3">
-        <v>-0.09511977502716283</v>
+        <v>-0.06325008978168337</v>
       </c>
       <c r="MR3">
-        <v>-0.09335735485238213</v>
+        <v>-0.06158142267262676</v>
       </c>
       <c r="MS3">
-        <v>-0.09627713796137398</v>
+        <v>-0.05761540139088083</v>
       </c>
       <c r="MT3">
-        <v>-0.09834529306126921</v>
+        <v>-0.04922827945433845</v>
       </c>
       <c r="MU3">
-        <v>-0.09816967585964764</v>
+        <v>-0.04674656107186555</v>
       </c>
       <c r="MV3">
-        <v>-0.09512121929521934</v>
+        <v>-0.06326730154633808</v>
       </c>
       <c r="MW3">
-        <v>-0.09335776855629647</v>
+        <v>-0.06158170882574739</v>
       </c>
       <c r="MX3">
-        <v>-0.0962799031903034</v>
+        <v>-0.05761566448601935</v>
       </c>
       <c r="MY3">
-        <v>-0.0983489612281566</v>
+        <v>-0.04923162994558512</v>
       </c>
       <c r="MZ3">
-        <v>-0.09820618468007447</v>
+        <v>-0.04643603011858127</v>
       </c>
       <c r="NA3">
-        <v>-0.09512289473225789</v>
+        <v>-0.06328726827752433</v>
       </c>
       <c r="NB3">
-        <v>-0.09335797863755435</v>
+        <v>-0.06158185413596311</v>
       </c>
       <c r="NC3">
-        <v>-0.09628284125085083</v>
+        <v>-0.05761594402474599</v>
       </c>
       <c r="ND3">
-        <v>-0.09835271319901381</v>
+        <v>-0.04923505698281498</v>
       </c>
       <c r="NE3">
-        <v>-0.09826224896007449</v>
+        <v>-0.04595916921423545</v>
       </c>
       <c r="NF3">
-        <v>-0.09512473615540057</v>
+        <v>-0.06330921319156053</v>
       </c>
       <c r="NG3">
-        <v>-0.09335828750168848</v>
+        <v>-0.0615820677728797</v>
       </c>
       <c r="NH3">
-        <v>-0.09628703450065018</v>
+        <v>-0.05761634298659478</v>
       </c>
       <c r="NI3">
-        <v>-0.0983571402646068</v>
+        <v>-0.04923910064887849</v>
       </c>
       <c r="NJ3">
-        <v>-0.09831813975004909</v>
+        <v>-0.04548378610123772</v>
       </c>
       <c r="NK3">
-        <v>-0.09513477495812325</v>
+        <v>-0.06342885060816798</v>
       </c>
       <c r="NL3">
-        <v>-0.09335880525907903</v>
+        <v>-0.06158242589826091</v>
       </c>
       <c r="NM3">
-        <v>-0.09629213217804147</v>
+        <v>-0.05761682799825942</v>
       </c>
       <c r="NN3">
-        <v>-0.09836272470402051</v>
+        <v>-0.04924420145552928</v>
       </c>
       <c r="NO3">
-        <v>-0.09838085247608802</v>
+        <v>-0.0449503810820168</v>
       </c>
       <c r="NP3">
-        <v>-0.09595870260038934</v>
+        <v>-0.06426899040282893</v>
       </c>
       <c r="NQ3">
-        <v>-0.09478899419085336</v>
+        <v>-0.06345723144985072</v>
       </c>
       <c r="NR3">
-        <v>-0.09336111468426971</v>
+        <v>-0.06158402329432482</v>
       </c>
       <c r="NS3">
-        <v>-0.09632372954264629</v>
+        <v>-0.05761983426528225</v>
       </c>
       <c r="NT3">
-        <v>-0.09836772612464346</v>
+        <v>-0.04924876973440179</v>
       </c>
       <c r="NU3">
-        <v>-0.09842623461396295</v>
+        <v>-0.04456438360103754</v>
       </c>
       <c r="NV3">
-        <v>-0.09674792976391958</v>
+        <v>-0.06507377262802273</v>
       </c>
       <c r="NW3">
-        <v>-0.09266704420399438</v>
+        <v>-0.06363150169722294</v>
       </c>
       <c r="NX3">
-        <v>-0.09478899419083014</v>
+        <v>-0.06345723144988044</v>
       </c>
       <c r="NY3">
-        <v>-0.09336960411518989</v>
+        <v>-0.06158989530674595</v>
       </c>
       <c r="NZ3">
-        <v>-0.09643185153748629</v>
+        <v>-0.05763012102900247</v>
       </c>
       <c r="OA3">
-        <v>-0.09837168363068369</v>
+        <v>-0.0492523845052442</v>
       </c>
       <c r="OB3">
-        <v>-0.09848032705549821</v>
+        <v>-0.04410430253985387</v>
       </c>
       <c r="OC3">
-        <v>-0.09678306601446136</v>
+        <v>-0.06510960197179175</v>
       </c>
       <c r="OD3">
-        <v>-0.09189203477725975</v>
+        <v>-0.06369519659737069</v>
       </c>
       <c r="OE3">
-        <v>-0.09478899419069917</v>
+        <v>-0.06345723145003987</v>
       </c>
       <c r="OF3">
-        <v>-0.09837847567909261</v>
+        <v>-0.04925858833547873</v>
       </c>
       <c r="OG3">
-        <v>-0.09855881647938187</v>
+        <v>-0.043436717518286</v>
       </c>
       <c r="OH3">
-        <v>-0.0968190874278362</v>
+        <v>-0.06520834988676315</v>
       </c>
       <c r="OI3">
-        <v>-0.09740579960021357</v>
+        <v>-0.06570813867986673</v>
       </c>
       <c r="OJ3">
-        <v>-0.09181316428808618</v>
+        <v>-0.06370168000730267</v>
       </c>
       <c r="OK3">
-        <v>-0.09478899419069034</v>
+        <v>-0.06345723145005074</v>
       </c>
       <c r="OL3">
-        <v>-0.0984021861464022</v>
+        <v>-0.04928024537550203</v>
       </c>
       <c r="OM3">
-        <v>-0.09861700842652341</v>
+        <v>-0.04294177367036432</v>
       </c>
       <c r="ON3">
-        <v>-0.09682238785508016</v>
+        <v>-0.06521739796844792</v>
       </c>
       <c r="OO3">
-        <v>-0.09770625371346489</v>
+        <v>-0.06599692264422304</v>
       </c>
       <c r="OP3">
-        <v>-0.09175812468077466</v>
+        <v>-0.06370620459061495</v>
       </c>
       <c r="OQ3">
-        <v>-0.09478899419068711</v>
+        <v>-0.0634572314500562</v>
       </c>
       <c r="OR3">
-        <v>-0.0985471485409367</v>
+        <v>-0.04941265316285776</v>
       </c>
       <c r="OS3">
-        <v>-0.09867314521519799</v>
+        <v>-0.04246431190717732</v>
       </c>
       <c r="OT3">
-        <v>-0.09682426407501211</v>
+        <v>-0.06522254163276088</v>
       </c>
       <c r="OU3">
-        <v>-0.09861275722397955</v>
+        <v>-0.06686823285016213</v>
       </c>
       <c r="OV3">
-        <v>-0.0977062537134807</v>
+        <v>-0.06599692264434991</v>
       </c>
       <c r="OW3">
-        <v>-0.0917011099905492</v>
+        <v>-0.06371089166677989</v>
       </c>
       <c r="OX3">
-        <v>-0.09478899419068477</v>
+        <v>-0.0634572314500592</v>
       </c>
       <c r="OY3">
-        <v>-0.09872808745596003</v>
+        <v>-0.04199701226503113</v>
       </c>
       <c r="OZ3">
-        <v>-0.09682553807143571</v>
+        <v>-0.06522603431130916</v>
       </c>
       <c r="PA3">
-        <v>-0.09990405095466977</v>
+        <v>-0.06810943818473811</v>
       </c>
       <c r="PB3">
-        <v>-0.09770625371348489</v>
+        <v>-0.06599692264438149</v>
       </c>
       <c r="PC3">
-        <v>-0.09146169770312312</v>
+        <v>-0.063730574760842</v>
       </c>
       <c r="PD3">
-        <v>-0.09478899419068262</v>
+        <v>-0.06345723145006388</v>
       </c>
       <c r="PE3">
-        <v>-0.09879416542537114</v>
+        <v>-0.04143500278304856</v>
       </c>
       <c r="PF3">
-        <v>-0.09682761434497496</v>
+        <v>-0.06523172646489787</v>
       </c>
       <c r="PG3">
-        <v>-0.1001743001949632</v>
+        <v>-0.06836921113653921</v>
       </c>
       <c r="PH3">
-        <v>-0.09770625371348089</v>
+        <v>-0.06599692264440592</v>
       </c>
       <c r="PI3">
-        <v>-0.09140324279817238</v>
+        <v>-0.06373538093755692</v>
       </c>
       <c r="PJ3">
-        <v>-0.09478899419065995</v>
+        <v>-0.06345723145011686</v>
       </c>
       <c r="PK3">
-        <v>-0.09890483786260029</v>
+        <v>-0.04049371304802932</v>
       </c>
       <c r="PL3">
-        <v>-0.09879416542537114</v>
+        <v>-0.04143500278304856</v>
       </c>
       <c r="PM3">
-        <v>-0.09683451597438845</v>
+        <v>-0.06525064763772827</v>
       </c>
       <c r="PN3">
-        <v>-0.1002433744956036</v>
+        <v>-0.0684356081129911</v>
       </c>
       <c r="PO3">
-        <v>-0.09770625371347126</v>
+        <v>-0.06599692264443378</v>
       </c>
       <c r="PP3">
-        <v>-0.09134748462753781</v>
+        <v>-0.0637399655170114</v>
       </c>
       <c r="PQ3">
-        <v>-0.09478899419065256</v>
+        <v>-0.06345723145013477</v>
       </c>
       <c r="PR3">
-        <v>-0.09927816469871711</v>
+        <v>-0.03731856081101086</v>
       </c>
       <c r="PS3">
-        <v>-0.09890483786260029</v>
+        <v>-0.04049371304802932</v>
       </c>
       <c r="PT3">
-        <v>-0.09684219959592799</v>
+        <v>-0.06527171302711657</v>
       </c>
       <c r="PU3">
-        <v>-0.1002795618049923</v>
+        <v>-0.06847039285862833</v>
       </c>
       <c r="PV3">
-        <v>-0.09770625371346044</v>
+        <v>-0.06599692264446247</v>
       </c>
       <c r="PW3">
-        <v>-0.09129203113169961</v>
+        <v>-0.06374452517015609</v>
       </c>
       <c r="PX3">
-        <v>-0.0947889941906493</v>
+        <v>-0.06345723145014162</v>
       </c>
       <c r="PY3">
-        <v>-0.09980629424184</v>
+        <v>-0.03282697230655539</v>
       </c>
       <c r="PZ3">
-        <v>-0.09927816469871711</v>
+        <v>-0.03731856081101086</v>
       </c>
       <c r="QA3">
-        <v>-0.09684652080876244</v>
+        <v>-0.06528356020842435</v>
       </c>
       <c r="QB3">
-        <v>-0.1003095608052171</v>
+        <v>-0.06849922917487514</v>
       </c>
       <c r="QC3">
-        <v>-0.09770625371344142</v>
+        <v>-0.06599692264448653</v>
       </c>
       <c r="QD3">
-        <v>-0.09122842054715261</v>
+        <v>-0.06374975569168201</v>
       </c>
       <c r="QE3">
-        <v>-0.09478899419064261</v>
+        <v>-0.06345723145015472</v>
       </c>
       <c r="QF3">
-        <v>-0.1001853276903187</v>
+        <v>-0.02960352118800055</v>
       </c>
       <c r="QG3">
-        <v>-0.09980629424184</v>
+        <v>-0.03282697230655539</v>
       </c>
       <c r="QH3">
-        <v>-0.09685058011313311</v>
+        <v>-0.06529468943742883</v>
       </c>
       <c r="QI3">
-        <v>-0.1003338734217454</v>
+        <v>-0.06852259951733264</v>
       </c>
       <c r="QJ3">
-        <v>-0.09770625371342236</v>
+        <v>-0.06599692264451369</v>
       </c>
       <c r="QK3">
-        <v>-0.09100875929640601</v>
+        <v>-0.06376781908533927</v>
       </c>
       <c r="QL3">
-        <v>-0.09478899419063601</v>
+        <v>-0.06345723145016756</v>
       </c>
       <c r="QM3">
-        <v>-0.1003003379581964</v>
+        <v>-0.02862544771402515</v>
       </c>
       <c r="QN3">
-        <v>-0.1001853276903187</v>
+        <v>-0.02960352118800055</v>
       </c>
       <c r="QO3">
-        <v>-0.09685445300926585</v>
+        <v>-0.06530530769311892</v>
       </c>
       <c r="QP3">
-        <v>-0.1003710370967678</v>
+        <v>-0.06855832289025147</v>
       </c>
       <c r="QQ3">
-        <v>-0.0977062537134003</v>
+        <v>-0.06599692264453227</v>
       </c>
       <c r="QR3">
-        <v>-0.08993862090577068</v>
+        <v>-0.06385584767881626</v>
       </c>
       <c r="QS3">
-        <v>-0.09478899419063064</v>
+        <v>-0.06345723145018428</v>
       </c>
       <c r="QT3">
-        <v>-0.1005902736530314</v>
+        <v>-0.0256153232039807</v>
       </c>
       <c r="QU3">
-        <v>-0.1003003379581965</v>
+        <v>-0.02862544771402516</v>
       </c>
       <c r="QV3">
-        <v>-0.1003019882084657</v>
+        <v>-0.0287051033750653</v>
       </c>
       <c r="QW3">
-        <v>-0.09686081169464887</v>
+        <v>-0.06532274139656505</v>
       </c>
       <c r="QX3">
-        <v>-0.1004045397562391</v>
+        <v>-0.06859052716906389</v>
       </c>
       <c r="QY3">
-        <v>-0.09770625371338934</v>
+        <v>-0.06599692264454363</v>
       </c>
       <c r="QZ3">
-        <v>-0.09478899419062606</v>
+        <v>-0.06345723145019985</v>
       </c>
       <c r="RA3">
-        <v>-0.1009124472944551</v>
+        <v>-0.02227064009921703</v>
       </c>
       <c r="RB3">
-        <v>-0.1005902736530314</v>
+        <v>-0.02561532320398069</v>
       </c>
       <c r="RC3">
-        <v>-0.1005902736530314</v>
+        <v>-0.02561532320398069</v>
       </c>
       <c r="RD3">
-        <v>-0.1003022291785005</v>
+        <v>-0.02871673641435099</v>
       </c>
       <c r="RE3">
-        <v>-0.09686524061620154</v>
+        <v>-0.06533488438449474</v>
       </c>
       <c r="RF3">
-        <v>-0.1004364261814673</v>
+        <v>-0.06862117788216479</v>
       </c>
       <c r="RG3">
-        <v>-0.09770625371337277</v>
+        <v>-0.0659969226445508</v>
       </c>
       <c r="RH3">
-        <v>-0.09478899419060405</v>
+        <v>-0.06345723145027818</v>
       </c>
       <c r="RI3">
-        <v>-0.1010305184413299</v>
+        <v>-0.0210449069082514</v>
       </c>
       <c r="RJ3">
-        <v>-0.1009124472944551</v>
+        <v>-0.02227064009921703</v>
       </c>
       <c r="RK3">
-        <v>-0.1003023605700911</v>
+        <v>-0.02872307964049822</v>
       </c>
       <c r="RL3">
-        <v>-0.09686835246235508</v>
+        <v>-0.06534341635547095</v>
       </c>
       <c r="RM3">
-        <v>-0.100472348355318</v>
+        <v>-0.06865570798178619</v>
       </c>
       <c r="RN3">
-        <v>-0.09770625371335498</v>
+        <v>-0.06599692264456214</v>
       </c>
       <c r="RO3">
-        <v>-0.09478899419060274</v>
+        <v>-0.06345723145028033</v>
       </c>
       <c r="RP3">
-        <v>-0.1012433996971005</v>
+        <v>-0.01846637846461562</v>
       </c>
       <c r="RQ3">
-        <v>-0.1010305184413299</v>
+        <v>-0.0210449069082514</v>
       </c>
       <c r="RR3">
-        <v>-0.1010630351184389</v>
+        <v>-0.02082917690737653</v>
       </c>
       <c r="RS3">
-        <v>-0.100302449576357</v>
+        <v>-0.02872737669233303</v>
       </c>
       <c r="RT3">
-        <v>-0.09686983931764177</v>
+        <v>-0.06534749299390701</v>
       </c>
       <c r="RU3">
-        <v>-0.1005102939387963</v>
+        <v>-0.06869218312197564</v>
       </c>
       <c r="RV3">
-        <v>-0.09770625371332602</v>
+        <v>-0.06599692264458008</v>
       </c>
       <c r="RW3">
-        <v>-0.09478899419060399</v>
+        <v>-0.06345723145028156</v>
       </c>
       <c r="RX3">
-        <v>-0.1015485426145461</v>
+        <v>-0.01477046670508874</v>
       </c>
       <c r="RY3">
-        <v>-0.1012433996971005</v>
+        <v>-0.01846637846461562</v>
       </c>
       <c r="RZ3">
-        <v>-0.1010650865444198</v>
+        <v>-0.02083030349443668</v>
       </c>
       <c r="SA3">
-        <v>-0.1010614658444097</v>
+        <v>-0.0207357446275292</v>
       </c>
       <c r="SB3">
-        <v>-0.1003025847692607</v>
+        <v>-0.02873390365926344</v>
       </c>
       <c r="SC3">
-        <v>-0.09687078119856536</v>
+        <v>-0.06535007543651609</v>
       </c>
       <c r="SD3">
-        <v>-0.1005932616888289</v>
+        <v>-0.06877193591252614</v>
       </c>
       <c r="SE3">
-        <v>-0.09770625371329185</v>
+        <v>-0.06599692264460712</v>
       </c>
       <c r="SF3">
-        <v>-0.09478899419060387</v>
+        <v>-0.06345723145028172</v>
       </c>
       <c r="SG3">
-        <v>-0.101734780684148</v>
+        <v>-0.01251481838617823</v>
       </c>
       <c r="SH3">
-        <v>-0.1015485426145461</v>
+        <v>-0.01477046670508874</v>
       </c>
       <c r="SI3">
-        <v>-0.1010659536320284</v>
+        <v>-0.02083077967680136</v>
       </c>
       <c r="SJ3">
-        <v>-0.1010604614244625</v>
+        <v>-0.02067595823158778</v>
       </c>
       <c r="SK3">
-        <v>-0.1003027899334562</v>
+        <v>-0.02874380902449323</v>
       </c>
       <c r="SL3">
-        <v>-0.09687141802560477</v>
+        <v>-0.06535182148758821</v>
       </c>
       <c r="SM3">
-        <v>-0.1024752690855977</v>
+        <v>-0.07058107335810676</v>
       </c>
       <c r="SN3">
-        <v>-0.09770625371326815</v>
+        <v>-0.06599692264463033</v>
       </c>
       <c r="SO3">
-        <v>-0.09478899419060387</v>
+        <v>-0.06345723145028172</v>
       </c>
       <c r="SP3">
-        <v>-0.1017668542768954</v>
+        <v>-0.01212636070979531</v>
       </c>
       <c r="SQ3">
-        <v>-0.101734780684148</v>
+        <v>-0.01251481838617823</v>
       </c>
       <c r="SR3">
-        <v>-0.1010664631152786</v>
+        <v>-0.02083105947242038</v>
       </c>
       <c r="SS3">
-        <v>-0.1003029354874778</v>
+        <v>-0.02875083658947679</v>
       </c>
       <c r="ST3">
-        <v>-0.09687230632160718</v>
+        <v>-0.06535425701991708</v>
       </c>
       <c r="SU3">
-        <v>-0.1025472282744953</v>
+        <v>-0.07061669621489675</v>
       </c>
       <c r="SV3">
-        <v>-0.1027503018456017</v>
+        <v>-0.07085100295933197</v>
       </c>
       <c r="SW3">
-        <v>-0.09770625371325592</v>
+        <v>-0.06599692264465111</v>
       </c>
       <c r="SX3">
-        <v>-0.101873098450844</v>
+        <v>-0.01217059218923581</v>
       </c>
       <c r="SY3">
-        <v>-0.1017668542768954</v>
+        <v>-0.01212636070979532</v>
       </c>
       <c r="SZ3">
-        <v>-0.1014237686268752</v>
+        <v>-0.005284415213888635</v>
       </c>
       <c r="TA3">
-        <v>-0.101066931992921</v>
+        <v>-0.02083131696872529</v>
       </c>
       <c r="TB3">
-        <v>-0.1003030349301856</v>
+        <v>-0.02875563792225784</v>
       </c>
       <c r="TC3">
-        <v>-0.09687298427557378</v>
+        <v>-0.06535611583917036</v>
       </c>
       <c r="TD3">
-        <v>-0.1026106883048032</v>
+        <v>-0.0706481113400113</v>
       </c>
       <c r="TE3">
-        <v>-0.1028986788858631</v>
+        <v>-0.07099662803216501</v>
       </c>
       <c r="TF3">
-        <v>-0.09770625371324826</v>
+        <v>-0.0659969226446694</v>
       </c>
       <c r="TG3">
-        <v>-0.1019513082579901</v>
+        <v>-0.01220315210664548</v>
       </c>
       <c r="TH3">
-        <v>-0.101873098450844</v>
+        <v>-0.01217059218923581</v>
       </c>
       <c r="TI3">
-        <v>-0.1012210169819873</v>
+        <v>-0.001241140076304815</v>
       </c>
       <c r="TJ3">
-        <v>-0.101067349723262</v>
+        <v>-0.0208315463763921</v>
       </c>
       <c r="TK3">
-        <v>-0.100303113508564</v>
+        <v>-0.02875943192713386</v>
       </c>
       <c r="TL3">
-        <v>-0.09687782229166493</v>
+        <v>-0.0653693808299933</v>
       </c>
       <c r="TM3">
-        <v>-0.1029208384089499</v>
+        <v>-0.07101837662770373</v>
       </c>
       <c r="TN3">
-        <v>-0.09770625371324544</v>
+        <v>-0.06599692264468211</v>
       </c>
       <c r="TO3">
-        <v>-0.1020577929667818</v>
+        <v>-0.01224748285468114</v>
       </c>
       <c r="TP3">
-        <v>-0.1019513082579901</v>
+        <v>-0.01220315210664548</v>
       </c>
       <c r="TQ3">
-        <v>-0.1010603594326121</v>
+        <v>0.001962654178169683</v>
       </c>
       <c r="TR3">
-        <v>-0.1010677830708101</v>
+        <v>-0.02083178436089005</v>
       </c>
       <c r="TS3">
-        <v>-0.1003033654465262</v>
+        <v>-0.02877159657401955</v>
       </c>
       <c r="TT3">
-        <v>-0.0968869585037789</v>
+        <v>-0.06540032855709824</v>
       </c>
       <c r="TU3">
-        <v>-0.09690082456024557</v>
+        <v>-0.06541532413466017</v>
       </c>
       <c r="TV3">
-        <v>-0.1029377536345591</v>
+        <v>-0.07103497818821436</v>
       </c>
       <c r="TW3">
-        <v>-0.09770625371324267</v>
+        <v>-0.06599692264468961</v>
       </c>
       <c r="TX3">
-        <v>-0.1021331489275148</v>
+        <v>-0.01227885406119709</v>
       </c>
       <c r="TY3">
-        <v>-0.1020577929667818</v>
+        <v>-0.01224748285468114</v>
       </c>
       <c r="TZ3">
-        <v>-0.1009939724448932</v>
+        <v>0.003286517194642535</v>
       </c>
       <c r="UA3">
-        <v>-0.1010690912757396</v>
+        <v>-0.02083250279831991</v>
       </c>
       <c r="UB3">
-        <v>-0.1003054029573592</v>
+        <v>-0.02886999372546849</v>
       </c>
       <c r="UC3">
-        <v>-0.09689704688762081</v>
+        <v>-0.06543450242501488</v>
       </c>
       <c r="UD3">
-        <v>-0.1029535737779657</v>
+        <v>-0.0710505049823319</v>
       </c>
       <c r="UE3">
-        <v>-0.09770625371323902</v>
+        <v>-0.06599692264469921</v>
       </c>
       <c r="UF3">
-        <v>-0.1023438912784636</v>
+        <v>-0.01236658622093717</v>
       </c>
       <c r="UG3">
-        <v>-0.1021331489275148</v>
+        <v>-0.01227885406119709</v>
       </c>
       <c r="UH3">
-        <v>-0.1009916095352247</v>
+        <v>0.003359956231602834</v>
       </c>
       <c r="UI3">
-        <v>-0.1007502648314581</v>
+        <v>0.007800177143550808</v>
       </c>
       <c r="UJ3">
-        <v>-0.1010704096299064</v>
+        <v>-0.02083322681162194</v>
       </c>
       <c r="UK3">
-        <v>-0.1003055044097911</v>
+        <v>-0.02887489395852717</v>
       </c>
       <c r="UL3">
-        <v>-0.09692439167602132</v>
+        <v>-0.06552713558701441</v>
       </c>
       <c r="UM3">
-        <v>-0.1029704440288769</v>
+        <v>-0.07106706242195826</v>
       </c>
       <c r="UN3">
-        <v>-0.09770625371323782</v>
+        <v>-0.06599692264470221</v>
       </c>
       <c r="UO3">
-        <v>-0.1024964949550263</v>
+        <v>-0.01243011398965833</v>
       </c>
       <c r="UP3">
-        <v>-0.1023438912784636</v>
+        <v>-0.01236658622093717</v>
       </c>
       <c r="UQ3">
-        <v>-0.1009907400548286</v>
+        <v>0.003386979598437997</v>
       </c>
       <c r="UR3">
-        <v>-0.100565890021932</v>
+        <v>0.01121490615512904</v>
       </c>
       <c r="US3">
-        <v>-0.101082727726146</v>
+        <v>-0.02083999176304076</v>
       </c>
       <c r="UT3">
-        <v>-0.1003055844583911</v>
+        <v>-0.02887876042360553</v>
       </c>
       <c r="UU3">
-        <v>-0.1029853721778934</v>
+        <v>-0.0710817137790288</v>
       </c>
       <c r="UV3">
-        <v>-0.09770625371323785</v>
+        <v>-0.06599692264470222</v>
       </c>
       <c r="UW3">
-        <v>-0.1025086248171367</v>
+        <v>-0.0124421759375502</v>
       </c>
       <c r="UX3">
-        <v>-0.1024964949550263</v>
+        <v>-0.01243011398965833</v>
       </c>
       <c r="UY3">
-        <v>-0.1026597192626752</v>
+        <v>-0.01244508098434998</v>
       </c>
       <c r="UZ3">
-        <v>-0.1009894448978929</v>
+        <v>0.003427232939155572</v>
       </c>
       <c r="VA3">
-        <v>-0.1003056749545387</v>
+        <v>-0.0288831315781538</v>
       </c>
       <c r="VB3">
-        <v>-0.1030006410583848</v>
+        <v>-0.07109669955813688</v>
       </c>
       <c r="VC3">
-        <v>-0.1025114969503454</v>
+        <v>-0.01244503199005574</v>
       </c>
       <c r="VD3">
-        <v>-0.1025086248171367</v>
+        <v>-0.0124421759375502</v>
       </c>
       <c r="VE3">
-        <v>-0.1026803542730105</v>
+        <v>-0.01244697308269711</v>
       </c>
       <c r="VF3">
-        <v>-0.1009886655717138</v>
+        <v>0.003451454307584323</v>
       </c>
       <c r="VG3">
-        <v>-0.1003057554981108</v>
+        <v>-0.02888702205368933</v>
       </c>
       <c r="VH3">
-        <v>-0.1030794486641536</v>
+        <v>-0.07117404611974577</v>
       </c>
       <c r="VI3">
-        <v>-0.1025893600352474</v>
+        <v>-0.01252245915315938</v>
       </c>
       <c r="VJ3">
-        <v>-0.1025114969503453</v>
+        <v>-0.01244503199005573</v>
       </c>
       <c r="VK3">
-        <v>-0.102511496950313</v>
+        <v>-0.01244503199002805</v>
       </c>
       <c r="VL3">
-        <v>-0.1026955816274665</v>
+        <v>-0.01244836932687574</v>
       </c>
       <c r="VM3">
-        <v>-0.1009877252115201</v>
+        <v>0.003480680587927551</v>
       </c>
       <c r="VN3">
-        <v>-0.10030584820275</v>
+        <v>-0.02889150000210501</v>
       </c>
       <c r="VO3">
-        <v>-0.1031400125649273</v>
+        <v>-0.0712475271855635</v>
       </c>
       <c r="VP3">
-        <v>-0.1032406633521105</v>
+        <v>-0.07133014606328272</v>
       </c>
       <c r="VQ3">
-        <v>-0.102643928372484</v>
+        <v>-0.01257672201289054</v>
       </c>
       <c r="VR3">
-        <v>-0.1025893600352474</v>
+        <v>-0.01252245915315938</v>
       </c>
       <c r="VS3">
-        <v>-0.1025114969502994</v>
+        <v>-0.01244503199001953</v>
       </c>
       <c r="VT3">
-        <v>-0.1027103980297965</v>
+        <v>-0.0124497278840607</v>
       </c>
       <c r="VU3">
-        <v>-0.1009868995347741</v>
+        <v>0.003506342514530551</v>
       </c>
       <c r="VV3">
-        <v>-0.1003059432554314</v>
+        <v>-0.02889609143537726</v>
       </c>
       <c r="VW3">
-        <v>-0.1031435027338928</v>
+        <v>-0.07125176176349285</v>
       </c>
       <c r="VX3">
-        <v>-0.1040111117120213</v>
+        <v>-0.07207616393120961</v>
       </c>
       <c r="VY3">
-        <v>-0.1026854018256286</v>
+        <v>-0.01264923760140505</v>
       </c>
       <c r="VZ3">
-        <v>-0.1026519800085585</v>
+        <v>-0.01258101801371932</v>
       </c>
       <c r="WA3">
-        <v>-0.102511496950291</v>
+        <v>-0.01244503199001871</v>
       </c>
       <c r="WB3">
-        <v>-0.1028495813945755</v>
+        <v>-0.01246248972964189</v>
       </c>
       <c r="WC3">
-        <v>-0.1009814965683684</v>
+        <v>0.003674265869785595</v>
       </c>
       <c r="WD3">
-        <v>-0.1003060575068786</v>
+        <v>-0.02890161033668853</v>
       </c>
       <c r="WE3">
-        <v>-0.1031452556279859</v>
+        <v>-0.07125388852859084</v>
       </c>
       <c r="WF3">
-        <v>-0.104135042355895</v>
+        <v>-0.07215120294273038</v>
       </c>
       <c r="WG3">
-        <v>-0.1048650257270051</v>
+        <v>-0.07292174441592704</v>
       </c>
       <c r="WH3">
-        <v>-0.1027223874669075</v>
+        <v>-0.01271390686950696</v>
       </c>
       <c r="WI3">
-        <v>-0.1026854018256286</v>
+        <v>-0.01264923760140505</v>
       </c>
       <c r="WJ3">
-        <v>-0.1026854018256286</v>
+        <v>-0.01264923760140505</v>
       </c>
       <c r="WK3">
-        <v>-0.1028233490298503</v>
+        <v>-0.0126723331357871</v>
       </c>
       <c r="WL3">
-        <v>-0.1026519800085585</v>
+        <v>-0.01258101801371932</v>
       </c>
       <c r="WM3">
-        <v>-0.1025114969502817</v>
+        <v>-0.01244503199001725</v>
       </c>
       <c r="WN3">
-        <v>-0.1029143606483529</v>
+        <v>-0.01246842923345659</v>
       </c>
       <c r="WO3">
-        <v>-0.1009416581619092</v>
+        <v>0.004912429713999936</v>
       </c>
       <c r="WP3">
-        <v>-0.1003061291335628</v>
+        <v>-0.02890507030404927</v>
       </c>
       <c r="WQ3">
-        <v>-0.103146725525708</v>
+        <v>-0.07125567193805982</v>
       </c>
       <c r="WR3">
-        <v>-0.1042004434938255</v>
+        <v>-0.07219080229128787</v>
       </c>
       <c r="WS3">
-        <v>-0.1056830254275199</v>
+        <v>-0.07373179038258094</v>
       </c>
       <c r="WT3">
-        <v>-0.102756494300825</v>
+        <v>-0.01277197132590085</v>
       </c>
       <c r="WU3">
-        <v>-0.1027223874669075</v>
+        <v>-0.01271390686950697</v>
       </c>
       <c r="WV3">
-        <v>-0.1027223874669075</v>
+        <v>-0.01271390686950695</v>
       </c>
       <c r="WW3">
-        <v>-0.1028636860679941</v>
+        <v>-0.01269382651013875</v>
       </c>
       <c r="WX3">
-        <v>-0.1025114969502763</v>
+        <v>-0.01244503199001469</v>
       </c>
       <c r="WY3">
-        <v>-0.1029447646344866</v>
+        <v>-0.01247121688947721</v>
       </c>
       <c r="WZ3">
-        <v>-0.1003064369536404</v>
+        <v>-0.02891994016183577</v>
       </c>
       <c r="XA3">
-        <v>-0.1031479241765261</v>
+        <v>-0.07125712624716415</v>
       </c>
       <c r="XB3">
-        <v>-0.1057057024928504</v>
+        <v>-0.07375145387741279</v>
       </c>
       <c r="XC3">
-        <v>-0.105898757043673</v>
+        <v>-0.07394719118841855</v>
       </c>
       <c r="XD3">
-        <v>-0.10280295643819</v>
+        <v>-0.01285107140500727</v>
       </c>
       <c r="XE3">
-        <v>-0.1025114969502729</v>
+        <v>-0.01244503199001143</v>
       </c>
       <c r="XF3">
-        <v>-0.1029650447236294</v>
+        <v>-0.01247307630114922</v>
       </c>
       <c r="XG3">
-        <v>-0.1003077345558091</v>
+        <v>-0.02898263117110077</v>
       </c>
       <c r="XH3">
-        <v>-0.1031498057093088</v>
+        <v>-0.07125940908954292</v>
       </c>
       <c r="XI3">
-        <v>-0.1057112629970554</v>
+        <v>-0.07375627544821375</v>
       </c>
       <c r="XJ3">
-        <v>-0.1059483913002145</v>
+        <v>-0.07399674963968567</v>
       </c>
       <c r="XK3">
-        <v>-0.1028165844734748</v>
+        <v>-0.0128742729832317</v>
       </c>
       <c r="XL3">
-        <v>-0.1025114969502654</v>
+        <v>-0.01244503199000925</v>
       </c>
       <c r="XM3">
-        <v>-0.1029960494525397</v>
+        <v>-0.01247591899854676</v>
       </c>
       <c r="XN3">
-        <v>-0.1031542923389069</v>
+        <v>-0.07126485266891053</v>
       </c>
       <c r="XO3">
-        <v>-0.1057150812470459</v>
+        <v>-0.07375958629364937</v>
       </c>
       <c r="XP3">
-        <v>-0.1059730223331379</v>
+        <v>-0.07402134309663541</v>
       </c>
       <c r="XQ3">
-        <v>-0.1028616912853737</v>
+        <v>-0.01295106795913812</v>
       </c>
       <c r="XR3">
-        <v>-0.1025114969502582</v>
+        <v>-0.01244503199000641</v>
       </c>
       <c r="XS3">
-        <v>-0.1030566021890735</v>
+        <v>-0.01248147076404283</v>
       </c>
       <c r="XT3">
-        <v>-0.103157396364901</v>
+        <v>-0.07126861875234362</v>
       </c>
       <c r="XU3">
-        <v>-0.1057203741756577</v>
+        <v>-0.07376417585046822</v>
       </c>
       <c r="XV3">
-        <v>-0.1060000900178241</v>
+        <v>-0.07404836952056514</v>
       </c>
       <c r="XW3">
-        <v>-0.1025114969502557</v>
+        <v>-0.01244503199000537</v>
       </c>
       <c r="XX3">
-        <v>-0.1030733407215772</v>
+        <v>-0.01248300541706389</v>
       </c>
       <c r="XY3">
-        <v>-0.1031613431208773</v>
+        <v>-0.07127340731407605</v>
       </c>
       <c r="XZ3">
-        <v>-0.105732925325631</v>
+        <v>-0.07377505909934343</v>
       </c>
       <c r="YA3">
-        <v>-0.1060313222319005</v>
+        <v>-0.07407955416791201</v>
       </c>
       <c r="YB3">
-        <v>-0.1025114969502534</v>
+        <v>-0.0124450319900061</v>
       </c>
       <c r="YC3">
-        <v>-0.1030782002024119</v>
+        <v>-0.01248345095165598</v>
       </c>
       <c r="YD3">
-        <v>-0.1031637407446671</v>
+        <v>-0.07127631632973631</v>
       </c>
       <c r="YE3">
-        <v>-0.1057424663002128</v>
+        <v>-0.07378333219766611</v>
       </c>
       <c r="YF3">
-        <v>-0.1060628960224109</v>
+        <v>-0.07411107991748402</v>
       </c>
       <c r="YG3">
-        <v>-0.1025114969502493</v>
+        <v>-0.01244503199000549</v>
       </c>
       <c r="YH3">
-        <v>-0.1030807133274109</v>
+        <v>-0.01248383922406321</v>
       </c>
       <c r="YI3">
-        <v>-0.1030872422891818</v>
+        <v>-0.01248344145910461</v>
       </c>
       <c r="YJ3">
-        <v>-0.103165905289625</v>
+        <v>-0.0712789425538104</v>
       </c>
       <c r="YK3">
-        <v>-0.1057491639363793</v>
+        <v>-0.07378913980568821</v>
       </c>
       <c r="YL3">
-        <v>-0.1060978998228677</v>
+        <v>-0.07414603051216621</v>
       </c>
       <c r="YM3">
-        <v>-0.1025114969502391</v>
+        <v>-0.01244503199000009</v>
       </c>
       <c r="YN3">
-        <v>-0.103083065400818</v>
+        <v>-0.01248420261409726</v>
       </c>
       <c r="YO3">
-        <v>-0.103099173946846</v>
+        <v>-0.01248342893306283</v>
       </c>
       <c r="YP3">
-        <v>-0.1031695558755855</v>
+        <v>-0.07128337178076991</v>
       </c>
       <c r="YQ3">
-        <v>-0.1057561803111706</v>
+        <v>-0.07379522379966987</v>
       </c>
       <c r="YR3">
-        <v>-0.1061488030082935</v>
+        <v>-0.07419685642621317</v>
       </c>
       <c r="YS3">
-        <v>-0.1025114969502335</v>
+        <v>-0.01244503198999496</v>
       </c>
       <c r="YT3">
-        <v>-0.1030854883419712</v>
+        <v>-0.01248457695278858</v>
       </c>
       <c r="YU3">
-        <v>-0.1031487439405584</v>
+        <v>-0.01248337689409226</v>
       </c>
       <c r="YV3">
-        <v>-0.1031731449007393</v>
+        <v>-0.07128772631883931</v>
       </c>
       <c r="YW3">
-        <v>-0.1057619408357509</v>
+        <v>-0.07380021883155198</v>
       </c>
       <c r="YX3">
-        <v>-0.1061523237175333</v>
+        <v>-0.07409810531792645</v>
       </c>
       <c r="YY3">
-        <v>-0.1062756165532082</v>
+        <v>-0.07435089132741392</v>
       </c>
       <c r="YZ3">
-        <v>-0.1025114969502335</v>
+        <v>-0.01244503198999327</v>
       </c>
       <c r="ZA3">
-        <v>-0.1031030068124025</v>
+        <v>-0.01248728350757425</v>
       </c>
       <c r="ZB3">
-        <v>-0.1031697953072736</v>
+        <v>-0.01248335479438871</v>
       </c>
       <c r="ZC3">
-        <v>-0.1031748430336494</v>
+        <v>-0.07128978665193733</v>
       </c>
       <c r="ZD3">
-        <v>-0.1057714787015427</v>
+        <v>-0.07380848925447016</v>
       </c>
       <c r="ZE3">
-        <v>-0.1061544379052234</v>
+        <v>-0.07403880471617443</v>
       </c>
       <c r="ZF3">
-        <v>-0.1070786842553812</v>
+        <v>-0.07532635506379155</v>
       </c>
       <c r="ZG3">
-        <v>-0.1025114969502335</v>
+        <v>-0.01244503198999327</v>
       </c>
       <c r="ZH3">
-        <v>-0.1032305815235788</v>
+        <v>-0.01250699304404799</v>
       </c>
       <c r="ZI3">
-        <v>-0.1031767082036554</v>
+        <v>-0.0712920496506092</v>
       </c>
       <c r="ZJ3">
-        <v>-0.1058023024518184</v>
+        <v>-0.07383521702469664</v>
       </c>
       <c r="ZK3">
-        <v>-0.1061563991216475</v>
+        <v>-0.07398379444463873</v>
       </c>
       <c r="ZL3">
-        <v>-0.1076535771046118</v>
+        <v>-0.07602467427938826</v>
       </c>
       <c r="ZM3">
-        <v>-0.1031784983688817</v>
+        <v>-0.07129422164705791</v>
       </c>
       <c r="ZN3">
-        <v>-0.1058743271202967</v>
+        <v>-0.07389767104590443</v>
       </c>
       <c r="ZO3">
-        <v>-0.1061583127463898</v>
+        <v>-0.07393011875686366</v>
       </c>
       <c r="ZP3">
-        <v>-0.1078080106602303</v>
+        <v>-0.07605712604809961</v>
       </c>
       <c r="ZQ3">
-        <v>-0.1091330470708661</v>
+        <v>-0.07798797913631164</v>
       </c>
       <c r="ZR3">
-        <v>-0.1031806572950279</v>
+        <v>-0.07129684105962854</v>
       </c>
       <c r="ZS3">
-        <v>-0.1061597480940296</v>
+        <v>-0.07388985816416248</v>
       </c>
       <c r="ZT3">
-        <v>-0.1078152180115779</v>
+        <v>-0.07605709389512069</v>
       </c>
       <c r="ZU3">
-        <v>-0.1078282053991699</v>
+        <v>-0.0760656873387727</v>
       </c>
       <c r="ZV3">
-        <v>-0.1091819594942111</v>
+        <v>-0.0780639997504663</v>
       </c>
       <c r="ZW3">
-        <v>-0.1094316358321951</v>
+        <v>-0.07838204596091344</v>
       </c>
       <c r="ZX3">
-        <v>-0.1031841010596626</v>
+        <v>-0.07130101936102702</v>
       </c>
       <c r="ZY3">
-        <v>-0.1061620282396891</v>
+        <v>-0.07382590115845333</v>
       </c>
       <c r="ZZ3">
-        <v>-0.1078174732380681</v>
+        <v>-0.07605708383425246</v>
       </c>
       <c r="AAA3">
-        <v>-0.1078693458326821</v>
+        <v>-0.0760831281371805</v>
       </c>
       <c r="AAB3">
-        <v>-0.1092102959551531</v>
+        <v>-0.07810804171994064</v>
       </c>
       <c r="AAC3">
-        <v>-0.1097361270119754</v>
+        <v>-0.07879593944633058</v>
       </c>
       <c r="AAD3">
-        <v>-0.1031935262855967</v>
+        <v>-0.07131245494869895</v>
       </c>
       <c r="AAE3">
-        <v>-0.1061658726577311</v>
+        <v>-0.07371806604353556</v>
       </c>
       <c r="AAF3">
-        <v>-0.1078189232837414</v>
+        <v>-0.07605707736540615</v>
       </c>
       <c r="AAG3">
-        <v>-0.1105394466457997</v>
+        <v>-0.07988793378255316</v>
       </c>
       <c r="AAH3">
-        <v>-0.1097361270119757</v>
+        <v>-0.07879593944631713</v>
       </c>
       <c r="AAI3">
-        <v>-0.1032060695880129</v>
+        <v>-0.07132767371054895</v>
       </c>
       <c r="AAJ3">
-        <v>-0.1061946788193684</v>
+        <v>-0.07291001894112255</v>
       </c>
       <c r="AAK3">
-        <v>-0.1078197979106945</v>
+        <v>-0.07605707346357882</v>
       </c>
       <c r="AAL3">
-        <v>-0.1112712805727203</v>
+        <v>-0.0812071252832286</v>
       </c>
       <c r="AAM3">
-        <v>-0.110651515012951</v>
+        <v>-0.07980192716314101</v>
       </c>
       <c r="AAN3">
-        <v>-0.1097361270119778</v>
+        <v>-0.07879593944630429</v>
       </c>
       <c r="AAO3">
-        <v>-0.1032072643001524</v>
+        <v>-0.07132912325370086</v>
       </c>
       <c r="AAP3">
-        <v>-0.1062183107720477</v>
+        <v>-0.07224706139039236</v>
       </c>
       <c r="AAQ3">
-        <v>-0.1078206819069551</v>
+        <v>-0.07605706951995264</v>
       </c>
       <c r="AAR3">
-        <v>-0.1120267716213461</v>
+        <v>-0.08256911264122301</v>
       </c>
       <c r="AAS3">
-        <v>-0.1106635126719575</v>
+        <v>-0.07979271983662195</v>
       </c>
       <c r="AAT3">
-        <v>-0.1097361270119796</v>
+        <v>-0.07879593944629111</v>
       </c>
       <c r="AAU3">
-        <v>-0.1032082091468721</v>
+        <v>-0.07133026963554905</v>
       </c>
       <c r="AAV3">
-        <v>-0.1062257982352807</v>
+        <v>-0.07203700229723592</v>
       </c>
       <c r="AAW3">
-        <v>-0.1078214715016929</v>
+        <v>-0.07605706599746599</v>
       </c>
       <c r="AAX3">
-        <v>-0.1122365475803618</v>
+        <v>-0.08309674841143919</v>
       </c>
       <c r="AAY3">
-        <v>-0.1123893467992103</v>
+        <v>-0.08271983294864177</v>
       </c>
       <c r="AAZ3">
-        <v>-0.1106680935687576</v>
+        <v>-0.07978920434585771</v>
       </c>
       <c r="ABA3">
-        <v>-0.1097361270119822</v>
+        <v>-0.07879593944628269</v>
       </c>
       <c r="ABB3">
-        <v>-0.1032091268198455</v>
+        <v>-0.07133138304766623</v>
       </c>
       <c r="ABC3">
-        <v>-0.1062326146303603</v>
+        <v>-0.07184576568600644</v>
       </c>
       <c r="ABD3">
-        <v>-0.1078223611007332</v>
+        <v>-0.07605706202884716</v>
       </c>
       <c r="ABE3">
-        <v>-0.112521622590807</v>
+        <v>-0.0838138309987539</v>
       </c>
       <c r="ABF3">
-        <v>-0.1124379882280119</v>
+        <v>-0.08274005178440348</v>
       </c>
       <c r="ABG3">
-        <v>-0.1106729392656174</v>
+        <v>-0.07978548564881699</v>
       </c>
       <c r="ABH3">
-        <v>-0.1097361270119859</v>
+        <v>-0.07879593944627815</v>
       </c>
       <c r="ABI3">
-        <v>-0.1032101097468979</v>
+        <v>-0.07133257563268994</v>
       </c>
       <c r="ABJ3">
-        <v>-0.1062363272105453</v>
+        <v>-0.07174160612962446</v>
       </c>
       <c r="ABK3">
-        <v>-0.1078230738494368</v>
+        <v>-0.07605705884918226</v>
       </c>
       <c r="ABL3">
-        <v>-0.1128554204038525</v>
+        <v>-0.08465354796275265</v>
       </c>
       <c r="ABM3">
-        <v>-0.112463543739991</v>
+        <v>-0.08275067436654644</v>
       </c>
       <c r="ABN3">
-        <v>-0.1106769607850215</v>
+        <v>-0.0797823994501366</v>
       </c>
       <c r="ABO3">
-        <v>-0.1097361270119938</v>
+        <v>-0.07879593944627362</v>
       </c>
       <c r="ABP3">
-        <v>-0.1032110185375368</v>
+        <v>-0.07133367826818847</v>
       </c>
       <c r="ABQ3">
-        <v>-0.106239292291101</v>
+        <v>-0.07165841745372929</v>
       </c>
       <c r="ABR3">
-        <v>-0.1078239287921077</v>
+        <v>-0.07605705503517317</v>
       </c>
       <c r="ABS3">
-        <v>-0.1131234719526985</v>
+        <v>-0.0853279301491783</v>
       </c>
       <c r="ABT3">
-        <v>-0.1125431356416356</v>
+        <v>-0.08279593850673116</v>
       </c>
       <c r="ABU3">
-        <v>-0.1124656796607726</v>
+        <v>-0.08275116465727658</v>
       </c>
       <c r="ABV3">
-        <v>-0.1106817232661606</v>
+        <v>-0.07977874462885143</v>
       </c>
       <c r="ABW3">
-        <v>-0.1097361270119999</v>
+        <v>-0.07879593944627028</v>
       </c>
       <c r="ABX3">
-        <v>-0.103211874976967</v>
+        <v>-0.07133471738610948</v>
       </c>
       <c r="ABY3">
-        <v>-0.1062418206641807</v>
+        <v>-0.07158748050208627</v>
       </c>
       <c r="ABZ3">
-        <v>-0.1078248500952012</v>
+        <v>-0.07605705092512083</v>
       </c>
       <c r="ACA3">
-        <v>-0.1131863383633982</v>
+        <v>-0.08556245039820912</v>
       </c>
       <c r="ACB3">
-        <v>-0.1132884592979044</v>
+        <v>-0.08539965750250811</v>
       </c>
       <c r="ACC3">
-        <v>-0.1126078358274569</v>
+        <v>-0.08283273333509238</v>
       </c>
       <c r="ACD3">
-        <v>-0.1124672242395348</v>
+        <v>-0.08275151920801208</v>
       </c>
       <c r="ACE3">
-        <v>-0.1106863678569961</v>
+        <v>-0.07977518028623951</v>
       </c>
       <c r="ACF3">
-        <v>-0.1097361270120052</v>
+        <v>-0.07879593944626617</v>
       </c>
       <c r="ACG3">
-        <v>-0.1032130661208406</v>
+        <v>-0.07133616260113483</v>
       </c>
       <c r="ACH3">
-        <v>-0.1062447877304808</v>
+        <v>-0.07150423471473041</v>
       </c>
       <c r="ACI3">
-        <v>-0.1078265309649299</v>
+        <v>-0.07605704342654618</v>
       </c>
       <c r="ACJ3">
-        <v>-0.1132730152519535</v>
+        <v>-0.08588580756892315</v>
       </c>
       <c r="ACK3">
-        <v>-0.1134263766232373</v>
+        <v>-0.08545961396386689</v>
       </c>
       <c r="ACL3">
-        <v>-0.1124685277269757</v>
+        <v>-0.08275181841726635</v>
       </c>
       <c r="ACM3">
-        <v>-0.1106927531975498</v>
+        <v>-0.07977028007279942</v>
       </c>
       <c r="ACN3">
-        <v>-0.1097361270120129</v>
+        <v>-0.07879593944626261</v>
       </c>
       <c r="ACO3">
-        <v>-0.1032145258196829</v>
+        <v>-0.07133793365429007</v>
       </c>
       <c r="ACP3">
-        <v>-0.1062474988597342</v>
+        <v>-0.07142816898957627</v>
       </c>
       <c r="ACQ3">
-        <v>-0.1078391065055984</v>
+        <v>-0.07605698732550402</v>
       </c>
       <c r="ACR3">
-        <v>-0.1134862548310407</v>
+        <v>-0.08668138435391709</v>
       </c>
       <c r="ACS3">
-        <v>-0.1134594067756857</v>
+        <v>-0.08547414253811343</v>
       </c>
       <c r="ACT3">
-        <v>-0.1134288129568454</v>
+        <v>-0.08546066693858775</v>
       </c>
       <c r="ACU3">
-        <v>-0.1124707294694681</v>
+        <v>-0.08275232381640274</v>
       </c>
       <c r="ACV3">
-        <v>-0.1107015373101052</v>
+        <v>-0.07976353902539642</v>
       </c>
       <c r="ACW3">
-        <v>-0.1097361270120177</v>
+        <v>-0.0787959394462638</v>
       </c>
       <c r="ACX3">
-        <v>-0.1032214444254349</v>
+        <v>-0.07134632800648982</v>
       </c>
       <c r="ACY3">
-        <v>-0.1062517048584899</v>
+        <v>-0.07131016069834567</v>
       </c>
       <c r="ACZ3">
-        <v>-0.1078776443044359</v>
+        <v>-0.07605681540418185</v>
       </c>
       <c r="ADA3">
-        <v>-0.1136591008435342</v>
+        <v>-0.08732632364931374</v>
       </c>
       <c r="ADB3">
-        <v>-0.1134917732656383</v>
+        <v>-0.08548837907656125</v>
       </c>
       <c r="ADC3">
-        <v>-0.1134311424068559</v>
+        <v>-0.08546167371797304</v>
       </c>
       <c r="ADD3">
-        <v>-0.1124738127521893</v>
+        <v>-0.08275303156826408</v>
       </c>
       <c r="ADE3">
-        <v>-0.1107108334425315</v>
+        <v>-0.07975640507523708</v>
       </c>
       <c r="ADF3">
-        <v>-0.1097361270120247</v>
+        <v>-0.07879593944626608</v>
       </c>
       <c r="ADG3">
-        <v>-0.1032806012767649</v>
+        <v>-0.07141810343405876</v>
       </c>
       <c r="ADH3">
-        <v>-0.1062601963697714</v>
+        <v>-0.07107190855951291</v>
       </c>
       <c r="ADI3">
-        <v>-0.1137941653017542</v>
+        <v>-0.08783033068017695</v>
       </c>
       <c r="ADJ3">
-        <v>-0.1134336536784419</v>
+        <v>-0.0854627590792665</v>
       </c>
       <c r="ADK3">
-        <v>-0.1124761006223742</v>
+        <v>-0.08275355673685426</v>
       </c>
       <c r="ADL3">
-        <v>-0.1107170086395855</v>
+        <v>-0.07975166617988846</v>
       </c>
       <c r="ADM3">
-        <v>-0.1097361270120302</v>
+        <v>-0.07879593944626823</v>
       </c>
       <c r="ADN3">
-        <v>-0.1062612463701766</v>
+        <v>-0.07099711416107057</v>
       </c>
       <c r="ADO3">
-        <v>-0.106269058459933</v>
+        <v>-0.07109351411340011</v>
       </c>
       <c r="ADP3">
-        <v>-0.1139162432284247</v>
+        <v>-0.08828590869483692</v>
       </c>
       <c r="ADQ3">
-        <v>-0.113435896054556</v>
+        <v>-0.08546372822443861</v>
       </c>
       <c r="ADR3">
-        <v>-0.1124798905788194</v>
+        <v>-0.08275442670076683</v>
       </c>
       <c r="ADS3">
-        <v>-0.1107232935294037</v>
+        <v>-0.07974684311860664</v>
       </c>
       <c r="ADT3">
-        <v>-0.1097361270120314</v>
+        <v>-0.07879593944627195</v>
       </c>
       <c r="ADU3">
-        <v>-0.1062621620708527</v>
+        <v>-0.07093188601830128</v>
       </c>
       <c r="ADV3">
-        <v>-0.1062832390187434</v>
+        <v>-0.071128086825516</v>
       </c>
       <c r="ADW3">
-        <v>-0.1139118708069155</v>
+        <v>-0.08829412825926528</v>
       </c>
       <c r="ADX3">
-        <v>-0.1139944227450465</v>
+        <v>-0.08856257254483388</v>
       </c>
       <c r="ADY3">
-        <v>-0.1134383723879627</v>
+        <v>-0.08546479848427653</v>
       </c>
       <c r="ADZ3">
-        <v>-0.1125061968837701</v>
+        <v>-0.082760465146378</v>
       </c>
       <c r="AEA3">
-        <v>-0.1107262986141546</v>
+        <v>-0.07974453700364795</v>
       </c>
       <c r="AEB3">
-        <v>-0.1097361270120308</v>
+        <v>-0.07879593944627428</v>
       </c>
       <c r="AEC3">
-        <v>-0.1062629193978861</v>
+        <v>-0.07087793911362646</v>
       </c>
       <c r="AED3">
-        <v>-0.1062953548458283</v>
+        <v>-0.07115762649079377</v>
       </c>
       <c r="AEE3">
-        <v>-0.1139074868787175</v>
+        <v>-0.08830236948002482</v>
       </c>
       <c r="AEF3">
-        <v>-0.1140813250874006</v>
+        <v>-0.08886999814276687</v>
       </c>
       <c r="AEG3">
-        <v>-0.1139944227450465</v>
+        <v>-0.08856257254483388</v>
       </c>
       <c r="AEH3">
-        <v>-0.1134399689629796</v>
+        <v>-0.08546548851624487</v>
       </c>
       <c r="AEI3">
-        <v>-0.1125643051681802</v>
+        <v>-0.08277380338755339</v>
       </c>
       <c r="AEJ3">
-        <v>-0.1107310785776508</v>
+        <v>-0.07974086884536333</v>
       </c>
       <c r="AEK3">
-        <v>-0.1097361270120289</v>
+        <v>-0.07879593944627752</v>
       </c>
       <c r="AEL3">
-        <v>-0.1062635083327313</v>
+        <v>-0.07083598721660139</v>
       </c>
       <c r="AEM3">
-        <v>-0.1063022118993024</v>
+        <v>-0.07117434505533077</v>
       </c>
       <c r="AEN3">
-        <v>-0.1139030944218453</v>
+        <v>-0.08831062675900224</v>
       </c>
       <c r="AEO3">
-        <v>-0.1141541909759062</v>
+        <v>-0.08912778007723339</v>
       </c>
       <c r="AEP3">
-        <v>-0.1140813250874006</v>
+        <v>-0.08886999814276687</v>
       </c>
       <c r="AEQ3">
-        <v>-0.1134424211954046</v>
+        <v>-0.08546654835863182</v>
       </c>
       <c r="AER3">
-        <v>-0.1107355659151439</v>
+        <v>-0.07973742525614069</v>
       </c>
       <c r="AES3">
-        <v>-0.1097361270120294</v>
+        <v>-0.07879593944627911</v>
       </c>
       <c r="AET3">
-        <v>-0.1062641073164194</v>
+        <v>-0.07079331939421239</v>
       </c>
       <c r="AEU3">
-        <v>-0.1138987285354999</v>
+        <v>-0.08831883411385491</v>
       </c>
       <c r="AEV3">
-        <v>-0.1142325211905012</v>
+        <v>-0.08940490535697643</v>
       </c>
       <c r="AEW3">
-        <v>-0.1141541909759062</v>
+        <v>-0.08912778007723339</v>
       </c>
       <c r="AEX3">
-        <v>-0.1134625915317497</v>
+        <v>-0.08547526584979798</v>
       </c>
       <c r="AEY3">
-        <v>-0.1107419775967795</v>
+        <v>-0.07973250493421433</v>
       </c>
       <c r="AEZ3">
-        <v>-0.1097361270120294</v>
+        <v>-0.07879593944627911</v>
       </c>
       <c r="AFA3">
-        <v>-0.1062646271281715</v>
+        <v>-0.07075629119077739</v>
       </c>
       <c r="AFB3">
-        <v>-0.1138943460369281</v>
+        <v>-0.08832707272301624</v>
       </c>
       <c r="AFC3">
-        <v>-0.1142968340264774</v>
+        <v>-0.08963244760845733</v>
       </c>
       <c r="AFD3">
-        <v>-0.1142325211905012</v>
+        <v>-0.08940490535697643</v>
       </c>
       <c r="AFE3">
-        <v>-0.1135321090517371</v>
+        <v>-0.08550531052963742</v>
       </c>
       <c r="AFF3">
-        <v>-0.110809658865308</v>
+        <v>-0.07968056719871945</v>
       </c>
       <c r="AFG3">
-        <v>-0.1062650004651307</v>
+        <v>-0.07072969690194651</v>
       </c>
       <c r="AFH3">
-        <v>-0.1138899664967935</v>
+        <v>-0.08833530579593109</v>
       </c>
       <c r="AFI3">
-        <v>-0.1143658818935337</v>
+        <v>-0.089876751889295</v>
       </c>
       <c r="AFJ3">
-        <v>-0.1142968340264774</v>
+        <v>-0.08963244760845732</v>
       </c>
       <c r="AFK3">
-        <v>-0.1108367304926588</v>
+        <v>-0.07965979321104091</v>
       </c>
       <c r="AFL3">
-        <v>-0.1062654339102689</v>
+        <v>-0.07069882081180141</v>
       </c>
       <c r="AFM3">
-        <v>-0.1138855841716611</v>
+        <v>-0.08834354412965673</v>
       </c>
       <c r="AFN3">
-        <v>-0.1145198023439476</v>
+        <v>-0.09042054842385205</v>
       </c>
       <c r="AFO3">
-        <v>-0.114365881893534</v>
+        <v>-0.08987675188928852</v>
       </c>
       <c r="AFP3">
-        <v>-0.1143658818935337</v>
+        <v>-0.089876751889295</v>
       </c>
       <c r="AFQ3">
-        <v>-0.1108504775978492</v>
+        <v>-0.07964924417249473</v>
       </c>
       <c r="AFR3">
-        <v>-0.1062660869016934</v>
+        <v>-0.07065230542055051</v>
       </c>
       <c r="AFS3">
-        <v>-0.1138834450128717</v>
+        <v>-0.08834756554380344</v>
       </c>
       <c r="AFT3">
-        <v>-0.1145423223270157</v>
+        <v>-0.09050012029862693</v>
       </c>
       <c r="AFU3">
-        <v>-0.1143658818935398</v>
+        <v>-0.089876751889282</v>
       </c>
       <c r="AFV3">
-        <v>-0.114365881893534</v>
+        <v>-0.08987675188928852</v>
       </c>
       <c r="AFW3">
-        <v>-0.110853519582395</v>
+        <v>-0.0796469098705634</v>
       </c>
       <c r="AFX3">
-        <v>-0.1062671537592542</v>
+        <v>-0.07057630827563979</v>
       </c>
       <c r="AFY3">
-        <v>-0.1138353658758666</v>
+        <v>-0.08843795131931693</v>
       </c>
       <c r="AFZ3">
-        <v>-0.1146057675332203</v>
+        <v>-0.09072430986606501</v>
       </c>
       <c r="AGA3">
-        <v>-0.114365881893548</v>
+        <v>-0.08987675188928096</v>
       </c>
       <c r="AGB3">
-        <v>-0.1143658818935398</v>
+        <v>-0.089876751889282</v>
       </c>
       <c r="AGC3">
-        <v>-0.110855915298572</v>
+        <v>-0.07964507149230786</v>
       </c>
       <c r="AGD3">
-        <v>-0.1062670468626863</v>
+        <v>-0.06995962522527067</v>
       </c>
       <c r="AGE3">
-        <v>-0.1062902345433515</v>
+        <v>-0.0705945250103177</v>
       </c>
       <c r="AGF3">
-        <v>-0.1138040996524953</v>
+        <v>-0.08849673150218304</v>
       </c>
       <c r="AGG3">
-        <v>-0.1146802706331949</v>
+        <v>-0.09098759790892907</v>
       </c>
       <c r="AGH3">
-        <v>-0.1143658818935527</v>
+        <v>-0.08987675188927928</v>
       </c>
       <c r="AGI3">
-        <v>-0.114365881893548</v>
+        <v>-0.08987675188928096</v>
       </c>
       <c r="AGJ3">
-        <v>-0.1108584821556854</v>
+        <v>-0.07964310178938107</v>
       </c>
       <c r="AGK3">
-        <v>-0.1137767533805271</v>
+        <v>-0.08854814327268032</v>
       </c>
       <c r="AGL3">
-        <v>-0.1146899354929313</v>
+        <v>-0.09102175468564123</v>
       </c>
       <c r="AGM3">
-        <v>-0.1143658818935548</v>
+        <v>-0.08987675188927781</v>
       </c>
       <c r="AGN3">
-        <v>-0.1143658818935527</v>
+        <v>-0.08987675188927928</v>
       </c>
       <c r="AGO3">
-        <v>-0.1108605358319408</v>
+        <v>-0.07964152588240345</v>
       </c>
       <c r="AGP3">
-        <v>-0.1137480681134897</v>
+        <v>-0.08860207345153998</v>
       </c>
       <c r="AGQ3">
-        <v>-0.1146918687545694</v>
+        <v>-0.09105717673559324</v>
       </c>
       <c r="AGR3">
-        <v>-0.1147126626293654</v>
+        <v>-0.09103846728914139</v>
       </c>
       <c r="AGS3">
-        <v>-0.1143658818935613</v>
+        <v>-0.08987675188927774</v>
       </c>
       <c r="AGT3">
-        <v>-0.1143658818935548</v>
+        <v>-0.08987675188927778</v>
       </c>
       <c r="AGU3">
-        <v>-0.1108625298699501</v>
+        <v>-0.07963999574072639</v>
       </c>
       <c r="AGV3">
-        <v>-0.1136990865346899</v>
+        <v>-0.08869416453220788</v>
       </c>
       <c r="AGW3">
-        <v>-0.1146936576539588</v>
+        <v>-0.09108995428447748</v>
       </c>
       <c r="AGX3">
-        <v>-0.1147658511068878</v>
+        <v>-0.09107757984652461</v>
       </c>
       <c r="AGY3">
-        <v>-0.1143658818935613</v>
+        <v>-0.08987675188927774</v>
       </c>
       <c r="AGZ3">
-        <v>-0.1143658818935613</v>
+        <v>-0.08987675188927773</v>
       </c>
       <c r="AHA3">
-        <v>-0.1108645188528441</v>
+        <v>-0.07963846947946686</v>
       </c>
       <c r="AHB3">
-        <v>-0.1136870720325552</v>
+        <v>-0.08871675368052026</v>
       </c>
       <c r="AHC3">
-        <v>-0.1146963778336967</v>
+        <v>-0.09113979648925519</v>
       </c>
       <c r="AHD3">
-        <v>-0.1148920348891886</v>
+        <v>-0.09117036969272285</v>
       </c>
       <c r="AHE3">
-        <v>-0.1108664845670366</v>
+        <v>-0.0796369610749294</v>
       </c>
       <c r="AHF3">
-        <v>-0.1136987062234365</v>
+        <v>-0.08875310511863349</v>
       </c>
       <c r="AHG3">
-        <v>-0.1136126050063014</v>
+        <v>-0.08868750739447226</v>
       </c>
       <c r="AHH3">
-        <v>-0.1146998153994891</v>
+        <v>-0.09120278525089477</v>
       </c>
       <c r="AHI3">
-        <v>-0.110901636040876</v>
+        <v>-0.07960998756487482</v>
       </c>
       <c r="AHJ3">
-        <v>-0.1137178087667682</v>
+        <v>-0.08881279264970846</v>
       </c>
       <c r="AHK3">
-        <v>-0.1135494453061373</v>
+        <v>-0.08866270220926871</v>
       </c>
       <c r="AHL3">
-        <v>-0.1147131978010443</v>
+        <v>-0.0914480188667125</v>
       </c>
       <c r="AHM3">
-        <v>-0.1109774156879408</v>
+        <v>-0.07944523666266483</v>
       </c>
       <c r="AHN3">
-        <v>-0.1109518381754326</v>
+        <v>-0.07963110411478008</v>
       </c>
       <c r="AHO3">
-        <v>-0.113721585781739</v>
+        <v>-0.08882459439794262</v>
       </c>
       <c r="AHP3">
-        <v>-0.1134432834202437</v>
+        <v>-0.08862100895909085</v>
       </c>
       <c r="AHQ3">
-        <v>-0.1147375079122337</v>
+        <v>-0.09189358158649093</v>
       </c>
       <c r="AHR3">
-        <v>-0.1110277435802043</v>
+        <v>-0.07933582318272699</v>
       </c>
       <c r="AHS3">
-        <v>-0.1137247772839505</v>
+        <v>-0.08883456667597231</v>
       </c>
       <c r="AHT3">
-        <v>-0.1137274667564454</v>
+        <v>-0.08884297032055957</v>
       </c>
       <c r="AHU3">
-        <v>-0.1137309653174385</v>
+        <v>-0.08885390211433655</v>
       </c>
       <c r="AHV3">
-        <v>-0.113737297184459</v>
+        <v>-0.08887368711220801</v>
       </c>
       <c r="AHW3">
-        <v>-0.11374827555843</v>
+        <v>-0.08890799122494245</v>
       </c>
       <c r="AHX3">
-        <v>-0.113838202398219</v>
+        <v>-0.08918900040955562</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -5829,2722 +5829,2722 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.07389476076042259</v>
+        <v>-0.07837925135774969</v>
       </c>
       <c r="D3">
-        <v>-0.07372340523960064</v>
+        <v>-0.07824841720318731</v>
       </c>
       <c r="E3">
-        <v>-0.07370543947482767</v>
+        <v>-0.07823469983275989</v>
       </c>
       <c r="F3">
-        <v>-0.07368860811056326</v>
+        <v>-0.07822184859769163</v>
       </c>
       <c r="G3">
-        <v>-0.07367393336968786</v>
+        <v>-0.07821064399803875</v>
       </c>
       <c r="H3">
-        <v>-0.07365081449769006</v>
+        <v>-0.07819299203671366</v>
       </c>
       <c r="I3">
-        <v>-0.07207539540065469</v>
+        <v>-0.07699006195004714</v>
       </c>
       <c r="J3">
-        <v>-0.07200478268177446</v>
+        <v>-0.07693614246900271</v>
       </c>
       <c r="K3">
-        <v>-0.07194600698157262</v>
+        <v>-0.07689126151967361</v>
       </c>
       <c r="L3">
-        <v>-0.07189442406457072</v>
+        <v>-0.07685187284571214</v>
       </c>
       <c r="M3">
-        <v>-0.07185593190235597</v>
+        <v>-0.07682248019311091</v>
       </c>
       <c r="N3">
-        <v>-0.07181979602461414</v>
+        <v>-0.07679488674837298</v>
       </c>
       <c r="O3">
-        <v>-0.07179757517808405</v>
+        <v>-0.07677791882993522</v>
       </c>
       <c r="P3">
-        <v>-0.07174225330454748</v>
+        <v>-0.07673567476334198</v>
       </c>
       <c r="Q3">
-        <v>-0.07129399872161109</v>
+        <v>-0.07639338080496461</v>
       </c>
       <c r="R3">
-        <v>-0.07129399872161069</v>
+        <v>-0.07639338080496189</v>
       </c>
       <c r="S3">
-        <v>-0.07075017172669568</v>
+        <v>-0.07597809565633074</v>
       </c>
       <c r="T3">
-        <v>-0.07129399872161081</v>
+        <v>-0.07639338080496065</v>
       </c>
       <c r="U3">
-        <v>-0.07071274336698821</v>
+        <v>-0.07594951363348651</v>
       </c>
       <c r="V3">
-        <v>-0.07129399872161102</v>
+        <v>-0.07639338080495955</v>
       </c>
       <c r="W3">
-        <v>-0.07067071419170999</v>
+        <v>-0.07591741814957995</v>
       </c>
       <c r="X3">
-        <v>-0.07129399872161099</v>
+        <v>-0.07639338080495871</v>
       </c>
       <c r="Y3">
-        <v>-0.07060227880373668</v>
+        <v>-0.07586515747222063</v>
       </c>
       <c r="Z3">
-        <v>-0.07129399872161098</v>
+        <v>-0.07639338080495855</v>
       </c>
       <c r="AA3">
-        <v>-0.07047776750431888</v>
+        <v>-0.07577007395606165</v>
       </c>
       <c r="AB3">
-        <v>-0.07129399872161113</v>
+        <v>-0.076393380804959</v>
       </c>
       <c r="AC3">
-        <v>-0.07013014198066103</v>
+        <v>-0.07549295317962089</v>
       </c>
       <c r="AD3">
-        <v>-0.06906246422658784</v>
+        <v>-0.07462760253092848</v>
       </c>
       <c r="AE3">
-        <v>-0.07129399872161139</v>
+        <v>-0.07639338080495961</v>
       </c>
       <c r="AF3">
-        <v>-0.07003023180497289</v>
+        <v>-0.07541246148955884</v>
       </c>
       <c r="AG3">
-        <v>-0.07013418950022769</v>
+        <v>-0.07549700163421393</v>
       </c>
       <c r="AH3">
-        <v>-0.06868536289473634</v>
+        <v>-0.07432318454370729</v>
       </c>
       <c r="AI3">
-        <v>-0.07129399872161198</v>
+        <v>-0.07639338080496222</v>
       </c>
       <c r="AJ3">
-        <v>-0.06980142922821941</v>
+        <v>-0.07522812616366156</v>
       </c>
       <c r="AK3">
-        <v>-0.07013432657062681</v>
+        <v>-0.07549713873627935</v>
       </c>
       <c r="AL3">
-        <v>-0.06885004063966398</v>
+        <v>-0.07454588556873223</v>
       </c>
       <c r="AM3">
-        <v>-0.06735785100913746</v>
+        <v>-0.07314994275047687</v>
       </c>
       <c r="AN3">
-        <v>-0.07129399872161206</v>
+        <v>-0.07639338080496476</v>
       </c>
       <c r="AO3">
-        <v>-0.07013452365315977</v>
+        <v>-0.07549733586434508</v>
       </c>
       <c r="AP3">
-        <v>-0.06885344880149183</v>
+        <v>-0.07455833013940451</v>
       </c>
       <c r="AQ3">
-        <v>-0.06888659806076769</v>
+        <v>-0.07455994459682361</v>
       </c>
       <c r="AR3">
-        <v>-0.06643582129903165</v>
+        <v>-0.07233503878874759</v>
       </c>
       <c r="AS3">
-        <v>-0.06735785100919602</v>
+        <v>-0.07314994275048317</v>
       </c>
       <c r="AT3">
-        <v>-0.07129399872161207</v>
+        <v>-0.07639338080496563</v>
       </c>
       <c r="AU3">
-        <v>-0.07013477639821743</v>
+        <v>-0.07549758866779485</v>
       </c>
       <c r="AV3">
-        <v>-0.06885498496375513</v>
+        <v>-0.07456393930292518</v>
       </c>
       <c r="AW3">
-        <v>-0.06897456463803739</v>
+        <v>-0.07459377365061087</v>
       </c>
       <c r="AX3">
-        <v>-0.06573863439297634</v>
+        <v>-0.07171884166432244</v>
       </c>
       <c r="AY3">
-        <v>-0.06735785100922176</v>
+        <v>-0.07314994275049339</v>
       </c>
       <c r="AZ3">
-        <v>-0.07129399872161182</v>
+        <v>-0.0763933808049662</v>
       </c>
       <c r="BA3">
-        <v>-0.07013539194701861</v>
+        <v>-0.07549820435880637</v>
       </c>
       <c r="BB3">
-        <v>-0.06885661296808299</v>
+        <v>-0.07456988383117316</v>
       </c>
       <c r="BC3">
-        <v>-0.06563808220379976</v>
+        <v>-0.07162996937329398</v>
       </c>
       <c r="BD3">
-        <v>-0.0657386343929451</v>
+        <v>-0.07171884166430846</v>
       </c>
       <c r="BE3">
-        <v>-0.06735785100924545</v>
+        <v>-0.07314994275050565</v>
       </c>
       <c r="BF3">
-        <v>-0.07129399872161103</v>
+        <v>-0.07639338080496751</v>
       </c>
       <c r="BG3">
-        <v>-0.07013591897001815</v>
+        <v>-0.07549873150356459</v>
       </c>
       <c r="BH3">
-        <v>-0.06885816353067174</v>
+        <v>-0.07457554559795353</v>
       </c>
       <c r="BI3">
-        <v>-0.06518250666554558</v>
+        <v>-0.07122730953925709</v>
       </c>
       <c r="BJ3">
-        <v>-0.06573863439294354</v>
+        <v>-0.07171884166430861</v>
       </c>
       <c r="BK3">
-        <v>-0.06735785100925605</v>
+        <v>-0.07314994275051999</v>
       </c>
       <c r="BL3">
-        <v>-0.07129399872160981</v>
+        <v>-0.0763933808049687</v>
       </c>
       <c r="BM3">
-        <v>-0.07013844534007253</v>
+        <v>-0.07550125845729154</v>
       </c>
       <c r="BN3">
-        <v>-0.06885909216482498</v>
+        <v>-0.07457893644326366</v>
       </c>
       <c r="BO3">
-        <v>-0.06508573282292879</v>
+        <v>-0.07113715671262383</v>
       </c>
       <c r="BP3">
-        <v>-0.0651277072060551</v>
+        <v>-0.07124827836832918</v>
       </c>
       <c r="BQ3">
-        <v>-0.06573863439294293</v>
+        <v>-0.07171884166430932</v>
       </c>
       <c r="BR3">
-        <v>-0.06735785100927039</v>
+        <v>-0.07314994275052718</v>
       </c>
       <c r="BS3">
-        <v>-0.07129399872160766</v>
+        <v>-0.07639338080496999</v>
       </c>
       <c r="BT3">
-        <v>-0.0701473753348658</v>
+        <v>-0.07551019051523031</v>
       </c>
       <c r="BU3">
-        <v>-0.0688609140780049</v>
+        <v>-0.07458558904807597</v>
       </c>
       <c r="BV3">
-        <v>-0.06394186305152148</v>
+        <v>-0.07007153767938182</v>
       </c>
       <c r="BW3">
-        <v>-0.06505405824325904</v>
+        <v>-0.07117381231848982</v>
       </c>
       <c r="BX3">
-        <v>-0.06517456947073634</v>
+        <v>-0.07133299586877773</v>
       </c>
       <c r="BY3">
-        <v>-0.06573863439294088</v>
+        <v>-0.07171884166431307</v>
       </c>
       <c r="BZ3">
-        <v>-0.06735785100929169</v>
+        <v>-0.07314994275053686</v>
       </c>
       <c r="CA3">
-        <v>-0.07129399872159815</v>
+        <v>-0.07639338080497518</v>
       </c>
       <c r="CB3">
-        <v>-0.06887014762721379</v>
+        <v>-0.07461930501506203</v>
       </c>
       <c r="CC3">
-        <v>-0.06354291294763052</v>
+        <v>-0.06969987498422608</v>
       </c>
       <c r="CD3">
-        <v>-0.06573863439293873</v>
+        <v>-0.07171884166431132</v>
       </c>
       <c r="CE3">
-        <v>-0.06735785100934978</v>
+        <v>-0.07314994275056565</v>
       </c>
       <c r="CF3">
-        <v>-0.07129399872158579</v>
+        <v>-0.07639338080498173</v>
       </c>
       <c r="CG3">
-        <v>-0.06890494204975944</v>
+        <v>-0.07474635895838136</v>
       </c>
       <c r="CH3">
-        <v>-0.06345583338898007</v>
+        <v>-0.06961875120304357</v>
       </c>
       <c r="CI3">
-        <v>-0.06573863439294089</v>
+        <v>-0.07171884166431029</v>
       </c>
       <c r="CJ3">
-        <v>-0.06735785100945908</v>
+        <v>-0.07314994275061895</v>
       </c>
       <c r="CK3">
-        <v>-0.07129399872157874</v>
+        <v>-0.07639338080498573</v>
       </c>
       <c r="CL3">
-        <v>-0.06327923263653706</v>
+        <v>-0.06945422867638479</v>
       </c>
       <c r="CM3">
-        <v>-0.06573863439294089</v>
+        <v>-0.07171884166431029</v>
       </c>
       <c r="CN3">
-        <v>-0.06735785100948252</v>
+        <v>-0.07314994275063488</v>
       </c>
       <c r="CO3">
-        <v>-0.07129399872157635</v>
+        <v>-0.07639338080498763</v>
       </c>
       <c r="CP3">
-        <v>-0.06311266887729595</v>
+        <v>-0.06929905628686868</v>
       </c>
       <c r="CQ3">
-        <v>-0.06735785100948058</v>
+        <v>-0.07314994275063549</v>
       </c>
       <c r="CR3">
-        <v>-0.07129399872157582</v>
+        <v>-0.07639338080498766</v>
       </c>
       <c r="CS3">
-        <v>-0.06301584640239684</v>
+        <v>-0.06920885536676008</v>
       </c>
       <c r="CT3">
-        <v>-0.0673578510094775</v>
+        <v>-0.0731499427506343</v>
       </c>
       <c r="CU3">
-        <v>-0.0712939987215757</v>
+        <v>-0.07639338080498785</v>
       </c>
       <c r="CV3">
-        <v>-0.06295189860434293</v>
+        <v>-0.06914928079841196</v>
       </c>
       <c r="CW3">
-        <v>-0.06735785100948395</v>
+        <v>-0.07314994275063651</v>
       </c>
       <c r="CX3">
-        <v>-0.07129399872157582</v>
+        <v>-0.07639338080498817</v>
       </c>
       <c r="CY3">
-        <v>-0.0628635995851916</v>
+        <v>-0.0690670202344454</v>
       </c>
       <c r="CZ3">
-        <v>-0.06735785101002652</v>
+        <v>-0.07314994275104843</v>
       </c>
       <c r="DA3">
-        <v>-0.07129399872157582</v>
+        <v>-0.07639338080498817</v>
       </c>
       <c r="DB3">
-        <v>-0.06287641873746179</v>
+        <v>-0.06908487090211386</v>
       </c>
       <c r="DC3">
-        <v>-0.06279120461877945</v>
+        <v>-0.06899244727468042</v>
       </c>
       <c r="DD3">
-        <v>-0.06735785101005014</v>
+        <v>-0.07314994275106634</v>
       </c>
       <c r="DE3">
-        <v>-0.06289192815396404</v>
+        <v>-0.06910646776787194</v>
       </c>
       <c r="DF3">
-        <v>-0.06275015181758256</v>
+        <v>-0.06895015942112441</v>
       </c>
       <c r="DG3">
-        <v>-0.0673578510101067</v>
+        <v>-0.07314994275110641</v>
       </c>
       <c r="DH3">
-        <v>-0.06290990468831693</v>
+        <v>-0.06913150010335212</v>
       </c>
       <c r="DI3">
-        <v>-0.06112958660714583</v>
+        <v>-0.06728084956105333</v>
       </c>
       <c r="DJ3">
-        <v>-0.06735785101160147</v>
+        <v>-0.07314994275224107</v>
       </c>
       <c r="DK3">
-        <v>-0.06293731360034245</v>
+        <v>-0.06916966704637734</v>
       </c>
       <c r="DL3">
-        <v>-0.06096716262379215</v>
+        <v>-0.06711354105137506</v>
       </c>
       <c r="DM3">
-        <v>-0.06735785101293151</v>
+        <v>-0.0731499427532501</v>
       </c>
       <c r="DN3">
-        <v>-0.06297255152216838</v>
+        <v>-0.06921873592273947</v>
       </c>
       <c r="DO3">
-        <v>-0.06103261162003996</v>
+        <v>-0.06715825307045066</v>
       </c>
       <c r="DP3">
-        <v>-0.06104283911357485</v>
+        <v>-0.06723890368142124</v>
       </c>
       <c r="DQ3">
-        <v>-0.06735785101305712</v>
+        <v>-0.0731499427533404</v>
       </c>
       <c r="DR3">
-        <v>-0.06299784901901698</v>
+        <v>-0.06925396275676843</v>
       </c>
       <c r="DS3">
-        <v>-0.06103261162004066</v>
+        <v>-0.06715825307045167</v>
       </c>
       <c r="DT3">
-        <v>-0.06106447841585751</v>
+        <v>-0.06718002311817722</v>
       </c>
       <c r="DU3">
-        <v>-0.06117935724609731</v>
+        <v>-0.06746505619398938</v>
       </c>
       <c r="DV3">
-        <v>-0.06735785101315538</v>
+        <v>-0.073149942753405</v>
       </c>
       <c r="DW3">
-        <v>-0.06303359424710964</v>
+        <v>-0.06930373811277801</v>
       </c>
       <c r="DX3">
-        <v>-0.06103261162004134</v>
+        <v>-0.06715825307045263</v>
       </c>
       <c r="DY3">
-        <v>-0.06121417860380719</v>
+        <v>-0.06728229182258862</v>
       </c>
       <c r="DZ3">
-        <v>-0.06124076845413077</v>
+        <v>-0.06756678932604777</v>
       </c>
       <c r="EA3">
-        <v>-0.06735785101323956</v>
+        <v>-0.07314994275346702</v>
       </c>
       <c r="EB3">
-        <v>-0.06307226808251366</v>
+        <v>-0.06935759160096017</v>
       </c>
       <c r="EC3">
-        <v>-0.06103261162004119</v>
+        <v>-0.06715825307045289</v>
       </c>
       <c r="ED3">
-        <v>-0.06115198895122473</v>
+        <v>-0.06725000490485626</v>
       </c>
       <c r="EE3">
-        <v>-0.06160940407061749</v>
+        <v>-0.06749974096192367</v>
       </c>
       <c r="EF3">
-        <v>-0.06125904225942567</v>
+        <v>-0.06759706161472942</v>
       </c>
       <c r="EG3">
-        <v>-0.06735785101349298</v>
+        <v>-0.07314994275365301</v>
       </c>
       <c r="EH3">
-        <v>-0.06310874068705997</v>
+        <v>-0.06940837989983281</v>
       </c>
       <c r="EI3">
-        <v>-0.06103261162004107</v>
+        <v>-0.06715825307045359</v>
       </c>
       <c r="EJ3">
-        <v>-0.06114663316617588</v>
+        <v>-0.06724722432856269</v>
       </c>
       <c r="EK3">
-        <v>-0.06190343551862033</v>
+        <v>-0.06766151299970211</v>
       </c>
       <c r="EL3">
-        <v>-0.06127967102793586</v>
+        <v>-0.067631235180118</v>
       </c>
       <c r="EM3">
-        <v>-0.06735785101368093</v>
+        <v>-0.07314994275378928</v>
       </c>
       <c r="EN3">
-        <v>-0.06316870760721752</v>
+        <v>-0.06949188423286479</v>
       </c>
       <c r="EO3">
-        <v>-0.06103261162004015</v>
+        <v>-0.06715825307045394</v>
       </c>
       <c r="EP3">
-        <v>-0.06114137811740254</v>
+        <v>-0.06724449604859191</v>
       </c>
       <c r="EQ3">
-        <v>-0.06210034334449402</v>
+        <v>-0.06776984841275231</v>
       </c>
       <c r="ER3">
-        <v>-0.06129907322541175</v>
+        <v>-0.06766337686638299</v>
       </c>
       <c r="ES3">
-        <v>-0.06735785101371161</v>
+        <v>-0.07314994275381258</v>
       </c>
       <c r="ET3">
-        <v>-0.06345383956286407</v>
+        <v>-0.0698889336050014</v>
       </c>
       <c r="EU3">
-        <v>-0.06103261162003944</v>
+        <v>-0.06715825307045389</v>
       </c>
       <c r="EV3">
-        <v>-0.06113713488360147</v>
+        <v>-0.06724229307344248</v>
       </c>
       <c r="EW3">
-        <v>-0.06227568009595016</v>
+        <v>-0.06781274052429591</v>
       </c>
       <c r="EX3">
-        <v>-0.06213784216234119</v>
+        <v>-0.06788974889235148</v>
       </c>
       <c r="EY3">
-        <v>-0.06132171337716145</v>
+        <v>-0.06770088261648957</v>
       </c>
       <c r="EZ3">
-        <v>-0.06735785101371598</v>
+        <v>-0.07314994275382257</v>
       </c>
       <c r="FA3">
-        <v>-0.06351595458956273</v>
+        <v>-0.06997542973148901</v>
       </c>
       <c r="FB3">
-        <v>-0.06103261162003901</v>
+        <v>-0.0671582530704542</v>
       </c>
       <c r="FC3">
-        <v>-0.06113076611925846</v>
+        <v>-0.06723898657500502</v>
       </c>
       <c r="FD3">
-        <v>-0.06274069043541158</v>
+        <v>-0.06792649336383288</v>
       </c>
       <c r="FE3">
-        <v>-0.06214012460361183</v>
+        <v>-0.06789704702266093</v>
       </c>
       <c r="FF3">
-        <v>-0.06132822826098978</v>
+        <v>-0.06771167520807536</v>
       </c>
       <c r="FG3">
-        <v>-0.06735785101371856</v>
+        <v>-0.07314994275381996</v>
       </c>
       <c r="FH3">
-        <v>-0.06356294535380821</v>
+        <v>-0.07035205464923629</v>
       </c>
       <c r="FI3">
-        <v>-0.06373462259844311</v>
+        <v>-0.07017251044344577</v>
       </c>
       <c r="FJ3">
-        <v>-0.0610326116200381</v>
+        <v>-0.06715825307045396</v>
       </c>
       <c r="FK3">
-        <v>-0.06112308785020473</v>
+        <v>-0.067235000209296</v>
       </c>
       <c r="FL3">
-        <v>-0.06290221626343991</v>
+        <v>-0.06796600607988747</v>
       </c>
       <c r="FM3">
-        <v>-0.06214220973683054</v>
+        <v>-0.06790371427296339</v>
       </c>
       <c r="FN3">
-        <v>-0.0613652428854503</v>
+        <v>-0.06777299394879918</v>
       </c>
       <c r="FO3">
-        <v>-0.06735785101371855</v>
+        <v>-0.07314994275381996</v>
       </c>
       <c r="FP3">
-        <v>-0.0635718228167301</v>
+        <v>-0.07042321273034131</v>
       </c>
       <c r="FQ3">
-        <v>-0.06402493105296572</v>
+        <v>-0.07043415882562765</v>
       </c>
       <c r="FR3">
-        <v>-0.06103261162003655</v>
+        <v>-0.06715825307045384</v>
       </c>
       <c r="FS3">
-        <v>-0.06111728706838079</v>
+        <v>-0.06723198858365421</v>
       </c>
       <c r="FT3">
-        <v>-0.06290221626309718</v>
+        <v>-0.0679660060795407</v>
       </c>
       <c r="FU3">
-        <v>-0.06317106949358819</v>
+        <v>-0.06803159573160167</v>
       </c>
       <c r="FV3">
-        <v>-0.06214307593043113</v>
+        <v>-0.06790648394639995</v>
       </c>
       <c r="FW3">
-        <v>-0.06138615086529393</v>
+        <v>-0.06780763037175806</v>
       </c>
       <c r="FX3">
-        <v>-0.0635901389253765</v>
+        <v>-0.07057003349046803</v>
       </c>
       <c r="FY3">
-        <v>-0.06405259688870932</v>
+        <v>-0.0704640816696649</v>
       </c>
       <c r="FZ3">
-        <v>-0.06408090094323989</v>
+        <v>-0.07047119772666756</v>
       </c>
       <c r="GA3">
-        <v>-0.0610326116200347</v>
+        <v>-0.06715825307045338</v>
       </c>
       <c r="GB3">
-        <v>-0.06111057454465681</v>
+        <v>-0.06722850359887876</v>
       </c>
       <c r="GC3">
-        <v>-0.06290221626306054</v>
+        <v>-0.06796600607948865</v>
       </c>
       <c r="GD3">
-        <v>-0.0632001078738811</v>
+        <v>-0.06803867959445878</v>
       </c>
       <c r="GE3">
-        <v>-0.06214494300175644</v>
+        <v>-0.0679124539569517</v>
       </c>
       <c r="GF3">
-        <v>-0.06140167232026189</v>
+        <v>-0.06783334344999224</v>
       </c>
       <c r="GG3">
-        <v>-0.06416146973726661</v>
+        <v>-0.07058183651117377</v>
       </c>
       <c r="GH3">
-        <v>-0.0643125638853293</v>
+        <v>-0.0706245006963421</v>
       </c>
       <c r="GI3">
-        <v>-0.06103261162003336</v>
+        <v>-0.06715825307045246</v>
       </c>
       <c r="GJ3">
-        <v>-0.06110426303106267</v>
+        <v>-0.06722522680446373</v>
       </c>
       <c r="GK3">
-        <v>-0.06290221626306083</v>
+        <v>-0.06796600607948894</v>
       </c>
       <c r="GL3">
-        <v>-0.06290221626304579</v>
+        <v>-0.06796600607946389</v>
       </c>
       <c r="GM3">
-        <v>-0.06322819634509655</v>
+        <v>-0.06804553166113296</v>
       </c>
       <c r="GN3">
-        <v>-0.06214969841761907</v>
+        <v>-0.0679276595769623</v>
       </c>
       <c r="GO3">
-        <v>-0.0614156274754736</v>
+        <v>-0.06785646180156148</v>
       </c>
       <c r="GP3">
-        <v>-0.06435585842190489</v>
+        <v>-0.07079208380506063</v>
       </c>
       <c r="GQ3">
-        <v>-0.06432725381698799</v>
+        <v>-0.07063919587711813</v>
       </c>
       <c r="GR3">
-        <v>-0.06433024360543985</v>
+        <v>-0.07063332511460217</v>
       </c>
       <c r="GS3">
-        <v>-0.06103261162003259</v>
+        <v>-0.06715825307045246</v>
       </c>
       <c r="GT3">
-        <v>-0.0610974722037309</v>
+        <v>-0.06722170115617876</v>
       </c>
       <c r="GU3">
-        <v>-0.06290221626306083</v>
+        <v>-0.06796600607948894</v>
       </c>
       <c r="GV3">
-        <v>-0.06290221626303383</v>
+        <v>-0.06796600607944929</v>
       </c>
       <c r="GW3">
-        <v>-0.06325066456656847</v>
+        <v>-0.06805101264328227</v>
       </c>
       <c r="GX3">
-        <v>-0.06215248840128624</v>
+        <v>-0.06793658068778653</v>
       </c>
       <c r="GY3">
-        <v>-0.0614329645885095</v>
+        <v>-0.06788518280162907</v>
       </c>
       <c r="GZ3">
-        <v>-0.06433374517468327</v>
+        <v>-0.07079410056190774</v>
       </c>
       <c r="HA3">
-        <v>-0.06439491083182143</v>
+        <v>-0.07082302764914132</v>
       </c>
       <c r="HB3">
-        <v>-0.06436439405355823</v>
+        <v>-0.07067634938508359</v>
       </c>
       <c r="HC3">
-        <v>-0.06433274266298322</v>
+        <v>-0.07063457245777548</v>
       </c>
       <c r="HD3">
-        <v>-0.06103261162003171</v>
+        <v>-0.06715825307045255</v>
       </c>
       <c r="HE3">
-        <v>-0.06108709104700253</v>
+        <v>-0.06721631147762772</v>
       </c>
       <c r="HF3">
-        <v>-0.06290221626301626</v>
+        <v>-0.06796600607944168</v>
       </c>
       <c r="HG3">
-        <v>-0.06326856244144402</v>
+        <v>-0.06805537868756267</v>
       </c>
       <c r="HH3">
-        <v>-0.06215444251750409</v>
+        <v>-0.06794282908593952</v>
       </c>
       <c r="HI3">
-        <v>-0.0614649598160538</v>
+        <v>-0.06793818683291618</v>
       </c>
       <c r="HJ3">
-        <v>-0.06426136366685807</v>
+        <v>-0.07080070200473662</v>
       </c>
       <c r="HK3">
-        <v>-0.06446539392623032</v>
+        <v>-0.07087887610376344</v>
       </c>
       <c r="HL3">
-        <v>-0.0643347580842771</v>
+        <v>-0.07063557840527804</v>
       </c>
       <c r="HM3">
-        <v>-0.06103261162003169</v>
+        <v>-0.06715825307045253</v>
       </c>
       <c r="HN3">
-        <v>-0.06105874109903288</v>
+        <v>-0.06720159271745089</v>
       </c>
       <c r="HO3">
-        <v>-0.06290221626300375</v>
+        <v>-0.06796600607944547</v>
       </c>
       <c r="HP3">
-        <v>-0.06330640189736256</v>
+        <v>-0.06806460923327345</v>
       </c>
       <c r="HQ3">
-        <v>-0.06215820145591454</v>
+        <v>-0.06795484854049609</v>
       </c>
       <c r="HR3">
-        <v>-0.06149285719742207</v>
+        <v>-0.06798440239681358</v>
       </c>
       <c r="HS3">
-        <v>-0.06423016030809768</v>
+        <v>-0.07080354793196192</v>
       </c>
       <c r="HT3">
-        <v>-0.06449056038146245</v>
+        <v>-0.07089881715491859</v>
       </c>
       <c r="HU3">
-        <v>-0.06433636870550456</v>
+        <v>-0.07063638230654422</v>
       </c>
       <c r="HV3">
-        <v>-0.06105632388283869</v>
+        <v>-0.06720033773999284</v>
       </c>
       <c r="HW3">
-        <v>-0.06290221626300199</v>
+        <v>-0.06796600607945176</v>
       </c>
       <c r="HX3">
-        <v>-0.06333620183125445</v>
+        <v>-0.0680718785355669</v>
       </c>
       <c r="HY3">
-        <v>-0.06216007241407082</v>
+        <v>-0.06796083107001058</v>
       </c>
       <c r="HZ3">
-        <v>-0.06151183569298829</v>
+        <v>-0.06801584275427607</v>
       </c>
       <c r="IA3">
-        <v>-0.06477044138718141</v>
+        <v>-0.07111986000854638</v>
       </c>
       <c r="IB3">
-        <v>-0.06449056038146245</v>
+        <v>-0.07089881715491859</v>
       </c>
       <c r="IC3">
-        <v>-0.06433882733650993</v>
+        <v>-0.07063760947009146</v>
       </c>
       <c r="ID3">
-        <v>-0.06105520739288709</v>
+        <v>-0.06719975807721006</v>
       </c>
       <c r="IE3">
-        <v>-0.06290221626300459</v>
+        <v>-0.06796600607945423</v>
       </c>
       <c r="IF3">
-        <v>-0.06335687278884113</v>
+        <v>-0.06807692090016348</v>
       </c>
       <c r="IG3">
-        <v>-0.06216140091093187</v>
+        <v>-0.067965079045518</v>
       </c>
       <c r="IH3">
-        <v>-0.06152430355360824</v>
+        <v>-0.06803649742225253</v>
       </c>
       <c r="II3">
-        <v>-0.06481108925064955</v>
+        <v>-0.07115196215720287</v>
       </c>
       <c r="IJ3">
-        <v>-0.06434170935095221</v>
+        <v>-0.07063904795390551</v>
       </c>
       <c r="IK3">
-        <v>-0.0610540131714234</v>
+        <v>-0.06719913805737877</v>
       </c>
       <c r="IL3">
-        <v>-0.06290221626300498</v>
+        <v>-0.06796600607945275</v>
       </c>
       <c r="IM3">
-        <v>-0.06337749469685355</v>
+        <v>-0.0680819512640476</v>
       </c>
       <c r="IN3">
-        <v>-0.06217659840894387</v>
+        <v>-0.06801367466960562</v>
       </c>
       <c r="IO3">
-        <v>-0.06155113816505876</v>
+        <v>-0.06808095259730659</v>
       </c>
       <c r="IP3">
-        <v>-0.0648923400282381</v>
+        <v>-0.07119382570876669</v>
       </c>
       <c r="IQ3">
-        <v>-0.06485460895676658</v>
+        <v>-0.07120863702672814</v>
       </c>
       <c r="IR3">
-        <v>-0.06434613596137463</v>
+        <v>-0.07064125738146125</v>
       </c>
       <c r="IS3">
-        <v>-0.06105287203992765</v>
+        <v>-0.06719854560082054</v>
       </c>
       <c r="IT3">
-        <v>-0.06290221626301065</v>
+        <v>-0.06796600607945971</v>
       </c>
       <c r="IU3">
-        <v>-0.0634076639786636</v>
+        <v>-0.06808931048301077</v>
       </c>
       <c r="IV3">
-        <v>-0.06218107992390668</v>
+        <v>-0.06802800493398341</v>
       </c>
       <c r="IW3">
-        <v>-0.06156331134955013</v>
+        <v>-0.06818619627011553</v>
       </c>
       <c r="IX3">
-        <v>-0.0615643875021896</v>
+        <v>-0.06809136589044312</v>
       </c>
       <c r="IY3">
-        <v>-0.06436233441832706</v>
+        <v>-0.07064934240124474</v>
       </c>
       <c r="IZ3">
-        <v>-0.06105160077019516</v>
+        <v>-0.06719788557847299</v>
       </c>
       <c r="JA3">
-        <v>-0.06290221626301119</v>
+        <v>-0.06796600607947575</v>
       </c>
       <c r="JB3">
-        <v>-0.06352113587251045</v>
+        <v>-0.0681169890944837</v>
       </c>
       <c r="JC3">
-        <v>-0.0621820825732155</v>
+        <v>-0.06803121105273641</v>
       </c>
       <c r="JD3">
-        <v>-0.06156499412432778</v>
+        <v>-0.0682007451071584</v>
       </c>
       <c r="JE3">
-        <v>-0.06161407706598709</v>
+        <v>-0.06813041928069959</v>
       </c>
       <c r="JF3">
-        <v>-0.06444117403125463</v>
+        <v>-0.07068869262529491</v>
       </c>
       <c r="JG3">
-        <v>-0.06104897669008751</v>
+        <v>-0.06719652319863363</v>
       </c>
       <c r="JH3">
-        <v>-0.0629022162630138</v>
+        <v>-0.06796600607948955</v>
       </c>
       <c r="JI3">
-        <v>-0.0635476211693107</v>
+        <v>-0.06812344935987327</v>
       </c>
       <c r="JJ3">
-        <v>-0.06220827733905523</v>
+        <v>-0.06808450177793121</v>
       </c>
       <c r="JK3">
-        <v>-0.06218205080997537</v>
+        <v>-0.06803215559017065</v>
       </c>
       <c r="JL3">
-        <v>-0.06156576775901249</v>
+        <v>-0.06820743378191221</v>
       </c>
       <c r="JM3">
-        <v>-0.06166392093328941</v>
+        <v>-0.06819865069957765</v>
       </c>
       <c r="JN3">
-        <v>-0.06162024849997669</v>
+        <v>-0.0681291481702746</v>
       </c>
       <c r="JO3">
-        <v>-0.06104624372585947</v>
+        <v>-0.06719510428709193</v>
       </c>
       <c r="JP3">
-        <v>-0.06290221626301795</v>
+        <v>-0.06796600607949874</v>
       </c>
       <c r="JQ3">
-        <v>-0.06355975488063485</v>
+        <v>-0.0681264089821082</v>
       </c>
       <c r="JR3">
-        <v>-0.06223423758173165</v>
+        <v>-0.06813731603816445</v>
       </c>
       <c r="JS3">
-        <v>-0.06218201356957668</v>
+        <v>-0.06803326300141195</v>
       </c>
       <c r="JT3">
-        <v>-0.06156668661635877</v>
+        <v>-0.06821537804322338</v>
       </c>
       <c r="JU3">
-        <v>-0.06166754407961848</v>
+        <v>-0.06820361045772422</v>
       </c>
       <c r="JV3">
-        <v>-0.06164262345745004</v>
+        <v>-0.06812453968141707</v>
       </c>
       <c r="JW3">
-        <v>-0.06103585122039056</v>
+        <v>-0.06718970865583719</v>
       </c>
       <c r="JX3">
-        <v>-0.06290221626300867</v>
+        <v>-0.06796600607950175</v>
       </c>
       <c r="JY3">
-        <v>-0.06356773191606598</v>
+        <v>-0.06812835471239201</v>
       </c>
       <c r="JZ3">
-        <v>-0.06218197991461642</v>
+        <v>-0.06803426379358955</v>
       </c>
       <c r="KA3">
-        <v>-0.0615681043054736</v>
+        <v>-0.06822763515661322</v>
       </c>
       <c r="KB3">
-        <v>-0.06167053039469503</v>
+        <v>-0.06820769845401838</v>
       </c>
       <c r="KC3">
-        <v>-0.06077721750781134</v>
+        <v>-0.06731760341947692</v>
       </c>
       <c r="KD3">
-        <v>-0.06186595552158424</v>
+        <v>-0.06831183879387832</v>
       </c>
       <c r="KE3">
-        <v>-0.06098067552176351</v>
+        <v>-0.06716106206353074</v>
       </c>
       <c r="KF3">
-        <v>-0.06290221626300867</v>
+        <v>-0.06796600607950175</v>
       </c>
       <c r="KG3">
-        <v>-0.06357454255052693</v>
+        <v>-0.06813516604052994</v>
       </c>
       <c r="KH3">
-        <v>-0.06357380400862009</v>
+        <v>-0.06812920056740319</v>
       </c>
       <c r="KI3">
-        <v>-0.06218194582886941</v>
+        <v>-0.06803527739647389</v>
       </c>
       <c r="KJ3">
-        <v>-0.06156936756847477</v>
+        <v>-0.06823855717757489</v>
       </c>
       <c r="KK3">
-        <v>-0.0616747722319554</v>
+        <v>-0.06821350515059887</v>
       </c>
       <c r="KL3">
-        <v>-0.06037887413354483</v>
+        <v>-0.06694616994719409</v>
       </c>
       <c r="KM3">
-        <v>-0.06280202789157277</v>
+        <v>-0.06909687324344702</v>
       </c>
       <c r="KN3">
-        <v>-0.06357767107466659</v>
+        <v>-0.06813829488331757</v>
       </c>
       <c r="KO3">
-        <v>-0.06357810145538864</v>
+        <v>-0.06812979920938018</v>
       </c>
       <c r="KP3">
-        <v>-0.06218190917979848</v>
+        <v>-0.06803636722504777</v>
       </c>
       <c r="KQ3">
-        <v>-0.06157034972831547</v>
+        <v>-0.0682470488474667</v>
       </c>
       <c r="KR3">
-        <v>-0.06169382475341813</v>
+        <v>-0.06823958640294873</v>
       </c>
       <c r="KS3">
-        <v>-0.05777638615557642</v>
+        <v>-0.06451943763761109</v>
       </c>
       <c r="KT3">
-        <v>-0.0630086765118197</v>
+        <v>-0.06927017642081104</v>
       </c>
       <c r="KU3">
-        <v>-0.06358296605464994</v>
+        <v>-0.0681435904026101</v>
       </c>
       <c r="KV3">
-        <v>-0.06358310242754978</v>
+        <v>-0.0681304958524251</v>
       </c>
       <c r="KW3">
-        <v>-0.06218169663552819</v>
+        <v>-0.06804268763688649</v>
       </c>
       <c r="KX3">
-        <v>-0.06157157227293118</v>
+        <v>-0.0682576189041994</v>
       </c>
       <c r="KY3">
-        <v>-0.06169749258491844</v>
+        <v>-0.06824460735631452</v>
       </c>
       <c r="KZ3">
-        <v>-0.05758198417679288</v>
+        <v>-0.0643381605720495</v>
       </c>
       <c r="LA3">
-        <v>-0.06307734332414716</v>
+        <v>-0.06932776278130642</v>
       </c>
       <c r="LB3">
-        <v>-0.06359312946086512</v>
+        <v>-0.06815375484400145</v>
       </c>
       <c r="LC3">
-        <v>-0.06359266771960013</v>
+        <v>-0.06813182830837947</v>
       </c>
       <c r="LD3">
-        <v>-0.06218079765366733</v>
+        <v>-0.06806942079623986</v>
       </c>
       <c r="LE3">
-        <v>-0.061572836742607</v>
+        <v>-0.06826855149022436</v>
       </c>
       <c r="LF3">
-        <v>-0.06170020831655288</v>
+        <v>-0.06824832496689974</v>
       </c>
       <c r="LG3">
-        <v>-0.05758458525295138</v>
+        <v>-0.06434382111500056</v>
       </c>
       <c r="LH3">
-        <v>-0.05395735193856145</v>
+        <v>-0.06092486239429912</v>
       </c>
       <c r="LI3">
-        <v>-0.06311318290094214</v>
+        <v>-0.06935781905488841</v>
       </c>
       <c r="LJ3">
-        <v>-0.06362305251646928</v>
+        <v>-0.06818368094739335</v>
       </c>
       <c r="LK3">
-        <v>-0.06362935266518593</v>
+        <v>-0.0681369385162206</v>
       </c>
       <c r="LL3">
-        <v>-0.06157432825595555</v>
+        <v>-0.0682814471544408</v>
       </c>
       <c r="LM3">
-        <v>-0.06170333654915856</v>
+        <v>-0.06825260725909056</v>
       </c>
       <c r="LN3">
-        <v>-0.05759798177618016</v>
+        <v>-0.06437297517137774</v>
       </c>
       <c r="LO3">
-        <v>-0.052217630968115</v>
+        <v>-0.05928651920729684</v>
       </c>
       <c r="LP3">
-        <v>-0.06314386287407669</v>
+        <v>-0.06938354829325767</v>
       </c>
       <c r="LQ3">
-        <v>-0.06375454908930174</v>
+        <v>-0.06815437780662166</v>
       </c>
       <c r="LR3">
-        <v>-0.061575178221383</v>
+        <v>-0.06828879600822721</v>
       </c>
       <c r="LS3">
-        <v>-0.06170643971529067</v>
+        <v>-0.06825685523957727</v>
       </c>
       <c r="LT3">
-        <v>-0.0576026588345994</v>
+        <v>-0.06438315362472737</v>
       </c>
       <c r="LU3">
-        <v>-0.05225305511421487</v>
+        <v>-0.05942959478845199</v>
       </c>
       <c r="LV3">
-        <v>-0.04884276652847062</v>
+        <v>-0.05603990227972357</v>
       </c>
       <c r="LW3">
-        <v>-0.06317875604366989</v>
+        <v>-0.06941281083688271</v>
       </c>
       <c r="LX3">
-        <v>-0.06157901803537655</v>
+        <v>-0.06832199554959137</v>
       </c>
       <c r="LY3">
-        <v>-0.06173370156323965</v>
+        <v>-0.06829417457377786</v>
       </c>
       <c r="LZ3">
-        <v>-0.05761283828799613</v>
+        <v>-0.06440530675938756</v>
       </c>
       <c r="MA3">
-        <v>-0.05226708499248896</v>
+        <v>-0.05948626240092664</v>
       </c>
       <c r="MB3">
-        <v>-0.04908848627332149</v>
+        <v>-0.05636065429132795</v>
       </c>
       <c r="MC3">
-        <v>-0.04819193779459025</v>
+        <v>-0.05540098211636714</v>
       </c>
       <c r="MD3">
-        <v>-0.06320624600402124</v>
+        <v>-0.06943586479386263</v>
       </c>
       <c r="ME3">
-        <v>-0.06158051241660364</v>
+        <v>-0.06833491628819316</v>
       </c>
       <c r="MF3">
-        <v>-0.06178942949194877</v>
+        <v>-0.06837046227519944</v>
       </c>
       <c r="MG3">
-        <v>-0.05761696131396928</v>
+        <v>-0.06442660121746069</v>
       </c>
       <c r="MH3">
-        <v>-0.05761482447167964</v>
+        <v>-0.06440383182162375</v>
       </c>
       <c r="MI3">
-        <v>-0.0492120334296101</v>
+        <v>-0.05652193159564433</v>
       </c>
       <c r="MJ3">
-        <v>-0.04763435526453872</v>
+        <v>-0.05485360060671017</v>
       </c>
       <c r="MK3">
-        <v>-0.0632292935364276</v>
+        <v>-0.06945519317879653</v>
       </c>
       <c r="ML3">
-        <v>-0.06158103156393904</v>
+        <v>-0.06833940496246345</v>
       </c>
       <c r="MM3">
-        <v>-0.05762313066223095</v>
+        <v>-0.06445846475975632</v>
       </c>
       <c r="MN3">
-        <v>-0.05761510102949207</v>
+        <v>-0.06440362645028737</v>
       </c>
       <c r="MO3">
-        <v>-0.04922353105910357</v>
+        <v>-0.056536940635</v>
       </c>
       <c r="MP3">
-        <v>-0.04724214075517449</v>
+        <v>-0.05446856093636911</v>
       </c>
       <c r="MQ3">
-        <v>-0.06325008978168337</v>
+        <v>-0.06947263355544789</v>
       </c>
       <c r="MR3">
-        <v>-0.06158142267262676</v>
+        <v>-0.06834278658876522</v>
       </c>
       <c r="MS3">
-        <v>-0.05761540139088083</v>
+        <v>-0.064403403402507</v>
       </c>
       <c r="MT3">
-        <v>-0.04922827945433845</v>
+        <v>-0.05654313921111892</v>
       </c>
       <c r="MU3">
-        <v>-0.04674656107186555</v>
+        <v>-0.05398204607009735</v>
       </c>
       <c r="MV3">
-        <v>-0.06326730154633808</v>
+        <v>-0.06948706786959492</v>
       </c>
       <c r="MW3">
-        <v>-0.06158170882574739</v>
+        <v>-0.0683452607451825</v>
       </c>
       <c r="MX3">
-        <v>-0.05761566448601935</v>
+        <v>-0.06440320802861517</v>
       </c>
       <c r="MY3">
-        <v>-0.04923162994558512</v>
+        <v>-0.05654751295966496</v>
       </c>
       <c r="MZ3">
-        <v>-0.04643603011858127</v>
+        <v>-0.05367719463425144</v>
       </c>
       <c r="NA3">
-        <v>-0.06328726827752433</v>
+        <v>-0.06950381257662511</v>
       </c>
       <c r="NB3">
-        <v>-0.06158185413596311</v>
+        <v>-0.06834651713712088</v>
       </c>
       <c r="NC3">
-        <v>-0.05761594402474599</v>
+        <v>-0.06440300044379246</v>
       </c>
       <c r="ND3">
-        <v>-0.04923505698281498</v>
+        <v>-0.05655198663384105</v>
       </c>
       <c r="NE3">
-        <v>-0.04595916921423545</v>
+        <v>-0.05320905460673699</v>
       </c>
       <c r="NF3">
-        <v>-0.06330921319156053</v>
+        <v>-0.0695222162396593</v>
       </c>
       <c r="NG3">
-        <v>-0.0615820677728797</v>
+        <v>-0.06834836430159644</v>
       </c>
       <c r="NH3">
-        <v>-0.05761634298659478</v>
+        <v>-0.06440270417571471</v>
       </c>
       <c r="NI3">
-        <v>-0.04923910064887849</v>
+        <v>-0.05655726526160243</v>
       </c>
       <c r="NJ3">
-        <v>-0.04548378610123772</v>
+        <v>-0.05274236442201628</v>
       </c>
       <c r="NK3">
-        <v>-0.06342885060816798</v>
+        <v>-0.06962254761419551</v>
       </c>
       <c r="NL3">
-        <v>-0.06158242589826091</v>
+        <v>-0.06835146075680586</v>
       </c>
       <c r="NM3">
-        <v>-0.05761682799825942</v>
+        <v>-0.06440234400738289</v>
       </c>
       <c r="NN3">
-        <v>-0.04924420145552928</v>
+        <v>-0.05656392389174813</v>
       </c>
       <c r="NO3">
-        <v>-0.0449503810820168</v>
+        <v>-0.05221871223187349</v>
       </c>
       <c r="NP3">
-        <v>-0.06426899040282893</v>
+        <v>-0.07023101499648023</v>
       </c>
       <c r="NQ3">
-        <v>-0.06345723144985072</v>
+        <v>-0.06969070558237375</v>
       </c>
       <c r="NR3">
-        <v>-0.06158402329432482</v>
+        <v>-0.06836527235038123</v>
       </c>
       <c r="NS3">
-        <v>-0.05761983426528225</v>
+        <v>-0.06440011156483727</v>
       </c>
       <c r="NT3">
-        <v>-0.04924876973440179</v>
+        <v>-0.05656988736027094</v>
       </c>
       <c r="NU3">
-        <v>-0.04456438360103754</v>
+        <v>-0.05183977164298143</v>
       </c>
       <c r="NV3">
-        <v>-0.06507377262802273</v>
+        <v>-0.0708138574480577</v>
       </c>
       <c r="NW3">
-        <v>-0.06363150169722294</v>
+        <v>-0.07010925115342743</v>
       </c>
       <c r="NX3">
-        <v>-0.06345723144988044</v>
+        <v>-0.06969070558232256</v>
       </c>
       <c r="NY3">
-        <v>-0.06158989530674595</v>
+        <v>-0.06841604429560093</v>
       </c>
       <c r="NZ3">
-        <v>-0.05763012102900247</v>
+        <v>-0.06439247269323843</v>
       </c>
       <c r="OA3">
-        <v>-0.0492523845052442</v>
+        <v>-0.05657460611432009</v>
       </c>
       <c r="OB3">
-        <v>-0.04410430253985387</v>
+        <v>-0.05138810109309196</v>
       </c>
       <c r="OC3">
-        <v>-0.06510960197179175</v>
+        <v>-0.07083980551674539</v>
       </c>
       <c r="OD3">
-        <v>-0.06369519659737069</v>
+        <v>-0.07026223909657339</v>
       </c>
       <c r="OE3">
-        <v>-0.06345723145003987</v>
+        <v>-0.06969070558204535</v>
       </c>
       <c r="OF3">
-        <v>-0.04925858833547873</v>
+        <v>-0.05658270465509315</v>
       </c>
       <c r="OG3">
-        <v>-0.043436717518286</v>
+        <v>-0.05073271832444733</v>
       </c>
       <c r="OH3">
-        <v>-0.06520834988676315</v>
+        <v>-0.07094177484606266</v>
       </c>
       <c r="OI3">
-        <v>-0.06570813867986673</v>
+        <v>-0.07125534056931949</v>
       </c>
       <c r="OJ3">
-        <v>-0.06370168000730267</v>
+        <v>-0.07027781186305292</v>
       </c>
       <c r="OK3">
-        <v>-0.06345723145005074</v>
+        <v>-0.0696907055820245</v>
       </c>
       <c r="OL3">
-        <v>-0.04928024537550203</v>
+        <v>-0.0566109760221957</v>
       </c>
       <c r="OM3">
-        <v>-0.04294177367036432</v>
+        <v>-0.05024681998677214</v>
       </c>
       <c r="ON3">
-        <v>-0.06521739796844792</v>
+        <v>-0.07095111810724378</v>
       </c>
       <c r="OO3">
-        <v>-0.06599692264422304</v>
+        <v>-0.07145582571801483</v>
       </c>
       <c r="OP3">
-        <v>-0.06370620459061495</v>
+        <v>-0.07028867968231212</v>
       </c>
       <c r="OQ3">
-        <v>-0.0634572314500562</v>
+        <v>-0.06969070558201591</v>
       </c>
       <c r="OR3">
-        <v>-0.04941265316285776</v>
+        <v>-0.05678382463523197</v>
       </c>
       <c r="OS3">
-        <v>-0.04246431190717732</v>
+        <v>-0.04977808328795412</v>
       </c>
       <c r="OT3">
-        <v>-0.06522254163276088</v>
+        <v>-0.07095642957611108</v>
       </c>
       <c r="OU3">
-        <v>-0.06686823285016213</v>
+        <v>-0.07206070932337019</v>
       </c>
       <c r="OV3">
-        <v>-0.06599692264434991</v>
+        <v>-0.07145582571810571</v>
       </c>
       <c r="OW3">
-        <v>-0.06371089166677989</v>
+        <v>-0.07029993783429955</v>
       </c>
       <c r="OX3">
-        <v>-0.0634572314500592</v>
+        <v>-0.06969070558201143</v>
       </c>
       <c r="OY3">
-        <v>-0.04199701226503113</v>
+        <v>-0.04931932210932416</v>
       </c>
       <c r="OZ3">
-        <v>-0.06522603431130916</v>
+        <v>-0.07096003619843808</v>
       </c>
       <c r="PA3">
-        <v>-0.06810943818473811</v>
+        <v>-0.07292234608008673</v>
       </c>
       <c r="PB3">
-        <v>-0.06599692264438149</v>
+        <v>-0.07145582571812824</v>
       </c>
       <c r="PC3">
-        <v>-0.063730574760842</v>
+        <v>-0.07034721613391508</v>
       </c>
       <c r="PD3">
-        <v>-0.06345723145006388</v>
+        <v>-0.06969070558200453</v>
       </c>
       <c r="PE3">
-        <v>-0.04143500278304856</v>
+        <v>-0.04876758044284419</v>
       </c>
       <c r="PF3">
-        <v>-0.06523172646489787</v>
+        <v>-0.07096591405102212</v>
       </c>
       <c r="PG3">
-        <v>-0.06836921113653921</v>
+        <v>-0.07310267335493535</v>
       </c>
       <c r="PH3">
-        <v>-0.06599692264440592</v>
+        <v>-0.07145582571814194</v>
       </c>
       <c r="PI3">
-        <v>-0.06373538093755692</v>
+        <v>-0.07035876054056185</v>
       </c>
       <c r="PJ3">
-        <v>-0.06345723145011686</v>
+        <v>-0.06969070558193308</v>
       </c>
       <c r="PK3">
-        <v>-0.04049371304802932</v>
+        <v>-0.04784348502358215</v>
       </c>
       <c r="PL3">
-        <v>-0.04143500278304856</v>
+        <v>-0.04876758044284419</v>
       </c>
       <c r="PM3">
-        <v>-0.06525064763772827</v>
+        <v>-0.07098545250571552</v>
       </c>
       <c r="PN3">
-        <v>-0.0684356081129911</v>
+        <v>-0.0731487640171789</v>
       </c>
       <c r="PO3">
-        <v>-0.06599692264443378</v>
+        <v>-0.07145582571815118</v>
       </c>
       <c r="PP3">
-        <v>-0.0637399655170114</v>
+        <v>-0.07036977270502749</v>
       </c>
       <c r="PQ3">
-        <v>-0.06345723145013477</v>
+        <v>-0.06969070558190756</v>
       </c>
       <c r="PR3">
-        <v>-0.03731856081101086</v>
+        <v>-0.04472630589827316</v>
       </c>
       <c r="PS3">
-        <v>-0.04049371304802932</v>
+        <v>-0.04784348502358215</v>
       </c>
       <c r="PT3">
-        <v>-0.06527171302711657</v>
+        <v>-0.07100720513607608</v>
       </c>
       <c r="PU3">
-        <v>-0.06847039285862833</v>
+        <v>-0.07317291042850764</v>
       </c>
       <c r="PV3">
-        <v>-0.06599692264446247</v>
+        <v>-0.07145582571815703</v>
       </c>
       <c r="PW3">
-        <v>-0.06374452517015609</v>
+        <v>-0.07038072502849445</v>
       </c>
       <c r="PX3">
-        <v>-0.06345723145014162</v>
+        <v>-0.06969070558189969</v>
       </c>
       <c r="PY3">
-        <v>-0.03282697230655539</v>
+        <v>-0.04031665630194348</v>
       </c>
       <c r="PZ3">
-        <v>-0.03731856081101086</v>
+        <v>-0.04472630589827316</v>
       </c>
       <c r="QA3">
-        <v>-0.06528356020842435</v>
+        <v>-0.07101943882490953</v>
       </c>
       <c r="QB3">
-        <v>-0.06849922917487514</v>
+        <v>-0.07319292761279575</v>
       </c>
       <c r="QC3">
-        <v>-0.06599692264448653</v>
+        <v>-0.07145582571815354</v>
       </c>
       <c r="QD3">
-        <v>-0.06374975569168201</v>
+        <v>-0.07039328882252358</v>
       </c>
       <c r="QE3">
-        <v>-0.06345723145015472</v>
+        <v>-0.06969070558188657</v>
       </c>
       <c r="QF3">
-        <v>-0.02960352118800055</v>
+        <v>-0.03715195909345562</v>
       </c>
       <c r="QG3">
-        <v>-0.03282697230655539</v>
+        <v>-0.04031665630194348</v>
       </c>
       <c r="QH3">
-        <v>-0.06529468943742883</v>
+        <v>-0.07103093114062109</v>
       </c>
       <c r="QI3">
-        <v>-0.06852259951733264</v>
+        <v>-0.07320915048805343</v>
       </c>
       <c r="QJ3">
-        <v>-0.06599692264451369</v>
+        <v>-0.07145582571815007</v>
       </c>
       <c r="QK3">
-        <v>-0.06376781908533927</v>
+        <v>-0.07043667769807677</v>
       </c>
       <c r="QL3">
-        <v>-0.06345723145016756</v>
+        <v>-0.06969070558187716</v>
       </c>
       <c r="QM3">
-        <v>-0.02862544771402515</v>
+        <v>-0.03619170460856745</v>
       </c>
       <c r="QN3">
-        <v>-0.02960352118800055</v>
+        <v>-0.03715195909345562</v>
       </c>
       <c r="QO3">
-        <v>-0.06530530769311892</v>
+        <v>-0.07104189581448829</v>
       </c>
       <c r="QP3">
-        <v>-0.06855832289025147</v>
+        <v>-0.07323394837606301</v>
       </c>
       <c r="QQ3">
-        <v>-0.06599692264453227</v>
+        <v>-0.07145582571814064</v>
       </c>
       <c r="QR3">
-        <v>-0.06385584767881626</v>
+        <v>-0.07064813249581008</v>
       </c>
       <c r="QS3">
-        <v>-0.06345723145018428</v>
+        <v>-0.06969070558186495</v>
       </c>
       <c r="QT3">
-        <v>-0.0256153232039807</v>
+        <v>-0.03336426468510057</v>
       </c>
       <c r="QU3">
-        <v>-0.02862544771402516</v>
+        <v>-0.03619170460856747</v>
       </c>
       <c r="QV3">
-        <v>-0.0287051033750653</v>
+        <v>-0.03616705449234556</v>
       </c>
       <c r="QW3">
-        <v>-0.06532274139656505</v>
+        <v>-0.07105989829230014</v>
       </c>
       <c r="QX3">
-        <v>-0.06859052716906389</v>
+        <v>-0.07325630340429008</v>
       </c>
       <c r="QY3">
-        <v>-0.06599692264454363</v>
+        <v>-0.07145582571813654</v>
       </c>
       <c r="QZ3">
-        <v>-0.06345723145019985</v>
+        <v>-0.06969070558185478</v>
       </c>
       <c r="RA3">
-        <v>-0.02227064009921703</v>
+        <v>-0.03022243658501314</v>
       </c>
       <c r="RB3">
-        <v>-0.02561532320398069</v>
+        <v>-0.03336426468510055</v>
       </c>
       <c r="RC3">
-        <v>-0.02561532320398069</v>
+        <v>-0.03336426468510056</v>
       </c>
       <c r="RD3">
-        <v>-0.02871673641435099</v>
+        <v>-0.03616345464833211</v>
       </c>
       <c r="RE3">
-        <v>-0.06533488438449474</v>
+        <v>-0.07107243744782478</v>
       </c>
       <c r="RF3">
-        <v>-0.06862117788216479</v>
+        <v>-0.07327757997736534</v>
       </c>
       <c r="RG3">
-        <v>-0.0659969226445508</v>
+        <v>-0.07145582571812942</v>
       </c>
       <c r="RH3">
-        <v>-0.06345723145027818</v>
+        <v>-0.0696907055818022</v>
       </c>
       <c r="RI3">
-        <v>-0.0210449069082514</v>
+        <v>-0.02907100879349968</v>
       </c>
       <c r="RJ3">
-        <v>-0.02227064009921703</v>
+        <v>-0.03022243658501314</v>
       </c>
       <c r="RK3">
-        <v>-0.02872307964049822</v>
+        <v>-0.03616149174753208</v>
       </c>
       <c r="RL3">
-        <v>-0.06534341635547095</v>
+        <v>-0.07108124777754589</v>
       </c>
       <c r="RM3">
-        <v>-0.06865570798178619</v>
+        <v>-0.07330154944337711</v>
       </c>
       <c r="RN3">
-        <v>-0.06599692264456214</v>
+        <v>-0.0714558257181203</v>
       </c>
       <c r="RO3">
-        <v>-0.06345723145028033</v>
+        <v>-0.06969070558179907</v>
       </c>
       <c r="RP3">
-        <v>-0.01846637846461562</v>
+        <v>-0.02663368782222071</v>
       </c>
       <c r="RQ3">
-        <v>-0.0210449069082514</v>
+        <v>-0.02907100879349968</v>
       </c>
       <c r="RR3">
-        <v>-0.02082917690737653</v>
+        <v>-0.02889654775530872</v>
       </c>
       <c r="RS3">
-        <v>-0.02872737669233303</v>
+        <v>-0.03616016203619927</v>
       </c>
       <c r="RT3">
-        <v>-0.06534749299390701</v>
+        <v>-0.0710854574182295</v>
       </c>
       <c r="RU3">
-        <v>-0.06869218312197564</v>
+        <v>-0.07332686904557797</v>
       </c>
       <c r="RV3">
-        <v>-0.06599692264458008</v>
+        <v>-0.07145582571811519</v>
       </c>
       <c r="RW3">
-        <v>-0.06345723145028156</v>
+        <v>-0.06969070558179709</v>
       </c>
       <c r="RX3">
-        <v>-0.01477046670508874</v>
+        <v>-0.02314004149577378</v>
       </c>
       <c r="RY3">
-        <v>-0.01846637846461562</v>
+        <v>-0.02663368782222071</v>
       </c>
       <c r="RZ3">
-        <v>-0.02083030349443668</v>
+        <v>-0.02889301438474942</v>
       </c>
       <c r="SA3">
-        <v>-0.0207357446275292</v>
+        <v>-0.02885230575497223</v>
       </c>
       <c r="SB3">
-        <v>-0.02873390365926344</v>
+        <v>-0.0361581422900631</v>
       </c>
       <c r="SC3">
-        <v>-0.06535007543651609</v>
+        <v>-0.07108812411437369</v>
       </c>
       <c r="SD3">
-        <v>-0.06877193591252614</v>
+        <v>-0.07338223015471572</v>
       </c>
       <c r="SE3">
-        <v>-0.06599692264460712</v>
+        <v>-0.07145582571811328</v>
       </c>
       <c r="SF3">
-        <v>-0.06345723145028172</v>
+        <v>-0.06969070558179501</v>
       </c>
       <c r="SG3">
-        <v>-0.01251481838617823</v>
+        <v>-0.02100776054394174</v>
       </c>
       <c r="SH3">
-        <v>-0.01477046670508874</v>
+        <v>-0.02314004149577378</v>
       </c>
       <c r="SI3">
-        <v>-0.02083077967680136</v>
+        <v>-0.02889152091276847</v>
       </c>
       <c r="SJ3">
-        <v>-0.02067595823158778</v>
+        <v>-0.02882399521287852</v>
       </c>
       <c r="SK3">
-        <v>-0.02874380902449323</v>
+        <v>-0.036155077125921</v>
       </c>
       <c r="SL3">
-        <v>-0.06535182148758821</v>
+        <v>-0.07108992713133176</v>
       </c>
       <c r="SM3">
-        <v>-0.07058107335810676</v>
+        <v>-0.07463801136543875</v>
       </c>
       <c r="SN3">
-        <v>-0.06599692264463033</v>
+        <v>-0.07145582571811218</v>
       </c>
       <c r="SO3">
-        <v>-0.06345723145028172</v>
+        <v>-0.06969070558179501</v>
       </c>
       <c r="SP3">
-        <v>-0.01212636070979531</v>
+        <v>-0.02064054274874147</v>
       </c>
       <c r="SQ3">
-        <v>-0.01251481838617823</v>
+        <v>-0.02100776054394174</v>
       </c>
       <c r="SR3">
-        <v>-0.02083105947242038</v>
+        <v>-0.02889064337791952</v>
       </c>
       <c r="SS3">
-        <v>-0.02875083658947679</v>
+        <v>-0.03615290249320445</v>
       </c>
       <c r="ST3">
-        <v>-0.06535425701991708</v>
+        <v>-0.07109244212432958</v>
       </c>
       <c r="SU3">
-        <v>-0.07061669621489675</v>
+        <v>-0.07468238713836901</v>
       </c>
       <c r="SV3">
-        <v>-0.07085100295933197</v>
+        <v>-0.07482110140418251</v>
       </c>
       <c r="SW3">
-        <v>-0.06599692264465111</v>
+        <v>-0.07145582571811382</v>
       </c>
       <c r="SX3">
-        <v>-0.01217059218923581</v>
+        <v>-0.02071169027813026</v>
       </c>
       <c r="SY3">
-        <v>-0.01212636070979532</v>
+        <v>-0.02064054274874148</v>
       </c>
       <c r="SZ3">
-        <v>-0.005284415213888635</v>
+        <v>-0.01388462673059797</v>
       </c>
       <c r="TA3">
-        <v>-0.02083131696872529</v>
+        <v>-0.02888983578176871</v>
       </c>
       <c r="TB3">
-        <v>-0.02875563792225784</v>
+        <v>-0.03615141675831639</v>
       </c>
       <c r="TC3">
-        <v>-0.06535611583917036</v>
+        <v>-0.07109436158870777</v>
       </c>
       <c r="TD3">
-        <v>-0.0706481113400113</v>
+        <v>-0.07472152144205006</v>
       </c>
       <c r="TE3">
-        <v>-0.07099662803216501</v>
+        <v>-0.07491987629247235</v>
       </c>
       <c r="TF3">
-        <v>-0.0659969226446694</v>
+        <v>-0.07145582571811529</v>
       </c>
       <c r="TG3">
-        <v>-0.01220315210664548</v>
+        <v>-0.02076406405180783</v>
       </c>
       <c r="TH3">
-        <v>-0.01217059218923581</v>
+        <v>-0.02071169027813026</v>
       </c>
       <c r="TI3">
-        <v>-0.001241140076304815</v>
+        <v>-0.009892057347636605</v>
       </c>
       <c r="TJ3">
-        <v>-0.0208315463763921</v>
+        <v>-0.02888911628148552</v>
       </c>
       <c r="TK3">
-        <v>-0.02875943192713386</v>
+        <v>-0.03615024273618442</v>
       </c>
       <c r="TL3">
-        <v>-0.0653693808299933</v>
+        <v>-0.07110805935957851</v>
       </c>
       <c r="TM3">
-        <v>-0.07101837662770373</v>
+        <v>-0.07493462792458401</v>
       </c>
       <c r="TN3">
-        <v>-0.06599692264468211</v>
+        <v>-0.07145582571811838</v>
       </c>
       <c r="TO3">
-        <v>-0.01224748285468114</v>
+        <v>-0.02083537198513511</v>
       </c>
       <c r="TP3">
-        <v>-0.01220315210664548</v>
+        <v>-0.02076406405180783</v>
       </c>
       <c r="TQ3">
-        <v>0.001962654178169683</v>
+        <v>-0.006728370575619536</v>
       </c>
       <c r="TR3">
-        <v>-0.02083178436089005</v>
+        <v>-0.02888836988168057</v>
       </c>
       <c r="TS3">
-        <v>-0.02877159657401955</v>
+        <v>-0.0361464785089138</v>
       </c>
       <c r="TT3">
-        <v>-0.06540032855709824</v>
+        <v>-0.07112315756433561</v>
       </c>
       <c r="TU3">
-        <v>-0.06541532413466017</v>
+        <v>-0.07120446346084346</v>
       </c>
       <c r="TV3">
-        <v>-0.07103497818821436</v>
+        <v>-0.07494588841790388</v>
       </c>
       <c r="TW3">
-        <v>-0.06599692264468961</v>
+        <v>-0.07145582571811755</v>
       </c>
       <c r="TX3">
-        <v>-0.01227885406119709</v>
+        <v>-0.02088583418682275</v>
       </c>
       <c r="TY3">
-        <v>-0.01224748285468114</v>
+        <v>-0.02083537198513511</v>
       </c>
       <c r="TZ3">
-        <v>0.003286517194642535</v>
+        <v>-0.005421062450710181</v>
       </c>
       <c r="UA3">
-        <v>-0.02083250279831991</v>
+        <v>-0.02888611662113923</v>
       </c>
       <c r="UB3">
-        <v>-0.02886999372546849</v>
+        <v>-0.03611603150802433</v>
       </c>
       <c r="UC3">
-        <v>-0.06543450242501488</v>
+        <v>-0.07113982955220682</v>
       </c>
       <c r="UD3">
-        <v>-0.0710505049823319</v>
+        <v>-0.0749564199123768</v>
       </c>
       <c r="UE3">
-        <v>-0.06599692264469921</v>
+        <v>-0.07145582571811607</v>
       </c>
       <c r="UF3">
-        <v>-0.01236658622093717</v>
+        <v>-0.02102695700122508</v>
       </c>
       <c r="UG3">
-        <v>-0.01227885406119709</v>
+        <v>-0.02088583418682275</v>
       </c>
       <c r="UH3">
-        <v>0.003359956231602834</v>
+        <v>-0.005350981414838398</v>
       </c>
       <c r="UI3">
-        <v>0.007800177143550808</v>
+        <v>-0.0009317007639272072</v>
       </c>
       <c r="UJ3">
-        <v>-0.02083322681162194</v>
+        <v>-0.02888384587588886</v>
       </c>
       <c r="UK3">
-        <v>-0.02887489395852717</v>
+        <v>-0.03611451527714989</v>
       </c>
       <c r="UL3">
-        <v>-0.06552713558701441</v>
+        <v>-0.07118502069315294</v>
       </c>
       <c r="UM3">
-        <v>-0.07106706242195826</v>
+        <v>-0.07496765046418197</v>
       </c>
       <c r="UN3">
-        <v>-0.06599692264470221</v>
+        <v>-0.07145582571810905</v>
       </c>
       <c r="UO3">
-        <v>-0.01243011398965833</v>
+        <v>-0.0211291465243507</v>
       </c>
       <c r="UP3">
-        <v>-0.01236658622093717</v>
+        <v>-0.02102695700122508</v>
       </c>
       <c r="UQ3">
-        <v>0.003386979598437997</v>
+        <v>-0.005325193664257031</v>
       </c>
       <c r="UR3">
-        <v>0.01121490615512904</v>
+        <v>0.00246468499840258</v>
       </c>
       <c r="US3">
-        <v>-0.02083999176304076</v>
+        <v>-0.0288626288998619</v>
       </c>
       <c r="UT3">
-        <v>-0.02887876042360553</v>
+        <v>-0.03611331891805553</v>
       </c>
       <c r="UU3">
-        <v>-0.0710817137790288</v>
+        <v>-0.07497758815502555</v>
       </c>
       <c r="UV3">
-        <v>-0.06599692264470222</v>
+        <v>-0.07145582571810906</v>
       </c>
       <c r="UW3">
-        <v>-0.0124421759375502</v>
+        <v>-0.02113925512581936</v>
       </c>
       <c r="UX3">
-        <v>-0.01243011398965833</v>
+        <v>-0.02112914652435071</v>
       </c>
       <c r="UY3">
-        <v>-0.01244508098434998</v>
+        <v>-0.0212232533382927</v>
       </c>
       <c r="UZ3">
-        <v>0.003427232939155572</v>
+        <v>-0.005286780839498208</v>
       </c>
       <c r="VA3">
-        <v>-0.0288831315781538</v>
+        <v>-0.03611196640160294</v>
       </c>
       <c r="VB3">
-        <v>-0.07109669955813688</v>
+        <v>-0.07498775267057202</v>
       </c>
       <c r="VC3">
-        <v>-0.01244503199005574</v>
+        <v>-0.02114164866036164</v>
       </c>
       <c r="VD3">
-        <v>-0.0124421759375502</v>
+        <v>-0.02113925512581936</v>
       </c>
       <c r="VE3">
-        <v>-0.01244697308269711</v>
+        <v>-0.02123515038045884</v>
       </c>
       <c r="VF3">
-        <v>0.003451454307584323</v>
+        <v>-0.005263666936315557</v>
       </c>
       <c r="VG3">
-        <v>-0.02888702205368933</v>
+        <v>-0.03611076261913748</v>
       </c>
       <c r="VH3">
-        <v>-0.07117404611974577</v>
+        <v>-0.07504021499431109</v>
       </c>
       <c r="VI3">
-        <v>-0.01252245915315938</v>
+        <v>-0.02120653693740751</v>
       </c>
       <c r="VJ3">
-        <v>-0.01244503199005573</v>
+        <v>-0.02114164866036163</v>
       </c>
       <c r="VK3">
-        <v>-0.01244503199002805</v>
+        <v>-0.02114164866034688</v>
       </c>
       <c r="VL3">
-        <v>-0.01244836932687574</v>
+        <v>-0.02124392965018058</v>
       </c>
       <c r="VM3">
-        <v>0.003480680587927551</v>
+        <v>-0.00523577694319136</v>
       </c>
       <c r="VN3">
-        <v>-0.02889150000210501</v>
+        <v>-0.03610937706555455</v>
       </c>
       <c r="VO3">
-        <v>-0.0712475271855635</v>
+        <v>-0.07507650081689819</v>
       </c>
       <c r="VP3">
-        <v>-0.07133014606328272</v>
+        <v>-0.07514802644848249</v>
       </c>
       <c r="VQ3">
-        <v>-0.01257672201289054</v>
+        <v>-0.02125201213163633</v>
       </c>
       <c r="VR3">
-        <v>-0.01252245915315938</v>
+        <v>-0.02120653693740751</v>
       </c>
       <c r="VS3">
-        <v>-0.01244503199001953</v>
+        <v>-0.02114164866034393</v>
       </c>
       <c r="VT3">
-        <v>-0.0124497278840607</v>
+        <v>-0.02125247198092907</v>
       </c>
       <c r="VU3">
-        <v>0.003506342514530551</v>
+        <v>-0.005211288319708685</v>
       </c>
       <c r="VV3">
-        <v>-0.02889609143537726</v>
+        <v>-0.03610795640166965</v>
       </c>
       <c r="VW3">
-        <v>-0.07125176176349285</v>
+        <v>-0.07507859188298988</v>
       </c>
       <c r="VX3">
-        <v>-0.07207616393120961</v>
+        <v>-0.07566325916098218</v>
       </c>
       <c r="VY3">
-        <v>-0.01264923760140505</v>
+        <v>-0.02128691149843105</v>
       </c>
       <c r="VZ3">
-        <v>-0.01258101801371932</v>
+        <v>-0.02125868207485326</v>
       </c>
       <c r="WA3">
-        <v>-0.01244503199001871</v>
+        <v>-0.02114164866033863</v>
       </c>
       <c r="WB3">
-        <v>-0.01246248972964189</v>
+        <v>-0.02133271723184415</v>
       </c>
       <c r="WC3">
-        <v>0.003674265869785595</v>
+        <v>-0.00505104235035269</v>
       </c>
       <c r="WD3">
-        <v>-0.02890161033668853</v>
+        <v>-0.03610624876929085</v>
       </c>
       <c r="WE3">
-        <v>-0.07125388852859084</v>
+        <v>-0.07507964209465079</v>
       </c>
       <c r="WF3">
-        <v>-0.07215120294273038</v>
+        <v>-0.07577073764794572</v>
       </c>
       <c r="WG3">
-        <v>-0.07292174441592704</v>
+        <v>-0.0762237928774625</v>
       </c>
       <c r="WH3">
-        <v>-0.01271390686950696</v>
+        <v>-0.02131803444770434</v>
       </c>
       <c r="WI3">
-        <v>-0.01264923760140505</v>
+        <v>-0.02128691149843105</v>
       </c>
       <c r="WJ3">
-        <v>-0.01264923760140505</v>
+        <v>-0.02128691149843105</v>
       </c>
       <c r="WK3">
-        <v>-0.0126723331357871</v>
+        <v>-0.02140057518778445</v>
       </c>
       <c r="WL3">
-        <v>-0.01258101801371932</v>
+        <v>-0.02125868207485326</v>
       </c>
       <c r="WM3">
-        <v>-0.01244503199001725</v>
+        <v>-0.02114164866033496</v>
       </c>
       <c r="WN3">
-        <v>-0.01246842923345659</v>
+        <v>-0.02137006509969399</v>
       </c>
       <c r="WO3">
-        <v>0.004912429713999936</v>
+        <v>-0.003869469136898902</v>
       </c>
       <c r="WP3">
-        <v>-0.02890507030404927</v>
+        <v>-0.03610517820540071</v>
       </c>
       <c r="WQ3">
-        <v>-0.07125567193805982</v>
+        <v>-0.07508052275447356</v>
       </c>
       <c r="WR3">
-        <v>-0.07219080229128787</v>
+        <v>-0.07582745649433378</v>
       </c>
       <c r="WS3">
-        <v>-0.07373179038258094</v>
+        <v>-0.07676075115471678</v>
       </c>
       <c r="WT3">
-        <v>-0.01277197132590085</v>
+        <v>-0.02134515163332712</v>
       </c>
       <c r="WU3">
-        <v>-0.01271390686950697</v>
+        <v>-0.02131803444770434</v>
       </c>
       <c r="WV3">
-        <v>-0.01271390686950695</v>
+        <v>-0.02131803444770431</v>
       </c>
       <c r="WW3">
-        <v>-0.01269382651013875</v>
+        <v>-0.0214339738755132</v>
       </c>
       <c r="WX3">
-        <v>-0.01244503199001469</v>
+        <v>-0.02114164866033281</v>
       </c>
       <c r="WY3">
-        <v>-0.01247121688947721</v>
+        <v>-0.02138759419094589</v>
       </c>
       <c r="WZ3">
-        <v>-0.02891994016183577</v>
+        <v>-0.03610057728174332</v>
       </c>
       <c r="XA3">
-        <v>-0.07125712624716415</v>
+        <v>-0.07508124090201246</v>
       </c>
       <c r="XB3">
-        <v>-0.07375145387741279</v>
+        <v>-0.07677993267530352</v>
       </c>
       <c r="XC3">
-        <v>-0.07394719118841855</v>
+        <v>-0.07689961119680175</v>
       </c>
       <c r="XD3">
-        <v>-0.01285107140500727</v>
+        <v>-0.02138209215077119</v>
       </c>
       <c r="XE3">
-        <v>-0.01244503199001143</v>
+        <v>-0.02114164866033211</v>
       </c>
       <c r="XF3">
-        <v>-0.01247307630114922</v>
+        <v>-0.02139928644397071</v>
       </c>
       <c r="XG3">
-        <v>-0.02898263117110077</v>
+        <v>-0.03608118033304251</v>
       </c>
       <c r="XH3">
-        <v>-0.07125940908954292</v>
+        <v>-0.07508236818432355</v>
       </c>
       <c r="XI3">
-        <v>-0.07375627544821375</v>
+        <v>-0.07678463606337003</v>
       </c>
       <c r="XJ3">
-        <v>-0.07399674963968567</v>
+        <v>-0.07693155929502257</v>
       </c>
       <c r="XK3">
-        <v>-0.0128742729832317</v>
+        <v>-0.02139292736428921</v>
       </c>
       <c r="XL3">
-        <v>-0.01244503199000925</v>
+        <v>-0.02114164866032874</v>
       </c>
       <c r="XM3">
-        <v>-0.01247591899854676</v>
+        <v>-0.02141716184306784</v>
       </c>
       <c r="XN3">
-        <v>-0.07126485266891053</v>
+        <v>-0.07508505625657655</v>
       </c>
       <c r="XO3">
-        <v>-0.07375958629364937</v>
+        <v>-0.07678786575569096</v>
       </c>
       <c r="XP3">
-        <v>-0.07402134309663541</v>
+        <v>-0.07694741356002394</v>
       </c>
       <c r="XQ3">
-        <v>-0.01295106795913812</v>
+        <v>-0.02142879037799417</v>
       </c>
       <c r="XR3">
-        <v>-0.01244503199000641</v>
+        <v>-0.02114164866032634</v>
       </c>
       <c r="XS3">
-        <v>-0.01248147076404283</v>
+        <v>-0.0214520727092842</v>
       </c>
       <c r="XT3">
-        <v>-0.07126861875234362</v>
+        <v>-0.07508691596926241</v>
       </c>
       <c r="XU3">
-        <v>-0.07376417585046822</v>
+        <v>-0.07679234281632166</v>
       </c>
       <c r="XV3">
-        <v>-0.07404836952056514</v>
+        <v>-0.07696483622541159</v>
       </c>
       <c r="XW3">
-        <v>-0.01244503199000537</v>
+        <v>-0.02114164866032573</v>
       </c>
       <c r="XX3">
-        <v>-0.01248300541706389</v>
+        <v>-0.02146172306719794</v>
       </c>
       <c r="XY3">
-        <v>-0.07127340731407605</v>
+        <v>-0.07508928058501417</v>
       </c>
       <c r="XZ3">
-        <v>-0.07377505909934343</v>
+        <v>-0.07680295930126128</v>
       </c>
       <c r="YA3">
-        <v>-0.07407955416791201</v>
+        <v>-0.07698493947471784</v>
       </c>
       <c r="YB3">
-        <v>-0.0124450319900061</v>
+        <v>-0.0211416486603276</v>
       </c>
       <c r="YC3">
-        <v>-0.01248345095165598</v>
+        <v>-0.02146452472886672</v>
       </c>
       <c r="YD3">
-        <v>-0.07127631632973631</v>
+        <v>-0.07509071707023049</v>
       </c>
       <c r="YE3">
-        <v>-0.07378333219766611</v>
+        <v>-0.0768110296132937</v>
       </c>
       <c r="YF3">
-        <v>-0.07411107991748402</v>
+        <v>-0.07700526258657053</v>
       </c>
       <c r="YG3">
-        <v>-0.01244503199000549</v>
+        <v>-0.02114164866032998</v>
       </c>
       <c r="YH3">
-        <v>-0.01248383922406321</v>
+        <v>-0.02146531427674329</v>
       </c>
       <c r="YI3">
-        <v>-0.01248344145910461</v>
+        <v>-0.02147324010475196</v>
       </c>
       <c r="YJ3">
-        <v>-0.0712789425538104</v>
+        <v>-0.07509201391084239</v>
       </c>
       <c r="YK3">
-        <v>-0.07378913980568821</v>
+        <v>-0.07681669486751776</v>
       </c>
       <c r="YL3">
-        <v>-0.07414603051216621</v>
+        <v>-0.07702779349394615</v>
       </c>
       <c r="YM3">
-        <v>-0.01244503199000009</v>
+        <v>-0.02114164866032855</v>
       </c>
       <c r="YN3">
-        <v>-0.01248420261409726</v>
+        <v>-0.0214660532267066</v>
       </c>
       <c r="YO3">
-        <v>-0.01248342893306283</v>
+        <v>-0.02148474066877617</v>
       </c>
       <c r="YP3">
-        <v>-0.07128337178076991</v>
+        <v>-0.07509420108016364</v>
       </c>
       <c r="YQ3">
-        <v>-0.07379522379966987</v>
+        <v>-0.07682262973264524</v>
       </c>
       <c r="YR3">
-        <v>-0.07419685642621317</v>
+        <v>-0.07706055836336806</v>
       </c>
       <c r="YS3">
-        <v>-0.01244503198999496</v>
+        <v>-0.02114164866032528</v>
       </c>
       <c r="YT3">
-        <v>-0.01248457695278858</v>
+        <v>-0.02146681444078464</v>
       </c>
       <c r="YU3">
-        <v>-0.01248337689409226</v>
+        <v>-0.02153251997824819</v>
       </c>
       <c r="YV3">
-        <v>-0.07128772631883931</v>
+        <v>-0.07509635136564224</v>
       </c>
       <c r="YW3">
-        <v>-0.07380021883155198</v>
+        <v>-0.07682750232765241</v>
       </c>
       <c r="YX3">
-        <v>-0.07409810531792645</v>
+        <v>-0.07695737558156786</v>
       </c>
       <c r="YY3">
-        <v>-0.07435089132741392</v>
+        <v>-0.07717115724981437</v>
       </c>
       <c r="YZ3">
-        <v>-0.01244503198999327</v>
+        <v>-0.02114164866032177</v>
       </c>
       <c r="ZA3">
-        <v>-0.01248728350757425</v>
+        <v>-0.02147231819756093</v>
       </c>
       <c r="ZB3">
-        <v>-0.01248335479438871</v>
+        <v>-0.02155281101997811</v>
       </c>
       <c r="ZC3">
-        <v>-0.07128978665193733</v>
+        <v>-0.07509736876427166</v>
       </c>
       <c r="ZD3">
-        <v>-0.07380848925447016</v>
+        <v>-0.07683557002759604</v>
       </c>
       <c r="ZE3">
-        <v>-0.07403880471617443</v>
+        <v>-0.0768954138350857</v>
       </c>
       <c r="ZF3">
-        <v>-0.07532635506379155</v>
+        <v>-0.07787153713996776</v>
       </c>
       <c r="ZG3">
-        <v>-0.01244503198999327</v>
+        <v>-0.02114164866032177</v>
       </c>
       <c r="ZH3">
-        <v>-0.01250699304404799</v>
+        <v>-0.02151239758871803</v>
       </c>
       <c r="ZI3">
-        <v>-0.0712920496506092</v>
+        <v>-0.07509848623920858</v>
       </c>
       <c r="ZJ3">
-        <v>-0.07383521702469664</v>
+        <v>-0.07686164264688963</v>
       </c>
       <c r="ZK3">
-        <v>-0.07398379444463873</v>
+        <v>-0.07683793501693564</v>
       </c>
       <c r="ZL3">
-        <v>-0.07602467427938826</v>
+        <v>-0.07837291260168382</v>
       </c>
       <c r="ZM3">
-        <v>-0.07129422164705791</v>
+        <v>-0.07509955877644925</v>
       </c>
       <c r="ZN3">
-        <v>-0.07389767104590443</v>
+        <v>-0.07692256576517159</v>
       </c>
       <c r="ZO3">
-        <v>-0.07393011875686366</v>
+        <v>-0.07678185073352808</v>
       </c>
       <c r="ZP3">
-        <v>-0.07605712604809961</v>
+        <v>-0.07843979953588173</v>
       </c>
       <c r="ZQ3">
-        <v>-0.07798797913631164</v>
+        <v>-0.07973562480958782</v>
       </c>
       <c r="ZR3">
-        <v>-0.07129684105962854</v>
+        <v>-0.07510085224816759</v>
       </c>
       <c r="ZS3">
-        <v>-0.07388985816416248</v>
+        <v>-0.07673978356288881</v>
       </c>
       <c r="ZT3">
-        <v>-0.07605709389512069</v>
+        <v>-0.07844605827231382</v>
       </c>
       <c r="ZU3">
-        <v>-0.0760656873387727</v>
+        <v>-0.07843978776497663</v>
       </c>
       <c r="ZV3">
-        <v>-0.0780639997504663</v>
+        <v>-0.07977339370724308</v>
       </c>
       <c r="ZW3">
-        <v>-0.07838204596091344</v>
+        <v>-0.08001198454455036</v>
       </c>
       <c r="ZX3">
-        <v>-0.07130101936102702</v>
+        <v>-0.07510291550101648</v>
       </c>
       <c r="ZY3">
-        <v>-0.07382590115845333</v>
+        <v>-0.07667295674247515</v>
       </c>
       <c r="ZZ3">
-        <v>-0.07605708383425246</v>
+        <v>-0.07844801667360347</v>
       </c>
       <c r="AAA3">
-        <v>-0.0760831281371805</v>
+        <v>-0.07843976378579247</v>
       </c>
       <c r="AAB3">
-        <v>-0.07810804171994064</v>
+        <v>-0.07979527453182754</v>
       </c>
       <c r="AAC3">
-        <v>-0.07879593944633058</v>
+        <v>-0.0802935390170674</v>
       </c>
       <c r="AAD3">
-        <v>-0.07131245494869895</v>
+        <v>-0.07510856240488294</v>
       </c>
       <c r="AAE3">
-        <v>-0.07371806604353556</v>
+        <v>-0.07656028315672468</v>
       </c>
       <c r="AAF3">
-        <v>-0.07605707736540615</v>
+        <v>-0.07844927586985148</v>
       </c>
       <c r="AAG3">
-        <v>-0.07988793378255316</v>
+        <v>-0.08103633806809282</v>
       </c>
       <c r="AAH3">
-        <v>-0.07879593944631713</v>
+        <v>-0.0802935390170566</v>
       </c>
       <c r="AAI3">
-        <v>-0.07132767371054895</v>
+        <v>-0.07511607742056998</v>
       </c>
       <c r="AAJ3">
-        <v>-0.07291001894112255</v>
+        <v>-0.07571598758861939</v>
       </c>
       <c r="AAK3">
-        <v>-0.07605707346357882</v>
+        <v>-0.07845003538201448</v>
       </c>
       <c r="AAL3">
-        <v>-0.0812071252832286</v>
+        <v>-0.08197170388961984</v>
       </c>
       <c r="AAM3">
-        <v>-0.07980192716314101</v>
+        <v>-0.08093172947171186</v>
       </c>
       <c r="AAN3">
-        <v>-0.07879593944630429</v>
+        <v>-0.08029353901704417</v>
       </c>
       <c r="AAO3">
-        <v>-0.07132912325370086</v>
+        <v>-0.07511679320275219</v>
       </c>
       <c r="AAP3">
-        <v>-0.07224706139039236</v>
+        <v>-0.07502330064097877</v>
       </c>
       <c r="AAQ3">
-        <v>-0.07605706951995264</v>
+        <v>-0.07845080303051509</v>
       </c>
       <c r="AAR3">
-        <v>-0.08256911264122301</v>
+        <v>-0.0829373314665881</v>
       </c>
       <c r="AAS3">
-        <v>-0.07979271983662195</v>
+        <v>-0.0809205307875118</v>
       </c>
       <c r="AAT3">
-        <v>-0.07879593944629111</v>
+        <v>-0.08029353901703422</v>
       </c>
       <c r="AAU3">
-        <v>-0.07133026963554905</v>
+        <v>-0.07511735928417831</v>
       </c>
       <c r="AAV3">
-        <v>-0.07203700229723592</v>
+        <v>-0.07480382370819984</v>
       </c>
       <c r="AAW3">
-        <v>-0.07605706599746599</v>
+        <v>-0.07845148870236769</v>
       </c>
       <c r="AAX3">
-        <v>-0.08309674841143919</v>
+        <v>-0.08328774475129756</v>
       </c>
       <c r="AAY3">
-        <v>-0.08271983294864177</v>
+        <v>-0.08312386481651592</v>
       </c>
       <c r="AAZ3">
-        <v>-0.07978920434585771</v>
+        <v>-0.08091625497020258</v>
       </c>
       <c r="ABA3">
-        <v>-0.07879593944628269</v>
+        <v>-0.08029353901702432</v>
       </c>
       <c r="ABB3">
-        <v>-0.07133138304766623</v>
+        <v>-0.07511790908506298</v>
       </c>
       <c r="ABC3">
-        <v>-0.07184576568600644</v>
+        <v>-0.07460401397102227</v>
       </c>
       <c r="ABD3">
-        <v>-0.07605706202884716</v>
+        <v>-0.07845226121658368</v>
       </c>
       <c r="ABE3">
-        <v>-0.0838138309987539</v>
+        <v>-0.08376395161947549</v>
       </c>
       <c r="ABF3">
-        <v>-0.08274005178440348</v>
+        <v>-0.08314888813398331</v>
       </c>
       <c r="ABG3">
-        <v>-0.07978548564881699</v>
+        <v>-0.08091173199899966</v>
       </c>
       <c r="ABH3">
-        <v>-0.07879593944627815</v>
+        <v>-0.0802935390170165</v>
       </c>
       <c r="ABI3">
-        <v>-0.07133257563268994</v>
+        <v>-0.07511849798122867</v>
       </c>
       <c r="ABJ3">
-        <v>-0.07174160612962446</v>
+        <v>-0.07449518527747108</v>
       </c>
       <c r="ABK3">
-        <v>-0.07605705884918226</v>
+        <v>-0.07845288015680138</v>
       </c>
       <c r="ABL3">
-        <v>-0.08465354796275265</v>
+        <v>-0.08432156678058655</v>
       </c>
       <c r="ABM3">
-        <v>-0.08275067436654644</v>
+        <v>-0.08316203491912132</v>
       </c>
       <c r="ABN3">
-        <v>-0.0797823994501366</v>
+        <v>-0.08090797832320576</v>
       </c>
       <c r="ABO3">
-        <v>-0.07879593944627362</v>
+        <v>-0.08029353901700874</v>
       </c>
       <c r="ABP3">
-        <v>-0.07133367826818847</v>
+        <v>-0.07511904246034896</v>
       </c>
       <c r="ABQ3">
-        <v>-0.07165841745372929</v>
+        <v>-0.07440826768832012</v>
       </c>
       <c r="ABR3">
-        <v>-0.07605705503517317</v>
+        <v>-0.07845362257627253</v>
       </c>
       <c r="ABS3">
-        <v>-0.0853279301491783</v>
+        <v>-0.08476936626260866</v>
       </c>
       <c r="ABT3">
-        <v>-0.08279593850673116</v>
+        <v>-0.08319145122343835</v>
       </c>
       <c r="ABU3">
-        <v>-0.08275116465727658</v>
+        <v>-0.08316350997298122</v>
       </c>
       <c r="ABV3">
-        <v>-0.07977874462885143</v>
+        <v>-0.08090353304568337</v>
       </c>
       <c r="ABW3">
-        <v>-0.07879593944627028</v>
+        <v>-0.08029353901700551</v>
       </c>
       <c r="ABX3">
-        <v>-0.07133471738610948</v>
+        <v>-0.07511955557449396</v>
       </c>
       <c r="ABY3">
-        <v>-0.07158748050208627</v>
+        <v>-0.07433415112124783</v>
       </c>
       <c r="ABZ3">
-        <v>-0.07605705092512083</v>
+        <v>-0.0784544226223358</v>
       </c>
       <c r="ACA3">
-        <v>-0.08556245039820912</v>
+        <v>-0.08482943465382367</v>
       </c>
       <c r="ACB3">
-        <v>-0.08539965750250811</v>
+        <v>-0.08524762993083593</v>
       </c>
       <c r="ACC3">
-        <v>-0.08283273333509238</v>
+        <v>-0.08321536332634147</v>
       </c>
       <c r="ACD3">
-        <v>-0.08275151920801208</v>
+        <v>-0.08316457664954821</v>
       </c>
       <c r="ACE3">
-        <v>-0.07977518028623951</v>
+        <v>-0.08089919781689622</v>
       </c>
       <c r="ACF3">
-        <v>-0.07879593944626617</v>
+        <v>-0.08029353901700241</v>
       </c>
       <c r="ACG3">
-        <v>-0.07133616260113483</v>
+        <v>-0.07512026921829189</v>
       </c>
       <c r="ACH3">
-        <v>-0.07150423471473041</v>
+        <v>-0.07424717413553208</v>
       </c>
       <c r="ACI3">
-        <v>-0.07605704342654618</v>
+        <v>-0.07845588226540877</v>
       </c>
       <c r="ACJ3">
-        <v>-0.08588580756892315</v>
+        <v>-0.08491225336510175</v>
       </c>
       <c r="ACK3">
-        <v>-0.08545961396386689</v>
+        <v>-0.08564747570357249</v>
       </c>
       <c r="ACL3">
-        <v>-0.08275181841726635</v>
+        <v>-0.08316547682987101</v>
       </c>
       <c r="ACM3">
-        <v>-0.07977028007279942</v>
+        <v>-0.08089323780132081</v>
       </c>
       <c r="ACN3">
-        <v>-0.07879593944626261</v>
+        <v>-0.08029353901700098</v>
       </c>
       <c r="ACO3">
-        <v>-0.07133793365429007</v>
+        <v>-0.07512114375987063</v>
       </c>
       <c r="ACP3">
-        <v>-0.07142816898957627</v>
+        <v>-0.07416769916274514</v>
       </c>
       <c r="ACQ3">
-        <v>-0.07605698732550402</v>
+        <v>-0.07846680270484034</v>
       </c>
       <c r="ACR3">
-        <v>-0.08668138435391709</v>
+        <v>-0.08511599913453562</v>
       </c>
       <c r="ACS3">
-        <v>-0.08547414253811343</v>
+        <v>-0.08567725298881529</v>
       </c>
       <c r="ACT3">
-        <v>-0.08546066693858775</v>
+        <v>-0.08565692888536863</v>
       </c>
       <c r="ACU3">
-        <v>-0.08275232381640274</v>
+        <v>-0.08316699733940643</v>
       </c>
       <c r="ACV3">
-        <v>-0.07976353902539642</v>
+        <v>-0.08088503882694881</v>
       </c>
       <c r="ACW3">
-        <v>-0.0787959394462638</v>
+        <v>-0.0802935390169995</v>
       </c>
       <c r="ACX3">
-        <v>-0.07134632800648982</v>
+        <v>-0.07512528886493576</v>
       </c>
       <c r="ACY3">
-        <v>-0.07131016069834567</v>
+        <v>-0.0740444020133995</v>
       </c>
       <c r="ACZ3">
-        <v>-0.07605681540418185</v>
+        <v>-0.0785002686691159</v>
       </c>
       <c r="ADA3">
-        <v>-0.08732632364931374</v>
+        <v>-0.08528114759143142</v>
       </c>
       <c r="ADB3">
-        <v>-0.08548837907656125</v>
+        <v>-0.08570643192801536</v>
       </c>
       <c r="ADC3">
-        <v>-0.08546167371797304</v>
+        <v>-0.08566596737797449</v>
       </c>
       <c r="ADD3">
-        <v>-0.08275303156826408</v>
+        <v>-0.08316912663479778</v>
       </c>
       <c r="ADE3">
-        <v>-0.07975640507523708</v>
+        <v>-0.0808763619803225</v>
       </c>
       <c r="ADF3">
-        <v>-0.07879593944626608</v>
+        <v>-0.08029353901700095</v>
       </c>
       <c r="ADG3">
-        <v>-0.07141810343405876</v>
+        <v>-0.07516073102034233</v>
       </c>
       <c r="ADH3">
-        <v>-0.07107190855951291</v>
+        <v>-0.07379547287503933</v>
       </c>
       <c r="ADI3">
-        <v>-0.08783033068017695</v>
+        <v>-0.08541019573090211</v>
       </c>
       <c r="ADJ3">
-        <v>-0.0854627590792665</v>
+        <v>-0.08567571138693654</v>
       </c>
       <c r="ADK3">
-        <v>-0.08275355673685426</v>
+        <v>-0.08317070662314278</v>
       </c>
       <c r="ADL3">
-        <v>-0.07975166617988846</v>
+        <v>-0.08087059818283918</v>
       </c>
       <c r="ADM3">
-        <v>-0.07879593944626823</v>
+        <v>-0.08029353901700317</v>
       </c>
       <c r="ADN3">
-        <v>-0.07099711416107057</v>
+        <v>-0.07371762578089724</v>
       </c>
       <c r="ADO3">
-        <v>-0.07109351411340011</v>
+        <v>-0.07381626475427583</v>
       </c>
       <c r="ADP3">
-        <v>-0.08828590869483692</v>
+        <v>-0.08552683480489005</v>
       </c>
       <c r="ADQ3">
-        <v>-0.08546372822443861</v>
+        <v>-0.08568441207913645</v>
       </c>
       <c r="ADR3">
-        <v>-0.08275442670076683</v>
+        <v>-0.08317332394212987</v>
       </c>
       <c r="ADS3">
-        <v>-0.07974684311860664</v>
+        <v>-0.08086473201925108</v>
       </c>
       <c r="ADT3">
-        <v>-0.07879593944627195</v>
+        <v>-0.08029353901700381</v>
       </c>
       <c r="ADU3">
-        <v>-0.07093188601830128</v>
+        <v>-0.0736497354731073</v>
       </c>
       <c r="ADV3">
-        <v>-0.071128086825516</v>
+        <v>-0.07384953542679445</v>
       </c>
       <c r="ADW3">
-        <v>-0.08829412825926528</v>
+        <v>-0.08552277486692005</v>
       </c>
       <c r="ADX3">
-        <v>-0.08856257254483388</v>
+        <v>-0.08563148939813234</v>
       </c>
       <c r="ADY3">
-        <v>-0.08546479848427653</v>
+        <v>-0.08569402058385758</v>
       </c>
       <c r="ADZ3">
-        <v>-0.082760465146378</v>
+        <v>-0.08319149088921299</v>
       </c>
       <c r="AEA3">
-        <v>-0.07974453700364795</v>
+        <v>-0.08086192715278902</v>
       </c>
       <c r="AEB3">
-        <v>-0.07879593944627428</v>
+        <v>-0.0802935390170052</v>
       </c>
       <c r="AEC3">
-        <v>-0.07087793911362646</v>
+        <v>-0.07359358688859609</v>
       </c>
       <c r="AED3">
-        <v>-0.07115762649079377</v>
+        <v>-0.07387796258589925</v>
       </c>
       <c r="AEE3">
-        <v>-0.08830236948002482</v>
+        <v>-0.08551870425496134</v>
       </c>
       <c r="AEF3">
-        <v>-0.08886999814276687</v>
+        <v>-0.08574769149005468</v>
       </c>
       <c r="AEG3">
-        <v>-0.08856257254483388</v>
+        <v>-0.08563148939813234</v>
       </c>
       <c r="AEH3">
-        <v>-0.08546548851624487</v>
+        <v>-0.08570021552495687</v>
       </c>
       <c r="AEI3">
-        <v>-0.08277380338755339</v>
+        <v>-0.08323161997004444</v>
       </c>
       <c r="AEJ3">
-        <v>-0.07974086884536333</v>
+        <v>-0.08085746567047153</v>
       </c>
       <c r="AEK3">
-        <v>-0.07879593944627752</v>
+        <v>-0.08029353901700111</v>
       </c>
       <c r="AEL3">
-        <v>-0.07083598721660139</v>
+        <v>-0.07354992289081402</v>
       </c>
       <c r="AEM3">
-        <v>-0.07117434505533077</v>
+        <v>-0.07389405149891193</v>
       </c>
       <c r="AEN3">
-        <v>-0.08831062675900224</v>
+        <v>-0.08551462573426535</v>
       </c>
       <c r="AEO3">
-        <v>-0.08912778007723339</v>
+        <v>-0.08584512531071772</v>
       </c>
       <c r="AEP3">
-        <v>-0.08886999814276687</v>
+        <v>-0.08574769149005468</v>
       </c>
       <c r="AEQ3">
-        <v>-0.08546654835863182</v>
+        <v>-0.08570973056535822</v>
       </c>
       <c r="AER3">
-        <v>-0.07973742525614069</v>
+        <v>-0.08085327732693824</v>
       </c>
       <c r="AES3">
-        <v>-0.07879593944627911</v>
+        <v>-0.08029353901700376</v>
       </c>
       <c r="AET3">
-        <v>-0.07079331939421239</v>
+        <v>-0.07350551378509676</v>
       </c>
       <c r="AEU3">
-        <v>-0.08831883411385491</v>
+        <v>-0.08551057189536986</v>
       </c>
       <c r="AEV3">
-        <v>-0.08940490535697643</v>
+        <v>-0.08594986653045737</v>
       </c>
       <c r="AEW3">
-        <v>-0.08912778007723339</v>
+        <v>-0.08584512531071774</v>
       </c>
       <c r="AEX3">
-        <v>-0.08547526584979798</v>
+        <v>-0.08578799574625398</v>
       </c>
       <c r="AEY3">
-        <v>-0.07973250493421433</v>
+        <v>-0.08084729287621846</v>
       </c>
       <c r="AEZ3">
-        <v>-0.07879593944627911</v>
+        <v>-0.08029353901700376</v>
       </c>
       <c r="AFA3">
-        <v>-0.07075629119077739</v>
+        <v>-0.0734669744811184</v>
       </c>
       <c r="AFB3">
-        <v>-0.08832707272301624</v>
+        <v>-0.08550650264193144</v>
       </c>
       <c r="AFC3">
-        <v>-0.08963244760845733</v>
+        <v>-0.08603586459032338</v>
       </c>
       <c r="AFD3">
-        <v>-0.08940490535697643</v>
+        <v>-0.08594986653045737</v>
       </c>
       <c r="AFE3">
-        <v>-0.08550531052963742</v>
+        <v>-0.08605775433699185</v>
       </c>
       <c r="AFF3">
-        <v>-0.07968056719871945</v>
+        <v>-0.08078412263053227</v>
       </c>
       <c r="AFG3">
-        <v>-0.07072969690194651</v>
+        <v>-0.07343929491048566</v>
       </c>
       <c r="AFH3">
-        <v>-0.08833530579593109</v>
+        <v>-0.08550243614582285</v>
       </c>
       <c r="AFI3">
-        <v>-0.089876751889295</v>
+        <v>-0.08612819478847079</v>
       </c>
       <c r="AFJ3">
-        <v>-0.08963244760845732</v>
+        <v>-0.08603586459032334</v>
       </c>
       <c r="AFK3">
-        <v>-0.07965979321104091</v>
+        <v>-0.08075885596890357</v>
       </c>
       <c r="AFL3">
-        <v>-0.07069882081180141</v>
+        <v>-0.07340715882048611</v>
       </c>
       <c r="AFM3">
-        <v>-0.08834354412965673</v>
+        <v>-0.085498367074141</v>
       </c>
       <c r="AFN3">
-        <v>-0.09042054842385205</v>
+        <v>-0.08633299007714725</v>
       </c>
       <c r="AFO3">
-        <v>-0.08987675188928852</v>
+        <v>-0.08612819478845837</v>
       </c>
       <c r="AFP3">
-        <v>-0.089876751889295</v>
+        <v>-0.08612819478847079</v>
       </c>
       <c r="AFQ3">
-        <v>-0.07964924417249473</v>
+        <v>-0.08074602556874669</v>
       </c>
       <c r="AFR3">
-        <v>-0.07065230542055051</v>
+        <v>-0.07335874525152784</v>
       </c>
       <c r="AFS3">
-        <v>-0.08834756554380344</v>
+        <v>-0.0854963808285517</v>
       </c>
       <c r="AFT3">
-        <v>-0.09050012029862693</v>
+        <v>-0.08636295406050315</v>
       </c>
       <c r="AFU3">
-        <v>-0.089876751889282</v>
+        <v>-0.08612819478844401</v>
       </c>
       <c r="AFV3">
-        <v>-0.08987675188928852</v>
+        <v>-0.08612819478845837</v>
       </c>
       <c r="AFW3">
-        <v>-0.0796469098705634</v>
+        <v>-0.08074318644661353</v>
       </c>
       <c r="AFX3">
-        <v>-0.07057630827563979</v>
+        <v>-0.07327964694218091</v>
       </c>
       <c r="AFY3">
-        <v>-0.08843795131931693</v>
+        <v>-0.08545173917721932</v>
       </c>
       <c r="AFZ3">
-        <v>-0.09072430986606501</v>
+        <v>-0.08644737187923693</v>
       </c>
       <c r="AGA3">
-        <v>-0.08987675188928096</v>
+        <v>-0.08612819478842752</v>
       </c>
       <c r="AGB3">
-        <v>-0.089876751889282</v>
+        <v>-0.08612819478844401</v>
       </c>
       <c r="AGC3">
-        <v>-0.07964507149230786</v>
+        <v>-0.08074095049793555</v>
       </c>
       <c r="AGD3">
-        <v>-0.06995962522527067</v>
+        <v>-0.07261728530075939</v>
       </c>
       <c r="AGE3">
-        <v>-0.0705945250103177</v>
+        <v>-0.07335325209955611</v>
       </c>
       <c r="AGF3">
-        <v>-0.08849673150218304</v>
+        <v>-0.08542270904563928</v>
       </c>
       <c r="AGG3">
-        <v>-0.09098759790892907</v>
+        <v>-0.08654650431913721</v>
       </c>
       <c r="AGH3">
-        <v>-0.08987675188927928</v>
+        <v>-0.0861281947884142</v>
       </c>
       <c r="AGI3">
-        <v>-0.08987675188928096</v>
+        <v>-0.08612819478842752</v>
       </c>
       <c r="AGJ3">
-        <v>-0.07964310178938107</v>
+        <v>-0.08073855482456858</v>
       </c>
       <c r="AGK3">
-        <v>-0.08854814327268032</v>
+        <v>-0.08539731895139337</v>
       </c>
       <c r="AGL3">
-        <v>-0.09102175468564123</v>
+        <v>-0.08655936431275335</v>
       </c>
       <c r="AGM3">
-        <v>-0.08987675188927781</v>
+        <v>-0.08612819478840784</v>
       </c>
       <c r="AGN3">
-        <v>-0.08987675188927928</v>
+        <v>-0.0861281947884142</v>
       </c>
       <c r="AGO3">
-        <v>-0.07964152588240345</v>
+        <v>-0.08073663811029523</v>
       </c>
       <c r="AGP3">
-        <v>-0.08860207345153998</v>
+        <v>-0.08537068607869575</v>
       </c>
       <c r="AGQ3">
-        <v>-0.09105717673559324</v>
+        <v>-0.08656514032584665</v>
       </c>
       <c r="AGR3">
-        <v>-0.09103846728914139</v>
+        <v>-0.08658247720504691</v>
       </c>
       <c r="AGS3">
-        <v>-0.08987675188927774</v>
+        <v>-0.08612819478840779</v>
       </c>
       <c r="AGT3">
-        <v>-0.08987675188927778</v>
+        <v>-0.08612819478840782</v>
       </c>
       <c r="AGU3">
-        <v>-0.07963999574072639</v>
+        <v>-0.08073477705886163</v>
       </c>
       <c r="AGV3">
-        <v>-0.08869416453220788</v>
+        <v>-0.08532521009542041</v>
       </c>
       <c r="AGW3">
-        <v>-0.09108995428447748</v>
+        <v>-0.08657048504087227</v>
       </c>
       <c r="AGX3">
-        <v>-0.09107757984652461</v>
+        <v>-0.08663656867643181</v>
       </c>
       <c r="AGY3">
-        <v>-0.08987675188927774</v>
+        <v>-0.08612819478840779</v>
       </c>
       <c r="AGZ3">
-        <v>-0.08987675188927773</v>
+        <v>-0.08612819478840775</v>
       </c>
       <c r="AHA3">
-        <v>-0.07963846947946686</v>
+        <v>-0.08073292072730784</v>
       </c>
       <c r="AHB3">
-        <v>-0.08871675368052026</v>
+        <v>-0.08531405566488609</v>
       </c>
       <c r="AHC3">
-        <v>-0.09113979648925519</v>
+        <v>-0.0865786121777726</v>
       </c>
       <c r="AHD3">
-        <v>-0.09117036969272285</v>
+        <v>-0.08676489587056625</v>
       </c>
       <c r="AHE3">
-        <v>-0.0796369610749294</v>
+        <v>-0.08073108611445881</v>
       </c>
       <c r="AHF3">
-        <v>-0.08875310511863349</v>
+        <v>-0.08531512898308445</v>
       </c>
       <c r="AHG3">
-        <v>-0.08868750739447226</v>
+        <v>-0.08527444640410396</v>
       </c>
       <c r="AHH3">
-        <v>-0.09120278525089477</v>
+        <v>-0.0865888827068539</v>
       </c>
       <c r="AHI3">
-        <v>-0.07960998756487482</v>
+        <v>-0.08069827934595765</v>
       </c>
       <c r="AHJ3">
-        <v>-0.08881279264970846</v>
+        <v>-0.08531689128891891</v>
       </c>
       <c r="AHK3">
-        <v>-0.08866270220926871</v>
+        <v>-0.08524085198754203</v>
       </c>
       <c r="AHL3">
-        <v>-0.0914480188667125</v>
+        <v>-0.08662886620953093</v>
       </c>
       <c r="AHM3">
-        <v>-0.07944523666266483</v>
+        <v>-0.08053358564132657</v>
       </c>
       <c r="AHN3">
-        <v>-0.07963110411478008</v>
+        <v>-0.08070399814710226</v>
       </c>
       <c r="AHO3">
-        <v>-0.08882459439794262</v>
+        <v>-0.08531723973624583</v>
       </c>
       <c r="AHP3">
-        <v>-0.08862100895909085</v>
+        <v>-0.08518438577260744</v>
       </c>
       <c r="AHQ3">
-        <v>-0.09189358158649093</v>
+        <v>-0.08670150103364381</v>
       </c>
       <c r="AHR3">
-        <v>-0.07933582318272699</v>
+        <v>-0.08042421014714973</v>
       </c>
       <c r="AHS3">
-        <v>-0.08883456667597231</v>
+        <v>-0.08531753416693433</v>
       </c>
       <c r="AHT3">
-        <v>-0.08884297032055957</v>
+        <v>-0.08531778228284082</v>
       </c>
       <c r="AHU3">
-        <v>-0.08885390211433655</v>
+        <v>-0.08531810504046264</v>
       </c>
       <c r="AHV3">
-        <v>-0.08887368711220801</v>
+        <v>-0.08531868918205837</v>
       </c>
       <c r="AHW3">
-        <v>-0.08890799122494245</v>
+        <v>-0.08531970198071619</v>
       </c>
       <c r="AHX3">
-        <v>-0.08918900040955562</v>
+        <v>-0.0853279979499679</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -5829,2722 +5829,2722 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.07837925135774969</v>
+        <v>-0.06797375359941089</v>
       </c>
       <c r="D3">
-        <v>-0.07824841720318731</v>
+        <v>-0.06775035445605343</v>
       </c>
       <c r="E3">
-        <v>-0.07823469983275989</v>
+        <v>-0.06772693233069058</v>
       </c>
       <c r="F3">
-        <v>-0.07822184859769163</v>
+        <v>-0.06770498915933376</v>
       </c>
       <c r="G3">
-        <v>-0.07821064399803875</v>
+        <v>-0.06768585761408641</v>
       </c>
       <c r="H3">
-        <v>-0.07819299203671366</v>
+        <v>-0.06765571744478452</v>
       </c>
       <c r="I3">
-        <v>-0.07699006195004714</v>
+        <v>-0.06560194923931953</v>
       </c>
       <c r="J3">
-        <v>-0.07693614246900271</v>
+        <v>-0.06550990135220405</v>
       </c>
       <c r="K3">
-        <v>-0.07689126151967361</v>
+        <v>-0.06543328406311884</v>
       </c>
       <c r="L3">
-        <v>-0.07685187284571214</v>
+        <v>-0.06536604320770407</v>
       </c>
       <c r="M3">
-        <v>-0.07682248019311091</v>
+        <v>-0.06531586694592025</v>
       </c>
       <c r="N3">
-        <v>-0.07679488674837298</v>
+        <v>-0.06526876232687938</v>
       </c>
       <c r="O3">
-        <v>-0.07677791882993522</v>
+        <v>-0.06523979658732471</v>
       </c>
       <c r="P3">
-        <v>-0.07673567476334198</v>
+        <v>-0.06516768255998751</v>
       </c>
       <c r="Q3">
-        <v>-0.07639338080496461</v>
+        <v>-0.06458337684301182</v>
       </c>
       <c r="R3">
-        <v>-0.07639338080496189</v>
+        <v>-0.06458337684301022</v>
       </c>
       <c r="S3">
-        <v>-0.07597809565633074</v>
+        <v>-0.06387451526733662</v>
       </c>
       <c r="T3">
-        <v>-0.07639338080496065</v>
+        <v>-0.06458337684300974</v>
       </c>
       <c r="U3">
-        <v>-0.07594951363348651</v>
+        <v>-0.06382572953341065</v>
       </c>
       <c r="V3">
-        <v>-0.07639338080495955</v>
+        <v>-0.06458337684300966</v>
       </c>
       <c r="W3">
-        <v>-0.07591741814957995</v>
+        <v>-0.06377094704731223</v>
       </c>
       <c r="X3">
-        <v>-0.07639338080495871</v>
+        <v>-0.06458337684300915</v>
       </c>
       <c r="Y3">
-        <v>-0.07586515747222063</v>
+        <v>-0.06368174599793508</v>
       </c>
       <c r="Z3">
-        <v>-0.07639338080495855</v>
+        <v>-0.06458337684300933</v>
       </c>
       <c r="AA3">
-        <v>-0.07577007395606165</v>
+        <v>-0.06351945473793459</v>
       </c>
       <c r="AB3">
-        <v>-0.076393380804959</v>
+        <v>-0.06458337684301024</v>
       </c>
       <c r="AC3">
-        <v>-0.07549295317962089</v>
+        <v>-0.0631025271638124</v>
       </c>
       <c r="AD3">
-        <v>-0.07462760253092848</v>
+        <v>-0.06172500984855208</v>
       </c>
       <c r="AE3">
-        <v>-0.07639338080495961</v>
+        <v>-0.06458337684301088</v>
       </c>
       <c r="AF3">
-        <v>-0.07541246148955884</v>
+        <v>-0.06299616869746964</v>
       </c>
       <c r="AG3">
-        <v>-0.07549700163421393</v>
+        <v>-0.06309426001026312</v>
       </c>
       <c r="AH3">
-        <v>-0.07432318454370729</v>
+        <v>-0.0612469139227353</v>
       </c>
       <c r="AI3">
-        <v>-0.07639338080496222</v>
+        <v>-0.06458337684301256</v>
       </c>
       <c r="AJ3">
-        <v>-0.07522812616366156</v>
+        <v>-0.06275260018528216</v>
       </c>
       <c r="AK3">
-        <v>-0.07549713873627935</v>
+        <v>-0.06309398004157439</v>
       </c>
       <c r="AL3">
-        <v>-0.07454588556873223</v>
+        <v>-0.06133799159494097</v>
       </c>
       <c r="AM3">
-        <v>-0.07314994275047687</v>
+        <v>-0.05969711372523993</v>
       </c>
       <c r="AN3">
-        <v>-0.07639338080496476</v>
+        <v>-0.06458337684301385</v>
       </c>
       <c r="AO3">
-        <v>-0.07549733586434508</v>
+        <v>-0.06309357749714044</v>
       </c>
       <c r="AP3">
-        <v>-0.07455833013940451</v>
+        <v>-0.06134124272697045</v>
       </c>
       <c r="AQ3">
-        <v>-0.07455994459682361</v>
+        <v>-0.06135204089155373</v>
       </c>
       <c r="AR3">
-        <v>-0.07233503878874759</v>
+        <v>-0.05862073915483158</v>
       </c>
       <c r="AS3">
-        <v>-0.07314994275048317</v>
+        <v>-0.05969711372521101</v>
       </c>
       <c r="AT3">
-        <v>-0.07639338080496563</v>
+        <v>-0.06458337684301399</v>
       </c>
       <c r="AU3">
-        <v>-0.07549758866779485</v>
+        <v>-0.06309306126121927</v>
       </c>
       <c r="AV3">
-        <v>-0.07456393930292518</v>
+        <v>-0.06134270811104707</v>
       </c>
       <c r="AW3">
-        <v>-0.07459377365061087</v>
+        <v>-0.06138584652905429</v>
       </c>
       <c r="AX3">
-        <v>-0.07171884166432244</v>
+        <v>-0.0578068706927056</v>
       </c>
       <c r="AY3">
-        <v>-0.07314994275049339</v>
+        <v>-0.05969711372520033</v>
       </c>
       <c r="AZ3">
-        <v>-0.0763933808049662</v>
+        <v>-0.0645833768430137</v>
       </c>
       <c r="BA3">
-        <v>-0.07549820435880637</v>
+        <v>-0.06309180399346735</v>
       </c>
       <c r="BB3">
-        <v>-0.07456988383117316</v>
+        <v>-0.06134426110554278</v>
       </c>
       <c r="BC3">
-        <v>-0.07162996937329398</v>
+        <v>-0.05768949183755835</v>
       </c>
       <c r="BD3">
-        <v>-0.07171884166430846</v>
+        <v>-0.05780687069265085</v>
       </c>
       <c r="BE3">
-        <v>-0.07314994275050565</v>
+        <v>-0.05969711372518933</v>
       </c>
       <c r="BF3">
-        <v>-0.07639338080496751</v>
+        <v>-0.06458337684301294</v>
       </c>
       <c r="BG3">
-        <v>-0.07549873150356459</v>
+        <v>-0.06309072754186321</v>
       </c>
       <c r="BH3">
-        <v>-0.07457554559795353</v>
+        <v>-0.06134574022635444</v>
       </c>
       <c r="BI3">
-        <v>-0.07122730953925709</v>
+        <v>-0.05715768478280955</v>
       </c>
       <c r="BJ3">
-        <v>-0.07171884166430861</v>
+        <v>-0.05780687069264524</v>
       </c>
       <c r="BK3">
-        <v>-0.07314994275051999</v>
+        <v>-0.05969711372518802</v>
       </c>
       <c r="BL3">
-        <v>-0.0763933808049687</v>
+        <v>-0.06458337684301227</v>
       </c>
       <c r="BM3">
-        <v>-0.07550125845729154</v>
+        <v>-0.06308556740779299</v>
       </c>
       <c r="BN3">
-        <v>-0.07457893644326366</v>
+        <v>-0.06134662607390037</v>
       </c>
       <c r="BO3">
-        <v>-0.07113715671262383</v>
+        <v>-0.05703503586676629</v>
       </c>
       <c r="BP3">
-        <v>-0.07124827836832918</v>
+        <v>-0.05729303070239974</v>
       </c>
       <c r="BQ3">
-        <v>-0.07171884166430932</v>
+        <v>-0.05780687069264193</v>
       </c>
       <c r="BR3">
-        <v>-0.07314994275052718</v>
+        <v>-0.05969711372519198</v>
       </c>
       <c r="BS3">
-        <v>-0.07639338080496999</v>
+        <v>-0.06458337684301127</v>
       </c>
       <c r="BT3">
-        <v>-0.07551019051523031</v>
+        <v>-0.06306732795638455</v>
       </c>
       <c r="BU3">
-        <v>-0.07458558904807597</v>
+        <v>-0.06134836404279482</v>
       </c>
       <c r="BV3">
-        <v>-0.07007153767938182</v>
+        <v>-0.05558537615798279</v>
       </c>
       <c r="BW3">
-        <v>-0.07117381231848982</v>
+        <v>-0.0572808458191479</v>
       </c>
       <c r="BX3">
-        <v>-0.07133299586877773</v>
+        <v>-0.05737137901655531</v>
       </c>
       <c r="BY3">
-        <v>-0.07171884166431307</v>
+        <v>-0.05780687069264208</v>
       </c>
       <c r="BZ3">
-        <v>-0.07314994275053686</v>
+        <v>-0.05969711372520254</v>
       </c>
       <c r="CA3">
-        <v>-0.07639338080497518</v>
+        <v>-0.06458337684300532</v>
       </c>
       <c r="CB3">
-        <v>-0.07461930501506203</v>
+        <v>-0.06135717215705475</v>
       </c>
       <c r="CC3">
-        <v>-0.06969987498422608</v>
+        <v>-0.05507979850535396</v>
       </c>
       <c r="CD3">
-        <v>-0.07171884166431132</v>
+        <v>-0.05780687069263994</v>
       </c>
       <c r="CE3">
-        <v>-0.07314994275056565</v>
+        <v>-0.0596971137252341</v>
       </c>
       <c r="CF3">
-        <v>-0.07639338080498173</v>
+        <v>-0.06458337684299713</v>
       </c>
       <c r="CG3">
-        <v>-0.07474635895838136</v>
+        <v>-0.06139036341435944</v>
       </c>
       <c r="CH3">
-        <v>-0.06961875120304357</v>
+        <v>-0.05496944677612407</v>
       </c>
       <c r="CI3">
-        <v>-0.07171884166431029</v>
+        <v>-0.05780687069263853</v>
       </c>
       <c r="CJ3">
-        <v>-0.07314994275061895</v>
+        <v>-0.05969711372530263</v>
       </c>
       <c r="CK3">
-        <v>-0.07639338080498573</v>
+        <v>-0.06458337684299155</v>
       </c>
       <c r="CL3">
-        <v>-0.06945422867638479</v>
+        <v>-0.0547456509298963</v>
       </c>
       <c r="CM3">
-        <v>-0.07171884166431029</v>
+        <v>-0.05780687069263853</v>
       </c>
       <c r="CN3">
-        <v>-0.07314994275063488</v>
+        <v>-0.05969711372532421</v>
       </c>
       <c r="CO3">
-        <v>-0.07639338080498763</v>
+        <v>-0.06458337684298993</v>
       </c>
       <c r="CP3">
-        <v>-0.06929905628686868</v>
+        <v>-0.0545345765638955</v>
       </c>
       <c r="CQ3">
-        <v>-0.07314994275063549</v>
+        <v>-0.05969711372532593</v>
       </c>
       <c r="CR3">
-        <v>-0.07639338080498766</v>
+        <v>-0.06458337684298963</v>
       </c>
       <c r="CS3">
-        <v>-0.06920885536676008</v>
+        <v>-0.05441188132489024</v>
       </c>
       <c r="CT3">
-        <v>-0.0731499427506343</v>
+        <v>-0.05969711372533085</v>
       </c>
       <c r="CU3">
-        <v>-0.07639338080498785</v>
+        <v>-0.06458337684298937</v>
       </c>
       <c r="CV3">
-        <v>-0.06914928079841196</v>
+        <v>-0.05433084587985412</v>
       </c>
       <c r="CW3">
-        <v>-0.07314994275063651</v>
+        <v>-0.05969711372532838</v>
       </c>
       <c r="CX3">
-        <v>-0.07639338080498817</v>
+        <v>-0.06458337684298918</v>
       </c>
       <c r="CY3">
-        <v>-0.0690670202344454</v>
+        <v>-0.05421895277808279</v>
       </c>
       <c r="CZ3">
-        <v>-0.07314994275104843</v>
+        <v>-0.05969711372546102</v>
       </c>
       <c r="DA3">
-        <v>-0.07639338080498817</v>
+        <v>-0.06458337684298918</v>
       </c>
       <c r="DB3">
-        <v>-0.06908487090211386</v>
+        <v>-0.05424244210397884</v>
       </c>
       <c r="DC3">
-        <v>-0.06899244727468042</v>
+        <v>-0.05411790587466603</v>
       </c>
       <c r="DD3">
-        <v>-0.07314994275106634</v>
+        <v>-0.05969711372547019</v>
       </c>
       <c r="DE3">
-        <v>-0.06910646776787194</v>
+        <v>-0.05427086098292618</v>
       </c>
       <c r="DF3">
-        <v>-0.06895015942112441</v>
+        <v>-0.05406060579017231</v>
       </c>
       <c r="DG3">
-        <v>-0.07314994275110641</v>
+        <v>-0.05969711372549313</v>
       </c>
       <c r="DH3">
-        <v>-0.06913150010335212</v>
+        <v>-0.05430380053816071</v>
       </c>
       <c r="DI3">
-        <v>-0.06728084956105333</v>
+        <v>-0.05179884240975796</v>
       </c>
       <c r="DJ3">
-        <v>-0.07314994275224107</v>
+        <v>-0.05969711372609299</v>
       </c>
       <c r="DK3">
-        <v>-0.06916966704637734</v>
+        <v>-0.05435402368678765</v>
       </c>
       <c r="DL3">
-        <v>-0.06711354105137506</v>
+        <v>-0.05157217103341242</v>
       </c>
       <c r="DM3">
-        <v>-0.0731499427532501</v>
+        <v>-0.05969711372662138</v>
       </c>
       <c r="DN3">
-        <v>-0.06921873592273947</v>
+        <v>-0.05441859252145692</v>
       </c>
       <c r="DO3">
-        <v>-0.06715825307045066</v>
+        <v>-0.05165116909062333</v>
       </c>
       <c r="DP3">
-        <v>-0.06723890368142124</v>
+        <v>-0.0512766015623775</v>
       </c>
       <c r="DQ3">
-        <v>-0.0731499427533404</v>
+        <v>-0.05969711372667216</v>
       </c>
       <c r="DR3">
-        <v>-0.06925396275676843</v>
+        <v>-0.05446494689483559</v>
       </c>
       <c r="DS3">
-        <v>-0.06715825307045167</v>
+        <v>-0.05165116909062469</v>
       </c>
       <c r="DT3">
-        <v>-0.06718002311817722</v>
+        <v>-0.05168963287570998</v>
       </c>
       <c r="DU3">
-        <v>-0.06746505619398938</v>
+        <v>-0.05074343969916345</v>
       </c>
       <c r="DV3">
-        <v>-0.073149942753405</v>
+        <v>-0.05969711372670577</v>
       </c>
       <c r="DW3">
-        <v>-0.06930373811277801</v>
+        <v>-0.05453044545372141</v>
       </c>
       <c r="DX3">
-        <v>-0.06715825307045263</v>
+        <v>-0.05165116909062592</v>
       </c>
       <c r="DY3">
-        <v>-0.06728229182258862</v>
+        <v>-0.05187032380147063</v>
       </c>
       <c r="DZ3">
-        <v>-0.06756678932604777</v>
+        <v>-0.05050361796998685</v>
       </c>
       <c r="EA3">
-        <v>-0.07314994275346702</v>
+        <v>-0.05969711372673578</v>
       </c>
       <c r="EB3">
-        <v>-0.06935759160096017</v>
+        <v>-0.05460131041195716</v>
       </c>
       <c r="EC3">
-        <v>-0.06715825307045289</v>
+        <v>-0.05165116909062654</v>
       </c>
       <c r="ED3">
-        <v>-0.06725000490485626</v>
+        <v>-0.05180818404515153</v>
       </c>
       <c r="EE3">
-        <v>-0.06749974096192367</v>
+        <v>-0.05235354536888547</v>
       </c>
       <c r="EF3">
-        <v>-0.06759706161472942</v>
+        <v>-0.05043225734066319</v>
       </c>
       <c r="EG3">
-        <v>-0.07314994275365301</v>
+        <v>-0.0596971137268202</v>
       </c>
       <c r="EH3">
-        <v>-0.06940837989983281</v>
+        <v>-0.05466814198662742</v>
       </c>
       <c r="EI3">
-        <v>-0.06715825307045359</v>
+        <v>-0.05165116909062776</v>
       </c>
       <c r="EJ3">
-        <v>-0.06724722432856269</v>
+        <v>-0.05180283255721046</v>
       </c>
       <c r="EK3">
-        <v>-0.06766151299970211</v>
+        <v>-0.05271304355627933</v>
       </c>
       <c r="EL3">
-        <v>-0.067631235180118</v>
+        <v>-0.05035170141227858</v>
       </c>
       <c r="EM3">
-        <v>-0.07314994275378928</v>
+        <v>-0.05969711372688287</v>
       </c>
       <c r="EN3">
-        <v>-0.06949188423286479</v>
+        <v>-0.05477802421622018</v>
       </c>
       <c r="EO3">
-        <v>-0.06715825307045394</v>
+        <v>-0.05165116909062895</v>
       </c>
       <c r="EP3">
-        <v>-0.06724449604859191</v>
+        <v>-0.0517975817247262</v>
       </c>
       <c r="EQ3">
-        <v>-0.06776984841275231</v>
+        <v>-0.05295379394207619</v>
       </c>
       <c r="ER3">
-        <v>-0.06766337686638299</v>
+        <v>-0.05027593626126692</v>
       </c>
       <c r="ES3">
-        <v>-0.07314994275381258</v>
+        <v>-0.05969711372688994</v>
       </c>
       <c r="ET3">
-        <v>-0.0698889336050014</v>
+        <v>-0.05530049797432024</v>
       </c>
       <c r="EU3">
-        <v>-0.06715825307045389</v>
+        <v>-0.05165116909063015</v>
       </c>
       <c r="EV3">
-        <v>-0.06724229307344248</v>
+        <v>-0.05179334189540794</v>
       </c>
       <c r="EW3">
-        <v>-0.06781274052429591</v>
+        <v>-0.05301860433612405</v>
       </c>
       <c r="EX3">
-        <v>-0.06788974889235148</v>
+        <v>-0.05328030755169601</v>
       </c>
       <c r="EY3">
-        <v>-0.06770088261648957</v>
+        <v>-0.05018752817469908</v>
       </c>
       <c r="EZ3">
-        <v>-0.07314994275382257</v>
+        <v>-0.05969711372689124</v>
       </c>
       <c r="FA3">
-        <v>-0.06997542973148901</v>
+        <v>-0.05541431786248224</v>
       </c>
       <c r="FB3">
-        <v>-0.0671582530704542</v>
+        <v>-0.05165116909063098</v>
       </c>
       <c r="FC3">
-        <v>-0.06723898657500502</v>
+        <v>-0.05178697824093625</v>
       </c>
       <c r="FD3">
-        <v>-0.06792649336383288</v>
+        <v>-0.05319048628994386</v>
       </c>
       <c r="FE3">
-        <v>-0.06789704702266093</v>
+        <v>-0.05330018285185628</v>
       </c>
       <c r="FF3">
-        <v>-0.06771167520807536</v>
+        <v>-0.05016208828454705</v>
       </c>
       <c r="FG3">
-        <v>-0.07314994275381996</v>
+        <v>-0.05969711372689083</v>
       </c>
       <c r="FH3">
-        <v>-0.07035205464923629</v>
+        <v>-0.05550831673862936</v>
       </c>
       <c r="FI3">
-        <v>-0.07017251044344577</v>
+        <v>-0.05581230279195505</v>
       </c>
       <c r="FJ3">
-        <v>-0.06715825307045396</v>
+        <v>-0.05165116909063121</v>
       </c>
       <c r="FK3">
-        <v>-0.067235000209296</v>
+        <v>-0.05177930613242233</v>
       </c>
       <c r="FL3">
-        <v>-0.06796600607988747</v>
+        <v>-0.05325019060241169</v>
       </c>
       <c r="FM3">
-        <v>-0.06790371427296339</v>
+        <v>-0.05331834015007915</v>
       </c>
       <c r="FN3">
-        <v>-0.06777299394879918</v>
+        <v>-0.05001755236858945</v>
       </c>
       <c r="FO3">
-        <v>-0.07314994275381996</v>
+        <v>-0.05969711372689083</v>
       </c>
       <c r="FP3">
-        <v>-0.07042321273034131</v>
+        <v>-0.05552607516813712</v>
       </c>
       <c r="FQ3">
-        <v>-0.07043415882562765</v>
+        <v>-0.0563406814062854</v>
       </c>
       <c r="FR3">
-        <v>-0.06715825307045384</v>
+        <v>-0.05165116909063067</v>
       </c>
       <c r="FS3">
-        <v>-0.06723198858365421</v>
+        <v>-0.05177351000477128</v>
       </c>
       <c r="FT3">
-        <v>-0.0679660060795407</v>
+        <v>-0.05325019060224899</v>
       </c>
       <c r="FU3">
-        <v>-0.06803159573160167</v>
+        <v>-0.05334941986972697</v>
       </c>
       <c r="FV3">
-        <v>-0.06790648394639995</v>
+        <v>-0.05332588298570915</v>
       </c>
       <c r="FW3">
-        <v>-0.06780763037175806</v>
+        <v>-0.04993591173711212</v>
       </c>
       <c r="FX3">
-        <v>-0.07057003349046803</v>
+        <v>-0.05556271484156616</v>
       </c>
       <c r="FY3">
-        <v>-0.0704640816696649</v>
+        <v>-0.05637541766826547</v>
       </c>
       <c r="FZ3">
-        <v>-0.07047119772666756</v>
+        <v>-0.0564849028376726</v>
       </c>
       <c r="GA3">
-        <v>-0.06715825307045338</v>
+        <v>-0.05165116909062972</v>
       </c>
       <c r="GB3">
-        <v>-0.06722850359887876</v>
+        <v>-0.05176680286675089</v>
       </c>
       <c r="GC3">
-        <v>-0.06796600607948865</v>
+        <v>-0.05325019060222311</v>
       </c>
       <c r="GD3">
-        <v>-0.06803867959445878</v>
+        <v>-0.05336013699474193</v>
       </c>
       <c r="GE3">
-        <v>-0.0679124539569517</v>
+        <v>-0.05334214156783373</v>
       </c>
       <c r="GF3">
-        <v>-0.06783334344999224</v>
+        <v>-0.04987530490465514</v>
       </c>
       <c r="GG3">
-        <v>-0.07058183651117377</v>
+        <v>-0.0565121147433894</v>
       </c>
       <c r="GH3">
-        <v>-0.0706245006963421</v>
+        <v>-0.05708190630123291</v>
       </c>
       <c r="GI3">
-        <v>-0.06715825307045246</v>
+        <v>-0.05165116909062886</v>
       </c>
       <c r="GJ3">
-        <v>-0.06722522680446373</v>
+        <v>-0.0517604964171214</v>
       </c>
       <c r="GK3">
-        <v>-0.06796600607948894</v>
+        <v>-0.05325019060222337</v>
       </c>
       <c r="GL3">
-        <v>-0.06796600607946389</v>
+        <v>-0.05325019060220944</v>
       </c>
       <c r="GM3">
-        <v>-0.06804553166113296</v>
+        <v>-0.05337050345388393</v>
       </c>
       <c r="GN3">
-        <v>-0.0679276595769623</v>
+        <v>-0.05338355252975623</v>
       </c>
       <c r="GO3">
-        <v>-0.06785646180156148</v>
+        <v>-0.04982081454404032</v>
       </c>
       <c r="GP3">
-        <v>-0.07079208380506063</v>
+        <v>-0.05675618305214954</v>
       </c>
       <c r="GQ3">
-        <v>-0.07063919587711813</v>
+        <v>-0.05709659057103299</v>
       </c>
       <c r="GR3">
-        <v>-0.07063332511460217</v>
+        <v>-0.05714086619171133</v>
       </c>
       <c r="GS3">
-        <v>-0.06715825307045246</v>
+        <v>-0.05165116909062901</v>
       </c>
       <c r="GT3">
-        <v>-0.06722170115617876</v>
+        <v>-0.05175371103833438</v>
       </c>
       <c r="GU3">
-        <v>-0.06796600607948894</v>
+        <v>-0.05325019060222337</v>
       </c>
       <c r="GV3">
-        <v>-0.06796600607944929</v>
+        <v>-0.0532501906022064</v>
       </c>
       <c r="GW3">
-        <v>-0.06805101264328227</v>
+        <v>-0.05337879561772422</v>
       </c>
       <c r="GX3">
-        <v>-0.06793658068778653</v>
+        <v>-0.05340784849954997</v>
       </c>
       <c r="GY3">
-        <v>-0.06788518280162907</v>
+        <v>-0.04975311941981594</v>
       </c>
       <c r="GZ3">
-        <v>-0.07079410056190774</v>
+        <v>-0.05673344826564117</v>
       </c>
       <c r="HA3">
-        <v>-0.07082302764914132</v>
+        <v>-0.05680834851307025</v>
       </c>
       <c r="HB3">
-        <v>-0.07067634938508359</v>
+        <v>-0.05713371649268158</v>
       </c>
       <c r="HC3">
-        <v>-0.07063457245777548</v>
+        <v>-0.05714920035885573</v>
       </c>
       <c r="HD3">
-        <v>-0.06715825307045255</v>
+        <v>-0.05165116909062899</v>
       </c>
       <c r="HE3">
-        <v>-0.06721631147762772</v>
+        <v>-0.05174333821082578</v>
       </c>
       <c r="HF3">
-        <v>-0.06796600607944168</v>
+        <v>-0.05325019060220659</v>
       </c>
       <c r="HG3">
-        <v>-0.06805537868756267</v>
+        <v>-0.05338540100253162</v>
       </c>
       <c r="HH3">
-        <v>-0.06794282908593952</v>
+        <v>-0.05342486564024469</v>
       </c>
       <c r="HI3">
-        <v>-0.06793818683291618</v>
+        <v>-0.04962819168321108</v>
       </c>
       <c r="HJ3">
-        <v>-0.07080070200473662</v>
+        <v>-0.05665903237055975</v>
       </c>
       <c r="HK3">
-        <v>-0.07087887610376344</v>
+        <v>-0.05690249855982226</v>
       </c>
       <c r="HL3">
-        <v>-0.07063557840527804</v>
+        <v>-0.05715592165198953</v>
       </c>
       <c r="HM3">
-        <v>-0.06715825307045253</v>
+        <v>-0.05165116909062899</v>
       </c>
       <c r="HN3">
-        <v>-0.06720159271745089</v>
+        <v>-0.0517150110092516</v>
       </c>
       <c r="HO3">
-        <v>-0.06796600607944547</v>
+        <v>-0.05325019060220501</v>
       </c>
       <c r="HP3">
-        <v>-0.06806460923327345</v>
+        <v>-0.05339936590977683</v>
       </c>
       <c r="HQ3">
-        <v>-0.06795484854049609</v>
+        <v>-0.05345760014484673</v>
       </c>
       <c r="HR3">
-        <v>-0.06798440239681358</v>
+        <v>-0.04951926640390286</v>
       </c>
       <c r="HS3">
-        <v>-0.07080354793196192</v>
+        <v>-0.05662695201842107</v>
       </c>
       <c r="HT3">
-        <v>-0.07089881715491859</v>
+        <v>-0.05693611548184253</v>
       </c>
       <c r="HU3">
-        <v>-0.07063638230654422</v>
+        <v>-0.05716129297475794</v>
       </c>
       <c r="HV3">
-        <v>-0.06720033773999284</v>
+        <v>-0.05171259573250128</v>
       </c>
       <c r="HW3">
-        <v>-0.06796600607945176</v>
+        <v>-0.05325019060221348</v>
       </c>
       <c r="HX3">
-        <v>-0.0680718785355669</v>
+        <v>-0.05341036366997288</v>
       </c>
       <c r="HY3">
-        <v>-0.06796083107001058</v>
+        <v>-0.0534738934404215</v>
       </c>
       <c r="HZ3">
-        <v>-0.06801584275427607</v>
+        <v>-0.04944516602460045</v>
       </c>
       <c r="IA3">
-        <v>-0.07111986000854638</v>
+        <v>-0.05731114712675041</v>
       </c>
       <c r="IB3">
-        <v>-0.07089881715491859</v>
+        <v>-0.05693611548184253</v>
       </c>
       <c r="IC3">
-        <v>-0.07063760947009146</v>
+        <v>-0.05716949237576655</v>
       </c>
       <c r="ID3">
-        <v>-0.06719975807721006</v>
+        <v>-0.05171148013836158</v>
       </c>
       <c r="IE3">
-        <v>-0.06796600607945423</v>
+        <v>-0.05325019060222302</v>
       </c>
       <c r="IF3">
-        <v>-0.06807692090016348</v>
+        <v>-0.05341799229708044</v>
       </c>
       <c r="IG3">
-        <v>-0.067965079045518</v>
+        <v>-0.05348546276051412</v>
       </c>
       <c r="IH3">
-        <v>-0.06803649742225253</v>
+        <v>-0.04939648651851555</v>
       </c>
       <c r="II3">
-        <v>-0.07115196215720287</v>
+        <v>-0.05736561532467507</v>
       </c>
       <c r="IJ3">
-        <v>-0.07063904795390551</v>
+        <v>-0.05717910376490531</v>
       </c>
       <c r="IK3">
-        <v>-0.06719913805737877</v>
+        <v>-0.05171028687507738</v>
       </c>
       <c r="IL3">
-        <v>-0.06796600607945275</v>
+        <v>-0.0532501906022376</v>
       </c>
       <c r="IM3">
-        <v>-0.0680819512640476</v>
+        <v>-0.05342560277719455</v>
       </c>
       <c r="IN3">
-        <v>-0.06801367466960562</v>
+        <v>-0.05361781522072652</v>
       </c>
       <c r="IO3">
-        <v>-0.06808095259730659</v>
+        <v>-0.04929171481461726</v>
       </c>
       <c r="IP3">
-        <v>-0.07119382570876669</v>
+        <v>-0.05749138634433447</v>
       </c>
       <c r="IQ3">
-        <v>-0.07120863702672814</v>
+        <v>-0.0574070388761404</v>
       </c>
       <c r="IR3">
-        <v>-0.07064125738146125</v>
+        <v>-0.05719386636994277</v>
       </c>
       <c r="IS3">
-        <v>-0.06719854560082054</v>
+        <v>-0.05170914665916723</v>
       </c>
       <c r="IT3">
-        <v>-0.06796600607945971</v>
+        <v>-0.05325019060224634</v>
       </c>
       <c r="IU3">
-        <v>-0.06808931048301077</v>
+        <v>-0.05343673661801122</v>
       </c>
       <c r="IV3">
-        <v>-0.06802800493398341</v>
+        <v>-0.05365684533298951</v>
       </c>
       <c r="IW3">
-        <v>-0.06818619627011553</v>
+        <v>-0.04928645244366643</v>
       </c>
       <c r="IX3">
-        <v>-0.06809136589044312</v>
+        <v>-0.04922054671957656</v>
       </c>
       <c r="IY3">
-        <v>-0.07064934240124474</v>
+        <v>-0.05724788830230999</v>
       </c>
       <c r="IZ3">
-        <v>-0.06719788557847299</v>
+        <v>-0.05170787640943602</v>
       </c>
       <c r="JA3">
-        <v>-0.06796600607947575</v>
+        <v>-0.05325019060225784</v>
       </c>
       <c r="JB3">
-        <v>-0.0681169890944837</v>
+        <v>-0.05347861205600068</v>
       </c>
       <c r="JC3">
-        <v>-0.06803121105273641</v>
+        <v>-0.05366557762391278</v>
       </c>
       <c r="JD3">
-        <v>-0.0682007451071584</v>
+        <v>-0.04928572499679573</v>
       </c>
       <c r="JE3">
-        <v>-0.06813041928069959</v>
+        <v>-0.04895364899508339</v>
       </c>
       <c r="JF3">
-        <v>-0.07068869262529491</v>
+        <v>-0.05751083210170737</v>
       </c>
       <c r="JG3">
-        <v>-0.06719652319863363</v>
+        <v>-0.05170525443475898</v>
       </c>
       <c r="JH3">
-        <v>-0.06796600607948955</v>
+        <v>-0.05325019060227456</v>
       </c>
       <c r="JI3">
-        <v>-0.06812344935987327</v>
+        <v>-0.05348838593947008</v>
       </c>
       <c r="JJ3">
-        <v>-0.06808450177793121</v>
+        <v>-0.05382976294764959</v>
       </c>
       <c r="JK3">
-        <v>-0.06803215559017065</v>
+        <v>-0.05366749666156455</v>
       </c>
       <c r="JL3">
-        <v>-0.06820743378191221</v>
+        <v>-0.04928539056245281</v>
       </c>
       <c r="JM3">
-        <v>-0.06819865069957765</v>
+        <v>-0.04898676260578647</v>
       </c>
       <c r="JN3">
-        <v>-0.0681291481702746</v>
+        <v>-0.04885698525012434</v>
       </c>
       <c r="JO3">
-        <v>-0.06719510428709193</v>
+        <v>-0.05170252366332675</v>
       </c>
       <c r="JP3">
-        <v>-0.06796600607949874</v>
+        <v>-0.05325019060227728</v>
       </c>
       <c r="JQ3">
-        <v>-0.0681264089821082</v>
+        <v>-0.05349286362466943</v>
       </c>
       <c r="JR3">
-        <v>-0.06813731603816445</v>
+        <v>-0.05399248850764336</v>
       </c>
       <c r="JS3">
-        <v>-0.06803326300141195</v>
+        <v>-0.05366974661462493</v>
       </c>
       <c r="JT3">
-        <v>-0.06821537804322338</v>
+        <v>-0.04928499335006056</v>
       </c>
       <c r="JU3">
-        <v>-0.06820361045772422</v>
+        <v>-0.04898916962138555</v>
       </c>
       <c r="JV3">
-        <v>-0.06812453968141707</v>
+        <v>-0.04850653521012016</v>
       </c>
       <c r="JW3">
-        <v>-0.06718970865583719</v>
+        <v>-0.05169213949630567</v>
       </c>
       <c r="JX3">
-        <v>-0.06796600607950175</v>
+        <v>-0.05325019060226114</v>
       </c>
       <c r="JY3">
-        <v>-0.06812835471239201</v>
+        <v>-0.05349580736951304</v>
       </c>
       <c r="JZ3">
-        <v>-0.06803426379358955</v>
+        <v>-0.05367177994827435</v>
       </c>
       <c r="KA3">
-        <v>-0.06822763515661322</v>
+        <v>-0.04928438049839499</v>
       </c>
       <c r="KB3">
-        <v>-0.06820769845401838</v>
+        <v>-0.04899115356094611</v>
       </c>
       <c r="KC3">
-        <v>-0.06731760341947692</v>
+        <v>-0.04761091030644815</v>
       </c>
       <c r="KD3">
-        <v>-0.06831183879387832</v>
+        <v>-0.0486584392042599</v>
       </c>
       <c r="KE3">
-        <v>-0.06716106206353074</v>
+        <v>-0.05163700806832097</v>
       </c>
       <c r="KF3">
-        <v>-0.06796600607950175</v>
+        <v>-0.05325019060226114</v>
       </c>
       <c r="KG3">
-        <v>-0.06813516604052994</v>
+        <v>-0.05350946618893919</v>
       </c>
       <c r="KH3">
-        <v>-0.06812920056740319</v>
+        <v>-0.0534966734251696</v>
       </c>
       <c r="KI3">
-        <v>-0.06803527739647389</v>
+        <v>-0.05367383931072111</v>
       </c>
       <c r="KJ3">
-        <v>-0.06823855717757489</v>
+        <v>-0.0492838344039454</v>
       </c>
       <c r="KK3">
-        <v>-0.06821350515059887</v>
+        <v>-0.04899397159718207</v>
       </c>
       <c r="KL3">
-        <v>-0.06694616994719409</v>
+        <v>-0.047198659332041</v>
       </c>
       <c r="KM3">
-        <v>-0.06909687324344702</v>
+        <v>-0.04929511294319714</v>
       </c>
       <c r="KN3">
-        <v>-0.06813829488331757</v>
+        <v>-0.05351574050066805</v>
       </c>
       <c r="KO3">
-        <v>-0.06812979920938018</v>
+        <v>-0.0534972863638731</v>
       </c>
       <c r="KP3">
-        <v>-0.06803636722504777</v>
+        <v>-0.0536760535439125</v>
       </c>
       <c r="KQ3">
-        <v>-0.0682470488474667</v>
+        <v>-0.04928340982755632</v>
       </c>
       <c r="KR3">
-        <v>-0.06823958640294873</v>
+        <v>-0.04900662898991769</v>
       </c>
       <c r="KS3">
-        <v>-0.06451943763761109</v>
+        <v>-0.04450534140778788</v>
       </c>
       <c r="KT3">
-        <v>-0.06927017642081104</v>
+        <v>-0.04943566252897254</v>
       </c>
       <c r="KU3">
-        <v>-0.0681435904026101</v>
+        <v>-0.05352635969927774</v>
       </c>
       <c r="KV3">
-        <v>-0.0681304958524251</v>
+        <v>-0.05349799964410412</v>
       </c>
       <c r="KW3">
-        <v>-0.06804268763688649</v>
+        <v>-0.05368889491219265</v>
       </c>
       <c r="KX3">
-        <v>-0.0682576189041994</v>
+        <v>-0.04928288133597649</v>
       </c>
       <c r="KY3">
-        <v>-0.06824460735631452</v>
+        <v>-0.0490090656806802</v>
       </c>
       <c r="KZ3">
-        <v>-0.0643381605720495</v>
+        <v>-0.04430415681393052</v>
       </c>
       <c r="LA3">
-        <v>-0.06932776278130642</v>
+        <v>-0.04948236516878667</v>
       </c>
       <c r="LB3">
-        <v>-0.06815375484400145</v>
+        <v>-0.05354674270583405</v>
       </c>
       <c r="LC3">
-        <v>-0.06813182830837947</v>
+        <v>-0.05349936392170189</v>
       </c>
       <c r="LD3">
-        <v>-0.06806942079623986</v>
+        <v>-0.05374320988774348</v>
       </c>
       <c r="LE3">
-        <v>-0.06826855149022436</v>
+        <v>-0.04928233472113398</v>
       </c>
       <c r="LF3">
-        <v>-0.06824832496689974</v>
+        <v>-0.049010869851606</v>
       </c>
       <c r="LG3">
-        <v>-0.06434382111500056</v>
+        <v>-0.04430153949492588</v>
       </c>
       <c r="LH3">
-        <v>-0.06092486239429912</v>
+        <v>-0.04060481814801666</v>
       </c>
       <c r="LI3">
-        <v>-0.06935781905488841</v>
+        <v>-0.04950674083304719</v>
       </c>
       <c r="LJ3">
-        <v>-0.06818368094739335</v>
+        <v>-0.05360675481521717</v>
       </c>
       <c r="LK3">
-        <v>-0.0681369385162206</v>
+        <v>-0.05350459617144361</v>
       </c>
       <c r="LL3">
-        <v>-0.0682814471544408</v>
+        <v>-0.04928168995865809</v>
       </c>
       <c r="LM3">
-        <v>-0.06825260725909056</v>
+        <v>-0.04901294806276611</v>
       </c>
       <c r="LN3">
-        <v>-0.06437297517137774</v>
+        <v>-0.04428805941377758</v>
       </c>
       <c r="LO3">
-        <v>-0.05928651920729684</v>
+        <v>-0.03882926336059761</v>
       </c>
       <c r="LP3">
-        <v>-0.06938354829325767</v>
+        <v>-0.04952760725346694</v>
       </c>
       <c r="LQ3">
-        <v>-0.06815437780662166</v>
+        <v>-0.05352245194889482</v>
       </c>
       <c r="LR3">
-        <v>-0.06828879600822721</v>
+        <v>-0.04928132252956792</v>
       </c>
       <c r="LS3">
-        <v>-0.06825685523957727</v>
+        <v>-0.04901500962027166</v>
       </c>
       <c r="LT3">
-        <v>-0.06438315362472737</v>
+        <v>-0.04428335322220875</v>
       </c>
       <c r="LU3">
-        <v>-0.05942959478845199</v>
+        <v>-0.03893894198415788</v>
       </c>
       <c r="LV3">
-        <v>-0.05603990227972357</v>
+        <v>-0.03533916215304708</v>
       </c>
       <c r="LW3">
-        <v>-0.06941281083688271</v>
+        <v>-0.04955133916933029</v>
       </c>
       <c r="LX3">
-        <v>-0.06832199554959137</v>
+        <v>-0.04927966263005935</v>
       </c>
       <c r="LY3">
-        <v>-0.06829417457377786</v>
+        <v>-0.04903312071528135</v>
       </c>
       <c r="LZ3">
-        <v>-0.06440530675938756</v>
+        <v>-0.04427311043129153</v>
       </c>
       <c r="MA3">
-        <v>-0.05948626240092664</v>
+        <v>-0.03898238167955465</v>
       </c>
       <c r="MB3">
-        <v>-0.05636065429132795</v>
+        <v>-0.03542105151721693</v>
       </c>
       <c r="MC3">
-        <v>-0.05540098211636714</v>
+        <v>-0.03469227475121495</v>
       </c>
       <c r="MD3">
-        <v>-0.06943586479386263</v>
+        <v>-0.04957003591075464</v>
       </c>
       <c r="ME3">
-        <v>-0.06833491628819316</v>
+        <v>-0.04927901663045323</v>
       </c>
       <c r="MF3">
-        <v>-0.06837046227519944</v>
+        <v>-0.04907014268834448</v>
       </c>
       <c r="MG3">
-        <v>-0.06442660121746069</v>
+        <v>-0.04426090662754693</v>
       </c>
       <c r="MH3">
-        <v>-0.06440383182162375</v>
+        <v>-0.04427490193126653</v>
       </c>
       <c r="MI3">
-        <v>-0.05652193159564433</v>
+        <v>-0.03546222293398367</v>
       </c>
       <c r="MJ3">
-        <v>-0.05485360060671017</v>
+        <v>-0.03413806854126339</v>
       </c>
       <c r="MK3">
-        <v>-0.06945519317879653</v>
+        <v>-0.0495857112078384</v>
       </c>
       <c r="ML3">
-        <v>-0.06833940496246345</v>
+        <v>-0.04927879221064231</v>
       </c>
       <c r="MM3">
-        <v>-0.06445846475975632</v>
+        <v>-0.04424264605499328</v>
       </c>
       <c r="MN3">
-        <v>-0.06440362645028737</v>
+        <v>-0.04427515138115127</v>
       </c>
       <c r="MO3">
-        <v>-0.056536940635</v>
+        <v>-0.03546605437769908</v>
       </c>
       <c r="MP3">
-        <v>-0.05446856093636911</v>
+        <v>-0.033748228821918</v>
       </c>
       <c r="MQ3">
-        <v>-0.06947263355544789</v>
+        <v>-0.04959985532599388</v>
       </c>
       <c r="MR3">
-        <v>-0.06834278658876522</v>
+        <v>-0.04927862314012015</v>
       </c>
       <c r="MS3">
-        <v>-0.064403403402507</v>
+        <v>-0.04427542230140796</v>
       </c>
       <c r="MT3">
-        <v>-0.05654313921111892</v>
+        <v>-0.03546763671814233</v>
       </c>
       <c r="MU3">
-        <v>-0.05398204607009735</v>
+        <v>-0.03325564957414867</v>
       </c>
       <c r="MV3">
-        <v>-0.06948706786959492</v>
+        <v>-0.04961156152752309</v>
       </c>
       <c r="MW3">
-        <v>-0.0683452607451825</v>
+        <v>-0.04927849944036843</v>
       </c>
       <c r="MX3">
-        <v>-0.06440320802861517</v>
+        <v>-0.04427565960821515</v>
       </c>
       <c r="MY3">
-        <v>-0.05654751295966496</v>
+        <v>-0.03546875322403912</v>
       </c>
       <c r="MZ3">
-        <v>-0.05367719463425144</v>
+        <v>-0.0329469985772753</v>
       </c>
       <c r="NA3">
-        <v>-0.06950381257662511</v>
+        <v>-0.04962514144804994</v>
       </c>
       <c r="NB3">
-        <v>-0.06834651713712088</v>
+        <v>-0.04927843662492331</v>
       </c>
       <c r="NC3">
-        <v>-0.06440300044379246</v>
+        <v>-0.0442759117468217</v>
       </c>
       <c r="ND3">
-        <v>-0.05655198663384105</v>
+        <v>-0.03546989523667325</v>
       </c>
       <c r="NE3">
-        <v>-0.05320905460673699</v>
+        <v>-0.03247302441062137</v>
       </c>
       <c r="NF3">
-        <v>-0.0695222162396593</v>
+        <v>-0.04964006677171674</v>
       </c>
       <c r="NG3">
-        <v>-0.06834836430159644</v>
+        <v>-0.04927834427287349</v>
       </c>
       <c r="NH3">
-        <v>-0.06440270417571471</v>
+        <v>-0.04427627160280223</v>
       </c>
       <c r="NI3">
-        <v>-0.05655726526160243</v>
+        <v>-0.03547124273078182</v>
       </c>
       <c r="NJ3">
-        <v>-0.05274236442201628</v>
+        <v>-0.03200051887071757</v>
       </c>
       <c r="NK3">
-        <v>-0.06962254761419551</v>
+        <v>-0.04972143513977993</v>
       </c>
       <c r="NL3">
-        <v>-0.06835146075680586</v>
+        <v>-0.04927818946064511</v>
       </c>
       <c r="NM3">
-        <v>-0.06440234400738289</v>
+        <v>-0.04427670907406463</v>
       </c>
       <c r="NN3">
-        <v>-0.05656392389174813</v>
+        <v>-0.03547294249956891</v>
       </c>
       <c r="NO3">
-        <v>-0.05221871223187349</v>
+        <v>-0.03147034238099466</v>
       </c>
       <c r="NP3">
-        <v>-0.07023101499648023</v>
+        <v>-0.05031008744880616</v>
       </c>
       <c r="NQ3">
-        <v>-0.06969070558237375</v>
+        <v>-0.04973276452541628</v>
       </c>
       <c r="NR3">
-        <v>-0.06836527235038123</v>
+        <v>-0.04927749893074256</v>
       </c>
       <c r="NS3">
-        <v>-0.06440011156483727</v>
+        <v>-0.04427942066930158</v>
       </c>
       <c r="NT3">
-        <v>-0.05656988736027094</v>
+        <v>-0.03547446480906906</v>
       </c>
       <c r="NU3">
-        <v>-0.05183977164298143</v>
+        <v>-0.03108668104758118</v>
       </c>
       <c r="NV3">
-        <v>-0.0708138574480577</v>
+        <v>-0.05087394783601185</v>
       </c>
       <c r="NW3">
-        <v>-0.07010925115342743</v>
+        <v>-0.04980232976397898</v>
       </c>
       <c r="NX3">
-        <v>-0.06969070558232256</v>
+        <v>-0.04973276452539092</v>
       </c>
       <c r="NY3">
-        <v>-0.06841604429560093</v>
+        <v>-0.0492749605557302</v>
       </c>
       <c r="NZ3">
-        <v>-0.06439247269323843</v>
+        <v>-0.04428869913014925</v>
       </c>
       <c r="OA3">
-        <v>-0.05657460611432009</v>
+        <v>-0.03547566937501306</v>
       </c>
       <c r="OB3">
-        <v>-0.05138810109309196</v>
+        <v>-0.03062938431723904</v>
       </c>
       <c r="OC3">
-        <v>-0.07083980551674539</v>
+        <v>-0.05089905079201797</v>
       </c>
       <c r="OD3">
-        <v>-0.07026223909657339</v>
+        <v>-0.04982775468028314</v>
       </c>
       <c r="OE3">
-        <v>-0.06969070558204535</v>
+        <v>-0.0497327645252599</v>
       </c>
       <c r="OF3">
-        <v>-0.05658270465509315</v>
+        <v>-0.03547773670148937</v>
       </c>
       <c r="OG3">
-        <v>-0.05073271832444733</v>
+        <v>-0.02996583904096765</v>
       </c>
       <c r="OH3">
-        <v>-0.07094177484606266</v>
+        <v>-0.05100349316580441</v>
       </c>
       <c r="OI3">
-        <v>-0.07125534056931949</v>
+        <v>-0.05129764151434405</v>
       </c>
       <c r="OJ3">
-        <v>-0.07027781186305292</v>
+        <v>-0.04983034262012601</v>
       </c>
       <c r="OK3">
-        <v>-0.0696907055820245</v>
+        <v>-0.04973276452525038</v>
       </c>
       <c r="OL3">
-        <v>-0.0566109760221957</v>
+        <v>-0.03548495353059308</v>
       </c>
       <c r="OM3">
-        <v>-0.05024681998677214</v>
+        <v>-0.02947388996002914</v>
       </c>
       <c r="ON3">
-        <v>-0.07095111810724378</v>
+        <v>-0.05101306303338416</v>
       </c>
       <c r="OO3">
-        <v>-0.07145582571801483</v>
+        <v>-0.05148995112629617</v>
       </c>
       <c r="OP3">
-        <v>-0.07028867968231212</v>
+        <v>-0.04983214866538509</v>
       </c>
       <c r="OQ3">
-        <v>-0.06969070558201591</v>
+        <v>-0.04973276452524684</v>
       </c>
       <c r="OR3">
-        <v>-0.05678382463523197</v>
+        <v>-0.03552907507206562</v>
       </c>
       <c r="OS3">
-        <v>-0.04977808328795412</v>
+        <v>-0.02899931696039843</v>
       </c>
       <c r="OT3">
-        <v>-0.07095642957611108</v>
+        <v>-0.05101850332418402</v>
       </c>
       <c r="OU3">
-        <v>-0.07206070932337019</v>
+        <v>-0.05207016703924288</v>
       </c>
       <c r="OV3">
-        <v>-0.07145582571810571</v>
+        <v>-0.05148995112635332</v>
       </c>
       <c r="OW3">
-        <v>-0.07029993783429955</v>
+        <v>-0.04983401956938101</v>
       </c>
       <c r="OX3">
-        <v>-0.06969070558201143</v>
+        <v>-0.04973276452524662</v>
       </c>
       <c r="OY3">
-        <v>-0.04931932210932416</v>
+        <v>-0.02853484438522281</v>
       </c>
       <c r="OZ3">
-        <v>-0.07096003619843808</v>
+        <v>-0.05102219742005733</v>
       </c>
       <c r="PA3">
-        <v>-0.07292234608008673</v>
+        <v>-0.05289666214456476</v>
       </c>
       <c r="PB3">
-        <v>-0.07145582571812824</v>
+        <v>-0.05148995112636743</v>
       </c>
       <c r="PC3">
-        <v>-0.07034721613391508</v>
+        <v>-0.04984187629179849</v>
       </c>
       <c r="PD3">
-        <v>-0.06969070558200453</v>
+        <v>-0.04973276452524384</v>
       </c>
       <c r="PE3">
-        <v>-0.04876758044284419</v>
+        <v>-0.02797623466594346</v>
       </c>
       <c r="PF3">
-        <v>-0.07096591405102212</v>
+        <v>-0.05102821783199798</v>
       </c>
       <c r="PG3">
-        <v>-0.07310267335493535</v>
+        <v>-0.05306963431799674</v>
       </c>
       <c r="PH3">
-        <v>-0.07145582571814194</v>
+        <v>-0.05148995112637963</v>
       </c>
       <c r="PI3">
-        <v>-0.07035876054056185</v>
+        <v>-0.04984379472339626</v>
       </c>
       <c r="PJ3">
-        <v>-0.06969070558193308</v>
+        <v>-0.04973276452521432</v>
       </c>
       <c r="PK3">
-        <v>-0.04784348502358215</v>
+        <v>-0.02704063838944277</v>
       </c>
       <c r="PL3">
-        <v>-0.04876758044284419</v>
+        <v>-0.02797623466594346</v>
       </c>
       <c r="PM3">
-        <v>-0.07098545250571552</v>
+        <v>-0.05104823016827371</v>
       </c>
       <c r="PN3">
-        <v>-0.0731487640171789</v>
+        <v>-0.05311384502910563</v>
       </c>
       <c r="PO3">
-        <v>-0.07145582571815118</v>
+        <v>-0.05148995112639206</v>
       </c>
       <c r="PP3">
-        <v>-0.07036977270502749</v>
+        <v>-0.04984562469996399</v>
       </c>
       <c r="PQ3">
-        <v>-0.06969070558190756</v>
+        <v>-0.04973276452520497</v>
       </c>
       <c r="PR3">
-        <v>-0.04472630589827316</v>
+        <v>-0.02388468497646339</v>
       </c>
       <c r="PS3">
-        <v>-0.04784348502358215</v>
+        <v>-0.02704063838944277</v>
       </c>
       <c r="PT3">
-        <v>-0.07100720513607608</v>
+        <v>-0.05107051038746834</v>
       </c>
       <c r="PU3">
-        <v>-0.07317291042850764</v>
+        <v>-0.05313700654940362</v>
       </c>
       <c r="PV3">
-        <v>-0.07145582571815703</v>
+        <v>-0.05148995112640287</v>
       </c>
       <c r="PW3">
-        <v>-0.07038072502849445</v>
+        <v>-0.04984744472468834</v>
       </c>
       <c r="PX3">
-        <v>-0.06969070558189969</v>
+        <v>-0.04973276452520196</v>
       </c>
       <c r="PY3">
-        <v>-0.04031665630194348</v>
+        <v>-0.01942023860747823</v>
       </c>
       <c r="PZ3">
-        <v>-0.04472630589827316</v>
+        <v>-0.02388468497646339</v>
       </c>
       <c r="QA3">
-        <v>-0.07101943882490953</v>
+        <v>-0.05108304079485398</v>
       </c>
       <c r="QB3">
-        <v>-0.07319292761279575</v>
+        <v>-0.05315620726447201</v>
       </c>
       <c r="QC3">
-        <v>-0.07145582571815354</v>
+        <v>-0.0514899511264098</v>
       </c>
       <c r="QD3">
-        <v>-0.07039328882252358</v>
+        <v>-0.04984953252948888</v>
       </c>
       <c r="QE3">
-        <v>-0.06969070558188657</v>
+        <v>-0.04973276452519375</v>
       </c>
       <c r="QF3">
-        <v>-0.03715195909345562</v>
+        <v>-0.01621625441002649</v>
       </c>
       <c r="QG3">
-        <v>-0.04031665630194348</v>
+        <v>-0.01942023860747823</v>
       </c>
       <c r="QH3">
-        <v>-0.07103093114062109</v>
+        <v>-0.05109481184923788</v>
       </c>
       <c r="QI3">
-        <v>-0.07320915048805343</v>
+        <v>-0.05317176843280479</v>
       </c>
       <c r="QJ3">
-        <v>-0.07145582571815007</v>
+        <v>-0.05148995112640925</v>
       </c>
       <c r="QK3">
-        <v>-0.07043667769807677</v>
+        <v>-0.04985674265555808</v>
       </c>
       <c r="QL3">
-        <v>-0.06969070558187716</v>
+        <v>-0.04973276452518797</v>
       </c>
       <c r="QM3">
-        <v>-0.03619170460856745</v>
+        <v>-0.01524408568866256</v>
       </c>
       <c r="QN3">
-        <v>-0.03715195909345562</v>
+        <v>-0.01621625441002649</v>
       </c>
       <c r="QO3">
-        <v>-0.07104189581448829</v>
+        <v>-0.05110604246556661</v>
       </c>
       <c r="QP3">
-        <v>-0.07323394837606301</v>
+        <v>-0.05319555484918998</v>
       </c>
       <c r="QQ3">
-        <v>-0.07145582571814064</v>
+        <v>-0.05148995112641044</v>
       </c>
       <c r="QR3">
-        <v>-0.07064813249581008</v>
+        <v>-0.04989187935483504</v>
       </c>
       <c r="QS3">
-        <v>-0.06969070558186495</v>
+        <v>-0.04973276452518362</v>
       </c>
       <c r="QT3">
-        <v>-0.03336426468510057</v>
+        <v>-0.01234532095906751</v>
       </c>
       <c r="QU3">
-        <v>-0.03619170460856747</v>
+        <v>-0.01524408568866256</v>
       </c>
       <c r="QV3">
-        <v>-0.03616705449234556</v>
+        <v>-0.01524841479650302</v>
       </c>
       <c r="QW3">
-        <v>-0.07105989829230014</v>
+        <v>-0.05112448158707455</v>
       </c>
       <c r="QX3">
-        <v>-0.07325630340429008</v>
+        <v>-0.05321699804388732</v>
       </c>
       <c r="QY3">
-        <v>-0.07145582571813654</v>
+        <v>-0.05148995112641666</v>
       </c>
       <c r="QZ3">
-        <v>-0.06969070558185478</v>
+        <v>-0.04973276452518106</v>
       </c>
       <c r="RA3">
-        <v>-0.03022243658501314</v>
+        <v>-0.009124295382928953</v>
       </c>
       <c r="RB3">
-        <v>-0.03336426468510055</v>
+        <v>-0.0123453209590675</v>
       </c>
       <c r="RC3">
-        <v>-0.03336426468510056</v>
+        <v>-0.0123453209590675</v>
       </c>
       <c r="RD3">
-        <v>-0.03616345464833211</v>
+        <v>-0.01524904701383678</v>
       </c>
       <c r="RE3">
-        <v>-0.07107243744782478</v>
+        <v>-0.05113732487753276</v>
       </c>
       <c r="RF3">
-        <v>-0.07327757997736534</v>
+        <v>-0.05323740676981409</v>
       </c>
       <c r="RG3">
-        <v>-0.07145582571812942</v>
+        <v>-0.05148995112642388</v>
       </c>
       <c r="RH3">
-        <v>-0.0696907055818022</v>
+        <v>-0.04973276452516374</v>
       </c>
       <c r="RI3">
-        <v>-0.02907100879349968</v>
+        <v>-0.007943858337192565</v>
       </c>
       <c r="RJ3">
-        <v>-0.03022243658501314</v>
+        <v>-0.009124295382928953</v>
       </c>
       <c r="RK3">
-        <v>-0.03616149174753208</v>
+        <v>-0.0152493917459297</v>
       </c>
       <c r="RL3">
-        <v>-0.07108124777754589</v>
+        <v>-0.05114634890126618</v>
       </c>
       <c r="RM3">
-        <v>-0.07330154944337711</v>
+        <v>-0.05326039854578814</v>
       </c>
       <c r="RN3">
-        <v>-0.0714558257181203</v>
+        <v>-0.05148995112643135</v>
       </c>
       <c r="RO3">
-        <v>-0.06969070558179907</v>
+        <v>-0.04973276452516349</v>
       </c>
       <c r="RP3">
-        <v>-0.02663368782222071</v>
+        <v>-0.005445966214563752</v>
       </c>
       <c r="RQ3">
-        <v>-0.02907100879349968</v>
+        <v>-0.007943858337192567</v>
       </c>
       <c r="RR3">
-        <v>-0.02889654775530872</v>
+        <v>-0.007767741609558521</v>
       </c>
       <c r="RS3">
-        <v>-0.03616016203619927</v>
+        <v>-0.0152496252750877</v>
       </c>
       <c r="RT3">
-        <v>-0.0710854574182295</v>
+        <v>-0.05115066064683911</v>
       </c>
       <c r="RU3">
-        <v>-0.07332686904557797</v>
+        <v>-0.0532846853839777</v>
       </c>
       <c r="RV3">
-        <v>-0.07145582571811519</v>
+        <v>-0.05148995112644972</v>
       </c>
       <c r="RW3">
-        <v>-0.06969070558179709</v>
+        <v>-0.04973276452516323</v>
       </c>
       <c r="RX3">
-        <v>-0.02314004149577378</v>
+        <v>-0.001865560671955993</v>
       </c>
       <c r="RY3">
-        <v>-0.02663368782222071</v>
+        <v>-0.005445966214563752</v>
       </c>
       <c r="RZ3">
-        <v>-0.02889301438474942</v>
+        <v>-0.00776886674521006</v>
       </c>
       <c r="SA3">
-        <v>-0.02885230575497223</v>
+        <v>-0.007690017389123462</v>
       </c>
       <c r="SB3">
-        <v>-0.0361581422900631</v>
+        <v>-0.01524997999120116</v>
       </c>
       <c r="SC3">
-        <v>-0.07108812411437369</v>
+        <v>-0.05115339202383925</v>
       </c>
       <c r="SD3">
-        <v>-0.07338223015471572</v>
+        <v>-0.05333778835101358</v>
       </c>
       <c r="SE3">
-        <v>-0.07145582571811328</v>
+        <v>-0.05148995112648164</v>
       </c>
       <c r="SF3">
-        <v>-0.06969070558179501</v>
+        <v>-0.04973276452516386</v>
       </c>
       <c r="SG3">
-        <v>-0.02100776054394174</v>
+        <v>0.0003196355177200473</v>
       </c>
       <c r="SH3">
-        <v>-0.02314004149577378</v>
+        <v>-0.001865560671955993</v>
       </c>
       <c r="SI3">
-        <v>-0.02889152091276847</v>
+        <v>-0.007769342314098883</v>
       </c>
       <c r="SJ3">
-        <v>-0.02882399521287852</v>
+        <v>-0.007640282136206792</v>
       </c>
       <c r="SK3">
-        <v>-0.036155077125921</v>
+        <v>-0.01525051830864877</v>
       </c>
       <c r="SL3">
-        <v>-0.07108992713133176</v>
+        <v>-0.05115523877311498</v>
       </c>
       <c r="SM3">
-        <v>-0.07463801136543875</v>
+        <v>-0.05454234275029919</v>
       </c>
       <c r="SN3">
-        <v>-0.07145582571811218</v>
+        <v>-0.05148995112650068</v>
       </c>
       <c r="SO3">
-        <v>-0.06969070558179501</v>
+        <v>-0.04973276452516386</v>
       </c>
       <c r="SP3">
-        <v>-0.02064054274874147</v>
+        <v>0.0006959634840653536</v>
       </c>
       <c r="SQ3">
-        <v>-0.02100776054394174</v>
+        <v>0.0003196355177200473</v>
       </c>
       <c r="SR3">
-        <v>-0.02889064337791952</v>
+        <v>-0.007769621749250699</v>
       </c>
       <c r="SS3">
-        <v>-0.03615290249320445</v>
+        <v>-0.01525090022763278</v>
       </c>
       <c r="ST3">
-        <v>-0.07109244212432958</v>
+        <v>-0.05115781476753049</v>
       </c>
       <c r="SU3">
-        <v>-0.07468238713836901</v>
+        <v>-0.05475695161944037</v>
       </c>
       <c r="SV3">
-        <v>-0.07482110140418251</v>
+        <v>-0.05468362972808569</v>
       </c>
       <c r="SW3">
-        <v>-0.07145582571811382</v>
+        <v>-0.05148995112652284</v>
       </c>
       <c r="SX3">
-        <v>-0.02071169027813026</v>
+        <v>0.0006457924230132527</v>
       </c>
       <c r="SY3">
-        <v>-0.02064054274874148</v>
+        <v>0.0006959634840653421</v>
       </c>
       <c r="SZ3">
-        <v>-0.01388462673059797</v>
+        <v>0.007454704361212264</v>
       </c>
       <c r="TA3">
-        <v>-0.02888983578176871</v>
+        <v>-0.007769878913816547</v>
       </c>
       <c r="TB3">
-        <v>-0.03615141675831639</v>
+        <v>-0.01525116115947274</v>
       </c>
       <c r="TC3">
-        <v>-0.07109436158870777</v>
+        <v>-0.05115978078876732</v>
       </c>
       <c r="TD3">
-        <v>-0.07472152144205006</v>
+        <v>-0.05494622566934304</v>
       </c>
       <c r="TE3">
-        <v>-0.07491987629247235</v>
+        <v>-0.0547598520413481</v>
       </c>
       <c r="TF3">
-        <v>-0.07145582571811529</v>
+        <v>-0.05148995112654236</v>
       </c>
       <c r="TG3">
-        <v>-0.02076406405180783</v>
+        <v>0.0006088601868982837</v>
       </c>
       <c r="TH3">
-        <v>-0.02071169027813026</v>
+        <v>0.0006457924230132527</v>
       </c>
       <c r="TI3">
-        <v>-0.009892057347636605</v>
+        <v>0.01144891751119065</v>
       </c>
       <c r="TJ3">
-        <v>-0.02888911628148552</v>
+        <v>-0.007770108025931469</v>
       </c>
       <c r="TK3">
-        <v>-0.03615024273618442</v>
+        <v>-0.01525136734697829</v>
       </c>
       <c r="TL3">
-        <v>-0.07110805935957851</v>
+        <v>-0.05117381080207641</v>
       </c>
       <c r="TM3">
-        <v>-0.07493462792458401</v>
+        <v>-0.05477123551768939</v>
       </c>
       <c r="TN3">
-        <v>-0.07145582571811838</v>
+        <v>-0.05148995112655807</v>
       </c>
       <c r="TO3">
-        <v>-0.02083537198513511</v>
+        <v>0.0005585764138128385</v>
       </c>
       <c r="TP3">
-        <v>-0.02076406405180783</v>
+        <v>0.0006088601868982838</v>
       </c>
       <c r="TQ3">
-        <v>-0.006728370575619536</v>
+        <v>0.0146138932613854</v>
       </c>
       <c r="TR3">
-        <v>-0.02888836988168057</v>
+        <v>-0.007770345703827278</v>
       </c>
       <c r="TS3">
-        <v>-0.0361464785089138</v>
+        <v>-0.01525202843984775</v>
       </c>
       <c r="TT3">
-        <v>-0.07112315756433561</v>
+        <v>-0.05118410774908114</v>
       </c>
       <c r="TU3">
-        <v>-0.07120446346084346</v>
+        <v>-0.05128756072119889</v>
       </c>
       <c r="TV3">
-        <v>-0.07494588841790388</v>
+        <v>-0.0547799249635887</v>
       </c>
       <c r="TW3">
-        <v>-0.07145582571811755</v>
+        <v>-0.05148995112656882</v>
       </c>
       <c r="TX3">
-        <v>-0.02088583418682275</v>
+        <v>0.0005229924354276647</v>
       </c>
       <c r="TY3">
-        <v>-0.02083537198513511</v>
+        <v>0.0005585764138128386</v>
       </c>
       <c r="TZ3">
-        <v>-0.005421062450710181</v>
+        <v>0.01592173052808798</v>
       </c>
       <c r="UA3">
-        <v>-0.02888611662113923</v>
+        <v>-0.007771063215677003</v>
       </c>
       <c r="UB3">
-        <v>-0.03611603150802433</v>
+        <v>-0.01525737574702347</v>
       </c>
       <c r="UC3">
-        <v>-0.07113982955220682</v>
+        <v>-0.05119547798699146</v>
       </c>
       <c r="UD3">
-        <v>-0.0749564199123768</v>
+        <v>-0.05478805185633621</v>
       </c>
       <c r="UE3">
-        <v>-0.07145582571811607</v>
+        <v>-0.05148995112657753</v>
       </c>
       <c r="UF3">
-        <v>-0.02102695700122508</v>
+        <v>0.0004234787388912906</v>
       </c>
       <c r="UG3">
-        <v>-0.02088583418682275</v>
+        <v>0.0005229924354276647</v>
       </c>
       <c r="UH3">
-        <v>-0.005350981414838398</v>
+        <v>0.01598931433744395</v>
       </c>
       <c r="UI3">
-        <v>-0.0009317007639272072</v>
+        <v>0.02044608279115964</v>
       </c>
       <c r="UJ3">
-        <v>-0.02888384587588886</v>
+        <v>-0.007771786296211531</v>
       </c>
       <c r="UK3">
-        <v>-0.03611451527714989</v>
+        <v>-0.01525764203997038</v>
       </c>
       <c r="UL3">
-        <v>-0.07118502069315294</v>
+        <v>-0.05122629805014298</v>
       </c>
       <c r="UM3">
-        <v>-0.07496765046418197</v>
+        <v>-0.05479671819143229</v>
       </c>
       <c r="UN3">
-        <v>-0.07145582571810905</v>
+        <v>-0.05148995112657951</v>
       </c>
       <c r="UO3">
-        <v>-0.0211291465243507</v>
+        <v>0.0003514196771816681</v>
       </c>
       <c r="UP3">
-        <v>-0.02102695700122508</v>
+        <v>0.0004234787388912906</v>
       </c>
       <c r="UQ3">
-        <v>-0.005325193664257031</v>
+        <v>0.01601418320056098</v>
       </c>
       <c r="UR3">
-        <v>0.00246468499840258</v>
+        <v>0.02386887881382029</v>
       </c>
       <c r="US3">
-        <v>-0.0288626288998619</v>
+        <v>-0.007778542532088788</v>
       </c>
       <c r="UT3">
-        <v>-0.03611331891805553</v>
+        <v>-0.01525785215455568</v>
       </c>
       <c r="UU3">
-        <v>-0.07497758815502555</v>
+        <v>-0.05480438685571719</v>
       </c>
       <c r="UV3">
-        <v>-0.07145582571810906</v>
+        <v>-0.05148995112657952</v>
       </c>
       <c r="UW3">
-        <v>-0.02113925512581936</v>
+        <v>0.0003434436753308058</v>
       </c>
       <c r="UX3">
-        <v>-0.02112914652435071</v>
+        <v>0.0003514196771816682</v>
       </c>
       <c r="UY3">
-        <v>-0.0212232533382927</v>
+        <v>0.0002915159794967703</v>
       </c>
       <c r="UZ3">
-        <v>-0.005286780839498208</v>
+        <v>0.01605122729030384</v>
       </c>
       <c r="VA3">
-        <v>-0.03611196640160294</v>
+        <v>-0.0152580896949628</v>
       </c>
       <c r="VB3">
-        <v>-0.07498775267057202</v>
+        <v>-0.05481223055249812</v>
       </c>
       <c r="VC3">
-        <v>-0.02114164866036164</v>
+        <v>0.0003415551024692052</v>
       </c>
       <c r="VD3">
-        <v>-0.02113925512581936</v>
+        <v>0.0003434436753308057</v>
       </c>
       <c r="VE3">
-        <v>-0.02123515038045884</v>
+        <v>0.0002839429831725891</v>
       </c>
       <c r="VF3">
-        <v>-0.005263666936315557</v>
+        <v>0.01607351760374299</v>
       </c>
       <c r="VG3">
-        <v>-0.03611076261913748</v>
+        <v>-0.0152583011135897</v>
       </c>
       <c r="VH3">
-        <v>-0.07504021499431109</v>
+        <v>-0.05485271434831941</v>
       </c>
       <c r="VI3">
-        <v>-0.02120653693740751</v>
+        <v>0.0002903563219251902</v>
       </c>
       <c r="VJ3">
-        <v>-0.02114164866036163</v>
+        <v>0.0003415551024692053</v>
       </c>
       <c r="VK3">
-        <v>-0.02114164866034688</v>
+        <v>0.0003415551024990647</v>
       </c>
       <c r="VL3">
-        <v>-0.02124392965018058</v>
+        <v>0.0002783545972128116</v>
       </c>
       <c r="VM3">
-        <v>-0.00523577694319136</v>
+        <v>0.01610041383691064</v>
       </c>
       <c r="VN3">
-        <v>-0.03610937706555455</v>
+        <v>-0.01525854445659206</v>
       </c>
       <c r="VO3">
-        <v>-0.07507650081689819</v>
+        <v>-0.05489264831844796</v>
       </c>
       <c r="VP3">
-        <v>-0.07514802644848249</v>
+        <v>-0.05493415946023731</v>
       </c>
       <c r="VQ3">
-        <v>-0.02125201213163633</v>
+        <v>0.0002544751322749086</v>
       </c>
       <c r="VR3">
-        <v>-0.02120653693740751</v>
+        <v>0.0002903563219251901</v>
       </c>
       <c r="VS3">
-        <v>-0.02114164866034393</v>
+        <v>0.0003415551025068406</v>
       </c>
       <c r="VT3">
-        <v>-0.02125247198092907</v>
+        <v>0.0002729170409937418</v>
       </c>
       <c r="VU3">
-        <v>-0.005211288319708685</v>
+        <v>0.01612402990545196</v>
       </c>
       <c r="VV3">
-        <v>-0.03610795640166965</v>
+        <v>-0.01525879396616034</v>
       </c>
       <c r="VW3">
-        <v>-0.07507859188298988</v>
+        <v>-0.05489494962067389</v>
       </c>
       <c r="VX3">
-        <v>-0.07566325916098218</v>
+        <v>-0.05532338308355334</v>
       </c>
       <c r="VY3">
-        <v>-0.02128691149843105</v>
+        <v>0.0002196511034444857</v>
       </c>
       <c r="VZ3">
-        <v>-0.02125868207485326</v>
+        <v>0.0002500770064977132</v>
       </c>
       <c r="WA3">
-        <v>-0.02114164866033863</v>
+        <v>0.0003415551025082812</v>
       </c>
       <c r="WB3">
-        <v>-0.02133271723184415</v>
+        <v>0.0002218379075385053</v>
       </c>
       <c r="WC3">
-        <v>-0.00505104235035269</v>
+        <v>0.01627856636231469</v>
       </c>
       <c r="WD3">
-        <v>-0.03610624876929085</v>
+        <v>-0.01525909387592751</v>
       </c>
       <c r="WE3">
-        <v>-0.07507964209465079</v>
+        <v>-0.05489610542087114</v>
       </c>
       <c r="WF3">
-        <v>-0.07577073764794572</v>
+        <v>-0.05532274385716228</v>
       </c>
       <c r="WG3">
-        <v>-0.0762237928774625</v>
+        <v>-0.05578115555915446</v>
       </c>
       <c r="WH3">
-        <v>-0.02131803444770434</v>
+        <v>0.0001885953404005358</v>
       </c>
       <c r="WI3">
-        <v>-0.02128691149843105</v>
+        <v>0.0002196511034444857</v>
       </c>
       <c r="WJ3">
-        <v>-0.02128691149843105</v>
+        <v>0.0002196511034444857</v>
       </c>
       <c r="WK3">
-        <v>-0.02140057518778445</v>
+        <v>0.0001565857980408703</v>
       </c>
       <c r="WL3">
-        <v>-0.02125868207485326</v>
+        <v>0.0002500770064977132</v>
       </c>
       <c r="WM3">
-        <v>-0.02114164866033496</v>
+        <v>0.00034155510250822</v>
       </c>
       <c r="WN3">
-        <v>-0.02137006509969399</v>
+        <v>0.0001980648105370232</v>
       </c>
       <c r="WO3">
-        <v>-0.003869469136898902</v>
+        <v>0.0174180521155584</v>
       </c>
       <c r="WP3">
-        <v>-0.03610517820540071</v>
+        <v>-0.01525928189813273</v>
       </c>
       <c r="WQ3">
-        <v>-0.07508052275447356</v>
+        <v>-0.05489707462249158</v>
       </c>
       <c r="WR3">
-        <v>-0.07582745649433378</v>
+        <v>-0.05532240653553759</v>
       </c>
       <c r="WS3">
-        <v>-0.07676075115471678</v>
+        <v>-0.05621966879750166</v>
       </c>
       <c r="WT3">
-        <v>-0.02134515163332712</v>
+        <v>0.0001615366931829534</v>
       </c>
       <c r="WU3">
-        <v>-0.02131803444770434</v>
+        <v>0.0001885953404005268</v>
       </c>
       <c r="WV3">
-        <v>-0.02131803444770431</v>
+        <v>0.0001885953404005448</v>
       </c>
       <c r="WW3">
-        <v>-0.0214339738755132</v>
+        <v>0.0001345802119953814</v>
       </c>
       <c r="WX3">
-        <v>-0.02114164866033281</v>
+        <v>0.000341555102510977</v>
       </c>
       <c r="WY3">
-        <v>-0.02138759419094589</v>
+        <v>0.0001869070412876994</v>
       </c>
       <c r="WZ3">
-        <v>-0.03610057728174332</v>
+        <v>-0.01526008995558103</v>
       </c>
       <c r="XA3">
-        <v>-0.07508124090201246</v>
+        <v>-0.05489786497282356</v>
       </c>
       <c r="XB3">
-        <v>-0.07677993267530352</v>
+        <v>-0.05623304898217994</v>
       </c>
       <c r="XC3">
-        <v>-0.07689961119680175</v>
+        <v>-0.05633451622364413</v>
       </c>
       <c r="XD3">
-        <v>-0.02138209215077119</v>
+        <v>0.0001246759213734412</v>
       </c>
       <c r="XE3">
-        <v>-0.02114164866033211</v>
+        <v>0.0003415551025090214</v>
       </c>
       <c r="XF3">
-        <v>-0.02139928644397071</v>
+        <v>0.0001794646049716518</v>
       </c>
       <c r="XG3">
-        <v>-0.03608118033304251</v>
+        <v>-0.01526349665187128</v>
       </c>
       <c r="XH3">
-        <v>-0.07508236818432355</v>
+        <v>-0.05489910559252642</v>
       </c>
       <c r="XI3">
-        <v>-0.07678463606337003</v>
+        <v>-0.05623632985331904</v>
       </c>
       <c r="XJ3">
-        <v>-0.07693155929502257</v>
+        <v>-0.05636093958945626</v>
       </c>
       <c r="XK3">
-        <v>-0.02139292736428921</v>
+        <v>0.0001138640987664928</v>
       </c>
       <c r="XL3">
-        <v>-0.02114164866032874</v>
+        <v>0.0003415551025096811</v>
       </c>
       <c r="XM3">
-        <v>-0.02141716184306784</v>
+        <v>0.0001680864562865018</v>
       </c>
       <c r="XN3">
-        <v>-0.07508505625657655</v>
+        <v>-0.05490206392484416</v>
       </c>
       <c r="XO3">
-        <v>-0.07678786575569096</v>
+        <v>-0.05623858273961902</v>
       </c>
       <c r="XP3">
-        <v>-0.07694741356002394</v>
+        <v>-0.05637405219515781</v>
       </c>
       <c r="XQ3">
-        <v>-0.02142879037799417</v>
+        <v>7.807850664525791E-05</v>
       </c>
       <c r="XR3">
-        <v>-0.02114164866032634</v>
+        <v>0.0003415551025120622</v>
       </c>
       <c r="XS3">
-        <v>-0.0214520727092842</v>
+        <v>0.0001458648943172778</v>
       </c>
       <c r="XT3">
-        <v>-0.07508691596926241</v>
+        <v>-0.05490411061414389</v>
       </c>
       <c r="XU3">
-        <v>-0.07679234281632166</v>
+        <v>-0.05624170573159325</v>
       </c>
       <c r="XV3">
-        <v>-0.07696483622541159</v>
+        <v>-0.0563884619741498</v>
       </c>
       <c r="XW3">
-        <v>-0.02114164866032573</v>
+        <v>0.0003415551025151163</v>
       </c>
       <c r="XX3">
-        <v>-0.02146172306719794</v>
+        <v>0.0001397222442584004</v>
       </c>
       <c r="XY3">
-        <v>-0.07508928058501417</v>
+        <v>-0.05490671297001606</v>
       </c>
       <c r="XZ3">
-        <v>-0.07680295930126128</v>
+        <v>-0.05624911129642707</v>
       </c>
       <c r="YA3">
-        <v>-0.07698493947471784</v>
+        <v>-0.05640508877888303</v>
       </c>
       <c r="YB3">
-        <v>-0.0211416486603276</v>
+        <v>0.000341555102520662</v>
       </c>
       <c r="YC3">
-        <v>-0.02146452472886672</v>
+        <v>0.000137938931183926</v>
       </c>
       <c r="YD3">
-        <v>-0.07509071707023049</v>
+        <v>-0.05490829388059694</v>
       </c>
       <c r="YE3">
-        <v>-0.0768110296132937</v>
+        <v>-0.05625474076251566</v>
       </c>
       <c r="YF3">
-        <v>-0.07700526258657053</v>
+        <v>-0.05642189741768019</v>
       </c>
       <c r="YG3">
-        <v>-0.02114164866032998</v>
+        <v>0.0003415551025233687</v>
       </c>
       <c r="YH3">
-        <v>-0.02146531427674329</v>
+        <v>0.0001371706399497714</v>
       </c>
       <c r="YI3">
-        <v>-0.02147324010475196</v>
+        <v>0.0001338028923098482</v>
       </c>
       <c r="YJ3">
-        <v>-0.07509201391084239</v>
+        <v>-0.05490972110668286</v>
       </c>
       <c r="YK3">
-        <v>-0.07681669486751776</v>
+        <v>-0.05625869257084729</v>
       </c>
       <c r="YL3">
-        <v>-0.07702779349394615</v>
+        <v>-0.05644053204908439</v>
       </c>
       <c r="YM3">
-        <v>-0.02114164866032855</v>
+        <v>0.0003415551025218697</v>
       </c>
       <c r="YN3">
-        <v>-0.0214660532267066</v>
+        <v>0.0001364515844100631</v>
       </c>
       <c r="YO3">
-        <v>-0.02148474066877617</v>
+        <v>0.0001283451053713487</v>
       </c>
       <c r="YP3">
-        <v>-0.07509420108016364</v>
+        <v>-0.0549121281760858</v>
       </c>
       <c r="YQ3">
-        <v>-0.07682262973264524</v>
+        <v>-0.05626283244343971</v>
       </c>
       <c r="YR3">
-        <v>-0.07706055836336806</v>
+        <v>-0.05646763086355414</v>
       </c>
       <c r="YS3">
-        <v>-0.02114164866032528</v>
+        <v>0.0003415551025209818</v>
       </c>
       <c r="YT3">
-        <v>-0.02146681444078464</v>
+        <v>0.0001357108641688449</v>
       </c>
       <c r="YU3">
-        <v>-0.02153251997824819</v>
+        <v>0.0001056707879538932</v>
       </c>
       <c r="YV3">
-        <v>-0.07509635136564224</v>
+        <v>-0.05491449465354425</v>
       </c>
       <c r="YW3">
-        <v>-0.07682750232765241</v>
+        <v>-0.05626623132564477</v>
       </c>
       <c r="YX3">
-        <v>-0.07695737558156786</v>
+        <v>-0.0563572422885522</v>
       </c>
       <c r="YY3">
-        <v>-0.07717115724981437</v>
+        <v>-0.05657298841543939</v>
       </c>
       <c r="YZ3">
-        <v>-0.02114164866032177</v>
+        <v>0.0003415551025206768</v>
       </c>
       <c r="ZA3">
-        <v>-0.02147231819756093</v>
+        <v>0.0001303552828668908</v>
       </c>
       <c r="ZB3">
-        <v>-0.02155281101997811</v>
+        <v>9.604147824025313E-05</v>
       </c>
       <c r="ZC3">
-        <v>-0.07509736876427166</v>
+        <v>-0.05491561434258994</v>
       </c>
       <c r="ZD3">
-        <v>-0.07683557002759604</v>
+        <v>-0.05627185895060831</v>
       </c>
       <c r="ZE3">
-        <v>-0.0768954138350857</v>
+        <v>-0.05629095360927228</v>
       </c>
       <c r="ZF3">
-        <v>-0.07787153713996776</v>
+        <v>-0.05724017527236464</v>
       </c>
       <c r="ZG3">
-        <v>-0.02114164866032177</v>
+        <v>0.0003415551025206768</v>
       </c>
       <c r="ZH3">
-        <v>-0.02151239758871803</v>
+        <v>9.135494425724277E-05</v>
       </c>
       <c r="ZI3">
-        <v>-0.07509848623920858</v>
+        <v>-0.05491684416978789</v>
       </c>
       <c r="ZJ3">
-        <v>-0.07686164264688963</v>
+        <v>-0.05629004586618507</v>
       </c>
       <c r="ZK3">
-        <v>-0.07683793501693564</v>
+        <v>-0.05622946103237433</v>
       </c>
       <c r="ZL3">
-        <v>-0.07837291260168382</v>
+        <v>-0.05771778730219513</v>
       </c>
       <c r="ZM3">
-        <v>-0.07509955877644925</v>
+        <v>-0.05491802454125971</v>
       </c>
       <c r="ZN3">
-        <v>-0.07692256576517159</v>
+        <v>-0.05633254243889649</v>
       </c>
       <c r="ZO3">
-        <v>-0.07678185073352808</v>
+        <v>-0.05616946048290788</v>
       </c>
       <c r="ZP3">
-        <v>-0.07843979953588173</v>
+        <v>-0.05778295104105398</v>
       </c>
       <c r="ZQ3">
-        <v>-0.07973562480958782</v>
+        <v>-0.05901433898694054</v>
       </c>
       <c r="ZR3">
-        <v>-0.07510085224816759</v>
+        <v>-0.05491944806031219</v>
       </c>
       <c r="ZS3">
-        <v>-0.07673978356288881</v>
+        <v>-0.05612445590895382</v>
       </c>
       <c r="ZT3">
-        <v>-0.07844605827231382</v>
+        <v>-0.05778904863301974</v>
       </c>
       <c r="ZU3">
-        <v>-0.07843978776497663</v>
+        <v>-0.0577829392920409</v>
       </c>
       <c r="ZV3">
-        <v>-0.07977339370724308</v>
+        <v>-0.05909206421803221</v>
       </c>
       <c r="ZW3">
-        <v>-0.08001198454455036</v>
+        <v>-0.0592692669964523</v>
       </c>
       <c r="ZX3">
-        <v>-0.07510291550101648</v>
+        <v>-0.05492171875546915</v>
       </c>
       <c r="ZY3">
-        <v>-0.07667295674247515</v>
+        <v>-0.05605296293350766</v>
       </c>
       <c r="ZZ3">
-        <v>-0.07844801667360347</v>
+        <v>-0.05779095661101606</v>
       </c>
       <c r="AAA3">
-        <v>-0.07843976378579247</v>
+        <v>-0.05778291535745378</v>
       </c>
       <c r="AAB3">
-        <v>-0.07979527453182754</v>
+        <v>-0.05913709377218606</v>
       </c>
       <c r="AAC3">
-        <v>-0.0802935390170674</v>
+        <v>-0.0595267838072463</v>
       </c>
       <c r="AAD3">
-        <v>-0.07510856240488294</v>
+        <v>-0.05492793340799526</v>
       </c>
       <c r="AAE3">
-        <v>-0.07656028315672468</v>
+        <v>-0.05593242231703313</v>
       </c>
       <c r="AAF3">
-        <v>-0.07844927586985148</v>
+        <v>-0.05779218338649879</v>
       </c>
       <c r="AAG3">
-        <v>-0.08103633806809282</v>
+        <v>-0.0602061599869441</v>
       </c>
       <c r="AAH3">
-        <v>-0.0802935390170566</v>
+        <v>-0.05952678380724448</v>
       </c>
       <c r="AAI3">
-        <v>-0.07511607742056998</v>
+        <v>-0.05493620399775791</v>
       </c>
       <c r="AAJ3">
-        <v>-0.07571598758861939</v>
+        <v>-0.05502919103550512</v>
       </c>
       <c r="AAK3">
-        <v>-0.07845003538201448</v>
+        <v>-0.05779292334334921</v>
       </c>
       <c r="AAL3">
-        <v>-0.08197170388961984</v>
+        <v>-0.06088534433697071</v>
       </c>
       <c r="AAM3">
-        <v>-0.08093172947171186</v>
+        <v>-0.06021331693199399</v>
       </c>
       <c r="AAN3">
-        <v>-0.08029353901704417</v>
+        <v>-0.05952678380724401</v>
       </c>
       <c r="AAO3">
-        <v>-0.07511679320275219</v>
+        <v>-0.0549369917462006</v>
       </c>
       <c r="AAP3">
-        <v>-0.07502330064097877</v>
+        <v>-0.0542881700763444</v>
       </c>
       <c r="AAQ3">
-        <v>-0.07845080303051509</v>
+        <v>-0.05779367122704453</v>
       </c>
       <c r="AAR3">
-        <v>-0.0829373314665881</v>
+        <v>-0.06158646234475511</v>
       </c>
       <c r="AAS3">
-        <v>-0.0809205307875118</v>
+        <v>-0.0602140831273831</v>
       </c>
       <c r="AAT3">
-        <v>-0.08029353901703422</v>
+        <v>-0.05952678380724723</v>
       </c>
       <c r="AAU3">
-        <v>-0.07511735928417831</v>
+        <v>-0.05493761474267419</v>
       </c>
       <c r="AAV3">
-        <v>-0.07480382370819984</v>
+        <v>-0.05405338209728052</v>
       </c>
       <c r="AAW3">
-        <v>-0.07845148870236769</v>
+        <v>-0.05779433924475545</v>
       </c>
       <c r="AAX3">
-        <v>-0.08328774475129756</v>
+        <v>-0.06183753363406166</v>
       </c>
       <c r="AAY3">
-        <v>-0.08312386481651592</v>
+        <v>-0.06173313353988347</v>
       </c>
       <c r="AAZ3">
-        <v>-0.08091625497020258</v>
+        <v>-0.06021437567280792</v>
       </c>
       <c r="ABA3">
-        <v>-0.08029353901702432</v>
+        <v>-0.0595267838072512</v>
       </c>
       <c r="ABB3">
-        <v>-0.07511790908506298</v>
+        <v>-0.05493821982174127</v>
       </c>
       <c r="ABC3">
-        <v>-0.07460401397102227</v>
+        <v>-0.0538396348006905</v>
       </c>
       <c r="ABD3">
-        <v>-0.07845226121658368</v>
+        <v>-0.05779509186887585</v>
       </c>
       <c r="ABE3">
-        <v>-0.08376395161947549</v>
+        <v>-0.06217872734985958</v>
       </c>
       <c r="ABF3">
-        <v>-0.08314888813398331</v>
+        <v>-0.06175280917457587</v>
       </c>
       <c r="ABG3">
-        <v>-0.08091173199899966</v>
+        <v>-0.06021468512881836</v>
       </c>
       <c r="ABH3">
-        <v>-0.0802935390170165</v>
+        <v>-0.05952678380725508</v>
       </c>
       <c r="ABI3">
-        <v>-0.07511849798122867</v>
+        <v>-0.05493886792683016</v>
       </c>
       <c r="ABJ3">
-        <v>-0.07449518527747108</v>
+        <v>-0.05372321544422267</v>
       </c>
       <c r="ABK3">
-        <v>-0.07845288015680138</v>
+        <v>-0.05779569487309776</v>
       </c>
       <c r="ABL3">
-        <v>-0.08432156678058655</v>
+        <v>-0.0625782358586067</v>
       </c>
       <c r="ABM3">
-        <v>-0.08316203491912132</v>
+        <v>-0.06176314636751869</v>
       </c>
       <c r="ABN3">
-        <v>-0.08090797832320576</v>
+        <v>-0.06021494195112045</v>
       </c>
       <c r="ABO3">
-        <v>-0.08029353901700874</v>
+        <v>-0.05952678380726106</v>
       </c>
       <c r="ABP3">
-        <v>-0.07511904246034896</v>
+        <v>-0.05493946714910235</v>
       </c>
       <c r="ABQ3">
-        <v>-0.07440826768832012</v>
+        <v>-0.05363023576299687</v>
       </c>
       <c r="ABR3">
-        <v>-0.07845362257627253</v>
+        <v>-0.05779641817731789</v>
       </c>
       <c r="ABS3">
-        <v>-0.08476936626260866</v>
+        <v>-0.06289905592218577</v>
       </c>
       <c r="ABT3">
-        <v>-0.08319145122343835</v>
+        <v>-0.06182188822421992</v>
       </c>
       <c r="ABU3">
-        <v>-0.08316350997298122</v>
+        <v>-0.06176314393504272</v>
       </c>
       <c r="ABV3">
-        <v>-0.08090353304568337</v>
+        <v>-0.06021524609264572</v>
       </c>
       <c r="ABW3">
-        <v>-0.08029353901700551</v>
+        <v>-0.05952678380726956</v>
       </c>
       <c r="ABX3">
-        <v>-0.07511955557449396</v>
+        <v>-0.05494003185290901</v>
       </c>
       <c r="ABY3">
-        <v>-0.07433415112124783</v>
+        <v>-0.05355095012467364</v>
       </c>
       <c r="ABZ3">
-        <v>-0.0784544226223358</v>
+        <v>-0.05779719762439819</v>
       </c>
       <c r="ACA3">
-        <v>-0.08482943465382367</v>
+        <v>-0.06297063215145304</v>
       </c>
       <c r="ACB3">
-        <v>-0.08524762993083593</v>
+        <v>-0.06311318833193326</v>
       </c>
       <c r="ACC3">
-        <v>-0.08321536332634147</v>
+        <v>-0.06186963923798974</v>
       </c>
       <c r="ACD3">
-        <v>-0.08316457664954821</v>
+        <v>-0.06176314217601322</v>
       </c>
       <c r="ACE3">
-        <v>-0.08089919781689622</v>
+        <v>-0.06021554270537533</v>
       </c>
       <c r="ACF3">
-        <v>-0.08029353901700241</v>
+        <v>-0.05952678380727482</v>
       </c>
       <c r="ACG3">
-        <v>-0.07512026921829189</v>
+        <v>-0.0549408172481004</v>
       </c>
       <c r="ACH3">
-        <v>-0.07424717413553208</v>
+        <v>-0.0534579073969441</v>
       </c>
       <c r="ACI3">
-        <v>-0.07845588226540877</v>
+        <v>-0.05779861968566261</v>
       </c>
       <c r="ACJ3">
-        <v>-0.08491225336510175</v>
+        <v>-0.0630693174762787</v>
       </c>
       <c r="ACK3">
-        <v>-0.08564747570357249</v>
+        <v>-0.06329219099295778</v>
       </c>
       <c r="ACL3">
-        <v>-0.08316547682987101</v>
+        <v>-0.06176314069155001</v>
       </c>
       <c r="ACM3">
-        <v>-0.08089323780132081</v>
+        <v>-0.06021595048567971</v>
       </c>
       <c r="ACN3">
-        <v>-0.08029353901700098</v>
+        <v>-0.05952678380728096</v>
       </c>
       <c r="ACO3">
-        <v>-0.07512114375987063</v>
+        <v>-0.0549417797181439</v>
       </c>
       <c r="ACP3">
-        <v>-0.07416769916274514</v>
+        <v>-0.05337289010230397</v>
       </c>
       <c r="ACQ3">
-        <v>-0.07846680270484034</v>
+        <v>-0.05780925895293497</v>
       </c>
       <c r="ACR3">
-        <v>-0.08511599913453562</v>
+        <v>-0.06331209881248666</v>
       </c>
       <c r="ACS3">
-        <v>-0.08567725298881529</v>
+        <v>-0.06332048303155001</v>
       </c>
       <c r="ACT3">
-        <v>-0.08565692888536863</v>
+        <v>-0.06329588100088632</v>
       </c>
       <c r="ACU3">
-        <v>-0.08316699733940643</v>
+        <v>-0.06176313818412177</v>
       </c>
       <c r="ACV3">
-        <v>-0.08088503882694881</v>
+        <v>-0.06021651145598711</v>
       </c>
       <c r="ACW3">
-        <v>-0.0802935390169995</v>
+        <v>-0.05952678380728334</v>
       </c>
       <c r="ACX3">
-        <v>-0.07512528886493576</v>
+        <v>-0.05494634158233442</v>
       </c>
       <c r="ACY3">
-        <v>-0.0740444020133995</v>
+        <v>-0.05324099505702781</v>
       </c>
       <c r="ACZ3">
-        <v>-0.0785002686691159</v>
+        <v>-0.05784186324949572</v>
       </c>
       <c r="ADA3">
-        <v>-0.08528114759143142</v>
+        <v>-0.06350888950442664</v>
       </c>
       <c r="ADB3">
-        <v>-0.08570643192801536</v>
+        <v>-0.06334820655014529</v>
       </c>
       <c r="ADC3">
-        <v>-0.08566596737797449</v>
+        <v>-0.06329940912764515</v>
       </c>
       <c r="ADD3">
-        <v>-0.08316912663479778</v>
+        <v>-0.06176313467276637</v>
       </c>
       <c r="ADE3">
-        <v>-0.0808763619803225</v>
+        <v>-0.06021710512454551</v>
       </c>
       <c r="ADF3">
-        <v>-0.08029353901700095</v>
+        <v>-0.05952678380728622</v>
       </c>
       <c r="ADG3">
-        <v>-0.07516073102034233</v>
+        <v>-0.05498534721518326</v>
       </c>
       <c r="ADH3">
-        <v>-0.07379547287503933</v>
+        <v>-0.05297470894047789</v>
       </c>
       <c r="ADI3">
-        <v>-0.08541019573090211</v>
+        <v>-0.06366266404565191</v>
       </c>
       <c r="ADJ3">
-        <v>-0.08567571138693654</v>
+        <v>-0.06330321263897122</v>
       </c>
       <c r="ADK3">
-        <v>-0.08317070662314278</v>
+        <v>-0.06176313206725769</v>
       </c>
       <c r="ADL3">
-        <v>-0.08087059818283918</v>
+        <v>-0.06021749948409794</v>
       </c>
       <c r="ADM3">
-        <v>-0.08029353901700317</v>
+        <v>-0.05952678380728649</v>
       </c>
       <c r="ADN3">
-        <v>-0.07371762578089724</v>
+        <v>-0.05289426439844479</v>
       </c>
       <c r="ADO3">
-        <v>-0.07381626475427583</v>
+        <v>-0.05298007799905428</v>
       </c>
       <c r="ADP3">
-        <v>-0.08552683480489005</v>
+        <v>-0.06380165258048562</v>
       </c>
       <c r="ADQ3">
-        <v>-0.08568441207913645</v>
+        <v>-0.06330660888959128</v>
       </c>
       <c r="ADR3">
-        <v>-0.08317332394212987</v>
+        <v>-0.06176312775112312</v>
       </c>
       <c r="ADS3">
-        <v>-0.08086473201925108</v>
+        <v>-0.06021790084868601</v>
       </c>
       <c r="ADT3">
-        <v>-0.08029353901700381</v>
+        <v>-0.05952678380728487</v>
       </c>
       <c r="ADU3">
-        <v>-0.0736497354731073</v>
+        <v>-0.05282410894406906</v>
       </c>
       <c r="ADV3">
-        <v>-0.07384953542679445</v>
+        <v>-0.05298866936069623</v>
       </c>
       <c r="ADW3">
-        <v>-0.08552277486692005</v>
+        <v>-0.06380265230834679</v>
       </c>
       <c r="ADX3">
-        <v>-0.08563148939813234</v>
+        <v>-0.0638690090859608</v>
       </c>
       <c r="ADY3">
-        <v>-0.08569402058385758</v>
+        <v>-0.063310359488542</v>
       </c>
       <c r="ADZ3">
-        <v>-0.08319149088921299</v>
+        <v>-0.06176309779274443</v>
       </c>
       <c r="AEA3">
-        <v>-0.08086192715278902</v>
+        <v>-0.06021809275885498</v>
       </c>
       <c r="AEB3">
-        <v>-0.0802935390170052</v>
+        <v>-0.05952678380728472</v>
       </c>
       <c r="AEC3">
-        <v>-0.07359358688859609</v>
+        <v>-0.05276608703161682</v>
       </c>
       <c r="AED3">
-        <v>-0.07387796258589925</v>
+        <v>-0.05299600992322135</v>
       </c>
       <c r="AEE3">
-        <v>-0.08551870425496134</v>
+        <v>-0.06380365466690405</v>
       </c>
       <c r="AEF3">
-        <v>-0.08574769149005468</v>
+        <v>-0.06394374486767655</v>
       </c>
       <c r="AEG3">
-        <v>-0.08563148939813234</v>
+        <v>-0.0638690090859608</v>
       </c>
       <c r="AEH3">
-        <v>-0.08570021552495687</v>
+        <v>-0.06331277762635212</v>
       </c>
       <c r="AEI3">
-        <v>-0.08323161997004444</v>
+        <v>-0.06176303161837716</v>
       </c>
       <c r="AEJ3">
-        <v>-0.08085746567047153</v>
+        <v>-0.06021839801593336</v>
       </c>
       <c r="AEK3">
-        <v>-0.08029353901700111</v>
+        <v>-0.05952678380728751</v>
       </c>
       <c r="AEL3">
-        <v>-0.07354992289081402</v>
+        <v>-0.05272096627519597</v>
       </c>
       <c r="AEM3">
-        <v>-0.07389405149891193</v>
+        <v>-0.05300016442845989</v>
       </c>
       <c r="AEN3">
-        <v>-0.08551462573426535</v>
+        <v>-0.06380465897524817</v>
       </c>
       <c r="AEO3">
-        <v>-0.08584512531071772</v>
+        <v>-0.06400640924882571</v>
       </c>
       <c r="AEP3">
-        <v>-0.08574769149005468</v>
+        <v>-0.06394374486767655</v>
       </c>
       <c r="AEQ3">
-        <v>-0.08570973056535822</v>
+        <v>-0.06331649172602305</v>
       </c>
       <c r="AER3">
-        <v>-0.08085327732693824</v>
+        <v>-0.06021868458530708</v>
       </c>
       <c r="AES3">
-        <v>-0.08029353901700376</v>
+        <v>-0.05952678380729172</v>
       </c>
       <c r="AET3">
-        <v>-0.07350551378509676</v>
+        <v>-0.05267507558465265</v>
       </c>
       <c r="AEU3">
-        <v>-0.08551057189536986</v>
+        <v>-0.06380565720816189</v>
       </c>
       <c r="AEV3">
-        <v>-0.08594986653045737</v>
+        <v>-0.06407377283983487</v>
       </c>
       <c r="AEW3">
-        <v>-0.08584512531071774</v>
+        <v>-0.06400640924882571</v>
       </c>
       <c r="AEX3">
-        <v>-0.08578799574625398</v>
+        <v>-0.06334704137405844</v>
       </c>
       <c r="AEY3">
-        <v>-0.08084729287621846</v>
+        <v>-0.06021909404659626</v>
       </c>
       <c r="AEZ3">
-        <v>-0.08029353901700376</v>
+        <v>-0.05952678380729172</v>
       </c>
       <c r="AFA3">
-        <v>-0.0734669744811184</v>
+        <v>-0.05263525055206079</v>
       </c>
       <c r="AFB3">
-        <v>-0.08550650264193144</v>
+        <v>-0.06380665923911888</v>
       </c>
       <c r="AFC3">
-        <v>-0.08603586459032338</v>
+        <v>-0.06412908148643548</v>
       </c>
       <c r="AFD3">
-        <v>-0.08594986653045737</v>
+        <v>-0.06407377283983487</v>
       </c>
       <c r="AFE3">
-        <v>-0.08605775433699185</v>
+        <v>-0.06345233252914857</v>
       </c>
       <c r="AFF3">
-        <v>-0.08078412263053227</v>
+        <v>-0.06022341628206816</v>
       </c>
       <c r="AFG3">
-        <v>-0.07343929491048566</v>
+        <v>-0.05260664756506846</v>
       </c>
       <c r="AFH3">
-        <v>-0.08550243614582285</v>
+        <v>-0.06380766059340254</v>
       </c>
       <c r="AFI3">
-        <v>-0.08612819478847079</v>
+        <v>-0.0641884621614015</v>
       </c>
       <c r="AFJ3">
-        <v>-0.08603586459032334</v>
+        <v>-0.06412908148643548</v>
       </c>
       <c r="AFK3">
-        <v>-0.08075885596890357</v>
+        <v>-0.06022514511512961</v>
       </c>
       <c r="AFL3">
-        <v>-0.07340715882048611</v>
+        <v>-0.05257343940117053</v>
       </c>
       <c r="AFM3">
-        <v>-0.085498367074141</v>
+        <v>-0.06380866258421858</v>
       </c>
       <c r="AFN3">
-        <v>-0.08633299007714725</v>
+        <v>-0.06431975041411629</v>
       </c>
       <c r="AFO3">
-        <v>-0.08612819478845837</v>
+        <v>-0.06418846216135718</v>
       </c>
       <c r="AFP3">
-        <v>-0.08612819478847079</v>
+        <v>-0.0641884621614015</v>
       </c>
       <c r="AFQ3">
-        <v>-0.08074602556874669</v>
+        <v>-0.06022602302396406</v>
       </c>
       <c r="AFR3">
-        <v>-0.07335874525152784</v>
+        <v>-0.05252341076725143</v>
       </c>
       <c r="AFS3">
-        <v>-0.0854963808285517</v>
+        <v>-0.06380915168920434</v>
       </c>
       <c r="AFT3">
-        <v>-0.08636295406050315</v>
+        <v>-0.06433895902728597</v>
       </c>
       <c r="AFU3">
-        <v>-0.08612819478844401</v>
+        <v>-0.06418846216130625</v>
       </c>
       <c r="AFV3">
-        <v>-0.08612819478845837</v>
+        <v>-0.06418846216135718</v>
       </c>
       <c r="AFW3">
-        <v>-0.08074318644661353</v>
+        <v>-0.06022621728913604</v>
       </c>
       <c r="AFX3">
-        <v>-0.07327964694218091</v>
+        <v>-0.05244167384197525</v>
       </c>
       <c r="AFY3">
-        <v>-0.08545173917721932</v>
+        <v>-0.06382014466146144</v>
       </c>
       <c r="AFZ3">
-        <v>-0.08644737187923693</v>
+        <v>-0.06439307506473776</v>
       </c>
       <c r="AGA3">
-        <v>-0.08612819478842752</v>
+        <v>-0.06418846216123258</v>
       </c>
       <c r="AGB3">
-        <v>-0.08612819478844401</v>
+        <v>-0.06418846216130625</v>
       </c>
       <c r="AGC3">
-        <v>-0.08074095049793555</v>
+        <v>-0.06022637028272555</v>
       </c>
       <c r="AGD3">
-        <v>-0.07261728530075939</v>
+        <v>-0.05180330924382542</v>
       </c>
       <c r="AGE3">
-        <v>-0.07335325209955611</v>
+        <v>-0.05239499036777316</v>
       </c>
       <c r="AGF3">
-        <v>-0.08542270904563928</v>
+        <v>-0.06382729345819833</v>
       </c>
       <c r="AGG3">
-        <v>-0.08654650431913721</v>
+        <v>-0.06445662282879649</v>
       </c>
       <c r="AGH3">
-        <v>-0.0861281947884142</v>
+        <v>-0.06418846216120373</v>
       </c>
       <c r="AGI3">
-        <v>-0.08612819478842752</v>
+        <v>-0.06418846216123258</v>
       </c>
       <c r="AGJ3">
-        <v>-0.08073855482456858</v>
+        <v>-0.06022653420557565</v>
       </c>
       <c r="AGK3">
-        <v>-0.08539731895139337</v>
+        <v>-0.06383354597622926</v>
       </c>
       <c r="AGL3">
-        <v>-0.08655936431275335</v>
+        <v>-0.06446486650124023</v>
       </c>
       <c r="AGM3">
-        <v>-0.08612819478840784</v>
+        <v>-0.06418846216118905</v>
       </c>
       <c r="AGN3">
-        <v>-0.0861281947884142</v>
+        <v>-0.06418846216120373</v>
       </c>
       <c r="AGO3">
-        <v>-0.08073663811029523</v>
+        <v>-0.06022666535600597</v>
       </c>
       <c r="AGP3">
-        <v>-0.08537068607869575</v>
+        <v>-0.06384010463526117</v>
       </c>
       <c r="AGQ3">
-        <v>-0.08656514032584665</v>
+        <v>-0.06447365730698418</v>
       </c>
       <c r="AGR3">
-        <v>-0.08658247720504691</v>
+        <v>-0.06446836186431291</v>
       </c>
       <c r="AGS3">
-        <v>-0.08612819478840779</v>
+        <v>-0.06418846216118761</v>
       </c>
       <c r="AGT3">
-        <v>-0.08612819478840782</v>
+        <v>-0.06418846216118905</v>
       </c>
       <c r="AGU3">
-        <v>-0.08073477705886163</v>
+        <v>-0.06022679269784467</v>
       </c>
       <c r="AGV3">
-        <v>-0.08532521009542041</v>
+        <v>-0.06385130386130469</v>
       </c>
       <c r="AGW3">
-        <v>-0.08657048504087227</v>
+        <v>-0.06448179171062642</v>
       </c>
       <c r="AGX3">
-        <v>-0.08663656867643181</v>
+        <v>-0.06447654198008249</v>
       </c>
       <c r="AGY3">
-        <v>-0.08612819478840779</v>
+        <v>-0.06418846216118761</v>
       </c>
       <c r="AGZ3">
-        <v>-0.08612819478840775</v>
+        <v>-0.06418846216118761</v>
       </c>
       <c r="AHA3">
-        <v>-0.08073292072730784</v>
+        <v>-0.06022691971684108</v>
       </c>
       <c r="AHB3">
-        <v>-0.08531405566488609</v>
+        <v>-0.0638540508715751</v>
       </c>
       <c r="AHC3">
-        <v>-0.0865786121777726</v>
+        <v>-0.0644941608512921</v>
       </c>
       <c r="AHD3">
-        <v>-0.08676489587056625</v>
+        <v>-0.06449594780026015</v>
       </c>
       <c r="AHE3">
-        <v>-0.08073108611445881</v>
+        <v>-0.06022704524985494</v>
       </c>
       <c r="AHF3">
-        <v>-0.08531512898308445</v>
+        <v>-0.0638625941311394</v>
       </c>
       <c r="AHG3">
-        <v>-0.08527444640410396</v>
+        <v>-0.0638560614202778</v>
       </c>
       <c r="AHH3">
-        <v>-0.0865888827068539</v>
+        <v>-0.06450979217820534</v>
       </c>
       <c r="AHI3">
-        <v>-0.08069827934595765</v>
+        <v>-0.06022929006527362</v>
       </c>
       <c r="AHJ3">
-        <v>-0.08531689128891891</v>
+        <v>-0.06387662156858007</v>
       </c>
       <c r="AHK3">
-        <v>-0.08524085198754203</v>
+        <v>-0.06385776667963851</v>
       </c>
       <c r="AHL3">
-        <v>-0.08662886620953093</v>
+        <v>-0.06457064585257895</v>
       </c>
       <c r="AHM3">
-        <v>-0.08053358564132657</v>
+        <v>-0.06011065008100727</v>
       </c>
       <c r="AHN3">
-        <v>-0.08070399814710226</v>
+        <v>-0.06030157642398327</v>
       </c>
       <c r="AHO3">
-        <v>-0.08531723973624583</v>
+        <v>-0.06387939511636556</v>
       </c>
       <c r="AHP3">
-        <v>-0.08518438577260744</v>
+        <v>-0.06386063296058543</v>
       </c>
       <c r="AHQ3">
-        <v>-0.08670150103364381</v>
+        <v>-0.06468119552162716</v>
       </c>
       <c r="AHR3">
-        <v>-0.08042421014714973</v>
+        <v>-0.06003185816651396</v>
       </c>
       <c r="AHS3">
-        <v>-0.08531753416693433</v>
+        <v>-0.06388173870851691</v>
       </c>
       <c r="AHT3">
-        <v>-0.08531778228284082</v>
+        <v>-0.06388371364867558</v>
       </c>
       <c r="AHU3">
-        <v>-0.08531810504046264</v>
+        <v>-0.06388628272040126</v>
       </c>
       <c r="AHV3">
-        <v>-0.08531868918205837</v>
+        <v>-0.06389093235129957</v>
       </c>
       <c r="AHW3">
-        <v>-0.08531970198071619</v>
+        <v>-0.06389899401286639</v>
       </c>
       <c r="AHX3">
-        <v>-0.0853279979499679</v>
+        <v>-0.06396502913548158</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.06697046547772297</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.06673798104170089</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.06671360640194249</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-0.06669077086583898</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.06667086130010717</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0.06663949543065281</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0.06450222708670497</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0.06440643771697083</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.06432670621450164</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-0.06425673230820317</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.06420451662490553</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-0.06415549745287766</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.06412535441977593</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-0.06405030939859228</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.06344225700154368</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0.06344225700154286</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-0.06270459092306546</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-0.06344225700154246</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-0.06265382295753903</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-0.06344225700154134</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-0.06259681460973743</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-0.06344225700154012</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-0.06250398930076566</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-0.06344225700153937</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-0.06233510429722556</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-0.06344225700153956</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-0.06196579104370082</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-0.06039312006924436</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-0.06344225700154023</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-0.06186575370187827</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-0.06196414242814664</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>-0.05987572565278815</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>-0.06344225700154184</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-0.06163665993167634</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>-0.06196408659738914</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.05996512453282689</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-0.0582089439732637</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-0.0634422570015435</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-0.06196400632282784</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-0.05996977634574728</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>-0.05997231975506463</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>-0.05705134799238837</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>-0.05820894397318888</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>-0.06344225700154348</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>-0.06196390337613625</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>-0.05997187306026935</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>-0.05998963291929037</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>-0.05617608005847455</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>-0.05820894397316</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>-0.06344225700154292</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-0.06196365265434008</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>-0.05997409513100683</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>-0.0560498469356446</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>-0.05617608005845076</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>-0.0582089439731315</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>-0.06344225700154243</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>-0.06196343799044346</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>-0.05997621150170841</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>-0.05547792701792061</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>-0.0561760800584483</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>-0.0582089439731107</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>-0.06344225700154182</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>-0.06196240896531804</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>-0.0599774789994107</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>-0.05534290349137186</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>-0.0556905813528539</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>-0.05617608005845025</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>-0.05820894397309725</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>-0.06344225700154121</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>-0.06195877166952274</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>-0.05997996573898402</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>-0.0537470087202187</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>-0.05561697132458958</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>-0.05586815366560607</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>-0.05617608005845619</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>-0.0582089439730744</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>-0.06344225700153761</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>-0.059992568673971</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>-0.05319044272964255</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>-0.056176080058457</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>-0.05820894397300222</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>-0.06344225700153358</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>-0.06004005999526869</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>-0.05306896267417931</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>-0.05617608005845916</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>-0.05820894397286662</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>-0.06344225700153154</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>-0.05282259923635099</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>-0.05617608005845916</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>-0.05820894397283809</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>-0.06344225700153078</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>-0.05259024123093667</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>-0.05820894397283427</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>-0.06344225700153035</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>-0.05245517454162759</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>-0.05820894397283212</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>-0.06344225700152996</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>-0.05236596843456812</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>-0.05820894397283895</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>-0.06344225700153013</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>-0.05224279360998848</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>-0.05820894397381519</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>-0.06344225700153014</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>-0.05225389471978251</v>
       </c>
       <c r="DC2">
-        <v>0</v>
+        <v>-0.05214947454138241</v>
       </c>
       <c r="DD2">
-        <v>0</v>
+        <v>-0.05820894397385354</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>-0.05226732553928956</v>
       </c>
       <c r="DF2">
-        <v>0</v>
+        <v>-0.05209655656527357</v>
       </c>
       <c r="DG2">
-        <v>0</v>
+        <v>-0.0582089439739387</v>
       </c>
       <c r="DH2">
-        <v>0</v>
+        <v>-0.05228289282792861</v>
       </c>
       <c r="DI2">
-        <v>0</v>
+        <v>-0.05000772422575328</v>
       </c>
       <c r="DJ2">
-        <v>0</v>
+        <v>-0.0582089439760754</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>-0.0523066283476265</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>-0.04979837943233164</v>
       </c>
       <c r="DM2">
-        <v>0</v>
+        <v>-0.05820894397797945</v>
       </c>
       <c r="DN2">
-        <v>0</v>
+        <v>-0.05233714361306079</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>-0.04988043014506328</v>
       </c>
       <c r="DP2">
-        <v>0</v>
+        <v>-0.04957841648266957</v>
       </c>
       <c r="DQ2">
-        <v>0</v>
+        <v>-0.05820894397815558</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>-0.0523590506849709</v>
       </c>
       <c r="DS2">
-        <v>0</v>
+        <v>-0.04988043014506627</v>
       </c>
       <c r="DT2">
-        <v>0</v>
+        <v>-0.04992038025803101</v>
       </c>
       <c r="DU2">
-        <v>0</v>
+        <v>-0.04918163163788407</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>-0.05820894397829009</v>
       </c>
       <c r="DW2">
-        <v>0</v>
+        <v>-0.05239000525486954</v>
       </c>
       <c r="DX2">
-        <v>0</v>
+        <v>-0.04988043014506869</v>
       </c>
       <c r="DY2">
-        <v>0</v>
+        <v>-0.05010805352745341</v>
       </c>
       <c r="DZ2">
-        <v>0</v>
+        <v>-0.04900315138971963</v>
       </c>
       <c r="EA2">
-        <v>0</v>
+        <v>-0.05820894397841189</v>
       </c>
       <c r="EB2">
-        <v>0</v>
+        <v>-0.0524234959256638</v>
       </c>
       <c r="EC2">
-        <v>0</v>
+        <v>-0.04988043014506979</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>-0.05004592449185107</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>-0.05061110065989035</v>
       </c>
       <c r="EF2">
-        <v>0</v>
+        <v>-0.04895004306892517</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>-0.05820894397877047</v>
       </c>
       <c r="EH2">
-        <v>0</v>
+        <v>-0.05245508037277278</v>
       </c>
       <c r="EI2">
-        <v>0</v>
+        <v>-0.04988043014507117</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>-0.05004057392718502</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>-0.05098534859991499</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>-0.0488900912294951</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>-0.05820894397903638</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>-0.05250701034813419</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>-0.0498804301450719</v>
       </c>
       <c r="EP2">
-        <v>0</v>
+        <v>-0.05003532400060999</v>
       </c>
       <c r="EQ2">
-        <v>0</v>
+        <v>-0.05123597680934242</v>
       </c>
       <c r="ER2">
-        <v>0</v>
+        <v>-0.04883370466463053</v>
       </c>
       <c r="ES2">
-        <v>0</v>
+        <v>-0.05820894397907948</v>
       </c>
       <c r="ET2">
-        <v>0</v>
+        <v>-0.05275392780917456</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>-0.04988043014507301</v>
       </c>
       <c r="EV2">
-        <v>0</v>
+        <v>-0.05003108490277591</v>
       </c>
       <c r="EW2">
-        <v>0</v>
+        <v>-0.05133372301200154</v>
       </c>
       <c r="EX2">
-        <v>0</v>
+        <v>-0.05151928410562449</v>
       </c>
       <c r="EY2">
-        <v>0</v>
+        <v>-0.04876790868888398</v>
       </c>
       <c r="EZ2">
-        <v>0</v>
+        <v>-0.05820894397908926</v>
       </c>
       <c r="FA2">
-        <v>0</v>
+        <v>-0.05280771788058657</v>
       </c>
       <c r="FB2">
-        <v>0</v>
+        <v>-0.04988043014507395</v>
       </c>
       <c r="FC2">
-        <v>0</v>
+        <v>-0.05002472234620599</v>
       </c>
       <c r="FD2">
-        <v>0</v>
+        <v>-0.05159295388137092</v>
       </c>
       <c r="FE2">
-        <v>0</v>
+        <v>-0.05153652920201268</v>
       </c>
       <c r="FF2">
-        <v>0</v>
+        <v>-0.04874897551594538</v>
       </c>
       <c r="FG2">
-        <v>0</v>
+        <v>-0.05820894397909384</v>
       </c>
       <c r="FH2">
-        <v>0</v>
+        <v>-0.05290169373707267</v>
       </c>
       <c r="FI2">
-        <v>0</v>
+        <v>-0.05297868218227766</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>-0.04988043014507463</v>
       </c>
       <c r="FK2">
-        <v>0</v>
+        <v>-0.05001705156133981</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>-0.05168299965056317</v>
       </c>
       <c r="FM2">
-        <v>0</v>
+        <v>-0.05155228363067202</v>
       </c>
       <c r="FN2">
-        <v>0</v>
+        <v>-0.04864140699736108</v>
       </c>
       <c r="FO2">
-        <v>0</v>
+        <v>-0.05820894397909384</v>
       </c>
       <c r="FP2">
-        <v>0</v>
+        <v>-0.05291944781755682</v>
       </c>
       <c r="FQ2">
-        <v>0</v>
+        <v>-0.05320565756671693</v>
       </c>
       <c r="FR2">
-        <v>0</v>
+        <v>-0.04988043014507447</v>
       </c>
       <c r="FS2">
-        <v>0</v>
+        <v>-0.05001125643368064</v>
       </c>
       <c r="FT2">
-        <v>0</v>
+        <v>-0.05168299965065797</v>
       </c>
       <c r="FU2">
-        <v>0</v>
+        <v>-0.05183277763839917</v>
       </c>
       <c r="FV2">
-        <v>0</v>
+        <v>-0.05155882827030853</v>
       </c>
       <c r="FW2">
-        <v>0</v>
+        <v>-0.04858064704679091</v>
       </c>
       <c r="FX2">
-        <v>0</v>
+        <v>-0.05295607851785079</v>
       </c>
       <c r="FY2">
-        <v>0</v>
+        <v>-0.05323329952445359</v>
       </c>
       <c r="FZ2">
-        <v>0</v>
+        <v>-0.05323318495023763</v>
       </c>
       <c r="GA2">
-        <v>0</v>
+        <v>-0.04988043014507437</v>
       </c>
       <c r="GB2">
-        <v>0</v>
+        <v>-0.05000455045282538</v>
       </c>
       <c r="GC2">
-        <v>0</v>
+        <v>-0.05168299965067801</v>
       </c>
       <c r="GD2">
-        <v>0</v>
+        <v>-0.05184895441738064</v>
       </c>
       <c r="GE2">
-        <v>0</v>
+        <v>-0.05157293523084362</v>
       </c>
       <c r="GF2">
-        <v>0</v>
+        <v>-0.0485355411128231</v>
       </c>
       <c r="GG2">
-        <v>0</v>
+        <v>-0.05334207840604509</v>
       </c>
       <c r="GH2">
-        <v>0</v>
+        <v>-0.05334711874623275</v>
       </c>
       <c r="GI2">
-        <v>0</v>
+        <v>-0.04988043014507405</v>
       </c>
       <c r="GJ2">
-        <v>0</v>
+        <v>-0.04999824509123306</v>
       </c>
       <c r="GK2">
-        <v>0</v>
+        <v>-0.05168299965066945</v>
       </c>
       <c r="GL2">
-        <v>0</v>
+        <v>-0.05168299965068843</v>
       </c>
       <c r="GM2">
-        <v>0</v>
+        <v>-0.05186460192815728</v>
       </c>
       <c r="GN2">
-        <v>0</v>
+        <v>-0.05160886590327218</v>
       </c>
       <c r="GO2">
-        <v>0</v>
+        <v>-0.04849498721395848</v>
       </c>
       <c r="GP2">
-        <v>0</v>
+        <v>-0.05353629931470296</v>
       </c>
       <c r="GQ2">
-        <v>0</v>
+        <v>-0.05335413852727877</v>
       </c>
       <c r="GR2">
-        <v>0</v>
+        <v>-0.05335593180658976</v>
       </c>
       <c r="GS2">
-        <v>0</v>
+        <v>-0.04988043014507403</v>
       </c>
       <c r="GT2">
-        <v>0</v>
+        <v>-0.04999146088311143</v>
       </c>
       <c r="GU2">
-        <v>0</v>
+        <v>-0.05168299965066945</v>
       </c>
       <c r="GV2">
-        <v>0</v>
+        <v>-0.05168299965069638</v>
       </c>
       <c r="GW2">
-        <v>0</v>
+        <v>-0.05187711844923389</v>
       </c>
       <c r="GX2">
-        <v>0</v>
+        <v>-0.05162994652443825</v>
       </c>
       <c r="GY2">
-        <v>0</v>
+        <v>-0.04844460570027638</v>
       </c>
       <c r="GZ2">
-        <v>0</v>
+        <v>-0.053512936327287</v>
       </c>
       <c r="HA2">
-        <v>0</v>
+        <v>-0.05357595854975238</v>
       </c>
       <c r="HB2">
-        <v>0</v>
+        <v>-0.05337188637836763</v>
       </c>
       <c r="HC2">
-        <v>0</v>
+        <v>-0.05335717754430502</v>
       </c>
       <c r="HD2">
-        <v>0</v>
+        <v>-0.04988043014507419</v>
       </c>
       <c r="HE2">
-        <v>0</v>
+        <v>-0.04998108984520869</v>
       </c>
       <c r="HF2">
-        <v>0</v>
+        <v>-0.05168299965071475</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>-0.05188708889637683</v>
       </c>
       <c r="HH2">
-        <v>0</v>
+        <v>-0.05164471158431824</v>
       </c>
       <c r="HI2">
-        <v>0</v>
+        <v>-0.04835162900685139</v>
       </c>
       <c r="HJ2">
-        <v>0</v>
+        <v>-0.05343646424197867</v>
       </c>
       <c r="HK2">
-        <v>0</v>
+        <v>-0.0536475368652516</v>
       </c>
       <c r="HL2">
-        <v>0</v>
+        <v>-0.05335818219705075</v>
       </c>
       <c r="HM2">
-        <v>0</v>
+        <v>-0.04988043014507418</v>
       </c>
       <c r="HN2">
-        <v>0</v>
+        <v>-0.04995276753089617</v>
       </c>
       <c r="HO2">
-        <v>0</v>
+        <v>-0.05168299965074359</v>
       </c>
       <c r="HP2">
-        <v>0</v>
+        <v>-0.05190816816827024</v>
       </c>
       <c r="HQ2">
-        <v>0</v>
+        <v>-0.0516731138995681</v>
       </c>
       <c r="HR2">
-        <v>0</v>
+        <v>-0.04827056172499379</v>
       </c>
       <c r="HS2">
-        <v>0</v>
+        <v>-0.05340349749823004</v>
       </c>
       <c r="HT2">
-        <v>0</v>
+        <v>-0.05367309437730679</v>
       </c>
       <c r="HU2">
-        <v>0</v>
+        <v>-0.05335898506361167</v>
       </c>
       <c r="HV2">
-        <v>0</v>
+        <v>-0.04995035267085206</v>
       </c>
       <c r="HW2">
-        <v>0</v>
+        <v>-0.05168299965079014</v>
       </c>
       <c r="HX2">
-        <v>0</v>
+        <v>-0.05192476874038346</v>
       </c>
       <c r="HY2">
-        <v>0</v>
+        <v>-0.05168725086721273</v>
       </c>
       <c r="HZ2">
-        <v>0</v>
+        <v>-0.04821541259139539</v>
       </c>
       <c r="IA2">
-        <v>0</v>
+        <v>-0.05395738157403284</v>
       </c>
       <c r="IB2">
-        <v>0</v>
+        <v>-0.05367309437730679</v>
       </c>
       <c r="IC2">
-        <v>0</v>
+        <v>-0.0533602106476706</v>
       </c>
       <c r="ID2">
-        <v>0</v>
+        <v>-0.04994923726918596</v>
       </c>
       <c r="IE2">
-        <v>0</v>
+        <v>-0.05168299965082847</v>
       </c>
       <c r="IF2">
-        <v>0</v>
+        <v>-0.05193628379856118</v>
       </c>
       <c r="IG2">
-        <v>0</v>
+        <v>-0.051697289043069</v>
       </c>
       <c r="IH2">
-        <v>0</v>
+        <v>-0.04817918284277577</v>
       </c>
       <c r="II2">
-        <v>0</v>
+        <v>-0.05399866940790856</v>
       </c>
       <c r="IJ2">
-        <v>0</v>
+        <v>-0.05336164728000331</v>
       </c>
       <c r="IK2">
-        <v>0</v>
+        <v>-0.04994804421177607</v>
       </c>
       <c r="IL2">
-        <v>0</v>
+        <v>-0.05168299965086297</v>
       </c>
       <c r="IM2">
-        <v>0</v>
+        <v>-0.05194777148503762</v>
       </c>
       <c r="IN2">
-        <v>0</v>
+        <v>-0.05181212478860375</v>
       </c>
       <c r="IO2">
-        <v>0</v>
+        <v>-0.04810120624498453</v>
       </c>
       <c r="IP2">
-        <v>0</v>
+        <v>-0.05404048139554624</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>-0.05408359240089981</v>
       </c>
       <c r="IR2">
-        <v>0</v>
+        <v>-0.05336385386379301</v>
       </c>
       <c r="IS2">
-        <v>0</v>
+        <v>-0.04994690419258585</v>
       </c>
       <c r="IT2">
-        <v>0</v>
+        <v>-0.05168299965089422</v>
       </c>
       <c r="IU2">
-        <v>0</v>
+        <v>-0.05196457756681276</v>
       </c>
       <c r="IV2">
-        <v>0</v>
+        <v>-0.05184598912965104</v>
       </c>
       <c r="IW2">
-        <v>0</v>
+        <v>-0.04809572104049902</v>
       </c>
       <c r="IX2">
-        <v>0</v>
+        <v>-0.04804781408318588</v>
       </c>
       <c r="IY2">
-        <v>0</v>
+        <v>-0.05337192847727812</v>
       </c>
       <c r="IZ2">
-        <v>0</v>
+        <v>-0.04994563416201098</v>
       </c>
       <c r="JA2">
-        <v>0</v>
+        <v>-0.05168299965092617</v>
       </c>
       <c r="JB2">
-        <v>0</v>
+        <v>-0.05202778723376428</v>
       </c>
       <c r="JC2">
-        <v>0</v>
+        <v>-0.05185356566055151</v>
       </c>
       <c r="JD2">
-        <v>0</v>
+        <v>-0.04809496279014901</v>
       </c>
       <c r="JE2">
-        <v>0</v>
+        <v>-0.04784757933726787</v>
       </c>
       <c r="JF2">
-        <v>0</v>
+        <v>-0.0534112280527879</v>
       </c>
       <c r="JG2">
-        <v>0</v>
+        <v>-0.04994301263970074</v>
       </c>
       <c r="JH2">
-        <v>0</v>
+        <v>-0.05168299965095585</v>
       </c>
       <c r="JI2">
-        <v>0</v>
+        <v>-0.05204254069441388</v>
       </c>
       <c r="JJ2">
-        <v>0</v>
+        <v>-0.05199133800057792</v>
       </c>
       <c r="JK2">
-        <v>0</v>
+        <v>-0.05185539141593948</v>
       </c>
       <c r="JL2">
-        <v>0</v>
+        <v>-0.04809461419430479</v>
       </c>
       <c r="JM2">
-        <v>0</v>
+        <v>-0.04788069008133852</v>
       </c>
       <c r="JN2">
-        <v>0</v>
+        <v>-0.04777331075834214</v>
       </c>
       <c r="JO2">
-        <v>0</v>
+        <v>-0.04994028233940541</v>
       </c>
       <c r="JP2">
-        <v>0</v>
+        <v>-0.05168299965096892</v>
       </c>
       <c r="JQ2">
-        <v>0</v>
+        <v>-0.05204929967225508</v>
       </c>
       <c r="JR2">
-        <v>0</v>
+        <v>-0.05212788377556758</v>
       </c>
       <c r="JS2">
-        <v>0</v>
+        <v>-0.0518575320012104</v>
       </c>
       <c r="JT2">
-        <v>0</v>
+        <v>-0.04809420016210018</v>
       </c>
       <c r="JU2">
-        <v>0</v>
+        <v>-0.04788309688856</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>-0.04750405155123086</v>
       </c>
       <c r="JW2">
-        <v>0</v>
+        <v>-0.04992989996395569</v>
       </c>
       <c r="JX2">
-        <v>0</v>
+        <v>-0.05168299965096963</v>
       </c>
       <c r="JY2">
-        <v>0</v>
+        <v>-0.05205374320109254</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>-0.05185946649661587</v>
       </c>
       <c r="KA2">
-        <v>0</v>
+        <v>-0.04809356135946204</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>-0.0478850806563703</v>
       </c>
       <c r="KC2">
-        <v>0</v>
+        <v>-0.04672244292658051</v>
       </c>
       <c r="KD2">
-        <v>0</v>
+        <v>-0.04761708979458546</v>
       </c>
       <c r="KE2">
-        <v>0</v>
+        <v>-0.04987477804781573</v>
       </c>
       <c r="KF2">
-        <v>0</v>
+        <v>-0.05168299965096963</v>
       </c>
       <c r="KG2">
-        <v>0</v>
+        <v>-0.0520674005655762</v>
       </c>
       <c r="KH2">
-        <v>0</v>
+        <v>-0.05205590900361537</v>
       </c>
       <c r="KI2">
-        <v>0</v>
+        <v>-0.05186142575549682</v>
       </c>
       <c r="KJ2">
-        <v>0</v>
+        <v>-0.0480929921408566</v>
       </c>
       <c r="KK2">
-        <v>0</v>
+        <v>-0.04788789844864539</v>
       </c>
       <c r="KL2">
-        <v>0</v>
+        <v>-0.04636266643600136</v>
       </c>
       <c r="KM2">
-        <v>0</v>
+        <v>-0.04809085961943405</v>
       </c>
       <c r="KN2">
-        <v>0</v>
+        <v>-0.05207367420896008</v>
       </c>
       <c r="KO2">
-        <v>0</v>
+        <v>-0.05205744182064995</v>
       </c>
       <c r="KP2">
-        <v>0</v>
+        <v>-0.05186353235691041</v>
       </c>
       <c r="KQ2">
-        <v>0</v>
+        <v>-0.04809254958595077</v>
       </c>
       <c r="KR2">
-        <v>0</v>
+        <v>-0.04790055474561599</v>
       </c>
       <c r="KS2">
-        <v>0</v>
+        <v>-0.04401207315222418</v>
       </c>
       <c r="KT2">
-        <v>0</v>
+        <v>-0.04819544581502032</v>
       </c>
       <c r="KU2">
-        <v>0</v>
+        <v>-0.05208429227639939</v>
       </c>
       <c r="KV2">
-        <v>0</v>
+        <v>-0.05205922556929676</v>
       </c>
       <c r="KW2">
-        <v>0</v>
+        <v>-0.0518757495163994</v>
       </c>
       <c r="KX2">
-        <v>0</v>
+        <v>-0.04809199871561279</v>
       </c>
       <c r="KY2">
-        <v>0</v>
+        <v>-0.0479029912254294</v>
       </c>
       <c r="KZ2">
-        <v>0</v>
+        <v>-0.04383648221648959</v>
       </c>
       <c r="LA2">
-        <v>0</v>
+        <v>-0.04823019821964035</v>
       </c>
       <c r="LB2">
-        <v>0</v>
+        <v>-0.05210467311171889</v>
       </c>
       <c r="LC2">
-        <v>0</v>
+        <v>-0.05206263731399959</v>
       </c>
       <c r="LD2">
-        <v>0</v>
+        <v>-0.05192742424532394</v>
       </c>
       <c r="LE2">
-        <v>0</v>
+        <v>-0.04809142895459655</v>
       </c>
       <c r="LF2">
-        <v>0</v>
+        <v>-0.04790479524016468</v>
       </c>
       <c r="LG2">
-        <v>0</v>
+        <v>-0.04383386477682558</v>
       </c>
       <c r="LH2">
-        <v>0</v>
+        <v>-0.04060581017344103</v>
       </c>
       <c r="LI2">
-        <v>0</v>
+        <v>-0.04824833663623073</v>
       </c>
       <c r="LJ2">
-        <v>0</v>
+        <v>-0.05216467882837366</v>
       </c>
       <c r="LK2">
-        <v>0</v>
+        <v>-0.05207572199754869</v>
       </c>
       <c r="LL2">
-        <v>0</v>
+        <v>-0.04809075688993636</v>
       </c>
       <c r="LM2">
-        <v>0</v>
+        <v>-0.04790687327141089</v>
       </c>
       <c r="LN2">
-        <v>0</v>
+        <v>-0.04382038407423557</v>
       </c>
       <c r="LO2">
-        <v>0</v>
+        <v>-0.0390550814052174</v>
       </c>
       <c r="LP2">
-        <v>0</v>
+        <v>-0.04826386374290483</v>
       </c>
       <c r="LQ2">
-        <v>0</v>
+        <v>-0.05212037564660045</v>
       </c>
       <c r="LR2">
-        <v>0</v>
+        <v>-0.04809037390222405</v>
       </c>
       <c r="LS2">
-        <v>0</v>
+        <v>-0.04790893465044396</v>
       </c>
       <c r="LT2">
-        <v>0</v>
+        <v>-0.04381567766570581</v>
       </c>
       <c r="LU2">
-        <v>0</v>
+        <v>-0.03912627966627145</v>
       </c>
       <c r="LV2">
-        <v>0</v>
+        <v>-0.03602197833591492</v>
       </c>
       <c r="LW2">
-        <v>0</v>
+        <v>-0.04828152310689564</v>
       </c>
       <c r="LX2">
-        <v>0</v>
+        <v>-0.04808864371503592</v>
       </c>
       <c r="LY2">
-        <v>0</v>
+        <v>-0.04792704417753636</v>
       </c>
       <c r="LZ2">
-        <v>0</v>
+        <v>-0.04380543440257995</v>
       </c>
       <c r="MA2">
-        <v>0</v>
+        <v>-0.03915447835058484</v>
       </c>
       <c r="MB2">
-        <v>0</v>
+        <v>-0.03607519069121273</v>
       </c>
       <c r="MC2">
-        <v>0</v>
+        <v>-0.03546248701692523</v>
       </c>
       <c r="MD2">
-        <v>0</v>
+        <v>-0.04829543569317626</v>
       </c>
       <c r="ME2">
-        <v>0</v>
+        <v>-0.04808797036088794</v>
       </c>
       <c r="MF2">
-        <v>0</v>
+        <v>-0.04796406294548387</v>
       </c>
       <c r="MG2">
-        <v>0</v>
+        <v>-0.04380159503549266</v>
       </c>
       <c r="MH2">
-        <v>0</v>
+        <v>-0.04380329016810273</v>
       </c>
       <c r="MI2">
-        <v>0</v>
+        <v>-0.03610194393991109</v>
       </c>
       <c r="MJ2">
-        <v>0</v>
+        <v>-0.03498314690596036</v>
       </c>
       <c r="MK2">
-        <v>0</v>
+        <v>-0.04830709996089646</v>
       </c>
       <c r="ML2">
-        <v>0</v>
+        <v>-0.04808773643813015</v>
       </c>
       <c r="MM2">
-        <v>0</v>
+        <v>-0.0437958501565538</v>
       </c>
       <c r="MN2">
-        <v>0</v>
+        <v>-0.04380299160349196</v>
       </c>
       <c r="MO2">
-        <v>0</v>
+        <v>-0.03610443360886743</v>
       </c>
       <c r="MP2">
-        <v>0</v>
+        <v>-0.03464596478206898</v>
       </c>
       <c r="MQ2">
-        <v>0</v>
+        <v>-0.04831762484584833</v>
       </c>
       <c r="MR2">
-        <v>0</v>
+        <v>-0.04808756020840171</v>
       </c>
       <c r="MS2">
-        <v>0</v>
+        <v>-0.04380266734124792</v>
       </c>
       <c r="MT2">
-        <v>0</v>
+        <v>-0.03610546181193351</v>
       </c>
       <c r="MU2">
-        <v>0</v>
+        <v>-0.03421991510250901</v>
       </c>
       <c r="MV2">
-        <v>0</v>
+        <v>-0.04832633563074794</v>
       </c>
       <c r="MW2">
-        <v>0</v>
+        <v>-0.04808743127064709</v>
       </c>
       <c r="MX2">
-        <v>0</v>
+        <v>-0.04380238331074095</v>
       </c>
       <c r="MY2">
-        <v>0</v>
+        <v>-0.03610618731607006</v>
       </c>
       <c r="MZ2">
-        <v>0</v>
+        <v>-0.03395294847868158</v>
       </c>
       <c r="NA2">
-        <v>0</v>
+        <v>-0.04833644067772805</v>
       </c>
       <c r="NB2">
-        <v>0</v>
+        <v>-0.04808736579531712</v>
       </c>
       <c r="NC2">
-        <v>0</v>
+        <v>-0.04380208152824883</v>
       </c>
       <c r="ND2">
-        <v>0</v>
+        <v>-0.03610692939431898</v>
       </c>
       <c r="NE2">
-        <v>0</v>
+        <v>-0.03354298139290863</v>
       </c>
       <c r="NF2">
-        <v>0</v>
+        <v>-0.04834754685647226</v>
       </c>
       <c r="NG2">
-        <v>0</v>
+        <v>-0.04808726953267086</v>
       </c>
       <c r="NH2">
-        <v>0</v>
+        <v>-0.04380165081990913</v>
       </c>
       <c r="NI2">
-        <v>0</v>
+        <v>-0.03610780499397737</v>
       </c>
       <c r="NJ2">
-        <v>0</v>
+        <v>-0.0331342788765456</v>
       </c>
       <c r="NK2">
-        <v>0</v>
+        <v>-0.04840809429918824</v>
       </c>
       <c r="NL2">
-        <v>0</v>
+        <v>-0.04808710816500763</v>
       </c>
       <c r="NM2">
-        <v>0</v>
+        <v>-0.04380112721475174</v>
       </c>
       <c r="NN2">
-        <v>0</v>
+        <v>-0.03610890950092683</v>
       </c>
       <c r="NO2">
-        <v>0</v>
+        <v>-0.03267568598189043</v>
       </c>
       <c r="NP2">
-        <v>0</v>
+        <v>-0.04885211430241281</v>
       </c>
       <c r="NQ2">
-        <v>0</v>
+        <v>-0.04841375227368284</v>
       </c>
       <c r="NR2">
-        <v>0</v>
+        <v>-0.04808638839501404</v>
       </c>
       <c r="NS2">
-        <v>0</v>
+        <v>-0.04379788173754568</v>
       </c>
       <c r="NT2">
-        <v>0</v>
+        <v>-0.03610989869487116</v>
       </c>
       <c r="NU2">
-        <v>0</v>
+        <v>-0.0323438215062133</v>
       </c>
       <c r="NV2">
-        <v>0</v>
+        <v>-0.04927742587889317</v>
       </c>
       <c r="NW2">
-        <v>0</v>
+        <v>-0.048448493320195</v>
       </c>
       <c r="NX2">
-        <v>0</v>
+        <v>-0.04841375227362689</v>
       </c>
       <c r="NY2">
-        <v>0</v>
+        <v>-0.04808374253405992</v>
       </c>
       <c r="NZ2">
-        <v>0</v>
+        <v>-0.04378677652099427</v>
       </c>
       <c r="OA2">
-        <v>0</v>
+        <v>-0.03611068141945912</v>
       </c>
       <c r="OB2">
-        <v>0</v>
+        <v>-0.03194825798015913</v>
       </c>
       <c r="OC2">
-        <v>0</v>
+        <v>-0.04929636048879927</v>
       </c>
       <c r="OD2">
-        <v>0</v>
+        <v>-0.04846119044650902</v>
       </c>
       <c r="OE2">
-        <v>0</v>
+        <v>-0.04841375227332947</v>
       </c>
       <c r="OF2">
-        <v>0</v>
+        <v>-0.03611202476379733</v>
       </c>
       <c r="OG2">
-        <v>0</v>
+        <v>-0.031374279097253</v>
       </c>
       <c r="OH2">
-        <v>0</v>
+        <v>-0.04935993673024983</v>
       </c>
       <c r="OI2">
-        <v>0</v>
+        <v>-0.04960594243979658</v>
       </c>
       <c r="OJ2">
-        <v>0</v>
+        <v>-0.04846248285170768</v>
       </c>
       <c r="OK2">
-        <v>0</v>
+        <v>-0.04841375227330775</v>
       </c>
       <c r="OL2">
-        <v>0</v>
+        <v>-0.03611671424048682</v>
       </c>
       <c r="OM2">
-        <v>0</v>
+        <v>-0.0309487268003723</v>
       </c>
       <c r="ON2">
-        <v>0</v>
+        <v>-0.04936576204807523</v>
       </c>
       <c r="OO2">
-        <v>0</v>
+        <v>-0.04975530635183294</v>
       </c>
       <c r="OP2">
-        <v>0</v>
+        <v>-0.04846338478191119</v>
       </c>
       <c r="OQ2">
-        <v>0</v>
+        <v>-0.048413752273299</v>
       </c>
       <c r="OR2">
-        <v>0</v>
+        <v>-0.03614538418526596</v>
       </c>
       <c r="OS2">
-        <v>0</v>
+        <v>-0.03053819951427622</v>
       </c>
       <c r="OT2">
-        <v>0</v>
+        <v>-0.04936907362791176</v>
       </c>
       <c r="OU2">
-        <v>0</v>
+        <v>-0.05020594601137093</v>
       </c>
       <c r="OV2">
-        <v>0</v>
+        <v>-0.04975530635184632</v>
       </c>
       <c r="OW2">
-        <v>0</v>
+        <v>-0.04846431910185828</v>
       </c>
       <c r="OX2">
-        <v>0</v>
+        <v>-0.04841375227329309</v>
       </c>
       <c r="OY2">
-        <v>0</v>
+        <v>-0.03013640396763522</v>
       </c>
       <c r="OZ2">
-        <v>0</v>
+        <v>-0.0493713222730472</v>
       </c>
       <c r="PA2">
-        <v>0</v>
+        <v>-0.05084785153444772</v>
       </c>
       <c r="PB2">
-        <v>0</v>
+        <v>-0.04975530635184988</v>
       </c>
       <c r="PC2">
-        <v>0</v>
+        <v>-0.04846824270475032</v>
       </c>
       <c r="PD2">
-        <v>0</v>
+        <v>-0.04841375227328262</v>
       </c>
       <c r="PE2">
-        <v>0</v>
+        <v>-0.02965316704336178</v>
       </c>
       <c r="PF2">
-        <v>0</v>
+        <v>-0.04937498697443484</v>
       </c>
       <c r="PG2">
-        <v>0</v>
+        <v>-0.05098219010149799</v>
       </c>
       <c r="PH2">
-        <v>0</v>
+        <v>-0.04975530635184587</v>
       </c>
       <c r="PI2">
-        <v>0</v>
+        <v>-0.04846920075760851</v>
       </c>
       <c r="PJ2">
-        <v>0</v>
+        <v>-0.04841375227316125</v>
       </c>
       <c r="PK2">
-        <v>0</v>
+        <v>-0.02884379216588794</v>
       </c>
       <c r="PL2">
-        <v>0</v>
+        <v>-0.02965316704336178</v>
       </c>
       <c r="PM2">
-        <v>0</v>
+        <v>-0.04938716870997924</v>
       </c>
       <c r="PN2">
-        <v>0</v>
+        <v>-0.05101652617167728</v>
       </c>
       <c r="PO2">
-        <v>0</v>
+        <v>-0.04975530635183867</v>
       </c>
       <c r="PP2">
-        <v>0</v>
+        <v>-0.04847011463617974</v>
       </c>
       <c r="PQ2">
-        <v>0</v>
+        <v>-0.04841375227311861</v>
       </c>
       <c r="PR2">
-        <v>0</v>
+        <v>-0.02611344331788158</v>
       </c>
       <c r="PS2">
-        <v>0</v>
+        <v>-0.02884379216588794</v>
       </c>
       <c r="PT2">
-        <v>0</v>
+        <v>-0.04940073088033697</v>
       </c>
       <c r="PU2">
-        <v>0</v>
+        <v>-0.05103451445510126</v>
       </c>
       <c r="PV2">
-        <v>0</v>
+        <v>-0.04975530635183008</v>
       </c>
       <c r="PW2">
-        <v>0</v>
+        <v>-0.04847102354448553</v>
       </c>
       <c r="PX2">
-        <v>0</v>
+        <v>-0.04841375227310492</v>
       </c>
       <c r="PY2">
-        <v>0</v>
+        <v>-0.02225062583544621</v>
       </c>
       <c r="PZ2">
-        <v>0</v>
+        <v>-0.02611344331788158</v>
       </c>
       <c r="QA2">
-        <v>0</v>
+        <v>-0.04940835822862408</v>
       </c>
       <c r="QB2">
-        <v>0</v>
+        <v>-0.05104942658892636</v>
       </c>
       <c r="QC2">
-        <v>0</v>
+        <v>-0.0497553063518158</v>
       </c>
       <c r="QD2">
-        <v>0</v>
+        <v>-0.04847206617992598</v>
       </c>
       <c r="QE2">
-        <v>0</v>
+        <v>-0.04841375227308089</v>
       </c>
       <c r="QF2">
-        <v>0</v>
+        <v>-0.01947809568199789</v>
       </c>
       <c r="QG2">
-        <v>0</v>
+        <v>-0.02225062583544621</v>
       </c>
       <c r="QH2">
-        <v>0</v>
+        <v>-0.04941552333778995</v>
       </c>
       <c r="QI2">
-        <v>0</v>
+        <v>-0.05106151208187245</v>
       </c>
       <c r="QJ2">
-        <v>0</v>
+        <v>-0.04975530635179647</v>
       </c>
       <c r="QK2">
-        <v>0</v>
+        <v>-0.04847566686375737</v>
       </c>
       <c r="QL2">
-        <v>0</v>
+        <v>-0.04841375227305918</v>
       </c>
       <c r="QM2">
-        <v>0</v>
+        <v>-0.01863678883166318</v>
       </c>
       <c r="QN2">
-        <v>0</v>
+        <v>-0.01947809568199789</v>
       </c>
       <c r="QO2">
-        <v>0</v>
+        <v>-0.04942235946513936</v>
       </c>
       <c r="QP2">
-        <v>0</v>
+        <v>-0.051079985656333</v>
       </c>
       <c r="QQ2">
-        <v>0</v>
+        <v>-0.04975530635178144</v>
       </c>
       <c r="QR2">
-        <v>0</v>
+        <v>-0.04849321378763827</v>
       </c>
       <c r="QS2">
-        <v>0</v>
+        <v>-0.04841375227303616</v>
       </c>
       <c r="QT2">
-        <v>0</v>
+        <v>-0.0161432228893631</v>
       </c>
       <c r="QU2">
-        <v>0</v>
+        <v>-0.01863678883166318</v>
       </c>
       <c r="QV2">
-        <v>0</v>
+        <v>-0.01862664425258928</v>
       </c>
       <c r="QW2">
-        <v>0</v>
+        <v>-0.04943358341273207</v>
       </c>
       <c r="QX2">
-        <v>0</v>
+        <v>-0.05109663937100196</v>
       </c>
       <c r="QY2">
-        <v>0</v>
+        <v>-0.04975530635177512</v>
       </c>
       <c r="QZ2">
-        <v>0</v>
+        <v>-0.04841375227301438</v>
       </c>
       <c r="RA2">
-        <v>0</v>
+        <v>-0.01337218188956596</v>
       </c>
       <c r="RB2">
-        <v>0</v>
+        <v>-0.01614322288936309</v>
       </c>
       <c r="RC2">
-        <v>0</v>
+        <v>-0.0161432228893631</v>
       </c>
       <c r="RD2">
-        <v>0</v>
+        <v>-0.01862516275691954</v>
       </c>
       <c r="RE2">
-        <v>0</v>
+        <v>-0.04944140113965163</v>
       </c>
       <c r="RF2">
-        <v>0</v>
+        <v>-0.05111248966266479</v>
       </c>
       <c r="RG2">
-        <v>0</v>
+        <v>-0.04975530635176286</v>
       </c>
       <c r="RH2">
-        <v>0</v>
+        <v>-0.04841375227290075</v>
       </c>
       <c r="RI2">
-        <v>0</v>
+        <v>-0.01235658580436194</v>
       </c>
       <c r="RJ2">
-        <v>0</v>
+        <v>-0.01337218188956596</v>
       </c>
       <c r="RK2">
-        <v>0</v>
+        <v>-0.01862435493547246</v>
       </c>
       <c r="RL2">
-        <v>0</v>
+        <v>-0.04944689406343386</v>
       </c>
       <c r="RM2">
-        <v>0</v>
+        <v>-0.05113034605040771</v>
       </c>
       <c r="RN2">
-        <v>0</v>
+        <v>-0.04975530635175066</v>
       </c>
       <c r="RO2">
-        <v>0</v>
+        <v>-0.04841375227289496</v>
       </c>
       <c r="RP2">
-        <v>0</v>
+        <v>-0.0101770154826749</v>
       </c>
       <c r="RQ2">
-        <v>0</v>
+        <v>-0.01235658580436194</v>
       </c>
       <c r="RR2">
-        <v>0</v>
+        <v>-0.01225902537071306</v>
       </c>
       <c r="RS2">
-        <v>0</v>
+        <v>-0.01862380769956182</v>
       </c>
       <c r="RT2">
-        <v>0</v>
+        <v>-0.04944951862009606</v>
       </c>
       <c r="RU2">
-        <v>0</v>
+        <v>-0.05114920822530029</v>
       </c>
       <c r="RV2">
-        <v>0</v>
+        <v>-0.04975530635173509</v>
       </c>
       <c r="RW2">
-        <v>0</v>
+        <v>-0.04841375227289368</v>
       </c>
       <c r="RX2">
-        <v>0</v>
+        <v>-0.007052616169331469</v>
       </c>
       <c r="RY2">
-        <v>0</v>
+        <v>-0.0101770154826749</v>
       </c>
       <c r="RZ2">
-        <v>0</v>
+        <v>-0.01226458122949669</v>
       </c>
       <c r="SA2">
-        <v>0</v>
+        <v>-0.0121812113961825</v>
       </c>
       <c r="SB2">
-        <v>0</v>
+        <v>-0.01862297648297706</v>
       </c>
       <c r="SC2">
-        <v>0</v>
+        <v>-0.04945118120641343</v>
       </c>
       <c r="SD2">
-        <v>0</v>
+        <v>-0.0511904501650019</v>
       </c>
       <c r="SE2">
-        <v>0</v>
+        <v>-0.04975530635172006</v>
       </c>
       <c r="SF2">
-        <v>0</v>
+        <v>-0.04841375227289372</v>
       </c>
       <c r="SG2">
-        <v>0</v>
+        <v>-0.005145575539889547</v>
       </c>
       <c r="SH2">
-        <v>0</v>
+        <v>-0.007052616169331469</v>
       </c>
       <c r="SI2">
-        <v>0</v>
+        <v>-0.0122669295662312</v>
       </c>
       <c r="SJ2">
-        <v>0</v>
+        <v>-0.01213141870948573</v>
       </c>
       <c r="SK2">
-        <v>0</v>
+        <v>-0.01862171502889544</v>
       </c>
       <c r="SL2">
-        <v>0</v>
+        <v>-0.04945230532030297</v>
       </c>
       <c r="SM2">
-        <v>0</v>
+        <v>-0.05212593922764635</v>
       </c>
       <c r="SN2">
-        <v>0</v>
+        <v>-0.04975530635171271</v>
       </c>
       <c r="SO2">
-        <v>0</v>
+        <v>-0.04841375227289372</v>
       </c>
       <c r="SP2">
-        <v>0</v>
+        <v>-0.00481713886767604</v>
       </c>
       <c r="SQ2">
-        <v>0</v>
+        <v>-0.005145575539889547</v>
       </c>
       <c r="SR2">
-        <v>0</v>
+        <v>-0.01226830940476066</v>
       </c>
       <c r="SS2">
-        <v>0</v>
+        <v>-0.01862082006826417</v>
       </c>
       <c r="ST2">
-        <v>0</v>
+        <v>-0.04945387332414462</v>
       </c>
       <c r="SU2">
-        <v>0</v>
+        <v>-0.05216258451790228</v>
       </c>
       <c r="SV2">
-        <v>0</v>
+        <v>-0.05226132110848553</v>
       </c>
       <c r="SW2">
-        <v>0</v>
+        <v>-0.04975530635170596</v>
       </c>
       <c r="SX2">
-        <v>0</v>
+        <v>-0.004939265509399044</v>
       </c>
       <c r="SY2">
-        <v>0</v>
+        <v>-0.004817138867676052</v>
       </c>
       <c r="SZ2">
-        <v>0</v>
+        <v>0.001778510388504982</v>
       </c>
       <c r="TA2">
-        <v>0</v>
+        <v>-0.01226957927272166</v>
       </c>
       <c r="TB2">
-        <v>0</v>
+        <v>-0.01862020862023449</v>
       </c>
       <c r="TC2">
-        <v>0</v>
+        <v>-0.04945507003776429</v>
       </c>
       <c r="TD2">
-        <v>0</v>
+        <v>-0.05219490132178947</v>
       </c>
       <c r="TE2">
-        <v>0</v>
+        <v>-0.05233435766222876</v>
       </c>
       <c r="TF2">
-        <v>0</v>
+        <v>-0.04975530635170722</v>
       </c>
       <c r="TG2">
-        <v>0</v>
+        <v>-0.005029167364585139</v>
       </c>
       <c r="TH2">
-        <v>0</v>
+        <v>-0.004939265509399044</v>
       </c>
       <c r="TI2">
-        <v>0</v>
+        <v>0.00567658583298181</v>
       </c>
       <c r="TJ2">
-        <v>0</v>
+        <v>-0.01227071061934191</v>
       </c>
       <c r="TK2">
-        <v>0</v>
+        <v>-0.01861972545612628</v>
       </c>
       <c r="TL2">
-        <v>0</v>
+        <v>-0.04946361006964289</v>
       </c>
       <c r="TM2">
-        <v>0</v>
+        <v>-0.05234526535638726</v>
       </c>
       <c r="TN2">
-        <v>0</v>
+        <v>-0.04975530635170611</v>
       </c>
       <c r="TO2">
-        <v>0</v>
+        <v>-0.005151571710443344</v>
       </c>
       <c r="TP2">
-        <v>0</v>
+        <v>-0.005029167364585139</v>
       </c>
       <c r="TQ2">
-        <v>0</v>
+        <v>0.00876551202592211</v>
       </c>
       <c r="TR2">
-        <v>0</v>
+        <v>-0.0122718842639434</v>
       </c>
       <c r="TS2">
-        <v>0</v>
+        <v>-0.01861817630243501</v>
       </c>
       <c r="TT2">
-        <v>0</v>
+        <v>-0.04948621609374206</v>
       </c>
       <c r="TU2">
-        <v>0</v>
+        <v>-0.04948539989679122</v>
       </c>
       <c r="TV2">
-        <v>0</v>
+        <v>-0.05235359161896781</v>
       </c>
       <c r="TW2">
-        <v>0</v>
+        <v>-0.04975530635169888</v>
       </c>
       <c r="TX2">
-        <v>0</v>
+        <v>-0.005238193932187649</v>
       </c>
       <c r="TY2">
-        <v>0</v>
+        <v>-0.005151571710443344</v>
       </c>
       <c r="TZ2">
-        <v>0</v>
+        <v>0.01004195726323523</v>
       </c>
       <c r="UA2">
-        <v>0</v>
+        <v>-0.01227542731379422</v>
       </c>
       <c r="UB2">
-        <v>0</v>
+        <v>-0.01860564589537798</v>
       </c>
       <c r="UC2">
-        <v>0</v>
+        <v>-0.04951117857925939</v>
       </c>
       <c r="UD2">
-        <v>0</v>
+        <v>-0.05236137884045237</v>
       </c>
       <c r="UE2">
-        <v>0</v>
+        <v>-0.04975530635168646</v>
       </c>
       <c r="UF2">
-        <v>0</v>
+        <v>-0.00548044564698351</v>
       </c>
       <c r="UG2">
-        <v>0</v>
+        <v>-0.005238193932187649</v>
       </c>
       <c r="UH2">
-        <v>0</v>
+        <v>0.01010389537544105</v>
       </c>
       <c r="UI2">
-        <v>0</v>
+        <v>0.01451074409583089</v>
       </c>
       <c r="UJ2">
-        <v>0</v>
+        <v>-0.01227899786625616</v>
       </c>
       <c r="UK2">
-        <v>0</v>
+        <v>-0.01860502189068599</v>
       </c>
       <c r="UL2">
-        <v>0</v>
+        <v>-0.04957884244303613</v>
       </c>
       <c r="UM2">
-        <v>0</v>
+        <v>-0.05236968295738813</v>
       </c>
       <c r="UN2">
-        <v>0</v>
+        <v>-0.04975530635167954</v>
       </c>
       <c r="UO2">
-        <v>0</v>
+        <v>-0.005655867731687522</v>
       </c>
       <c r="UP2">
-        <v>0</v>
+        <v>-0.00548044564698351</v>
       </c>
       <c r="UQ2">
-        <v>0</v>
+        <v>0.01012668682827775</v>
       </c>
       <c r="UR2">
-        <v>0</v>
+        <v>0.01789158826902333</v>
       </c>
       <c r="US2">
-        <v>0</v>
+        <v>-0.01231236020372494</v>
       </c>
       <c r="UT2">
-        <v>0</v>
+        <v>-0.01860452952902106</v>
       </c>
       <c r="UU2">
-        <v>0</v>
+        <v>-0.05237703110183101</v>
       </c>
       <c r="UV2">
-        <v>0</v>
+        <v>-0.04975530635167955</v>
       </c>
       <c r="UW2">
-        <v>0</v>
+        <v>-0.005667932366032261</v>
       </c>
       <c r="UX2">
-        <v>0</v>
+        <v>-0.005655867731687523</v>
       </c>
       <c r="UY2">
-        <v>0</v>
+        <v>-0.005857361204518858</v>
       </c>
       <c r="UZ2">
-        <v>0</v>
+        <v>0.01016063649604826</v>
       </c>
       <c r="VA2">
-        <v>0</v>
+        <v>-0.01860397290059488</v>
       </c>
       <c r="VB2">
-        <v>0</v>
+        <v>-0.05238454696279188</v>
       </c>
       <c r="VC2">
-        <v>0</v>
+        <v>-0.005670789054642659</v>
       </c>
       <c r="VD2">
-        <v>0</v>
+        <v>-0.005667932366032261</v>
       </c>
       <c r="VE2">
-        <v>0</v>
+        <v>-0.005882834837978106</v>
       </c>
       <c r="VF2">
-        <v>0</v>
+        <v>0.01018106484545879</v>
       </c>
       <c r="VG2">
-        <v>0</v>
+        <v>-0.01860347748350076</v>
       </c>
       <c r="VH2">
-        <v>0</v>
+        <v>-0.05242333868929426</v>
       </c>
       <c r="VI2">
-        <v>0</v>
+        <v>-0.005748233462914413</v>
       </c>
       <c r="VJ2">
-        <v>0</v>
+        <v>-0.005670789054642657</v>
       </c>
       <c r="VK2">
-        <v>0</v>
+        <v>-0.005670789054590996</v>
       </c>
       <c r="VL2">
-        <v>0</v>
+        <v>-0.005901632880330825</v>
       </c>
       <c r="VM2">
-        <v>0</v>
+        <v>0.01020571439451004</v>
       </c>
       <c r="VN2">
-        <v>0</v>
+        <v>-0.0186029072582399</v>
       </c>
       <c r="VO2">
-        <v>0</v>
+        <v>-0.05247950433423897</v>
       </c>
       <c r="VP2">
-        <v>0</v>
+        <v>-0.05249878274483672</v>
       </c>
       <c r="VQ2">
-        <v>0</v>
+        <v>-0.005802508408653321</v>
       </c>
       <c r="VR2">
-        <v>0</v>
+        <v>-0.005748233462914413</v>
       </c>
       <c r="VS2">
-        <v>0</v>
+        <v>-0.005670789054574186</v>
       </c>
       <c r="VT2">
-        <v>0</v>
+        <v>-0.005919923674923771</v>
       </c>
       <c r="VU2">
-        <v>0</v>
+        <v>0.01022735779743743</v>
       </c>
       <c r="VV2">
-        <v>0</v>
+        <v>-0.01860232258309815</v>
       </c>
       <c r="VW2">
-        <v>0</v>
+        <v>-0.05248274104296966</v>
       </c>
       <c r="VX2">
-        <v>0</v>
+        <v>-0.05285932668661</v>
       </c>
       <c r="VY2">
-        <v>0</v>
+        <v>-0.005855531560741712</v>
       </c>
       <c r="VZ2">
-        <v>0</v>
+        <v>-0.005809119977481706</v>
       </c>
       <c r="WA2">
-        <v>0</v>
+        <v>-0.005670789054561607</v>
       </c>
       <c r="WB2">
-        <v>0</v>
+        <v>-0.006091748363753257</v>
       </c>
       <c r="WC2">
-        <v>0</v>
+        <v>0.01036898621386761</v>
       </c>
       <c r="WD2">
-        <v>0</v>
+        <v>-0.01860161980559025</v>
       </c>
       <c r="WE2">
-        <v>0</v>
+        <v>-0.0524843666398828</v>
       </c>
       <c r="WF2">
-        <v>0</v>
+        <v>-0.0529324146289029</v>
       </c>
       <c r="WG2">
-        <v>0</v>
+        <v>-0.05325239666537065</v>
       </c>
       <c r="WH2">
-        <v>0</v>
+        <v>-0.005902817319720945</v>
       </c>
       <c r="WI2">
-        <v>0</v>
+        <v>-0.005855531560741712</v>
       </c>
       <c r="WJ2">
-        <v>0</v>
+        <v>-0.005855531560741712</v>
       </c>
       <c r="WK2">
-        <v>0</v>
+        <v>-0.005949769530687409</v>
       </c>
       <c r="WL2">
-        <v>0</v>
+        <v>-0.005809119977481706</v>
       </c>
       <c r="WM2">
-        <v>0</v>
+        <v>-0.005670789054546026</v>
       </c>
       <c r="WN2">
-        <v>0</v>
+        <v>-0.006171721721996302</v>
       </c>
       <c r="WO2">
-        <v>0</v>
+        <v>0.01141331987516876</v>
       </c>
       <c r="WP2">
-        <v>0</v>
+        <v>-0.01860117921397798</v>
       </c>
       <c r="WQ2">
-        <v>0</v>
+        <v>-0.05248572979198843</v>
       </c>
       <c r="WR2">
-        <v>0</v>
+        <v>-0.0529709843392374</v>
       </c>
       <c r="WS2">
-        <v>0</v>
+        <v>-0.05362892641624612</v>
       </c>
       <c r="WT2">
-        <v>0</v>
+        <v>-0.005944845521031241</v>
       </c>
       <c r="WU2">
-        <v>0</v>
+        <v>-0.005902817319720953</v>
       </c>
       <c r="WV2">
-        <v>0</v>
+        <v>-0.005902817319720934</v>
       </c>
       <c r="WW2">
-        <v>0</v>
+        <v>-0.005982875498750084</v>
       </c>
       <c r="WX2">
-        <v>0</v>
+        <v>-0.0056707890545364</v>
       </c>
       <c r="WY2">
-        <v>0</v>
+        <v>-0.006209257474364582</v>
       </c>
       <c r="WZ2">
-        <v>0</v>
+        <v>-0.01859928569792728</v>
       </c>
       <c r="XA2">
-        <v>0</v>
+        <v>-0.05248684139546992</v>
       </c>
       <c r="XB2">
-        <v>0</v>
+        <v>-0.05363541770353487</v>
       </c>
       <c r="XC2">
-        <v>0</v>
+        <v>-0.05373071292044179</v>
       </c>
       <c r="XD2">
-        <v>0</v>
+        <v>-0.006002099162194656</v>
       </c>
       <c r="XE2">
-        <v>0</v>
+        <v>-0.005670789054525815</v>
       </c>
       <c r="XF2">
-        <v>0</v>
+        <v>-0.006234294759304863</v>
       </c>
       <c r="XG2">
-        <v>0</v>
+        <v>-0.01859130283307392</v>
       </c>
       <c r="XH2">
-        <v>0</v>
+        <v>-0.05248858628932653</v>
       </c>
       <c r="XI2">
-        <v>0</v>
+        <v>-0.05363700938825022</v>
       </c>
       <c r="XJ2">
-        <v>0</v>
+        <v>-0.05375413128764286</v>
       </c>
       <c r="XK2">
-        <v>0</v>
+        <v>-0.006018892636540443</v>
       </c>
       <c r="XL2">
-        <v>0</v>
+        <v>-0.005670789054517484</v>
       </c>
       <c r="XM2">
-        <v>0</v>
+        <v>-0.006272572660431751</v>
       </c>
       <c r="XN2">
-        <v>0</v>
+        <v>-0.052492747095318</v>
       </c>
       <c r="XO2">
-        <v>0</v>
+        <v>-0.0536381023547851</v>
       </c>
       <c r="XP2">
-        <v>0</v>
+        <v>-0.05376575265817007</v>
       </c>
       <c r="XQ2">
-        <v>0</v>
+        <v>-0.006074477013369414</v>
       </c>
       <c r="XR2">
-        <v>0</v>
+        <v>-0.005670789054508806</v>
       </c>
       <c r="XS2">
-        <v>0</v>
+        <v>-0.006347330882024429</v>
       </c>
       <c r="XT2">
-        <v>0</v>
+        <v>-0.05249562570398579</v>
       </c>
       <c r="XU2">
-        <v>0</v>
+        <v>-0.05363961744392242</v>
       </c>
       <c r="XV2">
-        <v>0</v>
+        <v>-0.05377852367791441</v>
       </c>
       <c r="XW2">
-        <v>0</v>
+        <v>-0.005670789054500009</v>
       </c>
       <c r="XX2">
-        <v>0</v>
+        <v>-0.006367996423782684</v>
       </c>
       <c r="XY2">
-        <v>0</v>
+        <v>-0.05249928584301802</v>
       </c>
       <c r="XZ2">
-        <v>0</v>
+        <v>-0.0536432101771232</v>
       </c>
       <c r="YA2">
-        <v>0</v>
+        <v>-0.05379325958763993</v>
       </c>
       <c r="YB2">
-        <v>0</v>
+        <v>-0.005670789054494737</v>
       </c>
       <c r="YC2">
-        <v>0</v>
+        <v>-0.006373995998553427</v>
       </c>
       <c r="YD2">
-        <v>0</v>
+        <v>-0.05250150934935515</v>
       </c>
       <c r="YE2">
-        <v>0</v>
+        <v>-0.05364594125020401</v>
       </c>
       <c r="YF2">
-        <v>0</v>
+        <v>-0.05380815664849565</v>
       </c>
       <c r="YG2">
-        <v>0</v>
+        <v>-0.0056707890544918</v>
       </c>
       <c r="YH2">
-        <v>0</v>
+        <v>-0.006374804685270884</v>
       </c>
       <c r="YI2">
-        <v>0</v>
+        <v>-0.006397344819832605</v>
       </c>
       <c r="YJ2">
-        <v>0</v>
+        <v>-0.05250351670332685</v>
       </c>
       <c r="YK2">
-        <v>0</v>
+        <v>-0.05364785842406067</v>
       </c>
       <c r="YL2">
-        <v>0</v>
+        <v>-0.05382467203489873</v>
       </c>
       <c r="YM2">
-        <v>0</v>
+        <v>-0.005670789054480085</v>
       </c>
       <c r="YN2">
-        <v>0</v>
+        <v>-0.006375561547574594</v>
       </c>
       <c r="YO2">
-        <v>0</v>
+        <v>-0.006428155503859632</v>
       </c>
       <c r="YP2">
-        <v>0</v>
+        <v>-0.05250690218100063</v>
       </c>
       <c r="YQ2">
-        <v>0</v>
+        <v>-0.05364986683319855</v>
       </c>
       <c r="YR2">
-        <v>0</v>
+        <v>-0.05384868899715515</v>
       </c>
       <c r="YS2">
-        <v>0</v>
+        <v>-0.005670789054472642</v>
       </c>
       <c r="YT2">
-        <v>0</v>
+        <v>-0.006376341213689576</v>
       </c>
       <c r="YU2">
-        <v>0</v>
+        <v>-0.006556161975475904</v>
       </c>
       <c r="YV2">
-        <v>0</v>
+        <v>-0.05251023056868009</v>
       </c>
       <c r="YW2">
-        <v>0</v>
+        <v>-0.05365151575835123</v>
       </c>
       <c r="YX2">
-        <v>0</v>
+        <v>-0.05373677737170019</v>
       </c>
       <c r="YY2">
-        <v>0</v>
+        <v>-0.05394774435370202</v>
       </c>
       <c r="YZ2">
-        <v>0</v>
+        <v>-0.005670789054469903</v>
       </c>
       <c r="ZA2">
-        <v>0</v>
+        <v>-0.006381978383217088</v>
       </c>
       <c r="ZB2">
-        <v>0</v>
+        <v>-0.006610525514556739</v>
       </c>
       <c r="ZC2">
-        <v>0</v>
+        <v>-0.05251180538208704</v>
       </c>
       <c r="ZD2">
-        <v>0</v>
+        <v>-0.05365424592726116</v>
       </c>
       <c r="ZE2">
-        <v>0</v>
+        <v>-0.05366957413416375</v>
       </c>
       <c r="ZF2">
-        <v>0</v>
+        <v>-0.05457502005042855</v>
       </c>
       <c r="ZG2">
-        <v>0</v>
+        <v>-0.005670789054469903</v>
       </c>
       <c r="ZH2">
-        <v>0</v>
+        <v>-0.00642302932145382</v>
       </c>
       <c r="ZI2">
-        <v>0</v>
+        <v>-0.0525135351023052</v>
       </c>
       <c r="ZJ2">
-        <v>0</v>
+        <v>-0.05366306904766369</v>
       </c>
       <c r="ZK2">
-        <v>0</v>
+        <v>-0.05360723319455495</v>
       </c>
       <c r="ZL2">
-        <v>0</v>
+        <v>-0.05502405928223374</v>
       </c>
       <c r="ZM2">
-        <v>0</v>
+        <v>-0.05251519526469062</v>
       </c>
       <c r="ZN2">
-        <v>0</v>
+        <v>-0.0536836855015437</v>
       </c>
       <c r="ZO2">
-        <v>0</v>
+        <v>-0.05354640489045379</v>
       </c>
       <c r="ZP2">
-        <v>0</v>
+        <v>-0.05512197104214808</v>
       </c>
       <c r="ZQ2">
-        <v>0</v>
+        <v>-0.05620372552928944</v>
       </c>
       <c r="ZR2">
-        <v>0</v>
+        <v>-0.0525171974084363</v>
       </c>
       <c r="ZS2">
-        <v>0</v>
+        <v>-0.05350077945853472</v>
       </c>
       <c r="ZT2">
-        <v>0</v>
+        <v>-0.0551311309360869</v>
       </c>
       <c r="ZU2">
-        <v>0</v>
+        <v>-0.0551219592963972</v>
       </c>
       <c r="ZV2">
-        <v>0</v>
+        <v>-0.05627956566093006</v>
       </c>
       <c r="ZW2">
-        <v>0</v>
+        <v>-0.05643468185908562</v>
       </c>
       <c r="ZX2">
-        <v>0</v>
+        <v>-0.0525203910851581</v>
       </c>
       <c r="ZY2">
-        <v>0</v>
+        <v>-0.05342830023311716</v>
       </c>
       <c r="ZZ2">
-        <v>0</v>
+        <v>-0.05513399713182592</v>
       </c>
       <c r="AAA2">
-        <v>0</v>
+        <v>-0.05512193536845992</v>
       </c>
       <c r="AAB2">
-        <v>0</v>
+        <v>-0.05632350306643333</v>
       </c>
       <c r="AAC2">
-        <v>0</v>
+        <v>-0.05666522200083654</v>
       </c>
       <c r="AAD2">
-        <v>0</v>
+        <v>-0.05252913184750076</v>
       </c>
       <c r="AAE2">
-        <v>0</v>
+        <v>-0.0533060968270249</v>
       </c>
       <c r="AAF2">
-        <v>0</v>
+        <v>-0.05513584001467541</v>
       </c>
       <c r="AAG2">
-        <v>0</v>
+        <v>-0.05727342230424671</v>
       </c>
       <c r="AAH2">
-        <v>0</v>
+        <v>-0.05666522200082554</v>
       </c>
       <c r="AAI2">
-        <v>0</v>
+        <v>-0.05254076425273993</v>
       </c>
       <c r="AAJ2">
-        <v>0</v>
+        <v>-0.05239040899946856</v>
       </c>
       <c r="AAK2">
-        <v>0</v>
+        <v>-0.0551369515906014</v>
       </c>
       <c r="AAL2">
-        <v>0</v>
+        <v>-0.05794361716390124</v>
       </c>
       <c r="AAM2">
-        <v>0</v>
+        <v>-0.05723410507804909</v>
       </c>
       <c r="AAN2">
-        <v>0</v>
+        <v>-0.05666522200081509</v>
       </c>
       <c r="AAO2">
-        <v>0</v>
+        <v>-0.05254187220478253</v>
       </c>
       <c r="AAP2">
-        <v>0</v>
+        <v>-0.05163917252918442</v>
       </c>
       <c r="AAQ2">
-        <v>0</v>
+        <v>-0.05513807507456221</v>
       </c>
       <c r="AAR2">
-        <v>0</v>
+        <v>-0.05863545399509938</v>
       </c>
       <c r="AAS2">
-        <v>0</v>
+        <v>-0.05722989597439933</v>
       </c>
       <c r="AAT2">
-        <v>0</v>
+        <v>-0.05666522200080831</v>
       </c>
       <c r="AAU2">
-        <v>0</v>
+        <v>-0.05254274843667048</v>
       </c>
       <c r="AAV2">
-        <v>0</v>
+        <v>-0.05140114857550616</v>
       </c>
       <c r="AAW2">
-        <v>0</v>
+        <v>-0.05513907858260722</v>
       </c>
       <c r="AAX2">
-        <v>0</v>
+        <v>-0.05887174619299066</v>
       </c>
       <c r="AAY2">
-        <v>0</v>
+        <v>-0.05881879695028323</v>
       </c>
       <c r="AAZ2">
-        <v>0</v>
+        <v>-0.05722828887508434</v>
       </c>
       <c r="ABA2">
-        <v>0</v>
+        <v>-0.05666522200080057</v>
       </c>
       <c r="ABB2">
-        <v>0</v>
+        <v>-0.05254359946818752</v>
       </c>
       <c r="ABC2">
-        <v>0</v>
+        <v>-0.05118445561130254</v>
       </c>
       <c r="ABD2">
-        <v>0</v>
+        <v>-0.05514020918808289</v>
       </c>
       <c r="ABE2">
-        <v>0</v>
+        <v>-0.05919285461836384</v>
       </c>
       <c r="ABF2">
-        <v>0</v>
+        <v>-0.05884339225832241</v>
       </c>
       <c r="ABG2">
-        <v>0</v>
+        <v>-0.05722658887892915</v>
       </c>
       <c r="ABH2">
-        <v>0</v>
+        <v>-0.05666522200079992</v>
       </c>
       <c r="ABI2">
-        <v>0</v>
+        <v>-0.05254451101504445</v>
       </c>
       <c r="ABJ2">
-        <v>0</v>
+        <v>-0.0510664319963764</v>
       </c>
       <c r="ABK2">
-        <v>0</v>
+        <v>-0.05514111503200052</v>
       </c>
       <c r="ABL2">
-        <v>0</v>
+        <v>-0.05956884319025871</v>
       </c>
       <c r="ABM2">
-        <v>0</v>
+        <v>-0.05885631417335906</v>
       </c>
       <c r="ABN2">
-        <v>0</v>
+        <v>-0.05722517802716682</v>
       </c>
       <c r="ABO2">
-        <v>0</v>
+        <v>-0.05666522200079893</v>
       </c>
       <c r="ABP2">
-        <v>0</v>
+        <v>-0.05254535380929108</v>
       </c>
       <c r="ABQ2">
-        <v>0</v>
+        <v>-0.05097217111891809</v>
       </c>
       <c r="ABR2">
-        <v>0</v>
+        <v>-0.05514220159292911</v>
       </c>
       <c r="ABS2">
-        <v>0</v>
+        <v>-0.05987077448058232</v>
       </c>
       <c r="ABT2">
-        <v>0</v>
+        <v>-0.05888566161302986</v>
       </c>
       <c r="ABU2">
-        <v>0</v>
+        <v>-0.05885774982311745</v>
       </c>
       <c r="ABV2">
-        <v>0</v>
+        <v>-0.05722350722892464</v>
       </c>
       <c r="ABW2">
-        <v>0</v>
+        <v>-0.05666522200080339</v>
       </c>
       <c r="ABX2">
-        <v>0</v>
+        <v>-0.05254614805408437</v>
       </c>
       <c r="ABY2">
-        <v>0</v>
+        <v>-0.05089179302346269</v>
       </c>
       <c r="ABZ2">
-        <v>0</v>
+        <v>-0.05514337249289987</v>
       </c>
       <c r="ACA2">
-        <v>0</v>
+        <v>-0.05995693475622497</v>
       </c>
       <c r="ACB2">
-        <v>0</v>
+        <v>-0.05998765930608452</v>
       </c>
       <c r="ACC2">
-        <v>0</v>
+        <v>-0.05890951773616408</v>
       </c>
       <c r="ACD2">
-        <v>0</v>
+        <v>-0.05885878800482187</v>
       </c>
       <c r="ACE2">
-        <v>0</v>
+        <v>-0.05722187779147886</v>
       </c>
       <c r="ACF2">
-        <v>0</v>
+        <v>-0.05666522200080513</v>
       </c>
       <c r="ACG2">
-        <v>0</v>
+        <v>-0.05254725269710324</v>
       </c>
       <c r="ACH2">
-        <v>0</v>
+        <v>-0.05079746833541905</v>
       </c>
       <c r="ACI2">
-        <v>0</v>
+        <v>-0.05514550874044678</v>
       </c>
       <c r="ACJ2">
-        <v>0</v>
+        <v>-0.06007572820305828</v>
       </c>
       <c r="ACK2">
-        <v>0</v>
+        <v>-0.06008536447318206</v>
       </c>
       <c r="ACL2">
-        <v>0</v>
+        <v>-0.05885966413799852</v>
       </c>
       <c r="ACM2">
-        <v>0</v>
+        <v>-0.05721963765901893</v>
       </c>
       <c r="ACN2">
-        <v>0</v>
+        <v>-0.05666522200080678</v>
       </c>
       <c r="ACO2">
-        <v>0</v>
+        <v>-0.05254860639266459</v>
       </c>
       <c r="ACP2">
-        <v>0</v>
+        <v>-0.05071127970581948</v>
       </c>
       <c r="ACQ2">
-        <v>0</v>
+        <v>-0.05516149127267216</v>
       </c>
       <c r="ACR2">
-        <v>0</v>
+        <v>-0.06036798088433395</v>
       </c>
       <c r="ACS2">
-        <v>0</v>
+        <v>-0.06009984768339865</v>
       </c>
       <c r="ACT2">
-        <v>0</v>
+        <v>-0.06008741328441385</v>
       </c>
       <c r="ACU2">
-        <v>0</v>
+        <v>-0.05886114402908286</v>
       </c>
       <c r="ACV2">
-        <v>0</v>
+        <v>-0.05721655598494609</v>
       </c>
       <c r="ACW2">
-        <v>0</v>
+        <v>-0.05666522200080518</v>
       </c>
       <c r="ACX2">
-        <v>0</v>
+        <v>-0.05255502257000255</v>
       </c>
       <c r="ACY2">
-        <v>0</v>
+        <v>-0.05057756755570221</v>
       </c>
       <c r="ACZ2">
-        <v>0</v>
+        <v>-0.05521047037884331</v>
       </c>
       <c r="ADA2">
-        <v>0</v>
+        <v>-0.06060487376303442</v>
       </c>
       <c r="ADB2">
-        <v>0</v>
+        <v>-0.06011403976938781</v>
       </c>
       <c r="ADC2">
-        <v>0</v>
+        <v>-0.06008937221257152</v>
       </c>
       <c r="ADD2">
-        <v>0</v>
+        <v>-0.0588632164430468</v>
       </c>
       <c r="ADE2">
-        <v>0</v>
+        <v>-0.05721329468956848</v>
       </c>
       <c r="ADF2">
-        <v>0</v>
+        <v>-0.05666522200080519</v>
       </c>
       <c r="ADG2">
-        <v>0</v>
+        <v>-0.05260988349042393</v>
       </c>
       <c r="ADH2">
-        <v>0</v>
+        <v>-0.0503076131880847</v>
       </c>
       <c r="ADI2">
-        <v>0</v>
+        <v>-0.06078998606384106</v>
       </c>
       <c r="ADJ2">
-        <v>0</v>
+        <v>-0.06009148404142668</v>
       </c>
       <c r="ADK2">
-        <v>0</v>
+        <v>-0.05886475422397058</v>
       </c>
       <c r="ADL2">
-        <v>0</v>
+        <v>-0.05721112829371444</v>
       </c>
       <c r="ADM2">
-        <v>0</v>
+        <v>-0.05666522200080731</v>
       </c>
       <c r="ADN2">
-        <v>0</v>
+        <v>-0.05022620899430756</v>
       </c>
       <c r="ADO2">
-        <v>0</v>
+        <v>-0.05031217130897397</v>
       </c>
       <c r="ADP2">
-        <v>0</v>
+        <v>-0.06095730020301702</v>
       </c>
       <c r="ADQ2">
-        <v>0</v>
+        <v>-0.06009336974498112</v>
       </c>
       <c r="ADR2">
-        <v>0</v>
+        <v>-0.05886730162447542</v>
       </c>
       <c r="ADS2">
-        <v>0</v>
+        <v>-0.05720892341863862</v>
       </c>
       <c r="ADT2">
-        <v>0</v>
+        <v>-0.05666522200080785</v>
       </c>
       <c r="ADU2">
-        <v>0</v>
+        <v>-0.05015521666029862</v>
       </c>
       <c r="ADV2">
-        <v>0</v>
+        <v>-0.05031946503570413</v>
       </c>
       <c r="ADW2">
-        <v>0</v>
+        <v>-0.06096470198767421</v>
       </c>
       <c r="ADX2">
-        <v>0</v>
+        <v>-0.06097737696706751</v>
       </c>
       <c r="ADY2">
-        <v>0</v>
+        <v>-0.06009545219219815</v>
       </c>
       <c r="ADZ2">
-        <v>0</v>
+        <v>-0.05888498326150238</v>
       </c>
       <c r="AEA2">
-        <v>0</v>
+        <v>-0.05720786917123287</v>
       </c>
       <c r="AEB2">
-        <v>0</v>
+        <v>-0.05666522200080799</v>
       </c>
       <c r="AEC2">
-        <v>0</v>
+        <v>-0.05009650262945328</v>
       </c>
       <c r="AED2">
-        <v>0</v>
+        <v>-0.05032569687994924</v>
       </c>
       <c r="AEE2">
-        <v>0</v>
+        <v>-0.06097212327116994</v>
       </c>
       <c r="AEF2">
-        <v>0</v>
+        <v>-0.0609995486401648</v>
       </c>
       <c r="AEG2">
-        <v>0</v>
+        <v>-0.06097737696706751</v>
       </c>
       <c r="AEH2">
-        <v>0</v>
+        <v>-0.06009679481540618</v>
       </c>
       <c r="AEI2">
-        <v>0</v>
+        <v>-0.05892404032413954</v>
       </c>
       <c r="AEJ2">
-        <v>0</v>
+        <v>-0.05720619226038415</v>
       </c>
       <c r="AEK2">
-        <v>0</v>
+        <v>-0.05666522200081116</v>
       </c>
       <c r="AEL2">
-        <v>0</v>
+        <v>-0.05005084366014148</v>
       </c>
       <c r="AEM2">
-        <v>0</v>
+        <v>-0.05032922388747275</v>
       </c>
       <c r="AEN2">
-        <v>0</v>
+        <v>-0.06097955901233684</v>
       </c>
       <c r="AEO2">
-        <v>0</v>
+        <v>-0.06101813892570499</v>
       </c>
       <c r="AEP2">
-        <v>0</v>
+        <v>-0.0609995486401648</v>
       </c>
       <c r="AEQ2">
-        <v>0</v>
+        <v>-0.06009885699453036</v>
       </c>
       <c r="AER2">
-        <v>0</v>
+        <v>-0.05720461801065913</v>
       </c>
       <c r="AES2">
-        <v>0</v>
+        <v>-0.05666522200081376</v>
       </c>
       <c r="AET2">
-        <v>0</v>
+        <v>-0.05000440558453844</v>
       </c>
       <c r="AEU2">
-        <v>0</v>
+        <v>-0.06098694979360472</v>
       </c>
       <c r="AEV2">
-        <v>0</v>
+        <v>-0.06103812309966423</v>
       </c>
       <c r="AEW2">
-        <v>0</v>
+        <v>-0.061018138925705</v>
       </c>
       <c r="AEX2">
-        <v>0</v>
+        <v>-0.06011581901306607</v>
       </c>
       <c r="AEY2">
-        <v>0</v>
+        <v>-0.05720236866472928</v>
       </c>
       <c r="AEZ2">
-        <v>0</v>
+        <v>-0.05666522200081376</v>
       </c>
       <c r="AFA2">
-        <v>0</v>
+        <v>-0.04996410552783992</v>
       </c>
       <c r="AFB2">
-        <v>0</v>
+        <v>-0.06099436871673834</v>
       </c>
       <c r="AFC2">
-        <v>0</v>
+        <v>-0.06105453088303366</v>
       </c>
       <c r="AFD2">
-        <v>0</v>
+        <v>-0.06103812309966423</v>
       </c>
       <c r="AFE2">
-        <v>0</v>
+        <v>-0.06017427880010571</v>
       </c>
       <c r="AFF2">
-        <v>0</v>
+        <v>-0.05717862494388007</v>
       </c>
       <c r="AFG2">
-        <v>0</v>
+        <v>-0.04993516137633692</v>
       </c>
       <c r="AFH2">
-        <v>0</v>
+        <v>-0.06100178265158259</v>
       </c>
       <c r="AFI2">
-        <v>0</v>
+        <v>-0.06107214651340605</v>
       </c>
       <c r="AFJ2">
-        <v>0</v>
+        <v>-0.06105453088303364</v>
       </c>
       <c r="AFK2">
-        <v>0</v>
+        <v>-0.05716912787652222</v>
       </c>
       <c r="AFL2">
-        <v>0</v>
+        <v>-0.04990155712510489</v>
       </c>
       <c r="AFM2">
-        <v>0</v>
+        <v>-0.06100920132095598</v>
       </c>
       <c r="AFN2">
-        <v>0</v>
+        <v>-0.06111025938366345</v>
       </c>
       <c r="AFO2">
-        <v>0</v>
+        <v>-0.0610721465134056</v>
       </c>
       <c r="AFP2">
-        <v>0</v>
+        <v>-0.06107214651340605</v>
       </c>
       <c r="AFQ2">
-        <v>0</v>
+        <v>-0.05716430524367681</v>
       </c>
       <c r="AFR2">
-        <v>0</v>
+        <v>-0.04985093179102084</v>
       </c>
       <c r="AFS2">
-        <v>0</v>
+        <v>-0.06101282262769022</v>
       </c>
       <c r="AFT2">
-        <v>0</v>
+        <v>-0.06111583547433899</v>
       </c>
       <c r="AFU2">
-        <v>0</v>
+        <v>-0.0610721465134047</v>
       </c>
       <c r="AFV2">
-        <v>0</v>
+        <v>-0.0610721465134056</v>
       </c>
       <c r="AFW2">
-        <v>0</v>
+        <v>-0.05716323808490566</v>
       </c>
       <c r="AFX2">
-        <v>0</v>
+        <v>-0.04976822000578408</v>
       </c>
       <c r="AFY2">
-        <v>0</v>
+        <v>-0.06109421536194401</v>
       </c>
       <c r="AFZ2">
-        <v>0</v>
+        <v>-0.06113154467086628</v>
       </c>
       <c r="AGA2">
-        <v>0</v>
+        <v>-0.06107214651340734</v>
       </c>
       <c r="AGB2">
-        <v>0</v>
+        <v>-0.0610721465134047</v>
       </c>
       <c r="AGC2">
-        <v>0</v>
+        <v>-0.05716239764414632</v>
       </c>
       <c r="AGD2">
-        <v>0</v>
+        <v>-0.04909989443794971</v>
       </c>
       <c r="AGE2">
-        <v>0</v>
+        <v>-0.04978049822286673</v>
       </c>
       <c r="AGF2">
-        <v>0</v>
+        <v>-0.06114714695481114</v>
       </c>
       <c r="AGG2">
-        <v>0</v>
+        <v>-0.06114999137997642</v>
       </c>
       <c r="AGH2">
-        <v>0</v>
+        <v>-0.06107214651340715</v>
       </c>
       <c r="AGI2">
-        <v>0</v>
+        <v>-0.06107214651340734</v>
       </c>
       <c r="AGJ2">
-        <v>0</v>
+        <v>-0.05716149716602851</v>
       </c>
       <c r="AGK2">
-        <v>0</v>
+        <v>-0.06119344316793955</v>
       </c>
       <c r="AGL2">
-        <v>0</v>
+        <v>-0.06115238433007161</v>
       </c>
       <c r="AGM2">
-        <v>0</v>
+        <v>-0.06107214651340478</v>
       </c>
       <c r="AGN2">
-        <v>0</v>
+        <v>-0.06107214651340715</v>
       </c>
       <c r="AGO2">
-        <v>0</v>
+        <v>-0.05716077671709718</v>
       </c>
       <c r="AGP2">
-        <v>0</v>
+        <v>-0.06124200708362673</v>
       </c>
       <c r="AGQ2">
-        <v>0</v>
+        <v>-0.06115223672305478</v>
       </c>
       <c r="AGR2">
-        <v>0</v>
+        <v>-0.06115940475902653</v>
       </c>
       <c r="AGS2">
-        <v>0</v>
+        <v>-0.06107214651340475</v>
       </c>
       <c r="AGT2">
-        <v>0</v>
+        <v>-0.06107214651340478</v>
       </c>
       <c r="AGU2">
-        <v>0</v>
+        <v>-0.05716007719017529</v>
       </c>
       <c r="AGV2">
-        <v>0</v>
+        <v>-0.06132493445861282</v>
       </c>
       <c r="AGW2">
-        <v>0</v>
+        <v>-0.06115210013833718</v>
       </c>
       <c r="AGX2">
-        <v>0</v>
+        <v>-0.06117583455326885</v>
       </c>
       <c r="AGY2">
-        <v>0</v>
+        <v>-0.06107214651340476</v>
       </c>
       <c r="AGZ2">
-        <v>0</v>
+        <v>-0.06107214651340475</v>
       </c>
       <c r="AHA2">
-        <v>0</v>
+        <v>-0.05715937943697994</v>
       </c>
       <c r="AHB2">
-        <v>0</v>
+        <v>-0.06134527577421374</v>
       </c>
       <c r="AHC2">
-        <v>0</v>
+        <v>-0.06115189244929502</v>
       </c>
       <c r="AHD2">
-        <v>0</v>
+        <v>-0.06121481149816238</v>
       </c>
       <c r="AHE2">
-        <v>0</v>
+        <v>-0.05715868984699492</v>
       </c>
       <c r="AHF2">
-        <v>0</v>
+        <v>-0.06134383612288101</v>
       </c>
       <c r="AHG2">
-        <v>0</v>
+        <v>-0.06150304855413888</v>
       </c>
       <c r="AHH2">
-        <v>0</v>
+        <v>-0.06115162998712757</v>
       </c>
       <c r="AHI2">
-        <v>0</v>
+        <v>-0.05714635845509534</v>
       </c>
       <c r="AHJ2">
-        <v>0</v>
+        <v>-0.06134147232983428</v>
       </c>
       <c r="AHK2">
-        <v>0</v>
+        <v>-0.06163687085928233</v>
       </c>
       <c r="AHL2">
-        <v>0</v>
+        <v>-0.06115060822698656</v>
       </c>
       <c r="AHM2">
-        <v>0</v>
+        <v>-0.05705521725163631</v>
       </c>
       <c r="AHN2">
-        <v>0</v>
+        <v>-0.05716486317714882</v>
       </c>
       <c r="AHO2">
-        <v>0</v>
+        <v>-0.0613410049555438</v>
       </c>
       <c r="AHP2">
-        <v>0</v>
+        <v>-0.06186181886448422</v>
       </c>
       <c r="AHQ2">
-        <v>0</v>
+        <v>-0.06114875213256601</v>
       </c>
       <c r="AHR2">
-        <v>0</v>
+        <v>-0.05699468736605592</v>
       </c>
       <c r="AHS2">
-        <v>0</v>
+        <v>-0.06134061003419747</v>
       </c>
       <c r="AHT2">
-        <v>0</v>
+        <v>-0.0613402772351964</v>
       </c>
       <c r="AHU2">
-        <v>0</v>
+        <v>-0.06133984431905873</v>
       </c>
       <c r="AHV2">
-        <v>0</v>
+        <v>-0.06133906080789508</v>
       </c>
       <c r="AHW2">
-        <v>0</v>
+        <v>-0.06133770233868068</v>
       </c>
       <c r="AHX2">
-        <v>0</v>
+        <v>-0.06132657499115608</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.06797375359941089</v>
+        <v>1.230595815304988</v>
       </c>
       <c r="D3">
-        <v>-0.06775035445605343</v>
+        <v>1.243644818197597</v>
       </c>
       <c r="E3">
-        <v>-0.06772693233069058</v>
+        <v>1.245011005850688</v>
       </c>
       <c r="F3">
-        <v>-0.06770498915933376</v>
+        <v>1.246290596578311</v>
       </c>
       <c r="G3">
-        <v>-0.06768585761408641</v>
+        <v>1.247405969285067</v>
       </c>
       <c r="H3">
-        <v>-0.06765571744478452</v>
+        <v>1.249162653271179</v>
       </c>
       <c r="I3">
-        <v>-0.06560194923931953</v>
+        <v>1.367458288810964</v>
       </c>
       <c r="J3">
-        <v>-0.06550990135220405</v>
+        <v>1.372696092149775</v>
       </c>
       <c r="K3">
-        <v>-0.06543328406311884</v>
+        <v>1.377051706483832</v>
       </c>
       <c r="L3">
-        <v>-0.06536604320770407</v>
+        <v>1.380871184334642</v>
       </c>
       <c r="M3">
-        <v>-0.06531586694592025</v>
+        <v>1.383719459681164</v>
       </c>
       <c r="N3">
-        <v>-0.06526876232687938</v>
+        <v>1.386391908372165</v>
       </c>
       <c r="O3">
-        <v>-0.06523979658732471</v>
+        <v>1.388034556712098</v>
       </c>
       <c r="P3">
-        <v>-0.06516768255998751</v>
+        <v>1.39212182163212</v>
       </c>
       <c r="Q3">
-        <v>-0.06458337684301182</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="R3">
-        <v>-0.06458337684301022</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="S3">
-        <v>-0.06387451526733662</v>
+        <v>1.46485698412422</v>
       </c>
       <c r="T3">
-        <v>-0.06458337684300974</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="U3">
-        <v>-0.06382572953341065</v>
+        <v>1.467580418014581</v>
       </c>
       <c r="V3">
-        <v>-0.06458337684300966</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="W3">
-        <v>-0.06377094704731223</v>
+        <v>1.470636849206363</v>
       </c>
       <c r="X3">
-        <v>-0.06458337684300915</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="Y3">
-        <v>-0.06368174599793508</v>
+        <v>1.475609567780855</v>
       </c>
       <c r="Z3">
-        <v>-0.06458337684300933</v>
+        <v>1.425117132291521</v>
       </c>
       <c r="AA3">
-        <v>-0.06351945473793459</v>
+        <v>1.484644187457904</v>
       </c>
       <c r="AB3">
-        <v>-0.06458337684301024</v>
+        <v>1.42511713229152</v>
       </c>
       <c r="AC3">
-        <v>-0.0631025271638124</v>
+        <v>1.487983569661234</v>
       </c>
       <c r="AD3">
-        <v>-0.06172500984855208</v>
+        <v>1.5924177939428</v>
       </c>
       <c r="AE3">
-        <v>-0.06458337684301088</v>
+        <v>1.425117132291519</v>
       </c>
       <c r="AF3">
-        <v>-0.06299616869746964</v>
+        <v>1.48848055948663</v>
       </c>
       <c r="AG3">
-        <v>-0.06309426001026312</v>
+        <v>1.48839487099756</v>
       </c>
       <c r="AH3">
-        <v>-0.0612469139227353</v>
+        <v>1.620740865613495</v>
       </c>
       <c r="AI3">
-        <v>-0.06458337684301256</v>
+        <v>1.425117132291517</v>
       </c>
       <c r="AJ3">
-        <v>-0.06275260018528216</v>
+        <v>1.489618363464763</v>
       </c>
       <c r="AK3">
-        <v>-0.06309398004157439</v>
+        <v>1.488408798466744</v>
       </c>
       <c r="AL3">
-        <v>-0.06133799159494097</v>
+        <v>1.623457246984783</v>
       </c>
       <c r="AM3">
-        <v>-0.05969711372523993</v>
+        <v>1.702441386701152</v>
       </c>
       <c r="AN3">
-        <v>-0.06458337684301385</v>
+        <v>1.425117132291516</v>
       </c>
       <c r="AO3">
-        <v>-0.06309357749714044</v>
+        <v>1.488428823500911</v>
       </c>
       <c r="AP3">
-        <v>-0.06134124272697045</v>
+        <v>1.623553417715449</v>
       </c>
       <c r="AQ3">
-        <v>-0.06135204089155373</v>
+        <v>1.623879250515929</v>
       </c>
       <c r="AR3">
-        <v>-0.05862073915483158</v>
+        <v>1.758394903911621</v>
       </c>
       <c r="AS3">
-        <v>-0.05969711372521101</v>
+        <v>1.702441386701145</v>
       </c>
       <c r="AT3">
-        <v>-0.06458337684301399</v>
+        <v>1.425117132291515</v>
       </c>
       <c r="AU3">
-        <v>-0.06309306126121927</v>
+        <v>1.488454503985509</v>
       </c>
       <c r="AV3">
-        <v>-0.06134270811104707</v>
+        <v>1.62359676336293</v>
       </c>
       <c r="AW3">
-        <v>-0.06138584652905429</v>
+        <v>1.624894338216935</v>
       </c>
       <c r="AX3">
-        <v>-0.0578068706927056</v>
+        <v>1.800280526987098</v>
       </c>
       <c r="AY3">
-        <v>-0.05969711372520033</v>
+        <v>1.702441386701144</v>
       </c>
       <c r="AZ3">
-        <v>-0.0645833768430137</v>
+        <v>1.425117132291515</v>
       </c>
       <c r="BA3">
-        <v>-0.06309180399346735</v>
+        <v>1.488517046334004</v>
       </c>
       <c r="BB3">
-        <v>-0.06134426110554278</v>
+        <v>1.623642699535147</v>
       </c>
       <c r="BC3">
-        <v>-0.05768949183755835</v>
+        <v>1.806291745905713</v>
       </c>
       <c r="BD3">
-        <v>-0.05780687069265085</v>
+        <v>1.800280526987134</v>
       </c>
       <c r="BE3">
-        <v>-0.05969711372518933</v>
+        <v>1.702441386701155</v>
       </c>
       <c r="BF3">
-        <v>-0.06458337684301294</v>
+        <v>1.425117132291515</v>
       </c>
       <c r="BG3">
-        <v>-0.06309072754186321</v>
+        <v>1.488570592653226</v>
       </c>
       <c r="BH3">
-        <v>-0.06134574022635444</v>
+        <v>1.623686449665686</v>
       </c>
       <c r="BI3">
-        <v>-0.05715768478280955</v>
+        <v>1.83343372145481</v>
       </c>
       <c r="BJ3">
-        <v>-0.05780687069264524</v>
+        <v>1.800280526987139</v>
       </c>
       <c r="BK3">
-        <v>-0.05969711372518802</v>
+        <v>1.702441386701158</v>
       </c>
       <c r="BL3">
-        <v>-0.06458337684301227</v>
+        <v>1.425117132291515</v>
       </c>
       <c r="BM3">
-        <v>-0.06308556740779299</v>
+        <v>1.488827257216884</v>
       </c>
       <c r="BN3">
-        <v>-0.06134662607390037</v>
+        <v>1.623712651248735</v>
       </c>
       <c r="BO3">
-        <v>-0.05703503586676629</v>
+        <v>1.838721431784925</v>
       </c>
       <c r="BP3">
-        <v>-0.05729303070239974</v>
+        <v>1.837449623528029</v>
       </c>
       <c r="BQ3">
-        <v>-0.05780687069264193</v>
+        <v>1.800280526987143</v>
       </c>
       <c r="BR3">
-        <v>-0.05969711372519198</v>
+        <v>1.702441386701163</v>
       </c>
       <c r="BS3">
-        <v>-0.06458337684301127</v>
+        <v>1.425117132291515</v>
       </c>
       <c r="BT3">
-        <v>-0.06306732795638455</v>
+        <v>1.489734249205498</v>
       </c>
       <c r="BU3">
-        <v>-0.06134836404279482</v>
+        <v>1.62376405592155</v>
       </c>
       <c r="BV3">
-        <v>-0.05558537615798279</v>
+        <v>1.900787333930591</v>
       </c>
       <c r="BW3">
-        <v>-0.0572808458191479</v>
+        <v>1.838477207731655</v>
       </c>
       <c r="BX3">
-        <v>-0.05737137901655531</v>
+        <v>1.838382873864119</v>
       </c>
       <c r="BY3">
-        <v>-0.05780687069264208</v>
+        <v>1.80028052698715</v>
       </c>
       <c r="BZ3">
-        <v>-0.05969711372520254</v>
+        <v>1.702441386701177</v>
       </c>
       <c r="CA3">
-        <v>-0.06458337684300532</v>
+        <v>1.425117132291518</v>
       </c>
       <c r="CB3">
-        <v>-0.06135717215705475</v>
+        <v>1.624024558248276</v>
       </c>
       <c r="CC3">
-        <v>-0.05507979850535396</v>
+        <v>1.922247251180779</v>
       </c>
       <c r="CD3">
-        <v>-0.05780687069263994</v>
+        <v>1.800280526987157</v>
       </c>
       <c r="CE3">
-        <v>-0.0596971137252341</v>
+        <v>1.702441386701226</v>
       </c>
       <c r="CF3">
-        <v>-0.06458337684299713</v>
+        <v>1.425117132291522</v>
       </c>
       <c r="CG3">
-        <v>-0.06139036341435944</v>
+        <v>1.625005911158609</v>
       </c>
       <c r="CH3">
-        <v>-0.05496944677612407</v>
+        <v>1.92691860715222</v>
       </c>
       <c r="CI3">
-        <v>-0.05780687069263853</v>
+        <v>1.80028052698716</v>
       </c>
       <c r="CJ3">
-        <v>-0.05969711372530263</v>
+        <v>1.702441386701326</v>
       </c>
       <c r="CK3">
-        <v>-0.06458337684299155</v>
+        <v>1.425117132291524</v>
       </c>
       <c r="CL3">
-        <v>-0.0547456509298963</v>
+        <v>1.936378335360495</v>
       </c>
       <c r="CM3">
-        <v>-0.05780687069263853</v>
+        <v>1.80028052698716</v>
       </c>
       <c r="CN3">
-        <v>-0.05969711372532421</v>
+        <v>1.702441386701351</v>
       </c>
       <c r="CO3">
-        <v>-0.06458337684298993</v>
+        <v>1.425117132291525</v>
       </c>
       <c r="CP3">
-        <v>-0.0545345765638955</v>
+        <v>1.945283325580853</v>
       </c>
       <c r="CQ3">
-        <v>-0.05969711372532593</v>
+        <v>1.702441386701358</v>
       </c>
       <c r="CR3">
-        <v>-0.06458337684298963</v>
+        <v>1.425117132291525</v>
       </c>
       <c r="CS3">
-        <v>-0.05441188132489024</v>
+        <v>1.950452130073646</v>
       </c>
       <c r="CT3">
-        <v>-0.05969711372533085</v>
+        <v>1.70244138670136</v>
       </c>
       <c r="CU3">
-        <v>-0.06458337684298937</v>
+        <v>1.425117132291524</v>
       </c>
       <c r="CV3">
-        <v>-0.05433084587985412</v>
+        <v>1.953862878733523</v>
       </c>
       <c r="CW3">
-        <v>-0.05969711372532838</v>
+        <v>1.702441386701358</v>
       </c>
       <c r="CX3">
-        <v>-0.06458337684298918</v>
+        <v>1.425117132291524</v>
       </c>
       <c r="CY3">
-        <v>-0.05421895277808279</v>
+        <v>1.958568435858057</v>
       </c>
       <c r="CZ3">
-        <v>-0.05969711372546102</v>
+        <v>1.702441386701228</v>
       </c>
       <c r="DA3">
-        <v>-0.06458337684298918</v>
+        <v>1.425117132291524</v>
       </c>
       <c r="DB3">
-        <v>-0.05424244210397884</v>
+        <v>1.958859404711887</v>
       </c>
       <c r="DC3">
-        <v>-0.05411790587466603</v>
+        <v>1.961314125441203</v>
       </c>
       <c r="DD3">
-        <v>-0.05969711372547019</v>
+        <v>1.702441386701222</v>
       </c>
       <c r="DE3">
-        <v>-0.05427086098292618</v>
+        <v>1.959211431694393</v>
       </c>
       <c r="DF3">
-        <v>-0.05406060579017231</v>
+        <v>1.962870421955778</v>
       </c>
       <c r="DG3">
-        <v>-0.05969711372549313</v>
+        <v>1.702441386701199</v>
       </c>
       <c r="DH3">
-        <v>-0.05430380053816071</v>
+        <v>1.959619448958644</v>
       </c>
       <c r="DI3">
-        <v>-0.05179884240975796</v>
+        <v>2.023907104025579</v>
       </c>
       <c r="DJ3">
-        <v>-0.05969711372609299</v>
+        <v>1.702441386700576</v>
       </c>
       <c r="DK3">
-        <v>-0.05435402368678765</v>
+        <v>1.960241539543586</v>
       </c>
       <c r="DL3">
-        <v>-0.05157217103341242</v>
+        <v>2.029982073049005</v>
       </c>
       <c r="DM3">
-        <v>-0.05969711372662138</v>
+        <v>1.702441386700024</v>
       </c>
       <c r="DN3">
-        <v>-0.05441859252145692</v>
+        <v>1.961041295154897</v>
       </c>
       <c r="DO3">
-        <v>-0.05165116909062333</v>
+        <v>2.030896325311912</v>
       </c>
       <c r="DP3">
-        <v>-0.0512766015623775</v>
+        <v>2.055595874341734</v>
       </c>
       <c r="DQ3">
-        <v>-0.05969711372667216</v>
+        <v>1.702441386699972</v>
       </c>
       <c r="DR3">
-        <v>-0.05446494689483559</v>
+        <v>1.961615425147097</v>
       </c>
       <c r="DS3">
-        <v>-0.05165116909062469</v>
+        <v>2.03089632531191</v>
       </c>
       <c r="DT3">
-        <v>-0.05168963287570998</v>
+        <v>2.031341455342137</v>
       </c>
       <c r="DU3">
-        <v>-0.05074343969916345</v>
+        <v>2.101588417033441</v>
       </c>
       <c r="DV3">
-        <v>-0.05969711372670577</v>
+        <v>1.702441386699931</v>
       </c>
       <c r="DW3">
-        <v>-0.05453044545372141</v>
+        <v>1.962426640783639</v>
       </c>
       <c r="DX3">
-        <v>-0.05165116909062592</v>
+        <v>2.030896325311909</v>
       </c>
       <c r="DY3">
-        <v>-0.05187032380147063</v>
+        <v>2.033432405514846</v>
       </c>
       <c r="DZ3">
-        <v>-0.05050361796998685</v>
+        <v>2.122188398165573</v>
       </c>
       <c r="EA3">
-        <v>-0.05969711372673578</v>
+        <v>1.702441386699892</v>
       </c>
       <c r="EB3">
-        <v>-0.05460131041195716</v>
+        <v>1.963304283749466</v>
       </c>
       <c r="EC3">
-        <v>-0.05165116909062654</v>
+        <v>2.030896325311909</v>
       </c>
       <c r="ED3">
-        <v>-0.05180818404515153</v>
+        <v>2.034349777184244</v>
       </c>
       <c r="EE3">
-        <v>-0.05235354536888547</v>
+        <v>2.038146683964573</v>
       </c>
       <c r="EF3">
-        <v>-0.05043225734066319</v>
+        <v>2.128307579706636</v>
       </c>
       <c r="EG3">
-        <v>-0.0596971137268202</v>
+        <v>1.702441386699752</v>
       </c>
       <c r="EH3">
-        <v>-0.05466814198662742</v>
+        <v>1.964131939294667</v>
       </c>
       <c r="EI3">
-        <v>-0.05165116909062776</v>
+        <v>2.030896325311908</v>
       </c>
       <c r="EJ3">
-        <v>-0.05180283255721046</v>
+        <v>2.03442876440963</v>
       </c>
       <c r="EK3">
-        <v>-0.05271304355627933</v>
+        <v>2.041653194013333</v>
       </c>
       <c r="EL3">
-        <v>-0.05035170141227858</v>
+        <v>2.135209492097106</v>
       </c>
       <c r="EM3">
-        <v>-0.05969711372688287</v>
+        <v>1.702441386699646</v>
       </c>
       <c r="EN3">
-        <v>-0.05477802421622018</v>
+        <v>1.965492668723254</v>
       </c>
       <c r="EO3">
-        <v>-0.05165116909062895</v>
+        <v>2.030896325311907</v>
       </c>
       <c r="EP3">
-        <v>-0.0517975817247262</v>
+        <v>2.034506263354328</v>
       </c>
       <c r="EQ3">
-        <v>-0.05295379394207619</v>
+        <v>2.04400110100761</v>
       </c>
       <c r="ER3">
-        <v>-0.05027593626126692</v>
+        <v>2.141695363294709</v>
       </c>
       <c r="ES3">
-        <v>-0.05969711372688994</v>
+        <v>1.702441386699632</v>
       </c>
       <c r="ET3">
-        <v>-0.05530049797432024</v>
+        <v>1.971961476954019</v>
       </c>
       <c r="EU3">
-        <v>-0.05165116909063015</v>
+        <v>2.030896325311907</v>
       </c>
       <c r="EV3">
-        <v>-0.05179334189540794</v>
+        <v>2.034568838642279</v>
       </c>
       <c r="EW3">
-        <v>-0.05301860433612405</v>
+        <v>2.045162490643805</v>
       </c>
       <c r="EX3">
-        <v>-0.05328030755169601</v>
+        <v>2.046221071091472</v>
       </c>
       <c r="EY3">
-        <v>-0.05018752817469908</v>
+        <v>2.149256709732389</v>
       </c>
       <c r="EZ3">
-        <v>-0.05969711372689124</v>
+        <v>1.702441386699628</v>
       </c>
       <c r="FA3">
-        <v>-0.05541431786248224</v>
+        <v>1.973370418261643</v>
       </c>
       <c r="FB3">
-        <v>-0.05165116909063098</v>
+        <v>2.030896325311907</v>
       </c>
       <c r="FC3">
-        <v>-0.05178697824093625</v>
+        <v>2.034662756113549</v>
       </c>
       <c r="FD3">
-        <v>-0.05319048628994386</v>
+        <v>2.048242264497078</v>
       </c>
       <c r="FE3">
-        <v>-0.05330018285185628</v>
+        <v>2.046356120337002</v>
       </c>
       <c r="FF3">
-        <v>-0.05016208828454705</v>
+        <v>2.151431166760608</v>
       </c>
       <c r="FG3">
-        <v>-0.05969711372689083</v>
+        <v>1.702441386699625</v>
       </c>
       <c r="FH3">
-        <v>-0.05550831673862936</v>
+        <v>1.976021686391461</v>
       </c>
       <c r="FI3">
-        <v>-0.05581230279195505</v>
+        <v>1.977783265798662</v>
       </c>
       <c r="FJ3">
-        <v>-0.05165116909063121</v>
+        <v>2.030896325311907</v>
       </c>
       <c r="FK3">
-        <v>-0.05177930613242233</v>
+        <v>2.034775979229171</v>
       </c>
       <c r="FL3">
-        <v>-0.05325019060241169</v>
+        <v>2.049311936119127</v>
       </c>
       <c r="FM3">
-        <v>-0.05331834015007915</v>
+        <v>2.046479487718105</v>
       </c>
       <c r="FN3">
-        <v>-0.05001755236858945</v>
+        <v>2.163773753827506</v>
       </c>
       <c r="FO3">
-        <v>-0.05969711372689083</v>
+        <v>1.702441386699625</v>
       </c>
       <c r="FP3">
-        <v>-0.05552607516813712</v>
+        <v>1.976522196052673</v>
       </c>
       <c r="FQ3">
-        <v>-0.0563406814062854</v>
+        <v>1.98364040654897</v>
       </c>
       <c r="FR3">
-        <v>-0.05165116909063067</v>
+        <v>2.030896325311907</v>
       </c>
       <c r="FS3">
-        <v>-0.05177351000477128</v>
+        <v>2.034861513401416</v>
       </c>
       <c r="FT3">
-        <v>-0.05325019060224899</v>
+        <v>2.049311936118825</v>
       </c>
       <c r="FU3">
-        <v>-0.05334941986972697</v>
+        <v>2.051095597465012</v>
       </c>
       <c r="FV3">
-        <v>-0.05332588298570915</v>
+        <v>2.046530734185346</v>
       </c>
       <c r="FW3">
-        <v>-0.04993591173711212</v>
+        <v>2.170736775884331</v>
       </c>
       <c r="FX3">
-        <v>-0.05556271484156616</v>
+        <v>1.977554487457345</v>
       </c>
       <c r="FY3">
-        <v>-0.05637541766826547</v>
+        <v>1.984239505088667</v>
       </c>
       <c r="FZ3">
-        <v>-0.0564849028376726</v>
+        <v>1.984677579723945</v>
       </c>
       <c r="GA3">
-        <v>-0.05165116909062972</v>
+        <v>2.030896325311908</v>
       </c>
       <c r="GB3">
-        <v>-0.05176680286675089</v>
+        <v>2.03496048752073</v>
       </c>
       <c r="GC3">
-        <v>-0.05325019060222311</v>
+        <v>2.049311936118775</v>
       </c>
       <c r="GD3">
-        <v>-0.05336013699474193</v>
+        <v>2.05128814788431</v>
       </c>
       <c r="GE3">
-        <v>-0.05334214156783373</v>
+        <v>2.046641191273962</v>
       </c>
       <c r="GF3">
-        <v>-0.04987530490465514</v>
+        <v>2.175901821815544</v>
       </c>
       <c r="GG3">
-        <v>-0.0565121147433894</v>
+        <v>1.986596958611703</v>
       </c>
       <c r="GH3">
-        <v>-0.05708190630123291</v>
+        <v>1.988965018447894</v>
       </c>
       <c r="GI3">
-        <v>-0.05165116909062886</v>
+        <v>2.03089632531191</v>
       </c>
       <c r="GJ3">
-        <v>-0.0517604964171214</v>
+        <v>2.035053545006574</v>
       </c>
       <c r="GK3">
-        <v>-0.05325019060222337</v>
+        <v>2.049311936118768</v>
       </c>
       <c r="GL3">
-        <v>-0.05325019060220944</v>
+        <v>2.049311936118754</v>
       </c>
       <c r="GM3">
-        <v>-0.05337050345388393</v>
+        <v>2.051474381053251</v>
       </c>
       <c r="GN3">
-        <v>-0.05338355252975623</v>
+        <v>2.046922499055784</v>
       </c>
       <c r="GO3">
-        <v>-0.04982081454404032</v>
+        <v>2.180542679303018</v>
       </c>
       <c r="GP3">
-        <v>-0.05675618305214954</v>
+        <v>1.9908054445022</v>
       </c>
       <c r="GQ3">
-        <v>-0.05709659057103299</v>
+        <v>1.989393312629262</v>
       </c>
       <c r="GR3">
-        <v>-0.05714086619171133</v>
+        <v>1.989201277734147</v>
       </c>
       <c r="GS3">
-        <v>-0.05165116909062901</v>
+        <v>2.030896325311909</v>
       </c>
       <c r="GT3">
-        <v>-0.05175371103833438</v>
+        <v>2.035153665355295</v>
       </c>
       <c r="GU3">
-        <v>-0.05325019060222337</v>
+        <v>2.049311936118772</v>
       </c>
       <c r="GV3">
-        <v>-0.0532501906022064</v>
+        <v>2.049311936118735</v>
       </c>
       <c r="GW3">
-        <v>-0.05337879561772422</v>
+        <v>2.051623337547424</v>
       </c>
       <c r="GX3">
-        <v>-0.05340784849954997</v>
+        <v>2.047087524143195</v>
       </c>
       <c r="GY3">
-        <v>-0.04975311941981594</v>
+        <v>2.186304305866517</v>
       </c>
       <c r="GZ3">
-        <v>-0.05673344826564117</v>
+        <v>1.991569658692056</v>
       </c>
       <c r="HA3">
-        <v>-0.05680834851307025</v>
+        <v>1.991521961571742</v>
       </c>
       <c r="HB3">
-        <v>-0.05713371649268158</v>
+        <v>1.990475773679472</v>
       </c>
       <c r="HC3">
-        <v>-0.05714920035885573</v>
+        <v>1.989234671166373</v>
       </c>
       <c r="HD3">
-        <v>-0.05165116909062899</v>
+        <v>2.030896325311909</v>
       </c>
       <c r="HE3">
-        <v>-0.05174333821082578</v>
+        <v>2.035306711239986</v>
       </c>
       <c r="HF3">
-        <v>-0.05325019060220659</v>
+        <v>2.049311936118717</v>
       </c>
       <c r="HG3">
-        <v>-0.05338540100253162</v>
+        <v>2.051741985903933</v>
       </c>
       <c r="HH3">
-        <v>-0.05342486564024469</v>
+        <v>2.04720310088554</v>
       </c>
       <c r="HI3">
-        <v>-0.04962819168321108</v>
+        <v>2.196925865848817</v>
       </c>
       <c r="HJ3">
-        <v>-0.05665903237055975</v>
+        <v>1.994069275832713</v>
       </c>
       <c r="HK3">
-        <v>-0.05690249855982226</v>
+        <v>1.992815092476521</v>
       </c>
       <c r="HL3">
-        <v>-0.05715592165198953</v>
+        <v>1.989261601654454</v>
       </c>
       <c r="HM3">
-        <v>-0.05165116909062899</v>
+        <v>2.030896325311909</v>
       </c>
       <c r="HN3">
-        <v>-0.0517150110092516</v>
+        <v>2.035724613378505</v>
       </c>
       <c r="HO3">
-        <v>-0.05325019060220501</v>
+        <v>2.049311936118702</v>
       </c>
       <c r="HP3">
-        <v>-0.05339936590977683</v>
+        <v>2.051992806415111</v>
       </c>
       <c r="HQ3">
-        <v>-0.05345760014484673</v>
+        <v>2.047425406919846</v>
       </c>
       <c r="HR3">
-        <v>-0.04951926640390286</v>
+        <v>2.206175019352926</v>
       </c>
       <c r="HS3">
-        <v>-0.05662695201842107</v>
+        <v>1.995145989210559</v>
       </c>
       <c r="HT3">
-        <v>-0.05693611548184253</v>
+        <v>1.993276793766202</v>
       </c>
       <c r="HU3">
-        <v>-0.05716129297475794</v>
+        <v>1.989283122862348</v>
       </c>
       <c r="HV3">
-        <v>-0.05171259573250128</v>
+        <v>2.035760241691564</v>
       </c>
       <c r="HW3">
-        <v>-0.05325019060221348</v>
+        <v>2.049311936118675</v>
       </c>
       <c r="HX3">
-        <v>-0.05341036366997288</v>
+        <v>2.05219031336657</v>
       </c>
       <c r="HY3">
-        <v>-0.0534738934404215</v>
+        <v>2.047536048047418</v>
       </c>
       <c r="HZ3">
-        <v>-0.04944516602460045</v>
+        <v>2.212460792443039</v>
       </c>
       <c r="IA3">
-        <v>-0.05731114712675041</v>
+        <v>1.998479954583126</v>
       </c>
       <c r="IB3">
-        <v>-0.05693611548184253</v>
+        <v>1.993276793766202</v>
       </c>
       <c r="IC3">
-        <v>-0.05716949237576655</v>
+        <v>1.989315974784943</v>
       </c>
       <c r="ID3">
-        <v>-0.05171148013836158</v>
+        <v>2.035776697896797</v>
       </c>
       <c r="IE3">
-        <v>-0.05325019060222302</v>
+        <v>2.049311936118647</v>
       </c>
       <c r="IF3">
-        <v>-0.05341799229708044</v>
+        <v>2.052327303588056</v>
       </c>
       <c r="IG3">
-        <v>-0.05348546276051412</v>
+        <v>2.047614606695468</v>
       </c>
       <c r="IH3">
-        <v>-0.04939648651851555</v>
+        <v>2.2165873956441</v>
       </c>
       <c r="II3">
-        <v>-0.05736561532467507</v>
+        <v>1.999234543033719</v>
       </c>
       <c r="IJ3">
-        <v>-0.05717910376490531</v>
+        <v>1.989354483231038</v>
       </c>
       <c r="IK3">
-        <v>-0.05171028687507738</v>
+        <v>2.035794299675343</v>
       </c>
       <c r="IL3">
-        <v>-0.0532501906022376</v>
+        <v>2.049311936118624</v>
       </c>
       <c r="IM3">
-        <v>-0.05342560277719455</v>
+        <v>2.052463958937296</v>
       </c>
       <c r="IN3">
-        <v>-0.05361781522072652</v>
+        <v>2.048513084132883</v>
       </c>
       <c r="IO3">
-        <v>-0.04929171481461726</v>
+        <v>2.225461532603331</v>
       </c>
       <c r="IP3">
-        <v>-0.05749138634433447</v>
+        <v>2.000374662230491</v>
       </c>
       <c r="IQ3">
-        <v>-0.0574070388761404</v>
+        <v>2.000409600196412</v>
       </c>
       <c r="IR3">
-        <v>-0.05719386636994277</v>
+        <v>1.989413628600539</v>
       </c>
       <c r="IS3">
-        <v>-0.05170914665916723</v>
+        <v>2.035811118829123</v>
       </c>
       <c r="IT3">
-        <v>-0.05325019060224634</v>
+        <v>2.049311936118609</v>
       </c>
       <c r="IU3">
-        <v>-0.05343673661801122</v>
+        <v>2.052663864284629</v>
       </c>
       <c r="IV3">
-        <v>-0.05365684533298951</v>
+        <v>2.048777960234616</v>
       </c>
       <c r="IW3">
-        <v>-0.04928645244366643</v>
+        <v>2.226489340556097</v>
       </c>
       <c r="IX3">
-        <v>-0.04922054671957656</v>
+        <v>2.231173724943993</v>
       </c>
       <c r="IY3">
-        <v>-0.05724788830230999</v>
+        <v>1.989630046790994</v>
       </c>
       <c r="IZ3">
-        <v>-0.05170787640943602</v>
+        <v>2.035829855948295</v>
       </c>
       <c r="JA3">
-        <v>-0.05325019060225784</v>
+        <v>2.049311936118593</v>
       </c>
       <c r="JB3">
-        <v>-0.05347861205600068</v>
+        <v>2.053415555187824</v>
       </c>
       <c r="JC3">
-        <v>-0.05366557762391278</v>
+        <v>2.048837216508502</v>
       </c>
       <c r="JD3">
-        <v>-0.04928572499679573</v>
+        <v>2.226631382339341</v>
       </c>
       <c r="JE3">
-        <v>-0.04895364899508339</v>
+        <v>2.252558383140889</v>
       </c>
       <c r="JF3">
-        <v>-0.05751083210170737</v>
+        <v>1.990683049430733</v>
       </c>
       <c r="JG3">
-        <v>-0.05170525443475898</v>
+        <v>2.035868531526269</v>
       </c>
       <c r="JH3">
-        <v>-0.05325019060227456</v>
+        <v>2.049311936118581</v>
       </c>
       <c r="JI3">
-        <v>-0.05348838593947008</v>
+        <v>2.053590963501565</v>
       </c>
       <c r="JJ3">
-        <v>-0.05382976294764959</v>
+        <v>2.0495949099508</v>
       </c>
       <c r="JK3">
-        <v>-0.05366749666156455</v>
+        <v>2.048862469247417</v>
       </c>
       <c r="JL3">
-        <v>-0.04928539056245281</v>
+        <v>2.22669668113933</v>
       </c>
       <c r="JM3">
-        <v>-0.04898676260578647</v>
+        <v>2.253441017119525</v>
       </c>
       <c r="JN3">
-        <v>-0.04885698525012434</v>
+        <v>2.259543701959758</v>
       </c>
       <c r="JO3">
-        <v>-0.05170252366332675</v>
+        <v>2.03590881122934</v>
       </c>
       <c r="JP3">
-        <v>-0.05325019060227728</v>
+        <v>2.049311936118572</v>
       </c>
       <c r="JQ3">
-        <v>-0.05349286362466943</v>
+        <v>2.053671317933507</v>
       </c>
       <c r="JR3">
-        <v>-0.05399248850764336</v>
+        <v>2.050345552508515</v>
       </c>
       <c r="JS3">
-        <v>-0.05366974661462493</v>
+        <v>2.0488920761247</v>
       </c>
       <c r="JT3">
-        <v>-0.04928499335006056</v>
+        <v>2.226774234923326</v>
       </c>
       <c r="JU3">
-        <v>-0.04898916962138555</v>
+        <v>2.253505161078503</v>
       </c>
       <c r="JV3">
-        <v>-0.04850653521012016</v>
+        <v>2.284815917352608</v>
       </c>
       <c r="JW3">
-        <v>-0.05169213949630567</v>
+        <v>2.036061974424992</v>
       </c>
       <c r="JX3">
-        <v>-0.05325019060226114</v>
+        <v>2.049311936118581</v>
       </c>
       <c r="JY3">
-        <v>-0.05349580736951304</v>
+        <v>2.053724143299813</v>
       </c>
       <c r="JZ3">
-        <v>-0.05367177994827435</v>
+        <v>2.048918832161621</v>
       </c>
       <c r="KA3">
-        <v>-0.04928438049839499</v>
+        <v>2.226893885851026</v>
       </c>
       <c r="KB3">
-        <v>-0.04899115356094611</v>
+        <v>2.253558029126277</v>
       </c>
       <c r="KC3">
-        <v>-0.04761091030644815</v>
+        <v>2.289694079477129</v>
       </c>
       <c r="KD3">
-        <v>-0.0486584392042599</v>
+        <v>2.288422305973966</v>
       </c>
       <c r="KE3">
-        <v>-0.05163700806832097</v>
+        <v>2.036874975854075</v>
       </c>
       <c r="KF3">
-        <v>-0.05325019060226114</v>
+        <v>2.049311936118581</v>
       </c>
       <c r="KG3">
-        <v>-0.05350946618893919</v>
+        <v>2.053903406178392</v>
       </c>
       <c r="KH3">
-        <v>-0.0534966734251696</v>
+        <v>2.053747804265387</v>
       </c>
       <c r="KI3">
-        <v>-0.05367383931072111</v>
+        <v>2.04894593034568</v>
       </c>
       <c r="KJ3">
-        <v>-0.0492838344039454</v>
+        <v>2.227000497849112</v>
       </c>
       <c r="KK3">
-        <v>-0.04899397159718207</v>
+        <v>2.253633121920396</v>
       </c>
       <c r="KL3">
-        <v>-0.047198659332041</v>
+        <v>2.29193799049229</v>
       </c>
       <c r="KM3">
-        <v>-0.04929511294319714</v>
+        <v>2.303518624994151</v>
       </c>
       <c r="KN3">
-        <v>-0.05351574050066805</v>
+        <v>2.053985747041318</v>
       </c>
       <c r="KO3">
-        <v>-0.0534972863638731</v>
+        <v>2.053764549820852</v>
       </c>
       <c r="KP3">
-        <v>-0.0536760535439125</v>
+        <v>2.048975065999139</v>
       </c>
       <c r="KQ3">
-        <v>-0.04928340982755632</v>
+        <v>2.227083382749182</v>
       </c>
       <c r="KR3">
-        <v>-0.04900662898991769</v>
+        <v>2.253970373184273</v>
       </c>
       <c r="KS3">
-        <v>-0.04450534140778788</v>
+        <v>2.306575013024498</v>
       </c>
       <c r="KT3">
-        <v>-0.04943566252897254</v>
+        <v>2.306847078635083</v>
       </c>
       <c r="KU3">
-        <v>-0.05352635969927774</v>
+        <v>2.054125100399012</v>
       </c>
       <c r="KV3">
-        <v>-0.05349799964410412</v>
+        <v>2.053784036551394</v>
       </c>
       <c r="KW3">
-        <v>-0.05368889491219265</v>
+        <v>2.049144028992145</v>
       </c>
       <c r="KX3">
-        <v>-0.04928288133597649</v>
+        <v>2.227186549380237</v>
       </c>
       <c r="KY3">
-        <v>-0.0490090656806802</v>
+        <v>2.254035291677435</v>
       </c>
       <c r="KZ3">
-        <v>-0.04430415681393052</v>
+        <v>2.307666773184107</v>
       </c>
       <c r="LA3">
-        <v>-0.04948236516878667</v>
+        <v>2.307952744888079</v>
       </c>
       <c r="LB3">
-        <v>-0.05354674270583405</v>
+        <v>2.05439255531134</v>
       </c>
       <c r="LC3">
-        <v>-0.05349936392170189</v>
+        <v>2.053821307952004</v>
       </c>
       <c r="LD3">
-        <v>-0.05374320988774348</v>
+        <v>2.049858534712916</v>
       </c>
       <c r="LE3">
-        <v>-0.04928233472113398</v>
+        <v>2.22729324874626</v>
       </c>
       <c r="LF3">
-        <v>-0.049010869851606</v>
+        <v>2.254083357246208</v>
       </c>
       <c r="LG3">
-        <v>-0.04430153949492588</v>
+        <v>2.307952674892974</v>
       </c>
       <c r="LH3">
-        <v>-0.04060481814801666</v>
+        <v>2.324960865487433</v>
       </c>
       <c r="LI3">
-        <v>-0.04950674083304719</v>
+        <v>2.308529763237352</v>
       </c>
       <c r="LJ3">
-        <v>-0.05360675481521717</v>
+        <v>2.055179798298178</v>
       </c>
       <c r="LK3">
-        <v>-0.05350459617144361</v>
+        <v>2.053964244381443</v>
       </c>
       <c r="LL3">
-        <v>-0.04928168995865809</v>
+        <v>2.2274190998912</v>
       </c>
       <c r="LM3">
-        <v>-0.04901294806276611</v>
+        <v>2.254138722265095</v>
       </c>
       <c r="LN3">
-        <v>-0.04428805941377758</v>
+        <v>2.309424578439687</v>
       </c>
       <c r="LO3">
-        <v>-0.03882926336059761</v>
+        <v>2.333242322643579</v>
       </c>
       <c r="LP3">
-        <v>-0.04952760725346694</v>
+        <v>2.309023675305118</v>
       </c>
       <c r="LQ3">
-        <v>-0.05352245194889482</v>
+        <v>2.054451962036684</v>
       </c>
       <c r="LR3">
-        <v>-0.04928132252956792</v>
+        <v>2.227490815124126</v>
       </c>
       <c r="LS3">
-        <v>-0.04901500962027166</v>
+        <v>2.254193642185968</v>
       </c>
       <c r="LT3">
-        <v>-0.04428335322220875</v>
+        <v>2.309938220684316</v>
       </c>
       <c r="LU3">
-        <v>-0.03893894198415788</v>
+        <v>2.334694408062142</v>
       </c>
       <c r="LV3">
-        <v>-0.03533916215304708</v>
+        <v>2.348265295568046</v>
       </c>
       <c r="LW3">
-        <v>-0.04955133916933029</v>
+        <v>2.309585374048913</v>
       </c>
       <c r="LX3">
-        <v>-0.04927966263005935</v>
+        <v>2.227814767025622</v>
       </c>
       <c r="LY3">
-        <v>-0.04903312071528135</v>
+        <v>2.254676060679302</v>
       </c>
       <c r="LZ3">
-        <v>-0.04427311043129153</v>
+        <v>2.311055723471874</v>
       </c>
       <c r="MA3">
-        <v>-0.03898238167955465</v>
+        <v>2.335269240202431</v>
       </c>
       <c r="MB3">
-        <v>-0.03542105151721693</v>
+        <v>2.349721243207461</v>
       </c>
       <c r="MC3">
-        <v>-0.03469227475121495</v>
+        <v>2.350770930388893</v>
       </c>
       <c r="MD3">
-        <v>-0.04957003591075464</v>
+        <v>2.310027867709797</v>
       </c>
       <c r="ME3">
-        <v>-0.04927901663045323</v>
+        <v>2.22794082968821</v>
       </c>
       <c r="MF3">
-        <v>-0.04907014268834448</v>
+        <v>2.25566185866274</v>
       </c>
       <c r="MG3">
-        <v>-0.04426090662754693</v>
+        <v>2.311513288123431</v>
       </c>
       <c r="MH3">
-        <v>-0.04427490193126653</v>
+        <v>2.311271298985614</v>
       </c>
       <c r="MI3">
-        <v>-0.03546222293398367</v>
+        <v>2.350452862762198</v>
       </c>
       <c r="MJ3">
-        <v>-0.03413806854126339</v>
+        <v>2.352916714091725</v>
       </c>
       <c r="MK3">
-        <v>-0.0495857112078384</v>
+        <v>2.310398832761896</v>
       </c>
       <c r="ML3">
-        <v>-0.04927879221064231</v>
+        <v>2.22798462207462</v>
       </c>
       <c r="MM3">
-        <v>-0.04424264605499328</v>
+        <v>2.312197768482735</v>
       </c>
       <c r="MN3">
-        <v>-0.04427515138115127</v>
+        <v>2.31130131418847</v>
       </c>
       <c r="MO3">
-        <v>-0.03546605437769908</v>
+        <v>2.35052093472917</v>
       </c>
       <c r="MP3">
-        <v>-0.033748228821918</v>
+        <v>2.354425624611816</v>
       </c>
       <c r="MQ3">
-        <v>-0.04959985532599388</v>
+        <v>2.310733545581519</v>
       </c>
       <c r="MR3">
-        <v>-0.04927862314012015</v>
+        <v>2.228017613244707</v>
       </c>
       <c r="MS3">
-        <v>-0.04427542230140796</v>
+        <v>2.311333912354481</v>
       </c>
       <c r="MT3">
-        <v>-0.03546763671814233</v>
+        <v>2.350549046986324</v>
       </c>
       <c r="MU3">
-        <v>-0.03325564957414867</v>
+        <v>2.356331635305613</v>
       </c>
       <c r="MV3">
-        <v>-0.04961156152752309</v>
+        <v>2.311010554966167</v>
       </c>
       <c r="MW3">
-        <v>-0.04927849944036843</v>
+        <v>2.228041750784234</v>
       </c>
       <c r="MX3">
-        <v>-0.04427565960821515</v>
+        <v>2.31136246561752</v>
       </c>
       <c r="MY3">
-        <v>-0.03546875322403912</v>
+        <v>2.350568882881015</v>
       </c>
       <c r="MZ3">
-        <v>-0.0329469985772753</v>
+        <v>2.357525624875882</v>
       </c>
       <c r="NA3">
-        <v>-0.04962514144804994</v>
+        <v>2.311331890033341</v>
       </c>
       <c r="NB3">
-        <v>-0.04927843662492331</v>
+        <v>2.228054007863586</v>
       </c>
       <c r="NC3">
-        <v>-0.0442759117468217</v>
+        <v>2.311392803061785</v>
       </c>
       <c r="ND3">
-        <v>-0.03546989523667325</v>
+        <v>2.350589171733469</v>
       </c>
       <c r="NE3">
-        <v>-0.03247302441062137</v>
+        <v>2.359358673005754</v>
       </c>
       <c r="NF3">
-        <v>-0.04964006677171674</v>
+        <v>2.311685044595614</v>
       </c>
       <c r="NG3">
-        <v>-0.04927834427287349</v>
+        <v>2.2280720282503</v>
       </c>
       <c r="NH3">
-        <v>-0.04427627160280223</v>
+        <v>2.311436100377927</v>
       </c>
       <c r="NI3">
-        <v>-0.03547124273078182</v>
+        <v>2.350613110888922</v>
       </c>
       <c r="NJ3">
-        <v>-0.03200051887071757</v>
+        <v>2.361185463197353</v>
       </c>
       <c r="NK3">
-        <v>-0.04972143513977993</v>
+        <v>2.313610039935623</v>
       </c>
       <c r="NL3">
-        <v>-0.04927818946064511</v>
+        <v>2.228102235977818</v>
       </c>
       <c r="NM3">
-        <v>-0.04427670907406463</v>
+        <v>2.311488735078422</v>
       </c>
       <c r="NN3">
-        <v>-0.03547294249956891</v>
+        <v>2.350643308051461</v>
       </c>
       <c r="NO3">
-        <v>-0.03147034238099466</v>
+        <v>2.363234532581101</v>
       </c>
       <c r="NP3">
-        <v>-0.05031008744880616</v>
+        <v>2.327444184111069</v>
       </c>
       <c r="NQ3">
-        <v>-0.04973276452541628</v>
+        <v>2.313914141022456</v>
       </c>
       <c r="NR3">
-        <v>-0.04927749893074256</v>
+        <v>2.228236970524715</v>
       </c>
       <c r="NS3">
-        <v>-0.04427942066930158</v>
+        <v>2.311814954238439</v>
       </c>
       <c r="NT3">
-        <v>-0.03547446480906906</v>
+        <v>2.35067035219649</v>
       </c>
       <c r="NU3">
-        <v>-0.03108668104758118</v>
+        <v>2.364716885387406</v>
       </c>
       <c r="NV3">
-        <v>-0.05087394783601185</v>
+        <v>2.34067140483385</v>
       </c>
       <c r="NW3">
-        <v>-0.04980232976397898</v>
+        <v>2.31578043933611</v>
       </c>
       <c r="NX3">
-        <v>-0.04973276452539092</v>
+        <v>2.313914141022462</v>
       </c>
       <c r="NY3">
-        <v>-0.0492749605557302</v>
+        <v>2.228732181128164</v>
       </c>
       <c r="NZ3">
-        <v>-0.04428869913014925</v>
+        <v>2.312930829848569</v>
       </c>
       <c r="OA3">
-        <v>-0.03547566937501306</v>
+        <v>2.350691751311413</v>
       </c>
       <c r="OB3">
-        <v>-0.03062938431723904</v>
+        <v>2.36648324689412</v>
       </c>
       <c r="OC3">
-        <v>-0.05089905079201797</v>
+        <v>2.341259726803425</v>
       </c>
       <c r="OD3">
-        <v>-0.04982775468028314</v>
+        <v>2.316462128976017</v>
       </c>
       <c r="OE3">
-        <v>-0.0497327645252599</v>
+        <v>2.313914141022498</v>
       </c>
       <c r="OF3">
-        <v>-0.03547773670148937</v>
+        <v>2.350728476853666</v>
       </c>
       <c r="OG3">
-        <v>-0.02996583904096765</v>
+        <v>2.369045307574897</v>
       </c>
       <c r="OH3">
-        <v>-0.05100349316580441</v>
+        <v>2.342963967076479</v>
       </c>
       <c r="OI3">
-        <v>-0.05129764151434405</v>
+        <v>2.351033285280193</v>
       </c>
       <c r="OJ3">
-        <v>-0.04983034262012601</v>
+        <v>2.31653150416879</v>
       </c>
       <c r="OK3">
-        <v>-0.04973276452525038</v>
+        <v>2.3139141410225</v>
       </c>
       <c r="OL3">
-        <v>-0.03548495353059308</v>
+        <v>2.350856676940185</v>
       </c>
       <c r="OM3">
-        <v>-0.02947388996002914</v>
+        <v>2.370944073172244</v>
       </c>
       <c r="ON3">
-        <v>-0.05101306303338416</v>
+        <v>2.343120053335175</v>
       </c>
       <c r="OO3">
-        <v>-0.05148995112629617</v>
+        <v>2.355744150197326</v>
       </c>
       <c r="OP3">
-        <v>-0.04983214866538509</v>
+        <v>2.316579917677322</v>
       </c>
       <c r="OQ3">
-        <v>-0.04973276452524684</v>
+        <v>2.313914141022501</v>
       </c>
       <c r="OR3">
-        <v>-0.03552907507206562</v>
+        <v>2.351640281906718</v>
       </c>
       <c r="OS3">
-        <v>-0.02899931696039843</v>
+        <v>2.372775181429943</v>
       </c>
       <c r="OT3">
-        <v>-0.05101850332418402</v>
+        <v>2.343208780201758</v>
       </c>
       <c r="OU3">
-        <v>-0.05207016703924288</v>
+        <v>2.36993907033345</v>
       </c>
       <c r="OV3">
-        <v>-0.05148995112635332</v>
+        <v>2.355744150197183</v>
       </c>
       <c r="OW3">
-        <v>-0.04983401956938101</v>
+        <v>2.316630068643756</v>
       </c>
       <c r="OX3">
-        <v>-0.04973276452524662</v>
+        <v>2.313914141022501</v>
       </c>
       <c r="OY3">
-        <v>-0.02853484438522281</v>
+        <v>2.374566755931359</v>
       </c>
       <c r="OZ3">
-        <v>-0.05102219742005733</v>
+        <v>2.343269025831114</v>
       </c>
       <c r="PA3">
-        <v>-0.05289666214456476</v>
+        <v>2.390112110000732</v>
       </c>
       <c r="PB3">
-        <v>-0.05148995112636743</v>
+        <v>2.355744150197147</v>
       </c>
       <c r="PC3">
-        <v>-0.04984187629179849</v>
+        <v>2.316840660916299</v>
       </c>
       <c r="PD3">
-        <v>-0.04973276452524384</v>
+        <v>2.313914141022504</v>
       </c>
       <c r="PE3">
-        <v>-0.02797623466594346</v>
+        <v>2.376720702478814</v>
       </c>
       <c r="PF3">
-        <v>-0.05102821783199798</v>
+        <v>2.343367206718023</v>
       </c>
       <c r="PG3">
-        <v>-0.05306963431799674</v>
+        <v>2.394327021844756</v>
       </c>
       <c r="PH3">
-        <v>-0.05148995112637963</v>
+        <v>2.355744150197126</v>
       </c>
       <c r="PI3">
-        <v>-0.04984379472339626</v>
+        <v>2.31689207953767</v>
       </c>
       <c r="PJ3">
-        <v>-0.04973276452521432</v>
+        <v>2.313914141022525</v>
       </c>
       <c r="PK3">
-        <v>-0.02704063838944277</v>
+        <v>2.380326474665983</v>
       </c>
       <c r="PL3">
-        <v>-0.02797623466594346</v>
+        <v>2.376720702478814</v>
       </c>
       <c r="PM3">
-        <v>-0.05104823016827371</v>
+        <v>2.34369353442105</v>
       </c>
       <c r="PN3">
-        <v>-0.05311384502910563</v>
+        <v>2.395403942397138</v>
       </c>
       <c r="PO3">
-        <v>-0.05148995112639206</v>
+        <v>2.355744150197105</v>
       </c>
       <c r="PP3">
-        <v>-0.04984562469996399</v>
+        <v>2.316941126184167</v>
       </c>
       <c r="PQ3">
-        <v>-0.04973276452520497</v>
+        <v>2.313914141022533</v>
       </c>
       <c r="PR3">
-        <v>-0.02388468497646339</v>
+        <v>2.39247287344639</v>
       </c>
       <c r="PS3">
-        <v>-0.02704063838944277</v>
+        <v>2.380326474665983</v>
       </c>
       <c r="PT3">
-        <v>-0.05107051038746834</v>
+        <v>2.344056782372863</v>
       </c>
       <c r="PU3">
-        <v>-0.05313700654940362</v>
+        <v>2.395968066706545</v>
       </c>
       <c r="PV3">
-        <v>-0.05148995112640287</v>
+        <v>2.355744150197088</v>
       </c>
       <c r="PW3">
-        <v>-0.04984744472468834</v>
+        <v>2.3169899049748</v>
       </c>
       <c r="PX3">
-        <v>-0.04973276452520196</v>
+        <v>2.313914141022534</v>
       </c>
       <c r="PY3">
-        <v>-0.01942023860747823</v>
+        <v>2.409611710619246</v>
       </c>
       <c r="PZ3">
-        <v>-0.02388468497646339</v>
+        <v>2.39247287344639</v>
       </c>
       <c r="QA3">
-        <v>-0.05108304079485398</v>
+        <v>2.344261045175969</v>
       </c>
       <c r="QB3">
-        <v>-0.05315620726447201</v>
+        <v>2.396435688470271</v>
       </c>
       <c r="QC3">
-        <v>-0.0514899511264098</v>
+        <v>2.355744150197075</v>
       </c>
       <c r="QD3">
-        <v>-0.04984953252948888</v>
+        <v>2.31704585919845</v>
       </c>
       <c r="QE3">
-        <v>-0.04973276452519375</v>
+        <v>2.313914141022535</v>
       </c>
       <c r="QF3">
-        <v>-0.01621625441002649</v>
+        <v>2.421880312435535</v>
       </c>
       <c r="QG3">
-        <v>-0.01942023860747823</v>
+        <v>2.409611710619246</v>
       </c>
       <c r="QH3">
-        <v>-0.05109481184923788</v>
+        <v>2.344452911098274</v>
       </c>
       <c r="QI3">
-        <v>-0.05317176843280479</v>
+        <v>2.396814649486214</v>
       </c>
       <c r="QJ3">
-        <v>-0.05148995112640925</v>
+        <v>2.355744150197059</v>
       </c>
       <c r="QK3">
-        <v>-0.04985674265555808</v>
+        <v>2.3172390828318</v>
       </c>
       <c r="QL3">
-        <v>-0.04973276452518797</v>
+        <v>2.313914141022535</v>
       </c>
       <c r="QM3">
-        <v>-0.01524408568866256</v>
+        <v>2.425597743334077</v>
       </c>
       <c r="QN3">
-        <v>-0.01621625441002649</v>
+        <v>2.421880312435535</v>
       </c>
       <c r="QO3">
-        <v>-0.05110604246556661</v>
+        <v>2.344635951382148</v>
       </c>
       <c r="QP3">
-        <v>-0.05319555484918998</v>
+        <v>2.397393882198739</v>
       </c>
       <c r="QQ3">
-        <v>-0.05148995112641044</v>
+        <v>2.355744150197049</v>
       </c>
       <c r="QR3">
-        <v>-0.04989187935483504</v>
+        <v>2.318180455927232</v>
       </c>
       <c r="QS3">
-        <v>-0.04973276452518362</v>
+        <v>2.313914141022532</v>
       </c>
       <c r="QT3">
-        <v>-0.01234532095906751</v>
+        <v>2.435665387361282</v>
       </c>
       <c r="QU3">
-        <v>-0.01524408568866256</v>
+        <v>2.425597743334078</v>
       </c>
       <c r="QV3">
-        <v>-0.01524841479650302</v>
+        <v>2.426348554227812</v>
       </c>
       <c r="QW3">
-        <v>-0.05112448158707455</v>
+        <v>2.344936443103057</v>
       </c>
       <c r="QX3">
-        <v>-0.05321699804388732</v>
+        <v>2.397916015094704</v>
       </c>
       <c r="QY3">
-        <v>-0.05148995112641666</v>
+        <v>2.355744150197041</v>
       </c>
       <c r="QZ3">
-        <v>-0.04973276452518106</v>
+        <v>2.31391414102253</v>
       </c>
       <c r="RA3">
-        <v>-0.009124295382928953</v>
+        <v>2.446832150571506</v>
       </c>
       <c r="RB3">
-        <v>-0.0123453209590675</v>
+        <v>2.435665387361281</v>
       </c>
       <c r="RC3">
-        <v>-0.0123453209590675</v>
+        <v>2.435665387361281</v>
       </c>
       <c r="RD3">
-        <v>-0.01524904701383678</v>
+        <v>2.42645817991625</v>
       </c>
       <c r="RE3">
-        <v>-0.05113732487753276</v>
+        <v>2.345145716982413</v>
       </c>
       <c r="RF3">
-        <v>-0.05323740676981409</v>
+        <v>2.39841292469981</v>
       </c>
       <c r="RG3">
-        <v>-0.05148995112642388</v>
+        <v>2.355744150197029</v>
       </c>
       <c r="RH3">
-        <v>-0.04973276452516374</v>
+        <v>2.313914141022521</v>
       </c>
       <c r="RI3">
-        <v>-0.007943858337192565</v>
+        <v>2.450919239036927</v>
       </c>
       <c r="RJ3">
-        <v>-0.009124295382928953</v>
+        <v>2.446832150571506</v>
       </c>
       <c r="RK3">
-        <v>-0.0152493917459297</v>
+        <v>2.42651795368956</v>
       </c>
       <c r="RL3">
-        <v>-0.05114634890126618</v>
+        <v>2.345292745476284</v>
       </c>
       <c r="RM3">
-        <v>-0.05326039854578814</v>
+        <v>2.39897268595775</v>
       </c>
       <c r="RN3">
-        <v>-0.05148995112643135</v>
+        <v>2.35574415019702</v>
       </c>
       <c r="RO3">
-        <v>-0.04973276452516349</v>
+        <v>2.31391414102252</v>
       </c>
       <c r="RP3">
-        <v>-0.005445966214563752</v>
+        <v>2.457897485722949</v>
       </c>
       <c r="RQ3">
-        <v>-0.007943858337192567</v>
+        <v>2.450919239036927</v>
       </c>
       <c r="RR3">
-        <v>-0.007767741609558521</v>
+        <v>2.455375412343519</v>
       </c>
       <c r="RS3">
-        <v>-0.0152496252750877</v>
+        <v>2.426558444831384</v>
       </c>
       <c r="RT3">
-        <v>-0.05115066064683911</v>
+        <v>2.345362993089576</v>
       </c>
       <c r="RU3">
-        <v>-0.0532846853839777</v>
+        <v>2.39956393075447</v>
       </c>
       <c r="RV3">
-        <v>-0.05148995112644972</v>
+        <v>2.355744150197006</v>
       </c>
       <c r="RW3">
-        <v>-0.04973276452516323</v>
+        <v>2.313914141022519</v>
       </c>
       <c r="RX3">
-        <v>-0.001865560671955993</v>
+        <v>2.467886507878036</v>
       </c>
       <c r="RY3">
-        <v>-0.005445966214563752</v>
+        <v>2.457897485722948</v>
       </c>
       <c r="RZ3">
-        <v>-0.00776886674521006</v>
+        <v>2.455490212327422</v>
       </c>
       <c r="SA3">
-        <v>-0.007690017389123462</v>
+        <v>2.456330503315928</v>
       </c>
       <c r="SB3">
-        <v>-0.01524997999120116</v>
+        <v>2.426619946883501</v>
       </c>
       <c r="SC3">
-        <v>-0.05115339202383925</v>
+        <v>2.345407491862651</v>
       </c>
       <c r="SD3">
-        <v>-0.05333778835101358</v>
+        <v>2.400856517044968</v>
       </c>
       <c r="SE3">
-        <v>-0.05148995112648164</v>
+        <v>2.355744150196993</v>
       </c>
       <c r="SF3">
-        <v>-0.04973276452516386</v>
+        <v>2.313914141022519</v>
       </c>
       <c r="SG3">
-        <v>0.0003196355177200473</v>
+        <v>2.473975277072598</v>
       </c>
       <c r="SH3">
-        <v>-0.001865560671955993</v>
+        <v>2.467886507878036</v>
       </c>
       <c r="SI3">
-        <v>-0.007769342314098883</v>
+        <v>2.455538733796494</v>
       </c>
       <c r="SJ3">
-        <v>-0.007640282136206792</v>
+        <v>2.456941454557183</v>
       </c>
       <c r="SK3">
-        <v>-0.01525051830864877</v>
+        <v>2.426713279110751</v>
       </c>
       <c r="SL3">
-        <v>-0.05115523877311498</v>
+        <v>2.345437578003744</v>
       </c>
       <c r="SM3">
-        <v>-0.05454234275029919</v>
+        <v>2.430115861543667</v>
       </c>
       <c r="SN3">
-        <v>-0.05148995112650068</v>
+        <v>2.355744150196986</v>
       </c>
       <c r="SO3">
-        <v>-0.04973276452516386</v>
+        <v>2.313914141022519</v>
       </c>
       <c r="SP3">
-        <v>0.0006959634840653536</v>
+        <v>2.475023275364468</v>
       </c>
       <c r="SQ3">
-        <v>0.0003196355177200473</v>
+        <v>2.473975277072598</v>
       </c>
       <c r="SR3">
-        <v>-0.007769621749250699</v>
+        <v>2.455567243571603</v>
       </c>
       <c r="SS3">
-        <v>-0.01525090022763278</v>
+        <v>2.42677949289799</v>
       </c>
       <c r="ST3">
-        <v>-0.05115781476753049</v>
+        <v>2.34547954384133</v>
       </c>
       <c r="SU3">
-        <v>-0.05475695161944037</v>
+        <v>2.431303180511465</v>
       </c>
       <c r="SV3">
-        <v>-0.05468362972808569</v>
+        <v>2.434368865504808</v>
       </c>
       <c r="SW3">
-        <v>-0.05148995112652284</v>
+        <v>2.355744150196982</v>
       </c>
       <c r="SX3">
-        <v>0.0006457924230132527</v>
+        <v>2.47634024517266</v>
       </c>
       <c r="SY3">
-        <v>0.0006959634840653421</v>
+        <v>2.475023275364469</v>
       </c>
       <c r="SZ3">
-        <v>0.007454704361212264</v>
+        <v>2.482338475595613</v>
       </c>
       <c r="TA3">
-        <v>-0.007769878913816547</v>
+        <v>2.455593480825081</v>
       </c>
       <c r="TB3">
-        <v>-0.01525116115947274</v>
+        <v>2.426824729824239</v>
       </c>
       <c r="TC3">
-        <v>-0.05115978078876732</v>
+        <v>2.345511571958385</v>
       </c>
       <c r="TD3">
-        <v>-0.05494622566934304</v>
+        <v>2.432349704779783</v>
       </c>
       <c r="TE3">
-        <v>-0.0547598520413481</v>
+        <v>2.43666228569431</v>
       </c>
       <c r="TF3">
-        <v>-0.05148995112654236</v>
+        <v>2.35574415019698</v>
       </c>
       <c r="TG3">
-        <v>0.0006088601868982837</v>
+        <v>2.47730945054669</v>
       </c>
       <c r="TH3">
-        <v>0.0006457924230132527</v>
+        <v>2.476340245172659</v>
       </c>
       <c r="TI3">
-        <v>0.01144891751119065</v>
+        <v>2.486658407054114</v>
       </c>
       <c r="TJ3">
-        <v>-0.007770108025931469</v>
+        <v>2.455616855754394</v>
       </c>
       <c r="TK3">
-        <v>-0.01525136734697829</v>
+        <v>2.426860475230903</v>
       </c>
       <c r="TL3">
-        <v>-0.05117381080207641</v>
+        <v>2.34574011810348</v>
       </c>
       <c r="TM3">
-        <v>-0.05477123551768939</v>
+        <v>2.437004737165975</v>
       </c>
       <c r="TN3">
-        <v>-0.05148995112655807</v>
+        <v>2.355744150196973</v>
       </c>
       <c r="TO3">
-        <v>0.0005585764138128385</v>
+        <v>2.478628696031012</v>
       </c>
       <c r="TP3">
-        <v>0.0006088601868982838</v>
+        <v>2.47730945054669</v>
       </c>
       <c r="TQ3">
-        <v>0.0146138932613854</v>
+        <v>2.490079827791386</v>
       </c>
       <c r="TR3">
-        <v>-0.007770345703827278</v>
+        <v>2.455641104331126</v>
       </c>
       <c r="TS3">
-        <v>-0.01525202843984775</v>
+        <v>2.42697508068838</v>
       </c>
       <c r="TT3">
-        <v>-0.05118410774908114</v>
+        <v>2.346139870653338</v>
       </c>
       <c r="TU3">
-        <v>-0.05128756072119889</v>
+        <v>2.346918680663049</v>
       </c>
       <c r="TV3">
-        <v>-0.0547799249635887</v>
+        <v>2.437266132892425</v>
       </c>
       <c r="TW3">
-        <v>-0.05148995112656882</v>
+        <v>2.355744150196974</v>
       </c>
       <c r="TX3">
-        <v>0.0005229924354276647</v>
+        <v>2.479562039640887</v>
       </c>
       <c r="TY3">
-        <v>0.0005585764138128386</v>
+        <v>2.478628696031012</v>
       </c>
       <c r="TZ3">
-        <v>0.01592173052808798</v>
+        <v>2.491493207739195</v>
       </c>
       <c r="UA3">
-        <v>-0.007771063215677003</v>
+        <v>2.455714305283507</v>
       </c>
       <c r="UB3">
-        <v>-0.01525737574702347</v>
+        <v>2.427901854102818</v>
       </c>
       <c r="UC3">
-        <v>-0.05119547798699146</v>
+        <v>2.346581204148667</v>
       </c>
       <c r="UD3">
-        <v>-0.05478805185633621</v>
+        <v>2.437510597546754</v>
       </c>
       <c r="UE3">
-        <v>-0.05148995112657753</v>
+        <v>2.355744150196974</v>
       </c>
       <c r="UF3">
-        <v>0.0004234787388912906</v>
+        <v>2.482171170034611</v>
       </c>
       <c r="UG3">
-        <v>0.0005229924354276647</v>
+        <v>2.479562039640887</v>
       </c>
       <c r="UH3">
-        <v>0.01598931433744395</v>
+        <v>2.491609790159067</v>
       </c>
       <c r="UI3">
-        <v>0.02044608279115964</v>
+        <v>2.495808591132498</v>
       </c>
       <c r="UJ3">
-        <v>-0.007771786296211531</v>
+        <v>2.455788071844125</v>
       </c>
       <c r="UK3">
-        <v>-0.01525764203997038</v>
+        <v>2.427947996544023</v>
       </c>
       <c r="UL3">
-        <v>-0.05122629805014298</v>
+        <v>2.347777020670177</v>
       </c>
       <c r="UM3">
-        <v>-0.05479671819143229</v>
+        <v>2.43777128023706</v>
       </c>
       <c r="UN3">
-        <v>-0.05148995112657951</v>
+        <v>2.355744150196975</v>
       </c>
       <c r="UO3">
-        <v>0.0003514196771816681</v>
+        <v>2.484059511008244</v>
       </c>
       <c r="UP3">
-        <v>0.0004234787388912906</v>
+        <v>2.482171170034611</v>
       </c>
       <c r="UQ3">
-        <v>0.01601418320056098</v>
+        <v>2.49165268820885</v>
       </c>
       <c r="UR3">
-        <v>0.02386887881382029</v>
+        <v>2.499072320577997</v>
       </c>
       <c r="US3">
-        <v>-0.007778542532088788</v>
+        <v>2.456477201419783</v>
       </c>
       <c r="UT3">
-        <v>-0.01525785215455568</v>
+        <v>2.427984403873661</v>
       </c>
       <c r="UU3">
-        <v>-0.05480438685571719</v>
+        <v>2.438001945404043</v>
       </c>
       <c r="UV3">
-        <v>-0.05148995112657952</v>
+        <v>2.355744150196975</v>
       </c>
       <c r="UW3">
-        <v>0.0003434436753308058</v>
+        <v>2.484264222207062</v>
       </c>
       <c r="UX3">
-        <v>0.0003514196771816682</v>
+        <v>2.484059511008244</v>
       </c>
       <c r="UY3">
-        <v>0.0002915159794967703</v>
+        <v>2.485669320051911</v>
       </c>
       <c r="UZ3">
-        <v>0.01605122729030384</v>
+        <v>2.491716587297465</v>
       </c>
       <c r="VA3">
-        <v>-0.0152580896949628</v>
+        <v>2.428025562639827</v>
       </c>
       <c r="VB3">
-        <v>-0.05481223055249812</v>
+        <v>2.438237867918232</v>
       </c>
       <c r="VC3">
-        <v>0.0003415551024692052</v>
+        <v>2.484312692722734</v>
       </c>
       <c r="VD3">
-        <v>0.0003434436753308057</v>
+        <v>2.484264222207062</v>
       </c>
       <c r="VE3">
-        <v>0.0002839429831725891</v>
+        <v>2.485872744162906</v>
       </c>
       <c r="VF3">
-        <v>0.01607351760374299</v>
+        <v>2.491755036406097</v>
       </c>
       <c r="VG3">
-        <v>-0.0152583011135897</v>
+        <v>2.428062194612032</v>
       </c>
       <c r="VH3">
-        <v>-0.05485271434831941</v>
+        <v>2.43945541885634</v>
       </c>
       <c r="VI3">
-        <v>0.0002903563219251902</v>
+        <v>2.485626514485253</v>
       </c>
       <c r="VJ3">
-        <v>0.0003415551024692053</v>
+        <v>2.484312692722734</v>
       </c>
       <c r="VK3">
-        <v>0.0003415551024990647</v>
+        <v>2.484312692722791</v>
       </c>
       <c r="VL3">
-        <v>0.0002783545972128116</v>
+        <v>2.486022845579713</v>
       </c>
       <c r="VM3">
-        <v>0.01610041383691064</v>
+        <v>2.491801429879624</v>
       </c>
       <c r="VN3">
-        <v>-0.01525854445659206</v>
+        <v>2.428104357273248</v>
       </c>
       <c r="VO3">
-        <v>-0.05489264831844796</v>
+        <v>2.440413192427834</v>
       </c>
       <c r="VP3">
-        <v>-0.05493415946023731</v>
+        <v>2.441942435811014</v>
       </c>
       <c r="VQ3">
-        <v>0.0002544751322749086</v>
+        <v>2.486547035438684</v>
       </c>
       <c r="VR3">
-        <v>0.0002903563219251901</v>
+        <v>2.485626514485253</v>
       </c>
       <c r="VS3">
-        <v>0.0003415551025068406</v>
+        <v>2.484312692722811</v>
       </c>
       <c r="VT3">
-        <v>0.0002729170409937418</v>
+        <v>2.486168885559767</v>
       </c>
       <c r="VU3">
-        <v>0.01612402990545196</v>
+        <v>2.49184216492755</v>
       </c>
       <c r="VV3">
-        <v>-0.01525879396616034</v>
+        <v>2.428147587527921</v>
       </c>
       <c r="VW3">
-        <v>-0.05489494962067389</v>
+        <v>2.440468373424676</v>
       </c>
       <c r="VX3">
-        <v>-0.05532338308355334</v>
+        <v>2.453816276983547</v>
       </c>
       <c r="VY3">
-        <v>0.0002196511034444857</v>
+        <v>2.487426696000815</v>
       </c>
       <c r="VZ3">
-        <v>0.0002500770064977132</v>
+        <v>2.486661463397584</v>
       </c>
       <c r="WA3">
-        <v>0.0003415551025082812</v>
+        <v>2.484312692722826</v>
       </c>
       <c r="WB3">
-        <v>0.0002218379075385053</v>
+        <v>2.487540259084436</v>
       </c>
       <c r="WC3">
-        <v>0.01627856636231469</v>
+        <v>2.49210871245657</v>
       </c>
       <c r="WD3">
-        <v>-0.01525909387592751</v>
+        <v>2.428199549024805</v>
       </c>
       <c r="WE3">
-        <v>-0.05489610542087114</v>
+        <v>2.440496086843049</v>
       </c>
       <c r="WF3">
-        <v>-0.05532274385716228</v>
+        <v>2.455755730335047</v>
       </c>
       <c r="WG3">
-        <v>-0.05578115555915446</v>
+        <v>2.466941417322543</v>
       </c>
       <c r="WH3">
-        <v>0.0001885953404005358</v>
+        <v>2.488211021486595</v>
       </c>
       <c r="WI3">
-        <v>0.0002196511034444857</v>
+        <v>2.487426696000815</v>
       </c>
       <c r="WJ3">
-        <v>0.0002196511034444857</v>
+        <v>2.487426696000814</v>
       </c>
       <c r="WK3">
-        <v>0.0001565857980408703</v>
+        <v>2.489099022153225</v>
       </c>
       <c r="WL3">
-        <v>0.0002500770064977132</v>
+        <v>2.486661463397584</v>
       </c>
       <c r="WM3">
-        <v>0.00034155510250822</v>
+        <v>2.484312692722842</v>
       </c>
       <c r="WN3">
-        <v>0.0001980648105370232</v>
+        <v>2.488178216546955</v>
       </c>
       <c r="WO3">
-        <v>0.0174180521155584</v>
+        <v>2.494073563896235</v>
       </c>
       <c r="WP3">
-        <v>-0.01525928189813273</v>
+        <v>2.428232124571293</v>
       </c>
       <c r="WQ3">
-        <v>-0.05489707462249158</v>
+        <v>2.440519325777391</v>
       </c>
       <c r="WR3">
-        <v>-0.05532240653553759</v>
+        <v>2.456778494699096</v>
       </c>
       <c r="WS3">
-        <v>-0.05621966879750166</v>
+        <v>2.479492479178449</v>
       </c>
       <c r="WT3">
-        <v>0.0001615366931829534</v>
+        <v>2.488935941804256</v>
       </c>
       <c r="WU3">
-        <v>0.0001885953404005268</v>
+        <v>2.488211021486595</v>
       </c>
       <c r="WV3">
-        <v>0.0001885953404005448</v>
+        <v>2.488211021486595</v>
       </c>
       <c r="WW3">
-        <v>0.0001345802119953814</v>
+        <v>2.489672356128501</v>
       </c>
       <c r="WX3">
-        <v>0.000341555102510977</v>
+        <v>2.484312692722849</v>
       </c>
       <c r="WY3">
-        <v>0.0001869070412876994</v>
+        <v>2.488477571942654</v>
       </c>
       <c r="WZ3">
-        <v>-0.01526008995558103</v>
+        <v>2.428372117952549</v>
       </c>
       <c r="XA3">
-        <v>-0.05489786497282356</v>
+        <v>2.440538276133075</v>
       </c>
       <c r="XB3">
-        <v>-0.05623304898217994</v>
+        <v>2.47984202019893</v>
       </c>
       <c r="XC3">
-        <v>-0.05633451622364413</v>
+        <v>2.482798203924942</v>
       </c>
       <c r="XD3">
-        <v>0.0001246759213734412</v>
+        <v>2.489923015338926</v>
       </c>
       <c r="XE3">
-        <v>0.0003415551025090214</v>
+        <v>2.484312692722858</v>
       </c>
       <c r="XF3">
-        <v>0.0001794646049716518</v>
+        <v>2.488677223911808</v>
       </c>
       <c r="XG3">
-        <v>-0.01526349665187128</v>
+        <v>2.428962217762455</v>
       </c>
       <c r="XH3">
-        <v>-0.05489910559252642</v>
+        <v>2.440568022325065</v>
       </c>
       <c r="XI3">
-        <v>-0.05623632985331904</v>
+        <v>2.479927720131172</v>
       </c>
       <c r="XJ3">
-        <v>-0.05636093958945626</v>
+        <v>2.483558554084259</v>
       </c>
       <c r="XK3">
-        <v>0.0001138640987664928</v>
+        <v>2.490212439987955</v>
       </c>
       <c r="XL3">
-        <v>0.0003415551025096811</v>
+        <v>2.484312692722867</v>
       </c>
       <c r="XM3">
-        <v>0.0001680864562865018</v>
+        <v>2.488982419483789</v>
       </c>
       <c r="XN3">
-        <v>-0.05490206392484416</v>
+        <v>2.440638952213237</v>
       </c>
       <c r="XO3">
-        <v>-0.05623858273961902</v>
+        <v>2.479986565965</v>
       </c>
       <c r="XP3">
-        <v>-0.05637405219515781</v>
+        <v>2.483935848997309</v>
       </c>
       <c r="XQ3">
-        <v>7.807850664525791E-05</v>
+        <v>2.491170074343814</v>
       </c>
       <c r="XR3">
-        <v>0.0003415551025120622</v>
+        <v>2.484312692722876</v>
       </c>
       <c r="XS3">
-        <v>0.0001458648943172778</v>
+        <v>2.489578340433643</v>
       </c>
       <c r="XT3">
-        <v>-0.05490411061414389</v>
+        <v>2.44068802286852</v>
       </c>
       <c r="XU3">
-        <v>-0.05624170573159325</v>
+        <v>2.480068136419374</v>
       </c>
       <c r="XV3">
-        <v>-0.0563884619741498</v>
+        <v>2.48435044576193</v>
       </c>
       <c r="XW3">
-        <v>0.0003415551025151163</v>
+        <v>2.484312692722882</v>
       </c>
       <c r="XX3">
-        <v>0.0001397222442584004</v>
+        <v>2.489743039720561</v>
       </c>
       <c r="XY3">
-        <v>-0.05490671297001606</v>
+        <v>2.440750414325292</v>
       </c>
       <c r="XZ3">
-        <v>-0.05624911129642707</v>
+        <v>2.480261552213038</v>
       </c>
       <c r="YA3">
-        <v>-0.05640508877888303</v>
+        <v>2.484828801562476</v>
       </c>
       <c r="YB3">
-        <v>0.000341555102520662</v>
+        <v>2.484312692722887</v>
       </c>
       <c r="YC3">
-        <v>0.000137938931183926</v>
+        <v>2.489790852248749</v>
       </c>
       <c r="YD3">
-        <v>-0.05490829388059694</v>
+        <v>2.440788315738241</v>
       </c>
       <c r="YE3">
-        <v>-0.05625474076251566</v>
+        <v>2.480408568671649</v>
       </c>
       <c r="YF3">
-        <v>-0.05642189741768019</v>
+        <v>2.485312357162562</v>
       </c>
       <c r="YG3">
-        <v>0.0003415551025233687</v>
+        <v>2.48431269272289</v>
       </c>
       <c r="YH3">
-        <v>0.0001371706399497714</v>
+        <v>2.48981190987076</v>
       </c>
       <c r="YI3">
-        <v>0.0001338028923098482</v>
+        <v>2.489899300437385</v>
       </c>
       <c r="YJ3">
-        <v>-0.05490972110668286</v>
+        <v>2.440822532068555</v>
       </c>
       <c r="YK3">
-        <v>-0.05625869257084729</v>
+        <v>2.480511766105872</v>
       </c>
       <c r="YL3">
-        <v>-0.05644053204908439</v>
+        <v>2.485848406298864</v>
       </c>
       <c r="YM3">
-        <v>0.0003415551025218697</v>
+        <v>2.484312692722897</v>
       </c>
       <c r="YN3">
-        <v>0.0001364515844100631</v>
+        <v>2.489831617831999</v>
       </c>
       <c r="YO3">
-        <v>0.0001283451053713487</v>
+        <v>2.490042396738418</v>
       </c>
       <c r="YP3">
-        <v>-0.0549121281760858</v>
+        <v>2.440880237910868</v>
       </c>
       <c r="YQ3">
-        <v>-0.05626283244343971</v>
+        <v>2.480619869238686</v>
       </c>
       <c r="YR3">
-        <v>-0.05646763086355414</v>
+        <v>2.486627868887363</v>
       </c>
       <c r="YS3">
-        <v>0.0003415551025209818</v>
+        <v>2.4843126927229</v>
       </c>
       <c r="YT3">
-        <v>0.0001357108641688449</v>
+        <v>2.489851919389987</v>
       </c>
       <c r="YU3">
-        <v>0.0001056707879538932</v>
+        <v>2.490636785003833</v>
       </c>
       <c r="YV3">
-        <v>-0.05491449465354425</v>
+        <v>2.44093696908066</v>
       </c>
       <c r="YW3">
-        <v>-0.05626623132564477</v>
+        <v>2.480708618997255</v>
       </c>
       <c r="YX3">
-        <v>-0.0563572422885522</v>
+        <v>2.487022192737924</v>
       </c>
       <c r="YY3">
-        <v>-0.05657298841543939</v>
+        <v>2.48831737306328</v>
       </c>
       <c r="YZ3">
-        <v>0.0003415551025206768</v>
+        <v>2.484312692722901</v>
       </c>
       <c r="ZA3">
-        <v>0.0001303552828668908</v>
+        <v>2.489998698625358</v>
       </c>
       <c r="ZB3">
-        <v>9.604147824025313E-05</v>
+        <v>2.490889158704256</v>
       </c>
       <c r="ZC3">
-        <v>-0.05491561434258994</v>
+        <v>2.440963810666741</v>
       </c>
       <c r="ZD3">
-        <v>-0.05627185895060831</v>
+        <v>2.480855556272756</v>
       </c>
       <c r="ZE3">
-        <v>-0.05629095360927228</v>
+        <v>2.487258958774453</v>
       </c>
       <c r="ZF3">
-        <v>-0.05724017527236464</v>
+        <v>2.499007132590109</v>
       </c>
       <c r="ZG3">
-        <v>0.0003415551025206768</v>
+        <v>2.484312692722901</v>
       </c>
       <c r="ZH3">
-        <v>9.135494425724277E-05</v>
+        <v>2.491067265259233</v>
       </c>
       <c r="ZI3">
-        <v>-0.05491684416978789</v>
+        <v>2.440993292129535</v>
       </c>
       <c r="ZJ3">
-        <v>-0.05629004586618507</v>
+        <v>2.481330346708119</v>
       </c>
       <c r="ZK3">
-        <v>-0.05622946103237433</v>
+        <v>2.487478576494937</v>
       </c>
       <c r="ZL3">
-        <v>-0.05771778730219513</v>
+        <v>2.506649764187362</v>
       </c>
       <c r="ZM3">
-        <v>-0.05491802454125971</v>
+        <v>2.441021587649498</v>
       </c>
       <c r="ZN3">
-        <v>-0.05633254243889649</v>
+        <v>2.482439352846513</v>
       </c>
       <c r="ZO3">
-        <v>-0.05616946048290788</v>
+        <v>2.487692848929403</v>
       </c>
       <c r="ZP3">
-        <v>-0.05778295104105398</v>
+        <v>2.509940795160652</v>
       </c>
       <c r="ZQ3">
-        <v>-0.05901433898694054</v>
+        <v>2.524956284011556</v>
       </c>
       <c r="ZR3">
-        <v>-0.05491944806031219</v>
+        <v>2.441055711326285</v>
       </c>
       <c r="ZS3">
-        <v>-0.05612445590895382</v>
+        <v>2.487853557368549</v>
       </c>
       <c r="ZT3">
-        <v>-0.05778904863301974</v>
+        <v>2.510095771273059</v>
       </c>
       <c r="ZU3">
-        <v>-0.0577829392920409</v>
+        <v>2.510366557416292</v>
       </c>
       <c r="ZV3">
-        <v>-0.05909206421803221</v>
+        <v>2.526853087497287</v>
       </c>
       <c r="ZW3">
-        <v>-0.0592692669964523</v>
+        <v>2.528397754108174</v>
       </c>
       <c r="ZX3">
-        <v>-0.05492171875546915</v>
+        <v>2.44111014181495</v>
       </c>
       <c r="ZY3">
-        <v>-0.05605296293350766</v>
+        <v>2.48810883524284</v>
       </c>
       <c r="ZZ3">
-        <v>-0.05779095661101606</v>
+        <v>2.510144262014411</v>
       </c>
       <c r="AAA3">
-        <v>-0.05778291535745378</v>
+        <v>2.511233646385234</v>
       </c>
       <c r="AAB3">
-        <v>-0.05913709377218606</v>
+        <v>2.527951206079055</v>
       </c>
       <c r="AAC3">
-        <v>-0.0595267838072463</v>
+        <v>2.532300130028642</v>
       </c>
       <c r="AAD3">
-        <v>-0.05492793340799526</v>
+        <v>2.441259105108895</v>
       </c>
       <c r="AAE3">
-        <v>-0.05593242231703313</v>
+        <v>2.488539193453191</v>
       </c>
       <c r="AAF3">
-        <v>-0.05779218338649879</v>
+        <v>2.510175439590712</v>
       </c>
       <c r="AAG3">
-        <v>-0.0602061599869441</v>
+        <v>2.54257834283994</v>
       </c>
       <c r="AAH3">
-        <v>-0.05952678380724448</v>
+        <v>2.532300130028652</v>
       </c>
       <c r="AAI3">
-        <v>-0.05493620399775791</v>
+        <v>2.441457332230491</v>
       </c>
       <c r="AAJ3">
-        <v>-0.05502919103550512</v>
+        <v>2.491761839132265</v>
       </c>
       <c r="AAK3">
-        <v>-0.05779292334334921</v>
+        <v>2.51019424481477</v>
       </c>
       <c r="AAL3">
-        <v>-0.06088534433697071</v>
+        <v>2.552041162412008</v>
       </c>
       <c r="AAM3">
-        <v>-0.06021331693199399</v>
+        <v>2.544297254818366</v>
       </c>
       <c r="AAN3">
-        <v>-0.05952678380724401</v>
+        <v>2.532300130028661</v>
       </c>
       <c r="AAO3">
-        <v>-0.0549369917462006</v>
+        <v>2.441476211785279</v>
       </c>
       <c r="AAP3">
-        <v>-0.0542881700763444</v>
+        <v>2.49440296762746</v>
       </c>
       <c r="AAQ3">
-        <v>-0.05779367122704453</v>
+        <v>2.510213251320942</v>
       </c>
       <c r="AAR3">
-        <v>-0.06158646234475511</v>
+        <v>2.561787663226599</v>
       </c>
       <c r="AAS3">
-        <v>-0.0602140831273831</v>
+        <v>2.544481193609229</v>
       </c>
       <c r="AAT3">
-        <v>-0.05952678380724723</v>
+        <v>2.532300130028668</v>
       </c>
       <c r="AAU3">
-        <v>-0.05493761474267419</v>
+        <v>2.441491142695873</v>
       </c>
       <c r="AAV3">
-        <v>-0.05405338209728052</v>
+        <v>2.49523927366761</v>
       </c>
       <c r="AAW3">
-        <v>-0.05779433924475545</v>
+        <v>2.510230227990646</v>
       </c>
       <c r="AAX3">
-        <v>-0.06183753363406166</v>
+        <v>2.564741881069418</v>
       </c>
       <c r="AAY3">
-        <v>-0.06173313353988347</v>
+        <v>2.565615563455596</v>
       </c>
       <c r="AAZ3">
-        <v>-0.06021437567280792</v>
+        <v>2.544551420175136</v>
       </c>
       <c r="ABA3">
-        <v>-0.0595267838072512</v>
+        <v>2.532300130028676</v>
       </c>
       <c r="ABB3">
-        <v>-0.05493821982174127</v>
+        <v>2.441505644091406</v>
       </c>
       <c r="ABC3">
-        <v>-0.0538396348006905</v>
+        <v>2.496000416376892</v>
       </c>
       <c r="ABD3">
-        <v>-0.05779509186887585</v>
+        <v>2.510249354641882</v>
       </c>
       <c r="ABE3">
-        <v>-0.06217872734985958</v>
+        <v>2.56875320628509</v>
       </c>
       <c r="ABF3">
-        <v>-0.06175280917457587</v>
+        <v>2.566128541106684</v>
       </c>
       <c r="ABG3">
-        <v>-0.06021468512881836</v>
+        <v>2.5446257036901</v>
       </c>
       <c r="ABH3">
-        <v>-0.05952678380725508</v>
+        <v>2.532300130028679</v>
       </c>
       <c r="ABI3">
-        <v>-0.05493886792683016</v>
+        <v>2.441521176542806</v>
       </c>
       <c r="ABJ3">
-        <v>-0.05372321544422267</v>
+        <v>2.49641489243799</v>
       </c>
       <c r="ABK3">
-        <v>-0.05779569487309776</v>
+        <v>2.510264678834892</v>
       </c>
       <c r="ABL3">
-        <v>-0.0625782358586067</v>
+        <v>2.573445277446069</v>
       </c>
       <c r="ABM3">
-        <v>-0.06176314636751869</v>
+        <v>2.566397999596356</v>
       </c>
       <c r="ABN3">
-        <v>-0.06021494195112045</v>
+        <v>2.544687350772315</v>
       </c>
       <c r="ABO3">
-        <v>-0.05952678380726106</v>
+        <v>2.532300130028679</v>
       </c>
       <c r="ABP3">
-        <v>-0.05493946714910235</v>
+        <v>2.441535537369254</v>
       </c>
       <c r="ABQ3">
-        <v>-0.05363023576299687</v>
+        <v>2.496745874511993</v>
       </c>
       <c r="ABR3">
-        <v>-0.05779641817731789</v>
+        <v>2.510283060074222</v>
       </c>
       <c r="ABS3">
-        <v>-0.06289905592218577</v>
+        <v>2.577209404822624</v>
       </c>
       <c r="ABT3">
-        <v>-0.06182188822421992</v>
+        <v>2.56716184932028</v>
       </c>
       <c r="ABU3">
-        <v>-0.06176314393504272</v>
+        <v>2.566422972447179</v>
       </c>
       <c r="ABV3">
-        <v>-0.06021524609264572</v>
+        <v>2.544760353974462</v>
       </c>
       <c r="ABW3">
-        <v>-0.05952678380726956</v>
+        <v>2.532300130028678</v>
       </c>
       <c r="ABX3">
-        <v>-0.05494003185290901</v>
+        <v>2.441549070844204</v>
       </c>
       <c r="ABY3">
-        <v>-0.05355095012467364</v>
+        <v>2.497028078644452</v>
       </c>
       <c r="ABZ3">
-        <v>-0.05779719762439819</v>
+        <v>2.510302867885769</v>
       </c>
       <c r="ACA3">
-        <v>-0.06297063215145304</v>
+        <v>2.578123482424507</v>
       </c>
       <c r="ACB3">
-        <v>-0.06311318833193326</v>
+        <v>2.579384782957989</v>
       </c>
       <c r="ACC3">
-        <v>-0.06186963923798974</v>
+        <v>2.567782568526117</v>
       </c>
       <c r="ACD3">
-        <v>-0.06176314217601322</v>
+        <v>2.566441031230471</v>
       </c>
       <c r="ACE3">
-        <v>-0.06021554270537533</v>
+        <v>2.544831547649727</v>
       </c>
       <c r="ACF3">
-        <v>-0.05952678380727482</v>
+        <v>2.532300130028678</v>
       </c>
       <c r="ACG3">
-        <v>-0.0549408172481004</v>
+        <v>2.4415678931795</v>
       </c>
       <c r="ACH3">
-        <v>-0.0534579073969441</v>
+        <v>2.497359212574417</v>
       </c>
       <c r="ACI3">
-        <v>-0.05779861968566261</v>
+        <v>2.51033900574395</v>
       </c>
       <c r="ACJ3">
-        <v>-0.0630693174762787</v>
+        <v>2.579383438112608</v>
       </c>
       <c r="ACK3">
-        <v>-0.06329219099295778</v>
+        <v>2.581201460205181</v>
       </c>
       <c r="ACL3">
-        <v>-0.06176314069155001</v>
+        <v>2.566456271117747</v>
       </c>
       <c r="ACM3">
-        <v>-0.06021595048567971</v>
+        <v>2.544929420175133</v>
       </c>
       <c r="ACN3">
-        <v>-0.05952678380728096</v>
+        <v>2.53230013002868</v>
       </c>
       <c r="ACO3">
-        <v>-0.0549417797181439</v>
+        <v>2.44159095896061</v>
       </c>
       <c r="ACP3">
-        <v>-0.05337289010230397</v>
+        <v>2.497661750174363</v>
       </c>
       <c r="ACQ3">
-        <v>-0.05780925895293497</v>
+        <v>2.510609354436918</v>
       </c>
       <c r="ACR3">
-        <v>-0.06331209881248666</v>
+        <v>2.582481530160958</v>
       </c>
       <c r="ACS3">
-        <v>-0.06332048303155001</v>
+        <v>2.581947082829874</v>
       </c>
       <c r="ACT3">
-        <v>-0.06329588100088632</v>
+        <v>2.581222281366035</v>
       </c>
       <c r="ACU3">
-        <v>-0.06176313818412177</v>
+        <v>2.56648201280978</v>
       </c>
       <c r="ACV3">
-        <v>-0.06021651145598711</v>
+        <v>2.545064052993157</v>
       </c>
       <c r="ACW3">
-        <v>-0.05952678380728334</v>
+        <v>2.53230013002868</v>
       </c>
       <c r="ACX3">
-        <v>-0.05494634158233442</v>
+        <v>2.441700281481502</v>
       </c>
       <c r="ACY3">
-        <v>-0.05324099505702781</v>
+        <v>2.498131039481938</v>
       </c>
       <c r="ACZ3">
-        <v>-0.05784186324949572</v>
+        <v>2.511437628945663</v>
       </c>
       <c r="ADA3">
-        <v>-0.06350888950442664</v>
+        <v>2.584991079245752</v>
       </c>
       <c r="ADB3">
-        <v>-0.06334820655014529</v>
+        <v>2.582677467182182</v>
       </c>
       <c r="ADC3">
-        <v>-0.06329940912764515</v>
+        <v>2.581242188881956</v>
       </c>
       <c r="ADD3">
-        <v>-0.06176313467276637</v>
+        <v>2.566518060494491</v>
       </c>
       <c r="ADE3">
-        <v>-0.06021710512454551</v>
+        <v>2.545206524204326</v>
       </c>
       <c r="ADF3">
-        <v>-0.05952678380728622</v>
+        <v>2.532300130028676</v>
       </c>
       <c r="ADG3">
-        <v>-0.05498534721518326</v>
+        <v>2.442634797817627</v>
       </c>
       <c r="ADH3">
-        <v>-0.05297470894047789</v>
+        <v>2.499078259265683</v>
       </c>
       <c r="ADI3">
-        <v>-0.06366266404565191</v>
+        <v>2.586951034073788</v>
       </c>
       <c r="ADJ3">
-        <v>-0.06330321263897122</v>
+        <v>2.581263650021696</v>
       </c>
       <c r="ADK3">
-        <v>-0.06176313206725769</v>
+        <v>2.566544808337105</v>
       </c>
       <c r="ADL3">
-        <v>-0.06021749948409794</v>
+        <v>2.54530115913748</v>
       </c>
       <c r="ADM3">
-        <v>-0.05952678380728649</v>
+        <v>2.532300130028673</v>
       </c>
       <c r="ADN3">
-        <v>-0.05289426439844479</v>
+        <v>2.499288185098613</v>
       </c>
       <c r="ADO3">
-        <v>-0.05298007799905428</v>
+        <v>2.499513228510311</v>
       </c>
       <c r="ADP3">
-        <v>-0.06380165258048562</v>
+        <v>2.588721750314185</v>
       </c>
       <c r="ADQ3">
-        <v>-0.06330660888959128</v>
+        <v>2.581282813002433</v>
       </c>
       <c r="ADR3">
-        <v>-0.06176312775112312</v>
+        <v>2.566589116534243</v>
       </c>
       <c r="ADS3">
-        <v>-0.06021790084868601</v>
+        <v>2.545397470798651</v>
       </c>
       <c r="ADT3">
-        <v>-0.05952678380728487</v>
+        <v>2.532300130028672</v>
       </c>
       <c r="ADU3">
-        <v>-0.05282410894406906</v>
+        <v>2.499471249288925</v>
       </c>
       <c r="ADV3">
-        <v>-0.05298866936069623</v>
+        <v>2.500209066980688</v>
       </c>
       <c r="ADW3">
-        <v>-0.06380265230834679</v>
+        <v>2.588797598337032</v>
       </c>
       <c r="ADX3">
-        <v>-0.0638690090859608</v>
+        <v>2.589524993810196</v>
       </c>
       <c r="ADY3">
-        <v>-0.063310359488542</v>
+        <v>2.58130397512664</v>
       </c>
       <c r="ADZ3">
-        <v>-0.06176309779274443</v>
+        <v>2.566896635902246</v>
       </c>
       <c r="AEA3">
-        <v>-0.06021809275885498</v>
+        <v>2.545443520140344</v>
       </c>
       <c r="AEB3">
-        <v>-0.05952678380728472</v>
+        <v>2.53230013002867</v>
       </c>
       <c r="AEC3">
-        <v>-0.05276608703161682</v>
+        <v>2.499622644007327</v>
       </c>
       <c r="AED3">
-        <v>-0.05299600992322135</v>
+        <v>2.500803421712116</v>
       </c>
       <c r="AEE3">
-        <v>-0.06380365466690405</v>
+        <v>2.588873643217836</v>
       </c>
       <c r="AEF3">
-        <v>-0.06394374486767655</v>
+        <v>2.590418261536268</v>
       </c>
       <c r="AEG3">
-        <v>-0.0638690090859608</v>
+        <v>2.589524993810196</v>
       </c>
       <c r="AEH3">
-        <v>-0.06331277762635212</v>
+        <v>2.581317618935312</v>
       </c>
       <c r="AEI3">
-        <v>-0.06176303161837716</v>
+        <v>2.567575755467577</v>
       </c>
       <c r="AEJ3">
-        <v>-0.06021839801593336</v>
+        <v>2.545516765333259</v>
       </c>
       <c r="AEK3">
-        <v>-0.05952678380728751</v>
+        <v>2.532300130028671</v>
       </c>
       <c r="AEL3">
-        <v>-0.05272096627519597</v>
+        <v>2.49974037107597</v>
       </c>
       <c r="AEM3">
-        <v>-0.05300016442845989</v>
+        <v>2.501139733329146</v>
       </c>
       <c r="AEN3">
-        <v>-0.06380465897524817</v>
+        <v>2.58894983328036</v>
       </c>
       <c r="AEO3">
-        <v>-0.06400640924882571</v>
+        <v>2.591167102392881</v>
       </c>
       <c r="AEP3">
-        <v>-0.06394374486767655</v>
+        <v>2.590418261536269</v>
       </c>
       <c r="AEQ3">
-        <v>-0.06331649172602305</v>
+        <v>2.581338574728003</v>
       </c>
       <c r="AER3">
-        <v>-0.06021868458530708</v>
+        <v>2.545585524216307</v>
       </c>
       <c r="AES3">
-        <v>-0.05952678380729172</v>
+        <v>2.532300130028669</v>
       </c>
       <c r="AET3">
-        <v>-0.05267507558465265</v>
+        <v>2.49986010246696</v>
       </c>
       <c r="AEU3">
-        <v>-0.06380565720816189</v>
+        <v>2.589025559722911</v>
       </c>
       <c r="AEV3">
-        <v>-0.06407377283983487</v>
+        <v>2.591971951101407</v>
       </c>
       <c r="AEW3">
-        <v>-0.06400640924882571</v>
+        <v>2.591167102392881</v>
       </c>
       <c r="AEX3">
-        <v>-0.06334704137405844</v>
+        <v>2.581510933825722</v>
       </c>
       <c r="AEY3">
-        <v>-0.06021909404659626</v>
+        <v>2.54568376572284</v>
       </c>
       <c r="AEZ3">
-        <v>-0.05952678380729172</v>
+        <v>2.532300130028669</v>
       </c>
       <c r="AFA3">
-        <v>-0.05263525055206079</v>
+        <v>2.499964004492297</v>
       </c>
       <c r="AFB3">
-        <v>-0.06380665923911888</v>
+        <v>2.58910157156131</v>
       </c>
       <c r="AFC3">
-        <v>-0.06412908148643548</v>
+        <v>2.592632654917564</v>
       </c>
       <c r="AFD3">
-        <v>-0.06407377283983487</v>
+        <v>2.591971951101407</v>
       </c>
       <c r="AFE3">
-        <v>-0.06345233252914857</v>
+        <v>2.582104857371843</v>
       </c>
       <c r="AFF3">
-        <v>-0.06022341628206816</v>
+        <v>2.546720520147966</v>
       </c>
       <c r="AFG3">
-        <v>-0.05260664756506846</v>
+        <v>2.500038626484436</v>
       </c>
       <c r="AFH3">
-        <v>-0.06380766059340254</v>
+        <v>2.589177529341286</v>
       </c>
       <c r="AFI3">
-        <v>-0.0641884621614015</v>
+        <v>2.593341887335963</v>
       </c>
       <c r="AFJ3">
-        <v>-0.06412908148643548</v>
+        <v>2.592632654917564</v>
       </c>
       <c r="AFK3">
-        <v>-0.06022514511512961</v>
+        <v>2.547135067241172</v>
       </c>
       <c r="AFL3">
-        <v>-0.05257343940117053</v>
+        <v>2.500125260629231</v>
       </c>
       <c r="AFM3">
-        <v>-0.06380866258421858</v>
+        <v>2.589253532676079</v>
       </c>
       <c r="AFN3">
-        <v>-0.06431975041411629</v>
+        <v>2.594925508004278</v>
       </c>
       <c r="AFO3">
-        <v>-0.06418846216135718</v>
+        <v>2.593341887335958</v>
       </c>
       <c r="AFP3">
-        <v>-0.0641884621614015</v>
+        <v>2.593341887335963</v>
       </c>
       <c r="AFQ3">
-        <v>-0.06022602302396406</v>
+        <v>2.54734554541328</v>
       </c>
       <c r="AFR3">
-        <v>-0.05252341076725143</v>
+        <v>2.500255771822956</v>
       </c>
       <c r="AFS3">
-        <v>-0.06380915168920434</v>
+        <v>2.589290631435806</v>
       </c>
       <c r="AFT3">
-        <v>-0.06433895902728597</v>
+        <v>2.595157088042179</v>
       </c>
       <c r="AFU3">
-        <v>-0.06418846216130625</v>
+        <v>2.593341887335953</v>
       </c>
       <c r="AFV3">
-        <v>-0.06418846216135718</v>
+        <v>2.593341887335958</v>
       </c>
       <c r="AFW3">
-        <v>-0.06022621728913604</v>
+        <v>2.54739211759792</v>
       </c>
       <c r="AFX3">
-        <v>-0.05244167384197525</v>
+        <v>2.500468989640636</v>
       </c>
       <c r="AFY3">
-        <v>-0.06382014466146144</v>
+        <v>2.590124280100866</v>
       </c>
       <c r="AFZ3">
-        <v>-0.06439307506473776</v>
+        <v>2.595809352711782</v>
       </c>
       <c r="AGA3">
-        <v>-0.06418846216123258</v>
+        <v>2.593341887335946</v>
       </c>
       <c r="AGB3">
-        <v>-0.06418846216130625</v>
+        <v>2.593341887335953</v>
       </c>
       <c r="AGC3">
-        <v>-0.06022637028272555</v>
+        <v>2.547428794824414</v>
       </c>
       <c r="AGD3">
-        <v>-0.05180330924382542</v>
+        <v>2.501600473293017</v>
       </c>
       <c r="AGE3">
-        <v>-0.05239499036777316</v>
+        <v>2.502010883421296</v>
       </c>
       <c r="AGF3">
-        <v>-0.06382729345819833</v>
+        <v>2.590666230667058</v>
       </c>
       <c r="AGG3">
-        <v>-0.06445662282879649</v>
+        <v>2.596574995280856</v>
       </c>
       <c r="AGH3">
-        <v>-0.06418846216120373</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGI3">
-        <v>-0.06418846216123258</v>
+        <v>2.593341887335946</v>
       </c>
       <c r="AGJ3">
-        <v>-0.06022653420557565</v>
+        <v>2.547468091432991</v>
       </c>
       <c r="AGK3">
-        <v>-0.06383354597622926</v>
+        <v>2.591140120497329</v>
       </c>
       <c r="AGL3">
-        <v>-0.06446486650124023</v>
+        <v>2.596674293520446</v>
       </c>
       <c r="AGM3">
-        <v>-0.06418846216118905</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGN3">
-        <v>-0.06418846216120373</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGO3">
-        <v>-0.06022666535600597</v>
+        <v>2.547499531115283</v>
       </c>
       <c r="AGP3">
-        <v>-0.06384010463526117</v>
+        <v>2.591637099230498</v>
       </c>
       <c r="AGQ3">
-        <v>-0.06447365730698418</v>
+        <v>2.596748841403107</v>
       </c>
       <c r="AGR3">
-        <v>-0.06446836186431291</v>
+        <v>2.596786111619494</v>
       </c>
       <c r="AGS3">
-        <v>-0.06418846216118761</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGT3">
-        <v>-0.06418846216118905</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGU3">
-        <v>-0.06022679269784467</v>
+        <v>2.54753005735309</v>
       </c>
       <c r="AGV3">
-        <v>-0.06385130386130469</v>
+        <v>2.592485444431143</v>
       </c>
       <c r="AGW3">
-        <v>-0.06448179171062642</v>
+        <v>2.596817820001329</v>
       </c>
       <c r="AGX3">
-        <v>-0.06447654198008249</v>
+        <v>2.597047770871959</v>
       </c>
       <c r="AGY3">
-        <v>-0.06418846216118761</v>
+        <v>2.593341887335944</v>
       </c>
       <c r="AGZ3">
-        <v>-0.06418846216118761</v>
+        <v>2.593341887335943</v>
       </c>
       <c r="AHA3">
-        <v>-0.06022691971684108</v>
+        <v>2.547560505767606</v>
       </c>
       <c r="AHB3">
-        <v>-0.0638540508715751</v>
+        <v>2.59269347942234</v>
       </c>
       <c r="AHC3">
-        <v>-0.0644941608512921</v>
+        <v>2.596922703312104</v>
       </c>
       <c r="AHD3">
-        <v>-0.06449594780026015</v>
+        <v>2.597668363585727</v>
       </c>
       <c r="AHE3">
-        <v>-0.06022704524985494</v>
+        <v>2.547590597544808</v>
       </c>
       <c r="AHF3">
-        <v>-0.0638625941311394</v>
+        <v>2.592819396670932</v>
       </c>
       <c r="AHG3">
-        <v>-0.0638560614202778</v>
+        <v>2.593217797636785</v>
       </c>
       <c r="AHH3">
-        <v>-0.06450979217820534</v>
+        <v>2.597055239036004</v>
       </c>
       <c r="AHI3">
-        <v>-0.06022929006527362</v>
+        <v>2.548128635715947</v>
       </c>
       <c r="AHJ3">
-        <v>-0.06387662156858007</v>
+        <v>2.593026127174688</v>
       </c>
       <c r="AHK3">
-        <v>-0.06385776667963851</v>
+        <v>2.593662427752004</v>
       </c>
       <c r="AHL3">
-        <v>-0.06457064585257895</v>
+        <v>2.597571111866619</v>
       </c>
       <c r="AHM3">
-        <v>-0.06011065008100727</v>
+        <v>2.549454670852233</v>
       </c>
       <c r="AHN3">
-        <v>-0.06030157642398327</v>
+        <v>2.548803598121726</v>
       </c>
       <c r="AHO3">
-        <v>-0.06387939511636556</v>
+        <v>2.593067000081377</v>
       </c>
       <c r="AHP3">
-        <v>-0.06386063296058543</v>
+        <v>2.594409630949575</v>
       </c>
       <c r="AHQ3">
-        <v>-0.06468119552162716</v>
+        <v>2.59850787808697</v>
       </c>
       <c r="AHR3">
-        <v>-0.06003185816651396</v>
+        <v>2.550334910469395</v>
       </c>
       <c r="AHS3">
-        <v>-0.06388173870851691</v>
+        <v>2.593101536228074</v>
       </c>
       <c r="AHT3">
-        <v>-0.06388371364867558</v>
+        <v>2.593130639312078</v>
       </c>
       <c r="AHU3">
-        <v>-0.06388628272040126</v>
+        <v>2.59316849700762</v>
       </c>
       <c r="AHV3">
-        <v>-0.06389093235129957</v>
+        <v>2.59323701191929</v>
       </c>
       <c r="AHW3">
-        <v>-0.06389899401286639</v>
+        <v>2.593355799558238</v>
       </c>
       <c r="AHX3">
-        <v>-0.06396502913548158</v>
+        <v>2.594328559065137</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.06697046547772297</v>
+        <v>-0.0984336439481636</v>
       </c>
       <c r="D2">
-        <v>-0.06673798104170089</v>
+        <v>-0.0993124207350871</v>
       </c>
       <c r="E2">
-        <v>-0.06671360640194249</v>
+        <v>-0.09940455814135221</v>
       </c>
       <c r="F2">
-        <v>-0.06669077086583898</v>
+        <v>-0.09949087813370741</v>
       </c>
       <c r="G2">
-        <v>-0.06667086130010717</v>
+        <v>-0.09956613812193203</v>
       </c>
       <c r="H2">
-        <v>-0.06663949543065281</v>
+        <v>-0.09968470470418211</v>
       </c>
       <c r="I2">
-        <v>-0.06450222708670497</v>
+        <v>-0.1077658795027322</v>
       </c>
       <c r="J2">
-        <v>-0.06440643771697083</v>
+        <v>-0.1081281613018236</v>
       </c>
       <c r="K2">
-        <v>-0.06432670621450164</v>
+        <v>-0.1084297173823506</v>
       </c>
       <c r="L2">
-        <v>-0.06425673230820317</v>
+        <v>-0.1086943734697159</v>
       </c>
       <c r="M2">
-        <v>-0.06420451662490553</v>
+        <v>-0.1088918670391105</v>
       </c>
       <c r="N2">
-        <v>-0.06415549745287766</v>
+        <v>-0.1090772727564424</v>
       </c>
       <c r="O2">
-        <v>-0.06412535441977593</v>
+        <v>-0.1091912841185393</v>
       </c>
       <c r="P2">
-        <v>-0.06405030939859228</v>
+        <v>-0.1094751338104111</v>
       </c>
       <c r="Q2">
-        <v>-0.06344225700154368</v>
+        <v>-0.1117752106710388</v>
       </c>
       <c r="R2">
-        <v>-0.06344225700154286</v>
+        <v>-0.111775210671043</v>
       </c>
       <c r="S2">
-        <v>-0.06270459092306546</v>
+        <v>-0.1145660171179567</v>
       </c>
       <c r="T2">
-        <v>-0.06344225700154246</v>
+        <v>-0.1117752106710451</v>
       </c>
       <c r="U2">
-        <v>-0.06265382295753903</v>
+        <v>-0.1147581049403786</v>
       </c>
       <c r="V2">
-        <v>-0.06344225700154134</v>
+        <v>-0.1117752106710472</v>
       </c>
       <c r="W2">
-        <v>-0.06259681460973743</v>
+        <v>-0.1149738068644645</v>
       </c>
       <c r="X2">
-        <v>-0.06344225700154012</v>
+        <v>-0.1117752106710489</v>
       </c>
       <c r="Y2">
-        <v>-0.06250398930076566</v>
+        <v>-0.1153250352454901</v>
       </c>
       <c r="Z2">
-        <v>-0.06344225700153937</v>
+        <v>-0.111775210671051</v>
       </c>
       <c r="AA2">
-        <v>-0.06233510429722556</v>
+        <v>-0.115964074622318</v>
       </c>
       <c r="AB2">
-        <v>-0.06344225700153956</v>
+        <v>-0.1117752106710532</v>
       </c>
       <c r="AC2">
-        <v>-0.06196579104370082</v>
+        <v>-0.1160352369134212</v>
       </c>
       <c r="AD2">
-        <v>-0.06039312006924436</v>
+        <v>-0.1238825900138228</v>
       </c>
       <c r="AE2">
-        <v>-0.06344225700154023</v>
+        <v>-0.1117752106710545</v>
       </c>
       <c r="AF2">
-        <v>-0.06186575370187827</v>
+        <v>-0.1160415601148697</v>
       </c>
       <c r="AG2">
-        <v>-0.06196414242814664</v>
+        <v>-0.116048174419332</v>
       </c>
       <c r="AH2">
-        <v>-0.05987572565278815</v>
+        <v>-0.1259929607519117</v>
       </c>
       <c r="AI2">
-        <v>-0.06344225700154184</v>
+        <v>-0.1117752106710572</v>
       </c>
       <c r="AJ2">
-        <v>-0.06163665993167634</v>
+        <v>-0.1160560407614013</v>
       </c>
       <c r="AK2">
-        <v>-0.06196408659738914</v>
+        <v>-0.1160486125504225</v>
       </c>
       <c r="AL2">
-        <v>-0.05996512453282689</v>
+        <v>-0.1261558372156066</v>
       </c>
       <c r="AM2">
-        <v>-0.0582089439732637</v>
+        <v>-0.132195760745902</v>
       </c>
       <c r="AN2">
-        <v>-0.0634422570015435</v>
+        <v>-0.1117752106710591</v>
       </c>
       <c r="AO2">
-        <v>-0.06196400632282784</v>
+        <v>-0.1160492425038454</v>
       </c>
       <c r="AP2">
-        <v>-0.05996977634574728</v>
+        <v>-0.1261623838125894</v>
       </c>
       <c r="AQ2">
-        <v>-0.05997231975506463</v>
+        <v>-0.1261776552802234</v>
       </c>
       <c r="AR2">
-        <v>-0.05705134799238837</v>
+        <v>-0.1365050861830374</v>
       </c>
       <c r="AS2">
-        <v>-0.05820894397318888</v>
+        <v>-0.1321957607459159</v>
       </c>
       <c r="AT2">
-        <v>-0.06344225700154348</v>
+        <v>-0.1117752106710595</v>
       </c>
       <c r="AU2">
-        <v>-0.06196390337613625</v>
+        <v>-0.1160500503763796</v>
       </c>
       <c r="AV2">
-        <v>-0.05997187306026935</v>
+        <v>-0.12616533456614</v>
       </c>
       <c r="AW2">
-        <v>-0.05998963291929037</v>
+        <v>-0.1262301545653881</v>
       </c>
       <c r="AX2">
-        <v>-0.05617608005847455</v>
+        <v>-0.1397641764718294</v>
       </c>
       <c r="AY2">
-        <v>-0.05820894397316</v>
+        <v>-0.1321957607459266</v>
       </c>
       <c r="AZ2">
-        <v>-0.06344225700154292</v>
+        <v>-0.1117752106710593</v>
       </c>
       <c r="BA2">
-        <v>-0.06196365265434008</v>
+        <v>-0.1160520179111169</v>
       </c>
       <c r="BB2">
-        <v>-0.05997409513100683</v>
+        <v>-0.1261684617375609</v>
       </c>
       <c r="BC2">
-        <v>-0.0560498469356446</v>
+        <v>-0.1402342648238888</v>
       </c>
       <c r="BD2">
-        <v>-0.05617608005845076</v>
+        <v>-0.1397641764718303</v>
       </c>
       <c r="BE2">
-        <v>-0.0582089439731315</v>
+        <v>-0.1321957607459343</v>
       </c>
       <c r="BF2">
-        <v>-0.06344225700154243</v>
+        <v>-0.1117752106710587</v>
       </c>
       <c r="BG2">
-        <v>-0.06196343799044346</v>
+        <v>-0.1160537024814826</v>
       </c>
       <c r="BH2">
-        <v>-0.05997621150170841</v>
+        <v>-0.1261714401560705</v>
       </c>
       <c r="BI2">
-        <v>-0.05547792701792061</v>
+        <v>-0.1423642510427695</v>
       </c>
       <c r="BJ2">
-        <v>-0.0561760800584483</v>
+        <v>-0.1397641764718293</v>
       </c>
       <c r="BK2">
-        <v>-0.0582089439731107</v>
+        <v>-0.132195760745938</v>
       </c>
       <c r="BL2">
-        <v>-0.06344225700154182</v>
+        <v>-0.1117752106710585</v>
       </c>
       <c r="BM2">
-        <v>-0.06196240896531804</v>
+        <v>-0.1160617777257769</v>
       </c>
       <c r="BN2">
-        <v>-0.0599774789994107</v>
+        <v>-0.1261732239361014</v>
       </c>
       <c r="BO2">
-        <v>-0.05534290349137186</v>
+        <v>-0.1427883146399871</v>
       </c>
       <c r="BP2">
-        <v>-0.0556905813528539</v>
+        <v>-0.142530558879257</v>
       </c>
       <c r="BQ2">
-        <v>-0.05617608005845025</v>
+        <v>-0.1397641764718287</v>
       </c>
       <c r="BR2">
-        <v>-0.05820894397309725</v>
+        <v>-0.1321957607459408</v>
       </c>
       <c r="BS2">
-        <v>-0.06344225700154121</v>
+        <v>-0.1117752106710579</v>
       </c>
       <c r="BT2">
-        <v>-0.06195877166952274</v>
+        <v>-0.1160903211844899</v>
       </c>
       <c r="BU2">
-        <v>-0.05997996573898402</v>
+        <v>-0.1261767235857779</v>
       </c>
       <c r="BV2">
-        <v>-0.0537470087202187</v>
+        <v>-0.147801473095108</v>
       </c>
       <c r="BW2">
-        <v>-0.05561697132458958</v>
+        <v>-0.1425794932069734</v>
       </c>
       <c r="BX2">
-        <v>-0.05586815366560607</v>
+        <v>-0.142562918537722</v>
       </c>
       <c r="BY2">
-        <v>-0.05617608005845619</v>
+        <v>-0.1397641764718251</v>
       </c>
       <c r="BZ2">
-        <v>-0.0582089439730744</v>
+        <v>-0.1321957607459658</v>
       </c>
       <c r="CA2">
-        <v>-0.06344225700153761</v>
+        <v>-0.1117752106710553</v>
       </c>
       <c r="CB2">
-        <v>-0.059992568673971</v>
+        <v>-0.1261944600303385</v>
       </c>
       <c r="CC2">
-        <v>-0.05319044272964255</v>
+        <v>-0.1495502335888772</v>
       </c>
       <c r="CD2">
-        <v>-0.056176080058457</v>
+        <v>-0.1397641764718213</v>
       </c>
       <c r="CE2">
-        <v>-0.05820894397300222</v>
+        <v>-0.1321957607460522</v>
       </c>
       <c r="CF2">
-        <v>-0.06344225700153358</v>
+        <v>-0.1117752106710518</v>
       </c>
       <c r="CG2">
-        <v>-0.06004005999526869</v>
+        <v>-0.1262612961954949</v>
       </c>
       <c r="CH2">
-        <v>-0.05306896267417931</v>
+        <v>-0.149931959989461</v>
       </c>
       <c r="CI2">
-        <v>-0.05617608005845916</v>
+        <v>-0.1397641764718199</v>
       </c>
       <c r="CJ2">
-        <v>-0.05820894397286662</v>
+        <v>-0.1321957607462113</v>
       </c>
       <c r="CK2">
-        <v>-0.06344225700153154</v>
+        <v>-0.1117752106710498</v>
       </c>
       <c r="CL2">
-        <v>-0.05282259923635099</v>
+        <v>-0.1507061394970932</v>
       </c>
       <c r="CM2">
-        <v>-0.05617608005845916</v>
+        <v>-0.1397641764718199</v>
       </c>
       <c r="CN2">
-        <v>-0.05820894397283809</v>
+        <v>-0.1321957607462466</v>
       </c>
       <c r="CO2">
-        <v>-0.06344225700153078</v>
+        <v>-0.1117752106710495</v>
       </c>
       <c r="CP2">
-        <v>-0.05259024123093667</v>
+        <v>-0.151436347757803</v>
       </c>
       <c r="CQ2">
-        <v>-0.05820894397283427</v>
+        <v>-0.1321957607462509</v>
       </c>
       <c r="CR2">
-        <v>-0.06344225700153035</v>
+        <v>-0.1117752106710492</v>
       </c>
       <c r="CS2">
-        <v>-0.05245517454162759</v>
+        <v>-0.151860826099916</v>
       </c>
       <c r="CT2">
-        <v>-0.05820894397283212</v>
+        <v>-0.1321957607462593</v>
       </c>
       <c r="CU2">
-        <v>-0.06344225700152996</v>
+        <v>-0.1117752106710488</v>
       </c>
       <c r="CV2">
-        <v>-0.05236596843456812</v>
+        <v>-0.1521411841080075</v>
       </c>
       <c r="CW2">
-        <v>-0.05820894397283895</v>
+        <v>-0.1321957607462628</v>
       </c>
       <c r="CX2">
-        <v>-0.06344225700153013</v>
+        <v>-0.1117752106710486</v>
       </c>
       <c r="CY2">
-        <v>-0.05224279360998848</v>
+        <v>-0.152528308770257</v>
       </c>
       <c r="CZ2">
-        <v>-0.05820894397381519</v>
+        <v>-0.1321957607467599</v>
       </c>
       <c r="DA2">
-        <v>-0.06344225700153014</v>
+        <v>-0.1117752106710486</v>
       </c>
       <c r="DB2">
-        <v>-0.05225389471978251</v>
+        <v>-0.1525453011028829</v>
       </c>
       <c r="DC2">
-        <v>-0.05214947454138241</v>
+        <v>-0.1527631061539468</v>
       </c>
       <c r="DD2">
-        <v>-0.05820894397385354</v>
+        <v>-0.1321957607467815</v>
       </c>
       <c r="DE2">
-        <v>-0.05226732553928956</v>
+        <v>-0.1525658594991835</v>
       </c>
       <c r="DF2">
-        <v>-0.05209655656527357</v>
+        <v>-0.1528962533077446</v>
       </c>
       <c r="DG2">
-        <v>-0.0582089439739387</v>
+        <v>-0.1321957607468264</v>
       </c>
       <c r="DH2">
-        <v>-0.05228289282792861</v>
+        <v>-0.152589688171124</v>
       </c>
       <c r="DI2">
-        <v>-0.05000772422575328</v>
+        <v>-0.158153002402221</v>
       </c>
       <c r="DJ2">
-        <v>-0.0582089439760754</v>
+        <v>-0.1321957607479701</v>
       </c>
       <c r="DK2">
-        <v>-0.0523066283476265</v>
+        <v>-0.1526260198773705</v>
       </c>
       <c r="DL2">
-        <v>-0.04979837943233164</v>
+        <v>-0.1586799495289553</v>
       </c>
       <c r="DM2">
-        <v>-0.05820894397797945</v>
+        <v>-0.1321957607489918</v>
       </c>
       <c r="DN2">
-        <v>-0.05233714361306079</v>
+        <v>-0.1526727292959827</v>
       </c>
       <c r="DO2">
-        <v>-0.04988043014506328</v>
+        <v>-0.1587758139222576</v>
       </c>
       <c r="DP2">
-        <v>-0.04957841648266957</v>
+        <v>-0.1609712405768244</v>
       </c>
       <c r="DQ2">
-        <v>-0.05820894397815558</v>
+        <v>-0.1321957607490764</v>
       </c>
       <c r="DR2">
-        <v>-0.0523590506849709</v>
+        <v>-0.1527062622563184</v>
       </c>
       <c r="DS2">
-        <v>-0.04988043014506627</v>
+        <v>-0.1587758139222591</v>
       </c>
       <c r="DT2">
-        <v>-0.04992038025803101</v>
+        <v>-0.1588224898692313</v>
       </c>
       <c r="DU2">
-        <v>-0.04918163163788407</v>
+        <v>-0.1651050298699674</v>
       </c>
       <c r="DV2">
-        <v>-0.05820894397829009</v>
+        <v>-0.1321957607491425</v>
       </c>
       <c r="DW2">
-        <v>-0.05239000525486954</v>
+        <v>-0.1527536441691756</v>
       </c>
       <c r="DX2">
-        <v>-0.04988043014506869</v>
+        <v>-0.1587758139222604</v>
       </c>
       <c r="DY2">
-        <v>-0.05010805352745341</v>
+        <v>-0.1590417591724739</v>
       </c>
       <c r="DZ2">
-        <v>-0.04900315138971963</v>
+        <v>-0.1669647249899526</v>
       </c>
       <c r="EA2">
-        <v>-0.05820894397841189</v>
+        <v>-0.1321957607492014</v>
       </c>
       <c r="EB2">
-        <v>-0.0524234959256638</v>
+        <v>-0.1528049081079529</v>
       </c>
       <c r="EC2">
-        <v>-0.04988043014506979</v>
+        <v>-0.1587758139222609</v>
       </c>
       <c r="ED2">
-        <v>-0.05004592449185107</v>
+        <v>-0.1591032422318132</v>
       </c>
       <c r="EE2">
-        <v>-0.05061110065989035</v>
+        <v>-0.1595755877289681</v>
       </c>
       <c r="EF2">
-        <v>-0.04895004306892517</v>
+        <v>-0.1675181230634053</v>
       </c>
       <c r="EG2">
-        <v>-0.05820894397877047</v>
+        <v>-0.1321957607493771</v>
       </c>
       <c r="EH2">
-        <v>-0.05245508037277278</v>
+        <v>-0.1528532542381001</v>
       </c>
       <c r="EI2">
-        <v>-0.04988043014507117</v>
+        <v>-0.1587758139222612</v>
       </c>
       <c r="EJ2">
-        <v>-0.05004057392718502</v>
+        <v>-0.1591085372056025</v>
       </c>
       <c r="EK2">
-        <v>-0.05098534859991499</v>
+        <v>-0.1599727363599937</v>
       </c>
       <c r="EL2">
-        <v>-0.0488900912294951</v>
+        <v>-0.1681428482994182</v>
       </c>
       <c r="EM2">
-        <v>-0.05820894397903638</v>
+        <v>-0.1321957607495085</v>
       </c>
       <c r="EN2">
-        <v>-0.05250701034813419</v>
+        <v>-0.1529327432238595</v>
       </c>
       <c r="EO2">
-        <v>-0.0498804301450719</v>
+        <v>-0.1587758139222603</v>
       </c>
       <c r="EP2">
-        <v>-0.05003532400060999</v>
+        <v>-0.15911373259318</v>
       </c>
       <c r="EQ2">
-        <v>-0.05123597680934242</v>
+        <v>-0.1602387010471723</v>
       </c>
       <c r="ER2">
-        <v>-0.04883370466463053</v>
+        <v>-0.1687304377250529</v>
       </c>
       <c r="ES2">
-        <v>-0.05820894397907948</v>
+        <v>-0.1321957607495287</v>
       </c>
       <c r="ET2">
-        <v>-0.05275392780917456</v>
+        <v>-0.1533106999494474</v>
       </c>
       <c r="EU2">
-        <v>-0.04988043014507301</v>
+        <v>-0.15877581392226</v>
       </c>
       <c r="EV2">
-        <v>-0.05003108490277591</v>
+        <v>-0.1591179276575745</v>
       </c>
       <c r="EW2">
-        <v>-0.05133372301200154</v>
+        <v>-0.1604602241020915</v>
       </c>
       <c r="EX2">
-        <v>-0.05151928410562449</v>
+        <v>-0.1603212701888521</v>
       </c>
       <c r="EY2">
-        <v>-0.04876790868888398</v>
+        <v>-0.1694160996837957</v>
       </c>
       <c r="EZ2">
-        <v>-0.05820894397908926</v>
+        <v>-0.1321957607495362</v>
       </c>
       <c r="FA2">
-        <v>-0.05280771788058657</v>
+        <v>-0.1533930367223133</v>
       </c>
       <c r="FB2">
-        <v>-0.04988043014507395</v>
+        <v>-0.1587758139222599</v>
       </c>
       <c r="FC2">
-        <v>-0.05002472234620599</v>
+        <v>-0.1591242241309788</v>
       </c>
       <c r="FD2">
-        <v>-0.05159295388137092</v>
+        <v>-0.1610477273469851</v>
       </c>
       <c r="FE2">
-        <v>-0.05153652920201268</v>
+        <v>-0.1603262959779171</v>
       </c>
       <c r="FF2">
-        <v>-0.04874897551594538</v>
+        <v>-0.1696134067852763</v>
       </c>
       <c r="FG2">
-        <v>-0.05820894397909384</v>
+        <v>-0.1321957607495411</v>
       </c>
       <c r="FH2">
-        <v>-0.05290169373707267</v>
+        <v>-0.1536760720469708</v>
       </c>
       <c r="FI2">
-        <v>-0.05297868218227766</v>
+        <v>-0.1536067192578819</v>
       </c>
       <c r="FJ2">
-        <v>-0.04988043014507463</v>
+        <v>-0.1587758139222598</v>
       </c>
       <c r="FK2">
-        <v>-0.05001705156133981</v>
+        <v>-0.1591318152572271</v>
       </c>
       <c r="FL2">
-        <v>-0.05168299965056317</v>
+        <v>-0.161251803041902</v>
       </c>
       <c r="FM2">
-        <v>-0.05155228363067202</v>
+        <v>-0.1603308873124946</v>
       </c>
       <c r="FN2">
-        <v>-0.04864140699736108</v>
+        <v>-0.1707344370302762</v>
       </c>
       <c r="FO2">
-        <v>-0.05820894397909384</v>
+        <v>-0.1321957607495411</v>
       </c>
       <c r="FP2">
-        <v>-0.05291944781755682</v>
+        <v>-0.1537295463074045</v>
       </c>
       <c r="FQ2">
-        <v>-0.05320565756671693</v>
+        <v>-0.1538904086587815</v>
       </c>
       <c r="FR2">
-        <v>-0.04988043014507447</v>
+        <v>-0.1587758139222597</v>
       </c>
       <c r="FS2">
-        <v>-0.05001125643368064</v>
+        <v>-0.1591375502131629</v>
       </c>
       <c r="FT2">
-        <v>-0.05168299965065797</v>
+        <v>-0.1612518030424052</v>
       </c>
       <c r="FU2">
-        <v>-0.05183277763839917</v>
+        <v>-0.1615917611708669</v>
       </c>
       <c r="FV2">
-        <v>-0.05155882827030853</v>
+        <v>-0.1603327946187606</v>
       </c>
       <c r="FW2">
-        <v>-0.04858064704679091</v>
+        <v>-0.1713676745259465</v>
       </c>
       <c r="FX2">
-        <v>-0.05295607851785079</v>
+        <v>-0.1538398786034736</v>
       </c>
       <c r="FY2">
-        <v>-0.05323329952445359</v>
+        <v>-0.1539122598769307</v>
       </c>
       <c r="FZ2">
-        <v>-0.05323318495023763</v>
+        <v>-0.1539597151012548</v>
       </c>
       <c r="GA2">
-        <v>-0.04988043014507437</v>
+        <v>-0.1587758139222591</v>
       </c>
       <c r="GB2">
-        <v>-0.05000455045282538</v>
+        <v>-0.1591441865742168</v>
       </c>
       <c r="GC2">
-        <v>-0.05168299965067801</v>
+        <v>-0.161251803042491</v>
       </c>
       <c r="GD2">
-        <v>-0.05184895441738064</v>
+        <v>-0.1616284801277307</v>
       </c>
       <c r="GE2">
-        <v>-0.05157293523084362</v>
+        <v>-0.1603369058005395</v>
       </c>
       <c r="GF2">
-        <v>-0.0485355411128231</v>
+        <v>-0.1718377781784515</v>
       </c>
       <c r="GG2">
-        <v>-0.05334207840604509</v>
+        <v>-0.1539982504907086</v>
       </c>
       <c r="GH2">
-        <v>-0.05334711874623275</v>
+        <v>-0.1542465830723967</v>
       </c>
       <c r="GI2">
-        <v>-0.04988043014507405</v>
+        <v>-0.1587758139222585</v>
       </c>
       <c r="GJ2">
-        <v>-0.04999824509123306</v>
+        <v>-0.1591504264843902</v>
       </c>
       <c r="GK2">
-        <v>-0.05168299965066945</v>
+        <v>-0.1612518030424913</v>
       </c>
       <c r="GL2">
-        <v>-0.05168299965068843</v>
+        <v>-0.1612518030425329</v>
       </c>
       <c r="GM2">
-        <v>-0.05186460192815728</v>
+        <v>-0.1616639980489598</v>
       </c>
       <c r="GN2">
-        <v>-0.05160886590327218</v>
+        <v>-0.1603473769658028</v>
       </c>
       <c r="GO2">
-        <v>-0.04849498721395848</v>
+        <v>-0.172260448004799</v>
       </c>
       <c r="GP2">
-        <v>-0.05353629931470296</v>
+        <v>-0.1541517834301364</v>
       </c>
       <c r="GQ2">
-        <v>-0.05335413852727877</v>
+        <v>-0.1542703940801153</v>
       </c>
       <c r="GR2">
-        <v>-0.05335593180658976</v>
+        <v>-0.1542652278834067</v>
       </c>
       <c r="GS2">
-        <v>-0.04988043014507403</v>
+        <v>-0.1587758139222588</v>
       </c>
       <c r="GT2">
-        <v>-0.04999146088311143</v>
+        <v>-0.1591571402805519</v>
       </c>
       <c r="GU2">
-        <v>-0.05168299965066945</v>
+        <v>-0.1612518030424913</v>
       </c>
       <c r="GV2">
-        <v>-0.05168299965069638</v>
+        <v>-0.1612518030425644</v>
       </c>
       <c r="GW2">
-        <v>-0.05187711844923389</v>
+        <v>-0.1616924092408288</v>
       </c>
       <c r="GX2">
-        <v>-0.05162994652443825</v>
+        <v>-0.1603535203689729</v>
       </c>
       <c r="GY2">
-        <v>-0.04844460570027638</v>
+        <v>-0.1727855565238813</v>
       </c>
       <c r="GZ2">
-        <v>-0.053512936327287</v>
+        <v>-0.1541517834301373</v>
       </c>
       <c r="HA2">
-        <v>-0.05357595854975238</v>
+        <v>-0.1541912984238639</v>
       </c>
       <c r="HB2">
-        <v>-0.05337188637836763</v>
+        <v>-0.1543305953467719</v>
       </c>
       <c r="HC2">
-        <v>-0.05335717754430502</v>
+        <v>-0.1542678633587725</v>
       </c>
       <c r="HD2">
-        <v>-0.04988043014507419</v>
+        <v>-0.158775813922259</v>
       </c>
       <c r="HE2">
-        <v>-0.04998108984520869</v>
+        <v>-0.1591674036995658</v>
       </c>
       <c r="HF2">
-        <v>-0.05168299965071475</v>
+        <v>-0.161251803042594</v>
       </c>
       <c r="HG2">
-        <v>-0.05188708889637683</v>
+        <v>-0.1617150412587327</v>
       </c>
       <c r="HH2">
-        <v>-0.05164471158431824</v>
+        <v>-0.1603578232394824</v>
       </c>
       <c r="HI2">
-        <v>-0.04835162900685139</v>
+        <v>-0.1737546518222304</v>
       </c>
       <c r="HJ2">
-        <v>-0.05343646424197867</v>
+        <v>-0.1541517834301386</v>
       </c>
       <c r="HK2">
-        <v>-0.0536475368652516</v>
+        <v>-0.1542626164067164</v>
       </c>
       <c r="HL2">
-        <v>-0.05335818219705075</v>
+        <v>-0.1542699887974095</v>
       </c>
       <c r="HM2">
-        <v>-0.04988043014507418</v>
+        <v>-0.158775813922259</v>
       </c>
       <c r="HN2">
-        <v>-0.04995276753089617</v>
+        <v>-0.1591954322405883</v>
       </c>
       <c r="HO2">
-        <v>-0.05168299965074359</v>
+        <v>-0.1612518030426195</v>
       </c>
       <c r="HP2">
-        <v>-0.05190816816827024</v>
+        <v>-0.1617628897389788</v>
       </c>
       <c r="HQ2">
-        <v>-0.0516731138995681</v>
+        <v>-0.1603661002543808</v>
       </c>
       <c r="HR2">
-        <v>-0.04827056172499379</v>
+        <v>-0.1745996497607685</v>
       </c>
       <c r="HS2">
-        <v>-0.05340349749823004</v>
+        <v>-0.1541517834301386</v>
       </c>
       <c r="HT2">
-        <v>-0.05367309437730679</v>
+        <v>-0.1542880809649365</v>
       </c>
       <c r="HU2">
-        <v>-0.05335898506361167</v>
+        <v>-0.1542716873389212</v>
       </c>
       <c r="HV2">
-        <v>-0.04995035267085206</v>
+        <v>-0.1591978220608622</v>
       </c>
       <c r="HW2">
-        <v>-0.05168299965079014</v>
+        <v>-0.1612518030426451</v>
       </c>
       <c r="HX2">
-        <v>-0.05192476874038346</v>
+        <v>-0.1618005722930677</v>
       </c>
       <c r="HY2">
-        <v>-0.05168725086721273</v>
+        <v>-0.1603702200268546</v>
       </c>
       <c r="HZ2">
-        <v>-0.04821541259139539</v>
+        <v>-0.1751745103616065</v>
       </c>
       <c r="IA2">
-        <v>-0.05395738157403284</v>
+        <v>-0.154574808899736</v>
       </c>
       <c r="IB2">
-        <v>-0.05367309437730679</v>
+        <v>-0.1542880809649365</v>
       </c>
       <c r="IC2">
-        <v>-0.0533602106476706</v>
+        <v>-0.1542742801813322</v>
       </c>
       <c r="ID2">
-        <v>-0.04994923726918596</v>
+        <v>-0.1591989258973339</v>
       </c>
       <c r="IE2">
-        <v>-0.05168299965082847</v>
+        <v>-0.1612518030426647</v>
       </c>
       <c r="IF2">
-        <v>-0.05193628379856118</v>
+        <v>-0.1618267111711839</v>
       </c>
       <c r="IG2">
-        <v>-0.051697289043069</v>
+        <v>-0.1603731453244063</v>
       </c>
       <c r="IH2">
-        <v>-0.04817918284277577</v>
+        <v>-0.1755521681427126</v>
       </c>
       <c r="II2">
-        <v>-0.05399866940790856</v>
+        <v>-0.1546164511927412</v>
       </c>
       <c r="IJ2">
-        <v>-0.05336164728000331</v>
+        <v>-0.1542773195189706</v>
       </c>
       <c r="IK2">
-        <v>-0.04994804421177607</v>
+        <v>-0.1592001065846768</v>
       </c>
       <c r="IL2">
-        <v>-0.05168299965086297</v>
+        <v>-0.1612518030426756</v>
       </c>
       <c r="IM2">
-        <v>-0.05194777148503762</v>
+        <v>-0.1618527880897536</v>
       </c>
       <c r="IN2">
-        <v>-0.05181212478860375</v>
+        <v>-0.1604066097565618</v>
       </c>
       <c r="IO2">
-        <v>-0.04810120624498453</v>
+        <v>-0.1763650154658777</v>
       </c>
       <c r="IP2">
-        <v>-0.05404048139554624</v>
+        <v>-0.1546377547980193</v>
       </c>
       <c r="IQ2">
-        <v>-0.05408359240089981</v>
+        <v>-0.1547229712039659</v>
       </c>
       <c r="IR2">
-        <v>-0.05336385386379301</v>
+        <v>-0.1542819877692898</v>
       </c>
       <c r="IS2">
-        <v>-0.04994690419258585</v>
+        <v>-0.1592012347840175</v>
       </c>
       <c r="IT2">
-        <v>-0.05168299965089422</v>
+        <v>-0.1612518030426976</v>
       </c>
       <c r="IU2">
-        <v>-0.05196457756681276</v>
+        <v>-0.1618909380177815</v>
       </c>
       <c r="IV2">
-        <v>-0.05184598912965104</v>
+        <v>-0.160416477967359</v>
       </c>
       <c r="IW2">
-        <v>-0.04809572104049902</v>
+        <v>-0.1764044911947988</v>
       </c>
       <c r="IX2">
-        <v>-0.04804781408318588</v>
+        <v>-0.176897071074983</v>
       </c>
       <c r="IY2">
-        <v>-0.05337192847727812</v>
+        <v>-0.1542990704721425</v>
       </c>
       <c r="IZ2">
-        <v>-0.04994563416201098</v>
+        <v>-0.1592024916471153</v>
       </c>
       <c r="JA2">
-        <v>-0.05168299965092617</v>
+        <v>-0.1612518030427178</v>
       </c>
       <c r="JB2">
-        <v>-0.05202778723376428</v>
+        <v>-0.162034427742864</v>
       </c>
       <c r="JC2">
-        <v>-0.05185356566055151</v>
+        <v>-0.1604186857852074</v>
       </c>
       <c r="JD2">
-        <v>-0.04809496279014901</v>
+        <v>-0.1764099481746325</v>
       </c>
       <c r="JE2">
-        <v>-0.04784757933726787</v>
+        <v>-0.1788925327496871</v>
       </c>
       <c r="JF2">
-        <v>-0.0534112280527879</v>
+        <v>-0.1543822138983633</v>
       </c>
       <c r="JG2">
-        <v>-0.04994301263970074</v>
+        <v>-0.1592050859910464</v>
       </c>
       <c r="JH2">
-        <v>-0.05168299965095585</v>
+        <v>-0.1612518030427421</v>
       </c>
       <c r="JI2">
-        <v>-0.05204254069441388</v>
+        <v>-0.1620679197362814</v>
       </c>
       <c r="JJ2">
-        <v>-0.05199133800057792</v>
+        <v>-0.1604458287887967</v>
       </c>
       <c r="JK2">
-        <v>-0.05185539141593948</v>
+        <v>-0.1604196642210114</v>
       </c>
       <c r="JL2">
-        <v>-0.04809461419430479</v>
+        <v>-0.1764124569533577</v>
       </c>
       <c r="JM2">
-        <v>-0.04788069008133852</v>
+        <v>-0.1788925327497305</v>
       </c>
       <c r="JN2">
-        <v>-0.04777331075834214</v>
+        <v>-0.1795629381961025</v>
       </c>
       <c r="JO2">
-        <v>-0.04994028233940541</v>
+        <v>-0.1592077879868642</v>
       </c>
       <c r="JP2">
-        <v>-0.05168299965096892</v>
+        <v>-0.1612518030427537</v>
       </c>
       <c r="JQ2">
-        <v>-0.05204929967225508</v>
+        <v>-0.1620832634617471</v>
       </c>
       <c r="JR2">
-        <v>-0.05212788377556758</v>
+        <v>-0.1604727287803753</v>
       </c>
       <c r="JS2">
-        <v>-0.0518575320012104</v>
+        <v>-0.1604208113759764</v>
       </c>
       <c r="JT2">
-        <v>-0.04809420016210018</v>
+        <v>-0.1764154366672633</v>
       </c>
       <c r="JU2">
-        <v>-0.04788309688856</v>
+        <v>-0.1788925327497329</v>
       </c>
       <c r="JV2">
-        <v>-0.04750405155123086</v>
+        <v>-0.1819936522704847</v>
       </c>
       <c r="JW2">
-        <v>-0.04992989996395569</v>
+        <v>-0.1592180627456658</v>
       </c>
       <c r="JX2">
-        <v>-0.05168299965096963</v>
+        <v>-0.161251803042753</v>
       </c>
       <c r="JY2">
-        <v>-0.05205374320109254</v>
+        <v>-0.1620933508609255</v>
       </c>
       <c r="JZ2">
-        <v>-0.05185946649661587</v>
+        <v>-0.160421848085444</v>
       </c>
       <c r="KA2">
-        <v>-0.04809356135946204</v>
+        <v>-0.1764200340170506</v>
       </c>
       <c r="KB2">
-        <v>-0.0478850806563703</v>
+        <v>-0.1788925327497361</v>
       </c>
       <c r="KC2">
-        <v>-0.04672244292658051</v>
+        <v>-0.1821571165587943</v>
       </c>
       <c r="KD2">
-        <v>-0.04761708979458546</v>
+        <v>-0.1824782437479629</v>
       </c>
       <c r="KE2">
-        <v>-0.04987477804781573</v>
+        <v>-0.1592726137128052</v>
       </c>
       <c r="KF2">
-        <v>-0.05168299965096963</v>
+        <v>-0.161251803042753</v>
       </c>
       <c r="KG2">
-        <v>-0.0520674005655762</v>
+        <v>-0.1621532093032881</v>
       </c>
       <c r="KH2">
-        <v>-0.05205590900361537</v>
+        <v>-0.1620947086495081</v>
       </c>
       <c r="KI2">
-        <v>-0.05186142575549682</v>
+        <v>-0.1604228980653799</v>
       </c>
       <c r="KJ2">
-        <v>-0.0480929921408566</v>
+        <v>-0.1764241305872091</v>
       </c>
       <c r="KK2">
-        <v>-0.04788789844864539</v>
+        <v>-0.1788925327497381</v>
       </c>
       <c r="KL2">
-        <v>-0.04636266643600136</v>
+        <v>-0.1822323575673984</v>
       </c>
       <c r="KM2">
-        <v>-0.04809085961943405</v>
+        <v>-0.1845094833934506</v>
       </c>
       <c r="KN2">
-        <v>-0.05207367420896008</v>
+        <v>-0.1621807062840651</v>
       </c>
       <c r="KO2">
-        <v>-0.05205744182064995</v>
+        <v>-0.1620956696054554</v>
       </c>
       <c r="KP2">
-        <v>-0.05186353235691041</v>
+        <v>-0.1604240270066613</v>
       </c>
       <c r="KQ2">
-        <v>-0.04809254958595077</v>
+        <v>-0.1764273155829692</v>
       </c>
       <c r="KR2">
-        <v>-0.04790055474561599</v>
+        <v>-0.1788925327497402</v>
       </c>
       <c r="KS2">
-        <v>-0.04401207315222418</v>
+        <v>-0.1827239118620741</v>
       </c>
       <c r="KT2">
-        <v>-0.04819544581502032</v>
+        <v>-0.1849579301680743</v>
       </c>
       <c r="KU2">
-        <v>-0.05208429227639939</v>
+        <v>-0.1622272452055407</v>
       </c>
       <c r="KV2">
-        <v>-0.05205922556929676</v>
+        <v>-0.1620967878755085</v>
       </c>
       <c r="KW2">
-        <v>-0.0518757495163994</v>
+        <v>-0.1604305742509061</v>
       </c>
       <c r="KX2">
-        <v>-0.04809199871561279</v>
+        <v>-0.1764312801107735</v>
       </c>
       <c r="KY2">
-        <v>-0.0479029912254294</v>
+        <v>-0.1788925327497406</v>
       </c>
       <c r="KZ2">
-        <v>-0.04383648221648959</v>
+        <v>-0.1827606291136309</v>
       </c>
       <c r="LA2">
-        <v>-0.04823019821964035</v>
+        <v>-0.1851069457572545</v>
       </c>
       <c r="LB2">
-        <v>-0.05210467311171889</v>
+        <v>-0.1623165764099562</v>
       </c>
       <c r="LC2">
-        <v>-0.05206263731399959</v>
+        <v>-0.1620989267700488</v>
       </c>
       <c r="LD2">
-        <v>-0.05192742424532394</v>
+        <v>-0.1604582668334185</v>
       </c>
       <c r="LE2">
-        <v>-0.04809142895459655</v>
+        <v>-0.1764353805959023</v>
       </c>
       <c r="LF2">
-        <v>-0.04790479524016468</v>
+        <v>-0.1788925327497409</v>
       </c>
       <c r="LG2">
-        <v>-0.04383386477682558</v>
+        <v>-0.182779026623584</v>
       </c>
       <c r="LH2">
-        <v>-0.04060581017344103</v>
+        <v>-0.1832588615509405</v>
       </c>
       <c r="LI2">
-        <v>-0.04824833663623073</v>
+        <v>-0.1851847225674955</v>
       </c>
       <c r="LJ2">
-        <v>-0.05216467882837366</v>
+        <v>-0.1625796036578141</v>
       </c>
       <c r="LK2">
-        <v>-0.05207572199754869</v>
+        <v>-0.1621071298219529</v>
       </c>
       <c r="LL2">
-        <v>-0.04809075688993636</v>
+        <v>-0.1764402173504258</v>
       </c>
       <c r="LM2">
-        <v>-0.04790687327141089</v>
+        <v>-0.1788925327497417</v>
       </c>
       <c r="LN2">
-        <v>-0.04382038407423557</v>
+        <v>-0.1828737817894067</v>
       </c>
       <c r="LO2">
-        <v>-0.0390550814052174</v>
+        <v>-0.1834979823795385</v>
       </c>
       <c r="LP2">
-        <v>-0.04826386374290483</v>
+        <v>-0.1852513025661408</v>
       </c>
       <c r="LQ2">
-        <v>-0.05212037564660045</v>
+        <v>-0.162135123957109</v>
       </c>
       <c r="LR2">
-        <v>-0.04809037390222405</v>
+        <v>-0.1764429736615094</v>
       </c>
       <c r="LS2">
-        <v>-0.04790893465044396</v>
+        <v>-0.1788925327497421</v>
       </c>
       <c r="LT2">
-        <v>-0.04381567766570581</v>
+        <v>-0.1829068635816783</v>
       </c>
       <c r="LU2">
-        <v>-0.03912627966627145</v>
+        <v>-0.1834979823795362</v>
       </c>
       <c r="LV2">
-        <v>-0.03602197833591492</v>
+        <v>-0.1839587693475837</v>
       </c>
       <c r="LW2">
-        <v>-0.04828152310689564</v>
+        <v>-0.1853270260798771</v>
       </c>
       <c r="LX2">
-        <v>-0.04808864371503592</v>
+        <v>-0.1764554256093418</v>
       </c>
       <c r="LY2">
-        <v>-0.04792704417753636</v>
+        <v>-0.178892532749743</v>
       </c>
       <c r="LZ2">
-        <v>-0.04380543440257995</v>
+        <v>-0.1829788656823178</v>
       </c>
       <c r="MA2">
-        <v>-0.03915447835058484</v>
+        <v>-0.1834979823795362</v>
       </c>
       <c r="MB2">
-        <v>-0.03607519069121273</v>
+        <v>-0.1840123792962966</v>
       </c>
       <c r="MC2">
-        <v>-0.03546248701692523</v>
+        <v>-0.1840343874806615</v>
       </c>
       <c r="MD2">
-        <v>-0.04829543569317626</v>
+        <v>-0.1853866836973968</v>
       </c>
       <c r="ME2">
-        <v>-0.04808797036088794</v>
+        <v>-0.1764602716679616</v>
       </c>
       <c r="MF2">
-        <v>-0.04796406294548387</v>
+        <v>-0.178892532749743</v>
       </c>
       <c r="MG2">
-        <v>-0.04380159503549266</v>
+        <v>-0.1829960805935675</v>
       </c>
       <c r="MH2">
-        <v>-0.04380329016810273</v>
+        <v>-0.1829985365792366</v>
       </c>
       <c r="MI2">
-        <v>-0.03610194393991109</v>
+        <v>-0.1840393324424811</v>
       </c>
       <c r="MJ2">
-        <v>-0.03498314690596036</v>
+        <v>-0.1840991710600378</v>
       </c>
       <c r="MK2">
-        <v>-0.04830709996089646</v>
+        <v>-0.1854367006704297</v>
       </c>
       <c r="ML2">
-        <v>-0.04808773643813015</v>
+        <v>-0.1764619551866703</v>
       </c>
       <c r="MM2">
-        <v>-0.0437958501565538</v>
+        <v>-0.1830218395462665</v>
       </c>
       <c r="MN2">
-        <v>-0.04380299160349196</v>
+        <v>-0.1830012755789658</v>
       </c>
       <c r="MO2">
-        <v>-0.03610443360886743</v>
+        <v>-0.1840418407140487</v>
       </c>
       <c r="MP2">
-        <v>-0.03464596478206898</v>
+        <v>-0.1841447408183243</v>
       </c>
       <c r="MQ2">
-        <v>-0.04831762484584833</v>
+        <v>-0.1854818320827422</v>
       </c>
       <c r="MR2">
-        <v>-0.04808756020840171</v>
+        <v>-0.1764632234948854</v>
       </c>
       <c r="MS2">
-        <v>-0.04380266734124792</v>
+        <v>-0.1830042503291212</v>
       </c>
       <c r="MT2">
-        <v>-0.03610546181193351</v>
+        <v>-0.1840428765997699</v>
       </c>
       <c r="MU2">
-        <v>-0.03421991510250901</v>
+        <v>-0.1842023198063929</v>
       </c>
       <c r="MV2">
-        <v>-0.04832633563074794</v>
+        <v>-0.1855191846347726</v>
       </c>
       <c r="MW2">
-        <v>-0.04808743127064709</v>
+        <v>-0.1764641514476095</v>
       </c>
       <c r="MX2">
-        <v>-0.04380238331074095</v>
+        <v>-0.183006855999899</v>
       </c>
       <c r="MY2">
-        <v>-0.03610618731607006</v>
+        <v>-0.1840436075248184</v>
       </c>
       <c r="MZ2">
-        <v>-0.03395294847868158</v>
+        <v>-0.1842383986931782</v>
       </c>
       <c r="NA2">
-        <v>-0.04833644067772805</v>
+        <v>-0.1855625160345352</v>
       </c>
       <c r="NB2">
-        <v>-0.04808736579531712</v>
+        <v>-0.1764646226674036</v>
       </c>
       <c r="NC2">
-        <v>-0.04380208152824883</v>
+        <v>-0.183009624528512</v>
       </c>
       <c r="ND2">
-        <v>-0.03610692939431898</v>
+        <v>-0.1840443551478194</v>
       </c>
       <c r="NE2">
-        <v>-0.03354298139290863</v>
+        <v>-0.1842938022570844</v>
       </c>
       <c r="NF2">
-        <v>-0.04834754685647226</v>
+        <v>-0.1856101405542777</v>
       </c>
       <c r="NG2">
-        <v>-0.04808726953267086</v>
+        <v>-0.1764653154607228</v>
       </c>
       <c r="NH2">
-        <v>-0.04380165081990913</v>
+        <v>-0.18301357581746</v>
       </c>
       <c r="NI2">
-        <v>-0.03610780499397737</v>
+        <v>-0.1840452372898911</v>
       </c>
       <c r="NJ2">
-        <v>-0.0331342788765456</v>
+        <v>-0.18434903377963</v>
       </c>
       <c r="NK2">
-        <v>-0.04840809429918824</v>
+        <v>-0.1858697778365963</v>
       </c>
       <c r="NL2">
-        <v>-0.04808710816500763</v>
+        <v>-0.176466476809078</v>
       </c>
       <c r="NM2">
-        <v>-0.04380112721475174</v>
+        <v>-0.1830183793431212</v>
       </c>
       <c r="NN2">
-        <v>-0.03610890950092683</v>
+        <v>-0.1840463500496312</v>
       </c>
       <c r="NO2">
-        <v>-0.03267568598189043</v>
+        <v>-0.1844110060608327</v>
       </c>
       <c r="NP2">
-        <v>-0.04885211430241281</v>
+        <v>-0.1876290884226766</v>
       </c>
       <c r="NQ2">
-        <v>-0.04841375227368284</v>
+        <v>-0.1859609457119739</v>
       </c>
       <c r="NR2">
-        <v>-0.04808638839501404</v>
+        <v>-0.1764716569320841</v>
       </c>
       <c r="NS2">
-        <v>-0.04379788173754568</v>
+        <v>-0.1830481533644957</v>
       </c>
       <c r="NT2">
-        <v>-0.03610989869487116</v>
+        <v>-0.1840473466347576</v>
       </c>
       <c r="NU2">
-        <v>-0.0323438215062133</v>
+        <v>-0.1844558519077736</v>
       </c>
       <c r="NV2">
-        <v>-0.04927742587889317</v>
+        <v>-0.1893144882454705</v>
       </c>
       <c r="NW2">
-        <v>-0.048448493320195</v>
+        <v>-0.1865208118673539</v>
       </c>
       <c r="NX2">
-        <v>-0.04841375227362689</v>
+        <v>-0.1859609457119553</v>
       </c>
       <c r="NY2">
-        <v>-0.04808374253405992</v>
+        <v>-0.176490699023427</v>
       </c>
       <c r="NZ2">
-        <v>-0.04378677652099427</v>
+        <v>-0.1831500351081866</v>
       </c>
       <c r="OA2">
-        <v>-0.03611068141945912</v>
+        <v>-0.1840481352078077</v>
       </c>
       <c r="OB2">
-        <v>-0.03194825798015913</v>
+        <v>-0.1845093046143454</v>
       </c>
       <c r="OC2">
-        <v>-0.04929636048879927</v>
+        <v>-0.1893895261326434</v>
       </c>
       <c r="OD2">
-        <v>-0.04846119044650902</v>
+        <v>-0.1867254647048501</v>
       </c>
       <c r="OE2">
-        <v>-0.04841375227332947</v>
+        <v>-0.1859609457118552</v>
       </c>
       <c r="OF2">
-        <v>-0.03611202476379733</v>
+        <v>-0.1840494885895234</v>
       </c>
       <c r="OG2">
-        <v>-0.031374279097253</v>
+        <v>-0.1845868647765685</v>
       </c>
       <c r="OH2">
-        <v>-0.04935993673024983</v>
+        <v>-0.1904103880890825</v>
       </c>
       <c r="OI2">
-        <v>-0.04960594243979658</v>
+        <v>-0.1901638716849888</v>
       </c>
       <c r="OJ2">
-        <v>-0.04846248285170768</v>
+        <v>-0.1867462967529328</v>
       </c>
       <c r="OK2">
-        <v>-0.04841375227330775</v>
+        <v>-0.1859609457118473</v>
       </c>
       <c r="OL2">
-        <v>-0.03611671424048682</v>
+        <v>-0.1840542131056911</v>
       </c>
       <c r="OM2">
-        <v>-0.0309487268003723</v>
+        <v>-0.1846443670130374</v>
       </c>
       <c r="ON2">
-        <v>-0.04936576204807523</v>
+        <v>-0.1905039492003356</v>
       </c>
       <c r="OO2">
-        <v>-0.04975530635183294</v>
+        <v>-0.1905374778971993</v>
       </c>
       <c r="OP2">
-        <v>-0.04846338478191119</v>
+        <v>-0.1867608349144287</v>
       </c>
       <c r="OQ2">
-        <v>-0.048413752273299</v>
+        <v>-0.1859609457118432</v>
       </c>
       <c r="OR2">
-        <v>-0.03614538418526596</v>
+        <v>-0.1840830972713563</v>
       </c>
       <c r="OS2">
-        <v>-0.03053819951427622</v>
+        <v>-0.1846998378383272</v>
       </c>
       <c r="OT2">
-        <v>-0.04936907362791176</v>
+        <v>-0.1905571385418215</v>
       </c>
       <c r="OU2">
-        <v>-0.05020594601137093</v>
+        <v>-0.1916647010235591</v>
       </c>
       <c r="OV2">
-        <v>-0.04975530635184632</v>
+        <v>-0.1905374778973977</v>
       </c>
       <c r="OW2">
-        <v>-0.04846431910185828</v>
+        <v>-0.1867758952597062</v>
       </c>
       <c r="OX2">
-        <v>-0.04841375227329309</v>
+        <v>-0.1859609457118427</v>
       </c>
       <c r="OY2">
-        <v>-0.03013640396763522</v>
+        <v>-0.1847541277057641</v>
       </c>
       <c r="OZ2">
-        <v>-0.0493713222730472</v>
+        <v>-0.1905932561187744</v>
       </c>
       <c r="PA2">
-        <v>-0.05084785153444772</v>
+        <v>-0.1932704349156657</v>
       </c>
       <c r="PB2">
-        <v>-0.04975530635184988</v>
+        <v>-0.1905374778974505</v>
       </c>
       <c r="PC2">
-        <v>-0.04846824270475032</v>
+        <v>-0.1868391410503565</v>
       </c>
       <c r="PD2">
-        <v>-0.04841375227328262</v>
+        <v>-0.1859609457118399</v>
       </c>
       <c r="PE2">
-        <v>-0.02965316704336178</v>
+        <v>-0.1848194203169543</v>
       </c>
       <c r="PF2">
-        <v>-0.04937498697443484</v>
+        <v>-0.1906521194860631</v>
       </c>
       <c r="PG2">
-        <v>-0.05098219010149799</v>
+        <v>-0.1936064964382174</v>
       </c>
       <c r="PH2">
-        <v>-0.04975530635184587</v>
+        <v>-0.1905374778974854</v>
       </c>
       <c r="PI2">
-        <v>-0.04846920075760851</v>
+        <v>-0.1868545844659825</v>
       </c>
       <c r="PJ2">
-        <v>-0.04841375227316125</v>
+        <v>-0.1859609457118045</v>
       </c>
       <c r="PK2">
-        <v>-0.02884379216588794</v>
+        <v>-0.1849287755135754</v>
       </c>
       <c r="PL2">
-        <v>-0.02965316704336178</v>
+        <v>-0.1848194203169543</v>
       </c>
       <c r="PM2">
-        <v>-0.04938716870997924</v>
+        <v>-0.1908477962827533</v>
       </c>
       <c r="PN2">
-        <v>-0.05101652617167728</v>
+        <v>-0.1936923922643058</v>
       </c>
       <c r="PO2">
-        <v>-0.04975530635183867</v>
+        <v>-0.1905374778975211</v>
       </c>
       <c r="PP2">
-        <v>-0.04847011463617974</v>
+        <v>-0.1868693159054722</v>
       </c>
       <c r="PQ2">
-        <v>-0.04841375227311861</v>
+        <v>-0.1859609457117901</v>
       </c>
       <c r="PR2">
-        <v>-0.02611344331788158</v>
+        <v>-0.1852976417515408</v>
       </c>
       <c r="PS2">
-        <v>-0.02884379216588794</v>
+        <v>-0.1849287755135754</v>
       </c>
       <c r="PT2">
-        <v>-0.04940073088033697</v>
+        <v>-0.1910656664597208</v>
       </c>
       <c r="PU2">
-        <v>-0.05103451445510126</v>
+        <v>-0.1937373922366891</v>
       </c>
       <c r="PV2">
-        <v>-0.04975530635183008</v>
+        <v>-0.1905374778975521</v>
       </c>
       <c r="PW2">
-        <v>-0.04847102354448553</v>
+        <v>-0.1868839673178849</v>
       </c>
       <c r="PX2">
-        <v>-0.04841375227310492</v>
+        <v>-0.185960945711786</v>
       </c>
       <c r="PY2">
-        <v>-0.02225062583544621</v>
+        <v>-0.1858194157521578</v>
       </c>
       <c r="PZ2">
-        <v>-0.02611344331788158</v>
+        <v>-0.1852976417515408</v>
       </c>
       <c r="QA2">
-        <v>-0.04940835822862408</v>
+        <v>-0.1911882053094655</v>
       </c>
       <c r="QB2">
-        <v>-0.05104942658892636</v>
+        <v>-0.1937746968875619</v>
       </c>
       <c r="QC2">
-        <v>-0.0497553063518158</v>
+        <v>-0.1905374778975787</v>
       </c>
       <c r="QD2">
-        <v>-0.04847206617992598</v>
+        <v>-0.1869007744968795</v>
       </c>
       <c r="QE2">
-        <v>-0.04841375227308089</v>
+        <v>-0.1859609457117788</v>
       </c>
       <c r="QF2">
-        <v>-0.01947809568199789</v>
+        <v>-0.1861938551586736</v>
       </c>
       <c r="QG2">
-        <v>-0.02225062583544621</v>
+        <v>-0.1858194157521578</v>
       </c>
       <c r="QH2">
-        <v>-0.04941552333778995</v>
+        <v>-0.1913033238075956</v>
       </c>
       <c r="QI2">
-        <v>-0.05106151208187245</v>
+        <v>-0.1938049303648209</v>
       </c>
       <c r="QJ2">
-        <v>-0.04975530635179647</v>
+        <v>-0.1905374778976058</v>
       </c>
       <c r="QK2">
-        <v>-0.04847566686375737</v>
+        <v>-0.1869588180891361</v>
       </c>
       <c r="QL2">
-        <v>-0.04841375227305918</v>
+        <v>-0.1859609457117722</v>
       </c>
       <c r="QM2">
-        <v>-0.01863678883166318</v>
+        <v>-0.1863074660464303</v>
       </c>
       <c r="QN2">
-        <v>-0.01947809568199789</v>
+        <v>-0.1861938551586736</v>
       </c>
       <c r="QO2">
-        <v>-0.04942235946513936</v>
+        <v>-0.1914131619929955</v>
       </c>
       <c r="QP2">
-        <v>-0.051079985656333</v>
+        <v>-0.1938511445479208</v>
       </c>
       <c r="QQ2">
-        <v>-0.04975530635178144</v>
+        <v>-0.1905374778976209</v>
       </c>
       <c r="QR2">
-        <v>-0.04849321378763827</v>
+        <v>-0.1872416978966977</v>
       </c>
       <c r="QS2">
-        <v>-0.04841375227303616</v>
+        <v>-0.1859609457117641</v>
       </c>
       <c r="QT2">
-        <v>-0.0161432228893631</v>
+        <v>-0.1866057026902184</v>
       </c>
       <c r="QU2">
-        <v>-0.01863678883166318</v>
+        <v>-0.1863074660464303</v>
       </c>
       <c r="QV2">
-        <v>-0.01862664425258928</v>
+        <v>-0.186337963385005</v>
       </c>
       <c r="QW2">
-        <v>-0.04943358341273207</v>
+        <v>-0.1915935118475698</v>
       </c>
       <c r="QX2">
-        <v>-0.05109663937100196</v>
+        <v>-0.1938928061696691</v>
       </c>
       <c r="QY2">
-        <v>-0.04975530635177512</v>
+        <v>-0.1905374778976297</v>
       </c>
       <c r="QZ2">
-        <v>-0.04841375227301438</v>
+        <v>-0.1859609457117565</v>
       </c>
       <c r="RA2">
-        <v>-0.01337218188956596</v>
+        <v>-0.1869370804286492</v>
       </c>
       <c r="RB2">
-        <v>-0.01614322288936309</v>
+        <v>-0.1866057026902184</v>
       </c>
       <c r="RC2">
-        <v>-0.0161432228893631</v>
+        <v>-0.1866057026902184</v>
       </c>
       <c r="RD2">
-        <v>-0.01862516275691954</v>
+        <v>-0.1863424171787089</v>
       </c>
       <c r="RE2">
-        <v>-0.04944140113965163</v>
+        <v>-0.1917191377197176</v>
       </c>
       <c r="RF2">
-        <v>-0.05111248966266479</v>
+        <v>-0.1939324579748611</v>
       </c>
       <c r="RG2">
-        <v>-0.04975530635176286</v>
+        <v>-0.1905374778976416</v>
       </c>
       <c r="RH2">
-        <v>-0.04841375227290075</v>
+        <v>-0.1859609457117218</v>
       </c>
       <c r="RI2">
-        <v>-0.01235658580436194</v>
+        <v>-0.1870585194925139</v>
       </c>
       <c r="RJ2">
-        <v>-0.01337218188956596</v>
+        <v>-0.1869370804286492</v>
       </c>
       <c r="RK2">
-        <v>-0.01862435493547246</v>
+        <v>-0.1863448457197359</v>
       </c>
       <c r="RL2">
-        <v>-0.04944689406343386</v>
+        <v>-0.1918074095311362</v>
       </c>
       <c r="RM2">
-        <v>-0.05113034605040771</v>
+        <v>-0.1939771283903209</v>
       </c>
       <c r="RN2">
-        <v>-0.04975530635175066</v>
+        <v>-0.1905374778976573</v>
       </c>
       <c r="RO2">
-        <v>-0.04841375227289496</v>
+        <v>-0.1859609457117215</v>
       </c>
       <c r="RP2">
-        <v>-0.0101770154826749</v>
+        <v>-0.1872187593552415</v>
       </c>
       <c r="RQ2">
-        <v>-0.01235658580436194</v>
+        <v>-0.1870585194925139</v>
       </c>
       <c r="RR2">
-        <v>-0.01225902537071306</v>
+        <v>-0.1873096192659094</v>
       </c>
       <c r="RS2">
-        <v>-0.01862380769956182</v>
+        <v>-0.1863464908673206</v>
       </c>
       <c r="RT2">
-        <v>-0.04944951862009606</v>
+        <v>-0.1918495875851503</v>
       </c>
       <c r="RU2">
-        <v>-0.05114920822530029</v>
+        <v>-0.1940243150125167</v>
       </c>
       <c r="RV2">
-        <v>-0.04975530635173509</v>
+        <v>-0.1905374778976918</v>
       </c>
       <c r="RW2">
-        <v>-0.04841375227289368</v>
+        <v>-0.1859609457117216</v>
       </c>
       <c r="RX2">
-        <v>-0.007052616169331469</v>
+        <v>-0.1874484306170109</v>
       </c>
       <c r="RY2">
-        <v>-0.0101770154826749</v>
+        <v>-0.1872187593552415</v>
       </c>
       <c r="RZ2">
-        <v>-0.01226458122949669</v>
+        <v>-0.1873189582579114</v>
       </c>
       <c r="SA2">
-        <v>-0.0121812113961825</v>
+        <v>-0.1873433256093798</v>
       </c>
       <c r="SB2">
-        <v>-0.01862297648297706</v>
+        <v>-0.1863489897432187</v>
       </c>
       <c r="SC2">
-        <v>-0.04945118120641343</v>
+        <v>-0.191876306645947</v>
       </c>
       <c r="SD2">
-        <v>-0.0511904501650019</v>
+        <v>-0.1941274883346547</v>
       </c>
       <c r="SE2">
-        <v>-0.04975530635172006</v>
+        <v>-0.1905374778977374</v>
       </c>
       <c r="SF2">
-        <v>-0.04841375227289372</v>
+        <v>-0.1859609457117213</v>
       </c>
       <c r="SG2">
-        <v>-0.005145575539889547</v>
+        <v>-0.1875885969066934</v>
       </c>
       <c r="SH2">
-        <v>-0.007052616169331469</v>
+        <v>-0.1874484306170109</v>
       </c>
       <c r="SI2">
-        <v>-0.0122669295662312</v>
+        <v>-0.187322905640395</v>
       </c>
       <c r="SJ2">
-        <v>-0.01213141870948573</v>
+        <v>-0.1873648941009953</v>
       </c>
       <c r="SK2">
-        <v>-0.01862171502889544</v>
+        <v>-0.186352782039487</v>
       </c>
       <c r="SL2">
-        <v>-0.04945230532030297</v>
+        <v>-0.1918943722072791</v>
       </c>
       <c r="SM2">
-        <v>-0.05212593922764635</v>
+        <v>-0.1964678700563801</v>
       </c>
       <c r="SN2">
-        <v>-0.04975530635171271</v>
+        <v>-0.1905374778977655</v>
       </c>
       <c r="SO2">
-        <v>-0.04841375227289372</v>
+        <v>-0.1859609457117213</v>
       </c>
       <c r="SP2">
-        <v>-0.00481713886767604</v>
+        <v>-0.1876127354010441</v>
       </c>
       <c r="SQ2">
-        <v>-0.005145575539889547</v>
+        <v>-0.1875885969066934</v>
       </c>
       <c r="SR2">
-        <v>-0.01226830940476066</v>
+        <v>-0.1873252250482361</v>
       </c>
       <c r="SS2">
-        <v>-0.01862082006826417</v>
+        <v>-0.1863554725523888</v>
       </c>
       <c r="ST2">
-        <v>-0.04945387332414462</v>
+        <v>-0.1919195717284194</v>
       </c>
       <c r="SU2">
-        <v>-0.05216258451790228</v>
+        <v>-0.1965600464116561</v>
       </c>
       <c r="SV2">
-        <v>-0.05226132110848553</v>
+        <v>-0.1968093627204479</v>
       </c>
       <c r="SW2">
-        <v>-0.04975530635170596</v>
+        <v>-0.1905374778977936</v>
       </c>
       <c r="SX2">
-        <v>-0.004939265509399044</v>
+        <v>-0.1876448813401945</v>
       </c>
       <c r="SY2">
-        <v>-0.004817138867676052</v>
+        <v>-0.1876127354010441</v>
       </c>
       <c r="SZ2">
-        <v>0.001778510388504982</v>
+        <v>-0.1877097061955209</v>
       </c>
       <c r="TA2">
-        <v>-0.01226957927272166</v>
+        <v>-0.1873273596036321</v>
       </c>
       <c r="TB2">
-        <v>-0.01862020862023449</v>
+        <v>-0.1863573107446327</v>
       </c>
       <c r="TC2">
-        <v>-0.04945507003776429</v>
+        <v>-0.1919388043960962</v>
       </c>
       <c r="TD2">
-        <v>-0.05219490132178947</v>
+        <v>-0.1966413366874188</v>
       </c>
       <c r="TE2">
-        <v>-0.05233435766222876</v>
+        <v>-0.196993594756025</v>
       </c>
       <c r="TF2">
-        <v>-0.04975530635170722</v>
+        <v>-0.1905374778978197</v>
       </c>
       <c r="TG2">
-        <v>-0.005029167364585139</v>
+        <v>-0.1876685447268118</v>
       </c>
       <c r="TH2">
-        <v>-0.004939265509399044</v>
+        <v>-0.1876448813401945</v>
       </c>
       <c r="TI2">
-        <v>0.00567658583298181</v>
+        <v>-0.187767010253216</v>
       </c>
       <c r="TJ2">
-        <v>-0.01227071061934191</v>
+        <v>-0.187329261314803</v>
       </c>
       <c r="TK2">
-        <v>-0.01861972545612628</v>
+        <v>-0.1863587632783281</v>
       </c>
       <c r="TL2">
-        <v>-0.04946361006964289</v>
+        <v>-0.1920760578629778</v>
       </c>
       <c r="TM2">
-        <v>-0.05234526535638726</v>
+        <v>-0.1970211091187568</v>
       </c>
       <c r="TN2">
-        <v>-0.04975530635170611</v>
+        <v>-0.1905374778978412</v>
       </c>
       <c r="TO2">
-        <v>-0.005151571710443344</v>
+        <v>-0.1877007626554597</v>
       </c>
       <c r="TP2">
-        <v>-0.005029167364585139</v>
+        <v>-0.1876685447268118</v>
       </c>
       <c r="TQ2">
-        <v>0.00876551202592211</v>
+        <v>-0.1878124159699537</v>
       </c>
       <c r="TR2">
-        <v>-0.0122718842639434</v>
+        <v>-0.1873312341258387</v>
       </c>
       <c r="TS2">
-        <v>-0.01861817630243501</v>
+        <v>-0.1863634204942238</v>
       </c>
       <c r="TT2">
-        <v>-0.04948621609374206</v>
+        <v>-0.1925266499208936</v>
       </c>
       <c r="TU2">
-        <v>-0.04948539989679122</v>
+        <v>-0.1921729804425295</v>
       </c>
       <c r="TV2">
-        <v>-0.05235359161896781</v>
+        <v>-0.1970421119083634</v>
       </c>
       <c r="TW2">
-        <v>-0.04975530635169888</v>
+        <v>-0.190537477897858</v>
       </c>
       <c r="TX2">
-        <v>-0.005238193932187649</v>
+        <v>-0.1877235620201057</v>
       </c>
       <c r="TY2">
-        <v>-0.005151571710443344</v>
+        <v>-0.1877007626554597</v>
       </c>
       <c r="TZ2">
-        <v>0.01004195726323523</v>
+        <v>-0.1878311782285989</v>
       </c>
       <c r="UA2">
-        <v>-0.01227542731379422</v>
+        <v>-0.1873371897346829</v>
       </c>
       <c r="UB2">
-        <v>-0.01860564589537798</v>
+        <v>-0.1864010908069832</v>
       </c>
       <c r="UC2">
-        <v>-0.04951117857925939</v>
+        <v>-0.1930243141134828</v>
       </c>
       <c r="UD2">
-        <v>-0.05236137884045237</v>
+        <v>-0.1970617549944011</v>
       </c>
       <c r="UE2">
-        <v>-0.04975530635168646</v>
+        <v>-0.1905374778978744</v>
       </c>
       <c r="UF2">
-        <v>-0.00548044564698351</v>
+        <v>-0.1877873220803276</v>
       </c>
       <c r="UG2">
-        <v>-0.005238193932187649</v>
+        <v>-0.1877235620201057</v>
       </c>
       <c r="UH2">
-        <v>0.01010389537544105</v>
+        <v>-0.1878370818698792</v>
       </c>
       <c r="UI2">
-        <v>0.01451074409583089</v>
+        <v>-0.1878311782285976</v>
       </c>
       <c r="UJ2">
-        <v>-0.01227899786625616</v>
+        <v>-0.1873431915738147</v>
       </c>
       <c r="UK2">
-        <v>-0.01860502189068599</v>
+        <v>-0.186402966768561</v>
       </c>
       <c r="UL2">
-        <v>-0.04957884244303613</v>
+        <v>-0.1943738335014401</v>
       </c>
       <c r="UM2">
-        <v>-0.05236968295738813</v>
+        <v>-0.1970827019523276</v>
       </c>
       <c r="UN2">
-        <v>-0.04975530635167954</v>
+        <v>-0.1905374778978783</v>
       </c>
       <c r="UO2">
-        <v>-0.005655867731687522</v>
+        <v>-0.1878334911832453</v>
       </c>
       <c r="UP2">
-        <v>-0.00548044564698351</v>
+        <v>-0.1877873220803276</v>
       </c>
       <c r="UQ2">
-        <v>0.01012668682827775</v>
+        <v>-0.1878392542352027</v>
       </c>
       <c r="UR2">
-        <v>0.01789158826902333</v>
+        <v>-0.1878311782285975</v>
       </c>
       <c r="US2">
-        <v>-0.01231236020372494</v>
+        <v>-0.1873992712575601</v>
       </c>
       <c r="UT2">
-        <v>-0.01860452952902106</v>
+        <v>-0.1864044469688661</v>
       </c>
       <c r="UU2">
-        <v>-0.05237703110183101</v>
+        <v>-0.1971012375029788</v>
       </c>
       <c r="UV2">
-        <v>-0.04975530635167955</v>
+        <v>-0.1905374778978783</v>
       </c>
       <c r="UW2">
-        <v>-0.005667932366032261</v>
+        <v>-0.1878334911831832</v>
       </c>
       <c r="UX2">
-        <v>-0.005655867731687523</v>
+        <v>-0.1878334911832453</v>
       </c>
       <c r="UY2">
-        <v>-0.005857361204518858</v>
+        <v>-0.1879104648880936</v>
       </c>
       <c r="UZ2">
-        <v>0.01016063649604826</v>
+        <v>-0.1878424901390872</v>
       </c>
       <c r="VA2">
-        <v>-0.01860397290059488</v>
+        <v>-0.1864061203767156</v>
       </c>
       <c r="VB2">
-        <v>-0.05238454696279188</v>
+        <v>-0.197120196127839</v>
       </c>
       <c r="VC2">
-        <v>-0.005670789054642659</v>
+        <v>-0.1878334911831667</v>
       </c>
       <c r="VD2">
-        <v>-0.005667932366032261</v>
+        <v>-0.1878334911831832</v>
       </c>
       <c r="VE2">
-        <v>-0.005882834837978106</v>
+        <v>-0.1879201959077096</v>
       </c>
       <c r="VF2">
-        <v>0.01018106484545879</v>
+        <v>-0.1878444372586825</v>
       </c>
       <c r="VG2">
-        <v>-0.01860347748350076</v>
+        <v>-0.1864076097637528</v>
       </c>
       <c r="VH2">
-        <v>-0.05242333868929426</v>
+        <v>-0.1972180477665198</v>
       </c>
       <c r="VI2">
-        <v>-0.005748233462914413</v>
+        <v>-0.187833491183176</v>
       </c>
       <c r="VJ2">
-        <v>-0.005670789054642657</v>
+        <v>-0.1878334911831666</v>
       </c>
       <c r="VK2">
-        <v>-0.005670789054590996</v>
+        <v>-0.187833491183131</v>
       </c>
       <c r="VL2">
-        <v>-0.005901632880330825</v>
+        <v>-0.1879273767825003</v>
       </c>
       <c r="VM2">
-        <v>0.01020571439451004</v>
+        <v>-0.1878467867168647</v>
       </c>
       <c r="VN2">
-        <v>-0.0186029072582399</v>
+        <v>-0.1864093240494357</v>
       </c>
       <c r="VO2">
-        <v>-0.05247950433423897</v>
+        <v>-0.1972964335401178</v>
       </c>
       <c r="VP2">
-        <v>-0.05249878274483672</v>
+        <v>-0.1974177610894581</v>
       </c>
       <c r="VQ2">
-        <v>-0.005802508408653321</v>
+        <v>-0.1878334911831784</v>
       </c>
       <c r="VR2">
-        <v>-0.005748233462914413</v>
+        <v>-0.187833491183176</v>
       </c>
       <c r="VS2">
-        <v>-0.005670789054574186</v>
+        <v>-0.1878334911831164</v>
       </c>
       <c r="VT2">
-        <v>-0.005919923674923771</v>
+        <v>-0.1879343638513482</v>
       </c>
       <c r="VU2">
-        <v>0.01022735779743743</v>
+        <v>-0.1878488496429153</v>
       </c>
       <c r="VV2">
-        <v>-0.01860232258309815</v>
+        <v>-0.1864110817769675</v>
       </c>
       <c r="VW2">
-        <v>-0.05248274104296966</v>
+        <v>-0.1973009507716169</v>
       </c>
       <c r="VX2">
-        <v>-0.05285932668661</v>
+        <v>-0.1983722020892978</v>
       </c>
       <c r="VY2">
-        <v>-0.005855531560741712</v>
+        <v>-0.1878334911831841</v>
       </c>
       <c r="VZ2">
-        <v>-0.005809119977481706</v>
+        <v>-0.1878334911831779</v>
       </c>
       <c r="WA2">
-        <v>-0.005670789054561607</v>
+        <v>-0.1878334911831041</v>
       </c>
       <c r="WB2">
-        <v>-0.006091748363753257</v>
+        <v>-0.1879999989778853</v>
       </c>
       <c r="WC2">
-        <v>0.01036898621386761</v>
+        <v>-0.1878623487893703</v>
       </c>
       <c r="WD2">
-        <v>-0.01860161980559025</v>
+        <v>-0.1864131945603693</v>
       </c>
       <c r="WE2">
-        <v>-0.0524843666398828</v>
+        <v>-0.1973032194961982</v>
       </c>
       <c r="WF2">
-        <v>-0.0529324146289029</v>
+        <v>-0.1983722020892968</v>
       </c>
       <c r="WG2">
-        <v>-0.05325239666537065</v>
+        <v>-0.1994945837730709</v>
       </c>
       <c r="WH2">
-        <v>-0.005902817319720945</v>
+        <v>-0.1878334911831941</v>
       </c>
       <c r="WI2">
-        <v>-0.005855531560741712</v>
+        <v>-0.1878334911831841</v>
       </c>
       <c r="WJ2">
-        <v>-0.005855531560741712</v>
+        <v>-0.1878334911831841</v>
       </c>
       <c r="WK2">
-        <v>-0.005949769530687409</v>
+        <v>-0.1878334911831808</v>
       </c>
       <c r="WL2">
-        <v>-0.005809119977481706</v>
+        <v>-0.1878334911831779</v>
       </c>
       <c r="WM2">
-        <v>-0.005670789054546026</v>
+        <v>-0.1878334911830897</v>
       </c>
       <c r="WN2">
-        <v>-0.006171721721996302</v>
+        <v>-0.1880305468252868</v>
       </c>
       <c r="WO2">
-        <v>0.01141331987516876</v>
+        <v>-0.1879618845559272</v>
       </c>
       <c r="WP2">
-        <v>-0.01860117921397798</v>
+        <v>-0.1864145191261313</v>
       </c>
       <c r="WQ2">
-        <v>-0.05248572979198843</v>
+        <v>-0.1973051219465897</v>
       </c>
       <c r="WR2">
-        <v>-0.0529709843392374</v>
+        <v>-0.1983722020892968</v>
       </c>
       <c r="WS2">
-        <v>-0.05362892641624612</v>
+        <v>-0.2005697821777905</v>
       </c>
       <c r="WT2">
-        <v>-0.005944845521031241</v>
+        <v>-0.1878334911831947</v>
       </c>
       <c r="WU2">
-        <v>-0.005902817319720953</v>
+        <v>-0.1878334911831941</v>
       </c>
       <c r="WV2">
-        <v>-0.005902817319720934</v>
+        <v>-0.1878334911831941</v>
       </c>
       <c r="WW2">
-        <v>-0.005982875498750084</v>
+        <v>-0.1878334911831808</v>
       </c>
       <c r="WX2">
-        <v>-0.0056707890545364</v>
+        <v>-0.1878334911830786</v>
       </c>
       <c r="WY2">
-        <v>-0.006209257474364582</v>
+        <v>-0.1880448843169922</v>
       </c>
       <c r="WZ2">
-        <v>-0.01859928569792728</v>
+        <v>-0.1864202116734982</v>
       </c>
       <c r="XA2">
-        <v>-0.05248684139546992</v>
+        <v>-0.1973066733295377</v>
       </c>
       <c r="XB2">
-        <v>-0.05363541770353487</v>
+        <v>-0.2005971648669455</v>
       </c>
       <c r="XC2">
-        <v>-0.05373071292044179</v>
+        <v>-0.2008549157460612</v>
       </c>
       <c r="XD2">
-        <v>-0.006002099162194656</v>
+        <v>-0.1878334911831954</v>
       </c>
       <c r="XE2">
-        <v>-0.005670789054525815</v>
+        <v>-0.1878334911830699</v>
       </c>
       <c r="XF2">
-        <v>-0.006234294759304863</v>
+        <v>-0.1880544476975722</v>
       </c>
       <c r="XG2">
-        <v>-0.01859130283307392</v>
+        <v>-0.1864442109400517</v>
       </c>
       <c r="XH2">
-        <v>-0.05248858628932653</v>
+        <v>-0.1973091085497345</v>
       </c>
       <c r="XI2">
-        <v>-0.05363700938825022</v>
+        <v>-0.2006038792309028</v>
       </c>
       <c r="XJ2">
-        <v>-0.05375413128764286</v>
+        <v>-0.2009205178021765</v>
       </c>
       <c r="XK2">
-        <v>-0.006018892636540443</v>
+        <v>-0.1878334911831948</v>
       </c>
       <c r="XL2">
-        <v>-0.005670789054517484</v>
+        <v>-0.1878334911830627</v>
       </c>
       <c r="XM2">
-        <v>-0.006272572660431751</v>
+        <v>-0.1880690684064822</v>
       </c>
       <c r="XN2">
-        <v>-0.052492747095318</v>
+        <v>-0.1973149154840221</v>
       </c>
       <c r="XO2">
-        <v>-0.0536381023547851</v>
+        <v>-0.2006084898107727</v>
       </c>
       <c r="XP2">
-        <v>-0.05376575265817007</v>
+        <v>-0.2009530728952061</v>
       </c>
       <c r="XQ2">
-        <v>-0.006074477013369414</v>
+        <v>-0.1878334911831948</v>
       </c>
       <c r="XR2">
-        <v>-0.005670789054508806</v>
+        <v>-0.1878334911830563</v>
       </c>
       <c r="XS2">
-        <v>-0.006347330882024429</v>
+        <v>-0.1880976227596161</v>
       </c>
       <c r="XT2">
-        <v>-0.05249562570398579</v>
+        <v>-0.1973189329512096</v>
       </c>
       <c r="XU2">
-        <v>-0.05363961744392242</v>
+        <v>-0.2006148810886209</v>
       </c>
       <c r="XV2">
-        <v>-0.05377852367791441</v>
+        <v>-0.2009888485583924</v>
       </c>
       <c r="XW2">
-        <v>-0.005670789054500009</v>
+        <v>-0.1878334911830498</v>
       </c>
       <c r="XX2">
-        <v>-0.006367996423782684</v>
+        <v>-0.1881055159811657</v>
       </c>
       <c r="XY2">
-        <v>-0.05249928584301802</v>
+        <v>-0.1973240411470331</v>
       </c>
       <c r="XZ2">
-        <v>-0.0536432101771232</v>
+        <v>-0.200630036792229</v>
       </c>
       <c r="YA2">
-        <v>-0.05379325958763993</v>
+        <v>-0.20103012855568</v>
       </c>
       <c r="YB2">
-        <v>-0.005670789054494737</v>
+        <v>-0.1878334911830463</v>
       </c>
       <c r="YC2">
-        <v>-0.006373995998553427</v>
+        <v>-0.1881078075152899</v>
       </c>
       <c r="YD2">
-        <v>-0.05250150934935515</v>
+        <v>-0.1973271443383227</v>
       </c>
       <c r="YE2">
-        <v>-0.05364594125020401</v>
+        <v>-0.2006415576937904</v>
       </c>
       <c r="YF2">
-        <v>-0.05380815664849565</v>
+        <v>-0.2010718600500425</v>
       </c>
       <c r="YG2">
-        <v>-0.0056707890544918</v>
+        <v>-0.1878334911830432</v>
       </c>
       <c r="YH2">
-        <v>-0.006374804685270884</v>
+        <v>-0.1881085908954991</v>
       </c>
       <c r="YI2">
-        <v>-0.006397344819832605</v>
+        <v>-0.1881142051352686</v>
       </c>
       <c r="YJ2">
-        <v>-0.05250351670332685</v>
+        <v>-0.1973299458619934</v>
       </c>
       <c r="YK2">
-        <v>-0.05364785842406067</v>
+        <v>-0.2006496452277735</v>
       </c>
       <c r="YL2">
-        <v>-0.05382467203489873</v>
+        <v>-0.2011181250705157</v>
       </c>
       <c r="YM2">
-        <v>-0.005670789054480085</v>
+        <v>-0.187833491183039</v>
       </c>
       <c r="YN2">
-        <v>-0.006375561547574594</v>
+        <v>-0.1881093240730416</v>
       </c>
       <c r="YO2">
-        <v>-0.006428155503859632</v>
+        <v>-0.1881226472436252</v>
       </c>
       <c r="YP2">
-        <v>-0.05250690218100063</v>
+        <v>-0.1973346707388137</v>
       </c>
       <c r="YQ2">
-        <v>-0.05364986683319855</v>
+        <v>-0.2006581176590644</v>
       </c>
       <c r="YR2">
-        <v>-0.05384868899715515</v>
+        <v>-0.2011854046031561</v>
       </c>
       <c r="YS2">
-        <v>-0.005670789054472642</v>
+        <v>-0.1878334911830377</v>
       </c>
       <c r="YT2">
-        <v>-0.006376341213689576</v>
+        <v>-0.188110079340773</v>
       </c>
       <c r="YU2">
-        <v>-0.006556161975475904</v>
+        <v>-0.1881577200149026</v>
       </c>
       <c r="YV2">
-        <v>-0.05251023056868009</v>
+        <v>-0.1973393159417808</v>
       </c>
       <c r="YW2">
-        <v>-0.05365151575835123</v>
+        <v>-0.2006650736333975</v>
       </c>
       <c r="YX2">
-        <v>-0.05373677737170019</v>
+        <v>-0.2012551733905981</v>
       </c>
       <c r="YY2">
-        <v>-0.05394774435370202</v>
+        <v>-0.2012724936219112</v>
       </c>
       <c r="YZ2">
-        <v>-0.005670789054469903</v>
+        <v>-0.1878334911830371</v>
       </c>
       <c r="ZA2">
-        <v>-0.006381978383217088</v>
+        <v>-0.1881155401038695</v>
       </c>
       <c r="ZB2">
-        <v>-0.006610525514556739</v>
+        <v>-0.1881726147491109</v>
       </c>
       <c r="ZC2">
-        <v>-0.05251180538208704</v>
+        <v>-0.1973415138020441</v>
       </c>
       <c r="ZD2">
-        <v>-0.05365424592726116</v>
+        <v>-0.2006765908606165</v>
       </c>
       <c r="ZE2">
-        <v>-0.05366957413416375</v>
+        <v>-0.2012970706104976</v>
       </c>
       <c r="ZF2">
-        <v>-0.05457502005042855</v>
+        <v>-0.2018239842581638</v>
       </c>
       <c r="ZG2">
-        <v>-0.005670789054469903</v>
+        <v>-0.1878334911830371</v>
       </c>
       <c r="ZH2">
-        <v>-0.00642302932145382</v>
+        <v>-0.1881553063973047</v>
       </c>
       <c r="ZI2">
-        <v>-0.0525135351023052</v>
+        <v>-0.1973439278559294</v>
       </c>
       <c r="ZJ2">
-        <v>-0.05366306904766369</v>
+        <v>-0.2007138115397238</v>
       </c>
       <c r="ZK2">
-        <v>-0.05360723319455495</v>
+        <v>-0.2013359370620047</v>
       </c>
       <c r="ZL2">
-        <v>-0.05502405928223374</v>
+        <v>-0.202218764534468</v>
       </c>
       <c r="ZM2">
-        <v>-0.05251519526469062</v>
+        <v>-0.1973462448333188</v>
       </c>
       <c r="ZN2">
-        <v>-0.0536836855015437</v>
+        <v>-0.2008007847303778</v>
       </c>
       <c r="ZO2">
-        <v>-0.05354640489045379</v>
+        <v>-0.2013738610038575</v>
       </c>
       <c r="ZP2">
-        <v>-0.05512197104214808</v>
+        <v>-0.2023931539353376</v>
       </c>
       <c r="ZQ2">
-        <v>-0.05620372552928944</v>
+        <v>-0.2031614318798191</v>
       </c>
       <c r="ZR2">
-        <v>-0.0525171974084363</v>
+        <v>-0.1973490390920601</v>
       </c>
       <c r="ZS2">
-        <v>-0.05350077945853472</v>
+        <v>-0.2014023069330459</v>
       </c>
       <c r="ZT2">
-        <v>-0.0551311309360869</v>
+        <v>-0.2024063801837081</v>
       </c>
       <c r="ZU2">
-        <v>-0.0551219592963972</v>
+        <v>-0.202401755610944</v>
       </c>
       <c r="ZV2">
-        <v>-0.05627956566093006</v>
+        <v>-0.2033860020318297</v>
       </c>
       <c r="ZW2">
-        <v>-0.05643468185908562</v>
+        <v>-0.2033146053075993</v>
       </c>
       <c r="ZX2">
-        <v>-0.0525203910851581</v>
+        <v>-0.1973534962960566</v>
       </c>
       <c r="ZY2">
-        <v>-0.05342830023311716</v>
+        <v>-0.2014474959235413</v>
       </c>
       <c r="ZZ2">
-        <v>-0.05513399713182592</v>
+        <v>-0.2024105187755658</v>
       </c>
       <c r="AAA2">
-        <v>-0.05512193536845992</v>
+        <v>-0.2024192786806332</v>
       </c>
       <c r="AAB2">
-        <v>-0.05632350306643333</v>
+        <v>-0.2035161119933586</v>
       </c>
       <c r="AAC2">
-        <v>-0.05666522200083654</v>
+        <v>-0.2034869954430193</v>
       </c>
       <c r="AAD2">
-        <v>-0.05252913184750076</v>
+        <v>-0.1973656952142414</v>
       </c>
       <c r="AAE2">
-        <v>-0.0533060968270249</v>
+        <v>-0.2015236884249699</v>
       </c>
       <c r="AAF2">
-        <v>-0.05513584001467541</v>
+        <v>-0.2024131797744146</v>
       </c>
       <c r="AAG2">
-        <v>-0.05727342230424671</v>
+        <v>-0.2039417629742915</v>
       </c>
       <c r="AAH2">
-        <v>-0.05666522200082554</v>
+        <v>-0.2034869954430248</v>
       </c>
       <c r="AAI2">
-        <v>-0.05254076425273993</v>
+        <v>-0.197381929840488</v>
       </c>
       <c r="AAJ2">
-        <v>-0.05239040899946856</v>
+        <v>-0.2020946787420622</v>
       </c>
       <c r="AAK2">
-        <v>-0.0551369515906014</v>
+        <v>-0.2024147848157414</v>
       </c>
       <c r="AAL2">
-        <v>-0.05794361716390124</v>
+        <v>-0.2044302641583772</v>
       </c>
       <c r="AAM2">
-        <v>-0.05723410507804909</v>
+        <v>-0.2039729101182777</v>
       </c>
       <c r="AAN2">
-        <v>-0.05666522200081509</v>
+        <v>-0.2034869954430319</v>
       </c>
       <c r="AAO2">
-        <v>-0.05254187220478253</v>
+        <v>-0.197383476142111</v>
       </c>
       <c r="AAP2">
-        <v>-0.05163917252918442</v>
+        <v>-0.2025632138062008</v>
       </c>
       <c r="AAQ2">
-        <v>-0.05513807507456221</v>
+        <v>-0.2024164070518381</v>
       </c>
       <c r="AAR2">
-        <v>-0.05863545399509938</v>
+        <v>-0.2049345053984868</v>
       </c>
       <c r="AAS2">
-        <v>-0.05722989597439933</v>
+        <v>-0.2039762445188874</v>
       </c>
       <c r="AAT2">
-        <v>-0.05666522200080831</v>
+        <v>-0.2034869954430346</v>
       </c>
       <c r="AAU2">
-        <v>-0.05254274843667048</v>
+        <v>-0.1973846990461455</v>
       </c>
       <c r="AAV2">
-        <v>-0.05140114857550616</v>
+        <v>-0.2027116828911844</v>
       </c>
       <c r="AAW2">
-        <v>-0.05513907858260722</v>
+        <v>-0.2024178560510051</v>
       </c>
       <c r="AAX2">
-        <v>-0.05887174619299066</v>
+        <v>-0.2050795902942197</v>
       </c>
       <c r="AAY2">
-        <v>-0.05881879695028323</v>
+        <v>-0.2051596710711207</v>
       </c>
       <c r="AAZ2">
-        <v>-0.05722828887508434</v>
+        <v>-0.2039775176405551</v>
       </c>
       <c r="ABA2">
-        <v>-0.05666522200080057</v>
+        <v>-0.2034869954430381</v>
       </c>
       <c r="ABB2">
-        <v>-0.05254359946818752</v>
+        <v>-0.1973858867797166</v>
       </c>
       <c r="ABC2">
-        <v>-0.05118445561130254</v>
+        <v>-0.2028468537679093</v>
       </c>
       <c r="ABD2">
-        <v>-0.05514020918808289</v>
+        <v>-0.2024194885707979</v>
       </c>
       <c r="ABE2">
-        <v>-0.05919285461836384</v>
+        <v>-0.205276745440429</v>
       </c>
       <c r="ABF2">
-        <v>-0.05884339225832241</v>
+        <v>-0.2051898771870575</v>
       </c>
       <c r="ABG2">
-        <v>-0.05722658887892915</v>
+        <v>-0.2039788643521062</v>
       </c>
       <c r="ABH2">
-        <v>-0.05666522200079992</v>
+        <v>-0.203486995443042</v>
       </c>
       <c r="ABI2">
-        <v>-0.05254451101504445</v>
+        <v>-0.1973871589711081</v>
       </c>
       <c r="ABJ2">
-        <v>-0.0510664319963764</v>
+        <v>-0.2029204785680075</v>
       </c>
       <c r="ABK2">
-        <v>-0.05514111503200052</v>
+        <v>-0.2024207965499812</v>
       </c>
       <c r="ABL2">
-        <v>-0.05956884319025871</v>
+        <v>-0.2055075851651714</v>
       </c>
       <c r="ABM2">
-        <v>-0.05885631417335906</v>
+        <v>-0.205205746946424</v>
       </c>
       <c r="ABN2">
-        <v>-0.05722517802716682</v>
+        <v>-0.2039799820064662</v>
       </c>
       <c r="ABO2">
-        <v>-0.05666522200079893</v>
+        <v>-0.2034869954430504</v>
       </c>
       <c r="ABP2">
-        <v>-0.05254535380929108</v>
+        <v>-0.1973883352087759</v>
       </c>
       <c r="ABQ2">
-        <v>-0.05097217111891809</v>
+        <v>-0.2029792812873251</v>
       </c>
       <c r="ABR2">
-        <v>-0.05514220159292911</v>
+        <v>-0.2024223654729854</v>
       </c>
       <c r="ABS2">
-        <v>-0.05987077448058232</v>
+        <v>-0.2056929486036373</v>
       </c>
       <c r="ABT2">
-        <v>-0.05888566161302986</v>
+        <v>-0.2052648071445011</v>
       </c>
       <c r="ABU2">
-        <v>-0.05885774982311745</v>
+        <v>-0.2052067588948399</v>
       </c>
       <c r="ABV2">
-        <v>-0.05722350722892464</v>
+        <v>-0.2039813055847427</v>
       </c>
       <c r="ABW2">
-        <v>-0.05666522200080339</v>
+        <v>-0.2034869954430639</v>
       </c>
       <c r="ABX2">
-        <v>-0.05254614805408437</v>
+        <v>-0.1973894436890264</v>
       </c>
       <c r="ABY2">
-        <v>-0.05089179302346269</v>
+        <v>-0.2030294245350568</v>
       </c>
       <c r="ABZ2">
-        <v>-0.05514337249289987</v>
+        <v>-0.2024240561764406</v>
       </c>
       <c r="ACA2">
-        <v>-0.05995693475622497</v>
+        <v>-0.2057461995052348</v>
       </c>
       <c r="ACB2">
-        <v>-0.05998765930608452</v>
+        <v>-0.2057631223057806</v>
       </c>
       <c r="ACC2">
-        <v>-0.05890951773616408</v>
+        <v>-0.2053128169422239</v>
       </c>
       <c r="ACD2">
-        <v>-0.05885878800482187</v>
+        <v>-0.2052074906792813</v>
       </c>
       <c r="ACE2">
-        <v>-0.05722187779147886</v>
+        <v>-0.203982596396069</v>
       </c>
       <c r="ACF2">
-        <v>-0.05666522200080513</v>
+        <v>-0.2034869954430746</v>
       </c>
       <c r="ACG2">
-        <v>-0.05254725269710324</v>
+        <v>-0.1973909853738811</v>
       </c>
       <c r="ACH2">
-        <v>-0.05079746833541905</v>
+        <v>-0.2030882694506944</v>
       </c>
       <c r="ACI2">
-        <v>-0.05514550874044678</v>
+        <v>-0.202427140780076</v>
       </c>
       <c r="ACJ2">
-        <v>-0.06007572820305828</v>
+        <v>-0.2058196180365031</v>
       </c>
       <c r="ACK2">
-        <v>-0.06008536447318206</v>
+        <v>-0.2058217800396176</v>
       </c>
       <c r="ACL2">
-        <v>-0.05885966413799852</v>
+        <v>-0.2052081082402941</v>
       </c>
       <c r="ACM2">
-        <v>-0.05721963765901893</v>
+        <v>-0.2039843709864926</v>
       </c>
       <c r="ACN2">
-        <v>-0.05666522200080678</v>
+        <v>-0.203486995443085</v>
       </c>
       <c r="ACO2">
-        <v>-0.05254860639266459</v>
+        <v>-0.1973928746470265</v>
       </c>
       <c r="ACP2">
-        <v>-0.05071127970581948</v>
+        <v>-0.2031420397748897</v>
       </c>
       <c r="ACQ2">
-        <v>-0.05516149127267216</v>
+        <v>-0.2024502185674681</v>
       </c>
       <c r="ACR2">
-        <v>-0.06036798088433395</v>
+        <v>-0.2060002349106074</v>
       </c>
       <c r="ACS2">
-        <v>-0.06009984768339865</v>
+        <v>-0.2058217800396176</v>
       </c>
       <c r="ACT2">
-        <v>-0.06008741328441385</v>
+        <v>-0.2058233248825998</v>
       </c>
       <c r="ACU2">
-        <v>-0.05886114402908286</v>
+        <v>-0.2052091513726771</v>
       </c>
       <c r="ACV2">
-        <v>-0.05721655598494609</v>
+        <v>-0.2039868122252612</v>
       </c>
       <c r="ACW2">
-        <v>-0.05666522200080518</v>
+        <v>-0.2034869954430894</v>
       </c>
       <c r="ACX2">
-        <v>-0.05255502257000255</v>
+        <v>-0.1974018293337502</v>
       </c>
       <c r="ACY2">
-        <v>-0.05057756755570221</v>
+        <v>-0.2032254606329808</v>
       </c>
       <c r="ACZ2">
-        <v>-0.05521047037884331</v>
+        <v>-0.202520941826671</v>
       </c>
       <c r="ADA2">
-        <v>-0.06060487376303442</v>
+        <v>-0.2061466327221904</v>
       </c>
       <c r="ADB2">
-        <v>-0.06011403976938781</v>
+        <v>-0.2058217800396176</v>
       </c>
       <c r="ADC2">
-        <v>-0.06008937221257152</v>
+        <v>-0.2058248019516862</v>
       </c>
       <c r="ADD2">
-        <v>-0.0588632164430468</v>
+        <v>-0.2052106121569343</v>
       </c>
       <c r="ADE2">
-        <v>-0.05721329468956848</v>
+        <v>-0.2039893957500864</v>
       </c>
       <c r="ADF2">
-        <v>-0.05666522200080519</v>
+        <v>-0.203486995443094</v>
       </c>
       <c r="ADG2">
-        <v>-0.05260988349042393</v>
+        <v>-0.1974783959452915</v>
       </c>
       <c r="ADH2">
-        <v>-0.0503076131880847</v>
+        <v>-0.203393888720325</v>
       </c>
       <c r="ADI2">
-        <v>-0.06078998606384106</v>
+        <v>-0.2062610269498551</v>
       </c>
       <c r="ADJ2">
-        <v>-0.06009148404142668</v>
+        <v>-0.2058263943104411</v>
       </c>
       <c r="ADK2">
-        <v>-0.05886475422397058</v>
+        <v>-0.2052116960936649</v>
       </c>
       <c r="ADL2">
-        <v>-0.05721112829371444</v>
+        <v>-0.2039911119165929</v>
       </c>
       <c r="ADM2">
-        <v>-0.05666522200080731</v>
+        <v>-0.2034869954430963</v>
       </c>
       <c r="ADN2">
-        <v>-0.05022620899430756</v>
+        <v>-0.2033966554548917</v>
       </c>
       <c r="ADO2">
-        <v>-0.05031217130897397</v>
+        <v>-0.2036773628567831</v>
       </c>
       <c r="ADP2">
-        <v>-0.06095730020301702</v>
+        <v>-0.2063644196778608</v>
       </c>
       <c r="ADQ2">
-        <v>-0.06009336974498112</v>
+        <v>-0.2058278161661369</v>
       </c>
       <c r="ADR2">
-        <v>-0.05886730162447542</v>
+        <v>-0.2052134916811679</v>
       </c>
       <c r="ADS2">
-        <v>-0.05720892341863862</v>
+        <v>-0.2039928585625039</v>
       </c>
       <c r="ADT2">
-        <v>-0.05666522200080785</v>
+        <v>-0.2034869954430984</v>
       </c>
       <c r="ADU2">
-        <v>-0.05015521666029862</v>
+        <v>-0.2033990683113225</v>
       </c>
       <c r="ADV2">
-        <v>-0.05031946503570413</v>
+        <v>-0.2041310389654195</v>
       </c>
       <c r="ADW2">
-        <v>-0.06096470198767421</v>
+        <v>-0.2063694535126442</v>
       </c>
       <c r="ADX2">
-        <v>-0.06097737696706751</v>
+        <v>-0.2064021294904127</v>
       </c>
       <c r="ADY2">
-        <v>-0.06009545219219815</v>
+        <v>-0.2058293863698769</v>
       </c>
       <c r="ADZ2">
-        <v>-0.05888498326150238</v>
+        <v>-0.2052259549286773</v>
       </c>
       <c r="AEA2">
-        <v>-0.05720786917123287</v>
+        <v>-0.2039936937094263</v>
       </c>
       <c r="AEB2">
-        <v>-0.05666522200080799</v>
+        <v>-0.2034869954430988</v>
       </c>
       <c r="AEC2">
-        <v>-0.05009650262945328</v>
+        <v>-0.2034010638554516</v>
       </c>
       <c r="AED2">
-        <v>-0.05032569687994924</v>
+        <v>-0.2045187351751128</v>
       </c>
       <c r="AEE2">
-        <v>-0.06097212327116994</v>
+        <v>-0.2063745005835787</v>
       </c>
       <c r="AEF2">
-        <v>-0.0609995486401648</v>
+        <v>-0.2064440545594012</v>
       </c>
       <c r="AEG2">
-        <v>-0.06097737696706751</v>
+        <v>-0.2064021294904127</v>
       </c>
       <c r="AEH2">
-        <v>-0.06009679481540618</v>
+        <v>-0.2058303987324281</v>
       </c>
       <c r="AEI2">
-        <v>-0.05892404032413954</v>
+        <v>-0.2052534849570106</v>
       </c>
       <c r="AEJ2">
-        <v>-0.05720619226038415</v>
+        <v>-0.2039950221124835</v>
       </c>
       <c r="AEK2">
-        <v>-0.05666522200081116</v>
+        <v>-0.2034869954430957</v>
       </c>
       <c r="AEL2">
-        <v>-0.05005084366014148</v>
+        <v>-0.203402615688764</v>
       </c>
       <c r="AEM2">
-        <v>-0.05032922388747275</v>
+        <v>-0.2047381864079114</v>
       </c>
       <c r="AEN2">
-        <v>-0.06097955901233684</v>
+        <v>-0.2063795574620948</v>
       </c>
       <c r="AEO2">
-        <v>-0.06101813892570499</v>
+        <v>-0.2064792076129845</v>
       </c>
       <c r="AEP2">
-        <v>-0.0609995486401648</v>
+        <v>-0.2064440545594012</v>
       </c>
       <c r="AEQ2">
-        <v>-0.06009885699453036</v>
+        <v>-0.2058319536530554</v>
       </c>
       <c r="AER2">
-        <v>-0.05720461801065913</v>
+        <v>-0.2039962691886552</v>
       </c>
       <c r="AES2">
-        <v>-0.05666522200081376</v>
+        <v>-0.2034869954430961</v>
       </c>
       <c r="AET2">
-        <v>-0.05000440558453844</v>
+        <v>-0.2034041940004201</v>
       </c>
       <c r="AEU2">
-        <v>-0.06098694979360472</v>
+        <v>-0.2063845837398074</v>
       </c>
       <c r="AEV2">
-        <v>-0.06103812309966423</v>
+        <v>-0.2065169965594151</v>
       </c>
       <c r="AEW2">
-        <v>-0.061018138925705</v>
+        <v>-0.2064792076129845</v>
       </c>
       <c r="AEX2">
-        <v>-0.06011581901306607</v>
+        <v>-0.2058447433103755</v>
       </c>
       <c r="AEY2">
-        <v>-0.05720236866472928</v>
+        <v>-0.2039980510543818</v>
       </c>
       <c r="AEZ2">
-        <v>-0.05666522200081376</v>
+        <v>-0.2034869954430961</v>
       </c>
       <c r="AFA2">
-        <v>-0.04996410552783992</v>
+        <v>-0.203405563695243</v>
       </c>
       <c r="AFB2">
-        <v>-0.06099436871673834</v>
+        <v>-0.2063896291314053</v>
       </c>
       <c r="AFC2">
-        <v>-0.06105453088303366</v>
+        <v>-0.2065480228597857</v>
       </c>
       <c r="AFD2">
-        <v>-0.06103812309966423</v>
+        <v>-0.2065169965594151</v>
       </c>
       <c r="AFE2">
-        <v>-0.06017427880010571</v>
+        <v>-0.2058888228208736</v>
       </c>
       <c r="AFF2">
-        <v>-0.05717862494388007</v>
+        <v>-0.2040168599458057</v>
       </c>
       <c r="AFG2">
-        <v>-0.04993516137633692</v>
+        <v>-0.2034065474314741</v>
       </c>
       <c r="AFH2">
-        <v>-0.06100178265158259</v>
+        <v>-0.2063946711059277</v>
       </c>
       <c r="AFI2">
-        <v>-0.06107214651340605</v>
+        <v>-0.2065813332459537</v>
       </c>
       <c r="AFJ2">
-        <v>-0.06105453088303364</v>
+        <v>-0.2065480228597856</v>
       </c>
       <c r="AFK2">
-        <v>-0.05716912787652222</v>
+        <v>-0.2040243830735974</v>
       </c>
       <c r="AFL2">
-        <v>-0.04990155712510489</v>
+        <v>-0.2034076895515981</v>
       </c>
       <c r="AFM2">
-        <v>-0.06100920132095598</v>
+        <v>-0.2063997162755481</v>
       </c>
       <c r="AFN2">
-        <v>-0.06111025938366345</v>
+        <v>-0.20665564923561</v>
       </c>
       <c r="AFO2">
-        <v>-0.0610721465134056</v>
+        <v>-0.2065813332459151</v>
       </c>
       <c r="AFP2">
-        <v>-0.06107214651340605</v>
+        <v>-0.2065813332459537</v>
       </c>
       <c r="AFQ2">
-        <v>-0.05716430524367681</v>
+        <v>-0.2040282033145058</v>
       </c>
       <c r="AFR2">
-        <v>-0.04985093179102084</v>
+        <v>-0.2034094101720532</v>
       </c>
       <c r="AFS2">
-        <v>-0.06101282262769022</v>
+        <v>-0.2064021789867461</v>
       </c>
       <c r="AFT2">
-        <v>-0.06111583547433899</v>
+        <v>-0.2066665221212536</v>
       </c>
       <c r="AFU2">
-        <v>-0.0610721465134047</v>
+        <v>-0.206581333245874</v>
       </c>
       <c r="AFV2">
-        <v>-0.0610721465134056</v>
+        <v>-0.2065813332459151</v>
       </c>
       <c r="AFW2">
-        <v>-0.05716323808490566</v>
+        <v>-0.204029048660724</v>
       </c>
       <c r="AFX2">
-        <v>-0.04976822000578408</v>
+        <v>-0.2034122213217367</v>
       </c>
       <c r="AFY2">
-        <v>-0.06109421536194401</v>
+        <v>-0.2064575294964497</v>
       </c>
       <c r="AFZ2">
-        <v>-0.06113154467086628</v>
+        <v>-0.2066971538213709</v>
       </c>
       <c r="AGA2">
-        <v>-0.06107214651340734</v>
+        <v>-0.2065813332458152</v>
       </c>
       <c r="AGB2">
-        <v>-0.0610721465134047</v>
+        <v>-0.206581333245874</v>
       </c>
       <c r="AGC2">
-        <v>-0.05716239764414632</v>
+        <v>-0.2040297144125499</v>
       </c>
       <c r="AGD2">
-        <v>-0.04909989443794971</v>
+        <v>-0.2034233609362924</v>
       </c>
       <c r="AGE2">
-        <v>-0.04978049822286673</v>
+        <v>-0.2034426256605726</v>
       </c>
       <c r="AGF2">
-        <v>-0.06114714695481114</v>
+        <v>-0.2064935236275811</v>
       </c>
       <c r="AGG2">
-        <v>-0.06114999137997642</v>
+        <v>-0.206733123739997</v>
       </c>
       <c r="AGH2">
-        <v>-0.06107214651340715</v>
+        <v>-0.2065813332457883</v>
       </c>
       <c r="AGI2">
-        <v>-0.06107214651340734</v>
+        <v>-0.2065813332458152</v>
       </c>
       <c r="AGJ2">
-        <v>-0.05716149716602851</v>
+        <v>-0.2040304277222655</v>
       </c>
       <c r="AGK2">
-        <v>-0.06119344316793955</v>
+        <v>-0.2065250045881876</v>
       </c>
       <c r="AGL2">
-        <v>-0.06115238433007161</v>
+        <v>-0.2067377898641347</v>
       </c>
       <c r="AGM2">
-        <v>-0.06107214651340478</v>
+        <v>-0.2065813332457718</v>
       </c>
       <c r="AGN2">
-        <v>-0.06107214651340715</v>
+        <v>-0.2065813332457883</v>
       </c>
       <c r="AGO2">
-        <v>-0.05716077671709718</v>
+        <v>-0.2040309984223133</v>
       </c>
       <c r="AGP2">
-        <v>-0.06124200708362673</v>
+        <v>-0.2065580265298733</v>
       </c>
       <c r="AGQ2">
-        <v>-0.06115223672305478</v>
+        <v>-0.2067406861836781</v>
       </c>
       <c r="AGR2">
-        <v>-0.06115940475902653</v>
+        <v>-0.206744394950845</v>
       </c>
       <c r="AGS2">
-        <v>-0.06107214651340475</v>
+        <v>-0.2065813332457677</v>
       </c>
       <c r="AGT2">
-        <v>-0.06107214651340478</v>
+        <v>-0.2065813332457718</v>
       </c>
       <c r="AGU2">
-        <v>-0.05716007719017529</v>
+        <v>-0.2040315525487962</v>
       </c>
       <c r="AGV2">
-        <v>-0.06132493445861282</v>
+        <v>-0.2066144121005128</v>
       </c>
       <c r="AGW2">
-        <v>-0.06115210013833718</v>
+        <v>-0.2067433662294199</v>
       </c>
       <c r="AGX2">
-        <v>-0.06117583455326885</v>
+        <v>-0.2067598527204843</v>
       </c>
       <c r="AGY2">
-        <v>-0.06107214651340476</v>
+        <v>-0.2065813332457677</v>
       </c>
       <c r="AGZ2">
-        <v>-0.06107214651340475</v>
+        <v>-0.2065813332457677</v>
       </c>
       <c r="AHA2">
-        <v>-0.05715937943697994</v>
+        <v>-0.2040321052699356</v>
       </c>
       <c r="AHB2">
-        <v>-0.06134527577421374</v>
+        <v>-0.2066282424863904</v>
       </c>
       <c r="AHC2">
-        <v>-0.06115189244929502</v>
+        <v>-0.2067474414811092</v>
       </c>
       <c r="AHD2">
-        <v>-0.06121481149816238</v>
+        <v>-0.2067965236656527</v>
       </c>
       <c r="AHE2">
-        <v>-0.05715868984699492</v>
+        <v>-0.2040326515243484</v>
       </c>
       <c r="AHF2">
-        <v>-0.06134383612288101</v>
+        <v>-0.2066385779983943</v>
       </c>
       <c r="AHG2">
-        <v>-0.06150304855413888</v>
+        <v>-0.2066543225521411</v>
       </c>
       <c r="AHH2">
-        <v>-0.06115162998712757</v>
+        <v>-0.206752591497321</v>
       </c>
       <c r="AHI2">
-        <v>-0.05714635845509534</v>
+        <v>-0.2040424197112057</v>
       </c>
       <c r="AHJ2">
-        <v>-0.06134147232983428</v>
+        <v>-0.2066555481672427</v>
       </c>
       <c r="AHK2">
-        <v>-0.06163687085928233</v>
+        <v>-0.2066764421319582</v>
       </c>
       <c r="AHL2">
-        <v>-0.06115060822698656</v>
+        <v>-0.2067726405410667</v>
       </c>
       <c r="AHM2">
-        <v>-0.05705521725163631</v>
+        <v>-0.2040424197112073</v>
       </c>
       <c r="AHN2">
-        <v>-0.05716486317714882</v>
+        <v>-0.2040681507342086</v>
       </c>
       <c r="AHO2">
-        <v>-0.0613410049555438</v>
+        <v>-0.2066589035575861</v>
       </c>
       <c r="AHP2">
-        <v>-0.06186181886448422</v>
+        <v>-0.2067136209664562</v>
       </c>
       <c r="AHQ2">
-        <v>-0.06114875213256601</v>
+        <v>-0.2068090614766822</v>
       </c>
       <c r="AHR2">
-        <v>-0.05699468736605592</v>
+        <v>-0.2040424197112073</v>
       </c>
       <c r="AHS2">
-        <v>-0.06134061003419747</v>
+        <v>-0.2066617387941632</v>
       </c>
       <c r="AHT2">
-        <v>-0.0613402772351964</v>
+        <v>-0.2066641280414387</v>
       </c>
       <c r="AHU2">
-        <v>-0.06133984431905873</v>
+        <v>-0.2066672360576308</v>
       </c>
       <c r="AHV2">
-        <v>-0.06133906080789508</v>
+        <v>-0.20667286109406</v>
       </c>
       <c r="AHW2">
-        <v>-0.06133770233868068</v>
+        <v>-0.2066826139340968</v>
       </c>
       <c r="AHX2">
-        <v>-0.06132657499115608</v>
+        <v>-0.2067625015851659</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.230595815304988</v>
+        <v>1.251315717139422</v>
       </c>
       <c r="D3">
-        <v>1.243644818197597</v>
+        <v>1.263773260407</v>
       </c>
       <c r="E3">
-        <v>1.245011005850688</v>
+        <v>1.265077490138578</v>
       </c>
       <c r="F3">
-        <v>1.246290596578311</v>
+        <v>1.266299044346342</v>
       </c>
       <c r="G3">
-        <v>1.247405969285067</v>
+        <v>1.267363824111823</v>
       </c>
       <c r="H3">
-        <v>1.249162653271179</v>
+        <v>1.269040816766123</v>
       </c>
       <c r="I3">
-        <v>1.367458288810964</v>
+        <v>1.38194548692703</v>
       </c>
       <c r="J3">
-        <v>1.372696092149775</v>
+        <v>1.386943476730803</v>
       </c>
       <c r="K3">
-        <v>1.377051706483832</v>
+        <v>1.391099596633425</v>
       </c>
       <c r="L3">
-        <v>1.380871184334642</v>
+        <v>1.394744082174197</v>
       </c>
       <c r="M3">
-        <v>1.383719459681164</v>
+        <v>1.397461828862257</v>
       </c>
       <c r="N3">
-        <v>1.386391908372165</v>
+        <v>1.400011781118552</v>
       </c>
       <c r="O3">
-        <v>1.388034556712098</v>
+        <v>1.401579123535956</v>
       </c>
       <c r="P3">
-        <v>1.39212182163212</v>
+        <v>1.405478970644311</v>
       </c>
       <c r="Q3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202058</v>
       </c>
       <c r="R3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202061</v>
       </c>
       <c r="S3">
-        <v>1.46485698412422</v>
+        <v>1.474869303566741</v>
       </c>
       <c r="T3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202062</v>
       </c>
       <c r="U3">
-        <v>1.467580418014581</v>
+        <v>1.477467142694391</v>
       </c>
       <c r="V3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202063</v>
       </c>
       <c r="W3">
-        <v>1.470636849206363</v>
+        <v>1.480382592115355</v>
       </c>
       <c r="X3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202064</v>
       </c>
       <c r="Y3">
-        <v>1.475609567780855</v>
+        <v>1.485125869035463</v>
       </c>
       <c r="Z3">
-        <v>1.425117132291521</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AA3">
-        <v>1.484644187457904</v>
+        <v>1.493743412892988</v>
       </c>
       <c r="AB3">
-        <v>1.42511713229152</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AC3">
-        <v>1.487983569661234</v>
+        <v>1.496594651355093</v>
       </c>
       <c r="AD3">
-        <v>1.5924177939428</v>
+        <v>1.596676250629552</v>
       </c>
       <c r="AE3">
-        <v>1.425117132291519</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AF3">
-        <v>1.48848055948663</v>
+        <v>1.496996228175901</v>
       </c>
       <c r="AG3">
-        <v>1.48839487099756</v>
+        <v>1.496968017896956</v>
       </c>
       <c r="AH3">
-        <v>1.620740865613495</v>
+        <v>1.623720049214696</v>
       </c>
       <c r="AI3">
-        <v>1.425117132291517</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AJ3">
-        <v>1.489618363464763</v>
+        <v>1.497915590464502</v>
       </c>
       <c r="AK3">
-        <v>1.488408798466744</v>
+        <v>1.496980660874313</v>
       </c>
       <c r="AL3">
-        <v>1.623457246984783</v>
+        <v>1.626389288184133</v>
       </c>
       <c r="AM3">
-        <v>1.702441386701152</v>
+        <v>1.701627874046175</v>
       </c>
       <c r="AN3">
-        <v>1.425117132291516</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AO3">
-        <v>1.488428823500911</v>
+        <v>1.496998839061433</v>
       </c>
       <c r="AP3">
-        <v>1.623553417715449</v>
+        <v>1.626482391377096</v>
       </c>
       <c r="AQ3">
-        <v>1.623879250515929</v>
+        <v>1.626810291492347</v>
       </c>
       <c r="AR3">
-        <v>1.758394903911621</v>
+        <v>1.754968717229415</v>
       </c>
       <c r="AS3">
-        <v>1.702441386701145</v>
+        <v>1.701627874046215</v>
       </c>
       <c r="AT3">
-        <v>1.425117132291515</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="AU3">
-        <v>1.488454503985509</v>
+        <v>1.49702215112509</v>
       </c>
       <c r="AV3">
-        <v>1.62359676336293</v>
+        <v>1.626524354479847</v>
       </c>
       <c r="AW3">
-        <v>1.624894338216935</v>
+        <v>1.627822974036083</v>
       </c>
       <c r="AX3">
-        <v>1.800280526987098</v>
+        <v>1.794890468158474</v>
       </c>
       <c r="AY3">
-        <v>1.702441386701144</v>
+        <v>1.701627874046235</v>
       </c>
       <c r="AZ3">
-        <v>1.425117132291515</v>
+        <v>1.436959203202065</v>
       </c>
       <c r="BA3">
-        <v>1.488517046334004</v>
+        <v>1.497078925463255</v>
       </c>
       <c r="BB3">
-        <v>1.623642699535147</v>
+        <v>1.626568825509149</v>
       </c>
       <c r="BC3">
-        <v>1.806291745905713</v>
+        <v>1.800619274547335</v>
       </c>
       <c r="BD3">
-        <v>1.800280526987134</v>
+        <v>1.794890468158503</v>
       </c>
       <c r="BE3">
-        <v>1.702441386701155</v>
+        <v>1.701627874046261</v>
       </c>
       <c r="BF3">
-        <v>1.425117132291515</v>
+        <v>1.436959203202066</v>
       </c>
       <c r="BG3">
-        <v>1.488570592653226</v>
+        <v>1.49712753349438</v>
       </c>
       <c r="BH3">
-        <v>1.623686449665686</v>
+        <v>1.626611180248454</v>
       </c>
       <c r="BI3">
-        <v>1.83343372145481</v>
+        <v>1.826484323473015</v>
       </c>
       <c r="BJ3">
-        <v>1.800280526987139</v>
+        <v>1.794890468158505</v>
       </c>
       <c r="BK3">
-        <v>1.702441386701158</v>
+        <v>1.701627874046282</v>
       </c>
       <c r="BL3">
-        <v>1.425117132291515</v>
+        <v>1.436959203202066</v>
       </c>
       <c r="BM3">
-        <v>1.488827257216884</v>
+        <v>1.497360528004929</v>
       </c>
       <c r="BN3">
-        <v>1.623712651248735</v>
+        <v>1.626636546156328</v>
       </c>
       <c r="BO3">
-        <v>1.838721431784925</v>
+        <v>1.831522557735474</v>
       </c>
       <c r="BP3">
-        <v>1.837449623528029</v>
+        <v>1.830208178884632</v>
       </c>
       <c r="BQ3">
-        <v>1.800280526987143</v>
+        <v>1.794890468158508</v>
       </c>
       <c r="BR3">
-        <v>1.702441386701163</v>
+        <v>1.7016278740463</v>
       </c>
       <c r="BS3">
-        <v>1.425117132291515</v>
+        <v>1.436959203202067</v>
       </c>
       <c r="BT3">
-        <v>1.489734249205498</v>
+        <v>1.498183885351543</v>
       </c>
       <c r="BU3">
-        <v>1.62376405592155</v>
+        <v>1.626686311352738</v>
       </c>
       <c r="BV3">
-        <v>1.900787333930591</v>
+        <v>1.890651308953341</v>
       </c>
       <c r="BW3">
-        <v>1.838477207731655</v>
+        <v>1.831110051371983</v>
       </c>
       <c r="BX3">
-        <v>1.838382873864119</v>
+        <v>1.831124579733959</v>
       </c>
       <c r="BY3">
-        <v>1.80028052698715</v>
+        <v>1.794890468158514</v>
       </c>
       <c r="BZ3">
-        <v>1.702441386701177</v>
+        <v>1.70162787404636</v>
       </c>
       <c r="CA3">
-        <v>1.425117132291518</v>
+        <v>1.436959203202071</v>
       </c>
       <c r="CB3">
-        <v>1.624024558248276</v>
+        <v>1.626938505909824</v>
       </c>
       <c r="CC3">
-        <v>1.922247251180779</v>
+        <v>1.911091879898708</v>
       </c>
       <c r="CD3">
-        <v>1.800280526987157</v>
+        <v>1.794890468158522</v>
       </c>
       <c r="CE3">
-        <v>1.702441386701226</v>
+        <v>1.701627874046533</v>
       </c>
       <c r="CF3">
-        <v>1.425117132291522</v>
+        <v>1.436959203202077</v>
       </c>
       <c r="CG3">
-        <v>1.625005911158609</v>
+        <v>1.627888570686853</v>
       </c>
       <c r="CH3">
-        <v>1.92691860715222</v>
+        <v>1.915541088017163</v>
       </c>
       <c r="CI3">
-        <v>1.80028052698716</v>
+        <v>1.794890468158525</v>
       </c>
       <c r="CJ3">
-        <v>1.702441386701326</v>
+        <v>1.701627874046876</v>
       </c>
       <c r="CK3">
-        <v>1.425117132291524</v>
+        <v>1.436959203202081</v>
       </c>
       <c r="CL3">
-        <v>1.936378335360495</v>
+        <v>1.924550672875776</v>
       </c>
       <c r="CM3">
-        <v>1.80028052698716</v>
+        <v>1.794890468158525</v>
       </c>
       <c r="CN3">
-        <v>1.702441386701351</v>
+        <v>1.701627874046955</v>
       </c>
       <c r="CO3">
-        <v>1.425117132291525</v>
+        <v>1.436959203202082</v>
       </c>
       <c r="CP3">
-        <v>1.945283325580853</v>
+        <v>1.933031571042781</v>
       </c>
       <c r="CQ3">
-        <v>1.702441386701358</v>
+        <v>1.70162787404697</v>
       </c>
       <c r="CR3">
-        <v>1.425117132291525</v>
+        <v>1.436959203202083</v>
       </c>
       <c r="CS3">
-        <v>1.950452130073646</v>
+        <v>1.937954062026175</v>
       </c>
       <c r="CT3">
-        <v>1.70244138670136</v>
+        <v>1.701627874046979</v>
       </c>
       <c r="CU3">
-        <v>1.425117132291524</v>
+        <v>1.436959203202083</v>
       </c>
       <c r="CV3">
-        <v>1.953862878733523</v>
+        <v>1.941202213429658</v>
       </c>
       <c r="CW3">
-        <v>1.702441386701358</v>
+        <v>1.701627874046977</v>
       </c>
       <c r="CX3">
-        <v>1.425117132291524</v>
+        <v>1.436959203202084</v>
       </c>
       <c r="CY3">
-        <v>1.958568435858057</v>
+        <v>1.94568336638842</v>
       </c>
       <c r="CZ3">
-        <v>1.702441386701228</v>
+        <v>1.701627874046292</v>
       </c>
       <c r="DA3">
-        <v>1.425117132291524</v>
+        <v>1.436959203202084</v>
       </c>
       <c r="DB3">
-        <v>1.958859404711887</v>
+        <v>1.945980523412511</v>
       </c>
       <c r="DC3">
-        <v>1.961314125441203</v>
+        <v>1.948274708652616</v>
       </c>
       <c r="DD3">
-        <v>1.702441386701222</v>
+        <v>1.701627874046261</v>
       </c>
       <c r="DE3">
-        <v>1.959211431694393</v>
+        <v>1.946340036995475</v>
       </c>
       <c r="DF3">
-        <v>1.962870421955778</v>
+        <v>1.949743505023148</v>
       </c>
       <c r="DG3">
-        <v>1.702441386701199</v>
+        <v>1.701627874046188</v>
       </c>
       <c r="DH3">
-        <v>1.959619448958644</v>
+        <v>1.946756731445839</v>
       </c>
       <c r="DI3">
-        <v>2.023907104025579</v>
+        <v>2.007340600884314</v>
       </c>
       <c r="DJ3">
-        <v>1.702441386700576</v>
+        <v>1.701627874044356</v>
       </c>
       <c r="DK3">
-        <v>1.960241539543586</v>
+        <v>1.947392051508856</v>
       </c>
       <c r="DL3">
-        <v>2.029982073049005</v>
+        <v>2.01307238576885</v>
       </c>
       <c r="DM3">
-        <v>1.702441386700024</v>
+        <v>1.701627874042724</v>
       </c>
       <c r="DN3">
-        <v>1.961041295154897</v>
+        <v>1.948208814240848</v>
       </c>
       <c r="DO3">
-        <v>2.030896325311912</v>
+        <v>2.013984377876262</v>
       </c>
       <c r="DP3">
-        <v>2.055595874341734</v>
+        <v>2.037903889265839</v>
       </c>
       <c r="DQ3">
-        <v>1.702441386699972</v>
+        <v>1.701627874042574</v>
       </c>
       <c r="DR3">
-        <v>1.961615425147097</v>
+        <v>1.94879515291196</v>
       </c>
       <c r="DS3">
-        <v>2.03089632531191</v>
+        <v>2.01398437787626</v>
       </c>
       <c r="DT3">
-        <v>2.031341455342137</v>
+        <v>2.014428407476315</v>
       </c>
       <c r="DU3">
-        <v>2.101588417033441</v>
+        <v>2.082486476550536</v>
       </c>
       <c r="DV3">
-        <v>1.702441386699931</v>
+        <v>1.701627874042466</v>
       </c>
       <c r="DW3">
-        <v>1.962426640783639</v>
+        <v>1.949623618169772</v>
       </c>
       <c r="DX3">
-        <v>2.030896325311909</v>
+        <v>2.013984377876258</v>
       </c>
       <c r="DY3">
-        <v>2.033432405514846</v>
+        <v>2.016514188423458</v>
       </c>
       <c r="DZ3">
-        <v>2.122188398165573</v>
+        <v>2.102452755693442</v>
       </c>
       <c r="EA3">
-        <v>1.702441386699892</v>
+        <v>1.701627874042369</v>
       </c>
       <c r="EB3">
-        <v>1.963304283749466</v>
+        <v>1.950519922466455</v>
       </c>
       <c r="EC3">
-        <v>2.030896325311909</v>
+        <v>2.013984377876257</v>
       </c>
       <c r="ED3">
-        <v>2.034349777184244</v>
+        <v>2.017349797945666</v>
       </c>
       <c r="EE3">
-        <v>2.038146683964573</v>
+        <v>2.021230554352694</v>
       </c>
       <c r="EF3">
-        <v>2.128307579706636</v>
+        <v>2.108383437016637</v>
       </c>
       <c r="EG3">
-        <v>1.702441386699752</v>
+        <v>1.701627874042065</v>
       </c>
       <c r="EH3">
-        <v>1.964131939294667</v>
+        <v>1.951365175701926</v>
       </c>
       <c r="EI3">
-        <v>2.030896325311908</v>
+        <v>2.013984377876255</v>
       </c>
       <c r="EJ3">
-        <v>2.03442876440963</v>
+        <v>2.01742174537325</v>
       </c>
       <c r="EK3">
-        <v>2.041653194013333</v>
+        <v>2.024738616730262</v>
       </c>
       <c r="EL3">
-        <v>2.135209492097106</v>
+        <v>2.115072594229926</v>
       </c>
       <c r="EM3">
-        <v>1.702441386699646</v>
+        <v>1.701627874041832</v>
       </c>
       <c r="EN3">
-        <v>1.965492668723254</v>
+        <v>1.952754835489597</v>
       </c>
       <c r="EO3">
-        <v>2.030896325311907</v>
+        <v>2.013984377876253</v>
       </c>
       <c r="EP3">
-        <v>2.034506263354328</v>
+        <v>2.017492337173404</v>
       </c>
       <c r="EQ3">
-        <v>2.04400110100761</v>
+        <v>2.027087562973153</v>
       </c>
       <c r="ER3">
-        <v>2.141695363294709</v>
+        <v>2.121358396713266</v>
       </c>
       <c r="ES3">
-        <v>1.702441386699632</v>
+        <v>1.701627874041798</v>
       </c>
       <c r="ET3">
-        <v>1.971961476954019</v>
+        <v>1.95936114934443</v>
       </c>
       <c r="EU3">
-        <v>2.030896325311907</v>
+        <v>2.013984377876252</v>
       </c>
       <c r="EV3">
-        <v>2.034568838642279</v>
+        <v>2.017549335404123</v>
       </c>
       <c r="EW3">
-        <v>2.045162490643805</v>
+        <v>2.028246852277671</v>
       </c>
       <c r="EX3">
-        <v>2.046221071091472</v>
+        <v>2.029311377641403</v>
       </c>
       <c r="EY3">
-        <v>2.149256709732389</v>
+        <v>2.128686330339329</v>
       </c>
       <c r="EZ3">
-        <v>1.702441386699628</v>
+        <v>1.70162787404179</v>
       </c>
       <c r="FA3">
-        <v>1.973370418261643</v>
+        <v>1.960800034159705</v>
       </c>
       <c r="FB3">
-        <v>2.030896325311907</v>
+        <v>2.013984377876251</v>
       </c>
       <c r="FC3">
-        <v>2.034662756113549</v>
+        <v>2.01763488243971</v>
       </c>
       <c r="FD3">
-        <v>2.048242264497078</v>
+        <v>2.031321057008819</v>
       </c>
       <c r="FE3">
-        <v>2.046356120337002</v>
+        <v>2.029446660567559</v>
       </c>
       <c r="FF3">
-        <v>2.151431166760608</v>
+        <v>2.130793629896223</v>
       </c>
       <c r="FG3">
-        <v>1.702441386699625</v>
+        <v>1.701627874041791</v>
       </c>
       <c r="FH3">
-        <v>1.976021686391461</v>
+        <v>1.963401880005001</v>
       </c>
       <c r="FI3">
-        <v>1.977783265798662</v>
+        <v>1.965343120771698</v>
       </c>
       <c r="FJ3">
-        <v>2.030896325311907</v>
+        <v>2.013984377876249</v>
       </c>
       <c r="FK3">
-        <v>2.034775979229171</v>
+        <v>2.017738014513227</v>
       </c>
       <c r="FL3">
-        <v>2.049311936119127</v>
+        <v>2.032388794538241</v>
       </c>
       <c r="FM3">
-        <v>2.046479487718105</v>
+        <v>2.029570241395674</v>
       </c>
       <c r="FN3">
-        <v>2.163773753827506</v>
+        <v>2.142754734611716</v>
       </c>
       <c r="FO3">
-        <v>1.702441386699625</v>
+        <v>1.701627874041791</v>
       </c>
       <c r="FP3">
-        <v>1.976522196052673</v>
+        <v>1.963893066233042</v>
       </c>
       <c r="FQ3">
-        <v>1.98364040654897</v>
+        <v>1.97137308209859</v>
       </c>
       <c r="FR3">
-        <v>2.030896325311907</v>
+        <v>2.013984377876249</v>
       </c>
       <c r="FS3">
-        <v>2.034861513401416</v>
+        <v>2.017815925440988</v>
       </c>
       <c r="FT3">
-        <v>2.049311936118825</v>
+        <v>2.03238879453867</v>
       </c>
       <c r="FU3">
-        <v>2.051095597465012</v>
+        <v>2.034169038738249</v>
       </c>
       <c r="FV3">
-        <v>2.046530734185346</v>
+        <v>2.029621576522581</v>
       </c>
       <c r="FW3">
-        <v>2.170736775884331</v>
+        <v>2.149502330994771</v>
       </c>
       <c r="FX3">
-        <v>1.977554487457345</v>
+        <v>1.964906134825503</v>
       </c>
       <c r="FY3">
-        <v>1.984239505088667</v>
+        <v>1.971981171469164</v>
       </c>
       <c r="FZ3">
-        <v>1.984677579723945</v>
+        <v>1.97246346501228</v>
       </c>
       <c r="GA3">
-        <v>2.030896325311908</v>
+        <v>2.01398437787625</v>
       </c>
       <c r="GB3">
-        <v>2.03496048752073</v>
+        <v>2.017906078492429</v>
       </c>
       <c r="GC3">
-        <v>2.049311936118775</v>
+        <v>2.03238879453873</v>
       </c>
       <c r="GD3">
-        <v>2.05128814788431</v>
+        <v>2.034361220424605</v>
       </c>
       <c r="GE3">
-        <v>2.046641191273962</v>
+        <v>2.02973222469778</v>
       </c>
       <c r="GF3">
-        <v>2.175901821815544</v>
+        <v>2.15450747832779</v>
       </c>
       <c r="GG3">
-        <v>1.986596958611703</v>
+        <v>1.974374000967161</v>
       </c>
       <c r="GH3">
-        <v>1.988965018447894</v>
+        <v>1.976970576849612</v>
       </c>
       <c r="GI3">
-        <v>2.03089632531191</v>
+        <v>2.013984377876251</v>
       </c>
       <c r="GJ3">
-        <v>2.035053545006574</v>
+        <v>2.017990842243716</v>
       </c>
       <c r="GK3">
-        <v>2.049311936118768</v>
+        <v>2.032388794538727</v>
       </c>
       <c r="GL3">
-        <v>2.049311936118754</v>
+        <v>2.032388794538755</v>
       </c>
       <c r="GM3">
-        <v>2.051474381053251</v>
+        <v>2.034547096987018</v>
       </c>
       <c r="GN3">
-        <v>2.046922499055784</v>
+        <v>2.030014019062087</v>
       </c>
       <c r="GO3">
-        <v>2.180542679303018</v>
+        <v>2.159004592555327</v>
       </c>
       <c r="GP3">
-        <v>1.9908054445022</v>
+        <v>1.978645627725661</v>
       </c>
       <c r="GQ3">
-        <v>1.989393312629262</v>
+        <v>1.977410528481167</v>
       </c>
       <c r="GR3">
-        <v>1.989201277734147</v>
+        <v>1.977224859239927</v>
       </c>
       <c r="GS3">
-        <v>2.030896325311909</v>
+        <v>2.013984377876251</v>
       </c>
       <c r="GT3">
-        <v>2.035153665355295</v>
+        <v>2.01808203939577</v>
       </c>
       <c r="GU3">
-        <v>2.049311936118772</v>
+        <v>2.032388794538727</v>
       </c>
       <c r="GV3">
-        <v>2.049311936118735</v>
+        <v>2.03238879453877</v>
       </c>
       <c r="GW3">
-        <v>2.051623337547424</v>
+        <v>2.034695768273956</v>
       </c>
       <c r="GX3">
-        <v>2.047087524143195</v>
+        <v>2.030179329549636</v>
       </c>
       <c r="GY3">
-        <v>2.186304305866517</v>
+        <v>2.164587666459187</v>
       </c>
       <c r="GZ3">
-        <v>1.991569658692056</v>
+        <v>1.979387194464809</v>
       </c>
       <c r="HA3">
-        <v>1.991521961571742</v>
+        <v>1.979370833754544</v>
       </c>
       <c r="HB3">
-        <v>1.990475773679472</v>
+        <v>1.978522441396443</v>
       </c>
       <c r="HC3">
-        <v>1.989234671166373</v>
+        <v>1.977260799930447</v>
       </c>
       <c r="HD3">
-        <v>2.030896325311909</v>
+        <v>2.013984377876251</v>
       </c>
       <c r="HE3">
-        <v>2.035306711239986</v>
+        <v>2.018221445139976</v>
       </c>
       <c r="HF3">
-        <v>2.049311936118717</v>
+        <v>2.032388794538784</v>
       </c>
       <c r="HG3">
-        <v>2.051741985903933</v>
+        <v>2.034814189467282</v>
       </c>
       <c r="HH3">
-        <v>2.04720310088554</v>
+        <v>2.030295106154024</v>
       </c>
       <c r="HI3">
-        <v>2.196925865848817</v>
+        <v>2.174879787791554</v>
       </c>
       <c r="HJ3">
-        <v>1.994069275832713</v>
+        <v>1.981812689655216</v>
       </c>
       <c r="HK3">
-        <v>1.992815092476521</v>
+        <v>1.980679645279451</v>
       </c>
       <c r="HL3">
-        <v>1.989261601654454</v>
+        <v>1.977289784651584</v>
       </c>
       <c r="HM3">
-        <v>2.030896325311909</v>
+        <v>2.013984377876251</v>
       </c>
       <c r="HN3">
-        <v>2.035724613378505</v>
+        <v>2.01860210213119</v>
       </c>
       <c r="HO3">
-        <v>2.049311936118702</v>
+        <v>2.032388794538806</v>
       </c>
       <c r="HP3">
-        <v>2.051992806415111</v>
+        <v>2.035064529797525</v>
       </c>
       <c r="HQ3">
-        <v>2.047425406919846</v>
+        <v>2.03051779656563</v>
       </c>
       <c r="HR3">
-        <v>2.206175019352926</v>
+        <v>2.183841776970505</v>
       </c>
       <c r="HS3">
-        <v>1.995145989210559</v>
+        <v>1.982857453233549</v>
       </c>
       <c r="HT3">
-        <v>1.993276793766202</v>
+        <v>1.981146944969386</v>
       </c>
       <c r="HU3">
-        <v>1.989283122862348</v>
+        <v>1.977312947458028</v>
       </c>
       <c r="HV3">
-        <v>2.035760241691564</v>
+        <v>2.018634555115419</v>
       </c>
       <c r="HW3">
-        <v>2.049311936118675</v>
+        <v>2.032388794538834</v>
       </c>
       <c r="HX3">
-        <v>2.05219031336657</v>
+        <v>2.035261658669976</v>
       </c>
       <c r="HY3">
-        <v>2.047536048047418</v>
+        <v>2.030628628973594</v>
       </c>
       <c r="HZ3">
-        <v>2.212460792443039</v>
+        <v>2.189932236413877</v>
       </c>
       <c r="IA3">
-        <v>1.998479954583126</v>
+        <v>1.986410184670232</v>
       </c>
       <c r="IB3">
-        <v>1.993276793766202</v>
+        <v>1.981146944969386</v>
       </c>
       <c r="IC3">
-        <v>1.989315974784943</v>
+        <v>1.977348305231978</v>
       </c>
       <c r="ID3">
-        <v>2.035776697896797</v>
+        <v>2.018649544682591</v>
       </c>
       <c r="IE3">
-        <v>2.049311936118647</v>
+        <v>2.032388794538852</v>
       </c>
       <c r="IF3">
-        <v>2.052327303588056</v>
+        <v>2.035398386675792</v>
       </c>
       <c r="IG3">
-        <v>2.047614606695468</v>
+        <v>2.030707323427331</v>
       </c>
       <c r="IH3">
-        <v>2.2165873956441</v>
+        <v>2.193930548103602</v>
       </c>
       <c r="II3">
-        <v>1.999234543033719</v>
+        <v>1.987173473447154</v>
       </c>
       <c r="IJ3">
-        <v>1.989354483231038</v>
+        <v>1.977389750941468</v>
       </c>
       <c r="IK3">
-        <v>2.035794299675343</v>
+        <v>2.01866557772578</v>
       </c>
       <c r="IL3">
-        <v>2.049311936118624</v>
+        <v>2.03238879453886</v>
       </c>
       <c r="IM3">
-        <v>2.052463958937296</v>
+        <v>2.035534780465673</v>
       </c>
       <c r="IN3">
-        <v>2.048513084132883</v>
+        <v>2.031607353525835</v>
       </c>
       <c r="IO3">
-        <v>2.225461532603331</v>
+        <v>2.202528614590783</v>
       </c>
       <c r="IP3">
-        <v>2.000374662230491</v>
+        <v>1.988362522774308</v>
       </c>
       <c r="IQ3">
-        <v>2.000409600196412</v>
+        <v>1.988326281797169</v>
       </c>
       <c r="IR3">
-        <v>1.989413628600539</v>
+        <v>1.977453407564407</v>
       </c>
       <c r="IS3">
-        <v>2.035811118829123</v>
+        <v>2.018680897895037</v>
       </c>
       <c r="IT3">
-        <v>2.049311936118609</v>
+        <v>2.032388794538851</v>
       </c>
       <c r="IU3">
-        <v>2.052663864284629</v>
+        <v>2.035734303220256</v>
       </c>
       <c r="IV3">
-        <v>2.048777960234616</v>
+        <v>2.031872687166741</v>
       </c>
       <c r="IW3">
-        <v>2.226489340556097</v>
+        <v>2.203503119168641</v>
       </c>
       <c r="IX3">
-        <v>2.231173724943993</v>
+        <v>2.208064189343465</v>
       </c>
       <c r="IY3">
-        <v>1.989630046790994</v>
+        <v>1.977686331716345</v>
       </c>
       <c r="IZ3">
-        <v>2.035829855948295</v>
+        <v>2.018697965094094</v>
       </c>
       <c r="JA3">
-        <v>2.049311936118593</v>
+        <v>2.032388794538852</v>
       </c>
       <c r="JB3">
-        <v>2.053415555187824</v>
+        <v>2.036484555778333</v>
       </c>
       <c r="JC3">
-        <v>2.048837216508502</v>
+        <v>2.031932045786085</v>
       </c>
       <c r="JD3">
-        <v>2.226631382339341</v>
+        <v>2.203637795668628</v>
       </c>
       <c r="JE3">
-        <v>2.252558383140889</v>
+        <v>2.228786666589684</v>
       </c>
       <c r="JF3">
-        <v>1.990683049430733</v>
+        <v>1.978819620577246</v>
       </c>
       <c r="JG3">
-        <v>2.035868531526269</v>
+        <v>2.01873319376575</v>
       </c>
       <c r="JH3">
-        <v>2.049311936118581</v>
+        <v>2.032388794538852</v>
       </c>
       <c r="JI3">
-        <v>2.053590963501565</v>
+        <v>2.036659628518522</v>
       </c>
       <c r="JJ3">
-        <v>2.0495949099508</v>
+        <v>2.032661685727095</v>
       </c>
       <c r="JK3">
-        <v>2.048862469247417</v>
+        <v>2.031958350491188</v>
       </c>
       <c r="JL3">
-        <v>2.22669668113933</v>
+        <v>2.203699708630132</v>
       </c>
       <c r="JM3">
-        <v>2.253441017119525</v>
+        <v>2.229719842124894</v>
       </c>
       <c r="JN3">
-        <v>2.259543701959758</v>
+        <v>2.235538947473652</v>
       </c>
       <c r="JO3">
-        <v>2.03590881122934</v>
+        <v>2.0187698835995</v>
       </c>
       <c r="JP3">
-        <v>2.049311936118572</v>
+        <v>2.032388794538849</v>
       </c>
       <c r="JQ3">
-        <v>2.053671317933507</v>
+        <v>2.036739829232866</v>
       </c>
       <c r="JR3">
-        <v>2.050345552508515</v>
+        <v>2.0333845447996</v>
       </c>
       <c r="JS3">
-        <v>2.0488920761247</v>
+        <v>2.031989190700737</v>
       </c>
       <c r="JT3">
-        <v>2.226774234923326</v>
+        <v>2.203773241215234</v>
       </c>
       <c r="JU3">
-        <v>2.253505161078503</v>
+        <v>2.229787658267064</v>
       </c>
       <c r="JV3">
-        <v>2.284815917352608</v>
+        <v>2.25996672135887</v>
       </c>
       <c r="JW3">
-        <v>2.036061974424992</v>
+        <v>2.018909396372704</v>
       </c>
       <c r="JX3">
-        <v>2.049311936118581</v>
+        <v>2.032388794538848</v>
       </c>
       <c r="JY3">
-        <v>2.053724143299813</v>
+        <v>2.036792553547415</v>
       </c>
       <c r="JZ3">
-        <v>2.048918832161621</v>
+        <v>2.032017061297305</v>
       </c>
       <c r="KA3">
-        <v>2.226893885851026</v>
+        <v>2.203886688355173</v>
       </c>
       <c r="KB3">
-        <v>2.253558029126277</v>
+        <v>2.229843552876775</v>
       </c>
       <c r="KC3">
-        <v>2.289694079477129</v>
+        <v>2.264052939891541</v>
       </c>
       <c r="KD3">
-        <v>2.288422305973966</v>
+        <v>2.263597236998294</v>
       </c>
       <c r="KE3">
-        <v>2.036874975854075</v>
+        <v>2.019649940950984</v>
       </c>
       <c r="KF3">
-        <v>2.049311936118581</v>
+        <v>2.032388794538848</v>
       </c>
       <c r="KG3">
-        <v>2.053903406178392</v>
+        <v>2.036980916864733</v>
       </c>
       <c r="KH3">
-        <v>2.053747804265387</v>
+        <v>2.03681500440356</v>
       </c>
       <c r="KI3">
-        <v>2.04894593034568</v>
+        <v>2.032045288278814</v>
       </c>
       <c r="KJ3">
-        <v>2.227000497849112</v>
+        <v>2.203987772792565</v>
       </c>
       <c r="KK3">
-        <v>2.253633121920396</v>
+        <v>2.229922944410322</v>
       </c>
       <c r="KL3">
-        <v>2.29193799049229</v>
+        <v>2.265932527976069</v>
       </c>
       <c r="KM3">
-        <v>2.303518624994151</v>
+        <v>2.278794120761579</v>
       </c>
       <c r="KN3">
-        <v>2.053985747041318</v>
+        <v>2.037067437571378</v>
       </c>
       <c r="KO3">
-        <v>2.053764549820852</v>
+        <v>2.036830893536774</v>
       </c>
       <c r="KP3">
-        <v>2.048975065999139</v>
+        <v>2.032075637585586</v>
       </c>
       <c r="KQ3">
-        <v>2.227083382749182</v>
+        <v>2.204066360432825</v>
       </c>
       <c r="KR3">
-        <v>2.253970373184273</v>
+        <v>2.230279499933633</v>
       </c>
       <c r="KS3">
-        <v>2.306575013024498</v>
+        <v>2.278192517837618</v>
       </c>
       <c r="KT3">
-        <v>2.306847078635083</v>
+        <v>2.282144653463158</v>
       </c>
       <c r="KU3">
-        <v>2.054125100399012</v>
+        <v>2.037213864503079</v>
       </c>
       <c r="KV3">
-        <v>2.053784036551394</v>
+        <v>2.036849383660251</v>
       </c>
       <c r="KW3">
-        <v>2.049144028992145</v>
+        <v>2.032251638436958</v>
       </c>
       <c r="KX3">
-        <v>2.227186549380237</v>
+        <v>2.204164178411138</v>
       </c>
       <c r="KY3">
-        <v>2.254035291677435</v>
+        <v>2.230348133999447</v>
       </c>
       <c r="KZ3">
-        <v>2.307666773184107</v>
+        <v>2.279106939015968</v>
       </c>
       <c r="LA3">
-        <v>2.307952744888079</v>
+        <v>2.283257646594519</v>
       </c>
       <c r="LB3">
-        <v>2.05439255531134</v>
+        <v>2.037494894093238</v>
       </c>
       <c r="LC3">
-        <v>2.053821307952004</v>
+        <v>2.036884748918369</v>
       </c>
       <c r="LD3">
-        <v>2.049858534712916</v>
+        <v>2.032995899241413</v>
       </c>
       <c r="LE3">
-        <v>2.22729324874626</v>
+        <v>2.204265346129115</v>
       </c>
       <c r="LF3">
-        <v>2.254083357246208</v>
+        <v>2.230398950498272</v>
       </c>
       <c r="LG3">
-        <v>2.307952674892974</v>
+        <v>2.279382905066573</v>
       </c>
       <c r="LH3">
-        <v>2.324960865487433</v>
+        <v>2.293219355025113</v>
       </c>
       <c r="LI3">
-        <v>2.308529763237352</v>
+        <v>2.283838487168924</v>
       </c>
       <c r="LJ3">
-        <v>2.055179798298178</v>
+        <v>2.038322083468199</v>
       </c>
       <c r="LK3">
-        <v>2.053964244381443</v>
+        <v>2.037020375545154</v>
       </c>
       <c r="LL3">
-        <v>2.2274190998912</v>
+        <v>2.204384672941753</v>
       </c>
       <c r="LM3">
-        <v>2.254138722265095</v>
+        <v>2.230457484136378</v>
       </c>
       <c r="LN3">
-        <v>2.309424578439687</v>
+        <v>2.280803663973288</v>
       </c>
       <c r="LO3">
-        <v>2.333242322643579</v>
+        <v>2.299976662326636</v>
       </c>
       <c r="LP3">
-        <v>2.309023675305118</v>
+        <v>2.284335670150787</v>
       </c>
       <c r="LQ3">
-        <v>2.054451962036684</v>
+        <v>2.037483154606794</v>
       </c>
       <c r="LR3">
-        <v>2.227490815124126</v>
+        <v>2.204452670438299</v>
       </c>
       <c r="LS3">
-        <v>2.254193642185968</v>
+        <v>2.230515547119048</v>
       </c>
       <c r="LT3">
-        <v>2.309938220684316</v>
+        <v>2.28129946129324</v>
       </c>
       <c r="LU3">
-        <v>2.334694408062142</v>
+        <v>2.301954154465373</v>
       </c>
       <c r="LV3">
-        <v>2.348265295568046</v>
+        <v>2.311741063123234</v>
       </c>
       <c r="LW3">
-        <v>2.309585374048913</v>
+        <v>2.28490108781874</v>
       </c>
       <c r="LX3">
-        <v>2.227814767025622</v>
+        <v>2.204759829496662</v>
       </c>
       <c r="LY3">
-        <v>2.254676060679302</v>
+        <v>2.231025570788882</v>
       </c>
       <c r="LZ3">
-        <v>2.311055723471874</v>
+        <v>2.282378144778854</v>
       </c>
       <c r="MA3">
-        <v>2.335269240202431</v>
+        <v>2.302736846662008</v>
       </c>
       <c r="MB3">
-        <v>2.349721243207461</v>
+        <v>2.313122988391408</v>
       </c>
       <c r="MC3">
-        <v>2.350770930388893</v>
+        <v>2.313666447630704</v>
       </c>
       <c r="MD3">
-        <v>2.310027867709797</v>
+        <v>2.285346510486643</v>
       </c>
       <c r="ME3">
-        <v>2.22794082968821</v>
+        <v>2.204879357793099</v>
       </c>
       <c r="MF3">
-        <v>2.25566185866274</v>
+        <v>2.232067758534674</v>
       </c>
       <c r="MG3">
-        <v>2.311513288123431</v>
+        <v>2.282816538396022</v>
       </c>
       <c r="MH3">
-        <v>2.311271298985614</v>
+        <v>2.282587775142932</v>
       </c>
       <c r="MI3">
-        <v>2.350452862762198</v>
+        <v>2.313817428967517</v>
       </c>
       <c r="MJ3">
-        <v>2.352916714091725</v>
+        <v>2.31531530156101</v>
       </c>
       <c r="MK3">
-        <v>2.310398832761896</v>
+        <v>2.285719930614619</v>
       </c>
       <c r="ML3">
-        <v>2.22798462207462</v>
+        <v>2.204920880285796</v>
       </c>
       <c r="MM3">
-        <v>2.312197768482735</v>
+        <v>2.28347234383011</v>
       </c>
       <c r="MN3">
-        <v>2.31130131418847</v>
+        <v>2.282616962592655</v>
       </c>
       <c r="MO3">
-        <v>2.35052093472917</v>
+        <v>2.313882042293757</v>
       </c>
       <c r="MP3">
-        <v>2.354425624611816</v>
+        <v>2.316474764877495</v>
       </c>
       <c r="MQ3">
-        <v>2.310733545581519</v>
+        <v>2.286056858229622</v>
       </c>
       <c r="MR3">
-        <v>2.228017613244707</v>
+        <v>2.204952161440286</v>
       </c>
       <c r="MS3">
-        <v>2.311333912354481</v>
+        <v>2.282648661775115</v>
       </c>
       <c r="MT3">
-        <v>2.350549046986324</v>
+        <v>2.313908726236403</v>
       </c>
       <c r="MU3">
-        <v>2.356331635305613</v>
+        <v>2.317939355748882</v>
       </c>
       <c r="MV3">
-        <v>2.311010554966167</v>
+        <v>2.286335700327375</v>
       </c>
       <c r="MW3">
-        <v>2.228041750784234</v>
+        <v>2.204975047879998</v>
       </c>
       <c r="MX3">
-        <v>2.31136246561752</v>
+        <v>2.282676427605582</v>
       </c>
       <c r="MY3">
-        <v>2.350568882881015</v>
+        <v>2.313927554328602</v>
       </c>
       <c r="MZ3">
-        <v>2.357525624875882</v>
+        <v>2.318856820147553</v>
       </c>
       <c r="NA3">
-        <v>2.311331890033341</v>
+        <v>2.286659161076057</v>
       </c>
       <c r="NB3">
-        <v>2.228054007863586</v>
+        <v>2.204986669652116</v>
       </c>
       <c r="NC3">
-        <v>2.311392803061785</v>
+        <v>2.282705928415466</v>
       </c>
       <c r="ND3">
-        <v>2.350589171733469</v>
+        <v>2.313946812374068</v>
       </c>
       <c r="NE3">
-        <v>2.359358673005754</v>
+        <v>2.320265331358874</v>
       </c>
       <c r="NF3">
-        <v>2.311685044595614</v>
+        <v>2.287014651447335</v>
       </c>
       <c r="NG3">
-        <v>2.2280720282503</v>
+        <v>2.205003756012516</v>
       </c>
       <c r="NH3">
-        <v>2.311436100377927</v>
+        <v>2.282748031698006</v>
       </c>
       <c r="NI3">
-        <v>2.350613110888922</v>
+        <v>2.31396953527478</v>
       </c>
       <c r="NJ3">
-        <v>2.361185463197353</v>
+        <v>2.321669025197716</v>
       </c>
       <c r="NK3">
-        <v>2.313610039935623</v>
+        <v>2.288952372259434</v>
       </c>
       <c r="NL3">
-        <v>2.228102235977818</v>
+        <v>2.2050323980341</v>
       </c>
       <c r="NM3">
-        <v>2.311488735078422</v>
+        <v>2.282799214867756</v>
       </c>
       <c r="NN3">
-        <v>2.350643308051461</v>
+        <v>2.313998198255682</v>
       </c>
       <c r="NO3">
-        <v>2.363234532581101</v>
+        <v>2.323243506507332</v>
       </c>
       <c r="NP3">
-        <v>2.327444184111069</v>
+        <v>2.302894627397702</v>
       </c>
       <c r="NQ3">
-        <v>2.313914141022456</v>
+        <v>2.28925060173591</v>
       </c>
       <c r="NR3">
-        <v>2.228236970524715</v>
+        <v>2.205160149271042</v>
       </c>
       <c r="NS3">
-        <v>2.311814954238439</v>
+        <v>2.283116437857492</v>
       </c>
       <c r="NT3">
-        <v>2.35067035219649</v>
+        <v>2.314023868426658</v>
       </c>
       <c r="NU3">
-        <v>2.364716885387406</v>
+        <v>2.324382522452507</v>
       </c>
       <c r="NV3">
-        <v>2.34067140483385</v>
+        <v>2.316224621702625</v>
       </c>
       <c r="NW3">
-        <v>2.31578043933611</v>
+        <v>2.291080882849817</v>
       </c>
       <c r="NX3">
-        <v>2.313914141022462</v>
+        <v>2.289250601735918</v>
       </c>
       <c r="NY3">
-        <v>2.228732181128164</v>
+        <v>2.205629695251083</v>
       </c>
       <c r="NZ3">
-        <v>2.312930829848569</v>
+        <v>2.284201542468354</v>
       </c>
       <c r="OA3">
-        <v>2.350691751311413</v>
+        <v>2.31404418037388</v>
       </c>
       <c r="OB3">
-        <v>2.36648324689412</v>
+        <v>2.325739758559092</v>
       </c>
       <c r="OC3">
-        <v>2.341259726803425</v>
+        <v>2.316817501351566</v>
       </c>
       <c r="OD3">
-        <v>2.316462128976017</v>
+        <v>2.291749424224255</v>
       </c>
       <c r="OE3">
-        <v>2.313914141022498</v>
+        <v>2.289250601735969</v>
       </c>
       <c r="OF3">
-        <v>2.350728476853666</v>
+        <v>2.314079040122978</v>
       </c>
       <c r="OG3">
-        <v>2.369045307574897</v>
+        <v>2.327708379100479</v>
       </c>
       <c r="OH3">
-        <v>2.342963967076479</v>
+        <v>2.318446548618702</v>
       </c>
       <c r="OI3">
-        <v>2.351033285280193</v>
+        <v>2.326718446845867</v>
       </c>
       <c r="OJ3">
-        <v>2.31653150416879</v>
+        <v>2.291817461549525</v>
       </c>
       <c r="OK3">
-        <v>2.3139141410225</v>
+        <v>2.289250601735973</v>
       </c>
       <c r="OL3">
-        <v>2.350856676940185</v>
+        <v>2.314200727403731</v>
       </c>
       <c r="OM3">
-        <v>2.370944073172244</v>
+        <v>2.329167329897379</v>
       </c>
       <c r="ON3">
-        <v>2.343120053335175</v>
+        <v>2.318595750962931</v>
       </c>
       <c r="OO3">
-        <v>2.355744150197326</v>
+        <v>2.331490566420585</v>
       </c>
       <c r="OP3">
-        <v>2.316579917677322</v>
+        <v>2.291864941451207</v>
       </c>
       <c r="OQ3">
-        <v>2.313914141022501</v>
+        <v>2.289250601735974</v>
       </c>
       <c r="OR3">
-        <v>2.351640281906718</v>
+        <v>2.314944531602889</v>
       </c>
       <c r="OS3">
-        <v>2.372775181429943</v>
+        <v>2.330574285993067</v>
       </c>
       <c r="OT3">
-        <v>2.343208780201758</v>
+        <v>2.318680564893059</v>
       </c>
       <c r="OU3">
-        <v>2.36993907033345</v>
+        <v>2.345869486685508</v>
       </c>
       <c r="OV3">
-        <v>2.355744150197183</v>
+        <v>2.331490566420559</v>
       </c>
       <c r="OW3">
-        <v>2.316630068643756</v>
+        <v>2.291914125326924</v>
       </c>
       <c r="OX3">
-        <v>2.313914141022501</v>
+        <v>2.289250601735974</v>
       </c>
       <c r="OY3">
-        <v>2.374566755931359</v>
+        <v>2.331950857290472</v>
       </c>
       <c r="OZ3">
-        <v>2.343269025831114</v>
+        <v>2.31873815372089</v>
       </c>
       <c r="PA3">
-        <v>2.390112110000732</v>
+        <v>2.366302533737218</v>
       </c>
       <c r="PB3">
-        <v>2.355744150197147</v>
+        <v>2.331490566420552</v>
       </c>
       <c r="PC3">
-        <v>2.316840660916299</v>
+        <v>2.292120656860828</v>
       </c>
       <c r="PD3">
-        <v>2.313914141022504</v>
+        <v>2.289250601735975</v>
       </c>
       <c r="PE3">
-        <v>2.376720702478814</v>
+        <v>2.33360584903875</v>
       </c>
       <c r="PF3">
-        <v>2.343367206718023</v>
+        <v>2.318832005030095</v>
       </c>
       <c r="PG3">
-        <v>2.394327021844756</v>
+        <v>2.370571551030365</v>
       </c>
       <c r="PH3">
-        <v>2.355744150197126</v>
+        <v>2.331490566420548</v>
       </c>
       <c r="PI3">
-        <v>2.31689207953767</v>
+        <v>2.292171084062355</v>
       </c>
       <c r="PJ3">
-        <v>2.313914141022525</v>
+        <v>2.289250601735978</v>
       </c>
       <c r="PK3">
-        <v>2.380326474665983</v>
+        <v>2.336376328436581</v>
       </c>
       <c r="PL3">
-        <v>2.376720702478814</v>
+        <v>2.33360584903875</v>
       </c>
       <c r="PM3">
-        <v>2.34369353442105</v>
+        <v>2.319143943674135</v>
       </c>
       <c r="PN3">
-        <v>2.395403942397138</v>
+        <v>2.371662283467591</v>
       </c>
       <c r="PO3">
-        <v>2.355744150197105</v>
+        <v>2.331490566420548</v>
       </c>
       <c r="PP3">
-        <v>2.316941126184167</v>
+        <v>2.292219185045087</v>
       </c>
       <c r="PQ3">
-        <v>2.313914141022533</v>
+        <v>2.28925060173598</v>
       </c>
       <c r="PR3">
-        <v>2.39247287344639</v>
+        <v>2.345708710306345</v>
       </c>
       <c r="PS3">
-        <v>2.380326474665983</v>
+        <v>2.336376328436582</v>
       </c>
       <c r="PT3">
-        <v>2.344056782372863</v>
+        <v>2.319491177014251</v>
       </c>
       <c r="PU3">
-        <v>2.395968066706545</v>
+        <v>2.372233640888969</v>
       </c>
       <c r="PV3">
-        <v>2.355744150197088</v>
+        <v>2.33149056642055</v>
       </c>
       <c r="PW3">
-        <v>2.3169899049748</v>
+        <v>2.29226702335702</v>
       </c>
       <c r="PX3">
-        <v>2.313914141022534</v>
+        <v>2.289250601735981</v>
       </c>
       <c r="PY3">
-        <v>2.409611710619246</v>
+        <v>2.358876249878878</v>
       </c>
       <c r="PZ3">
-        <v>2.39247287344639</v>
+        <v>2.345708710306345</v>
       </c>
       <c r="QA3">
-        <v>2.344261045175969</v>
+        <v>2.31968643554027</v>
       </c>
       <c r="QB3">
-        <v>2.396435688470271</v>
+        <v>2.372707257392149</v>
       </c>
       <c r="QC3">
-        <v>2.355744150197075</v>
+        <v>2.331490566420561</v>
       </c>
       <c r="QD3">
-        <v>2.31704585919845</v>
+        <v>2.292321898781394</v>
       </c>
       <c r="QE3">
-        <v>2.313914141022535</v>
+        <v>2.289250601735981</v>
       </c>
       <c r="QF3">
-        <v>2.421880312435535</v>
+        <v>2.368301580575312</v>
       </c>
       <c r="QG3">
-        <v>2.409611710619246</v>
+        <v>2.358876249878878</v>
       </c>
       <c r="QH3">
-        <v>2.344452911098274</v>
+        <v>2.319869844392306</v>
       </c>
       <c r="QI3">
-        <v>2.396814649486214</v>
+        <v>2.373091075862872</v>
       </c>
       <c r="QJ3">
-        <v>2.355744150197059</v>
+        <v>2.331490566420575</v>
       </c>
       <c r="QK3">
-        <v>2.3172390828318</v>
+        <v>2.29251139726417</v>
       </c>
       <c r="QL3">
-        <v>2.313914141022535</v>
+        <v>2.289250601735981</v>
       </c>
       <c r="QM3">
-        <v>2.425597743334077</v>
+        <v>2.371157412301545</v>
       </c>
       <c r="QN3">
-        <v>2.421880312435535</v>
+        <v>2.368301580575312</v>
       </c>
       <c r="QO3">
-        <v>2.344635951382148</v>
+        <v>2.32004481728143</v>
       </c>
       <c r="QP3">
-        <v>2.397393882198739</v>
+        <v>2.373677731889618</v>
       </c>
       <c r="QQ3">
-        <v>2.355744150197049</v>
+        <v>2.33149056642059</v>
       </c>
       <c r="QR3">
-        <v>2.318180455927232</v>
+        <v>2.293434626267874</v>
       </c>
       <c r="QS3">
-        <v>2.313914141022532</v>
+        <v>2.289250601735978</v>
       </c>
       <c r="QT3">
-        <v>2.435665387361282</v>
+        <v>2.378679848867717</v>
       </c>
       <c r="QU3">
-        <v>2.425597743334078</v>
+        <v>2.371157412301545</v>
       </c>
       <c r="QV3">
-        <v>2.426348554227812</v>
+        <v>2.371896277057405</v>
       </c>
       <c r="QW3">
-        <v>2.344936443103057</v>
+        <v>2.320332066398352</v>
       </c>
       <c r="QX3">
-        <v>2.397916015094704</v>
+        <v>2.374206555091225</v>
       </c>
       <c r="QY3">
-        <v>2.355744150197041</v>
+        <v>2.331490566420598</v>
       </c>
       <c r="QZ3">
-        <v>2.31391414102253</v>
+        <v>2.289250601735975</v>
       </c>
       <c r="RA3">
-        <v>2.446832150571506</v>
+        <v>2.387023225926342</v>
       </c>
       <c r="RB3">
-        <v>2.435665387361281</v>
+        <v>2.378679848867717</v>
       </c>
       <c r="RC3">
-        <v>2.435665387361281</v>
+        <v>2.378679848867717</v>
       </c>
       <c r="RD3">
-        <v>2.42645817991625</v>
+        <v>2.372004158272632</v>
       </c>
       <c r="RE3">
-        <v>2.345145716982413</v>
+        <v>2.320532118648159</v>
       </c>
       <c r="RF3">
-        <v>2.39841292469981</v>
+        <v>2.374709830722066</v>
       </c>
       <c r="RG3">
-        <v>2.355744150197029</v>
+        <v>2.331490566420612</v>
       </c>
       <c r="RH3">
-        <v>2.313914141022521</v>
+        <v>2.289250601735957</v>
       </c>
       <c r="RI3">
-        <v>2.450919239036927</v>
+        <v>2.390076860264129</v>
       </c>
       <c r="RJ3">
-        <v>2.446832150571506</v>
+        <v>2.387023225926342</v>
       </c>
       <c r="RK3">
-        <v>2.42651795368956</v>
+        <v>2.372062980842369</v>
       </c>
       <c r="RL3">
-        <v>2.345292745476284</v>
+        <v>2.32067266885124</v>
       </c>
       <c r="RM3">
-        <v>2.39897268595775</v>
+        <v>2.375276761947523</v>
       </c>
       <c r="RN3">
-        <v>2.35574415019702</v>
+        <v>2.331490566420625</v>
       </c>
       <c r="RO3">
-        <v>2.31391414102252</v>
+        <v>2.289250601735956</v>
       </c>
       <c r="RP3">
-        <v>2.457897485722949</v>
+        <v>2.394911883210902</v>
       </c>
       <c r="RQ3">
-        <v>2.450919239036927</v>
+        <v>2.390076860264129</v>
       </c>
       <c r="RR3">
-        <v>2.455375412343519</v>
+        <v>2.394284412755232</v>
       </c>
       <c r="RS3">
-        <v>2.426558444831384</v>
+        <v>2.372102827623211</v>
       </c>
       <c r="RT3">
-        <v>2.345362993089576</v>
+        <v>2.320739821398343</v>
       </c>
       <c r="RU3">
-        <v>2.39956393075447</v>
+        <v>2.375875578527584</v>
       </c>
       <c r="RV3">
-        <v>2.355744150197006</v>
+        <v>2.331490566420641</v>
       </c>
       <c r="RW3">
-        <v>2.313914141022519</v>
+        <v>2.289250601735954</v>
       </c>
       <c r="RX3">
-        <v>2.467886507878036</v>
+        <v>2.401832748335992</v>
       </c>
       <c r="RY3">
-        <v>2.457897485722948</v>
+        <v>2.394911883210902</v>
       </c>
       <c r="RZ3">
-        <v>2.455490212327422</v>
+        <v>2.39440204154441</v>
       </c>
       <c r="SA3">
-        <v>2.456330503315928</v>
+        <v>2.395121158149478</v>
       </c>
       <c r="SB3">
-        <v>2.426619946883501</v>
+        <v>2.372163350939836</v>
       </c>
       <c r="SC3">
-        <v>2.345407491862651</v>
+        <v>2.320782359632155</v>
       </c>
       <c r="SD3">
-        <v>2.400856517044968</v>
+        <v>2.377184713129619</v>
       </c>
       <c r="SE3">
-        <v>2.355744150196993</v>
+        <v>2.331490566420656</v>
       </c>
       <c r="SF3">
-        <v>2.313914141022519</v>
+        <v>2.289250601735953</v>
       </c>
       <c r="SG3">
-        <v>2.473975277072598</v>
+        <v>2.406051198221253</v>
       </c>
       <c r="SH3">
-        <v>2.467886507878036</v>
+        <v>2.401832748335992</v>
       </c>
       <c r="SI3">
-        <v>2.455538733796494</v>
+        <v>2.394451758547901</v>
       </c>
       <c r="SJ3">
-        <v>2.456941454557183</v>
+        <v>2.395656412384528</v>
       </c>
       <c r="SK3">
-        <v>2.426713279110751</v>
+        <v>2.372255197856563</v>
       </c>
       <c r="SL3">
-        <v>2.345437578003744</v>
+        <v>2.320811120251257</v>
       </c>
       <c r="SM3">
-        <v>2.430115861543667</v>
+        <v>2.406816737306116</v>
       </c>
       <c r="SN3">
-        <v>2.355744150196986</v>
+        <v>2.331490566420667</v>
       </c>
       <c r="SO3">
-        <v>2.313914141022519</v>
+        <v>2.289250601735953</v>
       </c>
       <c r="SP3">
-        <v>2.475023275364468</v>
+        <v>2.406777266952168</v>
       </c>
       <c r="SQ3">
-        <v>2.473975277072598</v>
+        <v>2.406051198221253</v>
       </c>
       <c r="SR3">
-        <v>2.455567243571603</v>
+        <v>2.394480970758313</v>
       </c>
       <c r="SS3">
-        <v>2.42677949289799</v>
+        <v>2.37232035787762</v>
       </c>
       <c r="ST3">
-        <v>2.34547954384133</v>
+        <v>2.320851237205436</v>
       </c>
       <c r="SU3">
-        <v>2.431303180511465</v>
+        <v>2.407991921724961</v>
       </c>
       <c r="SV3">
-        <v>2.434368865504808</v>
+        <v>2.411128082985171</v>
       </c>
       <c r="SW3">
-        <v>2.355744150196982</v>
+        <v>2.331490566420679</v>
       </c>
       <c r="SX3">
-        <v>2.47634024517266</v>
+        <v>2.408075773855779</v>
       </c>
       <c r="SY3">
-        <v>2.475023275364469</v>
+        <v>2.406777266952167</v>
       </c>
       <c r="SZ3">
-        <v>2.482338475595613</v>
+        <v>2.408717356893935</v>
       </c>
       <c r="TA3">
-        <v>2.455593480825081</v>
+        <v>2.394507854439283</v>
       </c>
       <c r="TB3">
-        <v>2.426824729824239</v>
+        <v>2.372364874864306</v>
       </c>
       <c r="TC3">
-        <v>2.345511571958385</v>
+        <v>2.320881854286688</v>
       </c>
       <c r="TD3">
-        <v>2.432349704779783</v>
+        <v>2.40902775286751</v>
       </c>
       <c r="TE3">
-        <v>2.43666228569431</v>
+        <v>2.413452929588827</v>
       </c>
       <c r="TF3">
-        <v>2.35574415019698</v>
+        <v>2.331490566420686</v>
       </c>
       <c r="TG3">
-        <v>2.47730945054669</v>
+        <v>2.409031394956293</v>
       </c>
       <c r="TH3">
-        <v>2.476340245172659</v>
+        <v>2.408075773855779</v>
       </c>
       <c r="TI3">
-        <v>2.486658407054114</v>
+        <v>2.409862990264743</v>
       </c>
       <c r="TJ3">
-        <v>2.455616855754394</v>
+        <v>2.394531805261469</v>
       </c>
       <c r="TK3">
-        <v>2.426860475230903</v>
+        <v>2.37240005138088</v>
       </c>
       <c r="TL3">
-        <v>2.34574011810348</v>
+        <v>2.321100332138373</v>
       </c>
       <c r="TM3">
-        <v>2.437004737165975</v>
+        <v>2.413800071569265</v>
       </c>
       <c r="TN3">
-        <v>2.355744150196973</v>
+        <v>2.331490566420689</v>
       </c>
       <c r="TO3">
-        <v>2.478628696031012</v>
+        <v>2.410332154460214</v>
       </c>
       <c r="TP3">
-        <v>2.47730945054669</v>
+        <v>2.409031394956294</v>
       </c>
       <c r="TQ3">
-        <v>2.490079827791386</v>
+        <v>2.410770303875425</v>
       </c>
       <c r="TR3">
-        <v>2.455641104331126</v>
+        <v>2.394556651242028</v>
       </c>
       <c r="TS3">
-        <v>2.42697508068838</v>
+        <v>2.372512832845907</v>
       </c>
       <c r="TT3">
-        <v>2.346139870653338</v>
+        <v>2.321490901327936</v>
       </c>
       <c r="TU3">
-        <v>2.346918680663049</v>
+        <v>2.322202532367884</v>
       </c>
       <c r="TV3">
-        <v>2.437266132892425</v>
+        <v>2.414065047236106</v>
       </c>
       <c r="TW3">
-        <v>2.355744150196974</v>
+        <v>2.331490566420695</v>
       </c>
       <c r="TX3">
-        <v>2.479562039640887</v>
+        <v>2.41125242263049</v>
       </c>
       <c r="TY3">
-        <v>2.478628696031012</v>
+        <v>2.410332154460215</v>
       </c>
       <c r="TZ3">
-        <v>2.491493207739195</v>
+        <v>2.411145103129285</v>
       </c>
       <c r="UA3">
-        <v>2.455714305283507</v>
+        <v>2.394631655539061</v>
       </c>
       <c r="UB3">
-        <v>2.427901854102818</v>
+        <v>2.373424854023848</v>
       </c>
       <c r="UC3">
-        <v>2.346581204148667</v>
+        <v>2.32192209814722</v>
       </c>
       <c r="UD3">
-        <v>2.437510597546754</v>
+        <v>2.414312859670027</v>
       </c>
       <c r="UE3">
-        <v>2.355744150196974</v>
+        <v>2.3314905664207</v>
       </c>
       <c r="UF3">
-        <v>2.482171170034611</v>
+        <v>2.41382501459621</v>
       </c>
       <c r="UG3">
-        <v>2.479562039640887</v>
+        <v>2.41125242263049</v>
       </c>
       <c r="UH3">
-        <v>2.491609790159067</v>
+        <v>2.411203094008089</v>
       </c>
       <c r="UI3">
-        <v>2.495808591132498</v>
+        <v>2.411933307719806</v>
       </c>
       <c r="UJ3">
-        <v>2.455788071844125</v>
+        <v>2.394707239253796</v>
       </c>
       <c r="UK3">
-        <v>2.427947996544023</v>
+        <v>2.373470261871618</v>
       </c>
       <c r="UL3">
-        <v>2.347777020670177</v>
+        <v>2.323090458866229</v>
       </c>
       <c r="UM3">
-        <v>2.43777128023706</v>
+        <v>2.414577111935192</v>
       </c>
       <c r="UN3">
-        <v>2.355744150196975</v>
+        <v>2.331490566420703</v>
       </c>
       <c r="UO3">
-        <v>2.484059511008244</v>
+        <v>2.415686923545616</v>
       </c>
       <c r="UP3">
-        <v>2.482171170034611</v>
+        <v>2.41382501459621</v>
       </c>
       <c r="UQ3">
-        <v>2.49165268820885</v>
+        <v>2.411224432510488</v>
       </c>
       <c r="UR3">
-        <v>2.499072320577997</v>
+        <v>2.412529400755913</v>
       </c>
       <c r="US3">
-        <v>2.456477201419783</v>
+        <v>2.395413338699539</v>
       </c>
       <c r="UT3">
-        <v>2.427984403873661</v>
+        <v>2.373506089584977</v>
       </c>
       <c r="UU3">
-        <v>2.438001945404043</v>
+        <v>2.414810935383605</v>
       </c>
       <c r="UV3">
-        <v>2.355744150196975</v>
+        <v>2.331490566420703</v>
       </c>
       <c r="UW3">
-        <v>2.484264222207062</v>
+        <v>2.415896626975734</v>
       </c>
       <c r="UX3">
-        <v>2.484059511008244</v>
+        <v>2.415686923545616</v>
       </c>
       <c r="UY3">
-        <v>2.485669320051911</v>
+        <v>2.417214861042043</v>
       </c>
       <c r="UZ3">
-        <v>2.491716587297465</v>
+        <v>2.411256217413608</v>
       </c>
       <c r="VA3">
-        <v>2.428025562639827</v>
+        <v>2.373546593083003</v>
       </c>
       <c r="VB3">
-        <v>2.438237867918232</v>
+        <v>2.415050087912468</v>
       </c>
       <c r="VC3">
-        <v>2.484312692722734</v>
+        <v>2.415946279493203</v>
       </c>
       <c r="VD3">
-        <v>2.484264222207062</v>
+        <v>2.415896626975734</v>
       </c>
       <c r="VE3">
-        <v>2.485872744162906</v>
+        <v>2.417407943453923</v>
       </c>
       <c r="VF3">
-        <v>2.491755036406097</v>
+        <v>2.411275342893967</v>
       </c>
       <c r="VG3">
-        <v>2.428062194612032</v>
+        <v>2.373582641849216</v>
       </c>
       <c r="VH3">
-        <v>2.43945541885634</v>
+        <v>2.416284304308133</v>
       </c>
       <c r="VI3">
-        <v>2.485626514485253</v>
+        <v>2.417292135105968</v>
       </c>
       <c r="VJ3">
-        <v>2.484312692722734</v>
+        <v>2.415946279493202</v>
       </c>
       <c r="VK3">
-        <v>2.484312692722791</v>
+        <v>2.415946279493281</v>
       </c>
       <c r="VL3">
-        <v>2.486022845579713</v>
+        <v>2.417550414576715</v>
       </c>
       <c r="VM3">
-        <v>2.491801429879624</v>
+        <v>2.411298420079373</v>
       </c>
       <c r="VN3">
-        <v>2.428104357273248</v>
+        <v>2.373624133244313</v>
       </c>
       <c r="VO3">
-        <v>2.440413192427834</v>
+        <v>2.417234915046695</v>
       </c>
       <c r="VP3">
-        <v>2.441942435811014</v>
+        <v>2.418808198583791</v>
       </c>
       <c r="VQ3">
-        <v>2.486547035438684</v>
+        <v>2.418235094627391</v>
       </c>
       <c r="VR3">
-        <v>2.485626514485253</v>
+        <v>2.417292135105968</v>
       </c>
       <c r="VS3">
-        <v>2.484312692722811</v>
+        <v>2.415946279493308</v>
       </c>
       <c r="VT3">
-        <v>2.486168885559767</v>
+        <v>2.417689031195295</v>
       </c>
       <c r="VU3">
-        <v>2.49184216492755</v>
+        <v>2.411318682627126</v>
       </c>
       <c r="VV3">
-        <v>2.428147587527921</v>
+        <v>2.373666675227211</v>
       </c>
       <c r="VW3">
-        <v>2.440468373424676</v>
+        <v>2.417289683450266</v>
       </c>
       <c r="VX3">
-        <v>2.453816276983547</v>
+        <v>2.43085768964172</v>
       </c>
       <c r="VY3">
-        <v>2.487426696000815</v>
+        <v>2.419178799382807</v>
       </c>
       <c r="VZ3">
-        <v>2.486661463397584</v>
+        <v>2.418347255556222</v>
       </c>
       <c r="WA3">
-        <v>2.484312692722826</v>
+        <v>2.415946279493324</v>
       </c>
       <c r="WB3">
-        <v>2.487540259084436</v>
+        <v>2.418990719133166</v>
       </c>
       <c r="WC3">
-        <v>2.49210871245657</v>
+        <v>2.411451269345991</v>
       </c>
       <c r="WD3">
-        <v>2.428199549024805</v>
+        <v>2.37371780943004</v>
       </c>
       <c r="WE3">
-        <v>2.440496086843049</v>
+        <v>2.417317189656411</v>
       </c>
       <c r="WF3">
-        <v>2.455755730335047</v>
+        <v>2.432758523994068</v>
       </c>
       <c r="WG3">
-        <v>2.466941417322543</v>
+        <v>2.444204224456439</v>
       </c>
       <c r="WH3">
-        <v>2.488211021486595</v>
+        <v>2.420020216823558</v>
       </c>
       <c r="WI3">
-        <v>2.487426696000815</v>
+        <v>2.419178799382807</v>
       </c>
       <c r="WJ3">
-        <v>2.487426696000814</v>
+        <v>2.419178799382805</v>
       </c>
       <c r="WK3">
-        <v>2.489099022153225</v>
+        <v>2.420736367117704</v>
       </c>
       <c r="WL3">
-        <v>2.486661463397584</v>
+        <v>2.418347255556222</v>
       </c>
       <c r="WM3">
-        <v>2.484312692722842</v>
+        <v>2.415946279493343</v>
       </c>
       <c r="WN3">
-        <v>2.488178216546955</v>
+        <v>2.4195962731432</v>
       </c>
       <c r="WO3">
-        <v>2.494073563896235</v>
+        <v>2.41242862304349</v>
       </c>
       <c r="WP3">
-        <v>2.428232124571293</v>
+        <v>2.373749866325357</v>
       </c>
       <c r="WQ3">
-        <v>2.440519325777391</v>
+        <v>2.41734025483588</v>
       </c>
       <c r="WR3">
-        <v>2.456778494699096</v>
+        <v>2.433760936053189</v>
       </c>
       <c r="WS3">
-        <v>2.479492479178449</v>
+        <v>2.45696613720539</v>
       </c>
       <c r="WT3">
-        <v>2.488935941804256</v>
+        <v>2.420796565037736</v>
       </c>
       <c r="WU3">
-        <v>2.488211021486595</v>
+        <v>2.420020216823559</v>
       </c>
       <c r="WV3">
-        <v>2.488211021486595</v>
+        <v>2.420020216823559</v>
       </c>
       <c r="WW3">
-        <v>2.489672356128501</v>
+        <v>2.421298313526031</v>
       </c>
       <c r="WX3">
-        <v>2.484312692722849</v>
+        <v>2.415946279493354</v>
       </c>
       <c r="WY3">
-        <v>2.488477571942654</v>
+        <v>2.419880426596081</v>
       </c>
       <c r="WZ3">
-        <v>2.428372117952549</v>
+        <v>2.373887630747088</v>
       </c>
       <c r="XA3">
-        <v>2.440538276133075</v>
+        <v>2.417359063503121</v>
       </c>
       <c r="XB3">
-        <v>2.47984202019893</v>
+        <v>2.457303304701203</v>
       </c>
       <c r="XC3">
-        <v>2.482798203924942</v>
+        <v>2.460338809596838</v>
       </c>
       <c r="XD3">
-        <v>2.489923015338926</v>
+        <v>2.421853629862337</v>
       </c>
       <c r="XE3">
-        <v>2.484312692722858</v>
+        <v>2.415946279493367</v>
       </c>
       <c r="XF3">
-        <v>2.488677223911808</v>
+        <v>2.420069940875875</v>
       </c>
       <c r="XG3">
-        <v>2.428962217762455</v>
+        <v>2.374468334042237</v>
       </c>
       <c r="XH3">
-        <v>2.440568022325065</v>
+        <v>2.41738858729032</v>
       </c>
       <c r="XI3">
-        <v>2.479927720131172</v>
+        <v>2.457385971200463</v>
       </c>
       <c r="XJ3">
-        <v>2.483558554084259</v>
+        <v>2.461114549068532</v>
       </c>
       <c r="XK3">
-        <v>2.490212439987955</v>
+        <v>2.422163569457446</v>
       </c>
       <c r="XL3">
-        <v>2.484312692722867</v>
+        <v>2.415946279493377</v>
       </c>
       <c r="XM3">
-        <v>2.488982419483789</v>
+        <v>2.420359641274628</v>
       </c>
       <c r="XN3">
-        <v>2.440638952213237</v>
+        <v>2.417458986864416</v>
       </c>
       <c r="XO3">
-        <v>2.479986565965</v>
+        <v>2.457442734194277</v>
       </c>
       <c r="XP3">
-        <v>2.483935848997309</v>
+        <v>2.461499479049404</v>
       </c>
       <c r="XQ3">
-        <v>2.491170074343814</v>
+        <v>2.423189058303</v>
       </c>
       <c r="XR3">
-        <v>2.484312692722876</v>
+        <v>2.415946279493384</v>
       </c>
       <c r="XS3">
-        <v>2.489578340433643</v>
+        <v>2.420925312414903</v>
       </c>
       <c r="XT3">
-        <v>2.44068802286852</v>
+        <v>2.41750769064721</v>
       </c>
       <c r="XU3">
-        <v>2.480068136419374</v>
+        <v>2.45752141756259</v>
       </c>
       <c r="XV3">
-        <v>2.48435044576193</v>
+        <v>2.461922464744644</v>
       </c>
       <c r="XW3">
-        <v>2.484312692722882</v>
+        <v>2.41594627949339</v>
       </c>
       <c r="XX3">
-        <v>2.489743039720561</v>
+        <v>2.421081652696313</v>
       </c>
       <c r="XY3">
-        <v>2.440750414325292</v>
+        <v>2.417569615650242</v>
       </c>
       <c r="XZ3">
-        <v>2.480261552213038</v>
+        <v>2.457707988053641</v>
       </c>
       <c r="YA3">
-        <v>2.484828801562476</v>
+        <v>2.462410498284834</v>
       </c>
       <c r="YB3">
-        <v>2.484312692722887</v>
+        <v>2.415946279493395</v>
       </c>
       <c r="YC3">
-        <v>2.489790852248749</v>
+        <v>2.421127038699703</v>
       </c>
       <c r="YD3">
-        <v>2.440788315738241</v>
+        <v>2.417607233708763</v>
       </c>
       <c r="YE3">
-        <v>2.480408568671649</v>
+        <v>2.457849801745905</v>
       </c>
       <c r="YF3">
-        <v>2.485312357162562</v>
+        <v>2.462903835420309</v>
       </c>
       <c r="YG3">
-        <v>2.48431269272289</v>
+        <v>2.4159462794934</v>
       </c>
       <c r="YH3">
-        <v>2.48981190987076</v>
+        <v>2.421147977483395</v>
       </c>
       <c r="YI3">
-        <v>2.489899300437385</v>
+        <v>2.421224938201481</v>
       </c>
       <c r="YJ3">
-        <v>2.440822532068555</v>
+        <v>2.417641194238413</v>
       </c>
       <c r="YK3">
-        <v>2.480511766105872</v>
+        <v>2.457949347325467</v>
       </c>
       <c r="YL3">
-        <v>2.485848406298864</v>
+        <v>2.46345072630172</v>
       </c>
       <c r="YM3">
-        <v>2.484312692722897</v>
+        <v>2.41594627949341</v>
       </c>
       <c r="YN3">
-        <v>2.489831617831999</v>
+        <v>2.42116757422405</v>
       </c>
       <c r="YO3">
-        <v>2.490042396738418</v>
+        <v>2.421354116335631</v>
       </c>
       <c r="YP3">
-        <v>2.440880237910868</v>
+        <v>2.417698468680954</v>
       </c>
       <c r="YQ3">
-        <v>2.480619869238686</v>
+        <v>2.458053625182226</v>
       </c>
       <c r="YR3">
-        <v>2.486627868887363</v>
+        <v>2.464245950648807</v>
       </c>
       <c r="YS3">
-        <v>2.4843126927229</v>
+        <v>2.415946279493412</v>
       </c>
       <c r="YT3">
-        <v>2.489851919389987</v>
+        <v>2.421187761212483</v>
       </c>
       <c r="YU3">
-        <v>2.490636785003833</v>
+        <v>2.421890700588751</v>
       </c>
       <c r="YV3">
-        <v>2.44093696908066</v>
+        <v>2.417754775747333</v>
       </c>
       <c r="YW3">
-        <v>2.480708618997255</v>
+        <v>2.458139234627543</v>
       </c>
       <c r="YX3">
-        <v>2.487022192737924</v>
+        <v>2.464543048002722</v>
       </c>
       <c r="YY3">
-        <v>2.48831737306328</v>
+        <v>2.466016169605453</v>
       </c>
       <c r="YZ3">
-        <v>2.484312692722901</v>
+        <v>2.415946279493412</v>
       </c>
       <c r="ZA3">
-        <v>2.489998698625358</v>
+        <v>2.421333712144641</v>
       </c>
       <c r="ZB3">
-        <v>2.490889158704256</v>
+        <v>2.422118535326248</v>
       </c>
       <c r="ZC3">
-        <v>2.440963810666741</v>
+        <v>2.417781416678025</v>
       </c>
       <c r="ZD3">
-        <v>2.480855556272756</v>
+        <v>2.458280972956265</v>
       </c>
       <c r="ZE3">
-        <v>2.487258958774453</v>
+        <v>2.464721435648031</v>
       </c>
       <c r="ZF3">
-        <v>2.499007132590109</v>
+        <v>2.477216132888372</v>
       </c>
       <c r="ZG3">
-        <v>2.484312692722901</v>
+        <v>2.415946279493411</v>
       </c>
       <c r="ZH3">
-        <v>2.491067265259233</v>
+        <v>2.42239625018178</v>
       </c>
       <c r="ZI3">
-        <v>2.440993292129535</v>
+        <v>2.417810677753446</v>
       </c>
       <c r="ZJ3">
-        <v>2.481330346708119</v>
+        <v>2.458738966603408</v>
       </c>
       <c r="ZK3">
-        <v>2.487478576494937</v>
+        <v>2.464886903062746</v>
       </c>
       <c r="ZL3">
-        <v>2.506649764187362</v>
+        <v>2.485223013823127</v>
       </c>
       <c r="ZM3">
-        <v>2.441021587649498</v>
+        <v>2.417838761753983</v>
       </c>
       <c r="ZN3">
-        <v>2.482439352846513</v>
+        <v>2.459808752737704</v>
       </c>
       <c r="ZO3">
-        <v>2.487692848929403</v>
+        <v>2.465048343063988</v>
       </c>
       <c r="ZP3">
-        <v>2.509940795160652</v>
+        <v>2.488286910504124</v>
       </c>
       <c r="ZQ3">
-        <v>2.524956284011556</v>
+        <v>2.504810486914492</v>
       </c>
       <c r="ZR3">
-        <v>2.441055711326285</v>
+        <v>2.417872630346965</v>
       </c>
       <c r="ZS3">
-        <v>2.487853557368549</v>
+        <v>2.465169426102901</v>
       </c>
       <c r="ZT3">
-        <v>2.510095771273059</v>
+        <v>2.488414246088126</v>
       </c>
       <c r="ZU3">
-        <v>2.510366557416292</v>
+        <v>2.488730632083117</v>
       </c>
       <c r="ZV3">
-        <v>2.526853087497287</v>
+        <v>2.506698976502987</v>
       </c>
       <c r="ZW3">
-        <v>2.528397754108174</v>
+        <v>2.508519283366144</v>
       </c>
       <c r="ZX3">
-        <v>2.44111014181495</v>
+        <v>2.417926653960176</v>
       </c>
       <c r="ZY3">
-        <v>2.48810883524284</v>
+        <v>2.465361760765866</v>
       </c>
       <c r="ZZ3">
-        <v>2.510144262014411</v>
+        <v>2.488454088666469</v>
       </c>
       <c r="AAA3">
-        <v>2.511233646385234</v>
+        <v>2.489634284995318</v>
       </c>
       <c r="AAB3">
-        <v>2.527951206079055</v>
+        <v>2.507792285047947</v>
       </c>
       <c r="AAC3">
-        <v>2.532300130028642</v>
+        <v>2.512700942256994</v>
       </c>
       <c r="AAD3">
-        <v>2.441259105108895</v>
+        <v>2.41807450377887</v>
       </c>
       <c r="AAE3">
-        <v>2.488539193453191</v>
+        <v>2.465686006355839</v>
       </c>
       <c r="AAF3">
-        <v>2.510175439590712</v>
+        <v>2.488479705908265</v>
       </c>
       <c r="AAG3">
-        <v>2.54257834283994</v>
+        <v>2.523713282648147</v>
       </c>
       <c r="AAH3">
-        <v>2.532300130028652</v>
+        <v>2.512700942256993</v>
       </c>
       <c r="AAI3">
-        <v>2.441457332230491</v>
+        <v>2.418271249291047</v>
       </c>
       <c r="AAJ3">
-        <v>2.491761839132265</v>
+        <v>2.468114038370601</v>
       </c>
       <c r="AAK3">
-        <v>2.51019424481477</v>
+        <v>2.48849515736431</v>
       </c>
       <c r="AAL3">
-        <v>2.552041162412008</v>
+        <v>2.534200584012662</v>
       </c>
       <c r="AAM3">
-        <v>2.544297254818366</v>
+        <v>2.525278244020844</v>
       </c>
       <c r="AAN3">
-        <v>2.532300130028661</v>
+        <v>2.512700942256992</v>
       </c>
       <c r="AAO3">
-        <v>2.441476211785279</v>
+        <v>2.418289987740564</v>
       </c>
       <c r="AAP3">
-        <v>2.49440296762746</v>
+        <v>2.470103923262892</v>
       </c>
       <c r="AAQ3">
-        <v>2.510213251320942</v>
+        <v>2.488510774229328</v>
       </c>
       <c r="AAR3">
-        <v>2.561787663226599</v>
+        <v>2.544999615944818</v>
       </c>
       <c r="AAS3">
-        <v>2.544481193609229</v>
+        <v>2.52544571068612</v>
       </c>
       <c r="AAT3">
-        <v>2.532300130028668</v>
+        <v>2.512700942256993</v>
       </c>
       <c r="AAU3">
-        <v>2.441491142695873</v>
+        <v>2.41830480705871</v>
       </c>
       <c r="AAV3">
-        <v>2.49523927366761</v>
+        <v>2.47073401186852</v>
       </c>
       <c r="AAW3">
-        <v>2.510230227990646</v>
+        <v>2.488524723281529</v>
       </c>
       <c r="AAX3">
-        <v>2.564741881069418</v>
+        <v>2.548419172378006</v>
       </c>
       <c r="AAY3">
-        <v>2.565615563455596</v>
+        <v>2.548744953055857</v>
       </c>
       <c r="AAZ3">
-        <v>2.544551420175136</v>
+        <v>2.525509648407226</v>
       </c>
       <c r="ABA3">
-        <v>2.532300130028676</v>
+        <v>2.512700942256994</v>
       </c>
       <c r="ABB3">
-        <v>2.441505644091406</v>
+        <v>2.418319200072602</v>
       </c>
       <c r="ABC3">
-        <v>2.496000416376892</v>
+        <v>2.471307469783511</v>
       </c>
       <c r="ABD3">
-        <v>2.510249354641882</v>
+        <v>2.488540438910826</v>
       </c>
       <c r="ABE3">
-        <v>2.56875320628509</v>
+        <v>2.553061744466607</v>
       </c>
       <c r="ABF3">
-        <v>2.566128541106684</v>
+        <v>2.549246877086928</v>
       </c>
       <c r="ABG3">
-        <v>2.5446257036901</v>
+        <v>2.525577279834228</v>
       </c>
       <c r="ABH3">
-        <v>2.532300130028679</v>
+        <v>2.512700942256993</v>
       </c>
       <c r="ABI3">
-        <v>2.441521176542806</v>
+        <v>2.418334616437088</v>
       </c>
       <c r="ABJ3">
-        <v>2.49641489243799</v>
+        <v>2.471619742632166</v>
       </c>
       <c r="ABK3">
-        <v>2.510264678834892</v>
+        <v>2.488553030224939</v>
       </c>
       <c r="ABL3">
-        <v>2.573445277446069</v>
+        <v>2.558491306631654</v>
       </c>
       <c r="ABM3">
-        <v>2.566397999596356</v>
+        <v>2.549510530308006</v>
       </c>
       <c r="ABN3">
-        <v>2.544687350772315</v>
+        <v>2.525633406467616</v>
       </c>
       <c r="ABO3">
-        <v>2.532300130028679</v>
+        <v>2.512700942256985</v>
       </c>
       <c r="ABP3">
-        <v>2.441535537369254</v>
+        <v>2.418348869933799</v>
       </c>
       <c r="ABQ3">
-        <v>2.496745874511993</v>
+        <v>2.471869109534627</v>
       </c>
       <c r="ABR3">
-        <v>2.510283060074222</v>
+        <v>2.488568133419924</v>
       </c>
       <c r="ABS3">
-        <v>2.577209404822624</v>
+        <v>2.562846385016431</v>
       </c>
       <c r="ABT3">
-        <v>2.56716184932028</v>
+        <v>2.550270550437317</v>
       </c>
       <c r="ABU3">
-        <v>2.566422972447179</v>
+        <v>2.549534553054913</v>
       </c>
       <c r="ABV3">
-        <v>2.544760353974462</v>
+        <v>2.525699872343931</v>
       </c>
       <c r="ABW3">
-        <v>2.532300130028678</v>
+        <v>2.512700942256974</v>
       </c>
       <c r="ABX3">
-        <v>2.441549070844204</v>
+        <v>2.418362302263033</v>
       </c>
       <c r="ABY3">
-        <v>2.497028078644452</v>
+        <v>2.472081726222598</v>
       </c>
       <c r="ABZ3">
-        <v>2.510302867885769</v>
+        <v>2.488584408802599</v>
       </c>
       <c r="ACA3">
-        <v>2.578123482424507</v>
+        <v>2.563921245969838</v>
       </c>
       <c r="ACB3">
-        <v>2.579384782957989</v>
+        <v>2.565284859134986</v>
       </c>
       <c r="ACC3">
-        <v>2.567782568526117</v>
+        <v>2.550888158614613</v>
       </c>
       <c r="ACD3">
-        <v>2.566441031230471</v>
+        <v>2.549551924789727</v>
       </c>
       <c r="ACE3">
-        <v>2.544831547649727</v>
+        <v>2.525764690790986</v>
       </c>
       <c r="ACF3">
-        <v>2.532300130028678</v>
+        <v>2.512700942256965</v>
       </c>
       <c r="ACG3">
-        <v>2.4415678931795</v>
+        <v>2.418380983925951</v>
       </c>
       <c r="ACH3">
-        <v>2.497359212574417</v>
+        <v>2.472331207124209</v>
       </c>
       <c r="ACI3">
-        <v>2.51033900574395</v>
+        <v>2.488614102078209</v>
       </c>
       <c r="ACJ3">
-        <v>2.579383438112608</v>
+        <v>2.56540275441664</v>
       </c>
       <c r="ACK3">
-        <v>2.581201460205181</v>
+        <v>2.567321026308396</v>
       </c>
       <c r="ACL3">
-        <v>2.566456271117747</v>
+        <v>2.549566584877976</v>
       </c>
       <c r="ACM3">
-        <v>2.544929420175133</v>
+        <v>2.525853799151392</v>
       </c>
       <c r="ACN3">
-        <v>2.53230013002868</v>
+        <v>2.512700942256958</v>
       </c>
       <c r="ACO3">
-        <v>2.44159095896061</v>
+        <v>2.418403877321937</v>
       </c>
       <c r="ACP3">
-        <v>2.497661750174363</v>
+        <v>2.472559142959446</v>
       </c>
       <c r="ACQ3">
-        <v>2.510609354436918</v>
+        <v>2.488836241369063</v>
       </c>
       <c r="ACR3">
-        <v>2.582481530160958</v>
+        <v>2.569045277963902</v>
       </c>
       <c r="ACS3">
-        <v>2.581947082829874</v>
+        <v>2.568060898865484</v>
       </c>
       <c r="ACT3">
-        <v>2.581222281366035</v>
+        <v>2.567347831138543</v>
       </c>
       <c r="ACU3">
-        <v>2.56648201280978</v>
+        <v>2.549591347240313</v>
       </c>
       <c r="ACV3">
-        <v>2.545064052993157</v>
+        <v>2.525976376214799</v>
       </c>
       <c r="ACW3">
-        <v>2.53230013002868</v>
+        <v>2.512700942256954</v>
       </c>
       <c r="ACX3">
-        <v>2.441700281481502</v>
+        <v>2.418512382828702</v>
       </c>
       <c r="ACY3">
-        <v>2.498131039481938</v>
+        <v>2.472912711373132</v>
       </c>
       <c r="ACZ3">
-        <v>2.511437628945663</v>
+        <v>2.489516845817772</v>
       </c>
       <c r="ADA3">
-        <v>2.584991079245752</v>
+        <v>2.571995476451328</v>
       </c>
       <c r="ADB3">
-        <v>2.582677467182182</v>
+        <v>2.568785652541969</v>
       </c>
       <c r="ADC3">
-        <v>2.581242188881956</v>
+        <v>2.567373459688396</v>
       </c>
       <c r="ADD3">
-        <v>2.566518060494491</v>
+        <v>2.549626023527585</v>
       </c>
       <c r="ADE3">
-        <v>2.545206524204326</v>
+        <v>2.526106089999124</v>
       </c>
       <c r="ADF3">
-        <v>2.532300130028676</v>
+        <v>2.512700942256947</v>
       </c>
       <c r="ADG3">
-        <v>2.442634797817627</v>
+        <v>2.419439916605052</v>
       </c>
       <c r="ADH3">
-        <v>2.499078259265683</v>
+        <v>2.47362635720566</v>
       </c>
       <c r="ADI3">
-        <v>2.586951034073788</v>
+        <v>2.574299355913363</v>
       </c>
       <c r="ADJ3">
-        <v>2.581263650021696</v>
+        <v>2.567401088268537</v>
       </c>
       <c r="ADK3">
-        <v>2.566544808337105</v>
+        <v>2.549651753789766</v>
       </c>
       <c r="ADL3">
-        <v>2.54530115913748</v>
+        <v>2.526192251077086</v>
       </c>
       <c r="ADM3">
-        <v>2.532300130028673</v>
+        <v>2.512700942256941</v>
       </c>
       <c r="ADN3">
-        <v>2.499288185098613</v>
+        <v>2.473766210056249</v>
       </c>
       <c r="ADO3">
-        <v>2.499513228510311</v>
+        <v>2.474063200652577</v>
       </c>
       <c r="ADP3">
-        <v>2.588721750314185</v>
+        <v>2.576380622589676</v>
       </c>
       <c r="ADQ3">
-        <v>2.581282813002433</v>
+        <v>2.567425758185714</v>
       </c>
       <c r="ADR3">
-        <v>2.566589116534243</v>
+        <v>2.549694376376083</v>
       </c>
       <c r="ADS3">
-        <v>2.545397470798651</v>
+        <v>2.526279938847061</v>
       </c>
       <c r="ADT3">
-        <v>2.532300130028672</v>
+        <v>2.512700942256936</v>
       </c>
       <c r="ADU3">
-        <v>2.499471249288925</v>
+        <v>2.473888167657592</v>
       </c>
       <c r="ADV3">
-        <v>2.500209066980688</v>
+        <v>2.474762032751529</v>
       </c>
       <c r="ADW3">
-        <v>2.588797598337032</v>
+        <v>2.576463185541321</v>
       </c>
       <c r="ADX3">
-        <v>2.589524993810196</v>
+        <v>2.577354743475027</v>
       </c>
       <c r="ADY3">
-        <v>2.58130397512664</v>
+        <v>2.567453001675617</v>
       </c>
       <c r="ADZ3">
-        <v>2.566896635902246</v>
+        <v>2.54999019772693</v>
       </c>
       <c r="AEA3">
-        <v>2.545443520140344</v>
+        <v>2.526321864897895</v>
       </c>
       <c r="AEB3">
-        <v>2.53230013002867</v>
+        <v>2.512700942256934</v>
       </c>
       <c r="AEC3">
-        <v>2.499622644007327</v>
+        <v>2.473989027022959</v>
       </c>
       <c r="AED3">
-        <v>2.500803421712116</v>
+        <v>2.475358940015674</v>
       </c>
       <c r="AEE3">
-        <v>2.588873643217836</v>
+        <v>2.576545962279655</v>
       </c>
       <c r="AEF3">
-        <v>2.590418261536268</v>
+        <v>2.578437922979518</v>
       </c>
       <c r="AEG3">
-        <v>2.589524993810196</v>
+        <v>2.577354743475027</v>
       </c>
       <c r="AEH3">
-        <v>2.581317618935312</v>
+        <v>2.567470566269441</v>
       </c>
       <c r="AEI3">
-        <v>2.567575755467577</v>
+        <v>2.550643489207622</v>
       </c>
       <c r="AEJ3">
-        <v>2.545516765333259</v>
+        <v>2.526388551712777</v>
       </c>
       <c r="AEK3">
-        <v>2.532300130028671</v>
+        <v>2.512700942256933</v>
       </c>
       <c r="AEL3">
-        <v>2.49974037107597</v>
+        <v>2.474067456959287</v>
       </c>
       <c r="AEM3">
-        <v>2.501139733329146</v>
+        <v>2.475696694132025</v>
       </c>
       <c r="AEN3">
-        <v>2.58894983328036</v>
+        <v>2.576628896550442</v>
       </c>
       <c r="AEO3">
-        <v>2.591167102392881</v>
+        <v>2.579345935368516</v>
       </c>
       <c r="AEP3">
-        <v>2.590418261536269</v>
+        <v>2.578437922979518</v>
       </c>
       <c r="AEQ3">
-        <v>2.581338574728003</v>
+        <v>2.567497544011605</v>
       </c>
       <c r="AER3">
-        <v>2.545585524216307</v>
+        <v>2.526451153976629</v>
       </c>
       <c r="AES3">
-        <v>2.532300130028669</v>
+        <v>2.512700942256933</v>
       </c>
       <c r="AET3">
-        <v>2.49986010246696</v>
+        <v>2.474147222182063</v>
       </c>
       <c r="AEU3">
-        <v>2.589025559722911</v>
+        <v>2.576711325665095</v>
       </c>
       <c r="AEV3">
-        <v>2.591971951101407</v>
+        <v>2.580321825300393</v>
       </c>
       <c r="AEW3">
-        <v>2.591167102392881</v>
+        <v>2.579345935368516</v>
       </c>
       <c r="AEX3">
-        <v>2.581510933825722</v>
+        <v>2.567719430173375</v>
       </c>
       <c r="AEY3">
-        <v>2.54568376572284</v>
+        <v>2.526540599103284</v>
       </c>
       <c r="AEZ3">
-        <v>2.532300130028669</v>
+        <v>2.512700942256933</v>
       </c>
       <c r="AFA3">
-        <v>2.499964004492297</v>
+        <v>2.474216441862322</v>
       </c>
       <c r="AFB3">
-        <v>2.58910157156131</v>
+        <v>2.576794064937816</v>
       </c>
       <c r="AFC3">
-        <v>2.592632654917564</v>
+        <v>2.581122910361225</v>
       </c>
       <c r="AFD3">
-        <v>2.591971951101407</v>
+        <v>2.580321825300393</v>
       </c>
       <c r="AFE3">
-        <v>2.582104857371843</v>
+        <v>2.568483978155248</v>
       </c>
       <c r="AFF3">
-        <v>2.546720520147966</v>
+        <v>2.527484530835323</v>
       </c>
       <c r="AFG3">
-        <v>2.500038626484436</v>
+        <v>2.47426615514385</v>
       </c>
       <c r="AFH3">
-        <v>2.589177529341286</v>
+        <v>2.576876744868636</v>
       </c>
       <c r="AFI3">
-        <v>2.593341887335963</v>
+        <v>2.58198280767339</v>
       </c>
       <c r="AFJ3">
-        <v>2.592632654917564</v>
+        <v>2.581122910361225</v>
       </c>
       <c r="AFK3">
-        <v>2.547135067241172</v>
+        <v>2.527861966054355</v>
       </c>
       <c r="AFL3">
-        <v>2.500125260629231</v>
+        <v>2.474323870941268</v>
       </c>
       <c r="AFM3">
-        <v>2.589253532676079</v>
+        <v>2.576959473886504</v>
       </c>
       <c r="AFN3">
-        <v>2.594925508004278</v>
+        <v>2.583901774855162</v>
       </c>
       <c r="AFO3">
-        <v>2.593341887335958</v>
+        <v>2.581982807673416</v>
       </c>
       <c r="AFP3">
-        <v>2.593341887335963</v>
+        <v>2.58198280767339</v>
       </c>
       <c r="AFQ3">
-        <v>2.54734554541328</v>
+        <v>2.52805360213231</v>
       </c>
       <c r="AFR3">
-        <v>2.500255771822956</v>
+        <v>2.474410817698714</v>
       </c>
       <c r="AFS3">
-        <v>2.589290631435806</v>
+        <v>2.576999855406318</v>
       </c>
       <c r="AFT3">
-        <v>2.595157088042179</v>
+        <v>2.584182366225143</v>
       </c>
       <c r="AFU3">
-        <v>2.593341887335953</v>
+        <v>2.581982807673447</v>
       </c>
       <c r="AFV3">
-        <v>2.593341887335958</v>
+        <v>2.581982807673416</v>
       </c>
       <c r="AFW3">
-        <v>2.54739211759792</v>
+        <v>2.528096005222218</v>
       </c>
       <c r="AFX3">
-        <v>2.500468989640636</v>
+        <v>2.474552863746527</v>
       </c>
       <c r="AFY3">
-        <v>2.590124280100866</v>
+        <v>2.57790723980871</v>
       </c>
       <c r="AFZ3">
-        <v>2.595809352711782</v>
+        <v>2.584972637164607</v>
       </c>
       <c r="AGA3">
-        <v>2.593341887335946</v>
+        <v>2.581982807673489</v>
       </c>
       <c r="AGB3">
-        <v>2.593341887335953</v>
+        <v>2.581982807673447</v>
       </c>
       <c r="AGC3">
-        <v>2.547428794824414</v>
+        <v>2.528129399157623</v>
       </c>
       <c r="AGD3">
-        <v>2.501600473293017</v>
+        <v>2.47512202941027</v>
       </c>
       <c r="AGE3">
-        <v>2.502010883421296</v>
+        <v>2.476071603827635</v>
       </c>
       <c r="AGF3">
-        <v>2.590666230667058</v>
+        <v>2.578497093359877</v>
       </c>
       <c r="AGG3">
-        <v>2.596574995280856</v>
+        <v>2.585900202454425</v>
       </c>
       <c r="AGH3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673504</v>
       </c>
       <c r="AGI3">
-        <v>2.593341887335946</v>
+        <v>2.581982807673489</v>
       </c>
       <c r="AGJ3">
-        <v>2.547468091432991</v>
+        <v>2.528165178008546</v>
       </c>
       <c r="AGK3">
-        <v>2.591140120497329</v>
+        <v>2.579012849482125</v>
       </c>
       <c r="AGL3">
-        <v>2.596674293520446</v>
+        <v>2.586020495185389</v>
       </c>
       <c r="AGM3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673516</v>
       </c>
       <c r="AGN3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673504</v>
       </c>
       <c r="AGO3">
-        <v>2.547499531115283</v>
+        <v>2.528193803282681</v>
       </c>
       <c r="AGP3">
-        <v>2.591637099230498</v>
+        <v>2.579553713466245</v>
       </c>
       <c r="AGQ3">
-        <v>2.596748841403107</v>
+        <v>2.586096663457333</v>
       </c>
       <c r="AGR3">
-        <v>2.596786111619494</v>
+        <v>2.58618741278391</v>
       </c>
       <c r="AGS3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673517</v>
       </c>
       <c r="AGT3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673516</v>
       </c>
       <c r="AGU3">
-        <v>2.54753005735309</v>
+        <v>2.528221596892331</v>
       </c>
       <c r="AGV3">
-        <v>2.592485444431143</v>
+        <v>2.580476921686534</v>
       </c>
       <c r="AGW3">
-        <v>2.596817820001329</v>
+        <v>2.586167141328939</v>
       </c>
       <c r="AGX3">
-        <v>2.597047770871959</v>
+        <v>2.586577988731515</v>
       </c>
       <c r="AGY3">
-        <v>2.593341887335944</v>
+        <v>2.581982807673518</v>
       </c>
       <c r="AGZ3">
-        <v>2.593341887335943</v>
+        <v>2.581982807673518</v>
       </c>
       <c r="AHA3">
-        <v>2.547560505767606</v>
+        <v>2.528249319655577</v>
       </c>
       <c r="AHB3">
-        <v>2.59269347942234</v>
+        <v>2.580703305423872</v>
       </c>
       <c r="AHC3">
-        <v>2.596922703312104</v>
+        <v>2.586274304202487</v>
       </c>
       <c r="AHD3">
-        <v>2.597668363585727</v>
+        <v>2.58750423688148</v>
       </c>
       <c r="AHE3">
-        <v>2.547590597544808</v>
+        <v>2.528276717716775</v>
       </c>
       <c r="AHF3">
-        <v>2.592819396670932</v>
+        <v>2.580827205839678</v>
       </c>
       <c r="AHG3">
-        <v>2.593217797636785</v>
+        <v>2.581369861211767</v>
       </c>
       <c r="AHH3">
-        <v>2.597055239036004</v>
+        <v>2.586409720301404</v>
       </c>
       <c r="AHI3">
-        <v>2.548128635715947</v>
+        <v>2.528766594201307</v>
       </c>
       <c r="AHJ3">
-        <v>2.593026127174688</v>
+        <v>2.581030624981495</v>
       </c>
       <c r="AHK3">
-        <v>2.593662427752004</v>
+        <v>2.581935075572176</v>
       </c>
       <c r="AHL3">
-        <v>2.597571111866619</v>
+        <v>2.586936802452557</v>
       </c>
       <c r="AHM3">
-        <v>2.549454670852233</v>
+        <v>2.529954890090766</v>
       </c>
       <c r="AHN3">
-        <v>2.548803598121726</v>
+        <v>2.529391802311837</v>
       </c>
       <c r="AHO3">
-        <v>2.593067000081377</v>
+        <v>2.581070843175761</v>
       </c>
       <c r="AHP3">
-        <v>2.594409630949575</v>
+        <v>2.582884847923475</v>
       </c>
       <c r="AHQ3">
-        <v>2.59850787808697</v>
+        <v>2.587893915177697</v>
       </c>
       <c r="AHR3">
-        <v>2.550334910469395</v>
+        <v>2.530743698761361</v>
       </c>
       <c r="AHS3">
-        <v>2.593101536228074</v>
+        <v>2.581104826108811</v>
       </c>
       <c r="AHT3">
-        <v>2.593130639312078</v>
+        <v>2.581133463004533</v>
       </c>
       <c r="AHU3">
-        <v>2.59316849700762</v>
+        <v>2.581170714270995</v>
       </c>
       <c r="AHV3">
-        <v>2.59323701191929</v>
+        <v>2.581238131652366</v>
       </c>
       <c r="AHW3">
-        <v>2.593355799558238</v>
+        <v>2.58135501640661</v>
       </c>
       <c r="AHX3">
-        <v>2.594328559065137</v>
+        <v>2.582312191018952</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.0984336439481636</v>
+        <v>-0.1664071742738812</v>
       </c>
       <c r="D2">
-        <v>-0.0993124207350871</v>
+        <v>-0.1678867063589621</v>
       </c>
       <c r="E2">
-        <v>-0.09940455814135221</v>
+        <v>-0.1680418428825412</v>
       </c>
       <c r="F2">
-        <v>-0.09949087813370741</v>
+        <v>-0.1681871863095258</v>
       </c>
       <c r="G2">
-        <v>-0.09956613812193203</v>
+        <v>-0.1683139087470331</v>
       </c>
       <c r="H2">
-        <v>-0.09968470470418211</v>
+        <v>-0.1685135535980533</v>
       </c>
       <c r="I2">
-        <v>-0.1077658795027322</v>
+        <v>-0.1821293438972097</v>
       </c>
       <c r="J2">
-        <v>-0.1081281613018236</v>
+        <v>-0.1827401389181119</v>
       </c>
       <c r="K2">
-        <v>-0.1084297173823506</v>
+        <v>-0.1832485782398022</v>
       </c>
       <c r="L2">
-        <v>-0.1086943734697159</v>
+        <v>-0.1836948215840646</v>
       </c>
       <c r="M2">
-        <v>-0.1088918670391105</v>
+        <v>-0.1840278322832758</v>
       </c>
       <c r="N2">
-        <v>-0.1090772727564424</v>
+        <v>-0.1843404697908542</v>
       </c>
       <c r="O2">
-        <v>-0.1091912841185393</v>
+        <v>-0.1845327240836731</v>
       </c>
       <c r="P2">
-        <v>-0.1094751338104111</v>
+        <v>-0.1850113867613164</v>
       </c>
       <c r="Q2">
-        <v>-0.1117752106710388</v>
+        <v>-0.1888908299675065</v>
       </c>
       <c r="R2">
-        <v>-0.111775210671043</v>
+        <v>-0.1888908299675061</v>
       </c>
       <c r="S2">
-        <v>-0.1145660171179567</v>
+        <v>-0.1935998012392132</v>
       </c>
       <c r="T2">
-        <v>-0.1117752106710451</v>
+        <v>-0.1888908299675057</v>
       </c>
       <c r="U2">
-        <v>-0.1147581049403786</v>
+        <v>-0.1939239880511672</v>
       </c>
       <c r="V2">
-        <v>-0.1117752106710472</v>
+        <v>-0.1888908299675051</v>
       </c>
       <c r="W2">
-        <v>-0.1149738068644645</v>
+        <v>-0.1942880397738565</v>
       </c>
       <c r="X2">
-        <v>-0.1117752106710489</v>
+        <v>-0.1888908299675052</v>
       </c>
       <c r="Y2">
-        <v>-0.1153250352454901</v>
+        <v>-0.1948808525116316</v>
       </c>
       <c r="Z2">
-        <v>-0.111775210671051</v>
+        <v>-0.1888908299675057</v>
       </c>
       <c r="AA2">
-        <v>-0.115964074622318</v>
+        <v>-0.1959595222058305</v>
       </c>
       <c r="AB2">
-        <v>-0.1117752106710532</v>
+        <v>-0.1888908299675056</v>
       </c>
       <c r="AC2">
-        <v>-0.1160352369134212</v>
+        <v>-0.1964016006881322</v>
       </c>
       <c r="AD2">
-        <v>-0.1238825900138228</v>
+        <v>-0.2088945995901529</v>
       </c>
       <c r="AE2">
-        <v>-0.1117752106710545</v>
+        <v>-0.1888908299675052</v>
       </c>
       <c r="AF2">
-        <v>-0.1160415601148697</v>
+        <v>-0.1964396580387106</v>
       </c>
       <c r="AG2">
-        <v>-0.116048174419332</v>
+        <v>-0.1964831759410434</v>
       </c>
       <c r="AH2">
-        <v>-0.1259929607519117</v>
+        <v>-0.2123443780603861</v>
       </c>
       <c r="AI2">
-        <v>-0.1117752106710572</v>
+        <v>-0.1888908299675049</v>
       </c>
       <c r="AJ2">
-        <v>-0.1160560407614013</v>
+        <v>-0.196526814547686</v>
       </c>
       <c r="AK2">
-        <v>-0.1160486125504225</v>
+        <v>-0.1964859385471601</v>
       </c>
       <c r="AL2">
-        <v>-0.1261558372156066</v>
+        <v>-0.2126149742277457</v>
       </c>
       <c r="AM2">
-        <v>-0.132195760745902</v>
+        <v>-0.2224850361833887</v>
       </c>
       <c r="AN2">
-        <v>-0.1117752106710591</v>
+        <v>-0.1888908299675047</v>
       </c>
       <c r="AO2">
-        <v>-0.1160492425038454</v>
+        <v>-0.1964899106812192</v>
       </c>
       <c r="AP2">
-        <v>-0.1261623838125894</v>
+        <v>-0.2126290645022242</v>
       </c>
       <c r="AQ2">
-        <v>-0.1261776552802234</v>
+        <v>-0.2126367116960801</v>
       </c>
       <c r="AR2">
-        <v>-0.1365050861830374</v>
+        <v>-0.2295353676465559</v>
       </c>
       <c r="AS2">
-        <v>-0.1321957607459159</v>
+        <v>-0.222485036183432</v>
       </c>
       <c r="AT2">
-        <v>-0.1117752106710595</v>
+        <v>-0.1888908299675049</v>
       </c>
       <c r="AU2">
-        <v>-0.1160500503763796</v>
+        <v>-0.1964950046825596</v>
       </c>
       <c r="AV2">
-        <v>-0.12616533456614</v>
+        <v>-0.2126354154401719</v>
       </c>
       <c r="AW2">
-        <v>-0.1262301545653881</v>
+        <v>-0.2126890170446467</v>
       </c>
       <c r="AX2">
-        <v>-0.1397641764718294</v>
+        <v>-0.2348702939887417</v>
       </c>
       <c r="AY2">
-        <v>-0.1321957607459266</v>
+        <v>-0.2224850361834505</v>
       </c>
       <c r="AZ2">
-        <v>-0.1117752106710593</v>
+        <v>-0.1888908299675052</v>
       </c>
       <c r="BA2">
-        <v>-0.1160520179111169</v>
+        <v>-0.1965074109197221</v>
       </c>
       <c r="BB2">
-        <v>-0.1261684617375609</v>
+        <v>-0.2126421460949096</v>
       </c>
       <c r="BC2">
-        <v>-0.1402342648238888</v>
+        <v>-0.2356400015411957</v>
       </c>
       <c r="BD2">
-        <v>-0.1397641764718303</v>
+        <v>-0.2348702939886921</v>
       </c>
       <c r="BE2">
-        <v>-0.1321957607459343</v>
+        <v>-0.2224850361834599</v>
       </c>
       <c r="BF2">
-        <v>-0.1117752106710587</v>
+        <v>-0.1888908299675057</v>
       </c>
       <c r="BG2">
-        <v>-0.1160537024814826</v>
+        <v>-0.1965180329796166</v>
       </c>
       <c r="BH2">
-        <v>-0.1261714401560705</v>
+        <v>-0.2126485565969697</v>
       </c>
       <c r="BI2">
-        <v>-0.1423642510427695</v>
+        <v>-0.2391282121721472</v>
       </c>
       <c r="BJ2">
-        <v>-0.1397641764718293</v>
+        <v>-0.2348702939886858</v>
       </c>
       <c r="BK2">
-        <v>-0.132195760745938</v>
+        <v>-0.2224850361834614</v>
       </c>
       <c r="BL2">
-        <v>-0.1117752106710585</v>
+        <v>-0.1888908299675055</v>
       </c>
       <c r="BM2">
-        <v>-0.1160617777257769</v>
+        <v>-0.1965689520408235</v>
       </c>
       <c r="BN2">
-        <v>-0.1261732239361014</v>
+        <v>-0.2126523958626189</v>
       </c>
       <c r="BO2">
-        <v>-0.1427883146399871</v>
+        <v>-0.2398322259067232</v>
       </c>
       <c r="BP2">
-        <v>-0.142530558879257</v>
+        <v>-0.23922817417769</v>
       </c>
       <c r="BQ2">
-        <v>-0.1397641764718287</v>
+        <v>-0.2348702939886811</v>
       </c>
       <c r="BR2">
-        <v>-0.1321957607459408</v>
+        <v>-0.2224850361834613</v>
       </c>
       <c r="BS2">
-        <v>-0.1117752106710579</v>
+        <v>-0.1888908299675046</v>
       </c>
       <c r="BT2">
-        <v>-0.1160903211844899</v>
+        <v>-0.1967489429448759</v>
       </c>
       <c r="BU2">
-        <v>-0.1261767235857779</v>
+        <v>-0.2126599282394875</v>
       </c>
       <c r="BV2">
-        <v>-0.147801473095108</v>
+        <v>-0.2481581787226792</v>
       </c>
       <c r="BW2">
-        <v>-0.1425794932069734</v>
+        <v>-0.23922817417769</v>
       </c>
       <c r="BX2">
-        <v>-0.142562918537722</v>
+        <v>-0.2392770365713253</v>
       </c>
       <c r="BY2">
-        <v>-0.1397641764718251</v>
+        <v>-0.2348702939886733</v>
       </c>
       <c r="BZ2">
-        <v>-0.1321957607459658</v>
+        <v>-0.2224850361834627</v>
       </c>
       <c r="CA2">
-        <v>-0.1117752106710553</v>
+        <v>-0.1888908299675024</v>
       </c>
       <c r="CB2">
-        <v>-0.1261944600303385</v>
+        <v>-0.212698103011984</v>
       </c>
       <c r="CC2">
-        <v>-0.1495502335888772</v>
+        <v>-0.2510639887566906</v>
       </c>
       <c r="CD2">
-        <v>-0.1397641764718213</v>
+        <v>-0.23487029398867</v>
       </c>
       <c r="CE2">
-        <v>-0.1321957607460522</v>
+        <v>-0.2224850361834725</v>
       </c>
       <c r="CF2">
-        <v>-0.1117752106710518</v>
+        <v>-0.1888908299674988</v>
       </c>
       <c r="CG2">
-        <v>-0.1262612961954949</v>
+        <v>-0.2128419600341414</v>
       </c>
       <c r="CH2">
-        <v>-0.149931959989461</v>
+        <v>-0.2516983792038156</v>
       </c>
       <c r="CI2">
-        <v>-0.1397641764718199</v>
+        <v>-0.2348702939886692</v>
       </c>
       <c r="CJ2">
-        <v>-0.1321957607462113</v>
+        <v>-0.2224850361834907</v>
       </c>
       <c r="CK2">
-        <v>-0.1117752106710498</v>
+        <v>-0.1888908299674963</v>
       </c>
       <c r="CL2">
-        <v>-0.1507061394970932</v>
+        <v>-0.2529850953834359</v>
       </c>
       <c r="CM2">
-        <v>-0.1397641764718199</v>
+        <v>-0.2348702939886692</v>
       </c>
       <c r="CN2">
-        <v>-0.1321957607462466</v>
+        <v>-0.2224850361834911</v>
       </c>
       <c r="CO2">
-        <v>-0.1117752106710495</v>
+        <v>-0.1888908299674955</v>
       </c>
       <c r="CP2">
-        <v>-0.151436347757803</v>
+        <v>-0.2541988629731587</v>
       </c>
       <c r="CQ2">
-        <v>-0.1321957607462509</v>
+        <v>-0.2224850361834946</v>
       </c>
       <c r="CR2">
-        <v>-0.1117752106710492</v>
+        <v>-0.188890829967495</v>
       </c>
       <c r="CS2">
-        <v>-0.151860826099916</v>
+        <v>-0.2549044993277791</v>
       </c>
       <c r="CT2">
-        <v>-0.1321957607462593</v>
+        <v>-0.2224850361834916</v>
       </c>
       <c r="CU2">
-        <v>-0.1117752106710488</v>
+        <v>-0.1888908299674955</v>
       </c>
       <c r="CV2">
-        <v>-0.1521411841080075</v>
+        <v>-0.2553705796082787</v>
       </c>
       <c r="CW2">
-        <v>-0.1321957607462628</v>
+        <v>-0.2224850361834867</v>
       </c>
       <c r="CX2">
-        <v>-0.1117752106710486</v>
+        <v>-0.1888908299674954</v>
       </c>
       <c r="CY2">
-        <v>-0.152528308770257</v>
+        <v>-0.2560141851426367</v>
       </c>
       <c r="CZ2">
-        <v>-0.1321957607467599</v>
+        <v>-0.2224850361825365</v>
       </c>
       <c r="DA2">
-        <v>-0.1117752106710486</v>
+        <v>-0.1888908299674954</v>
       </c>
       <c r="DB2">
-        <v>-0.1525453011028829</v>
+        <v>-0.2560889370744991</v>
       </c>
       <c r="DC2">
-        <v>-0.1527631061539468</v>
+        <v>-0.2563476145494559</v>
       </c>
       <c r="DD2">
-        <v>-0.1321957607467815</v>
+        <v>-0.2224850361824952</v>
       </c>
       <c r="DE2">
-        <v>-0.1525658594991835</v>
+        <v>-0.2561793769444217</v>
       </c>
       <c r="DF2">
-        <v>-0.1528962533077446</v>
+        <v>-0.2565366964491357</v>
       </c>
       <c r="DG2">
-        <v>-0.1321957607468264</v>
+        <v>-0.2224850361824036</v>
       </c>
       <c r="DH2">
-        <v>-0.152589688171124</v>
+        <v>-0.2562842036750496</v>
       </c>
       <c r="DI2">
-        <v>-0.158153002402221</v>
+        <v>-0.2640036606392332</v>
       </c>
       <c r="DJ2">
-        <v>-0.1321957607479701</v>
+        <v>-0.2224850361799622</v>
       </c>
       <c r="DK2">
-        <v>-0.1526260198773705</v>
+        <v>-0.2564440343157766</v>
       </c>
       <c r="DL2">
-        <v>-0.1586799495289553</v>
+        <v>-0.2647523653235003</v>
       </c>
       <c r="DM2">
-        <v>-0.1321957607489918</v>
+        <v>-0.2224850361777861</v>
       </c>
       <c r="DN2">
-        <v>-0.1526727292959827</v>
+        <v>-0.2566495199798886</v>
       </c>
       <c r="DO2">
-        <v>-0.1587758139222576</v>
+        <v>-0.264919586161326</v>
       </c>
       <c r="DP2">
-        <v>-0.1609712405768244</v>
+        <v>-0.2678993195981862</v>
       </c>
       <c r="DQ2">
-        <v>-0.1321957607490764</v>
+        <v>-0.2224850361775808</v>
       </c>
       <c r="DR2">
-        <v>-0.1527062622563184</v>
+        <v>-0.256797040245949</v>
       </c>
       <c r="DS2">
-        <v>-0.1587758139222591</v>
+        <v>-0.2649195861613262</v>
       </c>
       <c r="DT2">
-        <v>-0.1588224898692313</v>
+        <v>-0.265001005442591</v>
       </c>
       <c r="DU2">
-        <v>-0.1651050298699674</v>
+        <v>-0.2735777341862206</v>
       </c>
       <c r="DV2">
-        <v>-0.1321957607491425</v>
+        <v>-0.2224850361774328</v>
       </c>
       <c r="DW2">
-        <v>-0.1527536441691756</v>
+        <v>-0.2570054869965984</v>
       </c>
       <c r="DX2">
-        <v>-0.1587758139222604</v>
+        <v>-0.2649195861613268</v>
       </c>
       <c r="DY2">
-        <v>-0.1590417591724739</v>
+        <v>-0.2653834900302248</v>
       </c>
       <c r="DZ2">
-        <v>-0.1669647249899526</v>
+        <v>-0.2761326964612166</v>
       </c>
       <c r="EA2">
-        <v>-0.1321957607492014</v>
+        <v>-0.2224850361773067</v>
       </c>
       <c r="EB2">
-        <v>-0.1528049081079529</v>
+        <v>-0.2572310136427396</v>
       </c>
       <c r="EC2">
-        <v>-0.1587758139222609</v>
+        <v>-0.2649195861613268</v>
       </c>
       <c r="ED2">
-        <v>-0.1591032422318132</v>
+        <v>-0.265492407713547</v>
       </c>
       <c r="EE2">
-        <v>-0.1595755877289681</v>
+        <v>-0.2663122825232847</v>
       </c>
       <c r="EF2">
-        <v>-0.1675181230634053</v>
+        <v>-0.2768930334925197</v>
       </c>
       <c r="EG2">
-        <v>-0.1321957607493771</v>
+        <v>-0.2224850361769419</v>
       </c>
       <c r="EH2">
-        <v>-0.1528532542381001</v>
+        <v>-0.257443705561798</v>
       </c>
       <c r="EI2">
-        <v>-0.1587758139222612</v>
+        <v>-0.2649195861613277</v>
       </c>
       <c r="EJ2">
-        <v>-0.1591085372056025</v>
+        <v>-0.2655017879079571</v>
       </c>
       <c r="EK2">
-        <v>-0.1599727363599937</v>
+        <v>-0.2670032806058195</v>
       </c>
       <c r="EL2">
-        <v>-0.1681428482994182</v>
+        <v>-0.2777513947870126</v>
       </c>
       <c r="EM2">
-        <v>-0.1321957607495085</v>
+        <v>-0.2224850361766701</v>
       </c>
       <c r="EN2">
-        <v>-0.1529327432238595</v>
+        <v>-0.2577934095378503</v>
       </c>
       <c r="EO2">
-        <v>-0.1587758139222603</v>
+        <v>-0.2649195861613287</v>
       </c>
       <c r="EP2">
-        <v>-0.15911373259318</v>
+        <v>-0.2655109916995763</v>
       </c>
       <c r="EQ2">
-        <v>-0.1602387010471723</v>
+        <v>-0.2674660372354613</v>
       </c>
       <c r="ER2">
-        <v>-0.1687304377250529</v>
+        <v>-0.2785587562004624</v>
       </c>
       <c r="ES2">
-        <v>-0.1321957607495287</v>
+        <v>-0.2224850361766145</v>
       </c>
       <c r="ET2">
-        <v>-0.1533106999494474</v>
+        <v>-0.2594562524675831</v>
       </c>
       <c r="EU2">
-        <v>-0.15877581392226</v>
+        <v>-0.2649195861613289</v>
       </c>
       <c r="EV2">
-        <v>-0.1591179276575745</v>
+        <v>-0.2655184233996529</v>
       </c>
       <c r="EW2">
-        <v>-0.1604602241020915</v>
+        <v>-0.2677329038962361</v>
       </c>
       <c r="EX2">
-        <v>-0.1603212701888521</v>
+        <v>-0.267831750963278</v>
       </c>
       <c r="EY2">
-        <v>-0.1694160996837957</v>
+        <v>-0.279500901020072</v>
       </c>
       <c r="EZ2">
-        <v>-0.1321957607495362</v>
+        <v>-0.2224850361766076</v>
       </c>
       <c r="FA2">
-        <v>-0.1533930367223133</v>
+        <v>-0.2598185110004286</v>
       </c>
       <c r="FB2">
-        <v>-0.1587758139222599</v>
+        <v>-0.2649195861613284</v>
       </c>
       <c r="FC2">
-        <v>-0.1591242241309788</v>
+        <v>-0.2655295778382506</v>
       </c>
       <c r="FD2">
-        <v>-0.1610477273469851</v>
+        <v>-0.2684406660089165</v>
       </c>
       <c r="FE2">
-        <v>-0.1603262959779171</v>
+        <v>-0.2678540126205253</v>
       </c>
       <c r="FF2">
-        <v>-0.1696134067852763</v>
+        <v>-0.2797720198938392</v>
       </c>
       <c r="FG2">
-        <v>-0.1321957607495411</v>
+        <v>-0.2224850361766073</v>
       </c>
       <c r="FH2">
-        <v>-0.1536760720469708</v>
+        <v>-0.261531393156012</v>
       </c>
       <c r="FI2">
-        <v>-0.1536067192578819</v>
+        <v>-0.2605971700329175</v>
       </c>
       <c r="FJ2">
-        <v>-0.1587758139222598</v>
+        <v>-0.2649195861613275</v>
       </c>
       <c r="FK2">
-        <v>-0.1591318152572271</v>
+        <v>-0.265543025835708</v>
       </c>
       <c r="FL2">
-        <v>-0.161251803041902</v>
+        <v>-0.2686865158550704</v>
       </c>
       <c r="FM2">
-        <v>-0.1603308873124946</v>
+        <v>-0.2678743500210541</v>
       </c>
       <c r="FN2">
-        <v>-0.1707344370302762</v>
+        <v>-0.2813124728437987</v>
       </c>
       <c r="FO2">
-        <v>-0.1321957607495411</v>
+        <v>-0.2224850361766073</v>
       </c>
       <c r="FP2">
-        <v>-0.1537295463074045</v>
+        <v>-0.261855135876055</v>
       </c>
       <c r="FQ2">
-        <v>-0.1538904086587815</v>
+        <v>-0.2616309653110077</v>
       </c>
       <c r="FR2">
-        <v>-0.1587758139222597</v>
+        <v>-0.2649195861613274</v>
       </c>
       <c r="FS2">
-        <v>-0.1591375502131629</v>
+        <v>-0.2655531855736752</v>
       </c>
       <c r="FT2">
-        <v>-0.1612518030424052</v>
+        <v>-0.2686865158547278</v>
       </c>
       <c r="FU2">
-        <v>-0.1615917611708669</v>
+        <v>-0.2690960696542505</v>
       </c>
       <c r="FV2">
-        <v>-0.1603327946187606</v>
+        <v>-0.2678827985119897</v>
       </c>
       <c r="FW2">
-        <v>-0.1713676745259465</v>
+        <v>-0.2821826675915629</v>
       </c>
       <c r="FX2">
-        <v>-0.1538398786034736</v>
+        <v>-0.2625232334014154</v>
       </c>
       <c r="FY2">
-        <v>-0.1539122598769307</v>
+        <v>-0.26172771231195</v>
       </c>
       <c r="FZ2">
-        <v>-0.1539597151012548</v>
+        <v>-0.2618377594792434</v>
       </c>
       <c r="GA2">
-        <v>-0.1587758139222591</v>
+        <v>-0.2649195861613267</v>
       </c>
       <c r="GB2">
-        <v>-0.1591441865742168</v>
+        <v>-0.265564942217805</v>
       </c>
       <c r="GC2">
-        <v>-0.161251803042491</v>
+        <v>-0.2686865158546788</v>
       </c>
       <c r="GD2">
-        <v>-0.1616284801277307</v>
+        <v>-0.2691403064321232</v>
       </c>
       <c r="GE2">
-        <v>-0.1603369058005395</v>
+        <v>-0.2679010092451232</v>
       </c>
       <c r="GF2">
-        <v>-0.1718377781784515</v>
+        <v>-0.2828287013886899</v>
       </c>
       <c r="GG2">
-        <v>-0.1539982504907086</v>
+        <v>-0.2621084418742496</v>
       </c>
       <c r="GH2">
-        <v>-0.1542465830723967</v>
+        <v>-0.2626938441407302</v>
       </c>
       <c r="GI2">
-        <v>-0.1587758139222585</v>
+        <v>-0.2649195861613262</v>
       </c>
       <c r="GJ2">
-        <v>-0.1591504264843902</v>
+        <v>-0.2655759965544796</v>
       </c>
       <c r="GK2">
-        <v>-0.1612518030424913</v>
+        <v>-0.2686865158546739</v>
       </c>
       <c r="GL2">
-        <v>-0.1612518030425329</v>
+        <v>-0.2686865158546465</v>
       </c>
       <c r="GM2">
-        <v>-0.1616639980489598</v>
+        <v>-0.2691830964189486</v>
       </c>
       <c r="GN2">
-        <v>-0.1603473769658028</v>
+        <v>-0.2679473924460246</v>
       </c>
       <c r="GO2">
-        <v>-0.172260448004799</v>
+        <v>-0.2834095626169915</v>
       </c>
       <c r="GP2">
-        <v>-0.1541517834301364</v>
+        <v>-0.2627882327266993</v>
       </c>
       <c r="GQ2">
-        <v>-0.1542703940801153</v>
+        <v>-0.2627868187342238</v>
       </c>
       <c r="GR2">
-        <v>-0.1542652278834067</v>
+        <v>-0.2627368316730831</v>
       </c>
       <c r="GS2">
-        <v>-0.1587758139222588</v>
+        <v>-0.2649195861613252</v>
       </c>
       <c r="GT2">
-        <v>-0.1591571402805519</v>
+        <v>-0.2655878904327691</v>
       </c>
       <c r="GU2">
-        <v>-0.1612518030424913</v>
+        <v>-0.2686865158546739</v>
       </c>
       <c r="GV2">
-        <v>-0.1612518030425644</v>
+        <v>-0.2686865158546234</v>
       </c>
       <c r="GW2">
-        <v>-0.1616924092408288</v>
+        <v>-0.2692173247213147</v>
       </c>
       <c r="GX2">
-        <v>-0.1603535203689729</v>
+        <v>-0.2679746056928685</v>
       </c>
       <c r="GY2">
-        <v>-0.1727855565238813</v>
+        <v>-0.2841312187803183</v>
       </c>
       <c r="GZ2">
-        <v>-0.1541517834301373</v>
+        <v>-0.2629037493823611</v>
       </c>
       <c r="HA2">
-        <v>-0.1541912984238639</v>
+        <v>-0.262904877649505</v>
       </c>
       <c r="HB2">
-        <v>-0.1543305953467719</v>
+        <v>-0.2630218990692403</v>
       </c>
       <c r="HC2">
-        <v>-0.1542678633587725</v>
+        <v>-0.2627429080714966</v>
       </c>
       <c r="HD2">
-        <v>-0.158775813922259</v>
+        <v>-0.2649195861613245</v>
       </c>
       <c r="HE2">
-        <v>-0.1591674036995658</v>
+        <v>-0.2656060727275586</v>
       </c>
       <c r="HF2">
-        <v>-0.161251803042594</v>
+        <v>-0.2686865158546001</v>
       </c>
       <c r="HG2">
-        <v>-0.1617150412587327</v>
+        <v>-0.2692445906451797</v>
       </c>
       <c r="HH2">
-        <v>-0.1603578232394824</v>
+        <v>-0.2679936661436394</v>
       </c>
       <c r="HI2">
-        <v>-0.1737546518222304</v>
+        <v>-0.2854630944890653</v>
       </c>
       <c r="HJ2">
-        <v>-0.1541517834301386</v>
+        <v>-0.2632818933552644</v>
       </c>
       <c r="HK2">
-        <v>-0.1542626164067164</v>
+        <v>-0.2631154033566097</v>
       </c>
       <c r="HL2">
-        <v>-0.1542699887974095</v>
+        <v>-0.2627478085271878</v>
       </c>
       <c r="HM2">
-        <v>-0.158775813922259</v>
+        <v>-0.2649195861613245</v>
       </c>
       <c r="HN2">
-        <v>-0.1591954322405883</v>
+        <v>-0.2656557273919221</v>
       </c>
       <c r="HO2">
-        <v>-0.1612518030426195</v>
+        <v>-0.2686865158545771</v>
       </c>
       <c r="HP2">
-        <v>-0.1617628897389788</v>
+        <v>-0.2693022362916968</v>
       </c>
       <c r="HQ2">
-        <v>-0.1603661002543808</v>
+        <v>-0.2680303312457939</v>
       </c>
       <c r="HR2">
-        <v>-0.1745996497607685</v>
+        <v>-0.2866244688295889</v>
       </c>
       <c r="HS2">
-        <v>-0.1541517834301386</v>
+        <v>-0.2634449250254268</v>
       </c>
       <c r="HT2">
-        <v>-0.1542880809649365</v>
+        <v>-0.263190573281505</v>
       </c>
       <c r="HU2">
-        <v>-0.1542716873389212</v>
+        <v>-0.2627517247244118</v>
       </c>
       <c r="HV2">
-        <v>-0.1591978220608622</v>
+        <v>-0.2656599611605696</v>
       </c>
       <c r="HW2">
-        <v>-0.1612518030426451</v>
+        <v>-0.2686865158545333</v>
       </c>
       <c r="HX2">
-        <v>-0.1618005722930677</v>
+        <v>-0.269347634679249</v>
       </c>
       <c r="HY2">
-        <v>-0.1603702200268546</v>
+        <v>-0.2680485809825132</v>
       </c>
       <c r="HZ2">
-        <v>-0.1751745103616065</v>
+        <v>-0.2874145910553715</v>
       </c>
       <c r="IA2">
-        <v>-0.154574808899736</v>
+        <v>-0.2640369551942967</v>
       </c>
       <c r="IB2">
-        <v>-0.1542880809649365</v>
+        <v>-0.263190573281505</v>
       </c>
       <c r="IC2">
-        <v>-0.1542742801813322</v>
+        <v>-0.2627577028504406</v>
       </c>
       <c r="ID2">
-        <v>-0.1591989258973339</v>
+        <v>-0.2656619167013969</v>
       </c>
       <c r="IE2">
-        <v>-0.1612518030426647</v>
+        <v>-0.2686865158544917</v>
       </c>
       <c r="IF2">
-        <v>-0.1618267111711839</v>
+        <v>-0.2693791258155724</v>
       </c>
       <c r="IG2">
-        <v>-0.1603731453244063</v>
+        <v>-0.2680615395146996</v>
       </c>
       <c r="IH2">
-        <v>-0.1755521681427126</v>
+        <v>-0.287933678278576</v>
       </c>
       <c r="II2">
-        <v>-0.1546164511927412</v>
+        <v>-0.2641598955491907</v>
       </c>
       <c r="IJ2">
-        <v>-0.1542773195189706</v>
+        <v>-0.2627647104394184</v>
       </c>
       <c r="IK2">
-        <v>-0.1592001065846768</v>
+        <v>-0.2656640083909647</v>
       </c>
       <c r="IL2">
-        <v>-0.1612518030426756</v>
+        <v>-0.2686865158544601</v>
       </c>
       <c r="IM2">
-        <v>-0.1618527880897536</v>
+        <v>-0.2694105423818067</v>
       </c>
       <c r="IN2">
-        <v>-0.1604066097565618</v>
+        <v>-0.2682097850357069</v>
       </c>
       <c r="IO2">
-        <v>-0.1763650154658777</v>
+        <v>-0.2890509623073701</v>
       </c>
       <c r="IP2">
-        <v>-0.1546377547980193</v>
+        <v>-0.2642856898693924</v>
       </c>
       <c r="IQ2">
-        <v>-0.1547229712039659</v>
+        <v>-0.2644114914051149</v>
       </c>
       <c r="IR2">
-        <v>-0.1542819877692898</v>
+        <v>-0.2627754737235319</v>
       </c>
       <c r="IS2">
-        <v>-0.1592012347840175</v>
+        <v>-0.2656660070943201</v>
       </c>
       <c r="IT2">
-        <v>-0.1612518030426976</v>
+        <v>-0.2686865158544297</v>
       </c>
       <c r="IU2">
-        <v>-0.1618909380177815</v>
+        <v>-0.2694565042282731</v>
       </c>
       <c r="IV2">
-        <v>-0.160416477967359</v>
+        <v>-0.2682535021264542</v>
       </c>
       <c r="IW2">
-        <v>-0.1764044911947988</v>
+        <v>-0.2890509623073749</v>
       </c>
       <c r="IX2">
-        <v>-0.176897071074983</v>
+        <v>-0.2897907685320157</v>
       </c>
       <c r="IY2">
-        <v>-0.1542990704721425</v>
+        <v>-0.262814860466263</v>
       </c>
       <c r="IZ2">
-        <v>-0.1592024916471153</v>
+        <v>-0.2656682337376557</v>
       </c>
       <c r="JA2">
-        <v>-0.1612518030427178</v>
+        <v>-0.2686865158544078</v>
       </c>
       <c r="JB2">
-        <v>-0.162034427742864</v>
+        <v>-0.2696293776483186</v>
       </c>
       <c r="JC2">
-        <v>-0.1604186857852074</v>
+        <v>-0.2682632830570156</v>
       </c>
       <c r="JD2">
-        <v>-0.1764099481746325</v>
+        <v>-0.2890509623073759</v>
       </c>
       <c r="JE2">
-        <v>-0.1788925327496871</v>
+        <v>-0.2925655735467312</v>
       </c>
       <c r="JF2">
-        <v>-0.1543822138983633</v>
+        <v>-0.2630065658680559</v>
       </c>
       <c r="JG2">
-        <v>-0.1592050859910464</v>
+        <v>-0.2656728298488362</v>
       </c>
       <c r="JH2">
-        <v>-0.1612518030427421</v>
+        <v>-0.2686865158543918</v>
       </c>
       <c r="JI2">
-        <v>-0.1620679197362814</v>
+        <v>-0.2696697284343457</v>
       </c>
       <c r="JJ2">
-        <v>-0.1604458287887967</v>
+        <v>-0.2684687140135298</v>
       </c>
       <c r="JK2">
-        <v>-0.1604196642210114</v>
+        <v>-0.2682646935269272</v>
       </c>
       <c r="JL2">
-        <v>-0.1764124569533577</v>
+        <v>-0.289050962307376</v>
       </c>
       <c r="JM2">
-        <v>-0.1788925327497305</v>
+        <v>-0.2926213584454865</v>
       </c>
       <c r="JN2">
-        <v>-0.1795629381961025</v>
+        <v>-0.2934861352862003</v>
       </c>
       <c r="JO2">
-        <v>-0.1592077879868642</v>
+        <v>-0.2656776166793747</v>
       </c>
       <c r="JP2">
-        <v>-0.1612518030427537</v>
+        <v>-0.2686865158543851</v>
       </c>
       <c r="JQ2">
-        <v>-0.1620832634617471</v>
+        <v>-0.2696882144284232</v>
       </c>
       <c r="JR2">
-        <v>-0.1604727287803753</v>
+        <v>-0.2686723222169552</v>
       </c>
       <c r="JS2">
-        <v>-0.1604208113759764</v>
+        <v>-0.2682663472152945</v>
       </c>
       <c r="JT2">
-        <v>-0.1764154366672633</v>
+        <v>-0.2890509623073748</v>
       </c>
       <c r="JU2">
-        <v>-0.1788925327497329</v>
+        <v>-0.2926254134505112</v>
       </c>
       <c r="JV2">
-        <v>-0.1819936522704847</v>
+        <v>-0.2968241037262926</v>
       </c>
       <c r="JW2">
-        <v>-0.1592180627456658</v>
+        <v>-0.2656958193875621</v>
       </c>
       <c r="JX2">
-        <v>-0.161251803042753</v>
+        <v>-0.2686865158543907</v>
       </c>
       <c r="JY2">
-        <v>-0.1620933508609255</v>
+        <v>-0.2697003676582751</v>
       </c>
       <c r="JZ2">
-        <v>-0.160421848085444</v>
+        <v>-0.2682678416905954</v>
       </c>
       <c r="KA2">
-        <v>-0.1764200340170506</v>
+        <v>-0.2890509623073707</v>
       </c>
       <c r="KB2">
-        <v>-0.1788925327497361</v>
+        <v>-0.2926287557181492</v>
       </c>
       <c r="KC2">
-        <v>-0.1821571165587943</v>
+        <v>-0.2974232864139668</v>
       </c>
       <c r="KD2">
-        <v>-0.1824782437479629</v>
+        <v>-0.2972996078539407</v>
       </c>
       <c r="KE2">
-        <v>-0.1592726137128052</v>
+        <v>-0.2657924626930419</v>
       </c>
       <c r="KF2">
-        <v>-0.161251803042753</v>
+        <v>-0.2686865158543908</v>
       </c>
       <c r="KG2">
-        <v>-0.1621532093032881</v>
+        <v>-0.2697420162411576</v>
       </c>
       <c r="KH2">
-        <v>-0.1620947086495081</v>
+        <v>-0.2697057614992469</v>
       </c>
       <c r="KI2">
-        <v>-0.1604228980653799</v>
+        <v>-0.2682693552963429</v>
       </c>
       <c r="KJ2">
-        <v>-0.1764241305872091</v>
+        <v>-0.2890509623073693</v>
       </c>
       <c r="KK2">
-        <v>-0.1788925327497381</v>
+        <v>-0.2926335031603006</v>
       </c>
       <c r="KL2">
-        <v>-0.1822323575673984</v>
+        <v>-0.2976991035045906</v>
       </c>
       <c r="KM2">
-        <v>-0.1845094833934506</v>
+        <v>-0.2992927503640817</v>
       </c>
       <c r="KN2">
-        <v>-0.1621807062840651</v>
+        <v>-0.2697611481011102</v>
       </c>
       <c r="KO2">
-        <v>-0.1620956696054554</v>
+        <v>-0.2697095789210179</v>
       </c>
       <c r="KP2">
-        <v>-0.1604240270066613</v>
+        <v>-0.2682709827297101</v>
       </c>
       <c r="KQ2">
-        <v>-0.1764273155829692</v>
+        <v>-0.289050962307367</v>
       </c>
       <c r="KR2">
-        <v>-0.1788925327497402</v>
+        <v>-0.2926548266559282</v>
       </c>
       <c r="KS2">
-        <v>-0.1827239118620741</v>
+        <v>-0.299501331635043</v>
       </c>
       <c r="KT2">
-        <v>-0.1849579301680743</v>
+        <v>-0.2997327849165269</v>
       </c>
       <c r="KU2">
-        <v>-0.1622272452055407</v>
+        <v>-0.2697935288034804</v>
       </c>
       <c r="KV2">
-        <v>-0.1620967878755085</v>
+        <v>-0.2697140212833083</v>
       </c>
       <c r="KW2">
-        <v>-0.1604305742509061</v>
+        <v>-0.2682804209637102</v>
       </c>
       <c r="KX2">
-        <v>-0.1764312801107735</v>
+        <v>-0.2890509623073631</v>
       </c>
       <c r="KY2">
-        <v>-0.1788925327497406</v>
+        <v>-0.2926589316787364</v>
       </c>
       <c r="KZ2">
-        <v>-0.1827606291136309</v>
+        <v>-0.2996359719955541</v>
       </c>
       <c r="LA2">
-        <v>-0.1851069457572545</v>
+        <v>-0.2998790050791963</v>
       </c>
       <c r="LB2">
-        <v>-0.1623165764099562</v>
+        <v>-0.2698556827976162</v>
       </c>
       <c r="LC2">
-        <v>-0.1620989267700488</v>
+        <v>-0.2697225181266165</v>
       </c>
       <c r="LD2">
-        <v>-0.1604582668334185</v>
+        <v>-0.2683203415721555</v>
       </c>
       <c r="LE2">
-        <v>-0.1764353805959023</v>
+        <v>-0.2890509623073595</v>
       </c>
       <c r="LF2">
-        <v>-0.1788925327497409</v>
+        <v>-0.2926619711155664</v>
       </c>
       <c r="LG2">
-        <v>-0.182779026623584</v>
+        <v>-0.2996748911649723</v>
       </c>
       <c r="LH2">
-        <v>-0.1832588615509405</v>
+        <v>-0.3017338471237262</v>
       </c>
       <c r="LI2">
-        <v>-0.1851847225674955</v>
+        <v>-0.2999553228306736</v>
       </c>
       <c r="LJ2">
-        <v>-0.1625796036578141</v>
+        <v>-0.27003868485326</v>
       </c>
       <c r="LK2">
-        <v>-0.1621071298219529</v>
+        <v>-0.2697551053036666</v>
       </c>
       <c r="LL2">
-        <v>-0.1764402173504258</v>
+        <v>-0.2890509623073559</v>
       </c>
       <c r="LM2">
-        <v>-0.1788925327497417</v>
+        <v>-0.2926654722224979</v>
       </c>
       <c r="LN2">
-        <v>-0.1828737817894067</v>
+        <v>-0.2998753475546277</v>
       </c>
       <c r="LO2">
-        <v>-0.1834979823795385</v>
+        <v>-0.3027409581696165</v>
       </c>
       <c r="LP2">
-        <v>-0.1852513025661408</v>
+        <v>-0.3000206538063217</v>
       </c>
       <c r="LQ2">
-        <v>-0.162135123957109</v>
+        <v>-0.269866316621461</v>
       </c>
       <c r="LR2">
-        <v>-0.1764429736615094</v>
+        <v>-0.2890509623073534</v>
       </c>
       <c r="LS2">
-        <v>-0.1788925327497421</v>
+        <v>-0.2926689452756844</v>
       </c>
       <c r="LT2">
-        <v>-0.1829068635816783</v>
+        <v>-0.2999453350015425</v>
       </c>
       <c r="LU2">
-        <v>-0.1834979823795362</v>
+        <v>-0.3031881608620335</v>
       </c>
       <c r="LV2">
-        <v>-0.1839587693475837</v>
+        <v>-0.3044035730534013</v>
       </c>
       <c r="LW2">
-        <v>-0.1853270260798771</v>
+        <v>-0.3000949567542604</v>
       </c>
       <c r="LX2">
-        <v>-0.1764554256093418</v>
+        <v>-0.2890509623073473</v>
       </c>
       <c r="LY2">
-        <v>-0.178892532749743</v>
+        <v>-0.2926994566691106</v>
       </c>
       <c r="LZ2">
-        <v>-0.1829788656823178</v>
+        <v>-0.3000976658597411</v>
       </c>
       <c r="MA2">
-        <v>-0.1834979823795362</v>
+        <v>-0.3033653005048405</v>
       </c>
       <c r="MB2">
-        <v>-0.1840123792962966</v>
+        <v>-0.3046475187185346</v>
       </c>
       <c r="MC2">
-        <v>-0.1840343874806615</v>
+        <v>-0.3046687928543849</v>
       </c>
       <c r="MD2">
-        <v>-0.1853866836973968</v>
+        <v>-0.3001534951909879</v>
       </c>
       <c r="ME2">
-        <v>-0.1764602716679616</v>
+        <v>-0.2890509623073453</v>
       </c>
       <c r="MF2">
-        <v>-0.178892532749743</v>
+        <v>-0.2927618273650693</v>
       </c>
       <c r="MG2">
-        <v>-0.1829960805935675</v>
+        <v>-0.300123137609623</v>
       </c>
       <c r="MH2">
-        <v>-0.1829985365792366</v>
+        <v>-0.3001444354271271</v>
       </c>
       <c r="MI2">
-        <v>-0.1840393324424811</v>
+        <v>-0.3047701737844639</v>
       </c>
       <c r="MJ2">
-        <v>-0.1840991710600378</v>
+        <v>-0.3048960207437231</v>
       </c>
       <c r="MK2">
-        <v>-0.1854367006704297</v>
+        <v>-0.3002025738357839</v>
       </c>
       <c r="ML2">
-        <v>-0.1764619551866703</v>
+        <v>-0.2890509623073435</v>
       </c>
       <c r="MM2">
-        <v>-0.1830218395462665</v>
+        <v>-0.3001612515836162</v>
       </c>
       <c r="MN2">
-        <v>-0.1830012755789658</v>
+        <v>-0.3001509477246609</v>
       </c>
       <c r="MO2">
-        <v>-0.1840418407140487</v>
+        <v>-0.3047815883906286</v>
       </c>
       <c r="MP2">
-        <v>-0.1841447408183243</v>
+        <v>-0.3050558611396142</v>
       </c>
       <c r="MQ2">
-        <v>-0.1854818320827422</v>
+        <v>-0.3002468585688058</v>
       </c>
       <c r="MR2">
-        <v>-0.1764632234948854</v>
+        <v>-0.2890509623073428</v>
       </c>
       <c r="MS2">
-        <v>-0.1830042503291212</v>
+        <v>-0.3001580205595502</v>
       </c>
       <c r="MT2">
-        <v>-0.1840428765997699</v>
+        <v>-0.3047863024979861</v>
       </c>
       <c r="MU2">
-        <v>-0.1842023198063929</v>
+        <v>-0.3052578307927192</v>
       </c>
       <c r="MV2">
-        <v>-0.1855191846347726</v>
+        <v>-0.3002835103716962</v>
       </c>
       <c r="MW2">
-        <v>-0.1764641514476095</v>
+        <v>-0.2890509623073413</v>
       </c>
       <c r="MX2">
-        <v>-0.183006855999899</v>
+        <v>-0.3001642158736129</v>
       </c>
       <c r="MY2">
-        <v>-0.1840436075248184</v>
+        <v>-0.3047896287954859</v>
       </c>
       <c r="MZ2">
-        <v>-0.1842383986931782</v>
+        <v>-0.3053843878481158</v>
       </c>
       <c r="NA2">
-        <v>-0.1855625160345352</v>
+        <v>-0.3003260288524992</v>
       </c>
       <c r="NB2">
-        <v>-0.1764646226674036</v>
+        <v>-0.2890509623073408</v>
       </c>
       <c r="NC2">
-        <v>-0.183009624528512</v>
+        <v>-0.3001707984140203</v>
       </c>
       <c r="ND2">
-        <v>-0.1840443551478194</v>
+        <v>-0.3047930310861875</v>
       </c>
       <c r="NE2">
-        <v>-0.1842938022570844</v>
+        <v>-0.3055787366274496</v>
       </c>
       <c r="NF2">
-        <v>-0.1856101405542777</v>
+        <v>-0.3003727599070022</v>
       </c>
       <c r="NG2">
-        <v>-0.1764653154607228</v>
+        <v>-0.2890509623073411</v>
       </c>
       <c r="NH2">
-        <v>-0.18301357581746</v>
+        <v>-0.3001801931422848</v>
       </c>
       <c r="NI2">
-        <v>-0.1840452372898911</v>
+        <v>-0.3047970455530074</v>
       </c>
       <c r="NJ2">
-        <v>-0.18434903377963</v>
+        <v>-0.3057724877785692</v>
       </c>
       <c r="NK2">
-        <v>-0.1858697778365963</v>
+        <v>-0.300627526139005</v>
       </c>
       <c r="NL2">
-        <v>-0.176466476809078</v>
+        <v>-0.2890509623073408</v>
       </c>
       <c r="NM2">
-        <v>-0.1830183793431212</v>
+        <v>-0.3001916142109396</v>
       </c>
       <c r="NN2">
-        <v>-0.1840463500496312</v>
+        <v>-0.3048021095267314</v>
       </c>
       <c r="NO2">
-        <v>-0.1844110060608327</v>
+        <v>-0.3059898923647543</v>
       </c>
       <c r="NP2">
-        <v>-0.1876290884226766</v>
+        <v>-0.3025111555197466</v>
       </c>
       <c r="NQ2">
-        <v>-0.1859609457119739</v>
+        <v>-0.3006443680400235</v>
       </c>
       <c r="NR2">
-        <v>-0.1764716569320841</v>
+        <v>-0.2890509623073395</v>
       </c>
       <c r="NS2">
-        <v>-0.1830481533644957</v>
+        <v>-0.3002624069696856</v>
       </c>
       <c r="NT2">
-        <v>-0.1840473466347576</v>
+        <v>-0.3048066448179748</v>
       </c>
       <c r="NU2">
-        <v>-0.1844558519077736</v>
+        <v>-0.3061472204133602</v>
       </c>
       <c r="NV2">
-        <v>-0.1893144882454705</v>
+        <v>-0.3043156801890144</v>
       </c>
       <c r="NW2">
-        <v>-0.1865208118673539</v>
+        <v>-0.3007477824150449</v>
       </c>
       <c r="NX2">
-        <v>-0.1859609457119553</v>
+        <v>-0.3006443680400225</v>
       </c>
       <c r="NY2">
-        <v>-0.176490699023427</v>
+        <v>-0.2890509623073395</v>
       </c>
       <c r="NZ2">
-        <v>-0.1831500351081866</v>
+        <v>-0.3005046580145697</v>
       </c>
       <c r="OA2">
-        <v>-0.1840481352078077</v>
+        <v>-0.3048102334864324</v>
       </c>
       <c r="OB2">
-        <v>-0.1845093046143454</v>
+        <v>-0.3063347480671243</v>
       </c>
       <c r="OC2">
-        <v>-0.1893895261326434</v>
+        <v>-0.3043960224451627</v>
       </c>
       <c r="OD2">
-        <v>-0.1867254647048501</v>
+        <v>-0.3007855790141612</v>
       </c>
       <c r="OE2">
-        <v>-0.1859609457118552</v>
+        <v>-0.3006443680400183</v>
       </c>
       <c r="OF2">
-        <v>-0.1840494885895234</v>
+        <v>-0.304816392518479</v>
       </c>
       <c r="OG2">
-        <v>-0.1845868647765685</v>
+        <v>-0.3066068614578801</v>
       </c>
       <c r="OH2">
-        <v>-0.1904103880890825</v>
+        <v>-0.3050019626415623</v>
       </c>
       <c r="OI2">
-        <v>-0.1901638716849888</v>
+        <v>-0.305511969580547</v>
       </c>
       <c r="OJ2">
-        <v>-0.1867462967529328</v>
+        <v>-0.3007894262491504</v>
       </c>
       <c r="OK2">
-        <v>-0.1859609457118473</v>
+        <v>-0.3006443680400189</v>
       </c>
       <c r="OL2">
-        <v>-0.1840542131056911</v>
+        <v>-0.304837893170696</v>
       </c>
       <c r="OM2">
-        <v>-0.1846443670130374</v>
+        <v>-0.3068086107452326</v>
       </c>
       <c r="ON2">
-        <v>-0.1905039492003356</v>
+        <v>-0.3050574907851969</v>
       </c>
       <c r="OO2">
-        <v>-0.1905374778971993</v>
+        <v>-0.306050409592408</v>
       </c>
       <c r="OP2">
-        <v>-0.1867608349144287</v>
+        <v>-0.3007921111198589</v>
       </c>
       <c r="OQ2">
-        <v>-0.1859609457118432</v>
+        <v>-0.3006443680400181</v>
       </c>
       <c r="OR2">
-        <v>-0.1840830972713563</v>
+        <v>-0.3049693447877275</v>
       </c>
       <c r="OS2">
-        <v>-0.1846998378383272</v>
+        <v>-0.3070032387544683</v>
       </c>
       <c r="OT2">
-        <v>-0.1905571385418215</v>
+        <v>-0.3050890580153567</v>
       </c>
       <c r="OU2">
-        <v>-0.1916647010235591</v>
+        <v>-0.3076750302983491</v>
       </c>
       <c r="OV2">
-        <v>-0.1905374778973977</v>
+        <v>-0.3060504095923046</v>
       </c>
       <c r="OW2">
-        <v>-0.1867758952597062</v>
+        <v>-0.3007948924108342</v>
       </c>
       <c r="OX2">
-        <v>-0.1859609457118427</v>
+        <v>-0.3006443680400185</v>
       </c>
       <c r="OY2">
-        <v>-0.1847541277057641</v>
+        <v>-0.307193728917053</v>
       </c>
       <c r="OZ2">
-        <v>-0.1905932561187744</v>
+        <v>-0.3051104931821469</v>
       </c>
       <c r="PA2">
-        <v>-0.1932704349156657</v>
+        <v>-0.3099894920329491</v>
       </c>
       <c r="PB2">
-        <v>-0.1905374778974505</v>
+        <v>-0.3060504095922787</v>
       </c>
       <c r="PC2">
-        <v>-0.1868391410503565</v>
+        <v>-0.3008065722483388</v>
       </c>
       <c r="PD2">
-        <v>-0.1859609457118399</v>
+        <v>-0.3006443680400208</v>
       </c>
       <c r="PE2">
-        <v>-0.1848194203169543</v>
+        <v>-0.307422832581333</v>
       </c>
       <c r="PF2">
-        <v>-0.1906521194860631</v>
+        <v>-0.3051454272798934</v>
       </c>
       <c r="PG2">
-        <v>-0.1936064964382174</v>
+        <v>-0.3104739093033774</v>
       </c>
       <c r="PH2">
-        <v>-0.1905374778974854</v>
+        <v>-0.306050409592265</v>
       </c>
       <c r="PI2">
-        <v>-0.1868545844659825</v>
+        <v>-0.3008094242001294</v>
       </c>
       <c r="PJ2">
-        <v>-0.1859609457118045</v>
+        <v>-0.3006443680400352</v>
       </c>
       <c r="PK2">
-        <v>-0.1849287755135754</v>
+        <v>-0.3078065647447902</v>
       </c>
       <c r="PL2">
-        <v>-0.1848194203169543</v>
+        <v>-0.307422832581333</v>
       </c>
       <c r="PM2">
-        <v>-0.1908477962827533</v>
+        <v>-0.3052615543557859</v>
       </c>
       <c r="PN2">
-        <v>-0.1936923922643058</v>
+        <v>-0.3105977257082883</v>
       </c>
       <c r="PO2">
-        <v>-0.1905374778975211</v>
+        <v>-0.3060504095922509</v>
       </c>
       <c r="PP2">
-        <v>-0.1868693159054722</v>
+        <v>-0.3008121446552753</v>
       </c>
       <c r="PQ2">
-        <v>-0.1859609457117901</v>
+        <v>-0.3006443680400414</v>
       </c>
       <c r="PR2">
-        <v>-0.1852976417515408</v>
+        <v>-0.3091011020827089</v>
       </c>
       <c r="PS2">
-        <v>-0.1849287755135754</v>
+        <v>-0.3078065647447902</v>
       </c>
       <c r="PT2">
-        <v>-0.1910656664597208</v>
+        <v>-0.3053908474306224</v>
       </c>
       <c r="PU2">
-        <v>-0.1937373922366891</v>
+        <v>-0.3106625921419063</v>
       </c>
       <c r="PV2">
-        <v>-0.1905374778975521</v>
+        <v>-0.3060504095922452</v>
       </c>
       <c r="PW2">
-        <v>-0.1868839673178849</v>
+        <v>-0.3008148503170388</v>
       </c>
       <c r="PX2">
-        <v>-0.185960945711786</v>
+        <v>-0.3006443680400424</v>
       </c>
       <c r="PY2">
-        <v>-0.1858194157521578</v>
+        <v>-0.3109327166328802</v>
       </c>
       <c r="PZ2">
-        <v>-0.1852976417515408</v>
+        <v>-0.3091011020827089</v>
       </c>
       <c r="QA2">
-        <v>-0.1911882053094655</v>
+        <v>-0.3054635646971445</v>
       </c>
       <c r="QB2">
-        <v>-0.1937746968875619</v>
+        <v>-0.3107163660731502</v>
       </c>
       <c r="QC2">
-        <v>-0.1905374778975787</v>
+        <v>-0.3060504095922406</v>
       </c>
       <c r="QD2">
-        <v>-0.1869007744968795</v>
+        <v>-0.3008179540639156</v>
       </c>
       <c r="QE2">
-        <v>-0.1859609457117788</v>
+        <v>-0.3006443680400451</v>
       </c>
       <c r="QF2">
-        <v>-0.1861938551586736</v>
+        <v>-0.31224745653941</v>
       </c>
       <c r="QG2">
-        <v>-0.1858194157521578</v>
+        <v>-0.3109327166328802</v>
       </c>
       <c r="QH2">
-        <v>-0.1913033238075956</v>
+        <v>-0.3055318770547509</v>
       </c>
       <c r="QI2">
-        <v>-0.1938049303648209</v>
+        <v>-0.3107599471298174</v>
       </c>
       <c r="QJ2">
-        <v>-0.1905374778976058</v>
+        <v>-0.3060504095922398</v>
       </c>
       <c r="QK2">
-        <v>-0.1869588180891361</v>
+        <v>-0.3008286727045044</v>
       </c>
       <c r="QL2">
-        <v>-0.1859609457117722</v>
+        <v>-0.3006443680400478</v>
       </c>
       <c r="QM2">
-        <v>-0.1863074660464303</v>
+        <v>-0.3126464229481907</v>
       </c>
       <c r="QN2">
-        <v>-0.1861938551586736</v>
+        <v>-0.31224745653941</v>
       </c>
       <c r="QO2">
-        <v>-0.1914131619929955</v>
+        <v>-0.3055970546651693</v>
       </c>
       <c r="QP2">
-        <v>-0.1938511445479208</v>
+        <v>-0.3108265642565756</v>
       </c>
       <c r="QQ2">
-        <v>-0.1905374778976209</v>
+        <v>-0.3060504095922414</v>
       </c>
       <c r="QR2">
-        <v>-0.1872416978966977</v>
+        <v>-0.3008809074934861</v>
       </c>
       <c r="QS2">
-        <v>-0.1859609457117641</v>
+        <v>-0.3006443680400504</v>
       </c>
       <c r="QT2">
-        <v>-0.1866057026902184</v>
+        <v>-0.3137173910077666</v>
       </c>
       <c r="QU2">
-        <v>-0.1863074660464303</v>
+        <v>-0.3126464229481907</v>
       </c>
       <c r="QV2">
-        <v>-0.186337963385005</v>
+        <v>-0.3127346446658312</v>
       </c>
       <c r="QW2">
-        <v>-0.1915935118475698</v>
+        <v>-0.305704070778879</v>
       </c>
       <c r="QX2">
-        <v>-0.1938928061696691</v>
+        <v>-0.3108866190797046</v>
       </c>
       <c r="QY2">
-        <v>-0.1905374778976297</v>
+        <v>-0.3060504095922399</v>
       </c>
       <c r="QZ2">
-        <v>-0.1859609457117565</v>
+        <v>-0.3006443680400527</v>
       </c>
       <c r="RA2">
-        <v>-0.1869370804286492</v>
+        <v>-0.3149075805832679</v>
       </c>
       <c r="RB2">
-        <v>-0.1866057026902184</v>
+        <v>-0.3137173910077666</v>
       </c>
       <c r="RC2">
-        <v>-0.1866057026902184</v>
+        <v>-0.3137173910077667</v>
       </c>
       <c r="RD2">
-        <v>-0.1863424171787089</v>
+        <v>-0.3127475286508422</v>
       </c>
       <c r="RE2">
-        <v>-0.1917191377197176</v>
+        <v>-0.3057786126219605</v>
       </c>
       <c r="RF2">
-        <v>-0.1939324579748611</v>
+        <v>-0.3109437769062438</v>
       </c>
       <c r="RG2">
-        <v>-0.1905374778976416</v>
+        <v>-0.3060504095922403</v>
       </c>
       <c r="RH2">
-        <v>-0.1859609457117218</v>
+        <v>-0.3006443680400602</v>
       </c>
       <c r="RI2">
-        <v>-0.1870585194925139</v>
+        <v>-0.3153438018330399</v>
       </c>
       <c r="RJ2">
-        <v>-0.1869370804286492</v>
+        <v>-0.3149075805832679</v>
       </c>
       <c r="RK2">
-        <v>-0.1863448457197359</v>
+        <v>-0.3127545539827585</v>
       </c>
       <c r="RL2">
-        <v>-0.1918074095311362</v>
+        <v>-0.3058309888776138</v>
       </c>
       <c r="RM2">
-        <v>-0.1939771283903209</v>
+        <v>-0.3110081691848317</v>
       </c>
       <c r="RN2">
-        <v>-0.1905374778976573</v>
+        <v>-0.3060504095922424</v>
       </c>
       <c r="RO2">
-        <v>-0.1859609457117215</v>
+        <v>-0.3006443680400599</v>
       </c>
       <c r="RP2">
-        <v>-0.1872187593552415</v>
+        <v>-0.3158781447963726</v>
       </c>
       <c r="RQ2">
-        <v>-0.1870585194925139</v>
+        <v>-0.3153438018330398</v>
       </c>
       <c r="RR2">
-        <v>-0.1873096192659094</v>
+        <v>-0.3163531100159695</v>
       </c>
       <c r="RS2">
-        <v>-0.1863464908673206</v>
+        <v>-0.3127593131068602</v>
       </c>
       <c r="RT2">
-        <v>-0.1918495875851503</v>
+        <v>-0.3058560150070098</v>
       </c>
       <c r="RU2">
-        <v>-0.1940243150125167</v>
+        <v>-0.3110761887491247</v>
       </c>
       <c r="RV2">
-        <v>-0.1905374778976918</v>
+        <v>-0.3060504095922407</v>
       </c>
       <c r="RW2">
-        <v>-0.1859609457117216</v>
+        <v>-0.3006443680400598</v>
       </c>
       <c r="RX2">
-        <v>-0.1874484306170109</v>
+        <v>-0.3166440928370472</v>
       </c>
       <c r="RY2">
-        <v>-0.1872187593552415</v>
+        <v>-0.3158781447963726</v>
       </c>
       <c r="RZ2">
-        <v>-0.1873189582579114</v>
+        <v>-0.316382190233516</v>
       </c>
       <c r="SA2">
-        <v>-0.1873433256093798</v>
+        <v>-0.316548273615401</v>
       </c>
       <c r="SB2">
-        <v>-0.1863489897432187</v>
+        <v>-0.3127665419305203</v>
       </c>
       <c r="SC2">
-        <v>-0.191876306645947</v>
+        <v>-0.3058718685215834</v>
       </c>
       <c r="SD2">
-        <v>-0.1941274883346547</v>
+        <v>-0.3112249138457537</v>
       </c>
       <c r="SE2">
-        <v>-0.1905374778977374</v>
+        <v>-0.3060504095922407</v>
       </c>
       <c r="SF2">
-        <v>-0.1859609457117213</v>
+        <v>-0.3006443680400588</v>
       </c>
       <c r="SG2">
-        <v>-0.1875885969066934</v>
+        <v>-0.3171115880139062</v>
       </c>
       <c r="SH2">
-        <v>-0.1874484306170109</v>
+        <v>-0.3166440928370472</v>
       </c>
       <c r="SI2">
-        <v>-0.187322905640395</v>
+        <v>-0.3163944818679708</v>
       </c>
       <c r="SJ2">
-        <v>-0.1873648941009953</v>
+        <v>-0.3166731651934005</v>
       </c>
       <c r="SK2">
-        <v>-0.186352782039487</v>
+        <v>-0.312777512429447</v>
       </c>
       <c r="SL2">
-        <v>-0.1918943722072791</v>
+        <v>-0.3058825875154432</v>
       </c>
       <c r="SM2">
-        <v>-0.1964678700563801</v>
+        <v>-0.3145988296790162</v>
       </c>
       <c r="SN2">
-        <v>-0.1905374778977655</v>
+        <v>-0.3060504095922364</v>
       </c>
       <c r="SO2">
-        <v>-0.1859609457117213</v>
+        <v>-0.3006443680400588</v>
       </c>
       <c r="SP2">
-        <v>-0.1876127354010441</v>
+        <v>-0.3171921002534467</v>
       </c>
       <c r="SQ2">
-        <v>-0.1875885969066934</v>
+        <v>-0.3171115880139062</v>
       </c>
       <c r="SR2">
-        <v>-0.1873252250482361</v>
+        <v>-0.3164017042234231</v>
       </c>
       <c r="SS2">
-        <v>-0.1863554725523888</v>
+        <v>-0.3127852956692896</v>
       </c>
       <c r="ST2">
-        <v>-0.1919195717284194</v>
+        <v>-0.3058975393025481</v>
       </c>
       <c r="SU2">
-        <v>-0.1965600464116561</v>
+        <v>-0.3145988296790164</v>
       </c>
       <c r="SV2">
-        <v>-0.1968093627204479</v>
+        <v>-0.3151176529390495</v>
       </c>
       <c r="SW2">
-        <v>-0.1905374778977936</v>
+        <v>-0.3060504095922287</v>
       </c>
       <c r="SX2">
-        <v>-0.1876448813401945</v>
+        <v>-0.3173894534116767</v>
       </c>
       <c r="SY2">
-        <v>-0.1876127354010441</v>
+        <v>-0.3171921002534467</v>
       </c>
       <c r="SZ2">
-        <v>-0.1877097061955209</v>
+        <v>-0.3172501982342792</v>
       </c>
       <c r="TA2">
-        <v>-0.1873273596036321</v>
+        <v>-0.3164083509849772</v>
       </c>
       <c r="TB2">
-        <v>-0.1863573107446327</v>
+        <v>-0.3127906132869985</v>
       </c>
       <c r="TC2">
-        <v>-0.1919388043960962</v>
+        <v>-0.305908950692642</v>
       </c>
       <c r="TD2">
-        <v>-0.1966413366874188</v>
+        <v>-0.3145988296790164</v>
       </c>
       <c r="TE2">
-        <v>-0.196993594756025</v>
+        <v>-0.3153975581446226</v>
       </c>
       <c r="TF2">
-        <v>-0.1905374778978197</v>
+        <v>-0.3060504095922273</v>
       </c>
       <c r="TG2">
-        <v>-0.1876685447268118</v>
+        <v>-0.317534734286695</v>
       </c>
       <c r="TH2">
-        <v>-0.1876448813401945</v>
+        <v>-0.3173894534116767</v>
       </c>
       <c r="TI2">
-        <v>-0.187767010253216</v>
+        <v>-0.317284530252205</v>
       </c>
       <c r="TJ2">
-        <v>-0.187329261314803</v>
+        <v>-0.3164142727077339</v>
       </c>
       <c r="TK2">
-        <v>-0.1863587632783281</v>
+        <v>-0.3127948152576502</v>
       </c>
       <c r="TL2">
-        <v>-0.1920760578629778</v>
+        <v>-0.3059903866179895</v>
       </c>
       <c r="TM2">
-        <v>-0.1970211091187568</v>
+        <v>-0.3154393612370857</v>
       </c>
       <c r="TN2">
-        <v>-0.1905374778978412</v>
+        <v>-0.3060504095922318</v>
       </c>
       <c r="TO2">
-        <v>-0.1877007626554597</v>
+        <v>-0.3177325417919834</v>
       </c>
       <c r="TP2">
-        <v>-0.1876685447268118</v>
+        <v>-0.317534734286695</v>
       </c>
       <c r="TQ2">
-        <v>-0.1878124159699537</v>
+        <v>-0.3173117334782089</v>
       </c>
       <c r="TR2">
-        <v>-0.1873312341258387</v>
+        <v>-0.3164204158392305</v>
       </c>
       <c r="TS2">
-        <v>-0.1863634204942238</v>
+        <v>-0.3128082879475641</v>
       </c>
       <c r="TT2">
-        <v>-0.1925266499208936</v>
+        <v>-0.3060386229405748</v>
       </c>
       <c r="TU2">
-        <v>-0.1921729804425295</v>
+        <v>-0.3066842322523169</v>
       </c>
       <c r="TV2">
-        <v>-0.1970421119083634</v>
+        <v>-0.3154712712258148</v>
       </c>
       <c r="TW2">
-        <v>-0.190537477897858</v>
+        <v>-0.3060504095922363</v>
       </c>
       <c r="TX2">
-        <v>-0.1877235620201057</v>
+        <v>-0.3178725267229923</v>
       </c>
       <c r="TY2">
-        <v>-0.1877007626554597</v>
+        <v>-0.3177325417919834</v>
       </c>
       <c r="TZ2">
-        <v>-0.1878311782285989</v>
+        <v>-0.3173229741545488</v>
       </c>
       <c r="UA2">
-        <v>-0.1873371897346829</v>
+        <v>-0.3164389610659695</v>
       </c>
       <c r="UB2">
-        <v>-0.1864010908069832</v>
+        <v>-0.3129172650099495</v>
       </c>
       <c r="UC2">
-        <v>-0.1930243141134828</v>
+        <v>-0.3060918880918491</v>
       </c>
       <c r="UD2">
-        <v>-0.1970617549944011</v>
+        <v>-0.3155011154290098</v>
       </c>
       <c r="UE2">
-        <v>-0.1905374778978744</v>
+        <v>-0.3060504095922367</v>
       </c>
       <c r="UF2">
-        <v>-0.1877873220803276</v>
+        <v>-0.3182640236278681</v>
       </c>
       <c r="UG2">
-        <v>-0.1877235620201057</v>
+        <v>-0.3178725267229923</v>
       </c>
       <c r="UH2">
-        <v>-0.1878370818698792</v>
+        <v>-0.317322974154552</v>
       </c>
       <c r="UI2">
-        <v>-0.1878311782285976</v>
+        <v>-0.3173695008664941</v>
       </c>
       <c r="UJ2">
-        <v>-0.1873431915738147</v>
+        <v>-0.3164576503572708</v>
       </c>
       <c r="UK2">
-        <v>-0.186402966768561</v>
+        <v>-0.3129226921023633</v>
       </c>
       <c r="UL2">
-        <v>-0.1943738335014401</v>
+        <v>-0.3062362732388135</v>
       </c>
       <c r="UM2">
-        <v>-0.1970827019523276</v>
+        <v>-0.3155329406793972</v>
       </c>
       <c r="UN2">
-        <v>-0.1905374778978783</v>
+        <v>-0.3060504095922365</v>
       </c>
       <c r="UO2">
-        <v>-0.1878334911832453</v>
+        <v>-0.3185475267272099</v>
       </c>
       <c r="UP2">
-        <v>-0.1877873220803276</v>
+        <v>-0.3182640236278681</v>
       </c>
       <c r="UQ2">
-        <v>-0.1878392542352027</v>
+        <v>-0.3173229741545532</v>
       </c>
       <c r="UR2">
-        <v>-0.1878311782285975</v>
+        <v>-0.3174046992430363</v>
       </c>
       <c r="US2">
-        <v>-0.1873992712575601</v>
+        <v>-0.3166322836421485</v>
       </c>
       <c r="UT2">
-        <v>-0.1864044469688661</v>
+        <v>-0.3129269742772058</v>
       </c>
       <c r="UU2">
-        <v>-0.1971012375029788</v>
+        <v>-0.3155611022546755</v>
       </c>
       <c r="UV2">
-        <v>-0.1905374778978783</v>
+        <v>-0.3060504095922365</v>
       </c>
       <c r="UW2">
-        <v>-0.1878334911831832</v>
+        <v>-0.3185858699717492</v>
       </c>
       <c r="UX2">
-        <v>-0.1878334911832453</v>
+        <v>-0.3185475267272099</v>
       </c>
       <c r="UY2">
-        <v>-0.1879104648880936</v>
+        <v>-0.3187319804125826</v>
       </c>
       <c r="UZ2">
-        <v>-0.1878424901390872</v>
+        <v>-0.3173229741545535</v>
       </c>
       <c r="VA2">
-        <v>-0.1864061203767156</v>
+        <v>-0.3129318154022297</v>
       </c>
       <c r="VB2">
-        <v>-0.197120196127839</v>
+        <v>-0.3155899066550611</v>
       </c>
       <c r="VC2">
-        <v>-0.1878334911831667</v>
+        <v>-0.3185949489949901</v>
       </c>
       <c r="VD2">
-        <v>-0.1878334911831832</v>
+        <v>-0.3185858699717492</v>
       </c>
       <c r="VE2">
-        <v>-0.1879201959077096</v>
+        <v>-0.3187552996998974</v>
       </c>
       <c r="VF2">
-        <v>-0.1878444372586825</v>
+        <v>-0.3173229741545522</v>
       </c>
       <c r="VG2">
-        <v>-0.1864076097637528</v>
+        <v>-0.3129361241657428</v>
       </c>
       <c r="VH2">
-        <v>-0.1972180477665198</v>
+        <v>-0.3157385761391013</v>
       </c>
       <c r="VI2">
-        <v>-0.187833491183176</v>
+        <v>-0.3188410846410173</v>
       </c>
       <c r="VJ2">
-        <v>-0.1878334911831666</v>
+        <v>-0.3185949489949901</v>
       </c>
       <c r="VK2">
-        <v>-0.187833491183131</v>
+        <v>-0.3185949489950009</v>
       </c>
       <c r="VL2">
-        <v>-0.1879273767825003</v>
+        <v>-0.318772507946301</v>
       </c>
       <c r="VM2">
-        <v>-0.1878467867168647</v>
+        <v>-0.3173229741545504</v>
       </c>
       <c r="VN2">
-        <v>-0.1864093240494357</v>
+        <v>-0.3129410835628782</v>
       </c>
       <c r="VO2">
-        <v>-0.1972964335401178</v>
+        <v>-0.3157951481272592</v>
       </c>
       <c r="VP2">
-        <v>-0.1974177610894581</v>
+        <v>-0.3160510677623173</v>
       </c>
       <c r="VQ2">
-        <v>-0.1878334911831784</v>
+        <v>-0.319013587915236</v>
       </c>
       <c r="VR2">
-        <v>-0.187833491183176</v>
+        <v>-0.3188410846410173</v>
       </c>
       <c r="VS2">
-        <v>-0.1878334911831164</v>
+        <v>-0.3185949489950022</v>
       </c>
       <c r="VT2">
-        <v>-0.1879343638513482</v>
+        <v>-0.3187892518316614</v>
       </c>
       <c r="VU2">
-        <v>-0.1878488496429153</v>
+        <v>-0.3173229741545503</v>
       </c>
       <c r="VV2">
-        <v>-0.1864110817769675</v>
+        <v>-0.3129461686440969</v>
       </c>
       <c r="VW2">
-        <v>-0.1973009507716169</v>
+        <v>-0.3157984082522674</v>
       </c>
       <c r="VX2">
-        <v>-0.1983722020892978</v>
+        <v>-0.3175445462312235</v>
       </c>
       <c r="VY2">
-        <v>-0.1878334911831841</v>
+        <v>-0.3191269566277927</v>
       </c>
       <c r="VZ2">
-        <v>-0.1878334911831779</v>
+        <v>-0.3190411463556188</v>
       </c>
       <c r="WA2">
-        <v>-0.1878334911831041</v>
+        <v>-0.3185949489950023</v>
       </c>
       <c r="WB2">
-        <v>-0.1879999989778853</v>
+        <v>-0.3189465441738919</v>
       </c>
       <c r="WC2">
-        <v>-0.1878623487893703</v>
+        <v>-0.3173229741545502</v>
       </c>
       <c r="WD2">
-        <v>-0.1864131945603693</v>
+        <v>-0.3129522809071976</v>
       </c>
       <c r="WE2">
-        <v>-0.1973032194961982</v>
+        <v>-0.315800045609696</v>
       </c>
       <c r="WF2">
-        <v>-0.1983722020892968</v>
+        <v>-0.3177637992218161</v>
       </c>
       <c r="WG2">
-        <v>-0.1994945837730709</v>
+        <v>-0.3192088169286038</v>
       </c>
       <c r="WH2">
-        <v>-0.1878334911831941</v>
+        <v>-0.3192280594572596</v>
       </c>
       <c r="WI2">
-        <v>-0.1878334911831841</v>
+        <v>-0.3191269566277927</v>
       </c>
       <c r="WJ2">
-        <v>-0.1878334911831841</v>
+        <v>-0.3191269566277927</v>
       </c>
       <c r="WK2">
-        <v>-0.1878334911831808</v>
+        <v>-0.3196283124128573</v>
       </c>
       <c r="WL2">
-        <v>-0.1878334911831779</v>
+        <v>-0.3190411463556188</v>
       </c>
       <c r="WM2">
-        <v>-0.1878334911830897</v>
+        <v>-0.3185949489950035</v>
       </c>
       <c r="WN2">
-        <v>-0.1880305468252868</v>
+        <v>-0.3190197532883706</v>
       </c>
       <c r="WO2">
-        <v>-0.1879618845559272</v>
+        <v>-0.3173229741545502</v>
       </c>
       <c r="WP2">
-        <v>-0.1864145191261313</v>
+        <v>-0.3129561128695384</v>
       </c>
       <c r="WQ2">
-        <v>-0.1973051219465897</v>
+        <v>-0.3158014186236303</v>
       </c>
       <c r="WR2">
-        <v>-0.1983722020892968</v>
+        <v>-0.3178795084949754</v>
       </c>
       <c r="WS2">
-        <v>-0.2005697821777905</v>
+        <v>-0.3208032348799247</v>
       </c>
       <c r="WT2">
-        <v>-0.1878334911831947</v>
+        <v>-0.319321324932091</v>
       </c>
       <c r="WU2">
-        <v>-0.1878334911831941</v>
+        <v>-0.3192280594572596</v>
       </c>
       <c r="WV2">
-        <v>-0.1878334911831941</v>
+        <v>-0.3192280594572596</v>
       </c>
       <c r="WW2">
-        <v>-0.1878334911831808</v>
+        <v>-0.3197665363983432</v>
       </c>
       <c r="WX2">
-        <v>-0.1878334911830786</v>
+        <v>-0.3185949489950015</v>
       </c>
       <c r="WY2">
-        <v>-0.1880448843169922</v>
+        <v>-0.3190541141402466</v>
       </c>
       <c r="WZ2">
-        <v>-0.1864202116734982</v>
+        <v>-0.3129725814313632</v>
       </c>
       <c r="XA2">
-        <v>-0.1973066733295377</v>
+        <v>-0.3158025382690888</v>
       </c>
       <c r="XB2">
-        <v>-0.2005971648669455</v>
+        <v>-0.3208632805502712</v>
       </c>
       <c r="XC2">
-        <v>-0.2008549157460612</v>
+        <v>-0.3212137168099687</v>
       </c>
       <c r="XD2">
-        <v>-0.1878334911831954</v>
+        <v>-0.3194483811806654</v>
       </c>
       <c r="XE2">
-        <v>-0.1878334911830699</v>
+        <v>-0.318594948995003</v>
       </c>
       <c r="XF2">
-        <v>-0.1880544476975722</v>
+        <v>-0.3190770336584495</v>
       </c>
       <c r="XG2">
-        <v>-0.1864442109400517</v>
+        <v>-0.3130420122925658</v>
       </c>
       <c r="XH2">
-        <v>-0.1973091085497345</v>
+        <v>-0.315804295786498</v>
       </c>
       <c r="XI2">
-        <v>-0.2006038792309028</v>
+        <v>-0.3208780041670232</v>
       </c>
       <c r="XJ2">
-        <v>-0.2009205178021765</v>
+        <v>-0.3213081593217226</v>
       </c>
       <c r="XK2">
-        <v>-0.1878334911831948</v>
+        <v>-0.3194856497764368</v>
       </c>
       <c r="XL2">
-        <v>-0.1878334911830627</v>
+        <v>-0.3185949489950012</v>
       </c>
       <c r="XM2">
-        <v>-0.1880690684064822</v>
+        <v>-0.3191120737971814</v>
       </c>
       <c r="XN2">
-        <v>-0.1973149154840221</v>
+        <v>-0.3158084866940655</v>
       </c>
       <c r="XO2">
-        <v>-0.2006084898107727</v>
+        <v>-0.3208881145245106</v>
       </c>
       <c r="XP2">
-        <v>-0.2009530728952061</v>
+        <v>-0.3213550266551867</v>
       </c>
       <c r="XQ2">
-        <v>-0.1878334911831948</v>
+        <v>-0.3196090069919466</v>
       </c>
       <c r="XR2">
-        <v>-0.1878334911830563</v>
+        <v>-0.3185949489949984</v>
       </c>
       <c r="XS2">
-        <v>-0.1880976227596161</v>
+        <v>-0.3191805083884364</v>
       </c>
       <c r="XT2">
-        <v>-0.1973189329512096</v>
+        <v>-0.3158113861281389</v>
       </c>
       <c r="XU2">
-        <v>-0.2006148810886209</v>
+        <v>-0.3209021297457806</v>
       </c>
       <c r="XV2">
-        <v>-0.2009888485583924</v>
+        <v>-0.3214065305237739</v>
       </c>
       <c r="XW2">
-        <v>-0.1878334911830498</v>
+        <v>-0.3185949489949993</v>
       </c>
       <c r="XX2">
-        <v>-0.1881055159811657</v>
+        <v>-0.3191994258421541</v>
       </c>
       <c r="XY2">
-        <v>-0.1973240411470331</v>
+        <v>-0.3158150727465364</v>
       </c>
       <c r="XZ2">
-        <v>-0.200630036792229</v>
+        <v>-0.3209353643802976</v>
       </c>
       <c r="YA2">
-        <v>-0.20103012855568</v>
+        <v>-0.321465958751799</v>
       </c>
       <c r="YB2">
-        <v>-0.1878334911830463</v>
+        <v>-0.3185949489950036</v>
       </c>
       <c r="YC2">
-        <v>-0.1881078075152899</v>
+        <v>-0.3192049179129021</v>
       </c>
       <c r="YD2">
-        <v>-0.1973271443383227</v>
+        <v>-0.3158173123388542</v>
       </c>
       <c r="YE2">
-        <v>-0.2006415576937904</v>
+        <v>-0.320960628514413</v>
       </c>
       <c r="YF2">
-        <v>-0.2010718600500425</v>
+        <v>-0.3215260371154141</v>
       </c>
       <c r="YG2">
-        <v>-0.1878334911830432</v>
+        <v>-0.3185949489950072</v>
       </c>
       <c r="YH2">
-        <v>-0.1881085908954991</v>
+        <v>-0.3192073000040074</v>
       </c>
       <c r="YI2">
-        <v>-0.1881142051352686</v>
+        <v>-0.3192175708240721</v>
       </c>
       <c r="YJ2">
-        <v>-0.1973299458619934</v>
+        <v>-0.3158193342150317</v>
       </c>
       <c r="YK2">
-        <v>-0.2006496452277735</v>
+        <v>-0.3209783637264486</v>
       </c>
       <c r="YL2">
-        <v>-0.2011181250705157</v>
+        <v>-0.3215926422970167</v>
       </c>
       <c r="YM2">
-        <v>-0.187833491183039</v>
+        <v>-0.3185949489950037</v>
       </c>
       <c r="YN2">
-        <v>-0.1881093240730416</v>
+        <v>-0.3192095294411527</v>
       </c>
       <c r="YO2">
-        <v>-0.1881226472436252</v>
+        <v>-0.3192342672831354</v>
       </c>
       <c r="YP2">
-        <v>-0.1973346707388137</v>
+        <v>-0.3158227441849044</v>
       </c>
       <c r="YQ2">
-        <v>-0.2006581176590644</v>
+        <v>-0.3209969430662097</v>
       </c>
       <c r="YR2">
-        <v>-0.2011854046031561</v>
+        <v>-0.321689501221628</v>
       </c>
       <c r="YS2">
-        <v>-0.1878334911830377</v>
+        <v>-0.3185949489950013</v>
       </c>
       <c r="YT2">
-        <v>-0.188110079340773</v>
+        <v>-0.3192118260514574</v>
       </c>
       <c r="YU2">
-        <v>-0.1881577200149026</v>
+        <v>-0.3193036334579286</v>
       </c>
       <c r="YV2">
-        <v>-0.1973393159417808</v>
+        <v>-0.315826096651717</v>
       </c>
       <c r="YW2">
-        <v>-0.2006650736333975</v>
+        <v>-0.3210121970054821</v>
       </c>
       <c r="YX2">
-        <v>-0.2012551733905981</v>
+        <v>-0.3217311479715039</v>
       </c>
       <c r="YY2">
-        <v>-0.2012724936219112</v>
+        <v>-0.3218973967578602</v>
       </c>
       <c r="YZ2">
-        <v>-0.1878334911830371</v>
+        <v>-0.3185949489949987</v>
       </c>
       <c r="ZA2">
-        <v>-0.1881155401038695</v>
+        <v>-0.3192284311313888</v>
       </c>
       <c r="ZB2">
-        <v>-0.1881726147491109</v>
+        <v>-0.319333092271553</v>
       </c>
       <c r="ZC2">
-        <v>-0.1973415138020441</v>
+        <v>-0.3158276828580553</v>
       </c>
       <c r="ZD2">
-        <v>-0.2006765908606165</v>
+        <v>-0.3210374535631126</v>
       </c>
       <c r="ZE2">
-        <v>-0.2012970706104976</v>
+        <v>-0.3217561572221589</v>
       </c>
       <c r="ZF2">
-        <v>-0.2018239842581638</v>
+        <v>-0.3232139702368823</v>
       </c>
       <c r="ZG2">
-        <v>-0.1878334911830371</v>
+        <v>-0.3185949489949987</v>
       </c>
       <c r="ZH2">
-        <v>-0.1881553063973047</v>
+        <v>-0.3193493549572207</v>
       </c>
       <c r="ZI2">
-        <v>-0.1973439278559294</v>
+        <v>-0.3158294250918602</v>
       </c>
       <c r="ZJ2">
-        <v>-0.2007138115397238</v>
+        <v>-0.3211190772613113</v>
       </c>
       <c r="ZK2">
-        <v>-0.2013359370620047</v>
+        <v>-0.321779357176722</v>
       </c>
       <c r="ZL2">
-        <v>-0.202218764534468</v>
+        <v>-0.3241565101223354</v>
       </c>
       <c r="ZM2">
-        <v>-0.1973462448333188</v>
+        <v>-0.3158310972646096</v>
       </c>
       <c r="ZN2">
-        <v>-0.2008007847303778</v>
+        <v>-0.3213098129826861</v>
       </c>
       <c r="ZO2">
-        <v>-0.2013738610038575</v>
+        <v>-0.3218019943733664</v>
       </c>
       <c r="ZP2">
-        <v>-0.2023931539353376</v>
+        <v>-0.3245562111196681</v>
       </c>
       <c r="ZQ2">
-        <v>-0.2031614318798191</v>
+        <v>-0.3264252822861118</v>
       </c>
       <c r="ZR2">
-        <v>-0.1973490390920601</v>
+        <v>-0.3158331138927521</v>
       </c>
       <c r="ZS2">
-        <v>-0.2014023069330459</v>
+        <v>-0.3218189739415548</v>
       </c>
       <c r="ZT2">
-        <v>-0.2024063801837081</v>
+        <v>-0.3245653277933953</v>
       </c>
       <c r="ZU2">
-        <v>-0.202401755610944</v>
+        <v>-0.3246351116615962</v>
       </c>
       <c r="ZV2">
-        <v>-0.2033860020318297</v>
+        <v>-0.3266523289721857</v>
       </c>
       <c r="ZW2">
-        <v>-0.2033146053075993</v>
+        <v>-0.3268540579056574</v>
       </c>
       <c r="ZX2">
-        <v>-0.1973534962960566</v>
+        <v>-0.3158363306739124</v>
       </c>
       <c r="ZY2">
-        <v>-0.2014474959235413</v>
+        <v>-0.3218459473737481</v>
       </c>
       <c r="ZZ2">
-        <v>-0.2024105187755658</v>
+        <v>-0.3245681804651531</v>
       </c>
       <c r="AAA2">
-        <v>-0.2024192786806332</v>
+        <v>-0.3247958532460092</v>
       </c>
       <c r="AAB2">
-        <v>-0.2035161119933586</v>
+        <v>-0.3267838738833289</v>
       </c>
       <c r="AAC2">
-        <v>-0.2034869954430193</v>
+        <v>-0.3273365976544244</v>
       </c>
       <c r="AAD2">
-        <v>-0.1973656952142414</v>
+        <v>-0.3158451346704741</v>
       </c>
       <c r="AAE2">
-        <v>-0.2015236884249699</v>
+        <v>-0.3218914263781321</v>
       </c>
       <c r="AAF2">
-        <v>-0.2024131797744146</v>
+        <v>-0.3245700146524473</v>
       </c>
       <c r="AAG2">
-        <v>-0.2039417629742915</v>
+        <v>-0.3286097007981778</v>
       </c>
       <c r="AAH2">
-        <v>-0.2034869954430248</v>
+        <v>-0.3273365976544209</v>
       </c>
       <c r="AAI2">
-        <v>-0.197381929840488</v>
+        <v>-0.3158568512287167</v>
       </c>
       <c r="AAJ2">
-        <v>-0.2020946787420622</v>
+        <v>-0.3222322279396966</v>
       </c>
       <c r="AAK2">
-        <v>-0.2024147848157414</v>
+        <v>-0.3245711209834471</v>
       </c>
       <c r="AAL2">
-        <v>-0.2044302641583772</v>
+        <v>-0.3295691448282098</v>
       </c>
       <c r="AAM2">
-        <v>-0.2039729101182777</v>
+        <v>-0.3289487384541976</v>
       </c>
       <c r="AAN2">
-        <v>-0.2034869954430319</v>
+        <v>-0.3273365976544169</v>
       </c>
       <c r="AAO2">
-        <v>-0.197383476142111</v>
+        <v>-0.3158579671960496</v>
       </c>
       <c r="AAP2">
-        <v>-0.2025632138062008</v>
+        <v>-0.322511851239099</v>
       </c>
       <c r="AAQ2">
-        <v>-0.2024164070518381</v>
+        <v>-0.3245722391662889</v>
       </c>
       <c r="AAR2">
-        <v>-0.2049345053984868</v>
+        <v>-0.3305596065966906</v>
       </c>
       <c r="AAS2">
-        <v>-0.2039762445188874</v>
+        <v>-0.3289850363310655</v>
       </c>
       <c r="AAT2">
-        <v>-0.2034869954430346</v>
+        <v>-0.3273365976544177</v>
       </c>
       <c r="AAU2">
-        <v>-0.1973846990461455</v>
+        <v>-0.3158588497668818</v>
       </c>
       <c r="AAV2">
-        <v>-0.2027116828911844</v>
+        <v>-0.3226004530532333</v>
       </c>
       <c r="AAW2">
-        <v>-0.2024178560510051</v>
+        <v>-0.3245732379393147</v>
       </c>
       <c r="AAX2">
-        <v>-0.2050795902942197</v>
+        <v>-0.3309077047182717</v>
       </c>
       <c r="AAY2">
-        <v>-0.2051596710711207</v>
+        <v>-0.3307892342151994</v>
       </c>
       <c r="AAZ2">
-        <v>-0.2039775176405551</v>
+        <v>-0.3289988955215721</v>
       </c>
       <c r="ABA2">
-        <v>-0.2034869954430381</v>
+        <v>-0.327336597654415</v>
       </c>
       <c r="ABB2">
-        <v>-0.1973858867797166</v>
+        <v>-0.3158597069550316</v>
       </c>
       <c r="ABC2">
-        <v>-0.2028468537679093</v>
+        <v>-0.3226811167961003</v>
       </c>
       <c r="ABD2">
-        <v>-0.2024194885707979</v>
+        <v>-0.324574363210062</v>
       </c>
       <c r="ABE2">
-        <v>-0.205276745440429</v>
+        <v>-0.3313807582341718</v>
       </c>
       <c r="ABF2">
-        <v>-0.2051898771870575</v>
+        <v>-0.3308200389385168</v>
       </c>
       <c r="ABG2">
-        <v>-0.2039788643521062</v>
+        <v>-0.3290135558974066</v>
       </c>
       <c r="ABH2">
-        <v>-0.203486995443042</v>
+        <v>-0.3273365976544129</v>
       </c>
       <c r="ABI2">
-        <v>-0.1973871589711081</v>
+        <v>-0.3158606250963065</v>
       </c>
       <c r="ABJ2">
-        <v>-0.2029204785680075</v>
+        <v>-0.322725051835262</v>
       </c>
       <c r="ABK2">
-        <v>-0.2024207965499812</v>
+        <v>-0.3245752647797766</v>
       </c>
       <c r="ABL2">
-        <v>-0.2055075851651714</v>
+        <v>-0.3319346706085233</v>
       </c>
       <c r="ABM2">
-        <v>-0.205205746946424</v>
+        <v>-0.3308362231988947</v>
       </c>
       <c r="ABN2">
-        <v>-0.2039799820064662</v>
+        <v>-0.3290257228116533</v>
       </c>
       <c r="ABO2">
-        <v>-0.2034869954430504</v>
+        <v>-0.3273365976544088</v>
       </c>
       <c r="ABP2">
-        <v>-0.1973883352087759</v>
+        <v>-0.3158614739875917</v>
       </c>
       <c r="ABQ2">
-        <v>-0.2029792812873251</v>
+        <v>-0.3227601414826259</v>
       </c>
       <c r="ABR2">
-        <v>-0.2024223654729854</v>
+        <v>-0.3245763462137887</v>
       </c>
       <c r="ABS2">
-        <v>-0.2056929486036373</v>
+        <v>-0.3323794884295128</v>
       </c>
       <c r="ABT2">
-        <v>-0.2052648071445011</v>
+        <v>-0.330882148912161</v>
       </c>
       <c r="ABU2">
-        <v>-0.2052067588948399</v>
+        <v>-0.3308377220612244</v>
       </c>
       <c r="ABV2">
-        <v>-0.2039813055847427</v>
+        <v>-0.3290401315166684</v>
       </c>
       <c r="ABW2">
-        <v>-0.2034869954430639</v>
+        <v>-0.3273365976544021</v>
       </c>
       <c r="ABX2">
-        <v>-0.1973894436890264</v>
+        <v>-0.3158622739781986</v>
       </c>
       <c r="ABY2">
-        <v>-0.2030294245350568</v>
+        <v>-0.3227900634190599</v>
       </c>
       <c r="ABZ2">
-        <v>-0.2024240561764406</v>
+        <v>-0.324577511588888</v>
       </c>
       <c r="ACA2">
-        <v>-0.2057461995052348</v>
+        <v>-0.3324437494524901</v>
       </c>
       <c r="ACB2">
-        <v>-0.2057631223057806</v>
+        <v>-0.3328339208270406</v>
       </c>
       <c r="ACC2">
-        <v>-0.2053128169422239</v>
+        <v>-0.3309194815368833</v>
       </c>
       <c r="ACD2">
-        <v>-0.2052074906792813</v>
+        <v>-0.3308388059547573</v>
       </c>
       <c r="ACE2">
-        <v>-0.203982596396069</v>
+        <v>-0.3290541835976825</v>
       </c>
       <c r="ACF2">
-        <v>-0.2034869954430746</v>
+        <v>-0.3273365976543959</v>
       </c>
       <c r="ACG2">
-        <v>-0.1973909853738811</v>
+        <v>-0.315863386612541</v>
       </c>
       <c r="ACH2">
-        <v>-0.2030882694506944</v>
+        <v>-0.3228251775417888</v>
       </c>
       <c r="ACI2">
-        <v>-0.202427140780076</v>
+        <v>-0.3245796377565717</v>
       </c>
       <c r="ACJ2">
-        <v>-0.2058196180365031</v>
+        <v>-0.3325323482034504</v>
       </c>
       <c r="ACK2">
-        <v>-0.2058217800396176</v>
+        <v>-0.333213838941763</v>
       </c>
       <c r="ACL2">
-        <v>-0.2052081082402941</v>
+        <v>-0.3308397206646755</v>
       </c>
       <c r="ACM2">
-        <v>-0.2039843709864926</v>
+        <v>-0.329073502347156</v>
       </c>
       <c r="ACN2">
-        <v>-0.203486995443085</v>
+        <v>-0.3273365976543886</v>
       </c>
       <c r="ACO2">
-        <v>-0.1973928746470265</v>
+        <v>-0.3158647501011435</v>
       </c>
       <c r="ACP2">
-        <v>-0.2031420397748897</v>
+        <v>-0.3228572632056706</v>
       </c>
       <c r="ACQ2">
-        <v>-0.2024502185674681</v>
+        <v>-0.3245955448747905</v>
       </c>
       <c r="ACR2">
-        <v>-0.2060002349106074</v>
+        <v>-0.3327503111703278</v>
       </c>
       <c r="ACS2">
-        <v>-0.2058217800396176</v>
+        <v>-0.3334038364453955</v>
       </c>
       <c r="ACT2">
-        <v>-0.2058233248825998</v>
+        <v>-0.3332169659692807</v>
       </c>
       <c r="ACU2">
-        <v>-0.2052091513726771</v>
+        <v>-0.3308412657164091</v>
       </c>
       <c r="ACV2">
-        <v>-0.2039868122252612</v>
+        <v>-0.3291000786926341</v>
       </c>
       <c r="ACW2">
-        <v>-0.2034869954430894</v>
+        <v>-0.3273365976543844</v>
       </c>
       <c r="ACX2">
-        <v>-0.1974018293337502</v>
+        <v>-0.3158712126949166</v>
       </c>
       <c r="ACY2">
-        <v>-0.2032254606329808</v>
+        <v>-0.3229070412169012</v>
       </c>
       <c r="ACZ2">
-        <v>-0.202520941826671</v>
+        <v>-0.324644292865288</v>
       </c>
       <c r="ADA2">
-        <v>-0.2061466327221904</v>
+        <v>-0.3329269809098418</v>
       </c>
       <c r="ADB2">
-        <v>-0.2058217800396176</v>
+        <v>-0.3335900295869423</v>
       </c>
       <c r="ADC2">
-        <v>-0.2058248019516862</v>
+        <v>-0.3332199558129019</v>
       </c>
       <c r="ADD2">
-        <v>-0.2052106121569343</v>
+        <v>-0.3308434293802971</v>
       </c>
       <c r="ADE2">
-        <v>-0.2039893957500864</v>
+        <v>-0.3291282043420165</v>
       </c>
       <c r="ADF2">
-        <v>-0.203486995443094</v>
+        <v>-0.3273365976543797</v>
       </c>
       <c r="ADG2">
-        <v>-0.1974783959452915</v>
+        <v>-0.3159264704871569</v>
       </c>
       <c r="ADH2">
-        <v>-0.203393888720325</v>
+        <v>-0.3230075415113693</v>
       </c>
       <c r="ADI2">
-        <v>-0.2062610269498551</v>
+        <v>-0.3330650302205038</v>
       </c>
       <c r="ADJ2">
-        <v>-0.2058263943104411</v>
+        <v>-0.333223179025087</v>
       </c>
       <c r="ADK2">
-        <v>-0.2052116960936649</v>
+        <v>-0.3308450348709117</v>
       </c>
       <c r="ADL2">
-        <v>-0.2039911119165929</v>
+        <v>-0.3291468876403549</v>
       </c>
       <c r="ADM2">
-        <v>-0.2034869954430963</v>
+        <v>-0.3273365976543729</v>
       </c>
       <c r="ADN2">
-        <v>-0.2033966554548917</v>
+        <v>-0.3230290742424898</v>
       </c>
       <c r="ADO2">
-        <v>-0.2036773628567831</v>
+        <v>-0.3230581491248097</v>
       </c>
       <c r="ADP2">
-        <v>-0.2063644196778608</v>
+        <v>-0.3331898036907264</v>
       </c>
       <c r="ADQ2">
-        <v>-0.2058278161661369</v>
+        <v>-0.3332260571113297</v>
       </c>
       <c r="ADR2">
-        <v>-0.2052134916811679</v>
+        <v>-0.3308476944355485</v>
       </c>
       <c r="ADS2">
-        <v>-0.2039928585625039</v>
+        <v>-0.3291659029055403</v>
       </c>
       <c r="ADT2">
-        <v>-0.2034869954430984</v>
+        <v>-0.3273365976543679</v>
       </c>
       <c r="ADU2">
-        <v>-0.2033990683113225</v>
+        <v>-0.3230478529881555</v>
       </c>
       <c r="ADV2">
-        <v>-0.2041310389654195</v>
+        <v>-0.3231391310959876</v>
       </c>
       <c r="ADW2">
-        <v>-0.2063694535126442</v>
+        <v>-0.3331922681088792</v>
       </c>
       <c r="ADX2">
-        <v>-0.2064021294904127</v>
+        <v>-0.3332767193649554</v>
       </c>
       <c r="ADY2">
-        <v>-0.2058293863698769</v>
+        <v>-0.3332292354823508</v>
       </c>
       <c r="ADZ2">
-        <v>-0.2052259549286773</v>
+        <v>-0.3308661546130825</v>
       </c>
       <c r="AEA2">
-        <v>-0.2039936937094263</v>
+        <v>-0.3291749949788068</v>
       </c>
       <c r="AEB2">
-        <v>-0.2034869954430988</v>
+        <v>-0.3273365976543648</v>
       </c>
       <c r="AEC2">
-        <v>-0.2034010638554516</v>
+        <v>-0.3230633839872468</v>
       </c>
       <c r="AED2">
-        <v>-0.2045187351751128</v>
+        <v>-0.3232083246331148</v>
       </c>
       <c r="AEE2">
-        <v>-0.2063745005835787</v>
+        <v>-0.3331947390041634</v>
       </c>
       <c r="AEF2">
-        <v>-0.2064440545594012</v>
+        <v>-0.3333733492716407</v>
       </c>
       <c r="AEG2">
-        <v>-0.2064021294904127</v>
+        <v>-0.3332767193649554</v>
       </c>
       <c r="AEH2">
-        <v>-0.2058303987324281</v>
+        <v>-0.3332312846850443</v>
       </c>
       <c r="AEI2">
-        <v>-0.2052534849570106</v>
+        <v>-0.3309069314199463</v>
       </c>
       <c r="AEJ2">
-        <v>-0.2039950221124835</v>
+        <v>-0.3291894571009593</v>
       </c>
       <c r="AEK2">
-        <v>-0.2034869954430957</v>
+        <v>-0.3273365976543637</v>
       </c>
       <c r="AEL2">
-        <v>-0.203402615688764</v>
+        <v>-0.3230754617226319</v>
       </c>
       <c r="AEM2">
-        <v>-0.2047381864079114</v>
+        <v>-0.3232474864294922</v>
       </c>
       <c r="AEN2">
-        <v>-0.2063795574620948</v>
+        <v>-0.3331972146980359</v>
       </c>
       <c r="AEO2">
-        <v>-0.2064792076129845</v>
+        <v>-0.3334543717627155</v>
       </c>
       <c r="AEP2">
-        <v>-0.2064440545594012</v>
+        <v>-0.3333733492716407</v>
       </c>
       <c r="AEQ2">
-        <v>-0.2058319536530554</v>
+        <v>-0.3332344321241157</v>
       </c>
       <c r="AER2">
-        <v>-0.2039962691886552</v>
+        <v>-0.3292030339084386</v>
       </c>
       <c r="AES2">
-        <v>-0.2034869954430961</v>
+        <v>-0.3273365976543622</v>
       </c>
       <c r="AET2">
-        <v>-0.2034041940004201</v>
+        <v>-0.3230877455952805</v>
       </c>
       <c r="AEU2">
-        <v>-0.2063845837398074</v>
+        <v>-0.3331996754077977</v>
       </c>
       <c r="AEV2">
-        <v>-0.2065169965594151</v>
+        <v>-0.3335414704932381</v>
       </c>
       <c r="AEW2">
-        <v>-0.2064792076129845</v>
+        <v>-0.3334543717627155</v>
       </c>
       <c r="AEX2">
-        <v>-0.2058447433103755</v>
+        <v>-0.3332603207779246</v>
       </c>
       <c r="AEY2">
-        <v>-0.2039980510543818</v>
+        <v>-0.3292224330546487</v>
       </c>
       <c r="AEZ2">
-        <v>-0.2034869954430961</v>
+        <v>-0.3273365976543622</v>
       </c>
       <c r="AFA2">
-        <v>-0.203405563695243</v>
+        <v>-0.3230984058684758</v>
       </c>
       <c r="AFB2">
-        <v>-0.2063896291314053</v>
+        <v>-0.3332021454722285</v>
       </c>
       <c r="AFC2">
-        <v>-0.2065480228597857</v>
+        <v>-0.3336129828819489</v>
       </c>
       <c r="AFD2">
-        <v>-0.2065169965594151</v>
+        <v>-0.3335414704932381</v>
       </c>
       <c r="AFE2">
-        <v>-0.2058888228208736</v>
+        <v>-0.3333495471188868</v>
       </c>
       <c r="AFF2">
-        <v>-0.2040168599458057</v>
+        <v>-0.3294272146826645</v>
       </c>
       <c r="AFG2">
-        <v>-0.2034065474314741</v>
+        <v>-0.323106062271159</v>
       </c>
       <c r="AFH2">
-        <v>-0.2063946711059277</v>
+        <v>-0.3332046138608656</v>
       </c>
       <c r="AFI2">
-        <v>-0.2065813332459537</v>
+        <v>-0.3336897605529802</v>
       </c>
       <c r="AFJ2">
-        <v>-0.2065480228597856</v>
+        <v>-0.3336129828819489</v>
       </c>
       <c r="AFK2">
-        <v>-0.2040243830735974</v>
+        <v>-0.3295091275256641</v>
       </c>
       <c r="AFL2">
-        <v>-0.2034076895515981</v>
+        <v>-0.3231149514022505</v>
       </c>
       <c r="AFM2">
-        <v>-0.2063997162755481</v>
+        <v>-0.3332070838108173</v>
       </c>
       <c r="AFN2">
-        <v>-0.20665564923561</v>
+        <v>-0.3338610457922649</v>
       </c>
       <c r="AFO2">
-        <v>-0.2065813332459151</v>
+        <v>-0.3336897605530047</v>
       </c>
       <c r="AFP2">
-        <v>-0.2065813332459537</v>
+        <v>-0.3336897605529802</v>
       </c>
       <c r="AFQ2">
-        <v>-0.2040282033145058</v>
+        <v>-0.3295507238937093</v>
       </c>
       <c r="AFR2">
-        <v>-0.2034094101720532</v>
+        <v>-0.3231283430658356</v>
       </c>
       <c r="AFS2">
-        <v>-0.2064021789867461</v>
+        <v>-0.3332082894725791</v>
       </c>
       <c r="AFT2">
-        <v>-0.2066665221212536</v>
+        <v>-0.3338861065927434</v>
       </c>
       <c r="AFU2">
-        <v>-0.206581333245874</v>
+        <v>-0.3336897605530375</v>
       </c>
       <c r="AFV2">
-        <v>-0.2065813332459151</v>
+        <v>-0.3336897605530047</v>
       </c>
       <c r="AFW2">
-        <v>-0.204029048660724</v>
+        <v>-0.3295599284708409</v>
       </c>
       <c r="AFX2">
-        <v>-0.2034122213217367</v>
+        <v>-0.3231502225189323</v>
       </c>
       <c r="AFY2">
-        <v>-0.2064575294964497</v>
+        <v>-0.3332353870647711</v>
       </c>
       <c r="AFZ2">
-        <v>-0.2066971538213709</v>
+        <v>-0.3339567102639414</v>
       </c>
       <c r="AGA2">
-        <v>-0.2065813332458152</v>
+        <v>-0.3336897605530905</v>
       </c>
       <c r="AGB2">
-        <v>-0.206581333245874</v>
+        <v>-0.3336897605530375</v>
       </c>
       <c r="AGC2">
-        <v>-0.2040297144125499</v>
+        <v>-0.3295671775538385</v>
       </c>
       <c r="AGD2">
-        <v>-0.2034233609362924</v>
+        <v>-0.3232920331235072</v>
       </c>
       <c r="AGE2">
-        <v>-0.2034426256605726</v>
+        <v>-0.3232401296153515</v>
       </c>
       <c r="AGF2">
-        <v>-0.2064935236275811</v>
+        <v>-0.3332530082920577</v>
       </c>
       <c r="AGG2">
-        <v>-0.206733123739997</v>
+        <v>-0.3340396199685194</v>
       </c>
       <c r="AGH2">
-        <v>-0.2065813332457883</v>
+        <v>-0.3336897605531152</v>
       </c>
       <c r="AGI2">
-        <v>-0.2065813332458152</v>
+        <v>-0.3336897605530905</v>
       </c>
       <c r="AGJ2">
-        <v>-0.2040304277222655</v>
+        <v>-0.3295749444981771</v>
       </c>
       <c r="AGK2">
-        <v>-0.2065250045881876</v>
+        <v>-0.3332684199379533</v>
       </c>
       <c r="AGL2">
-        <v>-0.2067377898641347</v>
+        <v>-0.3340503754074268</v>
       </c>
       <c r="AGM2">
-        <v>-0.2065813332457718</v>
+        <v>-0.333689760553128</v>
       </c>
       <c r="AGN2">
-        <v>-0.2065813332457883</v>
+        <v>-0.3336897605531152</v>
       </c>
       <c r="AGO2">
-        <v>-0.2040309984223133</v>
+        <v>-0.3295811586408307</v>
       </c>
       <c r="AGP2">
-        <v>-0.2065580265298733</v>
+        <v>-0.3332845858566423</v>
       </c>
       <c r="AGQ2">
-        <v>-0.2067406861836781</v>
+        <v>-0.3340638944175434</v>
       </c>
       <c r="AGR2">
-        <v>-0.206744394950845</v>
+        <v>-0.3340503754074267</v>
       </c>
       <c r="AGS2">
-        <v>-0.2065813332457677</v>
+        <v>-0.3336897605531381</v>
       </c>
       <c r="AGT2">
-        <v>-0.2065813332457718</v>
+        <v>-0.333689760553128</v>
       </c>
       <c r="AGU2">
-        <v>-0.2040315525487962</v>
+        <v>-0.3295871923353161</v>
       </c>
       <c r="AGV2">
-        <v>-0.2066144121005128</v>
+        <v>-0.3333121891717013</v>
       </c>
       <c r="AGW2">
-        <v>-0.2067433662294199</v>
+        <v>-0.3340764040029058</v>
       </c>
       <c r="AGX2">
-        <v>-0.2067598527204843</v>
+        <v>-0.3340503754074268</v>
       </c>
       <c r="AGY2">
-        <v>-0.2065813332457677</v>
+        <v>-0.333689760553138</v>
       </c>
       <c r="AGZ2">
-        <v>-0.2065813332457677</v>
+        <v>-0.3336897605531381</v>
       </c>
       <c r="AHA2">
-        <v>-0.2040321052699356</v>
+        <v>-0.3295932107425097</v>
       </c>
       <c r="AHB2">
-        <v>-0.2066282424863904</v>
+        <v>-0.3333189597226235</v>
       </c>
       <c r="AHC2">
-        <v>-0.2067474414811092</v>
+        <v>-0.3340954260791978</v>
       </c>
       <c r="AHD2">
-        <v>-0.2067965236656527</v>
+        <v>-0.3340503754074268</v>
       </c>
       <c r="AHE2">
-        <v>-0.2040326515243484</v>
+        <v>-0.3295991587502509</v>
       </c>
       <c r="AHF2">
-        <v>-0.2066385779983943</v>
+        <v>-0.3333189597226314</v>
       </c>
       <c r="AHG2">
-        <v>-0.2066543225521411</v>
+        <v>-0.333358538594982</v>
       </c>
       <c r="AHH2">
-        <v>-0.206752591497321</v>
+        <v>-0.3341194650498976</v>
       </c>
       <c r="AHI2">
-        <v>-0.2040424197112057</v>
+        <v>-0.3297055242095396</v>
       </c>
       <c r="AHJ2">
-        <v>-0.2066555481672427</v>
+        <v>-0.3333189597226448</v>
       </c>
       <c r="AHK2">
-        <v>-0.2066764421319582</v>
+        <v>-0.3333921072072647</v>
       </c>
       <c r="AHL2">
-        <v>-0.2067726405410667</v>
+        <v>-0.3342130511360025</v>
       </c>
       <c r="AHM2">
-        <v>-0.2040424197112073</v>
+        <v>-0.3297770732682858</v>
       </c>
       <c r="AHN2">
-        <v>-0.2040681507342086</v>
+        <v>-0.3299456991530378</v>
       </c>
       <c r="AHO2">
-        <v>-0.2066589035575861</v>
+        <v>-0.3333189597226469</v>
       </c>
       <c r="AHP2">
-        <v>-0.2067136209664562</v>
+        <v>-0.3334485299867987</v>
       </c>
       <c r="AHQ2">
-        <v>-0.2068090614766822</v>
+        <v>-0.3343830679652787</v>
       </c>
       <c r="AHR2">
-        <v>-0.2040424197112073</v>
+        <v>-0.3298245913148576</v>
       </c>
       <c r="AHS2">
-        <v>-0.2066617387941632</v>
+        <v>-0.3333189597226479</v>
       </c>
       <c r="AHT2">
-        <v>-0.2066641280414387</v>
+        <v>-0.3333189597226502</v>
       </c>
       <c r="AHU2">
-        <v>-0.2066672360576308</v>
+        <v>-0.3333189597226519</v>
       </c>
       <c r="AHV2">
-        <v>-0.20667286109406</v>
+        <v>-0.3333189597226542</v>
       </c>
       <c r="AHW2">
-        <v>-0.2066826139340968</v>
+        <v>-0.3333189597226544</v>
       </c>
       <c r="AHX2">
-        <v>-0.2067625015851659</v>
+        <v>-0.3333189597226544</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.251315717139422</v>
+        <v>-0.1889396982845793</v>
       </c>
       <c r="D3">
-        <v>1.263773260407</v>
+        <v>-0.190616153452382</v>
       </c>
       <c r="E3">
-        <v>1.265077490138578</v>
+        <v>-0.1907919427034606</v>
       </c>
       <c r="F3">
-        <v>1.266299044346342</v>
+        <v>-0.1909566358869354</v>
       </c>
       <c r="G3">
-        <v>1.267363824111823</v>
+        <v>-0.191100229633852</v>
       </c>
       <c r="H3">
-        <v>1.269040816766123</v>
+        <v>-0.1913264555008475</v>
       </c>
       <c r="I3">
-        <v>1.38194548692703</v>
+        <v>-0.2067582878185571</v>
       </c>
       <c r="J3">
-        <v>1.386943476730803</v>
+        <v>-0.2074506978369545</v>
       </c>
       <c r="K3">
-        <v>1.391099596633425</v>
+        <v>-0.2080270850275037</v>
       </c>
       <c r="L3">
-        <v>1.394744082174197</v>
+        <v>-0.208532971653752</v>
       </c>
       <c r="M3">
-        <v>1.397461828862257</v>
+        <v>-0.2089104958060508</v>
       </c>
       <c r="N3">
-        <v>1.400011781118552</v>
+        <v>-0.2092649269409798</v>
       </c>
       <c r="O3">
-        <v>1.401579123535956</v>
+        <v>-0.2094828835992739</v>
       </c>
       <c r="P3">
-        <v>1.405478970644311</v>
+        <v>-0.2100255439087063</v>
       </c>
       <c r="Q3">
-        <v>1.436959203202058</v>
+        <v>-0.2144239614754676</v>
       </c>
       <c r="R3">
-        <v>1.436959203202061</v>
+        <v>-0.2144239614754685</v>
       </c>
       <c r="S3">
-        <v>1.474869303566741</v>
+        <v>-0.2197635698305868</v>
       </c>
       <c r="T3">
-        <v>1.436959203202062</v>
+        <v>-0.2144239614754687</v>
       </c>
       <c r="U3">
-        <v>1.477467142694391</v>
+        <v>-0.2201312004775339</v>
       </c>
       <c r="V3">
-        <v>1.436959203202063</v>
+        <v>-0.2144239614754687</v>
       </c>
       <c r="W3">
-        <v>1.480382592115355</v>
+        <v>-0.2205440425679893</v>
       </c>
       <c r="X3">
-        <v>1.436959203202064</v>
+        <v>-0.214423961475469</v>
       </c>
       <c r="Y3">
-        <v>1.485125869035463</v>
+        <v>-0.2212163140357352</v>
       </c>
       <c r="Z3">
-        <v>1.436959203202065</v>
+        <v>-0.2144239614754692</v>
       </c>
       <c r="AA3">
-        <v>1.493743412892988</v>
+        <v>-0.2224395960523106</v>
       </c>
       <c r="AB3">
-        <v>1.436959203202065</v>
+        <v>-0.2144239614754693</v>
       </c>
       <c r="AC3">
-        <v>1.496594651355093</v>
+        <v>-0.2232140488836094</v>
       </c>
       <c r="AD3">
-        <v>1.596676250629552</v>
+        <v>-0.2367387888468209</v>
       </c>
       <c r="AE3">
-        <v>1.436959203202065</v>
+        <v>-0.214423961475469</v>
       </c>
       <c r="AF3">
-        <v>1.496996228175901</v>
+        <v>-0.2233131111561346</v>
       </c>
       <c r="AG3">
-        <v>1.496968017896956</v>
+        <v>-0.2233254143499253</v>
       </c>
       <c r="AH3">
-        <v>1.623720049214696</v>
+        <v>-0.240553124098681</v>
       </c>
       <c r="AI3">
-        <v>1.436959203202065</v>
+        <v>-0.2144239614754677</v>
       </c>
       <c r="AJ3">
-        <v>1.497915590464502</v>
+        <v>-0.2235399876216349</v>
       </c>
       <c r="AK3">
-        <v>1.496980660874313</v>
+        <v>-0.2233291858501033</v>
       </c>
       <c r="AL3">
-        <v>1.626389288184133</v>
+        <v>-0.2408981500645062</v>
       </c>
       <c r="AM3">
-        <v>1.701627874046175</v>
+        <v>-0.2517152933890974</v>
       </c>
       <c r="AN3">
-        <v>1.436959203202065</v>
+        <v>-0.2144239614754669</v>
       </c>
       <c r="AO3">
-        <v>1.496998839061433</v>
+        <v>-0.2233346085966329</v>
       </c>
       <c r="AP3">
-        <v>1.626482391377096</v>
+        <v>-0.2409174338226544</v>
       </c>
       <c r="AQ3">
-        <v>1.626810291492347</v>
+        <v>-0.2409199181445681</v>
       </c>
       <c r="AR3">
-        <v>1.754968717229415</v>
+        <v>-0.2594773593642907</v>
       </c>
       <c r="AS3">
-        <v>1.701627874046215</v>
+        <v>-0.2517152933891498</v>
       </c>
       <c r="AT3">
-        <v>1.436959203202065</v>
+        <v>-0.214423961475467</v>
       </c>
       <c r="AU3">
-        <v>1.49702215112509</v>
+        <v>-0.2233415629185544</v>
       </c>
       <c r="AV3">
-        <v>1.626524354479847</v>
+        <v>-0.2409261256449592</v>
       </c>
       <c r="AW3">
-        <v>1.627822974036083</v>
+        <v>-0.2409722971534344</v>
       </c>
       <c r="AX3">
-        <v>1.794890468158474</v>
+        <v>-0.265351681082887</v>
       </c>
       <c r="AY3">
-        <v>1.701627874046235</v>
+        <v>-0.2517152933891701</v>
       </c>
       <c r="AZ3">
-        <v>1.436959203202065</v>
+        <v>-0.2144239614754672</v>
       </c>
       <c r="BA3">
-        <v>1.497078925463255</v>
+        <v>-0.2233584999170198</v>
       </c>
       <c r="BB3">
-        <v>1.626568825509149</v>
+        <v>-0.2409353371535327</v>
       </c>
       <c r="BC3">
-        <v>1.800619274547335</v>
+        <v>-0.2661992702015834</v>
       </c>
       <c r="BD3">
-        <v>1.794890468158503</v>
+        <v>-0.2653516810828345</v>
       </c>
       <c r="BE3">
-        <v>1.701627874046261</v>
+        <v>-0.2517152933891902</v>
       </c>
       <c r="BF3">
-        <v>1.436959203202066</v>
+        <v>-0.2144239614754677</v>
       </c>
       <c r="BG3">
-        <v>1.49712753349438</v>
+        <v>-0.2233730011840095</v>
       </c>
       <c r="BH3">
-        <v>1.626611180248454</v>
+        <v>-0.2409441105139652</v>
       </c>
       <c r="BI3">
-        <v>1.826484323473015</v>
+        <v>-0.2700406166784281</v>
       </c>
       <c r="BJ3">
-        <v>1.794890468158505</v>
+        <v>-0.2653516810828307</v>
       </c>
       <c r="BK3">
-        <v>1.701627874046282</v>
+        <v>-0.2517152933892035</v>
       </c>
       <c r="BL3">
-        <v>1.436959203202066</v>
+        <v>-0.2144239614754677</v>
       </c>
       <c r="BM3">
-        <v>1.497360528004929</v>
+        <v>-0.2234425163906519</v>
       </c>
       <c r="BN3">
-        <v>1.626636546156328</v>
+        <v>-0.2409493649059086</v>
       </c>
       <c r="BO3">
-        <v>1.831522557735474</v>
+        <v>-0.2707946086819213</v>
       </c>
       <c r="BP3">
-        <v>1.830208178884632</v>
+        <v>-0.2705414642353436</v>
       </c>
       <c r="BQ3">
-        <v>1.794890468158508</v>
+        <v>-0.2653516810828281</v>
       </c>
       <c r="BR3">
-        <v>1.7016278740463</v>
+        <v>-0.251715293389217</v>
       </c>
       <c r="BS3">
-        <v>1.436959203202067</v>
+        <v>-0.2144239614754673</v>
       </c>
       <c r="BT3">
-        <v>1.498183885351543</v>
+        <v>-0.2236882464842526</v>
       </c>
       <c r="BU3">
-        <v>1.626686311352738</v>
+        <v>-0.240959673673734</v>
       </c>
       <c r="BV3">
-        <v>1.890651308953341</v>
+        <v>-0.2797122790263969</v>
       </c>
       <c r="BW3">
-        <v>1.831110051371983</v>
+        <v>-0.270737344037685</v>
       </c>
       <c r="BX3">
-        <v>1.831124579733959</v>
+        <v>-0.2705904325165314</v>
       </c>
       <c r="BY3">
-        <v>1.794890468158514</v>
+        <v>-0.2653516810828226</v>
       </c>
       <c r="BZ3">
-        <v>1.70162787404636</v>
+        <v>-0.2517152933892456</v>
       </c>
       <c r="CA3">
-        <v>1.436959203202071</v>
+        <v>-0.2144239614754666</v>
       </c>
       <c r="CB3">
-        <v>1.626938505909824</v>
+        <v>-0.241011919649547</v>
       </c>
       <c r="CC3">
-        <v>1.911091879898708</v>
+        <v>-0.2828248863330485</v>
       </c>
       <c r="CD3">
-        <v>1.794890468158522</v>
+        <v>-0.2653516810828199</v>
       </c>
       <c r="CE3">
-        <v>1.701627874046533</v>
+        <v>-0.2517152933893462</v>
       </c>
       <c r="CF3">
-        <v>1.436959203202077</v>
+        <v>-0.2144239614754654</v>
       </c>
       <c r="CG3">
-        <v>1.627888570686853</v>
+        <v>-0.2412088053180481</v>
       </c>
       <c r="CH3">
-        <v>1.915541088017163</v>
+        <v>-0.2835044438923415</v>
       </c>
       <c r="CI3">
-        <v>1.794890468158525</v>
+        <v>-0.2653516810828183</v>
       </c>
       <c r="CJ3">
-        <v>1.701627874046876</v>
+        <v>-0.2517152933895384</v>
       </c>
       <c r="CK3">
-        <v>1.436959203202081</v>
+        <v>-0.2144239614754648</v>
       </c>
       <c r="CL3">
-        <v>1.924550672875776</v>
+        <v>-0.284882792776699</v>
       </c>
       <c r="CM3">
-        <v>1.794890468158525</v>
+        <v>-0.2653516810828183</v>
       </c>
       <c r="CN3">
-        <v>1.701627874046955</v>
+        <v>-0.2517152933895866</v>
       </c>
       <c r="CO3">
-        <v>1.436959203202082</v>
+        <v>-0.2144239614754642</v>
       </c>
       <c r="CP3">
-        <v>1.933031571042781</v>
+        <v>-0.2861830245194221</v>
       </c>
       <c r="CQ3">
-        <v>1.70162787404697</v>
+        <v>-0.251715293389592</v>
       </c>
       <c r="CR3">
-        <v>1.436959203202083</v>
+        <v>-0.2144239614754641</v>
       </c>
       <c r="CS3">
-        <v>1.937954062026175</v>
+        <v>-0.2869389395037977</v>
       </c>
       <c r="CT3">
-        <v>1.701627874046979</v>
+        <v>-0.2517152933895976</v>
       </c>
       <c r="CU3">
-        <v>1.436959203202083</v>
+        <v>-0.2144239614754645</v>
       </c>
       <c r="CV3">
-        <v>1.941202213429658</v>
+        <v>-0.2874382341093666</v>
       </c>
       <c r="CW3">
-        <v>1.701627874046977</v>
+        <v>-0.2517152933896014</v>
       </c>
       <c r="CX3">
-        <v>1.436959203202084</v>
+        <v>-0.2144239614754647</v>
       </c>
       <c r="CY3">
-        <v>1.94568336638842</v>
+        <v>-0.2881277111912706</v>
       </c>
       <c r="CZ3">
-        <v>1.701627874046292</v>
+        <v>-0.2517152933892746</v>
       </c>
       <c r="DA3">
-        <v>1.436959203202084</v>
+        <v>-0.2144239614754647</v>
       </c>
       <c r="DB3">
-        <v>1.945980523412511</v>
+        <v>-0.2881751569694366</v>
       </c>
       <c r="DC3">
-        <v>1.948274708652616</v>
+        <v>-0.288524882171675</v>
       </c>
       <c r="DD3">
-        <v>1.701627874046261</v>
+        <v>-0.25171529338926</v>
       </c>
       <c r="DE3">
-        <v>1.946340036995475</v>
+        <v>-0.2882325599548336</v>
       </c>
       <c r="DF3">
-        <v>1.949743505023148</v>
+        <v>-0.2887501133002502</v>
       </c>
       <c r="DG3">
-        <v>1.701627874046188</v>
+        <v>-0.2517152933892185</v>
       </c>
       <c r="DH3">
-        <v>1.946756731445839</v>
+        <v>-0.2882990942988807</v>
       </c>
       <c r="DI3">
-        <v>2.007340600884314</v>
+        <v>-0.2976460882747577</v>
       </c>
       <c r="DJ3">
-        <v>1.701627874044356</v>
+        <v>-0.2517152933880386</v>
       </c>
       <c r="DK3">
-        <v>1.947392051508856</v>
+        <v>-0.2884005398285122</v>
       </c>
       <c r="DL3">
-        <v>2.01307238576885</v>
+        <v>-0.2985382349539136</v>
       </c>
       <c r="DM3">
-        <v>1.701627874042724</v>
+        <v>-0.2517152933869868</v>
       </c>
       <c r="DN3">
-        <v>1.948208814240848</v>
+        <v>-0.2885309624933385</v>
       </c>
       <c r="DO3">
-        <v>2.013984377876262</v>
+        <v>-0.2987180145588996</v>
       </c>
       <c r="DP3">
-        <v>2.037903889265839</v>
+        <v>-0.3023604769602505</v>
       </c>
       <c r="DQ3">
-        <v>1.701627874042574</v>
+        <v>-0.2517152933868916</v>
       </c>
       <c r="DR3">
-        <v>1.94879515291196</v>
+        <v>-0.2886245939847283</v>
       </c>
       <c r="DS3">
-        <v>2.01398437787626</v>
+        <v>-0.2987180145588999</v>
       </c>
       <c r="DT3">
-        <v>2.014428407476315</v>
+        <v>-0.2988055487008939</v>
       </c>
       <c r="DU3">
-        <v>2.082486476550536</v>
+        <v>-0.3092582576086281</v>
       </c>
       <c r="DV3">
-        <v>1.701627874042466</v>
+        <v>-0.2517152933868246</v>
       </c>
       <c r="DW3">
-        <v>1.949623618169772</v>
+        <v>-0.2887568952767863</v>
       </c>
       <c r="DX3">
-        <v>2.013984377876258</v>
+        <v>-0.2987180145588998</v>
       </c>
       <c r="DY3">
-        <v>2.016514188423458</v>
+        <v>-0.299216759494375</v>
       </c>
       <c r="DZ3">
-        <v>2.102452755693442</v>
+        <v>-0.3123622285947646</v>
       </c>
       <c r="EA3">
-        <v>1.701627874042369</v>
+        <v>-0.2517152933867706</v>
       </c>
       <c r="EB3">
-        <v>1.950519922466455</v>
+        <v>-0.2889000366683368</v>
       </c>
       <c r="EC3">
-        <v>2.013984377876257</v>
+        <v>-0.2987180145589003</v>
       </c>
       <c r="ED3">
-        <v>2.017349797945666</v>
+        <v>-0.2993987703432924</v>
       </c>
       <c r="EE3">
-        <v>2.021230554352694</v>
+        <v>-0.3001217568144205</v>
       </c>
       <c r="EF3">
-        <v>2.108383437016637</v>
+        <v>-0.313285989955609</v>
       </c>
       <c r="EG3">
-        <v>1.701627874042065</v>
+        <v>-0.2517152933866065</v>
       </c>
       <c r="EH3">
-        <v>1.951365175701926</v>
+        <v>-0.2890350313829908</v>
       </c>
       <c r="EI3">
-        <v>2.013984377876255</v>
+        <v>-0.2987180145589003</v>
       </c>
       <c r="EJ3">
-        <v>2.01742174537325</v>
+        <v>-0.2994144457418363</v>
       </c>
       <c r="EK3">
-        <v>2.024738616730262</v>
+        <v>-0.3007950512624861</v>
       </c>
       <c r="EL3">
-        <v>2.115072594229926</v>
+        <v>-0.3143288686132657</v>
       </c>
       <c r="EM3">
-        <v>1.701627874041832</v>
+        <v>-0.251715293386489</v>
       </c>
       <c r="EN3">
-        <v>1.952754835489597</v>
+        <v>-0.2892569860569097</v>
       </c>
       <c r="EO3">
-        <v>2.013984377876253</v>
+        <v>-0.2987180145589004</v>
       </c>
       <c r="EP3">
-        <v>2.017492337173404</v>
+        <v>-0.2994298263945461</v>
       </c>
       <c r="EQ3">
-        <v>2.027087562973153</v>
+        <v>-0.3012459515908988</v>
       </c>
       <c r="ER3">
-        <v>2.121358396713266</v>
+        <v>-0.31530980746903</v>
       </c>
       <c r="ES3">
-        <v>1.701627874041798</v>
+        <v>-0.2517152933864635</v>
       </c>
       <c r="ET3">
-        <v>1.95936114934443</v>
+        <v>-0.2903123630300857</v>
       </c>
       <c r="EU3">
-        <v>2.013984377876252</v>
+        <v>-0.2987180145589002</v>
       </c>
       <c r="EV3">
-        <v>2.017549335404123</v>
+        <v>-0.2994422456988957</v>
       </c>
       <c r="EW3">
-        <v>2.028246852277671</v>
+        <v>-0.3015200496394187</v>
       </c>
       <c r="EX3">
-        <v>2.029311377641403</v>
+        <v>-0.3015759577529475</v>
       </c>
       <c r="EY3">
-        <v>2.128686330339329</v>
+        <v>-0.3164545357851463</v>
       </c>
       <c r="EZ3">
-        <v>1.70162787404179</v>
+        <v>-0.2517152933864563</v>
       </c>
       <c r="FA3">
-        <v>1.960800034159705</v>
+        <v>-0.2905422781992392</v>
       </c>
       <c r="FB3">
-        <v>2.013984377876251</v>
+        <v>-0.2987180145589001</v>
       </c>
       <c r="FC3">
-        <v>2.01763488243971</v>
+        <v>-0.2994608862200248</v>
       </c>
       <c r="FD3">
-        <v>2.031321057008819</v>
+        <v>-0.3022469907034707</v>
       </c>
       <c r="FE3">
-        <v>2.029446660567559</v>
+        <v>-0.301596045653316</v>
       </c>
       <c r="FF3">
-        <v>2.130793629896223</v>
+        <v>-0.3167839573391543</v>
       </c>
       <c r="FG3">
-        <v>1.701627874041791</v>
+        <v>-0.2517152933864565</v>
       </c>
       <c r="FH3">
-        <v>1.963401880005001</v>
+        <v>-0.290828291991881</v>
       </c>
       <c r="FI3">
-        <v>1.965343120771698</v>
+        <v>-0.2913130707325483</v>
       </c>
       <c r="FJ3">
-        <v>2.013984377876249</v>
+        <v>-0.2987180145588992</v>
       </c>
       <c r="FK3">
-        <v>2.017738014513227</v>
+        <v>-0.2994833596617479</v>
       </c>
       <c r="FL3">
-        <v>2.032388794538241</v>
+        <v>-0.3024995027468862</v>
       </c>
       <c r="FM3">
-        <v>2.029570241395674</v>
+        <v>-0.3016143971751962</v>
       </c>
       <c r="FN3">
-        <v>2.142754734611716</v>
+        <v>-0.3186557248069191</v>
       </c>
       <c r="FO3">
-        <v>1.701627874041791</v>
+        <v>-0.2517152933864565</v>
       </c>
       <c r="FP3">
-        <v>1.963893066233042</v>
+        <v>-0.2908823290218823</v>
       </c>
       <c r="FQ3">
-        <v>1.97137308209859</v>
+        <v>-0.29233642155832</v>
       </c>
       <c r="FR3">
-        <v>2.013984377876249</v>
+        <v>-0.2987180145588993</v>
       </c>
       <c r="FS3">
-        <v>2.017815925440988</v>
+        <v>-0.2995003380338657</v>
       </c>
       <c r="FT3">
-        <v>2.03238879453867</v>
+        <v>-0.3024995027476697</v>
       </c>
       <c r="FU3">
-        <v>2.034169038738249</v>
+        <v>-0.302920151828639</v>
       </c>
       <c r="FV3">
-        <v>2.029621576522581</v>
+        <v>-0.3016220206945927</v>
       </c>
       <c r="FW3">
-        <v>2.149502330994771</v>
+        <v>-0.3197131138696875</v>
       </c>
       <c r="FX3">
-        <v>1.964906134825503</v>
+        <v>-0.2909938225120106</v>
       </c>
       <c r="FY3">
-        <v>1.971981171469164</v>
+        <v>-0.2924657213093409</v>
       </c>
       <c r="FZ3">
-        <v>1.97246346501228</v>
+        <v>-0.2924515568439721</v>
       </c>
       <c r="GA3">
-        <v>2.01398437787625</v>
+        <v>-0.2987180145588986</v>
       </c>
       <c r="GB3">
-        <v>2.017906078492429</v>
+        <v>-0.2995199851300617</v>
       </c>
       <c r="GC3">
-        <v>2.03238879453873</v>
+        <v>-0.3024995027477896</v>
       </c>
       <c r="GD3">
-        <v>2.034361220424605</v>
+        <v>-0.3029655871618056</v>
       </c>
       <c r="GE3">
-        <v>2.02973222469778</v>
+        <v>-0.3016384531908038</v>
       </c>
       <c r="GF3">
-        <v>2.15450747832779</v>
+        <v>-0.3204981379278425</v>
       </c>
       <c r="GG3">
-        <v>1.974374000967161</v>
+        <v>-0.2929745579602623</v>
       </c>
       <c r="GH3">
-        <v>1.976970576849612</v>
+        <v>-0.2929281417033813</v>
       </c>
       <c r="GI3">
-        <v>2.013984377876251</v>
+        <v>-0.2987180145588976</v>
       </c>
       <c r="GJ3">
-        <v>2.017990842243716</v>
+        <v>-0.2995384586308973</v>
       </c>
       <c r="GK3">
-        <v>2.032388794538727</v>
+        <v>-0.3024995027477713</v>
       </c>
       <c r="GL3">
-        <v>2.032388794538755</v>
+        <v>-0.3024995027478419</v>
       </c>
       <c r="GM3">
-        <v>2.034547096987018</v>
+        <v>-0.3030095365285893</v>
       </c>
       <c r="GN3">
-        <v>2.030014019062087</v>
+        <v>-0.3016803071171008</v>
       </c>
       <c r="GO3">
-        <v>2.159004592555327</v>
+        <v>-0.32120398025845</v>
       </c>
       <c r="GP3">
-        <v>1.978645627725661</v>
+        <v>-0.2938830908941794</v>
       </c>
       <c r="GQ3">
-        <v>1.977410528481167</v>
+        <v>-0.2929514309316468</v>
       </c>
       <c r="GR3">
-        <v>1.977224859239927</v>
+        <v>-0.2929685222484479</v>
       </c>
       <c r="GS3">
-        <v>2.013984377876251</v>
+        <v>-0.2987180145588972</v>
       </c>
       <c r="GT3">
-        <v>2.01808203939577</v>
+        <v>-0.2995583352050978</v>
       </c>
       <c r="GU3">
-        <v>2.032388794538727</v>
+        <v>-0.3024995027477713</v>
       </c>
       <c r="GV3">
-        <v>2.03238879453877</v>
+        <v>-0.3024995027478675</v>
       </c>
       <c r="GW3">
-        <v>2.034695768273956</v>
+        <v>-0.3030446922521216</v>
       </c>
       <c r="GX3">
-        <v>2.030179329549636</v>
+        <v>-0.3017048629767355</v>
       </c>
       <c r="GY3">
-        <v>2.164587666459187</v>
+        <v>-0.3220809279463461</v>
       </c>
       <c r="GZ3">
-        <v>1.979387194464809</v>
+        <v>-0.2939602717829881</v>
       </c>
       <c r="HA3">
-        <v>1.979370833754544</v>
+        <v>-0.2940779643358453</v>
       </c>
       <c r="HB3">
-        <v>1.978522441396443</v>
+        <v>-0.2930103129609842</v>
       </c>
       <c r="HC3">
-        <v>1.977260799930447</v>
+        <v>-0.2929742301386529</v>
       </c>
       <c r="HD3">
-        <v>2.013984377876251</v>
+        <v>-0.2987180145588971</v>
       </c>
       <c r="HE3">
-        <v>2.018221445139976</v>
+        <v>-0.2995887208697399</v>
       </c>
       <c r="HF3">
-        <v>2.032388794538784</v>
+        <v>-0.3024995027478842</v>
       </c>
       <c r="HG3">
-        <v>2.034814189467282</v>
+        <v>-0.3030726969613016</v>
       </c>
       <c r="HH3">
-        <v>2.030295106154024</v>
+        <v>-0.301722062147295</v>
       </c>
       <c r="HI3">
-        <v>2.174879787791554</v>
+        <v>-0.3236994542202229</v>
       </c>
       <c r="HJ3">
-        <v>1.981812689655216</v>
+        <v>-0.2942129141284774</v>
       </c>
       <c r="HK3">
-        <v>1.980679645279451</v>
+        <v>-0.2944296819714227</v>
       </c>
       <c r="HL3">
-        <v>1.977289784651584</v>
+        <v>-0.292978833401463</v>
       </c>
       <c r="HM3">
-        <v>2.013984377876251</v>
+        <v>-0.2987180145588971</v>
       </c>
       <c r="HN3">
-        <v>2.01860210213119</v>
+        <v>-0.2996717030059388</v>
       </c>
       <c r="HO3">
-        <v>2.032388794538806</v>
+        <v>-0.3024995027478988</v>
       </c>
       <c r="HP3">
-        <v>2.035064529797525</v>
+        <v>-0.3031319045803025</v>
       </c>
       <c r="HQ3">
-        <v>2.03051779656563</v>
+        <v>-0.3017551468090726</v>
       </c>
       <c r="HR3">
-        <v>2.183841776970505</v>
+        <v>-0.3251108333582829</v>
       </c>
       <c r="HS3">
-        <v>1.982857453233549</v>
+        <v>-0.2943218330100993</v>
       </c>
       <c r="HT3">
-        <v>1.981146944969386</v>
+        <v>-0.2945552661829609</v>
       </c>
       <c r="HU3">
-        <v>1.977312947458028</v>
+        <v>-0.2929825120966679</v>
       </c>
       <c r="HV3">
-        <v>2.018634555115419</v>
+        <v>-0.2996787784755258</v>
       </c>
       <c r="HW3">
-        <v>2.032388794538834</v>
+        <v>-0.3024995027479185</v>
       </c>
       <c r="HX3">
-        <v>2.035261658669976</v>
+        <v>-0.3031785331176717</v>
       </c>
       <c r="HY3">
-        <v>2.030628628973594</v>
+        <v>-0.301771614392603</v>
       </c>
       <c r="HZ3">
-        <v>2.189932236413877</v>
+        <v>-0.3260710689711381</v>
       </c>
       <c r="IA3">
-        <v>1.986410184670232</v>
+        <v>-0.2959692245158393</v>
       </c>
       <c r="IB3">
-        <v>1.981146944969386</v>
+        <v>-0.2945552661829609</v>
       </c>
       <c r="IC3">
-        <v>1.977348305231978</v>
+        <v>-0.292988127672009</v>
       </c>
       <c r="ID3">
-        <v>2.018649544682591</v>
+        <v>-0.2996820465763403</v>
       </c>
       <c r="IE3">
-        <v>2.032388794538852</v>
+        <v>-0.3024995027479351</v>
       </c>
       <c r="IF3">
-        <v>2.035398386675792</v>
+        <v>-0.3032108775778858</v>
       </c>
       <c r="IG3">
-        <v>2.030707323427331</v>
+        <v>-0.3017833074688905</v>
       </c>
       <c r="IH3">
-        <v>2.193930548103602</v>
+        <v>-0.3267019274765305</v>
       </c>
       <c r="II3">
-        <v>1.987173473447154</v>
+        <v>-0.2961746381048306</v>
       </c>
       <c r="IJ3">
-        <v>1.977389750941468</v>
+        <v>-0.292994710276099</v>
       </c>
       <c r="IK3">
-        <v>2.01866557772578</v>
+        <v>-0.2996855422111642</v>
       </c>
       <c r="IL3">
-        <v>2.03238879453886</v>
+        <v>-0.3024995027479545</v>
       </c>
       <c r="IM3">
-        <v>2.035534780465673</v>
+        <v>-0.3032431454601856</v>
       </c>
       <c r="IN3">
-        <v>2.031607353525835</v>
+        <v>-0.3019170757052748</v>
       </c>
       <c r="IO3">
-        <v>2.202528614590783</v>
+        <v>-0.3280598197891827</v>
       </c>
       <c r="IP3">
-        <v>1.988362522774308</v>
+        <v>-0.2963007497039606</v>
       </c>
       <c r="IQ3">
-        <v>1.988326281797169</v>
+        <v>-0.2966791282929989</v>
       </c>
       <c r="IR3">
-        <v>1.977453407564407</v>
+        <v>-0.293004820803553</v>
       </c>
       <c r="IS3">
-        <v>2.018680897895037</v>
+        <v>-0.2996888824493802</v>
       </c>
       <c r="IT3">
-        <v>2.032388794538851</v>
+        <v>-0.3024995027479571</v>
       </c>
       <c r="IU3">
-        <v>2.035734303220256</v>
+        <v>-0.3032903527891417</v>
       </c>
       <c r="IV3">
-        <v>2.031872687166741</v>
+        <v>-0.3019565233271809</v>
       </c>
       <c r="IW3">
-        <v>2.203503119168641</v>
+        <v>-0.3281688805357939</v>
       </c>
       <c r="IX3">
-        <v>2.208064189343465</v>
+        <v>-0.328941973412417</v>
       </c>
       <c r="IY3">
-        <v>1.977686331716345</v>
+        <v>-0.293041818848538</v>
       </c>
       <c r="IZ3">
-        <v>2.018697965094094</v>
+        <v>-0.2996926036238935</v>
       </c>
       <c r="JA3">
-        <v>2.032388794538852</v>
+        <v>-0.3024995027479692</v>
       </c>
       <c r="JB3">
-        <v>2.036484555778333</v>
+        <v>-0.3034679110100335</v>
       </c>
       <c r="JC3">
-        <v>2.031932045786085</v>
+        <v>-0.3019653490286813</v>
       </c>
       <c r="JD3">
-        <v>2.203637795668628</v>
+        <v>-0.3281839569654097</v>
       </c>
       <c r="JE3">
-        <v>2.228786666589684</v>
+        <v>-0.332250831507757</v>
       </c>
       <c r="JF3">
-        <v>1.978819620577246</v>
+        <v>-0.2932218972736066</v>
       </c>
       <c r="JG3">
-        <v>2.01873319376575</v>
+        <v>-0.2997002846697904</v>
       </c>
       <c r="JH3">
-        <v>2.032388794538852</v>
+        <v>-0.3024995027479777</v>
       </c>
       <c r="JI3">
-        <v>2.036659628518522</v>
+        <v>-0.3035093553421099</v>
       </c>
       <c r="JJ3">
-        <v>2.032661685727095</v>
+        <v>-0.3020971641653178</v>
       </c>
       <c r="JK3">
-        <v>2.031958350491188</v>
+        <v>-0.3019684601170718</v>
       </c>
       <c r="JL3">
-        <v>2.203699708630132</v>
+        <v>-0.3281908881889425</v>
       </c>
       <c r="JM3">
-        <v>2.229719842124894</v>
+        <v>-0.3323576950479259</v>
       </c>
       <c r="JN3">
-        <v>2.235538947473652</v>
+        <v>-0.333340131109664</v>
       </c>
       <c r="JO3">
-        <v>2.0187698835995</v>
+        <v>-0.2997082844584117</v>
       </c>
       <c r="JP3">
-        <v>2.032388794538849</v>
+        <v>-0.3024995027479803</v>
       </c>
       <c r="JQ3">
-        <v>2.036739829232866</v>
+        <v>-0.303528342331895</v>
       </c>
       <c r="JR3">
-        <v>2.0333845447996</v>
+        <v>-0.3022278053681501</v>
       </c>
       <c r="JS3">
-        <v>2.031989190700737</v>
+        <v>-0.3019721076780562</v>
       </c>
       <c r="JT3">
-        <v>2.203773241215234</v>
+        <v>-0.3281991205246733</v>
       </c>
       <c r="JU3">
-        <v>2.229787658267064</v>
+        <v>-0.332365463057229</v>
       </c>
       <c r="JV3">
-        <v>2.25996672135887</v>
+        <v>-0.3372901491572154</v>
       </c>
       <c r="JW3">
-        <v>2.018909396372704</v>
+        <v>-0.2997387050738191</v>
       </c>
       <c r="JX3">
-        <v>2.032388794538848</v>
+        <v>-0.3024995027479815</v>
       </c>
       <c r="JY3">
-        <v>2.036792553547415</v>
+        <v>-0.3035408249333065</v>
       </c>
       <c r="JZ3">
-        <v>2.032017061297305</v>
+        <v>-0.3019754040636548</v>
       </c>
       <c r="KA3">
-        <v>2.203886688355173</v>
+        <v>-0.3282118220938405</v>
       </c>
       <c r="KB3">
-        <v>2.229843552876775</v>
+        <v>-0.3323718657142118</v>
       </c>
       <c r="KC3">
-        <v>2.264052939891541</v>
+        <v>-0.3379428976510995</v>
       </c>
       <c r="KD3">
-        <v>2.263597236998294</v>
+        <v>-0.3378813848306357</v>
       </c>
       <c r="KE3">
-        <v>2.019649940950984</v>
+        <v>-0.2999002195328527</v>
       </c>
       <c r="KF3">
-        <v>2.032388794538848</v>
+        <v>-0.3024995027479817</v>
       </c>
       <c r="KG3">
-        <v>2.036980916864733</v>
+        <v>-0.3035867596971344</v>
       </c>
       <c r="KH3">
-        <v>2.03681500440356</v>
+        <v>-0.3035459755195493</v>
       </c>
       <c r="KI3">
-        <v>2.032045288278814</v>
+        <v>-0.3019787426483233</v>
       </c>
       <c r="KJ3">
-        <v>2.203987772792565</v>
+        <v>-0.3282231401474063</v>
       </c>
       <c r="KK3">
-        <v>2.229922944410322</v>
+        <v>-0.3323809602267779</v>
       </c>
       <c r="KL3">
-        <v>2.265932527976069</v>
+        <v>-0.3382433748731916</v>
       </c>
       <c r="KM3">
-        <v>2.278794120761579</v>
+        <v>-0.3403597308119126</v>
       </c>
       <c r="KN3">
-        <v>2.037067437571378</v>
+        <v>-0.3036078605046246</v>
       </c>
       <c r="KO3">
-        <v>2.036830893536774</v>
+        <v>-0.3035496207805632</v>
       </c>
       <c r="KP3">
-        <v>2.032075637585586</v>
+        <v>-0.3019823323075192</v>
       </c>
       <c r="KQ3">
-        <v>2.204066360432825</v>
+        <v>-0.3282319397179718</v>
       </c>
       <c r="KR3">
-        <v>2.230279499933633</v>
+        <v>-0.3324218091406986</v>
       </c>
       <c r="KS3">
-        <v>2.278192517837618</v>
+        <v>-0.3402067761923577</v>
       </c>
       <c r="KT3">
-        <v>2.282144653463158</v>
+        <v>-0.3409069072123994</v>
       </c>
       <c r="KU3">
-        <v>2.037213864503079</v>
+        <v>-0.3036435736971682</v>
       </c>
       <c r="KV3">
-        <v>2.036849383660251</v>
+        <v>-0.3035538627977346</v>
       </c>
       <c r="KW3">
-        <v>2.032251638436958</v>
+        <v>-0.3020031504542307</v>
       </c>
       <c r="KX3">
-        <v>2.204164178411138</v>
+        <v>-0.3282428930268912</v>
       </c>
       <c r="KY3">
-        <v>2.230348133999447</v>
+        <v>-0.3324296730771543</v>
       </c>
       <c r="KZ3">
-        <v>2.279106939015968</v>
+        <v>-0.3403534602468224</v>
       </c>
       <c r="LA3">
-        <v>2.283257646594519</v>
+        <v>-0.3410887315175108</v>
       </c>
       <c r="LB3">
-        <v>2.037494894093238</v>
+        <v>-0.3037121244805593</v>
       </c>
       <c r="LC3">
-        <v>2.036884748918369</v>
+        <v>-0.303561976442711</v>
       </c>
       <c r="LD3">
-        <v>2.032995899241413</v>
+        <v>-0.3020912055257886</v>
       </c>
       <c r="LE3">
-        <v>2.204265346129115</v>
+        <v>-0.3282542219992778</v>
       </c>
       <c r="LF3">
-        <v>2.230398950498272</v>
+        <v>-0.3324354956937134</v>
       </c>
       <c r="LG3">
-        <v>2.279382905066573</v>
+        <v>-0.3403925185959817</v>
       </c>
       <c r="LH3">
-        <v>2.293219355025113</v>
+        <v>-0.3426707323640434</v>
       </c>
       <c r="LI3">
-        <v>2.283838487168924</v>
+        <v>-0.341183632737325</v>
       </c>
       <c r="LJ3">
-        <v>2.038322083468199</v>
+        <v>-0.3039139619821491</v>
       </c>
       <c r="LK3">
-        <v>2.037020375545154</v>
+        <v>-0.3035930939607649</v>
       </c>
       <c r="LL3">
-        <v>2.204384672941753</v>
+        <v>-0.3282675852120798</v>
       </c>
       <c r="LM3">
-        <v>2.230457484136378</v>
+        <v>-0.3324422027359038</v>
       </c>
       <c r="LN3">
-        <v>2.280803663973288</v>
+        <v>-0.3405936918899382</v>
       </c>
       <c r="LO3">
-        <v>2.299976662326636</v>
+        <v>-0.3437832075823531</v>
       </c>
       <c r="LP3">
-        <v>2.284335670150787</v>
+        <v>-0.3412648720726907</v>
       </c>
       <c r="LQ3">
-        <v>2.037483154606794</v>
+        <v>-0.3036992895705021</v>
       </c>
       <c r="LR3">
-        <v>2.204452670438299</v>
+        <v>-0.3282752005011845</v>
       </c>
       <c r="LS3">
-        <v>2.230515547119048</v>
+        <v>-0.3324488560454593</v>
       </c>
       <c r="LT3">
-        <v>2.28129946129324</v>
+        <v>-0.3406639296559631</v>
       </c>
       <c r="LU3">
-        <v>2.301954154465373</v>
+        <v>-0.3441225616636252</v>
       </c>
       <c r="LV3">
-        <v>2.311741063123234</v>
+        <v>-0.345716150789863</v>
       </c>
       <c r="LW3">
-        <v>2.28490108781874</v>
+        <v>-0.3413572682998087</v>
       </c>
       <c r="LX3">
-        <v>2.204759829496662</v>
+        <v>-0.3283096036435632</v>
       </c>
       <c r="LY3">
-        <v>2.231025570788882</v>
+        <v>-0.3325073069751191</v>
       </c>
       <c r="LZ3">
-        <v>2.282378144778854</v>
+        <v>-0.3408168053786814</v>
       </c>
       <c r="MA3">
-        <v>2.302736846662008</v>
+        <v>-0.3442569772290346</v>
       </c>
       <c r="MB3">
-        <v>2.313122988391408</v>
+        <v>-0.3459610010219832</v>
       </c>
       <c r="MC3">
-        <v>2.313666447630704</v>
+        <v>-0.3460303919425427</v>
       </c>
       <c r="MD3">
-        <v>2.285346510486643</v>
+        <v>-0.3414300614042776</v>
       </c>
       <c r="ME3">
-        <v>2.204879357793099</v>
+        <v>-0.3283229927780687</v>
       </c>
       <c r="MF3">
-        <v>2.232067758534674</v>
+        <v>-0.332626793354908</v>
       </c>
       <c r="MG3">
-        <v>2.282816538396022</v>
+        <v>-0.3408423681395095</v>
       </c>
       <c r="MH3">
-        <v>2.282587775142932</v>
+        <v>-0.3408637422910671</v>
       </c>
       <c r="MI3">
-        <v>2.313817428967517</v>
+        <v>-0.3460841109475593</v>
       </c>
       <c r="MJ3">
-        <v>2.31531530156101</v>
+        <v>-0.3462996217216425</v>
       </c>
       <c r="MK3">
-        <v>2.285719930614619</v>
+        <v>-0.3414910912728863</v>
       </c>
       <c r="ML3">
-        <v>2.204920880285796</v>
+        <v>-0.3283276441699285</v>
       </c>
       <c r="MM3">
-        <v>2.28347234383011</v>
+        <v>-0.3408806182977077</v>
       </c>
       <c r="MN3">
-        <v>2.282616962592655</v>
+        <v>-0.3408702778904314</v>
       </c>
       <c r="MO3">
-        <v>2.313882042293757</v>
+        <v>-0.3460955678857498</v>
       </c>
       <c r="MP3">
-        <v>2.316474764877495</v>
+        <v>-0.3464890092704291</v>
       </c>
       <c r="MQ3">
-        <v>2.286056858229622</v>
+        <v>-0.3415461599388567</v>
       </c>
       <c r="MR3">
-        <v>2.204952161440286</v>
+        <v>-0.3283311483813643</v>
       </c>
       <c r="MS3">
-        <v>2.282648661775115</v>
+        <v>-0.3408773760329181</v>
       </c>
       <c r="MT3">
-        <v>2.313908726236403</v>
+        <v>-0.3461002994758491</v>
       </c>
       <c r="MU3">
-        <v>2.317939355748882</v>
+        <v>-0.3467283156019848</v>
       </c>
       <c r="MV3">
-        <v>2.286335700327375</v>
+        <v>-0.3415917370120456</v>
       </c>
       <c r="MW3">
-        <v>2.204975047879998</v>
+        <v>-0.3283337122261685</v>
       </c>
       <c r="MX3">
-        <v>2.282676427605582</v>
+        <v>-0.3408835935147678</v>
       </c>
       <c r="MY3">
-        <v>2.313927554328602</v>
+        <v>-0.346103638109287</v>
       </c>
       <c r="MZ3">
-        <v>2.318856820147553</v>
+        <v>-0.3468782693519394</v>
       </c>
       <c r="NA3">
-        <v>2.286659161076057</v>
+        <v>-0.3416446094555963</v>
       </c>
       <c r="NB3">
-        <v>2.204986669652116</v>
+        <v>-0.3283350141622152</v>
       </c>
       <c r="NC3">
-        <v>2.282705928415466</v>
+        <v>-0.3408901996086022</v>
       </c>
       <c r="ND3">
-        <v>2.313946812374068</v>
+        <v>-0.3461070530177801</v>
       </c>
       <c r="NE3">
-        <v>2.320265331358874</v>
+        <v>-0.3471085490327371</v>
       </c>
       <c r="NF3">
-        <v>2.287014651447335</v>
+        <v>-0.3417027203885695</v>
       </c>
       <c r="NG3">
-        <v>2.205003756012516</v>
+        <v>-0.3283369282860035</v>
       </c>
       <c r="NH3">
-        <v>2.282748031698006</v>
+        <v>-0.3408996279529182</v>
       </c>
       <c r="NI3">
-        <v>2.31396953527478</v>
+        <v>-0.3461110823727482</v>
       </c>
       <c r="NJ3">
-        <v>2.321669025197716</v>
+        <v>-0.3473381224074051</v>
       </c>
       <c r="NK3">
-        <v>2.288952372259434</v>
+        <v>-0.3420195284594272</v>
       </c>
       <c r="NL3">
-        <v>2.2050323980341</v>
+        <v>-0.3283401369863557</v>
       </c>
       <c r="NM3">
-        <v>2.282799214867756</v>
+        <v>-0.3409110898884771</v>
       </c>
       <c r="NN3">
-        <v>2.313998198255682</v>
+        <v>-0.3461161651268967</v>
       </c>
       <c r="NO3">
-        <v>2.323243506507332</v>
+        <v>-0.3475957246010952</v>
       </c>
       <c r="NP3">
-        <v>2.302894627397702</v>
+        <v>-0.3443304175993357</v>
       </c>
       <c r="NQ3">
-        <v>2.28925060173591</v>
+        <v>-0.3420550254506854</v>
       </c>
       <c r="NR3">
-        <v>2.205160149271042</v>
+        <v>-0.3283544492336911</v>
       </c>
       <c r="NS3">
-        <v>2.283116437857492</v>
+        <v>-0.3409821359638802</v>
       </c>
       <c r="NT3">
-        <v>2.314023868426658</v>
+        <v>-0.34612071723792</v>
       </c>
       <c r="NU3">
-        <v>2.324382522452507</v>
+        <v>-0.3477821436634022</v>
       </c>
       <c r="NV3">
-        <v>2.316224621702625</v>
+        <v>-0.3465443812679233</v>
       </c>
       <c r="NW3">
-        <v>2.291080882849817</v>
+        <v>-0.3422729943594974</v>
       </c>
       <c r="NX3">
-        <v>2.289250601735918</v>
+        <v>-0.3420550254507057</v>
       </c>
       <c r="NY3">
-        <v>2.205629695251083</v>
+        <v>-0.3284070614545799</v>
       </c>
       <c r="NZ3">
-        <v>2.284201542468354</v>
+        <v>-0.3412252539273521</v>
       </c>
       <c r="OA3">
-        <v>2.31404418037388</v>
+        <v>-0.3461243192154992</v>
       </c>
       <c r="OB3">
-        <v>2.325739758559092</v>
+        <v>-0.3480043479981664</v>
       </c>
       <c r="OC3">
-        <v>2.316817501351566</v>
+        <v>-0.34664295562668</v>
       </c>
       <c r="OD3">
-        <v>2.291749424224255</v>
+        <v>-0.3423526619843499</v>
       </c>
       <c r="OE3">
-        <v>2.289250601735969</v>
+        <v>-0.3420550254508162</v>
       </c>
       <c r="OF3">
-        <v>2.314079040122978</v>
+        <v>-0.3461305010893115</v>
       </c>
       <c r="OG3">
-        <v>2.327708379100479</v>
+        <v>-0.3483267822556598</v>
       </c>
       <c r="OH3">
-        <v>2.318446548618702</v>
+        <v>-0.3469397442316049</v>
       </c>
       <c r="OI3">
-        <v>2.326718446845867</v>
+        <v>-0.3482750648288204</v>
       </c>
       <c r="OJ3">
-        <v>2.291817461549525</v>
+        <v>-0.3423607712668921</v>
       </c>
       <c r="OK3">
-        <v>2.289250601735973</v>
+        <v>-0.3420550254508251</v>
       </c>
       <c r="OL3">
-        <v>2.314200727403731</v>
+        <v>-0.3461520814807841</v>
       </c>
       <c r="OM3">
-        <v>2.329167329897379</v>
+        <v>-0.3485658425531485</v>
       </c>
       <c r="ON3">
-        <v>2.318595750962931</v>
+        <v>-0.3469669397419499</v>
       </c>
       <c r="OO3">
-        <v>2.331490566420585</v>
+        <v>-0.3490625906343921</v>
       </c>
       <c r="OP3">
-        <v>2.291864941451207</v>
+        <v>-0.3423664305029949</v>
       </c>
       <c r="OQ3">
-        <v>2.289250601735974</v>
+        <v>-0.3420550254508282</v>
       </c>
       <c r="OR3">
-        <v>2.314944531602889</v>
+        <v>-0.3462840206318699</v>
       </c>
       <c r="OS3">
-        <v>2.330574285993067</v>
+        <v>-0.3487964664389611</v>
       </c>
       <c r="OT3">
-        <v>2.318680564893059</v>
+        <v>-0.3469823999785989</v>
       </c>
       <c r="OU3">
-        <v>2.345869486685508</v>
+        <v>-0.3514389277783679</v>
       </c>
       <c r="OV3">
-        <v>2.331490566420559</v>
+        <v>-0.3490625906344062</v>
       </c>
       <c r="OW3">
-        <v>2.291914125326924</v>
+        <v>-0.3423722929841948</v>
       </c>
       <c r="OX3">
-        <v>2.289250601735974</v>
+        <v>-0.3420550254508296</v>
       </c>
       <c r="OY3">
-        <v>2.331950857290472</v>
+        <v>-0.3490221889623232</v>
       </c>
       <c r="OZ3">
-        <v>2.31873815372089</v>
+        <v>-0.3469928979129273</v>
       </c>
       <c r="PA3">
-        <v>2.366302533737218</v>
+        <v>-0.3548247033680925</v>
       </c>
       <c r="PB3">
-        <v>2.331490566420552</v>
+        <v>-0.3490625906344051</v>
       </c>
       <c r="PC3">
-        <v>2.292120656860828</v>
+        <v>-0.3423969121552045</v>
       </c>
       <c r="PD3">
-        <v>2.289250601735975</v>
+        <v>-0.3420550254508343</v>
       </c>
       <c r="PE3">
-        <v>2.33360584903875</v>
+        <v>-0.3492936691139496</v>
       </c>
       <c r="PF3">
-        <v>2.318832005030095</v>
+        <v>-0.3470100068752268</v>
       </c>
       <c r="PG3">
-        <v>2.370571551030365</v>
+        <v>-0.3555334072271498</v>
       </c>
       <c r="PH3">
-        <v>2.331490566420548</v>
+        <v>-0.3490625906343998</v>
       </c>
       <c r="PI3">
-        <v>2.292171084062355</v>
+        <v>-0.3424029236212717</v>
       </c>
       <c r="PJ3">
-        <v>2.289250601735978</v>
+        <v>-0.3420550254508846</v>
       </c>
       <c r="PK3">
-        <v>2.336376328436581</v>
+        <v>-0.3497483845101881</v>
       </c>
       <c r="PL3">
-        <v>2.33360584903875</v>
+        <v>-0.3492936691139496</v>
       </c>
       <c r="PM3">
-        <v>2.319143943674135</v>
+        <v>-0.3470668790716849</v>
       </c>
       <c r="PN3">
-        <v>2.371662283467591</v>
+        <v>-0.3557145543386396</v>
       </c>
       <c r="PO3">
-        <v>2.331490566420548</v>
+        <v>-0.3490625906343947</v>
       </c>
       <c r="PP3">
-        <v>2.292219185045087</v>
+        <v>-0.3424086579211626</v>
       </c>
       <c r="PQ3">
-        <v>2.28925060173598</v>
+        <v>-0.3420550254509033</v>
       </c>
       <c r="PR3">
-        <v>2.345708710306345</v>
+        <v>-0.3512824392340014</v>
       </c>
       <c r="PS3">
-        <v>2.336376328436582</v>
+        <v>-0.349748384510188</v>
       </c>
       <c r="PT3">
-        <v>2.319491177014251</v>
+        <v>-0.347130197391673</v>
       </c>
       <c r="PU3">
-        <v>2.372233640888969</v>
+        <v>-0.3558094564205373</v>
       </c>
       <c r="PV3">
-        <v>2.33149056642055</v>
+        <v>-0.3490625906343905</v>
       </c>
       <c r="PW3">
-        <v>2.29226702335702</v>
+        <v>-0.3424143610467064</v>
       </c>
       <c r="PX3">
-        <v>2.289250601735981</v>
+        <v>-0.3420550254509086</v>
       </c>
       <c r="PY3">
-        <v>2.358876249878878</v>
+        <v>-0.3534530799854415</v>
       </c>
       <c r="PZ3">
-        <v>2.345708710306345</v>
+        <v>-0.3512824392340014</v>
       </c>
       <c r="QA3">
-        <v>2.31968643554027</v>
+        <v>-0.3471658081699228</v>
       </c>
       <c r="QB3">
-        <v>2.372707257392149</v>
+        <v>-0.3558881300299835</v>
       </c>
       <c r="QC3">
-        <v>2.331490566420561</v>
+        <v>-0.3490625906343864</v>
       </c>
       <c r="QD3">
-        <v>2.292321898781394</v>
+        <v>-0.3424209032850418</v>
       </c>
       <c r="QE3">
-        <v>2.289250601735981</v>
+        <v>-0.3420550254509189</v>
       </c>
       <c r="QF3">
-        <v>2.368301580575312</v>
+        <v>-0.3550112738469547</v>
       </c>
       <c r="QG3">
-        <v>2.358876249878878</v>
+        <v>-0.3534530799854415</v>
       </c>
       <c r="QH3">
-        <v>2.319869844392306</v>
+        <v>-0.3471992612471619</v>
       </c>
       <c r="QI3">
-        <v>2.373091075862872</v>
+        <v>-0.35595189120788</v>
       </c>
       <c r="QJ3">
-        <v>2.331490566420575</v>
+        <v>-0.349062590634383</v>
       </c>
       <c r="QK3">
-        <v>2.29251139726417</v>
+        <v>-0.3424434966694943</v>
       </c>
       <c r="QL3">
-        <v>2.289250601735981</v>
+        <v>-0.3420550254509281</v>
       </c>
       <c r="QM3">
-        <v>2.371157412301545</v>
+        <v>-0.3554841344208936</v>
       </c>
       <c r="QN3">
-        <v>2.368301580575312</v>
+        <v>-0.3550112738469547</v>
       </c>
       <c r="QO3">
-        <v>2.32004481728143</v>
+        <v>-0.347231178719708</v>
       </c>
       <c r="QP3">
-        <v>2.373677731889618</v>
+        <v>-0.356049355589176</v>
       </c>
       <c r="QQ3">
-        <v>2.33149056642059</v>
+        <v>-0.3490625906343808</v>
       </c>
       <c r="QR3">
-        <v>2.293434626267874</v>
+        <v>-0.3425536019991943</v>
       </c>
       <c r="QS3">
-        <v>2.289250601735978</v>
+        <v>-0.3420550254509382</v>
       </c>
       <c r="QT3">
-        <v>2.378679848867717</v>
+        <v>-0.3566629788098271</v>
       </c>
       <c r="QU3">
-        <v>2.371157412301545</v>
+        <v>-0.3554841344208937</v>
       </c>
       <c r="QV3">
-        <v>2.371896277057405</v>
+        <v>-0.3556612946566508</v>
       </c>
       <c r="QW3">
-        <v>2.320332066398352</v>
+        <v>-0.347283583456152</v>
       </c>
       <c r="QX3">
-        <v>2.374206555091225</v>
+        <v>-0.3561372193119708</v>
       </c>
       <c r="QY3">
-        <v>2.331490566420598</v>
+        <v>-0.3490625906343761</v>
       </c>
       <c r="QZ3">
-        <v>2.289250601735975</v>
+        <v>-0.342055025450949</v>
       </c>
       <c r="RA3">
-        <v>2.387023225926342</v>
+        <v>-0.3579730865473632</v>
       </c>
       <c r="RB3">
-        <v>2.378679848867717</v>
+        <v>-0.3566629788098271</v>
       </c>
       <c r="RC3">
-        <v>2.378679848867717</v>
+        <v>-0.3566629788098271</v>
       </c>
       <c r="RD3">
-        <v>2.372004158272632</v>
+        <v>-0.3556871679110639</v>
       </c>
       <c r="RE3">
-        <v>2.320532118648159</v>
+        <v>-0.3473200850918076</v>
       </c>
       <c r="RF3">
-        <v>2.374709830722066</v>
+        <v>-0.3562208448576187</v>
       </c>
       <c r="RG3">
-        <v>2.331490566420612</v>
+        <v>-0.3490625906343777</v>
       </c>
       <c r="RH3">
-        <v>2.289250601735957</v>
+        <v>-0.3420550254509964</v>
       </c>
       <c r="RI3">
-        <v>2.390076860264129</v>
+        <v>-0.3584532681682454</v>
       </c>
       <c r="RJ3">
-        <v>2.387023225926342</v>
+        <v>-0.3579730865473632</v>
       </c>
       <c r="RK3">
-        <v>2.372062980842369</v>
+        <v>-0.3557012760486396</v>
       </c>
       <c r="RL3">
-        <v>2.32067266885124</v>
+        <v>-0.3473457323083802</v>
       </c>
       <c r="RM3">
-        <v>2.375276761947523</v>
+        <v>-0.3563150552167414</v>
       </c>
       <c r="RN3">
-        <v>2.331490566420625</v>
+        <v>-0.3490625906343849</v>
       </c>
       <c r="RO3">
-        <v>2.289250601735956</v>
+        <v>-0.3420550254509986</v>
       </c>
       <c r="RP3">
-        <v>2.394911883210902</v>
+        <v>-0.3591266414171603</v>
       </c>
       <c r="RQ3">
-        <v>2.390076860264129</v>
+        <v>-0.3584532681682454</v>
       </c>
       <c r="RR3">
-        <v>2.394284412755232</v>
+        <v>-0.359343104047102</v>
       </c>
       <c r="RS3">
-        <v>2.372102827623211</v>
+        <v>-0.355710833256825</v>
       </c>
       <c r="RT3">
-        <v>2.320739821398343</v>
+        <v>-0.3473579868076208</v>
       </c>
       <c r="RU3">
-        <v>2.375875578527584</v>
+        <v>-0.3564145729471289</v>
       </c>
       <c r="RV3">
-        <v>2.331490566420641</v>
+        <v>-0.3490625906343895</v>
       </c>
       <c r="RW3">
-        <v>2.289250601735954</v>
+        <v>-0.3420550254510001</v>
       </c>
       <c r="RX3">
-        <v>2.401832748335992</v>
+        <v>-0.3600919166809626</v>
       </c>
       <c r="RY3">
-        <v>2.394911883210902</v>
+        <v>-0.3591266414171603</v>
       </c>
       <c r="RZ3">
-        <v>2.39440204154441</v>
+        <v>-0.3593723020700323</v>
       </c>
       <c r="SA3">
-        <v>2.395121158149478</v>
+        <v>-0.359490068054746</v>
       </c>
       <c r="SB3">
-        <v>2.372163350939836</v>
+        <v>-0.3557253501220763</v>
       </c>
       <c r="SC3">
-        <v>2.320782359632155</v>
+        <v>-0.3473657497323631</v>
       </c>
       <c r="SD3">
-        <v>2.377184713129619</v>
+        <v>-0.3566321703680408</v>
       </c>
       <c r="SE3">
-        <v>2.331490566420656</v>
+        <v>-0.3490625906343973</v>
       </c>
       <c r="SF3">
-        <v>2.289250601735953</v>
+        <v>-0.3420550254510005</v>
       </c>
       <c r="SG3">
-        <v>2.406051198221253</v>
+        <v>-0.3606810916363895</v>
       </c>
       <c r="SH3">
-        <v>2.401832748335992</v>
+        <v>-0.3600919166809626</v>
       </c>
       <c r="SI3">
-        <v>2.394451758547901</v>
+        <v>-0.359384643499079</v>
       </c>
       <c r="SJ3">
-        <v>2.395656412384528</v>
+        <v>-0.35958411344627</v>
       </c>
       <c r="SK3">
-        <v>2.372255197856563</v>
+        <v>-0.3557473810816559</v>
       </c>
       <c r="SL3">
-        <v>2.320811120251257</v>
+        <v>-0.347370998441426</v>
       </c>
       <c r="SM3">
-        <v>2.406816737306116</v>
+        <v>-0.3615690247708939</v>
       </c>
       <c r="SN3">
-        <v>2.331490566420667</v>
+        <v>-0.3490625906343978</v>
       </c>
       <c r="SO3">
-        <v>2.289250601735953</v>
+        <v>-0.3420550254510005</v>
       </c>
       <c r="SP3">
-        <v>2.406777266952168</v>
+        <v>-0.3607825612103909</v>
       </c>
       <c r="SQ3">
-        <v>2.406051198221253</v>
+        <v>-0.3606810916363895</v>
       </c>
       <c r="SR3">
-        <v>2.394480970758313</v>
+        <v>-0.3593918951131466</v>
       </c>
       <c r="SS3">
-        <v>2.37232035787762</v>
+        <v>-0.3557630114539603</v>
       </c>
       <c r="ST3">
-        <v>2.320851237205436</v>
+        <v>-0.3473783197765541</v>
       </c>
       <c r="SU3">
-        <v>2.407991921724961</v>
+        <v>-0.3617026519149178</v>
       </c>
       <c r="SV3">
-        <v>2.411128082985171</v>
+        <v>-0.3623016449320402</v>
       </c>
       <c r="SW3">
-        <v>2.331490566420679</v>
+        <v>-0.3490625906343947</v>
       </c>
       <c r="SX3">
-        <v>2.408075773855779</v>
+        <v>-0.3609976702632272</v>
       </c>
       <c r="SY3">
-        <v>2.406777266952167</v>
+        <v>-0.3607825612103909</v>
       </c>
       <c r="SZ3">
-        <v>2.408717356893935</v>
+        <v>-0.3609547473773844</v>
       </c>
       <c r="TA3">
-        <v>2.394507854439283</v>
+        <v>-0.3593985688016221</v>
       </c>
       <c r="TB3">
-        <v>2.372364874864306</v>
+        <v>-0.3557736903739114</v>
       </c>
       <c r="TC3">
-        <v>2.320881854286688</v>
+        <v>-0.3473839074935626</v>
       </c>
       <c r="TD3">
-        <v>2.40902775286751</v>
+        <v>-0.3618204997162446</v>
       </c>
       <c r="TE3">
-        <v>2.413452929588827</v>
+        <v>-0.3626969021425657</v>
       </c>
       <c r="TF3">
-        <v>2.331490566420686</v>
+        <v>-0.3490625906343983</v>
       </c>
       <c r="TG3">
-        <v>2.409031394956293</v>
+        <v>-0.3611560226199104</v>
       </c>
       <c r="TH3">
-        <v>2.408075773855779</v>
+        <v>-0.3609976702632272</v>
       </c>
       <c r="TI3">
-        <v>2.409862990264743</v>
+        <v>-0.3610565020917965</v>
       </c>
       <c r="TJ3">
-        <v>2.394531805261469</v>
+        <v>-0.3594045145141547</v>
       </c>
       <c r="TK3">
-        <v>2.37240005138088</v>
+        <v>-0.3557821288531369</v>
       </c>
       <c r="TL3">
-        <v>2.321100332138373</v>
+        <v>-0.3474237830906641</v>
       </c>
       <c r="TM3">
-        <v>2.413800071569265</v>
+        <v>-0.3627559332624163</v>
       </c>
       <c r="TN3">
-        <v>2.331490566420689</v>
+        <v>-0.3490625906344045</v>
       </c>
       <c r="TO3">
-        <v>2.410332154460214</v>
+        <v>-0.3613716283650018</v>
       </c>
       <c r="TP3">
-        <v>2.409031394956294</v>
+        <v>-0.3611560226199104</v>
       </c>
       <c r="TQ3">
-        <v>2.410770303875425</v>
+        <v>-0.3611371304089762</v>
       </c>
       <c r="TR3">
-        <v>2.394556651242028</v>
+        <v>-0.3594106825324727</v>
       </c>
       <c r="TS3">
-        <v>2.372512832845907</v>
+        <v>-0.3558091850812518</v>
       </c>
       <c r="TT3">
-        <v>2.321490901327936</v>
+        <v>-0.3474721826650397</v>
       </c>
       <c r="TU3">
-        <v>2.322202532367884</v>
+        <v>-0.3476915239041669</v>
       </c>
       <c r="TV3">
-        <v>2.414065047236106</v>
+        <v>-0.3628009941902013</v>
       </c>
       <c r="TW3">
-        <v>2.331490566420695</v>
+        <v>-0.3490625906344056</v>
       </c>
       <c r="TX3">
-        <v>2.41125242263049</v>
+        <v>-0.3615242093123534</v>
       </c>
       <c r="TY3">
-        <v>2.410332154460215</v>
+        <v>-0.3613716283650018</v>
       </c>
       <c r="TZ3">
-        <v>2.411145103129285</v>
+        <v>-0.3611704475027823</v>
       </c>
       <c r="UA3">
-        <v>2.394631655539061</v>
+        <v>-0.359429302889447</v>
       </c>
       <c r="UB3">
-        <v>2.373424854023848</v>
+        <v>-0.3560280419977735</v>
       </c>
       <c r="UC3">
-        <v>2.32192209814722</v>
+        <v>-0.3475256280929256</v>
       </c>
       <c r="UD3">
-        <v>2.414312859670027</v>
+        <v>-0.3628431380388405</v>
       </c>
       <c r="UE3">
-        <v>2.3314905664207</v>
+        <v>-0.3490625906344014</v>
       </c>
       <c r="UF3">
-        <v>2.41382501459621</v>
+        <v>-0.3619509358417327</v>
       </c>
       <c r="UG3">
-        <v>2.41125242263049</v>
+        <v>-0.3615242093123534</v>
       </c>
       <c r="UH3">
-        <v>2.411203094008089</v>
+        <v>-0.3611773786958373</v>
       </c>
       <c r="UI3">
-        <v>2.411933307719806</v>
+        <v>-0.3612171755855375</v>
       </c>
       <c r="UJ3">
-        <v>2.394707239253796</v>
+        <v>-0.359448067895408</v>
       </c>
       <c r="UK3">
-        <v>2.373470261871618</v>
+        <v>-0.356038941428956</v>
       </c>
       <c r="UL3">
-        <v>2.323090458866229</v>
+        <v>-0.347670501940643</v>
       </c>
       <c r="UM3">
-        <v>2.414577111935192</v>
+        <v>-0.3628880794556931</v>
       </c>
       <c r="UN3">
-        <v>2.331490566420703</v>
+        <v>-0.349062590634401</v>
       </c>
       <c r="UO3">
-        <v>2.415686923545616</v>
+        <v>-0.3622599525996085</v>
       </c>
       <c r="UP3">
-        <v>2.41382501459621</v>
+        <v>-0.3619509358417327</v>
       </c>
       <c r="UQ3">
-        <v>2.411224432510488</v>
+        <v>-0.361179929170633</v>
       </c>
       <c r="UR3">
-        <v>2.412529400755913</v>
+        <v>-0.3612525263065288</v>
       </c>
       <c r="US3">
-        <v>2.395413338699539</v>
+        <v>-0.3596234086987058</v>
       </c>
       <c r="UT3">
-        <v>2.373506089584977</v>
+        <v>-0.3560475414988943</v>
       </c>
       <c r="UU3">
-        <v>2.414810935383605</v>
+        <v>-0.3629278473486551</v>
       </c>
       <c r="UV3">
-        <v>2.331490566420703</v>
+        <v>-0.349062590634401</v>
       </c>
       <c r="UW3">
-        <v>2.415896626975734</v>
+        <v>-0.3622909109746858</v>
       </c>
       <c r="UX3">
-        <v>2.415686923545616</v>
+        <v>-0.3622599525996085</v>
       </c>
       <c r="UY3">
-        <v>2.417214861042043</v>
+        <v>-0.3625424428722412</v>
       </c>
       <c r="UZ3">
-        <v>2.411256217413608</v>
+        <v>-0.3611837282982442</v>
       </c>
       <c r="VA3">
-        <v>2.373546593083003</v>
+        <v>-0.3560572641521655</v>
       </c>
       <c r="VB3">
-        <v>2.415050087912468</v>
+        <v>-0.3629685230590127</v>
       </c>
       <c r="VC3">
-        <v>2.415946279493203</v>
+        <v>-0.3622982413801152</v>
       </c>
       <c r="VD3">
-        <v>2.415896626975734</v>
+        <v>-0.3622909109746858</v>
       </c>
       <c r="VE3">
-        <v>2.417407943453923</v>
+        <v>-0.3625781571931664</v>
       </c>
       <c r="VF3">
-        <v>2.411275342893967</v>
+        <v>-0.3611860143232939</v>
       </c>
       <c r="VG3">
-        <v>2.373582641849216</v>
+        <v>-0.3560659176576418</v>
       </c>
       <c r="VH3">
-        <v>2.416284304308133</v>
+        <v>-0.3631784654937834</v>
       </c>
       <c r="VI3">
-        <v>2.417292135105968</v>
+        <v>-0.3624969702943061</v>
       </c>
       <c r="VJ3">
-        <v>2.415946279493202</v>
+        <v>-0.3622982413801151</v>
       </c>
       <c r="VK3">
-        <v>2.415946279493281</v>
+        <v>-0.3622982413802252</v>
       </c>
       <c r="VL3">
-        <v>2.417550414576715</v>
+        <v>-0.3626045123665629</v>
       </c>
       <c r="VM3">
-        <v>2.411298420079373</v>
+        <v>-0.3611887727163522</v>
       </c>
       <c r="VN3">
-        <v>2.373624133244313</v>
+        <v>-0.3560758778844491</v>
       </c>
       <c r="VO3">
-        <v>2.417234915046695</v>
+        <v>-0.3634682792488386</v>
       </c>
       <c r="VP3">
-        <v>2.418808198583791</v>
+        <v>-0.3635893408061452</v>
       </c>
       <c r="VQ3">
-        <v>2.418235094627391</v>
+        <v>-0.3626362475126248</v>
       </c>
       <c r="VR3">
-        <v>2.417292135105968</v>
+        <v>-0.3624969702943061</v>
       </c>
       <c r="VS3">
-        <v>2.415946279493308</v>
+        <v>-0.362298241380265</v>
       </c>
       <c r="VT3">
-        <v>2.417689031195295</v>
+        <v>-0.3626301564567228</v>
       </c>
       <c r="VU3">
-        <v>2.411318682627126</v>
+        <v>-0.3611911947053624</v>
       </c>
       <c r="VV3">
-        <v>2.373666675227211</v>
+        <v>-0.3560860905530477</v>
       </c>
       <c r="VW3">
-        <v>2.417289683450266</v>
+        <v>-0.3634849815477061</v>
       </c>
       <c r="VX3">
-        <v>2.43085768964172</v>
+        <v>-0.365553093907574</v>
       </c>
       <c r="VY3">
-        <v>2.419178799382807</v>
+        <v>-0.3626931688766145</v>
       </c>
       <c r="VZ3">
-        <v>2.418347255556222</v>
+        <v>-0.3626626042191121</v>
       </c>
       <c r="WA3">
-        <v>2.415946279493324</v>
+        <v>-0.3622982413802945</v>
       </c>
       <c r="WB3">
-        <v>2.418990719133166</v>
+        <v>-0.3628710625670553</v>
       </c>
       <c r="WC3">
-        <v>2.411451269345991</v>
+        <v>-0.3612070434579523</v>
       </c>
       <c r="WD3">
-        <v>2.37371780943004</v>
+        <v>-0.3560983662032641</v>
       </c>
       <c r="WE3">
-        <v>2.417317189656411</v>
+        <v>-0.3634933701092118</v>
       </c>
       <c r="WF3">
-        <v>2.432758523994068</v>
+        <v>-0.3659936035393867</v>
       </c>
       <c r="WG3">
-        <v>2.444204224456439</v>
+        <v>-0.3676775994674372</v>
       </c>
       <c r="WH3">
-        <v>2.420020216823558</v>
+        <v>-0.3627439310655245</v>
       </c>
       <c r="WI3">
-        <v>2.419178799382807</v>
+        <v>-0.3626931688766145</v>
       </c>
       <c r="WJ3">
-        <v>2.419178799382805</v>
+        <v>-0.3626931688766145</v>
       </c>
       <c r="WK3">
-        <v>2.420736367117704</v>
+        <v>-0.3632241646732798</v>
       </c>
       <c r="WL3">
-        <v>2.418347255556222</v>
+        <v>-0.3626626042191121</v>
       </c>
       <c r="WM3">
-        <v>2.415946279493343</v>
+        <v>-0.3622982413803318</v>
       </c>
       <c r="WN3">
-        <v>2.4195962731432</v>
+        <v>-0.3629831914645446</v>
       </c>
       <c r="WO3">
-        <v>2.41242862304349</v>
+        <v>-0.361323904537641</v>
       </c>
       <c r="WP3">
-        <v>2.373749866325357</v>
+        <v>-0.356106062196751</v>
       </c>
       <c r="WQ3">
-        <v>2.41734025483588</v>
+        <v>-0.3635004043976511</v>
       </c>
       <c r="WR3">
-        <v>2.433760936053189</v>
+        <v>-0.3662260974403641</v>
       </c>
       <c r="WS3">
-        <v>2.45696613720539</v>
+        <v>-0.3697130560584089</v>
       </c>
       <c r="WT3">
-        <v>2.420796565037736</v>
+        <v>-0.3627907587425295</v>
       </c>
       <c r="WU3">
-        <v>2.420020216823559</v>
+        <v>-0.3627439310655245</v>
       </c>
       <c r="WV3">
-        <v>2.420020216823559</v>
+        <v>-0.3627439310655245</v>
       </c>
       <c r="WW3">
-        <v>2.421298313526031</v>
+        <v>-0.3633563599441919</v>
       </c>
       <c r="WX3">
-        <v>2.415946279493354</v>
+        <v>-0.362298241380348</v>
       </c>
       <c r="WY3">
-        <v>2.419880426596081</v>
+        <v>-0.3630358200862544</v>
       </c>
       <c r="WZ3">
-        <v>2.373887630747088</v>
+        <v>-0.3561391372965455</v>
       </c>
       <c r="XA3">
-        <v>2.417359063503121</v>
+        <v>-0.3635061406304474</v>
       </c>
       <c r="XB3">
-        <v>2.457303304701203</v>
+        <v>-0.3697532718817495</v>
       </c>
       <c r="XC3">
-        <v>2.460338809596838</v>
+        <v>-0.3702602776272627</v>
       </c>
       <c r="XD3">
-        <v>2.421853629862337</v>
+        <v>-0.3628545506313702</v>
       </c>
       <c r="XE3">
-        <v>2.415946279493367</v>
+        <v>-0.3622982413803645</v>
       </c>
       <c r="XF3">
-        <v>2.420069940875875</v>
+        <v>-0.363070924892508</v>
       </c>
       <c r="XG3">
-        <v>2.374468334042237</v>
+        <v>-0.3562785834788303</v>
       </c>
       <c r="XH3">
-        <v>2.41738858729032</v>
+        <v>-0.3635151448703383</v>
       </c>
       <c r="XI3">
-        <v>2.457385971200463</v>
+        <v>-0.3697631330264433</v>
       </c>
       <c r="XJ3">
-        <v>2.461114549068532</v>
+        <v>-0.3703861821977709</v>
       </c>
       <c r="XK3">
-        <v>2.422163569457446</v>
+        <v>-0.3628732619031688</v>
       </c>
       <c r="XL3">
-        <v>2.415946279493377</v>
+        <v>-0.3622982413803727</v>
       </c>
       <c r="XM3">
-        <v>2.420359641274628</v>
+        <v>-0.3631245946918697</v>
       </c>
       <c r="XN3">
-        <v>2.417458986864416</v>
+        <v>-0.3635366161502859</v>
       </c>
       <c r="XO3">
-        <v>2.457442734194277</v>
+        <v>-0.3697699044273639</v>
       </c>
       <c r="XP3">
-        <v>2.461499479049404</v>
+        <v>-0.3704486628502623</v>
       </c>
       <c r="XQ3">
-        <v>2.423189058303</v>
+        <v>-0.3629351940146003</v>
       </c>
       <c r="XR3">
-        <v>2.415946279493384</v>
+        <v>-0.3622982413803781</v>
       </c>
       <c r="XS3">
-        <v>2.420925312414903</v>
+        <v>-0.3632294149662861</v>
       </c>
       <c r="XT3">
-        <v>2.41750769064721</v>
+        <v>-0.363551470922178</v>
       </c>
       <c r="XU3">
-        <v>2.45752141756259</v>
+        <v>-0.3697792910895375</v>
       </c>
       <c r="XV3">
-        <v>2.461922464744644</v>
+        <v>-0.3705173247947813</v>
       </c>
       <c r="XW3">
-        <v>2.41594627949339</v>
+        <v>-0.3622982413803814</v>
       </c>
       <c r="XX3">
-        <v>2.421081652696313</v>
+        <v>-0.3632583908642757</v>
       </c>
       <c r="XY3">
-        <v>2.417569615650242</v>
+        <v>-0.3635703588200453</v>
       </c>
       <c r="XZ3">
-        <v>2.457707988053641</v>
+        <v>-0.3698015498304472</v>
       </c>
       <c r="YA3">
-        <v>2.462410498284834</v>
+        <v>-0.3705965512242511</v>
       </c>
       <c r="YB3">
-        <v>2.415946279493395</v>
+        <v>-0.3622982413803825</v>
       </c>
       <c r="YC3">
-        <v>2.421127038699703</v>
+        <v>-0.3632668031038973</v>
       </c>
       <c r="YD3">
-        <v>2.417607233708763</v>
+        <v>-0.3635818331366878</v>
       </c>
       <c r="YE3">
-        <v>2.457849801745905</v>
+        <v>-0.3698184702916417</v>
       </c>
       <c r="YF3">
-        <v>2.462903835420309</v>
+        <v>-0.3706766445882396</v>
       </c>
       <c r="YG3">
-        <v>2.4159462794934</v>
+        <v>-0.3622982413803837</v>
       </c>
       <c r="YH3">
-        <v>2.421147977483395</v>
+        <v>-0.3632717078729965</v>
       </c>
       <c r="YI3">
-        <v>2.421224938201481</v>
+        <v>-0.3632795116584187</v>
       </c>
       <c r="YJ3">
-        <v>2.417641194238413</v>
+        <v>-0.3635921920490158</v>
       </c>
       <c r="YK3">
-        <v>2.457949347325467</v>
+        <v>-0.3698303482763002</v>
       </c>
       <c r="YL3">
-        <v>2.46345072630172</v>
+        <v>-0.3707654394144973</v>
       </c>
       <c r="YM3">
-        <v>2.41594627949341</v>
+        <v>-0.362298241380382</v>
       </c>
       <c r="YN3">
-        <v>2.42116757422405</v>
+        <v>-0.3632762983299205</v>
       </c>
       <c r="YO3">
-        <v>2.421354116335631</v>
+        <v>-0.3632962815436283</v>
       </c>
       <c r="YP3">
-        <v>2.417698468680954</v>
+        <v>-0.3636096628317786</v>
       </c>
       <c r="YQ3">
-        <v>2.458053625182226</v>
+        <v>-0.3698427915732874</v>
       </c>
       <c r="YR3">
-        <v>2.464245950648807</v>
+        <v>-0.370894567538973</v>
       </c>
       <c r="YS3">
-        <v>2.415946279493412</v>
+        <v>-0.3622982413803805</v>
       </c>
       <c r="YT3">
-        <v>2.421187761212483</v>
+        <v>-0.3632810271029365</v>
       </c>
       <c r="YU3">
-        <v>2.421890700588751</v>
+        <v>-0.3633659527778864</v>
       </c>
       <c r="YV3">
-        <v>2.417754775747333</v>
+        <v>-0.3636268391102268</v>
       </c>
       <c r="YW3">
-        <v>2.458139234627543</v>
+        <v>-0.3698530076959547</v>
       </c>
       <c r="YX3">
-        <v>2.464543048002722</v>
+        <v>-0.3709646885428551</v>
       </c>
       <c r="YY3">
-        <v>2.466016169605453</v>
+        <v>-0.3711512295678501</v>
       </c>
       <c r="YZ3">
-        <v>2.415946279493412</v>
+        <v>-0.3622982413803812</v>
       </c>
       <c r="ZA3">
-        <v>2.421333712144641</v>
+        <v>-0.3633152174976265</v>
       </c>
       <c r="ZB3">
-        <v>2.422118535326248</v>
+        <v>-0.3633955411494231</v>
       </c>
       <c r="ZC3">
-        <v>2.417781416678025</v>
+        <v>-0.363634966035814</v>
       </c>
       <c r="ZD3">
-        <v>2.458280972956265</v>
+        <v>-0.3698699228875554</v>
       </c>
       <c r="ZE3">
-        <v>2.464721435648031</v>
+        <v>-0.3710067972797369</v>
       </c>
       <c r="ZF3">
-        <v>2.477216132888372</v>
+        <v>-0.3727766727409492</v>
       </c>
       <c r="ZG3">
-        <v>2.415946279493411</v>
+        <v>-0.3622982413803812</v>
       </c>
       <c r="ZH3">
-        <v>2.42239625018178</v>
+        <v>-0.3635642118313586</v>
       </c>
       <c r="ZI3">
-        <v>2.417810677753446</v>
+        <v>-0.3636438923958256</v>
       </c>
       <c r="ZJ3">
-        <v>2.458738966603408</v>
+        <v>-0.3699245886668839</v>
       </c>
       <c r="ZK3">
-        <v>2.464886903062746</v>
+        <v>-0.3710458599512624</v>
       </c>
       <c r="ZL3">
-        <v>2.485223013823127</v>
+        <v>-0.3739403742183963</v>
       </c>
       <c r="ZM3">
-        <v>2.417838761753983</v>
+        <v>-0.3636524598245221</v>
       </c>
       <c r="ZN3">
-        <v>2.459808752737704</v>
+        <v>-0.3700523273470125</v>
       </c>
       <c r="ZO3">
-        <v>2.465048343063988</v>
+        <v>-0.3710839753583198</v>
       </c>
       <c r="ZP3">
-        <v>2.488286910504124</v>
+        <v>-0.374655470703862</v>
       </c>
       <c r="ZQ3">
-        <v>2.504810486914492</v>
+        <v>-0.3765039896611083</v>
       </c>
       <c r="ZR3">
-        <v>2.417872630346965</v>
+        <v>-0.3636627921169077</v>
       </c>
       <c r="ZS3">
-        <v>2.465169426102901</v>
+        <v>-0.3711125649036974</v>
       </c>
       <c r="ZT3">
-        <v>2.488414246088126</v>
+        <v>-0.3746939485736613</v>
       </c>
       <c r="ZU3">
-        <v>2.488730632083117</v>
+        <v>-0.3747347576371357</v>
       </c>
       <c r="ZV3">
-        <v>2.506698976502987</v>
+        <v>-0.3768462007663425</v>
       </c>
       <c r="ZW3">
-        <v>2.508519283366144</v>
+        <v>-0.3769720811751609</v>
       </c>
       <c r="ZX3">
-        <v>2.417926653960176</v>
+        <v>-0.3636792735328105</v>
       </c>
       <c r="ZY3">
-        <v>2.465361760765866</v>
+        <v>-0.3711579820458106</v>
       </c>
       <c r="ZZ3">
-        <v>2.488454088666469</v>
+        <v>-0.3747059886774499</v>
       </c>
       <c r="AAA3">
-        <v>2.489634284995318</v>
+        <v>-0.374896286455493</v>
       </c>
       <c r="AAB3">
-        <v>2.507792285047947</v>
+        <v>-0.3770444771706565</v>
       </c>
       <c r="AAC3">
-        <v>2.512700942256994</v>
+        <v>-0.377498779342493</v>
       </c>
       <c r="AAD3">
-        <v>2.41807450377887</v>
+        <v>-0.3637243819697064</v>
       </c>
       <c r="AAE3">
-        <v>2.465686006355839</v>
+        <v>-0.3712345592415294</v>
       </c>
       <c r="AAF3">
-        <v>2.488479705908265</v>
+        <v>-0.3747137301504743</v>
       </c>
       <c r="AAG3">
-        <v>2.523713282648147</v>
+        <v>-0.3788884120902644</v>
       </c>
       <c r="AAH3">
-        <v>2.512700942256993</v>
+        <v>-0.3774987793424868</v>
       </c>
       <c r="AAI3">
-        <v>2.418271249291047</v>
+        <v>-0.3637844144592956</v>
       </c>
       <c r="AAJ3">
-        <v>2.468114038370601</v>
+        <v>-0.3718084329223738</v>
       </c>
       <c r="AAK3">
-        <v>2.48849515736431</v>
+        <v>-0.3747183996027869</v>
       </c>
       <c r="AAL3">
-        <v>2.534200584012662</v>
+        <v>-0.3803798858160201</v>
       </c>
       <c r="AAM3">
-        <v>2.525278244020844</v>
+        <v>-0.3789845557601241</v>
       </c>
       <c r="AAN3">
-        <v>2.512700942256992</v>
+        <v>-0.3774987793424793</v>
       </c>
       <c r="AAO3">
-        <v>2.418289987740564</v>
+        <v>-0.3637901324444511</v>
       </c>
       <c r="AAP3">
-        <v>2.470103923262892</v>
+        <v>-0.3722793345641543</v>
       </c>
       <c r="AAQ3">
-        <v>2.488510774229328</v>
+        <v>-0.374723119085468</v>
       </c>
       <c r="AAR3">
-        <v>2.544999615944818</v>
+        <v>-0.3819197594741559</v>
       </c>
       <c r="AAS3">
-        <v>2.52544571068612</v>
+        <v>-0.3789948484140198</v>
       </c>
       <c r="AAT3">
-        <v>2.512700942256993</v>
+        <v>-0.3774987793424711</v>
       </c>
       <c r="AAU3">
-        <v>2.41830480705871</v>
+        <v>-0.3637946545628565</v>
       </c>
       <c r="AAV3">
-        <v>2.47073401186852</v>
+        <v>-0.3724285536794379</v>
       </c>
       <c r="AAW3">
-        <v>2.488524723281529</v>
+        <v>-0.3747273345850707</v>
       </c>
       <c r="AAX3">
-        <v>2.548419172378006</v>
+        <v>-0.3824984426400342</v>
       </c>
       <c r="AAY3">
-        <v>2.548744953055857</v>
+        <v>-0.3821505514897413</v>
       </c>
       <c r="AAZ3">
-        <v>2.525509648407226</v>
+        <v>-0.3789987783045656</v>
       </c>
       <c r="ABA3">
-        <v>2.512700942256994</v>
+        <v>-0.3774987793424599</v>
       </c>
       <c r="ABB3">
-        <v>2.418319200072602</v>
+        <v>-0.3637990466326055</v>
       </c>
       <c r="ABC3">
-        <v>2.471307469783511</v>
+        <v>-0.3725644074534541</v>
       </c>
       <c r="ABD3">
-        <v>2.488540438910826</v>
+        <v>-0.3747320839982696</v>
       </c>
       <c r="ABE3">
-        <v>2.553061744466607</v>
+        <v>-0.3832849001927655</v>
       </c>
       <c r="ABF3">
-        <v>2.549246877086928</v>
+        <v>-0.3821815124288682</v>
       </c>
       <c r="ABG3">
-        <v>2.525577279834228</v>
+        <v>-0.3790029353586236</v>
       </c>
       <c r="ABH3">
-        <v>2.512700942256993</v>
+        <v>-0.377498779342452</v>
       </c>
       <c r="ABI3">
-        <v>2.418334616437088</v>
+        <v>-0.3638037510224779</v>
       </c>
       <c r="ABJ3">
-        <v>2.471619742632166</v>
+        <v>-0.3726384042322713</v>
       </c>
       <c r="ABK3">
-        <v>2.488553030224939</v>
+        <v>-0.3747358892455792</v>
       </c>
       <c r="ABL3">
-        <v>2.558491306631654</v>
+        <v>-0.3842058551771106</v>
       </c>
       <c r="ABM3">
-        <v>2.549510530308006</v>
+        <v>-0.3821977787633334</v>
       </c>
       <c r="ABN3">
-        <v>2.525633406467616</v>
+        <v>-0.3790063853587682</v>
       </c>
       <c r="ABO3">
-        <v>2.512700942256985</v>
+        <v>-0.3774987793424429</v>
       </c>
       <c r="ABP3">
-        <v>2.418348869933799</v>
+        <v>-0.3638081005951543</v>
       </c>
       <c r="ABQ3">
-        <v>2.471869109534627</v>
+        <v>-0.3726975040532928</v>
       </c>
       <c r="ABR3">
-        <v>2.488568133419924</v>
+        <v>-0.374740453651189</v>
       </c>
       <c r="ABS3">
-        <v>2.562846385016431</v>
+        <v>-0.3849454790977916</v>
       </c>
       <c r="ABT3">
-        <v>2.550270550437317</v>
+        <v>-0.3822439373802055</v>
       </c>
       <c r="ABU3">
-        <v>2.549534553054913</v>
+        <v>-0.3821992852267767</v>
       </c>
       <c r="ABV3">
-        <v>2.525699872343931</v>
+        <v>-0.3790104710141523</v>
       </c>
       <c r="ABW3">
-        <v>2.512700942256974</v>
+        <v>-0.3774987793424318</v>
       </c>
       <c r="ABX3">
-        <v>2.418362302263033</v>
+        <v>-0.3638121996155437</v>
       </c>
       <c r="ABY3">
-        <v>2.472081726222598</v>
+        <v>-0.3727479006572124</v>
       </c>
       <c r="ABZ3">
-        <v>2.488584408802599</v>
+        <v>-0.3747453723548315</v>
       </c>
       <c r="ACA3">
-        <v>2.563921245969838</v>
+        <v>-0.3850933214038781</v>
       </c>
       <c r="ACB3">
-        <v>2.565284859134986</v>
+        <v>-0.385516565702118</v>
       </c>
       <c r="ACC3">
-        <v>2.550888158614613</v>
+        <v>-0.3822814593345823</v>
       </c>
       <c r="ACD3">
-        <v>2.549551924789727</v>
+        <v>-0.3822003746170136</v>
       </c>
       <c r="ACE3">
-        <v>2.525764690790986</v>
+        <v>-0.3790144555286282</v>
       </c>
       <c r="ACF3">
-        <v>2.512700942256965</v>
+        <v>-0.3774987793424194</v>
       </c>
       <c r="ACG3">
-        <v>2.418380983925951</v>
+        <v>-0.3638179005813111</v>
       </c>
       <c r="ACH3">
-        <v>2.472331207124209</v>
+        <v>-0.3728070429032617</v>
       </c>
       <c r="ACI3">
-        <v>2.488614102078209</v>
+        <v>-0.3747543463015295</v>
       </c>
       <c r="ACJ3">
-        <v>2.56540275441664</v>
+        <v>-0.3852971608018376</v>
       </c>
       <c r="ACK3">
-        <v>2.567321026308396</v>
+        <v>-0.3859940333992796</v>
       </c>
       <c r="ACL3">
-        <v>2.549566584877976</v>
+        <v>-0.3822012939656634</v>
       </c>
       <c r="ACM3">
-        <v>2.525853799151392</v>
+        <v>-0.3790199333946839</v>
       </c>
       <c r="ACN3">
-        <v>2.512700942256958</v>
+        <v>-0.3774987793424051</v>
       </c>
       <c r="ACO3">
-        <v>2.418403877321937</v>
+        <v>-0.3638248869016593</v>
       </c>
       <c r="ACP3">
-        <v>2.472559142959446</v>
+        <v>-0.3728610849244036</v>
       </c>
       <c r="ACQ3">
-        <v>2.488836241369063</v>
+        <v>-0.3748214865952345</v>
       </c>
       <c r="ACR3">
-        <v>2.569045277963902</v>
+        <v>-0.3857986506689629</v>
       </c>
       <c r="ACS3">
-        <v>2.568060898865484</v>
+        <v>-0.3862545332798686</v>
       </c>
       <c r="ACT3">
-        <v>2.567347831138543</v>
+        <v>-0.3859971774135287</v>
       </c>
       <c r="ACU3">
-        <v>2.549591347240313</v>
+        <v>-0.3822028468527574</v>
       </c>
       <c r="ACV3">
-        <v>2.525976376214799</v>
+        <v>-0.37902746910864</v>
       </c>
       <c r="ACW3">
-        <v>2.512700942256954</v>
+        <v>-0.3774987793423991</v>
       </c>
       <c r="ACX3">
-        <v>2.418512382828702</v>
+        <v>-0.3638580005505526</v>
       </c>
       <c r="ACY3">
-        <v>2.472912711373132</v>
+        <v>-0.372944927314953</v>
       </c>
       <c r="ACZ3">
-        <v>2.489516845817772</v>
+        <v>-0.3750272504465055</v>
       </c>
       <c r="ADA3">
-        <v>2.571995476451328</v>
+        <v>-0.3862051557513356</v>
       </c>
       <c r="ADB3">
-        <v>2.568785652541969</v>
+        <v>-0.3865098252641046</v>
       </c>
       <c r="ADC3">
-        <v>2.567373459688396</v>
+        <v>-0.3860001834986955</v>
       </c>
       <c r="ADD3">
-        <v>2.549626023527585</v>
+        <v>-0.3822050214891623</v>
       </c>
       <c r="ADE3">
-        <v>2.526106089999124</v>
+        <v>-0.3790354440559879</v>
       </c>
       <c r="ADF3">
-        <v>2.512700942256947</v>
+        <v>-0.3774987793423927</v>
       </c>
       <c r="ADG3">
-        <v>2.419439916605052</v>
+        <v>-0.3641411520921996</v>
       </c>
       <c r="ADH3">
-        <v>2.47362635720566</v>
+        <v>-0.373114206534619</v>
       </c>
       <c r="ADI3">
-        <v>2.574299355913363</v>
+        <v>-0.3865228120569267</v>
       </c>
       <c r="ADJ3">
-        <v>2.567401088268537</v>
+        <v>-0.3860034242201694</v>
       </c>
       <c r="ADK3">
-        <v>2.549651753789766</v>
+        <v>-0.3822066351216538</v>
       </c>
       <c r="ADL3">
-        <v>2.526192251077086</v>
+        <v>-0.3790407416112522</v>
       </c>
       <c r="ADM3">
-        <v>2.512700942256941</v>
+        <v>-0.377498779342388</v>
       </c>
       <c r="ADN3">
-        <v>2.473766210056249</v>
+        <v>-0.3731562427937412</v>
       </c>
       <c r="ADO3">
-        <v>2.474063200652577</v>
+        <v>-0.3731650717344385</v>
       </c>
       <c r="ADP3">
-        <v>2.576380622589676</v>
+        <v>-0.3868099309138276</v>
       </c>
       <c r="ADQ3">
-        <v>2.567425758185714</v>
+        <v>-0.3860063179409183</v>
       </c>
       <c r="ADR3">
-        <v>2.549694376376083</v>
+        <v>-0.3822093081736783</v>
       </c>
       <c r="ADS3">
-        <v>2.526279938847061</v>
+        <v>-0.3790461332608658</v>
       </c>
       <c r="ADT3">
-        <v>2.512700942256936</v>
+        <v>-0.3774987793423865</v>
       </c>
       <c r="ADU3">
-        <v>2.473888167657592</v>
+        <v>-0.3731929030359148</v>
       </c>
       <c r="ADV3">
-        <v>2.474762032751529</v>
+        <v>-0.3732464659082571</v>
       </c>
       <c r="ADW3">
-        <v>2.576463185541321</v>
+        <v>-0.3868203388566486</v>
       </c>
       <c r="ADX3">
-        <v>2.577354743475027</v>
+        <v>-0.3869556047381723</v>
       </c>
       <c r="ADY3">
-        <v>2.567453001675617</v>
+        <v>-0.3860095135776996</v>
       </c>
       <c r="ADZ3">
-        <v>2.54999019772693</v>
+        <v>-0.3822278619684117</v>
       </c>
       <c r="AEA3">
-        <v>2.526321864897895</v>
+        <v>-0.3790487112448123</v>
       </c>
       <c r="AEB3">
-        <v>2.512700942256934</v>
+        <v>-0.377498779342387</v>
       </c>
       <c r="AEC3">
-        <v>2.473989027022959</v>
+        <v>-0.3732232231885775</v>
       </c>
       <c r="AED3">
-        <v>2.475358940015674</v>
+        <v>-0.3733160116584975</v>
       </c>
       <c r="AEE3">
-        <v>2.576545962279655</v>
+        <v>-0.3868307741921309</v>
       </c>
       <c r="AEF3">
-        <v>2.578437922979518</v>
+        <v>-0.3871175591579686</v>
       </c>
       <c r="AEG3">
-        <v>2.577354743475027</v>
+        <v>-0.3869556047381723</v>
       </c>
       <c r="AEH3">
-        <v>2.567470566269441</v>
+        <v>-0.3860115739122273</v>
       </c>
       <c r="AEI3">
-        <v>2.550643489207622</v>
+        <v>-0.3822688455702425</v>
       </c>
       <c r="AEJ3">
-        <v>2.526388551712777</v>
+        <v>-0.3790528118469839</v>
       </c>
       <c r="AEK3">
-        <v>2.512700942256933</v>
+        <v>-0.3774987793423873</v>
       </c>
       <c r="AEL3">
-        <v>2.474067456959287</v>
+        <v>-0.3732468019021427</v>
       </c>
       <c r="AEM3">
-        <v>2.475696694132025</v>
+        <v>-0.3733553728044295</v>
       </c>
       <c r="AEN3">
-        <v>2.576628896550442</v>
+        <v>-0.386841229831537</v>
       </c>
       <c r="AEO3">
-        <v>2.579345935368516</v>
+        <v>-0.3872533568966445</v>
       </c>
       <c r="AEP3">
-        <v>2.578437922979518</v>
+        <v>-0.3871175591579686</v>
       </c>
       <c r="AEQ3">
-        <v>2.567497544011605</v>
+        <v>-0.3860147384490809</v>
       </c>
       <c r="AER3">
-        <v>2.526451153976629</v>
+        <v>-0.3790566614086736</v>
       </c>
       <c r="AES3">
-        <v>2.512700942256933</v>
+        <v>-0.3774987793423842</v>
       </c>
       <c r="AET3">
-        <v>2.474147222182063</v>
+        <v>-0.3732707831734337</v>
       </c>
       <c r="AEU3">
-        <v>2.576711325665095</v>
+        <v>-0.3868516222260295</v>
       </c>
       <c r="AEV3">
-        <v>2.580321825300393</v>
+        <v>-0.3873993405297353</v>
       </c>
       <c r="AEW3">
-        <v>2.579345935368516</v>
+        <v>-0.3872533568966445</v>
       </c>
       <c r="AEX3">
-        <v>2.567719430173375</v>
+        <v>-0.3860407677385064</v>
       </c>
       <c r="AEY3">
-        <v>2.526540599103284</v>
+        <v>-0.3790621618039722</v>
       </c>
       <c r="AEZ3">
-        <v>2.512700942256933</v>
+        <v>-0.3774987793423842</v>
       </c>
       <c r="AFA3">
-        <v>2.474216441862322</v>
+        <v>-0.3732915948658228</v>
       </c>
       <c r="AFB3">
-        <v>2.576794064937816</v>
+        <v>-0.3868620541662328</v>
       </c>
       <c r="AFC3">
-        <v>2.581122910361225</v>
+        <v>-0.3875192017565237</v>
       </c>
       <c r="AFD3">
-        <v>2.580321825300393</v>
+        <v>-0.3873993405297353</v>
       </c>
       <c r="AFE3">
-        <v>2.568483978155248</v>
+        <v>-0.3861304788011359</v>
       </c>
       <c r="AFF3">
-        <v>2.527484530835323</v>
+        <v>-0.3791202230542624</v>
       </c>
       <c r="AFG3">
-        <v>2.47426615514385</v>
+        <v>-0.3733065422624915</v>
       </c>
       <c r="AFH3">
-        <v>2.576876744868636</v>
+        <v>-0.3868724790668588</v>
       </c>
       <c r="AFI3">
-        <v>2.58198280767339</v>
+        <v>-0.3876478894827072</v>
       </c>
       <c r="AFJ3">
-        <v>2.581122910361225</v>
+        <v>-0.3875192017565237</v>
       </c>
       <c r="AFK3">
-        <v>2.527861966054355</v>
+        <v>-0.3791434465218563</v>
       </c>
       <c r="AFL3">
-        <v>2.474323870941268</v>
+        <v>-0.3733238963453356</v>
       </c>
       <c r="AFM3">
-        <v>2.576959473886504</v>
+        <v>-0.3868829105993826</v>
       </c>
       <c r="AFN3">
-        <v>2.583901774855162</v>
+        <v>-0.3879349829461113</v>
       </c>
       <c r="AFO3">
-        <v>2.581982807673416</v>
+        <v>-0.3876478894827264</v>
       </c>
       <c r="AFP3">
-        <v>2.58198280767339</v>
+        <v>-0.3876478894827072</v>
       </c>
       <c r="AFQ3">
-        <v>2.52805360213231</v>
+        <v>-0.3791552394519254</v>
       </c>
       <c r="AFR3">
-        <v>2.474410817698714</v>
+        <v>-0.3733500407640385</v>
       </c>
       <c r="AFS3">
-        <v>2.576999855406318</v>
+        <v>-0.3868880025786232</v>
       </c>
       <c r="AFT3">
-        <v>2.584182366225143</v>
+        <v>-0.387976989128158</v>
       </c>
       <c r="AFU3">
-        <v>2.581982807673447</v>
+        <v>-0.3876478894827492</v>
       </c>
       <c r="AFV3">
-        <v>2.581982807673416</v>
+        <v>-0.3876478894827264</v>
       </c>
       <c r="AFW3">
-        <v>2.528096005222218</v>
+        <v>-0.3791578490075049</v>
       </c>
       <c r="AFX3">
-        <v>2.474552863746527</v>
+        <v>-0.3733927561418546</v>
       </c>
       <c r="AFY3">
-        <v>2.57790723980871</v>
+        <v>-0.3870024486480875</v>
       </c>
       <c r="AFZ3">
-        <v>2.584972637164607</v>
+        <v>-0.3880953349193829</v>
       </c>
       <c r="AGA3">
-        <v>2.581982807673489</v>
+        <v>-0.3876478894827913</v>
       </c>
       <c r="AGB3">
-        <v>2.581982807673447</v>
+        <v>-0.3876478894827492</v>
       </c>
       <c r="AGC3">
-        <v>2.528129399157623</v>
+        <v>-0.3791599041626639</v>
       </c>
       <c r="AGD3">
-        <v>2.47512202941027</v>
+        <v>-0.3735624492581275</v>
       </c>
       <c r="AGE3">
-        <v>2.476071603827635</v>
+        <v>-0.3738536829409657</v>
       </c>
       <c r="AGF3">
-        <v>2.578497093359877</v>
+        <v>-0.3870768739523728</v>
       </c>
       <c r="AGG3">
-        <v>2.585900202454425</v>
+        <v>-0.3882343117987739</v>
       </c>
       <c r="AGH3">
-        <v>2.581982807673504</v>
+        <v>-0.3876478894828111</v>
       </c>
       <c r="AGI3">
-        <v>2.581982807673489</v>
+        <v>-0.3876478894827913</v>
       </c>
       <c r="AGJ3">
-        <v>2.528165178008546</v>
+        <v>-0.3791621061289829</v>
       </c>
       <c r="AGK3">
-        <v>2.579012849482125</v>
+        <v>-0.3871419684142754</v>
       </c>
       <c r="AGL3">
-        <v>2.586020495185389</v>
+        <v>-0.3882523408318999</v>
       </c>
       <c r="AGM3">
-        <v>2.581982807673516</v>
+        <v>-0.3876478894828248</v>
       </c>
       <c r="AGN3">
-        <v>2.581982807673504</v>
+        <v>-0.3876478894828111</v>
       </c>
       <c r="AGO3">
-        <v>2.528193803282681</v>
+        <v>-0.3791638678644869</v>
       </c>
       <c r="AGP3">
-        <v>2.579553713466245</v>
+        <v>-0.3872102502986794</v>
       </c>
       <c r="AGQ3">
-        <v>2.586096663457333</v>
+        <v>-0.3882568731476295</v>
       </c>
       <c r="AGR3">
-        <v>2.58618741278391</v>
+        <v>-0.3882926766743644</v>
       </c>
       <c r="AGS3">
-        <v>2.581982807673517</v>
+        <v>-0.3876478894828309</v>
       </c>
       <c r="AGT3">
-        <v>2.581982807673516</v>
+        <v>-0.3876478894828248</v>
       </c>
       <c r="AGU3">
-        <v>2.528221596892331</v>
+        <v>-0.3791655784387584</v>
       </c>
       <c r="AGV3">
-        <v>2.580476921686534</v>
+        <v>-0.3873268454080637</v>
       </c>
       <c r="AGW3">
-        <v>2.586167141328939</v>
+        <v>-0.3882610670299582</v>
       </c>
       <c r="AGX3">
-        <v>2.586577988731515</v>
+        <v>-0.3883870766910693</v>
       </c>
       <c r="AGY3">
-        <v>2.581982807673518</v>
+        <v>-0.3876478894828309</v>
       </c>
       <c r="AGZ3">
-        <v>2.581982807673518</v>
+        <v>-0.3876478894828309</v>
       </c>
       <c r="AHA3">
-        <v>2.528249319655577</v>
+        <v>-0.379167284675671</v>
       </c>
       <c r="AHB3">
-        <v>2.580703305423872</v>
+        <v>-0.3873554446211012</v>
       </c>
       <c r="AHC3">
-        <v>2.586274304202487</v>
+        <v>-0.3882674442132393</v>
       </c>
       <c r="AHD3">
-        <v>2.58750423688148</v>
+        <v>-0.3886110401619888</v>
       </c>
       <c r="AHE3">
-        <v>2.528276717716775</v>
+        <v>-0.3791689709508305</v>
       </c>
       <c r="AHF3">
-        <v>2.580827205839678</v>
+        <v>-0.3873554446210927</v>
       </c>
       <c r="AHG3">
-        <v>2.581369861211767</v>
+        <v>-0.3875226369294814</v>
       </c>
       <c r="AHH3">
-        <v>2.586409720301404</v>
+        <v>-0.388275503259401</v>
       </c>
       <c r="AHI3">
-        <v>2.528766594201307</v>
+        <v>-0.3791991252733005</v>
       </c>
       <c r="AHJ3">
-        <v>2.581030624981495</v>
+        <v>-0.387355444621078</v>
       </c>
       <c r="AHK3">
-        <v>2.581935075572176</v>
+        <v>-0.3876644457152013</v>
       </c>
       <c r="AHL3">
-        <v>2.586936802452557</v>
+        <v>-0.3883068772893523</v>
       </c>
       <c r="AHM3">
-        <v>2.529954890090766</v>
+        <v>-0.3792692414585844</v>
       </c>
       <c r="AHN3">
-        <v>2.529391802311837</v>
+        <v>-0.3792393316417887</v>
       </c>
       <c r="AHO3">
-        <v>2.581070843175761</v>
+        <v>-0.387355444621075</v>
       </c>
       <c r="AHP3">
-        <v>2.582884847923475</v>
+        <v>-0.3879028120868369</v>
       </c>
       <c r="AHQ3">
-        <v>2.587893915177697</v>
+        <v>-0.3883638715754794</v>
       </c>
       <c r="AHR3">
-        <v>2.530743698761361</v>
+        <v>-0.3793158078633455</v>
       </c>
       <c r="AHS3">
-        <v>2.581104826108811</v>
+        <v>-0.3873554446210752</v>
       </c>
       <c r="AHT3">
-        <v>2.581133463004533</v>
+        <v>-0.3873554446210764</v>
       </c>
       <c r="AHU3">
-        <v>2.581170714270995</v>
+        <v>-0.3873554446210772</v>
       </c>
       <c r="AHV3">
-        <v>2.581238131652366</v>
+        <v>-0.3873554446210776</v>
       </c>
       <c r="AHW3">
-        <v>2.58135501640661</v>
+        <v>-0.3873554446210772</v>
       </c>
       <c r="AHX3">
-        <v>2.582312191018952</v>
+        <v>-0.3873554446210772</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1664071742738812</v>
+        <v>-0.03962434634335743</v>
       </c>
       <c r="D2">
-        <v>-0.1678867063589621</v>
+        <v>-0.03998016458790782</v>
       </c>
       <c r="E2">
-        <v>-0.1680418428825412</v>
+        <v>-0.04001746878709447</v>
       </c>
       <c r="F2">
-        <v>-0.1681871863095258</v>
+        <v>-0.04005241724398836</v>
       </c>
       <c r="G2">
-        <v>-0.1683139087470331</v>
+        <v>-0.04008288750083396</v>
       </c>
       <c r="H2">
-        <v>-0.1685135535980533</v>
+        <v>-0.04013089053636445</v>
       </c>
       <c r="I2">
-        <v>-0.1821293438972097</v>
+        <v>-0.04340087265735767</v>
       </c>
       <c r="J2">
-        <v>-0.1827401389181119</v>
+        <v>-0.04354738522612428</v>
       </c>
       <c r="K2">
-        <v>-0.1832485782398022</v>
+        <v>-0.04366933398822923</v>
       </c>
       <c r="L2">
-        <v>-0.1836948215840646</v>
+        <v>-0.04377635645002365</v>
       </c>
       <c r="M2">
-        <v>-0.1840278322832758</v>
+        <v>-0.04385621708132015</v>
       </c>
       <c r="N2">
-        <v>-0.1843404697908542</v>
+        <v>-0.04393118784048823</v>
       </c>
       <c r="O2">
-        <v>-0.1845327240836731</v>
+        <v>-0.04397728862585278</v>
       </c>
       <c r="P2">
-        <v>-0.1850113867613164</v>
+        <v>-0.04409206095473295</v>
       </c>
       <c r="Q2">
-        <v>-0.1888908299675065</v>
+        <v>-0.04502191960758571</v>
       </c>
       <c r="R2">
-        <v>-0.1888908299675061</v>
+        <v>-0.0450219196075866</v>
       </c>
       <c r="S2">
-        <v>-0.1935998012392132</v>
+        <v>-0.04614978734646014</v>
       </c>
       <c r="T2">
-        <v>-0.1888908299675057</v>
+        <v>-0.04502191960758755</v>
       </c>
       <c r="U2">
-        <v>-0.1939239880511672</v>
+        <v>-0.04622740181293548</v>
       </c>
       <c r="V2">
-        <v>-0.1888908299675051</v>
+        <v>-0.04502191960758879</v>
       </c>
       <c r="W2">
-        <v>-0.1942880397738565</v>
+        <v>-0.04631455537850115</v>
       </c>
       <c r="X2">
-        <v>-0.1888908299675052</v>
+        <v>-0.04502191960758992</v>
       </c>
       <c r="Y2">
-        <v>-0.1948808525116316</v>
+        <v>-0.04645646259205333</v>
       </c>
       <c r="Z2">
-        <v>-0.1888908299675057</v>
+        <v>-0.04502191960759148</v>
       </c>
       <c r="AA2">
-        <v>-0.1959595222058305</v>
+        <v>-0.04671463752486702</v>
       </c>
       <c r="AB2">
-        <v>-0.1888908299675056</v>
+        <v>-0.04502191960759343</v>
       </c>
       <c r="AC2">
-        <v>-0.1964016006881322</v>
+        <v>-0.04677955202052197</v>
       </c>
       <c r="AD2">
-        <v>-0.2088945995901529</v>
+        <v>-0.04986265281139522</v>
       </c>
       <c r="AE2">
-        <v>-0.1888908299675052</v>
+        <v>-0.0450219196075954</v>
       </c>
       <c r="AF2">
-        <v>-0.1964396580387106</v>
+        <v>-0.04678838212479913</v>
       </c>
       <c r="AG2">
-        <v>-0.1964831759410434</v>
+        <v>-0.04678837026254159</v>
       </c>
       <c r="AH2">
-        <v>-0.2123443780603861</v>
+        <v>-0.05070107186619732</v>
       </c>
       <c r="AI2">
-        <v>-0.1888908299675049</v>
+        <v>-0.04502191960760105</v>
       </c>
       <c r="AJ2">
-        <v>-0.196526814547686</v>
+        <v>-0.0468086038211151</v>
       </c>
       <c r="AK2">
-        <v>-0.1964859385471601</v>
+        <v>-0.04678866889368939</v>
       </c>
       <c r="AL2">
-        <v>-0.2126149742277457</v>
+        <v>-0.05084420476785392</v>
       </c>
       <c r="AM2">
-        <v>-0.2224850361833887</v>
+        <v>-0.05307526397300585</v>
       </c>
       <c r="AN2">
-        <v>-0.1888908299675047</v>
+        <v>-0.04502191960760555</v>
       </c>
       <c r="AO2">
-        <v>-0.1964899106812192</v>
+        <v>-0.04678909827134159</v>
       </c>
       <c r="AP2">
-        <v>-0.2126290645022242</v>
+        <v>-0.05085203028677571</v>
       </c>
       <c r="AQ2">
-        <v>-0.2126367116960801</v>
+        <v>-0.05085401993827325</v>
       </c>
       <c r="AR2">
-        <v>-0.2295353676465559</v>
+        <v>-0.05472352381382569</v>
       </c>
       <c r="AS2">
-        <v>-0.222485036183432</v>
+        <v>-0.05307526397303096</v>
       </c>
       <c r="AT2">
-        <v>-0.1888908299675049</v>
+        <v>-0.04502191960760661</v>
       </c>
       <c r="AU2">
-        <v>-0.1964950046825596</v>
+        <v>-0.04678964891899598</v>
       </c>
       <c r="AV2">
-        <v>-0.2126354154401719</v>
+        <v>-0.05085555749145721</v>
       </c>
       <c r="AW2">
-        <v>-0.2126890170446467</v>
+        <v>-0.05087763727718096</v>
       </c>
       <c r="AX2">
-        <v>-0.2348702939887417</v>
+        <v>-0.05596943891116579</v>
       </c>
       <c r="AY2">
-        <v>-0.2224850361834505</v>
+        <v>-0.05307526397304308</v>
       </c>
       <c r="AZ2">
-        <v>-0.1888908299675052</v>
+        <v>-0.04502191960760811</v>
       </c>
       <c r="BA2">
-        <v>-0.1965074109197221</v>
+        <v>-0.04679098999462959</v>
       </c>
       <c r="BB2">
-        <v>-0.2126421460949096</v>
+        <v>-0.05085929557953427</v>
       </c>
       <c r="BC2">
-        <v>-0.2356400015411957</v>
+        <v>-0.05614910289876066</v>
       </c>
       <c r="BD2">
-        <v>-0.2348702939886921</v>
+        <v>-0.05596943891117846</v>
       </c>
       <c r="BE2">
-        <v>-0.2224850361834599</v>
+        <v>-0.05307526397304874</v>
       </c>
       <c r="BF2">
-        <v>-0.1888908299675057</v>
+        <v>-0.04502191960761077</v>
       </c>
       <c r="BG2">
-        <v>-0.1965180329796166</v>
+        <v>-0.04679213820087374</v>
       </c>
       <c r="BH2">
-        <v>-0.2126485565969697</v>
+        <v>-0.05086285585566341</v>
       </c>
       <c r="BI2">
-        <v>-0.2391282121721472</v>
+        <v>-0.05696302211402617</v>
       </c>
       <c r="BJ2">
-        <v>-0.2348702939886858</v>
+        <v>-0.0559694389111802</v>
       </c>
       <c r="BK2">
-        <v>-0.2224850361834614</v>
+        <v>-0.05307526397305739</v>
       </c>
       <c r="BL2">
-        <v>-0.1888908299675055</v>
+        <v>-0.04502191960761247</v>
       </c>
       <c r="BM2">
-        <v>-0.1965689520408235</v>
+        <v>-0.04679764229825868</v>
       </c>
       <c r="BN2">
-        <v>-0.2126523958626189</v>
+        <v>-0.05086498811168785</v>
       </c>
       <c r="BO2">
-        <v>-0.2398322259067232</v>
+        <v>-0.05711869635607325</v>
       </c>
       <c r="BP2">
-        <v>-0.23922817417769</v>
+        <v>-0.05714276181940534</v>
       </c>
       <c r="BQ2">
-        <v>-0.2348702939886811</v>
+        <v>-0.05596943891118098</v>
       </c>
       <c r="BR2">
-        <v>-0.2224850361834613</v>
+        <v>-0.05307526397306566</v>
       </c>
       <c r="BS2">
-        <v>-0.1888908299675046</v>
+        <v>-0.0450219196076141</v>
       </c>
       <c r="BT2">
-        <v>-0.1967489429448759</v>
+        <v>-0.04681709750641896</v>
       </c>
       <c r="BU2">
-        <v>-0.2126599282394875</v>
+        <v>-0.05086917144748845</v>
       </c>
       <c r="BV2">
-        <v>-0.2481581787226792</v>
+        <v>-0.05895833386880886</v>
       </c>
       <c r="BW2">
-        <v>-0.23922817417769</v>
+        <v>-0.05720865716428313</v>
       </c>
       <c r="BX2">
-        <v>-0.2392770365713253</v>
+        <v>-0.05716472669928761</v>
       </c>
       <c r="BY2">
-        <v>-0.2348702939886733</v>
+        <v>-0.05596943891117821</v>
       </c>
       <c r="BZ2">
-        <v>-0.2224850361834627</v>
+        <v>-0.0530752639730888</v>
       </c>
       <c r="CA2">
-        <v>-0.1888908299675024</v>
+        <v>-0.04502191960761913</v>
       </c>
       <c r="CB2">
-        <v>-0.212698103011984</v>
+        <v>-0.05089037287637346</v>
       </c>
       <c r="CC2">
-        <v>-0.2510639887566906</v>
+        <v>-0.05959975911874842</v>
       </c>
       <c r="CD2">
-        <v>-0.23487029398867</v>
+        <v>-0.05596943891117622</v>
       </c>
       <c r="CE2">
-        <v>-0.2224850361834725</v>
+        <v>-0.05307526397316616</v>
       </c>
       <c r="CF2">
-        <v>-0.1888908299674988</v>
+        <v>-0.04502191960762509</v>
       </c>
       <c r="CG2">
-        <v>-0.2128419600341414</v>
+        <v>-0.05097026642774092</v>
       </c>
       <c r="CH2">
-        <v>-0.2516983792038156</v>
+        <v>-0.05973975114713503</v>
       </c>
       <c r="CI2">
-        <v>-0.2348702939886692</v>
+        <v>-0.05596943891117442</v>
       </c>
       <c r="CJ2">
-        <v>-0.2224850361834907</v>
+        <v>-0.05307526397332195</v>
       </c>
       <c r="CK2">
-        <v>-0.1888908299674963</v>
+        <v>-0.04502191960762894</v>
       </c>
       <c r="CL2">
-        <v>-0.2529850953834359</v>
+        <v>-0.06002364613788973</v>
       </c>
       <c r="CM2">
-        <v>-0.2348702939886692</v>
+        <v>-0.05596943891117442</v>
       </c>
       <c r="CN2">
-        <v>-0.2224850361834911</v>
+        <v>-0.05307526397335961</v>
       </c>
       <c r="CO2">
-        <v>-0.1888908299674955</v>
+        <v>-0.04502191960763032</v>
       </c>
       <c r="CP2">
-        <v>-0.2541988629731587</v>
+        <v>-0.0602913885576091</v>
       </c>
       <c r="CQ2">
-        <v>-0.2224850361834946</v>
+        <v>-0.05307526397336837</v>
       </c>
       <c r="CR2">
-        <v>-0.188890829967495</v>
+        <v>-0.04502191960762993</v>
       </c>
       <c r="CS2">
-        <v>-0.2549044993277791</v>
+        <v>-0.06044701771571438</v>
       </c>
       <c r="CT2">
-        <v>-0.2224850361834916</v>
+        <v>-0.0530752639733758</v>
       </c>
       <c r="CU2">
-        <v>-0.1888908299674955</v>
+        <v>-0.04502191960763009</v>
       </c>
       <c r="CV2">
-        <v>-0.2553705796082787</v>
+        <v>-0.06054980207364555</v>
       </c>
       <c r="CW2">
-        <v>-0.2224850361834867</v>
+        <v>-0.05307526397337622</v>
       </c>
       <c r="CX2">
-        <v>-0.1888908299674954</v>
+        <v>-0.04502191960763022</v>
       </c>
       <c r="CY2">
-        <v>-0.2560141851426367</v>
+        <v>-0.06069172242056989</v>
       </c>
       <c r="CZ2">
-        <v>-0.2224850361825365</v>
+        <v>-0.05307526397338373</v>
       </c>
       <c r="DA2">
-        <v>-0.1888908299674954</v>
+        <v>-0.04502191960763022</v>
       </c>
       <c r="DB2">
-        <v>-0.2560889370744991</v>
+        <v>-0.06069724838228995</v>
       </c>
       <c r="DC2">
-        <v>-0.2563476145494559</v>
+        <v>-0.06077865679348091</v>
       </c>
       <c r="DD2">
-        <v>-0.2224850361824952</v>
+        <v>-0.05307526397337657</v>
       </c>
       <c r="DE2">
-        <v>-0.2561793769444217</v>
+        <v>-0.06070393403559524</v>
       </c>
       <c r="DF2">
-        <v>-0.2565366964491357</v>
+        <v>-0.06082795363149125</v>
       </c>
       <c r="DG2">
-        <v>-0.2224850361824036</v>
+        <v>-0.05307526397336541</v>
       </c>
       <c r="DH2">
-        <v>-0.2562842036750496</v>
+        <v>-0.06071168318718548</v>
       </c>
       <c r="DI2">
-        <v>-0.2640036606392332</v>
+        <v>-0.06277350149043057</v>
       </c>
       <c r="DJ2">
-        <v>-0.2224850361799622</v>
+        <v>-0.05307526397310449</v>
       </c>
       <c r="DK2">
-        <v>-0.2564440343157766</v>
+        <v>-0.06072349834989499</v>
       </c>
       <c r="DL2">
-        <v>-0.2647523653235003</v>
+        <v>-0.06296844884198302</v>
       </c>
       <c r="DM2">
-        <v>-0.2224850361777861</v>
+        <v>-0.05307526397287168</v>
       </c>
       <c r="DN2">
-        <v>-0.2566495199798886</v>
+        <v>-0.06073868835131129</v>
       </c>
       <c r="DO2">
-        <v>-0.264919586161326</v>
+        <v>-0.06299911738687046</v>
       </c>
       <c r="DP2">
-        <v>-0.2678993195981862</v>
+        <v>-0.06383225704445131</v>
       </c>
       <c r="DQ2">
-        <v>-0.2224850361775808</v>
+        <v>-0.05307526397284996</v>
       </c>
       <c r="DR2">
-        <v>-0.256797040245949</v>
+        <v>-0.06074959332712392</v>
       </c>
       <c r="DS2">
-        <v>-0.2649195861613262</v>
+        <v>-0.06299911738687101</v>
       </c>
       <c r="DT2">
-        <v>-0.265001005442591</v>
+        <v>-0.06301404973175356</v>
       </c>
       <c r="DU2">
-        <v>-0.2735777341862206</v>
+        <v>-0.06539027038776514</v>
       </c>
       <c r="DV2">
-        <v>-0.2224850361774328</v>
+        <v>-0.05307526397283136</v>
       </c>
       <c r="DW2">
-        <v>-0.2570054869965984</v>
+        <v>-0.06076500198652179</v>
       </c>
       <c r="DX2">
-        <v>-0.2649195861613268</v>
+        <v>-0.06299911738687147</v>
       </c>
       <c r="DY2">
-        <v>-0.2653834900302248</v>
+        <v>-0.06308419702271029</v>
       </c>
       <c r="DZ2">
-        <v>-0.2761326964612166</v>
+        <v>-0.06609101222078255</v>
       </c>
       <c r="EA2">
-        <v>-0.2224850361773067</v>
+        <v>-0.05307526397282538</v>
       </c>
       <c r="EB2">
-        <v>-0.2572310136427396</v>
+        <v>-0.06078167306024748</v>
       </c>
       <c r="EC2">
-        <v>-0.2649195861613268</v>
+        <v>-0.0629991173868714</v>
       </c>
       <c r="ED2">
-        <v>-0.265492407713547</v>
+        <v>-0.0631162058022551</v>
       </c>
       <c r="EE2">
-        <v>-0.2663122825232847</v>
+        <v>-0.06323719397766778</v>
       </c>
       <c r="EF2">
-        <v>-0.2768930334925197</v>
+        <v>-0.06629951461434638</v>
       </c>
       <c r="EG2">
-        <v>-0.2224850361769419</v>
+        <v>-0.05307526397281892</v>
       </c>
       <c r="EH2">
-        <v>-0.257443705561798</v>
+        <v>-0.06079739523597002</v>
       </c>
       <c r="EI2">
-        <v>-0.2649195861613277</v>
+        <v>-0.06299911738687232</v>
       </c>
       <c r="EJ2">
-        <v>-0.2655017879079571</v>
+        <v>-0.0631189624056756</v>
       </c>
       <c r="EK2">
-        <v>-0.2670032806058195</v>
+        <v>-0.06335101629375604</v>
       </c>
       <c r="EL2">
-        <v>-0.2777513947870126</v>
+        <v>-0.06653487941446616</v>
       </c>
       <c r="EM2">
-        <v>-0.2224850361766701</v>
+        <v>-0.05307526397281085</v>
       </c>
       <c r="EN2">
-        <v>-0.2577934095378503</v>
+        <v>-0.06082324502617013</v>
       </c>
       <c r="EO2">
-        <v>-0.2649195861613287</v>
+        <v>-0.06299911738687287</v>
       </c>
       <c r="EP2">
-        <v>-0.2655109916995763</v>
+        <v>-0.06312166716065891</v>
       </c>
       <c r="EQ2">
-        <v>-0.2674660372354613</v>
+        <v>-0.0634272406209596</v>
       </c>
       <c r="ER2">
-        <v>-0.2785587562004624</v>
+        <v>-0.06675624234118686</v>
       </c>
       <c r="ES2">
-        <v>-0.2224850361766145</v>
+        <v>-0.05307526397281096</v>
       </c>
       <c r="ET2">
-        <v>-0.2594562524675831</v>
+        <v>-0.06094615554739994</v>
       </c>
       <c r="EU2">
-        <v>-0.2649195861613289</v>
+        <v>-0.06299911738687299</v>
       </c>
       <c r="EV2">
-        <v>-0.2655184233996529</v>
+        <v>-0.06312385113817955</v>
       </c>
       <c r="EW2">
-        <v>-0.2677329038962361</v>
+        <v>-0.06344216552751959</v>
       </c>
       <c r="EX2">
-        <v>-0.267831750963278</v>
+        <v>-0.06354186807450665</v>
       </c>
       <c r="EY2">
-        <v>-0.279500901020072</v>
+        <v>-0.06701453873513892</v>
       </c>
       <c r="EZ2">
-        <v>-0.2224850361766076</v>
+        <v>-0.05307526397281044</v>
       </c>
       <c r="FA2">
-        <v>-0.2598185110004286</v>
+        <v>-0.06097293105545685</v>
       </c>
       <c r="FB2">
-        <v>-0.2649195861613284</v>
+        <v>-0.06299911738687368</v>
       </c>
       <c r="FC2">
-        <v>-0.2655295778382506</v>
+        <v>-0.06312712911899318</v>
       </c>
       <c r="FD2">
-        <v>-0.2684406660089165</v>
+        <v>-0.06348174731648316</v>
       </c>
       <c r="FE2">
-        <v>-0.2678540126205253</v>
+        <v>-0.06354884523161533</v>
       </c>
       <c r="FF2">
-        <v>-0.2797720198938392</v>
+        <v>-0.067088863802718</v>
       </c>
       <c r="FG2">
-        <v>-0.2224850361766073</v>
+        <v>-0.05307526397280816</v>
       </c>
       <c r="FH2">
-        <v>-0.261531393156012</v>
+        <v>-0.06110081876150415</v>
       </c>
       <c r="FI2">
-        <v>-0.2605971700329175</v>
+        <v>-0.06103004552330853</v>
       </c>
       <c r="FJ2">
-        <v>-0.2649195861613275</v>
+        <v>-0.06299911738687373</v>
       </c>
       <c r="FK2">
-        <v>-0.265543025835708</v>
+        <v>-0.06313108109763636</v>
       </c>
       <c r="FL2">
-        <v>-0.2686865158550704</v>
+        <v>-0.06349549625142055</v>
       </c>
       <c r="FM2">
-        <v>-0.2678743500210541</v>
+        <v>-0.06355521925359887</v>
       </c>
       <c r="FN2">
-        <v>-0.2813124728437987</v>
+        <v>-0.06751113017544587</v>
       </c>
       <c r="FO2">
-        <v>-0.2224850361766073</v>
+        <v>-0.05307526397280816</v>
       </c>
       <c r="FP2">
-        <v>-0.261855135876055</v>
+        <v>-0.06112497974869872</v>
       </c>
       <c r="FQ2">
-        <v>-0.2616309653110077</v>
+        <v>-0.06110587124892471</v>
       </c>
       <c r="FR2">
-        <v>-0.2649195861613274</v>
+        <v>-0.06299911738687324</v>
       </c>
       <c r="FS2">
-        <v>-0.2655531855736752</v>
+        <v>-0.06313406674029751</v>
       </c>
       <c r="FT2">
-        <v>-0.2686865158547278</v>
+        <v>-0.06349549625125671</v>
       </c>
       <c r="FU2">
-        <v>-0.2690960696542505</v>
+        <v>-0.0635184036271748</v>
       </c>
       <c r="FV2">
-        <v>-0.2678827985119897</v>
+        <v>-0.06355786711531899</v>
       </c>
       <c r="FW2">
-        <v>-0.2821826675915629</v>
+        <v>-0.06774963909001287</v>
       </c>
       <c r="FX2">
-        <v>-0.2625232334014154</v>
+        <v>-0.06117482957535499</v>
       </c>
       <c r="FY2">
-        <v>-0.26172771231195</v>
+        <v>-0.06111358450323531</v>
       </c>
       <c r="FZ2">
-        <v>-0.2618377594792434</v>
+        <v>-0.06111939229762392</v>
       </c>
       <c r="GA2">
-        <v>-0.2649195861613267</v>
+        <v>-0.06299911738687251</v>
       </c>
       <c r="GB2">
-        <v>-0.265564942217805</v>
+        <v>-0.0631375216536588</v>
       </c>
       <c r="GC2">
-        <v>-0.2686865158546788</v>
+        <v>-0.06349549625123797</v>
       </c>
       <c r="GD2">
-        <v>-0.2691403064321232</v>
+        <v>-0.06352087765993528</v>
       </c>
       <c r="GE2">
-        <v>-0.2679010092451232</v>
+        <v>-0.06356357456086778</v>
       </c>
       <c r="GF2">
-        <v>-0.2828287013886899</v>
+        <v>-0.06792669564606212</v>
       </c>
       <c r="GG2">
-        <v>-0.2621084418742496</v>
+        <v>-0.06114393825299064</v>
       </c>
       <c r="GH2">
-        <v>-0.2626938441407302</v>
+        <v>-0.0611753539382454</v>
       </c>
       <c r="GI2">
-        <v>-0.2649195861613262</v>
+        <v>-0.06299911738687208</v>
       </c>
       <c r="GJ2">
-        <v>-0.2655759965544796</v>
+        <v>-0.06314077016869901</v>
       </c>
       <c r="GK2">
-        <v>-0.2686865158546739</v>
+        <v>-0.06349549625124089</v>
       </c>
       <c r="GL2">
-        <v>-0.2686865158546465</v>
+        <v>-0.06349549625123717</v>
       </c>
       <c r="GM2">
-        <v>-0.2691830964189486</v>
+        <v>-0.06352327073310648</v>
       </c>
       <c r="GN2">
-        <v>-0.2679473924460246</v>
+        <v>-0.06357811142302132</v>
       </c>
       <c r="GO2">
-        <v>-0.2834095626169915</v>
+        <v>-0.06808588124222133</v>
       </c>
       <c r="GP2">
-        <v>-0.2627882327266993</v>
+        <v>-0.0611981335145723</v>
       </c>
       <c r="GQ2">
-        <v>-0.2627868187342238</v>
+        <v>-0.06118629156917266</v>
       </c>
       <c r="GR2">
-        <v>-0.2627368316730831</v>
+        <v>-0.06117535393825543</v>
       </c>
       <c r="GS2">
-        <v>-0.2649195861613252</v>
+        <v>-0.06299911738687219</v>
       </c>
       <c r="GT2">
-        <v>-0.2655878904327691</v>
+        <v>-0.06314426538518841</v>
       </c>
       <c r="GU2">
-        <v>-0.2686865158546739</v>
+        <v>-0.06349549625124089</v>
       </c>
       <c r="GV2">
-        <v>-0.2686865158546234</v>
+        <v>-0.06349549625124171</v>
       </c>
       <c r="GW2">
-        <v>-0.2692173247213147</v>
+        <v>-0.06352518495370596</v>
       </c>
       <c r="GX2">
-        <v>-0.2679746056928685</v>
+        <v>-0.06358664017165962</v>
       </c>
       <c r="GY2">
-        <v>-0.2841312187803183</v>
+        <v>-0.06828363955393521</v>
       </c>
       <c r="GZ2">
-        <v>-0.2629037493823611</v>
+        <v>-0.06119813351457326</v>
       </c>
       <c r="HA2">
-        <v>-0.262904877649505</v>
+        <v>-0.06121208178700797</v>
       </c>
       <c r="HB2">
-        <v>-0.2630218990692403</v>
+        <v>-0.06121394484720596</v>
       </c>
       <c r="HC2">
-        <v>-0.2627429080714966</v>
+        <v>-0.06117535393825765</v>
       </c>
       <c r="HD2">
-        <v>-0.2649195861613245</v>
+        <v>-0.06299911738687214</v>
       </c>
       <c r="HE2">
-        <v>-0.2656060727275586</v>
+        <v>-0.0631496085329311</v>
       </c>
       <c r="HF2">
-        <v>-0.2686865158546001</v>
+        <v>-0.06349549625123661</v>
       </c>
       <c r="HG2">
-        <v>-0.2692445906451797</v>
+        <v>-0.06352670978253847</v>
       </c>
       <c r="HH2">
-        <v>-0.2679936661436394</v>
+        <v>-0.06359261375567235</v>
       </c>
       <c r="HI2">
-        <v>-0.2854630944890653</v>
+        <v>-0.0686485830419651</v>
       </c>
       <c r="HJ2">
-        <v>-0.2632818933552644</v>
+        <v>-0.06119813351457689</v>
       </c>
       <c r="HK2">
-        <v>-0.2631154033566097</v>
+        <v>-0.06123725605427055</v>
       </c>
       <c r="HL2">
-        <v>-0.2627478085271878</v>
+        <v>-0.06117535393825981</v>
       </c>
       <c r="HM2">
-        <v>-0.2649195861613245</v>
+        <v>-0.06299911738687214</v>
       </c>
       <c r="HN2">
-        <v>-0.2656557273919221</v>
+        <v>-0.06316420016255428</v>
       </c>
       <c r="HO2">
-        <v>-0.2686865158545771</v>
+        <v>-0.0634954962512361</v>
       </c>
       <c r="HP2">
-        <v>-0.2693022362916968</v>
+        <v>-0.06352993351843227</v>
       </c>
       <c r="HQ2">
-        <v>-0.2680303312457939</v>
+        <v>-0.06360410457299877</v>
       </c>
       <c r="HR2">
-        <v>-0.2866244688295889</v>
+        <v>-0.06896677012779041</v>
       </c>
       <c r="HS2">
-        <v>-0.2634449250254268</v>
+        <v>-0.06119813351457689</v>
       </c>
       <c r="HT2">
-        <v>-0.263190573281505</v>
+        <v>-0.06124624468022228</v>
       </c>
       <c r="HU2">
-        <v>-0.2627517247244118</v>
+        <v>-0.06117535393826066</v>
       </c>
       <c r="HV2">
-        <v>-0.2656599611605696</v>
+        <v>-0.06316544429639376</v>
       </c>
       <c r="HW2">
-        <v>-0.2686865158545333</v>
+        <v>-0.06349549625124952</v>
       </c>
       <c r="HX2">
-        <v>-0.269347634679249</v>
+        <v>-0.06353247229064866</v>
       </c>
       <c r="HY2">
-        <v>-0.2680485809825132</v>
+        <v>-0.06360982397854638</v>
       </c>
       <c r="HZ2">
-        <v>-0.2874145910553715</v>
+        <v>-0.06918322343078383</v>
       </c>
       <c r="IA2">
-        <v>-0.2640369551942967</v>
+        <v>-0.06134745703410389</v>
       </c>
       <c r="IB2">
-        <v>-0.263190573281505</v>
+        <v>-0.06124624468022228</v>
       </c>
       <c r="IC2">
-        <v>-0.2627577028504406</v>
+        <v>-0.06117535393826335</v>
       </c>
       <c r="ID2">
-        <v>-0.2656619167013969</v>
+        <v>-0.06316601895039489</v>
       </c>
       <c r="IE2">
-        <v>-0.2686865158544917</v>
+        <v>-0.06349549625125935</v>
       </c>
       <c r="IF2">
-        <v>-0.2693791258155724</v>
+        <v>-0.06353423331131966</v>
       </c>
       <c r="IG2">
-        <v>-0.2680615395146996</v>
+        <v>-0.06361388511871825</v>
       </c>
       <c r="IH2">
-        <v>-0.287933678278576</v>
+        <v>-0.06932541805802601</v>
       </c>
       <c r="II2">
-        <v>-0.2641598955491907</v>
+        <v>-0.0613621556727566</v>
       </c>
       <c r="IJ2">
-        <v>-0.2627647104394184</v>
+        <v>-0.06117535393826334</v>
       </c>
       <c r="IK2">
-        <v>-0.2656640083909647</v>
+        <v>-0.06316663361257954</v>
       </c>
       <c r="IL2">
-        <v>-0.2686865158544601</v>
+        <v>-0.06349549625126906</v>
       </c>
       <c r="IM2">
-        <v>-0.2694105423818067</v>
+        <v>-0.06353599013815676</v>
       </c>
       <c r="IN2">
-        <v>-0.2682097850357069</v>
+        <v>-0.0636603433628951</v>
       </c>
       <c r="IO2">
-        <v>-0.2890509623073701</v>
+        <v>-0.06963145410203672</v>
       </c>
       <c r="IP2">
-        <v>-0.2642856898693924</v>
+        <v>-0.06137695419185461</v>
       </c>
       <c r="IQ2">
-        <v>-0.2644114914051149</v>
+        <v>-0.0613924745746583</v>
       </c>
       <c r="IR2">
-        <v>-0.2627754737235319</v>
+        <v>-0.0611753539382625</v>
       </c>
       <c r="IS2">
-        <v>-0.2656660070943201</v>
+        <v>-0.06316722094952433</v>
       </c>
       <c r="IT2">
-        <v>-0.2686865158544297</v>
+        <v>-0.06349549625128074</v>
       </c>
       <c r="IU2">
-        <v>-0.2694565042282731</v>
+        <v>-0.06353856030002671</v>
       </c>
       <c r="IV2">
-        <v>-0.2682535021264542</v>
+        <v>-0.063674043326635</v>
       </c>
       <c r="IW2">
-        <v>-0.2890509623073749</v>
+        <v>-0.06965757304951395</v>
       </c>
       <c r="IX2">
-        <v>-0.2897907685320157</v>
+        <v>-0.06983000748652163</v>
       </c>
       <c r="IY2">
-        <v>-0.262814860466263</v>
+        <v>-0.06117535393826327</v>
       </c>
       <c r="IZ2">
-        <v>-0.2656682337376557</v>
+        <v>-0.0631678752682369</v>
       </c>
       <c r="JA2">
-        <v>-0.2686865158544078</v>
+        <v>-0.06349549625128734</v>
       </c>
       <c r="JB2">
-        <v>-0.2696293776483186</v>
+        <v>-0.06354822683392852</v>
       </c>
       <c r="JC2">
-        <v>-0.2682632830570156</v>
+        <v>-0.06367710842703143</v>
       </c>
       <c r="JD2">
-        <v>-0.2890509623073759</v>
+        <v>-0.06966118362440865</v>
       </c>
       <c r="JE2">
-        <v>-0.2925655735467312</v>
+        <v>-0.07057459975407532</v>
       </c>
       <c r="JF2">
-        <v>-0.2630065658680559</v>
+        <v>-0.06117535393826327</v>
       </c>
       <c r="JG2">
-        <v>-0.2656728298488362</v>
+        <v>-0.06316922587441598</v>
       </c>
       <c r="JH2">
-        <v>-0.2686865158543918</v>
+        <v>-0.06349549625129466</v>
       </c>
       <c r="JI2">
-        <v>-0.2696697284343457</v>
+        <v>-0.06355048301849545</v>
       </c>
       <c r="JJ2">
-        <v>-0.2684687140135298</v>
+        <v>-0.06370537030920399</v>
       </c>
       <c r="JK2">
-        <v>-0.2682646935269272</v>
+        <v>-0.06367879020169809</v>
       </c>
       <c r="JL2">
-        <v>-0.289050962307376</v>
+        <v>-0.0696628435403695</v>
       </c>
       <c r="JM2">
-        <v>-0.2926213584454865</v>
+        <v>-0.07057459975403294</v>
       </c>
       <c r="JN2">
-        <v>-0.2934861352862003</v>
+        <v>-0.07082472933657999</v>
       </c>
       <c r="JO2">
-        <v>-0.2656776166793747</v>
+        <v>-0.0631706325229698</v>
       </c>
       <c r="JP2">
-        <v>-0.2686865158543851</v>
+        <v>-0.0634954962513069</v>
       </c>
       <c r="JQ2">
-        <v>-0.2696882144284232</v>
+        <v>-0.06355151663618952</v>
       </c>
       <c r="JR2">
-        <v>-0.2686723222169552</v>
+        <v>-0.06373337917631507</v>
       </c>
       <c r="JS2">
-        <v>-0.2682663472152945</v>
+        <v>-0.06368076197830573</v>
       </c>
       <c r="JT2">
-        <v>-0.2890509623073748</v>
+        <v>-0.06966481504647455</v>
       </c>
       <c r="JU2">
-        <v>-0.2926254134505112</v>
+        <v>-0.07057459975403066</v>
       </c>
       <c r="JV2">
-        <v>-0.2968241037262926</v>
+        <v>-0.07173151788481084</v>
       </c>
       <c r="JW2">
-        <v>-0.2656958193875621</v>
+        <v>-0.06317598151500285</v>
       </c>
       <c r="JX2">
-        <v>-0.2686865158543907</v>
+        <v>-0.06349549625130603</v>
       </c>
       <c r="JY2">
-        <v>-0.2697003676582751</v>
+        <v>-0.06355219616202558</v>
       </c>
       <c r="JZ2">
-        <v>-0.2682678416905954</v>
+        <v>-0.0636825439173385</v>
       </c>
       <c r="KA2">
-        <v>-0.2890509623073707</v>
+        <v>-0.06966785684785655</v>
       </c>
       <c r="KB2">
-        <v>-0.2926287557181492</v>
+        <v>-0.07057459975403005</v>
       </c>
       <c r="KC2">
-        <v>-0.2974232864139668</v>
+        <v>-0.07188992961348668</v>
       </c>
       <c r="KD2">
-        <v>-0.2972996078539407</v>
+        <v>-0.0718629045681163</v>
       </c>
       <c r="KE2">
-        <v>-0.2657924626930419</v>
+        <v>-0.06320438029562785</v>
       </c>
       <c r="KF2">
-        <v>-0.2686865158543908</v>
+        <v>-0.06349549625130603</v>
       </c>
       <c r="KG2">
-        <v>-0.2697420162411576</v>
+        <v>-0.06355219616202269</v>
       </c>
       <c r="KH2">
-        <v>-0.2697057614992469</v>
+        <v>-0.06355278497201007</v>
       </c>
       <c r="KI2">
-        <v>-0.2682693552963429</v>
+        <v>-0.06368434866681981</v>
       </c>
       <c r="KJ2">
-        <v>-0.2890509623073693</v>
+        <v>-0.06967056731040507</v>
       </c>
       <c r="KK2">
-        <v>-0.2926335031603006</v>
+        <v>-0.07057459975403026</v>
       </c>
       <c r="KL2">
-        <v>-0.2976991035045906</v>
+        <v>-0.07196284492008087</v>
       </c>
       <c r="KM2">
-        <v>-0.2992927503640817</v>
+        <v>-0.07241356582915334</v>
       </c>
       <c r="KN2">
-        <v>-0.2697611481011102</v>
+        <v>-0.06355219616202236</v>
       </c>
       <c r="KO2">
-        <v>-0.2697095789210179</v>
+        <v>-0.06355320169394509</v>
       </c>
       <c r="KP2">
-        <v>-0.2682709827297101</v>
+        <v>-0.06368628913905915</v>
       </c>
       <c r="KQ2">
-        <v>-0.289050962307367</v>
+        <v>-0.06967267463593402</v>
       </c>
       <c r="KR2">
-        <v>-0.2926548266559282</v>
+        <v>-0.07057459975403174</v>
       </c>
       <c r="KS2">
-        <v>-0.299501331635043</v>
+        <v>-0.07243920435024855</v>
       </c>
       <c r="KT2">
-        <v>-0.2997327849165269</v>
+        <v>-0.07253512362037404</v>
       </c>
       <c r="KU2">
-        <v>-0.2697935288034804</v>
+        <v>-0.06355219616202179</v>
       </c>
       <c r="KV2">
-        <v>-0.2697140212833083</v>
+        <v>-0.0635536866355678</v>
       </c>
       <c r="KW2">
-        <v>-0.2682804209637102</v>
+        <v>-0.06369754283480585</v>
       </c>
       <c r="KX2">
-        <v>-0.2890509623073631</v>
+        <v>-0.06967529773080521</v>
       </c>
       <c r="KY2">
-        <v>-0.2926589316787364</v>
+        <v>-0.07057459975403124</v>
       </c>
       <c r="KZ2">
-        <v>-0.2996359719955541</v>
+        <v>-0.07247478653971411</v>
       </c>
       <c r="LA2">
-        <v>-0.2998790050791963</v>
+        <v>-0.07257551523369749</v>
       </c>
       <c r="LB2">
-        <v>-0.2698556827976162</v>
+        <v>-0.0635521961620214</v>
       </c>
       <c r="LC2">
-        <v>-0.2697225181266165</v>
+        <v>-0.06355461417409303</v>
       </c>
       <c r="LD2">
-        <v>-0.2683203415721555</v>
+        <v>-0.06374514234940611</v>
       </c>
       <c r="LE2">
-        <v>-0.2890509623073595</v>
+        <v>-0.06967801077895505</v>
       </c>
       <c r="LF2">
-        <v>-0.2926619711155664</v>
+        <v>-0.07057459975403177</v>
       </c>
       <c r="LG2">
-        <v>-0.2996748911649723</v>
+        <v>-0.07248191210249226</v>
       </c>
       <c r="LH2">
-        <v>-0.3017338471237262</v>
+        <v>-0.07305905768858952</v>
       </c>
       <c r="LI2">
-        <v>-0.2999553228306736</v>
+        <v>-0.07259659689915191</v>
       </c>
       <c r="LJ2">
-        <v>-0.27003868485326</v>
+        <v>-0.0635521961620214</v>
       </c>
       <c r="LK2">
-        <v>-0.2697551053036666</v>
+        <v>-0.06355817144929488</v>
       </c>
       <c r="LL2">
-        <v>-0.2890509623073559</v>
+        <v>-0.06968121097075317</v>
       </c>
       <c r="LM2">
-        <v>-0.2926654722224979</v>
+        <v>-0.07057459975403185</v>
       </c>
       <c r="LN2">
-        <v>-0.2998753475546277</v>
+        <v>-0.07251861126514467</v>
       </c>
       <c r="LO2">
-        <v>-0.3027409581696165</v>
+        <v>-0.07333947569069867</v>
       </c>
       <c r="LP2">
-        <v>-0.3000206538063217</v>
+        <v>-0.07261464350675546</v>
       </c>
       <c r="LQ2">
-        <v>-0.269866316621461</v>
+        <v>-0.0635703111234702</v>
       </c>
       <c r="LR2">
-        <v>-0.2890509623073534</v>
+        <v>-0.06968303465622498</v>
       </c>
       <c r="LS2">
-        <v>-0.2926689452756844</v>
+        <v>-0.07057459975403184</v>
       </c>
       <c r="LT2">
-        <v>-0.2999453350015425</v>
+        <v>-0.07253142378448585</v>
       </c>
       <c r="LU2">
-        <v>-0.3031881608620335</v>
+        <v>-0.07339055579080472</v>
       </c>
       <c r="LV2">
-        <v>-0.3044035730534013</v>
+        <v>-0.07384803915317273</v>
       </c>
       <c r="LW2">
-        <v>-0.3000949567542604</v>
+        <v>-0.07263516833814172</v>
       </c>
       <c r="LX2">
-        <v>-0.2890509623073473</v>
+        <v>-0.06969127335244796</v>
       </c>
       <c r="LY2">
-        <v>-0.2926994566691106</v>
+        <v>-0.07057459975403267</v>
       </c>
       <c r="LZ2">
-        <v>-0.3000976658597411</v>
+        <v>-0.0725593096607256</v>
       </c>
       <c r="MA2">
-        <v>-0.3033653005048405</v>
+        <v>-0.07341078637192264</v>
       </c>
       <c r="MB2">
-        <v>-0.3046475187185346</v>
+        <v>-0.07407602018721035</v>
       </c>
       <c r="MC2">
-        <v>-0.3046687928543849</v>
+        <v>-0.07390586025436829</v>
       </c>
       <c r="MD2">
-        <v>-0.3001534951909879</v>
+        <v>-0.07265133840948784</v>
       </c>
       <c r="ME2">
-        <v>-0.2890509623073453</v>
+        <v>-0.06969447969029233</v>
       </c>
       <c r="MF2">
-        <v>-0.2927618273650693</v>
+        <v>-0.07057459975403267</v>
       </c>
       <c r="MG2">
-        <v>-0.300123137609623</v>
+        <v>-0.07257634725705428</v>
       </c>
       <c r="MH2">
-        <v>-0.3001444354271271</v>
+        <v>-0.07256204856753043</v>
       </c>
       <c r="MI2">
-        <v>-0.3047701737844639</v>
+        <v>-0.07419064766974834</v>
       </c>
       <c r="MJ2">
-        <v>-0.3048960207437231</v>
+        <v>-0.07395539657910419</v>
       </c>
       <c r="MK2">
-        <v>-0.3002025738357839</v>
+        <v>-0.07266489533344</v>
       </c>
       <c r="ML2">
-        <v>-0.2890509623073435</v>
+        <v>-0.0696955935701407</v>
       </c>
       <c r="MM2">
-        <v>-0.3001612515836162</v>
+        <v>-0.07260184088803102</v>
       </c>
       <c r="MN2">
-        <v>-0.3001509477246609</v>
+        <v>-0.07256242993458283</v>
       </c>
       <c r="MO2">
-        <v>-0.3047815883906286</v>
+        <v>-0.07420131518657884</v>
       </c>
       <c r="MP2">
-        <v>-0.3050558611396142</v>
+        <v>-0.07399024108708904</v>
       </c>
       <c r="MQ2">
-        <v>-0.3002468585688058</v>
+        <v>-0.07267712798778375</v>
       </c>
       <c r="MR2">
-        <v>-0.2890509623073428</v>
+        <v>-0.0696964327307829</v>
       </c>
       <c r="MS2">
-        <v>-0.3001580205595502</v>
+        <v>-0.07256284412609028</v>
       </c>
       <c r="MT2">
-        <v>-0.3047863024979861</v>
+        <v>-0.07420572075317521</v>
       </c>
       <c r="MU2">
-        <v>-0.3052578307927192</v>
+        <v>-0.07403426822858671</v>
       </c>
       <c r="MV2">
-        <v>-0.3002835103716962</v>
+        <v>-0.07268725217918995</v>
       </c>
       <c r="MW2">
-        <v>-0.2890509623073413</v>
+        <v>-0.0696970466992668</v>
       </c>
       <c r="MX2">
-        <v>-0.3001642158736129</v>
+        <v>-0.07256320692816305</v>
       </c>
       <c r="MY2">
-        <v>-0.3047896287954859</v>
+        <v>-0.07420882934241774</v>
       </c>
       <c r="MZ2">
-        <v>-0.3053843878481158</v>
+        <v>-0.0740618554871942</v>
       </c>
       <c r="NA2">
-        <v>-0.3003260288524992</v>
+        <v>-0.07269899685712247</v>
       </c>
       <c r="NB2">
-        <v>-0.2890509623073408</v>
+        <v>-0.06969735847600096</v>
       </c>
       <c r="NC2">
-        <v>-0.3001707984140203</v>
+        <v>-0.0725635924054322</v>
       </c>
       <c r="ND2">
-        <v>-0.3047930310861875</v>
+        <v>-0.07421200895074448</v>
       </c>
       <c r="NE2">
-        <v>-0.3055787366274496</v>
+        <v>-0.0741042190131119</v>
       </c>
       <c r="NF2">
-        <v>-0.3003727599070022</v>
+        <v>-0.07271190509960472</v>
       </c>
       <c r="NG2">
-        <v>-0.2890509623073411</v>
+        <v>-0.06969781685406833</v>
       </c>
       <c r="NH2">
-        <v>-0.3001801931422848</v>
+        <v>-0.07256414256411832</v>
       </c>
       <c r="NI2">
-        <v>-0.3047970455530074</v>
+        <v>-0.0742157606674107</v>
       </c>
       <c r="NJ2">
-        <v>-0.3057724877785692</v>
+        <v>-0.07414645087016386</v>
       </c>
       <c r="NK2">
-        <v>-0.300627526139005</v>
+        <v>-0.07278227666052368</v>
       </c>
       <c r="NL2">
-        <v>-0.2890509623073408</v>
+        <v>-0.06969858524562791</v>
       </c>
       <c r="NM2">
-        <v>-0.3001916142109396</v>
+        <v>-0.07256481138304223</v>
       </c>
       <c r="NN2">
-        <v>-0.3048021095267314</v>
+        <v>-0.07422049319925854</v>
       </c>
       <c r="NO2">
-        <v>-0.3059898923647543</v>
+        <v>-0.07419383679264106</v>
       </c>
       <c r="NP2">
-        <v>-0.3025111555197466</v>
+        <v>-0.0733040490491314</v>
       </c>
       <c r="NQ2">
-        <v>-0.3006443680400235</v>
+        <v>-0.07278622289067729</v>
       </c>
       <c r="NR2">
-        <v>-0.2890509623073395</v>
+        <v>-0.06970201260730843</v>
       </c>
       <c r="NS2">
-        <v>-0.3002624069696856</v>
+        <v>-0.07256895694095924</v>
       </c>
       <c r="NT2">
-        <v>-0.3048066448179748</v>
+        <v>-0.0742247316507947</v>
       </c>
       <c r="NU2">
-        <v>-0.3061472204133602</v>
+        <v>-0.074228127219869</v>
       </c>
       <c r="NV2">
-        <v>-0.3043156801890144</v>
+        <v>-0.07380382176227521</v>
       </c>
       <c r="NW2">
-        <v>-0.3007477824150449</v>
+        <v>-0.07281045343132013</v>
       </c>
       <c r="NX2">
-        <v>-0.3006443680400225</v>
+        <v>-0.07278622289062803</v>
       </c>
       <c r="NY2">
-        <v>-0.2890509623073395</v>
+        <v>-0.06971461153829482</v>
       </c>
       <c r="NZ2">
-        <v>-0.3005046580145697</v>
+        <v>-0.07258314198337472</v>
       </c>
       <c r="OA2">
-        <v>-0.3048102334864324</v>
+        <v>-0.07422808543662425</v>
       </c>
       <c r="OB2">
-        <v>-0.3063347480671243</v>
+        <v>-0.07426899859691476</v>
       </c>
       <c r="OC2">
-        <v>-0.3043960224451627</v>
+        <v>-0.07382607099008635</v>
       </c>
       <c r="OD2">
-        <v>-0.3007855790141612</v>
+        <v>-0.0728193091582548</v>
       </c>
       <c r="OE2">
-        <v>-0.3006443680400183</v>
+        <v>-0.07278622289036296</v>
       </c>
       <c r="OF2">
-        <v>-0.304816392518479</v>
+        <v>-0.07423384135185107</v>
       </c>
       <c r="OG2">
-        <v>-0.3066068614578801</v>
+        <v>-0.07432830298343997</v>
       </c>
       <c r="OH2">
-        <v>-0.3050019626415623</v>
+        <v>-0.07400550558152981</v>
       </c>
       <c r="OI2">
-        <v>-0.305511969580547</v>
+        <v>-0.07412826264697438</v>
       </c>
       <c r="OJ2">
-        <v>-0.3007894262491504</v>
+        <v>-0.07282021055721107</v>
       </c>
       <c r="OK2">
-        <v>-0.3006443680400189</v>
+        <v>-0.07278622289034185</v>
       </c>
       <c r="OL2">
-        <v>-0.304837893170696</v>
+        <v>-0.07425393474964893</v>
       </c>
       <c r="OM2">
-        <v>-0.3068086107452326</v>
+        <v>-0.07437227043960472</v>
       </c>
       <c r="ON2">
-        <v>-0.3050574907851969</v>
+        <v>-0.07402194715841073</v>
       </c>
       <c r="OO2">
-        <v>-0.306050409592408</v>
+        <v>-0.07427405737502195</v>
       </c>
       <c r="OP2">
-        <v>-0.3007921111198589</v>
+        <v>-0.07282083961597578</v>
       </c>
       <c r="OQ2">
-        <v>-0.3006443680400181</v>
+        <v>-0.07278622289033353</v>
       </c>
       <c r="OR2">
-        <v>-0.3049693447877275</v>
+        <v>-0.07437678235647723</v>
       </c>
       <c r="OS2">
-        <v>-0.3070032387544683</v>
+        <v>-0.07441468451174407</v>
       </c>
       <c r="OT2">
-        <v>-0.3050890580153567</v>
+        <v>-0.07403129391043363</v>
       </c>
       <c r="OU2">
-        <v>-0.3076750302983491</v>
+        <v>-0.07471391443197961</v>
       </c>
       <c r="OV2">
-        <v>-0.3060504095923046</v>
+        <v>-0.07427405737524211</v>
       </c>
       <c r="OW2">
-        <v>-0.3007948924108342</v>
+        <v>-0.07282149126515493</v>
       </c>
       <c r="OX2">
-        <v>-0.3006443680400185</v>
+        <v>-0.07278622289032891</v>
       </c>
       <c r="OY2">
-        <v>-0.307193728917053</v>
+        <v>-0.07445619548355972</v>
       </c>
       <c r="OZ2">
-        <v>-0.3051104931821469</v>
+        <v>-0.07403764060236165</v>
       </c>
       <c r="PA2">
-        <v>-0.3099894920329491</v>
+        <v>-0.07534042413791679</v>
       </c>
       <c r="PB2">
-        <v>-0.3060504095922787</v>
+        <v>-0.07427405737529411</v>
       </c>
       <c r="PC2">
-        <v>-0.3008065722483388</v>
+        <v>-0.07282422781354178</v>
       </c>
       <c r="PD2">
-        <v>-0.3006443680400208</v>
+        <v>-0.07278622289032211</v>
       </c>
       <c r="PE2">
-        <v>-0.307422832581333</v>
+        <v>-0.07450611919031132</v>
       </c>
       <c r="PF2">
-        <v>-0.3051454272798934</v>
+        <v>-0.07404798406985952</v>
       </c>
       <c r="PG2">
-        <v>-0.3104739093033774</v>
+        <v>-0.07547153519282208</v>
       </c>
       <c r="PH2">
-        <v>-0.306050409592265</v>
+        <v>-0.07427405737533041</v>
       </c>
       <c r="PI2">
-        <v>-0.3008094242001294</v>
+        <v>-0.07282489601498576</v>
       </c>
       <c r="PJ2">
-        <v>-0.3006443680400352</v>
+        <v>-0.07278622289025283</v>
       </c>
       <c r="PK2">
-        <v>-0.3078065647447902</v>
+        <v>-0.07458973343377942</v>
       </c>
       <c r="PL2">
-        <v>-0.307422832581333</v>
+        <v>-0.07450611919031132</v>
       </c>
       <c r="PM2">
-        <v>-0.3052615543557859</v>
+        <v>-0.0740823667389727</v>
       </c>
       <c r="PN2">
-        <v>-0.3105977257082883</v>
+        <v>-0.07550504602842015</v>
       </c>
       <c r="PO2">
-        <v>-0.3060504095922509</v>
+        <v>-0.07427405737536752</v>
       </c>
       <c r="PP2">
-        <v>-0.3008121446552753</v>
+        <v>-0.07282553340664463</v>
       </c>
       <c r="PQ2">
-        <v>-0.3006443680400414</v>
+        <v>-0.07278622289022754</v>
       </c>
       <c r="PR2">
-        <v>-0.3091011020827089</v>
+        <v>-0.07487176934713605</v>
       </c>
       <c r="PS2">
-        <v>-0.3078065647447902</v>
+        <v>-0.07458973343377942</v>
       </c>
       <c r="PT2">
-        <v>-0.3053908474306224</v>
+        <v>-0.07412064606307595</v>
       </c>
       <c r="PU2">
-        <v>-0.3106625921419063</v>
+        <v>-0.07552260193137246</v>
       </c>
       <c r="PV2">
-        <v>-0.3060504095922452</v>
+        <v>-0.07427405737540406</v>
       </c>
       <c r="PW2">
-        <v>-0.3008148503170388</v>
+        <v>-0.07282616733167248</v>
       </c>
       <c r="PX2">
-        <v>-0.3006443680400424</v>
+        <v>-0.07278622289022051</v>
       </c>
       <c r="PY2">
-        <v>-0.3109327166328802</v>
+        <v>-0.07527070974032878</v>
       </c>
       <c r="PZ2">
-        <v>-0.3091011020827089</v>
+        <v>-0.07487176934713605</v>
       </c>
       <c r="QA2">
-        <v>-0.3054635646971445</v>
+        <v>-0.07414217449839973</v>
       </c>
       <c r="QB2">
-        <v>-0.3107163660731502</v>
+        <v>-0.07553715559977058</v>
       </c>
       <c r="QC2">
-        <v>-0.3060504095922406</v>
+        <v>-0.07427405737543666</v>
       </c>
       <c r="QD2">
-        <v>-0.3008179540639156</v>
+        <v>-0.07282689452561283</v>
       </c>
       <c r="QE2">
-        <v>-0.3006443680400451</v>
+        <v>-0.07278622289020532</v>
       </c>
       <c r="QF2">
-        <v>-0.31224745653941</v>
+        <v>-0.0755569937770819</v>
       </c>
       <c r="QG2">
-        <v>-0.3109327166328802</v>
+        <v>-0.07527070974032878</v>
       </c>
       <c r="QH2">
-        <v>-0.3055318770547509</v>
+        <v>-0.07416239837325447</v>
       </c>
       <c r="QI2">
-        <v>-0.3107599471298174</v>
+        <v>-0.0755489505584325</v>
       </c>
       <c r="QJ2">
-        <v>-0.3060504095922398</v>
+        <v>-0.07427405737546722</v>
       </c>
       <c r="QK2">
-        <v>-0.3008286727045044</v>
+        <v>-0.07282940584885757</v>
       </c>
       <c r="QL2">
-        <v>-0.3006443680400478</v>
+        <v>-0.07278622289019213</v>
       </c>
       <c r="QM2">
-        <v>-0.3126464229481907</v>
+        <v>-0.07564385583135808</v>
       </c>
       <c r="QN2">
-        <v>-0.31224745653941</v>
+        <v>-0.0755569937770819</v>
       </c>
       <c r="QO2">
-        <v>-0.3055970546651693</v>
+        <v>-0.07418169379290827</v>
       </c>
       <c r="QP2">
-        <v>-0.3108265642565756</v>
+        <v>-0.07556698000007395</v>
       </c>
       <c r="QQ2">
-        <v>-0.3060504095922414</v>
+        <v>-0.07427405737548957</v>
       </c>
       <c r="QR2">
-        <v>-0.3008809074934861</v>
+        <v>-0.07284164406114485</v>
       </c>
       <c r="QS2">
-        <v>-0.3006443680400504</v>
+        <v>-0.07278622289017807</v>
       </c>
       <c r="QT2">
-        <v>-0.3137173910077666</v>
+        <v>-0.07586206039588847</v>
       </c>
       <c r="QU2">
-        <v>-0.3126464229481907</v>
+        <v>-0.07564385583135697</v>
       </c>
       <c r="QV2">
-        <v>-0.3127346446658312</v>
+        <v>-0.07567504448522797</v>
       </c>
       <c r="QW2">
-        <v>-0.305704070778879</v>
+        <v>-0.07421337436186805</v>
       </c>
       <c r="QX2">
-        <v>-0.3108866190797046</v>
+        <v>-0.0755832333034779</v>
       </c>
       <c r="QY2">
-        <v>-0.3060504095922399</v>
+        <v>-0.07427405737550126</v>
       </c>
       <c r="QZ2">
-        <v>-0.3006443680400527</v>
+        <v>-0.07278622289016695</v>
       </c>
       <c r="RA2">
-        <v>-0.3149075805832679</v>
+        <v>-0.07610450814465115</v>
       </c>
       <c r="RB2">
-        <v>-0.3137173910077666</v>
+        <v>-0.07586206039588846</v>
       </c>
       <c r="RC2">
-        <v>-0.3137173910077667</v>
+        <v>-0.07586206039588847</v>
       </c>
       <c r="RD2">
-        <v>-0.3127475286508422</v>
+        <v>-0.07567959923859859</v>
       </c>
       <c r="RE2">
-        <v>-0.3057786126219605</v>
+        <v>-0.07423544075108356</v>
       </c>
       <c r="RF2">
-        <v>-0.3109437769062438</v>
+        <v>-0.07559870247387211</v>
       </c>
       <c r="RG2">
-        <v>-0.3060504095922403</v>
+        <v>-0.07427405737550416</v>
       </c>
       <c r="RH2">
-        <v>-0.3006443680400602</v>
+        <v>-0.07278622289011116</v>
       </c>
       <c r="RI2">
-        <v>-0.3153438018330399</v>
+        <v>-0.0761933561090699</v>
       </c>
       <c r="RJ2">
-        <v>-0.3149075805832679</v>
+        <v>-0.07610450814465115</v>
       </c>
       <c r="RK2">
-        <v>-0.3127545539827585</v>
+        <v>-0.07568208283046558</v>
       </c>
       <c r="RL2">
-        <v>-0.3058309888776138</v>
+        <v>-0.07425094521492824</v>
       </c>
       <c r="RM2">
-        <v>-0.3110081691848317</v>
+        <v>-0.07561612947211746</v>
       </c>
       <c r="RN2">
-        <v>-0.3060504095922424</v>
+        <v>-0.07427405737550391</v>
       </c>
       <c r="RO2">
-        <v>-0.3006443680400599</v>
+        <v>-0.07278622289010785</v>
       </c>
       <c r="RP2">
-        <v>-0.3158781447963726</v>
+        <v>-0.07632677500536118</v>
       </c>
       <c r="RQ2">
-        <v>-0.3153438018330398</v>
+        <v>-0.0761933561090699</v>
       </c>
       <c r="RR2">
-        <v>-0.3163531100159695</v>
+        <v>-0.07633503592809798</v>
       </c>
       <c r="RS2">
-        <v>-0.3127593131068602</v>
+        <v>-0.07568376527074651</v>
       </c>
       <c r="RT2">
-        <v>-0.3058560150070098</v>
+        <v>-0.07425835337909463</v>
       </c>
       <c r="RU2">
-        <v>-0.3110761887491247</v>
+        <v>-0.07563453803525017</v>
       </c>
       <c r="RV2">
-        <v>-0.3060504095922407</v>
+        <v>-0.07427405737551769</v>
       </c>
       <c r="RW2">
-        <v>-0.3006443680400598</v>
+        <v>-0.07278622289010568</v>
       </c>
       <c r="RX2">
-        <v>-0.3166440928370472</v>
+        <v>-0.07651800250525187</v>
       </c>
       <c r="RY2">
-        <v>-0.3158781447963726</v>
+        <v>-0.07632677500536118</v>
       </c>
       <c r="RZ2">
-        <v>-0.316382190233516</v>
+        <v>-0.07633827052714329</v>
       </c>
       <c r="SA2">
-        <v>-0.316548273615401</v>
+        <v>-0.07636839122997392</v>
       </c>
       <c r="SB2">
-        <v>-0.3127665419305203</v>
+        <v>-0.07568632079196963</v>
       </c>
       <c r="SC2">
-        <v>-0.3058718685215834</v>
+        <v>-0.07426304626094231</v>
       </c>
       <c r="SD2">
-        <v>-0.3112249138457537</v>
+        <v>-0.07567478802798024</v>
       </c>
       <c r="SE2">
-        <v>-0.3060504095922407</v>
+        <v>-0.07427405737553922</v>
       </c>
       <c r="SF2">
-        <v>-0.3006443680400588</v>
+        <v>-0.07278622289010396</v>
       </c>
       <c r="SG2">
-        <v>-0.3171115880139062</v>
+        <v>-0.07663470612820672</v>
       </c>
       <c r="SH2">
-        <v>-0.3166440928370472</v>
+        <v>-0.07651800250525187</v>
       </c>
       <c r="SI2">
-        <v>-0.3163944818679708</v>
+        <v>-0.0763396377169145</v>
       </c>
       <c r="SJ2">
-        <v>-0.3166731651934005</v>
+        <v>-0.07638973508940237</v>
       </c>
       <c r="SK2">
-        <v>-0.312777512429447</v>
+        <v>-0.07569019905335822</v>
       </c>
       <c r="SL2">
-        <v>-0.3058825875154432</v>
+        <v>-0.0742662192329069</v>
       </c>
       <c r="SM2">
-        <v>-0.3145988296790162</v>
+        <v>-0.07658772895253528</v>
       </c>
       <c r="SN2">
-        <v>-0.3060504095922364</v>
+        <v>-0.07427405737556039</v>
       </c>
       <c r="SO2">
-        <v>-0.3006443680400588</v>
+        <v>-0.07278622289010396</v>
       </c>
       <c r="SP2">
-        <v>-0.3171921002534467</v>
+        <v>-0.07665480397989168</v>
       </c>
       <c r="SQ2">
-        <v>-0.3171115880139062</v>
+        <v>-0.07663470612820672</v>
       </c>
       <c r="SR2">
-        <v>-0.3164017042234231</v>
+        <v>-0.07634044105120597</v>
       </c>
       <c r="SS2">
-        <v>-0.3127852956692896</v>
+        <v>-0.07569295055585473</v>
       </c>
       <c r="ST2">
-        <v>-0.3058975393025481</v>
+        <v>-0.07427064515259321</v>
       </c>
       <c r="SU2">
-        <v>-0.3145988296790164</v>
+        <v>-0.07665151109126581</v>
       </c>
       <c r="SV2">
-        <v>-0.3151176529390495</v>
+        <v>-0.07671537860602541</v>
       </c>
       <c r="SW2">
-        <v>-0.3060504095922287</v>
+        <v>-0.07427405737558185</v>
       </c>
       <c r="SX2">
-        <v>-0.3173894534116767</v>
+        <v>-0.07669977880974323</v>
       </c>
       <c r="SY2">
-        <v>-0.3171921002534467</v>
+        <v>-0.07665480397989168</v>
       </c>
       <c r="SZ2">
-        <v>-0.3172501982342792</v>
+        <v>-0.07668193175987936</v>
       </c>
       <c r="TA2">
-        <v>-0.3164083509849772</v>
+        <v>-0.0763411803607752</v>
       </c>
       <c r="TB2">
-        <v>-0.3127906132869985</v>
+        <v>-0.07569483041700197</v>
       </c>
       <c r="TC2">
-        <v>-0.305908950692642</v>
+        <v>-0.07427402305532167</v>
       </c>
       <c r="TD2">
-        <v>-0.3145988296790164</v>
+        <v>-0.07670775983858563</v>
       </c>
       <c r="TE2">
-        <v>-0.3153975581446226</v>
+        <v>-0.07678424289133354</v>
       </c>
       <c r="TF2">
-        <v>-0.3060504095922273</v>
+        <v>-0.07427405737559674</v>
       </c>
       <c r="TG2">
-        <v>-0.317534734286695</v>
+        <v>-0.07673288592696625</v>
       </c>
       <c r="TH2">
-        <v>-0.3173894534116767</v>
+        <v>-0.07669977880974323</v>
       </c>
       <c r="TI2">
-        <v>-0.317284530252205</v>
+        <v>-0.0766979622822129</v>
       </c>
       <c r="TJ2">
-        <v>-0.3164142727077339</v>
+        <v>-0.07634183902366116</v>
       </c>
       <c r="TK2">
-        <v>-0.3127948152576502</v>
+        <v>-0.07569631587735751</v>
       </c>
       <c r="TL2">
-        <v>-0.3059903866179895</v>
+        <v>-0.07429812866690044</v>
       </c>
       <c r="TM2">
-        <v>-0.3154393612370857</v>
+        <v>-0.07679452742441552</v>
       </c>
       <c r="TN2">
-        <v>-0.3060504095922318</v>
+        <v>-0.07427405737560634</v>
       </c>
       <c r="TO2">
-        <v>-0.3177325417919834</v>
+        <v>-0.07677796169552163</v>
       </c>
       <c r="TP2">
-        <v>-0.317534734286695</v>
+        <v>-0.07673288592696625</v>
       </c>
       <c r="TQ2">
-        <v>-0.3173117334782089</v>
+        <v>-0.07671066408918371</v>
       </c>
       <c r="TR2">
-        <v>-0.3164204158392305</v>
+        <v>-0.07634252231178462</v>
       </c>
       <c r="TS2">
-        <v>-0.3128082879475641</v>
+        <v>-0.07570107866518037</v>
       </c>
       <c r="TT2">
-        <v>-0.3060386229405748</v>
+        <v>-0.0743715761573356</v>
       </c>
       <c r="TU2">
-        <v>-0.3066842322523169</v>
+        <v>-0.07433164671076148</v>
       </c>
       <c r="TV2">
-        <v>-0.3154712712258148</v>
+        <v>-0.07680237799528833</v>
       </c>
       <c r="TW2">
-        <v>-0.3060504095922363</v>
+        <v>-0.07427405737561267</v>
       </c>
       <c r="TX2">
-        <v>-0.3178725267229923</v>
+        <v>-0.07680986012572834</v>
       </c>
       <c r="TY2">
-        <v>-0.3177325417919834</v>
+        <v>-0.07677796169552163</v>
       </c>
       <c r="TZ2">
-        <v>-0.3173229741545488</v>
+        <v>-0.07671591259297471</v>
       </c>
       <c r="UA2">
-        <v>-0.3164389610659695</v>
+        <v>-0.07634458504962634</v>
       </c>
       <c r="UB2">
-        <v>-0.3129172650099495</v>
+        <v>-0.07573960291456842</v>
       </c>
       <c r="UC2">
-        <v>-0.3060918880918491</v>
+        <v>-0.07445268182393765</v>
       </c>
       <c r="UD2">
-        <v>-0.3155011154290098</v>
+        <v>-0.07680972031432773</v>
       </c>
       <c r="UE2">
-        <v>-0.3060504095922367</v>
+        <v>-0.07427405737561567</v>
       </c>
       <c r="UF2">
-        <v>-0.3182640236278681</v>
+        <v>-0.07689906671266594</v>
       </c>
       <c r="UG2">
-        <v>-0.3178725267229923</v>
+        <v>-0.07680986012572834</v>
       </c>
       <c r="UH2">
-        <v>-0.317322974154552</v>
+        <v>-0.0767159125929744</v>
       </c>
       <c r="UI2">
-        <v>-0.3173695008664941</v>
+        <v>-0.07673763672276462</v>
       </c>
       <c r="UJ2">
-        <v>-0.3164576503572708</v>
+        <v>-0.07634666379572506</v>
       </c>
       <c r="UK2">
-        <v>-0.3129226921023633</v>
+        <v>-0.07574152140213473</v>
       </c>
       <c r="UL2">
-        <v>-0.3062362732388135</v>
+        <v>-0.07467253907871475</v>
       </c>
       <c r="UM2">
-        <v>-0.3155329406793972</v>
+        <v>-0.07681754998994524</v>
       </c>
       <c r="UN2">
-        <v>-0.3060504095922365</v>
+        <v>-0.0742740573756135</v>
       </c>
       <c r="UO2">
-        <v>-0.3185475267272099</v>
+        <v>-0.0769636621320018</v>
       </c>
       <c r="UP2">
-        <v>-0.3182640236278681</v>
+        <v>-0.07689906671266594</v>
       </c>
       <c r="UQ2">
-        <v>-0.3173229741545532</v>
+        <v>-0.07671591259297447</v>
       </c>
       <c r="UR2">
-        <v>-0.3174046992430363</v>
+        <v>-0.07675407129299054</v>
       </c>
       <c r="US2">
-        <v>-0.3166322836421485</v>
+        <v>-0.07636608689967603</v>
       </c>
       <c r="UT2">
-        <v>-0.3129269742772058</v>
+        <v>-0.0757430351569819</v>
       </c>
       <c r="UU2">
-        <v>-0.3155611022546755</v>
+        <v>-0.07682447830451627</v>
       </c>
       <c r="UV2">
-        <v>-0.3060504095922365</v>
+        <v>-0.07427405737561352</v>
       </c>
       <c r="UW2">
-        <v>-0.3185858699717492</v>
+        <v>-0.07697232845146716</v>
       </c>
       <c r="UX2">
-        <v>-0.3185475267272099</v>
+        <v>-0.07696366213200181</v>
       </c>
       <c r="UY2">
-        <v>-0.3187319804125826</v>
+        <v>-0.07700621513439421</v>
       </c>
       <c r="UZ2">
-        <v>-0.3173229741545535</v>
+        <v>-0.07671591259297396</v>
       </c>
       <c r="VA2">
-        <v>-0.3129318154022297</v>
+        <v>-0.07574474649920603</v>
       </c>
       <c r="VB2">
-        <v>-0.3155899066550611</v>
+        <v>-0.07683156474706801</v>
       </c>
       <c r="VC2">
-        <v>-0.3185949489949901</v>
+        <v>-0.07697438047919551</v>
       </c>
       <c r="VD2">
-        <v>-0.3185858699717492</v>
+        <v>-0.07697232845146716</v>
       </c>
       <c r="VE2">
-        <v>-0.3187552996998974</v>
+        <v>-0.07701159463953955</v>
       </c>
       <c r="VF2">
-        <v>-0.3173229741545522</v>
+        <v>-0.07671591259297361</v>
       </c>
       <c r="VG2">
-        <v>-0.3129361241657428</v>
+        <v>-0.07574626964908401</v>
       </c>
       <c r="VH2">
-        <v>-0.3157385761391013</v>
+        <v>-0.07686814001022119</v>
       </c>
       <c r="VI2">
-        <v>-0.3188410846410173</v>
+        <v>-0.07703001050495949</v>
       </c>
       <c r="VJ2">
-        <v>-0.3185949489949901</v>
+        <v>-0.0769743804791955</v>
       </c>
       <c r="VK2">
-        <v>-0.3185949489950009</v>
+        <v>-0.07697438047917506</v>
       </c>
       <c r="VL2">
-        <v>-0.318772507946301</v>
+        <v>-0.07701556436602618</v>
       </c>
       <c r="VM2">
-        <v>-0.3173229741545504</v>
+        <v>-0.0767159125929736</v>
       </c>
       <c r="VN2">
-        <v>-0.3129410835628782</v>
+        <v>-0.07574802279585596</v>
       </c>
       <c r="VO2">
-        <v>-0.3157951481272592</v>
+        <v>-0.07690688015538999</v>
       </c>
       <c r="VP2">
-        <v>-0.3160510677623173</v>
+        <v>-0.07694142101612997</v>
       </c>
       <c r="VQ2">
-        <v>-0.319013587915236</v>
+        <v>-0.07706899722933257</v>
       </c>
       <c r="VR2">
-        <v>-0.3188410846410173</v>
+        <v>-0.07703001050495949</v>
       </c>
       <c r="VS2">
-        <v>-0.3185949489950022</v>
+        <v>-0.07697438047917113</v>
       </c>
       <c r="VT2">
-        <v>-0.3187892518316614</v>
+        <v>-0.07701942694725934</v>
       </c>
       <c r="VU2">
-        <v>-0.3173229741545503</v>
+        <v>-0.07671591259297378</v>
       </c>
       <c r="VV2">
-        <v>-0.3129461686440969</v>
+        <v>-0.07574982036929112</v>
       </c>
       <c r="VW2">
-        <v>-0.3157984082522674</v>
+        <v>-0.07690911265911214</v>
       </c>
       <c r="VX2">
-        <v>-0.3175445462312235</v>
+        <v>-0.07729161822601037</v>
       </c>
       <c r="VY2">
-        <v>-0.3191269566277927</v>
+        <v>-0.07710679512891959</v>
       </c>
       <c r="VZ2">
-        <v>-0.3190411463556188</v>
+        <v>-0.07707378078398085</v>
       </c>
       <c r="WA2">
-        <v>-0.3185949489950023</v>
+        <v>-0.07697438047916573</v>
       </c>
       <c r="WB2">
-        <v>-0.3189465441738919</v>
+        <v>-0.07705571099380873</v>
       </c>
       <c r="WC2">
-        <v>-0.3173229741545502</v>
+        <v>-0.07671591259297378</v>
       </c>
       <c r="WD2">
-        <v>-0.3129522809071976</v>
+        <v>-0.07575198104739791</v>
       </c>
       <c r="WE2">
-        <v>-0.315800045609696</v>
+        <v>-0.0769102339060789</v>
       </c>
       <c r="WF2">
-        <v>-0.3177637992218161</v>
+        <v>-0.07739669728215569</v>
       </c>
       <c r="WG2">
-        <v>-0.3192088169286038</v>
+        <v>-0.07765925282742618</v>
       </c>
       <c r="WH2">
-        <v>-0.3192280594572596</v>
+        <v>-0.07714050297441752</v>
       </c>
       <c r="WI2">
-        <v>-0.3191269566277927</v>
+        <v>-0.07710679512891959</v>
       </c>
       <c r="WJ2">
-        <v>-0.3191269566277927</v>
+        <v>-0.07710679512891959</v>
       </c>
       <c r="WK2">
-        <v>-0.3196283124128573</v>
+        <v>-0.077175695968423</v>
       </c>
       <c r="WL2">
-        <v>-0.3190411463556188</v>
+        <v>-0.07707378078398085</v>
       </c>
       <c r="WM2">
-        <v>-0.3185949489950035</v>
+        <v>-0.07697438047916051</v>
       </c>
       <c r="WN2">
-        <v>-0.3190197532883706</v>
+        <v>-0.07707259811978119</v>
       </c>
       <c r="WO2">
-        <v>-0.3173229741545502</v>
+        <v>-0.07671591259297378</v>
       </c>
       <c r="WP2">
-        <v>-0.3129561128695384</v>
+        <v>-0.07575333563977493</v>
       </c>
       <c r="WQ2">
-        <v>-0.3158014186236303</v>
+        <v>-0.07691117413290194</v>
       </c>
       <c r="WR2">
-        <v>-0.3178795084949754</v>
+        <v>-0.07745214983580939</v>
       </c>
       <c r="WS2">
-        <v>-0.3208032348799247</v>
+        <v>-0.07801139851970519</v>
       </c>
       <c r="WT2">
-        <v>-0.319321324932091</v>
+        <v>-0.0771715982817176</v>
       </c>
       <c r="WU2">
-        <v>-0.3192280594572596</v>
+        <v>-0.07714050297441752</v>
       </c>
       <c r="WV2">
-        <v>-0.3192280594572596</v>
+        <v>-0.0771405029744175</v>
       </c>
       <c r="WW2">
-        <v>-0.3197665363983432</v>
+        <v>-0.07719968441044389</v>
       </c>
       <c r="WX2">
-        <v>-0.3185949489950015</v>
+        <v>-0.07697438047915856</v>
       </c>
       <c r="WY2">
-        <v>-0.3190541141402466</v>
+        <v>-0.07708052397843726</v>
       </c>
       <c r="WZ2">
-        <v>-0.3129725814313632</v>
+        <v>-0.07575915723185678</v>
       </c>
       <c r="XA2">
-        <v>-0.3158025382690888</v>
+        <v>-0.07691194085527603</v>
       </c>
       <c r="XB2">
-        <v>-0.3208632805502712</v>
+        <v>-0.07802030854202355</v>
       </c>
       <c r="XC2">
-        <v>-0.3212137168099687</v>
+        <v>-0.07810481590217609</v>
       </c>
       <c r="XD2">
-        <v>-0.3194483811806654</v>
+        <v>-0.07721395804594448</v>
       </c>
       <c r="XE2">
-        <v>-0.318594948995003</v>
+        <v>-0.07697438047915579</v>
       </c>
       <c r="XF2">
-        <v>-0.3190770336584495</v>
+        <v>-0.07708581066453367</v>
       </c>
       <c r="XG2">
-        <v>-0.3130420122925658</v>
+        <v>-0.07578370054310975</v>
       </c>
       <c r="XH2">
-        <v>-0.315804295786498</v>
+        <v>-0.07691314438594284</v>
       </c>
       <c r="XI2">
-        <v>-0.3208780041670232</v>
+        <v>-0.07802249330987626</v>
       </c>
       <c r="XJ2">
-        <v>-0.3213081593217226</v>
+        <v>-0.07812630855822286</v>
       </c>
       <c r="XK2">
-        <v>-0.3194856497764368</v>
+        <v>-0.0772263828134991</v>
       </c>
       <c r="XL2">
-        <v>-0.3185949489950012</v>
+        <v>-0.07697438047915289</v>
       </c>
       <c r="XM2">
-        <v>-0.3191120737971814</v>
+        <v>-0.07709389304788178</v>
       </c>
       <c r="XN2">
-        <v>-0.3158084866940655</v>
+        <v>-0.0769160142770802</v>
       </c>
       <c r="XO2">
-        <v>-0.3208881145245106</v>
+        <v>-0.0780239935307766</v>
       </c>
       <c r="XP2">
-        <v>-0.3213550266551867</v>
+        <v>-0.07813697426649296</v>
       </c>
       <c r="XQ2">
-        <v>-0.3196090069919466</v>
+        <v>-0.07726750704682088</v>
       </c>
       <c r="XR2">
-        <v>-0.3185949489949984</v>
+        <v>-0.07697438047914812</v>
       </c>
       <c r="XS2">
-        <v>-0.3191805083884364</v>
+        <v>-0.07710967793314062</v>
       </c>
       <c r="XT2">
-        <v>-0.3158113861281389</v>
+        <v>-0.07691799977921496</v>
       </c>
       <c r="XU2">
-        <v>-0.3209021297457806</v>
+        <v>-0.0780260731634156</v>
       </c>
       <c r="XV2">
-        <v>-0.3214065305237739</v>
+        <v>-0.0781486950635419</v>
       </c>
       <c r="XW2">
-        <v>-0.3185949489949993</v>
+        <v>-0.07697438047914267</v>
       </c>
       <c r="XX2">
-        <v>-0.3191994258421541</v>
+        <v>-0.07711404130054145</v>
       </c>
       <c r="XY2">
-        <v>-0.3158150727465364</v>
+        <v>-0.07692052433575002</v>
       </c>
       <c r="XZ2">
-        <v>-0.3209353643802976</v>
+        <v>-0.0780310046015695</v>
       </c>
       <c r="YA2">
-        <v>-0.321465958751799</v>
+        <v>-0.07816221914067527</v>
       </c>
       <c r="YB2">
-        <v>-0.3185949489950036</v>
+        <v>-0.07697438047913673</v>
       </c>
       <c r="YC2">
-        <v>-0.3192049179129021</v>
+        <v>-0.07711530805770059</v>
       </c>
       <c r="YD2">
-        <v>-0.3158173123388542</v>
+        <v>-0.07692205798377452</v>
       </c>
       <c r="YE2">
-        <v>-0.320960628514413</v>
+        <v>-0.078034753314391</v>
       </c>
       <c r="YF2">
-        <v>-0.3215260371154141</v>
+        <v>-0.07817589108647208</v>
       </c>
       <c r="YG2">
-        <v>-0.3185949489950072</v>
+        <v>-0.07697438047913266</v>
       </c>
       <c r="YH2">
-        <v>-0.3192073000040074</v>
+        <v>-0.07711585070776689</v>
       </c>
       <c r="YI2">
-        <v>-0.3192175708240721</v>
+        <v>-0.0771182624983905</v>
       </c>
       <c r="YJ2">
-        <v>-0.3158193342150317</v>
+        <v>-0.07692344254177219</v>
       </c>
       <c r="YK2">
-        <v>-0.3209783637264486</v>
+        <v>-0.07803738485765599</v>
       </c>
       <c r="YL2">
-        <v>-0.3215926422970167</v>
+        <v>-0.0781910482336267</v>
       </c>
       <c r="YM2">
-        <v>-0.3185949489950037</v>
+        <v>-0.07697438047912727</v>
       </c>
       <c r="YN2">
-        <v>-0.3192095294411527</v>
+        <v>-0.07711635858222647</v>
       </c>
       <c r="YO2">
-        <v>-0.3192342672831354</v>
+        <v>-0.07712216108303897</v>
       </c>
       <c r="YP2">
-        <v>-0.3158227441849044</v>
+        <v>-0.07692577764976397</v>
       </c>
       <c r="YQ2">
-        <v>-0.3209969430662097</v>
+        <v>-0.0780401416328065</v>
       </c>
       <c r="YR2">
-        <v>-0.321689501221628</v>
+        <v>-0.07821308995471705</v>
       </c>
       <c r="YS2">
-        <v>-0.3185949489950013</v>
+        <v>-0.07697438047912387</v>
       </c>
       <c r="YT2">
-        <v>-0.3192118260514574</v>
+        <v>-0.07711688175857474</v>
       </c>
       <c r="YU2">
-        <v>-0.3193036334579286</v>
+        <v>-0.07713835768131572</v>
       </c>
       <c r="YV2">
-        <v>-0.315826096651717</v>
+        <v>-0.07692807337920973</v>
       </c>
       <c r="YW2">
-        <v>-0.3210121970054821</v>
+        <v>-0.07804240497505506</v>
       </c>
       <c r="YX2">
-        <v>-0.3217311479715039</v>
+        <v>-0.07822147680224328</v>
       </c>
       <c r="YY2">
-        <v>-0.3218973967578602</v>
+        <v>-0.07826193092148029</v>
       </c>
       <c r="YZ2">
-        <v>-0.3185949489949987</v>
+        <v>-0.0769743804791222</v>
       </c>
       <c r="ZA2">
-        <v>-0.3192284311313888</v>
+        <v>-0.07712066444480731</v>
       </c>
       <c r="ZB2">
-        <v>-0.319333092271553</v>
+        <v>-0.0771452360242213</v>
       </c>
       <c r="ZC2">
-        <v>-0.3158276828580553</v>
+        <v>-0.07692915959407902</v>
       </c>
       <c r="ZD2">
-        <v>-0.3210374535631126</v>
+        <v>-0.07804615245192174</v>
       </c>
       <c r="ZE2">
-        <v>-0.3217561572221589</v>
+        <v>-0.07822651311906581</v>
       </c>
       <c r="ZF2">
-        <v>-0.3232139702368823</v>
+        <v>-0.07857121034116497</v>
       </c>
       <c r="ZG2">
-        <v>-0.3185949489949987</v>
+        <v>-0.0769743804791222</v>
       </c>
       <c r="ZH2">
-        <v>-0.3193493549572207</v>
+        <v>-0.07714821058288826</v>
       </c>
       <c r="ZI2">
-        <v>-0.3158294250918602</v>
+        <v>-0.07693035265438138</v>
       </c>
       <c r="ZJ2">
-        <v>-0.3211190772613113</v>
+        <v>-0.07805826323047514</v>
       </c>
       <c r="ZK2">
-        <v>-0.321779357176722</v>
+        <v>-0.07823118504217438</v>
       </c>
       <c r="ZL2">
-        <v>-0.3241565101223354</v>
+        <v>-0.07879259957994485</v>
       </c>
       <c r="ZM2">
-        <v>-0.3158310972646096</v>
+        <v>-0.07693149773745314</v>
       </c>
       <c r="ZN2">
-        <v>-0.3213098129826861</v>
+        <v>-0.07808656182574342</v>
       </c>
       <c r="ZO2">
-        <v>-0.3218019943733664</v>
+        <v>-0.07823574360108819</v>
       </c>
       <c r="ZP2">
-        <v>-0.3245562111196681</v>
+        <v>-0.07883706453010003</v>
       </c>
       <c r="ZQ2">
-        <v>-0.3264252822861118</v>
+        <v>-0.07937839562073408</v>
       </c>
       <c r="ZR2">
-        <v>-0.3158331138927521</v>
+        <v>-0.07693287869892027</v>
       </c>
       <c r="ZS2">
-        <v>-0.3218189739415548</v>
+        <v>-0.0782391628320542</v>
       </c>
       <c r="ZT2">
-        <v>-0.3245653277933953</v>
+        <v>-0.07883706453003737</v>
       </c>
       <c r="ZU2">
-        <v>-0.3246351116615962</v>
+        <v>-0.07884867213577215</v>
       </c>
       <c r="ZV2">
-        <v>-0.3266523289721857</v>
+        <v>-0.07943016511764703</v>
       </c>
       <c r="ZW2">
-        <v>-0.3268540579056574</v>
+        <v>-0.07949040327521055</v>
       </c>
       <c r="ZX2">
-        <v>-0.3158363306739124</v>
+        <v>-0.07693508150918316</v>
       </c>
       <c r="ZY2">
-        <v>-0.3218459473737481</v>
+        <v>-0.07824459451651916</v>
       </c>
       <c r="ZZ2">
-        <v>-0.3245681804651531</v>
+        <v>-0.0788370645300172</v>
       </c>
       <c r="AAA2">
-        <v>-0.3247958532460092</v>
+        <v>-0.07887231884326586</v>
       </c>
       <c r="AAB2">
-        <v>-0.3267838738833289</v>
+        <v>-0.07946015711834527</v>
       </c>
       <c r="AAC2">
-        <v>-0.3273365976544244</v>
+        <v>-0.079616468301305</v>
       </c>
       <c r="AAD2">
-        <v>-0.3158451346704741</v>
+        <v>-0.07694111036731514</v>
       </c>
       <c r="AAE2">
-        <v>-0.3218914263781321</v>
+        <v>-0.07825375257775502</v>
       </c>
       <c r="AAF2">
-        <v>-0.3245700146524473</v>
+        <v>-0.07883706453000423</v>
       </c>
       <c r="AAG2">
-        <v>-0.3286097007981778</v>
+        <v>-0.07994902344917855</v>
       </c>
       <c r="AAH2">
-        <v>-0.3273365976544209</v>
+        <v>-0.07961646830130087</v>
       </c>
       <c r="AAI2">
-        <v>-0.3158568512287167</v>
+        <v>-0.07694913369660812</v>
       </c>
       <c r="AAJ2">
-        <v>-0.3222322279396966</v>
+        <v>-0.07832237461934032</v>
       </c>
       <c r="AAK2">
-        <v>-0.3245711209834471</v>
+        <v>-0.0788370645299972</v>
       </c>
       <c r="AAL2">
-        <v>-0.3295691448282098</v>
+        <v>-0.08025236906635629</v>
       </c>
       <c r="AAM2">
-        <v>-0.3289487384541976</v>
+        <v>-0.08000502965896093</v>
       </c>
       <c r="AAN2">
-        <v>-0.3273365976544169</v>
+        <v>-0.07961646830129929</v>
       </c>
       <c r="AAO2">
-        <v>-0.3158579671960496</v>
+        <v>-0.07694989789416373</v>
       </c>
       <c r="AAP2">
-        <v>-0.322511851239099</v>
+        <v>-0.07837867176432166</v>
       </c>
       <c r="AAQ2">
-        <v>-0.3245722391662889</v>
+        <v>-0.07883706452998841</v>
       </c>
       <c r="AAR2">
-        <v>-0.3305596065966906</v>
+        <v>-0.08056547596802814</v>
       </c>
       <c r="AAS2">
-        <v>-0.3289850363310655</v>
+        <v>-0.08001102533910513</v>
       </c>
       <c r="AAT2">
-        <v>-0.3273365976544177</v>
+        <v>-0.07961646830129776</v>
       </c>
       <c r="AAU2">
-        <v>-0.3158588497668818</v>
+        <v>-0.07695050226524057</v>
       </c>
       <c r="AAV2">
-        <v>-0.3226004530532333</v>
+        <v>-0.0783965089577917</v>
       </c>
       <c r="AAW2">
-        <v>-0.3245732379393147</v>
+        <v>-0.07883706452998328</v>
       </c>
       <c r="AAX2">
-        <v>-0.3309077047182717</v>
+        <v>-0.08066561496884067</v>
       </c>
       <c r="AAY2">
-        <v>-0.3307892342151994</v>
+        <v>-0.08067140492090939</v>
       </c>
       <c r="AAZ2">
-        <v>-0.3289988955215721</v>
+        <v>-0.08001331457714322</v>
       </c>
       <c r="ABA2">
-        <v>-0.327336597654415</v>
+        <v>-0.07961646830129876</v>
       </c>
       <c r="ABB2">
-        <v>-0.3158597069550316</v>
+        <v>-0.07695108925456891</v>
       </c>
       <c r="ABC2">
-        <v>-0.3226811167961003</v>
+        <v>-0.0784127475695794</v>
       </c>
       <c r="ABD2">
-        <v>-0.324574363210062</v>
+        <v>-0.07883706452997956</v>
       </c>
       <c r="ABE2">
-        <v>-0.3313807582341718</v>
+        <v>-0.08080169178765233</v>
       </c>
       <c r="ABF2">
-        <v>-0.3308200389385168</v>
+        <v>-0.08068561491820979</v>
       </c>
       <c r="ABG2">
-        <v>-0.3290135558974066</v>
+        <v>-0.08001573614050242</v>
       </c>
       <c r="ABH2">
-        <v>-0.3273365976544129</v>
+        <v>-0.07961646830130291</v>
       </c>
       <c r="ABI2">
-        <v>-0.3158606250963065</v>
+        <v>-0.07695171798358372</v>
       </c>
       <c r="ABJ2">
-        <v>-0.322725051835262</v>
+        <v>-0.0784215920372546</v>
       </c>
       <c r="ABK2">
-        <v>-0.3245752647797766</v>
+        <v>-0.07883706452997745</v>
       </c>
       <c r="ABL2">
-        <v>-0.3319346706085233</v>
+        <v>-0.08096101545634561</v>
       </c>
       <c r="ABM2">
-        <v>-0.3308362231988947</v>
+        <v>-0.0806930805580825</v>
       </c>
       <c r="ABN2">
-        <v>-0.3290257228116533</v>
+        <v>-0.08001774583000086</v>
       </c>
       <c r="ABO2">
-        <v>-0.3273365976544088</v>
+        <v>-0.07961646830131056</v>
       </c>
       <c r="ABP2">
-        <v>-0.3158614739875917</v>
+        <v>-0.07695229929119869</v>
       </c>
       <c r="ABQ2">
-        <v>-0.3227601414826259</v>
+        <v>-0.07842865575665232</v>
       </c>
       <c r="ABR2">
-        <v>-0.3245763462137887</v>
+        <v>-0.07883706452997545</v>
       </c>
       <c r="ABS2">
-        <v>-0.3323794884295128</v>
+        <v>-0.08108894996947776</v>
       </c>
       <c r="ABT2">
-        <v>-0.330882148912161</v>
+        <v>-0.08071401023080949</v>
       </c>
       <c r="ABU2">
-        <v>-0.3308377220612244</v>
+        <v>-0.0806937802973645</v>
       </c>
       <c r="ABV2">
-        <v>-0.3290401315166684</v>
+        <v>-0.08002012579884006</v>
       </c>
       <c r="ABW2">
-        <v>-0.3273365976544021</v>
+        <v>-0.07961646830131933</v>
       </c>
       <c r="ABX2">
-        <v>-0.3158622739781986</v>
+        <v>-0.07695284711232253</v>
       </c>
       <c r="ABY2">
-        <v>-0.3227900634190599</v>
+        <v>-0.07843467911903736</v>
       </c>
       <c r="ABZ2">
-        <v>-0.324577511588888</v>
+        <v>-0.07883706452997452</v>
       </c>
       <c r="ACA2">
-        <v>-0.3324437494524901</v>
+        <v>-0.08110736062738594</v>
       </c>
       <c r="ACB2">
-        <v>-0.3328339208270406</v>
+        <v>-0.0812199671311228</v>
       </c>
       <c r="ACC2">
-        <v>-0.3309194815368833</v>
+        <v>-0.08073102360957968</v>
       </c>
       <c r="ACD2">
-        <v>-0.3308388059547573</v>
+        <v>-0.08069428630957648</v>
       </c>
       <c r="ACE2">
-        <v>-0.3290541835976825</v>
+        <v>-0.08002244684947223</v>
       </c>
       <c r="ACF2">
-        <v>-0.3273365976543959</v>
+        <v>-0.07961646830132479</v>
       </c>
       <c r="ACG2">
-        <v>-0.315863386612541</v>
+        <v>-0.07695360902691166</v>
       </c>
       <c r="ACH2">
-        <v>-0.3228251775417888</v>
+        <v>-0.07844174759814714</v>
       </c>
       <c r="ACI2">
-        <v>-0.3245796377565717</v>
+        <v>-0.07883706452997412</v>
       </c>
       <c r="ACJ2">
-        <v>-0.3325323482034504</v>
+        <v>-0.08113274369512255</v>
       </c>
       <c r="ACK2">
-        <v>-0.333213838941763</v>
+        <v>-0.0813294863019938</v>
       </c>
       <c r="ACL2">
-        <v>-0.3308397206646755</v>
+        <v>-0.08069471333885937</v>
       </c>
       <c r="ACM2">
-        <v>-0.329073502347156</v>
+        <v>-0.08002563780111284</v>
       </c>
       <c r="ACN2">
-        <v>-0.3273365976543886</v>
+        <v>-0.07961646830133012</v>
       </c>
       <c r="ACO2">
-        <v>-0.3158647501011435</v>
+        <v>-0.07695454272240708</v>
       </c>
       <c r="ACP2">
-        <v>-0.3228572632056706</v>
+        <v>-0.0784482063689646</v>
       </c>
       <c r="ACQ2">
-        <v>-0.3245955448747905</v>
+        <v>-0.07883706452997537</v>
       </c>
       <c r="ACR2">
-        <v>-0.3327503111703278</v>
+        <v>-0.08119518742889667</v>
       </c>
       <c r="ACS2">
-        <v>-0.3334038364453955</v>
+        <v>-0.08136980743120772</v>
       </c>
       <c r="ACT2">
-        <v>-0.3332169659692807</v>
+        <v>-0.08133091069373831</v>
       </c>
       <c r="ACU2">
-        <v>-0.3308412657164091</v>
+        <v>-0.08069543464090417</v>
       </c>
       <c r="ACV2">
-        <v>-0.3291000786926341</v>
+        <v>-0.08003002747928038</v>
       </c>
       <c r="ACW2">
-        <v>-0.3273365976543844</v>
+        <v>-0.07961646830133436</v>
       </c>
       <c r="ACX2">
-        <v>-0.3158712126949166</v>
+        <v>-0.0769589682022382</v>
       </c>
       <c r="ACY2">
-        <v>-0.3229070412169012</v>
+        <v>-0.07845822641959055</v>
       </c>
       <c r="ACZ2">
-        <v>-0.324644292865288</v>
+        <v>-0.07883706452997535</v>
       </c>
       <c r="ADA2">
-        <v>-0.3329269809098418</v>
+        <v>-0.08124579960255406</v>
       </c>
       <c r="ADB2">
-        <v>-0.3335900295869423</v>
+        <v>-0.08140931853380197</v>
       </c>
       <c r="ADC2">
-        <v>-0.3332199558129019</v>
+        <v>-0.08133227259583746</v>
       </c>
       <c r="ADD2">
-        <v>-0.3308434293802971</v>
+        <v>-0.08069644473943166</v>
       </c>
       <c r="ADE2">
-        <v>-0.3291282043420165</v>
+        <v>-0.08003467301131241</v>
       </c>
       <c r="ADF2">
-        <v>-0.3273365976543797</v>
+        <v>-0.07961646830133952</v>
       </c>
       <c r="ADG2">
-        <v>-0.3159264704871569</v>
+        <v>-0.07699680767834582</v>
       </c>
       <c r="ADH2">
-        <v>-0.3230075415113693</v>
+        <v>-0.07847845604454035</v>
       </c>
       <c r="ADI2">
-        <v>-0.3330650302205038</v>
+        <v>-0.08128534686547755</v>
       </c>
       <c r="ADJ2">
-        <v>-0.333223179025087</v>
+        <v>-0.08133374079839738</v>
       </c>
       <c r="ADK2">
-        <v>-0.3308450348709117</v>
+        <v>-0.0806971942564752</v>
       </c>
       <c r="ADL2">
-        <v>-0.3291468876403549</v>
+        <v>-0.08003775891652425</v>
       </c>
       <c r="ADM2">
-        <v>-0.3273365976543729</v>
+        <v>-0.07961646830134322</v>
       </c>
       <c r="ADN2">
-        <v>-0.3230290742424898</v>
+        <v>-0.07848223284813602</v>
       </c>
       <c r="ADO2">
-        <v>-0.3230581491248097</v>
+        <v>-0.07849196558111393</v>
       </c>
       <c r="ADP2">
-        <v>-0.3331898036907264</v>
+        <v>-0.08132109024101949</v>
       </c>
       <c r="ADQ2">
-        <v>-0.3332260571113297</v>
+        <v>-0.08133505179195046</v>
       </c>
       <c r="ADR2">
-        <v>-0.3308476944355485</v>
+        <v>-0.0806984358632281</v>
       </c>
       <c r="ADS2">
-        <v>-0.3291659029055403</v>
+        <v>-0.08004089962990632</v>
       </c>
       <c r="ADT2">
-        <v>-0.3273365976543679</v>
+        <v>-0.07961646830134896</v>
       </c>
       <c r="ADU2">
-        <v>-0.3230478529881555</v>
+        <v>-0.07848552658252232</v>
       </c>
       <c r="ADV2">
-        <v>-0.3231391310959876</v>
+        <v>-0.07851358297787436</v>
       </c>
       <c r="ADW2">
-        <v>-0.3331922681088792</v>
+        <v>-0.08132278838918028</v>
       </c>
       <c r="ADX2">
-        <v>-0.3332767193649554</v>
+        <v>-0.08133460940762997</v>
       </c>
       <c r="ADY2">
-        <v>-0.3332292354823508</v>
+        <v>-0.08133649956676756</v>
       </c>
       <c r="ADZ2">
-        <v>-0.3308661546130825</v>
+        <v>-0.08070705389868275</v>
       </c>
       <c r="AEA2">
-        <v>-0.3291749949788068</v>
+        <v>-0.08004240134146295</v>
       </c>
       <c r="AEB2">
-        <v>-0.3273365976543648</v>
+        <v>-0.07961646830135088</v>
       </c>
       <c r="AEC2">
-        <v>-0.3230633839872468</v>
+        <v>-0.07848825065456182</v>
       </c>
       <c r="AED2">
-        <v>-0.3232083246331148</v>
+        <v>-0.07853205309671242</v>
       </c>
       <c r="AEE2">
-        <v>-0.3331947390041634</v>
+        <v>-0.08132449099992366</v>
       </c>
       <c r="AEF2">
-        <v>-0.3333733492716407</v>
+        <v>-0.08134963980817453</v>
       </c>
       <c r="AEG2">
-        <v>-0.3332767193649554</v>
+        <v>-0.08133460940762997</v>
       </c>
       <c r="AEH2">
-        <v>-0.3332312846850443</v>
+        <v>-0.08133743299527901</v>
       </c>
       <c r="AEI2">
-        <v>-0.3309069314199463</v>
+        <v>-0.08072609019665497</v>
       </c>
       <c r="AEJ2">
-        <v>-0.3291894571009593</v>
+        <v>-0.08004478999782592</v>
       </c>
       <c r="AEK2">
-        <v>-0.3273365976543637</v>
+        <v>-0.07961646830135272</v>
       </c>
       <c r="AEL2">
-        <v>-0.3230754617226319</v>
+        <v>-0.07849036902765572</v>
       </c>
       <c r="AEM2">
-        <v>-0.3232474864294922</v>
+        <v>-0.07854250652884234</v>
       </c>
       <c r="AEN2">
-        <v>-0.3331972146980359</v>
+        <v>-0.0813261969166137</v>
       </c>
       <c r="AEO2">
-        <v>-0.3334543717627155</v>
+        <v>-0.08136224233068926</v>
       </c>
       <c r="AEP2">
-        <v>-0.3333733492716407</v>
+        <v>-0.08134963980817453</v>
       </c>
       <c r="AEQ2">
-        <v>-0.3332344321241157</v>
+        <v>-0.08133886667847837</v>
       </c>
       <c r="AER2">
-        <v>-0.3292030339084386</v>
+        <v>-0.08004703241800841</v>
       </c>
       <c r="AES2">
-        <v>-0.3273365976543622</v>
+        <v>-0.0796164683013549</v>
       </c>
       <c r="AET2">
-        <v>-0.3230877455952805</v>
+        <v>-0.07849252354631228</v>
       </c>
       <c r="AEU2">
-        <v>-0.3331996754077977</v>
+        <v>-0.08132789250766725</v>
       </c>
       <c r="AEV2">
-        <v>-0.3335414704932381</v>
+        <v>-0.0813757897630996</v>
       </c>
       <c r="AEW2">
-        <v>-0.3334543717627155</v>
+        <v>-0.08136224233068926</v>
       </c>
       <c r="AEX2">
-        <v>-0.3332603207779246</v>
+        <v>-0.08135065912102266</v>
       </c>
       <c r="AEY2">
-        <v>-0.3292224330546487</v>
+        <v>-0.08005023646757617</v>
       </c>
       <c r="AEZ2">
-        <v>-0.3273365976543622</v>
+        <v>-0.0796164683013549</v>
       </c>
       <c r="AFA2">
-        <v>-0.3230984058684758</v>
+        <v>-0.07849439328716096</v>
       </c>
       <c r="AFB2">
-        <v>-0.3332021454722285</v>
+        <v>-0.08132959454410679</v>
       </c>
       <c r="AFC2">
-        <v>-0.3336129828819489</v>
+        <v>-0.08138691271630263</v>
       </c>
       <c r="AFD2">
-        <v>-0.3335414704932381</v>
+        <v>-0.0813757897630996</v>
       </c>
       <c r="AFE2">
-        <v>-0.3333495471188868</v>
+        <v>-0.08139130169325358</v>
       </c>
       <c r="AFF2">
-        <v>-0.3294272146826645</v>
+        <v>-0.08008405767279479</v>
       </c>
       <c r="AFG2">
-        <v>-0.323106062271159</v>
+        <v>-0.07849573616452811</v>
       </c>
       <c r="AFH2">
-        <v>-0.3332046138608656</v>
+        <v>-0.08133129542522018</v>
       </c>
       <c r="AFI2">
-        <v>-0.3336897605529802</v>
+        <v>-0.08139885446230344</v>
       </c>
       <c r="AFJ2">
-        <v>-0.3336129828819489</v>
+        <v>-0.08138691271630262</v>
       </c>
       <c r="AFK2">
-        <v>-0.3295091275256641</v>
+        <v>-0.08009758544874974</v>
       </c>
       <c r="AFL2">
-        <v>-0.3231149514022505</v>
+        <v>-0.07849729524864858</v>
       </c>
       <c r="AFM2">
-        <v>-0.3332070838108173</v>
+        <v>-0.08133299738158833</v>
       </c>
       <c r="AFN2">
-        <v>-0.3338610457922649</v>
+        <v>-0.08142549674408217</v>
       </c>
       <c r="AFO2">
-        <v>-0.3336897605530047</v>
+        <v>-0.08139885446229075</v>
       </c>
       <c r="AFP2">
-        <v>-0.3336897605529802</v>
+        <v>-0.08139885446230344</v>
       </c>
       <c r="AFQ2">
-        <v>-0.3295507238937093</v>
+        <v>-0.08010445486148431</v>
       </c>
       <c r="AFR2">
-        <v>-0.3231283430658356</v>
+        <v>-0.07849964403194581</v>
       </c>
       <c r="AFS2">
-        <v>-0.3332082894725791</v>
+        <v>-0.08133382816084211</v>
       </c>
       <c r="AFT2">
-        <v>-0.3338861065927434</v>
+        <v>-0.08142939461855908</v>
       </c>
       <c r="AFU2">
-        <v>-0.3336897605530375</v>
+        <v>-0.08139885446228079</v>
       </c>
       <c r="AFV2">
-        <v>-0.3336897605530047</v>
+        <v>-0.08139885446229075</v>
       </c>
       <c r="AFW2">
-        <v>-0.3295599284708409</v>
+        <v>-0.08010597493237637</v>
       </c>
       <c r="AFX2">
-        <v>-0.3231502225189323</v>
+        <v>-0.07850348147552232</v>
       </c>
       <c r="AFY2">
-        <v>-0.3332353870647711</v>
+        <v>-0.08135250012428996</v>
       </c>
       <c r="AFZ2">
-        <v>-0.3339567102639414</v>
+        <v>-0.08144037585260368</v>
       </c>
       <c r="AGA2">
-        <v>-0.3336897605530905</v>
+        <v>-0.08139885446226451</v>
       </c>
       <c r="AGB2">
-        <v>-0.3336897605530375</v>
+        <v>-0.08139885446228079</v>
       </c>
       <c r="AGC2">
-        <v>-0.3295671775538385</v>
+        <v>-0.08010717206347667</v>
       </c>
       <c r="AGD2">
-        <v>-0.3232920331235072</v>
+        <v>-0.0785342747385535</v>
       </c>
       <c r="AGE2">
-        <v>-0.3232401296153515</v>
+        <v>-0.07850348147552232</v>
       </c>
       <c r="AGF2">
-        <v>-0.3332530082920577</v>
+        <v>-0.08136464223156412</v>
       </c>
       <c r="AGG2">
-        <v>-0.3340396199685194</v>
+        <v>-0.08145327065570253</v>
       </c>
       <c r="AGH2">
-        <v>-0.3336897605531152</v>
+        <v>-0.08139885446225602</v>
       </c>
       <c r="AGI2">
-        <v>-0.3336897605530905</v>
+        <v>-0.08139885446226451</v>
       </c>
       <c r="AGJ2">
-        <v>-0.3295749444981771</v>
+        <v>-0.0801084547117898</v>
       </c>
       <c r="AGK2">
-        <v>-0.3332684199379533</v>
+        <v>-0.08137526177681824</v>
       </c>
       <c r="AGL2">
-        <v>-0.3340503754074268</v>
+        <v>-0.08145494339641582</v>
       </c>
       <c r="AGM2">
-        <v>-0.333689760553128</v>
+        <v>-0.08139885446224847</v>
       </c>
       <c r="AGN2">
-        <v>-0.3336897605531152</v>
+        <v>-0.08139885446225602</v>
       </c>
       <c r="AGO2">
-        <v>-0.3295811586408307</v>
+        <v>-0.08010948092467977</v>
       </c>
       <c r="AGP2">
-        <v>-0.3332845858566423</v>
+        <v>-0.08138640103623902</v>
       </c>
       <c r="AGQ2">
-        <v>-0.3340638944175434</v>
+        <v>-0.08145704593070681</v>
       </c>
       <c r="AGR2">
-        <v>-0.3340503754074267</v>
+        <v>-0.08145494339641647</v>
       </c>
       <c r="AGS2">
-        <v>-0.3336897605531381</v>
+        <v>-0.08139885446224956</v>
       </c>
       <c r="AGT2">
-        <v>-0.333689760553128</v>
+        <v>-0.08139885446224845</v>
       </c>
       <c r="AGU2">
-        <v>-0.3295871923353161</v>
+        <v>-0.08011047733576655</v>
       </c>
       <c r="AGV2">
-        <v>-0.3333121891717013</v>
+        <v>-0.08140542126895806</v>
       </c>
       <c r="AGW2">
-        <v>-0.3340764040029058</v>
+        <v>-0.08145899146391429</v>
       </c>
       <c r="AGX2">
-        <v>-0.3340503754074268</v>
+        <v>-0.08145494339641619</v>
       </c>
       <c r="AGY2">
-        <v>-0.333689760553138</v>
+        <v>-0.08139885446224956</v>
       </c>
       <c r="AGZ2">
-        <v>-0.3336897605531381</v>
+        <v>-0.08139885446224956</v>
       </c>
       <c r="AHA2">
-        <v>-0.3295932107425097</v>
+        <v>-0.0801114712200126</v>
       </c>
       <c r="AHB2">
-        <v>-0.3333189597226235</v>
+        <v>-0.08141008654705463</v>
       </c>
       <c r="AHC2">
-        <v>-0.3340954260791978</v>
+        <v>-0.08146194982152036</v>
       </c>
       <c r="AHD2">
-        <v>-0.3340503754074268</v>
+        <v>-0.08145494339641621</v>
       </c>
       <c r="AHE2">
-        <v>-0.3295991587502509</v>
+        <v>-0.08011245347620627</v>
       </c>
       <c r="AHF2">
-        <v>-0.3333189597226314</v>
+        <v>-0.08141348921427574</v>
       </c>
       <c r="AHG2">
-        <v>-0.333358538594982</v>
+        <v>-0.0814193273754891</v>
       </c>
       <c r="AHH2">
-        <v>-0.3341194650498976</v>
+        <v>-0.0814656883831789</v>
       </c>
       <c r="AHI2">
-        <v>-0.3297055242095396</v>
+        <v>-0.08013001833216297</v>
       </c>
       <c r="AHJ2">
-        <v>-0.3333189597226448</v>
+        <v>-0.08141907612628704</v>
       </c>
       <c r="AHK2">
-        <v>-0.3333921072072647</v>
+        <v>-0.08142716486321395</v>
       </c>
       <c r="AHL2">
-        <v>-0.3342130511360025</v>
+        <v>-0.08148024260003911</v>
       </c>
       <c r="AHM2">
-        <v>-0.3297770732682858</v>
+        <v>-0.08019681931127749</v>
       </c>
       <c r="AHN2">
-        <v>-0.3299456991530378</v>
+        <v>-0.08013891612772901</v>
       </c>
       <c r="AHO2">
-        <v>-0.3333189597226469</v>
+        <v>-0.0814201807830837</v>
       </c>
       <c r="AHP2">
-        <v>-0.3334485299867987</v>
+        <v>-0.08144033811629597</v>
       </c>
       <c r="AHQ2">
-        <v>-0.3343830679652787</v>
+        <v>-0.08150668157075711</v>
       </c>
       <c r="AHR2">
-        <v>-0.3298245913148576</v>
+        <v>-0.08024118392552845</v>
       </c>
       <c r="AHS2">
-        <v>-0.3333189597226479</v>
+        <v>-0.08142111419472037</v>
       </c>
       <c r="AHT2">
-        <v>-0.3333189597226502</v>
+        <v>-0.0814219007779101</v>
       </c>
       <c r="AHU2">
-        <v>-0.3333189597226519</v>
+        <v>-0.08142292399189999</v>
       </c>
       <c r="AHV2">
-        <v>-0.3333189597226542</v>
+        <v>-0.08142477585106922</v>
       </c>
       <c r="AHW2">
-        <v>-0.3333189597226544</v>
+        <v>-0.08142798664694749</v>
       </c>
       <c r="AHX2">
-        <v>-0.3333189597226544</v>
+        <v>-0.08145428661945293</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.1889396982845793</v>
+        <v>-0.07313749042149344</v>
       </c>
       <c r="D3">
-        <v>-0.190616153452382</v>
+        <v>-0.07379226363937391</v>
       </c>
       <c r="E3">
-        <v>-0.1907919427034606</v>
+        <v>-0.07386091297057874</v>
       </c>
       <c r="F3">
-        <v>-0.1909566358869354</v>
+        <v>-0.07392522756205892</v>
       </c>
       <c r="G3">
-        <v>-0.191100229633852</v>
+        <v>-0.07398130139853072</v>
       </c>
       <c r="H3">
-        <v>-0.1913264555008475</v>
+        <v>-0.07406964112088642</v>
       </c>
       <c r="I3">
-        <v>-0.2067582878185571</v>
+        <v>-0.08008923071213944</v>
       </c>
       <c r="J3">
-        <v>-0.2074506978369545</v>
+        <v>-0.08035902611606927</v>
       </c>
       <c r="K3">
-        <v>-0.2080270850275037</v>
+        <v>-0.08058359414045227</v>
       </c>
       <c r="L3">
-        <v>-0.208532971653752</v>
+        <v>-0.08078067966141382</v>
       </c>
       <c r="M3">
-        <v>-0.2089104958060508</v>
+        <v>-0.08092774830286079</v>
       </c>
       <c r="N3">
-        <v>-0.2092649269409798</v>
+        <v>-0.08106581391178157</v>
       </c>
       <c r="O3">
-        <v>-0.2094828835992739</v>
+        <v>-0.08115071374262244</v>
       </c>
       <c r="P3">
-        <v>-0.2100255439087063</v>
+        <v>-0.08136208318508913</v>
       </c>
       <c r="Q3">
-        <v>-0.2144239614754676</v>
+        <v>-0.0830747157523183</v>
       </c>
       <c r="R3">
-        <v>-0.2144239614754685</v>
+        <v>-0.08307471575231924</v>
       </c>
       <c r="S3">
-        <v>-0.2197635698305868</v>
+        <v>-0.08515244365573386</v>
       </c>
       <c r="T3">
-        <v>-0.2144239614754687</v>
+        <v>-0.08307471575231962</v>
       </c>
       <c r="U3">
-        <v>-0.2201312004775339</v>
+        <v>-0.08529543901360001</v>
       </c>
       <c r="V3">
-        <v>-0.2144239614754687</v>
+        <v>-0.0830747157523201</v>
       </c>
       <c r="W3">
-        <v>-0.2205440425679893</v>
+        <v>-0.08545601148343394</v>
       </c>
       <c r="X3">
-        <v>-0.214423961475469</v>
+        <v>-0.08307471575231952</v>
       </c>
       <c r="Y3">
-        <v>-0.2212163140357352</v>
+        <v>-0.08571746811831174</v>
       </c>
       <c r="Z3">
-        <v>-0.2144239614754692</v>
+        <v>-0.0830747157523192</v>
       </c>
       <c r="AA3">
-        <v>-0.2224395960523106</v>
+        <v>-0.08619315968596745</v>
       </c>
       <c r="AB3">
-        <v>-0.2144239614754693</v>
+        <v>-0.08307471575231916</v>
       </c>
       <c r="AC3">
-        <v>-0.2232140488836094</v>
+        <v>-0.0862902711323357</v>
       </c>
       <c r="AD3">
-        <v>-0.2367387888468209</v>
+        <v>-0.09202595333490596</v>
       </c>
       <c r="AE3">
-        <v>-0.214423961475469</v>
+        <v>-0.08307471575231937</v>
       </c>
       <c r="AF3">
-        <v>-0.2233131111561346</v>
+        <v>-0.0863079570609696</v>
       </c>
       <c r="AG3">
-        <v>-0.2233254143499253</v>
+        <v>-0.08629910221740787</v>
       </c>
       <c r="AH3">
-        <v>-0.240553124098681</v>
+        <v>-0.093580000194092</v>
       </c>
       <c r="AI3">
-        <v>-0.2144239614754677</v>
+        <v>-0.08307471575232044</v>
       </c>
       <c r="AJ3">
-        <v>-0.2235399876216349</v>
+        <v>-0.08634845962395978</v>
       </c>
       <c r="AK3">
-        <v>-0.2233291858501033</v>
+        <v>-0.08629940128348822</v>
       </c>
       <c r="AL3">
-        <v>-0.2408981500645062</v>
+        <v>-0.09375463257131633</v>
       </c>
       <c r="AM3">
-        <v>-0.2517152933890974</v>
+        <v>-0.09808463858458327</v>
       </c>
       <c r="AN3">
-        <v>-0.2144239614754669</v>
+        <v>-0.08307471575232112</v>
       </c>
       <c r="AO3">
-        <v>-0.2233346085966329</v>
+        <v>-0.08629983128649328</v>
       </c>
       <c r="AP3">
-        <v>-0.2409174338226544</v>
+        <v>-0.09376247537686797</v>
       </c>
       <c r="AQ3">
-        <v>-0.2409199181445681</v>
+        <v>-0.09377430629955993</v>
       </c>
       <c r="AR3">
-        <v>-0.2594773593642907</v>
+        <v>-0.1012131866746418</v>
       </c>
       <c r="AS3">
-        <v>-0.2517152933891498</v>
+        <v>-0.09808463858451738</v>
       </c>
       <c r="AT3">
-        <v>-0.214423961475467</v>
+        <v>-0.08307471575232166</v>
       </c>
       <c r="AU3">
-        <v>-0.2233415629185544</v>
+        <v>-0.08630038273612256</v>
       </c>
       <c r="AV3">
-        <v>-0.2409261256449592</v>
+        <v>-0.09376601037319053</v>
       </c>
       <c r="AW3">
-        <v>-0.2409722971534344</v>
+        <v>-0.09382164573907023</v>
       </c>
       <c r="AX3">
-        <v>-0.265351681082887</v>
+        <v>-0.1035787259273809</v>
       </c>
       <c r="AY3">
-        <v>-0.2517152933891701</v>
+        <v>-0.09808463858449532</v>
       </c>
       <c r="AZ3">
-        <v>-0.2144239614754672</v>
+        <v>-0.08307471575232253</v>
       </c>
       <c r="BA3">
-        <v>-0.2233584999170198</v>
+        <v>-0.08630172576492862</v>
       </c>
       <c r="BB3">
-        <v>-0.2409353371535327</v>
+        <v>-0.09376975671876575</v>
       </c>
       <c r="BC3">
-        <v>-0.2661992702015834</v>
+        <v>-0.1039198906369798</v>
       </c>
       <c r="BD3">
-        <v>-0.2653516810828345</v>
+        <v>-0.1035787259273603</v>
       </c>
       <c r="BE3">
-        <v>-0.2517152933891902</v>
+        <v>-0.09808463858446795</v>
       </c>
       <c r="BF3">
-        <v>-0.2144239614754677</v>
+        <v>-0.08307471575232453</v>
       </c>
       <c r="BG3">
-        <v>-0.2233730011840095</v>
+        <v>-0.08630287564344795</v>
       </c>
       <c r="BH3">
-        <v>-0.2409441105139652</v>
+        <v>-0.09377332485961601</v>
       </c>
       <c r="BI3">
-        <v>-0.2700406166784281</v>
+        <v>-0.1054655975002785</v>
       </c>
       <c r="BJ3">
-        <v>-0.2653516810828307</v>
+        <v>-0.1035787259273577</v>
       </c>
       <c r="BK3">
-        <v>-0.2517152933892035</v>
+        <v>-0.09808463858446041</v>
       </c>
       <c r="BL3">
-        <v>-0.2144239614754677</v>
+        <v>-0.08307471575232608</v>
       </c>
       <c r="BM3">
-        <v>-0.2234425163906519</v>
+        <v>-0.0863083877571561</v>
       </c>
       <c r="BN3">
-        <v>-0.2409493649059086</v>
+        <v>-0.0937754618258433</v>
       </c>
       <c r="BO3">
-        <v>-0.2707946086819213</v>
+        <v>-0.1057572553126523</v>
       </c>
       <c r="BP3">
-        <v>-0.2705414642353436</v>
+        <v>-0.1058804429129252</v>
       </c>
       <c r="BQ3">
-        <v>-0.2653516810828281</v>
+        <v>-0.1035787259273546</v>
       </c>
       <c r="BR3">
-        <v>-0.251715293389217</v>
+        <v>-0.09808463858445683</v>
       </c>
       <c r="BS3">
-        <v>-0.2144239614754673</v>
+        <v>-0.08307471575232739</v>
       </c>
       <c r="BT3">
-        <v>-0.2236882464842526</v>
+        <v>-0.08632787130059608</v>
       </c>
       <c r="BU3">
-        <v>-0.240959673673734</v>
+        <v>-0.09377965440274139</v>
       </c>
       <c r="BV3">
-        <v>-0.2797122790263969</v>
+        <v>-0.1092045037888522</v>
       </c>
       <c r="BW3">
-        <v>-0.270737344037685</v>
+        <v>-0.105970819816977</v>
       </c>
       <c r="BX3">
-        <v>-0.2705904325165314</v>
+        <v>-0.1059928635060529</v>
       </c>
       <c r="BY3">
-        <v>-0.2653516810828226</v>
+        <v>-0.1035787259273477</v>
       </c>
       <c r="BZ3">
-        <v>-0.2517152933892456</v>
+        <v>-0.09808463858443849</v>
       </c>
       <c r="CA3">
-        <v>-0.2144239614754666</v>
+        <v>-0.0830747157523317</v>
       </c>
       <c r="CB3">
-        <v>-0.241011919649547</v>
+        <v>-0.09380090266640964</v>
       </c>
       <c r="CC3">
-        <v>-0.2828248863330485</v>
+        <v>-0.1104067410569556</v>
       </c>
       <c r="CD3">
-        <v>-0.2653516810828199</v>
+        <v>-0.1035787259273452</v>
       </c>
       <c r="CE3">
-        <v>-0.2517152933893462</v>
+        <v>-0.09808463858437988</v>
       </c>
       <c r="CF3">
-        <v>-0.2144239614754654</v>
+        <v>-0.08307471575233673</v>
       </c>
       <c r="CG3">
-        <v>-0.2412088053180481</v>
+        <v>-0.09388097270984994</v>
       </c>
       <c r="CH3">
-        <v>-0.2835044438923415</v>
+        <v>-0.1106691509091228</v>
       </c>
       <c r="CI3">
-        <v>-0.2653516810828183</v>
+        <v>-0.1035787259273425</v>
       </c>
       <c r="CJ3">
-        <v>-0.2517152933895384</v>
+        <v>-0.09808463858426926</v>
       </c>
       <c r="CK3">
-        <v>-0.2144239614754648</v>
+        <v>-0.08307471575233957</v>
       </c>
       <c r="CL3">
-        <v>-0.284882792776699</v>
+        <v>-0.11120132324773</v>
       </c>
       <c r="CM3">
-        <v>-0.2653516810828183</v>
+        <v>-0.1035787259273425</v>
       </c>
       <c r="CN3">
-        <v>-0.2517152933895866</v>
+        <v>-0.0980846385842435</v>
       </c>
       <c r="CO3">
-        <v>-0.2144239614754642</v>
+        <v>-0.08307471575234118</v>
       </c>
       <c r="CP3">
-        <v>-0.2861830245194221</v>
+        <v>-0.1117032436324624</v>
       </c>
       <c r="CQ3">
-        <v>-0.251715293389592</v>
+        <v>-0.09808463858423776</v>
       </c>
       <c r="CR3">
-        <v>-0.2144239614754641</v>
+        <v>-0.08307471575234109</v>
       </c>
       <c r="CS3">
-        <v>-0.2869389395037977</v>
+        <v>-0.1119950040248615</v>
       </c>
       <c r="CT3">
-        <v>-0.2517152933895976</v>
+        <v>-0.09808463858423666</v>
       </c>
       <c r="CU3">
-        <v>-0.2144239614754645</v>
+        <v>-0.08307471575234142</v>
       </c>
       <c r="CV3">
-        <v>-0.2874382341093666</v>
+        <v>-0.112187700250054</v>
       </c>
       <c r="CW3">
-        <v>-0.2517152933896014</v>
+        <v>-0.09808463858423989</v>
       </c>
       <c r="CX3">
-        <v>-0.2144239614754647</v>
+        <v>-0.08307471575234182</v>
       </c>
       <c r="CY3">
-        <v>-0.2881277111912706</v>
+        <v>-0.112453773420165</v>
       </c>
       <c r="CZ3">
-        <v>-0.2517152933892746</v>
+        <v>-0.09808463858441487</v>
       </c>
       <c r="DA3">
-        <v>-0.2144239614754647</v>
+        <v>-0.08307471575234182</v>
       </c>
       <c r="DB3">
-        <v>-0.2881751569694366</v>
+        <v>-0.1124691668552425</v>
       </c>
       <c r="DC3">
-        <v>-0.288524882171675</v>
+        <v>-0.1126105967268369</v>
       </c>
       <c r="DD3">
-        <v>-0.25171529338926</v>
+        <v>-0.09808463858442586</v>
       </c>
       <c r="DE3">
-        <v>-0.2882325599548336</v>
+        <v>-0.1124877908028791</v>
       </c>
       <c r="DF3">
-        <v>-0.2887501133002502</v>
+        <v>-0.1126995257224633</v>
       </c>
       <c r="DG3">
-        <v>-0.2517152933892185</v>
+        <v>-0.09808463858444057</v>
       </c>
       <c r="DH3">
-        <v>-0.2882990942988807</v>
+        <v>-0.1125093773064858</v>
       </c>
       <c r="DI3">
-        <v>-0.2976460882747577</v>
+        <v>-0.1162098158741152</v>
       </c>
       <c r="DJ3">
-        <v>-0.2517152933880386</v>
+        <v>-0.09808463858478796</v>
       </c>
       <c r="DK3">
-        <v>-0.2884005398285122</v>
+        <v>-0.1125422903621754</v>
       </c>
       <c r="DL3">
-        <v>-0.2985382349539136</v>
+        <v>-0.1165616199088629</v>
       </c>
       <c r="DM3">
-        <v>-0.2517152933869868</v>
+        <v>-0.09808463858509153</v>
       </c>
       <c r="DN3">
-        <v>-0.2885309624933385</v>
+        <v>-0.1125846046264678</v>
       </c>
       <c r="DO3">
-        <v>-0.2987180145588996</v>
+        <v>-0.1165848857583142</v>
       </c>
       <c r="DP3">
-        <v>-0.3023604769602505</v>
+        <v>-0.1182362695272526</v>
       </c>
       <c r="DQ3">
-        <v>-0.2517152933868916</v>
+        <v>-0.09808463858512134</v>
       </c>
       <c r="DR3">
-        <v>-0.2886245939847283</v>
+        <v>-0.1126149822749538</v>
       </c>
       <c r="DS3">
-        <v>-0.2987180145588999</v>
+        <v>-0.1165848857583164</v>
       </c>
       <c r="DT3">
-        <v>-0.2988055487008939</v>
+        <v>-0.1165962137688569</v>
       </c>
       <c r="DU3">
-        <v>-0.3092582576086281</v>
+        <v>-0.1212572134143216</v>
       </c>
       <c r="DV3">
-        <v>-0.2517152933868246</v>
+        <v>-0.0980846385851442</v>
       </c>
       <c r="DW3">
-        <v>-0.2887568952767863</v>
+        <v>-0.1126579057397188</v>
       </c>
       <c r="DX3">
-        <v>-0.2987180145588998</v>
+        <v>-0.116584885758318</v>
       </c>
       <c r="DY3">
-        <v>-0.299216759494375</v>
+        <v>-0.1166494290463151</v>
       </c>
       <c r="DZ3">
-        <v>-0.3123622285947646</v>
+        <v>-0.1226161213049151</v>
       </c>
       <c r="EA3">
-        <v>-0.2517152933867706</v>
+        <v>-0.09808463858516922</v>
       </c>
       <c r="EB3">
-        <v>-0.2889000366683368</v>
+        <v>-0.1127043459374167</v>
       </c>
       <c r="EC3">
-        <v>-0.2987180145589003</v>
+        <v>-0.1165848857583187</v>
       </c>
       <c r="ED3">
-        <v>-0.2993987703432924</v>
+        <v>-0.1166601472733103</v>
       </c>
       <c r="EE3">
-        <v>-0.3001217568144205</v>
+        <v>-0.1167850413646876</v>
       </c>
       <c r="EF3">
-        <v>-0.313285989955609</v>
+        <v>-0.1230204805446208</v>
       </c>
       <c r="EG3">
-        <v>-0.2517152933866065</v>
+        <v>-0.09808463858524516</v>
       </c>
       <c r="EH3">
-        <v>-0.2890350313829908</v>
+        <v>-0.1127481428717279</v>
       </c>
       <c r="EI3">
-        <v>-0.2987180145589003</v>
+        <v>-0.1165848857583198</v>
       </c>
       <c r="EJ3">
-        <v>-0.2994144457418363</v>
+        <v>-0.1166610703246039</v>
       </c>
       <c r="EK3">
-        <v>-0.3007950512624861</v>
+        <v>-0.1168859302837192</v>
       </c>
       <c r="EL3">
-        <v>-0.3143288686132657</v>
+        <v>-0.1234769479026969</v>
       </c>
       <c r="EM3">
-        <v>-0.251715293386489</v>
+        <v>-0.09808463858530574</v>
       </c>
       <c r="EN3">
-        <v>-0.2892569860569097</v>
+        <v>-0.1128201522117997</v>
       </c>
       <c r="EO3">
-        <v>-0.2987180145589004</v>
+        <v>-0.1165848857583208</v>
       </c>
       <c r="EP3">
-        <v>-0.2994298263945461</v>
+        <v>-0.1166619760136472</v>
       </c>
       <c r="EQ3">
-        <v>-0.3012459515908988</v>
+        <v>-0.1169534933629068</v>
       </c>
       <c r="ER3">
-        <v>-0.31530980746903</v>
+        <v>-0.1239062720680961</v>
       </c>
       <c r="ES3">
-        <v>-0.2517152933864635</v>
+        <v>-0.09808463858530872</v>
       </c>
       <c r="ET3">
-        <v>-0.2903123630300857</v>
+        <v>-0.1131625441447979</v>
       </c>
       <c r="EU3">
-        <v>-0.2987180145589002</v>
+        <v>-0.1165848857583225</v>
       </c>
       <c r="EV3">
-        <v>-0.2994422456988957</v>
+        <v>-0.1166627073194622</v>
       </c>
       <c r="EW3">
-        <v>-0.3015200496394187</v>
+        <v>-0.1169684863647867</v>
       </c>
       <c r="EX3">
-        <v>-0.3015759577529475</v>
+        <v>-0.1170517921911693</v>
       </c>
       <c r="EY3">
-        <v>-0.3164545357851463</v>
+        <v>-0.1244072419716079</v>
       </c>
       <c r="EZ3">
-        <v>-0.2517152933864563</v>
+        <v>-0.09808463858531376</v>
       </c>
       <c r="FA3">
-        <v>-0.2905422781992392</v>
+        <v>-0.113237133156903</v>
       </c>
       <c r="FB3">
-        <v>-0.2987180145589001</v>
+        <v>-0.1165848857583241</v>
       </c>
       <c r="FC3">
-        <v>-0.2994608862200248</v>
+        <v>-0.1166638049518434</v>
       </c>
       <c r="FD3">
-        <v>-0.3022469907034707</v>
+        <v>-0.1170082487470537</v>
       </c>
       <c r="FE3">
-        <v>-0.301596045653316</v>
+        <v>-0.117057775431988</v>
       </c>
       <c r="FF3">
-        <v>-0.3167839573391543</v>
+        <v>-0.1245513995618407</v>
       </c>
       <c r="FG3">
-        <v>-0.2517152933864565</v>
+        <v>-0.09808463858532053</v>
       </c>
       <c r="FH3">
-        <v>-0.290828291991881</v>
+        <v>-0.1133334495704224</v>
       </c>
       <c r="FI3">
-        <v>-0.2913130707325483</v>
+        <v>-0.1134859721736756</v>
       </c>
       <c r="FJ3">
-        <v>-0.2987180145588992</v>
+        <v>-0.1165848857583248</v>
       </c>
       <c r="FK3">
-        <v>-0.2994833596617479</v>
+        <v>-0.116665128271051</v>
       </c>
       <c r="FL3">
-        <v>-0.3024995027468862</v>
+        <v>-0.1170220604120625</v>
       </c>
       <c r="FM3">
-        <v>-0.3016143971751962</v>
+        <v>-0.1170632414536583</v>
       </c>
       <c r="FN3">
-        <v>-0.3186557248069191</v>
+        <v>-0.1253704336909251</v>
       </c>
       <c r="FO3">
-        <v>-0.2517152933864565</v>
+        <v>-0.09808463858532053</v>
       </c>
       <c r="FP3">
-        <v>-0.2908823290218823</v>
+        <v>-0.113351645844199</v>
       </c>
       <c r="FQ3">
-        <v>-0.29233642155832</v>
+        <v>-0.1138163366768647</v>
       </c>
       <c r="FR3">
-        <v>-0.2987180145588993</v>
+        <v>-0.1165848857583246</v>
       </c>
       <c r="FS3">
-        <v>-0.2995003380338657</v>
+        <v>-0.1166661280118088</v>
       </c>
       <c r="FT3">
-        <v>-0.3024995027476697</v>
+        <v>-0.1170220604121836</v>
       </c>
       <c r="FU3">
-        <v>-0.302920151828639</v>
+        <v>-0.1170450723022624</v>
       </c>
       <c r="FV3">
-        <v>-0.3016220206945927</v>
+        <v>-0.1170655121181373</v>
       </c>
       <c r="FW3">
-        <v>-0.3197131138696875</v>
+        <v>-0.1258330679768372</v>
       </c>
       <c r="FX3">
-        <v>-0.2909938225120106</v>
+        <v>-0.1133891889009651</v>
       </c>
       <c r="FY3">
-        <v>-0.2924657213093409</v>
+        <v>-0.1138644902847834</v>
       </c>
       <c r="FZ3">
-        <v>-0.2924515568439721</v>
+        <v>-0.1138363724044285</v>
       </c>
       <c r="GA3">
-        <v>-0.2987180145588986</v>
+        <v>-0.1165848857583238</v>
       </c>
       <c r="GB3">
-        <v>-0.2995199851300617</v>
+        <v>-0.1166672848864669</v>
       </c>
       <c r="GC3">
-        <v>-0.3024995027477896</v>
+        <v>-0.1170220604122015</v>
       </c>
       <c r="GD3">
-        <v>-0.3029655871618056</v>
+        <v>-0.1170475576228139</v>
       </c>
       <c r="GE3">
-        <v>-0.3016384531908038</v>
+        <v>-0.1170704065166087</v>
       </c>
       <c r="GF3">
-        <v>-0.3204981379278425</v>
+        <v>-0.1261765122999317</v>
       </c>
       <c r="GG3">
-        <v>-0.2929745579602623</v>
+        <v>-0.1140539886754065</v>
       </c>
       <c r="GH3">
-        <v>-0.2929281417033813</v>
+        <v>-0.1139192979801641</v>
       </c>
       <c r="GI3">
-        <v>-0.2987180145588976</v>
+        <v>-0.116584885758323</v>
       </c>
       <c r="GJ3">
-        <v>-0.2995384586308973</v>
+        <v>-0.1166683726477221</v>
       </c>
       <c r="GK3">
-        <v>-0.3024995027477713</v>
+        <v>-0.1170220604122165</v>
       </c>
       <c r="GL3">
-        <v>-0.3024995027478419</v>
+        <v>-0.1170220604122182</v>
       </c>
       <c r="GM3">
-        <v>-0.3030095365285893</v>
+        <v>-0.1170499616144106</v>
       </c>
       <c r="GN3">
-        <v>-0.3016803071171008</v>
+        <v>-0.1170828725398958</v>
       </c>
       <c r="GO3">
-        <v>-0.32120398025845</v>
+        <v>-0.1264852979460065</v>
       </c>
       <c r="GP3">
-        <v>-0.2938830908941794</v>
+        <v>-0.1143923330216735</v>
       </c>
       <c r="GQ3">
-        <v>-0.2929514309316468</v>
+        <v>-0.1139247898643936</v>
       </c>
       <c r="GR3">
-        <v>-0.2929685222484479</v>
+        <v>-0.1139254912699155</v>
       </c>
       <c r="GS3">
-        <v>-0.2987180145588972</v>
+        <v>-0.1165848857583229</v>
       </c>
       <c r="GT3">
-        <v>-0.2995583352050978</v>
+        <v>-0.1166695430154578</v>
       </c>
       <c r="GU3">
-        <v>-0.3024995027477713</v>
+        <v>-0.1170220604122165</v>
       </c>
       <c r="GV3">
-        <v>-0.3024995027478675</v>
+        <v>-0.1170220604122248</v>
       </c>
       <c r="GW3">
-        <v>-0.3030446922521216</v>
+        <v>-0.1170518845686722</v>
       </c>
       <c r="GX3">
-        <v>-0.3017048629767355</v>
+        <v>-0.1170901863259354</v>
       </c>
       <c r="GY3">
-        <v>-0.3220809279463461</v>
+        <v>-0.1268689147669517</v>
       </c>
       <c r="GZ3">
-        <v>-0.2939602717829881</v>
+        <v>-0.1144100922343627</v>
       </c>
       <c r="HA3">
-        <v>-0.2940779643358453</v>
+        <v>-0.114470449089898</v>
       </c>
       <c r="HB3">
-        <v>-0.2930103129609842</v>
+        <v>-0.1139386747666156</v>
       </c>
       <c r="HC3">
-        <v>-0.2929742301386529</v>
+        <v>-0.1139263666989929</v>
       </c>
       <c r="HD3">
-        <v>-0.2987180145588971</v>
+        <v>-0.1165848857583227</v>
       </c>
       <c r="HE3">
-        <v>-0.2995887208697399</v>
+        <v>-0.116671332157663</v>
       </c>
       <c r="HF3">
-        <v>-0.3024995027478842</v>
+        <v>-0.1170220604122294</v>
       </c>
       <c r="HG3">
-        <v>-0.3030726969613016</v>
+        <v>-0.1170534163545666</v>
       </c>
       <c r="HH3">
-        <v>-0.301722062147295</v>
+        <v>-0.1170953089408269</v>
       </c>
       <c r="HI3">
-        <v>-0.3236994542202229</v>
+        <v>-0.1275768663978583</v>
       </c>
       <c r="HJ3">
-        <v>-0.2942129141284774</v>
+        <v>-0.1144682215114491</v>
       </c>
       <c r="HK3">
-        <v>-0.2944296819714227</v>
+        <v>-0.1146114359349756</v>
       </c>
       <c r="HL3">
-        <v>-0.292978833401463</v>
+        <v>-0.113927072708035</v>
       </c>
       <c r="HM3">
-        <v>-0.2987180145588971</v>
+        <v>-0.1165848857583227</v>
       </c>
       <c r="HN3">
-        <v>-0.2996717030059388</v>
+        <v>-0.1166762181205284</v>
       </c>
       <c r="HO3">
-        <v>-0.3024995027478988</v>
+        <v>-0.1170220604122311</v>
       </c>
       <c r="HP3">
-        <v>-0.3031319045803025</v>
+        <v>-0.117056654798837</v>
       </c>
       <c r="HQ3">
-        <v>-0.3017551468090726</v>
+        <v>-0.1171051628239245</v>
       </c>
       <c r="HR3">
-        <v>-0.3251108333582829</v>
+        <v>-0.128194141577738</v>
       </c>
       <c r="HS3">
-        <v>-0.2943218330100993</v>
+        <v>-0.1144932805483108</v>
       </c>
       <c r="HT3">
-        <v>-0.2945552661829609</v>
+        <v>-0.1146617763315046</v>
       </c>
       <c r="HU3">
-        <v>-0.2929825120966679</v>
+        <v>-0.1139276369139104</v>
       </c>
       <c r="HV3">
-        <v>-0.2996787784755258</v>
+        <v>-0.1166766347139639</v>
       </c>
       <c r="HW3">
-        <v>-0.3024995027479185</v>
+        <v>-0.117022060412237</v>
       </c>
       <c r="HX3">
-        <v>-0.3031785331176717</v>
+        <v>-0.1170592051542818</v>
       </c>
       <c r="HY3">
-        <v>-0.301771614392603</v>
+        <v>-0.1171100674639115</v>
       </c>
       <c r="HZ3">
-        <v>-0.3260710689711381</v>
+        <v>-0.1286140695487308</v>
       </c>
       <c r="IA3">
-        <v>-0.2959692245158393</v>
+        <v>-0.1152285871400268</v>
       </c>
       <c r="IB3">
-        <v>-0.2945552661829609</v>
+        <v>-0.1146617763315046</v>
       </c>
       <c r="IC3">
-        <v>-0.292988127672009</v>
+        <v>-0.1139284981798602</v>
       </c>
       <c r="ID3">
-        <v>-0.2996820465763403</v>
+        <v>-0.1166768271345941</v>
       </c>
       <c r="IE3">
-        <v>-0.3024995027479351</v>
+        <v>-0.1170220604122342</v>
       </c>
       <c r="IF3">
-        <v>-0.3032108775778858</v>
+        <v>-0.1170609742096743</v>
       </c>
       <c r="IG3">
-        <v>-0.3017833074688905</v>
+        <v>-0.1171135500678246</v>
       </c>
       <c r="IH3">
-        <v>-0.3267019274765305</v>
+        <v>-0.1288899388531825</v>
       </c>
       <c r="II3">
-        <v>-0.2961746381048306</v>
+        <v>-0.1153109126703891</v>
       </c>
       <c r="IJ3">
-        <v>-0.292994710276099</v>
+        <v>-0.1139295077575183</v>
       </c>
       <c r="IK3">
-        <v>-0.2996855422111642</v>
+        <v>-0.1166770329517705</v>
       </c>
       <c r="IL3">
-        <v>-0.3024995027479545</v>
+        <v>-0.1170220604122232</v>
       </c>
       <c r="IM3">
-        <v>-0.3032431454601856</v>
+        <v>-0.1170627390521043</v>
       </c>
       <c r="IN3">
-        <v>-0.3019170757052748</v>
+        <v>-0.1171533899626847</v>
       </c>
       <c r="IO3">
-        <v>-0.3280598197891827</v>
+        <v>-0.1294836904334531</v>
       </c>
       <c r="IP3">
-        <v>-0.2963007497039606</v>
+        <v>-0.1153257774426893</v>
       </c>
       <c r="IQ3">
-        <v>-0.2966791282929989</v>
+        <v>-0.1155487612287559</v>
       </c>
       <c r="IR3">
-        <v>-0.293004820803553</v>
+        <v>-0.1139310584097502</v>
       </c>
       <c r="IS3">
-        <v>-0.2996888824493802</v>
+        <v>-0.1166772296191622</v>
       </c>
       <c r="IT3">
-        <v>-0.3024995027479571</v>
+        <v>-0.1170220604122331</v>
       </c>
       <c r="IU3">
-        <v>-0.3032903527891417</v>
+        <v>-0.1170653209404538</v>
       </c>
       <c r="IV3">
-        <v>-0.3019565233271809</v>
+        <v>-0.1171651382338048</v>
       </c>
       <c r="IW3">
-        <v>-0.3281688805357939</v>
+        <v>-0.1296887751639376</v>
       </c>
       <c r="IX3">
-        <v>-0.328941973412417</v>
+        <v>-0.1298448626836717</v>
       </c>
       <c r="IY3">
-        <v>-0.293041818848538</v>
+        <v>-0.1139367327506176</v>
       </c>
       <c r="IZ3">
-        <v>-0.2996926036238935</v>
+        <v>-0.1166774487150871</v>
       </c>
       <c r="JA3">
-        <v>-0.3024995027479692</v>
+        <v>-0.117022060412241</v>
       </c>
       <c r="JB3">
-        <v>-0.3034679110100335</v>
+        <v>-0.1170750315784799</v>
       </c>
       <c r="JC3">
-        <v>-0.3019653490286813</v>
+        <v>-0.1171677666795109</v>
       </c>
       <c r="JD3">
-        <v>-0.3281839569654097</v>
+        <v>-0.1297171265432679</v>
       </c>
       <c r="JE3">
-        <v>-0.332250831507757</v>
+        <v>-0.1311993583363758</v>
       </c>
       <c r="JF3">
-        <v>-0.2932218972736066</v>
+        <v>-0.1139643499810316</v>
       </c>
       <c r="JG3">
-        <v>-0.2997002846697904</v>
+        <v>-0.1166779009598632</v>
       </c>
       <c r="JH3">
-        <v>-0.3024995027479777</v>
+        <v>-0.1170220604122556</v>
       </c>
       <c r="JI3">
-        <v>-0.3035093553421099</v>
+        <v>-0.1170772980570486</v>
       </c>
       <c r="JJ3">
-        <v>-0.3020971641653178</v>
+        <v>-0.1171961570446786</v>
       </c>
       <c r="JK3">
-        <v>-0.3019684601170718</v>
+        <v>-0.1171690662343684</v>
       </c>
       <c r="JL3">
-        <v>-0.3281908881889425</v>
+        <v>-0.1297301608372818</v>
       </c>
       <c r="JM3">
-        <v>-0.3323576950479259</v>
+        <v>-0.1312950167401629</v>
       </c>
       <c r="JN3">
-        <v>-0.333340131109664</v>
+        <v>-0.131634266390627</v>
       </c>
       <c r="JO3">
-        <v>-0.2997082844584117</v>
+        <v>-0.1166783719699935</v>
       </c>
       <c r="JP3">
-        <v>-0.3024995027479803</v>
+        <v>-0.1170220604122674</v>
       </c>
       <c r="JQ3">
-        <v>-0.303528342331895</v>
+        <v>-0.1170783363906985</v>
       </c>
       <c r="JR3">
-        <v>-0.3022278053681501</v>
+        <v>-0.1172242932461919</v>
       </c>
       <c r="JS3">
-        <v>-0.3019721076780562</v>
+        <v>-0.1171705898816417</v>
       </c>
       <c r="JT3">
-        <v>-0.3281991205246733</v>
+        <v>-0.1297456419439919</v>
       </c>
       <c r="JU3">
-        <v>-0.332365463057229</v>
+        <v>-0.1313019702186966</v>
       </c>
       <c r="JV3">
-        <v>-0.3372901491572154</v>
+        <v>-0.1332110161520308</v>
       </c>
       <c r="JW3">
-        <v>-0.2997387050738191</v>
+        <v>-0.1166801630548013</v>
       </c>
       <c r="JX3">
-        <v>-0.3024995027479815</v>
+        <v>-0.1170220604122651</v>
       </c>
       <c r="JY3">
-        <v>-0.3035408249333065</v>
+        <v>-0.1170790190169227</v>
       </c>
       <c r="JZ3">
-        <v>-0.3019754040636548</v>
+        <v>-0.1171719668358116</v>
       </c>
       <c r="KA3">
-        <v>-0.3282118220938405</v>
+        <v>-0.1297695276528448</v>
       </c>
       <c r="KB3">
-        <v>-0.3323718657142118</v>
+        <v>-0.1313077015098268</v>
       </c>
       <c r="KC3">
-        <v>-0.3379428976510995</v>
+        <v>-0.1333664196276415</v>
       </c>
       <c r="KD3">
-        <v>-0.3378813848306357</v>
+        <v>-0.1335003212037711</v>
       </c>
       <c r="KE3">
-        <v>-0.2999002195328527</v>
+        <v>-0.1166896722041513</v>
       </c>
       <c r="KF3">
-        <v>-0.3024995027479817</v>
+        <v>-0.1170220604122651</v>
       </c>
       <c r="KG3">
-        <v>-0.3035867596971344</v>
+        <v>-0.1170790190169246</v>
       </c>
       <c r="KH3">
-        <v>-0.3035459755195493</v>
+        <v>-0.1170796105133964</v>
       </c>
       <c r="KI3">
-        <v>-0.3019787426483233</v>
+        <v>-0.1171733614159939</v>
       </c>
       <c r="KJ3">
-        <v>-0.3282231401474063</v>
+        <v>-0.1297908117188458</v>
       </c>
       <c r="KK3">
-        <v>-0.3323809602267779</v>
+        <v>-0.131315842392589</v>
       </c>
       <c r="KL3">
-        <v>-0.3382433748731916</v>
+        <v>-0.1334379502317711</v>
       </c>
       <c r="KM3">
-        <v>-0.3403597308119126</v>
+        <v>-0.1347129071977957</v>
       </c>
       <c r="KN3">
-        <v>-0.3036078605046246</v>
+        <v>-0.1170790190169253</v>
       </c>
       <c r="KO3">
-        <v>-0.3035496207805632</v>
+        <v>-0.1170800291366566</v>
       </c>
       <c r="KP3">
-        <v>-0.3019823323075192</v>
+        <v>-0.11717486087264</v>
       </c>
       <c r="KQ3">
-        <v>-0.3282319397179718</v>
+        <v>-0.1298073597406752</v>
       </c>
       <c r="KR3">
-        <v>-0.3324218091406986</v>
+        <v>-0.1313524079390602</v>
       </c>
       <c r="KS3">
-        <v>-0.3402067761923577</v>
+        <v>-0.1339052627994282</v>
       </c>
       <c r="KT3">
-        <v>-0.3409069072123994</v>
+        <v>-0.1349805982416542</v>
       </c>
       <c r="KU3">
-        <v>-0.3036435736971682</v>
+        <v>-0.1170790190169261</v>
       </c>
       <c r="KV3">
-        <v>-0.3035538627977346</v>
+        <v>-0.1170805162908614</v>
       </c>
       <c r="KW3">
-        <v>-0.3020031504542307</v>
+        <v>-0.1171835569090984</v>
       </c>
       <c r="KX3">
-        <v>-0.3282428930268912</v>
+        <v>-0.129827958054298</v>
       </c>
       <c r="KY3">
-        <v>-0.3324296730771543</v>
+        <v>-0.1313594472644987</v>
       </c>
       <c r="KZ3">
-        <v>-0.3403534602468224</v>
+        <v>-0.1339401691866588</v>
       </c>
       <c r="LA3">
-        <v>-0.3410887315175108</v>
+        <v>-0.1350695486173989</v>
       </c>
       <c r="LB3">
-        <v>-0.3037121244805593</v>
+        <v>-0.1170790190169263</v>
       </c>
       <c r="LC3">
-        <v>-0.303561976442711</v>
+        <v>-0.1170814480613517</v>
       </c>
       <c r="LD3">
-        <v>-0.3020912055257886</v>
+        <v>-0.1172203382350752</v>
       </c>
       <c r="LE3">
-        <v>-0.3282542219992778</v>
+        <v>-0.1298492629195557</v>
       </c>
       <c r="LF3">
-        <v>-0.3324354956937134</v>
+        <v>-0.1313646593207881</v>
       </c>
       <c r="LG3">
-        <v>-0.3403925185959817</v>
+        <v>-0.1339564139571766</v>
       </c>
       <c r="LH3">
-        <v>-0.3426707323640434</v>
+        <v>-0.1344256320580412</v>
       </c>
       <c r="LI3">
-        <v>-0.341183632737325</v>
+        <v>-0.1351159748677636</v>
       </c>
       <c r="LJ3">
-        <v>-0.3039139619821491</v>
+        <v>-0.1170790190169263</v>
       </c>
       <c r="LK3">
-        <v>-0.3035930939607649</v>
+        <v>-0.1170850215669059</v>
       </c>
       <c r="LL3">
-        <v>-0.3282675852120798</v>
+        <v>-0.1298743934301173</v>
       </c>
       <c r="LM3">
-        <v>-0.3324422027359038</v>
+        <v>-0.1313706630599305</v>
       </c>
       <c r="LN3">
-        <v>-0.3405936918899382</v>
+        <v>-0.1340400813279408</v>
       </c>
       <c r="LO3">
-        <v>-0.3437832075823531</v>
+        <v>-0.1346586238067207</v>
       </c>
       <c r="LP3">
-        <v>-0.3412648720726907</v>
+        <v>-0.1351557174065866</v>
       </c>
       <c r="LQ3">
-        <v>-0.3036992895705021</v>
+        <v>-0.1170972166295161</v>
       </c>
       <c r="LR3">
-        <v>-0.3282752005011845</v>
+        <v>-0.1298887146051599</v>
       </c>
       <c r="LS3">
-        <v>-0.3324488560454593</v>
+        <v>-0.13137661869896</v>
       </c>
       <c r="LT3">
-        <v>-0.3406639296559631</v>
+        <v>-0.1340692919481114</v>
       </c>
       <c r="LU3">
-        <v>-0.3441225616636252</v>
+        <v>-0.1346843059982733</v>
       </c>
       <c r="LV3">
-        <v>-0.345716150789863</v>
+        <v>-0.1350916056397598</v>
       </c>
       <c r="LW3">
-        <v>-0.3413572682998087</v>
+        <v>-0.1352009176684391</v>
       </c>
       <c r="LX3">
-        <v>-0.3283096036435632</v>
+        <v>-0.1299534130789137</v>
       </c>
       <c r="LY3">
-        <v>-0.3325073069751191</v>
+        <v>-0.1314289403432402</v>
       </c>
       <c r="LZ3">
-        <v>-0.3408168053786814</v>
+        <v>-0.1341328683139584</v>
       </c>
       <c r="MA3">
-        <v>-0.3442569772290346</v>
+        <v>-0.1346944775025751</v>
       </c>
       <c r="MB3">
-        <v>-0.3459610010219832</v>
+        <v>-0.1351490320274654</v>
       </c>
       <c r="MC3">
-        <v>-0.3460303919425427</v>
+        <v>-0.1351615895905664</v>
       </c>
       <c r="MD3">
-        <v>-0.3414300614042776</v>
+        <v>-0.1352365278792947</v>
       </c>
       <c r="ME3">
-        <v>-0.3283229927780687</v>
+        <v>-0.1299785928974719</v>
       </c>
       <c r="MF3">
-        <v>-0.332626793354908</v>
+        <v>-0.1315358966787777</v>
       </c>
       <c r="MG3">
-        <v>-0.3408423681395095</v>
+        <v>-0.1341557135336185</v>
       </c>
       <c r="MH3">
-        <v>-0.3408637422910671</v>
+        <v>-0.1341466403030055</v>
       </c>
       <c r="MI3">
-        <v>-0.3460841109475593</v>
+        <v>-0.1351779039791184</v>
       </c>
       <c r="MJ3">
-        <v>-0.3462996217216425</v>
+        <v>-0.1352215461841521</v>
       </c>
       <c r="MK3">
-        <v>-0.3414910912728863</v>
+        <v>-0.1352663834094071</v>
       </c>
       <c r="ML3">
-        <v>-0.3283276441699285</v>
+        <v>-0.1299873404104267</v>
       </c>
       <c r="MM3">
-        <v>-0.3408806182977077</v>
+        <v>-0.1341898973183765</v>
       </c>
       <c r="MN3">
-        <v>-0.3408702778904314</v>
+        <v>-0.1341485579286551</v>
       </c>
       <c r="MO3">
-        <v>-0.3460955678857498</v>
+        <v>-0.1351805908168478</v>
       </c>
       <c r="MP3">
-        <v>-0.3464890092704291</v>
+        <v>-0.1352637205292545</v>
       </c>
       <c r="MQ3">
-        <v>-0.3415461599388567</v>
+        <v>-0.1352933226416598</v>
       </c>
       <c r="MR3">
-        <v>-0.3283311483813643</v>
+        <v>-0.1299939305206706</v>
       </c>
       <c r="MS3">
-        <v>-0.3408773760329181</v>
+        <v>-0.1341506406068339</v>
       </c>
       <c r="MT3">
-        <v>-0.3461002994758491</v>
+        <v>-0.1351817004482917</v>
       </c>
       <c r="MU3">
-        <v>-0.3467283156019848</v>
+        <v>-0.1353170092491091</v>
       </c>
       <c r="MV3">
-        <v>-0.3415917370120456</v>
+        <v>-0.1353156185732643</v>
       </c>
       <c r="MW3">
-        <v>-0.3283337122261685</v>
+        <v>-0.1299987521590931</v>
       </c>
       <c r="MX3">
-        <v>-0.3408835935147678</v>
+        <v>-0.1341524648849486</v>
       </c>
       <c r="MY3">
-        <v>-0.346103638109287</v>
+        <v>-0.135182483408636</v>
       </c>
       <c r="MZ3">
-        <v>-0.3468782693519394</v>
+        <v>-0.1353503998364697</v>
       </c>
       <c r="NA3">
-        <v>-0.3416446094555963</v>
+        <v>-0.1353414832548965</v>
       </c>
       <c r="NB3">
-        <v>-0.3283350141622152</v>
+        <v>-0.1300012006184249</v>
       </c>
       <c r="NC3">
-        <v>-0.3408901996086022</v>
+        <v>-0.1341544031821199</v>
       </c>
       <c r="ND3">
-        <v>-0.3461070530177801</v>
+        <v>-0.1351832842556976</v>
       </c>
       <c r="NE3">
-        <v>-0.3471085490327371</v>
+        <v>-0.1354016751482606</v>
       </c>
       <c r="NF3">
-        <v>-0.3417027203885695</v>
+        <v>-0.1353699104483012</v>
       </c>
       <c r="NG3">
-        <v>-0.3283369282860035</v>
+        <v>-0.1300048003784042</v>
       </c>
       <c r="NH3">
-        <v>-0.3408996279529182</v>
+        <v>-0.1341571695500139</v>
       </c>
       <c r="NI3">
-        <v>-0.3461110823727482</v>
+        <v>-0.1351842291984095</v>
       </c>
       <c r="NJ3">
-        <v>-0.3473381224074051</v>
+        <v>-0.1354527911920756</v>
       </c>
       <c r="NK3">
-        <v>-0.3420195284594272</v>
+        <v>-0.1355248873253501</v>
       </c>
       <c r="NL3">
-        <v>-0.3283401369863557</v>
+        <v>-0.1300108347650381</v>
       </c>
       <c r="NM3">
-        <v>-0.3409110898884771</v>
+        <v>-0.1341605325820271</v>
       </c>
       <c r="NN3">
-        <v>-0.3461161651268967</v>
+        <v>-0.1351854211767475</v>
       </c>
       <c r="NO3">
-        <v>-0.3475957246010952</v>
+        <v>-0.1355101456644136</v>
       </c>
       <c r="NP3">
-        <v>-0.3443304175993357</v>
+        <v>-0.136624278508608</v>
       </c>
       <c r="NQ3">
-        <v>-0.3420550254506854</v>
+        <v>-0.1355565427981071</v>
       </c>
       <c r="NR3">
-        <v>-0.3283544492336911</v>
+        <v>-0.1300377509393507</v>
       </c>
       <c r="NS3">
-        <v>-0.3409821359638802</v>
+        <v>-0.1341813778439316</v>
       </c>
       <c r="NT3">
-        <v>-0.34612071723792</v>
+        <v>-0.1351864887099084</v>
       </c>
       <c r="NU3">
-        <v>-0.3477821436634022</v>
+        <v>-0.135551649827418</v>
       </c>
       <c r="NV3">
-        <v>-0.3465443812679233</v>
+        <v>-0.1376773937784276</v>
       </c>
       <c r="NW3">
-        <v>-0.3422729943594974</v>
+        <v>-0.1357509216858621</v>
       </c>
       <c r="NX3">
-        <v>-0.3420550254507057</v>
+        <v>-0.1355565427980762</v>
       </c>
       <c r="NY3">
-        <v>-0.3284070614545799</v>
+        <v>-0.1301366968778573</v>
       </c>
       <c r="NZ3">
-        <v>-0.3412252539273521</v>
+        <v>-0.134252706217652</v>
       </c>
       <c r="OA3">
-        <v>-0.3461243192154992</v>
+        <v>-0.1351873334223969</v>
       </c>
       <c r="OB3">
-        <v>-0.3480043479981664</v>
+        <v>-0.1356011194713217</v>
       </c>
       <c r="OC3">
-        <v>-0.34664295562668</v>
+        <v>-0.1377242788705376</v>
       </c>
       <c r="OD3">
-        <v>-0.3423526619843499</v>
+        <v>-0.1358219666370878</v>
       </c>
       <c r="OE3">
-        <v>-0.3420550254508162</v>
+        <v>-0.1355565427979121</v>
       </c>
       <c r="OF3">
-        <v>-0.3461305010893115</v>
+        <v>-0.1351887831529883</v>
       </c>
       <c r="OG3">
-        <v>-0.3483267822556598</v>
+        <v>-0.1356729001121494</v>
       </c>
       <c r="OH3">
-        <v>-0.3469397442316049</v>
+        <v>-0.1378646647650407</v>
       </c>
       <c r="OI3">
-        <v>-0.3482750648288204</v>
+        <v>-0.1385009763334739</v>
       </c>
       <c r="OJ3">
-        <v>-0.3423607712668921</v>
+        <v>-0.1358291982112066</v>
       </c>
       <c r="OK3">
-        <v>-0.3420550254508251</v>
+        <v>-0.1355565427978996</v>
       </c>
       <c r="OL3">
-        <v>-0.3461520814807841</v>
+        <v>-0.1351938440136534</v>
       </c>
       <c r="OM3">
-        <v>-0.3485658425531485</v>
+        <v>-0.1357261174178607</v>
       </c>
       <c r="ON3">
-        <v>-0.3469669397419499</v>
+        <v>-0.1378775281879399</v>
       </c>
       <c r="OO3">
-        <v>-0.3490625906343921</v>
+        <v>-0.1388757173826526</v>
       </c>
       <c r="OP3">
-        <v>-0.3423664305029949</v>
+        <v>-0.1358342449180116</v>
       </c>
       <c r="OQ3">
-        <v>-0.3420550254508282</v>
+        <v>-0.1355565427978952</v>
       </c>
       <c r="OR3">
-        <v>-0.3462840206318699</v>
+        <v>-0.1352247844978078</v>
       </c>
       <c r="OS3">
-        <v>-0.3487964664389611</v>
+        <v>-0.1357774546413447</v>
       </c>
       <c r="OT3">
-        <v>-0.3469823999785989</v>
+        <v>-0.1378848408119628</v>
       </c>
       <c r="OU3">
-        <v>-0.3514389277783679</v>
+        <v>-0.1400063648203492</v>
       </c>
       <c r="OV3">
-        <v>-0.3490625906344062</v>
+        <v>-0.1388757173826292</v>
       </c>
       <c r="OW3">
-        <v>-0.3423722929841948</v>
+        <v>-0.1358394728701258</v>
       </c>
       <c r="OX3">
-        <v>-0.3420550254508296</v>
+        <v>-0.1355565427978928</v>
       </c>
       <c r="OY3">
-        <v>-0.3490221889623232</v>
+        <v>-0.1358276988654667</v>
       </c>
       <c r="OZ3">
-        <v>-0.3469928979129273</v>
+        <v>-0.1378898062732893</v>
       </c>
       <c r="PA3">
-        <v>-0.3548247033680925</v>
+        <v>-0.1416169775514953</v>
       </c>
       <c r="PB3">
-        <v>-0.3490625906344051</v>
+        <v>-0.1388757173826236</v>
       </c>
       <c r="PC3">
-        <v>-0.3423969121552045</v>
+        <v>-0.1358614273542187</v>
       </c>
       <c r="PD3">
-        <v>-0.3420550254508343</v>
+        <v>-0.1355565427978872</v>
       </c>
       <c r="PE3">
-        <v>-0.3492936691139496</v>
+        <v>-0.1358881258579292</v>
       </c>
       <c r="PF3">
-        <v>-0.3470100068752268</v>
+        <v>-0.137897898685188</v>
       </c>
       <c r="PG3">
-        <v>-0.3555334072271498</v>
+        <v>-0.1419540602916162</v>
       </c>
       <c r="PH3">
-        <v>-0.3490625906343998</v>
+        <v>-0.1388757173826193</v>
       </c>
       <c r="PI3">
-        <v>-0.3424029236212717</v>
+        <v>-0.1358667881576457</v>
       </c>
       <c r="PJ3">
-        <v>-0.3420550254508846</v>
+        <v>-0.1355565427978199</v>
       </c>
       <c r="PK3">
-        <v>-0.3497483845101881</v>
+        <v>-0.1359893317396849</v>
       </c>
       <c r="PL3">
-        <v>-0.3492936691139496</v>
+        <v>-0.1358881258579292</v>
       </c>
       <c r="PM3">
-        <v>-0.3470668790716849</v>
+        <v>-0.1379247985717982</v>
       </c>
       <c r="PN3">
-        <v>-0.3557145543386396</v>
+        <v>-0.1420402171437465</v>
       </c>
       <c r="PO3">
-        <v>-0.3490625906343947</v>
+        <v>-0.1388757173826117</v>
       </c>
       <c r="PP3">
-        <v>-0.3424086579211626</v>
+        <v>-0.1358719017930292</v>
       </c>
       <c r="PQ3">
-        <v>-0.3420550254509033</v>
+        <v>-0.1355565427977974</v>
       </c>
       <c r="PR3">
-        <v>-0.3512824392340014</v>
+        <v>-0.136330708183765</v>
       </c>
       <c r="PS3">
-        <v>-0.349748384510188</v>
+        <v>-0.1359893317396849</v>
       </c>
       <c r="PT3">
-        <v>-0.347130197391673</v>
+        <v>-0.1379547469670204</v>
       </c>
       <c r="PU3">
-        <v>-0.3558094564205373</v>
+        <v>-0.1420853538662904</v>
       </c>
       <c r="PV3">
-        <v>-0.3490625906343905</v>
+        <v>-0.1388757173826074</v>
       </c>
       <c r="PW3">
-        <v>-0.3424143610467064</v>
+        <v>-0.1358769876268529</v>
       </c>
       <c r="PX3">
-        <v>-0.3420550254509086</v>
+        <v>-0.1355565427977897</v>
       </c>
       <c r="PY3">
-        <v>-0.3534530799854415</v>
+        <v>-0.1368135934381612</v>
       </c>
       <c r="PZ3">
-        <v>-0.3512824392340014</v>
+        <v>-0.136330708183765</v>
       </c>
       <c r="QA3">
-        <v>-0.3471658081699228</v>
+        <v>-0.1379715900067154</v>
       </c>
       <c r="QB3">
-        <v>-0.3558881300299835</v>
+        <v>-0.1421227718826871</v>
       </c>
       <c r="QC3">
-        <v>-0.3490625906343864</v>
+        <v>-0.1388757173825976</v>
       </c>
       <c r="QD3">
-        <v>-0.3424209032850418</v>
+        <v>-0.135882821748281</v>
       </c>
       <c r="QE3">
-        <v>-0.3420550254509189</v>
+        <v>-0.1355565427977768</v>
       </c>
       <c r="QF3">
-        <v>-0.3550112738469547</v>
+        <v>-0.1371601226912964</v>
       </c>
       <c r="QG3">
-        <v>-0.3534530799854415</v>
+        <v>-0.1368135934381612</v>
       </c>
       <c r="QH3">
-        <v>-0.3471992612471619</v>
+        <v>-0.1379874123744708</v>
       </c>
       <c r="QI3">
-        <v>-0.35595189120788</v>
+        <v>-0.1421530972372149</v>
       </c>
       <c r="QJ3">
-        <v>-0.349062590634383</v>
+        <v>-0.1388757173825886</v>
       </c>
       <c r="QK3">
-        <v>-0.3424434966694943</v>
+        <v>-0.1359029696620087</v>
       </c>
       <c r="QL3">
-        <v>-0.3420550254509281</v>
+        <v>-0.1355565427977667</v>
       </c>
       <c r="QM3">
-        <v>-0.3554841344208936</v>
+        <v>-0.1372652647774956</v>
       </c>
       <c r="QN3">
-        <v>-0.3550112738469547</v>
+        <v>-0.1371601226912964</v>
       </c>
       <c r="QO3">
-        <v>-0.347231178719708</v>
+        <v>-0.1380025083256167</v>
       </c>
       <c r="QP3">
-        <v>-0.356049355589176</v>
+        <v>-0.1421994518624683</v>
       </c>
       <c r="QQ3">
-        <v>-0.3490625906343808</v>
+        <v>-0.1388757173825766</v>
       </c>
       <c r="QR3">
-        <v>-0.3425536019991943</v>
+        <v>-0.1360011570504213</v>
       </c>
       <c r="QS3">
-        <v>-0.3420550254509382</v>
+        <v>-0.1355565427977579</v>
       </c>
       <c r="QT3">
-        <v>-0.3566629788098271</v>
+        <v>-0.137512130791795</v>
       </c>
       <c r="QU3">
-        <v>-0.3554841344208937</v>
+        <v>-0.1372652647774956</v>
       </c>
       <c r="QV3">
-        <v>-0.3556612946566508</v>
+        <v>-0.1373168646397862</v>
       </c>
       <c r="QW3">
-        <v>-0.347283583456152</v>
+        <v>-0.1380272938508663</v>
       </c>
       <c r="QX3">
-        <v>-0.3561372193119708</v>
+        <v>-0.1422412400921506</v>
       </c>
       <c r="QY3">
-        <v>-0.3490625906343761</v>
+        <v>-0.1388757173825697</v>
       </c>
       <c r="QZ3">
-        <v>-0.342055025450949</v>
+        <v>-0.1355565427977497</v>
       </c>
       <c r="RA3">
-        <v>-0.3579730865473632</v>
+        <v>-0.1377864261761449</v>
       </c>
       <c r="RB3">
-        <v>-0.3566629788098271</v>
+        <v>-0.137512130791795</v>
       </c>
       <c r="RC3">
-        <v>-0.3566629788098271</v>
+        <v>-0.137512130791795</v>
       </c>
       <c r="RD3">
-        <v>-0.3556871679110639</v>
+        <v>-0.1373244002616114</v>
       </c>
       <c r="RE3">
-        <v>-0.3473200850918076</v>
+        <v>-0.1380445576060861</v>
       </c>
       <c r="RF3">
-        <v>-0.3562208448576187</v>
+        <v>-0.1422810123981888</v>
       </c>
       <c r="RG3">
-        <v>-0.3490625906343777</v>
+        <v>-0.1388757173825695</v>
       </c>
       <c r="RH3">
-        <v>-0.3420550254509964</v>
+        <v>-0.1355565427977088</v>
       </c>
       <c r="RI3">
-        <v>-0.3584532681682454</v>
+        <v>-0.137886945576666</v>
       </c>
       <c r="RJ3">
-        <v>-0.3579730865473632</v>
+        <v>-0.1377864261761449</v>
       </c>
       <c r="RK3">
-        <v>-0.3557012760486396</v>
+        <v>-0.137328509250009</v>
       </c>
       <c r="RL3">
-        <v>-0.3473457323083802</v>
+        <v>-0.1380566875819857</v>
       </c>
       <c r="RM3">
-        <v>-0.3563150552167414</v>
+        <v>-0.1423258185666907</v>
       </c>
       <c r="RN3">
-        <v>-0.3490625906343849</v>
+        <v>-0.1388757173825695</v>
       </c>
       <c r="RO3">
-        <v>-0.3420550254509986</v>
+        <v>-0.1355565427977061</v>
       </c>
       <c r="RP3">
-        <v>-0.3591266414171603</v>
+        <v>-0.1380208472455298</v>
       </c>
       <c r="RQ3">
-        <v>-0.3584532681682454</v>
+        <v>-0.137886945576666</v>
       </c>
       <c r="RR3">
-        <v>-0.359343104047102</v>
+        <v>-0.1380915000469511</v>
       </c>
       <c r="RS3">
-        <v>-0.355710833256825</v>
+        <v>-0.1373312927717224</v>
       </c>
       <c r="RT3">
-        <v>-0.3473579868076208</v>
+        <v>-0.1380624833806319</v>
       </c>
       <c r="RU3">
-        <v>-0.3564145729471289</v>
+        <v>-0.142373148589533</v>
       </c>
       <c r="RV3">
-        <v>-0.3490625906343895</v>
+        <v>-0.1388757173825688</v>
       </c>
       <c r="RW3">
-        <v>-0.3420550254510001</v>
+        <v>-0.1355565427977059</v>
       </c>
       <c r="RX3">
-        <v>-0.3600919166809626</v>
+        <v>-0.1382127667218092</v>
       </c>
       <c r="RY3">
-        <v>-0.3591266414171603</v>
+        <v>-0.1380208472455298</v>
       </c>
       <c r="RZ3">
-        <v>-0.3593723020700323</v>
+        <v>-0.1380947530251913</v>
       </c>
       <c r="SA3">
-        <v>-0.359490068054746</v>
+        <v>-0.1381496447216678</v>
       </c>
       <c r="SB3">
-        <v>-0.3557253501220763</v>
+        <v>-0.1373355207692268</v>
       </c>
       <c r="SC3">
-        <v>-0.3473657497323631</v>
+        <v>-0.1380661548681029</v>
       </c>
       <c r="SD3">
-        <v>-0.3566321703680408</v>
+        <v>-0.142476635459645</v>
       </c>
       <c r="SE3">
-        <v>-0.3490625906343973</v>
+        <v>-0.1388757173825723</v>
       </c>
       <c r="SF3">
-        <v>-0.3420550254510005</v>
+        <v>-0.135556542797705</v>
       </c>
       <c r="SG3">
-        <v>-0.3606810916363895</v>
+        <v>-0.1383298926633031</v>
       </c>
       <c r="SH3">
-        <v>-0.3600919166809626</v>
+        <v>-0.1382127667218092</v>
       </c>
       <c r="SI3">
-        <v>-0.359384643499079</v>
+        <v>-0.1380961279834282</v>
       </c>
       <c r="SJ3">
-        <v>-0.35958411344627</v>
+        <v>-0.1381868514984563</v>
       </c>
       <c r="SK3">
-        <v>-0.3557473810816559</v>
+        <v>-0.1373419371883418</v>
       </c>
       <c r="SL3">
-        <v>-0.347370998441426</v>
+        <v>-0.1380686372494289</v>
       </c>
       <c r="SM3">
-        <v>-0.3615690247708939</v>
+        <v>-0.1448241308648829</v>
       </c>
       <c r="SN3">
-        <v>-0.3490625906343978</v>
+        <v>-0.1388757173825745</v>
       </c>
       <c r="SO3">
-        <v>-0.3420550254510005</v>
+        <v>-0.135556542797705</v>
       </c>
       <c r="SP3">
-        <v>-0.3607825612103909</v>
+        <v>-0.138350063244732</v>
       </c>
       <c r="SQ3">
-        <v>-0.3606810916363895</v>
+        <v>-0.1383298926633031</v>
       </c>
       <c r="SR3">
-        <v>-0.3593918951131466</v>
+        <v>-0.1380969358823228</v>
       </c>
       <c r="SS3">
-        <v>-0.3557630114539603</v>
+        <v>-0.137346489437125</v>
       </c>
       <c r="ST3">
-        <v>-0.3473783197765541</v>
+        <v>-0.1380720998757482</v>
       </c>
       <c r="SU3">
-        <v>-0.3617026519149178</v>
+        <v>-0.1456404840454599</v>
       </c>
       <c r="SV3">
-        <v>-0.3623016449320402</v>
+        <v>-0.1450223796651582</v>
       </c>
       <c r="SW3">
-        <v>-0.3490625906343947</v>
+        <v>-0.1388757173825824</v>
       </c>
       <c r="SX3">
-        <v>-0.3609976702632272</v>
+        <v>-0.1383956233460299</v>
       </c>
       <c r="SY3">
-        <v>-0.3607825612103909</v>
+        <v>-0.138350063244732</v>
       </c>
       <c r="SZ3">
-        <v>-0.3609547473773844</v>
+        <v>-0.1383760452778239</v>
       </c>
       <c r="TA3">
-        <v>-0.3593985688016221</v>
+        <v>-0.1380976793927038</v>
       </c>
       <c r="TB3">
-        <v>-0.3557736903739114</v>
+        <v>-0.1373495995929553</v>
       </c>
       <c r="TC3">
-        <v>-0.3473839074935626</v>
+        <v>-0.1380747425830701</v>
       </c>
       <c r="TD3">
-        <v>-0.3618204997162446</v>
+        <v>-0.1463606493553947</v>
       </c>
       <c r="TE3">
-        <v>-0.3626969021425657</v>
+        <v>-0.1451293314573141</v>
       </c>
       <c r="TF3">
-        <v>-0.3490625906343983</v>
+        <v>-0.1388757173825889</v>
       </c>
       <c r="TG3">
-        <v>-0.3611560226199104</v>
+        <v>-0.1384291613001988</v>
       </c>
       <c r="TH3">
-        <v>-0.3609976702632272</v>
+        <v>-0.1383956233460299</v>
       </c>
       <c r="TI3">
-        <v>-0.3610565020917965</v>
+        <v>-0.1383913987416519</v>
       </c>
       <c r="TJ3">
-        <v>-0.3594045145141547</v>
+        <v>-0.1380983417981645</v>
       </c>
       <c r="TK3">
-        <v>-0.3557821288531369</v>
+        <v>-0.1373520572295286</v>
       </c>
       <c r="TL3">
-        <v>-0.3474237830906641</v>
+        <v>-0.1380936016191091</v>
       </c>
       <c r="TM3">
-        <v>-0.3627559332624163</v>
+        <v>-0.1451453042129406</v>
       </c>
       <c r="TN3">
-        <v>-0.3490625906344045</v>
+        <v>-0.1388757173825908</v>
       </c>
       <c r="TO3">
-        <v>-0.3613716283650018</v>
+        <v>-0.1384748236639317</v>
       </c>
       <c r="TP3">
-        <v>-0.3611560226199104</v>
+        <v>-0.1384291613001988</v>
       </c>
       <c r="TQ3">
-        <v>-0.3611371304089762</v>
+        <v>-0.1384035640769994</v>
       </c>
       <c r="TR3">
-        <v>-0.3594106825324727</v>
+        <v>-0.1380990289687877</v>
       </c>
       <c r="TS3">
-        <v>-0.3558091850812518</v>
+        <v>-0.1373599370847026</v>
       </c>
       <c r="TT3">
-        <v>-0.3474721826650397</v>
+        <v>-0.1381168205466484</v>
       </c>
       <c r="TU3">
-        <v>-0.3476915239041669</v>
+        <v>-0.1382192693416364</v>
       </c>
       <c r="TV3">
-        <v>-0.3628009941902013</v>
+        <v>-0.1451574968260054</v>
       </c>
       <c r="TW3">
-        <v>-0.3490625906344056</v>
+        <v>-0.1388757173825885</v>
       </c>
       <c r="TX3">
-        <v>-0.3615242093123534</v>
+        <v>-0.1385071372090795</v>
       </c>
       <c r="TY3">
-        <v>-0.3613716283650018</v>
+        <v>-0.1384748236639317</v>
       </c>
       <c r="TZ3">
-        <v>-0.3611704475027823</v>
+        <v>-0.1384085909048999</v>
       </c>
       <c r="UA3">
-        <v>-0.359429302889447</v>
+        <v>-0.1381011034272864</v>
       </c>
       <c r="UB3">
-        <v>-0.3560280419977735</v>
+        <v>-0.1374236744332617</v>
       </c>
       <c r="UC3">
-        <v>-0.3475256280929256</v>
+        <v>-0.1381424598323821</v>
       </c>
       <c r="UD3">
-        <v>-0.3628431380388405</v>
+        <v>-0.145168900086449</v>
       </c>
       <c r="UE3">
-        <v>-0.3490625906344014</v>
+        <v>-0.1388757173825912</v>
       </c>
       <c r="UF3">
-        <v>-0.3619509358417327</v>
+        <v>-0.1385975047147539</v>
       </c>
       <c r="UG3">
-        <v>-0.3615242093123534</v>
+        <v>-0.1385071372090795</v>
       </c>
       <c r="UH3">
-        <v>-0.3611773786958373</v>
+        <v>-0.1384085909048955</v>
       </c>
       <c r="UI3">
-        <v>-0.3612171755855375</v>
+        <v>-0.13842939748866</v>
       </c>
       <c r="UJ3">
-        <v>-0.359448067895408</v>
+        <v>-0.1381031939850133</v>
       </c>
       <c r="UK3">
-        <v>-0.356038941428956</v>
+        <v>-0.1374268485392061</v>
       </c>
       <c r="UL3">
-        <v>-0.347670501940643</v>
+        <v>-0.1382119582851439</v>
       </c>
       <c r="UM3">
-        <v>-0.3628880794556931</v>
+        <v>-0.1451810602607562</v>
       </c>
       <c r="UN3">
-        <v>-0.349062590634401</v>
+        <v>-0.1388757173825908</v>
       </c>
       <c r="UO3">
-        <v>-0.3622599525996085</v>
+        <v>-0.1386629407818055</v>
       </c>
       <c r="UP3">
-        <v>-0.3619509358417327</v>
+        <v>-0.1385975047147539</v>
       </c>
       <c r="UQ3">
-        <v>-0.361179929170633</v>
+        <v>-0.1384085909048933</v>
       </c>
       <c r="UR3">
-        <v>-0.3612525263065288</v>
+        <v>-0.1384451379182984</v>
       </c>
       <c r="US3">
-        <v>-0.3596234086987058</v>
+        <v>-0.13812272745338</v>
       </c>
       <c r="UT3">
-        <v>-0.3560475414988943</v>
+        <v>-0.1374293530228443</v>
       </c>
       <c r="UU3">
-        <v>-0.3629278473486551</v>
+        <v>-0.1451918205479092</v>
       </c>
       <c r="UV3">
-        <v>-0.349062590634401</v>
+        <v>-0.1388757173825908</v>
       </c>
       <c r="UW3">
-        <v>-0.3622909109746858</v>
+        <v>-0.1386715155357721</v>
       </c>
       <c r="UX3">
-        <v>-0.3622599525996085</v>
+        <v>-0.1386629407818055</v>
       </c>
       <c r="UY3">
-        <v>-0.3625424428722412</v>
+        <v>-0.138707583539798</v>
       </c>
       <c r="UZ3">
-        <v>-0.3611837282982442</v>
+        <v>-0.138408590904889</v>
       </c>
       <c r="VA3">
-        <v>-0.3560572641521655</v>
+        <v>-0.1374321844130629</v>
       </c>
       <c r="VB3">
-        <v>-0.3629685230590127</v>
+        <v>-0.145202826427437</v>
       </c>
       <c r="VC3">
-        <v>-0.3622982413801152</v>
+        <v>-0.1386735458824216</v>
       </c>
       <c r="VD3">
-        <v>-0.3622909109746858</v>
+        <v>-0.1386715155357722</v>
       </c>
       <c r="VE3">
-        <v>-0.3625781571931664</v>
+        <v>-0.1387132272326482</v>
       </c>
       <c r="VF3">
-        <v>-0.3611860143232939</v>
+        <v>-0.1384085909048886</v>
       </c>
       <c r="VG3">
-        <v>-0.3560659176576418</v>
+        <v>-0.1374347044430667</v>
       </c>
       <c r="VH3">
-        <v>-0.3631784654937834</v>
+        <v>-0.1452596311745213</v>
       </c>
       <c r="VI3">
-        <v>-0.3624969702943061</v>
+        <v>-0.1387285881348562</v>
       </c>
       <c r="VJ3">
-        <v>-0.3622982413801151</v>
+        <v>-0.1386735458824216</v>
       </c>
       <c r="VK3">
-        <v>-0.3622982413802252</v>
+        <v>-0.1386735458824212</v>
       </c>
       <c r="VL3">
-        <v>-0.3626045123665629</v>
+        <v>-0.1387173919129903</v>
       </c>
       <c r="VM3">
-        <v>-0.3611887727163522</v>
+        <v>-0.138408590904888</v>
       </c>
       <c r="VN3">
-        <v>-0.3560758778844491</v>
+        <v>-0.1374376050011055</v>
       </c>
       <c r="VO3">
-        <v>-0.3634682792488386</v>
+        <v>-0.145298623830101</v>
       </c>
       <c r="VP3">
-        <v>-0.3635893408061452</v>
+        <v>-0.1453765109418855</v>
       </c>
       <c r="VQ3">
-        <v>-0.3626362475126248</v>
+        <v>-0.1387671629307892</v>
       </c>
       <c r="VR3">
-        <v>-0.3624969702943061</v>
+        <v>-0.1387285881348562</v>
       </c>
       <c r="VS3">
-        <v>-0.362298241380265</v>
+        <v>-0.1386735458824202</v>
       </c>
       <c r="VT3">
-        <v>-0.3626301564567228</v>
+        <v>-0.1387214441865181</v>
       </c>
       <c r="VU3">
-        <v>-0.3611911947053624</v>
+        <v>-0.1384085909048884</v>
       </c>
       <c r="VV3">
-        <v>-0.3560860905530477</v>
+        <v>-0.1374405790640423</v>
       </c>
       <c r="VW3">
-        <v>-0.3634849815477061</v>
+        <v>-0.1453008708855449</v>
       </c>
       <c r="VX3">
-        <v>-0.365553093907574</v>
+        <v>-0.1459350682908788</v>
       </c>
       <c r="VY3">
-        <v>-0.3626931688766145</v>
+        <v>-0.1387937709139795</v>
       </c>
       <c r="VZ3">
-        <v>-0.3626626042191121</v>
+        <v>-0.1387731762040013</v>
       </c>
       <c r="WA3">
-        <v>-0.3622982413802945</v>
+        <v>-0.1386735458824196</v>
       </c>
       <c r="WB3">
-        <v>-0.3628710625670553</v>
+        <v>-0.138759510168472</v>
       </c>
       <c r="WC3">
-        <v>-0.3612070434579523</v>
+        <v>-0.1384085909048887</v>
       </c>
       <c r="WD3">
-        <v>-0.3560983662032641</v>
+        <v>-0.1374441538812634</v>
       </c>
       <c r="WE3">
-        <v>-0.3634933701092118</v>
+        <v>-0.1453019994409363</v>
       </c>
       <c r="WF3">
-        <v>-0.3659936035393867</v>
+        <v>-0.1460609824624284</v>
       </c>
       <c r="WG3">
-        <v>-0.3676775994674372</v>
+        <v>-0.1465389687521357</v>
       </c>
       <c r="WH3">
-        <v>-0.3627439310655245</v>
+        <v>-0.1388174996323536</v>
       </c>
       <c r="WI3">
-        <v>-0.3626931688766145</v>
+        <v>-0.1387937709139795</v>
       </c>
       <c r="WJ3">
-        <v>-0.3626931688766145</v>
+        <v>-0.1387937709139795</v>
       </c>
       <c r="WK3">
-        <v>-0.3632241646732798</v>
+        <v>-0.1389012912312422</v>
       </c>
       <c r="WL3">
-        <v>-0.3626626042191121</v>
+        <v>-0.1387731762040013</v>
       </c>
       <c r="WM3">
-        <v>-0.3622982413803318</v>
+        <v>-0.1386735458824253</v>
       </c>
       <c r="WN3">
-        <v>-0.3629831914645446</v>
+        <v>-0.1387772266438099</v>
       </c>
       <c r="WO3">
-        <v>-0.361323904537641</v>
+        <v>-0.1384085909048887</v>
       </c>
       <c r="WP3">
-        <v>-0.356106062196751</v>
+        <v>-0.1374463950400395</v>
       </c>
       <c r="WQ3">
-        <v>-0.3635004043976511</v>
+        <v>-0.1453029457962749</v>
       </c>
       <c r="WR3">
-        <v>-0.3662260974403641</v>
+        <v>-0.1461274306521673</v>
       </c>
       <c r="WS3">
-        <v>-0.3697130560584089</v>
+        <v>-0.1471174436636936</v>
       </c>
       <c r="WT3">
-        <v>-0.3627907587425295</v>
+        <v>-0.1388393892949726</v>
       </c>
       <c r="WU3">
-        <v>-0.3627439310655245</v>
+        <v>-0.1388174996323536</v>
       </c>
       <c r="WV3">
-        <v>-0.3627439310655245</v>
+        <v>-0.1388174996323536</v>
       </c>
       <c r="WW3">
-        <v>-0.3633563599441919</v>
+        <v>-0.1389314467239047</v>
       </c>
       <c r="WX3">
-        <v>-0.362298241380348</v>
+        <v>-0.1386735458824264</v>
       </c>
       <c r="WY3">
-        <v>-0.3630358200862544</v>
+        <v>-0.1387855417543103</v>
       </c>
       <c r="WZ3">
-        <v>-0.3561391372965455</v>
+        <v>-0.1374560268129526</v>
       </c>
       <c r="XA3">
-        <v>-0.3635061406304474</v>
+        <v>-0.1453037175162436</v>
       </c>
       <c r="XB3">
-        <v>-0.3697532718817495</v>
+        <v>-0.1471273094954055</v>
       </c>
       <c r="XC3">
-        <v>-0.3702602776272627</v>
+        <v>-0.1472739384144182</v>
       </c>
       <c r="XD3">
-        <v>-0.3628545506313702</v>
+        <v>-0.1388692084485488</v>
       </c>
       <c r="XE3">
-        <v>-0.3622982413803645</v>
+        <v>-0.1386735458824312</v>
       </c>
       <c r="XF3">
-        <v>-0.363070924892508</v>
+        <v>-0.1387910880790059</v>
       </c>
       <c r="XG3">
-        <v>-0.3562785834788303</v>
+        <v>-0.1374966336897087</v>
       </c>
       <c r="XH3">
-        <v>-0.3635151448703383</v>
+        <v>-0.1453049288916804</v>
       </c>
       <c r="XI3">
-        <v>-0.3697631330264433</v>
+        <v>-0.1471297286316371</v>
       </c>
       <c r="XJ3">
-        <v>-0.3703861821977709</v>
+        <v>-0.1473099435439101</v>
       </c>
       <c r="XK3">
-        <v>-0.3628732619031688</v>
+        <v>-0.1388779548263418</v>
       </c>
       <c r="XL3">
-        <v>-0.3622982413803727</v>
+        <v>-0.1386735458824336</v>
       </c>
       <c r="XM3">
-        <v>-0.3631245946918697</v>
+        <v>-0.1387995674039132</v>
       </c>
       <c r="XN3">
-        <v>-0.3635366161502859</v>
+        <v>-0.1453078174891539</v>
       </c>
       <c r="XO3">
-        <v>-0.3697699044273639</v>
+        <v>-0.1471313897871052</v>
       </c>
       <c r="XP3">
-        <v>-0.3704486628502623</v>
+        <v>-0.1473278110775076</v>
       </c>
       <c r="XQ3">
-        <v>-0.3629351940146003</v>
+        <v>-0.1389069039884045</v>
       </c>
       <c r="XR3">
-        <v>-0.3622982413803781</v>
+        <v>-0.1386735458824319</v>
       </c>
       <c r="XS3">
-        <v>-0.3632294149662861</v>
+        <v>-0.138816127520014</v>
       </c>
       <c r="XT3">
-        <v>-0.363551470922178</v>
+        <v>-0.1453098159330715</v>
       </c>
       <c r="XU3">
-        <v>-0.3697792910895375</v>
+        <v>-0.1471336925102786</v>
       </c>
       <c r="XV3">
-        <v>-0.3705173247947813</v>
+        <v>-0.1473474461488353</v>
       </c>
       <c r="XW3">
-        <v>-0.3622982413803814</v>
+        <v>-0.1386735458824283</v>
       </c>
       <c r="XX3">
-        <v>-0.3632583908642757</v>
+        <v>-0.138820705183133</v>
       </c>
       <c r="XY3">
-        <v>-0.3635703588200453</v>
+        <v>-0.1453123569450395</v>
       </c>
       <c r="XZ3">
-        <v>-0.3698015498304472</v>
+        <v>-0.1471391529645195</v>
       </c>
       <c r="YA3">
-        <v>-0.3705965512242511</v>
+        <v>-0.1473701021606065</v>
       </c>
       <c r="YB3">
-        <v>-0.3622982413803825</v>
+        <v>-0.1386735458824215</v>
       </c>
       <c r="YC3">
-        <v>-0.3632668031038973</v>
+        <v>-0.13882203415394</v>
       </c>
       <c r="YD3">
-        <v>-0.3635818331366878</v>
+        <v>-0.1453139005896177</v>
       </c>
       <c r="YE3">
-        <v>-0.3698184702916417</v>
+        <v>-0.1471433038183964</v>
       </c>
       <c r="YF3">
-        <v>-0.3706766445882396</v>
+        <v>-0.1473930059147553</v>
       </c>
       <c r="YG3">
-        <v>-0.3622982413803837</v>
+        <v>-0.1386735458824162</v>
       </c>
       <c r="YH3">
-        <v>-0.3632717078729965</v>
+        <v>-0.1388229073069267</v>
       </c>
       <c r="YI3">
-        <v>-0.3632795116584187</v>
+        <v>-0.1388235197322004</v>
       </c>
       <c r="YJ3">
-        <v>-0.3635921920490158</v>
+        <v>-0.1453152941723834</v>
       </c>
       <c r="YK3">
-        <v>-0.3698303482763002</v>
+        <v>-0.1471462176594373</v>
       </c>
       <c r="YL3">
-        <v>-0.3707654394144973</v>
+        <v>-0.1474183977660755</v>
       </c>
       <c r="YM3">
-        <v>-0.362298241380382</v>
+        <v>-0.1386735458823997</v>
       </c>
       <c r="YN3">
-        <v>-0.3632762983299205</v>
+        <v>-0.138823724504223</v>
       </c>
       <c r="YO3">
-        <v>-0.3632962815436283</v>
+        <v>-0.1388254800518371</v>
       </c>
       <c r="YP3">
-        <v>-0.3636096628317786</v>
+        <v>-0.145317644500993</v>
       </c>
       <c r="YQ3">
-        <v>-0.3698427915732874</v>
+        <v>-0.1471492701669689</v>
       </c>
       <c r="YR3">
-        <v>-0.370894567538973</v>
+        <v>-0.1474553229882467</v>
       </c>
       <c r="YS3">
-        <v>-0.3622982413803805</v>
+        <v>-0.1386735458823871</v>
       </c>
       <c r="YT3">
-        <v>-0.3632810271029365</v>
+        <v>-0.1388245663232042</v>
       </c>
       <c r="YU3">
-        <v>-0.3633659527778864</v>
+        <v>-0.1388336241451883</v>
       </c>
       <c r="YV3">
-        <v>-0.3636268391102268</v>
+        <v>-0.1453199551943981</v>
       </c>
       <c r="YW3">
-        <v>-0.3698530076959547</v>
+        <v>-0.1471517763090121</v>
       </c>
       <c r="YX3">
-        <v>-0.3709646885428551</v>
+        <v>-0.147465876055626</v>
       </c>
       <c r="YY3">
-        <v>-0.3711512295678501</v>
+        <v>-0.1475420477242916</v>
       </c>
       <c r="YZ3">
-        <v>-0.3622982413803812</v>
+        <v>-0.1386735458823823</v>
       </c>
       <c r="ZA3">
-        <v>-0.3633152174976265</v>
+        <v>-0.1388306528731654</v>
       </c>
       <c r="ZB3">
-        <v>-0.3633955411494231</v>
+        <v>-0.1388370827553984</v>
       </c>
       <c r="ZC3">
-        <v>-0.363634966035814</v>
+        <v>-0.145321048489407</v>
       </c>
       <c r="ZD3">
-        <v>-0.3698699228875554</v>
+        <v>-0.1471559257966662</v>
       </c>
       <c r="ZE3">
-        <v>-0.3710067972797369</v>
+        <v>-0.1474722131963273</v>
       </c>
       <c r="ZF3">
-        <v>-0.3727766727409492</v>
+        <v>-0.1480912314541787</v>
       </c>
       <c r="ZG3">
-        <v>-0.3622982413803812</v>
+        <v>-0.1386735458823823</v>
       </c>
       <c r="ZH3">
-        <v>-0.3635642118313586</v>
+        <v>-0.1388749763155844</v>
       </c>
       <c r="ZI3">
-        <v>-0.3636438923958256</v>
+        <v>-0.1453222493262889</v>
       </c>
       <c r="ZJ3">
-        <v>-0.3699245886668839</v>
+        <v>-0.147169335764861</v>
       </c>
       <c r="ZK3">
-        <v>-0.3710458599512624</v>
+        <v>-0.1474780918278887</v>
       </c>
       <c r="ZL3">
-        <v>-0.3739403742183963</v>
+        <v>-0.1484843602556699</v>
       </c>
       <c r="ZM3">
-        <v>-0.3636524598245221</v>
+        <v>-0.1453234018732193</v>
       </c>
       <c r="ZN3">
-        <v>-0.3700523273470125</v>
+        <v>-0.1472006701366586</v>
       </c>
       <c r="ZO3">
-        <v>-0.3710839753583198</v>
+        <v>-0.147483827817601</v>
       </c>
       <c r="ZP3">
-        <v>-0.374655470703862</v>
+        <v>-0.1488514390730225</v>
       </c>
       <c r="ZQ3">
-        <v>-0.3765039896611083</v>
+        <v>-0.149215698688286</v>
       </c>
       <c r="ZR3">
-        <v>-0.3636627921169077</v>
+        <v>-0.1453247918360488</v>
       </c>
       <c r="ZS3">
-        <v>-0.3711125649036974</v>
+        <v>-0.1474881302042178</v>
       </c>
       <c r="ZT3">
-        <v>-0.3746939485736613</v>
+        <v>-0.1488514390731004</v>
       </c>
       <c r="ZU3">
-        <v>-0.3747347576371357</v>
+        <v>-0.1489472741409952</v>
       </c>
       <c r="ZV3">
-        <v>-0.3768462007663425</v>
+        <v>-0.1492678154980809</v>
       </c>
       <c r="ZW3">
-        <v>-0.3769720811751609</v>
+        <v>-0.1493579353039403</v>
       </c>
       <c r="ZX3">
-        <v>-0.3636792735328105</v>
+        <v>-0.1453270090046452</v>
       </c>
       <c r="ZY3">
-        <v>-0.3711579820458106</v>
+        <v>-0.1474949648459752</v>
       </c>
       <c r="ZZ3">
-        <v>-0.3747059886774499</v>
+        <v>-0.1488514390731242</v>
       </c>
       <c r="AAA3">
-        <v>-0.374896286455493</v>
+        <v>-0.1491425182006346</v>
       </c>
       <c r="AAB3">
-        <v>-0.3770444771706565</v>
+        <v>-0.1492980087138977</v>
       </c>
       <c r="AAC3">
-        <v>-0.377498779342493</v>
+        <v>-0.149518018083333</v>
       </c>
       <c r="AAD3">
-        <v>-0.3637243819697064</v>
+        <v>-0.145333077160091</v>
       </c>
       <c r="AAE3">
-        <v>-0.3712345592415294</v>
+        <v>-0.1475064883654194</v>
       </c>
       <c r="AAF3">
-        <v>-0.3747137301504743</v>
+        <v>-0.1488514390731377</v>
       </c>
       <c r="AAG3">
-        <v>-0.3788884120902644</v>
+        <v>-0.1499403165875114</v>
       </c>
       <c r="AAH3">
-        <v>-0.3774987793424868</v>
+        <v>-0.14951801808333</v>
       </c>
       <c r="AAI3">
-        <v>-0.3637844144592956</v>
+        <v>-0.1453411527872333</v>
       </c>
       <c r="AAJ3">
-        <v>-0.3718084329223738</v>
+        <v>-0.147592835359057</v>
       </c>
       <c r="AAK3">
-        <v>-0.3747183996027869</v>
+        <v>-0.148851439073146</v>
       </c>
       <c r="AAL3">
-        <v>-0.3803798858160201</v>
+        <v>-0.1503353581194893</v>
       </c>
       <c r="AAM3">
-        <v>-0.3789845557601241</v>
+        <v>-0.1500053748478259</v>
       </c>
       <c r="AAN3">
-        <v>-0.3774987793424793</v>
+        <v>-0.1495180180833308</v>
       </c>
       <c r="AAO3">
-        <v>-0.3637901324444511</v>
+        <v>-0.1453419219660073</v>
       </c>
       <c r="AAP3">
-        <v>-0.3722793345641543</v>
+        <v>-0.1476636744785893</v>
       </c>
       <c r="AAQ3">
-        <v>-0.374723119085468</v>
+        <v>-0.1488514390731528</v>
       </c>
       <c r="AAR3">
-        <v>-0.3819197594741559</v>
+        <v>-0.150743119895225</v>
       </c>
       <c r="AAS3">
-        <v>-0.3789948484140198</v>
+        <v>-0.1500123396007177</v>
       </c>
       <c r="AAT3">
-        <v>-0.3774987793424711</v>
+        <v>-0.1495180180833306</v>
       </c>
       <c r="AAU3">
-        <v>-0.3637946545628565</v>
+        <v>-0.1453425302765178</v>
       </c>
       <c r="AAV3">
-        <v>-0.3724285536794379</v>
+        <v>-0.1476861192509007</v>
       </c>
       <c r="AAW3">
-        <v>-0.3747273345850707</v>
+        <v>-0.1488514390731575</v>
       </c>
       <c r="AAX3">
-        <v>-0.3824984426400342</v>
+        <v>-0.1508751970158306</v>
       </c>
       <c r="AAY3">
-        <v>-0.3821505514897413</v>
+        <v>-0.1508754661263814</v>
       </c>
       <c r="AAZ3">
-        <v>-0.3789987783045656</v>
+        <v>-0.1500149988456614</v>
       </c>
       <c r="ABA3">
-        <v>-0.3774987793424599</v>
+        <v>-0.1495180180833323</v>
       </c>
       <c r="ABB3">
-        <v>-0.3637990466326055</v>
+        <v>-0.1453431210919837</v>
       </c>
       <c r="ABC3">
-        <v>-0.3725644074534541</v>
+        <v>-0.1477065525481411</v>
       </c>
       <c r="ABD3">
-        <v>-0.3747320839982696</v>
+        <v>-0.1488514390731604</v>
       </c>
       <c r="ABE3">
-        <v>-0.3832849001927655</v>
+        <v>-0.1510546753623727</v>
       </c>
       <c r="ABF3">
-        <v>-0.3821815124288682</v>
+        <v>-0.1508932200302129</v>
       </c>
       <c r="ABG3">
-        <v>-0.3790029353586236</v>
+        <v>-0.1500178118040044</v>
       </c>
       <c r="ABH3">
-        <v>-0.377498779342452</v>
+        <v>-0.1495180180833354</v>
       </c>
       <c r="ABI3">
-        <v>-0.3638037510224779</v>
+        <v>-0.1453437539192063</v>
       </c>
       <c r="ABJ3">
-        <v>-0.3726384042322713</v>
+        <v>-0.1477176816955369</v>
       </c>
       <c r="ABK3">
-        <v>-0.3747358892455792</v>
+        <v>-0.1488514390731627</v>
       </c>
       <c r="ABL3">
-        <v>-0.3842058551771106</v>
+        <v>-0.1512648172741809</v>
       </c>
       <c r="ABM3">
-        <v>-0.3821977787633334</v>
+        <v>-0.1509025475770822</v>
       </c>
       <c r="ABN3">
-        <v>-0.3790063853587682</v>
+        <v>-0.1500201463180891</v>
       </c>
       <c r="ABO3">
-        <v>-0.3774987793424429</v>
+        <v>-0.149518018083342</v>
       </c>
       <c r="ABP3">
-        <v>-0.3638081005951543</v>
+        <v>-0.1453443390159237</v>
       </c>
       <c r="ABQ3">
-        <v>-0.3726975040532928</v>
+        <v>-0.1477265701047581</v>
       </c>
       <c r="ABR3">
-        <v>-0.374740453651189</v>
+        <v>-0.1488514390731648</v>
       </c>
       <c r="ABS3">
-        <v>-0.3849454790977916</v>
+        <v>-0.1514335597617544</v>
       </c>
       <c r="ABT3">
-        <v>-0.3822439373802055</v>
+        <v>-0.1509236194793205</v>
       </c>
       <c r="ABU3">
-        <v>-0.3821992852267767</v>
+        <v>-0.1509035875457507</v>
       </c>
       <c r="ABV3">
-        <v>-0.3790104710141523</v>
+        <v>-0.1500229109599281</v>
       </c>
       <c r="ABW3">
-        <v>-0.3774987793424318</v>
+        <v>-0.1495180180833488</v>
       </c>
       <c r="ABX3">
-        <v>-0.3638121996155437</v>
+        <v>-0.1453448904078789</v>
       </c>
       <c r="ABY3">
-        <v>-0.3727479006572124</v>
+        <v>-0.1477341494192871</v>
       </c>
       <c r="ABZ3">
-        <v>-0.3747453723548315</v>
+        <v>-0.1488514390731662</v>
       </c>
       <c r="ACA3">
-        <v>-0.3850933214038781</v>
+        <v>-0.1514817562324796</v>
       </c>
       <c r="ACB3">
-        <v>-0.385516565702118</v>
+        <v>-0.1514986996964565</v>
       </c>
       <c r="ACC3">
-        <v>-0.3822814593345823</v>
+        <v>-0.1509407484750815</v>
       </c>
       <c r="ACD3">
-        <v>-0.3822003746170136</v>
+        <v>-0.1509043395928782</v>
       </c>
       <c r="ACE3">
-        <v>-0.3790144555286282</v>
+        <v>-0.1500256071611094</v>
       </c>
       <c r="ACF3">
-        <v>-0.3774987793424194</v>
+        <v>-0.1495180180833556</v>
       </c>
       <c r="ACG3">
-        <v>-0.3638179005813111</v>
+        <v>-0.1453456572888134</v>
       </c>
       <c r="ACH3">
-        <v>-0.3728070429032617</v>
+        <v>-0.1477430438314652</v>
       </c>
       <c r="ACI3">
-        <v>-0.3747543463015295</v>
+        <v>-0.1488514390731675</v>
       </c>
       <c r="ACJ3">
-        <v>-0.3852971608018376</v>
+        <v>-0.1515482059894372</v>
       </c>
       <c r="ACK3">
-        <v>-0.3859940333992796</v>
+        <v>-0.1515531496231271</v>
       </c>
       <c r="ACL3">
-        <v>-0.3822012939656634</v>
+        <v>-0.1509049742538024</v>
       </c>
       <c r="ACM3">
-        <v>-0.3790199333946839</v>
+        <v>-0.1500293138658295</v>
       </c>
       <c r="ACN3">
-        <v>-0.3774987793424051</v>
+        <v>-0.1495180180833653</v>
       </c>
       <c r="ACO3">
-        <v>-0.3638248869016593</v>
+        <v>-0.1453465970703644</v>
       </c>
       <c r="ACP3">
-        <v>-0.3728610849244036</v>
+        <v>-0.1477511710416786</v>
       </c>
       <c r="ACQ3">
-        <v>-0.3748214865952345</v>
+        <v>-0.1488514390731679</v>
       </c>
       <c r="ACR3">
-        <v>-0.3857986506689629</v>
+        <v>-0.1517116785586289</v>
       </c>
       <c r="ACS3">
-        <v>-0.3862545332798686</v>
+        <v>-0.1515729513811363</v>
       </c>
       <c r="ACT3">
-        <v>-0.3859971774135287</v>
+        <v>-0.1515538666342123</v>
       </c>
       <c r="ACU3">
-        <v>-0.3822028468527574</v>
+        <v>-0.1509060462699396</v>
       </c>
       <c r="ACV3">
-        <v>-0.37902746910864</v>
+        <v>-0.1500344130485048</v>
       </c>
       <c r="ACW3">
-        <v>-0.3774987793423991</v>
+        <v>-0.1495180180833716</v>
       </c>
       <c r="ACX3">
-        <v>-0.3638580005505526</v>
+        <v>-0.1453510513965912</v>
       </c>
       <c r="ACY3">
-        <v>-0.372944927314953</v>
+        <v>-0.147763779499102</v>
       </c>
       <c r="ACZ3">
-        <v>-0.3750272504465055</v>
+        <v>-0.1488514390731679</v>
       </c>
       <c r="ADA3">
-        <v>-0.3862051557513356</v>
+        <v>-0.1518441797203545</v>
       </c>
       <c r="ADB3">
-        <v>-0.3865098252641046</v>
+        <v>-0.1515923551542485</v>
       </c>
       <c r="ADC3">
-        <v>-0.3860001834986955</v>
+        <v>-0.1515545521890109</v>
       </c>
       <c r="ADD3">
-        <v>-0.3822050214891623</v>
+        <v>-0.1509075475025235</v>
       </c>
       <c r="ADE3">
-        <v>-0.3790354440559879</v>
+        <v>-0.150039809440551</v>
       </c>
       <c r="ADF3">
-        <v>-0.3774987793423927</v>
+        <v>-0.1495180180833796</v>
       </c>
       <c r="ADG3">
-        <v>-0.3641411520921996</v>
+        <v>-0.1453891375223683</v>
       </c>
       <c r="ADH3">
-        <v>-0.373114206534619</v>
+        <v>-0.1477892349413052</v>
       </c>
       <c r="ADI3">
-        <v>-0.3865228120569267</v>
+        <v>-0.1519477149243104</v>
       </c>
       <c r="ADJ3">
-        <v>-0.3860034242201694</v>
+        <v>-0.1515552912531377</v>
       </c>
       <c r="ADK3">
-        <v>-0.3822066351216538</v>
+        <v>-0.1509086614528928</v>
       </c>
       <c r="ADL3">
-        <v>-0.3790407416112522</v>
+        <v>-0.1500433941234159</v>
       </c>
       <c r="ADM3">
-        <v>-0.377498779342388</v>
+        <v>-0.1495180180833886</v>
       </c>
       <c r="ADN3">
-        <v>-0.3731562427937412</v>
+        <v>-0.1477930369049362</v>
       </c>
       <c r="ADO3">
-        <v>-0.3731650717344385</v>
+        <v>-0.1478119008452327</v>
       </c>
       <c r="ADP3">
-        <v>-0.3868099309138276</v>
+        <v>-0.1520412927503056</v>
       </c>
       <c r="ADQ3">
-        <v>-0.3860063179409183</v>
+        <v>-0.1515559511811526</v>
       </c>
       <c r="ADR3">
-        <v>-0.3822093081736783</v>
+        <v>-0.1509105067593062</v>
       </c>
       <c r="ADS3">
-        <v>-0.3790461332608658</v>
+        <v>-0.1500470424739852</v>
       </c>
       <c r="ADT3">
-        <v>-0.3774987793423865</v>
+        <v>-0.149518018083394</v>
       </c>
       <c r="ADU3">
-        <v>-0.3731929030359148</v>
+        <v>-0.1477963525813211</v>
       </c>
       <c r="ADV3">
-        <v>-0.3732464659082571</v>
+        <v>-0.1478481700759657</v>
       </c>
       <c r="ADW3">
-        <v>-0.3868203388566486</v>
+        <v>-0.152043002613745</v>
       </c>
       <c r="ADX3">
-        <v>-0.3869556047381723</v>
+        <v>-0.1521080645001557</v>
       </c>
       <c r="ADY3">
-        <v>-0.3860095135776996</v>
+        <v>-0.1515566799619018</v>
       </c>
       <c r="ADZ3">
-        <v>-0.3822278619684117</v>
+        <v>-0.1509233151090026</v>
       </c>
       <c r="AEA3">
-        <v>-0.3790487112448123</v>
+        <v>-0.1500487869092405</v>
       </c>
       <c r="AEB3">
-        <v>-0.377498779342387</v>
+        <v>-0.1495180180833944</v>
       </c>
       <c r="AEC3">
-        <v>-0.3732232231885775</v>
+        <v>-0.1477990948004408</v>
       </c>
       <c r="AED3">
-        <v>-0.3733160116584975</v>
+        <v>-0.1478791590595652</v>
       </c>
       <c r="AEE3">
-        <v>-0.3868307741921309</v>
+        <v>-0.1520447169705613</v>
       </c>
       <c r="AEF3">
-        <v>-0.3871175591579686</v>
+        <v>-0.1521822994093066</v>
       </c>
       <c r="AEG3">
-        <v>-0.3869556047381723</v>
+        <v>-0.1521080645001557</v>
       </c>
       <c r="AEH3">
-        <v>-0.3860115739122273</v>
+        <v>-0.1515571498309292</v>
       </c>
       <c r="AEI3">
-        <v>-0.3822688455702425</v>
+        <v>-0.1509516074397202</v>
       </c>
       <c r="AEJ3">
-        <v>-0.3790528118469839</v>
+        <v>-0.1500515616478061</v>
       </c>
       <c r="AEK3">
-        <v>-0.3774987793423873</v>
+        <v>-0.1495180180833934</v>
       </c>
       <c r="AEL3">
-        <v>-0.3732468019021427</v>
+        <v>-0.1478012272856145</v>
       </c>
       <c r="AEM3">
-        <v>-0.3733553728044295</v>
+        <v>-0.147896697803535</v>
       </c>
       <c r="AEN3">
-        <v>-0.386841229831537</v>
+        <v>-0.1520464346561403</v>
       </c>
       <c r="AEO3">
-        <v>-0.3872533568966445</v>
+        <v>-0.1522445438069941</v>
       </c>
       <c r="AEP3">
-        <v>-0.3871175591579686</v>
+        <v>-0.1521822994093066</v>
       </c>
       <c r="AEQ3">
-        <v>-0.3860147384490809</v>
+        <v>-0.151557871517849</v>
       </c>
       <c r="AER3">
-        <v>-0.3790566614086736</v>
+        <v>-0.1500541665142575</v>
       </c>
       <c r="AES3">
-        <v>-0.3774987793423842</v>
+        <v>-0.1495180180833929</v>
       </c>
       <c r="AET3">
-        <v>-0.3732707831734337</v>
+        <v>-0.1478033961571567</v>
       </c>
       <c r="AEU3">
-        <v>-0.3868516222260295</v>
+        <v>-0.1520481419448565</v>
       </c>
       <c r="AEV3">
-        <v>-0.3873993405297353</v>
+        <v>-0.1523114559073619</v>
       </c>
       <c r="AEW3">
-        <v>-0.3872533568966445</v>
+        <v>-0.1522445438069941</v>
       </c>
       <c r="AEX3">
-        <v>-0.3860407677385064</v>
+        <v>-0.1515638075843366</v>
       </c>
       <c r="AEY3">
-        <v>-0.3790621618039722</v>
+        <v>-0.1500578884406652</v>
       </c>
       <c r="AEZ3">
-        <v>-0.3774987793423842</v>
+        <v>-0.1495180180833929</v>
       </c>
       <c r="AFA3">
-        <v>-0.3732915948658228</v>
+        <v>-0.1478052783537823</v>
       </c>
       <c r="AFB3">
-        <v>-0.3868620541662328</v>
+        <v>-0.1520498557234367</v>
       </c>
       <c r="AFC3">
-        <v>-0.3875192017565237</v>
+        <v>-0.1523663938493764</v>
       </c>
       <c r="AFD3">
-        <v>-0.3873993405297353</v>
+        <v>-0.1523114559073619</v>
       </c>
       <c r="AFE3">
-        <v>-0.3861304788011359</v>
+        <v>-0.1515842660752117</v>
       </c>
       <c r="AFF3">
-        <v>-0.3791202230542624</v>
+        <v>-0.1500971762875279</v>
       </c>
       <c r="AFG3">
-        <v>-0.3733065422624915</v>
+        <v>-0.1478066301770908</v>
       </c>
       <c r="AFH3">
-        <v>-0.3868724790668588</v>
+        <v>-0.1520515683387315</v>
       </c>
       <c r="AFI3">
-        <v>-0.3876478894827072</v>
+        <v>-0.1524253765173346</v>
       </c>
       <c r="AFJ3">
-        <v>-0.3875192017565237</v>
+        <v>-0.1523663938493764</v>
       </c>
       <c r="AFK3">
-        <v>-0.3791434465218563</v>
+        <v>-0.1501128906334454</v>
       </c>
       <c r="AFL3">
-        <v>-0.3733238963453356</v>
+        <v>-0.1478081996474797</v>
       </c>
       <c r="AFM3">
-        <v>-0.3868829105993826</v>
+        <v>-0.152053282036708</v>
       </c>
       <c r="AFN3">
-        <v>-0.3879349829461113</v>
+        <v>-0.1525569639797637</v>
       </c>
       <c r="AFO3">
-        <v>-0.3876478894827264</v>
+        <v>-0.1524253765172909</v>
       </c>
       <c r="AFP3">
-        <v>-0.3876478894827072</v>
+        <v>-0.1524253765173346</v>
       </c>
       <c r="AFQ3">
-        <v>-0.3791552394519254</v>
+        <v>-0.1501208703937188</v>
       </c>
       <c r="AFR3">
-        <v>-0.3733500407640385</v>
+        <v>-0.1478105640778593</v>
       </c>
       <c r="AFS3">
-        <v>-0.3868880025786232</v>
+        <v>-0.1520541185474182</v>
       </c>
       <c r="AFT3">
-        <v>-0.387976989128158</v>
+        <v>-0.1525762163600033</v>
       </c>
       <c r="AFU3">
-        <v>-0.3876478894827492</v>
+        <v>-0.1524253765172397</v>
       </c>
       <c r="AFV3">
-        <v>-0.3876478894827264</v>
+        <v>-0.1524253765172909</v>
       </c>
       <c r="AFW3">
-        <v>-0.3791578490075049</v>
+        <v>-0.1501226361640322</v>
       </c>
       <c r="AFX3">
-        <v>-0.3733927561418546</v>
+        <v>-0.147814427085686</v>
       </c>
       <c r="AFY3">
-        <v>-0.3870024486480875</v>
+        <v>-0.1520729193273194</v>
       </c>
       <c r="AFZ3">
-        <v>-0.3880953349193829</v>
+        <v>-0.1526304556879258</v>
       </c>
       <c r="AGA3">
-        <v>-0.3876478894827913</v>
+        <v>-0.1524253765171674</v>
       </c>
       <c r="AGB3">
-        <v>-0.3876478894827492</v>
+        <v>-0.1524253765172397</v>
       </c>
       <c r="AGC3">
-        <v>-0.3791599041626639</v>
+        <v>-0.1501240267957329</v>
       </c>
       <c r="AGD3">
-        <v>-0.3735624492581275</v>
+        <v>-0.1478454254886852</v>
       </c>
       <c r="AGE3">
-        <v>-0.3738536829409657</v>
+        <v>-0.147814427085686</v>
       </c>
       <c r="AGF3">
-        <v>-0.3870768739523728</v>
+        <v>-0.1520851452026653</v>
       </c>
       <c r="AGG3">
-        <v>-0.3882343117987739</v>
+        <v>-0.1526941482047495</v>
       </c>
       <c r="AGH3">
-        <v>-0.3876478894828111</v>
+        <v>-0.152425376517141</v>
       </c>
       <c r="AGI3">
-        <v>-0.3876478894827913</v>
+        <v>-0.1524253765171674</v>
       </c>
       <c r="AGJ3">
-        <v>-0.3791621061289829</v>
+        <v>-0.1501255167675213</v>
       </c>
       <c r="AGK3">
-        <v>-0.3871419684142754</v>
+        <v>-0.1520958380122637</v>
       </c>
       <c r="AGL3">
-        <v>-0.3882523408318999</v>
+        <v>-0.1527024106530768</v>
       </c>
       <c r="AGM3">
-        <v>-0.3876478894828248</v>
+        <v>-0.1524253765171336</v>
       </c>
       <c r="AGN3">
-        <v>-0.3876478894828111</v>
+        <v>-0.152425376517141</v>
       </c>
       <c r="AGO3">
-        <v>-0.3791638678644869</v>
+        <v>-0.1501267088545258</v>
       </c>
       <c r="AGP3">
-        <v>-0.3872102502986794</v>
+        <v>-0.152107054121928</v>
       </c>
       <c r="AGQ3">
-        <v>-0.3882568731476295</v>
+        <v>-0.1527127960926599</v>
       </c>
       <c r="AGR3">
-        <v>-0.3882926766743644</v>
+        <v>-0.152702410653078</v>
       </c>
       <c r="AGS3">
-        <v>-0.3876478894828309</v>
+        <v>-0.1524253765171321</v>
       </c>
       <c r="AGT3">
-        <v>-0.3876478894828248</v>
+        <v>-0.1524253765171336</v>
       </c>
       <c r="AGU3">
-        <v>-0.3791655784387584</v>
+        <v>-0.1501278663227346</v>
       </c>
       <c r="AGV3">
-        <v>-0.3873268454080637</v>
+        <v>-0.1521262055769914</v>
       </c>
       <c r="AGW3">
-        <v>-0.3882610670299582</v>
+        <v>-0.1527224060670852</v>
       </c>
       <c r="AGX3">
-        <v>-0.3883870766910693</v>
+        <v>-0.1527024106530796</v>
       </c>
       <c r="AGY3">
-        <v>-0.3876478894828309</v>
+        <v>-0.1524253765171321</v>
       </c>
       <c r="AGZ3">
-        <v>-0.3876478894828309</v>
+        <v>-0.1524253765171321</v>
       </c>
       <c r="AHA3">
-        <v>-0.379167284675671</v>
+        <v>-0.1501290208557578</v>
       </c>
       <c r="AHB3">
-        <v>-0.3873554446211012</v>
+        <v>-0.1521309030414499</v>
       </c>
       <c r="AHC3">
-        <v>-0.3882674442132393</v>
+        <v>-0.1527370189673441</v>
       </c>
       <c r="AHD3">
-        <v>-0.3886110401619888</v>
+        <v>-0.1527024106530796</v>
       </c>
       <c r="AHE3">
-        <v>-0.3791689709508305</v>
+        <v>-0.1501301618812824</v>
       </c>
       <c r="AHF3">
-        <v>-0.3873554446210927</v>
+        <v>-0.1521343291888143</v>
       </c>
       <c r="AHG3">
-        <v>-0.3875226369294814</v>
+        <v>-0.1521402075991905</v>
       </c>
       <c r="AHH3">
-        <v>-0.388275503259401</v>
+        <v>-0.1527554858357549</v>
       </c>
       <c r="AHI3">
-        <v>-0.3791991252733005</v>
+        <v>-0.1501505658887336</v>
       </c>
       <c r="AHJ3">
-        <v>-0.387355444621078</v>
+        <v>-0.1521399546534551</v>
       </c>
       <c r="AHK3">
-        <v>-0.3876644457152013</v>
+        <v>-0.152148099138245</v>
       </c>
       <c r="AHL3">
-        <v>-0.3883068772893523</v>
+        <v>-0.1528273786736371</v>
       </c>
       <c r="AHM3">
-        <v>-0.3792692414585844</v>
+        <v>-0.150214615489709</v>
       </c>
       <c r="AHN3">
-        <v>-0.3792393316417887</v>
+        <v>-0.1501684817327559</v>
       </c>
       <c r="AHO3">
-        <v>-0.387355444621075</v>
+        <v>-0.1521410669329759</v>
       </c>
       <c r="AHP3">
-        <v>-0.3879028120868369</v>
+        <v>-0.1521613632411435</v>
       </c>
       <c r="AHQ3">
-        <v>-0.3883638715754794</v>
+        <v>-0.1529579835621903</v>
       </c>
       <c r="AHR3">
-        <v>-0.3793158078633455</v>
+        <v>-0.1502571527835392</v>
       </c>
       <c r="AHS3">
-        <v>-0.3873554446210752</v>
+        <v>-0.1521420067856583</v>
       </c>
       <c r="AHT3">
-        <v>-0.3873554446210764</v>
+        <v>-0.1521427987966993</v>
       </c>
       <c r="AHU3">
-        <v>-0.3873554446210772</v>
+        <v>-0.1521438290714242</v>
       </c>
       <c r="AHV3">
-        <v>-0.3873554446210776</v>
+        <v>-0.1521456937094385</v>
       </c>
       <c r="AHW3">
-        <v>-0.3873554446210772</v>
+        <v>-0.1521489266615971</v>
       </c>
       <c r="AHX3">
-        <v>-0.3873554446210772</v>
+        <v>-0.1521754081198178</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.03962434634335743</v>
+        <v>-0.04131178956083436</v>
       </c>
       <c r="D2">
-        <v>-0.03998016458790782</v>
+        <v>-0.04168252372635586</v>
       </c>
       <c r="E2">
-        <v>-0.04001746878709447</v>
+        <v>-0.04172139179133404</v>
       </c>
       <c r="F2">
-        <v>-0.04005241724398836</v>
+        <v>-0.04175780536898262</v>
       </c>
       <c r="G2">
-        <v>-0.04008288750083396</v>
+        <v>-0.04178955301974164</v>
       </c>
       <c r="H2">
-        <v>-0.04013089053636445</v>
+        <v>-0.04183956848812949</v>
       </c>
       <c r="I2">
-        <v>-0.04340087265735767</v>
+        <v>-0.045246691186603</v>
       </c>
       <c r="J2">
-        <v>-0.04354738522612428</v>
+        <v>-0.04539935082726459</v>
       </c>
       <c r="K2">
-        <v>-0.04366933398822923</v>
+        <v>-0.04552641622372326</v>
       </c>
       <c r="L2">
-        <v>-0.04377635645002365</v>
+        <v>-0.04563792917311951</v>
       </c>
       <c r="M2">
-        <v>-0.04385621708132015</v>
+        <v>-0.04572114069891309</v>
       </c>
       <c r="N2">
-        <v>-0.04393118784048823</v>
+        <v>-0.04579925723378232</v>
       </c>
       <c r="O2">
-        <v>-0.04397728862585278</v>
+        <v>-0.04584729243699445</v>
       </c>
       <c r="P2">
-        <v>-0.04409206095473295</v>
+        <v>-0.04596688077494045</v>
       </c>
       <c r="Q2">
-        <v>-0.04502191960758571</v>
+        <v>-0.04693576235621372</v>
       </c>
       <c r="R2">
-        <v>-0.0450219196075866</v>
+        <v>-0.04693576235621315</v>
       </c>
       <c r="S2">
-        <v>-0.04614978734646014</v>
+        <v>-0.04811097411389672</v>
       </c>
       <c r="T2">
-        <v>-0.04502191960758755</v>
+        <v>-0.04693576235621345</v>
       </c>
       <c r="U2">
-        <v>-0.04622740181293548</v>
+        <v>-0.04819184702655446</v>
       </c>
       <c r="V2">
-        <v>-0.04502191960758879</v>
+        <v>-0.04693576235621312</v>
       </c>
       <c r="W2">
-        <v>-0.04631455537850115</v>
+        <v>-0.04828265958329782</v>
       </c>
       <c r="X2">
-        <v>-0.04502191960758992</v>
+        <v>-0.046935762356213</v>
       </c>
       <c r="Y2">
-        <v>-0.04645646259205333</v>
+        <v>-0.048430524683706</v>
       </c>
       <c r="Z2">
-        <v>-0.04502191960759148</v>
+        <v>-0.04693576235621336</v>
       </c>
       <c r="AA2">
-        <v>-0.04671463752486702</v>
+        <v>-0.04869953943651963</v>
       </c>
       <c r="AB2">
-        <v>-0.04502191960759343</v>
+        <v>-0.04693576235621382</v>
       </c>
       <c r="AC2">
-        <v>-0.04677955202052197</v>
+        <v>-0.04874802830268836</v>
       </c>
       <c r="AD2">
-        <v>-0.04986265281139522</v>
+        <v>-0.0520058846960005</v>
       </c>
       <c r="AE2">
-        <v>-0.0450219196075954</v>
+        <v>-0.04693576235621444</v>
       </c>
       <c r="AF2">
-        <v>-0.04678838212479913</v>
+        <v>-0.04875685898194417</v>
       </c>
       <c r="AG2">
-        <v>-0.04678837026254159</v>
+        <v>-0.04875243770552318</v>
       </c>
       <c r="AH2">
-        <v>-0.05070107186619732</v>
+        <v>-0.05288649183995978</v>
       </c>
       <c r="AI2">
-        <v>-0.04502191960760105</v>
+        <v>-0.04693576235621667</v>
       </c>
       <c r="AJ2">
-        <v>-0.0468086038211151</v>
+        <v>-0.04877708199502568</v>
       </c>
       <c r="AK2">
-        <v>-0.04678866889368939</v>
+        <v>-0.04875258703048511</v>
       </c>
       <c r="AL2">
-        <v>-0.05084420476785392</v>
+        <v>-0.05298451719590185</v>
       </c>
       <c r="AM2">
-        <v>-0.05307526397300585</v>
+        <v>-0.05543936846359006</v>
       </c>
       <c r="AN2">
-        <v>-0.04502191960760555</v>
+        <v>-0.04693576235621839</v>
       </c>
       <c r="AO2">
-        <v>-0.04678909827134159</v>
+        <v>-0.04875280173279004</v>
       </c>
       <c r="AP2">
-        <v>-0.05085203028677571</v>
+        <v>-0.05298679985466685</v>
       </c>
       <c r="AQ2">
-        <v>-0.05085401993827325</v>
+        <v>-0.05300513107318418</v>
       </c>
       <c r="AR2">
-        <v>-0.05472352381382569</v>
+        <v>-0.05721173773591304</v>
       </c>
       <c r="AS2">
-        <v>-0.05307526397303096</v>
+        <v>-0.05543936846358835</v>
       </c>
       <c r="AT2">
-        <v>-0.04502191960760661</v>
+        <v>-0.04693576235621864</v>
       </c>
       <c r="AU2">
-        <v>-0.04678964891899598</v>
+        <v>-0.04875307707387349</v>
       </c>
       <c r="AV2">
-        <v>-0.05085555749145721</v>
+        <v>-0.0529878287180537</v>
       </c>
       <c r="AW2">
-        <v>-0.05087763727718096</v>
+        <v>-0.05305473276012081</v>
       </c>
       <c r="AX2">
-        <v>-0.05596943891116579</v>
+        <v>-0.05855149913922333</v>
       </c>
       <c r="AY2">
-        <v>-0.05307526397304308</v>
+        <v>-0.05543936846358574</v>
       </c>
       <c r="AZ2">
-        <v>-0.04502191960760811</v>
+        <v>-0.04693576235621884</v>
       </c>
       <c r="BA2">
-        <v>-0.04679098999462959</v>
+        <v>-0.04875374765357143</v>
       </c>
       <c r="BB2">
-        <v>-0.05085929557953427</v>
+        <v>-0.05298891909351944</v>
       </c>
       <c r="BC2">
-        <v>-0.05614910289876066</v>
+        <v>-0.05874469828858817</v>
       </c>
       <c r="BD2">
-        <v>-0.05596943891117846</v>
+        <v>-0.05855149913924566</v>
       </c>
       <c r="BE2">
-        <v>-0.05307526397304874</v>
+        <v>-0.0554393684635778</v>
       </c>
       <c r="BF2">
-        <v>-0.04502191960761077</v>
+        <v>-0.04693576235621923</v>
       </c>
       <c r="BG2">
-        <v>-0.04679213820087374</v>
+        <v>-0.04875432179238798</v>
       </c>
       <c r="BH2">
-        <v>-0.05086285585566341</v>
+        <v>-0.05298995760119601</v>
       </c>
       <c r="BI2">
-        <v>-0.05696302211402617</v>
+        <v>-0.05961994215204065</v>
       </c>
       <c r="BJ2">
-        <v>-0.0559694389111802</v>
+        <v>-0.05855149913924793</v>
       </c>
       <c r="BK2">
-        <v>-0.05307526397305739</v>
+        <v>-0.05543936846356858</v>
       </c>
       <c r="BL2">
-        <v>-0.04502191960761247</v>
+        <v>-0.04693576235622014</v>
       </c>
       <c r="BM2">
-        <v>-0.04679764229825868</v>
+        <v>-0.04875707401010478</v>
       </c>
       <c r="BN2">
-        <v>-0.05086498811168785</v>
+        <v>-0.05299057956481061</v>
       </c>
       <c r="BO2">
-        <v>-0.05711869635607325</v>
+        <v>-0.05978808410137924</v>
       </c>
       <c r="BP2">
-        <v>-0.05714276181940534</v>
+        <v>-0.05979972170549167</v>
       </c>
       <c r="BQ2">
-        <v>-0.05596943891118098</v>
+        <v>-0.05855149913924797</v>
       </c>
       <c r="BR2">
-        <v>-0.05307526397306566</v>
+        <v>-0.05543936846356329</v>
       </c>
       <c r="BS2">
-        <v>-0.0450219196076141</v>
+        <v>-0.04693576235622057</v>
       </c>
       <c r="BT2">
-        <v>-0.04681709750641896</v>
+        <v>-0.04876680218394223</v>
       </c>
       <c r="BU2">
-        <v>-0.05086917144748845</v>
+        <v>-0.05299179981227338</v>
       </c>
       <c r="BV2">
-        <v>-0.05895833386880886</v>
+        <v>-0.06177509044457403</v>
       </c>
       <c r="BW2">
-        <v>-0.05720865716428313</v>
+        <v>-0.05985464651504137</v>
       </c>
       <c r="BX2">
-        <v>-0.05716472669928761</v>
+        <v>-0.05983267643508675</v>
       </c>
       <c r="BY2">
-        <v>-0.05596943891117821</v>
+        <v>-0.05855149913924521</v>
       </c>
       <c r="BZ2">
-        <v>-0.0530752639730888</v>
+        <v>-0.05543936846354366</v>
       </c>
       <c r="CA2">
-        <v>-0.04502191960761913</v>
+        <v>-0.04693576235622204</v>
       </c>
       <c r="CB2">
-        <v>-0.05089037287637346</v>
+        <v>-0.0529979840836074</v>
       </c>
       <c r="CC2">
-        <v>-0.05959975911874842</v>
+        <v>-0.06246791392271025</v>
       </c>
       <c r="CD2">
-        <v>-0.05596943891117622</v>
+        <v>-0.05855149913924133</v>
       </c>
       <c r="CE2">
-        <v>-0.05307526397316616</v>
+        <v>-0.05543936846348354</v>
       </c>
       <c r="CF2">
-        <v>-0.04502191960762509</v>
+        <v>-0.04693576235622429</v>
       </c>
       <c r="CG2">
-        <v>-0.05097026642774092</v>
+        <v>-0.05302128795302193</v>
       </c>
       <c r="CH2">
-        <v>-0.05973975114713503</v>
+        <v>-0.06261912473892042</v>
       </c>
       <c r="CI2">
-        <v>-0.05596943891117442</v>
+        <v>-0.05855149913924033</v>
       </c>
       <c r="CJ2">
-        <v>-0.05307526397332195</v>
+        <v>-0.05543936846337052</v>
       </c>
       <c r="CK2">
-        <v>-0.04502191960762894</v>
+        <v>-0.04693576235622582</v>
       </c>
       <c r="CL2">
-        <v>-0.06002364613788973</v>
+        <v>-0.06292577187449649</v>
       </c>
       <c r="CM2">
-        <v>-0.05596943891117442</v>
+        <v>-0.05855149913924033</v>
       </c>
       <c r="CN2">
-        <v>-0.05307526397335961</v>
+        <v>-0.05543936846334886</v>
       </c>
       <c r="CO2">
-        <v>-0.04502191960763032</v>
+        <v>-0.04693576235622708</v>
       </c>
       <c r="CP2">
-        <v>-0.0602913885576091</v>
+        <v>-0.06321497334006509</v>
       </c>
       <c r="CQ2">
-        <v>-0.05307526397336837</v>
+        <v>-0.05543936846335119</v>
       </c>
       <c r="CR2">
-        <v>-0.04502191960762993</v>
+        <v>-0.04693576235622706</v>
       </c>
       <c r="CS2">
-        <v>-0.06044701771571438</v>
+        <v>-0.06338307650990473</v>
       </c>
       <c r="CT2">
-        <v>-0.0530752639733758</v>
+        <v>-0.05543936846335219</v>
       </c>
       <c r="CU2">
-        <v>-0.04502191960763009</v>
+        <v>-0.04693576235622698</v>
       </c>
       <c r="CV2">
-        <v>-0.06054980207364555</v>
+        <v>-0.06349409950939743</v>
       </c>
       <c r="CW2">
-        <v>-0.05307526397337622</v>
+        <v>-0.0554393684633531</v>
       </c>
       <c r="CX2">
-        <v>-0.04502191960763022</v>
+        <v>-0.04693576235622725</v>
       </c>
       <c r="CY2">
-        <v>-0.06069172242056989</v>
+        <v>-0.06364739576075912</v>
       </c>
       <c r="CZ2">
-        <v>-0.05307526397338373</v>
+        <v>-0.05543936846336836</v>
       </c>
       <c r="DA2">
-        <v>-0.04502191960763022</v>
+        <v>-0.04693576235622725</v>
       </c>
       <c r="DB2">
-        <v>-0.06069724838228995</v>
+        <v>-0.06365108578858614</v>
       </c>
       <c r="DC2">
-        <v>-0.06077865679348091</v>
+        <v>-0.06374409166202183</v>
       </c>
       <c r="DD2">
-        <v>-0.05307526397337657</v>
+        <v>-0.05543936846336902</v>
       </c>
       <c r="DE2">
-        <v>-0.06070393403559524</v>
+        <v>-0.06365555021408348</v>
       </c>
       <c r="DF2">
-        <v>-0.06082795363149125</v>
+        <v>-0.06379892394603746</v>
       </c>
       <c r="DG2">
-        <v>-0.05307526397336541</v>
+        <v>-0.05543936846337731</v>
       </c>
       <c r="DH2">
-        <v>-0.06071168318718548</v>
+        <v>-0.06366072480278606</v>
       </c>
       <c r="DI2">
-        <v>-0.06277350149043057</v>
+        <v>-0.06596298707015692</v>
       </c>
       <c r="DJ2">
-        <v>-0.05307526397310449</v>
+        <v>-0.05543936846350377</v>
       </c>
       <c r="DK2">
-        <v>-0.06072349834989499</v>
+        <v>-0.06366861451787671</v>
       </c>
       <c r="DL2">
-        <v>-0.06296844884198302</v>
+        <v>-0.06617983578983003</v>
       </c>
       <c r="DM2">
-        <v>-0.05307526397287168</v>
+        <v>-0.05543936846361944</v>
       </c>
       <c r="DN2">
-        <v>-0.06073868835131129</v>
+        <v>-0.06367875781946519</v>
       </c>
       <c r="DO2">
-        <v>-0.06299911738687046</v>
+        <v>-0.06620323466870762</v>
       </c>
       <c r="DP2">
-        <v>-0.06383225704445131</v>
+        <v>-0.06717920995983172</v>
       </c>
       <c r="DQ2">
-        <v>-0.05307526397284996</v>
+        <v>-0.05543936846363173</v>
       </c>
       <c r="DR2">
-        <v>-0.06074959332712392</v>
+        <v>-0.06368603974350484</v>
       </c>
       <c r="DS2">
-        <v>-0.06299911738687101</v>
+        <v>-0.06620323466870974</v>
       </c>
       <c r="DT2">
-        <v>-0.06301404973175356</v>
+        <v>-0.06621462745056393</v>
       </c>
       <c r="DU2">
-        <v>-0.06539027038776514</v>
+        <v>-0.06898178276019769</v>
       </c>
       <c r="DV2">
-        <v>-0.05307526397283136</v>
+        <v>-0.05543936846364126</v>
       </c>
       <c r="DW2">
-        <v>-0.06076500198652179</v>
+        <v>-0.06369632905242528</v>
       </c>
       <c r="DX2">
-        <v>-0.06299911738687147</v>
+        <v>-0.06620323466871156</v>
       </c>
       <c r="DY2">
-        <v>-0.06308419702271029</v>
+        <v>-0.06626814700285134</v>
       </c>
       <c r="DZ2">
-        <v>-0.06609101222078255</v>
+        <v>-0.06979253806593574</v>
       </c>
       <c r="EA2">
-        <v>-0.05307526397282538</v>
+        <v>-0.05543936846365425</v>
       </c>
       <c r="EB2">
-        <v>-0.06078167306024748</v>
+        <v>-0.06370746135025102</v>
       </c>
       <c r="EC2">
-        <v>-0.0629991173868714</v>
+        <v>-0.0662032346687129</v>
       </c>
       <c r="ED2">
-        <v>-0.0631162058022551</v>
+        <v>-0.06630979875743971</v>
       </c>
       <c r="EE2">
-        <v>-0.06323719397766778</v>
+        <v>-0.0663600491036456</v>
       </c>
       <c r="EF2">
-        <v>-0.06629951461434638</v>
+        <v>-0.07003377670557676</v>
       </c>
       <c r="EG2">
-        <v>-0.05307526397281892</v>
+        <v>-0.05543936846370609</v>
       </c>
       <c r="EH2">
-        <v>-0.06079739523597002</v>
+        <v>-0.06371796000811475</v>
       </c>
       <c r="EI2">
-        <v>-0.06299911738687232</v>
+        <v>-0.06620323466871456</v>
       </c>
       <c r="EJ2">
-        <v>-0.0631189624056756</v>
+        <v>-0.06631338582464723</v>
       </c>
       <c r="EK2">
-        <v>-0.06335101629375604</v>
+        <v>-0.06642841964291754</v>
       </c>
       <c r="EL2">
-        <v>-0.06653487941446616</v>
+        <v>-0.0703060965723596</v>
       </c>
       <c r="EM2">
-        <v>-0.05307526397281085</v>
+        <v>-0.05543936846374033</v>
       </c>
       <c r="EN2">
-        <v>-0.06082324502617013</v>
+        <v>-0.06373522148780626</v>
       </c>
       <c r="EO2">
-        <v>-0.06299911738687287</v>
+        <v>-0.06620323466871537</v>
       </c>
       <c r="EP2">
-        <v>-0.06312166716065891</v>
+        <v>-0.06631690542470024</v>
       </c>
       <c r="EQ2">
-        <v>-0.0634272406209596</v>
+        <v>-0.06647420582469292</v>
       </c>
       <c r="ER2">
-        <v>-0.06675624234118686</v>
+        <v>-0.07056221731150623</v>
       </c>
       <c r="ES2">
-        <v>-0.05307526397281096</v>
+        <v>-0.05543936846374621</v>
       </c>
       <c r="ET2">
-        <v>-0.06094615554739994</v>
+        <v>-0.06381729623720732</v>
       </c>
       <c r="EU2">
-        <v>-0.06299911738687299</v>
+        <v>-0.06620323466871593</v>
       </c>
       <c r="EV2">
-        <v>-0.06312385113817955</v>
+        <v>-0.06631974735678729</v>
       </c>
       <c r="EW2">
-        <v>-0.06344216552751959</v>
+        <v>-0.06649697418147725</v>
       </c>
       <c r="EX2">
-        <v>-0.06354186807450665</v>
+        <v>-0.06651720492388148</v>
       </c>
       <c r="EY2">
-        <v>-0.06701453873513892</v>
+        <v>-0.07086107218967055</v>
       </c>
       <c r="EZ2">
-        <v>-0.05307526397281044</v>
+        <v>-0.05543936846375074</v>
       </c>
       <c r="FA2">
-        <v>-0.06097293105545685</v>
+        <v>-0.06383517583430157</v>
       </c>
       <c r="FB2">
-        <v>-0.06299911738687368</v>
+        <v>-0.06620323466871676</v>
       </c>
       <c r="FC2">
-        <v>-0.06312712911899318</v>
+        <v>-0.06632401287796146</v>
       </c>
       <c r="FD2">
-        <v>-0.06348174731648316</v>
+        <v>-0.06655735733253833</v>
       </c>
       <c r="FE2">
-        <v>-0.06354884523161533</v>
+        <v>-0.06651982215266454</v>
       </c>
       <c r="FF2">
-        <v>-0.067088863802718</v>
+        <v>-0.07094706829999167</v>
       </c>
       <c r="FG2">
-        <v>-0.05307526397280816</v>
+        <v>-0.05543936846375223</v>
       </c>
       <c r="FH2">
-        <v>-0.06110081876150415</v>
+        <v>-0.06383517583431371</v>
       </c>
       <c r="FI2">
-        <v>-0.06103004552330853</v>
+        <v>-0.06390279419046192</v>
       </c>
       <c r="FJ2">
-        <v>-0.06299911738687373</v>
+        <v>-0.06620323466871701</v>
       </c>
       <c r="FK2">
-        <v>-0.06313108109763636</v>
+        <v>-0.06632915545136921</v>
       </c>
       <c r="FL2">
-        <v>-0.06349549625142055</v>
+        <v>-0.06657833173951176</v>
       </c>
       <c r="FM2">
-        <v>-0.06355521925359887</v>
+        <v>-0.06652221313251323</v>
       </c>
       <c r="FN2">
-        <v>-0.06751113017544587</v>
+        <v>-0.07143564439786967</v>
       </c>
       <c r="FO2">
-        <v>-0.05307526397280816</v>
+        <v>-0.05543936846375223</v>
       </c>
       <c r="FP2">
-        <v>-0.06112497974869872</v>
+        <v>-0.06383517583431597</v>
       </c>
       <c r="FQ2">
-        <v>-0.06110587124892471</v>
+        <v>-0.06399256503134468</v>
       </c>
       <c r="FR2">
-        <v>-0.06299911738687324</v>
+        <v>-0.06620323466871662</v>
       </c>
       <c r="FS2">
-        <v>-0.06313406674029751</v>
+        <v>-0.06633304056696919</v>
       </c>
       <c r="FT2">
-        <v>-0.06349549625125671</v>
+        <v>-0.06657833173961017</v>
       </c>
       <c r="FU2">
-        <v>-0.0635184036271748</v>
+        <v>-0.06661327742378848</v>
       </c>
       <c r="FV2">
-        <v>-0.06355786711531899</v>
+        <v>-0.06652320637914837</v>
       </c>
       <c r="FW2">
-        <v>-0.06774963909001287</v>
+        <v>-0.07171160894581469</v>
       </c>
       <c r="FX2">
-        <v>-0.06117482957535499</v>
+        <v>-0.06383517583431597</v>
       </c>
       <c r="FY2">
-        <v>-0.06111358450323531</v>
+        <v>-0.06400003349231326</v>
       </c>
       <c r="FZ2">
-        <v>-0.06111939229762392</v>
+        <v>-0.06401301735834376</v>
       </c>
       <c r="GA2">
-        <v>-0.06299911738687251</v>
+        <v>-0.06620323466871569</v>
       </c>
       <c r="GB2">
-        <v>-0.0631375216536588</v>
+        <v>-0.06633753633061494</v>
       </c>
       <c r="GC2">
-        <v>-0.06349549625123797</v>
+        <v>-0.06657833173962045</v>
       </c>
       <c r="GD2">
-        <v>-0.06352087765993528</v>
+        <v>-0.06661705162436565</v>
       </c>
       <c r="GE2">
-        <v>-0.06356357456086778</v>
+        <v>-0.0665253473120726</v>
       </c>
       <c r="GF2">
-        <v>-0.06792669564606212</v>
+        <v>-0.07191647148474851</v>
       </c>
       <c r="GG2">
-        <v>-0.06114393825299064</v>
+        <v>-0.06402942391298116</v>
       </c>
       <c r="GH2">
-        <v>-0.0611753539382454</v>
+        <v>-0.06409766723258563</v>
       </c>
       <c r="GI2">
-        <v>-0.06299911738687208</v>
+        <v>-0.06620323466871486</v>
       </c>
       <c r="GJ2">
-        <v>-0.06314077016869901</v>
+        <v>-0.06634176351694879</v>
       </c>
       <c r="GK2">
-        <v>-0.06349549625124089</v>
+        <v>-0.06657833173963217</v>
       </c>
       <c r="GL2">
-        <v>-0.06349549625123717</v>
+        <v>-0.06657833173961829</v>
       </c>
       <c r="GM2">
-        <v>-0.06352327073310648</v>
+        <v>-0.06662070232113788</v>
       </c>
       <c r="GN2">
-        <v>-0.06357811142302132</v>
+        <v>-0.06653080025187301</v>
       </c>
       <c r="GO2">
-        <v>-0.06808588124222133</v>
+        <v>-0.07210065714368101</v>
       </c>
       <c r="GP2">
-        <v>-0.0611981335145723</v>
+        <v>-0.06408189919033845</v>
       </c>
       <c r="GQ2">
-        <v>-0.06118629156917266</v>
+        <v>-0.06411421207144487</v>
       </c>
       <c r="GR2">
-        <v>-0.06117535393825543</v>
+        <v>-0.06409766723258344</v>
       </c>
       <c r="GS2">
-        <v>-0.06299911738687219</v>
+        <v>-0.06620323466871438</v>
       </c>
       <c r="GT2">
-        <v>-0.06314426538518841</v>
+        <v>-0.06634631172991701</v>
       </c>
       <c r="GU2">
-        <v>-0.06349549625124089</v>
+        <v>-0.06657833173963217</v>
       </c>
       <c r="GV2">
-        <v>-0.06349549625124171</v>
+        <v>-0.06657833173961702</v>
       </c>
       <c r="GW2">
-        <v>-0.06352518495370596</v>
+        <v>-0.06662362251708422</v>
       </c>
       <c r="GX2">
-        <v>-0.06358664017165962</v>
+        <v>-0.06653399947048715</v>
       </c>
       <c r="GY2">
-        <v>-0.06828363955393521</v>
+        <v>-0.07232947419670936</v>
       </c>
       <c r="GZ2">
-        <v>-0.06119813351457326</v>
+        <v>-0.06409958869212419</v>
       </c>
       <c r="HA2">
-        <v>-0.06121208178700797</v>
+        <v>-0.06408647543914954</v>
       </c>
       <c r="HB2">
-        <v>-0.06121394484720596</v>
+        <v>-0.06415604207069754</v>
       </c>
       <c r="HC2">
-        <v>-0.06117535393825765</v>
+        <v>-0.06409766723258392</v>
       </c>
       <c r="HD2">
-        <v>-0.06299911738687214</v>
+        <v>-0.06620323466871418</v>
       </c>
       <c r="HE2">
-        <v>-0.0631496085329311</v>
+        <v>-0.06635326460070318</v>
       </c>
       <c r="HF2">
-        <v>-0.06349549625123661</v>
+        <v>-0.06657833173962834</v>
       </c>
       <c r="HG2">
-        <v>-0.06352670978253847</v>
+        <v>-0.06662594868618625</v>
       </c>
       <c r="HH2">
-        <v>-0.06359261375567235</v>
+        <v>-0.0665362402167521</v>
       </c>
       <c r="HI2">
-        <v>-0.0686485830419651</v>
+        <v>-0.07275173598274175</v>
       </c>
       <c r="HJ2">
-        <v>-0.06119813351457689</v>
+        <v>-0.06415748978822917</v>
       </c>
       <c r="HK2">
-        <v>-0.06123725605427055</v>
+        <v>-0.06409473478749643</v>
       </c>
       <c r="HL2">
-        <v>-0.06117535393825981</v>
+        <v>-0.06409766723258314</v>
       </c>
       <c r="HM2">
-        <v>-0.06299911738687214</v>
+        <v>-0.06620323466871417</v>
       </c>
       <c r="HN2">
-        <v>-0.06316420016255428</v>
+        <v>-0.06637225225726363</v>
       </c>
       <c r="HO2">
-        <v>-0.0634954962512361</v>
+        <v>-0.06657833173963382</v>
       </c>
       <c r="HP2">
-        <v>-0.06352993351843227</v>
+        <v>-0.06663086658840058</v>
       </c>
       <c r="HQ2">
-        <v>-0.06360410457299877</v>
+        <v>-0.06654055051720839</v>
       </c>
       <c r="HR2">
-        <v>-0.06896677012779041</v>
+        <v>-0.07311990036396669</v>
       </c>
       <c r="HS2">
-        <v>-0.06119813351457689</v>
+        <v>-0.06418245045634517</v>
       </c>
       <c r="HT2">
-        <v>-0.06124624468022228</v>
+        <v>-0.06409768383673012</v>
       </c>
       <c r="HU2">
-        <v>-0.06117535393826066</v>
+        <v>-0.06409766723258248</v>
       </c>
       <c r="HV2">
-        <v>-0.06316544429639376</v>
+        <v>-0.06637387121363506</v>
       </c>
       <c r="HW2">
-        <v>-0.06349549625124952</v>
+        <v>-0.06657833173964593</v>
       </c>
       <c r="HX2">
-        <v>-0.06353247229064866</v>
+        <v>-0.06663473956141552</v>
       </c>
       <c r="HY2">
-        <v>-0.06360982397854638</v>
+        <v>-0.0665426959081904</v>
       </c>
       <c r="HZ2">
-        <v>-0.06918322343078383</v>
+        <v>-0.07337035312957575</v>
       </c>
       <c r="IA2">
-        <v>-0.06134745703410389</v>
+        <v>-0.0641308903522885</v>
       </c>
       <c r="IB2">
-        <v>-0.06124624468022228</v>
+        <v>-0.06409768383673012</v>
       </c>
       <c r="IC2">
-        <v>-0.06117535393826335</v>
+        <v>-0.06409766723258074</v>
       </c>
       <c r="ID2">
-        <v>-0.06316601895039489</v>
+        <v>-0.06637461899481656</v>
       </c>
       <c r="IE2">
-        <v>-0.06349549625125935</v>
+        <v>-0.06657833173965358</v>
       </c>
       <c r="IF2">
-        <v>-0.06353423331131966</v>
+        <v>-0.06663742605255252</v>
       </c>
       <c r="IG2">
-        <v>-0.06361388511871825</v>
+        <v>-0.06654421926953893</v>
       </c>
       <c r="IH2">
-        <v>-0.06932541805802601</v>
+        <v>-0.07353488362572073</v>
       </c>
       <c r="II2">
-        <v>-0.0613621556727566</v>
+        <v>-0.06413571270731164</v>
       </c>
       <c r="IJ2">
-        <v>-0.06117535393826334</v>
+        <v>-0.06409766723257856</v>
       </c>
       <c r="IK2">
-        <v>-0.06316663361257954</v>
+        <v>-0.06637541883759288</v>
       </c>
       <c r="IL2">
-        <v>-0.06349549625126906</v>
+        <v>-0.06657833173966653</v>
       </c>
       <c r="IM2">
-        <v>-0.06353599013815676</v>
+        <v>-0.06664010614699814</v>
       </c>
       <c r="IN2">
-        <v>-0.0636603433628951</v>
+        <v>-0.06656164594798815</v>
       </c>
       <c r="IO2">
-        <v>-0.06963145410203672</v>
+        <v>-0.07388899331204242</v>
       </c>
       <c r="IP2">
-        <v>-0.06137695419185461</v>
+        <v>-0.06413571270731164</v>
       </c>
       <c r="IQ2">
-        <v>-0.0613924745746583</v>
+        <v>-0.06415051484099402</v>
       </c>
       <c r="IR2">
-        <v>-0.0611753539382625</v>
+        <v>-0.06409766723257697</v>
       </c>
       <c r="IS2">
-        <v>-0.06316722094952433</v>
+        <v>-0.06637618312286034</v>
       </c>
       <c r="IT2">
-        <v>-0.06349549625128074</v>
+        <v>-0.06657833173968759</v>
       </c>
       <c r="IU2">
-        <v>-0.06353856030002671</v>
+        <v>-0.06664402701158267</v>
       </c>
       <c r="IV2">
-        <v>-0.063674043326635</v>
+        <v>-0.06656678481666614</v>
       </c>
       <c r="IW2">
-        <v>-0.06965757304951395</v>
+        <v>-0.07393876792429448</v>
       </c>
       <c r="IX2">
-        <v>-0.06983000748652163</v>
+        <v>-0.0741156911158706</v>
       </c>
       <c r="IY2">
-        <v>-0.06117535393826327</v>
+        <v>-0.06409766723257694</v>
       </c>
       <c r="IZ2">
-        <v>-0.0631678752682369</v>
+        <v>-0.06637703456971669</v>
       </c>
       <c r="JA2">
-        <v>-0.06349549625128734</v>
+        <v>-0.06657833173969235</v>
       </c>
       <c r="JB2">
-        <v>-0.06354822683392852</v>
+        <v>-0.06665877364153851</v>
       </c>
       <c r="JC2">
-        <v>-0.06367710842703143</v>
+        <v>-0.06656793453582509</v>
       </c>
       <c r="JD2">
-        <v>-0.06966118362440865</v>
+        <v>-0.07394564860236075</v>
       </c>
       <c r="JE2">
-        <v>-0.07057459975407532</v>
+        <v>-0.07496583483743112</v>
       </c>
       <c r="JF2">
-        <v>-0.06117535393826327</v>
+        <v>-0.06409766723257694</v>
       </c>
       <c r="JG2">
-        <v>-0.06316922587441598</v>
+        <v>-0.06637879207644967</v>
       </c>
       <c r="JH2">
-        <v>-0.06349549625129466</v>
+        <v>-0.06657833173970339</v>
       </c>
       <c r="JI2">
-        <v>-0.06355048301849545</v>
+        <v>-0.0666622155336173</v>
       </c>
       <c r="JJ2">
-        <v>-0.06370537030920399</v>
+        <v>-0.06659691067525188</v>
       </c>
       <c r="JK2">
-        <v>-0.06367879020169809</v>
+        <v>-0.06656793453582666</v>
       </c>
       <c r="JL2">
-        <v>-0.0696628435403695</v>
+        <v>-0.07394881191017444</v>
       </c>
       <c r="JM2">
-        <v>-0.07057459975403294</v>
+        <v>-0.07497773251463415</v>
       </c>
       <c r="JN2">
-        <v>-0.07082472933657999</v>
+        <v>-0.07524892124653006</v>
       </c>
       <c r="JO2">
-        <v>-0.0631706325229698</v>
+        <v>-0.06638062250993292</v>
       </c>
       <c r="JP2">
-        <v>-0.0634954962513069</v>
+        <v>-0.06657833173971005</v>
       </c>
       <c r="JQ2">
-        <v>-0.06355151663618952</v>
+        <v>-0.06666379235583894</v>
       </c>
       <c r="JR2">
-        <v>-0.06373337917631507</v>
+        <v>-0.06662562741452997</v>
       </c>
       <c r="JS2">
-        <v>-0.06368076197830573</v>
+        <v>-0.06656793453582933</v>
       </c>
       <c r="JT2">
-        <v>-0.06966481504647455</v>
+        <v>-0.07395256901927073</v>
       </c>
       <c r="JU2">
-        <v>-0.07057459975403066</v>
+        <v>-0.0749785973476679</v>
       </c>
       <c r="JV2">
-        <v>-0.07173151788481084</v>
+        <v>-0.07627519762750112</v>
       </c>
       <c r="JW2">
-        <v>-0.06317598151500285</v>
+        <v>-0.06638758301093363</v>
       </c>
       <c r="JX2">
-        <v>-0.06349549625130603</v>
+        <v>-0.06657833173971306</v>
       </c>
       <c r="JY2">
-        <v>-0.06355219616202558</v>
+        <v>-0.06666482899798121</v>
       </c>
       <c r="JZ2">
-        <v>-0.0636825439173385</v>
+        <v>-0.06656793453583217</v>
       </c>
       <c r="KA2">
-        <v>-0.06966785684785655</v>
+        <v>-0.07395836580146445</v>
       </c>
       <c r="KB2">
-        <v>-0.07057459975403005</v>
+        <v>-0.07497931017036856</v>
       </c>
       <c r="KC2">
-        <v>-0.07188992961348668</v>
+        <v>-0.07645963157212998</v>
       </c>
       <c r="KD2">
-        <v>-0.0718629045681163</v>
+        <v>-0.07642128467295239</v>
       </c>
       <c r="KE2">
-        <v>-0.06320438029562785</v>
+        <v>-0.06642453767418657</v>
       </c>
       <c r="KF2">
-        <v>-0.06349549625130603</v>
+        <v>-0.06657833173971306</v>
       </c>
       <c r="KG2">
-        <v>-0.06355219616202269</v>
+        <v>-0.06666972385959342</v>
       </c>
       <c r="KH2">
-        <v>-0.06355278497201007</v>
+        <v>-0.06666512350715592</v>
       </c>
       <c r="KI2">
-        <v>-0.06368434866681981</v>
+        <v>-0.06656793453583448</v>
       </c>
       <c r="KJ2">
-        <v>-0.06967056731040507</v>
+        <v>-0.07396353115505841</v>
       </c>
       <c r="KK2">
-        <v>-0.07057459975403026</v>
+        <v>-0.07498032268043485</v>
       </c>
       <c r="KL2">
-        <v>-0.07196284492008087</v>
+        <v>-0.0765445249925059</v>
       </c>
       <c r="KM2">
-        <v>-0.07241356582915334</v>
+        <v>-0.07703356042235208</v>
       </c>
       <c r="KN2">
-        <v>-0.06355219616202236</v>
+        <v>-0.06667197235534934</v>
       </c>
       <c r="KO2">
-        <v>-0.06355320169394509</v>
+        <v>-0.06666533194183438</v>
       </c>
       <c r="KP2">
-        <v>-0.06368628913905915</v>
+        <v>-0.06656793453583572</v>
       </c>
       <c r="KQ2">
-        <v>-0.06967267463593402</v>
+        <v>-0.07396754710884144</v>
       </c>
       <c r="KR2">
-        <v>-0.07057459975403174</v>
+        <v>-0.07498487042475635</v>
       </c>
       <c r="KS2">
-        <v>-0.07243920435024855</v>
+        <v>-0.07709914352288549</v>
       </c>
       <c r="KT2">
-        <v>-0.07253512362037404</v>
+        <v>-0.07716872020341357</v>
       </c>
       <c r="KU2">
-        <v>-0.06355219616202179</v>
+        <v>-0.06667577789843826</v>
       </c>
       <c r="KV2">
-        <v>-0.0635536866355678</v>
+        <v>-0.06666557449839787</v>
       </c>
       <c r="KW2">
-        <v>-0.06369754283480585</v>
+        <v>-0.06656793453583602</v>
       </c>
       <c r="KX2">
-        <v>-0.06967529773080521</v>
+        <v>-0.07397254597490352</v>
       </c>
       <c r="KY2">
-        <v>-0.07057459975403124</v>
+        <v>-0.07498574591484497</v>
       </c>
       <c r="KZ2">
-        <v>-0.07247478653971411</v>
+        <v>-0.07714057174237456</v>
       </c>
       <c r="LA2">
-        <v>-0.07257551523369749</v>
+        <v>-0.07721363158307723</v>
       </c>
       <c r="LB2">
-        <v>-0.0635521961620214</v>
+        <v>-0.06668308240969499</v>
       </c>
       <c r="LC2">
-        <v>-0.06355461417409303</v>
+        <v>-0.06666603843160188</v>
       </c>
       <c r="LD2">
-        <v>-0.06374514234940611</v>
+        <v>-0.06656793453583604</v>
       </c>
       <c r="LE2">
-        <v>-0.06967801077895505</v>
+        <v>-0.07397771627179917</v>
       </c>
       <c r="LF2">
-        <v>-0.07057459975403177</v>
+        <v>-0.07498639414350125</v>
       </c>
       <c r="LG2">
-        <v>-0.07248191210249226</v>
+        <v>-0.07714588561194111</v>
       </c>
       <c r="LH2">
-        <v>-0.07305905768858952</v>
+        <v>-0.07784911042941439</v>
       </c>
       <c r="LI2">
-        <v>-0.07259659689915191</v>
+        <v>-0.07723707226868473</v>
       </c>
       <c r="LJ2">
-        <v>-0.0635521961620214</v>
+        <v>-0.06670458826263381</v>
       </c>
       <c r="LK2">
-        <v>-0.06355817144929488</v>
+        <v>-0.06666781769703539</v>
       </c>
       <c r="LL2">
-        <v>-0.06968121097075317</v>
+        <v>-0.07398381493315791</v>
       </c>
       <c r="LM2">
-        <v>-0.07057459975403185</v>
+        <v>-0.07498714083287264</v>
       </c>
       <c r="LN2">
-        <v>-0.07251861126514467</v>
+        <v>-0.07717325384571923</v>
       </c>
       <c r="LO2">
-        <v>-0.07333947569069867</v>
+        <v>-0.07818917684503933</v>
       </c>
       <c r="LP2">
-        <v>-0.07261464350675546</v>
+        <v>-0.07725713828185914</v>
       </c>
       <c r="LQ2">
-        <v>-0.0635703111234702</v>
+        <v>-0.06667388966581665</v>
       </c>
       <c r="LR2">
-        <v>-0.06968303465622498</v>
+        <v>-0.07398729036599709</v>
       </c>
       <c r="LS2">
-        <v>-0.07057459975403184</v>
+        <v>-0.07498788153822949</v>
       </c>
       <c r="LT2">
-        <v>-0.07253142378448585</v>
+        <v>-0.07718280869635982</v>
       </c>
       <c r="LU2">
-        <v>-0.07339055579080472</v>
+        <v>-0.07839861088684735</v>
       </c>
       <c r="LV2">
-        <v>-0.07384803915317273</v>
+        <v>-0.0787140804864747</v>
       </c>
       <c r="LW2">
-        <v>-0.07263516833814172</v>
+        <v>-0.077279959837184</v>
       </c>
       <c r="LX2">
-        <v>-0.06969127335244796</v>
+        <v>-0.07400299104211834</v>
       </c>
       <c r="LY2">
-        <v>-0.07057459975403267</v>
+        <v>-0.07499438872762791</v>
       </c>
       <c r="LZ2">
-        <v>-0.0725593096607256</v>
+        <v>-0.07720360435305272</v>
       </c>
       <c r="MA2">
-        <v>-0.07341078637192264</v>
+        <v>-0.07848156268229671</v>
       </c>
       <c r="MB2">
-        <v>-0.07407602018721035</v>
+        <v>-0.07881319086747164</v>
       </c>
       <c r="MC2">
-        <v>-0.07390586025436829</v>
+        <v>-0.07879444400482909</v>
       </c>
       <c r="MD2">
-        <v>-0.07265133840948784</v>
+        <v>-0.07729793934065418</v>
       </c>
       <c r="ME2">
-        <v>-0.06969447969029233</v>
+        <v>-0.07400910144960256</v>
       </c>
       <c r="MF2">
-        <v>-0.07057459975403267</v>
+        <v>-0.07500769035457898</v>
       </c>
       <c r="MG2">
-        <v>-0.07257634725705428</v>
+        <v>-0.07720928656647133</v>
       </c>
       <c r="MH2">
-        <v>-0.07256204856753043</v>
+        <v>-0.07720895143015467</v>
       </c>
       <c r="MI2">
-        <v>-0.07419064766974834</v>
+        <v>-0.07886302076519131</v>
       </c>
       <c r="MJ2">
-        <v>-0.07395539657910419</v>
+        <v>-0.07886329311806042</v>
       </c>
       <c r="MK2">
-        <v>-0.07266489533344</v>
+        <v>-0.07731301328864894</v>
       </c>
       <c r="ML2">
-        <v>-0.0696955935701407</v>
+        <v>-0.07401122420339618</v>
       </c>
       <c r="MM2">
-        <v>-0.07260184088803102</v>
+        <v>-0.07721778889935405</v>
       </c>
       <c r="MN2">
-        <v>-0.07256242993458283</v>
+        <v>-0.07720969596093523</v>
       </c>
       <c r="MO2">
-        <v>-0.07420131518657884</v>
+        <v>-0.0788676579837128</v>
       </c>
       <c r="MP2">
-        <v>-0.07399024108708904</v>
+        <v>-0.07891172267171928</v>
       </c>
       <c r="MQ2">
-        <v>-0.07267712798778375</v>
+        <v>-0.07732661478343074</v>
       </c>
       <c r="MR2">
-        <v>-0.0696964327307829</v>
+        <v>-0.07401282341731272</v>
       </c>
       <c r="MS2">
-        <v>-0.07256284412609028</v>
+        <v>-0.07721050457399573</v>
       </c>
       <c r="MT2">
-        <v>-0.07420572075317521</v>
+        <v>-0.07886957310000801</v>
       </c>
       <c r="MU2">
-        <v>-0.07403426822858671</v>
+        <v>-0.07897291515504225</v>
       </c>
       <c r="MV2">
-        <v>-0.07268725217918995</v>
+        <v>-0.07733787187902477</v>
       </c>
       <c r="MW2">
-        <v>-0.0696970466992668</v>
+        <v>-0.07401399347604792</v>
       </c>
       <c r="MX2">
-        <v>-0.07256320692816305</v>
+        <v>-0.07721121286119931</v>
       </c>
       <c r="MY2">
-        <v>-0.07420882934241774</v>
+        <v>-0.07887092441408157</v>
       </c>
       <c r="MZ2">
-        <v>-0.0740618554871942</v>
+        <v>-0.07901125827597705</v>
       </c>
       <c r="NA2">
-        <v>-0.07269899685712247</v>
+        <v>-0.07735093079683519</v>
       </c>
       <c r="NB2">
-        <v>-0.06969735847600096</v>
+        <v>-0.07401458763873221</v>
       </c>
       <c r="NC2">
-        <v>-0.0725635924054322</v>
+        <v>-0.07721196541660762</v>
       </c>
       <c r="ND2">
-        <v>-0.07421200895074448</v>
+        <v>-0.07887230659926497</v>
       </c>
       <c r="NE2">
-        <v>-0.0741042190131119</v>
+        <v>-0.07907013888675303</v>
       </c>
       <c r="NF2">
-        <v>-0.07271190509960472</v>
+        <v>-0.07736528348569845</v>
       </c>
       <c r="NG2">
-        <v>-0.06969781685406833</v>
+        <v>-0.07401546118430775</v>
       </c>
       <c r="NH2">
-        <v>-0.07256414256411832</v>
+        <v>-0.07721303947469467</v>
       </c>
       <c r="NI2">
-        <v>-0.0742157606674107</v>
+        <v>-0.07887393748018605</v>
       </c>
       <c r="NJ2">
-        <v>-0.07414645087016386</v>
+        <v>-0.07912883670385377</v>
       </c>
       <c r="NK2">
-        <v>-0.07278227666052368</v>
+        <v>-0.07744352974871634</v>
       </c>
       <c r="NL2">
-        <v>-0.06969858524562791</v>
+        <v>-0.07401692553276532</v>
       </c>
       <c r="NM2">
-        <v>-0.07256481138304223</v>
+        <v>-0.07721434518990399</v>
       </c>
       <c r="NN2">
-        <v>-0.07422049319925854</v>
+        <v>-0.07887599472174962</v>
       </c>
       <c r="NO2">
-        <v>-0.07419383679264106</v>
+        <v>-0.07919469837843829</v>
       </c>
       <c r="NP2">
-        <v>-0.0733040490491314</v>
+        <v>-0.07798981181631201</v>
       </c>
       <c r="NQ2">
-        <v>-0.07278622289067729</v>
+        <v>-0.07746356041774838</v>
       </c>
       <c r="NR2">
-        <v>-0.06970201260730843</v>
+        <v>-0.07402345717158926</v>
       </c>
       <c r="NS2">
-        <v>-0.07256895694095924</v>
+        <v>-0.07722243844725628</v>
       </c>
       <c r="NT2">
-        <v>-0.0742247316507947</v>
+        <v>-0.07887783718342886</v>
       </c>
       <c r="NU2">
-        <v>-0.074228127219869</v>
+        <v>-0.07924235879522605</v>
       </c>
       <c r="NV2">
-        <v>-0.07380382176227521</v>
+        <v>-0.07851306245382238</v>
       </c>
       <c r="NW2">
-        <v>-0.07281045343132013</v>
+        <v>-0.07758655543570923</v>
       </c>
       <c r="NX2">
-        <v>-0.07278622289062803</v>
+        <v>-0.07746356041773196</v>
       </c>
       <c r="NY2">
-        <v>-0.06971461153829482</v>
+        <v>-0.07404746745906057</v>
       </c>
       <c r="NZ2">
-        <v>-0.07258314198337472</v>
+        <v>-0.07725013162105066</v>
       </c>
       <c r="OA2">
-        <v>-0.07422808543662425</v>
+        <v>-0.07887929507807978</v>
       </c>
       <c r="OB2">
-        <v>-0.07426899859691476</v>
+        <v>-0.07929916628516737</v>
       </c>
       <c r="OC2">
-        <v>-0.07382607099008635</v>
+        <v>-0.07853635692580045</v>
       </c>
       <c r="OD2">
-        <v>-0.0728193091582548</v>
+        <v>-0.07763150877841887</v>
       </c>
       <c r="OE2">
-        <v>-0.07278622289036296</v>
+        <v>-0.07746356041764504</v>
       </c>
       <c r="OF2">
-        <v>-0.07423384135185107</v>
+        <v>-0.07888179717827215</v>
       </c>
       <c r="OG2">
-        <v>-0.07432830298343997</v>
+        <v>-0.07938159433034932</v>
       </c>
       <c r="OH2">
-        <v>-0.07400550558152981</v>
+        <v>-0.07862501269818599</v>
       </c>
       <c r="OI2">
-        <v>-0.07412826264697438</v>
+        <v>-0.07891111960069185</v>
       </c>
       <c r="OJ2">
-        <v>-0.07282021055721107</v>
+        <v>-0.07763608449129333</v>
       </c>
       <c r="OK2">
-        <v>-0.07278622289034185</v>
+        <v>-0.07746356041763747</v>
       </c>
       <c r="OL2">
-        <v>-0.07425393474964893</v>
+        <v>-0.07889053176260105</v>
       </c>
       <c r="OM2">
-        <v>-0.07437227043960472</v>
+        <v>-0.07944270561764784</v>
       </c>
       <c r="ON2">
-        <v>-0.07402194715841073</v>
+        <v>-0.07863313603568262</v>
       </c>
       <c r="OO2">
-        <v>-0.07427405737502195</v>
+        <v>-0.07909192806038359</v>
       </c>
       <c r="OP2">
-        <v>-0.07282083961597578</v>
+        <v>-0.07763927774592508</v>
       </c>
       <c r="OQ2">
-        <v>-0.07278622289033353</v>
+        <v>-0.077463560417635</v>
       </c>
       <c r="OR2">
-        <v>-0.07437678235647723</v>
+        <v>-0.07894393253715232</v>
       </c>
       <c r="OS2">
-        <v>-0.07441468451174407</v>
+        <v>-0.07950165804084891</v>
       </c>
       <c r="OT2">
-        <v>-0.07403129391043363</v>
+        <v>-0.07863775399877397</v>
       </c>
       <c r="OU2">
-        <v>-0.07471391443197961</v>
+        <v>-0.07963742522749409</v>
       </c>
       <c r="OV2">
-        <v>-0.07427405737524211</v>
+        <v>-0.07909192806055912</v>
       </c>
       <c r="OW2">
-        <v>-0.07282149126515493</v>
+        <v>-0.07764258567891466</v>
       </c>
       <c r="OX2">
-        <v>-0.07278622289032891</v>
+        <v>-0.07746356041763401</v>
       </c>
       <c r="OY2">
-        <v>-0.07445619548355972</v>
+        <v>-0.07955935542761619</v>
       </c>
       <c r="OZ2">
-        <v>-0.07403764060236165</v>
+        <v>-0.07864088971222051</v>
       </c>
       <c r="PA2">
-        <v>-0.07534042413791679</v>
+        <v>-0.08041441631518234</v>
       </c>
       <c r="PB2">
-        <v>-0.07427405737529411</v>
+        <v>-0.07909192806060913</v>
       </c>
       <c r="PC2">
-        <v>-0.07282422781354178</v>
+        <v>-0.07765647712153327</v>
       </c>
       <c r="PD2">
-        <v>-0.07278622289032211</v>
+        <v>-0.07746356041763233</v>
       </c>
       <c r="PE2">
-        <v>-0.07450611919031132</v>
+        <v>-0.07962874620572395</v>
       </c>
       <c r="PF2">
-        <v>-0.07404798406985952</v>
+        <v>-0.07864600010484954</v>
       </c>
       <c r="PG2">
-        <v>-0.07547153519282208</v>
+        <v>-0.08057702087901267</v>
       </c>
       <c r="PH2">
-        <v>-0.07427405737533041</v>
+        <v>-0.07909192806063964</v>
       </c>
       <c r="PI2">
-        <v>-0.07282489601498576</v>
+        <v>-0.07765986909933902</v>
       </c>
       <c r="PJ2">
-        <v>-0.07278622289025283</v>
+        <v>-0.07746356041760218</v>
       </c>
       <c r="PK2">
-        <v>-0.07458973343377942</v>
+        <v>-0.07974496534869013</v>
       </c>
       <c r="PL2">
-        <v>-0.07450611919031132</v>
+        <v>-0.07962874620572395</v>
       </c>
       <c r="PM2">
-        <v>-0.0740823667389727</v>
+        <v>-0.07866298744800547</v>
       </c>
       <c r="PN2">
-        <v>-0.07550504602842015</v>
+        <v>-0.08061858128706463</v>
       </c>
       <c r="PO2">
-        <v>-0.07427405737536752</v>
+        <v>-0.0790919280606697</v>
       </c>
       <c r="PP2">
-        <v>-0.07282553340664463</v>
+        <v>-0.0776631046819788</v>
       </c>
       <c r="PQ2">
-        <v>-0.07278622289022754</v>
+        <v>-0.07746356041759074</v>
       </c>
       <c r="PR2">
-        <v>-0.07487176934713605</v>
+        <v>-0.08013698566982821</v>
       </c>
       <c r="PS2">
-        <v>-0.07458973343377942</v>
+        <v>-0.07974496534869013</v>
       </c>
       <c r="PT2">
-        <v>-0.07412064606307595</v>
+        <v>-0.07868189984130811</v>
       </c>
       <c r="PU2">
-        <v>-0.07552260193137246</v>
+        <v>-0.08064035427674814</v>
       </c>
       <c r="PV2">
-        <v>-0.07427405737540406</v>
+        <v>-0.07909192806069767</v>
       </c>
       <c r="PW2">
-        <v>-0.07282616733167248</v>
+        <v>-0.07766632267081147</v>
       </c>
       <c r="PX2">
-        <v>-0.07278622289022051</v>
+        <v>-0.07746356041758767</v>
       </c>
       <c r="PY2">
-        <v>-0.07527070974032878</v>
+        <v>-0.08069151532164175</v>
       </c>
       <c r="PZ2">
-        <v>-0.07487176934713605</v>
+        <v>-0.08013698566982821</v>
       </c>
       <c r="QA2">
-        <v>-0.07414217449839973</v>
+        <v>-0.07869253616875552</v>
       </c>
       <c r="QB2">
-        <v>-0.07553715559977058</v>
+        <v>-0.08065840387710983</v>
       </c>
       <c r="QC2">
-        <v>-0.07427405737543666</v>
+        <v>-0.07909192806072572</v>
       </c>
       <c r="QD2">
-        <v>-0.07282689452561283</v>
+        <v>-0.07767001412457958</v>
       </c>
       <c r="QE2">
-        <v>-0.07278622289020532</v>
+        <v>-0.07746356041758162</v>
       </c>
       <c r="QF2">
-        <v>-0.0755569937770819</v>
+        <v>-0.08108946354378577</v>
       </c>
       <c r="QG2">
-        <v>-0.07527070974032878</v>
+        <v>-0.08069151532164175</v>
       </c>
       <c r="QH2">
-        <v>-0.07416239837325447</v>
+        <v>-0.07870252791759447</v>
       </c>
       <c r="QI2">
-        <v>-0.0755489505584325</v>
+        <v>-0.08067303210503771</v>
       </c>
       <c r="QJ2">
-        <v>-0.07427405737546722</v>
+        <v>-0.07909192806075203</v>
       </c>
       <c r="QK2">
-        <v>-0.07282940584885757</v>
+        <v>-0.07768276239029369</v>
       </c>
       <c r="QL2">
-        <v>-0.07278622289019213</v>
+        <v>-0.07746356041757765</v>
       </c>
       <c r="QM2">
-        <v>-0.07564385583135808</v>
+        <v>-0.08121020778717579</v>
       </c>
       <c r="QN2">
-        <v>-0.0755569937770819</v>
+        <v>-0.08108946354378577</v>
       </c>
       <c r="QO2">
-        <v>-0.07418169379290827</v>
+        <v>-0.07871206091307344</v>
       </c>
       <c r="QP2">
-        <v>-0.07556698000007395</v>
+        <v>-0.08069539241279504</v>
       </c>
       <c r="QQ2">
-        <v>-0.07427405737548957</v>
+        <v>-0.07909192806076477</v>
       </c>
       <c r="QR2">
-        <v>-0.07284164406114485</v>
+        <v>-0.07774488825234531</v>
       </c>
       <c r="QS2">
-        <v>-0.07278622289017807</v>
+        <v>-0.07746356041757466</v>
       </c>
       <c r="QT2">
-        <v>-0.07586206039588847</v>
+        <v>-0.08155470940017547</v>
       </c>
       <c r="QU2">
-        <v>-0.07564385583135697</v>
+        <v>-0.08121020778717582</v>
       </c>
       <c r="QV2">
-        <v>-0.07567504448522797</v>
+        <v>-0.08122052777458194</v>
       </c>
       <c r="QW2">
-        <v>-0.07421337436186805</v>
+        <v>-0.07872771275943279</v>
       </c>
       <c r="QX2">
-        <v>-0.0755832333034779</v>
+        <v>-0.08071554994567334</v>
       </c>
       <c r="QY2">
-        <v>-0.07427405737550126</v>
+        <v>-0.07909192806077445</v>
       </c>
       <c r="QZ2">
-        <v>-0.07278622289016695</v>
+        <v>-0.07746356041757403</v>
       </c>
       <c r="RA2">
-        <v>-0.07610450814465115</v>
+        <v>-0.081937497321876</v>
       </c>
       <c r="RB2">
-        <v>-0.07586206039588846</v>
+        <v>-0.08155470940017547</v>
       </c>
       <c r="RC2">
-        <v>-0.07586206039588847</v>
+        <v>-0.08155470940017547</v>
       </c>
       <c r="RD2">
-        <v>-0.07567959923859859</v>
+        <v>-0.08122203488486696</v>
       </c>
       <c r="RE2">
-        <v>-0.07423544075108356</v>
+        <v>-0.07873861463407383</v>
       </c>
       <c r="RF2">
-        <v>-0.07559870247387211</v>
+        <v>-0.0807347349974129</v>
       </c>
       <c r="RG2">
-        <v>-0.07427405737550416</v>
+        <v>-0.07909192806078146</v>
       </c>
       <c r="RH2">
-        <v>-0.07278622289011116</v>
+        <v>-0.07746356041756979</v>
       </c>
       <c r="RI2">
-        <v>-0.0761933561090699</v>
+        <v>-0.0820777776082656</v>
       </c>
       <c r="RJ2">
-        <v>-0.07610450814465115</v>
+        <v>-0.081937497321876</v>
       </c>
       <c r="RK2">
-        <v>-0.07568208283046558</v>
+        <v>-0.08122285667312441</v>
       </c>
       <c r="RL2">
-        <v>-0.07425094521492824</v>
+        <v>-0.07874627456369016</v>
       </c>
       <c r="RM2">
-        <v>-0.07561612947211746</v>
+        <v>-0.08075634818207433</v>
       </c>
       <c r="RN2">
-        <v>-0.07427405737550391</v>
+        <v>-0.07909192806079071</v>
       </c>
       <c r="RO2">
-        <v>-0.07278622289010785</v>
+        <v>-0.07746356041756877</v>
       </c>
       <c r="RP2">
-        <v>-0.07632677500536118</v>
+        <v>-0.08230753719135282</v>
       </c>
       <c r="RQ2">
-        <v>-0.0761933561090699</v>
+        <v>-0.0820777776082656</v>
       </c>
       <c r="RR2">
-        <v>-0.07633503592809798</v>
+        <v>-0.08225186372667892</v>
       </c>
       <c r="RS2">
-        <v>-0.07568376527074651</v>
+        <v>-0.08122341337038438</v>
       </c>
       <c r="RT2">
-        <v>-0.07425835337909463</v>
+        <v>-0.07874993453327075</v>
       </c>
       <c r="RU2">
-        <v>-0.07563453803525017</v>
+        <v>-0.08077917872887326</v>
       </c>
       <c r="RV2">
-        <v>-0.07427405737551769</v>
+        <v>-0.07909192806080144</v>
       </c>
       <c r="RW2">
-        <v>-0.07278622289010568</v>
+        <v>-0.07746356041756991</v>
       </c>
       <c r="RX2">
-        <v>-0.07651800250525187</v>
+        <v>-0.08263685692185822</v>
       </c>
       <c r="RY2">
-        <v>-0.07632677500536118</v>
+        <v>-0.08230753719135282</v>
       </c>
       <c r="RZ2">
-        <v>-0.07633827052714329</v>
+        <v>-0.08225849619865315</v>
       </c>
       <c r="SA2">
-        <v>-0.07636839122997392</v>
+        <v>-0.08227411891545748</v>
       </c>
       <c r="SB2">
-        <v>-0.07568632079196963</v>
+        <v>-0.08122425895804279</v>
       </c>
       <c r="SC2">
-        <v>-0.07426304626094231</v>
+        <v>-0.07875225302681912</v>
       </c>
       <c r="SD2">
-        <v>-0.07567478802798024</v>
+        <v>-0.08082909735561797</v>
       </c>
       <c r="SE2">
-        <v>-0.07427405737553922</v>
+        <v>-0.0790919280608168</v>
       </c>
       <c r="SF2">
-        <v>-0.07278622289010396</v>
+        <v>-0.07746356041757041</v>
       </c>
       <c r="SG2">
-        <v>-0.07663470612820672</v>
+        <v>-0.08283784129146429</v>
       </c>
       <c r="SH2">
-        <v>-0.07651800250525187</v>
+        <v>-0.08263685692185822</v>
       </c>
       <c r="SI2">
-        <v>-0.0763396377169145</v>
+        <v>-0.08226129959335744</v>
       </c>
       <c r="SJ2">
-        <v>-0.07638973508940237</v>
+        <v>-0.08228835981936081</v>
       </c>
       <c r="SK2">
-        <v>-0.07569019905335822</v>
+        <v>-0.08122554222139931</v>
       </c>
       <c r="SL2">
-        <v>-0.0742662192329069</v>
+        <v>-0.07875382061547627</v>
       </c>
       <c r="SM2">
-        <v>-0.07658772895253528</v>
+        <v>-0.0819613569844875</v>
       </c>
       <c r="SN2">
-        <v>-0.07427405737556039</v>
+        <v>-0.07909192806082448</v>
       </c>
       <c r="SO2">
-        <v>-0.07278622289010396</v>
+        <v>-0.07746356041757041</v>
       </c>
       <c r="SP2">
-        <v>-0.07665480397989168</v>
+        <v>-0.08287245373541875</v>
       </c>
       <c r="SQ2">
-        <v>-0.07663470612820672</v>
+        <v>-0.08283784129146429</v>
       </c>
       <c r="SR2">
-        <v>-0.07634044105120597</v>
+        <v>-0.08226294681477581</v>
       </c>
       <c r="SS2">
-        <v>-0.07569295055585473</v>
+        <v>-0.08122645265481405</v>
       </c>
       <c r="ST2">
-        <v>-0.07427064515259321</v>
+        <v>-0.07875600721387423</v>
       </c>
       <c r="SU2">
-        <v>-0.07665151109126581</v>
+        <v>-0.08196135698448662</v>
       </c>
       <c r="SV2">
-        <v>-0.07671537860602541</v>
+        <v>-0.08213544049317993</v>
       </c>
       <c r="SW2">
-        <v>-0.07427405737558185</v>
+        <v>-0.07909192806083089</v>
       </c>
       <c r="SX2">
-        <v>-0.07669977880974323</v>
+        <v>-0.0829438199444025</v>
       </c>
       <c r="SY2">
-        <v>-0.07665480397989168</v>
+        <v>-0.08287245373541877</v>
       </c>
       <c r="SZ2">
-        <v>-0.07668193175987936</v>
+        <v>-0.08293710139334459</v>
       </c>
       <c r="TA2">
-        <v>-0.0763411803607752</v>
+        <v>-0.08226446275529756</v>
       </c>
       <c r="TB2">
-        <v>-0.07569483041700197</v>
+        <v>-0.08122707467394452</v>
       </c>
       <c r="TC2">
-        <v>-0.07427402305532167</v>
+        <v>-0.07875767604443594</v>
       </c>
       <c r="TD2">
-        <v>-0.07670775983858563</v>
+        <v>-0.08196135698448662</v>
       </c>
       <c r="TE2">
-        <v>-0.07678424289133354</v>
+        <v>-0.08222935530041206</v>
       </c>
       <c r="TF2">
-        <v>-0.07427405737559674</v>
+        <v>-0.0790919280608402</v>
       </c>
       <c r="TG2">
-        <v>-0.07673288592696625</v>
+        <v>-0.0829963546904017</v>
       </c>
       <c r="TH2">
-        <v>-0.07669977880974323</v>
+        <v>-0.0829438199444025</v>
       </c>
       <c r="TI2">
-        <v>-0.0766979622822129</v>
+        <v>-0.08297530392350082</v>
       </c>
       <c r="TJ2">
-        <v>-0.07634183902366116</v>
+        <v>-0.08226581333174922</v>
       </c>
       <c r="TK2">
-        <v>-0.07569631587735751</v>
+        <v>-0.08122756619124905</v>
       </c>
       <c r="TL2">
-        <v>-0.07429812866690044</v>
+        <v>-0.0787695852250543</v>
       </c>
       <c r="TM2">
-        <v>-0.07679452742441552</v>
+        <v>-0.08224338102885555</v>
       </c>
       <c r="TN2">
-        <v>-0.07427405737560634</v>
+        <v>-0.07909192806084864</v>
       </c>
       <c r="TO2">
-        <v>-0.07677796169552163</v>
+        <v>-0.08306788178514539</v>
       </c>
       <c r="TP2">
-        <v>-0.07673288592696625</v>
+        <v>-0.0829963546904017</v>
       </c>
       <c r="TQ2">
-        <v>-0.07671066408918371</v>
+        <v>-0.08300557402648406</v>
       </c>
       <c r="TR2">
-        <v>-0.07634252231178462</v>
+        <v>-0.08226721440226063</v>
       </c>
       <c r="TS2">
-        <v>-0.07570107866518037</v>
+        <v>-0.08122914212721791</v>
       </c>
       <c r="TT2">
-        <v>-0.0743715761573356</v>
+        <v>-0.0787905790276781</v>
       </c>
       <c r="TU2">
-        <v>-0.07433164671076148</v>
+        <v>-0.07883055380144928</v>
       </c>
       <c r="TV2">
-        <v>-0.07680237799528833</v>
+        <v>-0.08225408739946431</v>
       </c>
       <c r="TW2">
-        <v>-0.07427405737561267</v>
+        <v>-0.07909192806085151</v>
       </c>
       <c r="TX2">
-        <v>-0.07680986012572834</v>
+        <v>-0.08311849907601915</v>
       </c>
       <c r="TY2">
-        <v>-0.07677796169552163</v>
+        <v>-0.08306788178514539</v>
       </c>
       <c r="TZ2">
-        <v>-0.07671591259297471</v>
+        <v>-0.08301808198304887</v>
       </c>
       <c r="UA2">
-        <v>-0.07634458504962634</v>
+        <v>-0.08227144401341532</v>
       </c>
       <c r="UB2">
-        <v>-0.07573960291456842</v>
+        <v>-0.08124188914670645</v>
       </c>
       <c r="UC2">
-        <v>-0.07445268182393765</v>
+        <v>-0.07881376121510039</v>
       </c>
       <c r="UD2">
-        <v>-0.07680972031432773</v>
+        <v>-0.08226410063524971</v>
       </c>
       <c r="UE2">
-        <v>-0.07427405737561567</v>
+        <v>-0.07909192806085524</v>
       </c>
       <c r="UF2">
-        <v>-0.07689906671266594</v>
+        <v>-0.08326005559634571</v>
       </c>
       <c r="UG2">
-        <v>-0.07680986012572834</v>
+        <v>-0.08311849907601915</v>
       </c>
       <c r="UH2">
-        <v>-0.0767159125929744</v>
+        <v>-0.08302044339417501</v>
       </c>
       <c r="UI2">
-        <v>-0.07673763672276462</v>
+        <v>-0.08303879072285344</v>
       </c>
       <c r="UJ2">
-        <v>-0.07634666379572506</v>
+        <v>-0.08227570645347393</v>
       </c>
       <c r="UK2">
-        <v>-0.07574152140213473</v>
+        <v>-0.08124252393772417</v>
       </c>
       <c r="UL2">
-        <v>-0.07467253907871475</v>
+        <v>-0.07887659926869742</v>
       </c>
       <c r="UM2">
-        <v>-0.07681754998994524</v>
+        <v>-0.082274778517264</v>
       </c>
       <c r="UN2">
-        <v>-0.0742740573756135</v>
+        <v>-0.07909192806085606</v>
       </c>
       <c r="UO2">
-        <v>-0.0769636621320018</v>
+        <v>-0.08336255915780633</v>
       </c>
       <c r="UP2">
-        <v>-0.07689906671266594</v>
+        <v>-0.08326005559634571</v>
       </c>
       <c r="UQ2">
-        <v>-0.07671591259297447</v>
+        <v>-0.08302131232264651</v>
       </c>
       <c r="UR2">
-        <v>-0.07675407129299054</v>
+        <v>-0.08305445713174658</v>
       </c>
       <c r="US2">
-        <v>-0.07636608689967603</v>
+        <v>-0.08231553346402545</v>
       </c>
       <c r="UT2">
-        <v>-0.0757430351569819</v>
+        <v>-0.08124302481012746</v>
       </c>
       <c r="UU2">
-        <v>-0.07682447830451627</v>
+        <v>-0.08228422715284643</v>
       </c>
       <c r="UV2">
-        <v>-0.07427405737561352</v>
+        <v>-0.07909192806085606</v>
       </c>
       <c r="UW2">
-        <v>-0.07697232845146716</v>
+        <v>-0.08337518612961575</v>
       </c>
       <c r="UX2">
-        <v>-0.07696366213200181</v>
+        <v>-0.08336255915780633</v>
       </c>
       <c r="UY2">
-        <v>-0.07700621513439421</v>
+        <v>-0.08343854241130398</v>
       </c>
       <c r="UZ2">
-        <v>-0.07671591259297396</v>
+        <v>-0.08302260665694089</v>
       </c>
       <c r="VA2">
-        <v>-0.07574474649920603</v>
+        <v>-0.0812435910601193</v>
       </c>
       <c r="VB2">
-        <v>-0.07683156474706801</v>
+        <v>-0.08229389144203671</v>
       </c>
       <c r="VC2">
-        <v>-0.07697438047919551</v>
+        <v>-0.08337817596979025</v>
       </c>
       <c r="VD2">
-        <v>-0.07697232845146716</v>
+        <v>-0.08337518612961575</v>
       </c>
       <c r="VE2">
-        <v>-0.07701159463953955</v>
+        <v>-0.08344814821561426</v>
       </c>
       <c r="VF2">
-        <v>-0.07671591259297361</v>
+        <v>-0.08302338548782306</v>
       </c>
       <c r="VG2">
-        <v>-0.07574626964908401</v>
+        <v>-0.08124409504066284</v>
       </c>
       <c r="VH2">
-        <v>-0.07686814001022119</v>
+        <v>-0.08234377179959358</v>
       </c>
       <c r="VI2">
-        <v>-0.07703001050495949</v>
+        <v>-0.08345923012038185</v>
       </c>
       <c r="VJ2">
-        <v>-0.0769743804791955</v>
+        <v>-0.08337817596979022</v>
       </c>
       <c r="VK2">
-        <v>-0.07697438047917506</v>
+        <v>-0.08337817596975132</v>
       </c>
       <c r="VL2">
-        <v>-0.07701556436602618</v>
+        <v>-0.0834552366891122</v>
       </c>
       <c r="VM2">
-        <v>-0.0767159125929736</v>
+        <v>-0.08302432525008645</v>
       </c>
       <c r="VN2">
-        <v>-0.07574802279585596</v>
+        <v>-0.08124467512239622</v>
       </c>
       <c r="VO2">
-        <v>-0.07690688015538999</v>
+        <v>-0.08237090720932927</v>
       </c>
       <c r="VP2">
-        <v>-0.07694142101612997</v>
+        <v>-0.08244743306660515</v>
       </c>
       <c r="VQ2">
-        <v>-0.07706899722933257</v>
+        <v>-0.08351603488899818</v>
       </c>
       <c r="VR2">
-        <v>-0.07703001050495949</v>
+        <v>-0.08345923012038185</v>
       </c>
       <c r="VS2">
-        <v>-0.07697438047917113</v>
+        <v>-0.08337817596973715</v>
       </c>
       <c r="VT2">
-        <v>-0.07701942694725934</v>
+        <v>-0.08346213385022162</v>
       </c>
       <c r="VU2">
-        <v>-0.07671591259297378</v>
+        <v>-0.08302515040156321</v>
       </c>
       <c r="VV2">
-        <v>-0.07574982036929112</v>
+        <v>-0.0812452699037142</v>
       </c>
       <c r="VW2">
-        <v>-0.07690911265911214</v>
+        <v>-0.08237247095498509</v>
       </c>
       <c r="VX2">
-        <v>-0.07729161822601037</v>
+        <v>-0.08294281797420586</v>
       </c>
       <c r="VY2">
-        <v>-0.07710679512891959</v>
+        <v>-0.08352896105421022</v>
       </c>
       <c r="VZ2">
-        <v>-0.07707378078398085</v>
+        <v>-0.08352800523881027</v>
       </c>
       <c r="WA2">
-        <v>-0.07697438047916573</v>
+        <v>-0.08337817596972512</v>
       </c>
       <c r="WB2">
-        <v>-0.07705571099380873</v>
+        <v>-0.08352692438792821</v>
       </c>
       <c r="WC2">
-        <v>-0.07671591259297378</v>
+        <v>-0.08303054992469006</v>
       </c>
       <c r="WD2">
-        <v>-0.07575198104739791</v>
+        <v>-0.08124598482871785</v>
       </c>
       <c r="WE2">
-        <v>-0.0769102339060789</v>
+        <v>-0.08237325632642989</v>
       </c>
       <c r="WF2">
-        <v>-0.07739669728215569</v>
+        <v>-0.083017923804099</v>
       </c>
       <c r="WG2">
-        <v>-0.07765925282742618</v>
+        <v>-0.08349377636886911</v>
       </c>
       <c r="WH2">
-        <v>-0.07714050297441752</v>
+        <v>-0.08354048843925813</v>
       </c>
       <c r="WI2">
-        <v>-0.07710679512891959</v>
+        <v>-0.08352896105421022</v>
       </c>
       <c r="WJ2">
-        <v>-0.07710679512891959</v>
+        <v>-0.08352896105421022</v>
       </c>
       <c r="WK2">
-        <v>-0.077175695968423</v>
+        <v>-0.08378304079539252</v>
       </c>
       <c r="WL2">
-        <v>-0.07707378078398085</v>
+        <v>-0.08352800523881027</v>
       </c>
       <c r="WM2">
-        <v>-0.07697438047916051</v>
+        <v>-0.0833781759697106</v>
       </c>
       <c r="WN2">
-        <v>-0.07707259811978119</v>
+        <v>-0.08355707913914225</v>
       </c>
       <c r="WO2">
-        <v>-0.07671591259297378</v>
+        <v>-0.08307036261695323</v>
       </c>
       <c r="WP2">
-        <v>-0.07575333563977493</v>
+        <v>-0.08124643303589854</v>
       </c>
       <c r="WQ2">
-        <v>-0.07691117413290194</v>
+        <v>-0.08237391490318922</v>
       </c>
       <c r="WR2">
-        <v>-0.07745214983580939</v>
+        <v>-0.08305755840605088</v>
       </c>
       <c r="WS2">
-        <v>-0.07801139851970519</v>
+        <v>-0.08402153460941295</v>
       </c>
       <c r="WT2">
-        <v>-0.0771715982817176</v>
+        <v>-0.08355112244083113</v>
       </c>
       <c r="WU2">
-        <v>-0.07714050297441752</v>
+        <v>-0.08354048843925813</v>
       </c>
       <c r="WV2">
-        <v>-0.0771405029744175</v>
+        <v>-0.08354048843925813</v>
       </c>
       <c r="WW2">
-        <v>-0.07719968441044389</v>
+        <v>-0.08384307276854679</v>
       </c>
       <c r="WX2">
-        <v>-0.07697438047915856</v>
+        <v>-0.08337817596970161</v>
       </c>
       <c r="WY2">
-        <v>-0.07708052397843726</v>
+        <v>-0.08357123213113352</v>
       </c>
       <c r="WZ2">
-        <v>-0.07575915723185678</v>
+        <v>-0.0812483592806969</v>
       </c>
       <c r="XA2">
-        <v>-0.07691194085527603</v>
+        <v>-0.08237445194963604</v>
       </c>
       <c r="XB2">
-        <v>-0.07802030854202355</v>
+        <v>-0.08403936737429907</v>
       </c>
       <c r="XC2">
-        <v>-0.07810481590217609</v>
+        <v>-0.0841586922758763</v>
       </c>
       <c r="XD2">
-        <v>-0.07721395804594448</v>
+        <v>-0.08356560849094888</v>
       </c>
       <c r="XE2">
-        <v>-0.07697438047915579</v>
+        <v>-0.08337817596968979</v>
       </c>
       <c r="XF2">
-        <v>-0.07708581066453367</v>
+        <v>-0.08358067244623535</v>
       </c>
       <c r="XG2">
-        <v>-0.07578370054310975</v>
+        <v>-0.08125648011875582</v>
       </c>
       <c r="XH2">
-        <v>-0.07691314438594284</v>
+        <v>-0.08237529495592043</v>
       </c>
       <c r="XI2">
-        <v>-0.07802249330987626</v>
+        <v>-0.08404374004013461</v>
       </c>
       <c r="XJ2">
-        <v>-0.07812630855822286</v>
+        <v>-0.08419024842600886</v>
       </c>
       <c r="XK2">
-        <v>-0.0772263828134991</v>
+        <v>-0.08356985743175713</v>
       </c>
       <c r="XL2">
-        <v>-0.07697438047915289</v>
+        <v>-0.083378175969677</v>
       </c>
       <c r="XM2">
-        <v>-0.07709389304788178</v>
+        <v>-0.08359510500890534</v>
       </c>
       <c r="XN2">
-        <v>-0.0769160142770802</v>
+        <v>-0.08237730515445905</v>
       </c>
       <c r="XO2">
-        <v>-0.0780239935307766</v>
+        <v>-0.08404674263383793</v>
       </c>
       <c r="XP2">
-        <v>-0.07813697426649296</v>
+        <v>-0.0842059081482386</v>
       </c>
       <c r="XQ2">
-        <v>-0.07726750704682088</v>
+        <v>-0.08358392070041008</v>
       </c>
       <c r="XR2">
-        <v>-0.07697438047914812</v>
+        <v>-0.08337817596966353</v>
       </c>
       <c r="XS2">
-        <v>-0.07710967793314062</v>
+        <v>-0.08362329190753572</v>
       </c>
       <c r="XT2">
-        <v>-0.07691799977921496</v>
+        <v>-0.08237869588740716</v>
       </c>
       <c r="XU2">
-        <v>-0.0780260731634156</v>
+        <v>-0.08405090488552615</v>
       </c>
       <c r="XV2">
-        <v>-0.0781486950635419</v>
+        <v>-0.08422311699622453</v>
       </c>
       <c r="XW2">
-        <v>-0.07697438047914267</v>
+        <v>-0.08337817596965606</v>
       </c>
       <c r="XX2">
-        <v>-0.07711404130054145</v>
+        <v>-0.08363108355357077</v>
       </c>
       <c r="XY2">
-        <v>-0.07692052433575002</v>
+        <v>-0.08238046419720102</v>
       </c>
       <c r="XZ2">
-        <v>-0.0780310046015695</v>
+        <v>-0.08406077485931947</v>
       </c>
       <c r="YA2">
-        <v>-0.07816221914067527</v>
+        <v>-0.08424297349292695</v>
       </c>
       <c r="YB2">
-        <v>-0.07697438047913673</v>
+        <v>-0.0833781759696493</v>
       </c>
       <c r="YC2">
-        <v>-0.07711530805770059</v>
+        <v>-0.08363334559855873</v>
       </c>
       <c r="YD2">
-        <v>-0.07692205798377452</v>
+        <v>-0.08238153843104473</v>
       </c>
       <c r="YE2">
-        <v>-0.078034753314391</v>
+        <v>-0.08406827769510607</v>
       </c>
       <c r="YF2">
-        <v>-0.07817589108647208</v>
+        <v>-0.0842630471120359</v>
       </c>
       <c r="YG2">
-        <v>-0.07697438047913266</v>
+        <v>-0.08337817596964464</v>
       </c>
       <c r="YH2">
-        <v>-0.07711585070776689</v>
+        <v>-0.0836336239790961</v>
       </c>
       <c r="YI2">
-        <v>-0.0771182624983905</v>
+        <v>-0.08364228974163483</v>
       </c>
       <c r="YJ2">
-        <v>-0.07692344254177219</v>
+        <v>-0.08238250823554873</v>
       </c>
       <c r="YK2">
-        <v>-0.07803738485765599</v>
+        <v>-0.08407354458715416</v>
       </c>
       <c r="YL2">
-        <v>-0.0781910482336267</v>
+        <v>-0.08428530137433944</v>
       </c>
       <c r="YM2">
-        <v>-0.07697438047912727</v>
+        <v>-0.08337817596963081</v>
       </c>
       <c r="YN2">
-        <v>-0.07711635858222647</v>
+        <v>-0.08363388451965036</v>
       </c>
       <c r="YO2">
-        <v>-0.07712216108303897</v>
+        <v>-0.08365409218176904</v>
       </c>
       <c r="YP2">
-        <v>-0.07692577764976397</v>
+        <v>-0.08238414384610172</v>
       </c>
       <c r="YQ2">
-        <v>-0.0780401416328065</v>
+        <v>-0.08407906213086598</v>
       </c>
       <c r="YR2">
-        <v>-0.07821308995471705</v>
+        <v>-0.08431766384980478</v>
       </c>
       <c r="YS2">
-        <v>-0.07697438047912387</v>
+        <v>-0.08337817596962246</v>
       </c>
       <c r="YT2">
-        <v>-0.07711688175857474</v>
+        <v>-0.08363415291007401</v>
       </c>
       <c r="YU2">
-        <v>-0.07713835768131572</v>
+        <v>-0.08370312565802217</v>
       </c>
       <c r="YV2">
-        <v>-0.07692807337920973</v>
+        <v>-0.08238575187371035</v>
       </c>
       <c r="YW2">
-        <v>-0.07804240497505506</v>
+        <v>-0.08408359209919139</v>
       </c>
       <c r="YX2">
-        <v>-0.07822147680224328</v>
+        <v>-0.08432461423681173</v>
       </c>
       <c r="YY2">
-        <v>-0.07826193092148029</v>
+        <v>-0.0843968961498342</v>
       </c>
       <c r="YZ2">
-        <v>-0.0769743804791222</v>
+        <v>-0.08337817596961868</v>
       </c>
       <c r="ZA2">
-        <v>-0.07712066444480731</v>
+        <v>-0.08363609343410998</v>
       </c>
       <c r="ZB2">
-        <v>-0.0771452360242213</v>
+        <v>-0.08372394933076645</v>
       </c>
       <c r="ZC2">
-        <v>-0.07692915959407902</v>
+        <v>-0.08238651270513057</v>
       </c>
       <c r="ZD2">
-        <v>-0.07804615245192174</v>
+        <v>-0.08409109250034401</v>
       </c>
       <c r="ZE2">
-        <v>-0.07822651311906581</v>
+        <v>-0.08432878795435479</v>
       </c>
       <c r="ZF2">
-        <v>-0.07857121034116497</v>
+        <v>-0.08489863228117339</v>
       </c>
       <c r="ZG2">
-        <v>-0.0769743804791222</v>
+        <v>-0.08337817596961869</v>
       </c>
       <c r="ZH2">
-        <v>-0.07714821058288826</v>
+        <v>-0.08365022459746166</v>
       </c>
       <c r="ZI2">
-        <v>-0.07693035265438138</v>
+        <v>-0.08238734837553846</v>
       </c>
       <c r="ZJ2">
-        <v>-0.07805826323047514</v>
+        <v>-0.08411533174975827</v>
       </c>
       <c r="ZK2">
-        <v>-0.07823118504217438</v>
+        <v>-0.08433265968854653</v>
       </c>
       <c r="ZL2">
-        <v>-0.07879259957994485</v>
+        <v>-0.08525779418273775</v>
       </c>
       <c r="ZM2">
-        <v>-0.07693149773745314</v>
+        <v>-0.08238815044051438</v>
       </c>
       <c r="ZN2">
-        <v>-0.07808656182574342</v>
+        <v>-0.08417197080370759</v>
       </c>
       <c r="ZO2">
-        <v>-0.07823574360108819</v>
+        <v>-0.08433643747376104</v>
       </c>
       <c r="ZP2">
-        <v>-0.07883706453010003</v>
+        <v>-0.08530451841885969</v>
       </c>
       <c r="ZQ2">
-        <v>-0.07937839562073408</v>
+        <v>-0.08623541481242965</v>
       </c>
       <c r="ZR2">
-        <v>-0.07693287869892027</v>
+        <v>-0.08238911772460333</v>
       </c>
       <c r="ZS2">
-        <v>-0.0782391628320542</v>
+        <v>-0.08433927107016828</v>
       </c>
       <c r="ZT2">
-        <v>-0.07883706453003737</v>
+        <v>-0.08530451841878292</v>
       </c>
       <c r="ZU2">
-        <v>-0.07884867213577215</v>
+        <v>-0.08531671582062895</v>
       </c>
       <c r="ZV2">
-        <v>-0.07943016511764703</v>
+        <v>-0.0862872268781045</v>
       </c>
       <c r="ZW2">
-        <v>-0.07949040327521055</v>
+        <v>-0.08642897655603196</v>
       </c>
       <c r="ZX2">
-        <v>-0.07693508150918316</v>
+        <v>-0.08239066066613096</v>
       </c>
       <c r="ZY2">
-        <v>-0.07824459451651916</v>
+        <v>-0.08434377243214645</v>
       </c>
       <c r="ZZ2">
-        <v>-0.0788370645300172</v>
+        <v>-0.08530451841875913</v>
       </c>
       <c r="AAA2">
-        <v>-0.07887231884326586</v>
+        <v>-0.08534156405528712</v>
       </c>
       <c r="AAB2">
-        <v>-0.07946015711834527</v>
+        <v>-0.08631724354092746</v>
       </c>
       <c r="AAC2">
-        <v>-0.079616468301305</v>
+        <v>-0.08664681453102598</v>
       </c>
       <c r="AAD2">
-        <v>-0.07694111036731514</v>
+        <v>-0.08239488353112068</v>
       </c>
       <c r="AAE2">
-        <v>-0.07825375257775502</v>
+        <v>-0.08435136192402834</v>
       </c>
       <c r="AAF2">
-        <v>-0.07883706453000423</v>
+        <v>-0.08530451841874558</v>
       </c>
       <c r="AAG2">
-        <v>-0.07994902344917855</v>
+        <v>-0.08722148447444986</v>
       </c>
       <c r="AAH2">
-        <v>-0.07961646830130087</v>
+        <v>-0.086646814531016</v>
       </c>
       <c r="AAI2">
-        <v>-0.07694913369660812</v>
+        <v>-0.0824005034019314</v>
       </c>
       <c r="AAJ2">
-        <v>-0.07832237461934032</v>
+        <v>-0.08440823038466286</v>
       </c>
       <c r="AAK2">
-        <v>-0.0788370645299972</v>
+        <v>-0.08530451841873762</v>
       </c>
       <c r="AAL2">
-        <v>-0.08025236906635629</v>
+        <v>-0.08773963756840863</v>
       </c>
       <c r="AAM2">
-        <v>-0.08000502965896093</v>
+        <v>-0.08732201079480781</v>
       </c>
       <c r="AAN2">
-        <v>-0.07961646830129929</v>
+        <v>-0.08664681453100885</v>
       </c>
       <c r="AAO2">
-        <v>-0.07694989789416373</v>
+        <v>-0.08240103867710215</v>
       </c>
       <c r="AAP2">
-        <v>-0.07837867176432166</v>
+        <v>-0.08445488472886517</v>
       </c>
       <c r="AAQ2">
-        <v>-0.07883706452998841</v>
+        <v>-0.08530451841873019</v>
       </c>
       <c r="AAR2">
-        <v>-0.08056547596802814</v>
+        <v>-0.08827448968148259</v>
       </c>
       <c r="AAS2">
-        <v>-0.08001102533910513</v>
+        <v>-0.08733277264498397</v>
       </c>
       <c r="AAT2">
-        <v>-0.07961646830129776</v>
+        <v>-0.08664681453100592</v>
       </c>
       <c r="AAU2">
-        <v>-0.07695050226524057</v>
+        <v>-0.08240146200323976</v>
       </c>
       <c r="AAV2">
-        <v>-0.0783965089577917</v>
+        <v>-0.08446966665348539</v>
       </c>
       <c r="AAW2">
-        <v>-0.07883706452998328</v>
+        <v>-0.08530451841872386</v>
       </c>
       <c r="AAX2">
-        <v>-0.08066561496884067</v>
+        <v>-0.08847592649971206</v>
       </c>
       <c r="AAY2">
-        <v>-0.08067140492090939</v>
+        <v>-0.08835305737510536</v>
       </c>
       <c r="AAZ2">
-        <v>-0.08001331457714322</v>
+        <v>-0.0873368816823583</v>
       </c>
       <c r="ABA2">
-        <v>-0.07961646830129876</v>
+        <v>-0.08664681453100297</v>
       </c>
       <c r="ABB2">
-        <v>-0.07695108925456891</v>
+        <v>-0.0824018731544577</v>
       </c>
       <c r="ABC2">
-        <v>-0.0784127475695794</v>
+        <v>-0.08448312379382499</v>
       </c>
       <c r="ABD2">
-        <v>-0.07883706452997956</v>
+        <v>-0.08530451841871729</v>
       </c>
       <c r="ABE2">
-        <v>-0.08080169178765233</v>
+        <v>-0.08874966197101024</v>
       </c>
       <c r="ABF2">
-        <v>-0.08068561491820979</v>
+        <v>-0.08836359688089299</v>
       </c>
       <c r="ABG2">
-        <v>-0.08001573614050242</v>
+        <v>-0.08734122823901964</v>
       </c>
       <c r="ABH2">
-        <v>-0.07961646830130291</v>
+        <v>-0.08664681453100513</v>
       </c>
       <c r="ABI2">
-        <v>-0.07695171798358372</v>
+        <v>-0.08240231354181526</v>
       </c>
       <c r="ABJ2">
-        <v>-0.0784215920372546</v>
+        <v>-0.08449045330743475</v>
       </c>
       <c r="ABK2">
-        <v>-0.07883706452997745</v>
+        <v>-0.08530451841871367</v>
       </c>
       <c r="ABL2">
-        <v>-0.08096101545634561</v>
+        <v>-0.08907017183388562</v>
       </c>
       <c r="ABM2">
-        <v>-0.0806930805580825</v>
+        <v>-0.08836913411306239</v>
       </c>
       <c r="ABN2">
-        <v>-0.08001774583000086</v>
+        <v>-0.08734483551044117</v>
       </c>
       <c r="ABO2">
-        <v>-0.07961646830131056</v>
+        <v>-0.08664681453101269</v>
       </c>
       <c r="ABP2">
-        <v>-0.07695229929119869</v>
+        <v>-0.08240272071326213</v>
       </c>
       <c r="ABQ2">
-        <v>-0.07842865575665232</v>
+        <v>-0.08449630709052008</v>
       </c>
       <c r="ABR2">
-        <v>-0.07883706452997545</v>
+        <v>-0.0853045184187117</v>
       </c>
       <c r="ABS2">
-        <v>-0.08108894996947776</v>
+        <v>-0.08932754460613264</v>
       </c>
       <c r="ABT2">
-        <v>-0.08071401023080949</v>
+        <v>-0.0883900844424363</v>
       </c>
       <c r="ABU2">
-        <v>-0.0806937802973645</v>
+        <v>-0.08836947598967941</v>
       </c>
       <c r="ABV2">
-        <v>-0.08002012579884006</v>
+        <v>-0.08734910741434083</v>
       </c>
       <c r="ABW2">
-        <v>-0.07961646830131933</v>
+        <v>-0.08664681453102399</v>
       </c>
       <c r="ABX2">
-        <v>-0.07695284711232253</v>
+        <v>-0.08240310442938166</v>
       </c>
       <c r="ABY2">
-        <v>-0.07843467911903736</v>
+        <v>-0.08450129871558865</v>
       </c>
       <c r="ABZ2">
-        <v>-0.07883706452997452</v>
+        <v>-0.0853045184187102</v>
       </c>
       <c r="ACA2">
-        <v>-0.08110736062738594</v>
+        <v>-0.08940864779131673</v>
       </c>
       <c r="ACB2">
-        <v>-0.0812199671311228</v>
+        <v>-0.08939272060633921</v>
       </c>
       <c r="ACC2">
-        <v>-0.08073102360957968</v>
+        <v>-0.08840711461278937</v>
       </c>
       <c r="ACD2">
-        <v>-0.08069428630957648</v>
+        <v>-0.0883697232156445</v>
       </c>
       <c r="ACE2">
-        <v>-0.08002244684947223</v>
+        <v>-0.08735327356707673</v>
       </c>
       <c r="ACF2">
-        <v>-0.07961646830132479</v>
+        <v>-0.08664681453103255</v>
       </c>
       <c r="ACG2">
-        <v>-0.07695360902691166</v>
+        <v>-0.08240363810519397</v>
       </c>
       <c r="ACH2">
-        <v>-0.07844174759814714</v>
+        <v>-0.08450715643711089</v>
       </c>
       <c r="ACI2">
-        <v>-0.07883706452997412</v>
+        <v>-0.08530451841871002</v>
       </c>
       <c r="ACJ2">
-        <v>-0.08113274369512255</v>
+        <v>-0.08952046786676957</v>
       </c>
       <c r="ACK2">
-        <v>-0.0813294863019938</v>
+        <v>-0.08944720068064159</v>
       </c>
       <c r="ACL2">
-        <v>-0.08069471333885937</v>
+        <v>-0.08836993185233756</v>
       </c>
       <c r="ACM2">
-        <v>-0.08002563780111284</v>
+        <v>-0.08735900114794731</v>
       </c>
       <c r="ACN2">
-        <v>-0.07961646830133012</v>
+        <v>-0.08664681453103996</v>
       </c>
       <c r="ACO2">
-        <v>-0.07695454272240708</v>
+        <v>-0.08240429210322867</v>
       </c>
       <c r="ACP2">
-        <v>-0.0784482063689646</v>
+        <v>-0.08451250888425579</v>
       </c>
       <c r="ACQ2">
-        <v>-0.07883706452997537</v>
+        <v>-0.08530451841871026</v>
       </c>
       <c r="ACR2">
-        <v>-0.08119518742889667</v>
+        <v>-0.08979556034418715</v>
       </c>
       <c r="ACS2">
-        <v>-0.08136980743120772</v>
+        <v>-0.08947673524385483</v>
       </c>
       <c r="ACT2">
-        <v>-0.08133091069373831</v>
+        <v>-0.08944756606838326</v>
       </c>
       <c r="ACU2">
-        <v>-0.08069543464090417</v>
+        <v>-0.08837028426389291</v>
       </c>
       <c r="ACV2">
-        <v>-0.08003002747928038</v>
+        <v>-0.08736688038714553</v>
       </c>
       <c r="ACW2">
-        <v>-0.07961646830133436</v>
+        <v>-0.08664681453104751</v>
       </c>
       <c r="ACX2">
-        <v>-0.0769589682022382</v>
+        <v>-0.08240739188689618</v>
       </c>
       <c r="ACY2">
-        <v>-0.07845822641959055</v>
+        <v>-0.08452081259379024</v>
       </c>
       <c r="ACZ2">
-        <v>-0.07883706452997535</v>
+        <v>-0.08530451841871026</v>
       </c>
       <c r="ADA2">
-        <v>-0.08124579960255406</v>
+        <v>-0.09001853889702914</v>
       </c>
       <c r="ADB2">
-        <v>-0.08140931853380197</v>
+        <v>-0.0895056763349323</v>
       </c>
       <c r="ADC2">
-        <v>-0.08133227259583746</v>
+        <v>-0.08944791542599492</v>
       </c>
       <c r="ADD2">
-        <v>-0.08069644473943166</v>
+        <v>-0.08837077777465462</v>
       </c>
       <c r="ADE2">
-        <v>-0.08003467301131241</v>
+        <v>-0.08737521888410278</v>
       </c>
       <c r="ADF2">
-        <v>-0.07961646830133952</v>
+        <v>-0.08664681453105597</v>
       </c>
       <c r="ADG2">
-        <v>-0.07699680767834582</v>
+        <v>-0.08243389609791457</v>
       </c>
       <c r="ADH2">
-        <v>-0.07847845604454035</v>
+        <v>-0.08453757705310412</v>
       </c>
       <c r="ADI2">
-        <v>-0.08128534686547755</v>
+        <v>-0.09019277537754752</v>
       </c>
       <c r="ADJ2">
-        <v>-0.08133374079839738</v>
+        <v>-0.08944829205181379</v>
       </c>
       <c r="ADK2">
-        <v>-0.0806971942564752</v>
+        <v>-0.08837114397126021</v>
       </c>
       <c r="ADL2">
-        <v>-0.08003775891652425</v>
+        <v>-0.08738075793691644</v>
       </c>
       <c r="ADM2">
-        <v>-0.07961646830134322</v>
+        <v>-0.08664681453105967</v>
       </c>
       <c r="ADN2">
-        <v>-0.07848223284813602</v>
+        <v>-0.08453956127106972</v>
       </c>
       <c r="ADO2">
-        <v>-0.07849196558111393</v>
+        <v>-0.08455560244223934</v>
       </c>
       <c r="ADP2">
-        <v>-0.08132109024101949</v>
+        <v>-0.09035025718054489</v>
       </c>
       <c r="ADQ2">
-        <v>-0.08133505179195046</v>
+        <v>-0.08944862834995054</v>
       </c>
       <c r="ADR2">
-        <v>-0.0806984358632281</v>
+        <v>-0.08837175059131937</v>
       </c>
       <c r="ADS2">
-        <v>-0.08004089962990632</v>
+        <v>-0.0873863953741485</v>
       </c>
       <c r="ADT2">
-        <v>-0.07961646830134896</v>
+        <v>-0.08664681453106576</v>
       </c>
       <c r="ADU2">
-        <v>-0.07848552658252232</v>
+        <v>-0.08454129169781155</v>
       </c>
       <c r="ADV2">
-        <v>-0.07851358297787436</v>
+        <v>-0.08458444599509313</v>
       </c>
       <c r="ADW2">
-        <v>-0.08132278838918028</v>
+        <v>-0.09035374215456561</v>
       </c>
       <c r="ADX2">
-        <v>-0.08133460940762997</v>
+        <v>-0.09045566277242237</v>
       </c>
       <c r="ADY2">
-        <v>-0.08133649956676756</v>
+        <v>-0.08944899973525763</v>
       </c>
       <c r="ADZ2">
-        <v>-0.08070705389868275</v>
+        <v>-0.08837596115730782</v>
       </c>
       <c r="AEA2">
-        <v>-0.08004240134146295</v>
+        <v>-0.08738909088014966</v>
       </c>
       <c r="AEB2">
-        <v>-0.07961646830135088</v>
+        <v>-0.08664681453106653</v>
       </c>
       <c r="AEC2">
-        <v>-0.07848825065456182</v>
+        <v>-0.08454272284054452</v>
       </c>
       <c r="AED2">
-        <v>-0.07853205309671242</v>
+        <v>-0.08460909028890083</v>
       </c>
       <c r="AEE2">
-        <v>-0.08132449099992366</v>
+        <v>-0.09035723628963628</v>
       </c>
       <c r="AEF2">
-        <v>-0.08134963980817453</v>
+        <v>-0.09057284922880095</v>
       </c>
       <c r="AEG2">
-        <v>-0.08133460940762997</v>
+        <v>-0.09045566277242237</v>
       </c>
       <c r="AEH2">
-        <v>-0.08133743299527901</v>
+        <v>-0.08944923917960508</v>
       </c>
       <c r="AEI2">
-        <v>-0.08072609019665497</v>
+        <v>-0.08838526180716244</v>
       </c>
       <c r="AEJ2">
-        <v>-0.08004478999782592</v>
+        <v>-0.08739337841597807</v>
       </c>
       <c r="AEK2">
-        <v>-0.07961646830135272</v>
+        <v>-0.08664681453106837</v>
       </c>
       <c r="AEL2">
-        <v>-0.07849036902765572</v>
+        <v>-0.08454383576730416</v>
       </c>
       <c r="AEM2">
-        <v>-0.07854250652884234</v>
+        <v>-0.08462303811582027</v>
       </c>
       <c r="AEN2">
-        <v>-0.0813261969166137</v>
+        <v>-0.09036073721210948</v>
       </c>
       <c r="AEO2">
-        <v>-0.08136224233068926</v>
+        <v>-0.09067110843519841</v>
       </c>
       <c r="AEP2">
-        <v>-0.08134963980817453</v>
+        <v>-0.09057284922880095</v>
       </c>
       <c r="AEQ2">
-        <v>-0.08133886667847837</v>
+        <v>-0.08944960694981442</v>
       </c>
       <c r="AER2">
-        <v>-0.08004703241800841</v>
+        <v>-0.0873974034675061</v>
       </c>
       <c r="AES2">
-        <v>-0.0796164683013549</v>
+        <v>-0.08664681453107054</v>
       </c>
       <c r="AET2">
-        <v>-0.07849252354631228</v>
+        <v>-0.08454496768328489</v>
       </c>
       <c r="AEU2">
-        <v>-0.08132789250766725</v>
+        <v>-0.09036421694691142</v>
       </c>
       <c r="AEV2">
-        <v>-0.0813757897630996</v>
+        <v>-0.09077673695357359</v>
       </c>
       <c r="AEW2">
-        <v>-0.08136224233068926</v>
+        <v>-0.09067110843519841</v>
       </c>
       <c r="AEX2">
-        <v>-0.08135065912102266</v>
+        <v>-0.08945263195515019</v>
       </c>
       <c r="AEY2">
-        <v>-0.08005023646757617</v>
+        <v>-0.08740315460970054</v>
       </c>
       <c r="AEZ2">
-        <v>-0.0796164683013549</v>
+        <v>-0.08664681453107054</v>
       </c>
       <c r="AFA2">
-        <v>-0.07849439328716096</v>
+        <v>-0.08454594998558217</v>
       </c>
       <c r="AFB2">
-        <v>-0.08132959454410679</v>
+        <v>-0.09036770991195171</v>
       </c>
       <c r="AFC2">
-        <v>-0.08138691271630263</v>
+        <v>-0.09086346354022549</v>
       </c>
       <c r="AFD2">
-        <v>-0.0813757897630996</v>
+        <v>-0.09077673695357359</v>
       </c>
       <c r="AFE2">
-        <v>-0.08139130169325358</v>
+        <v>-0.08946305752256681</v>
       </c>
       <c r="AFF2">
-        <v>-0.08008405767279479</v>
+        <v>-0.08746386274237525</v>
       </c>
       <c r="AFG2">
-        <v>-0.07849573616452811</v>
+        <v>-0.08454665549033816</v>
       </c>
       <c r="AFH2">
-        <v>-0.08133129542522018</v>
+        <v>-0.09037120050885375</v>
       </c>
       <c r="AFI2">
-        <v>-0.08139885446230344</v>
+        <v>-0.09095657591532627</v>
       </c>
       <c r="AFJ2">
-        <v>-0.08138691271630262</v>
+        <v>-0.09086346354022547</v>
       </c>
       <c r="AFK2">
-        <v>-0.08009758544874974</v>
+        <v>-0.08748814493641761</v>
       </c>
       <c r="AFL2">
-        <v>-0.07849729524864858</v>
+        <v>-0.08454747458293979</v>
       </c>
       <c r="AFM2">
-        <v>-0.08133299738158833</v>
+        <v>-0.09037469331527415</v>
       </c>
       <c r="AFN2">
-        <v>-0.08142549674408217</v>
+        <v>-0.09116430497827259</v>
       </c>
       <c r="AFO2">
-        <v>-0.08139885446229075</v>
+        <v>-0.09095657591528247</v>
       </c>
       <c r="AFP2">
-        <v>-0.08139885446230344</v>
+        <v>-0.09095657591532627</v>
       </c>
       <c r="AFQ2">
-        <v>-0.08010445486148431</v>
+        <v>-0.08750047549470477</v>
       </c>
       <c r="AFR2">
-        <v>-0.07849964403194581</v>
+        <v>-0.0845487085575431</v>
       </c>
       <c r="AFS2">
-        <v>-0.08133382816084211</v>
+        <v>-0.09037639826666329</v>
       </c>
       <c r="AFT2">
-        <v>-0.08142939461855908</v>
+        <v>-0.0911946982158283</v>
       </c>
       <c r="AFU2">
-        <v>-0.08139885446228079</v>
+        <v>-0.09095657591523558</v>
       </c>
       <c r="AFV2">
-        <v>-0.08139885446229075</v>
+        <v>-0.09095657591528247</v>
       </c>
       <c r="AFW2">
-        <v>-0.08010597493237637</v>
+        <v>-0.08750320401779499</v>
       </c>
       <c r="AFX2">
-        <v>-0.07850348147552232</v>
+        <v>-0.08455072462464881</v>
       </c>
       <c r="AFY2">
-        <v>-0.08135250012428996</v>
+        <v>-0.09041471763840038</v>
       </c>
       <c r="AFZ2">
-        <v>-0.08144037585260368</v>
+        <v>-0.09128032538777836</v>
       </c>
       <c r="AGA2">
-        <v>-0.08139885446226451</v>
+        <v>-0.09095657591517109</v>
       </c>
       <c r="AGB2">
-        <v>-0.08139885446228079</v>
+        <v>-0.09095657591523558</v>
       </c>
       <c r="AGC2">
-        <v>-0.08010717206347667</v>
+        <v>-0.08750535286590334</v>
       </c>
       <c r="AGD2">
-        <v>-0.0785342747385535</v>
+        <v>-0.08455842827641048</v>
       </c>
       <c r="AGE2">
-        <v>-0.07850348147552232</v>
+        <v>-0.084573289352953</v>
       </c>
       <c r="AGF2">
-        <v>-0.08136464223156412</v>
+        <v>-0.09043963635487449</v>
       </c>
       <c r="AGG2">
-        <v>-0.08145327065570253</v>
+        <v>-0.09138087800084448</v>
       </c>
       <c r="AGH2">
-        <v>-0.08139885446225602</v>
+        <v>-0.09095657591514185</v>
       </c>
       <c r="AGI2">
-        <v>-0.08139885446226451</v>
+        <v>-0.09095657591517109</v>
       </c>
       <c r="AGJ2">
-        <v>-0.0801084547117898</v>
+        <v>-0.08750765521828166</v>
       </c>
       <c r="AGK2">
-        <v>-0.08137526177681824</v>
+        <v>-0.0904614305028639</v>
       </c>
       <c r="AGL2">
-        <v>-0.08145494339641582</v>
+        <v>-0.09139392222864155</v>
       </c>
       <c r="AGM2">
-        <v>-0.08139885446224847</v>
+        <v>-0.09095657591512595</v>
       </c>
       <c r="AGN2">
-        <v>-0.08139885446225602</v>
+        <v>-0.09095657591514185</v>
       </c>
       <c r="AGO2">
-        <v>-0.08010948092467977</v>
+        <v>-0.08750949727011306</v>
       </c>
       <c r="AGP2">
-        <v>-0.08138640103623902</v>
+        <v>-0.09048429136274468</v>
       </c>
       <c r="AGQ2">
-        <v>-0.08145704593070681</v>
+        <v>-0.09139592784063853</v>
       </c>
       <c r="AGR2">
-        <v>-0.08145494339641647</v>
+        <v>-0.0914259391776024</v>
       </c>
       <c r="AGS2">
-        <v>-0.08139885446224956</v>
+        <v>-0.0909565759151245</v>
       </c>
       <c r="AGT2">
-        <v>-0.08139885446224845</v>
+        <v>-0.09095657591512595</v>
       </c>
       <c r="AGU2">
-        <v>-0.08011047733576655</v>
+        <v>-0.08751128582837023</v>
       </c>
       <c r="AGV2">
-        <v>-0.08140542126895806</v>
+        <v>-0.09052332645528889</v>
       </c>
       <c r="AGW2">
-        <v>-0.08145899146391429</v>
+        <v>-0.09139778368887488</v>
       </c>
       <c r="AGX2">
-        <v>-0.08145494339641619</v>
+        <v>-0.09150086952858268</v>
       </c>
       <c r="AGY2">
-        <v>-0.08139885446224956</v>
+        <v>-0.0909565759151245</v>
       </c>
       <c r="AGZ2">
-        <v>-0.08139885446224956</v>
+        <v>-0.0909565759151245</v>
       </c>
       <c r="AHA2">
-        <v>-0.0801114712200126</v>
+        <v>-0.08751306985159335</v>
       </c>
       <c r="AHB2">
-        <v>-0.08141008654705463</v>
+        <v>-0.09053290102780537</v>
       </c>
       <c r="AHC2">
-        <v>-0.08146194982152036</v>
+        <v>-0.09140060567228082</v>
       </c>
       <c r="AHD2">
-        <v>-0.08145494339641621</v>
+        <v>-0.09167863832130023</v>
       </c>
       <c r="AHE2">
-        <v>-0.08011245347620627</v>
+        <v>-0.08751483300307887</v>
       </c>
       <c r="AHF2">
-        <v>-0.08141348921427574</v>
+        <v>-0.0905363082319225</v>
       </c>
       <c r="AHG2">
-        <v>-0.0814193273754891</v>
+        <v>-0.09057081639793452</v>
       </c>
       <c r="AHH2">
-        <v>-0.0814656883831789</v>
+        <v>-0.0914041718936502</v>
       </c>
       <c r="AHI2">
-        <v>-0.08013001833216297</v>
+        <v>-0.08754636205446722</v>
       </c>
       <c r="AHJ2">
-        <v>-0.08141907612628704</v>
+        <v>-0.09054190259317764</v>
       </c>
       <c r="AHK2">
-        <v>-0.08142716486321395</v>
+        <v>-0.09060297410361529</v>
       </c>
       <c r="AHL2">
-        <v>-0.08148024260003911</v>
+        <v>-0.09141805518691952</v>
       </c>
       <c r="AHM2">
-        <v>-0.08019681931127749</v>
+        <v>-0.08761322798240417</v>
       </c>
       <c r="AHN2">
-        <v>-0.08013891612772901</v>
+        <v>-0.08759200809221561</v>
       </c>
       <c r="AHO2">
-        <v>-0.0814201807830837</v>
+        <v>-0.09054300872285614</v>
       </c>
       <c r="AHP2">
-        <v>-0.08144033811629597</v>
+        <v>-0.09065702537080109</v>
       </c>
       <c r="AHQ2">
-        <v>-0.08150668157075711</v>
+        <v>-0.0914432753556587</v>
       </c>
       <c r="AHR2">
-        <v>-0.08024118392552845</v>
+        <v>-0.08765763573227038</v>
       </c>
       <c r="AHS2">
-        <v>-0.08142111419472037</v>
+        <v>-0.090543943379047</v>
       </c>
       <c r="AHT2">
-        <v>-0.0814219007779101</v>
+        <v>-0.09054473101101869</v>
       </c>
       <c r="AHU2">
-        <v>-0.08142292399189999</v>
+        <v>-0.09054575558929932</v>
       </c>
       <c r="AHV2">
-        <v>-0.08142477585106922</v>
+        <v>-0.09054760991762759</v>
       </c>
       <c r="AHW2">
-        <v>-0.08142798664694749</v>
+        <v>-0.09055082499459496</v>
       </c>
       <c r="AHX2">
-        <v>-0.08145428661945293</v>
+        <v>-0.09057716003420281</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.07313749042149344</v>
+        <v>-0.2785915850578711</v>
       </c>
       <c r="D3">
-        <v>-0.07379226363937391</v>
+        <v>-0.2810423871236438</v>
       </c>
       <c r="E3">
-        <v>-0.07386091297057874</v>
+        <v>-0.2812993978324051</v>
       </c>
       <c r="F3">
-        <v>-0.07392522756205892</v>
+        <v>-0.2815401900024224</v>
       </c>
       <c r="G3">
-        <v>-0.07398130139853072</v>
+        <v>-0.2817501368492584</v>
       </c>
       <c r="H3">
-        <v>-0.07406964112088642</v>
+        <v>-0.2820809056947398</v>
       </c>
       <c r="I3">
-        <v>-0.08008923071213944</v>
+        <v>-0.304662788425388</v>
       </c>
       <c r="J3">
-        <v>-0.08035902611606927</v>
+        <v>-0.3056768795009331</v>
       </c>
       <c r="K3">
-        <v>-0.08058359414045227</v>
+        <v>-0.3065211024181864</v>
       </c>
       <c r="L3">
-        <v>-0.08078067966141382</v>
+        <v>-0.307262107048813</v>
       </c>
       <c r="M3">
-        <v>-0.08092774830286079</v>
+        <v>-0.3078151168073863</v>
       </c>
       <c r="N3">
-        <v>-0.08106581391178157</v>
+        <v>-0.3083343192948982</v>
       </c>
       <c r="O3">
-        <v>-0.08115071374262244</v>
+        <v>-0.3086536114239121</v>
       </c>
       <c r="P3">
-        <v>-0.08136208318508913</v>
+        <v>-0.3094486050290128</v>
       </c>
       <c r="Q3">
-        <v>-0.0830747157523183</v>
+        <v>-0.315893943933458</v>
       </c>
       <c r="R3">
-        <v>-0.08307471575231924</v>
+        <v>-0.315893943933452</v>
       </c>
       <c r="S3">
-        <v>-0.08515244365573386</v>
+        <v>-0.3237225212478388</v>
       </c>
       <c r="T3">
-        <v>-0.08307471575231962</v>
+        <v>-0.3158939439334493</v>
       </c>
       <c r="U3">
-        <v>-0.08529543901360001</v>
+        <v>-0.3242616798193919</v>
       </c>
       <c r="V3">
-        <v>-0.0830747157523201</v>
+        <v>-0.3158939439334469</v>
       </c>
       <c r="W3">
-        <v>-0.08545601148343394</v>
+        <v>-0.3248671694919145</v>
       </c>
       <c r="X3">
-        <v>-0.08307471575231952</v>
+        <v>-0.3158939439334452</v>
       </c>
       <c r="Y3">
-        <v>-0.08571746811831174</v>
+        <v>-0.3258532047173812</v>
       </c>
       <c r="Z3">
-        <v>-0.0830747157523192</v>
+        <v>-0.3158939439334436</v>
       </c>
       <c r="AA3">
-        <v>-0.08619315968596745</v>
+        <v>-0.3276475994174069</v>
       </c>
       <c r="AB3">
-        <v>-0.08307471575231916</v>
+        <v>-0.3158939439334419</v>
       </c>
       <c r="AC3">
-        <v>-0.0862902711323357</v>
+        <v>-0.3293770347449529</v>
       </c>
       <c r="AD3">
-        <v>-0.09202595333490596</v>
+        <v>-0.3478280549621448</v>
       </c>
       <c r="AE3">
-        <v>-0.08307471575231937</v>
+        <v>-0.3158939439334408</v>
       </c>
       <c r="AF3">
-        <v>-0.0863079570609696</v>
+        <v>-0.3298490692307645</v>
       </c>
       <c r="AG3">
-        <v>-0.08629910221740787</v>
+        <v>-0.3293814930782524</v>
       </c>
       <c r="AH3">
-        <v>-0.093580000194092</v>
+        <v>-0.3532158061878692</v>
       </c>
       <c r="AI3">
-        <v>-0.08307471575232044</v>
+        <v>-0.315893943933438</v>
       </c>
       <c r="AJ3">
-        <v>-0.08634845962395978</v>
+        <v>-0.330930444556615</v>
       </c>
       <c r="AK3">
-        <v>-0.08629940128348822</v>
+        <v>-0.3293816440602537</v>
       </c>
       <c r="AL3">
-        <v>-0.09375463257131633</v>
+        <v>-0.3533943023636495</v>
       </c>
       <c r="AM3">
-        <v>-0.09808463858458327</v>
+        <v>-0.3693439916299209</v>
       </c>
       <c r="AN3">
-        <v>-0.08307471575232112</v>
+        <v>-0.3158939439334344</v>
       </c>
       <c r="AO3">
-        <v>-0.08629983128649328</v>
+        <v>-0.3293818611450812</v>
       </c>
       <c r="AP3">
-        <v>-0.09376247537686797</v>
+        <v>-0.3533988268233251</v>
       </c>
       <c r="AQ3">
-        <v>-0.09377430629955993</v>
+        <v>-0.353430178426073</v>
       </c>
       <c r="AR3">
-        <v>-0.1012131866746418</v>
+        <v>-0.3805700899750005</v>
       </c>
       <c r="AS3">
-        <v>-0.09808463858451738</v>
+        <v>-0.3693439916299183</v>
       </c>
       <c r="AT3">
-        <v>-0.08307471575232166</v>
+        <v>-0.315893943933433</v>
       </c>
       <c r="AU3">
-        <v>-0.08630038273612256</v>
+        <v>-0.3293821395415875</v>
       </c>
       <c r="AV3">
-        <v>-0.09376601037319053</v>
+        <v>-0.3534008661357428</v>
       </c>
       <c r="AW3">
-        <v>-0.09382164573907023</v>
+        <v>-0.3535165054323781</v>
       </c>
       <c r="AX3">
-        <v>-0.1035787259273809</v>
+        <v>-0.3890718344248196</v>
       </c>
       <c r="AY3">
-        <v>-0.09808463858449532</v>
+        <v>-0.3693439916299226</v>
       </c>
       <c r="AZ3">
-        <v>-0.08307471575232253</v>
+        <v>-0.3158939439334298</v>
       </c>
       <c r="BA3">
-        <v>-0.08630172576492862</v>
+        <v>-0.3293828175626195</v>
       </c>
       <c r="BB3">
-        <v>-0.09376975671876575</v>
+        <v>-0.3534030273724108</v>
       </c>
       <c r="BC3">
-        <v>-0.1039198906369798</v>
+        <v>-0.3902989430031142</v>
       </c>
       <c r="BD3">
-        <v>-0.1035787259273603</v>
+        <v>-0.3890718344247906</v>
       </c>
       <c r="BE3">
-        <v>-0.09808463858446795</v>
+        <v>-0.3693439916299212</v>
       </c>
       <c r="BF3">
-        <v>-0.08307471575232453</v>
+        <v>-0.3158939439334243</v>
       </c>
       <c r="BG3">
-        <v>-0.08630287564344795</v>
+        <v>-0.329383398072579</v>
       </c>
       <c r="BH3">
-        <v>-0.09377332485961601</v>
+        <v>-0.3534050858027497</v>
       </c>
       <c r="BI3">
-        <v>-0.1054655975002785</v>
+        <v>-0.3958616203037626</v>
       </c>
       <c r="BJ3">
-        <v>-0.1035787259273577</v>
+        <v>-0.3890718344247877</v>
       </c>
       <c r="BK3">
-        <v>-0.09808463858446041</v>
+        <v>-0.3693439916299162</v>
       </c>
       <c r="BL3">
-        <v>-0.08307471575232608</v>
+        <v>-0.3158939439334199</v>
       </c>
       <c r="BM3">
-        <v>-0.0863083877571561</v>
+        <v>-0.3293861808313102</v>
       </c>
       <c r="BN3">
-        <v>-0.0937754618258433</v>
+        <v>-0.3534063185998489</v>
       </c>
       <c r="BO3">
-        <v>-0.1057572553126523</v>
+        <v>-0.3969842971813208</v>
       </c>
       <c r="BP3">
-        <v>-0.1058804429129252</v>
+        <v>-0.3960272033742693</v>
       </c>
       <c r="BQ3">
-        <v>-0.1035787259273546</v>
+        <v>-0.3890718344247867</v>
       </c>
       <c r="BR3">
-        <v>-0.09808463858445683</v>
+        <v>-0.3693439916299112</v>
       </c>
       <c r="BS3">
-        <v>-0.08307471575232739</v>
+        <v>-0.3158939439334157</v>
       </c>
       <c r="BT3">
-        <v>-0.08632787130059608</v>
+        <v>-0.3293960169577815</v>
       </c>
       <c r="BU3">
-        <v>-0.09377965440274139</v>
+        <v>-0.3534087372592641</v>
       </c>
       <c r="BV3">
-        <v>-0.1092045037888522</v>
+        <v>-0.4102695653721526</v>
       </c>
       <c r="BW3">
-        <v>-0.105970819816977</v>
+        <v>-0.3960721699617988</v>
       </c>
       <c r="BX3">
-        <v>-0.1059928635060529</v>
+        <v>-0.3960631764573986</v>
       </c>
       <c r="BY3">
-        <v>-0.1035787259273477</v>
+        <v>-0.3890718344247855</v>
       </c>
       <c r="BZ3">
-        <v>-0.09808463858443849</v>
+        <v>-0.3693439916298978</v>
       </c>
       <c r="CA3">
-        <v>-0.0830747157523317</v>
+        <v>-0.3158939439333962</v>
       </c>
       <c r="CB3">
-        <v>-0.09380090266640964</v>
+        <v>-0.3534209951588884</v>
       </c>
       <c r="CC3">
-        <v>-0.1104067410569556</v>
+        <v>-0.4149096980957936</v>
       </c>
       <c r="CD3">
-        <v>-0.1035787259273452</v>
+        <v>-0.3890718344247835</v>
       </c>
       <c r="CE3">
-        <v>-0.09808463858437988</v>
+        <v>-0.3693439916298576</v>
       </c>
       <c r="CF3">
-        <v>-0.08307471575233673</v>
+        <v>-0.3158939439333716</v>
       </c>
       <c r="CG3">
-        <v>-0.09388097270984994</v>
+        <v>-0.3534671862723072</v>
       </c>
       <c r="CH3">
-        <v>-0.1106691509091228</v>
+        <v>-0.4159229626439203</v>
       </c>
       <c r="CI3">
-        <v>-0.1035787259273425</v>
+        <v>-0.3890718344247821</v>
       </c>
       <c r="CJ3">
-        <v>-0.09808463858426926</v>
+        <v>-0.3693439916297809</v>
       </c>
       <c r="CK3">
-        <v>-0.08307471575233957</v>
+        <v>-0.3158939439333572</v>
       </c>
       <c r="CL3">
-        <v>-0.11120132324773</v>
+        <v>-0.4179784030550758</v>
       </c>
       <c r="CM3">
-        <v>-0.1035787259273425</v>
+        <v>-0.3890718344247821</v>
       </c>
       <c r="CN3">
-        <v>-0.0980846385842435</v>
+        <v>-0.3693439916297704</v>
       </c>
       <c r="CO3">
-        <v>-0.08307471575234118</v>
+        <v>-0.3158939439333522</v>
       </c>
       <c r="CP3">
-        <v>-0.1117032436324624</v>
+        <v>-0.4199176380825906</v>
       </c>
       <c r="CQ3">
-        <v>-0.09808463858423776</v>
+        <v>-0.3693439916297692</v>
       </c>
       <c r="CR3">
-        <v>-0.08307471575234109</v>
+        <v>-0.3158939439333509</v>
       </c>
       <c r="CS3">
-        <v>-0.1119950040248615</v>
+        <v>-0.4210451774877019</v>
       </c>
       <c r="CT3">
-        <v>-0.09808463858423666</v>
+        <v>-0.3693439916297705</v>
       </c>
       <c r="CU3">
-        <v>-0.08307471575234142</v>
+        <v>-0.3158939439333502</v>
       </c>
       <c r="CV3">
-        <v>-0.112187700250054</v>
+        <v>-0.4217899876908051</v>
       </c>
       <c r="CW3">
-        <v>-0.09808463858423989</v>
+        <v>-0.3693439916297706</v>
       </c>
       <c r="CX3">
-        <v>-0.08307471575234182</v>
+        <v>-0.3158939439333504</v>
       </c>
       <c r="CY3">
-        <v>-0.112453773420165</v>
+        <v>-0.4228185650535143</v>
       </c>
       <c r="CZ3">
-        <v>-0.09808463858441487</v>
+        <v>-0.3693439916305537</v>
       </c>
       <c r="DA3">
-        <v>-0.08307471575234182</v>
+        <v>-0.3158939439333504</v>
       </c>
       <c r="DB3">
-        <v>-0.1124691668552425</v>
+        <v>-0.4228318587356804</v>
       </c>
       <c r="DC3">
-        <v>-0.1126105967268369</v>
+        <v>-0.4234815308783494</v>
       </c>
       <c r="DD3">
-        <v>-0.09808463858442586</v>
+        <v>-0.3693439916305843</v>
       </c>
       <c r="DE3">
-        <v>-0.1124877908028791</v>
+        <v>-0.4228479422682296</v>
       </c>
       <c r="DF3">
-        <v>-0.1126995257224633</v>
+        <v>-0.4238575086816112</v>
       </c>
       <c r="DG3">
-        <v>-0.09808463858444057</v>
+        <v>-0.3693439916306481</v>
       </c>
       <c r="DH3">
-        <v>-0.1125093773064858</v>
+        <v>-0.422866584244469</v>
       </c>
       <c r="DI3">
-        <v>-0.1162098158741152</v>
+        <v>-0.4387176477000747</v>
       </c>
       <c r="DJ3">
-        <v>-0.09808463858478796</v>
+        <v>-0.3693439916323819</v>
       </c>
       <c r="DK3">
-        <v>-0.1125422903621754</v>
+        <v>-0.422895007758894</v>
       </c>
       <c r="DL3">
-        <v>-0.1165616199088629</v>
+        <v>-0.4402090083736553</v>
       </c>
       <c r="DM3">
-        <v>-0.09808463858509153</v>
+        <v>-0.3693439916339224</v>
       </c>
       <c r="DN3">
-        <v>-0.1125846046264678</v>
+        <v>-0.4229315500911482</v>
       </c>
       <c r="DO3">
-        <v>-0.1165848857583142</v>
+        <v>-0.4407135231024871</v>
       </c>
       <c r="DP3">
-        <v>-0.1182362695272526</v>
+        <v>-0.4458817438646488</v>
       </c>
       <c r="DQ3">
-        <v>-0.09808463858512134</v>
+        <v>-0.369343991634066</v>
       </c>
       <c r="DR3">
-        <v>-0.1126149822749538</v>
+        <v>-0.4229577840311453</v>
       </c>
       <c r="DS3">
-        <v>-0.1165848857583164</v>
+        <v>-0.4407135231024895</v>
       </c>
       <c r="DT3">
-        <v>-0.1165962137688569</v>
+        <v>-0.4409591725139346</v>
       </c>
       <c r="DU3">
-        <v>-0.1212572134143216</v>
+        <v>-0.4561225243636727</v>
       </c>
       <c r="DV3">
-        <v>-0.0980846385851442</v>
+        <v>-0.3693439916341767</v>
       </c>
       <c r="DW3">
-        <v>-0.1126579057397188</v>
+        <v>-0.4229948524480762</v>
       </c>
       <c r="DX3">
-        <v>-0.116584885758318</v>
+        <v>-0.4407135231024913</v>
       </c>
       <c r="DY3">
-        <v>-0.1166494290463151</v>
+        <v>-0.4421131882990008</v>
       </c>
       <c r="DZ3">
-        <v>-0.1226161213049151</v>
+        <v>-0.4607323091327394</v>
       </c>
       <c r="EA3">
-        <v>-0.09808463858516922</v>
+        <v>-0.3693439916342797</v>
       </c>
       <c r="EB3">
-        <v>-0.1127043459374167</v>
+        <v>-0.4230349578807618</v>
       </c>
       <c r="EC3">
-        <v>-0.1165848857583187</v>
+        <v>-0.440713523102492</v>
       </c>
       <c r="ED3">
-        <v>-0.1166601472733103</v>
+        <v>-0.4421561769426268</v>
       </c>
       <c r="EE3">
-        <v>-0.1167850413646876</v>
+        <v>-0.445327334271406</v>
       </c>
       <c r="EF3">
-        <v>-0.1230204805446208</v>
+        <v>-0.4621043874252331</v>
       </c>
       <c r="EG3">
-        <v>-0.09808463858524516</v>
+        <v>-0.3693439916346117</v>
       </c>
       <c r="EH3">
-        <v>-0.1127481428717279</v>
+        <v>-0.4230727805987564</v>
       </c>
       <c r="EI3">
-        <v>-0.1165848857583198</v>
+        <v>-0.4407135231024928</v>
       </c>
       <c r="EJ3">
-        <v>-0.1166610703246039</v>
+        <v>-0.4421598791445289</v>
       </c>
       <c r="EK3">
-        <v>-0.1168859302837192</v>
+        <v>-0.4477187965892799</v>
       </c>
       <c r="EL3">
-        <v>-0.1234769479026969</v>
+        <v>-0.4636534903580485</v>
       </c>
       <c r="EM3">
-        <v>-0.09808463858530574</v>
+        <v>-0.3693439916348537</v>
       </c>
       <c r="EN3">
-        <v>-0.1128201522117997</v>
+        <v>-0.4231349673250763</v>
       </c>
       <c r="EO3">
-        <v>-0.1165848857583208</v>
+        <v>-0.4407135231024937</v>
       </c>
       <c r="EP3">
-        <v>-0.1166619760136472</v>
+        <v>-0.4421635117139609</v>
       </c>
       <c r="EQ3">
-        <v>-0.1169534933629068</v>
+        <v>-0.4493204468838649</v>
       </c>
       <c r="ER3">
-        <v>-0.1239062720680961</v>
+        <v>-0.4651106818474994</v>
       </c>
       <c r="ES3">
-        <v>-0.09808463858530872</v>
+        <v>-0.3693439916348898</v>
       </c>
       <c r="ET3">
-        <v>-0.1131625441447979</v>
+        <v>-0.4234306540459289</v>
       </c>
       <c r="EU3">
-        <v>-0.1165848857583225</v>
+        <v>-0.4407135231024946</v>
       </c>
       <c r="EV3">
-        <v>-0.1166627073194622</v>
+        <v>-0.4421664448643065</v>
       </c>
       <c r="EW3">
-        <v>-0.1169684863647867</v>
+        <v>-0.4493826832720199</v>
       </c>
       <c r="EX3">
-        <v>-0.1170517921911693</v>
+        <v>-0.4521973205606457</v>
       </c>
       <c r="EY3">
-        <v>-0.1244072419716079</v>
+        <v>-0.4668112996667673</v>
       </c>
       <c r="EZ3">
-        <v>-0.09808463858531376</v>
+        <v>-0.3693439916348966</v>
       </c>
       <c r="FA3">
-        <v>-0.113237133156903</v>
+        <v>-0.4234950683889974</v>
       </c>
       <c r="FB3">
-        <v>-0.1165848857583241</v>
+        <v>-0.4407135231024944</v>
       </c>
       <c r="FC3">
-        <v>-0.1166638049518434</v>
+        <v>-0.4421708472972885</v>
       </c>
       <c r="FD3">
-        <v>-0.1170082487470537</v>
+        <v>-0.449547738735625</v>
       </c>
       <c r="FE3">
-        <v>-0.117057775431988</v>
+        <v>-0.4523725475497557</v>
       </c>
       <c r="FF3">
-        <v>-0.1245513995618407</v>
+        <v>-0.4673007141829599</v>
       </c>
       <c r="FG3">
-        <v>-0.09808463858532053</v>
+        <v>-0.3693439916349002</v>
       </c>
       <c r="FH3">
-        <v>-0.1133334495704224</v>
+        <v>-0.4235608597966357</v>
       </c>
       <c r="FI3">
-        <v>-0.1134859721736756</v>
+        <v>-0.4237159650669811</v>
       </c>
       <c r="FJ3">
-        <v>-0.1165848857583248</v>
+        <v>-0.440713523102494</v>
       </c>
       <c r="FK3">
-        <v>-0.116665128271051</v>
+        <v>-0.442176154933896</v>
       </c>
       <c r="FL3">
-        <v>-0.1170220604120625</v>
+        <v>-0.4496050718100388</v>
       </c>
       <c r="FM3">
-        <v>-0.1170632414536583</v>
+        <v>-0.4525326389271394</v>
       </c>
       <c r="FN3">
-        <v>-0.1253704336909251</v>
+        <v>-0.4700817551952417</v>
       </c>
       <c r="FO3">
-        <v>-0.09808463858532053</v>
+        <v>-0.3693439916349002</v>
       </c>
       <c r="FP3">
-        <v>-0.113351645844199</v>
+        <v>-0.4235732891271137</v>
       </c>
       <c r="FQ3">
-        <v>-0.1138163366768647</v>
+        <v>-0.4240092322265094</v>
       </c>
       <c r="FR3">
-        <v>-0.1165848857583246</v>
+        <v>-0.4407135231024935</v>
       </c>
       <c r="FS3">
-        <v>-0.1166661280118088</v>
+        <v>-0.4421801647518417</v>
       </c>
       <c r="FT3">
-        <v>-0.1170220604121836</v>
+        <v>-0.4496050718104636</v>
       </c>
       <c r="FU3">
-        <v>-0.1170450723022624</v>
+        <v>-0.4497005930779368</v>
       </c>
       <c r="FV3">
-        <v>-0.1170655121181373</v>
+        <v>-0.4525991465206491</v>
       </c>
       <c r="FW3">
-        <v>-0.1258330679768372</v>
+        <v>-0.4716529539168534</v>
       </c>
       <c r="FX3">
-        <v>-0.1133891889009651</v>
+        <v>-0.4235989335629535</v>
       </c>
       <c r="FY3">
-        <v>-0.1138644902847834</v>
+        <v>-0.4240534915407789</v>
       </c>
       <c r="FZ3">
-        <v>-0.1138363724044285</v>
+        <v>-0.4240229750977085</v>
       </c>
       <c r="GA3">
-        <v>-0.1165848857583238</v>
+        <v>-0.4407135231024925</v>
       </c>
       <c r="GB3">
-        <v>-0.1166672848864669</v>
+        <v>-0.4421848048183681</v>
       </c>
       <c r="GC3">
-        <v>-0.1170220604122015</v>
+        <v>-0.4496050718105327</v>
       </c>
       <c r="GD3">
-        <v>-0.1170475576228139</v>
+        <v>-0.4497109097149425</v>
       </c>
       <c r="GE3">
-        <v>-0.1170704065166087</v>
+        <v>-0.4527425097140761</v>
       </c>
       <c r="GF3">
-        <v>-0.1261765122999317</v>
+        <v>-0.4728195081543248</v>
       </c>
       <c r="GG3">
-        <v>-0.1140539886754065</v>
+        <v>-0.4242276646806041</v>
       </c>
       <c r="GH3">
-        <v>-0.1139192979801641</v>
+        <v>-0.4240798548437811</v>
       </c>
       <c r="GI3">
-        <v>-0.116584885758323</v>
+        <v>-0.4407135231024913</v>
       </c>
       <c r="GJ3">
-        <v>-0.1166683726477221</v>
+        <v>-0.4421891676871944</v>
       </c>
       <c r="GK3">
-        <v>-0.1170220604122165</v>
+        <v>-0.4496050718105454</v>
       </c>
       <c r="GL3">
-        <v>-0.1170220604122182</v>
+        <v>-0.4496050718105539</v>
       </c>
       <c r="GM3">
-        <v>-0.1170499616144106</v>
+        <v>-0.4497208887881615</v>
       </c>
       <c r="GN3">
-        <v>-0.1170828725398958</v>
+        <v>-0.4531076963854548</v>
       </c>
       <c r="GO3">
-        <v>-0.1264852979460065</v>
+        <v>-0.4738684476496641</v>
       </c>
       <c r="GP3">
-        <v>-0.1143923330216735</v>
+        <v>-0.4245386458904652</v>
       </c>
       <c r="GQ3">
-        <v>-0.1139247898643936</v>
+        <v>-0.424085344898705</v>
       </c>
       <c r="GR3">
-        <v>-0.1139254912699155</v>
+        <v>-0.4240831069910389</v>
       </c>
       <c r="GS3">
-        <v>-0.1165848857583229</v>
+        <v>-0.440713523102491</v>
       </c>
       <c r="GT3">
-        <v>-0.1166695430154578</v>
+        <v>-0.4421938618871346</v>
       </c>
       <c r="GU3">
-        <v>-0.1170220604122165</v>
+        <v>-0.4496050718105454</v>
       </c>
       <c r="GV3">
-        <v>-0.1170220604122248</v>
+        <v>-0.4496050718105694</v>
       </c>
       <c r="GW3">
-        <v>-0.1170518845686722</v>
+        <v>-0.4497288710793875</v>
       </c>
       <c r="GX3">
-        <v>-0.1170901863259354</v>
+        <v>-0.4533219778758903</v>
       </c>
       <c r="GY3">
-        <v>-0.1268689147669517</v>
+        <v>-0.4751717298824382</v>
       </c>
       <c r="GZ3">
-        <v>-0.1144100922343627</v>
+        <v>-0.4246878610443758</v>
       </c>
       <c r="HA3">
-        <v>-0.114470449089898</v>
+        <v>-0.4245433533501397</v>
       </c>
       <c r="HB3">
-        <v>-0.1139386747666156</v>
+        <v>-0.4240992251757102</v>
       </c>
       <c r="HC3">
-        <v>-0.1139263666989929</v>
+        <v>-0.4240835666856775</v>
       </c>
       <c r="HD3">
-        <v>-0.1165848857583227</v>
+        <v>-0.4407135231024908</v>
       </c>
       <c r="HE3">
-        <v>-0.116671332157663</v>
+        <v>-0.4422010379293728</v>
       </c>
       <c r="HF3">
-        <v>-0.1170220604122294</v>
+        <v>-0.4496050718105786</v>
       </c>
       <c r="HG3">
-        <v>-0.1170534163545666</v>
+        <v>-0.4497352296245091</v>
       </c>
       <c r="HH3">
-        <v>-0.1170953089408269</v>
+        <v>-0.4534720738222709</v>
       </c>
       <c r="HI3">
-        <v>-0.1275768663978583</v>
+        <v>-0.4775773071180118</v>
       </c>
       <c r="HJ3">
-        <v>-0.1144682215114491</v>
+        <v>-0.4251763331310259</v>
       </c>
       <c r="HK3">
-        <v>-0.1146114359349756</v>
+        <v>-0.4245518495117986</v>
       </c>
       <c r="HL3">
-        <v>-0.113927072708035</v>
+        <v>-0.4240839374164689</v>
       </c>
       <c r="HM3">
-        <v>-0.1165848857583227</v>
+        <v>-0.4407135231024908</v>
       </c>
       <c r="HN3">
-        <v>-0.1166762181205284</v>
+        <v>-0.4422206350505597</v>
       </c>
       <c r="HO3">
-        <v>-0.1170220604122311</v>
+        <v>-0.4496050718105907</v>
       </c>
       <c r="HP3">
-        <v>-0.117056654798837</v>
+        <v>-0.4497486726681122</v>
       </c>
       <c r="HQ3">
-        <v>-0.1171051628239245</v>
+        <v>-0.4537608269053466</v>
       </c>
       <c r="HR3">
-        <v>-0.128194141577738</v>
+        <v>-0.4796752103625681</v>
       </c>
       <c r="HS3">
-        <v>-0.1144932805483108</v>
+        <v>-0.4253869388508048</v>
       </c>
       <c r="HT3">
-        <v>-0.1146617763315046</v>
+        <v>-0.424554883116658</v>
       </c>
       <c r="HU3">
-        <v>-0.1139276369139104</v>
+        <v>-0.424084233685284</v>
       </c>
       <c r="HV3">
-        <v>-0.1166766347139639</v>
+        <v>-0.4422223059723455</v>
       </c>
       <c r="HW3">
-        <v>-0.117022060412237</v>
+        <v>-0.4496050718106117</v>
       </c>
       <c r="HX3">
-        <v>-0.1170592051542818</v>
+        <v>-0.4497592594434648</v>
       </c>
       <c r="HY3">
-        <v>-0.1171100674639115</v>
+        <v>-0.453904563621159</v>
       </c>
       <c r="HZ3">
-        <v>-0.1286140695487308</v>
+        <v>-0.4811026330947771</v>
       </c>
       <c r="IA3">
-        <v>-0.1152285871400268</v>
+        <v>-0.4245890417318494</v>
       </c>
       <c r="IB3">
-        <v>-0.1146617763315046</v>
+        <v>-0.424554883116658</v>
       </c>
       <c r="IC3">
-        <v>-0.1139284981798602</v>
+        <v>-0.4240846859425405</v>
       </c>
       <c r="ID3">
-        <v>-0.1166768271345941</v>
+        <v>-0.4422230777558917</v>
       </c>
       <c r="IE3">
-        <v>-0.1170220604122342</v>
+        <v>-0.4496050718106309</v>
       </c>
       <c r="IF3">
-        <v>-0.1170609742096743</v>
+        <v>-0.4497666029885232</v>
       </c>
       <c r="IG3">
-        <v>-0.1171135500678246</v>
+        <v>-0.4540066312843543</v>
       </c>
       <c r="IH3">
-        <v>-0.1288899388531825</v>
+        <v>-0.4820404734755085</v>
       </c>
       <c r="II3">
-        <v>-0.1153109126703891</v>
+        <v>-0.4245940023550214</v>
       </c>
       <c r="IJ3">
-        <v>-0.1139295077575183</v>
+        <v>-0.4240852160792888</v>
       </c>
       <c r="IK3">
-        <v>-0.1166770329517705</v>
+        <v>-0.4422239032721203</v>
       </c>
       <c r="IL3">
-        <v>-0.1170220604122232</v>
+        <v>-0.4496050718106414</v>
       </c>
       <c r="IM3">
-        <v>-0.1170627390521043</v>
+        <v>-0.4497739290637115</v>
       </c>
       <c r="IN3">
-        <v>-0.1171533899626847</v>
+        <v>-0.4551745797991573</v>
       </c>
       <c r="IO3">
-        <v>-0.1294836904334531</v>
+        <v>-0.4840592581591652</v>
       </c>
       <c r="IP3">
-        <v>-0.1153257774426893</v>
+        <v>-0.4245940023550219</v>
       </c>
       <c r="IQ3">
-        <v>-0.1155487612287559</v>
+        <v>-0.4246092289023027</v>
       </c>
       <c r="IR3">
-        <v>-0.1139310584097502</v>
+        <v>-0.4240860303381014</v>
       </c>
       <c r="IS3">
-        <v>-0.1166772296191622</v>
+        <v>-0.4422246920895186</v>
       </c>
       <c r="IT3">
-        <v>-0.1170220604122331</v>
+        <v>-0.4496050718106565</v>
       </c>
       <c r="IU3">
-        <v>-0.1170653209404538</v>
+        <v>-0.4497846468291677</v>
       </c>
       <c r="IV3">
-        <v>-0.1171651382338048</v>
+        <v>-0.4555191074441567</v>
       </c>
       <c r="IW3">
-        <v>-0.1296887751639376</v>
+        <v>-0.4841160330023661</v>
       </c>
       <c r="IX3">
-        <v>-0.1298448626836717</v>
+        <v>-0.4853872750939089</v>
       </c>
       <c r="IY3">
-        <v>-0.1139367327506176</v>
+        <v>-0.4240890099736042</v>
       </c>
       <c r="IZ3">
-        <v>-0.1166774487150871</v>
+        <v>-0.4422255708662379</v>
       </c>
       <c r="JA3">
-        <v>-0.117022060412241</v>
+        <v>-0.4496050718106726</v>
       </c>
       <c r="JB3">
-        <v>-0.1170750315784799</v>
+        <v>-0.4498249573483005</v>
       </c>
       <c r="JC3">
-        <v>-0.1171677666795109</v>
+        <v>-0.455596195914533</v>
       </c>
       <c r="JD3">
-        <v>-0.1297171265432679</v>
+        <v>-0.4841238813835135</v>
       </c>
       <c r="JE3">
-        <v>-0.1311993583363758</v>
+        <v>-0.4903692111180958</v>
       </c>
       <c r="JF3">
-        <v>-0.1139643499810316</v>
+        <v>-0.4241035119193092</v>
       </c>
       <c r="JG3">
-        <v>-0.1166779009598632</v>
+        <v>-0.4422273847857103</v>
       </c>
       <c r="JH3">
-        <v>-0.1170220604122556</v>
+        <v>-0.4496050718106886</v>
       </c>
       <c r="JI3">
-        <v>-0.1170772980570486</v>
+        <v>-0.4498343659693863</v>
       </c>
       <c r="JJ3">
-        <v>-0.1171961570446786</v>
+        <v>-0.4565678443371923</v>
       </c>
       <c r="JK3">
-        <v>-0.1171690662343684</v>
+        <v>-0.455629546495201</v>
       </c>
       <c r="JL3">
-        <v>-0.1297301608372818</v>
+        <v>-0.4841274895821792</v>
       </c>
       <c r="JM3">
-        <v>-0.1312950167401629</v>
+        <v>-0.49038155686826</v>
       </c>
       <c r="JN3">
-        <v>-0.131634266390627</v>
+        <v>-0.4920408091388048</v>
       </c>
       <c r="JO3">
-        <v>-0.1166783719699935</v>
+        <v>-0.4422292739727962</v>
       </c>
       <c r="JP3">
-        <v>-0.1170220604122674</v>
+        <v>-0.4496050718106886</v>
       </c>
       <c r="JQ3">
-        <v>-0.1170783363906985</v>
+        <v>-0.4498386763172615</v>
       </c>
       <c r="JR3">
-        <v>-0.1172242932461919</v>
+        <v>-0.4575312063308332</v>
       </c>
       <c r="JS3">
-        <v>-0.1171705898816417</v>
+        <v>-0.4556686485978259</v>
       </c>
       <c r="JT3">
-        <v>-0.1297456419439919</v>
+        <v>-0.4841317750958994</v>
       </c>
       <c r="JU3">
-        <v>-0.1313019702186966</v>
+        <v>-0.4903824542714735</v>
       </c>
       <c r="JV3">
-        <v>-0.1332110161520308</v>
+        <v>-0.4981034325220418</v>
       </c>
       <c r="JW3">
-        <v>-0.1166801630548013</v>
+        <v>-0.4422364578937442</v>
       </c>
       <c r="JX3">
-        <v>-0.1170220604122651</v>
+        <v>-0.4496050718106808</v>
       </c>
       <c r="JY3">
-        <v>-0.1170790190169227</v>
+        <v>-0.4498415100500684</v>
       </c>
       <c r="JZ3">
-        <v>-0.1171719668358116</v>
+        <v>-0.4557039866197563</v>
       </c>
       <c r="KA3">
-        <v>-0.1297695276528448</v>
+        <v>-0.4841383871469767</v>
       </c>
       <c r="KB3">
-        <v>-0.1313077015098268</v>
+        <v>-0.4903831939395518</v>
       </c>
       <c r="KC3">
-        <v>-0.1333664196276415</v>
+        <v>-0.4991370481147994</v>
       </c>
       <c r="KD3">
-        <v>-0.1335003212037711</v>
+        <v>-0.4989949569612321</v>
       </c>
       <c r="KE3">
-        <v>-0.1166896722041513</v>
+        <v>-0.4422745987495378</v>
       </c>
       <c r="KF3">
-        <v>-0.1170220604122651</v>
+        <v>-0.4496050718106808</v>
       </c>
       <c r="KG3">
-        <v>-0.1170790190169246</v>
+        <v>-0.4498490909783712</v>
       </c>
       <c r="KH3">
-        <v>-0.1170796105133964</v>
+        <v>-0.4498430304374423</v>
       </c>
       <c r="KI3">
-        <v>-0.1171733614159939</v>
+        <v>-0.4557397775514188</v>
       </c>
       <c r="KJ3">
-        <v>-0.1297908117188458</v>
+        <v>-0.4841442789663818</v>
       </c>
       <c r="KK3">
-        <v>-0.131315842392589</v>
+        <v>-0.4903842445814351</v>
       </c>
       <c r="KL3">
-        <v>-0.1334379502317711</v>
+        <v>-0.4996128773118196</v>
       </c>
       <c r="KM3">
-        <v>-0.1347129071977957</v>
+        <v>-0.5027324399770782</v>
       </c>
       <c r="KN3">
-        <v>-0.1170790190169253</v>
+        <v>-0.4498525733445136</v>
       </c>
       <c r="KO3">
-        <v>-0.1170800291366566</v>
+        <v>-0.4498441064704848</v>
       </c>
       <c r="KP3">
-        <v>-0.11717486087264</v>
+        <v>-0.4557782606905247</v>
       </c>
       <c r="KQ3">
-        <v>-0.1298073597406752</v>
+        <v>-0.4841488597334057</v>
       </c>
       <c r="KR3">
-        <v>-0.1313524079390602</v>
+        <v>-0.4903889635971173</v>
       </c>
       <c r="KS3">
-        <v>-0.1339052627994282</v>
+        <v>-0.5027225251714144</v>
       </c>
       <c r="KT3">
-        <v>-0.1349805982416542</v>
+        <v>-0.503557695957025</v>
       </c>
       <c r="KU3">
-        <v>-0.1170790190169261</v>
+        <v>-0.449858467197954</v>
       </c>
       <c r="KV3">
-        <v>-0.1170805162908614</v>
+        <v>-0.4498453586565002</v>
       </c>
       <c r="KW3">
-        <v>-0.1171835569090984</v>
+        <v>-0.4560014548426941</v>
       </c>
       <c r="KX3">
-        <v>-0.129827958054298</v>
+        <v>-0.4841545616534631</v>
       </c>
       <c r="KY3">
-        <v>-0.1313594472644987</v>
+        <v>-0.4903898720588423</v>
       </c>
       <c r="KZ3">
-        <v>-0.1339401691866588</v>
+        <v>-0.5029548755515226</v>
       </c>
       <c r="LA3">
-        <v>-0.1350695486173989</v>
+        <v>-0.5038319315791084</v>
       </c>
       <c r="LB3">
-        <v>-0.1170790190169263</v>
+        <v>-0.449869780111158</v>
       </c>
       <c r="LC3">
-        <v>-0.1170814480613517</v>
+        <v>-0.4498477536898478</v>
       </c>
       <c r="LD3">
-        <v>-0.1172203382350752</v>
+        <v>-0.4569457327756654</v>
       </c>
       <c r="LE3">
-        <v>-0.1298492629195557</v>
+        <v>-0.4841604591167734</v>
       </c>
       <c r="LF3">
-        <v>-0.1313646593207881</v>
+        <v>-0.4903905447003017</v>
       </c>
       <c r="LG3">
-        <v>-0.1339564139571766</v>
+        <v>-0.5031440085538028</v>
       </c>
       <c r="LH3">
-        <v>-0.1344256320580412</v>
+        <v>-0.5054186373159478</v>
       </c>
       <c r="LI3">
-        <v>-0.1351159748677636</v>
+        <v>-0.5039750672086502</v>
       </c>
       <c r="LJ3">
-        <v>-0.1170790190169263</v>
+        <v>-0.449903087572282</v>
       </c>
       <c r="LK3">
-        <v>-0.1170850215669059</v>
+        <v>-0.449856939083532</v>
       </c>
       <c r="LL3">
-        <v>-0.1298743934301173</v>
+        <v>-0.4841674155150869</v>
       </c>
       <c r="LM3">
-        <v>-0.1313706630599305</v>
+        <v>-0.4903913195105948</v>
       </c>
       <c r="LN3">
-        <v>-0.1340400813279408</v>
+        <v>-0.504118358838228</v>
       </c>
       <c r="LO3">
-        <v>-0.1346586238067207</v>
+        <v>-0.5066014672620943</v>
       </c>
       <c r="LP3">
-        <v>-0.1351557174065866</v>
+        <v>-0.5040975978996899</v>
       </c>
       <c r="LQ3">
-        <v>-0.1170972166295161</v>
+        <v>-0.4498882856369992</v>
       </c>
       <c r="LR3">
-        <v>-0.1298887146051599</v>
+        <v>-0.4841713797461094</v>
       </c>
       <c r="LS3">
-        <v>-0.13137661869896</v>
+        <v>-0.4903920881115214</v>
       </c>
       <c r="LT3">
-        <v>-0.1340692919481114</v>
+        <v>-0.5044586249481019</v>
       </c>
       <c r="LU3">
-        <v>-0.1346843059982733</v>
+        <v>-0.5067570524517661</v>
       </c>
       <c r="LV3">
-        <v>-0.1350916056397598</v>
+        <v>-0.5087845475275404</v>
       </c>
       <c r="LW3">
-        <v>-0.1352009176684391</v>
+        <v>-0.5042369569845382</v>
       </c>
       <c r="LX3">
-        <v>-0.1299534130789137</v>
+        <v>-0.4841892886364692</v>
       </c>
       <c r="LY3">
-        <v>-0.1314289403432402</v>
+        <v>-0.4903988403674123</v>
       </c>
       <c r="LZ3">
-        <v>-0.1341328683139584</v>
+        <v>-0.5051993744882664</v>
       </c>
       <c r="MA3">
-        <v>-0.1346944775025751</v>
+        <v>-0.5068186749527873</v>
       </c>
       <c r="MB3">
-        <v>-0.1351490320274654</v>
+        <v>-0.5088361066475244</v>
       </c>
       <c r="MC3">
-        <v>-0.1351615895905664</v>
+        <v>-0.5091736362403727</v>
       </c>
       <c r="MD3">
-        <v>-0.1352365278792947</v>
+        <v>-0.5043467497422164</v>
       </c>
       <c r="ME3">
-        <v>-0.1299785928974719</v>
+        <v>-0.4841962584442271</v>
       </c>
       <c r="MF3">
-        <v>-0.1315358966787777</v>
+        <v>-0.4904126429477181</v>
       </c>
       <c r="MG3">
-        <v>-0.1341557135336185</v>
+        <v>-0.5057878421737578</v>
       </c>
       <c r="MH3">
-        <v>-0.1341466403030055</v>
+        <v>-0.5052082760313391</v>
       </c>
       <c r="MI3">
-        <v>-0.1351779039791184</v>
+        <v>-0.5088620286924032</v>
       </c>
       <c r="MJ3">
-        <v>-0.1352215461841521</v>
+        <v>-0.5095069975931739</v>
       </c>
       <c r="MK3">
-        <v>-0.1352663834094071</v>
+        <v>-0.5044388005988387</v>
       </c>
       <c r="ML3">
-        <v>-0.1299873404104267</v>
+        <v>-0.484198679754067</v>
       </c>
       <c r="MM3">
-        <v>-0.1341898973183765</v>
+        <v>-0.506668662052953</v>
       </c>
       <c r="MN3">
-        <v>-0.1341485579286551</v>
+        <v>-0.505209515489609</v>
       </c>
       <c r="MO3">
-        <v>-0.1351805908168478</v>
+        <v>-0.508864441008597</v>
       </c>
       <c r="MP3">
-        <v>-0.1352637205292545</v>
+        <v>-0.5097415007812638</v>
       </c>
       <c r="MQ3">
-        <v>-0.1352933226416598</v>
+        <v>-0.5045218605449189</v>
       </c>
       <c r="MR3">
-        <v>-0.1299939305206706</v>
+        <v>-0.4842005038906518</v>
       </c>
       <c r="MS3">
-        <v>-0.1341506406068339</v>
+        <v>-0.5052108616292259</v>
       </c>
       <c r="MT3">
-        <v>-0.1351817004482917</v>
+        <v>-0.5088654372658822</v>
       </c>
       <c r="MU3">
-        <v>-0.1353170092491091</v>
+        <v>-0.5100378176347433</v>
       </c>
       <c r="MV3">
-        <v>-0.1353156185732643</v>
+        <v>-0.5045906045746112</v>
       </c>
       <c r="MW3">
-        <v>-0.1299987521590931</v>
+        <v>-0.484201838513314</v>
       </c>
       <c r="MX3">
-        <v>-0.1341524648849486</v>
+        <v>-0.5052120407515177</v>
       </c>
       <c r="MY3">
-        <v>-0.135182483408636</v>
+        <v>-0.5088661402289401</v>
       </c>
       <c r="MZ3">
-        <v>-0.1353503998364697</v>
+        <v>-0.5102234971038754</v>
       </c>
       <c r="NA3">
-        <v>-0.1353414832548965</v>
+        <v>-0.504670352495346</v>
       </c>
       <c r="NB3">
-        <v>-0.1300012006184249</v>
+        <v>-0.4842025162425653</v>
       </c>
       <c r="NC3">
-        <v>-0.1341544031821199</v>
+        <v>-0.5052132935696549</v>
       </c>
       <c r="ND3">
-        <v>-0.1351832842556976</v>
+        <v>-0.5088668592511504</v>
       </c>
       <c r="NE3">
-        <v>-0.1354016751482606</v>
+        <v>-0.5105086425649089</v>
       </c>
       <c r="NF3">
-        <v>-0.1353699104483012</v>
+        <v>-0.5047580019966604</v>
       </c>
       <c r="NG3">
-        <v>-0.1300048003784042</v>
+        <v>-0.4842035126488248</v>
       </c>
       <c r="NH3">
-        <v>-0.1341571695500139</v>
+        <v>-0.505215081610524</v>
       </c>
       <c r="NI3">
-        <v>-0.1351842291984095</v>
+        <v>-0.5088677076463081</v>
       </c>
       <c r="NJ3">
-        <v>-0.1354527911920756</v>
+        <v>-0.5107929168326857</v>
       </c>
       <c r="NK3">
-        <v>-0.1355248873253501</v>
+        <v>-0.5052358538717049</v>
       </c>
       <c r="NL3">
-        <v>-0.1300108347650381</v>
+        <v>-0.4842051829521478</v>
       </c>
       <c r="NM3">
-        <v>-0.1341605325820271</v>
+        <v>-0.5052172553039521</v>
       </c>
       <c r="NN3">
-        <v>-0.1351854211767475</v>
+        <v>-0.5088687778366886</v>
       </c>
       <c r="NO3">
-        <v>-0.1355101456644136</v>
+        <v>-0.511111902436844</v>
       </c>
       <c r="NP3">
-        <v>-0.136624278508608</v>
+        <v>-0.508756217723317</v>
       </c>
       <c r="NQ3">
-        <v>-0.1355565427981071</v>
+        <v>-0.5052734878001818</v>
       </c>
       <c r="NR3">
-        <v>-0.1300377509393507</v>
+        <v>-0.4842126332422506</v>
       </c>
       <c r="NS3">
-        <v>-0.1341813778439316</v>
+        <v>-0.5052307285983221</v>
       </c>
       <c r="NT3">
-        <v>-0.1351864887099084</v>
+        <v>-0.5088697362967733</v>
       </c>
       <c r="NU3">
-        <v>-0.135551649827418</v>
+        <v>-0.5113427455137677</v>
       </c>
       <c r="NV3">
-        <v>-0.1376773937784276</v>
+        <v>-0.512129453629925</v>
       </c>
       <c r="NW3">
-        <v>-0.1357509216858621</v>
+        <v>-0.5055045793494526</v>
       </c>
       <c r="NX3">
-        <v>-0.1355565427980762</v>
+        <v>-0.5052734878002176</v>
       </c>
       <c r="NY3">
-        <v>-0.1301366968778573</v>
+        <v>-0.4842400205162894</v>
       </c>
       <c r="NZ3">
-        <v>-0.134252706217652</v>
+        <v>-0.5052768312106157</v>
       </c>
       <c r="OA3">
-        <v>-0.1351873334223969</v>
+        <v>-0.5088704947024121</v>
       </c>
       <c r="OB3">
-        <v>-0.1356011194713217</v>
+        <v>-0.5116179044815011</v>
       </c>
       <c r="OC3">
-        <v>-0.1377242788705376</v>
+        <v>-0.5122796553228637</v>
       </c>
       <c r="OD3">
-        <v>-0.1358219666370878</v>
+        <v>-0.5055890436418862</v>
       </c>
       <c r="OE3">
-        <v>-0.1355565427979121</v>
+        <v>-0.5052734878004078</v>
       </c>
       <c r="OF3">
-        <v>-0.1351887831529883</v>
+        <v>-0.5088717963095422</v>
       </c>
       <c r="OG3">
-        <v>-0.1356729001121494</v>
+        <v>-0.5120171853173447</v>
       </c>
       <c r="OH3">
-        <v>-0.1378646647650407</v>
+        <v>-0.5123488186564664</v>
       </c>
       <c r="OI3">
-        <v>-0.1385009763334739</v>
+        <v>-0.5149921707434411</v>
       </c>
       <c r="OJ3">
-        <v>-0.1358291982112066</v>
+        <v>-0.505597641182406</v>
       </c>
       <c r="OK3">
-        <v>-0.1355565427978996</v>
+        <v>-0.5052734878004214</v>
       </c>
       <c r="OL3">
-        <v>-0.1351938440136534</v>
+        <v>-0.5088763400857137</v>
       </c>
       <c r="OM3">
-        <v>-0.1357261174178607</v>
+        <v>-0.5123132257821718</v>
       </c>
       <c r="ON3">
-        <v>-0.1378775281879399</v>
+        <v>-0.5123551559130101</v>
       </c>
       <c r="OO3">
-        <v>-0.1388757173826526</v>
+        <v>-0.5163011524246223</v>
       </c>
       <c r="OP3">
-        <v>-0.1358342449180116</v>
+        <v>-0.5056036411608963</v>
       </c>
       <c r="OQ3">
-        <v>-0.1355565427978952</v>
+        <v>-0.5052734878004271</v>
       </c>
       <c r="OR3">
-        <v>-0.1352247844978078</v>
+        <v>-0.5089041192570819</v>
       </c>
       <c r="OS3">
-        <v>-0.1357774546413447</v>
+        <v>-0.5125988224954908</v>
       </c>
       <c r="OT3">
-        <v>-0.1378848408119628</v>
+        <v>-0.5123587585206965</v>
       </c>
       <c r="OU3">
-        <v>-0.1400063648203492</v>
+        <v>-0.5202515125202781</v>
       </c>
       <c r="OV3">
-        <v>-0.1388757173826292</v>
+        <v>-0.5163011524247995</v>
       </c>
       <c r="OW3">
-        <v>-0.1358394728701258</v>
+        <v>-0.5056098566228402</v>
       </c>
       <c r="OX3">
-        <v>-0.1355565427978928</v>
+        <v>-0.5052734878004297</v>
       </c>
       <c r="OY3">
-        <v>-0.1358276988654667</v>
+        <v>-0.5128783528427645</v>
       </c>
       <c r="OZ3">
-        <v>-0.1378898062732893</v>
+        <v>-0.5123612047812547</v>
       </c>
       <c r="PA3">
-        <v>-0.1416169775514953</v>
+        <v>-0.5258813493776072</v>
       </c>
       <c r="PB3">
-        <v>-0.1388757173826236</v>
+        <v>-0.5163011524248432</v>
       </c>
       <c r="PC3">
-        <v>-0.1358614273542187</v>
+        <v>-0.5056359581281574</v>
       </c>
       <c r="PD3">
-        <v>-0.1355565427978872</v>
+        <v>-0.5052734878004321</v>
       </c>
       <c r="PE3">
-        <v>-0.1358881258579292</v>
+        <v>-0.5132145528813492</v>
       </c>
       <c r="PF3">
-        <v>-0.137897898685188</v>
+        <v>-0.5123651915443849</v>
       </c>
       <c r="PG3">
-        <v>-0.1419540602916162</v>
+        <v>-0.5270599859149926</v>
       </c>
       <c r="PH3">
-        <v>-0.1388757173826193</v>
+        <v>-0.5163011524248691</v>
       </c>
       <c r="PI3">
-        <v>-0.1358667881576457</v>
+        <v>-0.5056423315506845</v>
       </c>
       <c r="PJ3">
-        <v>-0.1355565427978199</v>
+        <v>-0.5052734878004527</v>
       </c>
       <c r="PK3">
-        <v>-0.1359893317396849</v>
+        <v>-0.5137776814059232</v>
       </c>
       <c r="PL3">
-        <v>-0.1358881258579292</v>
+        <v>-0.5132145528813491</v>
       </c>
       <c r="PM3">
-        <v>-0.1379247985717982</v>
+        <v>-0.5123784438408815</v>
       </c>
       <c r="PN3">
-        <v>-0.1420402171437465</v>
+        <v>-0.5273612610925807</v>
       </c>
       <c r="PO3">
-        <v>-0.1388757173826117</v>
+        <v>-0.5163011524248986</v>
       </c>
       <c r="PP3">
-        <v>-0.1358719017930292</v>
+        <v>-0.5056484111195526</v>
       </c>
       <c r="PQ3">
-        <v>-0.1355565427977974</v>
+        <v>-0.5052734878004604</v>
       </c>
       <c r="PR3">
-        <v>-0.136330708183765</v>
+        <v>-0.5156775831995473</v>
       </c>
       <c r="PS3">
-        <v>-0.1359893317396849</v>
+        <v>-0.5137776814059232</v>
       </c>
       <c r="PT3">
-        <v>-0.1379547469670204</v>
+        <v>-0.5123931978957044</v>
       </c>
       <c r="PU3">
-        <v>-0.1420853538662904</v>
+        <v>-0.5275190995763334</v>
       </c>
       <c r="PV3">
-        <v>-0.1388757173826074</v>
+        <v>-0.5163011524249219</v>
       </c>
       <c r="PW3">
-        <v>-0.1358769876268529</v>
+        <v>-0.5056544576379738</v>
       </c>
       <c r="PX3">
-        <v>-0.1355565427977897</v>
+        <v>-0.5052734878004627</v>
       </c>
       <c r="PY3">
-        <v>-0.1368135934381612</v>
+        <v>-0.5183661451031636</v>
       </c>
       <c r="PZ3">
-        <v>-0.136330708183765</v>
+        <v>-0.5156775831995473</v>
       </c>
       <c r="QA3">
-        <v>-0.1379715900067154</v>
+        <v>-0.5124014955618508</v>
       </c>
       <c r="QB3">
-        <v>-0.1421227718826871</v>
+        <v>-0.5276499483088103</v>
       </c>
       <c r="QC3">
-        <v>-0.1388757173825976</v>
+        <v>-0.5163011524249397</v>
       </c>
       <c r="QD3">
-        <v>-0.135882821748281</v>
+        <v>-0.5056613937944607</v>
       </c>
       <c r="QE3">
-        <v>-0.1355565427977768</v>
+        <v>-0.5052734878004645</v>
       </c>
       <c r="QF3">
-        <v>-0.1371601226912964</v>
+        <v>-0.5202963154376924</v>
       </c>
       <c r="QG3">
-        <v>-0.1368135934381612</v>
+        <v>-0.5183661451031636</v>
       </c>
       <c r="QH3">
-        <v>-0.1379874123744708</v>
+        <v>-0.5124092903679731</v>
       </c>
       <c r="QI3">
-        <v>-0.1421530972372149</v>
+        <v>-0.5277559955734342</v>
       </c>
       <c r="QJ3">
-        <v>-0.1388757173825886</v>
+        <v>-0.5163011524249557</v>
       </c>
       <c r="QK3">
-        <v>-0.1359029696620087</v>
+        <v>-0.505685347570595</v>
       </c>
       <c r="QL3">
-        <v>-0.1355565427977667</v>
+        <v>-0.505273487800468</v>
       </c>
       <c r="QM3">
-        <v>-0.1372652647774956</v>
+        <v>-0.52088208953188</v>
       </c>
       <c r="QN3">
-        <v>-0.1371601226912964</v>
+        <v>-0.5202963154376924</v>
       </c>
       <c r="QO3">
-        <v>-0.1380025083256167</v>
+        <v>-0.5124167272821646</v>
       </c>
       <c r="QP3">
-        <v>-0.1421994518624683</v>
+        <v>-0.5279180989719446</v>
       </c>
       <c r="QQ3">
-        <v>-0.1388757173825766</v>
+        <v>-0.5163011524249681</v>
       </c>
       <c r="QR3">
-        <v>-0.1360011570504213</v>
+        <v>-0.5058020827681066</v>
       </c>
       <c r="QS3">
-        <v>-0.1355565427977579</v>
+        <v>-0.505273487800473</v>
       </c>
       <c r="QT3">
-        <v>-0.137512130791795</v>
+        <v>-0.522602732226994</v>
       </c>
       <c r="QU3">
-        <v>-0.1372652647774956</v>
+        <v>-0.5208820895318801</v>
       </c>
       <c r="QV3">
-        <v>-0.1373168646397862</v>
+        <v>-0.5208928491611468</v>
       </c>
       <c r="QW3">
-        <v>-0.1380272938508663</v>
+        <v>-0.5124289376405509</v>
       </c>
       <c r="QX3">
-        <v>-0.1422412400921506</v>
+        <v>-0.5280642356720973</v>
       </c>
       <c r="QY3">
-        <v>-0.1388757173825697</v>
+        <v>-0.5163011524249744</v>
       </c>
       <c r="QZ3">
-        <v>-0.1355565427977497</v>
+        <v>-0.5052734878004765</v>
       </c>
       <c r="RA3">
-        <v>-0.1377864261761449</v>
+        <v>-0.5245152052652617</v>
       </c>
       <c r="RB3">
-        <v>-0.137512130791795</v>
+        <v>-0.522602732226994</v>
       </c>
       <c r="RC3">
-        <v>-0.137512130791795</v>
+        <v>-0.5226027322269939</v>
       </c>
       <c r="RD3">
-        <v>-0.1373244002616114</v>
+        <v>-0.520894420476029</v>
       </c>
       <c r="RE3">
-        <v>-0.1380445576060861</v>
+        <v>-0.5124374424275298</v>
       </c>
       <c r="RF3">
-        <v>-0.1422810123981888</v>
+        <v>-0.5282033243904062</v>
       </c>
       <c r="RG3">
-        <v>-0.1388757173825695</v>
+        <v>-0.5163011524249704</v>
       </c>
       <c r="RH3">
-        <v>-0.1355565427977088</v>
+        <v>-0.5052734878004982</v>
       </c>
       <c r="RI3">
-        <v>-0.137886945576666</v>
+        <v>-0.5252162290509471</v>
       </c>
       <c r="RJ3">
-        <v>-0.1377864261761449</v>
+        <v>-0.5245152052652617</v>
       </c>
       <c r="RK3">
-        <v>-0.137328509250009</v>
+        <v>-0.5208952772734103</v>
       </c>
       <c r="RL3">
-        <v>-0.1380566875819857</v>
+        <v>-0.5124434180978759</v>
       </c>
       <c r="RM3">
-        <v>-0.1423258185666907</v>
+        <v>-0.5283600193275586</v>
       </c>
       <c r="RN3">
-        <v>-0.1388757173825695</v>
+        <v>-0.5163011524249624</v>
       </c>
       <c r="RO3">
-        <v>-0.1355565427977061</v>
+        <v>-0.5052734878004995</v>
       </c>
       <c r="RP3">
-        <v>-0.1380208472455298</v>
+        <v>-0.5254835985663451</v>
       </c>
       <c r="RQ3">
-        <v>-0.137886945576666</v>
+        <v>-0.5252162290509471</v>
       </c>
       <c r="RR3">
-        <v>-0.1380915000469511</v>
+        <v>-0.5283742184822808</v>
       </c>
       <c r="RS3">
-        <v>-0.1373312927717224</v>
+        <v>-0.5208958576866223</v>
       </c>
       <c r="RT3">
-        <v>-0.1380624833806319</v>
+        <v>-0.5124462733146169</v>
       </c>
       <c r="RU3">
-        <v>-0.142373148589533</v>
+        <v>-0.5285255431219819</v>
       </c>
       <c r="RV3">
-        <v>-0.1388757173825688</v>
+        <v>-0.5163011524249511</v>
       </c>
       <c r="RW3">
-        <v>-0.1355565427977059</v>
+        <v>-0.5052734878004995</v>
       </c>
       <c r="RX3">
-        <v>-0.1382127667218092</v>
+        <v>-0.5258668293127765</v>
       </c>
       <c r="RY3">
-        <v>-0.1380208472455298</v>
+        <v>-0.5254835985663451</v>
       </c>
       <c r="RZ3">
-        <v>-0.1380947530251913</v>
+        <v>-0.5283877476283426</v>
       </c>
       <c r="SA3">
-        <v>-0.1381496447216678</v>
+        <v>-0.529531561084206</v>
       </c>
       <c r="SB3">
-        <v>-0.1373355207692268</v>
+        <v>-0.5208967392973129</v>
       </c>
       <c r="SC3">
-        <v>-0.1380661548681029</v>
+        <v>-0.5124480820180684</v>
       </c>
       <c r="SD3">
-        <v>-0.142476635459645</v>
+        <v>-0.5288874690643057</v>
       </c>
       <c r="SE3">
-        <v>-0.1388757173825723</v>
+        <v>-0.5163011524249342</v>
       </c>
       <c r="SF3">
-        <v>-0.135556542797705</v>
+        <v>-0.505273487800499</v>
       </c>
       <c r="SG3">
-        <v>-0.1383298926633031</v>
+        <v>-0.5261007178801455</v>
       </c>
       <c r="SH3">
-        <v>-0.1382127667218092</v>
+        <v>-0.5258668293127765</v>
       </c>
       <c r="SI3">
-        <v>-0.1380961279834282</v>
+        <v>-0.5283934661027467</v>
       </c>
       <c r="SJ3">
-        <v>-0.1381868514984563</v>
+        <v>-0.5302724486796152</v>
       </c>
       <c r="SK3">
-        <v>-0.1373419371883418</v>
+        <v>-0.520898077229229</v>
       </c>
       <c r="SL3">
-        <v>-0.1380686372494289</v>
+        <v>-0.5124493049252703</v>
       </c>
       <c r="SM3">
-        <v>-0.1448241308648829</v>
+        <v>-0.5371006958980267</v>
       </c>
       <c r="SN3">
-        <v>-0.1388757173825745</v>
+        <v>-0.5163011524249239</v>
       </c>
       <c r="SO3">
-        <v>-0.135556542797705</v>
+        <v>-0.505273487800499</v>
       </c>
       <c r="SP3">
-        <v>-0.138350063244732</v>
+        <v>-0.5261409970771405</v>
       </c>
       <c r="SQ3">
-        <v>-0.1383298926633031</v>
+        <v>-0.5261007178801457</v>
       </c>
       <c r="SR3">
-        <v>-0.1380969358823228</v>
+        <v>-0.5283968261731052</v>
       </c>
       <c r="SS3">
-        <v>-0.137346489437125</v>
+        <v>-0.5208990264482203</v>
       </c>
       <c r="ST3">
-        <v>-0.1380720998757482</v>
+        <v>-0.5124510107340052</v>
       </c>
       <c r="SU3">
-        <v>-0.1456404840454599</v>
+        <v>-0.5371006958980262</v>
       </c>
       <c r="SV3">
-        <v>-0.1450223796651582</v>
+        <v>-0.5383641465080641</v>
       </c>
       <c r="SW3">
-        <v>-0.1388757173825824</v>
+        <v>-0.5163011524249229</v>
       </c>
       <c r="SX3">
-        <v>-0.1383956233460299</v>
+        <v>-0.5262065258873412</v>
       </c>
       <c r="SY3">
-        <v>-0.138350063244732</v>
+        <v>-0.5261409970771405</v>
       </c>
       <c r="SZ3">
-        <v>-0.1383760452778239</v>
+        <v>-0.526267811418497</v>
       </c>
       <c r="TA3">
-        <v>-0.1380976793927038</v>
+        <v>-0.5283999184535827</v>
       </c>
       <c r="TB3">
-        <v>-0.1373495995929553</v>
+        <v>-0.5208996749661386</v>
       </c>
       <c r="TC3">
-        <v>-0.1380747425830701</v>
+        <v>-0.5124523126215411</v>
       </c>
       <c r="TD3">
-        <v>-0.1463606493553947</v>
+        <v>-0.5371006958980262</v>
       </c>
       <c r="TE3">
-        <v>-0.1451293314573141</v>
+        <v>-0.5390458295467424</v>
       </c>
       <c r="TF3">
-        <v>-0.1388757173825889</v>
+        <v>-0.5163011524249201</v>
       </c>
       <c r="TG3">
-        <v>-0.1384291613001988</v>
+        <v>-0.5262547635006686</v>
       </c>
       <c r="TH3">
-        <v>-0.1383956233460299</v>
+        <v>-0.5262065258873413</v>
       </c>
       <c r="TI3">
-        <v>-0.1383913987416519</v>
+        <v>-0.5263427520747972</v>
       </c>
       <c r="TJ3">
-        <v>-0.1380983417981645</v>
+        <v>-0.5284026734192152</v>
       </c>
       <c r="TK3">
-        <v>-0.1373520572295286</v>
+        <v>-0.5209001874226967</v>
       </c>
       <c r="TL3">
-        <v>-0.1380936016191091</v>
+        <v>-0.5124616032011937</v>
       </c>
       <c r="TM3">
-        <v>-0.1451453042129406</v>
+        <v>-0.5391476401679042</v>
       </c>
       <c r="TN3">
-        <v>-0.1388757173825908</v>
+        <v>-0.5163011524249236</v>
       </c>
       <c r="TO3">
-        <v>-0.1384748236639317</v>
+        <v>-0.5263204398916658</v>
       </c>
       <c r="TP3">
-        <v>-0.1384291613001988</v>
+        <v>-0.5262547635006686</v>
       </c>
       <c r="TQ3">
-        <v>-0.1384035640769994</v>
+        <v>-0.5264021328388504</v>
       </c>
       <c r="TR3">
-        <v>-0.1380990289687877</v>
+        <v>-0.5284055313867309</v>
       </c>
       <c r="TS3">
-        <v>-0.1373599370847026</v>
+        <v>-0.520901830495543</v>
       </c>
       <c r="TT3">
-        <v>-0.1381168205466484</v>
+        <v>-0.5124725218697336</v>
       </c>
       <c r="TU3">
-        <v>-0.1382192693416364</v>
+        <v>-0.5125250194445368</v>
       </c>
       <c r="TV3">
-        <v>-0.1451574968260054</v>
+        <v>-0.539225356866475</v>
       </c>
       <c r="TW3">
-        <v>-0.1388757173825885</v>
+        <v>-0.5163011524249217</v>
       </c>
       <c r="TX3">
-        <v>-0.1385071372090795</v>
+        <v>-0.5263669167879419</v>
       </c>
       <c r="TY3">
-        <v>-0.1384748236639317</v>
+        <v>-0.5263204398916658</v>
       </c>
       <c r="TZ3">
-        <v>-0.1384085909048999</v>
+        <v>-0.5264266698872409</v>
       </c>
       <c r="UA3">
-        <v>-0.1381011034272864</v>
+        <v>-0.5284141591519331</v>
       </c>
       <c r="UB3">
-        <v>-0.1374236744332617</v>
+        <v>-0.5209151205561329</v>
       </c>
       <c r="UC3">
-        <v>-0.1381424598323821</v>
+        <v>-0.5124845786371259</v>
       </c>
       <c r="UD3">
-        <v>-0.145168900086449</v>
+        <v>-0.5392980427724017</v>
       </c>
       <c r="UE3">
-        <v>-0.1388757173825912</v>
+        <v>-0.5163011524249174</v>
       </c>
       <c r="UF3">
-        <v>-0.1385975047147539</v>
+        <v>-0.5264968940411251</v>
       </c>
       <c r="UG3">
-        <v>-0.1385071372090795</v>
+        <v>-0.5263669167879419</v>
       </c>
       <c r="UH3">
-        <v>-0.1384085909048955</v>
+        <v>-0.5264343905458525</v>
       </c>
       <c r="UI3">
-        <v>-0.13842939748866</v>
+        <v>-0.5264266707203716</v>
       </c>
       <c r="UJ3">
-        <v>-0.1381031939850133</v>
+        <v>-0.5284228539006166</v>
       </c>
       <c r="UK3">
-        <v>-0.1374268485392061</v>
+        <v>-0.5209157823902342</v>
       </c>
       <c r="UL3">
-        <v>-0.1382119582851439</v>
+        <v>-0.5125172596192413</v>
       </c>
       <c r="UM3">
-        <v>-0.1451810602607562</v>
+        <v>-0.5393755539923134</v>
       </c>
       <c r="UN3">
-        <v>-0.1388757173825908</v>
+        <v>-0.5163011524249143</v>
       </c>
       <c r="UO3">
-        <v>-0.1386629407818055</v>
+        <v>-0.5265910126470109</v>
       </c>
       <c r="UP3">
-        <v>-0.1385975047147539</v>
+        <v>-0.5264968940411251</v>
       </c>
       <c r="UQ3">
-        <v>-0.1384085909048933</v>
+        <v>-0.5264372315214028</v>
       </c>
       <c r="UR3">
-        <v>-0.1384451379182984</v>
+        <v>-0.5264266713504124</v>
       </c>
       <c r="US3">
-        <v>-0.13812272745338</v>
+        <v>-0.5285040959734251</v>
       </c>
       <c r="UT3">
-        <v>-0.1374293530228443</v>
+        <v>-0.5209163046005842</v>
       </c>
       <c r="UU3">
-        <v>-0.1451918205479092</v>
+        <v>-0.5394441426244596</v>
       </c>
       <c r="UV3">
-        <v>-0.1388757173825908</v>
+        <v>-0.5163011524249143</v>
       </c>
       <c r="UW3">
-        <v>-0.1386715155357721</v>
+        <v>-0.526604260661042</v>
       </c>
       <c r="UX3">
-        <v>-0.1386629407818055</v>
+        <v>-0.5265910126470109</v>
       </c>
       <c r="UY3">
-        <v>-0.138707583539798</v>
+        <v>-0.5266483485094898</v>
       </c>
       <c r="UZ3">
-        <v>-0.138408590904889</v>
+        <v>-0.5264414633728348</v>
       </c>
       <c r="VA3">
-        <v>-0.1374321844130629</v>
+        <v>-0.520916894973718</v>
       </c>
       <c r="VB3">
-        <v>-0.145202826427437</v>
+        <v>-0.539514297259144</v>
       </c>
       <c r="VC3">
-        <v>-0.1386735458824216</v>
+        <v>-0.5266073975531248</v>
       </c>
       <c r="VD3">
-        <v>-0.1386715155357722</v>
+        <v>-0.526604260661042</v>
       </c>
       <c r="VE3">
-        <v>-0.1387132272326482</v>
+        <v>-0.5266555968755453</v>
       </c>
       <c r="VF3">
-        <v>-0.1384085909048886</v>
+        <v>-0.5264440097784565</v>
       </c>
       <c r="VG3">
-        <v>-0.1374347044430667</v>
+        <v>-0.5209174204246297</v>
       </c>
       <c r="VH3">
-        <v>-0.1452596311745213</v>
+        <v>-0.5398763956748588</v>
       </c>
       <c r="VI3">
-        <v>-0.1387285881348562</v>
+        <v>-0.5266924382987627</v>
       </c>
       <c r="VJ3">
-        <v>-0.1386735458824216</v>
+        <v>-0.5266073975531248</v>
       </c>
       <c r="VK3">
-        <v>-0.1386735458824212</v>
+        <v>-0.5266073975530923</v>
       </c>
       <c r="VL3">
-        <v>-0.1387173919129903</v>
+        <v>-0.5266609457043372</v>
       </c>
       <c r="VM3">
-        <v>-0.138408590904888</v>
+        <v>-0.5264470823556817</v>
       </c>
       <c r="VN3">
-        <v>-0.1374376050011055</v>
+        <v>-0.5209180252187668</v>
       </c>
       <c r="VO3">
-        <v>-0.145298623830101</v>
+        <v>-0.5412469381470261</v>
       </c>
       <c r="VP3">
-        <v>-0.1453765109418855</v>
+        <v>-0.5404588680790057</v>
       </c>
       <c r="VQ3">
-        <v>-0.1387671629307892</v>
+        <v>-0.526752037016699</v>
       </c>
       <c r="VR3">
-        <v>-0.1387285881348562</v>
+        <v>-0.5266924382987627</v>
       </c>
       <c r="VS3">
-        <v>-0.1386735458824202</v>
+        <v>-0.5266073975530791</v>
       </c>
       <c r="VT3">
-        <v>-0.1387214441865181</v>
+        <v>-0.5266661501683219</v>
       </c>
       <c r="VU3">
-        <v>-0.1384085909048884</v>
+        <v>-0.5264497802124081</v>
       </c>
       <c r="VV3">
-        <v>-0.1374405790640423</v>
+        <v>-0.5209186453387241</v>
       </c>
       <c r="VW3">
-        <v>-0.1453008708855449</v>
+        <v>-0.5413259446505587</v>
       </c>
       <c r="VX3">
-        <v>-0.1459350682908788</v>
+        <v>-0.5432429404233521</v>
       </c>
       <c r="VY3">
-        <v>-0.1387937709139795</v>
+        <v>-0.5267924986335253</v>
       </c>
       <c r="VZ3">
-        <v>-0.1387731762040013</v>
+        <v>-0.5267614045731639</v>
       </c>
       <c r="WA3">
-        <v>-0.1386735458824196</v>
+        <v>-0.5266073975530678</v>
       </c>
       <c r="WB3">
-        <v>-0.138759510168472</v>
+        <v>-0.5267150396550494</v>
       </c>
       <c r="WC3">
-        <v>-0.1384085909048887</v>
+        <v>-0.5264674341669573</v>
       </c>
       <c r="WD3">
-        <v>-0.1374441538812634</v>
+        <v>-0.5209193907206915</v>
       </c>
       <c r="WE3">
-        <v>-0.1453019994409363</v>
+        <v>-0.5413656257176999</v>
       </c>
       <c r="WF3">
-        <v>-0.1460609824624284</v>
+        <v>-0.5438597117493535</v>
       </c>
       <c r="WG3">
-        <v>-0.1465389687521357</v>
+        <v>-0.5462585261853208</v>
       </c>
       <c r="WH3">
-        <v>-0.1388174996323536</v>
+        <v>-0.5268285819790196</v>
       </c>
       <c r="WI3">
-        <v>-0.1387937709139795</v>
+        <v>-0.5267924986335253</v>
       </c>
       <c r="WJ3">
-        <v>-0.1387937709139795</v>
+        <v>-0.5267924986335253</v>
       </c>
       <c r="WK3">
-        <v>-0.1389012912312422</v>
+        <v>-0.5269609850852591</v>
       </c>
       <c r="WL3">
-        <v>-0.1387731762040013</v>
+        <v>-0.5267614045731639</v>
       </c>
       <c r="WM3">
-        <v>-0.1386735458824253</v>
+        <v>-0.526607397553053</v>
       </c>
       <c r="WN3">
-        <v>-0.1387772266438099</v>
+        <v>-0.5267377936330765</v>
       </c>
       <c r="WO3">
-        <v>-0.1384085909048887</v>
+        <v>-0.5265976063828273</v>
       </c>
       <c r="WP3">
-        <v>-0.1374463950400395</v>
+        <v>-0.5209198580222274</v>
       </c>
       <c r="WQ3">
-        <v>-0.1453029457962749</v>
+        <v>-0.5413989009972944</v>
       </c>
       <c r="WR3">
-        <v>-0.1461274306521673</v>
+        <v>-0.544185253638741</v>
       </c>
       <c r="WS3">
-        <v>-0.1471174436636936</v>
+        <v>-0.5491480447853432</v>
       </c>
       <c r="WT3">
-        <v>-0.1388393892949726</v>
+        <v>-0.5268618686555193</v>
       </c>
       <c r="WU3">
-        <v>-0.1388174996323536</v>
+        <v>-0.5268285819790195</v>
       </c>
       <c r="WV3">
-        <v>-0.1388174996323536</v>
+        <v>-0.5268285819790195</v>
       </c>
       <c r="WW3">
-        <v>-0.1389314467239047</v>
+        <v>-0.5270079629453521</v>
       </c>
       <c r="WX3">
-        <v>-0.1386735458824264</v>
+        <v>-0.5266073975530453</v>
       </c>
       <c r="WY3">
-        <v>-0.1387855417543103</v>
+        <v>-0.526748473080156</v>
       </c>
       <c r="WZ3">
-        <v>-0.1374560268129526</v>
+        <v>-0.520921866328232</v>
       </c>
       <c r="XA3">
-        <v>-0.1453037175162436</v>
+        <v>-0.5414260361969381</v>
       </c>
       <c r="XB3">
-        <v>-0.1471273094954055</v>
+        <v>-0.5491573580821698</v>
       </c>
       <c r="XC3">
-        <v>-0.1472739384144182</v>
+        <v>-0.5499553176396262</v>
       </c>
       <c r="XD3">
-        <v>-0.1388692084485488</v>
+        <v>-0.5269072136851249</v>
       </c>
       <c r="XE3">
-        <v>-0.1386735458824312</v>
+        <v>-0.526607397553041</v>
       </c>
       <c r="XF3">
-        <v>-0.1387910880790059</v>
+        <v>-0.5267555964652609</v>
       </c>
       <c r="XG3">
-        <v>-0.1374966336897087</v>
+        <v>-0.520930333128216</v>
       </c>
       <c r="XH3">
-        <v>-0.1453049288916804</v>
+        <v>-0.5414686312093416</v>
       </c>
       <c r="XI3">
-        <v>-0.1471297286316371</v>
+        <v>-0.5491596417345587</v>
       </c>
       <c r="XJ3">
-        <v>-0.1473099435439101</v>
+        <v>-0.5501410586338659</v>
       </c>
       <c r="XK3">
-        <v>-0.1388779548263418</v>
+        <v>-0.5269205140898303</v>
       </c>
       <c r="XL3">
-        <v>-0.1386735458824336</v>
+        <v>-0.5266073975530348</v>
       </c>
       <c r="XM3">
-        <v>-0.1387995674039132</v>
+        <v>-0.5267664868395106</v>
       </c>
       <c r="XN3">
-        <v>-0.1453078174891539</v>
+        <v>-0.5415702048156021</v>
       </c>
       <c r="XO3">
-        <v>-0.1471313897871052</v>
+        <v>-0.5491612098568476</v>
       </c>
       <c r="XP3">
-        <v>-0.1473278110775076</v>
+        <v>-0.5502332338959053</v>
       </c>
       <c r="XQ3">
-        <v>-0.1389069039884045</v>
+        <v>-0.5269645366013458</v>
       </c>
       <c r="XR3">
-        <v>-0.1386735458824319</v>
+        <v>-0.5266073975530272</v>
       </c>
       <c r="XS3">
-        <v>-0.138816127520014</v>
+        <v>-0.5267877557679363</v>
       </c>
       <c r="XT3">
-        <v>-0.1453098159330715</v>
+        <v>-0.5416404800542444</v>
       </c>
       <c r="XU3">
-        <v>-0.1471336925102786</v>
+        <v>-0.5491633836156666</v>
       </c>
       <c r="XV3">
-        <v>-0.1473474461488353</v>
+        <v>-0.5503345285910084</v>
       </c>
       <c r="XW3">
-        <v>-0.1386735458824283</v>
+        <v>-0.5266073975530253</v>
       </c>
       <c r="XX3">
-        <v>-0.138820705183133</v>
+        <v>-0.5267936350819461</v>
       </c>
       <c r="XY3">
-        <v>-0.1453123569450395</v>
+        <v>-0.5417298378441515</v>
       </c>
       <c r="XZ3">
-        <v>-0.1471391529645195</v>
+        <v>-0.5491685382558305</v>
       </c>
       <c r="YA3">
-        <v>-0.1473701021606065</v>
+        <v>-0.5504514092609453</v>
       </c>
       <c r="YB3">
-        <v>-0.1386735458824215</v>
+        <v>-0.5266073975530243</v>
       </c>
       <c r="YC3">
-        <v>-0.13882203415394</v>
+        <v>-0.5267953419440425</v>
       </c>
       <c r="YD3">
-        <v>-0.1453139005896177</v>
+        <v>-0.5417841237172907</v>
       </c>
       <c r="YE3">
-        <v>-0.1471433038183964</v>
+        <v>-0.5491724566396234</v>
       </c>
       <c r="YF3">
-        <v>-0.1473930059147553</v>
+        <v>-0.5505695694844073</v>
       </c>
       <c r="YG3">
-        <v>-0.1386735458824162</v>
+        <v>-0.5266073975530242</v>
       </c>
       <c r="YH3">
-        <v>-0.1388229073069267</v>
+        <v>-0.5267959157620882</v>
       </c>
       <c r="YI3">
-        <v>-0.1388235197322004</v>
+        <v>-0.5268001586991974</v>
       </c>
       <c r="YJ3">
-        <v>-0.1453152941723834</v>
+        <v>-0.5418331334361557</v>
       </c>
       <c r="YK3">
-        <v>-0.1471462176594373</v>
+        <v>-0.5491752072896795</v>
       </c>
       <c r="YL3">
-        <v>-0.1474183977660755</v>
+        <v>-0.5507005675011986</v>
       </c>
       <c r="YM3">
-        <v>-0.1386735458823997</v>
+        <v>-0.526607397553029</v>
       </c>
       <c r="YN3">
-        <v>-0.138823724504223</v>
+        <v>-0.5267964528071415</v>
       </c>
       <c r="YO3">
-        <v>-0.1388254800518371</v>
+        <v>-0.5268065147401931</v>
       </c>
       <c r="YP3">
-        <v>-0.145317644500993</v>
+        <v>-0.5419157925389629</v>
       </c>
       <c r="YQ3">
-        <v>-0.1471492701669689</v>
+        <v>-0.5491780888399221</v>
       </c>
       <c r="YR3">
-        <v>-0.1474553229882467</v>
+        <v>-0.55089107007926</v>
       </c>
       <c r="YS3">
-        <v>-0.1386735458823871</v>
+        <v>-0.5266073975530282</v>
       </c>
       <c r="YT3">
-        <v>-0.1388245663232042</v>
+        <v>-0.5267970060329838</v>
       </c>
       <c r="YU3">
-        <v>-0.1388336241451883</v>
+        <v>-0.5268329208717583</v>
       </c>
       <c r="YV3">
-        <v>-0.1453199551943981</v>
+        <v>-0.5419970606529375</v>
       </c>
       <c r="YW3">
-        <v>-0.1471517763090121</v>
+        <v>-0.5491804546239881</v>
       </c>
       <c r="YX3">
-        <v>-0.147465876055626</v>
+        <v>-0.5509121671912167</v>
       </c>
       <c r="YY3">
-        <v>-0.1475420477242916</v>
+        <v>-0.5513852804956789</v>
       </c>
       <c r="YZ3">
-        <v>-0.1386735458823823</v>
+        <v>-0.5266073975530272</v>
       </c>
       <c r="ZA3">
-        <v>-0.1388306528731654</v>
+        <v>-0.5268010059842545</v>
       </c>
       <c r="ZB3">
-        <v>-0.1388370827553984</v>
+        <v>-0.5268441350184118</v>
       </c>
       <c r="ZC3">
-        <v>-0.145321048489407</v>
+        <v>-0.542035513343202</v>
       </c>
       <c r="ZD3">
-        <v>-0.1471559257966662</v>
+        <v>-0.5491843717167741</v>
       </c>
       <c r="ZE3">
-        <v>-0.1474722131963273</v>
+        <v>-0.5509248361031016</v>
       </c>
       <c r="ZF3">
-        <v>-0.1480912314541787</v>
+        <v>-0.5545154779150664</v>
       </c>
       <c r="ZG3">
-        <v>-0.1386735458823823</v>
+        <v>-0.5266073975530272</v>
       </c>
       <c r="ZH3">
-        <v>-0.1388749763155844</v>
+        <v>-0.526830134293647</v>
       </c>
       <c r="ZI3">
-        <v>-0.1453222493262889</v>
+        <v>-0.542077749183417</v>
       </c>
       <c r="ZJ3">
-        <v>-0.147169335764861</v>
+        <v>-0.549197030647705</v>
       </c>
       <c r="ZK3">
-        <v>-0.1474780918278887</v>
+        <v>-0.5509365884178765</v>
       </c>
       <c r="ZL3">
-        <v>-0.1484843602556699</v>
+        <v>-0.5567568560296744</v>
       </c>
       <c r="ZM3">
-        <v>-0.1453234018732193</v>
+        <v>-0.5421182873118309</v>
       </c>
       <c r="ZN3">
-        <v>-0.1472006701366586</v>
+        <v>-0.549226610092643</v>
       </c>
       <c r="ZO3">
-        <v>-0.147483827817601</v>
+        <v>-0.550948055599329</v>
       </c>
       <c r="ZP3">
-        <v>-0.1488514390730225</v>
+        <v>-0.5568545414162511</v>
       </c>
       <c r="ZQ3">
-        <v>-0.149215698688286</v>
+        <v>-0.5630686590159947</v>
       </c>
       <c r="ZR3">
-        <v>-0.1453247918360488</v>
+        <v>-0.5421671769538737</v>
       </c>
       <c r="ZS3">
-        <v>-0.1474881302042178</v>
+        <v>-0.5509566567934024</v>
       </c>
       <c r="ZT3">
-        <v>-0.1488514390731004</v>
+        <v>-0.5568591085728732</v>
       </c>
       <c r="ZU3">
-        <v>-0.1489472741409952</v>
+        <v>-0.5568672922637081</v>
       </c>
       <c r="ZV3">
-        <v>-0.1492678154980809</v>
+        <v>-0.563458911547332</v>
       </c>
       <c r="ZW3">
-        <v>-0.1493579353039403</v>
+        <v>-0.5643082105951596</v>
       </c>
       <c r="ZX3">
-        <v>-0.1453270090046452</v>
+        <v>-0.5422451643794485</v>
       </c>
       <c r="ZY3">
-        <v>-0.1474949648459752</v>
+        <v>-0.5509703204257977</v>
       </c>
       <c r="ZZ3">
-        <v>-0.1488514390731242</v>
+        <v>-0.5568605376665691</v>
       </c>
       <c r="AAA3">
-        <v>-0.1491425182006346</v>
+        <v>-0.5568932679737302</v>
       </c>
       <c r="AAB3">
-        <v>-0.1492980087138977</v>
+        <v>-0.5636850269208203</v>
       </c>
       <c r="AAC3">
-        <v>-0.149518018083333</v>
+        <v>-0.5657018256194497</v>
       </c>
       <c r="AAD3">
-        <v>-0.145333077160091</v>
+        <v>-0.5424586214637626</v>
       </c>
       <c r="AAE3">
-        <v>-0.1475064883654194</v>
+        <v>-0.5509933580328845</v>
       </c>
       <c r="AAF3">
-        <v>-0.1488514390731377</v>
+        <v>-0.5568614565329243</v>
       </c>
       <c r="AAG3">
-        <v>-0.1499403165875114</v>
+        <v>-0.56937998828466</v>
       </c>
       <c r="AAH3">
-        <v>-0.14951801808333</v>
+        <v>-0.5657018256194319</v>
       </c>
       <c r="AAI3">
-        <v>-0.1453411527872333</v>
+        <v>-0.5427427258585638</v>
       </c>
       <c r="AAJ3">
-        <v>-0.147592835359057</v>
+        <v>-0.5511659851913638</v>
       </c>
       <c r="AAK3">
-        <v>-0.148851439073146</v>
+        <v>-0.5568620107674886</v>
       </c>
       <c r="AAL3">
-        <v>-0.1503353581194893</v>
+        <v>-0.5735925371882823</v>
       </c>
       <c r="AAM3">
-        <v>-0.1500053748478259</v>
+        <v>-0.5694725600436084</v>
       </c>
       <c r="AAN3">
-        <v>-0.1495180180833308</v>
+        <v>-0.5657018256194133</v>
       </c>
       <c r="AAO3">
-        <v>-0.1453419219660073</v>
+        <v>-0.5427697877961004</v>
       </c>
       <c r="AAP3">
-        <v>-0.1476636744785893</v>
+        <v>-0.5513076136701223</v>
       </c>
       <c r="AAQ3">
-        <v>-0.1488514390731528</v>
+        <v>-0.5568625709392869</v>
       </c>
       <c r="AAR3">
-        <v>-0.150743119895225</v>
+        <v>-0.5779444173614595</v>
       </c>
       <c r="AAS3">
-        <v>-0.1500123396007177</v>
+        <v>-0.5694824702979376</v>
       </c>
       <c r="AAT3">
-        <v>-0.1495180180833306</v>
+        <v>-0.5657018256193911</v>
       </c>
       <c r="AAU3">
-        <v>-0.1453425302765178</v>
+        <v>-0.5427911901515631</v>
       </c>
       <c r="AAV3">
-        <v>-0.1476861192509007</v>
+        <v>-0.5513524884012422</v>
       </c>
       <c r="AAW3">
-        <v>-0.1488514390731575</v>
+        <v>-0.556863071290682</v>
       </c>
       <c r="AAX3">
-        <v>-0.1508751970158306</v>
+        <v>-0.5797252438207282</v>
       </c>
       <c r="AAY3">
-        <v>-0.1508754661263814</v>
+        <v>-0.5781092404010117</v>
       </c>
       <c r="AAZ3">
-        <v>-0.1500149988456614</v>
+        <v>-0.5694862541821035</v>
       </c>
       <c r="ABA3">
-        <v>-0.1495180180833323</v>
+        <v>-0.5657018256193691</v>
       </c>
       <c r="ABB3">
-        <v>-0.1453431210919837</v>
+        <v>-0.542811977168099</v>
       </c>
       <c r="ABC3">
-        <v>-0.1477065525481411</v>
+        <v>-0.5513933419084356</v>
       </c>
       <c r="ABD3">
-        <v>-0.1488514390731604</v>
+        <v>-0.5568636350130047</v>
       </c>
       <c r="ABE3">
-        <v>-0.1510546753623727</v>
+        <v>-0.5821462197592743</v>
       </c>
       <c r="ABF3">
-        <v>-0.1508932200302129</v>
+        <v>-0.5781313511697116</v>
       </c>
       <c r="ABG3">
-        <v>-0.1500178118040044</v>
+        <v>-0.5694902567897527</v>
       </c>
       <c r="ABH3">
-        <v>-0.1495180180833354</v>
+        <v>-0.565701825619355</v>
       </c>
       <c r="ABI3">
-        <v>-0.1453437539192063</v>
+        <v>-0.5428342425217109</v>
       </c>
       <c r="ABJ3">
-        <v>-0.1477176816955369</v>
+        <v>-0.5514155932349653</v>
       </c>
       <c r="ABK3">
-        <v>-0.1488514390731627</v>
+        <v>-0.556864086668623</v>
       </c>
       <c r="ABL3">
-        <v>-0.1512648172741809</v>
+        <v>-0.5849823211411943</v>
       </c>
       <c r="ABM3">
-        <v>-0.1509025475770822</v>
+        <v>-0.5781429677440121</v>
       </c>
       <c r="ABN3">
-        <v>-0.1500201463180891</v>
+        <v>-0.5694935786123424</v>
       </c>
       <c r="ABO3">
-        <v>-0.149518018083342</v>
+        <v>-0.5657018256193407</v>
       </c>
       <c r="ABP3">
-        <v>-0.1453443390159237</v>
+        <v>-0.542854828723412</v>
       </c>
       <c r="ABQ3">
-        <v>-0.1477265701047581</v>
+        <v>-0.5514333645690902</v>
       </c>
       <c r="ABR3">
-        <v>-0.1488514390731648</v>
+        <v>-0.556864628429989</v>
       </c>
       <c r="ABS3">
-        <v>-0.1514335597617544</v>
+        <v>-0.5872608675047853</v>
       </c>
       <c r="ABT3">
-        <v>-0.1509236194793205</v>
+        <v>-0.578197907674064</v>
       </c>
       <c r="ABU3">
-        <v>-0.1509035875457507</v>
+        <v>-0.5781433263651407</v>
       </c>
       <c r="ABV3">
-        <v>-0.1500229109599281</v>
+        <v>-0.5694975124734786</v>
       </c>
       <c r="ABW3">
-        <v>-0.1495180180833488</v>
+        <v>-0.5657018256193259</v>
       </c>
       <c r="ABX3">
-        <v>-0.1453448904078789</v>
+        <v>-0.5428742292191973</v>
       </c>
       <c r="ABY3">
-        <v>-0.1477341494192871</v>
+        <v>-0.5514485185783599</v>
       </c>
       <c r="ABZ3">
-        <v>-0.1488514390731662</v>
+        <v>-0.556865212242811</v>
       </c>
       <c r="ACA3">
-        <v>-0.1514817562324796</v>
+        <v>-0.5876956655835976</v>
       </c>
       <c r="ACB3">
-        <v>-0.1514986996964565</v>
+        <v>-0.5891136758591925</v>
       </c>
       <c r="ACC3">
-        <v>-0.1509407484750815</v>
+        <v>-0.5782425680459508</v>
       </c>
       <c r="ACD3">
-        <v>-0.1509043395928782</v>
+        <v>-0.5781435856997958</v>
       </c>
       <c r="ACE3">
-        <v>-0.1500256071611094</v>
+        <v>-0.5695013489511325</v>
       </c>
       <c r="ACF3">
-        <v>-0.1495180180833556</v>
+        <v>-0.5657018256193176</v>
       </c>
       <c r="ACG3">
-        <v>-0.1453456572888134</v>
+        <v>-0.5429012118816313</v>
       </c>
       <c r="ACH3">
-        <v>-0.1477430438314652</v>
+        <v>-0.5514663020480166</v>
       </c>
       <c r="ACI3">
-        <v>-0.1488514390731675</v>
+        <v>-0.5568662773792576</v>
       </c>
       <c r="ACJ3">
-        <v>-0.1515482059894372</v>
+        <v>-0.5882951934340978</v>
       </c>
       <c r="ACK3">
-        <v>-0.1515531496231271</v>
+        <v>-0.5906635813001534</v>
       </c>
       <c r="ACL3">
-        <v>-0.1509049742538024</v>
+        <v>-0.5781438045551469</v>
       </c>
       <c r="ACM3">
-        <v>-0.1500293138658295</v>
+        <v>-0.5695066232973919</v>
       </c>
       <c r="ACN3">
-        <v>-0.1495180180833653</v>
+        <v>-0.5657018256193068</v>
       </c>
       <c r="ACO3">
-        <v>-0.1453465970703644</v>
+        <v>-0.542934278481891</v>
       </c>
       <c r="ACP3">
-        <v>-0.1477511710416786</v>
+        <v>-0.5514825516385699</v>
       </c>
       <c r="ACQ3">
-        <v>-0.1488514390731679</v>
+        <v>-0.5568742462787495</v>
       </c>
       <c r="ACR3">
-        <v>-0.1517116785586289</v>
+        <v>-0.5897703845029314</v>
       </c>
       <c r="ACS3">
-        <v>-0.1515729513811363</v>
+        <v>-0.5907278164889751</v>
       </c>
       <c r="ACT3">
-        <v>-0.1515538666342123</v>
+        <v>-0.5907020887664252</v>
       </c>
       <c r="ACU3">
-        <v>-0.1509060462699396</v>
+        <v>-0.5781441742271991</v>
       </c>
       <c r="ACV3">
-        <v>-0.1500344130485048</v>
+        <v>-0.5695138790352939</v>
       </c>
       <c r="ACW3">
-        <v>-0.1495180180833716</v>
+        <v>-0.5657018256193025</v>
       </c>
       <c r="ACX3">
-        <v>-0.1453510513965912</v>
+        <v>-0.543091012363536</v>
       </c>
       <c r="ACY3">
-        <v>-0.147763779499102</v>
+        <v>-0.5515077611793682</v>
       </c>
       <c r="ACZ3">
-        <v>-0.1488514390731679</v>
+        <v>-0.5568986671054598</v>
       </c>
       <c r="ADA3">
-        <v>-0.1518441797203545</v>
+        <v>-0.5909663967175666</v>
       </c>
       <c r="ADB3">
-        <v>-0.1515923551542485</v>
+        <v>-0.5907907619110289</v>
       </c>
       <c r="ADC3">
-        <v>-0.1515545521890109</v>
+        <v>-0.5907389074753869</v>
       </c>
       <c r="ADD3">
-        <v>-0.1509075475025235</v>
+        <v>-0.5781446919092535</v>
       </c>
       <c r="ADE3">
-        <v>-0.150039809440551</v>
+        <v>-0.569521557686647</v>
       </c>
       <c r="ADF3">
-        <v>-0.1495180180833796</v>
+        <v>-0.5657018256193</v>
       </c>
       <c r="ADG3">
-        <v>-0.1453891375223683</v>
+        <v>-0.5444315886163316</v>
       </c>
       <c r="ADH3">
-        <v>-0.1477892349413052</v>
+        <v>-0.5515586576170624</v>
       </c>
       <c r="ADI3">
-        <v>-0.1519477149243104</v>
+        <v>-0.5919011429721514</v>
       </c>
       <c r="ADJ3">
-        <v>-0.1515552912531377</v>
+        <v>-0.5907786006584582</v>
       </c>
       <c r="ADK3">
-        <v>-0.1509086614528928</v>
+        <v>-0.5781450760415313</v>
       </c>
       <c r="ADL3">
-        <v>-0.1500433941234159</v>
+        <v>-0.5695266584194251</v>
       </c>
       <c r="ADM3">
-        <v>-0.1495180180833886</v>
+        <v>-0.5657018256192982</v>
       </c>
       <c r="ADN3">
-        <v>-0.1477930369049362</v>
+        <v>-0.5515657657970923</v>
       </c>
       <c r="ADO3">
-        <v>-0.1478119008452327</v>
+        <v>-0.551606919998361</v>
       </c>
       <c r="ADP3">
-        <v>-0.1520412927503056</v>
+        <v>-0.5927461369381977</v>
       </c>
       <c r="ADQ3">
-        <v>-0.1515559511811526</v>
+        <v>-0.5908140442447462</v>
       </c>
       <c r="ADR3">
-        <v>-0.1509105067593062</v>
+        <v>-0.5781457123727917</v>
       </c>
       <c r="ADS3">
-        <v>-0.1500470424739852</v>
+        <v>-0.5695318497501558</v>
       </c>
       <c r="ADT3">
-        <v>-0.149518018083394</v>
+        <v>-0.5657018256192974</v>
       </c>
       <c r="ADU3">
-        <v>-0.1477963525813211</v>
+        <v>-0.551571964819532</v>
       </c>
       <c r="ADV3">
-        <v>-0.1478481700759657</v>
+        <v>-0.5516841490374155</v>
       </c>
       <c r="ADW3">
-        <v>-0.152043002613745</v>
+        <v>-0.5927540001188301</v>
       </c>
       <c r="ADX3">
-        <v>-0.1521080645001557</v>
+        <v>-0.593436250547127</v>
       </c>
       <c r="ADY3">
-        <v>-0.1515566799619018</v>
+        <v>-0.5908531864438135</v>
       </c>
       <c r="ADZ3">
-        <v>-0.1509233151090026</v>
+        <v>-0.5781501291652611</v>
       </c>
       <c r="AEA3">
-        <v>-0.1500487869092405</v>
+        <v>-0.5695343319526991</v>
       </c>
       <c r="AEB3">
-        <v>-0.1495180180833944</v>
+        <v>-0.5657018256192998</v>
       </c>
       <c r="AEC3">
-        <v>-0.1477990948004408</v>
+        <v>-0.5515770917065596</v>
       </c>
       <c r="AED3">
-        <v>-0.1478791590595652</v>
+        <v>-0.551750135847221</v>
       </c>
       <c r="AEE3">
-        <v>-0.1520447169705613</v>
+        <v>-0.5927618839853791</v>
       </c>
       <c r="AEF3">
-        <v>-0.1521822994093066</v>
+        <v>-0.5942033938295026</v>
       </c>
       <c r="AEG3">
-        <v>-0.1521080645001557</v>
+        <v>-0.593436250547127</v>
       </c>
       <c r="AEH3">
-        <v>-0.1515571498309292</v>
+        <v>-0.5908784230757547</v>
       </c>
       <c r="AEI3">
-        <v>-0.1509516074397202</v>
+        <v>-0.5781598853468701</v>
       </c>
       <c r="AEJ3">
-        <v>-0.1500515616478061</v>
+        <v>-0.5695382802024883</v>
       </c>
       <c r="AEK3">
-        <v>-0.1495180180833934</v>
+        <v>-0.5657018256193003</v>
       </c>
       <c r="AEL3">
-        <v>-0.1478012272856145</v>
+        <v>-0.5515810786312587</v>
       </c>
       <c r="AEM3">
-        <v>-0.147896697803535</v>
+        <v>-0.5517874826742182</v>
       </c>
       <c r="AEN3">
-        <v>-0.1520464346561403</v>
+        <v>-0.5927697831822567</v>
       </c>
       <c r="AEO3">
-        <v>-0.1522445438069941</v>
+        <v>-0.5948467165667276</v>
       </c>
       <c r="AEP3">
-        <v>-0.1521822994093066</v>
+        <v>-0.5942033938295026</v>
       </c>
       <c r="AEQ3">
-        <v>-0.151557871517849</v>
+        <v>-0.5909171853830093</v>
       </c>
       <c r="AER3">
-        <v>-0.1500541665142575</v>
+        <v>-0.5695419867386218</v>
       </c>
       <c r="AES3">
-        <v>-0.1495180180833929</v>
+        <v>-0.565701825619301</v>
       </c>
       <c r="AET3">
-        <v>-0.1478033961571567</v>
+        <v>-0.5515851335878832</v>
       </c>
       <c r="AEU3">
-        <v>-0.1520481419448565</v>
+        <v>-0.5927776345886809</v>
       </c>
       <c r="AEV3">
-        <v>-0.1523114559073619</v>
+        <v>-0.5955383729493363</v>
       </c>
       <c r="AEW3">
-        <v>-0.1522445438069941</v>
+        <v>-0.5948467165667275</v>
       </c>
       <c r="AEX3">
-        <v>-0.1515638075843366</v>
+        <v>-0.5912360411185295</v>
       </c>
       <c r="AEY3">
-        <v>-0.1500578884406652</v>
+        <v>-0.5695472827733306</v>
       </c>
       <c r="AEZ3">
-        <v>-0.1495180180833929</v>
+        <v>-0.565701825619301</v>
       </c>
       <c r="AFA3">
-        <v>-0.1478052783537823</v>
+        <v>-0.5515886525753605</v>
       </c>
       <c r="AFB3">
-        <v>-0.1520498557234367</v>
+        <v>-0.5927855158625297</v>
       </c>
       <c r="AFC3">
-        <v>-0.1523663938493764</v>
+        <v>-0.5961063254030277</v>
       </c>
       <c r="AFD3">
-        <v>-0.1523114559073619</v>
+        <v>-0.5955383729493363</v>
       </c>
       <c r="AFE3">
-        <v>-0.1515842660752117</v>
+        <v>-0.5923353168000702</v>
       </c>
       <c r="AFF3">
-        <v>-0.1500971762875279</v>
+        <v>-0.5696031867975473</v>
       </c>
       <c r="AFG3">
-        <v>-0.1478066301770908</v>
+        <v>-0.5515911799692961</v>
       </c>
       <c r="AFH3">
-        <v>-0.1520515683387315</v>
+        <v>-0.5927933918088287</v>
       </c>
       <c r="AFI3">
-        <v>-0.1524253765173346</v>
+        <v>-0.5967161632467457</v>
       </c>
       <c r="AFJ3">
-        <v>-0.1523663938493764</v>
+        <v>-0.5961063254030275</v>
       </c>
       <c r="AFK3">
-        <v>-0.1501128906334454</v>
+        <v>-0.5696255473977485</v>
       </c>
       <c r="AFL3">
-        <v>-0.1478081996474797</v>
+        <v>-0.5515941142819489</v>
       </c>
       <c r="AFM3">
-        <v>-0.152053282036708</v>
+        <v>-0.5928012727562926</v>
       </c>
       <c r="AFN3">
-        <v>-0.1525569639797637</v>
+        <v>-0.5980762077617834</v>
       </c>
       <c r="AFO3">
-        <v>-0.1524253765172909</v>
+        <v>-0.5967161632467494</v>
       </c>
       <c r="AFP3">
-        <v>-0.1524253765173346</v>
+        <v>-0.5967161632467457</v>
       </c>
       <c r="AFQ3">
-        <v>-0.1501208703937188</v>
+        <v>-0.569636902158428</v>
       </c>
       <c r="AFR3">
-        <v>-0.1478105640778593</v>
+        <v>-0.5515985348708476</v>
       </c>
       <c r="AFS3">
-        <v>-0.1520541185474182</v>
+        <v>-0.5928051197064816</v>
       </c>
       <c r="AFT3">
-        <v>-0.1525762163600033</v>
+        <v>-0.5982752662922207</v>
       </c>
       <c r="AFU3">
-        <v>-0.1524253765172397</v>
+        <v>-0.596716163246747</v>
       </c>
       <c r="AFV3">
-        <v>-0.1524253765172909</v>
+        <v>-0.5967161632467494</v>
       </c>
       <c r="AFW3">
-        <v>-0.1501226361640322</v>
+        <v>-0.5696394147549826</v>
       </c>
       <c r="AFX3">
-        <v>-0.147814427085686</v>
+        <v>-0.5516057572406475</v>
       </c>
       <c r="AFY3">
-        <v>-0.1520729193273194</v>
+        <v>-0.5928915822320953</v>
       </c>
       <c r="AFZ3">
-        <v>-0.1526304556879258</v>
+        <v>-0.5988361690020731</v>
       </c>
       <c r="AGA3">
-        <v>-0.1524253765171674</v>
+        <v>-0.5967161632467481</v>
       </c>
       <c r="AGB3">
-        <v>-0.1524253765172397</v>
+        <v>-0.596716163246747</v>
       </c>
       <c r="AGC3">
-        <v>-0.1501240267957329</v>
+        <v>-0.5696413935499959</v>
       </c>
       <c r="AGD3">
-        <v>-0.1478454254886852</v>
+        <v>-0.5516307102437169</v>
       </c>
       <c r="AGE3">
-        <v>-0.147814427085686</v>
+        <v>-0.5516936370687374</v>
       </c>
       <c r="AGF3">
-        <v>-0.1520851452026653</v>
+        <v>-0.5929478089932524</v>
       </c>
       <c r="AGG3">
-        <v>-0.1526941482047495</v>
+        <v>-0.5994950166840096</v>
       </c>
       <c r="AGH3">
-        <v>-0.152425376517141</v>
+        <v>-0.5967161632467469</v>
       </c>
       <c r="AGI3">
-        <v>-0.1524253765171674</v>
+        <v>-0.596716163246748</v>
       </c>
       <c r="AGJ3">
-        <v>-0.1501255167675213</v>
+        <v>-0.5696435137012633</v>
       </c>
       <c r="AGK3">
-        <v>-0.1520958380122637</v>
+        <v>-0.5929969861144164</v>
       </c>
       <c r="AGL3">
-        <v>-0.1527024106530768</v>
+        <v>-0.5995804998597849</v>
       </c>
       <c r="AGM3">
-        <v>-0.1524253765171336</v>
+        <v>-0.5967161632467456</v>
       </c>
       <c r="AGN3">
-        <v>-0.152425376517141</v>
+        <v>-0.5967161632467469</v>
       </c>
       <c r="AGO3">
-        <v>-0.1501267088545258</v>
+        <v>-0.5696452099786341</v>
       </c>
       <c r="AGP3">
-        <v>-0.152107054121928</v>
+        <v>-0.593048570863105</v>
       </c>
       <c r="AGQ3">
-        <v>-0.1527127960926599</v>
+        <v>-0.5996857848366125</v>
       </c>
       <c r="AGR3">
-        <v>-0.152702410653078</v>
+        <v>-0.5995853219654046</v>
       </c>
       <c r="AGS3">
-        <v>-0.1524253765171321</v>
+        <v>-0.5967161632467486</v>
       </c>
       <c r="AGT3">
-        <v>-0.1524253765171336</v>
+        <v>-0.5967161632467456</v>
       </c>
       <c r="AGU3">
-        <v>-0.1501278663227346</v>
+        <v>-0.5696468569956465</v>
       </c>
       <c r="AGV3">
-        <v>-0.1521262055769914</v>
+        <v>-0.5931366537754172</v>
       </c>
       <c r="AGW3">
-        <v>-0.1527224060670852</v>
+        <v>-0.5997832129280429</v>
       </c>
       <c r="AGX3">
-        <v>-0.1527024106530796</v>
+        <v>-0.5995966070344366</v>
       </c>
       <c r="AGY3">
-        <v>-0.1524253765171321</v>
+        <v>-0.5967161632467513</v>
       </c>
       <c r="AGZ3">
-        <v>-0.1524253765171321</v>
+        <v>-0.5967161632467513</v>
       </c>
       <c r="AHA3">
-        <v>-0.1501290208557578</v>
+        <v>-0.5696484998364081</v>
       </c>
       <c r="AHB3">
-        <v>-0.1521309030414499</v>
+        <v>-0.5931582591543596</v>
       </c>
       <c r="AHC3">
-        <v>-0.1527370189673441</v>
+        <v>-0.5999313702592156</v>
       </c>
       <c r="AHD3">
-        <v>-0.1527024106530796</v>
+        <v>-0.5996233788354479</v>
       </c>
       <c r="AHE3">
-        <v>-0.1501301618812824</v>
+        <v>-0.5696501234570593</v>
       </c>
       <c r="AHF3">
-        <v>-0.1521343291888143</v>
+        <v>-0.5931656066611587</v>
       </c>
       <c r="AHG3">
-        <v>-0.1521402075991905</v>
+        <v>-0.5932456254474283</v>
       </c>
       <c r="AHH3">
-        <v>-0.1527554858357549</v>
+        <v>-0.6001186167983225</v>
       </c>
       <c r="AHI3">
-        <v>-0.1501505658887336</v>
+        <v>-0.5696791573708374</v>
       </c>
       <c r="AHJ3">
-        <v>-0.1521399546534551</v>
+        <v>-0.593177670718204</v>
       </c>
       <c r="AHK3">
-        <v>-0.152148099138245</v>
+        <v>-0.5933197257861347</v>
       </c>
       <c r="AHL3">
-        <v>-0.1528273786736371</v>
+        <v>-0.6008477360379147</v>
       </c>
       <c r="AHM3">
-        <v>-0.150214615489709</v>
+        <v>-0.5698158651327221</v>
       </c>
       <c r="AHN3">
-        <v>-0.1501684817327559</v>
+        <v>-0.5696791595725531</v>
       </c>
       <c r="AHO3">
-        <v>-0.1521410669329759</v>
+        <v>-0.5931800560548844</v>
       </c>
       <c r="AHP3">
-        <v>-0.1521613632411435</v>
+        <v>-0.5934442773108007</v>
       </c>
       <c r="AHQ3">
-        <v>-0.1529579835621903</v>
+        <v>-0.6021729299603702</v>
       </c>
       <c r="AHR3">
-        <v>-0.1502571527835392</v>
+        <v>-0.5699066594291367</v>
       </c>
       <c r="AHS3">
-        <v>-0.1521420067856583</v>
+        <v>-0.5931820716150276</v>
       </c>
       <c r="AHT3">
-        <v>-0.1521427987966993</v>
+        <v>-0.5931837701222905</v>
       </c>
       <c r="AHU3">
-        <v>-0.1521438290714242</v>
+        <v>-0.5931859795989816</v>
       </c>
       <c r="AHV3">
-        <v>-0.1521456937094385</v>
+        <v>-0.5931899784133213</v>
       </c>
       <c r="AHW3">
-        <v>-0.1521489266615971</v>
+        <v>-0.5931969116585594</v>
       </c>
       <c r="AHX3">
-        <v>-0.1521754081198178</v>
+        <v>-0.5932537030546197</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.04131178956083436</v>
+        <v>-0.04414988303262922</v>
       </c>
       <c r="D2">
-        <v>-0.04168252372635586</v>
+        <v>-0.04454622220752756</v>
       </c>
       <c r="E2">
-        <v>-0.04172139179133404</v>
+        <v>-0.04458777485078701</v>
       </c>
       <c r="F2">
-        <v>-0.04175780536898262</v>
+        <v>-0.04462670349989497</v>
       </c>
       <c r="G2">
-        <v>-0.04178955301974164</v>
+        <v>-0.04466064396587959</v>
       </c>
       <c r="H2">
-        <v>-0.04183956848812949</v>
+        <v>-0.04471411404358948</v>
       </c>
       <c r="I2">
-        <v>-0.045246691186603</v>
+        <v>-0.04835666473011654</v>
       </c>
       <c r="J2">
-        <v>-0.04539935082726459</v>
+        <v>-0.04851987735809354</v>
       </c>
       <c r="K2">
-        <v>-0.04552641622372326</v>
+        <v>-0.04865572676179738</v>
       </c>
       <c r="L2">
-        <v>-0.04563792917311951</v>
+        <v>-0.04877494879577797</v>
       </c>
       <c r="M2">
-        <v>-0.04572114069891309</v>
+        <v>-0.04886391301042247</v>
       </c>
       <c r="N2">
-        <v>-0.04579925723378232</v>
+        <v>-0.04894743010241585</v>
       </c>
       <c r="O2">
-        <v>-0.04584729243699445</v>
+        <v>-0.04899878625025213</v>
       </c>
       <c r="P2">
-        <v>-0.04596688077494045</v>
+        <v>-0.04912664256682989</v>
       </c>
       <c r="Q2">
-        <v>-0.04693576235621372</v>
+        <v>-0.05016251823881593</v>
       </c>
       <c r="R2">
-        <v>-0.04693576235621315</v>
+        <v>-0.05016251823881668</v>
       </c>
       <c r="S2">
-        <v>-0.04811097411389672</v>
+        <v>-0.05141901132628606</v>
       </c>
       <c r="T2">
-        <v>-0.04693576235621345</v>
+        <v>-0.05016251823881757</v>
       </c>
       <c r="U2">
-        <v>-0.04819184702655446</v>
+        <v>-0.05150547848453023</v>
       </c>
       <c r="V2">
-        <v>-0.04693576235621312</v>
+        <v>-0.0501625182388182</v>
       </c>
       <c r="W2">
-        <v>-0.04828265958329782</v>
+        <v>-0.0516025729708327</v>
       </c>
       <c r="X2">
-        <v>-0.046935762356213</v>
+        <v>-0.05016251823881816</v>
       </c>
       <c r="Y2">
-        <v>-0.048430524683706</v>
+        <v>-0.05176066687762892</v>
       </c>
       <c r="Z2">
-        <v>-0.04693576235621336</v>
+        <v>-0.05016251823881846</v>
       </c>
       <c r="AA2">
-        <v>-0.04869953943651963</v>
+        <v>-0.05204829206589972</v>
       </c>
       <c r="AB2">
-        <v>-0.04693576235621382</v>
+        <v>-0.05016251823881885</v>
       </c>
       <c r="AC2">
-        <v>-0.04874802830268836</v>
+        <v>-0.05221341895252004</v>
       </c>
       <c r="AD2">
-        <v>-0.0520058846960005</v>
+        <v>-0.0554290508163682</v>
       </c>
       <c r="AE2">
-        <v>-0.04693576235621444</v>
+        <v>-0.05016251823881942</v>
       </c>
       <c r="AF2">
-        <v>-0.04875685898194417</v>
+        <v>-0.05223152501207556</v>
       </c>
       <c r="AG2">
-        <v>-0.04875243770552318</v>
+        <v>-0.05224009526988142</v>
       </c>
       <c r="AH2">
-        <v>-0.05288649183995978</v>
+        <v>-0.05632948635399165</v>
       </c>
       <c r="AI2">
-        <v>-0.04693576235621667</v>
+        <v>-0.05016251823882159</v>
       </c>
       <c r="AJ2">
-        <v>-0.04877708199502568</v>
+        <v>-0.05227298973038488</v>
       </c>
       <c r="AK2">
-        <v>-0.04875258703048511</v>
+        <v>-0.05224099867135309</v>
       </c>
       <c r="AL2">
-        <v>-0.05298451719590185</v>
+        <v>-0.05645709396487684</v>
       </c>
       <c r="AM2">
-        <v>-0.05543936846359006</v>
+        <v>-0.05890890079335347</v>
       </c>
       <c r="AN2">
-        <v>-0.04693576235621839</v>
+        <v>-0.05016251823882318</v>
       </c>
       <c r="AO2">
-        <v>-0.04875280173279004</v>
+        <v>-0.05224229759993312</v>
       </c>
       <c r="AP2">
-        <v>-0.05298679985466685</v>
+        <v>-0.05646165999995054</v>
       </c>
       <c r="AQ2">
-        <v>-0.05300513107318418</v>
+        <v>-0.05647672928379025</v>
       </c>
       <c r="AR2">
-        <v>-0.05721173773591304</v>
+        <v>-0.06069970292598981</v>
       </c>
       <c r="AS2">
-        <v>-0.05543936846358835</v>
+        <v>-0.05890890079335457</v>
       </c>
       <c r="AT2">
-        <v>-0.04693576235621864</v>
+        <v>-0.05016251823882312</v>
       </c>
       <c r="AU2">
-        <v>-0.04875307707387349</v>
+        <v>-0.0522439633883028</v>
       </c>
       <c r="AV2">
-        <v>-0.0529878287180537</v>
+        <v>-0.05646371805170067</v>
       </c>
       <c r="AW2">
-        <v>-0.05305473276012081</v>
+        <v>-0.0565239763003443</v>
       </c>
       <c r="AX2">
-        <v>-0.05855149913922333</v>
+        <v>-0.06205340270416847</v>
       </c>
       <c r="AY2">
-        <v>-0.05543936846358574</v>
+        <v>-0.05890890079335124</v>
       </c>
       <c r="AZ2">
-        <v>-0.04693576235621884</v>
+        <v>-0.05016251823882308</v>
       </c>
       <c r="BA2">
-        <v>-0.04875374765357143</v>
+        <v>-0.05224802033855998</v>
       </c>
       <c r="BB2">
-        <v>-0.05298891909351944</v>
+        <v>-0.05646589914808989</v>
       </c>
       <c r="BC2">
-        <v>-0.05874469828858817</v>
+        <v>-0.06224861215814791</v>
       </c>
       <c r="BD2">
-        <v>-0.05855149913924566</v>
+        <v>-0.06205340270416285</v>
       </c>
       <c r="BE2">
-        <v>-0.0554393684635778</v>
+        <v>-0.05890890079334682</v>
       </c>
       <c r="BF2">
-        <v>-0.04693576235621923</v>
+        <v>-0.05016251823882253</v>
       </c>
       <c r="BG2">
-        <v>-0.04875432179238798</v>
+        <v>-0.05225149383465356</v>
       </c>
       <c r="BH2">
-        <v>-0.05298995760119601</v>
+        <v>-0.05646797649347877</v>
       </c>
       <c r="BI2">
-        <v>-0.05961994215204065</v>
+        <v>-0.06313296429153741</v>
       </c>
       <c r="BJ2">
-        <v>-0.05855149913924793</v>
+        <v>-0.06205340270416327</v>
       </c>
       <c r="BK2">
-        <v>-0.05543936846356858</v>
+        <v>-0.05890890079333994</v>
       </c>
       <c r="BL2">
-        <v>-0.04693576235622014</v>
+        <v>-0.05016251823882136</v>
       </c>
       <c r="BM2">
-        <v>-0.04875707401010478</v>
+        <v>-0.05226814460591184</v>
       </c>
       <c r="BN2">
-        <v>-0.05299057956481061</v>
+        <v>-0.05646922061883985</v>
       </c>
       <c r="BO2">
-        <v>-0.05978808410137924</v>
+        <v>-0.06330639191944723</v>
       </c>
       <c r="BP2">
-        <v>-0.05979972170549167</v>
+        <v>-0.06324983772017478</v>
       </c>
       <c r="BQ2">
-        <v>-0.05855149913924797</v>
+        <v>-0.06205340270416193</v>
       </c>
       <c r="BR2">
-        <v>-0.05543936846356329</v>
+        <v>-0.05890890079333631</v>
       </c>
       <c r="BS2">
-        <v>-0.04693576235622057</v>
+        <v>-0.05016251823882018</v>
       </c>
       <c r="BT2">
-        <v>-0.04876680218394223</v>
+        <v>-0.05232700038788243</v>
       </c>
       <c r="BU2">
-        <v>-0.05299179981227338</v>
+        <v>-0.05647166150350817</v>
       </c>
       <c r="BV2">
-        <v>-0.06177509044457403</v>
+        <v>-0.06535587651172813</v>
       </c>
       <c r="BW2">
-        <v>-0.05985464651504137</v>
+        <v>-0.06326192262794651</v>
       </c>
       <c r="BX2">
-        <v>-0.05983267643508675</v>
+        <v>-0.06329488175340482</v>
       </c>
       <c r="BY2">
-        <v>-0.05855149913924521</v>
+        <v>-0.0620534027041582</v>
       </c>
       <c r="BZ2">
-        <v>-0.05543936846354366</v>
+        <v>-0.05890890079331144</v>
       </c>
       <c r="CA2">
-        <v>-0.04693576235622204</v>
+        <v>-0.05016251823881413</v>
       </c>
       <c r="CB2">
-        <v>-0.0529979840836074</v>
+        <v>-0.05648403204233794</v>
       </c>
       <c r="CC2">
-        <v>-0.06246791392271025</v>
+        <v>-0.06607049126420089</v>
       </c>
       <c r="CD2">
-        <v>-0.05855149913924133</v>
+        <v>-0.06205340270415508</v>
       </c>
       <c r="CE2">
-        <v>-0.05543936846348354</v>
+        <v>-0.05890890079321574</v>
       </c>
       <c r="CF2">
-        <v>-0.04693576235622429</v>
+        <v>-0.05016251823880594</v>
       </c>
       <c r="CG2">
-        <v>-0.05302128795302193</v>
+        <v>-0.05653064761681223</v>
       </c>
       <c r="CH2">
-        <v>-0.06261912473892042</v>
+        <v>-0.06622645854166095</v>
       </c>
       <c r="CI2">
-        <v>-0.05855149913924033</v>
+        <v>-0.06205340270415269</v>
       </c>
       <c r="CJ2">
-        <v>-0.05543936846337052</v>
+        <v>-0.0589089007930226</v>
       </c>
       <c r="CK2">
-        <v>-0.04693576235622582</v>
+        <v>-0.05016251823880116</v>
       </c>
       <c r="CL2">
-        <v>-0.06292577187449649</v>
+        <v>-0.06654275201128179</v>
       </c>
       <c r="CM2">
-        <v>-0.05855149913924033</v>
+        <v>-0.06205340270415267</v>
       </c>
       <c r="CN2">
-        <v>-0.05543936846334886</v>
+        <v>-0.05890890079297718</v>
       </c>
       <c r="CO2">
-        <v>-0.04693576235622708</v>
+        <v>-0.05016251823879928</v>
       </c>
       <c r="CP2">
-        <v>-0.06321497334006509</v>
+        <v>-0.06684105162211564</v>
       </c>
       <c r="CQ2">
-        <v>-0.05543936846335119</v>
+        <v>-0.05890890079296857</v>
       </c>
       <c r="CR2">
-        <v>-0.04693576235622706</v>
+        <v>-0.0501625182387986</v>
       </c>
       <c r="CS2">
-        <v>-0.06338307650990473</v>
+        <v>-0.06701444351140307</v>
       </c>
       <c r="CT2">
-        <v>-0.05543936846335219</v>
+        <v>-0.05890890079295455</v>
       </c>
       <c r="CU2">
-        <v>-0.04693576235622698</v>
+        <v>-0.0501625182387983</v>
       </c>
       <c r="CV2">
-        <v>-0.06349409950939743</v>
+        <v>-0.06712895953163023</v>
       </c>
       <c r="CW2">
-        <v>-0.0554393684633531</v>
+        <v>-0.05890890079295122</v>
       </c>
       <c r="CX2">
-        <v>-0.04693576235622725</v>
+        <v>-0.05016251823879805</v>
       </c>
       <c r="CY2">
-        <v>-0.06364739576075912</v>
+        <v>-0.06728707895334586</v>
       </c>
       <c r="CZ2">
-        <v>-0.05543936846336836</v>
+        <v>-0.05890890079305088</v>
       </c>
       <c r="DA2">
-        <v>-0.04693576235622725</v>
+        <v>-0.05016251823879805</v>
       </c>
       <c r="DB2">
-        <v>-0.06365108578858614</v>
+        <v>-0.06729800077718197</v>
       </c>
       <c r="DC2">
-        <v>-0.06374409166202183</v>
+        <v>-0.06737809757113748</v>
       </c>
       <c r="DD2">
-        <v>-0.05543936846336902</v>
+        <v>-0.05890890079305523</v>
       </c>
       <c r="DE2">
-        <v>-0.06365555021408348</v>
+        <v>-0.06731121468478513</v>
       </c>
       <c r="DF2">
-        <v>-0.06379892394603746</v>
+        <v>-0.06742971044966875</v>
       </c>
       <c r="DG2">
-        <v>-0.05543936846337731</v>
+        <v>-0.05890890079306755</v>
       </c>
       <c r="DH2">
-        <v>-0.06366072480278606</v>
+        <v>-0.06732653055620336</v>
       </c>
       <c r="DI2">
-        <v>-0.06596298707015692</v>
+        <v>-0.06946668419530504</v>
       </c>
       <c r="DJ2">
-        <v>-0.05543936846350377</v>
+        <v>-0.05890890079334123</v>
       </c>
       <c r="DK2">
-        <v>-0.06366861451787671</v>
+        <v>-0.06734988273745693</v>
       </c>
       <c r="DL2">
-        <v>-0.06617983578983003</v>
+        <v>-0.06967079485016738</v>
       </c>
       <c r="DM2">
-        <v>-0.05543936846361944</v>
+        <v>-0.05890890079358631</v>
       </c>
       <c r="DN2">
-        <v>-0.06367875781946519</v>
+        <v>-0.0673799051663112</v>
       </c>
       <c r="DO2">
-        <v>-0.06620323466870762</v>
+        <v>-0.06969899367867897</v>
       </c>
       <c r="DP2">
-        <v>-0.06717920995983172</v>
+        <v>-0.07058929916766613</v>
       </c>
       <c r="DQ2">
-        <v>-0.05543936846363173</v>
+        <v>-0.05890890079361299</v>
       </c>
       <c r="DR2">
-        <v>-0.06368603974350484</v>
+        <v>-0.06740145842648801</v>
       </c>
       <c r="DS2">
-        <v>-0.06620323466870974</v>
+        <v>-0.06969899367868357</v>
       </c>
       <c r="DT2">
-        <v>-0.06621462745056393</v>
+        <v>-0.06971272353114644</v>
       </c>
       <c r="DU2">
-        <v>-0.06898178276019769</v>
+        <v>-0.07224598221850111</v>
       </c>
       <c r="DV2">
-        <v>-0.05543936846364126</v>
+        <v>-0.05890890079364194</v>
       </c>
       <c r="DW2">
-        <v>-0.06369632905242528</v>
+        <v>-0.06743191305998585</v>
       </c>
       <c r="DX2">
-        <v>-0.06620323466871156</v>
+        <v>-0.06969899367868666</v>
       </c>
       <c r="DY2">
-        <v>-0.06626814700285134</v>
+        <v>-0.06977722189433774</v>
       </c>
       <c r="DZ2">
-        <v>-0.06979253806593574</v>
+        <v>-0.07299110936212161</v>
       </c>
       <c r="EA2">
-        <v>-0.05543936846365425</v>
+        <v>-0.05890890079366844</v>
       </c>
       <c r="EB2">
-        <v>-0.06370746135025102</v>
+        <v>-0.06746486283147286</v>
       </c>
       <c r="EC2">
-        <v>-0.0662032346687129</v>
+        <v>-0.06969899367868858</v>
       </c>
       <c r="ED2">
-        <v>-0.06630979875743971</v>
+        <v>-0.06978789671520515</v>
       </c>
       <c r="EE2">
-        <v>-0.0663600491036456</v>
+        <v>-0.06994492500578137</v>
       </c>
       <c r="EF2">
-        <v>-0.07003377670557676</v>
+        <v>-0.0732128192324403</v>
       </c>
       <c r="EG2">
-        <v>-0.05543936846370609</v>
+        <v>-0.05890890079375332</v>
       </c>
       <c r="EH2">
-        <v>-0.06371796000811475</v>
+        <v>-0.06749593716315548</v>
       </c>
       <c r="EI2">
-        <v>-0.06620323466871456</v>
+        <v>-0.06969899367869122</v>
       </c>
       <c r="EJ2">
-        <v>-0.06631338582464723</v>
+        <v>-0.06978881602836387</v>
       </c>
       <c r="EK2">
-        <v>-0.06642841964291754</v>
+        <v>-0.07006968806287615</v>
       </c>
       <c r="EL2">
-        <v>-0.0703060965723596</v>
+        <v>-0.07346309355700879</v>
       </c>
       <c r="EM2">
-        <v>-0.05543936846374033</v>
+        <v>-0.05890890079381575</v>
       </c>
       <c r="EN2">
-        <v>-0.06373522148780626</v>
+        <v>-0.0675470284191988</v>
       </c>
       <c r="EO2">
-        <v>-0.06620323466871537</v>
+        <v>-0.06969899367869384</v>
       </c>
       <c r="EP2">
-        <v>-0.06631690542470024</v>
+        <v>-0.06978971804958521</v>
       </c>
       <c r="EQ2">
-        <v>-0.06647420582469292</v>
+        <v>-0.07015323920126858</v>
       </c>
       <c r="ER2">
-        <v>-0.07056221731150623</v>
+        <v>-0.07369847948668708</v>
       </c>
       <c r="ES2">
-        <v>-0.05543936846374621</v>
+        <v>-0.05890890079382723</v>
       </c>
       <c r="ET2">
-        <v>-0.06381729623720732</v>
+        <v>-0.06778995781457683</v>
       </c>
       <c r="EU2">
-        <v>-0.06620323466871593</v>
+        <v>-0.06969899367869617</v>
       </c>
       <c r="EV2">
-        <v>-0.06631974735678729</v>
+        <v>-0.06979044639378515</v>
       </c>
       <c r="EW2">
-        <v>-0.06649697418147725</v>
+        <v>-0.07019803765526082</v>
       </c>
       <c r="EX2">
-        <v>-0.06651720492388148</v>
+        <v>-0.07022561556873702</v>
       </c>
       <c r="EY2">
-        <v>-0.07086107218967055</v>
+        <v>-0.0739731391106188</v>
       </c>
       <c r="EZ2">
-        <v>-0.05543936846375074</v>
+        <v>-0.05890890079382951</v>
       </c>
       <c r="FA2">
-        <v>-0.06383517583430157</v>
+        <v>-0.06784287907629191</v>
       </c>
       <c r="FB2">
-        <v>-0.06620323466871676</v>
+        <v>-0.06969899367869814</v>
       </c>
       <c r="FC2">
-        <v>-0.06632401287796146</v>
+        <v>-0.06979153958101154</v>
       </c>
       <c r="FD2">
-        <v>-0.06655735733253833</v>
+        <v>-0.07031684626533705</v>
       </c>
       <c r="FE2">
-        <v>-0.06651982215266454</v>
+        <v>-0.07023002093680723</v>
       </c>
       <c r="FF2">
-        <v>-0.07094706829999167</v>
+        <v>-0.074052172824793</v>
       </c>
       <c r="FG2">
-        <v>-0.05543936846375223</v>
+        <v>-0.05890890079382911</v>
       </c>
       <c r="FH2">
-        <v>-0.06383517583431371</v>
+        <v>-0.06787566548840888</v>
       </c>
       <c r="FI2">
-        <v>-0.06390279419046192</v>
+        <v>-0.06803170339439588</v>
       </c>
       <c r="FJ2">
-        <v>-0.06620323466871701</v>
+        <v>-0.0696989936786996</v>
       </c>
       <c r="FK2">
-        <v>-0.06632915545136921</v>
+        <v>-0.06979285754108228</v>
       </c>
       <c r="FL2">
-        <v>-0.06657833173951176</v>
+        <v>-0.07035811513933216</v>
       </c>
       <c r="FM2">
-        <v>-0.06652221313251323</v>
+        <v>-0.07023404548161237</v>
       </c>
       <c r="FN2">
-        <v>-0.07143564439786967</v>
+        <v>-0.07450119157275255</v>
       </c>
       <c r="FO2">
-        <v>-0.05543936846375223</v>
+        <v>-0.05890890079382911</v>
       </c>
       <c r="FP2">
-        <v>-0.06383517583431597</v>
+        <v>-0.06788185945090251</v>
       </c>
       <c r="FQ2">
-        <v>-0.06399256503134468</v>
+        <v>-0.06828239017282557</v>
       </c>
       <c r="FR2">
-        <v>-0.06620323466871662</v>
+        <v>-0.06969899367870003</v>
       </c>
       <c r="FS2">
-        <v>-0.06633304056696919</v>
+        <v>-0.06979385323311837</v>
       </c>
       <c r="FT2">
-        <v>-0.06657833173961017</v>
+        <v>-0.07035811513945012</v>
       </c>
       <c r="FU2">
-        <v>-0.06661327742378848</v>
+        <v>-0.07042687263905924</v>
       </c>
       <c r="FV2">
-        <v>-0.06652320637914837</v>
+        <v>-0.0702357173349698</v>
       </c>
       <c r="FW2">
-        <v>-0.07171160894581469</v>
+        <v>-0.07475481174156903</v>
       </c>
       <c r="FX2">
-        <v>-0.06383517583431597</v>
+        <v>-0.06789463889895071</v>
       </c>
       <c r="FY2">
-        <v>-0.06400003349231326</v>
+        <v>-0.06831214837869623</v>
       </c>
       <c r="FZ2">
-        <v>-0.06401301735834376</v>
+        <v>-0.0683157149178738</v>
       </c>
       <c r="GA2">
-        <v>-0.06620323466871569</v>
+        <v>-0.06969899367870058</v>
       </c>
       <c r="GB2">
-        <v>-0.06633753633061494</v>
+        <v>-0.06979500542269365</v>
       </c>
       <c r="GC2">
-        <v>-0.06657833173962045</v>
+        <v>-0.0703581151394619</v>
       </c>
       <c r="GD2">
-        <v>-0.06661705162436565</v>
+        <v>-0.07043429864366943</v>
       </c>
       <c r="GE2">
-        <v>-0.0665253473120726</v>
+        <v>-0.07023932099947595</v>
       </c>
       <c r="GF2">
-        <v>-0.07191647148474851</v>
+        <v>-0.07494308642886117</v>
       </c>
       <c r="GG2">
-        <v>-0.06402942391298116</v>
+        <v>-0.06842925529097052</v>
       </c>
       <c r="GH2">
-        <v>-0.06409766723258563</v>
+        <v>-0.06845364435937809</v>
       </c>
       <c r="GI2">
-        <v>-0.06620323466871486</v>
+        <v>-0.06969899367870029</v>
       </c>
       <c r="GJ2">
-        <v>-0.06634176351694879</v>
+        <v>-0.06979608877876015</v>
       </c>
       <c r="GK2">
-        <v>-0.06657833173963217</v>
+        <v>-0.07035811513946207</v>
       </c>
       <c r="GL2">
-        <v>-0.06657833173961829</v>
+        <v>-0.07035811513948007</v>
       </c>
       <c r="GM2">
-        <v>-0.06662070232113788</v>
+        <v>-0.07044148165763971</v>
       </c>
       <c r="GN2">
-        <v>-0.06653080025187301</v>
+        <v>-0.070248499516306</v>
       </c>
       <c r="GO2">
-        <v>-0.07210065714368101</v>
+        <v>-0.07511235810652674</v>
       </c>
       <c r="GP2">
-        <v>-0.06408189919033845</v>
+        <v>-0.06863834560388959</v>
       </c>
       <c r="GQ2">
-        <v>-0.06411421207144487</v>
+        <v>-0.06846965941433621</v>
       </c>
       <c r="GR2">
-        <v>-0.06409766723258344</v>
+        <v>-0.06845996924575748</v>
       </c>
       <c r="GS2">
-        <v>-0.06620323466871438</v>
+        <v>-0.06969899367870039</v>
       </c>
       <c r="GT2">
-        <v>-0.06634631172991701</v>
+        <v>-0.06979725440676579</v>
       </c>
       <c r="GU2">
-        <v>-0.06657833173963217</v>
+        <v>-0.07035811513946207</v>
       </c>
       <c r="GV2">
-        <v>-0.06657833173961702</v>
+        <v>-0.07035811513950242</v>
       </c>
       <c r="GW2">
-        <v>-0.06662362251708422</v>
+        <v>-0.07044722736592499</v>
       </c>
       <c r="GX2">
-        <v>-0.06653399947048715</v>
+        <v>-0.0702538845237657</v>
       </c>
       <c r="GY2">
-        <v>-0.07232947419670936</v>
+        <v>-0.07532264679932804</v>
       </c>
       <c r="GZ2">
-        <v>-0.06409958869212419</v>
+        <v>-0.06867373277813991</v>
       </c>
       <c r="HA2">
-        <v>-0.06408647543914954</v>
+        <v>-0.06867429641626596</v>
       </c>
       <c r="HB2">
-        <v>-0.06415604207069754</v>
+        <v>-0.06851014995383214</v>
       </c>
       <c r="HC2">
-        <v>-0.06409766723258392</v>
+        <v>-0.06846086327620819</v>
       </c>
       <c r="HD2">
-        <v>-0.06620323466871418</v>
+        <v>-0.06969899367870017</v>
       </c>
       <c r="HE2">
-        <v>-0.06635326460070318</v>
+        <v>-0.06979903630333724</v>
       </c>
       <c r="HF2">
-        <v>-0.06657833173962834</v>
+        <v>-0.07035811513951255</v>
       </c>
       <c r="HG2">
-        <v>-0.06662594868618625</v>
+        <v>-0.07045180428637769</v>
       </c>
       <c r="HH2">
-        <v>-0.0665362402167521</v>
+        <v>-0.0702576562089935</v>
       </c>
       <c r="HI2">
-        <v>-0.07275173598274175</v>
+        <v>-0.07571071478048827</v>
       </c>
       <c r="HJ2">
-        <v>-0.06415748978822917</v>
+        <v>-0.06878956371254409</v>
       </c>
       <c r="HK2">
-        <v>-0.06409473478749643</v>
+        <v>-0.06873918163048516</v>
       </c>
       <c r="HL2">
-        <v>-0.06409766723258314</v>
+        <v>-0.06846158428674234</v>
       </c>
       <c r="HM2">
-        <v>-0.06620323466871417</v>
+        <v>-0.06969899367870015</v>
       </c>
       <c r="HN2">
-        <v>-0.06637225225726363</v>
+        <v>-0.06980390247909131</v>
       </c>
       <c r="HO2">
-        <v>-0.06657833173963382</v>
+        <v>-0.07035811513952542</v>
       </c>
       <c r="HP2">
-        <v>-0.06663086658840058</v>
+        <v>-0.07046148066081009</v>
       </c>
       <c r="HQ2">
-        <v>-0.06654055051720839</v>
+        <v>-0.07026491143169043</v>
       </c>
       <c r="HR2">
-        <v>-0.07311990036396669</v>
+        <v>-0.07604906462139471</v>
       </c>
       <c r="HS2">
-        <v>-0.06418245045634517</v>
+        <v>-0.06883949838348817</v>
       </c>
       <c r="HT2">
-        <v>-0.06409768383673012</v>
+        <v>-0.06876234932140063</v>
       </c>
       <c r="HU2">
-        <v>-0.06409766723258248</v>
+        <v>-0.06846216048103668</v>
       </c>
       <c r="HV2">
-        <v>-0.06637387121363506</v>
+        <v>-0.06980431738541155</v>
       </c>
       <c r="HW2">
-        <v>-0.06657833173964593</v>
+        <v>-0.07035811513954768</v>
       </c>
       <c r="HX2">
-        <v>-0.06663473956141552</v>
+        <v>-0.07046910106644794</v>
       </c>
       <c r="HY2">
-        <v>-0.0665426959081904</v>
+        <v>-0.07026852261962648</v>
       </c>
       <c r="HZ2">
-        <v>-0.07337035312957575</v>
+        <v>-0.07627923456500446</v>
       </c>
       <c r="IA2">
-        <v>-0.0641308903522885</v>
+        <v>-0.06902321591100019</v>
       </c>
       <c r="IB2">
-        <v>-0.06409768383673012</v>
+        <v>-0.06876234932140063</v>
       </c>
       <c r="IC2">
-        <v>-0.06409766723258074</v>
+        <v>-0.06846304004743534</v>
       </c>
       <c r="ID2">
-        <v>-0.06637461899481656</v>
+        <v>-0.06980450902677916</v>
       </c>
       <c r="IE2">
-        <v>-0.06657833173965358</v>
+        <v>-0.07035811513956967</v>
       </c>
       <c r="IF2">
-        <v>-0.06663742605255252</v>
+        <v>-0.07047438697516509</v>
       </c>
       <c r="IG2">
-        <v>-0.06654421926953893</v>
+        <v>-0.07027108678966217</v>
       </c>
       <c r="IH2">
-        <v>-0.07353488362572073</v>
+        <v>-0.07643044028807564</v>
       </c>
       <c r="II2">
-        <v>-0.06413571270731164</v>
+        <v>-0.0690611020336335</v>
       </c>
       <c r="IJ2">
-        <v>-0.06409766723257856</v>
+        <v>-0.06846407107692548</v>
       </c>
       <c r="IK2">
-        <v>-0.06637541883759288</v>
+        <v>-0.06980471401043863</v>
       </c>
       <c r="IL2">
-        <v>-0.06657833173966653</v>
+        <v>-0.07035811513957888</v>
       </c>
       <c r="IM2">
-        <v>-0.06664010614699814</v>
+        <v>-0.07047966030407225</v>
       </c>
       <c r="IN2">
-        <v>-0.06656164594798815</v>
+        <v>-0.0703004200129977</v>
       </c>
       <c r="IO2">
-        <v>-0.07388899331204242</v>
+        <v>-0.07675587092176336</v>
       </c>
       <c r="IP2">
-        <v>-0.06413571270731164</v>
+        <v>-0.06914778048599932</v>
       </c>
       <c r="IQ2">
-        <v>-0.06415051484099402</v>
+        <v>-0.06909071676439069</v>
       </c>
       <c r="IR2">
-        <v>-0.06409766723257697</v>
+        <v>-0.0684656546779385</v>
       </c>
       <c r="IS2">
-        <v>-0.06637618312286034</v>
+        <v>-0.06980490988136921</v>
       </c>
       <c r="IT2">
-        <v>-0.06657833173968759</v>
+        <v>-0.0703581151395902</v>
       </c>
       <c r="IU2">
-        <v>-0.06664402701158267</v>
+        <v>-0.07048737497200482</v>
       </c>
       <c r="IV2">
-        <v>-0.06656678481666614</v>
+        <v>-0.0703090699753601</v>
       </c>
       <c r="IW2">
-        <v>-0.07393876792429448</v>
+        <v>-0.07680564906811164</v>
       </c>
       <c r="IX2">
-        <v>-0.0741156911158706</v>
+        <v>-0.07696357935336766</v>
       </c>
       <c r="IY2">
-        <v>-0.06409766723257694</v>
+        <v>-0.06847144958931831</v>
       </c>
       <c r="IZ2">
-        <v>-0.06637703456971669</v>
+        <v>-0.06980512809000114</v>
       </c>
       <c r="JA2">
-        <v>-0.06657833173969235</v>
+        <v>-0.07035811513961539</v>
       </c>
       <c r="JB2">
-        <v>-0.06665877364153851</v>
+        <v>-0.07051639046577443</v>
       </c>
       <c r="JC2">
-        <v>-0.06656793453582509</v>
+        <v>-0.07031100523345332</v>
       </c>
       <c r="JD2">
-        <v>-0.07394564860236075</v>
+        <v>-0.07681253023472553</v>
       </c>
       <c r="JE2">
-        <v>-0.07496583483743112</v>
+        <v>-0.07774250606185017</v>
       </c>
       <c r="JF2">
-        <v>-0.06409766723257694</v>
+        <v>-0.06849965364549955</v>
       </c>
       <c r="JG2">
-        <v>-0.06637879207644967</v>
+        <v>-0.06980557850327899</v>
       </c>
       <c r="JH2">
-        <v>-0.06657833173970339</v>
+        <v>-0.07035811513963569</v>
       </c>
       <c r="JI2">
-        <v>-0.0666622155336173</v>
+        <v>-0.07052316276556972</v>
       </c>
       <c r="JJ2">
-        <v>-0.06659691067525188</v>
+        <v>-0.07033998684916599</v>
       </c>
       <c r="JK2">
-        <v>-0.06656793453582666</v>
+        <v>-0.07031168472043672</v>
       </c>
       <c r="JL2">
-        <v>-0.07394881191017444</v>
+        <v>-0.07681569376714306</v>
       </c>
       <c r="JM2">
-        <v>-0.07497773251463415</v>
+        <v>-0.07776572244355784</v>
       </c>
       <c r="JN2">
-        <v>-0.07524892124653006</v>
+        <v>-0.07799928510227788</v>
       </c>
       <c r="JO2">
-        <v>-0.06638062250993292</v>
+        <v>-0.06980604760591573</v>
       </c>
       <c r="JP2">
-        <v>-0.06657833173971005</v>
+        <v>-0.07035811513964728</v>
       </c>
       <c r="JQ2">
-        <v>-0.06666379235583894</v>
+        <v>-0.07052626533949709</v>
       </c>
       <c r="JR2">
-        <v>-0.06662562741452997</v>
+        <v>-0.07036870901577419</v>
       </c>
       <c r="JS2">
-        <v>-0.06656793453582933</v>
+        <v>-0.07031248137643326</v>
       </c>
       <c r="JT2">
-        <v>-0.07395256901927073</v>
+        <v>-0.07681945114300436</v>
       </c>
       <c r="JU2">
-        <v>-0.0749785973476679</v>
+        <v>-0.0777674100292175</v>
       </c>
       <c r="JV2">
-        <v>-0.07627519762750112</v>
+        <v>-0.07893018165145481</v>
       </c>
       <c r="JW2">
-        <v>-0.06638758301093363</v>
+        <v>-0.06980783143719779</v>
       </c>
       <c r="JX2">
-        <v>-0.06657833173971306</v>
+        <v>-0.07035811513963965</v>
       </c>
       <c r="JY2">
-        <v>-0.06666482899798121</v>
+        <v>-0.07052830504992727</v>
       </c>
       <c r="JZ2">
-        <v>-0.06656793453583217</v>
+        <v>-0.07031320133207304</v>
       </c>
       <c r="KA2">
-        <v>-0.07395836580146445</v>
+        <v>-0.07682524833678463</v>
       </c>
       <c r="KB2">
-        <v>-0.07497931017036856</v>
+        <v>-0.07776880099109146</v>
       </c>
       <c r="KC2">
-        <v>-0.07645963157212998</v>
+        <v>-0.07908047127086744</v>
       </c>
       <c r="KD2">
-        <v>-0.07642128467295239</v>
+        <v>-0.07907131229758514</v>
       </c>
       <c r="KE2">
-        <v>-0.06642453767418657</v>
+        <v>-0.06981730207634554</v>
       </c>
       <c r="KF2">
-        <v>-0.06657833173971306</v>
+        <v>-0.07035811513963965</v>
       </c>
       <c r="KG2">
-        <v>-0.06666972385959342</v>
+        <v>-0.07053785796245783</v>
       </c>
       <c r="KH2">
-        <v>-0.06666512350715592</v>
+        <v>-0.07052889418691626</v>
       </c>
       <c r="KI2">
-        <v>-0.06656793453583448</v>
+        <v>-0.07031393050344706</v>
       </c>
       <c r="KJ2">
-        <v>-0.07396353115505841</v>
+        <v>-0.07683041405713353</v>
       </c>
       <c r="KK2">
-        <v>-0.07498032268043485</v>
+        <v>-0.07777077674666748</v>
       </c>
       <c r="KL2">
-        <v>-0.0765445249925059</v>
+        <v>-0.07914964796356795</v>
       </c>
       <c r="KM2">
-        <v>-0.07703356042235208</v>
+        <v>-0.07966281393292259</v>
       </c>
       <c r="KN2">
-        <v>-0.06667197235534934</v>
+        <v>-0.07054224617979475</v>
       </c>
       <c r="KO2">
-        <v>-0.06666533194183438</v>
+        <v>-0.07052931114028543</v>
       </c>
       <c r="KP2">
-        <v>-0.06656793453583572</v>
+        <v>-0.07031471451037168</v>
       </c>
       <c r="KQ2">
-        <v>-0.07396754710884144</v>
+        <v>-0.0768344302960637</v>
       </c>
       <c r="KR2">
-        <v>-0.07498487042475635</v>
+        <v>-0.07777965097155859</v>
       </c>
       <c r="KS2">
-        <v>-0.07709914352288549</v>
+        <v>-0.07960158144704793</v>
       </c>
       <c r="KT2">
-        <v>-0.07716872020341357</v>
+        <v>-0.07979338761417153</v>
       </c>
       <c r="KU2">
-        <v>-0.06667577789843826</v>
+        <v>-0.07054967317717979</v>
       </c>
       <c r="KV2">
-        <v>-0.06666557449839787</v>
+        <v>-0.07052979635122804</v>
       </c>
       <c r="KW2">
-        <v>-0.06656793453583602</v>
+        <v>-0.07031926132088363</v>
       </c>
       <c r="KX2">
-        <v>-0.07397254597490352</v>
+        <v>-0.07683942951706482</v>
       </c>
       <c r="KY2">
-        <v>-0.07498574591484497</v>
+        <v>-0.07778135935807363</v>
       </c>
       <c r="KZ2">
-        <v>-0.07714057174237456</v>
+        <v>-0.07963533901684501</v>
       </c>
       <c r="LA2">
-        <v>-0.07721363158307723</v>
+        <v>-0.07983677509065752</v>
       </c>
       <c r="LB2">
-        <v>-0.06668308240969499</v>
+        <v>-0.07056392888669658</v>
       </c>
       <c r="LC2">
-        <v>-0.06666603843160188</v>
+        <v>-0.07053072440487465</v>
       </c>
       <c r="LD2">
-        <v>-0.06656793453583604</v>
+        <v>-0.07033849271355745</v>
       </c>
       <c r="LE2">
-        <v>-0.07397771627179917</v>
+        <v>-0.07684460018107347</v>
       </c>
       <c r="LF2">
-        <v>-0.07498639414350125</v>
+        <v>-0.07778262427868746</v>
       </c>
       <c r="LG2">
-        <v>-0.07714588561194111</v>
+        <v>-0.07964986374465122</v>
       </c>
       <c r="LH2">
-        <v>-0.07784911042941439</v>
+        <v>-0.08011605850335522</v>
       </c>
       <c r="LI2">
-        <v>-0.07723707226868473</v>
+        <v>-0.07985942039900652</v>
       </c>
       <c r="LJ2">
-        <v>-0.06670458826263381</v>
+        <v>-0.07060590063521632</v>
       </c>
       <c r="LK2">
-        <v>-0.06666781769703539</v>
+        <v>-0.0705342836556556</v>
       </c>
       <c r="LL2">
-        <v>-0.07398381493315791</v>
+        <v>-0.07685069927546448</v>
       </c>
       <c r="LM2">
-        <v>-0.07498714083287264</v>
+        <v>-0.07778408133100422</v>
       </c>
       <c r="LN2">
-        <v>-0.07717325384571923</v>
+        <v>-0.07972467199458504</v>
       </c>
       <c r="LO2">
-        <v>-0.07818917684503933</v>
+        <v>-0.08034677354545058</v>
       </c>
       <c r="LP2">
-        <v>-0.07725713828185914</v>
+        <v>-0.07987880554068975</v>
       </c>
       <c r="LQ2">
-        <v>-0.06667388966581665</v>
+        <v>-0.0705464300717802</v>
       </c>
       <c r="LR2">
-        <v>-0.07398729036599709</v>
+        <v>-0.07685417495507435</v>
       </c>
       <c r="LS2">
-        <v>-0.07498788153822949</v>
+        <v>-0.07778552670687867</v>
       </c>
       <c r="LT2">
-        <v>-0.07718280869635982</v>
+        <v>-0.07975078957656476</v>
       </c>
       <c r="LU2">
-        <v>-0.07839861088684735</v>
+        <v>-0.08047142596994933</v>
       </c>
       <c r="LV2">
-        <v>-0.0787140804864747</v>
+        <v>-0.08071373553007409</v>
       </c>
       <c r="LW2">
-        <v>-0.077279959837184</v>
+        <v>-0.0799008527225232</v>
       </c>
       <c r="LX2">
-        <v>-0.07400299104211834</v>
+        <v>-0.07686987674602073</v>
       </c>
       <c r="LY2">
-        <v>-0.07499438872762791</v>
+        <v>-0.0777982245350583</v>
       </c>
       <c r="LZ2">
-        <v>-0.07720360435305272</v>
+        <v>-0.07980763387548118</v>
       </c>
       <c r="MA2">
-        <v>-0.07848156268229671</v>
+        <v>-0.08052079646954985</v>
       </c>
       <c r="MB2">
-        <v>-0.07881319086747164</v>
+        <v>-0.08073254877839044</v>
       </c>
       <c r="MC2">
-        <v>-0.07879444400482909</v>
+        <v>-0.08077758237329312</v>
       </c>
       <c r="MD2">
-        <v>-0.07729793934065418</v>
+        <v>-0.0799182221498327</v>
       </c>
       <c r="ME2">
-        <v>-0.07400910144960256</v>
+        <v>-0.07687598758737481</v>
       </c>
       <c r="MF2">
-        <v>-0.07500769035457898</v>
+        <v>-0.07782418082573209</v>
       </c>
       <c r="MG2">
-        <v>-0.07720928656647133</v>
+        <v>-0.07982468157829166</v>
       </c>
       <c r="MH2">
-        <v>-0.07720895143015467</v>
+        <v>-0.07982153709995521</v>
       </c>
       <c r="MI2">
-        <v>-0.07886302076519131</v>
+        <v>-0.08074200728747459</v>
       </c>
       <c r="MJ2">
-        <v>-0.07886329311806042</v>
+        <v>-0.08083228112091903</v>
       </c>
       <c r="MK2">
-        <v>-0.07731301328864894</v>
+        <v>-0.07993278461119858</v>
       </c>
       <c r="ML2">
-        <v>-0.07401122420339618</v>
+        <v>-0.07687811049189516</v>
       </c>
       <c r="MM2">
-        <v>-0.07721778889935405</v>
+        <v>-0.07985019033190437</v>
       </c>
       <c r="MN2">
-        <v>-0.07720969596093523</v>
+        <v>-0.07982347299902458</v>
       </c>
       <c r="MO2">
-        <v>-0.0788676579837128</v>
+        <v>-0.08074288749662686</v>
       </c>
       <c r="MP2">
-        <v>-0.07891172267171928</v>
+        <v>-0.08087075698258314</v>
       </c>
       <c r="MQ2">
-        <v>-0.07732661478343074</v>
+        <v>-0.07994592458154723</v>
       </c>
       <c r="MR2">
-        <v>-0.07401282341731272</v>
+        <v>-0.07687970981936527</v>
       </c>
       <c r="MS2">
-        <v>-0.07721050457399573</v>
+        <v>-0.07982557552345849</v>
       </c>
       <c r="MT2">
-        <v>-0.07886957310000801</v>
+        <v>-0.08074325101213557</v>
       </c>
       <c r="MU2">
-        <v>-0.07897291515504225</v>
+        <v>-0.08091937249830176</v>
       </c>
       <c r="MV2">
-        <v>-0.07733787187902477</v>
+        <v>-0.07995679970199969</v>
       </c>
       <c r="MW2">
-        <v>-0.07401399347604792</v>
+        <v>-0.07688087996118217</v>
       </c>
       <c r="MX2">
-        <v>-0.07721121286119931</v>
+        <v>-0.07982741718549594</v>
       </c>
       <c r="MY2">
-        <v>-0.07887092441408157</v>
+        <v>-0.0807435075100435</v>
       </c>
       <c r="MZ2">
-        <v>-0.07901125827597705</v>
+        <v>-0.08094983484155956</v>
       </c>
       <c r="NA2">
-        <v>-0.07735093079683519</v>
+        <v>-0.07996941550466095</v>
       </c>
       <c r="NB2">
-        <v>-0.07401458763873221</v>
+        <v>-0.07688147416605662</v>
       </c>
       <c r="NC2">
-        <v>-0.07721196541660762</v>
+        <v>-0.07982937395311644</v>
       </c>
       <c r="ND2">
-        <v>-0.07887230659926497</v>
+        <v>-0.08074376986757699</v>
       </c>
       <c r="NE2">
-        <v>-0.07907013888675303</v>
+        <v>-0.08099661344009199</v>
       </c>
       <c r="NF2">
-        <v>-0.07736528348569845</v>
+        <v>-0.07998328117729167</v>
       </c>
       <c r="NG2">
-        <v>-0.07401546118430775</v>
+        <v>-0.07688234777366305</v>
       </c>
       <c r="NH2">
-        <v>-0.07721303947469467</v>
+        <v>-0.07983216668235443</v>
       </c>
       <c r="NI2">
-        <v>-0.07887393748018605</v>
+        <v>-0.08074407943076725</v>
       </c>
       <c r="NJ2">
-        <v>-0.07912883670385377</v>
+        <v>-0.08104324669227451</v>
       </c>
       <c r="NK2">
-        <v>-0.07744352974871634</v>
+        <v>-0.08005887236821442</v>
       </c>
       <c r="NL2">
-        <v>-0.07401692553276532</v>
+        <v>-0.07688381222610506</v>
       </c>
       <c r="NM2">
-        <v>-0.07721434518990399</v>
+        <v>-0.0798355617615043</v>
       </c>
       <c r="NN2">
-        <v>-0.07887599472174962</v>
+        <v>-0.08074446992268952</v>
       </c>
       <c r="NO2">
-        <v>-0.07919469837843829</v>
+        <v>-0.08109557121881948</v>
       </c>
       <c r="NP2">
-        <v>-0.07798981181631201</v>
+        <v>-0.08059515561838071</v>
       </c>
       <c r="NQ2">
-        <v>-0.07746356041774838</v>
+        <v>-0.08007428112391225</v>
       </c>
       <c r="NR2">
-        <v>-0.07402345717158926</v>
+        <v>-0.07689034432874441</v>
       </c>
       <c r="NS2">
-        <v>-0.07722243844725628</v>
+        <v>-0.07985660566400025</v>
       </c>
       <c r="NT2">
-        <v>-0.07887783718342886</v>
+        <v>-0.08074481964627112</v>
       </c>
       <c r="NU2">
-        <v>-0.07924235879522605</v>
+        <v>-0.08113343546083218</v>
       </c>
       <c r="NV2">
-        <v>-0.07851306245382238</v>
+        <v>-0.0811088283315895</v>
       </c>
       <c r="NW2">
-        <v>-0.07758655543570923</v>
+        <v>-0.08016889533342192</v>
       </c>
       <c r="NX2">
-        <v>-0.07746356041773196</v>
+        <v>-0.08007428112391017</v>
       </c>
       <c r="NY2">
-        <v>-0.07404746745906057</v>
+        <v>-0.07691435632120985</v>
       </c>
       <c r="NZ2">
-        <v>-0.07725013162105066</v>
+        <v>-0.07992861376101393</v>
       </c>
       <c r="OA2">
-        <v>-0.07887929507807978</v>
+        <v>-0.08074509637377876</v>
       </c>
       <c r="OB2">
-        <v>-0.07929916628516737</v>
+        <v>-0.08117856657059369</v>
       </c>
       <c r="OC2">
-        <v>-0.07853635692580045</v>
+        <v>-0.08113169639119146</v>
       </c>
       <c r="OD2">
-        <v>-0.07763150877841887</v>
+        <v>-0.08020347549333859</v>
       </c>
       <c r="OE2">
-        <v>-0.07746356041764504</v>
+        <v>-0.08007428112389871</v>
       </c>
       <c r="OF2">
-        <v>-0.07888179717827215</v>
+        <v>-0.08074557130483279</v>
       </c>
       <c r="OG2">
-        <v>-0.07938159433034932</v>
+        <v>-0.08124405190583299</v>
       </c>
       <c r="OH2">
-        <v>-0.07862501269818599</v>
+        <v>-0.08120954968380176</v>
       </c>
       <c r="OI2">
-        <v>-0.07891111960069185</v>
+        <v>-0.08150499954707249</v>
       </c>
       <c r="OJ2">
-        <v>-0.07763608449129333</v>
+        <v>-0.08020699533103937</v>
       </c>
       <c r="OK2">
-        <v>-0.07746356041763747</v>
+        <v>-0.08007428112389843</v>
       </c>
       <c r="OL2">
-        <v>-0.07889053176260105</v>
+        <v>-0.08074722923873229</v>
       </c>
       <c r="OM2">
-        <v>-0.07944270561764784</v>
+        <v>-0.08129260188936448</v>
       </c>
       <c r="ON2">
-        <v>-0.07863313603568262</v>
+        <v>-0.0812166831941544</v>
       </c>
       <c r="OO2">
-        <v>-0.07909192806038359</v>
+        <v>-0.08168510381960013</v>
       </c>
       <c r="OP2">
-        <v>-0.07763927774592508</v>
+        <v>-0.08020945172062414</v>
       </c>
       <c r="OQ2">
-        <v>-0.077463560417635</v>
+        <v>-0.08007428112389894</v>
       </c>
       <c r="OR2">
-        <v>-0.07894393253715232</v>
+        <v>-0.08075736526061567</v>
       </c>
       <c r="OS2">
-        <v>-0.07950165804084891</v>
+        <v>-0.08133943663275764</v>
       </c>
       <c r="OT2">
-        <v>-0.07863775399877397</v>
+        <v>-0.08122073845787656</v>
       </c>
       <c r="OU2">
-        <v>-0.07963742522749409</v>
+        <v>-0.08222847636040764</v>
       </c>
       <c r="OV2">
-        <v>-0.07909192806055912</v>
+        <v>-0.0816851038197102</v>
       </c>
       <c r="OW2">
-        <v>-0.07764258567891466</v>
+        <v>-0.08021199632489216</v>
       </c>
       <c r="OX2">
-        <v>-0.07746356041763401</v>
+        <v>-0.08007428112389861</v>
       </c>
       <c r="OY2">
-        <v>-0.07955935542761619</v>
+        <v>-0.08138527419258001</v>
       </c>
       <c r="OZ2">
-        <v>-0.07864088971222051</v>
+        <v>-0.08122349208366142</v>
       </c>
       <c r="PA2">
-        <v>-0.08041441631518234</v>
+        <v>-0.08300244092486368</v>
       </c>
       <c r="PB2">
-        <v>-0.07909192806060913</v>
+        <v>-0.08168510381973465</v>
       </c>
       <c r="PC2">
-        <v>-0.07765647712153327</v>
+        <v>-0.08022268221009846</v>
       </c>
       <c r="PD2">
-        <v>-0.07746356041763233</v>
+        <v>-0.08007428112389826</v>
       </c>
       <c r="PE2">
-        <v>-0.07962874620572395</v>
+        <v>-0.08144040138365981</v>
       </c>
       <c r="PF2">
-        <v>-0.07864600010484954</v>
+        <v>-0.08122797977232835</v>
       </c>
       <c r="PG2">
-        <v>-0.08057702087901267</v>
+        <v>-0.08316441207471473</v>
       </c>
       <c r="PH2">
-        <v>-0.07909192806063964</v>
+        <v>-0.08168510381975175</v>
       </c>
       <c r="PI2">
-        <v>-0.07765986909933902</v>
+        <v>-0.08022529146051798</v>
       </c>
       <c r="PJ2">
-        <v>-0.07746356041760218</v>
+        <v>-0.08007428112389216</v>
       </c>
       <c r="PK2">
-        <v>-0.07974496534869013</v>
+        <v>-0.08153273077341129</v>
       </c>
       <c r="PL2">
-        <v>-0.07962874620572395</v>
+        <v>-0.08144040138365981</v>
       </c>
       <c r="PM2">
-        <v>-0.07866298744800547</v>
+        <v>-0.08124289718985182</v>
       </c>
       <c r="PN2">
-        <v>-0.08061858128706463</v>
+        <v>-0.08320581058511158</v>
       </c>
       <c r="PO2">
-        <v>-0.0790919280606697</v>
+        <v>-0.08168510381976493</v>
       </c>
       <c r="PP2">
-        <v>-0.0776631046819788</v>
+        <v>-0.08022778040440311</v>
       </c>
       <c r="PQ2">
-        <v>-0.07746356041759074</v>
+        <v>-0.08007428112389128</v>
       </c>
       <c r="PR2">
-        <v>-0.08013698566982821</v>
+        <v>-0.08184416469902633</v>
       </c>
       <c r="PS2">
-        <v>-0.07974496534869013</v>
+        <v>-0.08153273077341129</v>
       </c>
       <c r="PT2">
-        <v>-0.07868189984130811</v>
+        <v>-0.08125950507156529</v>
       </c>
       <c r="PU2">
-        <v>-0.08064035427674814</v>
+        <v>-0.08322749875823311</v>
       </c>
       <c r="PV2">
-        <v>-0.07909192806069767</v>
+        <v>-0.08168510381977637</v>
       </c>
       <c r="PW2">
-        <v>-0.07766632267081147</v>
+        <v>-0.08023025581356481</v>
       </c>
       <c r="PX2">
-        <v>-0.07746356041758767</v>
+        <v>-0.08007428112388999</v>
       </c>
       <c r="PY2">
-        <v>-0.08069151532164175</v>
+        <v>-0.08228469205491058</v>
       </c>
       <c r="PZ2">
-        <v>-0.08013698566982821</v>
+        <v>-0.08184416469902633</v>
       </c>
       <c r="QA2">
-        <v>-0.07869253616875552</v>
+        <v>-0.08126884533433602</v>
       </c>
       <c r="QB2">
-        <v>-0.08065840387710983</v>
+        <v>-0.08324547804628613</v>
       </c>
       <c r="QC2">
-        <v>-0.07909192806072572</v>
+        <v>-0.08168510381978632</v>
       </c>
       <c r="QD2">
-        <v>-0.07767001412457958</v>
+        <v>-0.08023309543036776</v>
       </c>
       <c r="QE2">
-        <v>-0.07746356041758162</v>
+        <v>-0.0800742811238884</v>
       </c>
       <c r="QF2">
-        <v>-0.08108946354378577</v>
+        <v>-0.08260082181998378</v>
       </c>
       <c r="QG2">
-        <v>-0.08069151532164175</v>
+        <v>-0.08228469205491058</v>
       </c>
       <c r="QH2">
-        <v>-0.07870252791759447</v>
+        <v>-0.08127761955708042</v>
       </c>
       <c r="QI2">
-        <v>-0.08067303210503771</v>
+        <v>-0.08326004928975467</v>
       </c>
       <c r="QJ2">
-        <v>-0.07909192806075203</v>
+        <v>-0.08168510381979405</v>
       </c>
       <c r="QK2">
-        <v>-0.07768276239029369</v>
+        <v>-0.08024290190783598</v>
       </c>
       <c r="QL2">
-        <v>-0.07746356041757765</v>
+        <v>-0.08007428112388636</v>
       </c>
       <c r="QM2">
-        <v>-0.08121020778717579</v>
+        <v>-0.08269673983790866</v>
       </c>
       <c r="QN2">
-        <v>-0.08108946354378577</v>
+        <v>-0.08260082181998378</v>
       </c>
       <c r="QO2">
-        <v>-0.07871206091307344</v>
+        <v>-0.08128599092246479</v>
       </c>
       <c r="QP2">
-        <v>-0.08069539241279504</v>
+        <v>-0.08328232249241878</v>
       </c>
       <c r="QQ2">
-        <v>-0.07909192806076477</v>
+        <v>-0.08168510381979768</v>
       </c>
       <c r="QR2">
-        <v>-0.07774488825234531</v>
+        <v>-0.08029069142519561</v>
       </c>
       <c r="QS2">
-        <v>-0.07746356041757466</v>
+        <v>-0.0800742811238854</v>
       </c>
       <c r="QT2">
-        <v>-0.08155470940017547</v>
+        <v>-0.08287773266410056</v>
       </c>
       <c r="QU2">
-        <v>-0.08121020778717582</v>
+        <v>-0.08269673983790868</v>
       </c>
       <c r="QV2">
-        <v>-0.08122052777458194</v>
+        <v>-0.0827792835145837</v>
       </c>
       <c r="QW2">
-        <v>-0.07872771275943279</v>
+        <v>-0.08129973552492398</v>
       </c>
       <c r="QX2">
-        <v>-0.08071554994567334</v>
+        <v>-0.08330240150094143</v>
       </c>
       <c r="QY2">
-        <v>-0.07909192806077445</v>
+        <v>-0.08168510381979775</v>
       </c>
       <c r="QZ2">
-        <v>-0.07746356041757403</v>
+        <v>-0.08007428112388526</v>
       </c>
       <c r="RA2">
-        <v>-0.081937497321876</v>
+        <v>-0.08307883261378977</v>
       </c>
       <c r="RB2">
-        <v>-0.08155470940017547</v>
+        <v>-0.08287773266410052</v>
       </c>
       <c r="RC2">
-        <v>-0.08155470940017547</v>
+        <v>-0.08287773266410053</v>
       </c>
       <c r="RD2">
-        <v>-0.08122203488486696</v>
+        <v>-0.08279133825533215</v>
       </c>
       <c r="RE2">
-        <v>-0.07873861463407383</v>
+        <v>-0.08130930895280933</v>
       </c>
       <c r="RF2">
-        <v>-0.0807347349974129</v>
+        <v>-0.08332151181646928</v>
       </c>
       <c r="RG2">
-        <v>-0.07909192806078146</v>
+        <v>-0.08168510381979478</v>
       </c>
       <c r="RH2">
-        <v>-0.07746356041756979</v>
+        <v>-0.08007428112387933</v>
       </c>
       <c r="RI2">
-        <v>-0.0820777776082656</v>
+        <v>-0.08315252771334607</v>
       </c>
       <c r="RJ2">
-        <v>-0.081937497321876</v>
+        <v>-0.08307883261378977</v>
       </c>
       <c r="RK2">
-        <v>-0.08122285667312441</v>
+        <v>-0.08279791141809295</v>
       </c>
       <c r="RL2">
-        <v>-0.07874627456369016</v>
+        <v>-0.08131603547906181</v>
       </c>
       <c r="RM2">
-        <v>-0.08075634818207433</v>
+        <v>-0.08334304080579426</v>
       </c>
       <c r="RN2">
-        <v>-0.07909192806079071</v>
+        <v>-0.08168510381979084</v>
       </c>
       <c r="RO2">
-        <v>-0.07746356041756877</v>
+        <v>-0.08007428112387974</v>
       </c>
       <c r="RP2">
-        <v>-0.08230753719135282</v>
+        <v>-0.08328682657990831</v>
       </c>
       <c r="RQ2">
-        <v>-0.0820777776082656</v>
+        <v>-0.08315252771334607</v>
       </c>
       <c r="RR2">
-        <v>-0.08225186372667892</v>
+        <v>-0.08320866596969349</v>
       </c>
       <c r="RS2">
-        <v>-0.08122341337038438</v>
+        <v>-0.08280236423147602</v>
       </c>
       <c r="RT2">
-        <v>-0.07874993453327075</v>
+        <v>-0.08131924946077568</v>
       </c>
       <c r="RU2">
-        <v>-0.08077917872887326</v>
+        <v>-0.08336578241469689</v>
       </c>
       <c r="RV2">
-        <v>-0.07909192806080144</v>
+        <v>-0.08168510381978404</v>
       </c>
       <c r="RW2">
-        <v>-0.07746356041756991</v>
+        <v>-0.08007428112388079</v>
       </c>
       <c r="RX2">
-        <v>-0.08263685692185822</v>
+        <v>-0.08347931537408317</v>
       </c>
       <c r="RY2">
-        <v>-0.08230753719135282</v>
+        <v>-0.08328682657990831</v>
       </c>
       <c r="RZ2">
-        <v>-0.08225849619865315</v>
+        <v>-0.08321182315773873</v>
       </c>
       <c r="SA2">
-        <v>-0.08227411891545748</v>
+        <v>-0.0832086659696948</v>
       </c>
       <c r="SB2">
-        <v>-0.08122425895804279</v>
+        <v>-0.08280912778637485</v>
       </c>
       <c r="SC2">
-        <v>-0.07875225302681912</v>
+        <v>-0.08132128543251446</v>
       </c>
       <c r="SD2">
-        <v>-0.08082909735561797</v>
+        <v>-0.08341550657921962</v>
       </c>
       <c r="SE2">
-        <v>-0.0790919280608168</v>
+        <v>-0.08168510381977329</v>
       </c>
       <c r="SF2">
-        <v>-0.07746356041757041</v>
+        <v>-0.08007428112388</v>
       </c>
       <c r="SG2">
-        <v>-0.08283784129146429</v>
+        <v>-0.08359678877424696</v>
       </c>
       <c r="SH2">
-        <v>-0.08263685692185822</v>
+        <v>-0.08347931537408317</v>
       </c>
       <c r="SI2">
-        <v>-0.08226129959335744</v>
+        <v>-0.08321315762764638</v>
       </c>
       <c r="SJ2">
-        <v>-0.08228835981936081</v>
+        <v>-0.0832086659696948</v>
       </c>
       <c r="SK2">
-        <v>-0.08122554222139931</v>
+        <v>-0.08281939218839363</v>
       </c>
       <c r="SL2">
-        <v>-0.07875382061547627</v>
+        <v>-0.0813226620013054</v>
       </c>
       <c r="SM2">
-        <v>-0.0819613569844875</v>
+        <v>-0.08454335505100954</v>
       </c>
       <c r="SN2">
-        <v>-0.07909192806082448</v>
+        <v>-0.0816851038197659</v>
       </c>
       <c r="SO2">
-        <v>-0.07746356041757041</v>
+        <v>-0.08007428112388</v>
       </c>
       <c r="SP2">
-        <v>-0.08287245373541875</v>
+        <v>-0.08361701919336784</v>
       </c>
       <c r="SQ2">
-        <v>-0.08283784129146429</v>
+        <v>-0.08359678877424696</v>
       </c>
       <c r="SR2">
-        <v>-0.08226294681477581</v>
+        <v>-0.08321394173636948</v>
       </c>
       <c r="SS2">
-        <v>-0.08122645265481405</v>
+        <v>-0.08282667447168567</v>
       </c>
       <c r="ST2">
-        <v>-0.07875600721387423</v>
+        <v>-0.08132458214966962</v>
       </c>
       <c r="SU2">
-        <v>-0.08196135698448662</v>
+        <v>-0.08455893104401696</v>
       </c>
       <c r="SV2">
-        <v>-0.08213544049317993</v>
+        <v>-0.08471365604899581</v>
       </c>
       <c r="SW2">
-        <v>-0.07909192806083089</v>
+        <v>-0.0816851038197569</v>
       </c>
       <c r="SX2">
-        <v>-0.0829438199444025</v>
+        <v>-0.0836399570386252</v>
       </c>
       <c r="SY2">
-        <v>-0.08287245373541877</v>
+        <v>-0.08361701919336785</v>
       </c>
       <c r="SZ2">
-        <v>-0.08293710139334459</v>
+        <v>-0.0837100774970716</v>
       </c>
       <c r="TA2">
-        <v>-0.08226446275529756</v>
+        <v>-0.0832146633526174</v>
       </c>
       <c r="TB2">
-        <v>-0.08122707467394452</v>
+        <v>-0.08283164982796908</v>
       </c>
       <c r="TC2">
-        <v>-0.07875767604443594</v>
+        <v>-0.08132604762313624</v>
       </c>
       <c r="TD2">
-        <v>-0.08196135698448662</v>
+        <v>-0.08457266705200743</v>
       </c>
       <c r="TE2">
-        <v>-0.08222935530041206</v>
+        <v>-0.08480553022711439</v>
       </c>
       <c r="TF2">
-        <v>-0.0790919280608402</v>
+        <v>-0.08168510381975187</v>
       </c>
       <c r="TG2">
-        <v>-0.0829963546904017</v>
+        <v>-0.08365684209995718</v>
       </c>
       <c r="TH2">
-        <v>-0.0829438199444025</v>
+        <v>-0.0836399570386252</v>
       </c>
       <c r="TI2">
-        <v>-0.08297530392350082</v>
+        <v>-0.08376506942438103</v>
       </c>
       <c r="TJ2">
-        <v>-0.08226581333174922</v>
+        <v>-0.08321530625223304</v>
       </c>
       <c r="TK2">
-        <v>-0.08122756619124905</v>
+        <v>-0.08283558134379967</v>
       </c>
       <c r="TL2">
-        <v>-0.0787695852250543</v>
+        <v>-0.08133650559413114</v>
       </c>
       <c r="TM2">
-        <v>-0.08224338102885555</v>
+        <v>-0.08481925119522182</v>
       </c>
       <c r="TN2">
-        <v>-0.07909192806084864</v>
+        <v>-0.0816851038197413</v>
       </c>
       <c r="TO2">
-        <v>-0.08306788178514539</v>
+        <v>-0.0836798312333621</v>
       </c>
       <c r="TP2">
-        <v>-0.0829963546904017</v>
+        <v>-0.08365684209995718</v>
       </c>
       <c r="TQ2">
-        <v>-0.08300557402648406</v>
+        <v>-0.08380864304952063</v>
       </c>
       <c r="TR2">
-        <v>-0.08226721440226063</v>
+        <v>-0.08321597318774494</v>
       </c>
       <c r="TS2">
-        <v>-0.08122914212721791</v>
+        <v>-0.08284818687688952</v>
       </c>
       <c r="TT2">
-        <v>-0.0787905790276781</v>
+        <v>-0.08134188535171909</v>
       </c>
       <c r="TU2">
-        <v>-0.07883055380144928</v>
+        <v>-0.08142796095751191</v>
       </c>
       <c r="TV2">
-        <v>-0.08225408739946431</v>
+        <v>-0.08482972493033647</v>
       </c>
       <c r="TW2">
-        <v>-0.07909192806085151</v>
+        <v>-0.08168510381972574</v>
       </c>
       <c r="TX2">
-        <v>-0.08311849907601915</v>
+        <v>-0.08369609971357346</v>
       </c>
       <c r="TY2">
-        <v>-0.08306788178514539</v>
+        <v>-0.0836798312333621</v>
       </c>
       <c r="TZ2">
-        <v>-0.08301808198304887</v>
+        <v>-0.08382664825247482</v>
       </c>
       <c r="UA2">
-        <v>-0.08227144401341532</v>
+        <v>-0.08321798655963118</v>
       </c>
       <c r="UB2">
-        <v>-0.08124188914670645</v>
+        <v>-0.0829501495537046</v>
       </c>
       <c r="UC2">
-        <v>-0.07881376121510039</v>
+        <v>-0.08134782584836787</v>
       </c>
       <c r="UD2">
-        <v>-0.08226410063524971</v>
+        <v>-0.08483952059125636</v>
       </c>
       <c r="UE2">
-        <v>-0.07909192806085524</v>
+        <v>-0.08168510381971336</v>
       </c>
       <c r="UF2">
-        <v>-0.08326005559634571</v>
+        <v>-0.08374159556354703</v>
       </c>
       <c r="UG2">
-        <v>-0.08311849907601915</v>
+        <v>-0.08369609971357346</v>
       </c>
       <c r="UH2">
-        <v>-0.08302044339417501</v>
+        <v>-0.08382822198080274</v>
       </c>
       <c r="UI2">
-        <v>-0.08303879072285344</v>
+        <v>-0.08388047277953069</v>
       </c>
       <c r="UJ2">
-        <v>-0.08227570645347393</v>
+        <v>-0.083220015556613</v>
       </c>
       <c r="UK2">
-        <v>-0.08124252393772417</v>
+        <v>-0.082955227319063</v>
       </c>
       <c r="UL2">
-        <v>-0.07887659926869742</v>
+        <v>-0.08136392803032239</v>
       </c>
       <c r="UM2">
-        <v>-0.082274778517264</v>
+        <v>-0.08484996645619103</v>
       </c>
       <c r="UN2">
-        <v>-0.07909192806085606</v>
+        <v>-0.08168510381970456</v>
       </c>
       <c r="UO2">
-        <v>-0.08336255915780633</v>
+        <v>-0.08377453931171583</v>
       </c>
       <c r="UP2">
-        <v>-0.08326005559634571</v>
+        <v>-0.08374159556354703</v>
       </c>
       <c r="UQ2">
-        <v>-0.08302131232264651</v>
+        <v>-0.08382880106548279</v>
       </c>
       <c r="UR2">
-        <v>-0.08305445713174658</v>
+        <v>-0.08392119221703732</v>
       </c>
       <c r="US2">
-        <v>-0.08231553346402545</v>
+        <v>-0.08323897381933176</v>
       </c>
       <c r="UT2">
-        <v>-0.08124302481012746</v>
+        <v>-0.08295923386148998</v>
       </c>
       <c r="UU2">
-        <v>-0.08228422715284643</v>
+        <v>-0.08485920978442361</v>
       </c>
       <c r="UV2">
-        <v>-0.07909192806085606</v>
+        <v>-0.08168510381970272</v>
       </c>
       <c r="UW2">
-        <v>-0.08337518612961575</v>
+        <v>-0.08377597271603053</v>
       </c>
       <c r="UX2">
-        <v>-0.08336255915780633</v>
+        <v>-0.08377453931171583</v>
       </c>
       <c r="UY2">
-        <v>-0.08343854241130398</v>
+        <v>-0.08381868943146963</v>
       </c>
       <c r="UZ2">
-        <v>-0.08302260665694089</v>
+        <v>-0.08382966365551346</v>
       </c>
       <c r="VA2">
-        <v>-0.0812435910601193</v>
+        <v>-0.08296376337533573</v>
       </c>
       <c r="VB2">
-        <v>-0.08229389144203671</v>
+        <v>-0.08486866408011971</v>
       </c>
       <c r="VC2">
-        <v>-0.08337817596979025</v>
+        <v>-0.08377631211991531</v>
       </c>
       <c r="VD2">
-        <v>-0.08337518612961575</v>
+        <v>-0.08377597271603052</v>
       </c>
       <c r="VE2">
-        <v>-0.08344814821561426</v>
+        <v>-0.08382427084477534</v>
       </c>
       <c r="VF2">
-        <v>-0.08302338548782306</v>
+        <v>-0.08383018269580478</v>
       </c>
       <c r="VG2">
-        <v>-0.08124409504066284</v>
+        <v>-0.0829677947939244</v>
       </c>
       <c r="VH2">
-        <v>-0.08234377179959358</v>
+        <v>-0.08491746059277817</v>
       </c>
       <c r="VI2">
-        <v>-0.08345923012038185</v>
+        <v>-0.08378551323748078</v>
       </c>
       <c r="VJ2">
-        <v>-0.08337817596979022</v>
+        <v>-0.08377631211991531</v>
       </c>
       <c r="VK2">
-        <v>-0.08337817596975132</v>
+        <v>-0.08377631211988244</v>
       </c>
       <c r="VL2">
-        <v>-0.0834552366891122</v>
+        <v>-0.08382838956673991</v>
       </c>
       <c r="VM2">
-        <v>-0.08302432525008645</v>
+        <v>-0.08383080898634457</v>
       </c>
       <c r="VN2">
-        <v>-0.08124467512239622</v>
+        <v>-0.08297243496576513</v>
       </c>
       <c r="VO2">
-        <v>-0.08237090720932927</v>
+        <v>-0.08497044128575514</v>
       </c>
       <c r="VP2">
-        <v>-0.08244743306660515</v>
+        <v>-0.08501504018553367</v>
       </c>
       <c r="VQ2">
-        <v>-0.08351603488899818</v>
+        <v>-0.08379196152396001</v>
       </c>
       <c r="VR2">
-        <v>-0.08345923012038185</v>
+        <v>-0.08378551323748078</v>
       </c>
       <c r="VS2">
-        <v>-0.08337817596973715</v>
+        <v>-0.08377631211987049</v>
       </c>
       <c r="VT2">
-        <v>-0.08346213385022162</v>
+        <v>-0.08383239712224434</v>
       </c>
       <c r="VU2">
-        <v>-0.08302515040156321</v>
+        <v>-0.08383135889616124</v>
       </c>
       <c r="VV2">
-        <v>-0.0812452699037142</v>
+        <v>-0.08297719273099448</v>
       </c>
       <c r="VW2">
-        <v>-0.08237247095498509</v>
+        <v>-0.08497349444934299</v>
       </c>
       <c r="VX2">
-        <v>-0.08294281797420586</v>
+        <v>-0.08548136041833575</v>
       </c>
       <c r="VY2">
-        <v>-0.08352896105421022</v>
+        <v>-0.08380488150968333</v>
       </c>
       <c r="VZ2">
-        <v>-0.08352800523881027</v>
+        <v>-0.08379196152396033</v>
       </c>
       <c r="WA2">
-        <v>-0.08337817596972512</v>
+        <v>-0.08377631211986367</v>
       </c>
       <c r="WB2">
-        <v>-0.08352692438792821</v>
+        <v>-0.08387004303093371</v>
       </c>
       <c r="WC2">
-        <v>-0.08303054992469006</v>
+        <v>-0.0838349573255962</v>
       </c>
       <c r="WD2">
-        <v>-0.08124598482871785</v>
+        <v>-0.08298291155964242</v>
       </c>
       <c r="WE2">
-        <v>-0.08237325632642989</v>
+        <v>-0.08497502786285419</v>
       </c>
       <c r="WF2">
-        <v>-0.083017923804099</v>
+        <v>-0.08561154904781798</v>
       </c>
       <c r="WG2">
-        <v>-0.08349377636886911</v>
+        <v>-0.08597499779084437</v>
       </c>
       <c r="WH2">
-        <v>-0.08354048843925813</v>
+        <v>-0.08381640338392125</v>
       </c>
       <c r="WI2">
-        <v>-0.08352896105421022</v>
+        <v>-0.08380488150968333</v>
       </c>
       <c r="WJ2">
-        <v>-0.08352896105421022</v>
+        <v>-0.08380488150968333</v>
       </c>
       <c r="WK2">
-        <v>-0.08378304079539252</v>
+        <v>-0.08379196152396028</v>
       </c>
       <c r="WL2">
-        <v>-0.08352800523881027</v>
+        <v>-0.08379196152396033</v>
       </c>
       <c r="WM2">
-        <v>-0.0833781759697106</v>
+        <v>-0.08377631211985666</v>
       </c>
       <c r="WN2">
-        <v>-0.08355707913914225</v>
+        <v>-0.08388756399543988</v>
       </c>
       <c r="WO2">
-        <v>-0.08307036261695323</v>
+        <v>-0.08386148979292937</v>
       </c>
       <c r="WP2">
-        <v>-0.08124643303589854</v>
+        <v>-0.08298649686552534</v>
       </c>
       <c r="WQ2">
-        <v>-0.08237391490318922</v>
+        <v>-0.08497631371405899</v>
       </c>
       <c r="WR2">
-        <v>-0.08305755840605088</v>
+        <v>-0.08568025308254819</v>
       </c>
       <c r="WS2">
-        <v>-0.08402153460941295</v>
+        <v>-0.0864478452467196</v>
       </c>
       <c r="WT2">
-        <v>-0.08355112244083113</v>
+        <v>-0.08382703230179156</v>
       </c>
       <c r="WU2">
-        <v>-0.08354048843925813</v>
+        <v>-0.08381640338392125</v>
       </c>
       <c r="WV2">
-        <v>-0.08354048843925813</v>
+        <v>-0.08381640338392125</v>
       </c>
       <c r="WW2">
-        <v>-0.08384307276854679</v>
+        <v>-0.08379196152396028</v>
       </c>
       <c r="WX2">
-        <v>-0.08337817596970161</v>
+        <v>-0.08377631211985093</v>
       </c>
       <c r="WY2">
-        <v>-0.08357123213113352</v>
+        <v>-0.08389578734368348</v>
       </c>
       <c r="WZ2">
-        <v>-0.0812483592806969</v>
+        <v>-0.08300190537139804</v>
       </c>
       <c r="XA2">
-        <v>-0.08237445194963604</v>
+        <v>-0.08497736228128192</v>
       </c>
       <c r="XB2">
-        <v>-0.08403936737429907</v>
+        <v>-0.08647058233620206</v>
       </c>
       <c r="XC2">
-        <v>-0.0841586922758763</v>
+        <v>-0.08656643324476714</v>
       </c>
       <c r="XD2">
-        <v>-0.08356560849094888</v>
+        <v>-0.08384151142664573</v>
       </c>
       <c r="XE2">
-        <v>-0.08337817596968979</v>
+        <v>-0.08377631211984583</v>
       </c>
       <c r="XF2">
-        <v>-0.08358067244623535</v>
+        <v>-0.08390127246115167</v>
       </c>
       <c r="XG2">
-        <v>-0.08125648011875582</v>
+        <v>-0.08306686699414145</v>
       </c>
       <c r="XH2">
-        <v>-0.08237529495592043</v>
+        <v>-0.08497900822648718</v>
       </c>
       <c r="XI2">
-        <v>-0.08404374004013461</v>
+        <v>-0.08647615756996328</v>
       </c>
       <c r="XJ2">
-        <v>-0.08419024842600886</v>
+        <v>-0.08659371699176112</v>
       </c>
       <c r="XK2">
-        <v>-0.08356985743175713</v>
+        <v>-0.08384575833617736</v>
       </c>
       <c r="XL2">
-        <v>-0.083378175969677</v>
+        <v>-0.08377631211983989</v>
       </c>
       <c r="XM2">
-        <v>-0.08359510500890534</v>
+        <v>-0.08390965821100838</v>
       </c>
       <c r="XN2">
-        <v>-0.08237730515445905</v>
+        <v>-0.08498293308299081</v>
       </c>
       <c r="XO2">
-        <v>-0.08404674263383793</v>
+        <v>-0.0864799859369504</v>
       </c>
       <c r="XP2">
-        <v>-0.0842059081482386</v>
+        <v>-0.08660725653060723</v>
       </c>
       <c r="XQ2">
-        <v>-0.08358392070041008</v>
+        <v>-0.08385981488162057</v>
       </c>
       <c r="XR2">
-        <v>-0.08337817596966353</v>
+        <v>-0.08377631211983309</v>
       </c>
       <c r="XS2">
-        <v>-0.08362329190753572</v>
+        <v>-0.08392603557405483</v>
       </c>
       <c r="XT2">
-        <v>-0.08237869588740716</v>
+        <v>-0.08498564845223662</v>
       </c>
       <c r="XU2">
-        <v>-0.08405090488552615</v>
+        <v>-0.08648529289343489</v>
       </c>
       <c r="XV2">
-        <v>-0.08422311699622453</v>
+        <v>-0.08662213545338564</v>
       </c>
       <c r="XW2">
-        <v>-0.08337817596965606</v>
+        <v>-0.08377631211982924</v>
       </c>
       <c r="XX2">
-        <v>-0.08363108355357077</v>
+        <v>-0.08393056271905167</v>
       </c>
       <c r="XY2">
-        <v>-0.08238046419720102</v>
+        <v>-0.08498910103264382</v>
       </c>
       <c r="XZ2">
-        <v>-0.08406077485931947</v>
+        <v>-0.08649787732404254</v>
       </c>
       <c r="YA2">
-        <v>-0.08424297349292695</v>
+        <v>-0.0866393035511072</v>
       </c>
       <c r="YB2">
-        <v>-0.0833781759696493</v>
+        <v>-0.0837763121198267</v>
       </c>
       <c r="YC2">
-        <v>-0.08363334559855873</v>
+        <v>-0.08393187702359782</v>
       </c>
       <c r="YD2">
-        <v>-0.08238153843104473</v>
+        <v>-0.08499119844850592</v>
       </c>
       <c r="YE2">
-        <v>-0.08406827769510607</v>
+        <v>-0.08650744361278614</v>
       </c>
       <c r="YF2">
-        <v>-0.0842630471120359</v>
+        <v>-0.08665665936858315</v>
       </c>
       <c r="YG2">
-        <v>-0.08337817596964464</v>
+        <v>-0.08377631211982267</v>
       </c>
       <c r="YH2">
-        <v>-0.0836336239790961</v>
+        <v>-0.08393244707922599</v>
       </c>
       <c r="YI2">
-        <v>-0.08364228974163483</v>
+        <v>-0.08393490497851931</v>
       </c>
       <c r="YJ2">
-        <v>-0.08238250823554873</v>
+        <v>-0.08499309196942435</v>
       </c>
       <c r="YK2">
-        <v>-0.08407354458715416</v>
+        <v>-0.08651415902705237</v>
       </c>
       <c r="YL2">
-        <v>-0.08428530137433944</v>
+        <v>-0.08667590058101443</v>
       </c>
       <c r="YM2">
-        <v>-0.08337817596963081</v>
+        <v>-0.08377631211981212</v>
       </c>
       <c r="YN2">
-        <v>-0.08363388451965036</v>
+        <v>-0.08393298060297587</v>
       </c>
       <c r="YO2">
-        <v>-0.08365409218176904</v>
+        <v>-0.08393890057033182</v>
       </c>
       <c r="YP2">
-        <v>-0.08238414384610172</v>
+        <v>-0.08499628546310159</v>
       </c>
       <c r="YQ2">
-        <v>-0.08407906213086598</v>
+        <v>-0.08652119403298855</v>
       </c>
       <c r="YR2">
-        <v>-0.08431766384980478</v>
+        <v>-0.08670388142149429</v>
       </c>
       <c r="YS2">
-        <v>-0.08337817596962246</v>
+        <v>-0.08377631211980567</v>
       </c>
       <c r="YT2">
-        <v>-0.08363415291007401</v>
+        <v>-0.08393353020141855</v>
       </c>
       <c r="YU2">
-        <v>-0.08370312565802217</v>
+        <v>-0.08395550018498206</v>
       </c>
       <c r="YV2">
-        <v>-0.08238575187371035</v>
+        <v>-0.08499942510389893</v>
       </c>
       <c r="YW2">
-        <v>-0.08408359209919139</v>
+        <v>-0.08652696985930027</v>
       </c>
       <c r="YX2">
-        <v>-0.08432461423681173</v>
+        <v>-0.08670653701573749</v>
       </c>
       <c r="YY2">
-        <v>-0.0843968961498342</v>
+        <v>-0.08677708969209602</v>
       </c>
       <c r="YZ2">
-        <v>-0.08337817596961868</v>
+        <v>-0.08377631211980331</v>
       </c>
       <c r="ZA2">
-        <v>-0.08363609343410998</v>
+        <v>-0.08393750392572158</v>
       </c>
       <c r="ZB2">
-        <v>-0.08372394933076645</v>
+        <v>-0.08396254968109604</v>
       </c>
       <c r="ZC2">
-        <v>-0.08238651270513057</v>
+        <v>-0.08500091061234731</v>
       </c>
       <c r="ZD2">
-        <v>-0.08409109250034401</v>
+        <v>-0.08653653307120837</v>
       </c>
       <c r="ZE2">
-        <v>-0.08432878795435479</v>
+        <v>-0.08670813170145585</v>
       </c>
       <c r="ZF2">
-        <v>-0.08489863228117339</v>
+        <v>-0.08724067749834878</v>
       </c>
       <c r="ZG2">
-        <v>-0.08337817596961869</v>
+        <v>-0.08377631211980331</v>
       </c>
       <c r="ZH2">
-        <v>-0.08365022459746166</v>
+        <v>-0.08396644124462933</v>
       </c>
       <c r="ZI2">
-        <v>-0.08238734837553846</v>
+        <v>-0.08500254224302096</v>
       </c>
       <c r="ZJ2">
-        <v>-0.08411533174975827</v>
+        <v>-0.08656743882350779</v>
       </c>
       <c r="ZK2">
-        <v>-0.08433265968854653</v>
+        <v>-0.0867096110042961</v>
       </c>
       <c r="ZL2">
-        <v>-0.08525779418273775</v>
+        <v>-0.0875725299472347</v>
       </c>
       <c r="ZM2">
-        <v>-0.08238815044051438</v>
+        <v>-0.08500410826028226</v>
       </c>
       <c r="ZN2">
-        <v>-0.08417197080370759</v>
+        <v>-0.0866396556410545</v>
       </c>
       <c r="ZO2">
-        <v>-0.08433643747376104</v>
+        <v>-0.08671105440978209</v>
       </c>
       <c r="ZP2">
-        <v>-0.08530451841885969</v>
+        <v>-0.08761814160884614</v>
       </c>
       <c r="ZQ2">
-        <v>-0.08623541481242965</v>
+        <v>-0.08847319322002159</v>
       </c>
       <c r="ZR2">
-        <v>-0.08238911772460333</v>
+        <v>-0.08500599686557719</v>
       </c>
       <c r="ZS2">
-        <v>-0.08433927107016828</v>
+        <v>-0.0867121370612709</v>
       </c>
       <c r="ZT2">
-        <v>-0.08530451841878292</v>
+        <v>-0.08761814160883381</v>
       </c>
       <c r="ZU2">
-        <v>-0.08531671582062895</v>
+        <v>-0.08763004856810493</v>
       </c>
       <c r="ZV2">
-        <v>-0.0862872268781045</v>
+        <v>-0.08852500474289182</v>
       </c>
       <c r="ZW2">
-        <v>-0.08642897655603196</v>
+        <v>-0.08865073521705019</v>
       </c>
       <c r="ZX2">
-        <v>-0.08239066066613096</v>
+        <v>-0.08500900943361187</v>
       </c>
       <c r="ZY2">
-        <v>-0.08434377243214645</v>
+        <v>-0.08671385692553747</v>
       </c>
       <c r="ZZ2">
-        <v>-0.08530451841875913</v>
+        <v>-0.087618141608829</v>
       </c>
       <c r="AAA2">
-        <v>-0.08534156405528712</v>
+        <v>-0.08765430511583754</v>
       </c>
       <c r="AAB2">
-        <v>-0.08631724354092746</v>
+        <v>-0.08855502109124305</v>
       </c>
       <c r="AAC2">
-        <v>-0.08664681453102598</v>
+        <v>-0.08885054213783437</v>
       </c>
       <c r="AAD2">
-        <v>-0.08239488353112068</v>
+        <v>-0.08501725451860005</v>
       </c>
       <c r="AAE2">
-        <v>-0.08435136192402834</v>
+        <v>-0.08671675668647928</v>
       </c>
       <c r="AAF2">
-        <v>-0.08530451841874558</v>
+        <v>-0.0876181416088259</v>
       </c>
       <c r="AAG2">
-        <v>-0.08722148447444986</v>
+        <v>-0.08937764127983039</v>
       </c>
       <c r="AAH2">
-        <v>-0.086646814531016</v>
+        <v>-0.08885054213782562</v>
       </c>
       <c r="AAI2">
-        <v>-0.0824005034019314</v>
+        <v>-0.08502822726142904</v>
       </c>
       <c r="AAJ2">
-        <v>-0.08440823038466286</v>
+        <v>-0.08673848454987799</v>
       </c>
       <c r="AAK2">
-        <v>-0.08530451841873762</v>
+        <v>-0.08761814160882356</v>
       </c>
       <c r="AAL2">
-        <v>-0.08773963756840863</v>
+        <v>-0.08993159776545735</v>
       </c>
       <c r="AAM2">
-        <v>-0.08732201079480781</v>
+        <v>-0.08942129968809394</v>
       </c>
       <c r="AAN2">
-        <v>-0.08664681453100885</v>
+        <v>-0.08885054213782045</v>
       </c>
       <c r="AAO2">
-        <v>-0.08240103867710215</v>
+        <v>-0.08502927238236423</v>
       </c>
       <c r="AAP2">
-        <v>-0.08445488472886517</v>
+        <v>-0.08675630962227113</v>
       </c>
       <c r="AAQ2">
-        <v>-0.08530451841873019</v>
+        <v>-0.08761814160882102</v>
       </c>
       <c r="AAR2">
-        <v>-0.08827448968148259</v>
+        <v>-0.09050341168161254</v>
       </c>
       <c r="AAS2">
-        <v>-0.08733277264498397</v>
+        <v>-0.0894259734740234</v>
       </c>
       <c r="AAT2">
-        <v>-0.08664681453100592</v>
+        <v>-0.08885054213781729</v>
       </c>
       <c r="AAU2">
-        <v>-0.08240146200323976</v>
+        <v>-0.08503009892379036</v>
       </c>
       <c r="AAV2">
-        <v>-0.08446966665348539</v>
+        <v>-0.08676195725486568</v>
       </c>
       <c r="AAW2">
-        <v>-0.08530451841872386</v>
+        <v>-0.08761814160881908</v>
       </c>
       <c r="AAX2">
-        <v>-0.08847592649971206</v>
+        <v>-0.09071261220431043</v>
       </c>
       <c r="AAY2">
-        <v>-0.08835305737510536</v>
+        <v>-0.09060816785014873</v>
       </c>
       <c r="AAZ2">
-        <v>-0.0873368816823583</v>
+        <v>-0.08942775799284462</v>
       </c>
       <c r="ABA2">
-        <v>-0.08664681453100297</v>
+        <v>-0.08885054213781408</v>
       </c>
       <c r="ABB2">
-        <v>-0.0824018731544577</v>
+        <v>-0.08503090169391642</v>
       </c>
       <c r="ABC2">
-        <v>-0.08448312379382499</v>
+        <v>-0.08676709871539091</v>
       </c>
       <c r="ABD2">
-        <v>-0.08530451841871729</v>
+        <v>-0.08761814160881856</v>
       </c>
       <c r="ABE2">
-        <v>-0.08874966197101024</v>
+        <v>-0.09099689845649171</v>
       </c>
       <c r="ABF2">
-        <v>-0.08836359688089299</v>
+        <v>-0.09062222051827561</v>
       </c>
       <c r="ABG2">
-        <v>-0.08734122823901964</v>
+        <v>-0.0894296456621447</v>
       </c>
       <c r="ABH2">
-        <v>-0.08664681453100513</v>
+        <v>-0.08885054213780992</v>
       </c>
       <c r="ABI2">
-        <v>-0.08240231354181526</v>
+        <v>-0.0850317615475763</v>
       </c>
       <c r="ABJ2">
-        <v>-0.08449045330743475</v>
+        <v>-0.08676989903503919</v>
       </c>
       <c r="ABK2">
-        <v>-0.08530451841871367</v>
+        <v>-0.08761814160881856</v>
       </c>
       <c r="ABL2">
-        <v>-0.08907017183388562</v>
+        <v>-0.09132976279068804</v>
       </c>
       <c r="ABM2">
-        <v>-0.08836913411306239</v>
+        <v>-0.09062960350023526</v>
       </c>
       <c r="ABN2">
-        <v>-0.08734483551044117</v>
+        <v>-0.08943121226510491</v>
       </c>
       <c r="ABO2">
-        <v>-0.08664681453101269</v>
+        <v>-0.08885054213780531</v>
       </c>
       <c r="ABP2">
-        <v>-0.08240272071326213</v>
+        <v>-0.08503255654751826</v>
       </c>
       <c r="ABQ2">
-        <v>-0.08449630709052008</v>
+        <v>-0.08677213553178577</v>
       </c>
       <c r="ABR2">
-        <v>-0.0853045184187117</v>
+        <v>-0.08761814160881934</v>
       </c>
       <c r="ABS2">
-        <v>-0.08932754460613264</v>
+        <v>-0.09159705698218025</v>
       </c>
       <c r="ABT2">
-        <v>-0.0883900844424363</v>
+        <v>-0.09065004287178974</v>
       </c>
       <c r="ABU2">
-        <v>-0.08836947598967941</v>
+        <v>-0.0906303039310523</v>
       </c>
       <c r="ABV2">
-        <v>-0.08734910741434083</v>
+        <v>-0.08943306750961097</v>
       </c>
       <c r="ABW2">
-        <v>-0.08664681453102399</v>
+        <v>-0.08885054213780121</v>
       </c>
       <c r="ABX2">
-        <v>-0.08240310442938166</v>
+        <v>-0.0850333057511948</v>
       </c>
       <c r="ABY2">
-        <v>-0.08450129871558865</v>
+        <v>-0.08677404262946972</v>
       </c>
       <c r="ABZ2">
-        <v>-0.0853045184187102</v>
+        <v>-0.0876181416088192</v>
       </c>
       <c r="ACA2">
-        <v>-0.08940864779131673</v>
+        <v>-0.09168175491572803</v>
       </c>
       <c r="ACB2">
-        <v>-0.08939272060633921</v>
+        <v>-0.0916626375647593</v>
       </c>
       <c r="ACC2">
-        <v>-0.08840711461278937</v>
+        <v>-0.09066665768961578</v>
       </c>
       <c r="ACD2">
-        <v>-0.0883697232156445</v>
+        <v>-0.09063081044334545</v>
       </c>
       <c r="ACE2">
-        <v>-0.08735327356707673</v>
+        <v>-0.08943487682549062</v>
       </c>
       <c r="ACF2">
-        <v>-0.08664681453103255</v>
+        <v>-0.08885054213780191</v>
       </c>
       <c r="ACG2">
-        <v>-0.08240363810519397</v>
+        <v>-0.0850343477505778</v>
       </c>
       <c r="ACH2">
-        <v>-0.08450715643711089</v>
+        <v>-0.08677628062409498</v>
       </c>
       <c r="ACI2">
-        <v>-0.08530451841871002</v>
+        <v>-0.08761814160882005</v>
       </c>
       <c r="ACJ2">
-        <v>-0.08952046786676957</v>
+        <v>-0.0917985313177027</v>
       </c>
       <c r="ACK2">
-        <v>-0.08944720068064159</v>
+        <v>-0.09171745583537366</v>
       </c>
       <c r="ACL2">
-        <v>-0.08836993185233756</v>
+        <v>-0.09063123789465066</v>
       </c>
       <c r="ACM2">
-        <v>-0.08735900114794731</v>
+        <v>-0.08943736424984766</v>
       </c>
       <c r="ACN2">
-        <v>-0.08664681453103996</v>
+        <v>-0.08885054213779882</v>
       </c>
       <c r="ACO2">
-        <v>-0.08240429210322867</v>
+        <v>-0.08503562467883269</v>
       </c>
       <c r="ACP2">
-        <v>-0.08451250888425579</v>
+        <v>-0.08677832557091698</v>
       </c>
       <c r="ACQ2">
-        <v>-0.08530451841871026</v>
+        <v>-0.08761814160881988</v>
       </c>
       <c r="ACR2">
-        <v>-0.08979556034418715</v>
+        <v>-0.09208581756471013</v>
       </c>
       <c r="ACS2">
-        <v>-0.08947673524385483</v>
+        <v>-0.09173763769139093</v>
       </c>
       <c r="ACT2">
-        <v>-0.08944756606838326</v>
+        <v>-0.09171816878439741</v>
       </c>
       <c r="ACU2">
-        <v>-0.08837028426389291</v>
+        <v>-0.09063195990954181</v>
       </c>
       <c r="ACV2">
-        <v>-0.08736688038714553</v>
+        <v>-0.08944078610936185</v>
       </c>
       <c r="ACW2">
-        <v>-0.08664681453104751</v>
+        <v>-0.08885054213779713</v>
       </c>
       <c r="ACX2">
-        <v>-0.08240739188689618</v>
+        <v>-0.08504167699760298</v>
       </c>
       <c r="ACY2">
-        <v>-0.08452081259379024</v>
+        <v>-0.08678149806590546</v>
       </c>
       <c r="ACZ2">
-        <v>-0.08530451841871026</v>
+        <v>-0.08761814160881988</v>
       </c>
       <c r="ADA2">
-        <v>-0.09001853889702914</v>
+        <v>-0.09231868044220806</v>
       </c>
       <c r="ADB2">
-        <v>-0.0895056763349323</v>
+        <v>-0.09175741392651487</v>
       </c>
       <c r="ADC2">
-        <v>-0.08944791542599492</v>
+        <v>-0.09171885045534094</v>
       </c>
       <c r="ADD2">
-        <v>-0.08837077777465462</v>
+        <v>-0.09063297100632706</v>
       </c>
       <c r="ADE2">
-        <v>-0.08737521888410278</v>
+        <v>-0.08944440741146033</v>
       </c>
       <c r="ADF2">
-        <v>-0.08664681453105597</v>
+        <v>-0.08885054213779757</v>
       </c>
       <c r="ADG2">
-        <v>-0.08243389609791457</v>
+        <v>-0.08509342672682808</v>
       </c>
       <c r="ADH2">
-        <v>-0.08453757705310412</v>
+        <v>-0.086787903031667</v>
       </c>
       <c r="ADI2">
-        <v>-0.09019277537754752</v>
+        <v>-0.09250064092953329</v>
       </c>
       <c r="ADJ2">
-        <v>-0.08944829205181379</v>
+        <v>-0.09171958533246689</v>
       </c>
       <c r="ADK2">
-        <v>-0.08837114397126021</v>
+        <v>-0.09063372126410386</v>
       </c>
       <c r="ADL2">
-        <v>-0.08738075793691644</v>
+        <v>-0.08944681294662618</v>
       </c>
       <c r="ADM2">
-        <v>-0.08664681453105967</v>
+        <v>-0.08885054213779524</v>
       </c>
       <c r="ADN2">
-        <v>-0.08453956127106972</v>
+        <v>-0.08678887146824933</v>
       </c>
       <c r="ADO2">
-        <v>-0.08455560244223934</v>
+        <v>-0.08679353564836155</v>
       </c>
       <c r="ADP2">
-        <v>-0.09035025718054489</v>
+        <v>-0.09266510425828726</v>
       </c>
       <c r="ADQ2">
-        <v>-0.08944862834995054</v>
+        <v>-0.09172024152180584</v>
       </c>
       <c r="ADR2">
-        <v>-0.08837175059131937</v>
+        <v>-0.09063496409791513</v>
       </c>
       <c r="ADS2">
-        <v>-0.0873863953741485</v>
+        <v>-0.08944926120527588</v>
       </c>
       <c r="ADT2">
-        <v>-0.08664681453106576</v>
+        <v>-0.08885054213779534</v>
       </c>
       <c r="ADU2">
-        <v>-0.08454129169781155</v>
+        <v>-0.08678971603666977</v>
       </c>
       <c r="ADV2">
-        <v>-0.08458444599509313</v>
+        <v>-0.08680254868447958</v>
       </c>
       <c r="ADW2">
-        <v>-0.09035374215456561</v>
+        <v>-0.09267258009440912</v>
       </c>
       <c r="ADX2">
-        <v>-0.09045566277242237</v>
+        <v>-0.09273118098853417</v>
       </c>
       <c r="ADY2">
-        <v>-0.08944899973525763</v>
+        <v>-0.09172096617380693</v>
       </c>
       <c r="ADZ2">
-        <v>-0.08837596115730782</v>
+        <v>-0.0906435906504539</v>
       </c>
       <c r="AEA2">
-        <v>-0.08738909088014966</v>
+        <v>-0.08945043182385909</v>
       </c>
       <c r="AEB2">
-        <v>-0.08664681453106653</v>
+        <v>-0.08885054213779491</v>
       </c>
       <c r="AEC2">
-        <v>-0.08454272284054452</v>
+        <v>-0.0867904145334521</v>
       </c>
       <c r="AED2">
-        <v>-0.08460909028890083</v>
+        <v>-0.08681024947114548</v>
       </c>
       <c r="AEE2">
-        <v>-0.09035723628963628</v>
+        <v>-0.09268007559613792</v>
       </c>
       <c r="AEF2">
-        <v>-0.09057284922880095</v>
+        <v>-0.09280464340863881</v>
       </c>
       <c r="AEG2">
-        <v>-0.09045566277242237</v>
+        <v>-0.09273118098853417</v>
       </c>
       <c r="AEH2">
-        <v>-0.08944923917960508</v>
+        <v>-0.09172143338089472</v>
       </c>
       <c r="AEI2">
-        <v>-0.08838526180716244</v>
+        <v>-0.09066264576184931</v>
       </c>
       <c r="AEJ2">
-        <v>-0.08739337841597807</v>
+        <v>-0.08945229383588504</v>
       </c>
       <c r="AEK2">
-        <v>-0.08664681453106837</v>
+        <v>-0.0888505421377935</v>
       </c>
       <c r="AEL2">
-        <v>-0.08454383576730416</v>
+        <v>-0.08679095771863629</v>
       </c>
       <c r="AEM2">
-        <v>-0.08462303811582027</v>
+        <v>-0.0868146078264887</v>
       </c>
       <c r="AEN2">
-        <v>-0.09036073721210948</v>
+        <v>-0.09268758567169726</v>
       </c>
       <c r="AEO2">
-        <v>-0.09067110843519841</v>
+        <v>-0.09286624008103103</v>
       </c>
       <c r="AEP2">
-        <v>-0.09057284922880095</v>
+        <v>-0.09280464340863881</v>
       </c>
       <c r="AEQ2">
-        <v>-0.08944960694981442</v>
+        <v>-0.09172215097925659</v>
       </c>
       <c r="AER2">
-        <v>-0.0873974034675061</v>
+        <v>-0.08945404185307312</v>
       </c>
       <c r="AES2">
-        <v>-0.08664681453107054</v>
+        <v>-0.08885054213779346</v>
       </c>
       <c r="AET2">
-        <v>-0.08454496768328489</v>
+        <v>-0.0867915101717292</v>
       </c>
       <c r="AEU2">
-        <v>-0.09036421694691142</v>
+        <v>-0.0926950503096992</v>
       </c>
       <c r="AEV2">
-        <v>-0.09077673695357359</v>
+        <v>-0.09293245587345625</v>
       </c>
       <c r="AEW2">
-        <v>-0.09067110843519841</v>
+        <v>-0.09286624008103103</v>
       </c>
       <c r="AEX2">
-        <v>-0.08945263195515019</v>
+        <v>-0.09172805341620971</v>
       </c>
       <c r="AEY2">
-        <v>-0.08740315460970054</v>
+        <v>-0.08945653948140612</v>
       </c>
       <c r="AEZ2">
-        <v>-0.08664681453107054</v>
+        <v>-0.08885054213779346</v>
       </c>
       <c r="AFA2">
-        <v>-0.08454594998558217</v>
+        <v>-0.08679198960290604</v>
       </c>
       <c r="AFB2">
-        <v>-0.09036770991195171</v>
+        <v>-0.09270254334251772</v>
       </c>
       <c r="AFC2">
-        <v>-0.09086346354022549</v>
+        <v>-0.09298682210674709</v>
       </c>
       <c r="AFD2">
-        <v>-0.09077673695357359</v>
+        <v>-0.09293245587345625</v>
       </c>
       <c r="AFE2">
-        <v>-0.08946305752256681</v>
+        <v>-0.09174839600311843</v>
       </c>
       <c r="AFF2">
-        <v>-0.08746386274237525</v>
+        <v>-0.08948290381859764</v>
       </c>
       <c r="AFG2">
-        <v>-0.08454665549033816</v>
+        <v>-0.08679233393774911</v>
       </c>
       <c r="AFH2">
-        <v>-0.09037120050885375</v>
+        <v>-0.09271003130892023</v>
       </c>
       <c r="AFI2">
-        <v>-0.09095657591532627</v>
+        <v>-0.09304519096716687</v>
       </c>
       <c r="AFJ2">
-        <v>-0.09086346354022547</v>
+        <v>-0.09298682210674708</v>
       </c>
       <c r="AFK2">
-        <v>-0.08748814493641761</v>
+        <v>-0.08949344897791799</v>
       </c>
       <c r="AFL2">
-        <v>-0.08454747458293979</v>
+        <v>-0.08679273371120091</v>
       </c>
       <c r="AFM2">
-        <v>-0.09037469331527415</v>
+        <v>-0.09271752402881225</v>
       </c>
       <c r="AFN2">
-        <v>-0.09116430497827259</v>
+        <v>-0.09317541071615497</v>
       </c>
       <c r="AFO2">
-        <v>-0.09095657591528247</v>
+        <v>-0.09304519096716396</v>
       </c>
       <c r="AFP2">
-        <v>-0.09095657591532627</v>
+        <v>-0.09304519096716687</v>
       </c>
       <c r="AFQ2">
-        <v>-0.08750047549470477</v>
+        <v>-0.08949880381064641</v>
       </c>
       <c r="AFR2">
-        <v>-0.0845487085575431</v>
+        <v>-0.08679333597541897</v>
       </c>
       <c r="AFS2">
-        <v>-0.09037639826666329</v>
+        <v>-0.09272118147185388</v>
       </c>
       <c r="AFT2">
-        <v>-0.0911946982158283</v>
+        <v>-0.09319446298036201</v>
       </c>
       <c r="AFU2">
-        <v>-0.09095657591523558</v>
+        <v>-0.09304519096716164</v>
       </c>
       <c r="AFV2">
-        <v>-0.09095657591528247</v>
+        <v>-0.09304519096716396</v>
       </c>
       <c r="AFW2">
-        <v>-0.08750320401779499</v>
+        <v>-0.08949998873317924</v>
       </c>
       <c r="AFX2">
-        <v>-0.08455072462464881</v>
+        <v>-0.08679431995403186</v>
       </c>
       <c r="AFY2">
-        <v>-0.09041471763840038</v>
+        <v>-0.09280338462771062</v>
       </c>
       <c r="AFZ2">
-        <v>-0.09128032538777836</v>
+        <v>-0.0932481385149139</v>
       </c>
       <c r="AGA2">
-        <v>-0.09095657591517109</v>
+        <v>-0.09304519096715472</v>
       </c>
       <c r="AGB2">
-        <v>-0.09095657591523558</v>
+        <v>-0.09304519096716164</v>
       </c>
       <c r="AGC2">
-        <v>-0.08750535286590334</v>
+        <v>-0.08950092191822367</v>
       </c>
       <c r="AGD2">
-        <v>-0.08455842827641048</v>
+        <v>-0.08679431995403186</v>
       </c>
       <c r="AGE2">
-        <v>-0.084573289352953</v>
+        <v>-0.08681534499625657</v>
       </c>
       <c r="AGF2">
-        <v>-0.09043963635487449</v>
+        <v>-0.09285684142723931</v>
       </c>
       <c r="AGG2">
-        <v>-0.09138087800084448</v>
+        <v>-0.0933111689566448</v>
       </c>
       <c r="AGH2">
-        <v>-0.09095657591514185</v>
+        <v>-0.09304519096715182</v>
       </c>
       <c r="AGI2">
-        <v>-0.09095657591517109</v>
+        <v>-0.09304519096715472</v>
       </c>
       <c r="AGJ2">
-        <v>-0.08750765521828166</v>
+        <v>-0.08950192176533568</v>
       </c>
       <c r="AGK2">
-        <v>-0.0904614305028639</v>
+        <v>-0.09290359582641047</v>
       </c>
       <c r="AGL2">
-        <v>-0.09139392222864155</v>
+        <v>-0.09331934551635059</v>
       </c>
       <c r="AGM2">
-        <v>-0.09095657591512595</v>
+        <v>-0.09304519096714817</v>
       </c>
       <c r="AGN2">
-        <v>-0.09095657591514185</v>
+        <v>-0.09304519096715182</v>
       </c>
       <c r="AGO2">
-        <v>-0.08750949727011306</v>
+        <v>-0.08950272171639384</v>
       </c>
       <c r="AGP2">
-        <v>-0.09048429136274468</v>
+        <v>-0.09295263918599882</v>
       </c>
       <c r="AGQ2">
-        <v>-0.09139592784063853</v>
+        <v>-0.09332756749909639</v>
       </c>
       <c r="AGR2">
-        <v>-0.0914259391776024</v>
+        <v>-0.09332391875795119</v>
       </c>
       <c r="AGS2">
-        <v>-0.0909565759151245</v>
+        <v>-0.09304519096714671</v>
       </c>
       <c r="AGT2">
-        <v>-0.09095657591512595</v>
+        <v>-0.09304519096714817</v>
       </c>
       <c r="AGU2">
-        <v>-0.08751128582837023</v>
+        <v>-0.08950349843634062</v>
       </c>
       <c r="AGV2">
-        <v>-0.09052332645528889</v>
+        <v>-0.09303638245047596</v>
       </c>
       <c r="AGW2">
-        <v>-0.09139778368887488</v>
+        <v>-0.09333517555056998</v>
       </c>
       <c r="AGX2">
-        <v>-0.09150086952858268</v>
+        <v>-0.09333462141706325</v>
       </c>
       <c r="AGY2">
-        <v>-0.0909565759151245</v>
+        <v>-0.09304519096714674</v>
       </c>
       <c r="AGZ2">
-        <v>-0.0909565759151245</v>
+        <v>-0.09304519096714671</v>
       </c>
       <c r="AHA2">
-        <v>-0.08751306985159335</v>
+        <v>-0.08950427318649479</v>
       </c>
       <c r="AHB2">
-        <v>-0.09053290102780537</v>
+        <v>-0.09305692335580112</v>
       </c>
       <c r="AHC2">
-        <v>-0.09140060567228082</v>
+        <v>-0.09334674431731051</v>
       </c>
       <c r="AHD2">
-        <v>-0.09167863832130023</v>
+        <v>-0.09336001156143332</v>
       </c>
       <c r="AHE2">
-        <v>-0.08751483300307887</v>
+        <v>-0.08950503887230209</v>
       </c>
       <c r="AHF2">
-        <v>-0.0905363082319225</v>
+        <v>-0.09306390883934726</v>
       </c>
       <c r="AHG2">
-        <v>-0.09057081639793452</v>
+        <v>-0.09313998514655165</v>
       </c>
       <c r="AHH2">
-        <v>-0.0914041718936502</v>
+        <v>-0.09336136417436873</v>
       </c>
       <c r="AHI2">
-        <v>-0.08754636205446722</v>
+        <v>-0.08951873097060822</v>
       </c>
       <c r="AHJ2">
-        <v>-0.09054190259317764</v>
+        <v>-0.09307537847879951</v>
       </c>
       <c r="AHK2">
-        <v>-0.09060297410361529</v>
+        <v>-0.09321043450019217</v>
       </c>
       <c r="AHL2">
-        <v>-0.09141805518691952</v>
+        <v>-0.09341828004564617</v>
       </c>
       <c r="AHM2">
-        <v>-0.08761322798240417</v>
+        <v>-0.08955136401114695</v>
       </c>
       <c r="AHN2">
-        <v>-0.08759200809221561</v>
+        <v>-0.08953654192749746</v>
       </c>
       <c r="AHO2">
-        <v>-0.09054300872285614</v>
+        <v>-0.09307764628532722</v>
       </c>
       <c r="AHP2">
-        <v>-0.09065702537080109</v>
+        <v>-0.09332884907986452</v>
       </c>
       <c r="AHQ2">
-        <v>-0.0914432753556587</v>
+        <v>-0.09352167574247636</v>
       </c>
       <c r="AHR2">
-        <v>-0.08765763573227038</v>
+        <v>-0.08957303635037704</v>
       </c>
       <c r="AHS2">
-        <v>-0.090543943379047</v>
+        <v>-0.09307956253483121</v>
       </c>
       <c r="AHT2">
-        <v>-0.09054473101101869</v>
+        <v>-0.09308117735321252</v>
       </c>
       <c r="AHU2">
-        <v>-0.09054575558929932</v>
+        <v>-0.09308327796443468</v>
       </c>
       <c r="AHV2">
-        <v>-0.09054760991762759</v>
+        <v>-0.09308707974869213</v>
       </c>
       <c r="AHW2">
-        <v>-0.09055082499459496</v>
+        <v>-0.09309367137740017</v>
       </c>
       <c r="AHX2">
-        <v>-0.09057716003420281</v>
+        <v>-0.09314766449593045</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.2785915850578711</v>
+        <v>-0.07513254720066583</v>
       </c>
       <c r="D3">
-        <v>-0.2810423871236438</v>
+        <v>-0.07580524735005786</v>
       </c>
       <c r="E3">
-        <v>-0.2812993978324051</v>
+        <v>-0.07587577637398664</v>
       </c>
       <c r="F3">
-        <v>-0.2815401900024224</v>
+        <v>-0.07594185199479554</v>
       </c>
       <c r="G3">
-        <v>-0.2817501368492584</v>
+        <v>-0.07599946123733313</v>
       </c>
       <c r="H3">
-        <v>-0.2820809056947398</v>
+        <v>-0.07609021990525996</v>
       </c>
       <c r="I3">
-        <v>-0.304662788425388</v>
+        <v>-0.08227475350022934</v>
       </c>
       <c r="J3">
-        <v>-0.3056768795009331</v>
+        <v>-0.08255194687248586</v>
       </c>
       <c r="K3">
-        <v>-0.3065211024181864</v>
+        <v>-0.08278267304400001</v>
       </c>
       <c r="L3">
-        <v>-0.307262107048813</v>
+        <v>-0.08298516333873994</v>
       </c>
       <c r="M3">
-        <v>-0.3078151168073863</v>
+        <v>-0.08313626527290879</v>
       </c>
       <c r="N3">
-        <v>-0.3083343192948982</v>
+        <v>-0.08327811739213897</v>
       </c>
       <c r="O3">
-        <v>-0.3086536114239121</v>
+        <v>-0.08336534569690565</v>
       </c>
       <c r="P3">
-        <v>-0.3094486050290128</v>
+        <v>-0.08358251237923149</v>
       </c>
       <c r="Q3">
-        <v>-0.315893943933458</v>
+        <v>-0.08534212759613231</v>
       </c>
       <c r="R3">
-        <v>-0.315893943933452</v>
+        <v>-0.08534212759612926</v>
       </c>
       <c r="S3">
-        <v>-0.3237225212478388</v>
+        <v>-0.08747687817349757</v>
       </c>
       <c r="T3">
-        <v>-0.3158939439334493</v>
+        <v>-0.0853421275961285</v>
       </c>
       <c r="U3">
-        <v>-0.3242616798193919</v>
+        <v>-0.08762379898225535</v>
       </c>
       <c r="V3">
-        <v>-0.3158939439334469</v>
+        <v>-0.08534212759612834</v>
       </c>
       <c r="W3">
-        <v>-0.3248671694919145</v>
+        <v>-0.08778877957356489</v>
       </c>
       <c r="X3">
-        <v>-0.3158939439334452</v>
+        <v>-0.08534212759612804</v>
       </c>
       <c r="Y3">
-        <v>-0.3258532047173812</v>
+        <v>-0.08805741419744199</v>
       </c>
       <c r="Z3">
-        <v>-0.3158939439334436</v>
+        <v>-0.0853421275961276</v>
       </c>
       <c r="AA3">
-        <v>-0.3276475994174069</v>
+        <v>-0.0885461664108054</v>
       </c>
       <c r="AB3">
-        <v>-0.3158939439334419</v>
+        <v>-0.08534212759612719</v>
       </c>
       <c r="AC3">
-        <v>-0.3293770347449529</v>
+        <v>-0.08886081806033801</v>
       </c>
       <c r="AD3">
-        <v>-0.3478280549621448</v>
+        <v>-0.09424617529359899</v>
       </c>
       <c r="AE3">
-        <v>-0.3158939439334408</v>
+        <v>-0.08534212759612679</v>
       </c>
       <c r="AF3">
-        <v>-0.3298490692307645</v>
+        <v>-0.08893334472044374</v>
       </c>
       <c r="AG3">
-        <v>-0.3293814930782524</v>
+        <v>-0.08887460573375526</v>
       </c>
       <c r="AH3">
-        <v>-0.3532158061878692</v>
+        <v>-0.09576481597428224</v>
       </c>
       <c r="AI3">
-        <v>-0.315893943933438</v>
+        <v>-0.08534212759612506</v>
       </c>
       <c r="AJ3">
-        <v>-0.330930444556615</v>
+        <v>-0.08909944493376291</v>
       </c>
       <c r="AK3">
-        <v>-0.3293816440602537</v>
+        <v>-0.08887507265602333</v>
       </c>
       <c r="AL3">
-        <v>-0.3533943023636495</v>
+        <v>-0.09584277884821769</v>
       </c>
       <c r="AM3">
-        <v>-0.3693439916299209</v>
+        <v>-0.1002716523089872</v>
       </c>
       <c r="AN3">
-        <v>-0.3158939439334344</v>
+        <v>-0.08534212759612321</v>
       </c>
       <c r="AO3">
-        <v>-0.3293818611450812</v>
+        <v>-0.08887574400597359</v>
       </c>
       <c r="AP3">
-        <v>-0.3533988268233251</v>
+        <v>-0.09584386812723464</v>
       </c>
       <c r="AQ3">
-        <v>-0.353430178426073</v>
+        <v>-0.0958624526502488</v>
       </c>
       <c r="AR3">
-        <v>-0.3805700899750005</v>
+        <v>-0.1034017282970654</v>
       </c>
       <c r="AS3">
-        <v>-0.3693439916299183</v>
+        <v>-0.1002716523089624</v>
       </c>
       <c r="AT3">
-        <v>-0.315893943933433</v>
+        <v>-0.0853421275961231</v>
       </c>
       <c r="AU3">
-        <v>-0.3293821395415875</v>
+        <v>-0.08887660496676374</v>
       </c>
       <c r="AV3">
-        <v>-0.3534008661357428</v>
+        <v>-0.09584435909806023</v>
       </c>
       <c r="AW3">
-        <v>-0.3535165054323781</v>
+        <v>-0.0959097922673131</v>
       </c>
       <c r="AX3">
-        <v>-0.3890718344248196</v>
+        <v>-0.105768423572222</v>
       </c>
       <c r="AY3">
-        <v>-0.3693439916299226</v>
+        <v>-0.1002716523089491</v>
       </c>
       <c r="AZ3">
-        <v>-0.3158939439334298</v>
+        <v>-0.08534212759612327</v>
       </c>
       <c r="BA3">
-        <v>-0.3293828175626195</v>
+        <v>-0.08887870179548463</v>
       </c>
       <c r="BB3">
-        <v>-0.3534030273724108</v>
+        <v>-0.09584487942215038</v>
       </c>
       <c r="BC3">
-        <v>-0.3902989430031142</v>
+        <v>-0.1061097550604672</v>
       </c>
       <c r="BD3">
-        <v>-0.3890718344247906</v>
+        <v>-0.1057684235721625</v>
       </c>
       <c r="BE3">
-        <v>-0.3693439916299212</v>
+        <v>-0.1002716523089309</v>
       </c>
       <c r="BF3">
-        <v>-0.3158939439334243</v>
+        <v>-0.08534212759612443</v>
       </c>
       <c r="BG3">
-        <v>-0.329383398072579</v>
+        <v>-0.08888049706529877</v>
       </c>
       <c r="BH3">
-        <v>-0.3534050858027497</v>
+        <v>-0.09584537499495274</v>
       </c>
       <c r="BI3">
-        <v>-0.3958616203037626</v>
+        <v>-0.1076562177137892</v>
       </c>
       <c r="BJ3">
-        <v>-0.3890718344247877</v>
+        <v>-0.1057684235721591</v>
       </c>
       <c r="BK3">
-        <v>-0.3693439916299162</v>
+        <v>-0.1002716523089188</v>
       </c>
       <c r="BL3">
-        <v>-0.3158939439334199</v>
+        <v>-0.08534212759612532</v>
       </c>
       <c r="BM3">
-        <v>-0.3293861808313102</v>
+        <v>-0.08888910296550157</v>
       </c>
       <c r="BN3">
-        <v>-0.3534063185998489</v>
+        <v>-0.09584567179409755</v>
       </c>
       <c r="BO3">
-        <v>-0.3969842971813208</v>
+        <v>-0.1079656273742038</v>
       </c>
       <c r="BP3">
-        <v>-0.3960272033742693</v>
+        <v>-0.1077486538900283</v>
       </c>
       <c r="BQ3">
-        <v>-0.3890718344247867</v>
+        <v>-0.1057684235721545</v>
       </c>
       <c r="BR3">
-        <v>-0.3693439916299112</v>
+        <v>-0.1002716523089056</v>
       </c>
       <c r="BS3">
-        <v>-0.3158939439334157</v>
+        <v>-0.08534212759612546</v>
       </c>
       <c r="BT3">
-        <v>-0.3293960169577815</v>
+        <v>-0.08891952214330641</v>
       </c>
       <c r="BU3">
-        <v>-0.3534087372592641</v>
+        <v>-0.09584625409234264</v>
       </c>
       <c r="BV3">
-        <v>-0.4102695653721526</v>
+        <v>-0.1116227850709917</v>
       </c>
       <c r="BW3">
-        <v>-0.3960721699617988</v>
+        <v>-0.1077706945383462</v>
       </c>
       <c r="BX3">
-        <v>-0.3960631764573986</v>
+        <v>-0.107771796589724</v>
       </c>
       <c r="BY3">
-        <v>-0.3890718344247855</v>
+        <v>-0.1057684235721383</v>
       </c>
       <c r="BZ3">
-        <v>-0.3693439916298978</v>
+        <v>-0.100271652308868</v>
       </c>
       <c r="CA3">
-        <v>-0.3158939439333962</v>
+        <v>-0.08534212759612453</v>
       </c>
       <c r="CB3">
-        <v>-0.3534209951588884</v>
+        <v>-0.09584920520453928</v>
       </c>
       <c r="CC3">
-        <v>-0.4149096980957936</v>
+        <v>-0.1128982683534319</v>
       </c>
       <c r="CD3">
-        <v>-0.3890718344247835</v>
+        <v>-0.1057684235721285</v>
       </c>
       <c r="CE3">
-        <v>-0.3693439916298576</v>
+        <v>-0.1002716523087566</v>
       </c>
       <c r="CF3">
-        <v>-0.3158939439333716</v>
+        <v>-0.08534212759612304</v>
       </c>
       <c r="CG3">
-        <v>-0.3534671862723072</v>
+        <v>-0.09586032568869558</v>
       </c>
       <c r="CH3">
-        <v>-0.4159229626439203</v>
+        <v>-0.1131766681853764</v>
       </c>
       <c r="CI3">
-        <v>-0.3890718344247821</v>
+        <v>-0.1057684235721257</v>
       </c>
       <c r="CJ3">
-        <v>-0.3693439916297809</v>
+        <v>-0.1002716523085443</v>
       </c>
       <c r="CK3">
-        <v>-0.3158939439333572</v>
+        <v>-0.08534212759612236</v>
       </c>
       <c r="CL3">
-        <v>-0.4179784030550758</v>
+        <v>-0.1137412715133303</v>
       </c>
       <c r="CM3">
-        <v>-0.3890718344247821</v>
+        <v>-0.1057684235721257</v>
       </c>
       <c r="CN3">
-        <v>-0.3693439916297704</v>
+        <v>-0.1002716523084926</v>
       </c>
       <c r="CO3">
-        <v>-0.3158939439333522</v>
+        <v>-0.08534212759612195</v>
       </c>
       <c r="CP3">
-        <v>-0.4199176380825906</v>
+        <v>-0.1142737829876946</v>
       </c>
       <c r="CQ3">
-        <v>-0.3693439916297692</v>
+        <v>-0.1002716523084828</v>
       </c>
       <c r="CR3">
-        <v>-0.3158939439333509</v>
+        <v>-0.08534212759612159</v>
       </c>
       <c r="CS3">
-        <v>-0.4210451774877019</v>
+        <v>-0.1145833272599546</v>
       </c>
       <c r="CT3">
-        <v>-0.3693439916297705</v>
+        <v>-0.1002716523084731</v>
       </c>
       <c r="CU3">
-        <v>-0.3158939439333502</v>
+        <v>-0.08534212759612139</v>
       </c>
       <c r="CV3">
-        <v>-0.4217899876908051</v>
+        <v>-0.1147877696974101</v>
       </c>
       <c r="CW3">
-        <v>-0.3693439916297706</v>
+        <v>-0.1002716523084721</v>
       </c>
       <c r="CX3">
-        <v>-0.3158939439333504</v>
+        <v>-0.08534212759612191</v>
       </c>
       <c r="CY3">
-        <v>-0.4228185650535143</v>
+        <v>-0.1150700627939388</v>
       </c>
       <c r="CZ3">
-        <v>-0.3693439916305537</v>
+        <v>-0.100271652309192</v>
       </c>
       <c r="DA3">
-        <v>-0.3158939439333504</v>
+        <v>-0.08534212759612191</v>
       </c>
       <c r="DB3">
-        <v>-0.4228318587356804</v>
+        <v>-0.1150970437201838</v>
       </c>
       <c r="DC3">
-        <v>-0.4234815308783494</v>
+        <v>-0.1152234009627816</v>
       </c>
       <c r="DD3">
-        <v>-0.3693439916305843</v>
+        <v>-0.1002716523092192</v>
       </c>
       <c r="DE3">
-        <v>-0.4228479422682296</v>
+        <v>-0.1151296869639479</v>
       </c>
       <c r="DF3">
-        <v>-0.4238575086816112</v>
+        <v>-0.1153103536066922</v>
       </c>
       <c r="DG3">
-        <v>-0.3693439916306481</v>
+        <v>-0.1002716523092762</v>
       </c>
       <c r="DH3">
-        <v>-0.422866584244469</v>
+        <v>-0.1151675228730692</v>
       </c>
       <c r="DI3">
-        <v>-0.4387176477000747</v>
+        <v>-0.1187426010701592</v>
       </c>
       <c r="DJ3">
-        <v>-0.3693439916323819</v>
+        <v>-0.1002716523106236</v>
       </c>
       <c r="DK3">
-        <v>-0.422895007758894</v>
+        <v>-0.1152252115373485</v>
       </c>
       <c r="DL3">
-        <v>-0.4402090083736553</v>
+        <v>-0.1190865803526199</v>
       </c>
       <c r="DM3">
-        <v>-0.3693439916339224</v>
+        <v>-0.1002716523118205</v>
       </c>
       <c r="DN3">
-        <v>-0.4229315500911482</v>
+        <v>-0.11529937835406</v>
       </c>
       <c r="DO3">
-        <v>-0.4407135231024871</v>
+        <v>-0.1191223248327072</v>
       </c>
       <c r="DP3">
-        <v>-0.4458817438646488</v>
+        <v>-0.1206774767866296</v>
       </c>
       <c r="DQ3">
-        <v>-0.369343991634066</v>
+        <v>-0.100271652311933</v>
       </c>
       <c r="DR3">
-        <v>-0.4229577840311453</v>
+        <v>-0.1153526231962806</v>
       </c>
       <c r="DS3">
-        <v>-0.4407135231024895</v>
+        <v>-0.1191223248327092</v>
       </c>
       <c r="DT3">
-        <v>-0.4409591725139346</v>
+        <v>-0.119139728625374</v>
       </c>
       <c r="DU3">
-        <v>-0.4561225243636727</v>
+        <v>-0.1235472919359295</v>
       </c>
       <c r="DV3">
-        <v>-0.3693439916341767</v>
+        <v>-0.1002716523120177</v>
       </c>
       <c r="DW3">
-        <v>-0.4229948524480762</v>
+        <v>-0.1154278579865363</v>
       </c>
       <c r="DX3">
-        <v>-0.4407135231024913</v>
+        <v>-0.1191223248327107</v>
       </c>
       <c r="DY3">
-        <v>-0.4421131882990008</v>
+        <v>-0.1192214859992403</v>
       </c>
       <c r="DZ3">
-        <v>-0.4607323091327394</v>
+        <v>-0.1248381992083647</v>
       </c>
       <c r="EA3">
-        <v>-0.3693439916342797</v>
+        <v>-0.1002716523120894</v>
       </c>
       <c r="EB3">
-        <v>-0.4230349578807618</v>
+        <v>-0.1155092569127963</v>
       </c>
       <c r="EC3">
-        <v>-0.440713523102492</v>
+        <v>-0.1191223248327113</v>
       </c>
       <c r="ED3">
-        <v>-0.4421561769426268</v>
+        <v>-0.1192748229536965</v>
       </c>
       <c r="EE3">
-        <v>-0.445327334271406</v>
+        <v>-0.1193767058247578</v>
       </c>
       <c r="EF3">
-        <v>-0.4621043874252331</v>
+        <v>-0.1252223218323544</v>
       </c>
       <c r="EG3">
-        <v>-0.3693439916346117</v>
+        <v>-0.100271652312307</v>
       </c>
       <c r="EH3">
-        <v>-0.4230727805987564</v>
+        <v>-0.1155860229296513</v>
       </c>
       <c r="EI3">
-        <v>-0.4407135231024928</v>
+        <v>-0.1191223248327124</v>
       </c>
       <c r="EJ3">
-        <v>-0.4421598791445289</v>
+        <v>-0.1192794163686941</v>
       </c>
       <c r="EK3">
-        <v>-0.4477187965892799</v>
+        <v>-0.1194921818590878</v>
       </c>
       <c r="EL3">
-        <v>-0.4636534903580485</v>
+        <v>-0.1256559435408055</v>
       </c>
       <c r="EM3">
-        <v>-0.3693439916348537</v>
+        <v>-0.1002716523124595</v>
       </c>
       <c r="EN3">
-        <v>-0.4231349673250763</v>
+        <v>-0.1157122390995916</v>
       </c>
       <c r="EO3">
-        <v>-0.4407135231024937</v>
+        <v>-0.1191223248327137</v>
       </c>
       <c r="EP3">
-        <v>-0.4421635117139609</v>
+        <v>-0.1192839233907497</v>
       </c>
       <c r="EQ3">
-        <v>-0.4493204468838649</v>
+        <v>-0.1195695136503235</v>
       </c>
       <c r="ER3">
-        <v>-0.4651106818474994</v>
+        <v>-0.1260637793564265</v>
       </c>
       <c r="ES3">
-        <v>-0.3693439916348898</v>
+        <v>-0.1002716523124796</v>
       </c>
       <c r="ET3">
-        <v>-0.4234306540459289</v>
+        <v>-0.1163123794236565</v>
       </c>
       <c r="EU3">
-        <v>-0.4407135231024946</v>
+        <v>-0.1191223248327149</v>
       </c>
       <c r="EV3">
-        <v>-0.4421664448643065</v>
+        <v>-0.1192875626269199</v>
       </c>
       <c r="EW3">
-        <v>-0.4493826832720199</v>
+        <v>-0.1196159992840538</v>
       </c>
       <c r="EX3">
-        <v>-0.4521973205606457</v>
+        <v>-0.1196270954750379</v>
       </c>
       <c r="EY3">
-        <v>-0.4668112996667673</v>
+        <v>-0.1265396734763734</v>
       </c>
       <c r="EZ3">
-        <v>-0.3693439916348966</v>
+        <v>-0.1002716523124803</v>
       </c>
       <c r="FA3">
-        <v>-0.4234950683889974</v>
+        <v>-0.1164431190614368</v>
       </c>
       <c r="FB3">
-        <v>-0.4407135231024944</v>
+        <v>-0.1191223248327159</v>
       </c>
       <c r="FC3">
-        <v>-0.4421708472972885</v>
+        <v>-0.1192930248425973</v>
       </c>
       <c r="FD3">
-        <v>-0.449547738735625</v>
+        <v>-0.1197392824294249</v>
       </c>
       <c r="FE3">
-        <v>-0.4523725475497557</v>
+        <v>-0.1196306003238284</v>
       </c>
       <c r="FF3">
-        <v>-0.4673007141829599</v>
+        <v>-0.1266766150449514</v>
       </c>
       <c r="FG3">
-        <v>-0.3693439916349002</v>
+        <v>-0.1002716523124784</v>
       </c>
       <c r="FH3">
-        <v>-0.4235608597966357</v>
+        <v>-0.1165747749262164</v>
       </c>
       <c r="FI3">
-        <v>-0.4237159650669811</v>
+        <v>-0.1168921170362099</v>
       </c>
       <c r="FJ3">
-        <v>-0.440713523102494</v>
+        <v>-0.1191223248327157</v>
       </c>
       <c r="FK3">
-        <v>-0.442176154933896</v>
+        <v>-0.1192996101719952</v>
       </c>
       <c r="FL3">
-        <v>-0.4496050718100388</v>
+        <v>-0.1197821055656995</v>
       </c>
       <c r="FM3">
-        <v>-0.4525326389271394</v>
+        <v>-0.1196338021937355</v>
       </c>
       <c r="FN3">
-        <v>-0.4700817551952417</v>
+        <v>-0.1274546487502337</v>
       </c>
       <c r="FO3">
-        <v>-0.3693439916349002</v>
+        <v>-0.1002716523124784</v>
       </c>
       <c r="FP3">
-        <v>-0.4235732891271137</v>
+        <v>-0.1165996478324066</v>
       </c>
       <c r="FQ3">
-        <v>-0.4240092322265094</v>
+        <v>-0.1174882236489023</v>
       </c>
       <c r="FR3">
-        <v>-0.4407135231024935</v>
+        <v>-0.1191223248327145</v>
       </c>
       <c r="FS3">
-        <v>-0.4421801647518417</v>
+        <v>-0.1193045852649535</v>
       </c>
       <c r="FT3">
-        <v>-0.4496050718104636</v>
+        <v>-0.1197821055653248</v>
       </c>
       <c r="FU3">
-        <v>-0.4497005930779368</v>
+        <v>-0.1198534528344177</v>
       </c>
       <c r="FV3">
-        <v>-0.4525991465206491</v>
+        <v>-0.1196351322958441</v>
       </c>
       <c r="FW3">
-        <v>-0.4716529539168534</v>
+        <v>-0.1278941219565239</v>
       </c>
       <c r="FX3">
-        <v>-0.4235989335629535</v>
+        <v>-0.1166509665417424</v>
       </c>
       <c r="FY3">
-        <v>-0.4240534915407789</v>
+        <v>-0.1175682495940388</v>
       </c>
       <c r="FZ3">
-        <v>-0.4240229750977085</v>
+        <v>-0.1175427118209653</v>
       </c>
       <c r="GA3">
-        <v>-0.4407135231024925</v>
+        <v>-0.1191223248327132</v>
       </c>
       <c r="GB3">
-        <v>-0.4421848048183681</v>
+        <v>-0.1193103423276402</v>
       </c>
       <c r="GC3">
-        <v>-0.4496050718105327</v>
+        <v>-0.1197821055652744</v>
       </c>
       <c r="GD3">
-        <v>-0.4497109097149425</v>
+        <v>-0.1198611585464578</v>
       </c>
       <c r="GE3">
-        <v>-0.4527425097140761</v>
+        <v>-0.1196379993179786</v>
       </c>
       <c r="GF3">
-        <v>-0.4728195081543248</v>
+        <v>-0.1282203714011909</v>
       </c>
       <c r="GG3">
-        <v>-0.4242276646806041</v>
+        <v>-0.1178831760006869</v>
       </c>
       <c r="GH3">
-        <v>-0.4240798548437811</v>
+        <v>-0.1177682412165971</v>
       </c>
       <c r="GI3">
-        <v>-0.4407135231024913</v>
+        <v>-0.1191223248327127</v>
       </c>
       <c r="GJ3">
-        <v>-0.4421891676871944</v>
+        <v>-0.1193157554659201</v>
       </c>
       <c r="GK3">
-        <v>-0.4496050718105454</v>
+        <v>-0.1197821055652773</v>
       </c>
       <c r="GL3">
-        <v>-0.4496050718105539</v>
+        <v>-0.1197821055652449</v>
       </c>
       <c r="GM3">
-        <v>-0.4497208887881615</v>
+        <v>-0.1198686121163238</v>
       </c>
       <c r="GN3">
-        <v>-0.4531076963854548</v>
+        <v>-0.1196453016057444</v>
       </c>
       <c r="GO3">
-        <v>-0.4738684476496641</v>
+        <v>-0.1285136967622524</v>
       </c>
       <c r="GP3">
-        <v>-0.4245386458904652</v>
+        <v>-0.1184454732613137</v>
       </c>
       <c r="GQ3">
-        <v>-0.424085344898705</v>
+        <v>-0.1178068292061177</v>
       </c>
       <c r="GR3">
-        <v>-0.4240831069910389</v>
+        <v>-0.1177714161355493</v>
       </c>
       <c r="GS3">
-        <v>-0.440713523102491</v>
+        <v>-0.1191223248327128</v>
       </c>
       <c r="GT3">
-        <v>-0.4421938618871346</v>
+        <v>-0.1193215796992498</v>
       </c>
       <c r="GU3">
-        <v>-0.4496050718105454</v>
+        <v>-0.1197821055652773</v>
       </c>
       <c r="GV3">
-        <v>-0.4496050718105694</v>
+        <v>-0.1197821055652306</v>
       </c>
       <c r="GW3">
-        <v>-0.4497288710793875</v>
+        <v>-0.1198745742435138</v>
       </c>
       <c r="GX3">
-        <v>-0.4533219778758903</v>
+        <v>-0.1196495858325016</v>
       </c>
       <c r="GY3">
-        <v>-0.4751717298824382</v>
+        <v>-0.1288781058221916</v>
       </c>
       <c r="GZ3">
-        <v>-0.4246878610443758</v>
+        <v>-0.1186479793836239</v>
       </c>
       <c r="HA3">
-        <v>-0.4245433533501397</v>
+        <v>-0.118487954580244</v>
       </c>
       <c r="HB3">
-        <v>-0.4240992251757102</v>
+        <v>-0.1179043922118113</v>
       </c>
       <c r="HC3">
-        <v>-0.4240835666856775</v>
+        <v>-0.1177718649138712</v>
       </c>
       <c r="HD3">
-        <v>-0.4407135231024908</v>
+        <v>-0.1191223248327131</v>
       </c>
       <c r="HE3">
-        <v>-0.4422010379293728</v>
+        <v>-0.1193304832338582</v>
       </c>
       <c r="HF3">
-        <v>-0.4496050718105786</v>
+        <v>-0.1197821055652216</v>
       </c>
       <c r="HG3">
-        <v>-0.4497352296245091</v>
+        <v>-0.1198793235595147</v>
       </c>
       <c r="HH3">
-        <v>-0.4534720738222709</v>
+        <v>-0.1196525865243283</v>
       </c>
       <c r="HI3">
-        <v>-0.4775773071180118</v>
+        <v>-0.1295506077843799</v>
       </c>
       <c r="HJ3">
-        <v>-0.4251763331310259</v>
+        <v>-0.1193109397957995</v>
       </c>
       <c r="HK3">
-        <v>-0.4245518495117986</v>
+        <v>-0.1185646263007945</v>
       </c>
       <c r="HL3">
-        <v>-0.4240839374164689</v>
+        <v>-0.1177722268409585</v>
       </c>
       <c r="HM3">
-        <v>-0.4407135231024908</v>
+        <v>-0.119122324832713</v>
       </c>
       <c r="HN3">
-        <v>-0.4422206350505597</v>
+        <v>-0.1193547980159331</v>
       </c>
       <c r="HO3">
-        <v>-0.4496050718105907</v>
+        <v>-0.1197821055652016</v>
       </c>
       <c r="HP3">
-        <v>-0.4497486726681122</v>
+        <v>-0.1198893644081695</v>
       </c>
       <c r="HQ3">
-        <v>-0.4537608269053466</v>
+        <v>-0.1196583586593093</v>
       </c>
       <c r="HR3">
-        <v>-0.4796752103625681</v>
+        <v>-0.1301369712413188</v>
       </c>
       <c r="HS3">
-        <v>-0.4253869388508048</v>
+        <v>-0.119596792827349</v>
       </c>
       <c r="HT3">
-        <v>-0.424554883116658</v>
+        <v>-0.1185920024511114</v>
       </c>
       <c r="HU3">
-        <v>-0.424084233685284</v>
+        <v>-0.1177725160743086</v>
       </c>
       <c r="HV3">
-        <v>-0.4422223059723455</v>
+        <v>-0.1193568711850565</v>
       </c>
       <c r="HW3">
-        <v>-0.4496050718106117</v>
+        <v>-0.1197821055651862</v>
       </c>
       <c r="HX3">
-        <v>-0.4497592594434648</v>
+        <v>-0.1198972718482554</v>
       </c>
       <c r="HY3">
-        <v>-0.453904563621159</v>
+        <v>-0.1196612316591496</v>
       </c>
       <c r="HZ3">
-        <v>-0.4811026330947771</v>
+        <v>-0.1305358688274471</v>
       </c>
       <c r="IA3">
-        <v>-0.4245890417318494</v>
+        <v>-0.1189002556142098</v>
       </c>
       <c r="IB3">
-        <v>-0.424554883116658</v>
+        <v>-0.1185920024511114</v>
       </c>
       <c r="IC3">
-        <v>-0.4240846859425405</v>
+        <v>-0.1177729575918612</v>
       </c>
       <c r="ID3">
-        <v>-0.4422230777558917</v>
+        <v>-0.11935782876311</v>
       </c>
       <c r="IE3">
-        <v>-0.4496050718106309</v>
+        <v>-0.1197821055651669</v>
       </c>
       <c r="IF3">
-        <v>-0.4497666029885232</v>
+        <v>-0.1199027568595668</v>
       </c>
       <c r="IG3">
-        <v>-0.4540066312843543</v>
+        <v>-0.1196632716687281</v>
       </c>
       <c r="IH3">
-        <v>-0.4820404734755085</v>
+        <v>-0.1307979217416233</v>
       </c>
       <c r="II3">
-        <v>-0.4245940023550214</v>
+        <v>-0.1189450243281896</v>
       </c>
       <c r="IJ3">
-        <v>-0.4240852160792888</v>
+        <v>-0.1177734751395071</v>
       </c>
       <c r="IK3">
-        <v>-0.4422239032721203</v>
+        <v>-0.119358853009216</v>
       </c>
       <c r="IL3">
-        <v>-0.4496050718106414</v>
+        <v>-0.119782105565141</v>
       </c>
       <c r="IM3">
-        <v>-0.4497739290637115</v>
+        <v>-0.1199082288177273</v>
       </c>
       <c r="IN3">
-        <v>-0.4551745797991573</v>
+        <v>-0.1196866086419967</v>
       </c>
       <c r="IO3">
-        <v>-0.4840592581591652</v>
+        <v>-0.1313619347930565</v>
       </c>
       <c r="IP3">
-        <v>-0.4245940023550219</v>
+        <v>-0.1190378466191096</v>
       </c>
       <c r="IQ3">
-        <v>-0.4246092289023027</v>
+        <v>-0.1189896220221034</v>
       </c>
       <c r="IR3">
-        <v>-0.4240860303381014</v>
+        <v>-0.1177742700621933</v>
       </c>
       <c r="IS3">
-        <v>-0.4422246920895186</v>
+        <v>-0.1193598317219198</v>
       </c>
       <c r="IT3">
-        <v>-0.4496050718106565</v>
+        <v>-0.1197821055651352</v>
       </c>
       <c r="IU3">
-        <v>-0.4497846468291677</v>
+        <v>-0.1199162340731557</v>
       </c>
       <c r="IV3">
-        <v>-0.4555191074441567</v>
+        <v>-0.1196934903808588</v>
       </c>
       <c r="IW3">
-        <v>-0.4841160330023661</v>
+        <v>-0.1314369664922365</v>
       </c>
       <c r="IX3">
-        <v>-0.4853872750939089</v>
+        <v>-0.1317236808755654</v>
       </c>
       <c r="IY3">
-        <v>-0.4240890099736042</v>
+        <v>-0.1177771789405188</v>
       </c>
       <c r="IZ3">
-        <v>-0.4422255708662379</v>
+        <v>-0.1193609220503279</v>
       </c>
       <c r="JA3">
-        <v>-0.4496050718106726</v>
+        <v>-0.119782105565133</v>
       </c>
       <c r="JB3">
-        <v>-0.4498249573483005</v>
+        <v>-0.1199463424996477</v>
       </c>
       <c r="JC3">
-        <v>-0.455596195914533</v>
+        <v>-0.1196950300331366</v>
       </c>
       <c r="JD3">
-        <v>-0.4841238813835135</v>
+        <v>-0.1314473386946355</v>
       </c>
       <c r="JE3">
-        <v>-0.4903692111180958</v>
+        <v>-0.1330803288053529</v>
       </c>
       <c r="JF3">
-        <v>-0.4241035119193092</v>
+        <v>-0.1177913365083399</v>
       </c>
       <c r="JG3">
-        <v>-0.4422273847857103</v>
+        <v>-0.1193631726427459</v>
       </c>
       <c r="JH3">
-        <v>-0.4496050718106886</v>
+        <v>-0.1197821055651264</v>
       </c>
       <c r="JI3">
-        <v>-0.4498343659693863</v>
+        <v>-0.1199533698952492</v>
       </c>
       <c r="JJ3">
-        <v>-0.4565678443371923</v>
+        <v>-0.1197338336675569</v>
       </c>
       <c r="JK3">
-        <v>-0.455629546495201</v>
+        <v>-0.1196950300331732</v>
       </c>
       <c r="JL3">
-        <v>-0.4841274895821792</v>
+        <v>-0.1314521071937169</v>
       </c>
       <c r="JM3">
-        <v>-0.49038155686826</v>
+        <v>-0.1331293259654313</v>
       </c>
       <c r="JN3">
-        <v>-0.4920408091388048</v>
+        <v>-0.1335257791953989</v>
       </c>
       <c r="JO3">
-        <v>-0.4422292739727962</v>
+        <v>-0.1193655166227613</v>
       </c>
       <c r="JP3">
-        <v>-0.4496050718106886</v>
+        <v>-0.1197821055651296</v>
       </c>
       <c r="JQ3">
-        <v>-0.4498386763172615</v>
+        <v>-0.1199565893357467</v>
       </c>
       <c r="JR3">
-        <v>-0.4575312063308332</v>
+        <v>-0.1197722900957924</v>
       </c>
       <c r="JS3">
-        <v>-0.4556686485978259</v>
+        <v>-0.1196950300332172</v>
       </c>
       <c r="JT3">
-        <v>-0.4841317750958994</v>
+        <v>-0.1314577708175809</v>
       </c>
       <c r="JU3">
-        <v>-0.4903824542714735</v>
+        <v>-0.1331328875637608</v>
       </c>
       <c r="JV3">
-        <v>-0.4981034325220418</v>
+        <v>-0.1351407551340594</v>
       </c>
       <c r="JW3">
-        <v>-0.4422364578937442</v>
+        <v>-0.119374429967373</v>
       </c>
       <c r="JX3">
-        <v>-0.4496050718106808</v>
+        <v>-0.119782105565122</v>
       </c>
       <c r="JY3">
-        <v>-0.4498415100500684</v>
+        <v>-0.1199587058773029</v>
       </c>
       <c r="JZ3">
-        <v>-0.4557039866197563</v>
+        <v>-0.11969503003326</v>
       </c>
       <c r="KA3">
-        <v>-0.4841383871469767</v>
+        <v>-0.1314665091399023</v>
       </c>
       <c r="KB3">
-        <v>-0.4903831939395518</v>
+        <v>-0.1331358231488816</v>
       </c>
       <c r="KC3">
-        <v>-0.4991370481147994</v>
+        <v>-0.1354468795447505</v>
       </c>
       <c r="KD3">
-        <v>-0.4989949569612321</v>
+        <v>-0.1353626056939759</v>
       </c>
       <c r="KE3">
-        <v>-0.4422745987495378</v>
+        <v>-0.1194217527928882</v>
       </c>
       <c r="KF3">
-        <v>-0.4496050718106808</v>
+        <v>-0.119782105565122</v>
       </c>
       <c r="KG3">
-        <v>-0.4498490909783712</v>
+        <v>-0.119963502359141</v>
       </c>
       <c r="KH3">
-        <v>-0.4498430304374423</v>
+        <v>-0.1199599482557543</v>
       </c>
       <c r="KI3">
-        <v>-0.4557397775514188</v>
+        <v>-0.1196950300333016</v>
       </c>
       <c r="KJ3">
-        <v>-0.4841442789663818</v>
+        <v>-0.1314742956290924</v>
       </c>
       <c r="KK3">
-        <v>-0.4903842445814351</v>
+        <v>-0.1331399929278831</v>
       </c>
       <c r="KL3">
-        <v>-0.4996128773118196</v>
+        <v>-0.1355877888154216</v>
       </c>
       <c r="KM3">
-        <v>-0.5027324399770782</v>
+        <v>-0.1362924432724122</v>
       </c>
       <c r="KN3">
-        <v>-0.4498525733445136</v>
+        <v>-0.1199657056632515</v>
       </c>
       <c r="KO3">
-        <v>-0.4498441064704848</v>
+        <v>-0.1199608275317498</v>
       </c>
       <c r="KP3">
-        <v>-0.4557782606905247</v>
+        <v>-0.1196950300333443</v>
       </c>
       <c r="KQ3">
-        <v>-0.4841488597334057</v>
+        <v>-0.1314803494671117</v>
       </c>
       <c r="KR3">
-        <v>-0.4903889635971173</v>
+        <v>-0.1331587217922973</v>
       </c>
       <c r="KS3">
-        <v>-0.5027225251714144</v>
+        <v>-0.1365084077946289</v>
       </c>
       <c r="KT3">
-        <v>-0.503557695957025</v>
+        <v>-0.1364977100030176</v>
       </c>
       <c r="KU3">
-        <v>-0.449858467197954</v>
+        <v>-0.1199694347200973</v>
       </c>
       <c r="KV3">
-        <v>-0.4498453586565002</v>
+        <v>-0.1199618507503252</v>
       </c>
       <c r="KW3">
-        <v>-0.4560014548426941</v>
+        <v>-0.1196950300335857</v>
       </c>
       <c r="KX3">
-        <v>-0.4841545616534631</v>
+        <v>-0.13148788500129</v>
       </c>
       <c r="KY3">
-        <v>-0.4903898720588423</v>
+        <v>-0.1331623273156604</v>
       </c>
       <c r="KZ3">
-        <v>-0.5029548755515226</v>
+        <v>-0.1365771780234717</v>
       </c>
       <c r="LA3">
-        <v>-0.5038319315791084</v>
+        <v>-0.1365659171909158</v>
       </c>
       <c r="LB3">
-        <v>-0.449869780111158</v>
+        <v>-0.1199765924202418</v>
       </c>
       <c r="LC3">
-        <v>-0.4498477536898478</v>
+        <v>-0.1199638078415323</v>
       </c>
       <c r="LD3">
-        <v>-0.4569457327756654</v>
+        <v>-0.1196950300346013</v>
       </c>
       <c r="LE3">
-        <v>-0.4841604591167734</v>
+        <v>-0.1314956789678318</v>
       </c>
       <c r="LF3">
-        <v>-0.4903905447003017</v>
+        <v>-0.1331649969130919</v>
       </c>
       <c r="LG3">
-        <v>-0.5031440085538028</v>
+        <v>-0.1366135025333902</v>
       </c>
       <c r="LH3">
-        <v>-0.5054186373159478</v>
+        <v>-0.1374926964030601</v>
       </c>
       <c r="LI3">
-        <v>-0.5039750672086502</v>
+        <v>-0.1366015167868279</v>
       </c>
       <c r="LJ3">
-        <v>-0.449903087572282</v>
+        <v>-0.1199976660309143</v>
       </c>
       <c r="LK3">
-        <v>-0.449856939083532</v>
+        <v>-0.1199713136428914</v>
       </c>
       <c r="LL3">
-        <v>-0.4841674155150869</v>
+        <v>-0.1315048724098236</v>
       </c>
       <c r="LM3">
-        <v>-0.4903913195105948</v>
+        <v>-0.1331680720039395</v>
       </c>
       <c r="LN3">
-        <v>-0.504118358838228</v>
+        <v>-0.1368005942416662</v>
       </c>
       <c r="LO3">
-        <v>-0.5066014672620943</v>
+        <v>-0.1379321183790514</v>
       </c>
       <c r="LP3">
-        <v>-0.5040975978996899</v>
+        <v>-0.136631991280223</v>
       </c>
       <c r="LQ3">
-        <v>-0.4498882856369992</v>
+        <v>-0.1199969282888936</v>
       </c>
       <c r="LR3">
-        <v>-0.4841713797461094</v>
+        <v>-0.131510111465366</v>
       </c>
       <c r="LS3">
-        <v>-0.4903920881115214</v>
+        <v>-0.1331711224540455</v>
       </c>
       <c r="LT3">
-        <v>-0.5044586249481019</v>
+        <v>-0.1368659152710818</v>
       </c>
       <c r="LU3">
-        <v>-0.5067570524517661</v>
+        <v>-0.1384234304320325</v>
       </c>
       <c r="LV3">
-        <v>-0.5087845475275404</v>
+        <v>-0.1384729698528239</v>
       </c>
       <c r="LW3">
-        <v>-0.5042369569845382</v>
+        <v>-0.1366666506989326</v>
       </c>
       <c r="LX3">
-        <v>-0.4841892886364692</v>
+        <v>-0.131533779566768</v>
       </c>
       <c r="LY3">
-        <v>-0.4903988403674123</v>
+        <v>-0.1331979211786894</v>
       </c>
       <c r="LZ3">
-        <v>-0.5051993744882664</v>
+        <v>-0.1370080889840498</v>
       </c>
       <c r="MA3">
-        <v>-0.5068186749527873</v>
+        <v>-0.1386180448097571</v>
       </c>
       <c r="MB3">
-        <v>-0.5088361066475244</v>
+        <v>-0.1384921187392363</v>
       </c>
       <c r="MC3">
-        <v>-0.5091736362403727</v>
+        <v>-0.138568376438011</v>
       </c>
       <c r="MD3">
-        <v>-0.5043467497422164</v>
+        <v>-0.1366939564629717</v>
       </c>
       <c r="ME3">
-        <v>-0.4841962584442271</v>
+        <v>-0.1315429907693897</v>
       </c>
       <c r="MF3">
-        <v>-0.4904126429477181</v>
+        <v>-0.1332527023812183</v>
       </c>
       <c r="MG3">
-        <v>-0.5057878421737578</v>
+        <v>-0.1371132114422476</v>
       </c>
       <c r="MH3">
-        <v>-0.5052082760313391</v>
+        <v>-0.1370134650756086</v>
       </c>
       <c r="MI3">
-        <v>-0.5088620286924032</v>
+        <v>-0.1385017459941317</v>
       </c>
       <c r="MJ3">
-        <v>-0.5095069975931739</v>
+        <v>-0.138650113511782</v>
       </c>
       <c r="MK3">
-        <v>-0.5044388005988387</v>
+        <v>-0.1367168495384571</v>
       </c>
       <c r="ML3">
-        <v>-0.484198679754067</v>
+        <v>-0.131546190741567</v>
       </c>
       <c r="MM3">
-        <v>-0.506668662052953</v>
+        <v>-0.1372705157662934</v>
       </c>
       <c r="MN3">
-        <v>-0.505209515489609</v>
+        <v>-0.1370142136463885</v>
       </c>
       <c r="MO3">
-        <v>-0.508864441008597</v>
+        <v>-0.1385026419068136</v>
       </c>
       <c r="MP3">
-        <v>-0.5097415007812638</v>
+        <v>-0.1387076087983213</v>
       </c>
       <c r="MQ3">
-        <v>-0.5045218605449189</v>
+        <v>-0.1367375063929854</v>
       </c>
       <c r="MR3">
-        <v>-0.4842005038906518</v>
+        <v>-0.1315486014979444</v>
       </c>
       <c r="MS3">
-        <v>-0.5052108616292259</v>
+        <v>-0.1370150266471755</v>
       </c>
       <c r="MT3">
-        <v>-0.5088654372658822</v>
+        <v>-0.1385030119076872</v>
       </c>
       <c r="MU3">
-        <v>-0.5100378176347433</v>
+        <v>-0.138780256324129</v>
       </c>
       <c r="MV3">
-        <v>-0.5045906045746112</v>
+        <v>-0.1367546027773543</v>
       </c>
       <c r="MW3">
-        <v>-0.484201838513314</v>
+        <v>-0.1315503653191787</v>
       </c>
       <c r="MX3">
-        <v>-0.5052120407515177</v>
+        <v>-0.1370157387777163</v>
       </c>
       <c r="MY3">
-        <v>-0.5088661402289401</v>
+        <v>-0.1385032729816936</v>
       </c>
       <c r="MZ3">
-        <v>-0.5102234971038754</v>
+        <v>-0.1388257772506497</v>
       </c>
       <c r="NA3">
-        <v>-0.504670352495346</v>
+        <v>-0.1367744356428877</v>
       </c>
       <c r="NB3">
-        <v>-0.4842025162425653</v>
+        <v>-0.1315512609981251</v>
       </c>
       <c r="NC3">
-        <v>-0.5052132935696549</v>
+        <v>-0.137016495416673</v>
       </c>
       <c r="ND3">
-        <v>-0.5088668592511504</v>
+        <v>-0.13850354001987</v>
       </c>
       <c r="NE3">
-        <v>-0.5105086425649089</v>
+        <v>-0.1388956804098034</v>
       </c>
       <c r="NF3">
-        <v>-0.5047580019966604</v>
+        <v>-0.1367962334072912</v>
       </c>
       <c r="NG3">
-        <v>-0.4842035126488248</v>
+        <v>-0.1315525778369887</v>
       </c>
       <c r="NH3">
-        <v>-0.505215081610524</v>
+        <v>-0.1370175753028674</v>
       </c>
       <c r="NI3">
-        <v>-0.5088677076463081</v>
+        <v>-0.1385038551058876</v>
       </c>
       <c r="NJ3">
-        <v>-0.5107929168326857</v>
+        <v>-0.1389653667235413</v>
       </c>
       <c r="NK3">
-        <v>-0.5052358538717049</v>
+        <v>-0.1369150682124105</v>
       </c>
       <c r="NL3">
-        <v>-0.4842051829521478</v>
+        <v>-0.1315547852907656</v>
       </c>
       <c r="NM3">
-        <v>-0.5052172553039521</v>
+        <v>-0.1370188881032189</v>
       </c>
       <c r="NN3">
-        <v>-0.5088687778366886</v>
+        <v>-0.1385042525644658</v>
       </c>
       <c r="NO3">
-        <v>-0.511111902436844</v>
+        <v>-0.1390435582004099</v>
       </c>
       <c r="NP3">
-        <v>-0.508756217723317</v>
+        <v>-0.1377938566830919</v>
       </c>
       <c r="NQ3">
-        <v>-0.5052734878001818</v>
+        <v>-0.1369228124457861</v>
       </c>
       <c r="NR3">
-        <v>-0.4842126332422506</v>
+        <v>-0.1315646315155819</v>
       </c>
       <c r="NS3">
-        <v>-0.5052307285983221</v>
+        <v>-0.1370270252767403</v>
       </c>
       <c r="NT3">
-        <v>-0.5088697362967733</v>
+        <v>-0.138504608527368</v>
       </c>
       <c r="NU3">
-        <v>-0.5113427455137677</v>
+        <v>-0.1391001411380713</v>
       </c>
       <c r="NV3">
-        <v>-0.512129453629925</v>
+        <v>-0.1386356311004242</v>
       </c>
       <c r="NW3">
-        <v>-0.5055045793494526</v>
+        <v>-0.1369703636814704</v>
       </c>
       <c r="NX3">
-        <v>-0.5052734878002176</v>
+        <v>-0.136922812445781</v>
       </c>
       <c r="NY3">
-        <v>-0.4842400205162894</v>
+        <v>-0.1316008263405733</v>
       </c>
       <c r="NZ3">
-        <v>-0.5052768312106157</v>
+        <v>-0.1370548687222955</v>
       </c>
       <c r="OA3">
-        <v>-0.5088704947024121</v>
+        <v>-0.1385048901918948</v>
       </c>
       <c r="OB3">
-        <v>-0.5116179044815011</v>
+        <v>-0.1391675837192531</v>
       </c>
       <c r="OC3">
-        <v>-0.5122796553228637</v>
+        <v>-0.138673106675593</v>
       </c>
       <c r="OD3">
-        <v>-0.5055890436418862</v>
+        <v>-0.1369877427331129</v>
       </c>
       <c r="OE3">
-        <v>-0.5052734878004078</v>
+        <v>-0.1369228124457554</v>
       </c>
       <c r="OF3">
-        <v>-0.5088717963095422</v>
+        <v>-0.1385053735960637</v>
       </c>
       <c r="OG3">
-        <v>-0.5120171853173447</v>
+        <v>-0.1392654436310741</v>
       </c>
       <c r="OH3">
-        <v>-0.5123488186564664</v>
+        <v>-0.1387678025695334</v>
       </c>
       <c r="OI3">
-        <v>-0.5149921707434411</v>
+        <v>-0.139304225856439</v>
       </c>
       <c r="OJ3">
-        <v>-0.505597641182406</v>
+        <v>-0.1369895117005472</v>
       </c>
       <c r="OK3">
-        <v>-0.5052734878004214</v>
+        <v>-0.1369228124457534</v>
       </c>
       <c r="OL3">
-        <v>-0.5088763400857137</v>
+        <v>-0.1385070611087239</v>
       </c>
       <c r="OM3">
-        <v>-0.5123132257821718</v>
+        <v>-0.1393379961552315</v>
       </c>
       <c r="ON3">
-        <v>-0.5123551559130101</v>
+        <v>-0.1387764793634205</v>
       </c>
       <c r="OO3">
-        <v>-0.5163011524246223</v>
+        <v>-0.1396087239818139</v>
       </c>
       <c r="OP3">
-        <v>-0.5056036411608963</v>
+        <v>-0.1369907462092405</v>
       </c>
       <c r="OQ3">
-        <v>-0.5052734878004271</v>
+        <v>-0.1369228124457527</v>
       </c>
       <c r="OR3">
-        <v>-0.5089041192570819</v>
+        <v>-0.1385173779651948</v>
       </c>
       <c r="OS3">
-        <v>-0.5125988224954908</v>
+        <v>-0.1394079858052379</v>
       </c>
       <c r="OT3">
-        <v>-0.5123587585206965</v>
+        <v>-0.1387814119569349</v>
       </c>
       <c r="OU3">
-        <v>-0.5202515125202781</v>
+        <v>-0.14052742147699</v>
       </c>
       <c r="OV3">
-        <v>-0.5163011524247995</v>
+        <v>-0.1396087239819793</v>
       </c>
       <c r="OW3">
-        <v>-0.5056098566228402</v>
+        <v>-0.1369920250512976</v>
       </c>
       <c r="OX3">
-        <v>-0.5052734878004297</v>
+        <v>-0.1369228124457528</v>
       </c>
       <c r="OY3">
-        <v>-0.5128783528427645</v>
+        <v>-0.1394764856110027</v>
       </c>
       <c r="OZ3">
-        <v>-0.5123612047812547</v>
+        <v>-0.1387847613127784</v>
       </c>
       <c r="PA3">
-        <v>-0.5258813493776072</v>
+        <v>-0.1418360664612374</v>
       </c>
       <c r="PB3">
-        <v>-0.5163011524248432</v>
+        <v>-0.1396087239820177</v>
       </c>
       <c r="PC3">
-        <v>-0.5056359581281574</v>
+        <v>-0.1369973954497765</v>
       </c>
       <c r="PD3">
-        <v>-0.5052734878004321</v>
+        <v>-0.136922812445752</v>
       </c>
       <c r="PE3">
-        <v>-0.5132145528813492</v>
+        <v>-0.1395588683226099</v>
       </c>
       <c r="PF3">
-        <v>-0.5123651915443849</v>
+        <v>-0.138790219887325</v>
       </c>
       <c r="PG3">
-        <v>-0.5270599859149926</v>
+        <v>-0.1421099442741</v>
       </c>
       <c r="PH3">
-        <v>-0.5163011524248691</v>
+        <v>-0.1396087239820422</v>
       </c>
       <c r="PI3">
-        <v>-0.5056423315506845</v>
+        <v>-0.1369987067771093</v>
       </c>
       <c r="PJ3">
-        <v>-0.5052734878004527</v>
+        <v>-0.1369228124457449</v>
       </c>
       <c r="PK3">
-        <v>-0.5137776814059232</v>
+        <v>-0.1396968475287608</v>
       </c>
       <c r="PL3">
-        <v>-0.5132145528813491</v>
+        <v>-0.1395588683226099</v>
       </c>
       <c r="PM3">
-        <v>-0.5123784438408815</v>
+        <v>-0.1388083646205308</v>
       </c>
       <c r="PN3">
-        <v>-0.5273612610925807</v>
+        <v>-0.1421799458637484</v>
       </c>
       <c r="PO3">
-        <v>-0.5163011524248986</v>
+        <v>-0.139608723982068</v>
       </c>
       <c r="PP3">
-        <v>-0.5056484111195526</v>
+        <v>-0.1369999576414308</v>
       </c>
       <c r="PQ3">
-        <v>-0.5052734878004604</v>
+        <v>-0.1369228124457436</v>
       </c>
       <c r="PR3">
-        <v>-0.5156775831995473</v>
+        <v>-0.140162271842447</v>
       </c>
       <c r="PS3">
-        <v>-0.5137776814059232</v>
+        <v>-0.1396968475287608</v>
       </c>
       <c r="PT3">
-        <v>-0.5123931978957044</v>
+        <v>-0.1388285655736296</v>
       </c>
       <c r="PU3">
-        <v>-0.5275190995763334</v>
+        <v>-0.1422166189449878</v>
       </c>
       <c r="PV3">
-        <v>-0.5163011524249219</v>
+        <v>-0.1396087239820896</v>
       </c>
       <c r="PW3">
-        <v>-0.5056544576379738</v>
+        <v>-0.1370012017029276</v>
       </c>
       <c r="PX3">
-        <v>-0.5052734878004627</v>
+        <v>-0.1369228124457441</v>
       </c>
       <c r="PY3">
-        <v>-0.5183661451031636</v>
+        <v>-0.1408206473505752</v>
       </c>
       <c r="PZ3">
-        <v>-0.5156775831995473</v>
+        <v>-0.140162271842447</v>
       </c>
       <c r="QA3">
-        <v>-0.5124014955618508</v>
+        <v>-0.1388399265921546</v>
       </c>
       <c r="QB3">
-        <v>-0.5276499483088103</v>
+        <v>-0.1422470206331796</v>
       </c>
       <c r="QC3">
-        <v>-0.5163011524249397</v>
+        <v>-0.1396087239821087</v>
       </c>
       <c r="QD3">
-        <v>-0.5056613937944607</v>
+        <v>-0.1370026288026803</v>
       </c>
       <c r="QE3">
-        <v>-0.5052734878004645</v>
+        <v>-0.136922812445747</v>
       </c>
       <c r="QF3">
-        <v>-0.5202963154376924</v>
+        <v>-0.1412931278844233</v>
       </c>
       <c r="QG3">
-        <v>-0.5183661451031636</v>
+        <v>-0.1408206473505752</v>
       </c>
       <c r="QH3">
-        <v>-0.5124092903679731</v>
+        <v>-0.1388505991180487</v>
       </c>
       <c r="QI3">
-        <v>-0.5277559955734342</v>
+        <v>-0.1422716595984432</v>
       </c>
       <c r="QJ3">
-        <v>-0.5163011524249557</v>
+        <v>-0.1396087239821258</v>
       </c>
       <c r="QK3">
-        <v>-0.505685347570595</v>
+        <v>-0.1370075572146652</v>
       </c>
       <c r="QL3">
-        <v>-0.505273487800468</v>
+        <v>-0.1369228124457521</v>
       </c>
       <c r="QM3">
-        <v>-0.52088208953188</v>
+        <v>-0.1414364880164794</v>
       </c>
       <c r="QN3">
-        <v>-0.5202963154376924</v>
+        <v>-0.1412931278844233</v>
       </c>
       <c r="QO3">
-        <v>-0.5124167272821646</v>
+        <v>-0.1388607816370107</v>
       </c>
       <c r="QP3">
-        <v>-0.5279180989719446</v>
+        <v>-0.1423093221070758</v>
       </c>
       <c r="QQ3">
-        <v>-0.5163011524249681</v>
+        <v>-0.139608723982132</v>
       </c>
       <c r="QR3">
-        <v>-0.5058020827681066</v>
+        <v>-0.1370315744922151</v>
       </c>
       <c r="QS3">
-        <v>-0.505273487800473</v>
+        <v>-0.136922812445759</v>
       </c>
       <c r="QT3">
-        <v>-0.522602732226994</v>
+        <v>-0.1418342946769552</v>
       </c>
       <c r="QU3">
-        <v>-0.5208820895318801</v>
+        <v>-0.1414364880164794</v>
       </c>
       <c r="QV3">
-        <v>-0.5208928491611468</v>
+        <v>-0.1414577462362259</v>
       </c>
       <c r="QW3">
-        <v>-0.5124289376405509</v>
+        <v>-0.1388774999167098</v>
       </c>
       <c r="QX3">
-        <v>-0.5280642356720973</v>
+        <v>-0.1423432744440816</v>
       </c>
       <c r="QY3">
-        <v>-0.5163011524249744</v>
+        <v>-0.139608723982139</v>
       </c>
       <c r="QZ3">
-        <v>-0.5052734878004765</v>
+        <v>-0.1369228124457645</v>
       </c>
       <c r="RA3">
-        <v>-0.5245152052652617</v>
+        <v>-0.1422763171518246</v>
       </c>
       <c r="RB3">
-        <v>-0.522602732226994</v>
+        <v>-0.1418342946769551</v>
       </c>
       <c r="RC3">
-        <v>-0.5226027322269939</v>
+        <v>-0.1418342946769552</v>
       </c>
       <c r="RD3">
-        <v>-0.520894420476029</v>
+        <v>-0.1414608507529196</v>
       </c>
       <c r="RE3">
-        <v>-0.5124374424275298</v>
+        <v>-0.1388891445917566</v>
       </c>
       <c r="RF3">
-        <v>-0.5282033243904062</v>
+        <v>-0.142375588839709</v>
       </c>
       <c r="RG3">
-        <v>-0.5163011524249704</v>
+        <v>-0.1396087239821366</v>
       </c>
       <c r="RH3">
-        <v>-0.5052734878004982</v>
+        <v>-0.1369228124457899</v>
       </c>
       <c r="RI3">
-        <v>-0.5252162290509471</v>
+        <v>-0.1424383065556941</v>
       </c>
       <c r="RJ3">
-        <v>-0.5245152052652617</v>
+        <v>-0.1422763171518246</v>
       </c>
       <c r="RK3">
-        <v>-0.5208952772734103</v>
+        <v>-0.1414625435665244</v>
       </c>
       <c r="RL3">
-        <v>-0.5124434180978759</v>
+        <v>-0.1388973264338685</v>
       </c>
       <c r="RM3">
-        <v>-0.5283600193275586</v>
+        <v>-0.1424119931344752</v>
       </c>
       <c r="RN3">
-        <v>-0.5163011524249624</v>
+        <v>-0.1396087239821331</v>
       </c>
       <c r="RO3">
-        <v>-0.5052734878004995</v>
+        <v>-0.1369228124457905</v>
       </c>
       <c r="RP3">
-        <v>-0.5254835985663451</v>
+        <v>-0.1425581584467422</v>
       </c>
       <c r="RQ3">
-        <v>-0.5252162290509471</v>
+        <v>-0.1424383065556941</v>
       </c>
       <c r="RR3">
-        <v>-0.5283742184822808</v>
+        <v>-0.1430171090107316</v>
       </c>
       <c r="RS3">
-        <v>-0.5208958576866223</v>
+        <v>-0.1414636903157042</v>
       </c>
       <c r="RT3">
-        <v>-0.5124462733146169</v>
+        <v>-0.1389012357776921</v>
       </c>
       <c r="RU3">
-        <v>-0.5285255431219819</v>
+        <v>-0.1424504479770159</v>
       </c>
       <c r="RV3">
-        <v>-0.5163011524249511</v>
+        <v>-0.1396087239821311</v>
       </c>
       <c r="RW3">
-        <v>-0.5052734878004995</v>
+        <v>-0.1369228124457906</v>
       </c>
       <c r="RX3">
-        <v>-0.5258668293127765</v>
+        <v>-0.1427299399226807</v>
       </c>
       <c r="RY3">
-        <v>-0.5254835985663451</v>
+        <v>-0.1425581584467422</v>
       </c>
       <c r="RZ3">
-        <v>-0.5283877476283426</v>
+        <v>-0.1430398185215371</v>
       </c>
       <c r="SA3">
-        <v>-0.529531561084206</v>
+        <v>-0.1430864902516667</v>
       </c>
       <c r="SB3">
-        <v>-0.5208967392973129</v>
+        <v>-0.1414654321552196</v>
       </c>
       <c r="SC3">
-        <v>-0.5124480820180684</v>
+        <v>-0.1389037122434324</v>
       </c>
       <c r="SD3">
-        <v>-0.5288874690643057</v>
+        <v>-0.1425345291519249</v>
       </c>
       <c r="SE3">
-        <v>-0.5163011524249342</v>
+        <v>-0.1396087239821283</v>
       </c>
       <c r="SF3">
-        <v>-0.505273487800499</v>
+        <v>-0.1369228124457895</v>
       </c>
       <c r="SG3">
-        <v>-0.5261007178801455</v>
+        <v>-0.1428347755353084</v>
       </c>
       <c r="SH3">
-        <v>-0.5258668293127765</v>
+        <v>-0.1427299399226807</v>
       </c>
       <c r="SI3">
-        <v>-0.5283934661027467</v>
+        <v>-0.1430494173641271</v>
       </c>
       <c r="SJ3">
-        <v>-0.5302724486796152</v>
+        <v>-0.1431308874936355</v>
       </c>
       <c r="SK3">
-        <v>-0.520898077229229</v>
+        <v>-0.1414680755712564</v>
       </c>
       <c r="SL3">
-        <v>-0.5124493049252703</v>
+        <v>-0.1389053866409491</v>
       </c>
       <c r="SM3">
-        <v>-0.5371006958980267</v>
+        <v>-0.1444417685369761</v>
       </c>
       <c r="SN3">
-        <v>-0.5163011524249239</v>
+        <v>-0.139608723982128</v>
       </c>
       <c r="SO3">
-        <v>-0.505273487800499</v>
+        <v>-0.1369228124457895</v>
       </c>
       <c r="SP3">
-        <v>-0.5261409970771405</v>
+        <v>-0.1428528295369097</v>
       </c>
       <c r="SQ3">
-        <v>-0.5261007178801457</v>
+        <v>-0.1428347755353084</v>
       </c>
       <c r="SR3">
-        <v>-0.5283968261731052</v>
+        <v>-0.1430550574753771</v>
       </c>
       <c r="SS3">
-        <v>-0.5208990264482203</v>
+        <v>-0.1414699509895432</v>
       </c>
       <c r="ST3">
-        <v>-0.5124510107340052</v>
+        <v>-0.1389077222250463</v>
       </c>
       <c r="SU3">
-        <v>-0.5371006958980262</v>
+        <v>-0.1444574313502922</v>
       </c>
       <c r="SV3">
-        <v>-0.5383641465080641</v>
+        <v>-0.1447318998164629</v>
       </c>
       <c r="SW3">
-        <v>-0.5163011524249229</v>
+        <v>-0.1396087239821191</v>
       </c>
       <c r="SX3">
-        <v>-0.5262065258873412</v>
+        <v>-0.1428838467362134</v>
       </c>
       <c r="SY3">
-        <v>-0.5261409970771405</v>
+        <v>-0.1428528295369082</v>
       </c>
       <c r="SZ3">
-        <v>-0.526267811418497</v>
+        <v>-0.1429048255216539</v>
       </c>
       <c r="TA3">
-        <v>-0.5283999184535827</v>
+        <v>-0.1430602480879153</v>
       </c>
       <c r="TB3">
-        <v>-0.5208996749661386</v>
+        <v>-0.1414712322984974</v>
       </c>
       <c r="TC3">
-        <v>-0.5124523126215411</v>
+        <v>-0.1389095047628722</v>
       </c>
       <c r="TD3">
-        <v>-0.5371006958980262</v>
+        <v>-0.14447124392307</v>
       </c>
       <c r="TE3">
-        <v>-0.5390458295467424</v>
+        <v>-0.1448884220657218</v>
       </c>
       <c r="TF3">
-        <v>-0.5163011524249201</v>
+        <v>-0.1396087239821149</v>
       </c>
       <c r="TG3">
-        <v>-0.5262547635006686</v>
+        <v>-0.142906679225876</v>
       </c>
       <c r="TH3">
-        <v>-0.5262065258873413</v>
+        <v>-0.1428838467362134</v>
       </c>
       <c r="TI3">
-        <v>-0.5263427520747972</v>
+        <v>-0.1429355516008613</v>
       </c>
       <c r="TJ3">
-        <v>-0.5284026734192152</v>
+        <v>-0.1430648724976988</v>
       </c>
       <c r="TK3">
-        <v>-0.5209001874226967</v>
+        <v>-0.1414722447845492</v>
       </c>
       <c r="TL3">
-        <v>-0.5124616032011937</v>
+        <v>-0.1389222253888688</v>
       </c>
       <c r="TM3">
-        <v>-0.5391476401679042</v>
+        <v>-0.1449117980272399</v>
       </c>
       <c r="TN3">
-        <v>-0.5163011524249236</v>
+        <v>-0.1396087239821172</v>
       </c>
       <c r="TO3">
-        <v>-0.5263204398916658</v>
+        <v>-0.1429377658737257</v>
       </c>
       <c r="TP3">
-        <v>-0.5262547635006686</v>
+        <v>-0.1429066792258759</v>
       </c>
       <c r="TQ3">
-        <v>-0.5264021328388504</v>
+        <v>-0.1429598975993085</v>
       </c>
       <c r="TR3">
-        <v>-0.5284055313867309</v>
+        <v>-0.1430696698077886</v>
       </c>
       <c r="TS3">
-        <v>-0.520901830495543</v>
+        <v>-0.141475491087311</v>
       </c>
       <c r="TT3">
-        <v>-0.5124725218697336</v>
+        <v>-0.1389438582139491</v>
       </c>
       <c r="TU3">
-        <v>-0.5125250194445368</v>
+        <v>-0.1389896466205805</v>
       </c>
       <c r="TV3">
-        <v>-0.539225356866475</v>
+        <v>-0.1449296418047605</v>
       </c>
       <c r="TW3">
-        <v>-0.5163011524249217</v>
+        <v>-0.1396087239821189</v>
       </c>
       <c r="TX3">
-        <v>-0.5263669167879419</v>
+        <v>-0.1429597646707172</v>
       </c>
       <c r="TY3">
-        <v>-0.5263204398916658</v>
+        <v>-0.1429377658737257</v>
       </c>
       <c r="TZ3">
-        <v>-0.5264266698872409</v>
+        <v>-0.1429699576281744</v>
       </c>
       <c r="UA3">
-        <v>-0.5284141591519331</v>
+        <v>-0.1430841521762861</v>
       </c>
       <c r="UB3">
-        <v>-0.5209151205561329</v>
+        <v>-0.141501749024571</v>
       </c>
       <c r="UC3">
-        <v>-0.5124845786371259</v>
+        <v>-0.1389677460425853</v>
       </c>
       <c r="UD3">
-        <v>-0.5392980427724017</v>
+        <v>-0.1449463303839245</v>
       </c>
       <c r="UE3">
-        <v>-0.5163011524249174</v>
+        <v>-0.1396087239821266</v>
       </c>
       <c r="UF3">
-        <v>-0.5264968940411251</v>
+        <v>-0.1430212858657964</v>
       </c>
       <c r="UG3">
-        <v>-0.5263669167879419</v>
+        <v>-0.1429597646707172</v>
       </c>
       <c r="UH3">
-        <v>-0.5264343905458525</v>
+        <v>-0.1429715403416673</v>
       </c>
       <c r="UI3">
-        <v>-0.5264266707203716</v>
+        <v>-0.1429907774482334</v>
       </c>
       <c r="UJ3">
-        <v>-0.5284228539006166</v>
+        <v>-0.1430987470208699</v>
       </c>
       <c r="UK3">
-        <v>-0.5209157823902342</v>
+        <v>-0.1415030566523361</v>
       </c>
       <c r="UL3">
-        <v>-0.5125172596192413</v>
+        <v>-0.1390324968586555</v>
       </c>
       <c r="UM3">
-        <v>-0.5393755539923134</v>
+        <v>-0.1449641267131471</v>
       </c>
       <c r="UN3">
-        <v>-0.5163011524249143</v>
+        <v>-0.1396087239821267</v>
       </c>
       <c r="UO3">
-        <v>-0.5265910126470109</v>
+        <v>-0.1430658337722926</v>
       </c>
       <c r="UP3">
-        <v>-0.5264968940411251</v>
+        <v>-0.1430212858657964</v>
       </c>
       <c r="UQ3">
-        <v>-0.5264372315214028</v>
+        <v>-0.1429721227326217</v>
       </c>
       <c r="UR3">
-        <v>-0.5264266713504124</v>
+        <v>-0.1430065278913623</v>
       </c>
       <c r="US3">
-        <v>-0.5285040959734251</v>
+        <v>-0.1432351203637041</v>
       </c>
       <c r="UT3">
-        <v>-0.5209163046005842</v>
+        <v>-0.1415040884168419</v>
       </c>
       <c r="UU3">
-        <v>-0.5394441426244596</v>
+        <v>-0.1449798743283741</v>
       </c>
       <c r="UV3">
-        <v>-0.5163011524249143</v>
+        <v>-0.1396087239821267</v>
       </c>
       <c r="UW3">
-        <v>-0.526604260661042</v>
+        <v>-0.1430700884621407</v>
       </c>
       <c r="UX3">
-        <v>-0.5265910126470109</v>
+        <v>-0.1430658337722926</v>
       </c>
       <c r="UY3">
-        <v>-0.5266483485094898</v>
+        <v>-0.1431081238614008</v>
       </c>
       <c r="UZ3">
-        <v>-0.5264414633728348</v>
+        <v>-0.142972990247598</v>
       </c>
       <c r="VA3">
-        <v>-0.520916894973718</v>
+        <v>-0.1415052548552217</v>
       </c>
       <c r="VB3">
-        <v>-0.539514297259144</v>
+        <v>-0.1449959813772136</v>
       </c>
       <c r="VC3">
-        <v>-0.5266073975531248</v>
+        <v>-0.1430710958951525</v>
       </c>
       <c r="VD3">
-        <v>-0.526604260661042</v>
+        <v>-0.1430700884621406</v>
       </c>
       <c r="VE3">
-        <v>-0.5266555968755453</v>
+        <v>-0.1431134701289718</v>
       </c>
       <c r="VF3">
-        <v>-0.5264440097784565</v>
+        <v>-0.1429735122513462</v>
       </c>
       <c r="VG3">
-        <v>-0.5209174204246297</v>
+        <v>-0.1415062930228282</v>
       </c>
       <c r="VH3">
-        <v>-0.5398763956748588</v>
+        <v>-0.1450791150076581</v>
       </c>
       <c r="VI3">
-        <v>-0.5266924382987627</v>
+        <v>-0.1430984070986976</v>
       </c>
       <c r="VJ3">
-        <v>-0.5266073975531248</v>
+        <v>-0.1430710958951525</v>
       </c>
       <c r="VK3">
-        <v>-0.5266073975530923</v>
+        <v>-0.1430710958950483</v>
       </c>
       <c r="VL3">
-        <v>-0.5266609457043372</v>
+        <v>-0.1431174153282296</v>
       </c>
       <c r="VM3">
-        <v>-0.5264470823556817</v>
+        <v>-0.1429741421176896</v>
       </c>
       <c r="VN3">
-        <v>-0.5209180252187668</v>
+        <v>-0.1415074879543159</v>
       </c>
       <c r="VO3">
-        <v>-0.5412469381470261</v>
+        <v>-0.1452922340489245</v>
       </c>
       <c r="VP3">
-        <v>-0.5404588680790057</v>
+        <v>-0.1452275626627405</v>
       </c>
       <c r="VQ3">
-        <v>-0.526752037016699</v>
+        <v>-0.1431175472798003</v>
       </c>
       <c r="VR3">
-        <v>-0.5266924382987627</v>
+        <v>-0.1430984070986976</v>
       </c>
       <c r="VS3">
-        <v>-0.5266073975530791</v>
+        <v>-0.1430710958950118</v>
       </c>
       <c r="VT3">
-        <v>-0.5266661501683219</v>
+        <v>-0.1431212540441962</v>
       </c>
       <c r="VU3">
-        <v>-0.5264497802124081</v>
+        <v>-0.1429746951672136</v>
       </c>
       <c r="VV3">
-        <v>-0.5209186453387241</v>
+        <v>-0.1415087131663623</v>
       </c>
       <c r="VW3">
-        <v>-0.5413259446505587</v>
+        <v>-0.1453045161162328</v>
       </c>
       <c r="VX3">
-        <v>-0.5432429404233521</v>
+        <v>-0.1459369884524677</v>
       </c>
       <c r="VY3">
-        <v>-0.5267924986335253</v>
+        <v>-0.1431305418354731</v>
       </c>
       <c r="VZ3">
-        <v>-0.5267614045731639</v>
+        <v>-0.1431205556198482</v>
       </c>
       <c r="WA3">
-        <v>-0.5266073975530678</v>
+        <v>-0.1430710958949885</v>
       </c>
       <c r="WB3">
-        <v>-0.5267150396550494</v>
+        <v>-0.1431573139048434</v>
       </c>
       <c r="WC3">
-        <v>-0.5264674341669573</v>
+        <v>-0.1429783141418819</v>
       </c>
       <c r="WD3">
-        <v>-0.5209193907206915</v>
+        <v>-0.1415101858673014</v>
       </c>
       <c r="WE3">
-        <v>-0.5413656257176999</v>
+        <v>-0.14531068465158</v>
       </c>
       <c r="WF3">
-        <v>-0.5438597117493535</v>
+        <v>-0.1460175560291527</v>
       </c>
       <c r="WG3">
-        <v>-0.5462585261853208</v>
+        <v>-0.1467373629489442</v>
       </c>
       <c r="WH3">
-        <v>-0.5268285819790196</v>
+        <v>-0.1431421302104051</v>
       </c>
       <c r="WI3">
-        <v>-0.5267924986335253</v>
+        <v>-0.1431305418354731</v>
       </c>
       <c r="WJ3">
-        <v>-0.5267924986335253</v>
+        <v>-0.1431305418354731</v>
       </c>
       <c r="WK3">
-        <v>-0.5269609850852591</v>
+        <v>-0.143184649071905</v>
       </c>
       <c r="WL3">
-        <v>-0.5267614045731639</v>
+        <v>-0.1431205556198482</v>
       </c>
       <c r="WM3">
-        <v>-0.526607397553053</v>
+        <v>-0.1430710958949621</v>
       </c>
       <c r="WN3">
-        <v>-0.5267377936330765</v>
+        <v>-0.1431740966901727</v>
       </c>
       <c r="WO3">
-        <v>-0.5265976063828273</v>
+        <v>-0.1430049980973993</v>
       </c>
       <c r="WP3">
-        <v>-0.5209198580222274</v>
+        <v>-0.1415111091464104</v>
       </c>
       <c r="WQ3">
-        <v>-0.5413989009972944</v>
+        <v>-0.1453158573163384</v>
       </c>
       <c r="WR3">
-        <v>-0.544185253638741</v>
+        <v>-0.1460600729671629</v>
       </c>
       <c r="WS3">
-        <v>-0.5491480447853432</v>
+        <v>-0.1475040592497275</v>
       </c>
       <c r="WT3">
-        <v>-0.5268618686555193</v>
+        <v>-0.1431528204749499</v>
       </c>
       <c r="WU3">
-        <v>-0.5268285819790195</v>
+        <v>-0.1431421302104051</v>
       </c>
       <c r="WV3">
-        <v>-0.5268285819790195</v>
+        <v>-0.1431421302104051</v>
       </c>
       <c r="WW3">
-        <v>-0.5270079629453521</v>
+        <v>-0.1431997350052046</v>
       </c>
       <c r="WX3">
-        <v>-0.5266073975530453</v>
+        <v>-0.1430710958949469</v>
       </c>
       <c r="WY3">
-        <v>-0.526748473080156</v>
+        <v>-0.143181973576979</v>
       </c>
       <c r="WZ3">
-        <v>-0.520921866328232</v>
+        <v>-0.1415150770939929</v>
       </c>
       <c r="XA3">
-        <v>-0.5414260361969381</v>
+        <v>-0.145320075452487</v>
       </c>
       <c r="XB3">
-        <v>-0.5491573580821698</v>
+        <v>-0.1475269265473681</v>
       </c>
       <c r="XC3">
-        <v>-0.5499553176396262</v>
+        <v>-0.1477052505125542</v>
       </c>
       <c r="XD3">
-        <v>-0.5269072136851249</v>
+        <v>-0.1431673831691811</v>
       </c>
       <c r="XE3">
-        <v>-0.526607397553041</v>
+        <v>-0.1430710958949287</v>
       </c>
       <c r="XF3">
-        <v>-0.5267555964652609</v>
+        <v>-0.143187227597901</v>
       </c>
       <c r="XG3">
-        <v>-0.520930333128216</v>
+        <v>-0.1415318055690142</v>
       </c>
       <c r="XH3">
-        <v>-0.5414686312093416</v>
+        <v>-0.1453266967102566</v>
       </c>
       <c r="XI3">
-        <v>-0.5491596417345587</v>
+        <v>-0.1475325337089506</v>
       </c>
       <c r="XJ3">
-        <v>-0.5501410586338659</v>
+        <v>-0.1477515392447009</v>
       </c>
       <c r="XK3">
-        <v>-0.5269205140898303</v>
+        <v>-0.143171654590784</v>
       </c>
       <c r="XL3">
-        <v>-0.5266073975530348</v>
+        <v>-0.1430710958949147</v>
       </c>
       <c r="XM3">
-        <v>-0.5267664868395106</v>
+        <v>-0.1431952600419785</v>
       </c>
       <c r="XN3">
-        <v>-0.5415702048156021</v>
+        <v>-0.1453424855629841</v>
       </c>
       <c r="XO3">
-        <v>-0.5491612098568476</v>
+        <v>-0.1475363839999817</v>
       </c>
       <c r="XP3">
-        <v>-0.5502332338959053</v>
+        <v>-0.1477745100358948</v>
       </c>
       <c r="XQ3">
-        <v>-0.5269645366013458</v>
+        <v>-0.1431857922673884</v>
       </c>
       <c r="XR3">
-        <v>-0.5266073975530272</v>
+        <v>-0.1430710958949035</v>
       </c>
       <c r="XS3">
-        <v>-0.5267877557679363</v>
+        <v>-0.1432109473953795</v>
       </c>
       <c r="XT3">
-        <v>-0.5416404800542444</v>
+        <v>-0.1453534089588823</v>
       </c>
       <c r="XU3">
-        <v>-0.5491633836156666</v>
+        <v>-0.1475417213480596</v>
       </c>
       <c r="XV3">
-        <v>-0.5503345285910084</v>
+        <v>-0.1477997532200221</v>
       </c>
       <c r="XW3">
-        <v>-0.5266073975530253</v>
+        <v>-0.1430710958948945</v>
       </c>
       <c r="XX3">
-        <v>-0.5267936350819461</v>
+        <v>-0.1432152838022252</v>
       </c>
       <c r="XY3">
-        <v>-0.5417298378441515</v>
+        <v>-0.1453672980692155</v>
       </c>
       <c r="XZ3">
-        <v>-0.5491685382558305</v>
+        <v>-0.1475543778468079</v>
       </c>
       <c r="YA3">
-        <v>-0.5504514092609453</v>
+        <v>-0.1478288802000211</v>
       </c>
       <c r="YB3">
-        <v>-0.5266073975530243</v>
+        <v>-0.1430710958948895</v>
       </c>
       <c r="YC3">
-        <v>-0.5267953419440425</v>
+        <v>-0.1432165427322826</v>
       </c>
       <c r="YD3">
-        <v>-0.5417841237172907</v>
+        <v>-0.1453757356284828</v>
       </c>
       <c r="YE3">
-        <v>-0.5491724566396234</v>
+        <v>-0.1475639989197691</v>
       </c>
       <c r="YF3">
-        <v>-0.5505695694844073</v>
+        <v>-0.1478583257072512</v>
       </c>
       <c r="YG3">
-        <v>-0.5266073975530242</v>
+        <v>-0.1430710958948866</v>
       </c>
       <c r="YH3">
-        <v>-0.5267959157620882</v>
+        <v>-0.1432170887702004</v>
       </c>
       <c r="YI3">
-        <v>-0.5268001586991974</v>
+        <v>-0.1432194431129358</v>
       </c>
       <c r="YJ3">
-        <v>-0.5418331334361557</v>
+        <v>-0.1453833529728704</v>
       </c>
       <c r="YK3">
-        <v>-0.5491752072896795</v>
+        <v>-0.1475707527920112</v>
       </c>
       <c r="YL3">
-        <v>-0.5507005675011986</v>
+        <v>-0.1478909699896378</v>
       </c>
       <c r="YM3">
-        <v>-0.526607397553029</v>
+        <v>-0.1430710958948848</v>
       </c>
       <c r="YN3">
-        <v>-0.5267964528071415</v>
+        <v>-0.1432175998154026</v>
       </c>
       <c r="YO3">
-        <v>-0.5268065147401931</v>
+        <v>-0.143223270361593</v>
       </c>
       <c r="YP3">
-        <v>-0.5419157925389629</v>
+        <v>-0.1453961999534447</v>
       </c>
       <c r="YQ3">
-        <v>-0.5491780888399221</v>
+        <v>-0.1475778280862962</v>
       </c>
       <c r="YR3">
-        <v>-0.55089107007926</v>
+        <v>-0.147938441864444</v>
       </c>
       <c r="YS3">
-        <v>-0.5266073975530282</v>
+        <v>-0.143071095894884</v>
       </c>
       <c r="YT3">
-        <v>-0.5267970060329838</v>
+        <v>-0.1432181262580295</v>
       </c>
       <c r="YU3">
-        <v>-0.5268329208717583</v>
+        <v>-0.1432391705944782</v>
       </c>
       <c r="YV3">
-        <v>-0.5419970606529375</v>
+        <v>-0.1454088303465421</v>
       </c>
       <c r="YW3">
-        <v>-0.5491804546239881</v>
+        <v>-0.1475836369899361</v>
       </c>
       <c r="YX3">
-        <v>-0.5509121671912167</v>
+        <v>-0.1479437835853547</v>
       </c>
       <c r="YY3">
-        <v>-0.5513852804956789</v>
+        <v>-0.148061473591919</v>
       </c>
       <c r="YZ3">
-        <v>-0.5266073975530272</v>
+        <v>-0.1430710958948843</v>
       </c>
       <c r="ZA3">
-        <v>-0.5268010059842545</v>
+        <v>-0.1432219325602334</v>
       </c>
       <c r="ZB3">
-        <v>-0.5268441350184118</v>
+        <v>-0.1432459230768007</v>
       </c>
       <c r="ZC3">
-        <v>-0.542035513343202</v>
+        <v>-0.1454148063854324</v>
       </c>
       <c r="ZD3">
-        <v>-0.5491843717167741</v>
+        <v>-0.1475932549691781</v>
       </c>
       <c r="ZE3">
-        <v>-0.5509248361031016</v>
+        <v>-0.1479469912946768</v>
       </c>
       <c r="ZF3">
-        <v>-0.5545154779150664</v>
+        <v>-0.1488405846710108</v>
       </c>
       <c r="ZG3">
-        <v>-0.5266073975530272</v>
+        <v>-0.1430710958948843</v>
       </c>
       <c r="ZH3">
-        <v>-0.526830134293647</v>
+        <v>-0.1432496506749177</v>
       </c>
       <c r="ZI3">
-        <v>-0.542077749183417</v>
+        <v>-0.1454213702722426</v>
       </c>
       <c r="ZJ3">
-        <v>-0.549197030647705</v>
+        <v>-0.1476243377165619</v>
       </c>
       <c r="ZK3">
-        <v>-0.5509365884178765</v>
+        <v>-0.1479499669135246</v>
       </c>
       <c r="ZL3">
-        <v>-0.5567568560296744</v>
+        <v>-0.1493983195648361</v>
       </c>
       <c r="ZM3">
-        <v>-0.5421182873118309</v>
+        <v>-0.1454276702167594</v>
       </c>
       <c r="ZN3">
-        <v>-0.549226610092643</v>
+        <v>-0.1476969681246735</v>
       </c>
       <c r="ZO3">
-        <v>-0.550948055599329</v>
+        <v>-0.1479528703267745</v>
       </c>
       <c r="ZP3">
-        <v>-0.5568545414162511</v>
+        <v>-0.1494660172509436</v>
       </c>
       <c r="ZQ3">
-        <v>-0.5630686590159947</v>
+        <v>-0.1509217311630887</v>
       </c>
       <c r="ZR3">
-        <v>-0.5421671769538737</v>
+        <v>-0.1454352679215979</v>
       </c>
       <c r="ZS3">
-        <v>-0.5509566567934024</v>
+        <v>-0.1479550480838496</v>
       </c>
       <c r="ZT3">
-        <v>-0.5568591085728732</v>
+        <v>-0.149470202594731</v>
       </c>
       <c r="ZU3">
-        <v>-0.5568672922637081</v>
+        <v>-0.1494720054823399</v>
       </c>
       <c r="ZV3">
-        <v>-0.563458911547332</v>
+        <v>-0.1509738489087822</v>
       </c>
       <c r="ZW3">
-        <v>-0.5643082105951596</v>
+        <v>-0.1512288546595048</v>
       </c>
       <c r="ZX3">
-        <v>-0.5422451643794485</v>
+        <v>-0.145447387277687</v>
       </c>
       <c r="ZY3">
-        <v>-0.5509703204257977</v>
+        <v>-0.1479585075987867</v>
       </c>
       <c r="ZZ3">
-        <v>-0.5568605376665691</v>
+        <v>-0.1494715122165044</v>
       </c>
       <c r="AAA3">
-        <v>-0.5568932679737302</v>
+        <v>-0.1494842045015922</v>
       </c>
       <c r="AAB3">
-        <v>-0.5636850269208203</v>
+        <v>-0.1510040426668081</v>
       </c>
       <c r="AAC3">
-        <v>-0.5657018256194497</v>
+        <v>-0.1515744969126517</v>
       </c>
       <c r="AAD3">
-        <v>-0.5424586214637626</v>
+        <v>-0.1454805569507145</v>
       </c>
       <c r="AAE3">
-        <v>-0.5509933580328845</v>
+        <v>-0.1479643404875638</v>
       </c>
       <c r="AAF3">
-        <v>-0.5568614565329243</v>
+        <v>-0.1494723542657947</v>
       </c>
       <c r="AAG3">
-        <v>-0.56937998828466</v>
+        <v>-0.1524863686858</v>
       </c>
       <c r="AAH3">
-        <v>-0.5657018256194319</v>
+        <v>-0.1515744969126367</v>
       </c>
       <c r="AAI3">
-        <v>-0.5427427258585638</v>
+        <v>-0.1455247004756788</v>
       </c>
       <c r="AAJ3">
-        <v>-0.5511659851913638</v>
+        <v>-0.1480080464803228</v>
       </c>
       <c r="AAK3">
-        <v>-0.5568620107674886</v>
+        <v>-0.1494728621664327</v>
       </c>
       <c r="AAL3">
-        <v>-0.5735925371882823</v>
+        <v>-0.15342130320289</v>
       </c>
       <c r="AAM3">
-        <v>-0.5694725600436084</v>
+        <v>-0.152576383134967</v>
       </c>
       <c r="AAN3">
-        <v>-0.5657018256194133</v>
+        <v>-0.151574496912624</v>
       </c>
       <c r="AAO3">
-        <v>-0.5427697877961004</v>
+        <v>-0.1455289050492399</v>
       </c>
       <c r="AAP3">
-        <v>-0.5513076136701223</v>
+        <v>-0.1480439022651506</v>
       </c>
       <c r="AAQ3">
-        <v>-0.5568625709392869</v>
+        <v>-0.149473375507939</v>
       </c>
       <c r="AAR3">
-        <v>-0.5779444173614595</v>
+        <v>-0.1543864580025703</v>
       </c>
       <c r="AAS3">
-        <v>-0.5694824702979376</v>
+        <v>-0.1525860196106907</v>
       </c>
       <c r="AAT3">
-        <v>-0.5657018256193911</v>
+        <v>-0.1515744969126136</v>
       </c>
       <c r="AAU3">
-        <v>-0.5427911901515631</v>
+        <v>-0.1455322302708394</v>
       </c>
       <c r="AAV3">
-        <v>-0.5513524884012422</v>
+        <v>-0.1480552627461286</v>
       </c>
       <c r="AAW3">
-        <v>-0.556863071290682</v>
+        <v>-0.1494738340300119</v>
       </c>
       <c r="AAX3">
-        <v>-0.5797252438207282</v>
+        <v>-0.1545578683730881</v>
       </c>
       <c r="AAY3">
-        <v>-0.5781092404010117</v>
+        <v>-0.1551758495035616</v>
       </c>
       <c r="AAZ3">
-        <v>-0.5694862541821035</v>
+        <v>-0.152589698961751</v>
       </c>
       <c r="ABA3">
-        <v>-0.5657018256193691</v>
+        <v>-0.1515744969126075</v>
       </c>
       <c r="ABB3">
-        <v>-0.542811977168099</v>
+        <v>-0.1455354598628182</v>
       </c>
       <c r="ABC3">
-        <v>-0.5513933419084356</v>
+        <v>-0.1480656050637158</v>
       </c>
       <c r="ABD3">
-        <v>-0.5568636350130047</v>
+        <v>-0.1494743506251993</v>
       </c>
       <c r="ABE3">
-        <v>-0.5821462197592743</v>
+        <v>-0.1547907986588062</v>
       </c>
       <c r="ABF3">
-        <v>-0.5781313511697116</v>
+        <v>-0.1552817623304363</v>
       </c>
       <c r="ABG3">
-        <v>-0.5694902567897527</v>
+        <v>-0.152593590993675</v>
       </c>
       <c r="ABH3">
-        <v>-0.565701825619355</v>
+        <v>-0.1515744969126091</v>
       </c>
       <c r="ABI3">
-        <v>-0.5428342425217109</v>
+        <v>-0.1455389191092151</v>
       </c>
       <c r="ABJ3">
-        <v>-0.5514155932349653</v>
+        <v>-0.1480712380639224</v>
       </c>
       <c r="ABK3">
-        <v>-0.556864086668623</v>
+        <v>-0.1494747645224437</v>
       </c>
       <c r="ABL3">
-        <v>-0.5849823211411943</v>
+        <v>-0.1550635281352395</v>
       </c>
       <c r="ABM3">
-        <v>-0.5781429677440121</v>
+        <v>-0.1553374085234763</v>
       </c>
       <c r="ABN3">
-        <v>-0.5694935786123424</v>
+        <v>-0.1525968210477038</v>
       </c>
       <c r="ABO3">
-        <v>-0.5657018256193407</v>
+        <v>-0.151574496912611</v>
       </c>
       <c r="ABP3">
-        <v>-0.542854828723412</v>
+        <v>-0.1455421174485936</v>
       </c>
       <c r="ABQ3">
-        <v>-0.5514333645690902</v>
+        <v>-0.1480757369079314</v>
       </c>
       <c r="ABR3">
-        <v>-0.556864628429989</v>
+        <v>-0.1494752609925921</v>
       </c>
       <c r="ABS3">
-        <v>-0.5872608675047853</v>
+        <v>-0.1552825306972931</v>
       </c>
       <c r="ABT3">
-        <v>-0.578197907674064</v>
+        <v>-0.1554639424618859</v>
       </c>
       <c r="ABU3">
-        <v>-0.5781433263651407</v>
+        <v>-0.1553435861019339</v>
       </c>
       <c r="ABV3">
-        <v>-0.5694975124734786</v>
+        <v>-0.1526006462319473</v>
       </c>
       <c r="ABW3">
-        <v>-0.5657018256193259</v>
+        <v>-0.1515744969126196</v>
       </c>
       <c r="ABX3">
-        <v>-0.5428742292191973</v>
+        <v>-0.1455451315496599</v>
       </c>
       <c r="ABY3">
-        <v>-0.5514485185783599</v>
+        <v>-0.1480795731501307</v>
       </c>
       <c r="ABZ3">
-        <v>-0.556865212242811</v>
+        <v>-0.1494757959986888</v>
       </c>
       <c r="ACA3">
-        <v>-0.5876956655835976</v>
+        <v>-0.1553193496404933</v>
       </c>
       <c r="ACB3">
-        <v>-0.5891136758591925</v>
+        <v>-0.1554829364989656</v>
       </c>
       <c r="ACC3">
-        <v>-0.5782425680459508</v>
+        <v>-0.1555668042627907</v>
       </c>
       <c r="ACD3">
-        <v>-0.5781435856997958</v>
+        <v>-0.1553480533899018</v>
       </c>
       <c r="ACE3">
-        <v>-0.5695013489511325</v>
+        <v>-0.1526043767228411</v>
       </c>
       <c r="ACF3">
-        <v>-0.5657018256193176</v>
+        <v>-0.1515744969126293</v>
       </c>
       <c r="ACG3">
-        <v>-0.5429012118816313</v>
+        <v>-0.1455493235943948</v>
       </c>
       <c r="ACH3">
-        <v>-0.5514663020480166</v>
+        <v>-0.1480840750158192</v>
       </c>
       <c r="ACI3">
-        <v>-0.5568662773792576</v>
+        <v>-0.1494767720897471</v>
       </c>
       <c r="ACJ3">
-        <v>-0.5882951934340978</v>
+        <v>-0.1553701127474177</v>
       </c>
       <c r="ACK3">
-        <v>-0.5906635813001534</v>
+        <v>-0.1556504635223872</v>
       </c>
       <c r="ACL3">
-        <v>-0.5781438045551469</v>
+        <v>-0.1553518233897277</v>
       </c>
       <c r="ACM3">
-        <v>-0.5695066232973919</v>
+        <v>-0.1526095053594014</v>
       </c>
       <c r="ACN3">
-        <v>-0.5657018256193068</v>
+        <v>-0.1515744969126393</v>
       </c>
       <c r="ACO3">
-        <v>-0.542934278481891</v>
+        <v>-0.145554460784512</v>
       </c>
       <c r="ACP3">
-        <v>-0.5514825516385699</v>
+        <v>-0.1480881885578857</v>
       </c>
       <c r="ACQ3">
-        <v>-0.5568742462787495</v>
+        <v>-0.1494840747881657</v>
       </c>
       <c r="ACR3">
-        <v>-0.5897703845029314</v>
+        <v>-0.1554949939615667</v>
       </c>
       <c r="ACS3">
-        <v>-0.5907278164889751</v>
+        <v>-0.1556910810359866</v>
       </c>
       <c r="ACT3">
-        <v>-0.5907020887664252</v>
+        <v>-0.1556534049867912</v>
       </c>
       <c r="ACU3">
-        <v>-0.5781441742271991</v>
+        <v>-0.1553581913702703</v>
       </c>
       <c r="ACV3">
-        <v>-0.5695138790352939</v>
+        <v>-0.1526165606488894</v>
       </c>
       <c r="ACW3">
-        <v>-0.5657018256193025</v>
+        <v>-0.1515744969126444</v>
       </c>
       <c r="ACX3">
-        <v>-0.543091012363536</v>
+        <v>-0.1455788098967023</v>
       </c>
       <c r="ACY3">
-        <v>-0.5515077611793682</v>
+        <v>-0.1480945702432981</v>
       </c>
       <c r="ACZ3">
-        <v>-0.5568986671054598</v>
+        <v>-0.1495064540169539</v>
       </c>
       <c r="ADA3">
-        <v>-0.5909663967175666</v>
+        <v>-0.1555962144892578</v>
       </c>
       <c r="ADB3">
-        <v>-0.5907907619110289</v>
+        <v>-0.1557308825741489</v>
       </c>
       <c r="ADC3">
-        <v>-0.5907389074753869</v>
+        <v>-0.1556562174077954</v>
       </c>
       <c r="ADD3">
-        <v>-0.5781446919092535</v>
+        <v>-0.1553671090043102</v>
       </c>
       <c r="ADE3">
-        <v>-0.569521557686647</v>
+        <v>-0.1526240271676336</v>
       </c>
       <c r="ADF3">
-        <v>-0.5657018256193</v>
+        <v>-0.1515744969126515</v>
       </c>
       <c r="ADG3">
-        <v>-0.5444315886163316</v>
+        <v>-0.1457870127749438</v>
       </c>
       <c r="ADH3">
-        <v>-0.5515586576170624</v>
+        <v>-0.1481074542878859</v>
       </c>
       <c r="ADI3">
-        <v>-0.5919011429721514</v>
+        <v>-0.1556753068087718</v>
       </c>
       <c r="ADJ3">
-        <v>-0.5907786006584582</v>
+        <v>-0.155659249348608</v>
       </c>
       <c r="ADK3">
-        <v>-0.5781450760415313</v>
+        <v>-0.1553737261208876</v>
       </c>
       <c r="ADL3">
-        <v>-0.5695266584194251</v>
+        <v>-0.1526289869857156</v>
       </c>
       <c r="ADM3">
-        <v>-0.5657018256192982</v>
+        <v>-0.1515744969126575</v>
       </c>
       <c r="ADN3">
-        <v>-0.5515657657970923</v>
+        <v>-0.1481094023703695</v>
       </c>
       <c r="ADO3">
-        <v>-0.551606919998361</v>
+        <v>-0.1481187847285605</v>
       </c>
       <c r="ADP3">
-        <v>-0.5927461369381977</v>
+        <v>-0.1557467921531391</v>
       </c>
       <c r="ADQ3">
-        <v>-0.5908140442447462</v>
+        <v>-0.1556619566436708</v>
       </c>
       <c r="ADR3">
-        <v>-0.5781457123727917</v>
+        <v>-0.1553846876939657</v>
       </c>
       <c r="ADS3">
-        <v>-0.5695318497501558</v>
+        <v>-0.1526340348985272</v>
       </c>
       <c r="ADT3">
-        <v>-0.5657018256192974</v>
+        <v>-0.151574496912662</v>
       </c>
       <c r="ADU3">
-        <v>-0.551571964819532</v>
+        <v>-0.1481111012835086</v>
       </c>
       <c r="ADV3">
-        <v>-0.5516841490374155</v>
+        <v>-0.1481369152035577</v>
       </c>
       <c r="ADW3">
-        <v>-0.5927540001188301</v>
+        <v>-0.155749054109427</v>
       </c>
       <c r="ADX3">
-        <v>-0.593436250547127</v>
+        <v>-0.1557868379429335</v>
       </c>
       <c r="ADY3">
-        <v>-0.5908531864438135</v>
+        <v>-0.1556649464037926</v>
       </c>
       <c r="ADZ3">
-        <v>-0.5781501291652611</v>
+        <v>-0.1554607736916651</v>
       </c>
       <c r="AEA3">
-        <v>-0.5695343319526991</v>
+        <v>-0.1526364485265658</v>
       </c>
       <c r="AEB3">
-        <v>-0.5657018256192998</v>
+        <v>-0.1515744969126658</v>
       </c>
       <c r="AEC3">
-        <v>-0.5515770917065596</v>
+        <v>-0.1481125063630204</v>
       </c>
       <c r="AED3">
-        <v>-0.551750135847221</v>
+        <v>-0.1481524060389167</v>
       </c>
       <c r="AEE3">
-        <v>-0.5927618839853791</v>
+        <v>-0.1557513220105162</v>
       </c>
       <c r="AEF3">
-        <v>-0.5942033938295026</v>
+        <v>-0.155831360088224</v>
       </c>
       <c r="AEG3">
-        <v>-0.593436250547127</v>
+        <v>-0.1557868379429335</v>
       </c>
       <c r="AEH3">
-        <v>-0.5908784230757547</v>
+        <v>-0.1556668740025616</v>
       </c>
       <c r="AEI3">
-        <v>-0.5781598853468701</v>
+        <v>-0.1556288476403838</v>
       </c>
       <c r="AEJ3">
-        <v>-0.5695382802024883</v>
+        <v>-0.1526402876999759</v>
       </c>
       <c r="AEK3">
-        <v>-0.5657018256193003</v>
+        <v>-0.1515744969126668</v>
       </c>
       <c r="AEL3">
-        <v>-0.5515810786312587</v>
+        <v>-0.1481135990217281</v>
       </c>
       <c r="AEM3">
-        <v>-0.5517874826742182</v>
+        <v>-0.148161173292944</v>
       </c>
       <c r="AEN3">
-        <v>-0.5927697831822567</v>
+        <v>-0.1557535943157594</v>
       </c>
       <c r="AEO3">
-        <v>-0.5948467165667276</v>
+        <v>-0.1558686907406737</v>
       </c>
       <c r="AEP3">
-        <v>-0.5942033938295026</v>
+        <v>-0.155831360088224</v>
       </c>
       <c r="AEQ3">
-        <v>-0.5909171853830093</v>
+        <v>-0.1556698346658852</v>
       </c>
       <c r="AER3">
-        <v>-0.5695419867386218</v>
+        <v>-0.1526438918372625</v>
       </c>
       <c r="AES3">
-        <v>-0.565701825619301</v>
+        <v>-0.1515744969126662</v>
       </c>
       <c r="AET3">
-        <v>-0.5515851335878832</v>
+        <v>-0.1481147103238243</v>
       </c>
       <c r="AEU3">
-        <v>-0.5927776345886809</v>
+        <v>-0.1557558528676911</v>
       </c>
       <c r="AEV3">
-        <v>-0.5955383729493363</v>
+        <v>-0.1559088205894887</v>
       </c>
       <c r="AEW3">
-        <v>-0.5948467165667275</v>
+        <v>-0.1558686907406737</v>
       </c>
       <c r="AEX3">
-        <v>-0.5912360411185295</v>
+        <v>-0.1556941870223492</v>
       </c>
       <c r="AEY3">
-        <v>-0.5695472827733306</v>
+        <v>-0.152649041560453</v>
       </c>
       <c r="AEZ3">
-        <v>-0.565701825619301</v>
+        <v>-0.1515744969126673</v>
       </c>
       <c r="AFA3">
-        <v>-0.5515886525753605</v>
+        <v>-0.1481156747369177</v>
       </c>
       <c r="AFB3">
-        <v>-0.5927855158625297</v>
+        <v>-0.1557581200055559</v>
       </c>
       <c r="AFC3">
-        <v>-0.5961063254030277</v>
+        <v>-0.1559417688837297</v>
       </c>
       <c r="AFD3">
-        <v>-0.5955383729493363</v>
+        <v>-0.1559088205894887</v>
       </c>
       <c r="AFE3">
-        <v>-0.5923353168000702</v>
+        <v>-0.1557781183207961</v>
       </c>
       <c r="AFF3">
-        <v>-0.5696031867975473</v>
+        <v>-0.1527034011246596</v>
       </c>
       <c r="AFG3">
-        <v>-0.5515911799692961</v>
+        <v>-0.1481163673933661</v>
       </c>
       <c r="AFH3">
-        <v>-0.5927933918088287</v>
+        <v>-0.1557603856050941</v>
       </c>
       <c r="AFI3">
-        <v>-0.5967161632467457</v>
+        <v>-0.1559771427720707</v>
       </c>
       <c r="AFJ3">
-        <v>-0.5961063254030275</v>
+        <v>-0.1559417688837296</v>
       </c>
       <c r="AFK3">
-        <v>-0.5696255473977485</v>
+        <v>-0.1527251439580094</v>
       </c>
       <c r="AFL3">
-        <v>-0.5515941142819489</v>
+        <v>-0.1481171715690471</v>
       </c>
       <c r="AFM3">
-        <v>-0.5928012727562926</v>
+        <v>-0.1557626526374699</v>
       </c>
       <c r="AFN3">
-        <v>-0.5980762077617834</v>
+        <v>-0.1560560623887242</v>
       </c>
       <c r="AFO3">
-        <v>-0.5967161632467494</v>
+        <v>-0.1559771427720476</v>
       </c>
       <c r="AFP3">
-        <v>-0.5967161632467457</v>
+        <v>-0.1559771427720707</v>
       </c>
       <c r="AFQ3">
-        <v>-0.569636902158428</v>
+        <v>-0.152736185013007</v>
       </c>
       <c r="AFR3">
-        <v>-0.5515985348708476</v>
+        <v>-0.1481183830710879</v>
       </c>
       <c r="AFS3">
-        <v>-0.5928051197064816</v>
+        <v>-0.15576375924858</v>
       </c>
       <c r="AFT3">
-        <v>-0.5982752662922207</v>
+        <v>-0.1560676088290924</v>
       </c>
       <c r="AFU3">
-        <v>-0.596716163246747</v>
+        <v>-0.1559771427720218</v>
       </c>
       <c r="AFV3">
-        <v>-0.5967161632467494</v>
+        <v>-0.1559771427720476</v>
       </c>
       <c r="AFW3">
-        <v>-0.5696394147549826</v>
+        <v>-0.1527386281921382</v>
       </c>
       <c r="AFX3">
-        <v>-0.5516057572406475</v>
+        <v>-0.1481203624225066</v>
       </c>
       <c r="AFY3">
-        <v>-0.5928915822320953</v>
+        <v>-0.1557886306360442</v>
       </c>
       <c r="AFZ3">
-        <v>-0.5988361690020731</v>
+        <v>-0.1561001381268876</v>
       </c>
       <c r="AGA3">
-        <v>-0.5967161632467481</v>
+        <v>-0.1559771427719848</v>
       </c>
       <c r="AGB3">
-        <v>-0.596716163246747</v>
+        <v>-0.1559771427720218</v>
       </c>
       <c r="AGC3">
-        <v>-0.5696413935499959</v>
+        <v>-0.1527405523174152</v>
       </c>
       <c r="AGD3">
-        <v>-0.5516307102437169</v>
+        <v>-0.1481283039678158</v>
       </c>
       <c r="AGE3">
-        <v>-0.5516936370687374</v>
+        <v>-0.1481415091609745</v>
       </c>
       <c r="AGF3">
-        <v>-0.5929478089932524</v>
+        <v>-0.1558048041766494</v>
       </c>
       <c r="AGG3">
-        <v>-0.5994950166840096</v>
+        <v>-0.1561383363804607</v>
       </c>
       <c r="AGH3">
-        <v>-0.5967161632467469</v>
+        <v>-0.1559771427719667</v>
       </c>
       <c r="AGI3">
-        <v>-0.596716163246748</v>
+        <v>-0.1559771427719848</v>
       </c>
       <c r="AGJ3">
-        <v>-0.5696435137012633</v>
+        <v>-0.1527426138935312</v>
       </c>
       <c r="AGK3">
-        <v>-0.5929969861144164</v>
+        <v>-0.1558189496571991</v>
       </c>
       <c r="AGL3">
-        <v>-0.5995804998597849</v>
+        <v>-0.1561432915740344</v>
       </c>
       <c r="AGM3">
-        <v>-0.5967161632467456</v>
+        <v>-0.1559771427719555</v>
       </c>
       <c r="AGN3">
-        <v>-0.5967161632467469</v>
+        <v>-0.1559771427719667</v>
       </c>
       <c r="AGO3">
-        <v>-0.5696452099786341</v>
+        <v>-0.15274426330642</v>
       </c>
       <c r="AGP3">
-        <v>-0.593048570863105</v>
+        <v>-0.1558337874335098</v>
       </c>
       <c r="AGQ3">
-        <v>-0.5996857848366125</v>
+        <v>-0.1561454097290116</v>
       </c>
       <c r="AGR3">
-        <v>-0.5995853219654046</v>
+        <v>-0.1561524363977904</v>
       </c>
       <c r="AGS3">
-        <v>-0.5967161632467486</v>
+        <v>-0.1559771427719513</v>
       </c>
       <c r="AGT3">
-        <v>-0.5967161632467456</v>
+        <v>-0.1559771427719555</v>
       </c>
       <c r="AGU3">
-        <v>-0.5696468569956465</v>
+        <v>-0.1527458648198741</v>
       </c>
       <c r="AGV3">
-        <v>-0.5931366537754172</v>
+        <v>-0.1558591229241431</v>
       </c>
       <c r="AGW3">
-        <v>-0.5997832129280429</v>
+        <v>-0.1561473697164889</v>
       </c>
       <c r="AGX3">
-        <v>-0.5995966070344366</v>
+        <v>-0.156173837916809</v>
       </c>
       <c r="AGY3">
-        <v>-0.5967161632467513</v>
+        <v>-0.1559771427719513</v>
       </c>
       <c r="AGZ3">
-        <v>-0.5967161632467513</v>
+        <v>-0.1559771427719513</v>
       </c>
       <c r="AHA3">
-        <v>-0.5696484998364081</v>
+        <v>-0.1527474622724238</v>
       </c>
       <c r="AHB3">
-        <v>-0.5931582591543596</v>
+        <v>-0.15586533721832</v>
       </c>
       <c r="AHC3">
-        <v>-0.5999313702592156</v>
+        <v>-0.156150350053135</v>
       </c>
       <c r="AHD3">
-        <v>-0.5996233788354479</v>
+        <v>-0.1562246096654619</v>
       </c>
       <c r="AHE3">
-        <v>-0.5696501234570593</v>
+        <v>-0.1527490410358412</v>
       </c>
       <c r="AHF3">
-        <v>-0.5931656066611587</v>
+        <v>-0.1558653372190743</v>
       </c>
       <c r="AHG3">
-        <v>-0.5932456254474283</v>
+        <v>-0.1559016643069335</v>
       </c>
       <c r="AHH3">
-        <v>-0.6001186167983225</v>
+        <v>-0.1561541163903854</v>
       </c>
       <c r="AHI3">
-        <v>-0.5696791573708374</v>
+        <v>-0.1527772727980046</v>
       </c>
       <c r="AHJ3">
-        <v>-0.593177670718204</v>
+        <v>-0.155865337220311</v>
       </c>
       <c r="AHK3">
-        <v>-0.5933197257861347</v>
+        <v>-0.155932474905789</v>
       </c>
       <c r="AHL3">
-        <v>-0.6008477360379147</v>
+        <v>-0.1561687787380997</v>
       </c>
       <c r="AHM3">
-        <v>-0.5698158651327221</v>
+        <v>-0.1528429382549137</v>
       </c>
       <c r="AHN3">
-        <v>-0.5696791595725531</v>
+        <v>-0.1528149046041694</v>
       </c>
       <c r="AHO3">
-        <v>-0.5931800560548844</v>
+        <v>-0.1558653372205547</v>
       </c>
       <c r="AHP3">
-        <v>-0.5934442773108007</v>
+        <v>-0.1559842619000946</v>
       </c>
       <c r="AHQ3">
-        <v>-0.6021729299603702</v>
+        <v>-0.1561954141397198</v>
       </c>
       <c r="AHR3">
-        <v>-0.5699066594291367</v>
+        <v>-0.1528865487146983</v>
       </c>
       <c r="AHS3">
-        <v>-0.5931820716150276</v>
+        <v>-0.1558653372207578</v>
       </c>
       <c r="AHT3">
-        <v>-0.5931837701222905</v>
+        <v>-0.1558653372209285</v>
       </c>
       <c r="AHU3">
-        <v>-0.5931859795989816</v>
+        <v>-0.1558653372211538</v>
       </c>
       <c r="AHV3">
-        <v>-0.5931899784133213</v>
+        <v>-0.1558653372215631</v>
       </c>
       <c r="AHW3">
-        <v>-0.5931969116585594</v>
+        <v>-0.1558653372222765</v>
       </c>
       <c r="AHX3">
-        <v>-0.5932537030546197</v>
+        <v>-0.1558653372280971</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.04414988303262922</v>
+        <v>-0.0652823897250086</v>
       </c>
       <c r="D2">
-        <v>-0.04454622220752756</v>
+        <v>-0.06586687364030906</v>
       </c>
       <c r="E2">
-        <v>-0.04458777485078701</v>
+        <v>-0.0659281530033079</v>
       </c>
       <c r="F2">
-        <v>-0.04462670349989497</v>
+        <v>-0.06598556289958107</v>
       </c>
       <c r="G2">
-        <v>-0.04466064396587959</v>
+        <v>-0.06603561668156378</v>
       </c>
       <c r="H2">
-        <v>-0.04471411404358948</v>
+        <v>-0.06611447216764368</v>
       </c>
       <c r="I2">
-        <v>-0.04835666473011654</v>
+        <v>-0.07148740377734998</v>
       </c>
       <c r="J2">
-        <v>-0.04851987735809354</v>
+        <v>-0.07172819829128244</v>
       </c>
       <c r="K2">
-        <v>-0.04865572676179738</v>
+        <v>-0.07192862583936208</v>
       </c>
       <c r="L2">
-        <v>-0.04877494879577797</v>
+        <v>-0.07210452430192552</v>
       </c>
       <c r="M2">
-        <v>-0.04886391301042247</v>
+        <v>-0.0722357822564858</v>
       </c>
       <c r="N2">
-        <v>-0.04894743010241585</v>
+        <v>-0.07235900463735701</v>
       </c>
       <c r="O2">
-        <v>-0.04899878625025213</v>
+        <v>-0.07243477681346043</v>
       </c>
       <c r="P2">
-        <v>-0.04912664256682989</v>
+        <v>-0.07262342108040355</v>
       </c>
       <c r="Q2">
-        <v>-0.05016251823881593</v>
+        <v>-0.07415188678856457</v>
       </c>
       <c r="R2">
-        <v>-0.05016251823881668</v>
+        <v>-0.0741518867885619</v>
       </c>
       <c r="S2">
-        <v>-0.05141901132628606</v>
+        <v>-0.07600610419793499</v>
       </c>
       <c r="T2">
-        <v>-0.05016251823881757</v>
+        <v>-0.0741518867885607</v>
       </c>
       <c r="U2">
-        <v>-0.05150547848453023</v>
+        <v>-0.07613371354450804</v>
       </c>
       <c r="V2">
-        <v>-0.0501625182388182</v>
+        <v>-0.07415188678855926</v>
       </c>
       <c r="W2">
-        <v>-0.0516025729708327</v>
+        <v>-0.07627700822554219</v>
       </c>
       <c r="X2">
-        <v>-0.05016251823881816</v>
+        <v>-0.07415188678855726</v>
       </c>
       <c r="Y2">
-        <v>-0.05176066687762892</v>
+        <v>-0.07651033064782053</v>
       </c>
       <c r="Z2">
-        <v>-0.05016251823881846</v>
+        <v>-0.0741518867885555</v>
       </c>
       <c r="AA2">
-        <v>-0.05204829206589972</v>
+        <v>-0.07693483140197055</v>
       </c>
       <c r="AB2">
-        <v>-0.05016251823881885</v>
+        <v>-0.07415188678855426</v>
       </c>
       <c r="AC2">
-        <v>-0.05221341895252004</v>
+        <v>-0.07701506140557068</v>
       </c>
       <c r="AD2">
-        <v>-0.0554290508163682</v>
+        <v>-0.08214831715391981</v>
       </c>
       <c r="AE2">
-        <v>-0.05016251823881942</v>
+        <v>-0.07415188678855321</v>
       </c>
       <c r="AF2">
-        <v>-0.05223152501207556</v>
+        <v>-0.07702390129814565</v>
       </c>
       <c r="AG2">
-        <v>-0.05224009526988142</v>
+        <v>-0.07702798049526562</v>
       </c>
       <c r="AH2">
-        <v>-0.05632948635399165</v>
+        <v>-0.08353724016087881</v>
       </c>
       <c r="AI2">
-        <v>-0.05016251823882159</v>
+        <v>-0.07415188678855106</v>
       </c>
       <c r="AJ2">
-        <v>-0.05227298973038488</v>
+        <v>-0.07704414541065301</v>
       </c>
       <c r="AK2">
-        <v>-0.05224099867135309</v>
+        <v>-0.07702841800268587</v>
       </c>
       <c r="AL2">
-        <v>-0.05645709396487684</v>
+        <v>-0.08363074374497907</v>
       </c>
       <c r="AM2">
-        <v>-0.05890890079335347</v>
+        <v>-0.0876337599556424</v>
       </c>
       <c r="AN2">
-        <v>-0.05016251823882318</v>
+        <v>-0.07415188678854814</v>
       </c>
       <c r="AO2">
-        <v>-0.05224229759993312</v>
+        <v>-0.07702904705938313</v>
       </c>
       <c r="AP2">
-        <v>-0.05646165999995054</v>
+        <v>-0.08363509847180728</v>
       </c>
       <c r="AQ2">
-        <v>-0.05647672928379025</v>
+        <v>-0.08364057519886525</v>
       </c>
       <c r="AR2">
-        <v>-0.06069970292598981</v>
+        <v>-0.09047864612741906</v>
       </c>
       <c r="AS2">
-        <v>-0.05890890079335457</v>
+        <v>-0.08763375995566976</v>
       </c>
       <c r="AT2">
-        <v>-0.05016251823882312</v>
+        <v>-0.07415188678854762</v>
       </c>
       <c r="AU2">
-        <v>-0.0522439633883028</v>
+        <v>-0.07702985378192638</v>
       </c>
       <c r="AV2">
-        <v>-0.05646371805170067</v>
+        <v>-0.08363706128032769</v>
       </c>
       <c r="AW2">
-        <v>-0.0565239763003443</v>
+        <v>-0.08366423171946831</v>
       </c>
       <c r="AX2">
-        <v>-0.06205340270416847</v>
+        <v>-0.09262958673882195</v>
       </c>
       <c r="AY2">
-        <v>-0.05890890079335124</v>
+        <v>-0.08763375995568615</v>
       </c>
       <c r="AZ2">
-        <v>-0.05016251823882308</v>
+        <v>-0.07415188678854652</v>
       </c>
       <c r="BA2">
-        <v>-0.05224802033855998</v>
+        <v>-0.07703181851591435</v>
       </c>
       <c r="BB2">
-        <v>-0.05646589914808989</v>
+        <v>-0.08363914143909522</v>
       </c>
       <c r="BC2">
-        <v>-0.06224861215814791</v>
+        <v>-0.0929397930552566</v>
       </c>
       <c r="BD2">
-        <v>-0.06205340270416285</v>
+        <v>-0.0926295867387799</v>
       </c>
       <c r="BE2">
-        <v>-0.05890890079334682</v>
+        <v>-0.08763375995568876</v>
       </c>
       <c r="BF2">
-        <v>-0.05016251823882253</v>
+        <v>-0.07415188678854406</v>
       </c>
       <c r="BG2">
-        <v>-0.05225149383465356</v>
+        <v>-0.07703350068832504</v>
       </c>
       <c r="BH2">
-        <v>-0.05646797649347877</v>
+        <v>-0.08364112264820293</v>
       </c>
       <c r="BI2">
-        <v>-0.06313296429153741</v>
+        <v>-0.09434521100996744</v>
       </c>
       <c r="BJ2">
-        <v>-0.06205340270416327</v>
+        <v>-0.09262958673877721</v>
       </c>
       <c r="BK2">
-        <v>-0.05890890079333994</v>
+        <v>-0.08763375995568794</v>
       </c>
       <c r="BL2">
-        <v>-0.05016251823882136</v>
+        <v>-0.07415188678854241</v>
       </c>
       <c r="BM2">
-        <v>-0.05226814460591184</v>
+        <v>-0.07704156443763033</v>
       </c>
       <c r="BN2">
-        <v>-0.05646922061883985</v>
+        <v>-0.08364230919735613</v>
       </c>
       <c r="BO2">
-        <v>-0.06330639191944723</v>
+        <v>-0.0946234187246861</v>
       </c>
       <c r="BP2">
-        <v>-0.06324983772017478</v>
+        <v>-0.09448375619665615</v>
       </c>
       <c r="BQ2">
-        <v>-0.06205340270416193</v>
+        <v>-0.09262958673877773</v>
       </c>
       <c r="BR2">
-        <v>-0.05890890079333631</v>
+        <v>-0.08763375995569009</v>
       </c>
       <c r="BS2">
-        <v>-0.05016251823882018</v>
+        <v>-0.07415188678854059</v>
       </c>
       <c r="BT2">
-        <v>-0.05232700038788243</v>
+        <v>-0.07707006726482085</v>
       </c>
       <c r="BU2">
-        <v>-0.05647166150350817</v>
+        <v>-0.08364463712154822</v>
       </c>
       <c r="BV2">
-        <v>-0.06535587651172813</v>
+        <v>-0.09791163137090579</v>
       </c>
       <c r="BW2">
-        <v>-0.06326192262794651</v>
+        <v>-0.09454019194142677</v>
       </c>
       <c r="BX2">
-        <v>-0.06329488175340482</v>
+        <v>-0.09449504327449067</v>
       </c>
       <c r="BY2">
-        <v>-0.0620534027041582</v>
+        <v>-0.09262958673878241</v>
       </c>
       <c r="BZ2">
-        <v>-0.05890890079331144</v>
+        <v>-0.08763375995569025</v>
       </c>
       <c r="CA2">
-        <v>-0.05016251823881413</v>
+        <v>-0.07415188678853354</v>
       </c>
       <c r="CB2">
-        <v>-0.05648403204233794</v>
+        <v>-0.08365643516856927</v>
       </c>
       <c r="CC2">
-        <v>-0.06607049126420089</v>
+        <v>-0.0990583773762323</v>
       </c>
       <c r="CD2">
-        <v>-0.06205340270415508</v>
+        <v>-0.09262958673878419</v>
       </c>
       <c r="CE2">
-        <v>-0.05890890079321574</v>
+        <v>-0.08763375995569105</v>
       </c>
       <c r="CF2">
-        <v>-0.05016251823880594</v>
+        <v>-0.07415188678852459</v>
       </c>
       <c r="CG2">
-        <v>-0.05653064761681223</v>
+        <v>-0.08370089340960332</v>
       </c>
       <c r="CH2">
-        <v>-0.06622645854166095</v>
+        <v>-0.0993086734023937</v>
       </c>
       <c r="CI2">
-        <v>-0.06205340270415269</v>
+        <v>-0.09262958673878732</v>
       </c>
       <c r="CJ2">
-        <v>-0.0589089007930226</v>
+        <v>-0.08763375995569046</v>
       </c>
       <c r="CK2">
-        <v>-0.05016251823880116</v>
+        <v>-0.07415188678851946</v>
       </c>
       <c r="CL2">
-        <v>-0.06654275201128179</v>
+        <v>-0.09981627661468206</v>
       </c>
       <c r="CM2">
-        <v>-0.06205340270415267</v>
+        <v>-0.09262958673878732</v>
       </c>
       <c r="CN2">
-        <v>-0.05890890079297718</v>
+        <v>-0.08763375995568452</v>
       </c>
       <c r="CO2">
-        <v>-0.05016251823879928</v>
+        <v>-0.07415188678851739</v>
       </c>
       <c r="CP2">
-        <v>-0.06684105162211564</v>
+        <v>-0.1002950220184497</v>
       </c>
       <c r="CQ2">
-        <v>-0.05890890079296857</v>
+        <v>-0.08763375995568343</v>
       </c>
       <c r="CR2">
-        <v>-0.0501625182387986</v>
+        <v>-0.07415188678851656</v>
       </c>
       <c r="CS2">
-        <v>-0.06701444351140307</v>
+        <v>-0.1005733099459575</v>
       </c>
       <c r="CT2">
-        <v>-0.05890890079295455</v>
+        <v>-0.08763375995568143</v>
       </c>
       <c r="CU2">
-        <v>-0.0501625182387983</v>
+        <v>-0.07415188678851616</v>
       </c>
       <c r="CV2">
-        <v>-0.06712895953163023</v>
+        <v>-0.1007571076873812</v>
       </c>
       <c r="CW2">
-        <v>-0.05890890079295122</v>
+        <v>-0.0876337599556833</v>
       </c>
       <c r="CX2">
-        <v>-0.05016251823879805</v>
+        <v>-0.07415188678851656</v>
       </c>
       <c r="CY2">
-        <v>-0.06728707895334586</v>
+        <v>-0.1010108933216632</v>
       </c>
       <c r="CZ2">
-        <v>-0.05890890079305088</v>
+        <v>-0.08763375995589402</v>
       </c>
       <c r="DA2">
-        <v>-0.05016251823879805</v>
+        <v>-0.07415188678851656</v>
       </c>
       <c r="DB2">
-        <v>-0.06729800077718197</v>
+        <v>-0.1010399674476732</v>
       </c>
       <c r="DC2">
-        <v>-0.06737809757113748</v>
+        <v>-0.1011428402015481</v>
       </c>
       <c r="DD2">
-        <v>-0.05890890079305523</v>
+        <v>-0.08763375995590322</v>
       </c>
       <c r="DE2">
-        <v>-0.06731121468478513</v>
+        <v>-0.1010751431816448</v>
       </c>
       <c r="DF2">
-        <v>-0.06742971044966875</v>
+        <v>-0.1012176623280575</v>
       </c>
       <c r="DG2">
-        <v>-0.05890890079306755</v>
+        <v>-0.08763375995591356</v>
       </c>
       <c r="DH2">
-        <v>-0.06732653055620336</v>
+        <v>-0.1011159144374367</v>
       </c>
       <c r="DI2">
-        <v>-0.06946668419530504</v>
+        <v>-0.1041709275936411</v>
       </c>
       <c r="DJ2">
-        <v>-0.05890890079334123</v>
+        <v>-0.08763375995603297</v>
       </c>
       <c r="DK2">
-        <v>-0.06734988273745693</v>
+        <v>-0.101178078655046</v>
       </c>
       <c r="DL2">
-        <v>-0.06967079485016738</v>
+        <v>-0.1044668862533097</v>
       </c>
       <c r="DM2">
-        <v>-0.05890890079358631</v>
+        <v>-0.08763375995614243</v>
       </c>
       <c r="DN2">
-        <v>-0.0673799051663112</v>
+        <v>-0.1012579994379985</v>
       </c>
       <c r="DO2">
-        <v>-0.06969899367867897</v>
+        <v>-0.1044977229651155</v>
       </c>
       <c r="DP2">
-        <v>-0.07058929916766613</v>
+        <v>-0.1058357014519188</v>
       </c>
       <c r="DQ2">
-        <v>-0.05890890079361299</v>
+        <v>-0.087633759956148</v>
       </c>
       <c r="DR2">
-        <v>-0.06740145842648801</v>
+        <v>-0.1013153751032</v>
       </c>
       <c r="DS2">
-        <v>-0.06969899367868357</v>
+        <v>-0.1044977229651194</v>
       </c>
       <c r="DT2">
-        <v>-0.06971272353114644</v>
+        <v>-0.1045127371896071</v>
       </c>
       <c r="DU2">
-        <v>-0.07224598221850111</v>
+        <v>-0.1083048039396242</v>
       </c>
       <c r="DV2">
-        <v>-0.05890890079364194</v>
+        <v>-0.08763375995615205</v>
       </c>
       <c r="DW2">
-        <v>-0.06743191305998585</v>
+        <v>-0.1013964467515647</v>
       </c>
       <c r="DX2">
-        <v>-0.06969899367868666</v>
+        <v>-0.1044977229651229</v>
       </c>
       <c r="DY2">
-        <v>-0.06977722189433774</v>
+        <v>-0.1045832691250483</v>
       </c>
       <c r="DZ2">
-        <v>-0.07299110936212161</v>
+        <v>-0.1094154194009358</v>
       </c>
       <c r="EA2">
-        <v>-0.05890890079366844</v>
+        <v>-0.08763375995615601</v>
       </c>
       <c r="EB2">
-        <v>-0.06746486283147286</v>
+        <v>-0.1014841607858301</v>
       </c>
       <c r="EC2">
-        <v>-0.06969899367868858</v>
+        <v>-0.1044977229651251</v>
       </c>
       <c r="ED2">
-        <v>-0.06978789671520515</v>
+        <v>-0.1046250565367617</v>
       </c>
       <c r="EE2">
-        <v>-0.06994492500578137</v>
+        <v>-0.1047232671459824</v>
       </c>
       <c r="EF2">
-        <v>-0.0732128192324403</v>
+        <v>-0.1097458892954969</v>
       </c>
       <c r="EG2">
-        <v>-0.05890890079375332</v>
+        <v>-0.08763375995615542</v>
       </c>
       <c r="EH2">
-        <v>-0.06749593716315548</v>
+        <v>-0.1015668825026966</v>
       </c>
       <c r="EI2">
-        <v>-0.06969899367869122</v>
+        <v>-0.1044977229651283</v>
       </c>
       <c r="EJ2">
-        <v>-0.06978881602836387</v>
+        <v>-0.1046286552869384</v>
       </c>
       <c r="EK2">
-        <v>-0.07006968806287615</v>
+        <v>-0.1048274188310723</v>
       </c>
       <c r="EL2">
-        <v>-0.07346309355700879</v>
+        <v>-0.1101189416482589</v>
       </c>
       <c r="EM2">
-        <v>-0.05890890079381575</v>
+        <v>-0.08763375995615223</v>
       </c>
       <c r="EN2">
-        <v>-0.0675470284191988</v>
+        <v>-0.101702890888689</v>
       </c>
       <c r="EO2">
-        <v>-0.06969899367869384</v>
+        <v>-0.1044977229651313</v>
       </c>
       <c r="EP2">
-        <v>-0.06978971804958521</v>
+        <v>-0.1046321863502412</v>
       </c>
       <c r="EQ2">
-        <v>-0.07015323920126858</v>
+        <v>-0.1048971669212825</v>
       </c>
       <c r="ER2">
-        <v>-0.07369847948668708</v>
+        <v>-0.1104698072456466</v>
       </c>
       <c r="ES2">
-        <v>-0.05890890079382723</v>
+        <v>-0.08763375995614664</v>
       </c>
       <c r="ET2">
-        <v>-0.06778995781457683</v>
+        <v>-0.10234959267482</v>
       </c>
       <c r="EU2">
-        <v>-0.06969899367869617</v>
+        <v>-0.1044977229651338</v>
       </c>
       <c r="EV2">
-        <v>-0.06979044639378515</v>
+        <v>-0.1046350375384459</v>
       </c>
       <c r="EW2">
-        <v>-0.07019803765526082</v>
+        <v>-0.104919635181775</v>
       </c>
       <c r="EX2">
-        <v>-0.07022561556873702</v>
+        <v>-0.1049855507547994</v>
       </c>
       <c r="EY2">
-        <v>-0.0739731391106188</v>
+        <v>-0.1108792208352433</v>
       </c>
       <c r="EZ2">
-        <v>-0.05890890079382951</v>
+        <v>-0.08763375995614668</v>
       </c>
       <c r="FA2">
-        <v>-0.06784287907629191</v>
+        <v>-0.1024904758383919</v>
       </c>
       <c r="FB2">
-        <v>-0.06969899367869814</v>
+        <v>-0.104497722965136</v>
       </c>
       <c r="FC2">
-        <v>-0.06979153958101154</v>
+        <v>-0.104639316952362</v>
       </c>
       <c r="FD2">
-        <v>-0.07031684626533705</v>
+        <v>-0.1049792224566078</v>
       </c>
       <c r="FE2">
-        <v>-0.07023002093680723</v>
+        <v>-0.1049909304780351</v>
       </c>
       <c r="FF2">
-        <v>-0.074052172824793</v>
+        <v>-0.1109970315468965</v>
       </c>
       <c r="FG2">
-        <v>-0.05890890079382911</v>
+        <v>-0.08763375995614438</v>
       </c>
       <c r="FH2">
-        <v>-0.06787566548840888</v>
+        <v>-0.1036408283573548</v>
       </c>
       <c r="FI2">
-        <v>-0.06803170339439588</v>
+        <v>-0.1026261368232214</v>
       </c>
       <c r="FJ2">
-        <v>-0.0696989936786996</v>
+        <v>-0.1044977229651373</v>
       </c>
       <c r="FK2">
-        <v>-0.06979285754108228</v>
+        <v>-0.1046444762750912</v>
       </c>
       <c r="FL2">
-        <v>-0.07035811513933216</v>
+        <v>-0.1049999204112448</v>
       </c>
       <c r="FM2">
-        <v>-0.07023404548161237</v>
+        <v>-0.1049958451516922</v>
       </c>
       <c r="FN2">
-        <v>-0.07450119157275255</v>
+        <v>-0.1116663676623047</v>
       </c>
       <c r="FO2">
-        <v>-0.05890890079382911</v>
+        <v>-0.08763375995614438</v>
       </c>
       <c r="FP2">
-        <v>-0.06788185945090251</v>
+        <v>-0.1038582172091486</v>
       </c>
       <c r="FQ2">
-        <v>-0.06828239017282557</v>
+        <v>-0.102806242429994</v>
       </c>
       <c r="FR2">
-        <v>-0.06969899367870003</v>
+        <v>-0.1044977229651382</v>
       </c>
       <c r="FS2">
-        <v>-0.06979385323311837</v>
+        <v>-0.1046483740445068</v>
       </c>
       <c r="FT2">
-        <v>-0.07035811513945012</v>
+        <v>-0.1049999204118657</v>
       </c>
       <c r="FU2">
-        <v>-0.07042687263905924</v>
+        <v>-0.1050344052960486</v>
       </c>
       <c r="FV2">
-        <v>-0.0702357173349698</v>
+        <v>-0.1049978867778647</v>
       </c>
       <c r="FW2">
-        <v>-0.07475481174156903</v>
+        <v>-0.112044438704205</v>
       </c>
       <c r="FX2">
-        <v>-0.06789463889895071</v>
+        <v>-0.1043068023481228</v>
       </c>
       <c r="FY2">
-        <v>-0.06831214837869623</v>
+        <v>-0.1028191828276081</v>
       </c>
       <c r="FZ2">
-        <v>-0.0683157149178738</v>
+        <v>-0.1028527348065402</v>
       </c>
       <c r="GA2">
-        <v>-0.06969899367870058</v>
+        <v>-0.1044977229651385</v>
       </c>
       <c r="GB2">
-        <v>-0.06979500542269365</v>
+        <v>-0.1046528844508732</v>
       </c>
       <c r="GC2">
-        <v>-0.0703581151394619</v>
+        <v>-0.1049999204119543</v>
       </c>
       <c r="GD2">
-        <v>-0.07043429864366943</v>
+        <v>-0.1050381297289675</v>
       </c>
       <c r="GE2">
-        <v>-0.07023932099947595</v>
+        <v>-0.1050022874854351</v>
       </c>
       <c r="GF2">
-        <v>-0.07494308642886117</v>
+        <v>-0.1123251033772203</v>
       </c>
       <c r="GG2">
-        <v>-0.06842925529097052</v>
+        <v>-0.1028701068355993</v>
       </c>
       <c r="GH2">
-        <v>-0.06845364435937809</v>
+        <v>-0.1030451673814153</v>
       </c>
       <c r="GI2">
-        <v>-0.06969899367870029</v>
+        <v>-0.1044977229651382</v>
       </c>
       <c r="GJ2">
-        <v>-0.06979608877876015</v>
+        <v>-0.1046571254051976</v>
       </c>
       <c r="GK2">
-        <v>-0.07035811513946207</v>
+        <v>-0.104999920411975</v>
       </c>
       <c r="GL2">
-        <v>-0.07035811513948007</v>
+        <v>-0.104999920411995</v>
       </c>
       <c r="GM2">
-        <v>-0.07044148165763971</v>
+        <v>-0.1050417322865559</v>
       </c>
       <c r="GN2">
-        <v>-0.070248499516306</v>
+        <v>-0.1050134960744856</v>
       </c>
       <c r="GO2">
-        <v>-0.07511235810652674</v>
+        <v>-0.1125774428108695</v>
       </c>
       <c r="GP2">
-        <v>-0.06863834560388959</v>
+        <v>-0.1029610294923891</v>
       </c>
       <c r="GQ2">
-        <v>-0.06846965941433621</v>
+        <v>-0.1030772915390612</v>
       </c>
       <c r="GR2">
-        <v>-0.06845996924575748</v>
+        <v>-0.1030483391090428</v>
       </c>
       <c r="GS2">
-        <v>-0.06969899367870039</v>
+        <v>-0.1044977229651383</v>
       </c>
       <c r="GT2">
-        <v>-0.06979725440676579</v>
+        <v>-0.1046616884317701</v>
       </c>
       <c r="GU2">
-        <v>-0.07035811513946207</v>
+        <v>-0.104999920411975</v>
       </c>
       <c r="GV2">
-        <v>-0.07035811513950242</v>
+        <v>-0.1049999204120191</v>
       </c>
       <c r="GW2">
-        <v>-0.07044722736592499</v>
+        <v>-0.1050446139758628</v>
       </c>
       <c r="GX2">
-        <v>-0.0702538845237657</v>
+        <v>-0.1050200721238734</v>
       </c>
       <c r="GY2">
-        <v>-0.07532264679932804</v>
+        <v>-0.112890931635604</v>
       </c>
       <c r="GZ2">
-        <v>-0.06867373277813991</v>
+        <v>-0.102979661419816</v>
       </c>
       <c r="HA2">
-        <v>-0.06867429641626596</v>
+        <v>-0.1029750252633316</v>
       </c>
       <c r="HB2">
-        <v>-0.06851014995383214</v>
+        <v>-0.103158511449813</v>
       </c>
       <c r="HC2">
-        <v>-0.06846086327620819</v>
+        <v>-0.1030487874362661</v>
       </c>
       <c r="HD2">
-        <v>-0.06969899367870017</v>
+        <v>-0.1044977229651383</v>
       </c>
       <c r="HE2">
-        <v>-0.06979903630333724</v>
+        <v>-0.1046686639482276</v>
       </c>
       <c r="HF2">
-        <v>-0.07035811513951255</v>
+        <v>-0.1049999204120448</v>
       </c>
       <c r="HG2">
-        <v>-0.07045180428637769</v>
+        <v>-0.105046909471316</v>
       </c>
       <c r="HH2">
-        <v>-0.0702576562089935</v>
+        <v>-0.1050246780227453</v>
       </c>
       <c r="HI2">
-        <v>-0.07571071478048827</v>
+        <v>-0.1134694569080303</v>
       </c>
       <c r="HJ2">
-        <v>-0.06878956371254409</v>
+        <v>-0.1030406473098429</v>
       </c>
       <c r="HK2">
-        <v>-0.06873918163048516</v>
+        <v>-0.1030002852574246</v>
       </c>
       <c r="HL2">
-        <v>-0.06846158428674234</v>
+        <v>-0.1030491489995556</v>
       </c>
       <c r="HM2">
-        <v>-0.06969899367870015</v>
+        <v>-0.1044977229651383</v>
       </c>
       <c r="HN2">
-        <v>-0.06980390247909131</v>
+        <v>-0.1046877134484143</v>
       </c>
       <c r="HO2">
-        <v>-0.07035811513952542</v>
+        <v>-0.1049999204120714</v>
       </c>
       <c r="HP2">
-        <v>-0.07046148066081009</v>
+        <v>-0.1050517625243144</v>
       </c>
       <c r="HQ2">
-        <v>-0.07026491143169043</v>
+        <v>-0.105033537945722</v>
       </c>
       <c r="HR2">
-        <v>-0.07604906462139471</v>
+        <v>-0.1139738750250981</v>
       </c>
       <c r="HS2">
-        <v>-0.06883949838348817</v>
+        <v>-0.1030669378327236</v>
       </c>
       <c r="HT2">
-        <v>-0.06876234932140063</v>
+        <v>-0.1030093044926764</v>
       </c>
       <c r="HU2">
-        <v>-0.06846216048103668</v>
+        <v>-0.1030494379421759</v>
       </c>
       <c r="HV2">
-        <v>-0.06980431738541155</v>
+        <v>-0.1046893376778227</v>
       </c>
       <c r="HW2">
-        <v>-0.07035811513954768</v>
+        <v>-0.1049999204120972</v>
       </c>
       <c r="HX2">
-        <v>-0.07046910106644794</v>
+        <v>-0.1050555844268206</v>
       </c>
       <c r="HY2">
-        <v>-0.07026852261962648</v>
+        <v>-0.1050379478537066</v>
       </c>
       <c r="HZ2">
-        <v>-0.07627923456500446</v>
+        <v>-0.114317022869702</v>
       </c>
       <c r="IA2">
-        <v>-0.06902321591100019</v>
+        <v>-0.1031108615066002</v>
       </c>
       <c r="IB2">
-        <v>-0.06876234932140063</v>
+        <v>-0.1030093044926764</v>
       </c>
       <c r="IC2">
-        <v>-0.06846304004743534</v>
+        <v>-0.103049879015925</v>
       </c>
       <c r="ID2">
-        <v>-0.06980450902677916</v>
+        <v>-0.1046900878945734</v>
       </c>
       <c r="IE2">
-        <v>-0.07035811513956967</v>
+        <v>-0.1049999204121098</v>
       </c>
       <c r="IF2">
-        <v>-0.07047438697516509</v>
+        <v>-0.1050582354928</v>
       </c>
       <c r="IG2">
-        <v>-0.07027108678966217</v>
+        <v>-0.1050410791660725</v>
       </c>
       <c r="IH2">
-        <v>-0.07643044028807564</v>
+        <v>-0.1145424500276696</v>
       </c>
       <c r="II2">
-        <v>-0.0690611020336335</v>
+        <v>-0.103125610200067</v>
       </c>
       <c r="IJ2">
-        <v>-0.06846407107692548</v>
+        <v>-0.1030503960433422</v>
       </c>
       <c r="IK2">
-        <v>-0.06980471401043863</v>
+        <v>-0.1046908903424873</v>
       </c>
       <c r="IL2">
-        <v>-0.07035811513957888</v>
+        <v>-0.1049999204121233</v>
       </c>
       <c r="IM2">
-        <v>-0.07047966030407225</v>
+        <v>-0.1050608802463961</v>
       </c>
       <c r="IN2">
-        <v>-0.0703004200129977</v>
+        <v>-0.1050769003602323</v>
       </c>
       <c r="IO2">
-        <v>-0.07675587092176336</v>
+        <v>-0.1150276302790882</v>
       </c>
       <c r="IP2">
-        <v>-0.06914778048599932</v>
+        <v>-0.1031560323511466</v>
       </c>
       <c r="IQ2">
-        <v>-0.06909071676439069</v>
+        <v>-0.1031404591144459</v>
       </c>
       <c r="IR2">
-        <v>-0.0684656546779385</v>
+        <v>-0.1030511901669869</v>
       </c>
       <c r="IS2">
-        <v>-0.06980490988136921</v>
+        <v>-0.1046916571170798</v>
       </c>
       <c r="IT2">
-        <v>-0.0703581151395902</v>
+        <v>-0.1049999204121368</v>
       </c>
       <c r="IU2">
-        <v>-0.07048737497200482</v>
+        <v>-0.1050647494087394</v>
       </c>
       <c r="IV2">
-        <v>-0.0703090699753601</v>
+        <v>-0.105087463555802</v>
       </c>
       <c r="IW2">
-        <v>-0.07680564906811164</v>
+        <v>-0.1150925724706067</v>
       </c>
       <c r="IX2">
-        <v>-0.07696357935336766</v>
+        <v>-0.1153387500321541</v>
       </c>
       <c r="IY2">
-        <v>-0.06847144958931831</v>
+        <v>-0.1030540961213547</v>
       </c>
       <c r="IZ2">
-        <v>-0.06980512809000114</v>
+        <v>-0.1046925113371523</v>
       </c>
       <c r="JA2">
-        <v>-0.07035811513961539</v>
+        <v>-0.1049999204121577</v>
       </c>
       <c r="JB2">
-        <v>-0.07051639046577443</v>
+        <v>-0.1050793015823431</v>
       </c>
       <c r="JC2">
-        <v>-0.07031100523345332</v>
+        <v>-0.1050898268632682</v>
       </c>
       <c r="JD2">
-        <v>-0.07681253023472553</v>
+        <v>-0.1151015499000948</v>
       </c>
       <c r="JE2">
-        <v>-0.07774250606185017</v>
+        <v>-0.116505516858732</v>
       </c>
       <c r="JF2">
-        <v>-0.06849965364549955</v>
+        <v>-0.1030682394581539</v>
       </c>
       <c r="JG2">
-        <v>-0.06980557850327899</v>
+        <v>-0.1046942745682034</v>
       </c>
       <c r="JH2">
-        <v>-0.07035811513963569</v>
+        <v>-0.1049999204121791</v>
       </c>
       <c r="JI2">
-        <v>-0.07052316276556972</v>
+        <v>-0.105082698087745</v>
       </c>
       <c r="JJ2">
-        <v>-0.07033998684916599</v>
+        <v>-0.1051295349576945</v>
       </c>
       <c r="JK2">
-        <v>-0.07031168472043672</v>
+        <v>-0.1050905084673644</v>
       </c>
       <c r="JL2">
-        <v>-0.07681569376714306</v>
+        <v>-0.1151056771666791</v>
       </c>
       <c r="JM2">
-        <v>-0.07776572244355784</v>
+        <v>-0.1165288174129606</v>
       </c>
       <c r="JN2">
-        <v>-0.07799928510227788</v>
+        <v>-0.1168925782946523</v>
       </c>
       <c r="JO2">
-        <v>-0.06980604760591573</v>
+        <v>-0.1046961109635352</v>
       </c>
       <c r="JP2">
-        <v>-0.07035811513964728</v>
+        <v>-0.1049999204121917</v>
       </c>
       <c r="JQ2">
-        <v>-0.07052626533949709</v>
+        <v>-0.1050842541170986</v>
       </c>
       <c r="JR2">
-        <v>-0.07036870901577419</v>
+        <v>-0.1051688877691234</v>
       </c>
       <c r="JS2">
-        <v>-0.07031248137643326</v>
+        <v>-0.1050913076055454</v>
       </c>
       <c r="JT2">
-        <v>-0.07681945114300436</v>
+        <v>-0.1151105791867131</v>
       </c>
       <c r="JU2">
-        <v>-0.0777674100292175</v>
+        <v>-0.1165305111171072</v>
       </c>
       <c r="JV2">
-        <v>-0.07893018165145481</v>
+        <v>-0.1182958408798859</v>
       </c>
       <c r="JW2">
-        <v>-0.06980783143719779</v>
+        <v>-0.104703094135418</v>
       </c>
       <c r="JX2">
-        <v>-0.07035811513963965</v>
+        <v>-0.104999920412194</v>
       </c>
       <c r="JY2">
-        <v>-0.07052830504992727</v>
+        <v>-0.1050852770894829</v>
       </c>
       <c r="JZ2">
-        <v>-0.07031320133207304</v>
+        <v>-0.1050920298043909</v>
       </c>
       <c r="KA2">
-        <v>-0.07682524833678463</v>
+        <v>-0.1151181424382943</v>
       </c>
       <c r="KB2">
-        <v>-0.07776880099109146</v>
+        <v>-0.1165319071220376</v>
       </c>
       <c r="KC2">
-        <v>-0.07908047127086744</v>
+        <v>-0.1184272868940133</v>
       </c>
       <c r="KD2">
-        <v>-0.07907131229758514</v>
+        <v>-0.1185567879747568</v>
       </c>
       <c r="KE2">
-        <v>-0.06981730207634554</v>
+        <v>-0.1047401691640158</v>
       </c>
       <c r="KF2">
-        <v>-0.07035811513963965</v>
+        <v>-0.104999920412194</v>
       </c>
       <c r="KG2">
-        <v>-0.07053785796245783</v>
+        <v>-0.1050924636646198</v>
       </c>
       <c r="KH2">
-        <v>-0.07052889418691626</v>
+        <v>-0.1050852770894808</v>
       </c>
       <c r="KI2">
-        <v>-0.07031393050344706</v>
+        <v>-0.1050927612476849</v>
       </c>
       <c r="KJ2">
-        <v>-0.07683041405713353</v>
+        <v>-0.1151248818494365</v>
       </c>
       <c r="KK2">
-        <v>-0.07777077674666748</v>
+        <v>-0.1165338900408971</v>
       </c>
       <c r="KL2">
-        <v>-0.07914964796356795</v>
+        <v>-0.1184877898962838</v>
       </c>
       <c r="KM2">
-        <v>-0.07966281393292259</v>
+        <v>-0.1196505046333286</v>
       </c>
       <c r="KN2">
-        <v>-0.07054224617979475</v>
+        <v>-0.1050957648807348</v>
       </c>
       <c r="KO2">
-        <v>-0.07052931114028543</v>
+        <v>-0.1050852770894796</v>
       </c>
       <c r="KP2">
-        <v>-0.07031471451037168</v>
+        <v>-0.1050935476973812</v>
       </c>
       <c r="KQ2">
-        <v>-0.0768344302960637</v>
+        <v>-0.115130121603203</v>
       </c>
       <c r="KR2">
-        <v>-0.07777965097155859</v>
+        <v>-0.1165427964401863</v>
       </c>
       <c r="KS2">
-        <v>-0.07960158144704793</v>
+        <v>-0.1188830550685215</v>
       </c>
       <c r="KT2">
-        <v>-0.07979338761417153</v>
+        <v>-0.1198919517430307</v>
       </c>
       <c r="KU2">
-        <v>-0.07054967317717979</v>
+        <v>-0.1051013521397964</v>
       </c>
       <c r="KV2">
-        <v>-0.07052979635122804</v>
+        <v>-0.105085277089479</v>
       </c>
       <c r="KW2">
-        <v>-0.07031926132088363</v>
+        <v>-0.1050981086746451</v>
       </c>
       <c r="KX2">
-        <v>-0.07683942951706482</v>
+        <v>-0.1151366438006915</v>
       </c>
       <c r="KY2">
-        <v>-0.07778135935807363</v>
+        <v>-0.1165445110206443</v>
       </c>
       <c r="KZ2">
-        <v>-0.07963533901684501</v>
+        <v>-0.1189125795524032</v>
       </c>
       <c r="LA2">
-        <v>-0.07983677509065752</v>
+        <v>-0.1199721814057655</v>
       </c>
       <c r="LB2">
-        <v>-0.07056392888669658</v>
+        <v>-0.1051120765605067</v>
       </c>
       <c r="LC2">
-        <v>-0.07053072440487465</v>
+        <v>-0.1050852770894791</v>
       </c>
       <c r="LD2">
-        <v>-0.07033849271355745</v>
+        <v>-0.1051173999879688</v>
       </c>
       <c r="LE2">
-        <v>-0.07684460018107347</v>
+        <v>-0.1151433896748246</v>
       </c>
       <c r="LF2">
-        <v>-0.07778262427868746</v>
+        <v>-0.1165457805273691</v>
       </c>
       <c r="LG2">
-        <v>-0.07964986374465122</v>
+        <v>-0.1189296467952033</v>
       </c>
       <c r="LH2">
-        <v>-0.08011605850335522</v>
+        <v>-0.1192916577815523</v>
       </c>
       <c r="LI2">
-        <v>-0.07985942039900652</v>
+        <v>-0.1200140559808271</v>
       </c>
       <c r="LJ2">
-        <v>-0.07060590063521632</v>
+        <v>-0.1051436513662679</v>
       </c>
       <c r="LK2">
-        <v>-0.0705342836556556</v>
+        <v>-0.1050852770894786</v>
       </c>
       <c r="LL2">
-        <v>-0.07685069927546448</v>
+        <v>-0.1151513468260206</v>
       </c>
       <c r="LM2">
-        <v>-0.07778408133100422</v>
+        <v>-0.1165472428623958</v>
       </c>
       <c r="LN2">
-        <v>-0.07972467199458504</v>
+        <v>-0.1190175503438239</v>
       </c>
       <c r="LO2">
-        <v>-0.08034677354545058</v>
+        <v>-0.1194735884402315</v>
       </c>
       <c r="LP2">
-        <v>-0.07987880554068975</v>
+        <v>-0.1200499021022604</v>
       </c>
       <c r="LQ2">
-        <v>-0.0705464300717802</v>
+        <v>-0.1050852770894786</v>
       </c>
       <c r="LR2">
-        <v>-0.07685417495507435</v>
+        <v>-0.1151558813560325</v>
       </c>
       <c r="LS2">
-        <v>-0.07778552670687867</v>
+        <v>-0.1165486934786524</v>
       </c>
       <c r="LT2">
-        <v>-0.07975078957656476</v>
+        <v>-0.119048239972123</v>
       </c>
       <c r="LU2">
-        <v>-0.08047142596994933</v>
+        <v>-0.1195248817301945</v>
       </c>
       <c r="LV2">
-        <v>-0.08071373553007409</v>
+        <v>-0.1197922213447624</v>
       </c>
       <c r="LW2">
-        <v>-0.0799008527225232</v>
+        <v>-0.1200906708413326</v>
       </c>
       <c r="LX2">
-        <v>-0.07686987674602073</v>
+        <v>-0.1151763666553506</v>
       </c>
       <c r="LY2">
-        <v>-0.0777982245350583</v>
+        <v>-0.116561437344465</v>
       </c>
       <c r="LZ2">
-        <v>-0.07980763387548118</v>
+        <v>-0.1191150354427696</v>
       </c>
       <c r="MA2">
-        <v>-0.08052079646954985</v>
+        <v>-0.1195451967477908</v>
       </c>
       <c r="MB2">
-        <v>-0.08073254877839044</v>
+        <v>-0.1198295188202722</v>
       </c>
       <c r="MC2">
-        <v>-0.08077758237329312</v>
+        <v>-0.1198444756706552</v>
       </c>
       <c r="MD2">
-        <v>-0.0799182221498327</v>
+        <v>-0.1201227897403244</v>
       </c>
       <c r="ME2">
-        <v>-0.07687598758737481</v>
+        <v>-0.1151843391601638</v>
       </c>
       <c r="MF2">
-        <v>-0.07782418082573209</v>
+        <v>-0.1165874877438736</v>
       </c>
       <c r="MG2">
-        <v>-0.07982468157829166</v>
+        <v>-0.1191401312623892</v>
       </c>
       <c r="MH2">
-        <v>-0.07982153709995521</v>
+        <v>-0.1191289901124003</v>
       </c>
       <c r="MI2">
-        <v>-0.08074200728747459</v>
+        <v>-0.1198482705392533</v>
       </c>
       <c r="MJ2">
-        <v>-0.08083228112091903</v>
+        <v>-0.1198892427933638</v>
       </c>
       <c r="MK2">
-        <v>-0.07993278461119858</v>
+        <v>-0.1201497181502326</v>
       </c>
       <c r="ML2">
-        <v>-0.07687811049189516</v>
+        <v>-0.1151871088076143</v>
       </c>
       <c r="MM2">
-        <v>-0.07985019033190437</v>
+        <v>-0.119177682715463</v>
       </c>
       <c r="MN2">
-        <v>-0.07982347299902458</v>
+        <v>-0.1191309331747701</v>
       </c>
       <c r="MO2">
-        <v>-0.08074288749662686</v>
+        <v>-0.1198500155788528</v>
       </c>
       <c r="MP2">
-        <v>-0.08087075698258314</v>
+        <v>-0.119920732553416</v>
       </c>
       <c r="MQ2">
-        <v>-0.07994592458154723</v>
+        <v>-0.1201740161755089</v>
       </c>
       <c r="MR2">
-        <v>-0.07687970981936527</v>
+        <v>-0.1151891953707881</v>
       </c>
       <c r="MS2">
-        <v>-0.07982557552345849</v>
+        <v>-0.1191330434790662</v>
       </c>
       <c r="MT2">
-        <v>-0.08074325101213557</v>
+        <v>-0.1198507362588563</v>
       </c>
       <c r="MU2">
-        <v>-0.08091937249830176</v>
+        <v>-0.1199605208314368</v>
       </c>
       <c r="MV2">
-        <v>-0.07995679970199969</v>
+        <v>-0.1201941261375962</v>
       </c>
       <c r="MW2">
-        <v>-0.07688087996118217</v>
+        <v>-0.1151907219970344</v>
       </c>
       <c r="MX2">
-        <v>-0.07982741718549594</v>
+        <v>-0.1191348919557171</v>
       </c>
       <c r="MY2">
-        <v>-0.0807435075100435</v>
+        <v>-0.119851244773448</v>
       </c>
       <c r="MZ2">
-        <v>-0.08094983484155956</v>
+        <v>-0.1199854520136759</v>
       </c>
       <c r="NA2">
-        <v>-0.07996941550466095</v>
+        <v>-0.120217454950059</v>
       </c>
       <c r="NB2">
-        <v>-0.07688147416605662</v>
+        <v>-0.1151914972268859</v>
       </c>
       <c r="NC2">
-        <v>-0.07982937395311644</v>
+        <v>-0.1191368559638769</v>
       </c>
       <c r="ND2">
-        <v>-0.08074376986757699</v>
+        <v>-0.1198517649049819</v>
       </c>
       <c r="NE2">
-        <v>-0.08099661344009199</v>
+        <v>-0.1200237367893619</v>
       </c>
       <c r="NF2">
-        <v>-0.07998328117729167</v>
+        <v>-0.120243095027251</v>
       </c>
       <c r="NG2">
-        <v>-0.07688234777366305</v>
+        <v>-0.1151926369798433</v>
       </c>
       <c r="NH2">
-        <v>-0.07983216668235443</v>
+        <v>-0.1191396590269338</v>
       </c>
       <c r="NI2">
-        <v>-0.08074407943076725</v>
+        <v>-0.1198523786232008</v>
       </c>
       <c r="NJ2">
-        <v>-0.08104324669227451</v>
+        <v>-0.120061902539255</v>
       </c>
       <c r="NK2">
-        <v>-0.08005887236821442</v>
+        <v>-0.1203828771849604</v>
       </c>
       <c r="NL2">
-        <v>-0.07688381222610506</v>
+        <v>-0.1151945475793641</v>
       </c>
       <c r="NM2">
-        <v>-0.0798355617615043</v>
+        <v>-0.1191430666687694</v>
       </c>
       <c r="NN2">
-        <v>-0.08074446992268952</v>
+        <v>-0.1198531527851572</v>
       </c>
       <c r="NO2">
-        <v>-0.08109557121881948</v>
+        <v>-0.1201047260778501</v>
       </c>
       <c r="NP2">
-        <v>-0.08059515561838071</v>
+        <v>-0.1214187257383865</v>
       </c>
       <c r="NQ2">
-        <v>-0.08007428112391225</v>
+        <v>-0.1203909977616563</v>
       </c>
       <c r="NR2">
-        <v>-0.07689034432874441</v>
+        <v>-0.1152030696991307</v>
       </c>
       <c r="NS2">
-        <v>-0.07985660566400025</v>
+        <v>-0.1191641884396626</v>
       </c>
       <c r="NT2">
-        <v>-0.08074481964627112</v>
+        <v>-0.1198538461227676</v>
       </c>
       <c r="NU2">
-        <v>-0.08113343546083218</v>
+        <v>-0.1201357149474368</v>
       </c>
       <c r="NV2">
-        <v>-0.0811088283315895</v>
+        <v>-0.1224109650172358</v>
       </c>
       <c r="NW2">
-        <v>-0.08016889533342192</v>
+        <v>-0.1204408598554468</v>
       </c>
       <c r="NX2">
-        <v>-0.08007428112391017</v>
+        <v>-0.1203909977616859</v>
       </c>
       <c r="NY2">
-        <v>-0.07691435632120985</v>
+        <v>-0.1152343970558985</v>
       </c>
       <c r="NZ2">
-        <v>-0.07992861376101393</v>
+        <v>-0.1192364629925792</v>
       </c>
       <c r="OA2">
-        <v>-0.08074509637377876</v>
+        <v>-0.1198543947435243</v>
       </c>
       <c r="OB2">
-        <v>-0.08117856657059369</v>
+        <v>-0.1201726511093266</v>
       </c>
       <c r="OC2">
-        <v>-0.08113169639119146</v>
+        <v>-0.122455139704686</v>
       </c>
       <c r="OD2">
-        <v>-0.08020347549333859</v>
+        <v>-0.1204590834938615</v>
       </c>
       <c r="OE2">
-        <v>-0.08007428112389871</v>
+        <v>-0.1203909977618388</v>
       </c>
       <c r="OF2">
-        <v>-0.08074557130483279</v>
+        <v>-0.1198553363090392</v>
       </c>
       <c r="OG2">
-        <v>-0.08124405190583299</v>
+        <v>-0.1202262454403991</v>
       </c>
       <c r="OH2">
-        <v>-0.08120954968380176</v>
+        <v>-0.1225244004785508</v>
       </c>
       <c r="OI2">
-        <v>-0.08150499954707249</v>
+        <v>-0.12322400849185</v>
       </c>
       <c r="OJ2">
-        <v>-0.08020699533103937</v>
+        <v>-0.120460938429929</v>
       </c>
       <c r="OK2">
-        <v>-0.08007428112389843</v>
+        <v>-0.120390997761848</v>
       </c>
       <c r="OL2">
-        <v>-0.08074722923873229</v>
+        <v>-0.1198586232158836</v>
       </c>
       <c r="OM2">
-        <v>-0.08129260188936448</v>
+        <v>-0.1202659794968457</v>
       </c>
       <c r="ON2">
-        <v>-0.0812166831941544</v>
+        <v>-0.1225307466634445</v>
       </c>
       <c r="OO2">
-        <v>-0.08168510381960013</v>
+        <v>-0.1235949720950203</v>
       </c>
       <c r="OP2">
-        <v>-0.08020945172062414</v>
+        <v>-0.1204622329335643</v>
       </c>
       <c r="OQ2">
-        <v>-0.08007428112389894</v>
+        <v>-0.1203909977618507</v>
       </c>
       <c r="OR2">
-        <v>-0.08075736526061567</v>
+        <v>-0.1198787182557066</v>
       </c>
       <c r="OS2">
-        <v>-0.08133943663275764</v>
+        <v>-0.1203043097017619</v>
       </c>
       <c r="OT2">
-        <v>-0.08122073845787656</v>
+        <v>-0.1225343543467361</v>
       </c>
       <c r="OU2">
-        <v>-0.08222847636040764</v>
+        <v>-0.1247142213869013</v>
       </c>
       <c r="OV2">
-        <v>-0.0816851038197102</v>
+        <v>-0.1235949720950814</v>
       </c>
       <c r="OW2">
-        <v>-0.08021199632489216</v>
+        <v>-0.1204635739251216</v>
       </c>
       <c r="OX2">
-        <v>-0.08007428112389861</v>
+        <v>-0.1203909977618529</v>
       </c>
       <c r="OY2">
-        <v>-0.08138527419258001</v>
+        <v>-0.1203418237288434</v>
       </c>
       <c r="OZ2">
-        <v>-0.08122349208366142</v>
+        <v>-0.122536804053763</v>
       </c>
       <c r="PA2">
-        <v>-0.08300244092486368</v>
+        <v>-0.1263085946824459</v>
       </c>
       <c r="PB2">
-        <v>-0.08168510381973465</v>
+        <v>-0.1235949720950967</v>
       </c>
       <c r="PC2">
-        <v>-0.08022268221009846</v>
+        <v>-0.1204692053160506</v>
       </c>
       <c r="PD2">
-        <v>-0.08007428112389826</v>
+        <v>-0.1203909977618522</v>
       </c>
       <c r="PE2">
-        <v>-0.08144040138365981</v>
+        <v>-0.1203869404149513</v>
       </c>
       <c r="PF2">
-        <v>-0.08122797977232835</v>
+        <v>-0.1225407964337399</v>
       </c>
       <c r="PG2">
-        <v>-0.08316441207471473</v>
+        <v>-0.1266422782904469</v>
       </c>
       <c r="PH2">
-        <v>-0.08168510381975175</v>
+        <v>-0.1235949720951009</v>
       </c>
       <c r="PI2">
-        <v>-0.08022529146051798</v>
+        <v>-0.1204705803718159</v>
       </c>
       <c r="PJ2">
-        <v>-0.08007428112389216</v>
+        <v>-0.1203909977618468</v>
       </c>
       <c r="PK2">
-        <v>-0.08153273077341129</v>
+        <v>-0.1204625035596373</v>
       </c>
       <c r="PL2">
-        <v>-0.08144040138365981</v>
+        <v>-0.1203869404149513</v>
       </c>
       <c r="PM2">
-        <v>-0.08124289718985182</v>
+        <v>-0.1225540674011247</v>
       </c>
       <c r="PN2">
-        <v>-0.08320581058511158</v>
+        <v>-0.1267275663170104</v>
       </c>
       <c r="PO2">
-        <v>-0.08168510381976493</v>
+        <v>-0.1235949720950987</v>
       </c>
       <c r="PP2">
-        <v>-0.08022778040440311</v>
+        <v>-0.1204718920261987</v>
       </c>
       <c r="PQ2">
-        <v>-0.08007428112389128</v>
+        <v>-0.120390997761846</v>
       </c>
       <c r="PR2">
-        <v>-0.08184416469902633</v>
+        <v>-0.1207173816480338</v>
       </c>
       <c r="PS2">
-        <v>-0.08153273077341129</v>
+        <v>-0.1204625035596373</v>
       </c>
       <c r="PT2">
-        <v>-0.08125950507156529</v>
+        <v>-0.1225688422427621</v>
       </c>
       <c r="PU2">
-        <v>-0.08322749875823311</v>
+        <v>-0.1267722478667759</v>
       </c>
       <c r="PV2">
-        <v>-0.08168510381977637</v>
+        <v>-0.1235949720950991</v>
       </c>
       <c r="PW2">
-        <v>-0.08023025581356481</v>
+        <v>-0.1204731965471865</v>
       </c>
       <c r="PX2">
-        <v>-0.08007428112388999</v>
+        <v>-0.1203909977618465</v>
       </c>
       <c r="PY2">
-        <v>-0.08228469205491058</v>
+        <v>-0.1210779046575005</v>
       </c>
       <c r="PZ2">
-        <v>-0.08184416469902633</v>
+        <v>-0.1207173816480338</v>
       </c>
       <c r="QA2">
-        <v>-0.08126884533433602</v>
+        <v>-0.1225771515994555</v>
       </c>
       <c r="QB2">
-        <v>-0.08324547804628613</v>
+        <v>-0.1268092885463248</v>
       </c>
       <c r="QC2">
-        <v>-0.08168510381978632</v>
+        <v>-0.1235949720950994</v>
       </c>
       <c r="QD2">
-        <v>-0.08023309543036776</v>
+        <v>-0.1204746930018514</v>
       </c>
       <c r="QE2">
-        <v>-0.0800742811238884</v>
+        <v>-0.1203909977618445</v>
       </c>
       <c r="QF2">
-        <v>-0.08260082181998378</v>
+        <v>-0.1213366180897165</v>
       </c>
       <c r="QG2">
-        <v>-0.08228469205491058</v>
+        <v>-0.1210779046575005</v>
       </c>
       <c r="QH2">
-        <v>-0.08127761955708042</v>
+        <v>-0.1225849573876881</v>
       </c>
       <c r="QI2">
-        <v>-0.08326004928975467</v>
+        <v>-0.1268393080877118</v>
       </c>
       <c r="QJ2">
-        <v>-0.08168510381979405</v>
+        <v>-0.1235949720951</v>
       </c>
       <c r="QK2">
-        <v>-0.08024290190783598</v>
+        <v>-0.1204798609276515</v>
       </c>
       <c r="QL2">
-        <v>-0.08007428112388636</v>
+        <v>-0.1203909977618447</v>
       </c>
       <c r="QM2">
-        <v>-0.08269673983790866</v>
+        <v>-0.1214151145794914</v>
       </c>
       <c r="QN2">
-        <v>-0.08260082181998378</v>
+        <v>-0.1213366180897165</v>
       </c>
       <c r="QO2">
-        <v>-0.08128599092246479</v>
+        <v>-0.1225924047797921</v>
       </c>
       <c r="QP2">
-        <v>-0.08328232249241878</v>
+        <v>-0.1268851952519829</v>
       </c>
       <c r="QQ2">
-        <v>-0.08168510381979768</v>
+        <v>-0.1235949720950969</v>
       </c>
       <c r="QR2">
-        <v>-0.08029069142519561</v>
+        <v>-0.1205050454188046</v>
       </c>
       <c r="QS2">
-        <v>-0.0800742811238854</v>
+        <v>-0.1203909977618456</v>
       </c>
       <c r="QT2">
-        <v>-0.08287773266410056</v>
+        <v>-0.1216222516170815</v>
       </c>
       <c r="QU2">
-        <v>-0.08269673983790868</v>
+        <v>-0.1214151145794914</v>
       </c>
       <c r="QV2">
-        <v>-0.0827792835145837</v>
+        <v>-0.1214353186345862</v>
       </c>
       <c r="QW2">
-        <v>-0.08129973552492398</v>
+        <v>-0.1226046323414989</v>
       </c>
       <c r="QX2">
-        <v>-0.08330240150094143</v>
+        <v>-0.1269265620680006</v>
       </c>
       <c r="QY2">
-        <v>-0.08168510381979775</v>
+        <v>-0.1235949720950919</v>
       </c>
       <c r="QZ2">
-        <v>-0.08007428112388526</v>
+        <v>-0.1203909977618461</v>
       </c>
       <c r="RA2">
-        <v>-0.08307883261378977</v>
+        <v>-0.1218524016152724</v>
       </c>
       <c r="RB2">
-        <v>-0.08287773266410052</v>
+        <v>-0.1216222516170815</v>
       </c>
       <c r="RC2">
-        <v>-0.08287773266410053</v>
+        <v>-0.1216222516170815</v>
       </c>
       <c r="RD2">
-        <v>-0.08279133825533215</v>
+        <v>-0.1214382692019352</v>
       </c>
       <c r="RE2">
-        <v>-0.08130930895280933</v>
+        <v>-0.1226131491110319</v>
       </c>
       <c r="RF2">
-        <v>-0.08332151181646928</v>
+        <v>-0.1269659332879666</v>
       </c>
       <c r="RG2">
-        <v>-0.08168510381979478</v>
+        <v>-0.1235949720950876</v>
       </c>
       <c r="RH2">
-        <v>-0.08007428112387933</v>
+        <v>-0.1203909977618534</v>
       </c>
       <c r="RI2">
-        <v>-0.08315252771334607</v>
+        <v>-0.1219367427625039</v>
       </c>
       <c r="RJ2">
-        <v>-0.08307883261378977</v>
+        <v>-0.1218524016152724</v>
       </c>
       <c r="RK2">
-        <v>-0.08279791141809295</v>
+        <v>-0.1214398780708103</v>
       </c>
       <c r="RL2">
-        <v>-0.08131603547906181</v>
+        <v>-0.1226191332006391</v>
       </c>
       <c r="RM2">
-        <v>-0.08334304080579426</v>
+        <v>-0.1270102876037885</v>
       </c>
       <c r="RN2">
-        <v>-0.08168510381979084</v>
+        <v>-0.1235949720950834</v>
       </c>
       <c r="RO2">
-        <v>-0.08007428112387974</v>
+        <v>-0.1203909977618531</v>
       </c>
       <c r="RP2">
-        <v>-0.08328682657990831</v>
+        <v>-0.1220468435611466</v>
       </c>
       <c r="RQ2">
-        <v>-0.08315252771334607</v>
+        <v>-0.1219367427625039</v>
       </c>
       <c r="RR2">
-        <v>-0.08320866596969349</v>
+        <v>-0.12211421591399</v>
       </c>
       <c r="RS2">
-        <v>-0.08280236423147602</v>
+        <v>-0.1214409679539464</v>
       </c>
       <c r="RT2">
-        <v>-0.08131924946077568</v>
+        <v>-0.1226219924401698</v>
       </c>
       <c r="RU2">
-        <v>-0.08336578241469689</v>
+        <v>-0.1270571403191875</v>
       </c>
       <c r="RV2">
-        <v>-0.08168510381978404</v>
+        <v>-0.1235949720950764</v>
       </c>
       <c r="RW2">
-        <v>-0.08007428112388079</v>
+        <v>-0.1203909977618527</v>
       </c>
       <c r="RX2">
-        <v>-0.08347931537408317</v>
+        <v>-0.1222046485692642</v>
       </c>
       <c r="RY2">
-        <v>-0.08328682657990831</v>
+        <v>-0.1220468435611466</v>
       </c>
       <c r="RZ2">
-        <v>-0.08321182315773873</v>
+        <v>-0.1221175430050654</v>
       </c>
       <c r="SA2">
-        <v>-0.0832086659696948</v>
+        <v>-0.1221611051773456</v>
       </c>
       <c r="SB2">
-        <v>-0.08280912778637485</v>
+        <v>-0.1214426234174821</v>
       </c>
       <c r="SC2">
-        <v>-0.08132128543251446</v>
+        <v>-0.1226238036919522</v>
       </c>
       <c r="SD2">
-        <v>-0.08341550657921962</v>
+        <v>-0.1271595835492307</v>
       </c>
       <c r="SE2">
-        <v>-0.08168510381977329</v>
+        <v>-0.1235949720950724</v>
       </c>
       <c r="SF2">
-        <v>-0.08007428112388</v>
+        <v>-0.1203909977618517</v>
       </c>
       <c r="SG2">
-        <v>-0.08359678877424696</v>
+        <v>-0.1223009543200058</v>
       </c>
       <c r="SH2">
-        <v>-0.08347931537408317</v>
+        <v>-0.1222046485692642</v>
       </c>
       <c r="SI2">
-        <v>-0.08321315762764638</v>
+        <v>-0.1221189492891058</v>
       </c>
       <c r="SJ2">
-        <v>-0.0832086659696948</v>
+        <v>-0.1221911094901242</v>
       </c>
       <c r="SK2">
-        <v>-0.08281939218839363</v>
+        <v>-0.1214451357491881</v>
       </c>
       <c r="SL2">
-        <v>-0.0813226620013054</v>
+        <v>-0.1226250283221427</v>
       </c>
       <c r="SM2">
-        <v>-0.08454335505100954</v>
+        <v>-0.1294834014820975</v>
       </c>
       <c r="SN2">
-        <v>-0.0816851038197659</v>
+        <v>-0.1235949720950754</v>
       </c>
       <c r="SO2">
-        <v>-0.08007428112388</v>
+        <v>-0.1203909977618517</v>
       </c>
       <c r="SP2">
-        <v>-0.08361701919336784</v>
+        <v>-0.1223175393547488</v>
       </c>
       <c r="SQ2">
-        <v>-0.08359678877424696</v>
+        <v>-0.1223009543200058</v>
       </c>
       <c r="SR2">
-        <v>-0.08321394173636948</v>
+        <v>-0.1221197755944454</v>
       </c>
       <c r="SS2">
-        <v>-0.08282667447168567</v>
+        <v>-0.1214469181672841</v>
       </c>
       <c r="ST2">
-        <v>-0.08132458214966962</v>
+        <v>-0.1226267365342391</v>
       </c>
       <c r="SU2">
-        <v>-0.08455893104401696</v>
+        <v>-0.1294990466219745</v>
       </c>
       <c r="SV2">
-        <v>-0.08471365604899581</v>
+        <v>-0.1298375997200875</v>
       </c>
       <c r="SW2">
-        <v>-0.0816851038197569</v>
+        <v>-0.1235949720950757</v>
       </c>
       <c r="SX2">
-        <v>-0.0836399570386252</v>
+        <v>-0.1223534457131552</v>
       </c>
       <c r="SY2">
-        <v>-0.08361701919336785</v>
+        <v>-0.1223175393547488</v>
       </c>
       <c r="SZ2">
-        <v>-0.0837100774970716</v>
+        <v>-0.122343480484141</v>
       </c>
       <c r="TA2">
-        <v>-0.0832146633526174</v>
+        <v>-0.1221205360443062</v>
       </c>
       <c r="TB2">
-        <v>-0.08283164982796908</v>
+        <v>-0.1214481359373141</v>
       </c>
       <c r="TC2">
-        <v>-0.08132604762313624</v>
+        <v>-0.1226280402560427</v>
       </c>
       <c r="TD2">
-        <v>-0.08457266705200743</v>
+        <v>-0.1295128436089477</v>
       </c>
       <c r="TE2">
-        <v>-0.08480553022711439</v>
+        <v>-0.1300286865408546</v>
       </c>
       <c r="TF2">
-        <v>-0.08168510381975187</v>
+        <v>-0.1235949720950758</v>
       </c>
       <c r="TG2">
-        <v>-0.08365684209995718</v>
+        <v>-0.1223798772522483</v>
       </c>
       <c r="TH2">
-        <v>-0.0836399570386252</v>
+        <v>-0.1223534457131552</v>
       </c>
       <c r="TI2">
-        <v>-0.08376506942438103</v>
+        <v>-0.122358809776654</v>
       </c>
       <c r="TJ2">
-        <v>-0.08321530625223304</v>
+        <v>-0.1221212135414299</v>
       </c>
       <c r="TK2">
-        <v>-0.08283558134379967</v>
+        <v>-0.1214490982150942</v>
       </c>
       <c r="TL2">
-        <v>-0.08133650559413114</v>
+        <v>-0.1226373439254969</v>
       </c>
       <c r="TM2">
-        <v>-0.08481925119522182</v>
+        <v>-0.1300572246550077</v>
       </c>
       <c r="TN2">
-        <v>-0.0816851038197413</v>
+        <v>-0.1235949720950777</v>
       </c>
       <c r="TO2">
-        <v>-0.0836798312333621</v>
+        <v>-0.1224158640728509</v>
       </c>
       <c r="TP2">
-        <v>-0.08365684209995718</v>
+        <v>-0.1223798772522483</v>
       </c>
       <c r="TQ2">
-        <v>-0.08380864304952063</v>
+        <v>-0.1223709559597006</v>
       </c>
       <c r="TR2">
-        <v>-0.08321597318774494</v>
+        <v>-0.1221219163679482</v>
       </c>
       <c r="TS2">
-        <v>-0.08284818687688952</v>
+        <v>-0.1214521835364761</v>
       </c>
       <c r="TT2">
-        <v>-0.08134188535171909</v>
+        <v>-0.1226427449500501</v>
       </c>
       <c r="TU2">
-        <v>-0.08142796095751191</v>
+        <v>-0.1227169184118176</v>
       </c>
       <c r="TV2">
-        <v>-0.08482972493033647</v>
+        <v>-0.1300790089167454</v>
       </c>
       <c r="TW2">
-        <v>-0.08168510381972574</v>
+        <v>-0.1235949720950781</v>
       </c>
       <c r="TX2">
-        <v>-0.08369609971357346</v>
+        <v>-0.1224413305524465</v>
       </c>
       <c r="TY2">
-        <v>-0.0836798312333621</v>
+        <v>-0.1224158640728509</v>
       </c>
       <c r="TZ2">
-        <v>-0.08382664825247482</v>
+        <v>-0.1223759748736606</v>
       </c>
       <c r="UA2">
-        <v>-0.08321798655963118</v>
+        <v>-0.1221240380891261</v>
       </c>
       <c r="UB2">
-        <v>-0.0829501495537046</v>
+        <v>-0.1214771393567635</v>
       </c>
       <c r="UC2">
-        <v>-0.08134782584836787</v>
+        <v>-0.1226487089304084</v>
       </c>
       <c r="UD2">
-        <v>-0.08483952059125636</v>
+        <v>-0.1300993828851035</v>
       </c>
       <c r="UE2">
-        <v>-0.08168510381971336</v>
+        <v>-0.1235949720950751</v>
       </c>
       <c r="UF2">
-        <v>-0.08374159556354703</v>
+        <v>-0.1225125494699546</v>
       </c>
       <c r="UG2">
-        <v>-0.08369609971357346</v>
+        <v>-0.1224413305524465</v>
       </c>
       <c r="UH2">
-        <v>-0.08382822198080274</v>
+        <v>-0.1223775540942713</v>
       </c>
       <c r="UI2">
-        <v>-0.08388047277953069</v>
+        <v>-0.1223759748736584</v>
       </c>
       <c r="UJ2">
-        <v>-0.083220015556613</v>
+        <v>-0.1221261762763658</v>
       </c>
       <c r="UK2">
-        <v>-0.082955227319063</v>
+        <v>-0.1214783821395846</v>
       </c>
       <c r="UL2">
-        <v>-0.08136392803032239</v>
+        <v>-0.1226648747671165</v>
       </c>
       <c r="UM2">
-        <v>-0.08484996645619103</v>
+        <v>-0.1301211092421606</v>
       </c>
       <c r="UN2">
-        <v>-0.08168510381970456</v>
+        <v>-0.123594972095073</v>
       </c>
       <c r="UO2">
-        <v>-0.08377453931171583</v>
+        <v>-0.1225641196557771</v>
       </c>
       <c r="UP2">
-        <v>-0.08374159556354703</v>
+        <v>-0.1225125494699546</v>
       </c>
       <c r="UQ2">
-        <v>-0.08382880106548279</v>
+        <v>-0.122378135199949</v>
       </c>
       <c r="UR2">
-        <v>-0.08392119221703732</v>
+        <v>-0.1223759748736584</v>
       </c>
       <c r="US2">
-        <v>-0.08323897381933176</v>
+        <v>-0.122146154781131</v>
       </c>
       <c r="UT2">
-        <v>-0.08295923386148998</v>
+        <v>-0.1214793627391116</v>
       </c>
       <c r="UU2">
-        <v>-0.08485920978442361</v>
+        <v>-0.1301403344696466</v>
       </c>
       <c r="UV2">
-        <v>-0.08168510381970272</v>
+        <v>-0.123594972095073</v>
       </c>
       <c r="UW2">
-        <v>-0.08377597271603053</v>
+        <v>-0.122566926571115</v>
       </c>
       <c r="UX2">
-        <v>-0.08377453931171583</v>
+        <v>-0.1225641196557771</v>
       </c>
       <c r="UY2">
-        <v>-0.08381868943146963</v>
+        <v>-0.1226289996493739</v>
       </c>
       <c r="UZ2">
-        <v>-0.08382966365551346</v>
+        <v>-0.1223790008004071</v>
       </c>
       <c r="VA2">
-        <v>-0.08296376337533573</v>
+        <v>-0.121480471334038</v>
       </c>
       <c r="VB2">
-        <v>-0.08486866408011971</v>
+        <v>-0.1301599985150647</v>
       </c>
       <c r="VC2">
-        <v>-0.08377631211991531</v>
+        <v>-0.1225675911973799</v>
       </c>
       <c r="VD2">
-        <v>-0.08377597271603052</v>
+        <v>-0.122566926571115</v>
       </c>
       <c r="VE2">
-        <v>-0.08382427084477534</v>
+        <v>-0.1226372017559545</v>
       </c>
       <c r="VF2">
-        <v>-0.08383018269580478</v>
+        <v>-0.1223795216521429</v>
       </c>
       <c r="VG2">
-        <v>-0.0829677947939244</v>
+        <v>-0.121481458019089</v>
       </c>
       <c r="VH2">
-        <v>-0.08491746059277817</v>
+        <v>-0.1302614910884484</v>
       </c>
       <c r="VI2">
-        <v>-0.08378551323748078</v>
+        <v>-0.1225856089949588</v>
       </c>
       <c r="VJ2">
-        <v>-0.08377631211991531</v>
+        <v>-0.1225675911973799</v>
       </c>
       <c r="VK2">
-        <v>-0.08377631211988244</v>
+        <v>-0.122567591197315</v>
       </c>
       <c r="VL2">
-        <v>-0.08382838956673991</v>
+        <v>-0.1226432543863108</v>
       </c>
       <c r="VM2">
-        <v>-0.08383080898634457</v>
+        <v>-0.12238015012843</v>
       </c>
       <c r="VN2">
-        <v>-0.08297243496576513</v>
+        <v>-0.1214825936941</v>
       </c>
       <c r="VO2">
-        <v>-0.08497044128575514</v>
+        <v>-0.130288100267654</v>
       </c>
       <c r="VP2">
-        <v>-0.08501504018553367</v>
+        <v>-0.1304765583664145</v>
       </c>
       <c r="VQ2">
-        <v>-0.08379196152396001</v>
+        <v>-0.1225982361687512</v>
       </c>
       <c r="VR2">
-        <v>-0.08378551323748078</v>
+        <v>-0.1225856089949588</v>
       </c>
       <c r="VS2">
-        <v>-0.08377631211987049</v>
+        <v>-0.1225675911972929</v>
       </c>
       <c r="VT2">
-        <v>-0.08383239712224434</v>
+        <v>-0.1226491436581314</v>
       </c>
       <c r="VU2">
-        <v>-0.08383135889616124</v>
+        <v>-0.1223807019574253</v>
       </c>
       <c r="VV2">
-        <v>-0.08297719273099448</v>
+        <v>-0.12148375814803</v>
       </c>
       <c r="VW2">
-        <v>-0.08497349444934299</v>
+        <v>-0.1302896336877664</v>
       </c>
       <c r="VX2">
-        <v>-0.08548136041833575</v>
+        <v>-0.1315043827926512</v>
       </c>
       <c r="VY2">
-        <v>-0.08380488150968333</v>
+        <v>-0.1226235364149846</v>
       </c>
       <c r="VZ2">
-        <v>-0.08379196152396033</v>
+        <v>-0.12259823616875</v>
       </c>
       <c r="WA2">
-        <v>-0.08377631211986367</v>
+        <v>-0.1225675911972781</v>
       </c>
       <c r="WB2">
-        <v>-0.08387004303093371</v>
+        <v>-0.1227044661552939</v>
       </c>
       <c r="WC2">
-        <v>-0.0838349573255962</v>
+        <v>-0.1223843129453499</v>
       </c>
       <c r="WD2">
-        <v>-0.08298291155964242</v>
+        <v>-0.1214851578178639</v>
       </c>
       <c r="WE2">
-        <v>-0.08497502786285419</v>
+        <v>-0.1302904038285803</v>
       </c>
       <c r="WF2">
-        <v>-0.08561154904781798</v>
+        <v>-0.1315320482627975</v>
       </c>
       <c r="WG2">
-        <v>-0.08597499779084437</v>
+        <v>-0.1327014486880077</v>
       </c>
       <c r="WH2">
-        <v>-0.08381640338392125</v>
+        <v>-0.1226460989012415</v>
       </c>
       <c r="WI2">
-        <v>-0.08380488150968333</v>
+        <v>-0.1226235364149846</v>
       </c>
       <c r="WJ2">
-        <v>-0.08380488150968333</v>
+        <v>-0.1226235364149846</v>
       </c>
       <c r="WK2">
-        <v>-0.08379196152396028</v>
+        <v>-0.1225982361687462</v>
       </c>
       <c r="WL2">
-        <v>-0.08379196152396033</v>
+        <v>-0.12259823616875</v>
       </c>
       <c r="WM2">
-        <v>-0.08377631211985666</v>
+        <v>-0.1225675911972651</v>
       </c>
       <c r="WN2">
-        <v>-0.08388756399543988</v>
+        <v>-0.1227302142184515</v>
       </c>
       <c r="WO2">
-        <v>-0.08386148979292937</v>
+        <v>-0.1224109380114029</v>
       </c>
       <c r="WP2">
-        <v>-0.08298649686552534</v>
+        <v>-0.1214860353116213</v>
       </c>
       <c r="WQ2">
-        <v>-0.08497631371405899</v>
+        <v>-0.1302910496336228</v>
       </c>
       <c r="WR2">
-        <v>-0.08568025308254819</v>
+        <v>-0.1315466475525297</v>
       </c>
       <c r="WS2">
-        <v>-0.0864478452467196</v>
+        <v>-0.1338482027846546</v>
       </c>
       <c r="WT2">
-        <v>-0.08382703230179156</v>
+        <v>-0.1226669127238653</v>
       </c>
       <c r="WU2">
-        <v>-0.08381640338392125</v>
+        <v>-0.1226460989012415</v>
       </c>
       <c r="WV2">
-        <v>-0.08381640338392125</v>
+        <v>-0.1226460989012415</v>
       </c>
       <c r="WW2">
-        <v>-0.08379196152396028</v>
+        <v>-0.1225982361687462</v>
       </c>
       <c r="WX2">
-        <v>-0.08377631211985093</v>
+        <v>-0.1225675911972587</v>
       </c>
       <c r="WY2">
-        <v>-0.08389578734368348</v>
+        <v>-0.1227422989340801</v>
       </c>
       <c r="WZ2">
-        <v>-0.08300190537139804</v>
+        <v>-0.1214898064887307</v>
       </c>
       <c r="XA2">
-        <v>-0.08497736228128192</v>
+        <v>-0.1302915762651781</v>
       </c>
       <c r="XB2">
-        <v>-0.08647058233620206</v>
+        <v>-0.1338665686701158</v>
       </c>
       <c r="XC2">
-        <v>-0.08656643324476714</v>
+        <v>-0.1341592069850865</v>
       </c>
       <c r="XD2">
-        <v>-0.08384151142664573</v>
+        <v>-0.1226952662976915</v>
       </c>
       <c r="XE2">
-        <v>-0.08377631211984583</v>
+        <v>-0.122567591197255</v>
       </c>
       <c r="XF2">
-        <v>-0.08390127246115167</v>
+        <v>-0.122750359663128</v>
       </c>
       <c r="XG2">
-        <v>-0.08306686699414145</v>
+        <v>-0.1215057053951637</v>
       </c>
       <c r="XH2">
-        <v>-0.08497900822648718</v>
+        <v>-0.1302924029231173</v>
       </c>
       <c r="XI2">
-        <v>-0.08647615756996328</v>
+        <v>-0.1338710720599444</v>
       </c>
       <c r="XJ2">
-        <v>-0.08659371699176112</v>
+        <v>-0.1342307613726741</v>
       </c>
       <c r="XK2">
-        <v>-0.08384575833617736</v>
+        <v>-0.1227035827962191</v>
       </c>
       <c r="XL2">
-        <v>-0.08377631211983989</v>
+        <v>-0.1225675911972515</v>
       </c>
       <c r="XM2">
-        <v>-0.08390965821100838</v>
+        <v>-0.1227626830742933</v>
       </c>
       <c r="XN2">
-        <v>-0.08498293308299081</v>
+        <v>-0.1302943741380314</v>
       </c>
       <c r="XO2">
-        <v>-0.0864799859369504</v>
+        <v>-0.133874164418502</v>
       </c>
       <c r="XP2">
-        <v>-0.08660725653060723</v>
+        <v>-0.134266270337663</v>
       </c>
       <c r="XQ2">
-        <v>-0.08385981488162057</v>
+        <v>-0.1227311091109921</v>
       </c>
       <c r="XR2">
-        <v>-0.08377631211983309</v>
+        <v>-0.1225675911972495</v>
       </c>
       <c r="XS2">
-        <v>-0.08392603557405483</v>
+        <v>-0.1227867507506716</v>
       </c>
       <c r="XT2">
-        <v>-0.08498564845223662</v>
+        <v>-0.1302957379005832</v>
       </c>
       <c r="XU2">
-        <v>-0.08648529289343489</v>
+        <v>-0.133878451104123</v>
       </c>
       <c r="XV2">
-        <v>-0.08662213545338564</v>
+        <v>-0.1343052921057828</v>
       </c>
       <c r="XW2">
-        <v>-0.08377631211982924</v>
+        <v>-0.1225675911972475</v>
       </c>
       <c r="XX2">
-        <v>-0.08393056271905167</v>
+        <v>-0.1227934037206453</v>
       </c>
       <c r="XY2">
-        <v>-0.08498910103264382</v>
+        <v>-0.1302974719176307</v>
       </c>
       <c r="XZ2">
-        <v>-0.08649787732404254</v>
+        <v>-0.133888616149865</v>
       </c>
       <c r="YA2">
-        <v>-0.0866393035511072</v>
+        <v>-0.1343503176645475</v>
       </c>
       <c r="YB2">
-        <v>-0.0837763121198267</v>
+        <v>-0.1225675911972449</v>
       </c>
       <c r="YC2">
-        <v>-0.08393187702359782</v>
+        <v>-0.1227953351883055</v>
       </c>
       <c r="YD2">
-        <v>-0.08499119844850592</v>
+        <v>-0.1302985253188944</v>
       </c>
       <c r="YE2">
-        <v>-0.08650744361278614</v>
+        <v>-0.1338963432907425</v>
       </c>
       <c r="YF2">
-        <v>-0.08665665936858315</v>
+        <v>-0.1343958357098304</v>
       </c>
       <c r="YG2">
-        <v>-0.08377631211982267</v>
+        <v>-0.1225675911972446</v>
       </c>
       <c r="YH2">
-        <v>-0.08393244707922599</v>
+        <v>-0.1227964521748585</v>
       </c>
       <c r="YI2">
-        <v>-0.08393490497851931</v>
+        <v>-0.1227983017214644</v>
       </c>
       <c r="YJ2">
-        <v>-0.08499309196942435</v>
+        <v>-0.1302994763160056</v>
       </c>
       <c r="YK2">
-        <v>-0.08651415902705237</v>
+        <v>-0.1339017676424859</v>
       </c>
       <c r="YL2">
-        <v>-0.08667590058101443</v>
+        <v>-0.1344462986620574</v>
       </c>
       <c r="YM2">
-        <v>-0.08377631211981212</v>
+        <v>-0.1225675911972457</v>
       </c>
       <c r="YN2">
-        <v>-0.08393298060297587</v>
+        <v>-0.1227974975798449</v>
       </c>
       <c r="YO2">
-        <v>-0.08393890057033182</v>
+        <v>-0.1228022162629702</v>
       </c>
       <c r="YP2">
-        <v>-0.08499628546310159</v>
+        <v>-0.1303010802071882</v>
       </c>
       <c r="YQ2">
-        <v>-0.08652119403298855</v>
+        <v>-0.1339074501398235</v>
       </c>
       <c r="YR2">
-        <v>-0.08670388142149429</v>
+        <v>-0.1345196829622215</v>
       </c>
       <c r="YS2">
-        <v>-0.08377631211980567</v>
+        <v>-0.1225675911972458</v>
       </c>
       <c r="YT2">
-        <v>-0.08393353020141855</v>
+        <v>-0.1227985744823974</v>
       </c>
       <c r="YU2">
-        <v>-0.08395550018498206</v>
+        <v>-0.1228184791540218</v>
       </c>
       <c r="YV2">
-        <v>-0.08499942510389893</v>
+        <v>-0.1303026570503212</v>
       </c>
       <c r="YW2">
-        <v>-0.08652696985930027</v>
+        <v>-0.1339121155373322</v>
       </c>
       <c r="YX2">
-        <v>-0.08670653701573749</v>
+        <v>-0.1345305563208084</v>
       </c>
       <c r="YY2">
-        <v>-0.08677708969209602</v>
+        <v>-0.1347062033584242</v>
       </c>
       <c r="YZ2">
-        <v>-0.08377631211980331</v>
+        <v>-0.1225675911972481</v>
       </c>
       <c r="ZA2">
-        <v>-0.08393750392572158</v>
+        <v>-0.1228063607455029</v>
       </c>
       <c r="ZB2">
-        <v>-0.08396254968109604</v>
+        <v>-0.122825385650172</v>
       </c>
       <c r="ZC2">
-        <v>-0.08500091061234731</v>
+        <v>-0.1303034031269309</v>
       </c>
       <c r="ZD2">
-        <v>-0.08653653307120837</v>
+        <v>-0.1339198401731806</v>
       </c>
       <c r="ZE2">
-        <v>-0.08670813170145585</v>
+        <v>-0.1345370857978589</v>
       </c>
       <c r="ZF2">
-        <v>-0.08724067749834878</v>
+        <v>-0.1358873990140826</v>
       </c>
       <c r="ZG2">
-        <v>-0.08377631211980331</v>
+        <v>-0.1225675911972481</v>
       </c>
       <c r="ZH2">
-        <v>-0.08396644124462933</v>
+        <v>-0.1228630620120777</v>
       </c>
       <c r="ZI2">
-        <v>-0.08500254224302096</v>
+        <v>-0.1303042225911697</v>
       </c>
       <c r="ZJ2">
-        <v>-0.08656743882350779</v>
+        <v>-0.1339448040933109</v>
       </c>
       <c r="ZK2">
-        <v>-0.0867096110042961</v>
+        <v>-0.1345431428502295</v>
       </c>
       <c r="ZL2">
-        <v>-0.0875725299472347</v>
+        <v>-0.1367330086378362</v>
       </c>
       <c r="ZM2">
-        <v>-0.08500410826028226</v>
+        <v>-0.1303050091016819</v>
       </c>
       <c r="ZN2">
-        <v>-0.0866396556410545</v>
+        <v>-0.1340031364934577</v>
       </c>
       <c r="ZO2">
-        <v>-0.08671105440978209</v>
+        <v>-0.1345490529319381</v>
       </c>
       <c r="ZP2">
-        <v>-0.08761814160884614</v>
+        <v>-0.1368023273219448</v>
       </c>
       <c r="ZQ2">
-        <v>-0.08847319322002159</v>
+        <v>-0.1390786262561163</v>
       </c>
       <c r="ZR2">
-        <v>-0.08500599686557719</v>
+        <v>-0.1303059576272008</v>
       </c>
       <c r="ZS2">
-        <v>-0.0867121370612709</v>
+        <v>-0.1345534858998278</v>
       </c>
       <c r="ZT2">
-        <v>-0.08761814160883381</v>
+        <v>-0.1368067182904869</v>
       </c>
       <c r="ZU2">
-        <v>-0.08763004856810493</v>
+        <v>-0.136808164675061</v>
       </c>
       <c r="ZV2">
-        <v>-0.08852500474289182</v>
+        <v>-0.1395057199428485</v>
       </c>
       <c r="ZW2">
-        <v>-0.08865073521705019</v>
+        <v>-0.1394850575496826</v>
       </c>
       <c r="ZX2">
-        <v>-0.08500900943361187</v>
+        <v>-0.1303074706463981</v>
       </c>
       <c r="ZY2">
-        <v>-0.08671385692553747</v>
+        <v>-0.1345605279795997</v>
       </c>
       <c r="ZZ2">
-        <v>-0.087618141608829</v>
+        <v>-0.1368080922536913</v>
       </c>
       <c r="AAA2">
-        <v>-0.08765430511583754</v>
+        <v>-0.1368200563290121</v>
       </c>
       <c r="AAB2">
-        <v>-0.08855502109124305</v>
+        <v>-0.1397531847001333</v>
       </c>
       <c r="AAC2">
-        <v>-0.08885054213783437</v>
+        <v>-0.1399424184020303</v>
       </c>
       <c r="AAD2">
-        <v>-0.08501725451860005</v>
+        <v>-0.1303116116170851</v>
       </c>
       <c r="AAE2">
-        <v>-0.08671675668647928</v>
+        <v>-0.1345724012505532</v>
       </c>
       <c r="AAF2">
-        <v>-0.0876181416088259</v>
+        <v>-0.1368089756726977</v>
       </c>
       <c r="AAG2">
-        <v>-0.08937764127983039</v>
+        <v>-0.1411490792341075</v>
       </c>
       <c r="AAH2">
-        <v>-0.08885054213782562</v>
+        <v>-0.1399424184020116</v>
       </c>
       <c r="AAI2">
-        <v>-0.08502822726142904</v>
+        <v>-0.1303171225011258</v>
       </c>
       <c r="AAJ2">
-        <v>-0.08673848454987799</v>
+        <v>-0.1346613690305068</v>
       </c>
       <c r="AAK2">
-        <v>-0.08761814160882356</v>
+        <v>-0.1368095085264017</v>
       </c>
       <c r="AAL2">
-        <v>-0.08993159776545735</v>
+        <v>-0.1421647212622665</v>
       </c>
       <c r="AAM2">
-        <v>-0.08942129968809394</v>
+        <v>-0.141404875435147</v>
       </c>
       <c r="AAN2">
-        <v>-0.08885054213782045</v>
+        <v>-0.1399424184019989</v>
       </c>
       <c r="AAO2">
-        <v>-0.08502927238236423</v>
+        <v>-0.1303176473956316</v>
       </c>
       <c r="AAP2">
-        <v>-0.08675630962227113</v>
+        <v>-0.1347343583235242</v>
       </c>
       <c r="AAQ2">
-        <v>-0.08761814160882102</v>
+        <v>-0.1368100470882901</v>
       </c>
       <c r="AAR2">
-        <v>-0.09050341168161254</v>
+        <v>-0.1432132111370931</v>
       </c>
       <c r="AAS2">
-        <v>-0.0894259734740234</v>
+        <v>-0.1414322607836924</v>
       </c>
       <c r="AAT2">
-        <v>-0.08885054213781729</v>
+        <v>-0.1399424184019878</v>
       </c>
       <c r="AAU2">
-        <v>-0.08503009892379036</v>
+        <v>-0.1303180625121463</v>
       </c>
       <c r="AAV2">
-        <v>-0.08676195725486568</v>
+        <v>-0.134757484374864</v>
       </c>
       <c r="AAW2">
-        <v>-0.08761814160881908</v>
+        <v>-0.1368105281374814</v>
       </c>
       <c r="AAX2">
-        <v>-0.09071261220431043</v>
+        <v>-0.1436061787963459</v>
       </c>
       <c r="AAY2">
-        <v>-0.09060816785014873</v>
+        <v>-0.1433738012051858</v>
       </c>
       <c r="AAZ2">
-        <v>-0.08942775799284462</v>
+        <v>-0.1414427169792667</v>
       </c>
       <c r="ABA2">
-        <v>-0.08885054213781408</v>
+        <v>-0.1399424184019819</v>
       </c>
       <c r="ABB2">
-        <v>-0.08503090169391642</v>
+        <v>-0.1303184656898505</v>
       </c>
       <c r="ABC2">
-        <v>-0.08676709871539091</v>
+        <v>-0.134778537901896</v>
       </c>
       <c r="ABD2">
-        <v>-0.08761814160881856</v>
+        <v>-0.1368110701129174</v>
       </c>
       <c r="ABE2">
-        <v>-0.09099689845649171</v>
+        <v>-0.1441402147063663</v>
       </c>
       <c r="ABF2">
-        <v>-0.09062222051827561</v>
+        <v>-0.1433953441037578</v>
       </c>
       <c r="ABG2">
-        <v>-0.0894296456621447</v>
+        <v>-0.141453777618967</v>
       </c>
       <c r="ABH2">
-        <v>-0.08885054213780992</v>
+        <v>-0.1399424184019813</v>
       </c>
       <c r="ABI2">
-        <v>-0.0850317615475763</v>
+        <v>-0.1303188975367122</v>
       </c>
       <c r="ABJ2">
-        <v>-0.08676989903503919</v>
+        <v>-0.1347900048645548</v>
       </c>
       <c r="ABK2">
-        <v>-0.08761814160881856</v>
+        <v>-0.1368115043448797</v>
       </c>
       <c r="ABL2">
-        <v>-0.09132976279068804</v>
+        <v>-0.1447655422775566</v>
       </c>
       <c r="ABM2">
-        <v>-0.09062960350023526</v>
+        <v>-0.1434066623277729</v>
       </c>
       <c r="ABN2">
-        <v>-0.08943121226510491</v>
+        <v>-0.1414629570325549</v>
       </c>
       <c r="ABO2">
-        <v>-0.08885054213780531</v>
+        <v>-0.1399424184019798</v>
       </c>
       <c r="ABP2">
-        <v>-0.08503255654751826</v>
+        <v>-0.1303192968118251</v>
       </c>
       <c r="ABQ2">
-        <v>-0.08677213553178577</v>
+        <v>-0.1347991630747075</v>
       </c>
       <c r="ABR2">
-        <v>-0.08761814160881934</v>
+        <v>-0.1368120252065439</v>
       </c>
       <c r="ABS2">
-        <v>-0.09159705698218025</v>
+        <v>-0.1452677169885702</v>
       </c>
       <c r="ABT2">
-        <v>-0.09065004287178974</v>
+        <v>-0.143449828124491</v>
       </c>
       <c r="ABU2">
-        <v>-0.0906303039310523</v>
+        <v>-0.1434073499510273</v>
       </c>
       <c r="ABV2">
-        <v>-0.08943306750961097</v>
+        <v>-0.1414738277647402</v>
       </c>
       <c r="ABW2">
-        <v>-0.08885054213780121</v>
+        <v>-0.1399424184019813</v>
       </c>
       <c r="ABX2">
-        <v>-0.0850333057511948</v>
+        <v>-0.1303196730864818</v>
       </c>
       <c r="ABY2">
-        <v>-0.08677404262946972</v>
+        <v>-0.1348069724544761</v>
       </c>
       <c r="ABZ2">
-        <v>-0.0876181416088192</v>
+        <v>-0.1368125864974298</v>
       </c>
       <c r="ACA2">
-        <v>-0.09168175491572803</v>
+        <v>-0.1454388387343594</v>
       </c>
       <c r="ACB2">
-        <v>-0.0916626375647593</v>
+        <v>-0.1453369380224445</v>
       </c>
       <c r="ACC2">
-        <v>-0.09066665768961578</v>
+        <v>-0.1434849171967994</v>
       </c>
       <c r="ACD2">
-        <v>-0.09063081044334545</v>
+        <v>-0.1434078472016055</v>
       </c>
       <c r="ACE2">
-        <v>-0.08943487682549062</v>
+        <v>-0.1414844294230007</v>
       </c>
       <c r="ACF2">
-        <v>-0.08885054213780191</v>
+        <v>-0.1399424184019822</v>
       </c>
       <c r="ACG2">
-        <v>-0.0850343477505778</v>
+        <v>-0.1303201964126395</v>
       </c>
       <c r="ACH2">
-        <v>-0.08677628062409498</v>
+        <v>-0.1348161368518846</v>
       </c>
       <c r="ACI2">
-        <v>-0.08761814160882005</v>
+        <v>-0.1368136105437474</v>
       </c>
       <c r="ACJ2">
-        <v>-0.0917985313177027</v>
+        <v>-0.1456747763706326</v>
       </c>
       <c r="ACK2">
-        <v>-0.09171745583537366</v>
+        <v>-0.145394799404394</v>
       </c>
       <c r="ACL2">
-        <v>-0.09063123789465066</v>
+        <v>-0.1434082668368458</v>
       </c>
       <c r="ACM2">
-        <v>-0.08943736424984766</v>
+        <v>-0.1414990045167548</v>
       </c>
       <c r="ACN2">
-        <v>-0.08885054213779882</v>
+        <v>-0.1399424184019841</v>
       </c>
       <c r="ACO2">
-        <v>-0.08503562467883269</v>
+        <v>-0.1303208377275913</v>
       </c>
       <c r="ACP2">
-        <v>-0.08677832557091698</v>
+        <v>-0.1348245107602943</v>
       </c>
       <c r="ACQ2">
-        <v>-0.08761814160881988</v>
+        <v>-0.1368212720237328</v>
       </c>
       <c r="ACR2">
-        <v>-0.09208581756471013</v>
+        <v>-0.1462552420106341</v>
       </c>
       <c r="ACS2">
-        <v>-0.09173763769139093</v>
+        <v>-0.1454150991345517</v>
       </c>
       <c r="ACT2">
-        <v>-0.09171816878439741</v>
+        <v>-0.1453955882313489</v>
       </c>
       <c r="ACU2">
-        <v>-0.09063195990954181</v>
+        <v>-0.143408975649491</v>
       </c>
       <c r="ACV2">
-        <v>-0.08944078610936185</v>
+        <v>-0.1415190550761688</v>
       </c>
       <c r="ACW2">
-        <v>-0.08885054213779713</v>
+        <v>-0.1399424184019885</v>
       </c>
       <c r="ACX2">
-        <v>-0.08504167699760298</v>
+        <v>-0.1303238773966382</v>
       </c>
       <c r="ACY2">
-        <v>-0.08678149806590546</v>
+        <v>-0.134837501944221</v>
       </c>
       <c r="ACZ2">
-        <v>-0.08761814160881988</v>
+        <v>-0.1368447507517984</v>
       </c>
       <c r="ADA2">
-        <v>-0.09231868044220806</v>
+        <v>-0.1467257717790083</v>
       </c>
       <c r="ADB2">
-        <v>-0.09175741392651487</v>
+        <v>-0.1454349908757801</v>
       </c>
       <c r="ADC2">
-        <v>-0.09171885045534094</v>
+        <v>-0.1453963424513776</v>
       </c>
       <c r="ADD2">
-        <v>-0.09063297100632706</v>
+        <v>-0.1434099682580775</v>
       </c>
       <c r="ADE2">
-        <v>-0.08944440741146033</v>
+        <v>-0.1415402744451613</v>
       </c>
       <c r="ADF2">
-        <v>-0.08885054213779757</v>
+        <v>-0.1399424184019947</v>
       </c>
       <c r="ADG2">
-        <v>-0.08509342672682808</v>
+        <v>-0.1303498676036688</v>
       </c>
       <c r="ADH2">
-        <v>-0.086787903031667</v>
+        <v>-0.134863730086739</v>
       </c>
       <c r="ADI2">
-        <v>-0.09250064092953329</v>
+        <v>-0.1470934636297434</v>
       </c>
       <c r="ADJ2">
-        <v>-0.09171958533246689</v>
+        <v>-0.145397155540261</v>
       </c>
       <c r="ADK2">
-        <v>-0.09063372126410386</v>
+        <v>-0.1434107047971648</v>
       </c>
       <c r="ADL2">
-        <v>-0.08944681294662618</v>
+        <v>-0.1415543700046831</v>
       </c>
       <c r="ADM2">
-        <v>-0.08885054213779524</v>
+        <v>-0.1399424184019971</v>
       </c>
       <c r="ADN2">
-        <v>-0.08678887146824933</v>
+        <v>-0.1348706153586034</v>
       </c>
       <c r="ADO2">
-        <v>-0.08679353564836155</v>
+        <v>-0.1348693905066753</v>
       </c>
       <c r="ADP2">
-        <v>-0.09266510425828726</v>
+        <v>-0.1474258113845414</v>
       </c>
       <c r="ADQ2">
-        <v>-0.09172024152180584</v>
+        <v>-0.1453978815667703</v>
       </c>
       <c r="ADR2">
-        <v>-0.09063496409791513</v>
+        <v>-0.1434119249053745</v>
       </c>
       <c r="ADS2">
-        <v>-0.08944926120527588</v>
+        <v>-0.141568715985415</v>
       </c>
       <c r="ADT2">
-        <v>-0.08885054213779534</v>
+        <v>-0.1399424184019991</v>
       </c>
       <c r="ADU2">
-        <v>-0.08678971603666977</v>
+        <v>-0.1348766199829452</v>
       </c>
       <c r="ADV2">
-        <v>-0.08680254868447958</v>
+        <v>-0.1348784480323206</v>
       </c>
       <c r="ADW2">
-        <v>-0.09267258009440912</v>
+        <v>-0.147442663715473</v>
       </c>
       <c r="ADX2">
-        <v>-0.09273118098853417</v>
+        <v>-0.1475393175824165</v>
       </c>
       <c r="ADY2">
-        <v>-0.09172096617380693</v>
+        <v>-0.1453986833423379</v>
       </c>
       <c r="ADZ2">
-        <v>-0.0906435906504539</v>
+        <v>-0.1434203937183719</v>
       </c>
       <c r="AEA2">
-        <v>-0.08945043182385909</v>
+        <v>-0.1415755754481617</v>
       </c>
       <c r="AEB2">
-        <v>-0.08885054213779491</v>
+        <v>-0.139942418401999</v>
       </c>
       <c r="AEC2">
-        <v>-0.0867904145334521</v>
+        <v>-0.13488158609309</v>
       </c>
       <c r="AED2">
-        <v>-0.08681024947114548</v>
+        <v>-0.1348861868312227</v>
       </c>
       <c r="AEE2">
-        <v>-0.09268007559613792</v>
+        <v>-0.14745956044978</v>
       </c>
       <c r="AEF2">
-        <v>-0.09280464340863881</v>
+        <v>-0.1476655100389327</v>
       </c>
       <c r="AEG2">
-        <v>-0.09273118098853417</v>
+        <v>-0.1475393175824165</v>
       </c>
       <c r="AEH2">
-        <v>-0.09172143338089472</v>
+        <v>-0.1453992002735531</v>
       </c>
       <c r="AEI2">
-        <v>-0.09066264576184931</v>
+        <v>-0.1434391003981928</v>
       </c>
       <c r="AEJ2">
-        <v>-0.08945229383588504</v>
+        <v>-0.1415864862992703</v>
       </c>
       <c r="AEK2">
-        <v>-0.0888505421377935</v>
+        <v>-0.1399424184019961</v>
       </c>
       <c r="AEL2">
-        <v>-0.08679095771863629</v>
+        <v>-0.1348854479893709</v>
       </c>
       <c r="AEM2">
-        <v>-0.0868146078264887</v>
+        <v>-0.1348905667001188</v>
       </c>
       <c r="AEN2">
-        <v>-0.09268758567169726</v>
+        <v>-0.1474764901098252</v>
       </c>
       <c r="AEO2">
-        <v>-0.09286624008103103</v>
+        <v>-0.1477713208414667</v>
       </c>
       <c r="AEP2">
-        <v>-0.09280464340863881</v>
+        <v>-0.1476655100389327</v>
       </c>
       <c r="AEQ2">
-        <v>-0.09172215097925659</v>
+        <v>-0.1453999942448216</v>
       </c>
       <c r="AER2">
-        <v>-0.08945404185307312</v>
+        <v>-0.1415967292146219</v>
       </c>
       <c r="AES2">
-        <v>-0.08885054213779346</v>
+        <v>-0.1399424184019961</v>
       </c>
       <c r="AET2">
-        <v>-0.0867915101717292</v>
+        <v>-0.1348893757839044</v>
       </c>
       <c r="AEU2">
-        <v>-0.0926950503096992</v>
+        <v>-0.1474933174139139</v>
       </c>
       <c r="AEV2">
-        <v>-0.09293245587345625</v>
+        <v>-0.1478850675099737</v>
       </c>
       <c r="AEW2">
-        <v>-0.09286624008103103</v>
+        <v>-0.1477713208414667</v>
       </c>
       <c r="AEX2">
-        <v>-0.09172805341620971</v>
+        <v>-0.1454065248702509</v>
       </c>
       <c r="AEY2">
-        <v>-0.08945653948140612</v>
+        <v>-0.1416113647205667</v>
       </c>
       <c r="AEZ2">
-        <v>-0.08885054213779346</v>
+        <v>-0.1399424184019961</v>
       </c>
       <c r="AFA2">
-        <v>-0.08679198960290604</v>
+        <v>-0.1348927844169241</v>
       </c>
       <c r="AFB2">
-        <v>-0.09270254334251772</v>
+        <v>-0.1475102087998521</v>
       </c>
       <c r="AFC2">
-        <v>-0.09298682210674709</v>
+        <v>-0.1479784596766066</v>
       </c>
       <c r="AFD2">
-        <v>-0.09293245587345625</v>
+        <v>-0.1478850675099737</v>
       </c>
       <c r="AFE2">
-        <v>-0.09174839600311843</v>
+        <v>-0.145429032505808</v>
       </c>
       <c r="AFF2">
-        <v>-0.08948290381859764</v>
+        <v>-0.1417658583864092</v>
       </c>
       <c r="AFG2">
-        <v>-0.08679233393774911</v>
+        <v>-0.1348952325523936</v>
       </c>
       <c r="AFH2">
-        <v>-0.09271003130892023</v>
+        <v>-0.1475270888370213</v>
       </c>
       <c r="AFI2">
-        <v>-0.09304519096716687</v>
+        <v>-0.1480787285777495</v>
       </c>
       <c r="AFJ2">
-        <v>-0.09298682210674708</v>
+        <v>-0.1479784596766066</v>
       </c>
       <c r="AFK2">
-        <v>-0.08949344897791799</v>
+        <v>-0.1418276550080225</v>
       </c>
       <c r="AFL2">
-        <v>-0.08679273371120091</v>
+        <v>-0.1348980748455987</v>
       </c>
       <c r="AFM2">
-        <v>-0.09271752402881225</v>
+        <v>-0.1475439796623244</v>
       </c>
       <c r="AFN2">
-        <v>-0.09317541071615497</v>
+        <v>-0.1483024243780321</v>
       </c>
       <c r="AFO2">
-        <v>-0.09304519096716396</v>
+        <v>-0.1480787285777208</v>
       </c>
       <c r="AFP2">
-        <v>-0.09304519096716687</v>
+        <v>-0.1480787285777495</v>
       </c>
       <c r="AFQ2">
-        <v>-0.08949880381064641</v>
+        <v>-0.1418590358903452</v>
       </c>
       <c r="AFR2">
-        <v>-0.08679333597541897</v>
+        <v>-0.1349023568055092</v>
       </c>
       <c r="AFS2">
-        <v>-0.09272118147185388</v>
+        <v>-0.147552224656058</v>
       </c>
       <c r="AFT2">
-        <v>-0.09319446298036201</v>
+        <v>-0.1483351538938702</v>
       </c>
       <c r="AFU2">
-        <v>-0.09304519096716164</v>
+        <v>-0.1480787285776922</v>
       </c>
       <c r="AFV2">
-        <v>-0.09304519096716396</v>
+        <v>-0.1480787285777208</v>
       </c>
       <c r="AFW2">
-        <v>-0.08949998873317924</v>
+        <v>-0.1418659799324809</v>
       </c>
       <c r="AFX2">
-        <v>-0.08679431995403186</v>
+        <v>-0.1349093526823361</v>
       </c>
       <c r="AFY2">
-        <v>-0.09280338462771062</v>
+        <v>-0.1477375402294473</v>
       </c>
       <c r="AFZ2">
-        <v>-0.0932481385149139</v>
+        <v>-0.1484273632978077</v>
       </c>
       <c r="AGA2">
-        <v>-0.09304519096715472</v>
+        <v>-0.1480787285776463</v>
       </c>
       <c r="AGB2">
-        <v>-0.09304519096716164</v>
+        <v>-0.1480787285776922</v>
       </c>
       <c r="AGC2">
-        <v>-0.08950092191822367</v>
+        <v>-0.1418714487216274</v>
       </c>
       <c r="AGD2">
-        <v>-0.08679431995403186</v>
+        <v>-0.1349325769076229</v>
       </c>
       <c r="AGE2">
-        <v>-0.08681534499625657</v>
+        <v>-0.1349969962919156</v>
       </c>
       <c r="AGF2">
-        <v>-0.09285684142723931</v>
+        <v>-0.1478580558210168</v>
       </c>
       <c r="AGG2">
-        <v>-0.0933111689566448</v>
+        <v>-0.1485356458731306</v>
       </c>
       <c r="AGH2">
-        <v>-0.09304519096715182</v>
+        <v>-0.1480787285776317</v>
       </c>
       <c r="AGI2">
-        <v>-0.09304519096715472</v>
+        <v>-0.1480787285776463</v>
       </c>
       <c r="AGJ2">
-        <v>-0.08950192176533568</v>
+        <v>-0.1418773081862387</v>
       </c>
       <c r="AGK2">
-        <v>-0.09290359582641047</v>
+        <v>-0.1479634642195425</v>
       </c>
       <c r="AGL2">
-        <v>-0.09331934551635059</v>
+        <v>-0.1485496929049581</v>
       </c>
       <c r="AGM2">
-        <v>-0.09304519096714817</v>
+        <v>-0.1480787285776226</v>
       </c>
       <c r="AGN2">
-        <v>-0.09304519096715182</v>
+        <v>-0.1480787285776317</v>
       </c>
       <c r="AGO2">
-        <v>-0.08950272171639384</v>
+        <v>-0.1418819961972453</v>
       </c>
       <c r="AGP2">
-        <v>-0.09295263918599882</v>
+        <v>-0.1480740361395793</v>
       </c>
       <c r="AGQ2">
-        <v>-0.09332756749909639</v>
+        <v>-0.1485538295323005</v>
       </c>
       <c r="AGR2">
-        <v>-0.09332391875795119</v>
+        <v>-0.1485797729673433</v>
       </c>
       <c r="AGS2">
-        <v>-0.09304519096714671</v>
+        <v>-0.1480787285776186</v>
       </c>
       <c r="AGT2">
-        <v>-0.09304519096714817</v>
+        <v>-0.1480787285776226</v>
       </c>
       <c r="AGU2">
-        <v>-0.08950349843634062</v>
+        <v>-0.1418865480732478</v>
       </c>
       <c r="AGV2">
-        <v>-0.09303638245047596</v>
+        <v>-0.1482628487622075</v>
       </c>
       <c r="AGW2">
-        <v>-0.09333517555056998</v>
+        <v>-0.1485576572720098</v>
       </c>
       <c r="AGX2">
-        <v>-0.09333462141706325</v>
+        <v>-0.1486501702391921</v>
       </c>
       <c r="AGY2">
-        <v>-0.09304519096714674</v>
+        <v>-0.1480787285776186</v>
       </c>
       <c r="AGZ2">
-        <v>-0.09304519096714671</v>
+        <v>-0.1480787285776186</v>
       </c>
       <c r="AHA2">
-        <v>-0.08950427318649479</v>
+        <v>-0.1418910884133154</v>
       </c>
       <c r="AHB2">
-        <v>-0.09305692335580112</v>
+        <v>-0.1483091629100172</v>
       </c>
       <c r="AHC2">
-        <v>-0.09334674431731051</v>
+        <v>-0.1485634777004157</v>
       </c>
       <c r="AHD2">
-        <v>-0.09336001156143332</v>
+        <v>-0.148817183850833</v>
       </c>
       <c r="AHE2">
-        <v>-0.08950503887230209</v>
+        <v>-0.1418955756404095</v>
       </c>
       <c r="AHF2">
-        <v>-0.09306390883934726</v>
+        <v>-0.1483444821961064</v>
       </c>
       <c r="AHG2">
-        <v>-0.09313998514655165</v>
+        <v>-0.148392748298869</v>
       </c>
       <c r="AHH2">
-        <v>-0.09336136417436873</v>
+        <v>-0.1485708331556165</v>
       </c>
       <c r="AHI2">
-        <v>-0.08951873097060822</v>
+        <v>-0.1419758181347107</v>
       </c>
       <c r="AHJ2">
-        <v>-0.09307537847879951</v>
+        <v>-0.1484024748017532</v>
       </c>
       <c r="AHK2">
-        <v>-0.09321043450019217</v>
+        <v>-0.1484636417564034</v>
       </c>
       <c r="AHL2">
-        <v>-0.09341828004564617</v>
+        <v>-0.1485994680662369</v>
       </c>
       <c r="AHM2">
-        <v>-0.08955136401114695</v>
+        <v>-0.1420910912604809</v>
       </c>
       <c r="AHN2">
-        <v>-0.08953654192749746</v>
+        <v>-0.1421227101853207</v>
       </c>
       <c r="AHO2">
-        <v>-0.09307764628532722</v>
+        <v>-0.1484139413941793</v>
       </c>
       <c r="AHP2">
-        <v>-0.09332884907986452</v>
+        <v>-0.148582802829564</v>
       </c>
       <c r="AHQ2">
-        <v>-0.09352167574247636</v>
+        <v>-0.1486514863450208</v>
       </c>
       <c r="AHR2">
-        <v>-0.08957303635037704</v>
+        <v>-0.1421676491475678</v>
       </c>
       <c r="AHS2">
-        <v>-0.09307956253483121</v>
+        <v>-0.148423630464572</v>
       </c>
       <c r="AHT2">
-        <v>-0.09308117735321252</v>
+        <v>-0.1484317954451934</v>
       </c>
       <c r="AHU2">
-        <v>-0.09308327796443468</v>
+        <v>-0.1484424167689667</v>
       </c>
       <c r="AHV2">
-        <v>-0.09308707974869213</v>
+        <v>-0.1484616398415396</v>
       </c>
       <c r="AHW2">
-        <v>-0.09309367137740017</v>
+        <v>-0.1484949696063731</v>
       </c>
       <c r="AHX2">
-        <v>-0.09314766449593045</v>
+        <v>-0.1487679945111263</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.07513254720066583</v>
+        <v>-0.08661412705499728</v>
       </c>
       <c r="D3">
-        <v>-0.07580524735005786</v>
+        <v>-0.08738821383140569</v>
       </c>
       <c r="E3">
-        <v>-0.07587577637398664</v>
+        <v>-0.08746937372079096</v>
       </c>
       <c r="F3">
-        <v>-0.07594185199479554</v>
+        <v>-0.08754540911931138</v>
       </c>
       <c r="G3">
-        <v>-0.07599946123733313</v>
+        <v>-0.08761170211522011</v>
       </c>
       <c r="H3">
-        <v>-0.07609021990525996</v>
+        <v>-0.0877161415906355</v>
       </c>
       <c r="I3">
-        <v>-0.08227475350022934</v>
+        <v>-0.0948336752054468</v>
       </c>
       <c r="J3">
-        <v>-0.08255194687248586</v>
+        <v>-0.09515272082598945</v>
       </c>
       <c r="K3">
-        <v>-0.08278267304400001</v>
+        <v>-0.09541828563781156</v>
       </c>
       <c r="L3">
-        <v>-0.08298516333873994</v>
+        <v>-0.0956513527837286</v>
       </c>
       <c r="M3">
-        <v>-0.08313626527290879</v>
+        <v>-0.09582527275751042</v>
       </c>
       <c r="N3">
-        <v>-0.08327811739213897</v>
+        <v>-0.09598854690090107</v>
       </c>
       <c r="O3">
-        <v>-0.08336534569690565</v>
+        <v>-0.09608894851558678</v>
       </c>
       <c r="P3">
-        <v>-0.08358251237923149</v>
+        <v>-0.09633891322212498</v>
       </c>
       <c r="Q3">
-        <v>-0.08534212759613231</v>
+        <v>-0.0983643453689594</v>
       </c>
       <c r="R3">
-        <v>-0.08534212759612926</v>
+        <v>-0.09836434536896205</v>
       </c>
       <c r="S3">
-        <v>-0.08747687817349757</v>
+        <v>-0.1008217443930527</v>
       </c>
       <c r="T3">
-        <v>-0.0853421275961285</v>
+        <v>-0.09836434536896299</v>
       </c>
       <c r="U3">
-        <v>-0.08762379898225535</v>
+        <v>-0.1009908774820378</v>
       </c>
       <c r="V3">
-        <v>-0.08534212759612834</v>
+        <v>-0.09836434536896357</v>
       </c>
       <c r="W3">
-        <v>-0.08778877957356489</v>
+        <v>-0.1011808017289566</v>
       </c>
       <c r="X3">
-        <v>-0.08534212759612804</v>
+        <v>-0.09836434536896395</v>
       </c>
       <c r="Y3">
-        <v>-0.08805741419744199</v>
+        <v>-0.1014900538762568</v>
       </c>
       <c r="Z3">
-        <v>-0.0853421275961276</v>
+        <v>-0.09836434536896461</v>
       </c>
       <c r="AA3">
-        <v>-0.0885461664108054</v>
+        <v>-0.1020527125609408</v>
       </c>
       <c r="AB3">
-        <v>-0.08534212759612719</v>
+        <v>-0.09836434536896557</v>
       </c>
       <c r="AC3">
-        <v>-0.08886081806033801</v>
+        <v>-0.1022486588316277</v>
       </c>
       <c r="AD3">
-        <v>-0.09424617529359899</v>
+        <v>-0.1088421577656609</v>
       </c>
       <c r="AE3">
-        <v>-0.08534212759612679</v>
+        <v>-0.09836434536896554</v>
       </c>
       <c r="AF3">
-        <v>-0.08893334472044374</v>
+        <v>-0.1022663558471916</v>
       </c>
       <c r="AG3">
-        <v>-0.08887460573375526</v>
+        <v>-0.1022840054898262</v>
       </c>
       <c r="AH3">
-        <v>-0.09576481597428224</v>
+        <v>-0.1106513322457523</v>
       </c>
       <c r="AI3">
-        <v>-0.08534212759612506</v>
+        <v>-0.0983643453689657</v>
       </c>
       <c r="AJ3">
-        <v>-0.08909944493376291</v>
+        <v>-0.1023068838007121</v>
       </c>
       <c r="AK3">
-        <v>-0.08887507265602333</v>
+        <v>-0.1022852025174336</v>
       </c>
       <c r="AL3">
-        <v>-0.09584277884821769</v>
+        <v>-0.1107621292763371</v>
       </c>
       <c r="AM3">
-        <v>-0.1002716523089872</v>
+        <v>-0.116000788743513</v>
       </c>
       <c r="AN3">
-        <v>-0.08534212759612321</v>
+        <v>-0.09836434536896577</v>
       </c>
       <c r="AO3">
-        <v>-0.08887574400597359</v>
+        <v>-0.1022869236277868</v>
       </c>
       <c r="AP3">
-        <v>-0.09584386812723464</v>
+        <v>-0.1107653997942074</v>
       </c>
       <c r="AQ3">
-        <v>-0.0958624526502488</v>
+        <v>-0.1107823114158263</v>
       </c>
       <c r="AR3">
-        <v>-0.1034017282970654</v>
+        <v>-0.1197166687168107</v>
       </c>
       <c r="AS3">
-        <v>-0.1002716523089624</v>
+        <v>-0.1160007887434884</v>
       </c>
       <c r="AT3">
-        <v>-0.0853421275961231</v>
+        <v>-0.09836434536896603</v>
       </c>
       <c r="AU3">
-        <v>-0.08887660496676374</v>
+        <v>-0.1022891308363161</v>
       </c>
       <c r="AV3">
-        <v>-0.09584435909806023</v>
+        <v>-0.1107668739160736</v>
       </c>
       <c r="AW3">
-        <v>-0.0959097922673131</v>
+        <v>-0.1108308742269536</v>
       </c>
       <c r="AX3">
-        <v>-0.105768423572222</v>
+        <v>-0.1225266197457787</v>
       </c>
       <c r="AY3">
-        <v>-0.1002716523089491</v>
+        <v>-0.1160007887434727</v>
       </c>
       <c r="AZ3">
-        <v>-0.08534212759612327</v>
+        <v>-0.09836434536896629</v>
       </c>
       <c r="BA3">
-        <v>-0.08887870179548463</v>
+        <v>-0.1022945063925297</v>
       </c>
       <c r="BB3">
-        <v>-0.09584487942215038</v>
+        <v>-0.1107684361707643</v>
       </c>
       <c r="BC3">
-        <v>-0.1061097550604672</v>
+        <v>-0.1229319016412226</v>
       </c>
       <c r="BD3">
-        <v>-0.1057684235721625</v>
+        <v>-0.1225266197457495</v>
       </c>
       <c r="BE3">
-        <v>-0.1002716523089309</v>
+        <v>-0.1160007887434597</v>
       </c>
       <c r="BF3">
-        <v>-0.08534212759612443</v>
+        <v>-0.09836434536896678</v>
       </c>
       <c r="BG3">
-        <v>-0.08888049706529877</v>
+        <v>-0.1022991088605764</v>
       </c>
       <c r="BH3">
-        <v>-0.09584537499495274</v>
+        <v>-0.1107699241112791</v>
       </c>
       <c r="BI3">
-        <v>-0.1076562177137892</v>
+        <v>-0.1247681749639386</v>
       </c>
       <c r="BJ3">
-        <v>-0.1057684235721591</v>
+        <v>-0.1225266197457443</v>
       </c>
       <c r="BK3">
-        <v>-0.1002716523089188</v>
+        <v>-0.1160007887434515</v>
       </c>
       <c r="BL3">
-        <v>-0.08534212759612532</v>
+        <v>-0.09836434536896672</v>
       </c>
       <c r="BM3">
-        <v>-0.08888910296550157</v>
+        <v>-0.102321171576346</v>
       </c>
       <c r="BN3">
-        <v>-0.09584567179409755</v>
+        <v>-0.1107708152409592</v>
       </c>
       <c r="BO3">
-        <v>-0.1079656273742038</v>
+        <v>-0.1251339959280031</v>
       </c>
       <c r="BP3">
-        <v>-0.1077486538900283</v>
+        <v>-0.1249070104798282</v>
       </c>
       <c r="BQ3">
-        <v>-0.1057684235721545</v>
+        <v>-0.1225266197457391</v>
       </c>
       <c r="BR3">
-        <v>-0.1002716523089056</v>
+        <v>-0.1160007887434407</v>
       </c>
       <c r="BS3">
-        <v>-0.08534212759612546</v>
+        <v>-0.0983643453689662</v>
       </c>
       <c r="BT3">
-        <v>-0.08891952214330641</v>
+        <v>-0.1023991574929044</v>
       </c>
       <c r="BU3">
-        <v>-0.09584625409234264</v>
+        <v>-0.1107725635730217</v>
       </c>
       <c r="BV3">
-        <v>-0.1116227850709917</v>
+        <v>-0.129458270381522</v>
       </c>
       <c r="BW3">
-        <v>-0.1077706945383462</v>
+        <v>-0.1249296319261044</v>
       </c>
       <c r="BX3">
-        <v>-0.107771796589724</v>
+        <v>-0.124952253604307</v>
       </c>
       <c r="BY3">
-        <v>-0.1057684235721383</v>
+        <v>-0.1225266197457277</v>
       </c>
       <c r="BZ3">
-        <v>-0.100271652308868</v>
+        <v>-0.1160007887434144</v>
       </c>
       <c r="CA3">
-        <v>-0.08534212759612453</v>
+        <v>-0.09836434536896296</v>
       </c>
       <c r="CB3">
-        <v>-0.09584920520453928</v>
+        <v>-0.1107814242083489</v>
       </c>
       <c r="CC3">
-        <v>-0.1128982683534319</v>
+        <v>-0.1309665701383897</v>
       </c>
       <c r="CD3">
-        <v>-0.1057684235721285</v>
+        <v>-0.1225266197457193</v>
       </c>
       <c r="CE3">
-        <v>-0.1002716523087566</v>
+        <v>-0.1160007887433421</v>
       </c>
       <c r="CF3">
-        <v>-0.08534212759612304</v>
+        <v>-0.09836434536895897</v>
       </c>
       <c r="CG3">
-        <v>-0.09586032568869558</v>
+        <v>-0.1108148133787892</v>
       </c>
       <c r="CH3">
-        <v>-0.1131766681853764</v>
+        <v>-0.1312957971869148</v>
       </c>
       <c r="CI3">
-        <v>-0.1057684235721257</v>
+        <v>-0.1225266197457161</v>
       </c>
       <c r="CJ3">
-        <v>-0.1002716523085443</v>
+        <v>-0.1160007887432056</v>
       </c>
       <c r="CK3">
-        <v>-0.08534212759612236</v>
+        <v>-0.09836434536895707</v>
       </c>
       <c r="CL3">
-        <v>-0.1137412715133303</v>
+        <v>-0.1319634910410177</v>
       </c>
       <c r="CM3">
-        <v>-0.1057684235721257</v>
+        <v>-0.1225266197457161</v>
       </c>
       <c r="CN3">
-        <v>-0.1002716523084926</v>
+        <v>-0.1160007887431752</v>
       </c>
       <c r="CO3">
-        <v>-0.08534212759612195</v>
+        <v>-0.0983643453689567</v>
       </c>
       <c r="CP3">
-        <v>-0.1142737829876946</v>
+        <v>-0.1325932473872334</v>
       </c>
       <c r="CQ3">
-        <v>-0.1002716523084828</v>
+        <v>-0.1160007887431687</v>
       </c>
       <c r="CR3">
-        <v>-0.08534212759612159</v>
+        <v>-0.0983643453689562</v>
       </c>
       <c r="CS3">
-        <v>-0.1145833272599546</v>
+        <v>-0.1329593254897692</v>
       </c>
       <c r="CT3">
-        <v>-0.1002716523084731</v>
+        <v>-0.1160007887431634</v>
       </c>
       <c r="CU3">
-        <v>-0.08534212759612139</v>
+        <v>-0.09836434536895616</v>
       </c>
       <c r="CV3">
-        <v>-0.1147877696974101</v>
+        <v>-0.1332011089255404</v>
       </c>
       <c r="CW3">
-        <v>-0.1002716523084721</v>
+        <v>-0.1160007887431639</v>
       </c>
       <c r="CX3">
-        <v>-0.08534212759612191</v>
+        <v>-0.09836434536895648</v>
       </c>
       <c r="CY3">
-        <v>-0.1150700627939388</v>
+        <v>-0.1335349655729097</v>
       </c>
       <c r="CZ3">
-        <v>-0.100271652309192</v>
+        <v>-0.1160007887434339</v>
       </c>
       <c r="DA3">
-        <v>-0.08534212759612191</v>
+        <v>-0.09836434536895648</v>
       </c>
       <c r="DB3">
-        <v>-0.1150970437201838</v>
+        <v>-0.1335606109621903</v>
       </c>
       <c r="DC3">
-        <v>-0.1152234009627816</v>
+        <v>-0.1337239896154257</v>
       </c>
       <c r="DD3">
-        <v>-0.1002716523092192</v>
+        <v>-0.116000788743449</v>
       </c>
       <c r="DE3">
-        <v>-0.1151296869639479</v>
+        <v>-0.1335916383861354</v>
       </c>
       <c r="DF3">
-        <v>-0.1153103536066922</v>
+        <v>-0.1338311791176439</v>
       </c>
       <c r="DG3">
-        <v>-0.1002716523092762</v>
+        <v>-0.1160007887434883</v>
       </c>
       <c r="DH3">
-        <v>-0.1151675228730692</v>
+        <v>-0.1336276014389156</v>
       </c>
       <c r="DI3">
-        <v>-0.1187426010701592</v>
+        <v>-0.1380626116852062</v>
       </c>
       <c r="DJ3">
-        <v>-0.1002716523106236</v>
+        <v>-0.1160007887445497</v>
       </c>
       <c r="DK3">
-        <v>-0.1152252115373485</v>
+        <v>-0.1336824345406082</v>
       </c>
       <c r="DL3">
-        <v>-0.1190865803526199</v>
+        <v>-0.1384867264211894</v>
       </c>
       <c r="DM3">
-        <v>-0.1002716523118205</v>
+        <v>-0.1160007887454952</v>
       </c>
       <c r="DN3">
-        <v>-0.11529937835406</v>
+        <v>-0.1337529301231082</v>
       </c>
       <c r="DO3">
-        <v>-0.1191223248327072</v>
+        <v>-0.1385295120730819</v>
       </c>
       <c r="DP3">
-        <v>-0.1206774767866296</v>
+        <v>-0.1404538126992537</v>
       </c>
       <c r="DQ3">
-        <v>-0.100271652311933</v>
+        <v>-0.1160007887455773</v>
       </c>
       <c r="DR3">
-        <v>-0.1153526231962806</v>
+        <v>-0.1338035393549591</v>
       </c>
       <c r="DS3">
-        <v>-0.1191223248327092</v>
+        <v>-0.13852951207308</v>
       </c>
       <c r="DT3">
-        <v>-0.119139728625374</v>
+        <v>-0.1385503441789713</v>
       </c>
       <c r="DU3">
-        <v>-0.1235472919359295</v>
+        <v>-0.1440024825721886</v>
       </c>
       <c r="DV3">
-        <v>-0.1002716523120177</v>
+        <v>-0.1160007887456371</v>
       </c>
       <c r="DW3">
-        <v>-0.1154278579865363</v>
+        <v>-0.1338750500258013</v>
       </c>
       <c r="DX3">
-        <v>-0.1191223248327107</v>
+        <v>-0.1385295120730785</v>
       </c>
       <c r="DY3">
-        <v>-0.1192214859992403</v>
+        <v>-0.1386482067005647</v>
       </c>
       <c r="DZ3">
-        <v>-0.1248381992083647</v>
+        <v>-0.1455988573926421</v>
       </c>
       <c r="EA3">
-        <v>-0.1002716523120894</v>
+        <v>-0.1160007887456867</v>
       </c>
       <c r="EB3">
-        <v>-0.1155092569127963</v>
+        <v>-0.1339524196943429</v>
       </c>
       <c r="EC3">
-        <v>-0.1191223248327113</v>
+        <v>-0.138529512073077</v>
       </c>
       <c r="ED3">
-        <v>-0.1192748229536965</v>
+        <v>-0.1386901150605024</v>
       </c>
       <c r="EE3">
-        <v>-0.1193767058247578</v>
+        <v>-0.1388656114202386</v>
       </c>
       <c r="EF3">
-        <v>-0.1252223218323544</v>
+        <v>-0.1460738873946039</v>
       </c>
       <c r="EG3">
-        <v>-0.100271652312307</v>
+        <v>-0.1160007887458124</v>
       </c>
       <c r="EH3">
-        <v>-0.1155860229296513</v>
+        <v>-0.1340253857699644</v>
       </c>
       <c r="EI3">
-        <v>-0.1191223248327124</v>
+        <v>-0.1385295120730753</v>
       </c>
       <c r="EJ3">
-        <v>-0.1192794163686941</v>
+        <v>-0.1386937242269057</v>
       </c>
       <c r="EK3">
-        <v>-0.1194921818590878</v>
+        <v>-0.1390273504084566</v>
       </c>
       <c r="EL3">
-        <v>-0.1256559435408055</v>
+        <v>-0.1466101378831198</v>
       </c>
       <c r="EM3">
-        <v>-0.1002716523124595</v>
+        <v>-0.1160007887459042</v>
       </c>
       <c r="EN3">
-        <v>-0.1157122390995916</v>
+        <v>-0.1341453541732905</v>
       </c>
       <c r="EO3">
-        <v>-0.1191223248327137</v>
+        <v>-0.1385295120730726</v>
       </c>
       <c r="EP3">
-        <v>-0.1192839233907497</v>
+        <v>-0.1386972655105376</v>
       </c>
       <c r="EQ3">
-        <v>-0.1195695136503235</v>
+        <v>-0.1391356636872758</v>
       </c>
       <c r="ER3">
-        <v>-0.1260637793564265</v>
+        <v>-0.1471145061323096</v>
       </c>
       <c r="ES3">
-        <v>-0.1002716523124796</v>
+        <v>-0.1160007887459139</v>
       </c>
       <c r="ET3">
-        <v>-0.1163123794236565</v>
+        <v>-0.134715786764651</v>
       </c>
       <c r="EU3">
-        <v>-0.1191223248327149</v>
+        <v>-0.1385295120730706</v>
       </c>
       <c r="EV3">
-        <v>-0.1192875626269199</v>
+        <v>-0.1387001249512479</v>
       </c>
       <c r="EW3">
-        <v>-0.1196159992840538</v>
+        <v>-0.1392130331398859</v>
       </c>
       <c r="EX3">
-        <v>-0.1196270954750379</v>
+        <v>-0.1391933498868883</v>
       </c>
       <c r="EY3">
-        <v>-0.1265396734763734</v>
+        <v>-0.1477030498035092</v>
       </c>
       <c r="EZ3">
-        <v>-0.1002716523124803</v>
+        <v>-0.1160007887459178</v>
       </c>
       <c r="FA3">
-        <v>-0.1164431190614368</v>
+        <v>-0.1348400545155623</v>
       </c>
       <c r="FB3">
-        <v>-0.1191223248327159</v>
+        <v>-0.1385295120730683</v>
       </c>
       <c r="FC3">
-        <v>-0.1192930248425973</v>
+        <v>-0.138704416751562</v>
       </c>
       <c r="FD3">
-        <v>-0.1197392824294249</v>
+        <v>-0.1394182228612172</v>
       </c>
       <c r="FE3">
-        <v>-0.1196306003238284</v>
+        <v>-0.1391968610887844</v>
       </c>
       <c r="FF3">
-        <v>-0.1266766150449514</v>
+        <v>-0.1478724086156817</v>
       </c>
       <c r="FG3">
-        <v>-0.1002716523124784</v>
+        <v>-0.1160007887459182</v>
       </c>
       <c r="FH3">
-        <v>-0.1165747749262164</v>
+        <v>-0.1348730202454643</v>
       </c>
       <c r="FI3">
-        <v>-0.1168921170362099</v>
+        <v>-0.1352986448465342</v>
       </c>
       <c r="FJ3">
-        <v>-0.1191223248327157</v>
+        <v>-0.1385295120730662</v>
       </c>
       <c r="FK3">
-        <v>-0.1192996101719952</v>
+        <v>-0.1387095910075461</v>
       </c>
       <c r="FL3">
-        <v>-0.1197821055656995</v>
+        <v>-0.1394894969164591</v>
       </c>
       <c r="FM3">
-        <v>-0.1196338021937355</v>
+        <v>-0.1392000687626065</v>
       </c>
       <c r="FN3">
-        <v>-0.1274546487502337</v>
+        <v>-0.1488346346476901</v>
       </c>
       <c r="FO3">
-        <v>-0.1002716523124784</v>
+        <v>-0.1160007887459182</v>
       </c>
       <c r="FP3">
-        <v>-0.1165996478324066</v>
+        <v>-0.1348792480840736</v>
       </c>
       <c r="FQ3">
-        <v>-0.1174882236489023</v>
+        <v>-0.1359074869453117</v>
       </c>
       <c r="FR3">
-        <v>-0.1191223248327145</v>
+        <v>-0.1385295120730644</v>
       </c>
       <c r="FS3">
-        <v>-0.1193045852649535</v>
+        <v>-0.1387135000587734</v>
       </c>
       <c r="FT3">
-        <v>-0.1197821055653248</v>
+        <v>-0.139489496916177</v>
       </c>
       <c r="FU3">
-        <v>-0.1198534528344177</v>
+        <v>-0.1396082422655363</v>
       </c>
       <c r="FV3">
-        <v>-0.1196351322958441</v>
+        <v>-0.1392014012757458</v>
       </c>
       <c r="FW3">
-        <v>-0.1278941219565239</v>
+        <v>-0.1493781594028679</v>
       </c>
       <c r="FX3">
-        <v>-0.1166509665417424</v>
+        <v>-0.1348920974253561</v>
       </c>
       <c r="FY3">
-        <v>-0.1175682495940388</v>
+        <v>-0.1359914884243617</v>
       </c>
       <c r="FZ3">
-        <v>-0.1175427118209653</v>
+        <v>-0.1359570855158213</v>
       </c>
       <c r="GA3">
-        <v>-0.1191223248327132</v>
+        <v>-0.1385295120730626</v>
       </c>
       <c r="GB3">
-        <v>-0.1193103423276402</v>
+        <v>-0.1387180235202131</v>
       </c>
       <c r="GC3">
-        <v>-0.1197821055652744</v>
+        <v>-0.1394894969161375</v>
       </c>
       <c r="GD3">
-        <v>-0.1198611585464578</v>
+        <v>-0.1396210672614255</v>
       </c>
       <c r="GE3">
-        <v>-0.1196379993179786</v>
+        <v>-0.1392042734948391</v>
       </c>
       <c r="GF3">
-        <v>-0.1282203714011909</v>
+        <v>-0.1497816578688611</v>
       </c>
       <c r="GG3">
-        <v>-0.1178831760006869</v>
+        <v>-0.1363220599140451</v>
       </c>
       <c r="GH3">
-        <v>-0.1177682412165971</v>
+        <v>-0.1361623754179266</v>
       </c>
       <c r="GI3">
-        <v>-0.1191223248327127</v>
+        <v>-0.1385295120730619</v>
       </c>
       <c r="GJ3">
-        <v>-0.1193157554659201</v>
+        <v>-0.1387222767497259</v>
       </c>
       <c r="GK3">
-        <v>-0.1197821055652773</v>
+        <v>-0.1394894969161376</v>
       </c>
       <c r="GL3">
-        <v>-0.1197821055652449</v>
+        <v>-0.1394894969161228</v>
       </c>
       <c r="GM3">
-        <v>-0.1198686121163238</v>
+        <v>-0.1396334726331797</v>
       </c>
       <c r="GN3">
-        <v>-0.1196453016057444</v>
+        <v>-0.1392115890192556</v>
       </c>
       <c r="GO3">
-        <v>-0.1285136967622524</v>
+        <v>-0.1501444400204259</v>
       </c>
       <c r="GP3">
-        <v>-0.1184454732613137</v>
+        <v>-0.1369122918717051</v>
       </c>
       <c r="GQ3">
-        <v>-0.1178068292061177</v>
+        <v>-0.1361859942320901</v>
       </c>
       <c r="GR3">
-        <v>-0.1177714161355493</v>
+        <v>-0.1361719152724266</v>
       </c>
       <c r="GS3">
-        <v>-0.1191223248327128</v>
+        <v>-0.1385295120730617</v>
       </c>
       <c r="GT3">
-        <v>-0.1193215796992498</v>
+        <v>-0.1387268529837316</v>
       </c>
       <c r="GU3">
-        <v>-0.1197821055652773</v>
+        <v>-0.1394894969161376</v>
       </c>
       <c r="GV3">
-        <v>-0.1197821055652306</v>
+        <v>-0.1394894969161094</v>
       </c>
       <c r="GW3">
-        <v>-0.1198745742435138</v>
+        <v>-0.1396433957379394</v>
       </c>
       <c r="GX3">
-        <v>-0.1196495858325016</v>
+        <v>-0.1392158810119284</v>
       </c>
       <c r="GY3">
-        <v>-0.1288781058221916</v>
+        <v>-0.1505951424649578</v>
       </c>
       <c r="GZ3">
-        <v>-0.1186479793836239</v>
+        <v>-0.137058184962767</v>
       </c>
       <c r="HA3">
-        <v>-0.118487954580244</v>
+        <v>-0.1369905491590009</v>
       </c>
       <c r="HB3">
-        <v>-0.1179043922118113</v>
+        <v>-0.1362457095676081</v>
       </c>
       <c r="HC3">
-        <v>-0.1177718649138712</v>
+        <v>-0.1361732637436956</v>
       </c>
       <c r="HD3">
-        <v>-0.1191223248327131</v>
+        <v>-0.1385295120730616</v>
       </c>
       <c r="HE3">
-        <v>-0.1193304832338582</v>
+        <v>-0.1387338486904991</v>
       </c>
       <c r="HF3">
-        <v>-0.1197821055652216</v>
+        <v>-0.1394894969160982</v>
       </c>
       <c r="HG3">
-        <v>-0.1198793235595147</v>
+        <v>-0.1396513003054218</v>
       </c>
       <c r="HH3">
-        <v>-0.1196525865243283</v>
+        <v>-0.1392188871430467</v>
       </c>
       <c r="HI3">
-        <v>-0.1295506077843799</v>
+        <v>-0.15142690876071</v>
       </c>
       <c r="HJ3">
-        <v>-0.1193109397957995</v>
+        <v>-0.1375357804216066</v>
       </c>
       <c r="HK3">
-        <v>-0.1185646263007945</v>
+        <v>-0.1371317908829125</v>
       </c>
       <c r="HL3">
-        <v>-0.1177722268409585</v>
+        <v>-0.1361743512482322</v>
       </c>
       <c r="HM3">
-        <v>-0.119122324832713</v>
+        <v>-0.1385295120730616</v>
       </c>
       <c r="HN3">
-        <v>-0.1193547980159331</v>
+        <v>-0.1387529533289241</v>
       </c>
       <c r="HO3">
-        <v>-0.1197821055652016</v>
+        <v>-0.1394894969160859</v>
       </c>
       <c r="HP3">
-        <v>-0.1198893644081695</v>
+        <v>-0.1396680119210867</v>
       </c>
       <c r="HQ3">
-        <v>-0.1196583586593093</v>
+        <v>-0.139224669741083</v>
       </c>
       <c r="HR3">
-        <v>-0.1301369712413188</v>
+        <v>-0.1521521511418104</v>
       </c>
       <c r="HS3">
-        <v>-0.119596792827349</v>
+        <v>-0.1377416959560793</v>
       </c>
       <c r="HT3">
-        <v>-0.1185920024511114</v>
+        <v>-0.1371822222862247</v>
       </c>
       <c r="HU3">
-        <v>-0.1177725160743086</v>
+        <v>-0.136175220325693</v>
       </c>
       <c r="HV3">
-        <v>-0.1193568711850565</v>
+        <v>-0.1387545822596412</v>
       </c>
       <c r="HW3">
-        <v>-0.1197821055651862</v>
+        <v>-0.139489496916082</v>
       </c>
       <c r="HX3">
-        <v>-0.1198972718482554</v>
+        <v>-0.1396811728065429</v>
       </c>
       <c r="HY3">
-        <v>-0.1196612316591496</v>
+        <v>-0.1392275479487747</v>
       </c>
       <c r="HZ3">
-        <v>-0.1305358688274471</v>
+        <v>-0.1526455343356692</v>
       </c>
       <c r="IA3">
-        <v>-0.1189002556142098</v>
+        <v>-0.1377500577411345</v>
       </c>
       <c r="IB3">
-        <v>-0.1185920024511114</v>
+        <v>-0.1371822222862247</v>
       </c>
       <c r="IC3">
-        <v>-0.1177729575918612</v>
+        <v>-0.136176546981418</v>
       </c>
       <c r="ID3">
-        <v>-0.11935782876311</v>
+        <v>-0.1387553346478847</v>
       </c>
       <c r="IE3">
-        <v>-0.1197821055651669</v>
+        <v>-0.1394894969160803</v>
       </c>
       <c r="IF3">
-        <v>-0.1199027568595668</v>
+        <v>-0.1396903018990633</v>
       </c>
       <c r="IG3">
-        <v>-0.1196632716687281</v>
+        <v>-0.1392295916562601</v>
       </c>
       <c r="IH3">
-        <v>-0.1307979217416233</v>
+        <v>-0.1529696622306565</v>
       </c>
       <c r="II3">
-        <v>-0.1189450243281896</v>
+        <v>-0.1378325321167972</v>
       </c>
       <c r="IJ3">
-        <v>-0.1177734751395071</v>
+        <v>-0.1361781020902531</v>
       </c>
       <c r="IK3">
-        <v>-0.119358853009216</v>
+        <v>-0.1387561394184756</v>
       </c>
       <c r="IL3">
-        <v>-0.119782105565141</v>
+        <v>-0.139489496916091</v>
       </c>
       <c r="IM3">
-        <v>-0.1199082288177273</v>
+        <v>-0.1396994092814239</v>
       </c>
       <c r="IN3">
-        <v>-0.1196866086419967</v>
+        <v>-0.1392529709325105</v>
       </c>
       <c r="IO3">
-        <v>-0.1313619347930565</v>
+        <v>-0.1536672874261274</v>
       </c>
       <c r="IP3">
-        <v>-0.1190378466191096</v>
+        <v>-0.1380708107396008</v>
       </c>
       <c r="IQ3">
-        <v>-0.1189896220221034</v>
+        <v>-0.1378474237648501</v>
       </c>
       <c r="IR3">
-        <v>-0.1177742700621933</v>
+        <v>-0.1361804906472205</v>
       </c>
       <c r="IS3">
-        <v>-0.1193598317219198</v>
+        <v>-0.1387569084124896</v>
       </c>
       <c r="IT3">
-        <v>-0.1197821055651352</v>
+        <v>-0.1394894969161103</v>
       </c>
       <c r="IU3">
-        <v>-0.1199162340731557</v>
+        <v>-0.1397127330439328</v>
       </c>
       <c r="IV3">
-        <v>-0.1196934903808588</v>
+        <v>-0.1392598651460019</v>
       </c>
       <c r="IW3">
-        <v>-0.1314369664922365</v>
+        <v>-0.1537073915540673</v>
       </c>
       <c r="IX3">
-        <v>-0.1317236808755654</v>
+        <v>-0.1541229479478222</v>
       </c>
       <c r="IY3">
-        <v>-0.1177771789405188</v>
+        <v>-0.1361892311618262</v>
       </c>
       <c r="IZ3">
-        <v>-0.1193609220503279</v>
+        <v>-0.1387577651050932</v>
       </c>
       <c r="JA3">
-        <v>-0.119782105565133</v>
+        <v>-0.13948949691613</v>
       </c>
       <c r="JB3">
-        <v>-0.1199463424996477</v>
+        <v>-0.1397628451040301</v>
       </c>
       <c r="JC3">
-        <v>-0.1196950300331366</v>
+        <v>-0.1392614075892354</v>
       </c>
       <c r="JD3">
-        <v>-0.1314473386946355</v>
+        <v>-0.1537129354023929</v>
       </c>
       <c r="JE3">
-        <v>-0.1330803288053529</v>
+        <v>-0.1558318511321558</v>
       </c>
       <c r="JF3">
-        <v>-0.1177913365083399</v>
+        <v>-0.1362317717496919</v>
       </c>
       <c r="JG3">
-        <v>-0.1193631726427459</v>
+        <v>-0.1387595334397981</v>
       </c>
       <c r="JH3">
-        <v>-0.1197821055651264</v>
+        <v>-0.1394894969161502</v>
       </c>
       <c r="JI3">
-        <v>-0.1199533698952492</v>
+        <v>-0.1397745414725766</v>
       </c>
       <c r="JJ3">
-        <v>-0.1197338336675569</v>
+        <v>-0.1392803704394135</v>
       </c>
       <c r="JK3">
-        <v>-0.1196950300331732</v>
+        <v>-0.1392620911507231</v>
       </c>
       <c r="JL3">
-        <v>-0.1314521071937169</v>
+        <v>-0.153715484117905</v>
       </c>
       <c r="JM3">
-        <v>-0.1331293259654313</v>
+        <v>-0.1558552353725156</v>
       </c>
       <c r="JN3">
-        <v>-0.1335257791953989</v>
+        <v>-0.1564010477949831</v>
       </c>
       <c r="JO3">
-        <v>-0.1193655166227613</v>
+        <v>-0.1387613751505615</v>
       </c>
       <c r="JP3">
-        <v>-0.1197821055651296</v>
+        <v>-0.1394894969161562</v>
       </c>
       <c r="JQ3">
-        <v>-0.1199565893357467</v>
+        <v>-0.1397798999045184</v>
       </c>
       <c r="JR3">
-        <v>-0.1197722900957924</v>
+        <v>-0.1392991634449435</v>
       </c>
       <c r="JS3">
-        <v>-0.1196950300332172</v>
+        <v>-0.1392628925838229</v>
       </c>
       <c r="JT3">
-        <v>-0.1314577708175809</v>
+        <v>-0.1537185112653894</v>
       </c>
       <c r="JU3">
-        <v>-0.1331328875637608</v>
+        <v>-0.1558569351597966</v>
       </c>
       <c r="JV3">
-        <v>-0.1351407551340594</v>
+        <v>-0.158464742225192</v>
       </c>
       <c r="JW3">
-        <v>-0.119374429967373</v>
+        <v>-0.1387683785352215</v>
       </c>
       <c r="JX3">
-        <v>-0.119782105565122</v>
+        <v>-0.1394894969161486</v>
       </c>
       <c r="JY3">
-        <v>-0.1199587058773029</v>
+        <v>-0.1397834226759655</v>
       </c>
       <c r="JZ3">
-        <v>-0.11969503003326</v>
+        <v>-0.1392636168566398</v>
       </c>
       <c r="KA3">
-        <v>-0.1314665091399023</v>
+        <v>-0.153723181799768</v>
       </c>
       <c r="KB3">
-        <v>-0.1331358231488816</v>
+        <v>-0.1558583361786426</v>
       </c>
       <c r="KC3">
-        <v>-0.1354468795447505</v>
+        <v>-0.1587920271167522</v>
       </c>
       <c r="KD3">
-        <v>-0.1353626056939759</v>
+        <v>-0.1587805853544008</v>
       </c>
       <c r="KE3">
-        <v>-0.1194217527928882</v>
+        <v>-0.1388055608785368</v>
       </c>
       <c r="KF3">
-        <v>-0.119782105565122</v>
+        <v>-0.1394894969161486</v>
       </c>
       <c r="KG3">
-        <v>-0.119963502359141</v>
+        <v>-0.1398031251467567</v>
       </c>
       <c r="KH3">
-        <v>-0.1199599482557543</v>
+        <v>-0.1397840450275795</v>
       </c>
       <c r="KI3">
-        <v>-0.1196950300333016</v>
+        <v>-0.1392643504004541</v>
       </c>
       <c r="KJ3">
-        <v>-0.1314742956290924</v>
+        <v>-0.1537273435828106</v>
       </c>
       <c r="KK3">
-        <v>-0.1331399929278831</v>
+        <v>-0.1558603262193933</v>
       </c>
       <c r="KL3">
-        <v>-0.1355877888154216</v>
+        <v>-0.1589426770843705</v>
       </c>
       <c r="KM3">
-        <v>-0.1362924432724122</v>
+        <v>-0.1601044144202099</v>
       </c>
       <c r="KN3">
-        <v>-0.1199657056632515</v>
+        <v>-0.1398121756866585</v>
       </c>
       <c r="KO3">
-        <v>-0.1199608275317498</v>
+        <v>-0.1397844854881347</v>
       </c>
       <c r="KP3">
-        <v>-0.1196950300333443</v>
+        <v>-0.1392651391086375</v>
       </c>
       <c r="KQ3">
-        <v>-0.1314803494671117</v>
+        <v>-0.1537305792802816</v>
       </c>
       <c r="KR3">
-        <v>-0.1331587217922973</v>
+        <v>-0.1558692646071626</v>
       </c>
       <c r="KS3">
-        <v>-0.1365084077946289</v>
+        <v>-0.1599269440616527</v>
       </c>
       <c r="KT3">
-        <v>-0.1364977100030176</v>
+        <v>-0.1603966661544365</v>
       </c>
       <c r="KU3">
-        <v>-0.1199694347200973</v>
+        <v>-0.1398274936446136</v>
       </c>
       <c r="KV3">
-        <v>-0.1199618507503252</v>
+        <v>-0.1397849980545275</v>
       </c>
       <c r="KW3">
-        <v>-0.1196950300335857</v>
+        <v>-0.1392697131839063</v>
       </c>
       <c r="KX3">
-        <v>-0.13148788500129</v>
+        <v>-0.1537346069192164</v>
       </c>
       <c r="KY3">
-        <v>-0.1331623273156604</v>
+        <v>-0.1558709853457717</v>
       </c>
       <c r="KZ3">
-        <v>-0.1365771780234717</v>
+        <v>-0.1600004693499723</v>
       </c>
       <c r="LA3">
-        <v>-0.1365659171909158</v>
+        <v>-0.160493777949114</v>
       </c>
       <c r="LB3">
-        <v>-0.1199765924202418</v>
+        <v>-0.1398568957697435</v>
       </c>
       <c r="LC3">
-        <v>-0.1199638078415323</v>
+        <v>-0.1397859784304329</v>
       </c>
       <c r="LD3">
-        <v>-0.1196950300346013</v>
+        <v>-0.1392890598974447</v>
       </c>
       <c r="LE3">
-        <v>-0.1314956789678318</v>
+        <v>-0.1537387726799009</v>
       </c>
       <c r="LF3">
-        <v>-0.1331649969130919</v>
+        <v>-0.1558722594121071</v>
       </c>
       <c r="LG3">
-        <v>-0.1366135025333902</v>
+        <v>-0.1600222436711327</v>
       </c>
       <c r="LH3">
-        <v>-0.1374926964030601</v>
+        <v>-0.1611410319330404</v>
       </c>
       <c r="LI3">
-        <v>-0.1366015167868279</v>
+        <v>-0.1605444639653278</v>
       </c>
       <c r="LJ3">
-        <v>-0.1199976660309143</v>
+        <v>-0.1399434628688249</v>
       </c>
       <c r="LK3">
-        <v>-0.1199713136428914</v>
+        <v>-0.1397897383466032</v>
       </c>
       <c r="LL3">
-        <v>-0.1315048724098236</v>
+        <v>-0.1537436864308027</v>
       </c>
       <c r="LM3">
-        <v>-0.1331680720039395</v>
+        <v>-0.1558737269993154</v>
       </c>
       <c r="LN3">
-        <v>-0.1368005942416662</v>
+        <v>-0.1601343914133318</v>
       </c>
       <c r="LO3">
-        <v>-0.1379321183790514</v>
+        <v>-0.1616884885058404</v>
       </c>
       <c r="LP3">
-        <v>-0.136631991280223</v>
+        <v>-0.1605878530394363</v>
       </c>
       <c r="LQ3">
-        <v>-0.1199969282888936</v>
+        <v>-0.1398025695626197</v>
       </c>
       <c r="LR3">
-        <v>-0.131510111465366</v>
+        <v>-0.1537464866197275</v>
       </c>
       <c r="LS3">
-        <v>-0.1331711224540455</v>
+        <v>-0.155875182825665</v>
       </c>
       <c r="LT3">
-        <v>-0.1368659152710818</v>
+        <v>-0.1601735456712562</v>
       </c>
       <c r="LU3">
-        <v>-0.1384234304320325</v>
+        <v>-0.1618172563803519</v>
       </c>
       <c r="LV3">
-        <v>-0.1384729698528239</v>
+        <v>-0.1626633447179543</v>
       </c>
       <c r="LW3">
-        <v>-0.1366666506989326</v>
+        <v>-0.1606372006296404</v>
       </c>
       <c r="LX3">
-        <v>-0.131533779566768</v>
+        <v>-0.1537591367913948</v>
       </c>
       <c r="LY3">
-        <v>-0.1331979211786894</v>
+        <v>-0.1558879724630237</v>
       </c>
       <c r="LZ3">
-        <v>-0.1370080889840498</v>
+        <v>-0.160258764791826</v>
       </c>
       <c r="MA3">
-        <v>-0.1386180448097571</v>
+        <v>-0.1618682569338185</v>
       </c>
       <c r="MB3">
-        <v>-0.1384921187392363</v>
+        <v>-0.1627214044098791</v>
       </c>
       <c r="MC3">
-        <v>-0.138568376438011</v>
+        <v>-0.1628317440306089</v>
       </c>
       <c r="MD3">
-        <v>-0.1366939564629717</v>
+        <v>-0.1606760782573347</v>
       </c>
       <c r="ME3">
-        <v>-0.1315429907693897</v>
+        <v>-0.1537640599952313</v>
       </c>
       <c r="MF3">
-        <v>-0.1332527023812183</v>
+        <v>-0.1559141164272904</v>
       </c>
       <c r="MG3">
-        <v>-0.1371132114422476</v>
+        <v>-0.1602816688228593</v>
       </c>
       <c r="MH3">
-        <v>-0.1370134650756086</v>
+        <v>-0.1602808567361642</v>
       </c>
       <c r="MI3">
-        <v>-0.1385017459941317</v>
+        <v>-0.1627505947709419</v>
       </c>
       <c r="MJ3">
-        <v>-0.138650113511782</v>
+        <v>-0.1629760178349188</v>
       </c>
       <c r="MK3">
-        <v>-0.1367168495384571</v>
+        <v>-0.1607086731961588</v>
       </c>
       <c r="ML3">
-        <v>-0.131546190741567</v>
+        <v>-0.1537657703141961</v>
       </c>
       <c r="MM3">
-        <v>-0.1372705157662934</v>
+        <v>-0.1603159406094693</v>
       </c>
       <c r="MN3">
-        <v>-0.1370142136463885</v>
+        <v>-0.1602839328474347</v>
       </c>
       <c r="MO3">
-        <v>-0.1385026419068136</v>
+        <v>-0.1627533112402244</v>
       </c>
       <c r="MP3">
-        <v>-0.1387076087983213</v>
+        <v>-0.1630775037328848</v>
       </c>
       <c r="MQ3">
-        <v>-0.1367375063929854</v>
+        <v>-0.1607380842608978</v>
       </c>
       <c r="MR3">
-        <v>-0.1315486014979444</v>
+        <v>-0.1537670588128668</v>
       </c>
       <c r="MS3">
-        <v>-0.1370150266471755</v>
+        <v>-0.1602872737254393</v>
       </c>
       <c r="MT3">
-        <v>-0.1385030119076872</v>
+        <v>-0.1627544331091501</v>
       </c>
       <c r="MU3">
-        <v>-0.138780256324129</v>
+        <v>-0.1632057364993844</v>
       </c>
       <c r="MV3">
-        <v>-0.1367546027773543</v>
+        <v>-0.160762425982189</v>
       </c>
       <c r="MW3">
-        <v>-0.1315503653191787</v>
+        <v>-0.1537680015378669</v>
       </c>
       <c r="MX3">
-        <v>-0.1370157387777163</v>
+        <v>-0.1602902000987811</v>
       </c>
       <c r="MY3">
-        <v>-0.1385032729816936</v>
+        <v>-0.1627552247043146</v>
       </c>
       <c r="MZ3">
-        <v>-0.1388257772506497</v>
+        <v>-0.1632860879219093</v>
       </c>
       <c r="NA3">
-        <v>-0.1367744356428877</v>
+        <v>-0.1607906639166345</v>
       </c>
       <c r="NB3">
-        <v>-0.1315512609981251</v>
+        <v>-0.1537684802591118</v>
       </c>
       <c r="NC3">
-        <v>-0.137016495416673</v>
+        <v>-0.1602933093747559</v>
       </c>
       <c r="ND3">
-        <v>-0.13850354001987</v>
+        <v>-0.1627560343834624</v>
       </c>
       <c r="NE3">
-        <v>-0.1388956804098034</v>
+        <v>-0.163409478918935</v>
       </c>
       <c r="NF3">
-        <v>-0.1367962334072912</v>
+        <v>-0.1608216995001809</v>
       </c>
       <c r="NG3">
-        <v>-0.1315525778369887</v>
+        <v>-0.1537691840811634</v>
       </c>
       <c r="NH3">
-        <v>-0.1370175753028674</v>
+        <v>-0.1602977469847043</v>
       </c>
       <c r="NI3">
-        <v>-0.1385038551058876</v>
+        <v>-0.1627569897474123</v>
       </c>
       <c r="NJ3">
-        <v>-0.1389653667235413</v>
+        <v>-0.1635324885831612</v>
       </c>
       <c r="NK3">
-        <v>-0.1369150682124105</v>
+        <v>-0.1609908967573761</v>
       </c>
       <c r="NL3">
-        <v>-0.1315547852907656</v>
+        <v>-0.1537703639172908</v>
       </c>
       <c r="NM3">
-        <v>-0.1370188881032189</v>
+        <v>-0.160303141725208</v>
       </c>
       <c r="NN3">
-        <v>-0.1385042525644658</v>
+        <v>-0.1627581948714116</v>
       </c>
       <c r="NO3">
-        <v>-0.1390435582004099</v>
+        <v>-0.1636705131934403</v>
       </c>
       <c r="NP3">
-        <v>-0.1377938566830919</v>
+        <v>-0.1622660350699059</v>
       </c>
       <c r="NQ3">
-        <v>-0.1369228124457861</v>
+        <v>-0.1609908967577231</v>
       </c>
       <c r="NR3">
-        <v>-0.1315646315155819</v>
+        <v>-0.1537756265039941</v>
       </c>
       <c r="NS3">
-        <v>-0.1370270252767403</v>
+        <v>-0.1603365803464883</v>
       </c>
       <c r="NT3">
-        <v>-0.138504608527368</v>
+        <v>-0.1627592741778038</v>
       </c>
       <c r="NU3">
-        <v>-0.1391001411380713</v>
+        <v>-0.1637703952557943</v>
       </c>
       <c r="NV3">
-        <v>-0.1386356311004242</v>
+        <v>-0.1634875275147094</v>
       </c>
       <c r="NW3">
-        <v>-0.1369703636814704</v>
+        <v>-0.1609908967599885</v>
       </c>
       <c r="NX3">
-        <v>-0.136922812445781</v>
+        <v>-0.1609908967577</v>
       </c>
       <c r="NY3">
-        <v>-0.1316008263405733</v>
+        <v>-0.1537949717329652</v>
       </c>
       <c r="NZ3">
-        <v>-0.1370548687222955</v>
+        <v>-0.1604510021648427</v>
       </c>
       <c r="OA3">
-        <v>-0.1385048901918948</v>
+        <v>-0.1627601282061627</v>
       </c>
       <c r="OB3">
-        <v>-0.1391675837192531</v>
+        <v>-0.1638894483531905</v>
       </c>
       <c r="OC3">
-        <v>-0.138673106675593</v>
+        <v>-0.1635419094516975</v>
       </c>
       <c r="OD3">
-        <v>-0.1369877427331129</v>
+        <v>-0.1609908967608109</v>
       </c>
       <c r="OE3">
-        <v>-0.1369228124457554</v>
+        <v>-0.1609908967575782</v>
       </c>
       <c r="OF3">
-        <v>-0.1385053735960637</v>
+        <v>-0.1627615939250475</v>
       </c>
       <c r="OG3">
-        <v>-0.1392654436310741</v>
+        <v>-0.164062198068755</v>
       </c>
       <c r="OH3">
-        <v>-0.1387678025695334</v>
+        <v>-0.1636792873614926</v>
       </c>
       <c r="OI3">
-        <v>-0.139304225856439</v>
+        <v>-0.1644577850718414</v>
       </c>
       <c r="OJ3">
-        <v>-0.1369895117005472</v>
+        <v>-0.1609908967608956</v>
       </c>
       <c r="OK3">
-        <v>-0.1369228124457534</v>
+        <v>-0.1609908967575676</v>
       </c>
       <c r="OL3">
-        <v>-0.1385070611087239</v>
+        <v>-0.1627667105992939</v>
       </c>
       <c r="OM3">
-        <v>-0.1393379961552315</v>
+        <v>-0.1641902750958926</v>
       </c>
       <c r="ON3">
-        <v>-0.1387764793634205</v>
+        <v>-0.1636918751562499</v>
       </c>
       <c r="OO3">
-        <v>-0.1396087239818139</v>
+        <v>-0.1648996828041492</v>
       </c>
       <c r="OP3">
-        <v>-0.1369907462092405</v>
+        <v>-0.1609908967609537</v>
       </c>
       <c r="OQ3">
-        <v>-0.1369228124457527</v>
+        <v>-0.1609908967575631</v>
       </c>
       <c r="OR3">
-        <v>-0.1385173779651948</v>
+        <v>-0.162797992312757</v>
       </c>
       <c r="OS3">
-        <v>-0.1394079858052379</v>
+        <v>-0.1643138293525704</v>
       </c>
       <c r="OT3">
-        <v>-0.1387814119569349</v>
+        <v>-0.1636990310899376</v>
       </c>
       <c r="OU3">
-        <v>-0.14052742147699</v>
+        <v>-0.1662329752263544</v>
       </c>
       <c r="OV3">
-        <v>-0.1396087239819793</v>
+        <v>-0.1648996828042463</v>
       </c>
       <c r="OW3">
-        <v>-0.1369920250512976</v>
+        <v>-0.1609908967610143</v>
       </c>
       <c r="OX3">
-        <v>-0.1369228124457528</v>
+        <v>-0.1609908967575605</v>
       </c>
       <c r="OY3">
-        <v>-0.1394764856110027</v>
+        <v>-0.1644347549556163</v>
       </c>
       <c r="OZ3">
-        <v>-0.1387847613127784</v>
+        <v>-0.1637038901541719</v>
       </c>
       <c r="PA3">
-        <v>-0.1418360664612374</v>
+        <v>-0.1681323180667462</v>
       </c>
       <c r="PB3">
-        <v>-0.1396087239820177</v>
+        <v>-0.1648996828042709</v>
       </c>
       <c r="PC3">
-        <v>-0.1369973954497765</v>
+        <v>-0.16099089676127</v>
       </c>
       <c r="PD3">
-        <v>-0.136922812445752</v>
+        <v>-0.1609908967575537</v>
       </c>
       <c r="PE3">
-        <v>-0.1395588683226099</v>
+        <v>-0.1645801904749266</v>
       </c>
       <c r="PF3">
-        <v>-0.138790219887325</v>
+        <v>-0.1637118091659471</v>
       </c>
       <c r="PG3">
-        <v>-0.1421099442741</v>
+        <v>-0.1685298378247171</v>
       </c>
       <c r="PH3">
-        <v>-0.1396087239820422</v>
+        <v>-0.1648996828042834</v>
       </c>
       <c r="PI3">
-        <v>-0.1369987067771093</v>
+        <v>-0.1609908967613318</v>
       </c>
       <c r="PJ3">
-        <v>-0.1369228124457449</v>
+        <v>-0.1609908967574782</v>
       </c>
       <c r="PK3">
-        <v>-0.1396968475287608</v>
+        <v>-0.1648237785656125</v>
       </c>
       <c r="PL3">
-        <v>-0.1395588683226099</v>
+        <v>-0.1645801904749266</v>
       </c>
       <c r="PM3">
-        <v>-0.1388083646205308</v>
+        <v>-0.1637381326508458</v>
       </c>
       <c r="PN3">
-        <v>-0.1421799458637484</v>
+        <v>-0.1686314426170733</v>
       </c>
       <c r="PO3">
-        <v>-0.139608723982068</v>
+        <v>-0.1648996828042942</v>
       </c>
       <c r="PP3">
-        <v>-0.1369999576414308</v>
+        <v>-0.1609908967613903</v>
       </c>
       <c r="PQ3">
-        <v>-0.1369228124457436</v>
+        <v>-0.1609908967574506</v>
       </c>
       <c r="PR3">
-        <v>-0.140162271842447</v>
+        <v>-0.1656454787773874</v>
       </c>
       <c r="PS3">
-        <v>-0.1396968475287608</v>
+        <v>-0.1648237785656125</v>
       </c>
       <c r="PT3">
-        <v>-0.1388285655736296</v>
+        <v>-0.1637674393137968</v>
       </c>
       <c r="PU3">
-        <v>-0.1422166189449878</v>
+        <v>-0.1686846724450372</v>
       </c>
       <c r="PV3">
-        <v>-0.1396087239820896</v>
+        <v>-0.1648996828043031</v>
       </c>
       <c r="PW3">
-        <v>-0.1370012017029276</v>
+        <v>-0.1609908967614485</v>
       </c>
       <c r="PX3">
-        <v>-0.1369228124457441</v>
+        <v>-0.1609908967574423</v>
       </c>
       <c r="PY3">
-        <v>-0.1408206473505752</v>
+        <v>-0.1668079409485126</v>
       </c>
       <c r="PZ3">
-        <v>-0.140162271842447</v>
+        <v>-0.1656454787773874</v>
       </c>
       <c r="QA3">
-        <v>-0.1388399265921546</v>
+        <v>-0.1637839214381575</v>
       </c>
       <c r="QB3">
-        <v>-0.1422470206331796</v>
+        <v>-0.1687287996301856</v>
       </c>
       <c r="QC3">
-        <v>-0.1396087239821087</v>
+        <v>-0.1648996828043085</v>
       </c>
       <c r="QD3">
-        <v>-0.1370026288026803</v>
+        <v>-0.1609908967615159</v>
       </c>
       <c r="QE3">
-        <v>-0.136922812445747</v>
+        <v>-0.1609908967574287</v>
       </c>
       <c r="QF3">
-        <v>-0.1412931278844233</v>
+        <v>-0.1676422561776752</v>
       </c>
       <c r="QG3">
-        <v>-0.1408206473505752</v>
+        <v>-0.1668079409485126</v>
       </c>
       <c r="QH3">
-        <v>-0.1388505991180487</v>
+        <v>-0.1637994047592295</v>
       </c>
       <c r="QI3">
-        <v>-0.1422716595984432</v>
+        <v>-0.1687645624452997</v>
       </c>
       <c r="QJ3">
-        <v>-0.1396087239821258</v>
+        <v>-0.1648996828043139</v>
       </c>
       <c r="QK3">
-        <v>-0.1370075572146652</v>
+        <v>-0.1609908967617467</v>
       </c>
       <c r="QL3">
-        <v>-0.1369228124457521</v>
+        <v>-0.1609908967574183</v>
       </c>
       <c r="QM3">
-        <v>-0.1414364880164794</v>
+        <v>-0.167895417304213</v>
       </c>
       <c r="QN3">
-        <v>-0.1412931278844233</v>
+        <v>-0.1676422561776752</v>
       </c>
       <c r="QO3">
-        <v>-0.1388607816370107</v>
+        <v>-0.1638141772273415</v>
       </c>
       <c r="QP3">
-        <v>-0.1423093221070758</v>
+        <v>-0.1688192286945994</v>
       </c>
       <c r="QQ3">
-        <v>-0.139608723982132</v>
+        <v>-0.1648996828043193</v>
       </c>
       <c r="QR3">
-        <v>-0.1370315744922151</v>
+        <v>-0.1609908967628707</v>
       </c>
       <c r="QS3">
-        <v>-0.136922812445759</v>
+        <v>-0.1609908967574062</v>
       </c>
       <c r="QT3">
-        <v>-0.1418342946769552</v>
+        <v>-0.1685928426115234</v>
       </c>
       <c r="QU3">
-        <v>-0.1414364880164794</v>
+        <v>-0.167895417304213</v>
       </c>
       <c r="QV3">
-        <v>-0.1414577462362259</v>
+        <v>-0.1679370465563703</v>
       </c>
       <c r="QW3">
-        <v>-0.1388774999167098</v>
+        <v>-0.1638384316321475</v>
       </c>
       <c r="QX3">
-        <v>-0.1423432744440816</v>
+        <v>-0.1688685098211644</v>
       </c>
       <c r="QY3">
-        <v>-0.139608723982139</v>
+        <v>-0.1648996828043202</v>
       </c>
       <c r="QZ3">
-        <v>-0.1369228124457645</v>
+        <v>-0.1609908967573961</v>
       </c>
       <c r="RA3">
-        <v>-0.1422763171518246</v>
+        <v>-0.1693678395961097</v>
       </c>
       <c r="RB3">
-        <v>-0.1418342946769551</v>
+        <v>-0.1685928426115234</v>
       </c>
       <c r="RC3">
-        <v>-0.1418342946769552</v>
+        <v>-0.1685928426115234</v>
       </c>
       <c r="RD3">
-        <v>-0.1414608507529196</v>
+        <v>-0.1679431260587098</v>
       </c>
       <c r="RE3">
-        <v>-0.1388891445917566</v>
+        <v>-0.163855325444859</v>
       </c>
       <c r="RF3">
-        <v>-0.142375588839709</v>
+        <v>-0.1689154136011618</v>
       </c>
       <c r="RG3">
-        <v>-0.1396087239821366</v>
+        <v>-0.1648996828043156</v>
       </c>
       <c r="RH3">
-        <v>-0.1369228124457899</v>
+        <v>-0.1609908967573419</v>
       </c>
       <c r="RI3">
-        <v>-0.1424383065556941</v>
+        <v>-0.1696518693588</v>
       </c>
       <c r="RJ3">
-        <v>-0.1422763171518246</v>
+        <v>-0.1693678395961097</v>
       </c>
       <c r="RK3">
-        <v>-0.1414625435665244</v>
+        <v>-0.1679464410594274</v>
       </c>
       <c r="RL3">
-        <v>-0.1388973264338685</v>
+        <v>-0.1638671954875596</v>
       </c>
       <c r="RM3">
-        <v>-0.1424119931344752</v>
+        <v>-0.1689682539057301</v>
       </c>
       <c r="RN3">
-        <v>-0.1396087239821331</v>
+        <v>-0.1648996828043091</v>
       </c>
       <c r="RO3">
-        <v>-0.1369228124457905</v>
+        <v>-0.1609908967573388</v>
       </c>
       <c r="RP3">
-        <v>-0.1425581584467422</v>
+        <v>-0.170075045809008</v>
       </c>
       <c r="RQ3">
-        <v>-0.1424383065556941</v>
+        <v>-0.1696518693588</v>
       </c>
       <c r="RR3">
-        <v>-0.1430171090107316</v>
+        <v>-0.1701135367306229</v>
       </c>
       <c r="RS3">
-        <v>-0.1414636903157042</v>
+        <v>-0.1679486867152394</v>
       </c>
       <c r="RT3">
-        <v>-0.1389012357776921</v>
+        <v>-0.1638728670875686</v>
       </c>
       <c r="RU3">
-        <v>-0.1424504479770159</v>
+        <v>-0.1690240706743003</v>
       </c>
       <c r="RV3">
-        <v>-0.1396087239821311</v>
+        <v>-0.1648996828043038</v>
       </c>
       <c r="RW3">
-        <v>-0.1369228124457906</v>
+        <v>-0.1609908967573376</v>
       </c>
       <c r="RX3">
-        <v>-0.1427299399226807</v>
+        <v>-0.170681625594671</v>
       </c>
       <c r="RY3">
-        <v>-0.1425581584467422</v>
+        <v>-0.170075045809008</v>
       </c>
       <c r="RZ3">
-        <v>-0.1430398185215371</v>
+        <v>-0.1701363171215459</v>
       </c>
       <c r="SA3">
-        <v>-0.1430864902516667</v>
+        <v>-0.1701359874274248</v>
       </c>
       <c r="SB3">
-        <v>-0.1414654321552196</v>
+        <v>-0.1679520977266185</v>
       </c>
       <c r="SC3">
-        <v>-0.1389037122434324</v>
+        <v>-0.1638764598982718</v>
       </c>
       <c r="SD3">
-        <v>-0.1425345291519249</v>
+        <v>-0.1691461139905285</v>
       </c>
       <c r="SE3">
-        <v>-0.1396087239821283</v>
+        <v>-0.164899682804295</v>
       </c>
       <c r="SF3">
-        <v>-0.1369228124457895</v>
+        <v>-0.160990896757336</v>
       </c>
       <c r="SG3">
-        <v>-0.1428347755353084</v>
+        <v>-0.1710518402805464</v>
       </c>
       <c r="SH3">
-        <v>-0.1427299399226807</v>
+        <v>-0.170681625594671</v>
       </c>
       <c r="SI3">
-        <v>-0.1430494173641271</v>
+        <v>-0.1701459459239236</v>
       </c>
       <c r="SJ3">
-        <v>-0.1431308874936355</v>
+        <v>-0.170150353436287</v>
       </c>
       <c r="SK3">
-        <v>-0.1414680755712564</v>
+        <v>-0.1679572742832079</v>
       </c>
       <c r="SL3">
-        <v>-0.1389053866409491</v>
+        <v>-0.1638788890842619</v>
       </c>
       <c r="SM3">
-        <v>-0.1444417685369761</v>
+        <v>-0.1719146236414741</v>
       </c>
       <c r="SN3">
-        <v>-0.139608723982128</v>
+        <v>-0.1648996828042902</v>
       </c>
       <c r="SO3">
-        <v>-0.1369228124457895</v>
+        <v>-0.160990896757336</v>
       </c>
       <c r="SP3">
-        <v>-0.1428528295369097</v>
+        <v>-0.1711155980378702</v>
       </c>
       <c r="SQ3">
-        <v>-0.1428347755353084</v>
+        <v>-0.1710518402805464</v>
       </c>
       <c r="SR3">
-        <v>-0.1430550574753771</v>
+        <v>-0.1701516036390803</v>
       </c>
       <c r="SS3">
-        <v>-0.1414699509895432</v>
+        <v>-0.1679609468865138</v>
       </c>
       <c r="ST3">
-        <v>-0.1389077222250463</v>
+        <v>-0.163882277509325</v>
       </c>
       <c r="SU3">
-        <v>-0.1444574313502922</v>
+        <v>-0.1724012322775409</v>
       </c>
       <c r="SV3">
-        <v>-0.1447318998164629</v>
+        <v>-0.1722433456350765</v>
       </c>
       <c r="SW3">
-        <v>-0.1396087239821191</v>
+        <v>-0.1648996828042843</v>
       </c>
       <c r="SX3">
-        <v>-0.1428838467362134</v>
+        <v>-0.1712742176979165</v>
       </c>
       <c r="SY3">
-        <v>-0.1428528295369082</v>
+        <v>-0.1711155980378702</v>
       </c>
       <c r="SZ3">
-        <v>-0.1429048255216539</v>
+        <v>-0.1711547276643436</v>
       </c>
       <c r="TA3">
-        <v>-0.1430602480879153</v>
+        <v>-0.1701568104525886</v>
       </c>
       <c r="TB3">
-        <v>-0.1414712322984974</v>
+        <v>-0.1679634560562182</v>
       </c>
       <c r="TC3">
-        <v>-0.1389095047628722</v>
+        <v>-0.1638848635855078</v>
       </c>
       <c r="TD3">
-        <v>-0.14447124392307</v>
+        <v>-0.1728304448399209</v>
       </c>
       <c r="TE3">
-        <v>-0.1448884220657218</v>
+        <v>-0.1724206877907885</v>
       </c>
       <c r="TF3">
-        <v>-0.1396087239821149</v>
+        <v>-0.164899682804285</v>
       </c>
       <c r="TG3">
-        <v>-0.142906679225876</v>
+        <v>-0.1713909841831253</v>
       </c>
       <c r="TH3">
-        <v>-0.1428838467362134</v>
+        <v>-0.1712742176979165</v>
       </c>
       <c r="TI3">
-        <v>-0.1429355516008613</v>
+        <v>-0.1711778504957538</v>
       </c>
       <c r="TJ3">
-        <v>-0.1430648724976988</v>
+        <v>-0.1701614492961389</v>
       </c>
       <c r="TK3">
-        <v>-0.1414722447845492</v>
+        <v>-0.1679654387947243</v>
       </c>
       <c r="TL3">
-        <v>-0.1389222253888688</v>
+        <v>-0.1639033184853025</v>
       </c>
       <c r="TM3">
-        <v>-0.1449117980272399</v>
+        <v>-0.1724471731623034</v>
       </c>
       <c r="TN3">
-        <v>-0.1396087239821172</v>
+        <v>-0.1648996828042881</v>
       </c>
       <c r="TO3">
-        <v>-0.1429377658737257</v>
+        <v>-0.1715499666930611</v>
       </c>
       <c r="TP3">
-        <v>-0.1429066792258759</v>
+        <v>-0.1713909841831253</v>
       </c>
       <c r="TQ3">
-        <v>-0.1429598975993085</v>
+        <v>-0.1711961719569503</v>
       </c>
       <c r="TR3">
-        <v>-0.1430696698077886</v>
+        <v>-0.170166261579688</v>
       </c>
       <c r="TS3">
-        <v>-0.141475491087311</v>
+        <v>-0.1679717959938837</v>
       </c>
       <c r="TT3">
-        <v>-0.1389438582139491</v>
+        <v>-0.1639250070405714</v>
       </c>
       <c r="TU3">
-        <v>-0.1389896466205805</v>
+        <v>-0.1640292926404473</v>
       </c>
       <c r="TV3">
-        <v>-0.1449296418047605</v>
+        <v>-0.1724673904802899</v>
       </c>
       <c r="TW3">
-        <v>-0.1396087239821189</v>
+        <v>-0.1648996828042872</v>
       </c>
       <c r="TX3">
-        <v>-0.1429597646707172</v>
+        <v>-0.1716624750397137</v>
       </c>
       <c r="TY3">
-        <v>-0.1429377658737257</v>
+        <v>-0.1715499666930611</v>
       </c>
       <c r="TZ3">
-        <v>-0.1429699576281744</v>
+        <v>-0.1712037425674131</v>
       </c>
       <c r="UA3">
-        <v>-0.1430841521762861</v>
+        <v>-0.1701807891510322</v>
       </c>
       <c r="UB3">
-        <v>-0.141501749024571</v>
+        <v>-0.1680232169566677</v>
       </c>
       <c r="UC3">
-        <v>-0.1389677460425853</v>
+        <v>-0.1639489564093471</v>
       </c>
       <c r="UD3">
-        <v>-0.1449463303839245</v>
+        <v>-0.1724862989436572</v>
       </c>
       <c r="UE3">
-        <v>-0.1396087239821266</v>
+        <v>-0.1648996828042884</v>
       </c>
       <c r="UF3">
-        <v>-0.1430212858657964</v>
+        <v>-0.1719771244092939</v>
       </c>
       <c r="UG3">
-        <v>-0.1429597646707172</v>
+        <v>-0.1716624750397137</v>
       </c>
       <c r="UH3">
-        <v>-0.1429715403416673</v>
+        <v>-0.1712061246909825</v>
       </c>
       <c r="UI3">
-        <v>-0.1429907774482334</v>
+        <v>-0.1712037425674141</v>
       </c>
       <c r="UJ3">
-        <v>-0.1430987470208699</v>
+        <v>-0.1701954295498303</v>
       </c>
       <c r="UK3">
-        <v>-0.1415030566523361</v>
+        <v>-0.1680257777017572</v>
       </c>
       <c r="UL3">
-        <v>-0.1390324968586555</v>
+        <v>-0.1640138740407137</v>
       </c>
       <c r="UM3">
-        <v>-0.1449641267131471</v>
+        <v>-0.172506462514039</v>
       </c>
       <c r="UN3">
-        <v>-0.1396087239821267</v>
+        <v>-0.1648996828042875</v>
       </c>
       <c r="UO3">
-        <v>-0.1430658337722926</v>
+        <v>-0.1722049749655041</v>
       </c>
       <c r="UP3">
-        <v>-0.1430212858657964</v>
+        <v>-0.1719771244092939</v>
       </c>
       <c r="UQ3">
-        <v>-0.1429721227326217</v>
+        <v>-0.1712070012410143</v>
       </c>
       <c r="UR3">
-        <v>-0.1430065278913623</v>
+        <v>-0.1712037425674141</v>
       </c>
       <c r="US3">
-        <v>-0.1432351203637041</v>
+        <v>-0.1703322285632078</v>
       </c>
       <c r="UT3">
-        <v>-0.1415040884168419</v>
+        <v>-0.168027798221136</v>
       </c>
       <c r="UU3">
-        <v>-0.1449798743283741</v>
+        <v>-0.1725243048587748</v>
       </c>
       <c r="UV3">
-        <v>-0.1396087239821267</v>
+        <v>-0.1648996828042875</v>
       </c>
       <c r="UW3">
-        <v>-0.1430700884621407</v>
+        <v>-0.1722497263034705</v>
       </c>
       <c r="UX3">
-        <v>-0.1430658337722926</v>
+        <v>-0.1722049749655041</v>
       </c>
       <c r="UY3">
-        <v>-0.1431081238614008</v>
+        <v>-0.1722484781790262</v>
       </c>
       <c r="UZ3">
-        <v>-0.142972990247598</v>
+        <v>-0.171208306928201</v>
       </c>
       <c r="VA3">
-        <v>-0.1415052548552217</v>
+        <v>-0.16803008247541</v>
       </c>
       <c r="VB3">
-        <v>-0.1449959813772136</v>
+        <v>-0.1725425544536449</v>
       </c>
       <c r="VC3">
-        <v>-0.1430710958951525</v>
+        <v>-0.1722603226626432</v>
       </c>
       <c r="VD3">
-        <v>-0.1430700884621406</v>
+        <v>-0.1722497263034704</v>
       </c>
       <c r="VE3">
-        <v>-0.1431134701289718</v>
+        <v>-0.1722539778101919</v>
       </c>
       <c r="VF3">
-        <v>-0.1429735122513462</v>
+        <v>-0.1712090925903846</v>
       </c>
       <c r="VG3">
-        <v>-0.1415062930228282</v>
+        <v>-0.16803211553603</v>
       </c>
       <c r="VH3">
-        <v>-0.1450791150076581</v>
+        <v>-0.172636746531046</v>
       </c>
       <c r="VI3">
-        <v>-0.1430984070986976</v>
+        <v>-0.1725475951880226</v>
       </c>
       <c r="VJ3">
-        <v>-0.1430710958951525</v>
+        <v>-0.1722603226626432</v>
       </c>
       <c r="VK3">
-        <v>-0.1430710958950483</v>
+        <v>-0.1722603226625704</v>
       </c>
       <c r="VL3">
-        <v>-0.1431174153282296</v>
+        <v>-0.1722580361820976</v>
       </c>
       <c r="VM3">
-        <v>-0.1429741421176896</v>
+        <v>-0.1712100405955155</v>
       </c>
       <c r="VN3">
-        <v>-0.1415074879543159</v>
+        <v>-0.1680344555910716</v>
       </c>
       <c r="VO3">
-        <v>-0.1452922340489245</v>
+        <v>-0.1727035357567176</v>
       </c>
       <c r="VP3">
-        <v>-0.1452275626627405</v>
+        <v>-0.1728302458295221</v>
       </c>
       <c r="VQ3">
-        <v>-0.1431175472798003</v>
+        <v>-0.1727489306412664</v>
       </c>
       <c r="VR3">
-        <v>-0.1430984070986976</v>
+        <v>-0.1725475951880226</v>
       </c>
       <c r="VS3">
-        <v>-0.1430710958950118</v>
+        <v>-0.1722603226625445</v>
       </c>
       <c r="VT3">
-        <v>-0.1431212540441962</v>
+        <v>-0.1722619850163155</v>
       </c>
       <c r="VU3">
-        <v>-0.1429746951672136</v>
+        <v>-0.1712108729845827</v>
       </c>
       <c r="VV3">
-        <v>-0.1415087131663623</v>
+        <v>-0.1680368549463268</v>
       </c>
       <c r="VW3">
-        <v>-0.1453045161162328</v>
+        <v>-0.1727073846892225</v>
       </c>
       <c r="VX3">
-        <v>-0.1459369884524677</v>
+        <v>-0.1737549875286588</v>
       </c>
       <c r="VY3">
-        <v>-0.1431305418354731</v>
+        <v>-0.1730225527187707</v>
       </c>
       <c r="VZ3">
-        <v>-0.1431205556198482</v>
+        <v>-0.1727643306103644</v>
       </c>
       <c r="WA3">
-        <v>-0.1430710958949885</v>
+        <v>-0.1722603226625255</v>
       </c>
       <c r="WB3">
-        <v>-0.1431573139048434</v>
+        <v>-0.1722990793077451</v>
       </c>
       <c r="WC3">
-        <v>-0.1429783141418819</v>
+        <v>-0.1712163198682141</v>
       </c>
       <c r="WD3">
-        <v>-0.1415101858673014</v>
+        <v>-0.1680397389653253</v>
       </c>
       <c r="WE3">
-        <v>-0.14531068465158</v>
+        <v>-0.172709317768321</v>
       </c>
       <c r="WF3">
-        <v>-0.1460175560291527</v>
+        <v>-0.1738332646956837</v>
       </c>
       <c r="WG3">
-        <v>-0.1467373629489442</v>
+        <v>-0.1748095501131213</v>
       </c>
       <c r="WH3">
-        <v>-0.1431421302104051</v>
+        <v>-0.1732665784444984</v>
       </c>
       <c r="WI3">
-        <v>-0.1431305418354731</v>
+        <v>-0.1730225527187707</v>
       </c>
       <c r="WJ3">
-        <v>-0.1431305418354731</v>
+        <v>-0.1730225527187707</v>
       </c>
       <c r="WK3">
-        <v>-0.143184649071905</v>
+        <v>-0.1730924383527258</v>
       </c>
       <c r="WL3">
-        <v>-0.1431205556198482</v>
+        <v>-0.1727643306103644</v>
       </c>
       <c r="WM3">
-        <v>-0.1430710958949621</v>
+        <v>-0.1722603226625015</v>
       </c>
       <c r="WN3">
-        <v>-0.1431740966901727</v>
+        <v>-0.1723163435382215</v>
       </c>
       <c r="WO3">
-        <v>-0.1430049980973993</v>
+        <v>-0.1712564817707515</v>
       </c>
       <c r="WP3">
-        <v>-0.1415111091464104</v>
+        <v>-0.1680415470417752</v>
       </c>
       <c r="WQ3">
-        <v>-0.1453158573163384</v>
+        <v>-0.1727109387612795</v>
       </c>
       <c r="WR3">
-        <v>-0.1460600729671629</v>
+        <v>-0.1738745729109616</v>
       </c>
       <c r="WS3">
-        <v>-0.1475040592497275</v>
+        <v>-0.1758197717331065</v>
       </c>
       <c r="WT3">
-        <v>-0.1431528204749499</v>
+        <v>-0.1734916807340944</v>
       </c>
       <c r="WU3">
-        <v>-0.1431421302104051</v>
+        <v>-0.1732665784444984</v>
       </c>
       <c r="WV3">
-        <v>-0.1431421302104051</v>
+        <v>-0.1732665784444983</v>
       </c>
       <c r="WW3">
-        <v>-0.1431997350052046</v>
+        <v>-0.1731696721356465</v>
       </c>
       <c r="WX3">
-        <v>-0.1430710958949469</v>
+        <v>-0.1722603226624884</v>
       </c>
       <c r="WY3">
-        <v>-0.143181973576979</v>
+        <v>-0.1723244463893607</v>
       </c>
       <c r="WZ3">
-        <v>-0.1415150770939929</v>
+        <v>-0.1680493175633641</v>
       </c>
       <c r="XA3">
-        <v>-0.145320075452487</v>
+        <v>-0.1727122606252026</v>
       </c>
       <c r="XB3">
-        <v>-0.1475269265473681</v>
+        <v>-0.1758935256823531</v>
       </c>
       <c r="XC3">
-        <v>-0.1477052505125542</v>
+        <v>-0.1760571303897474</v>
       </c>
       <c r="XD3">
-        <v>-0.1431673831691811</v>
+        <v>-0.1737983639280264</v>
       </c>
       <c r="XE3">
-        <v>-0.1430710958949287</v>
+        <v>-0.17226032266248</v>
       </c>
       <c r="XF3">
-        <v>-0.143187227597901</v>
+        <v>-0.1723298511329009</v>
       </c>
       <c r="XG3">
-        <v>-0.1415318055690142</v>
+        <v>-0.1680820774629841</v>
       </c>
       <c r="XH3">
-        <v>-0.1453266967102566</v>
+        <v>-0.1727143355669792</v>
       </c>
       <c r="XI3">
-        <v>-0.1475325337089506</v>
+        <v>-0.1759116107352936</v>
       </c>
       <c r="XJ3">
-        <v>-0.1477515392447009</v>
+        <v>-0.1761117404319302</v>
       </c>
       <c r="XK3">
-        <v>-0.143171654590784</v>
+        <v>-0.1738883267439374</v>
       </c>
       <c r="XL3">
-        <v>-0.1430710958949147</v>
+        <v>-0.172260322662473</v>
       </c>
       <c r="XM3">
-        <v>-0.1431952600419785</v>
+        <v>-0.1723381140052154</v>
       </c>
       <c r="XN3">
-        <v>-0.1453424855629841</v>
+        <v>-0.1727192833935544</v>
       </c>
       <c r="XO3">
-        <v>-0.1475363839999817</v>
+        <v>-0.1759240293272005</v>
       </c>
       <c r="XP3">
-        <v>-0.1477745100358948</v>
+        <v>-0.1761388406967781</v>
       </c>
       <c r="XQ3">
-        <v>-0.1431857922673884</v>
+        <v>-0.1741861166999213</v>
       </c>
       <c r="XR3">
-        <v>-0.1430710958949035</v>
+        <v>-0.1722603226624644</v>
       </c>
       <c r="XS3">
-        <v>-0.1432109473953795</v>
+        <v>-0.172354251387184</v>
       </c>
       <c r="XT3">
-        <v>-0.1453534089588823</v>
+        <v>-0.1727227064948625</v>
       </c>
       <c r="XU3">
-        <v>-0.1475417213480596</v>
+        <v>-0.175941244300375</v>
       </c>
       <c r="XV3">
-        <v>-0.1477997532200221</v>
+        <v>-0.1761686218810028</v>
       </c>
       <c r="XW3">
-        <v>-0.1430710958948945</v>
+        <v>-0.17226032266246</v>
       </c>
       <c r="XX3">
-        <v>-0.1432152838022252</v>
+        <v>-0.1723587121946268</v>
       </c>
       <c r="XY3">
-        <v>-0.1453672980692155</v>
+        <v>-0.1727270589551617</v>
       </c>
       <c r="XZ3">
-        <v>-0.1475543778468079</v>
+        <v>-0.1759820666851085</v>
       </c>
       <c r="YA3">
-        <v>-0.1478288802000211</v>
+        <v>-0.176202985078171</v>
       </c>
       <c r="YB3">
-        <v>-0.1430710958948895</v>
+        <v>-0.1722603226624574</v>
       </c>
       <c r="YC3">
-        <v>-0.1432165427322826</v>
+        <v>-0.1723600072402676</v>
       </c>
       <c r="YD3">
-        <v>-0.1453757356284828</v>
+        <v>-0.1727297030419608</v>
       </c>
       <c r="YE3">
-        <v>-0.1475639989197691</v>
+        <v>-0.1760130989311912</v>
       </c>
       <c r="YF3">
-        <v>-0.1478583257072512</v>
+        <v>-0.1762377240888525</v>
       </c>
       <c r="YG3">
-        <v>-0.1430710958948866</v>
+        <v>-0.1722603226624588</v>
       </c>
       <c r="YH3">
-        <v>-0.1432170887702004</v>
+        <v>-0.1723605689432699</v>
       </c>
       <c r="YI3">
-        <v>-0.1432194431129358</v>
+        <v>-0.1723629908225382</v>
       </c>
       <c r="YJ3">
-        <v>-0.1453833529728704</v>
+        <v>-0.1727320900911603</v>
       </c>
       <c r="YK3">
-        <v>-0.1475707527920112</v>
+        <v>-0.1760348833588255</v>
       </c>
       <c r="YL3">
-        <v>-0.1478909699896378</v>
+        <v>-0.1762762369558976</v>
       </c>
       <c r="YM3">
-        <v>-0.1430710958948848</v>
+        <v>-0.1722603226624655</v>
       </c>
       <c r="YN3">
-        <v>-0.1432175998154026</v>
+        <v>-0.1723610946496673</v>
       </c>
       <c r="YO3">
-        <v>-0.143223270361593</v>
+        <v>-0.1723669278615371</v>
       </c>
       <c r="YP3">
-        <v>-0.1453961999534447</v>
+        <v>-0.172736115939911</v>
       </c>
       <c r="YQ3">
-        <v>-0.1475778280862962</v>
+        <v>-0.1760577046845596</v>
       </c>
       <c r="YR3">
-        <v>-0.147938441864444</v>
+        <v>-0.1763322430799987</v>
       </c>
       <c r="YS3">
-        <v>-0.143071095894884</v>
+        <v>-0.1722603226624691</v>
       </c>
       <c r="YT3">
-        <v>-0.1432181262580295</v>
+        <v>-0.1723616361952256</v>
       </c>
       <c r="YU3">
-        <v>-0.1432391705944782</v>
+        <v>-0.1723832842184539</v>
       </c>
       <c r="YV3">
-        <v>-0.1454088303465421</v>
+        <v>-0.1727400739010124</v>
       </c>
       <c r="YW3">
-        <v>-0.1475836369899361</v>
+        <v>-0.1760764413962525</v>
       </c>
       <c r="YX3">
-        <v>-0.1479437835853547</v>
+        <v>-0.1763499036472884</v>
       </c>
       <c r="YY3">
-        <v>-0.148061473591919</v>
+        <v>-0.1764614618778055</v>
       </c>
       <c r="YZ3">
-        <v>-0.1430710958948843</v>
+        <v>-0.1722603226624692</v>
       </c>
       <c r="ZA3">
-        <v>-0.1432219325602334</v>
+        <v>-0.1723655516952475</v>
       </c>
       <c r="ZB3">
-        <v>-0.1432459230768007</v>
+        <v>-0.1723902304077404</v>
       </c>
       <c r="ZC3">
-        <v>-0.1454148063854324</v>
+        <v>-0.1727419465949454</v>
       </c>
       <c r="ZD3">
-        <v>-0.1475932549691781</v>
+        <v>-0.1761074645852382</v>
       </c>
       <c r="ZE3">
-        <v>-0.1479469912946768</v>
+        <v>-0.1763605088851969</v>
       </c>
       <c r="ZF3">
-        <v>-0.1488405846710108</v>
+        <v>-0.1772797556615728</v>
       </c>
       <c r="ZG3">
-        <v>-0.1430710958948843</v>
+        <v>-0.1722603226624692</v>
       </c>
       <c r="ZH3">
-        <v>-0.1432496506749177</v>
+        <v>-0.1723940650121634</v>
       </c>
       <c r="ZI3">
-        <v>-0.1454213702722426</v>
+        <v>-0.1727440034970318</v>
       </c>
       <c r="ZJ3">
-        <v>-0.1476243377165619</v>
+        <v>-0.1762077253412961</v>
       </c>
       <c r="ZK3">
-        <v>-0.1479499669135246</v>
+        <v>-0.1763703468241405</v>
       </c>
       <c r="ZL3">
-        <v>-0.1493983195648361</v>
+        <v>-0.1778655425018991</v>
       </c>
       <c r="ZM3">
-        <v>-0.1454276702167594</v>
+        <v>-0.1727459776844724</v>
       </c>
       <c r="ZN3">
-        <v>-0.1476969681246735</v>
+        <v>-0.1764420148961665</v>
       </c>
       <c r="ZO3">
-        <v>-0.1479528703267745</v>
+        <v>-0.1763799460678889</v>
       </c>
       <c r="ZP3">
-        <v>-0.1494660172509436</v>
+        <v>-0.1779575735390942</v>
       </c>
       <c r="ZQ3">
-        <v>-0.1509217311630887</v>
+        <v>-0.179443146183324</v>
       </c>
       <c r="ZR3">
-        <v>-0.1454352679215979</v>
+        <v>-0.1727483585404916</v>
       </c>
       <c r="ZS3">
-        <v>-0.1479550480838496</v>
+        <v>-0.1763871461717281</v>
       </c>
       <c r="ZT3">
-        <v>-0.149470202594731</v>
+        <v>-0.1779617714714169</v>
       </c>
       <c r="ZU3">
-        <v>-0.1494720054823399</v>
+        <v>-0.1779698790411373</v>
       </c>
       <c r="ZV3">
-        <v>-0.1509738489087822</v>
+        <v>-0.179498034234857</v>
       </c>
       <c r="ZW3">
-        <v>-0.1512288546595048</v>
+        <v>-0.1797610207055949</v>
       </c>
       <c r="ZX3">
-        <v>-0.145447387277687</v>
+        <v>-0.1727521563127676</v>
       </c>
       <c r="ZY3">
-        <v>-0.1479585075987867</v>
+        <v>-0.1763985840593307</v>
       </c>
       <c r="ZZ3">
-        <v>-0.1494715122165044</v>
+        <v>-0.1779630850322307</v>
       </c>
       <c r="AAA3">
-        <v>-0.1494842045015922</v>
+        <v>-0.1779949474968007</v>
       </c>
       <c r="AAB3">
-        <v>-0.1510040426668081</v>
+        <v>-0.1795298329658026</v>
       </c>
       <c r="AAC3">
-        <v>-0.1515744969126517</v>
+        <v>-0.1801187080907323</v>
       </c>
       <c r="AAD3">
-        <v>-0.1454805569507145</v>
+        <v>-0.1727625504269535</v>
       </c>
       <c r="AAE3">
-        <v>-0.1479643404875638</v>
+        <v>-0.1764178689167773</v>
       </c>
       <c r="AAF3">
-        <v>-0.1494723542657947</v>
+        <v>-0.1779639296142113</v>
       </c>
       <c r="AAG3">
-        <v>-0.1524863686858</v>
+        <v>-0.1810623618434998</v>
       </c>
       <c r="AAH3">
-        <v>-0.1515744969126367</v>
+        <v>-0.180118708090716</v>
       </c>
       <c r="AAI3">
-        <v>-0.1455247004756788</v>
+        <v>-0.1727763831615333</v>
       </c>
       <c r="AAJ3">
-        <v>-0.1480080464803228</v>
+        <v>-0.1765623746394021</v>
       </c>
       <c r="AAK3">
-        <v>-0.1494728621664327</v>
+        <v>-0.1779644390424999</v>
       </c>
       <c r="AAL3">
-        <v>-0.15342130320289</v>
+        <v>-0.1820909732585063</v>
       </c>
       <c r="AAM3">
-        <v>-0.152576383134967</v>
+        <v>-0.1811178383615146</v>
       </c>
       <c r="AAN3">
-        <v>-0.151574496912624</v>
+        <v>-0.1801187080907029</v>
       </c>
       <c r="AAO3">
-        <v>-0.1455289050492399</v>
+        <v>-0.1727777006890698</v>
       </c>
       <c r="AAP3">
-        <v>-0.1480439022651506</v>
+        <v>-0.1766809300744764</v>
       </c>
       <c r="AAQ3">
-        <v>-0.149473375507939</v>
+        <v>-0.1779649539280238</v>
       </c>
       <c r="AAR3">
-        <v>-0.1543864580025703</v>
+        <v>-0.1831528550834778</v>
       </c>
       <c r="AAS3">
-        <v>-0.1525860196106907</v>
+        <v>-0.1811237773353098</v>
       </c>
       <c r="AAT3">
-        <v>-0.1515744969126136</v>
+        <v>-0.1801187080906934</v>
       </c>
       <c r="AAU3">
-        <v>-0.1455322302708394</v>
+        <v>-0.1727787426653362</v>
       </c>
       <c r="AAV3">
-        <v>-0.1480552627461286</v>
+        <v>-0.1767184938938034</v>
       </c>
       <c r="AAW3">
-        <v>-0.1494738340300119</v>
+        <v>-0.1779654138292303</v>
       </c>
       <c r="AAX3">
-        <v>-0.1545578683730881</v>
+        <v>-0.1835354025179801</v>
       </c>
       <c r="AAY3">
-        <v>-0.1551758495035616</v>
+        <v>-0.1833675431566553</v>
       </c>
       <c r="AAZ3">
-        <v>-0.152589698961751</v>
+        <v>-0.1811260449219958</v>
       </c>
       <c r="ABA3">
-        <v>-0.1515744969126075</v>
+        <v>-0.1801187080906814</v>
       </c>
       <c r="ABB3">
-        <v>-0.1455354598628182</v>
+        <v>-0.1727797546745032</v>
       </c>
       <c r="ABC3">
-        <v>-0.1480656050637158</v>
+        <v>-0.176752691511503</v>
       </c>
       <c r="ABD3">
-        <v>-0.1494743506251993</v>
+        <v>-0.1779659319782229</v>
       </c>
       <c r="ABE3">
-        <v>-0.1547907986588062</v>
+        <v>-0.184055276148942</v>
       </c>
       <c r="ABF3">
-        <v>-0.1552817623304363</v>
+        <v>-0.1833963436186415</v>
       </c>
       <c r="ABG3">
-        <v>-0.152593590993675</v>
+        <v>-0.1811284435824611</v>
       </c>
       <c r="ABH3">
-        <v>-0.1515744969126091</v>
+        <v>-0.1801187080906731</v>
       </c>
       <c r="ABI3">
-        <v>-0.1455389191092151</v>
+        <v>-0.1727808386459214</v>
       </c>
       <c r="ABJ3">
-        <v>-0.1480712380639224</v>
+        <v>-0.1767713175887956</v>
       </c>
       <c r="ABK3">
-        <v>-0.1494747645224437</v>
+        <v>-0.1779663471203784</v>
       </c>
       <c r="ABL3">
-        <v>-0.1550635281352395</v>
+        <v>-0.1846640184215284</v>
       </c>
       <c r="ABM3">
-        <v>-0.1553374085234763</v>
+        <v>-0.1834114748649293</v>
       </c>
       <c r="ABN3">
-        <v>-0.1525968210477038</v>
+        <v>-0.1811304342645076</v>
       </c>
       <c r="ABO3">
-        <v>-0.151574496912611</v>
+        <v>-0.1801187080906632</v>
       </c>
       <c r="ABP3">
-        <v>-0.1455421174485936</v>
+        <v>-0.172781840859831</v>
       </c>
       <c r="ABQ3">
-        <v>-0.1480757369079314</v>
+        <v>-0.176786193544743</v>
       </c>
       <c r="ABR3">
-        <v>-0.1494752609925921</v>
+        <v>-0.177966845083796</v>
       </c>
       <c r="ABS3">
-        <v>-0.1552825306972931</v>
+        <v>-0.1851528725836967</v>
       </c>
       <c r="ABT3">
-        <v>-0.1554639424618859</v>
+        <v>-0.1834444838344689</v>
       </c>
       <c r="ABU3">
-        <v>-0.1553435861019339</v>
+        <v>-0.1834132002389373</v>
       </c>
       <c r="ABV3">
-        <v>-0.1526006462319473</v>
+        <v>-0.1811327917238039</v>
       </c>
       <c r="ABW3">
-        <v>-0.1515744969126196</v>
+        <v>-0.1801187080906551</v>
       </c>
       <c r="ABX3">
-        <v>-0.1455451315496599</v>
+        <v>-0.172782785340926</v>
       </c>
       <c r="ABY3">
-        <v>-0.1480795731501307</v>
+        <v>-0.176798878585625</v>
       </c>
       <c r="ABZ3">
-        <v>-0.1494757959986888</v>
+        <v>-0.177967381699066</v>
       </c>
       <c r="ACA3">
-        <v>-0.1553193496404933</v>
+        <v>-0.1853159051045077</v>
       </c>
       <c r="ACB3">
-        <v>-0.1554829364989656</v>
+        <v>-0.1852362396409648</v>
       </c>
       <c r="ACC3">
-        <v>-0.1555668042627907</v>
+        <v>-0.1834713164043899</v>
       </c>
       <c r="ACD3">
-        <v>-0.1553480533899018</v>
+        <v>-0.1834144479331777</v>
       </c>
       <c r="ACE3">
-        <v>-0.1526043767228411</v>
+        <v>-0.1811350908221101</v>
       </c>
       <c r="ACF3">
-        <v>-0.1515744969126293</v>
+        <v>-0.1801187080906493</v>
       </c>
       <c r="ACG3">
-        <v>-0.1455493235943948</v>
+        <v>-0.1727840989340841</v>
       </c>
       <c r="ACH3">
-        <v>-0.1480840750158192</v>
+        <v>-0.1768137646636845</v>
       </c>
       <c r="ACI3">
-        <v>-0.1494767720897471</v>
+        <v>-0.1779683607259759</v>
       </c>
       <c r="ACJ3">
-        <v>-0.1553701127474177</v>
+        <v>-0.1855406890853615</v>
       </c>
       <c r="ACK3">
-        <v>-0.1556504635223872</v>
+        <v>-0.1853059259989601</v>
       </c>
       <c r="ACL3">
-        <v>-0.1553518233897277</v>
+        <v>-0.1834155008764247</v>
       </c>
       <c r="ACM3">
-        <v>-0.1526095053594014</v>
+        <v>-0.1811382515939286</v>
       </c>
       <c r="ACN3">
-        <v>-0.1515744969126393</v>
+        <v>-0.1801187080906452</v>
       </c>
       <c r="ACO3">
-        <v>-0.145554460784512</v>
+        <v>-0.1727857086897873</v>
       </c>
       <c r="ACP3">
-        <v>-0.1480881885578857</v>
+        <v>-0.1768273667544853</v>
       </c>
       <c r="ACQ3">
-        <v>-0.1494840747881657</v>
+        <v>-0.1779756853892296</v>
       </c>
       <c r="ACR3">
-        <v>-0.1554949939615667</v>
+        <v>-0.186093711624003</v>
       </c>
       <c r="ACS3">
-        <v>-0.1556910810359866</v>
+        <v>-0.1853466735660298</v>
       </c>
       <c r="ACT3">
-        <v>-0.1556534049867912</v>
+        <v>-0.1853062858616216</v>
       </c>
       <c r="ACU3">
-        <v>-0.1553581913702703</v>
+        <v>-0.1834172794205224</v>
       </c>
       <c r="ACV3">
-        <v>-0.1526165606488894</v>
+        <v>-0.1811425997547192</v>
       </c>
       <c r="ACW3">
-        <v>-0.1515744969126444</v>
+        <v>-0.1801187080906427</v>
       </c>
       <c r="ACX3">
-        <v>-0.1455788098967023</v>
+        <v>-0.1727933385302828</v>
       </c>
       <c r="ACY3">
-        <v>-0.1480945702432981</v>
+        <v>-0.1768484689438778</v>
       </c>
       <c r="ACZ3">
-        <v>-0.1495064540169539</v>
+        <v>-0.1779981319300488</v>
       </c>
       <c r="ADA3">
-        <v>-0.1555962144892578</v>
+        <v>-0.1865419933920723</v>
       </c>
       <c r="ADB3">
-        <v>-0.1557308825741489</v>
+        <v>-0.1853866025473333</v>
       </c>
       <c r="ADC3">
-        <v>-0.1556562174077954</v>
+        <v>-0.1853066299365443</v>
       </c>
       <c r="ADD3">
-        <v>-0.1553671090043102</v>
+        <v>-0.1834197700634207</v>
       </c>
       <c r="ADE3">
-        <v>-0.1526240271676336</v>
+        <v>-0.1811472013494279</v>
       </c>
       <c r="ADF3">
-        <v>-0.1515744969126515</v>
+        <v>-0.1801187080906429</v>
       </c>
       <c r="ADG3">
-        <v>-0.1457870127749438</v>
+        <v>-0.1728585769210293</v>
       </c>
       <c r="ADH3">
-        <v>-0.1481074542878859</v>
+        <v>-0.1768910727839965</v>
       </c>
       <c r="ADI3">
-        <v>-0.1556753068087718</v>
+        <v>-0.1868922982079528</v>
       </c>
       <c r="ADJ3">
-        <v>-0.155659249348608</v>
+        <v>-0.1853070008673456</v>
       </c>
       <c r="ADK3">
-        <v>-0.1553737261208876</v>
+        <v>-0.1834216181805613</v>
       </c>
       <c r="ADL3">
-        <v>-0.1526289869857156</v>
+        <v>-0.1811502580681735</v>
       </c>
       <c r="ADM3">
-        <v>-0.1515744969126575</v>
+        <v>-0.1801187080906423</v>
       </c>
       <c r="ADN3">
-        <v>-0.1481094023703695</v>
+        <v>-0.1769008440528252</v>
       </c>
       <c r="ADO3">
-        <v>-0.1481187847285605</v>
+        <v>-0.1769086906246366</v>
       </c>
       <c r="ADP3">
-        <v>-0.1557467921531391</v>
+        <v>-0.1872089291056984</v>
       </c>
       <c r="ADQ3">
-        <v>-0.1556619566436708</v>
+        <v>-0.1853073320802671</v>
       </c>
       <c r="ADR3">
-        <v>-0.1553846876939657</v>
+        <v>-0.1834246796669816</v>
       </c>
       <c r="ADS3">
-        <v>-0.1526340348985272</v>
+        <v>-0.1811533690766712</v>
       </c>
       <c r="ADT3">
-        <v>-0.151574496912662</v>
+        <v>-0.1801187080906422</v>
       </c>
       <c r="ADU3">
-        <v>-0.1481111012835086</v>
+        <v>-0.1769093655567148</v>
       </c>
       <c r="ADV3">
-        <v>-0.1481369152035577</v>
+        <v>-0.1769368820268478</v>
       </c>
       <c r="ADW3">
-        <v>-0.155749054109427</v>
+        <v>-0.1872175559690122</v>
       </c>
       <c r="ADX3">
-        <v>-0.1557868379429335</v>
+        <v>-0.1874022860144358</v>
       </c>
       <c r="ADY3">
-        <v>-0.1556649464037926</v>
+        <v>-0.1853076978498016</v>
       </c>
       <c r="ADZ3">
-        <v>-0.1554607736916651</v>
+        <v>-0.1834459296202388</v>
       </c>
       <c r="AEA3">
-        <v>-0.1526364485265658</v>
+        <v>-0.1811548565850168</v>
       </c>
       <c r="AEB3">
-        <v>-0.1515744969126658</v>
+        <v>-0.1801187080906394</v>
       </c>
       <c r="AEC3">
-        <v>-0.1481125063630204</v>
+        <v>-0.1769164132534404</v>
       </c>
       <c r="AED3">
-        <v>-0.1481524060389167</v>
+        <v>-0.1769609691083258</v>
       </c>
       <c r="AEE3">
-        <v>-0.1557513220105162</v>
+        <v>-0.1872262055303245</v>
       </c>
       <c r="AEF3">
-        <v>-0.155831360088224</v>
+        <v>-0.187617250113913</v>
       </c>
       <c r="AEG3">
-        <v>-0.1557868379429335</v>
+        <v>-0.1874022860144358</v>
       </c>
       <c r="AEH3">
-        <v>-0.1556668740025616</v>
+        <v>-0.1853079336734744</v>
       </c>
       <c r="AEI3">
-        <v>-0.1556288476403838</v>
+        <v>-0.1834928688773698</v>
       </c>
       <c r="AEJ3">
-        <v>-0.1526402876999759</v>
+        <v>-0.1811572226494117</v>
       </c>
       <c r="AEK3">
-        <v>-0.1515744969126668</v>
+        <v>-0.1801187080906334</v>
       </c>
       <c r="AEL3">
-        <v>-0.1481135990217281</v>
+        <v>-0.1769218939004534</v>
       </c>
       <c r="AEM3">
-        <v>-0.148161173292944</v>
+        <v>-0.1769746015694299</v>
       </c>
       <c r="AEN3">
-        <v>-0.1557535943157594</v>
+        <v>-0.1872348719139262</v>
       </c>
       <c r="AEO3">
-        <v>-0.1558686907406737</v>
+        <v>-0.187797498045943</v>
       </c>
       <c r="AEP3">
-        <v>-0.155831360088224</v>
+        <v>-0.187617250113913</v>
       </c>
       <c r="AEQ3">
-        <v>-0.1556698346658852</v>
+        <v>-0.1853082958825756</v>
       </c>
       <c r="AER3">
-        <v>-0.1526438918372625</v>
+        <v>-0.1811594438607091</v>
       </c>
       <c r="AES3">
-        <v>-0.1515744969126662</v>
+        <v>-0.1801187080906307</v>
       </c>
       <c r="AET3">
-        <v>-0.1481147103238243</v>
+        <v>-0.176927468071754</v>
       </c>
       <c r="AEU3">
-        <v>-0.1557558528676911</v>
+        <v>-0.1872434858685949</v>
       </c>
       <c r="AEV3">
-        <v>-0.1559088205894887</v>
+        <v>-0.18799126793656</v>
       </c>
       <c r="AEW3">
-        <v>-0.1558686907406737</v>
+        <v>-0.187797498045943</v>
       </c>
       <c r="AEX3">
-        <v>-0.1556941870223492</v>
+        <v>-0.1853112751463269</v>
       </c>
       <c r="AEY3">
-        <v>-0.152649041560453</v>
+        <v>-0.181162617606227</v>
       </c>
       <c r="AEZ3">
-        <v>-0.1515744969126673</v>
+        <v>-0.1801187080906307</v>
       </c>
       <c r="AFA3">
-        <v>-0.1481156747369177</v>
+        <v>-0.1769323054728749</v>
       </c>
       <c r="AFB3">
-        <v>-0.1557581200055559</v>
+        <v>-0.1872521325945243</v>
       </c>
       <c r="AFC3">
-        <v>-0.1559417688837297</v>
+        <v>-0.1881503660284684</v>
       </c>
       <c r="AFD3">
-        <v>-0.1559088205894887</v>
+        <v>-0.18799126793656</v>
       </c>
       <c r="AFE3">
-        <v>-0.1557781183207961</v>
+        <v>-0.1853215430666168</v>
       </c>
       <c r="AFF3">
-        <v>-0.1527034011246596</v>
+        <v>-0.1811961189262002</v>
       </c>
       <c r="AFG3">
-        <v>-0.1481163673933661</v>
+        <v>-0.1769357797746917</v>
       </c>
       <c r="AFH3">
-        <v>-0.1557603856050941</v>
+        <v>-0.1872607734785161</v>
       </c>
       <c r="AFI3">
-        <v>-0.1559771427720707</v>
+        <v>-0.1883211815132536</v>
       </c>
       <c r="AFJ3">
-        <v>-0.1559417688837296</v>
+        <v>-0.1881503660284684</v>
       </c>
       <c r="AFK3">
-        <v>-0.1527251439580094</v>
+        <v>-0.1812095187533408</v>
       </c>
       <c r="AFL3">
-        <v>-0.1481171715690471</v>
+        <v>-0.1769398134523876</v>
       </c>
       <c r="AFM3">
-        <v>-0.1557626526374699</v>
+        <v>-0.1872694198524428</v>
       </c>
       <c r="AFN3">
-        <v>-0.1560560623887242</v>
+        <v>-0.188702247033385</v>
       </c>
       <c r="AFO3">
-        <v>-0.1559771427720476</v>
+        <v>-0.1883211815132406</v>
       </c>
       <c r="AFP3">
-        <v>-0.1559771427720707</v>
+        <v>-0.1883211815132536</v>
       </c>
       <c r="AFQ3">
-        <v>-0.152736185013007</v>
+        <v>-0.1812163231932867</v>
       </c>
       <c r="AFR3">
-        <v>-0.1481183830710879</v>
+        <v>-0.1769458902561231</v>
       </c>
       <c r="AFS3">
-        <v>-0.15576375924858</v>
+        <v>-0.1872736404336225</v>
       </c>
       <c r="AFT3">
-        <v>-0.1560676088290924</v>
+        <v>-0.1887580043213999</v>
       </c>
       <c r="AFU3">
-        <v>-0.1559771427720218</v>
+        <v>-0.1883211815132267</v>
       </c>
       <c r="AFV3">
-        <v>-0.1559771427720476</v>
+        <v>-0.1883211815132406</v>
       </c>
       <c r="AFW3">
-        <v>-0.1527386281921382</v>
+        <v>-0.181217828886905</v>
       </c>
       <c r="AFX3">
-        <v>-0.1481203624225066</v>
+        <v>-0.1769558185639952</v>
       </c>
       <c r="AFY3">
-        <v>-0.1557886306360442</v>
+        <v>-0.1873685007323329</v>
       </c>
       <c r="AFZ3">
-        <v>-0.1561001381268876</v>
+        <v>-0.1889150938137347</v>
       </c>
       <c r="AGA3">
-        <v>-0.1559771427719848</v>
+        <v>-0.1883211815132073</v>
       </c>
       <c r="AGB3">
-        <v>-0.1559771427720218</v>
+        <v>-0.1883211815132267</v>
       </c>
       <c r="AGC3">
-        <v>-0.1527405523174152</v>
+        <v>-0.181219014695185</v>
       </c>
       <c r="AGD3">
-        <v>-0.1481283039678158</v>
+        <v>-0.1770195542812335</v>
       </c>
       <c r="AGE3">
-        <v>-0.1481415091609745</v>
+        <v>-0.1769982472067459</v>
       </c>
       <c r="AGF3">
-        <v>-0.1558048041766494</v>
+        <v>-0.1874301887793756</v>
       </c>
       <c r="AGG3">
-        <v>-0.1561383363804607</v>
+        <v>-0.189099572552752</v>
       </c>
       <c r="AGH3">
-        <v>-0.1559771427719667</v>
+        <v>-0.188321181513197</v>
       </c>
       <c r="AGI3">
-        <v>-0.1559771427719848</v>
+        <v>-0.1883211815132073</v>
       </c>
       <c r="AGJ3">
-        <v>-0.1527426138935312</v>
+        <v>-0.1812202852118224</v>
       </c>
       <c r="AGK3">
-        <v>-0.1558189496571991</v>
+        <v>-0.1874841425842734</v>
       </c>
       <c r="AGL3">
-        <v>-0.1561432915740344</v>
+        <v>-0.1891235047165434</v>
       </c>
       <c r="AGM3">
-        <v>-0.1559771427719555</v>
+        <v>-0.1883211815131921</v>
       </c>
       <c r="AGN3">
-        <v>-0.1559771427719667</v>
+        <v>-0.188321181513197</v>
       </c>
       <c r="AGO3">
-        <v>-0.15274426330642</v>
+        <v>-0.1812213017184755</v>
       </c>
       <c r="AGP3">
-        <v>-0.1558337874335098</v>
+        <v>-0.1875407380022355</v>
       </c>
       <c r="AGQ3">
-        <v>-0.1561454097290116</v>
+        <v>-0.1891256316887031</v>
       </c>
       <c r="AGR3">
-        <v>-0.1561524363977904</v>
+        <v>-0.1891857013255785</v>
       </c>
       <c r="AGS3">
-        <v>-0.1559771427719513</v>
+        <v>-0.1883211815131934</v>
       </c>
       <c r="AGT3">
-        <v>-0.1559771427719555</v>
+        <v>-0.188321181513192</v>
       </c>
       <c r="AGU3">
-        <v>-0.1527458648198741</v>
+        <v>-0.1812222887051975</v>
       </c>
       <c r="AGV3">
-        <v>-0.1558591229241431</v>
+        <v>-0.1876373771234165</v>
       </c>
       <c r="AGW3">
-        <v>-0.1561473697164889</v>
+        <v>-0.1891275998349716</v>
       </c>
       <c r="AGX3">
-        <v>-0.156173837916809</v>
+        <v>-0.1893312659466476</v>
       </c>
       <c r="AGY3">
-        <v>-0.1559771427719513</v>
+        <v>-0.1883211815131934</v>
       </c>
       <c r="AGZ3">
-        <v>-0.1559771427719513</v>
+        <v>-0.1883211815131934</v>
       </c>
       <c r="AHA3">
-        <v>-0.1527474622724238</v>
+        <v>-0.1812232731889739</v>
       </c>
       <c r="AHB3">
-        <v>-0.15586533721832</v>
+        <v>-0.1876610812663819</v>
       </c>
       <c r="AHC3">
-        <v>-0.156150350053135</v>
+        <v>-0.1891305925778067</v>
       </c>
       <c r="AHD3">
-        <v>-0.1562246096654619</v>
+        <v>-0.1896766325179897</v>
       </c>
       <c r="AHE3">
-        <v>-0.1527490410358412</v>
+        <v>-0.181224246154676</v>
       </c>
       <c r="AHF3">
-        <v>-0.1558653372190743</v>
+        <v>-0.1876820698049813</v>
       </c>
       <c r="AHG3">
-        <v>-0.1559016643069335</v>
+        <v>-0.1876884301253567</v>
       </c>
       <c r="AHH3">
-        <v>-0.1561541163903854</v>
+        <v>-0.1891343745931431</v>
       </c>
       <c r="AHI3">
-        <v>-0.1527772727980046</v>
+        <v>-0.1812416448759215</v>
       </c>
       <c r="AHJ3">
-        <v>-0.155865337220311</v>
+        <v>-0.1877165317001667</v>
       </c>
       <c r="AHK3">
-        <v>-0.155932474905789</v>
+        <v>-0.1877116258300704</v>
       </c>
       <c r="AHL3">
-        <v>-0.1561687787380997</v>
+        <v>-0.1891490979759402</v>
       </c>
       <c r="AHM3">
-        <v>-0.1528429382549137</v>
+        <v>-0.1812898350720793</v>
       </c>
       <c r="AHN3">
-        <v>-0.1528149046041694</v>
+        <v>-0.1812605165085858</v>
       </c>
       <c r="AHO3">
-        <v>-0.1558653372205547</v>
+        <v>-0.187723345637269</v>
       </c>
       <c r="AHP3">
-        <v>-0.1559842619000946</v>
+        <v>-0.1877506134458422</v>
       </c>
       <c r="AHQ3">
-        <v>-0.1561954141397198</v>
+        <v>-0.1891758442542433</v>
       </c>
       <c r="AHR3">
-        <v>-0.1528865487146983</v>
+        <v>-0.1813218394587032</v>
       </c>
       <c r="AHS3">
-        <v>-0.1558653372207578</v>
+        <v>-0.1877291032838779</v>
       </c>
       <c r="AHT3">
-        <v>-0.1558653372209285</v>
+        <v>-0.1877339552452557</v>
       </c>
       <c r="AHU3">
-        <v>-0.1558653372211538</v>
+        <v>-0.1877402668540093</v>
       </c>
       <c r="AHV3">
-        <v>-0.1558653372215631</v>
+        <v>-0.1877516899290169</v>
       </c>
       <c r="AHW3">
-        <v>-0.1558653372222765</v>
+        <v>-0.1877714956365248</v>
       </c>
       <c r="AHX3">
-        <v>-0.1558653372280971</v>
+        <v>-0.1879337319496391</v>
       </c>
     </row>
   </sheetData>

--- a/results/ppc_bus/va.xlsx
+++ b/results/ppc_bus/va.xlsx
@@ -3103,5448 +3103,5448 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.0652823897250086</v>
+        <v>-0.04888619523923111</v>
       </c>
       <c r="D2">
-        <v>-0.06586687364030906</v>
+        <v>-0.04932483776662371</v>
       </c>
       <c r="E2">
-        <v>-0.0659281530033079</v>
+        <v>-0.04937082577861156</v>
       </c>
       <c r="F2">
-        <v>-0.06598556289958107</v>
+        <v>-0.04941390974977273</v>
       </c>
       <c r="G2">
-        <v>-0.06603561668156378</v>
+        <v>-0.0494514731214696</v>
       </c>
       <c r="H2">
-        <v>-0.06611447216764368</v>
+        <v>-0.04951065081450195</v>
       </c>
       <c r="I2">
-        <v>-0.07148740377734998</v>
+        <v>-0.0535421982836031</v>
       </c>
       <c r="J2">
-        <v>-0.07172819829128244</v>
+        <v>-0.05372284890207731</v>
       </c>
       <c r="K2">
-        <v>-0.07192862583936208</v>
+        <v>-0.05387321328127311</v>
       </c>
       <c r="L2">
-        <v>-0.07210452430192552</v>
+        <v>-0.05400517411910961</v>
       </c>
       <c r="M2">
-        <v>-0.0722357822564858</v>
+        <v>-0.05410364434962225</v>
       </c>
       <c r="N2">
-        <v>-0.07235900463735701</v>
+        <v>-0.05419608560914362</v>
       </c>
       <c r="O2">
-        <v>-0.07243477681346043</v>
+        <v>-0.05425292947713967</v>
       </c>
       <c r="P2">
-        <v>-0.07262342108040355</v>
+        <v>-0.05439444832681621</v>
       </c>
       <c r="Q2">
-        <v>-0.07415188678856457</v>
+        <v>-0.05554103186969777</v>
       </c>
       <c r="R2">
-        <v>-0.0741518867885619</v>
+        <v>-0.0555410318696998</v>
       </c>
       <c r="S2">
-        <v>-0.07600610419793499</v>
+        <v>-0.05693184868437465</v>
       </c>
       <c r="T2">
-        <v>-0.0741518867885607</v>
+        <v>-0.05554103186970072</v>
       </c>
       <c r="U2">
-        <v>-0.07613371354450804</v>
+        <v>-0.05702756101763485</v>
       </c>
       <c r="V2">
-        <v>-0.07415188678855926</v>
+        <v>-0.05554103186970223</v>
       </c>
       <c r="W2">
-        <v>-0.07627700822554219</v>
+        <v>-0.05713503719897091</v>
       </c>
       <c r="X2">
-        <v>-0.07415188678855726</v>
+        <v>-0.055541031869703</v>
       </c>
       <c r="Y2">
-        <v>-0.07651033064782053</v>
+        <v>-0.05731003560778068</v>
       </c>
       <c r="Z2">
-        <v>-0.0741518867885555</v>
+        <v>-0.05554103186970406</v>
       </c>
       <c r="AA2">
-        <v>-0.07693483140197055</v>
+        <v>-0.05762841736124578</v>
       </c>
       <c r="AB2">
-        <v>-0.07415188678855426</v>
+        <v>-0.05554103186970493</v>
       </c>
       <c r="AC2">
-        <v>-0.07701506140557068</v>
+        <v>-0.05772582847333997</v>
       </c>
       <c r="AD2">
-        <v>-0.08214831715391981</v>
+        <v>-0.06148723288957662</v>
       </c>
       <c r="AE2">
-        <v>-0.07415188678855321</v>
+        <v>-0.05554103186970598</v>
       </c>
       <c r="AF2">
-        <v>-0.07702390129814565</v>
+        <v>-0.05773941034789746</v>
       </c>
       <c r="AG2">
-        <v>-0.07702798049526562</v>
+        <v>-0.05773873855739544</v>
       </c>
       <c r="AH2">
-        <v>-0.08353724016087881</v>
+        <v>-0.06251506326645721</v>
       </c>
       <c r="AI2">
-        <v>-0.07415188678855106</v>
+        <v>-0.05554103186970925</v>
       </c>
       <c r="AJ2">
-        <v>-0.07704414541065301</v>
+        <v>-0.05777051411671481</v>
       </c>
       <c r="AK2">
-        <v>-0.07702841800268587</v>
+        <v>-0.05773917575983639</v>
       </c>
       <c r="AL2">
-        <v>-0.08363074374497907</v>
+        <v>-0.0626586706615937</v>
       </c>
       <c r="AM2">
-        <v>-0.0876337599556424</v>
+        <v>-0.0654619020200007</v>
       </c>
       <c r="AN2">
-        <v>-0.07415188678854814</v>
+        <v>-0.05554103186971164</v>
       </c>
       <c r="AO2">
-        <v>-0.07702904705938313</v>
+        <v>-0.05773980437802567</v>
       </c>
       <c r="AP2">
-        <v>-0.08363509847180728</v>
+        <v>-0.06266758837603595</v>
       </c>
       <c r="AQ2">
-        <v>-0.08364057519886525</v>
+        <v>-0.06266370392438489</v>
       </c>
       <c r="AR2">
-        <v>-0.09047864612741906</v>
+        <v>-0.06750793501878843</v>
       </c>
       <c r="AS2">
-        <v>-0.08763375995566976</v>
+        <v>-0.06546190201992252</v>
       </c>
       <c r="AT2">
-        <v>-0.07415188678854762</v>
+        <v>-0.0555410318697122</v>
       </c>
       <c r="AU2">
-        <v>-0.07702985378192638</v>
+        <v>-0.05774061053821273</v>
       </c>
       <c r="AV2">
-        <v>-0.08363706128032769</v>
+        <v>-0.06267160786864766</v>
       </c>
       <c r="AW2">
-        <v>-0.08366423171946831</v>
+        <v>-0.06267581495520695</v>
       </c>
       <c r="AX2">
-        <v>-0.09262958673882195</v>
+        <v>-0.06905464475522891</v>
       </c>
       <c r="AY2">
-        <v>-0.08763375995568615</v>
+        <v>-0.06546190201988882</v>
       </c>
       <c r="AZ2">
-        <v>-0.07415188678854652</v>
+        <v>-0.05554103186971236</v>
       </c>
       <c r="BA2">
-        <v>-0.07703181851591435</v>
+        <v>-0.05774257390260836</v>
       </c>
       <c r="BB2">
-        <v>-0.08363914143909522</v>
+        <v>-0.06267586767839507</v>
       </c>
       <c r="BC2">
-        <v>-0.0929397930552566</v>
+        <v>-0.06927769251450454</v>
       </c>
       <c r="BD2">
-        <v>-0.0926295867387799</v>
+        <v>-0.06905464475520279</v>
       </c>
       <c r="BE2">
-        <v>-0.08763375995568876</v>
+        <v>-0.06546190201984622</v>
       </c>
       <c r="BF2">
-        <v>-0.07415188678854406</v>
+        <v>-0.05554103186971226</v>
       </c>
       <c r="BG2">
-        <v>-0.07703350068832504</v>
+        <v>-0.05774425490239513</v>
       </c>
       <c r="BH2">
-        <v>-0.08364112264820293</v>
+        <v>-0.06267992486007988</v>
       </c>
       <c r="BI2">
-        <v>-0.09434521100996744</v>
+        <v>-0.07028817689187768</v>
       </c>
       <c r="BJ2">
-        <v>-0.09262958673877721</v>
+        <v>-0.06905464475519847</v>
       </c>
       <c r="BK2">
-        <v>-0.08763375995568794</v>
+        <v>-0.06546190201981628</v>
       </c>
       <c r="BL2">
-        <v>-0.07415188678854241</v>
+        <v>-0.05554103186971146</v>
       </c>
       <c r="BM2">
-        <v>-0.07704156443763033</v>
+        <v>-0.05775231303053897</v>
       </c>
       <c r="BN2">
-        <v>-0.08364230919735613</v>
+        <v>-0.06268235471421205</v>
       </c>
       <c r="BO2">
-        <v>-0.0946234187246861</v>
+        <v>-0.070476201828037</v>
       </c>
       <c r="BP2">
-        <v>-0.09448375619665615</v>
+        <v>-0.07060752176884835</v>
       </c>
       <c r="BQ2">
-        <v>-0.09262958673877773</v>
+        <v>-0.0690546447551966</v>
       </c>
       <c r="BR2">
-        <v>-0.08763375995569009</v>
+        <v>-0.06546190201979057</v>
       </c>
       <c r="BS2">
-        <v>-0.07415188678854059</v>
+        <v>-0.05554103186971067</v>
       </c>
       <c r="BT2">
-        <v>-0.07707006726482085</v>
+        <v>-0.05778079598852649</v>
       </c>
       <c r="BU2">
-        <v>-0.08364463712154822</v>
+        <v>-0.06268712191745028</v>
       </c>
       <c r="BV2">
-        <v>-0.09791163137090579</v>
+        <v>-0.07269823626986981</v>
       </c>
       <c r="BW2">
-        <v>-0.09454019194142677</v>
+        <v>-0.07065149543873567</v>
       </c>
       <c r="BX2">
-        <v>-0.09449504327449067</v>
+        <v>-0.07071965634102477</v>
       </c>
       <c r="BY2">
-        <v>-0.09262958673878241</v>
+        <v>-0.06905464475518872</v>
       </c>
       <c r="BZ2">
-        <v>-0.08763375995569025</v>
+        <v>-0.06546190201973319</v>
       </c>
       <c r="CA2">
-        <v>-0.07415188678853354</v>
+        <v>-0.05554103186970699</v>
       </c>
       <c r="CB2">
-        <v>-0.08365643516856927</v>
+        <v>-0.0627112824455464</v>
       </c>
       <c r="CC2">
-        <v>-0.0990583773762323</v>
+        <v>-0.07347303562519841</v>
       </c>
       <c r="CD2">
-        <v>-0.09262958673878419</v>
+        <v>-0.06905464475518117</v>
       </c>
       <c r="CE2">
-        <v>-0.08763375995569105</v>
+        <v>-0.06546190201955357</v>
       </c>
       <c r="CF2">
-        <v>-0.07415188678852459</v>
+        <v>-0.05554103186970211</v>
       </c>
       <c r="CG2">
-        <v>-0.08370089340960332</v>
+        <v>-0.06280232709234743</v>
       </c>
       <c r="CH2">
-        <v>-0.0993086734023937</v>
+        <v>-0.07364213977860057</v>
       </c>
       <c r="CI2">
-        <v>-0.09262958673878732</v>
+        <v>-0.06905464475517797</v>
       </c>
       <c r="CJ2">
-        <v>-0.08763375995569046</v>
+        <v>-0.06546190201920429</v>
       </c>
       <c r="CK2">
-        <v>-0.07415188678851946</v>
+        <v>-0.05554103186969932</v>
       </c>
       <c r="CL2">
-        <v>-0.09981627661468206</v>
+        <v>-0.07398507564811702</v>
       </c>
       <c r="CM2">
-        <v>-0.09262958673878732</v>
+        <v>-0.06905464475517797</v>
       </c>
       <c r="CN2">
-        <v>-0.08763375995568452</v>
+        <v>-0.06546190201912436</v>
       </c>
       <c r="CO2">
-        <v>-0.07415188678851739</v>
+        <v>-0.05554103186969933</v>
       </c>
       <c r="CP2">
-        <v>-0.1002950220184497</v>
+        <v>-0.07430850382457423</v>
       </c>
       <c r="CQ2">
-        <v>-0.08763375995568343</v>
+        <v>-0.06546190201910512</v>
       </c>
       <c r="CR2">
-        <v>-0.07415188678851656</v>
+        <v>-0.05554103186969914</v>
       </c>
       <c r="CS2">
-        <v>-0.1005733099459575</v>
+        <v>-0.0744965029573508</v>
       </c>
       <c r="CT2">
-        <v>-0.08763375995568143</v>
+        <v>-0.06546190201908096</v>
       </c>
       <c r="CU2">
-        <v>-0.07415188678851616</v>
+        <v>-0.05554103186969911</v>
       </c>
       <c r="CV2">
-        <v>-0.1007571076873812</v>
+        <v>-0.07462066660839808</v>
       </c>
       <c r="CW2">
-        <v>-0.0876337599556833</v>
+        <v>-0.06546190201907502</v>
       </c>
       <c r="CX2">
-        <v>-0.07415188678851656</v>
+        <v>-0.05554103186969903</v>
       </c>
       <c r="CY2">
-        <v>-0.1010108933216632</v>
+        <v>-0.07479210755050147</v>
       </c>
       <c r="CZ2">
-        <v>-0.08763375995589402</v>
+        <v>-0.06546190201878738</v>
       </c>
       <c r="DA2">
-        <v>-0.07415188678851656</v>
+        <v>-0.05554103186969903</v>
       </c>
       <c r="DB2">
-        <v>-0.1010399674476732</v>
+        <v>-0.07480332282365501</v>
       </c>
       <c r="DC2">
-        <v>-0.1011428402015481</v>
+        <v>-0.07489156252412467</v>
       </c>
       <c r="DD2">
-        <v>-0.08763375995590322</v>
+        <v>-0.06546190201877486</v>
       </c>
       <c r="DE2">
-        <v>-0.1010751431816448</v>
+        <v>-0.07481689176487998</v>
       </c>
       <c r="DF2">
-        <v>-0.1012176623280575</v>
+        <v>-0.07494795939189802</v>
       </c>
       <c r="DG2">
-        <v>-0.08763375995591356</v>
+        <v>-0.06546190201874935</v>
       </c>
       <c r="DH2">
-        <v>-0.1011159144374367</v>
+        <v>-0.07483261914614826</v>
       </c>
       <c r="DI2">
-        <v>-0.1041709275936411</v>
+        <v>-0.07717378739150936</v>
       </c>
       <c r="DJ2">
-        <v>-0.08763375995603297</v>
+        <v>-0.06546190201807664</v>
       </c>
       <c r="DK2">
-        <v>-0.101178078655046</v>
+        <v>-0.07485659875898223</v>
       </c>
       <c r="DL2">
-        <v>-0.1044668862533097</v>
+        <v>-0.07739682689463799</v>
       </c>
       <c r="DM2">
-        <v>-0.08763375995614243</v>
+        <v>-0.06546190201747838</v>
       </c>
       <c r="DN2">
-        <v>-0.1012579994379985</v>
+        <v>-0.07488742783809997</v>
       </c>
       <c r="DO2">
-        <v>-0.1044977229651155</v>
+        <v>-0.07741336428478607</v>
       </c>
       <c r="DP2">
-        <v>-0.1058357014519188</v>
+        <v>-0.07845169587292776</v>
       </c>
       <c r="DQ2">
-        <v>-0.087633759956148</v>
+        <v>-0.0654619020174287</v>
       </c>
       <c r="DR2">
-        <v>-0.1013153751032</v>
+        <v>-0.07490956019746653</v>
       </c>
       <c r="DS2">
-        <v>-0.1044977229651194</v>
+        <v>-0.07741336428478496</v>
       </c>
       <c r="DT2">
-        <v>-0.1045127371896071</v>
+        <v>-0.07742141624468482</v>
       </c>
       <c r="DU2">
-        <v>-0.1083048039396242</v>
+        <v>-0.08035438416614252</v>
       </c>
       <c r="DV2">
-        <v>-0.08763375995615205</v>
+        <v>-0.06546190201739251</v>
       </c>
       <c r="DW2">
-        <v>-0.1013964467515647</v>
+        <v>-0.07494083309578567</v>
       </c>
       <c r="DX2">
-        <v>-0.1044977229651229</v>
+        <v>-0.07741336428478454</v>
       </c>
       <c r="DY2">
-        <v>-0.1045832691250483</v>
+        <v>-0.07745924169467457</v>
       </c>
       <c r="DZ2">
-        <v>-0.1094154194009358</v>
+        <v>-0.08121017723690425</v>
       </c>
       <c r="EA2">
-        <v>-0.08763375995615601</v>
+        <v>-0.06546190201736414</v>
       </c>
       <c r="EB2">
-        <v>-0.1014841607858301</v>
+        <v>-0.07497466817359301</v>
       </c>
       <c r="EC2">
-        <v>-0.1044977229651251</v>
+        <v>-0.07741336428478411</v>
       </c>
       <c r="ED2">
-        <v>-0.1046250565367617</v>
+        <v>-0.07748008470418116</v>
       </c>
       <c r="EE2">
-        <v>-0.1047232671459824</v>
+        <v>-0.07753657923407568</v>
       </c>
       <c r="EF2">
-        <v>-0.1097458892954969</v>
+        <v>-0.08146481775022923</v>
       </c>
       <c r="EG2">
-        <v>-0.08763375995615542</v>
+        <v>-0.06546190201728447</v>
       </c>
       <c r="EH2">
-        <v>-0.1015668825026966</v>
+        <v>-0.07500657742286733</v>
       </c>
       <c r="EI2">
-        <v>-0.1044977229651283</v>
+        <v>-0.07741336428478389</v>
       </c>
       <c r="EJ2">
-        <v>-0.1046286552869384</v>
+        <v>-0.07748187970396467</v>
       </c>
       <c r="EK2">
-        <v>-0.1048274188310723</v>
+        <v>-0.07759411443881423</v>
       </c>
       <c r="EL2">
-        <v>-0.1101189416482589</v>
+        <v>-0.08175226672803149</v>
       </c>
       <c r="EM2">
-        <v>-0.08763375995615223</v>
+        <v>-0.06546190201722857</v>
       </c>
       <c r="EN2">
-        <v>-0.101702890888689</v>
+        <v>-0.07505904142188827</v>
       </c>
       <c r="EO2">
-        <v>-0.1044977229651313</v>
+        <v>-0.07741336428478358</v>
       </c>
       <c r="EP2">
-        <v>-0.1046321863502412</v>
+        <v>-0.07748364094116586</v>
       </c>
       <c r="EQ2">
-        <v>-0.1048971669212825</v>
+        <v>-0.07763264442956166</v>
       </c>
       <c r="ER2">
-        <v>-0.1104698072456466</v>
+        <v>-0.08202261713333932</v>
       </c>
       <c r="ES2">
-        <v>-0.08763375995614664</v>
+        <v>-0.06546190201722278</v>
       </c>
       <c r="ET2">
-        <v>-0.10234959267482</v>
+        <v>-0.07530849799946891</v>
       </c>
       <c r="EU2">
-        <v>-0.1044977229651338</v>
+        <v>-0.07741336428478361</v>
       </c>
       <c r="EV2">
-        <v>-0.1046350375384459</v>
+        <v>-0.07748506306663826</v>
       </c>
       <c r="EW2">
-        <v>-0.104919635181775</v>
+        <v>-0.07767112169658347</v>
       </c>
       <c r="EX2">
-        <v>-0.1049855507547994</v>
+        <v>-0.07763264442996366</v>
       </c>
       <c r="EY2">
-        <v>-0.1108792208352433</v>
+        <v>-0.08233807655697759</v>
       </c>
       <c r="EZ2">
-        <v>-0.08763375995614668</v>
+        <v>-0.06546190201722332</v>
       </c>
       <c r="FA2">
-        <v>-0.1024904758383919</v>
+        <v>-0.07536284119339649</v>
       </c>
       <c r="FB2">
-        <v>-0.104497722965136</v>
+        <v>-0.07741336428478378</v>
       </c>
       <c r="FC2">
-        <v>-0.104639316952362</v>
+        <v>-0.07748719756571072</v>
       </c>
       <c r="FD2">
-        <v>-0.1049792224566078</v>
+        <v>-0.07777316602576828</v>
       </c>
       <c r="FE2">
-        <v>-0.1049909304780351</v>
+        <v>-0.07763264442998799</v>
       </c>
       <c r="FF2">
-        <v>-0.1109970315468965</v>
+        <v>-0.0824288507868893</v>
       </c>
       <c r="FG2">
-        <v>-0.08763375995614438</v>
+        <v>-0.06546190201722407</v>
       </c>
       <c r="FH2">
-        <v>-0.1036408283573548</v>
+        <v>-0.07542685534752307</v>
       </c>
       <c r="FI2">
-        <v>-0.1026261368232214</v>
+        <v>-0.07554626320306809</v>
       </c>
       <c r="FJ2">
-        <v>-0.1044977229651373</v>
+        <v>-0.07741336428478383</v>
       </c>
       <c r="FK2">
-        <v>-0.1046444762750912</v>
+        <v>-0.07748977094559702</v>
       </c>
       <c r="FL2">
-        <v>-0.1049999204112448</v>
+        <v>-0.07780861170913377</v>
       </c>
       <c r="FM2">
-        <v>-0.1049958451516922</v>
+        <v>-0.07763264443001119</v>
       </c>
       <c r="FN2">
-        <v>-0.1116663676623047</v>
+        <v>-0.0829445742502341</v>
       </c>
       <c r="FO2">
-        <v>-0.08763375995614438</v>
+        <v>-0.06546190201722407</v>
       </c>
       <c r="FP2">
-        <v>-0.1038582172091486</v>
+        <v>-0.07543894891316866</v>
       </c>
       <c r="FQ2">
-        <v>-0.102806242429994</v>
+        <v>-0.07578977770294355</v>
       </c>
       <c r="FR2">
-        <v>-0.1044977229651382</v>
+        <v>-0.07741336428478299</v>
       </c>
       <c r="FS2">
-        <v>-0.1046483740445068</v>
+        <v>-0.07749171508275521</v>
       </c>
       <c r="FT2">
-        <v>-0.1049999204118657</v>
+        <v>-0.07780861170868585</v>
       </c>
       <c r="FU2">
-        <v>-0.1050344052960486</v>
+        <v>-0.07786766759586802</v>
       </c>
       <c r="FV2">
-        <v>-0.1049978867778647</v>
+        <v>-0.07763264443002059</v>
       </c>
       <c r="FW2">
-        <v>-0.112044438704205</v>
+        <v>-0.08323587337303162</v>
       </c>
       <c r="FX2">
-        <v>-0.1043068023481228</v>
+        <v>-0.0754639005868482</v>
       </c>
       <c r="FY2">
-        <v>-0.1028191828276081</v>
+        <v>-0.07580281231390516</v>
       </c>
       <c r="FZ2">
-        <v>-0.1028527348065402</v>
+        <v>-0.07586455856557213</v>
       </c>
       <c r="GA2">
-        <v>-0.1044977229651385</v>
+        <v>-0.07741336428478167</v>
       </c>
       <c r="GB2">
-        <v>-0.1046528844508732</v>
+        <v>-0.07749396479002427</v>
       </c>
       <c r="GC2">
-        <v>-0.1049999204119543</v>
+        <v>-0.07780861170862452</v>
       </c>
       <c r="GD2">
-        <v>-0.1050381297289675</v>
+        <v>-0.0778740457831735</v>
       </c>
       <c r="GE2">
-        <v>-0.1050022874854351</v>
+        <v>-0.07763264443003851</v>
       </c>
       <c r="GF2">
-        <v>-0.1123251033772203</v>
+        <v>-0.08345211992658526</v>
       </c>
       <c r="GG2">
-        <v>-0.1028701068355993</v>
+        <v>-0.07585410707773625</v>
       </c>
       <c r="GH2">
-        <v>-0.1030451673814153</v>
+        <v>-0.07617408783179315</v>
       </c>
       <c r="GI2">
-        <v>-0.1044977229651382</v>
+        <v>-0.07741336428478073</v>
       </c>
       <c r="GJ2">
-        <v>-0.1046571254051976</v>
+        <v>-0.077496080097482</v>
       </c>
       <c r="GK2">
-        <v>-0.104999920411975</v>
+        <v>-0.07780861170864506</v>
       </c>
       <c r="GL2">
-        <v>-0.104999920411995</v>
+        <v>-0.07780861170861118</v>
       </c>
       <c r="GM2">
-        <v>-0.1050417322865559</v>
+        <v>-0.07788021526318048</v>
       </c>
       <c r="GN2">
-        <v>-0.1050134960744856</v>
+        <v>-0.077632644430081</v>
       </c>
       <c r="GO2">
-        <v>-0.1125774428108695</v>
+        <v>-0.0836465408812507</v>
       </c>
       <c r="GP2">
-        <v>-0.1029610294923891</v>
+        <v>-0.07594569170554537</v>
       </c>
       <c r="GQ2">
-        <v>-0.1030772915390612</v>
+        <v>-0.07620146679074104</v>
       </c>
       <c r="GR2">
-        <v>-0.1030483391090428</v>
+        <v>-0.07619323069690347</v>
       </c>
       <c r="GS2">
-        <v>-0.1044977229651383</v>
+        <v>-0.07741336428478081</v>
       </c>
       <c r="GT2">
-        <v>-0.1046616884317701</v>
+        <v>-0.07749835604617013</v>
       </c>
       <c r="GU2">
-        <v>-0.104999920411975</v>
+        <v>-0.07780861170864506</v>
       </c>
       <c r="GV2">
-        <v>-0.1049999204120191</v>
+        <v>-0.07780861170860663</v>
       </c>
       <c r="GW2">
-        <v>-0.1050446139758628</v>
+        <v>-0.07788515024142025</v>
       </c>
       <c r="GX2">
-        <v>-0.1050200721238734</v>
+        <v>-0.07763264443010408</v>
       </c>
       <c r="GY2">
-        <v>-0.112890931635604</v>
+        <v>-0.08388807378380561</v>
       </c>
       <c r="GZ2">
-        <v>-0.102979661419816</v>
+        <v>-0.07596383879197864</v>
       </c>
       <c r="HA2">
-        <v>-0.1029750252633316</v>
+        <v>-0.07596010259264376</v>
       </c>
       <c r="HB2">
-        <v>-0.103158511449813</v>
+        <v>-0.07627068909183948</v>
       </c>
       <c r="HC2">
-        <v>-0.1030487874362661</v>
+        <v>-0.07619593657340772</v>
       </c>
       <c r="HD2">
-        <v>-0.1044977229651383</v>
+        <v>-0.07741336428478111</v>
       </c>
       <c r="HE2">
-        <v>-0.1046686639482276</v>
+        <v>-0.07750183529318838</v>
       </c>
       <c r="HF2">
-        <v>-0.1049999204120448</v>
+        <v>-0.07780861170860226</v>
       </c>
       <c r="HG2">
-        <v>-0.105046909471316</v>
+        <v>-0.07788908134864156</v>
       </c>
       <c r="HH2">
-        <v>-0.1050246780227453</v>
+        <v>-0.077632644430119</v>
       </c>
       <c r="HI2">
-        <v>-0.1134694569080303</v>
+        <v>-0.08433380261091157</v>
       </c>
       <c r="HJ2">
-        <v>-0.1030406473098429</v>
+        <v>-0.07602323767594973</v>
       </c>
       <c r="HK2">
-        <v>-0.1030002852574246</v>
+        <v>-0.07598611180174614</v>
       </c>
       <c r="HL2">
-        <v>-0.1030491489995556</v>
+        <v>-0.07619811878869544</v>
       </c>
       <c r="HM2">
-        <v>-0.1044977229651383</v>
+        <v>-0.07741336428478109</v>
       </c>
       <c r="HN2">
-        <v>-0.1046877134484143</v>
+        <v>-0.07751133677167396</v>
       </c>
       <c r="HO2">
-        <v>-0.1049999204120714</v>
+        <v>-0.07780861170860265</v>
       </c>
       <c r="HP2">
-        <v>-0.1050517625243144</v>
+        <v>-0.07789739236220782</v>
       </c>
       <c r="HQ2">
-        <v>-0.105033537945722</v>
+        <v>-0.07763264443014646</v>
       </c>
       <c r="HR2">
-        <v>-0.1139738750250981</v>
+        <v>-0.08472242870891813</v>
       </c>
       <c r="HS2">
-        <v>-0.1030669378327236</v>
+        <v>-0.07604884404013861</v>
       </c>
       <c r="HT2">
-        <v>-0.1030093044926764</v>
+        <v>-0.07599539854901809</v>
       </c>
       <c r="HU2">
-        <v>-0.1030494379421759</v>
+        <v>-0.07619986270323388</v>
       </c>
       <c r="HV2">
-        <v>-0.1046893376778227</v>
+        <v>-0.07751214690024244</v>
       </c>
       <c r="HW2">
-        <v>-0.1049999204120972</v>
+        <v>-0.07780861170860917</v>
       </c>
       <c r="HX2">
-        <v>-0.1050555844268206</v>
+        <v>-0.07790393750572483</v>
       </c>
       <c r="HY2">
-        <v>-0.1050379478537066</v>
+        <v>-0.0776326444301597</v>
       </c>
       <c r="HZ2">
-        <v>-0.114317022869702</v>
+        <v>-0.08498680165016868</v>
       </c>
       <c r="IA2">
-        <v>-0.1031108615066002</v>
+        <v>-0.07609996773601296</v>
       </c>
       <c r="IB2">
-        <v>-0.1030093044926764</v>
+        <v>-0.07599539854901809</v>
       </c>
       <c r="IC2">
-        <v>-0.103049879015925</v>
+        <v>-0.07620252480814133</v>
       </c>
       <c r="ID2">
-        <v>-0.1046900878945734</v>
+        <v>-0.07751252109113677</v>
       </c>
       <c r="IE2">
-        <v>-0.1049999204121098</v>
+        <v>-0.07780861170859942</v>
       </c>
       <c r="IF2">
-        <v>-0.1050582354928</v>
+        <v>-0.07790847755496462</v>
       </c>
       <c r="IG2">
-        <v>-0.1050410791660725</v>
+        <v>-0.07763264443016689</v>
       </c>
       <c r="IH2">
-        <v>-0.1145424500276696</v>
+        <v>-0.08516047702096066</v>
       </c>
       <c r="II2">
-        <v>-0.103125610200067</v>
+        <v>-0.07611515388653785</v>
       </c>
       <c r="IJ2">
-        <v>-0.1030503960433422</v>
+        <v>-0.07620564533559299</v>
       </c>
       <c r="IK2">
-        <v>-0.1046908903424873</v>
+        <v>-0.07751292133366693</v>
       </c>
       <c r="IL2">
-        <v>-0.1049999204121233</v>
+        <v>-0.07780861170860151</v>
       </c>
       <c r="IM2">
-        <v>-0.1050608802463961</v>
+        <v>-0.07791300679791173</v>
       </c>
       <c r="IN2">
-        <v>-0.1050769003602323</v>
+        <v>-0.07763264443023937</v>
       </c>
       <c r="IO2">
-        <v>-0.1150276302790882</v>
+        <v>-0.08553426941010682</v>
       </c>
       <c r="IP2">
-        <v>-0.1031560323511466</v>
+        <v>-0.07614695251880194</v>
       </c>
       <c r="IQ2">
-        <v>-0.1031404591144459</v>
+        <v>-0.07612996910893939</v>
       </c>
       <c r="IR2">
-        <v>-0.1030511901669869</v>
+        <v>-0.07621043828908969</v>
       </c>
       <c r="IS2">
-        <v>-0.1046916571170798</v>
+        <v>-0.07751330378309548</v>
       </c>
       <c r="IT2">
-        <v>-0.1049999204121368</v>
+        <v>-0.07780861170860999</v>
       </c>
       <c r="IU2">
-        <v>-0.1050647494087394</v>
+        <v>-0.07791963289526459</v>
       </c>
       <c r="IV2">
-        <v>-0.105087463555802</v>
+        <v>-0.07763264443026137</v>
       </c>
       <c r="IW2">
-        <v>-0.1150925724706067</v>
+        <v>-0.08558408806218047</v>
       </c>
       <c r="IX2">
-        <v>-0.1153387500321541</v>
+        <v>-0.08577399262644145</v>
       </c>
       <c r="IY2">
-        <v>-0.1030540961213547</v>
+        <v>-0.07622797732527928</v>
       </c>
       <c r="IZ2">
-        <v>-0.1046925113371523</v>
+        <v>-0.07751372984822727</v>
       </c>
       <c r="JA2">
-        <v>-0.1049999204121577</v>
+        <v>-0.0778086117086159</v>
       </c>
       <c r="JB2">
-        <v>-0.1050793015823431</v>
+        <v>-0.07794455415705145</v>
       </c>
       <c r="JC2">
-        <v>-0.1050898268632682</v>
+        <v>-0.07763264443026684</v>
       </c>
       <c r="JD2">
-        <v>-0.1151015499000948</v>
+        <v>-0.0855909748282445</v>
       </c>
       <c r="JE2">
-        <v>-0.116505516858732</v>
+        <v>-0.08667298683824359</v>
       </c>
       <c r="JF2">
-        <v>-0.1030682394581539</v>
+        <v>-0.07631334182934051</v>
       </c>
       <c r="JG2">
-        <v>-0.1046942745682034</v>
+        <v>-0.0775146093066597</v>
       </c>
       <c r="JH2">
-        <v>-0.1049999204121791</v>
+        <v>-0.07780861170862816</v>
       </c>
       <c r="JI2">
-        <v>-0.105082698087745</v>
+        <v>-0.07795037084461245</v>
       </c>
       <c r="JJ2">
-        <v>-0.1051295349576945</v>
+        <v>-0.07763264443026738</v>
       </c>
       <c r="JK2">
-        <v>-0.1050905084673644</v>
+        <v>-0.07763264443027131</v>
       </c>
       <c r="JL2">
-        <v>-0.1151056771666791</v>
+        <v>-0.08559414093494719</v>
       </c>
       <c r="JM2">
-        <v>-0.1165288174129606</v>
+        <v>-0.08670871192012199</v>
       </c>
       <c r="JN2">
-        <v>-0.1168925782946523</v>
+        <v>-0.08696747106556718</v>
       </c>
       <c r="JO2">
-        <v>-0.1046961109635352</v>
+        <v>-0.07751552525734837</v>
       </c>
       <c r="JP2">
-        <v>-0.1049999204121917</v>
+        <v>-0.07780861170863052</v>
       </c>
       <c r="JQ2">
-        <v>-0.1050842541170986</v>
+        <v>-0.07795303562585167</v>
       </c>
       <c r="JR2">
-        <v>-0.1051688877691234</v>
+        <v>-0.07763264443026738</v>
       </c>
       <c r="JS2">
-        <v>-0.1050913076055454</v>
+        <v>-0.0776326444302772</v>
       </c>
       <c r="JT2">
-        <v>-0.1151105791867131</v>
+        <v>-0.08559790136833136</v>
       </c>
       <c r="JU2">
-        <v>-0.1165305111171072</v>
+        <v>-0.0867113087640715</v>
       </c>
       <c r="JV2">
-        <v>-0.1182958408798859</v>
+        <v>-0.08803507177389541</v>
       </c>
       <c r="JW2">
-        <v>-0.104703094135418</v>
+        <v>-0.07751900829530839</v>
       </c>
       <c r="JX2">
-        <v>-0.104999920412194</v>
+        <v>-0.07780861170863426</v>
       </c>
       <c r="JY2">
-        <v>-0.1050852770894829</v>
+        <v>-0.07795478752002577</v>
       </c>
       <c r="JZ2">
-        <v>-0.1050920298043909</v>
+        <v>-0.07763264443028191</v>
       </c>
       <c r="KA2">
-        <v>-0.1151181424382943</v>
+        <v>-0.08560370327952467</v>
       </c>
       <c r="KB2">
-        <v>-0.1165319071220376</v>
+        <v>-0.08671344916640956</v>
       </c>
       <c r="KC2">
-        <v>-0.1184272868940133</v>
+        <v>-0.08819203980437026</v>
       </c>
       <c r="KD2">
-        <v>-0.1185567879747568</v>
+        <v>-0.08820472811424193</v>
       </c>
       <c r="KE2">
-        <v>-0.1047401691640158</v>
+        <v>-0.07753750033357273</v>
       </c>
       <c r="KF2">
-        <v>-0.104999920412194</v>
+        <v>-0.07780861170863426</v>
       </c>
       <c r="KG2">
-        <v>-0.1050924636646198</v>
+        <v>-0.07796219585323273</v>
       </c>
       <c r="KH2">
-        <v>-0.1050852770894808</v>
+        <v>-0.0779553917799181</v>
       </c>
       <c r="KI2">
-        <v>-0.1050927612476849</v>
+        <v>-0.0776326444302845</v>
       </c>
       <c r="KJ2">
-        <v>-0.1151248818494365</v>
+        <v>-0.08560887320344207</v>
       </c>
       <c r="KK2">
-        <v>-0.1165338900408971</v>
+        <v>-0.08671648944643859</v>
       </c>
       <c r="KL2">
-        <v>-0.1184877898962838</v>
+        <v>-0.08826429057470495</v>
       </c>
       <c r="KM2">
-        <v>-0.1196505046333286</v>
+        <v>-0.08891579250490979</v>
       </c>
       <c r="KN2">
-        <v>-0.1050957648807348</v>
+        <v>-0.07796559893610687</v>
       </c>
       <c r="KO2">
-        <v>-0.1050852770894796</v>
+        <v>-0.07795581943630983</v>
       </c>
       <c r="KP2">
-        <v>-0.1050935476973812</v>
+        <v>-0.07763264443028535</v>
       </c>
       <c r="KQ2">
-        <v>-0.115130121603203</v>
+        <v>-0.08561289271056405</v>
       </c>
       <c r="KR2">
-        <v>-0.1165427964401863</v>
+        <v>-0.08673014506508371</v>
       </c>
       <c r="KS2">
-        <v>-0.1188830550685215</v>
+        <v>-0.0887363082968891</v>
       </c>
       <c r="KT2">
-        <v>-0.1198919517430307</v>
+        <v>-0.08907276110455863</v>
       </c>
       <c r="KU2">
-        <v>-0.1051013521397964</v>
+        <v>-0.07797135860350179</v>
       </c>
       <c r="KV2">
-        <v>-0.105085277089479</v>
+        <v>-0.077956317102423</v>
       </c>
       <c r="KW2">
-        <v>-0.1050981086746451</v>
+        <v>-0.07763264443028683</v>
       </c>
       <c r="KX2">
-        <v>-0.1151366438006915</v>
+        <v>-0.08561789599966055</v>
       </c>
       <c r="KY2">
-        <v>-0.1165445110206443</v>
+        <v>-0.0867327739262375</v>
       </c>
       <c r="KZ2">
-        <v>-0.1189125795524032</v>
+        <v>-0.08877156615971828</v>
       </c>
       <c r="LA2">
-        <v>-0.1199721814057655</v>
+        <v>-0.08912491929646203</v>
       </c>
       <c r="LB2">
-        <v>-0.1051120765605067</v>
+        <v>-0.07798241395331236</v>
       </c>
       <c r="LC2">
-        <v>-0.1050852770894791</v>
+        <v>-0.07795726897884307</v>
       </c>
       <c r="LD2">
-        <v>-0.1051173999879688</v>
+        <v>-0.07763264443028683</v>
       </c>
       <c r="LE2">
-        <v>-0.1151433896748246</v>
+        <v>-0.08562307087128641</v>
       </c>
       <c r="LF2">
-        <v>-0.1165457805273691</v>
+        <v>-0.08673472038381322</v>
       </c>
       <c r="LG2">
-        <v>-0.1189296467952033</v>
+        <v>-0.08878125767553338</v>
       </c>
       <c r="LH2">
-        <v>-0.1192916577815523</v>
+        <v>-0.08932557694689056</v>
       </c>
       <c r="LI2">
-        <v>-0.1200140559808271</v>
+        <v>-0.08915214234485194</v>
       </c>
       <c r="LJ2">
-        <v>-0.1051436513662679</v>
+        <v>-0.07801496308919083</v>
       </c>
       <c r="LK2">
-        <v>-0.1050852770894786</v>
+        <v>-0.07796091959429759</v>
       </c>
       <c r="LL2">
-        <v>-0.1151513468260206</v>
+        <v>-0.085629174928818</v>
       </c>
       <c r="LM2">
-        <v>-0.1165472428623958</v>
+        <v>-0.08673696249405814</v>
       </c>
       <c r="LN2">
-        <v>-0.1190175503438239</v>
+        <v>-0.08883117258141977</v>
       </c>
       <c r="LO2">
-        <v>-0.1194735884402315</v>
+        <v>-0.08959147034034787</v>
       </c>
       <c r="LP2">
-        <v>-0.1200499021022604</v>
+        <v>-0.08917544619816686</v>
       </c>
       <c r="LQ2">
-        <v>-0.1050852770894786</v>
+        <v>-0.07797337780565165</v>
       </c>
       <c r="LR2">
-        <v>-0.1151558813560325</v>
+        <v>-0.08563265343676769</v>
       </c>
       <c r="LS2">
-        <v>-0.1165486934786524</v>
+        <v>-0.08673918663740365</v>
       </c>
       <c r="LT2">
-        <v>-0.119048239972123</v>
+        <v>-0.08884859909067648</v>
       </c>
       <c r="LU2">
-        <v>-0.1195248817301945</v>
+        <v>-0.08979608561940942</v>
       </c>
       <c r="LV2">
-        <v>-0.1197922213447624</v>
+        <v>-0.08997643028171001</v>
       </c>
       <c r="LW2">
-        <v>-0.1200906708413326</v>
+        <v>-0.08920195023832002</v>
       </c>
       <c r="LX2">
-        <v>-0.1151763666553506</v>
+        <v>-0.08564836800512017</v>
       </c>
       <c r="LY2">
-        <v>-0.116561437344465</v>
+        <v>-0.08675872608013589</v>
       </c>
       <c r="LZ2">
-        <v>-0.1191150354427696</v>
+        <v>-0.08888652723672021</v>
       </c>
       <c r="MA2">
-        <v>-0.1195451967477908</v>
+        <v>-0.08987712869421038</v>
       </c>
       <c r="MB2">
-        <v>-0.1198295188202722</v>
+        <v>-0.09001362561485651</v>
       </c>
       <c r="MC2">
-        <v>-0.1198444756706552</v>
+        <v>-0.09004075713708423</v>
       </c>
       <c r="MD2">
-        <v>-0.1201227897403244</v>
+        <v>-0.08922283092243138</v>
       </c>
       <c r="ME2">
-        <v>-0.1151843391601638</v>
+        <v>-0.08565448381922409</v>
       </c>
       <c r="MF2">
-        <v>-0.1165874877438736</v>
+        <v>-0.08679866786049674</v>
       </c>
       <c r="MG2">
-        <v>-0.1191401312623892</v>
+        <v>-0.08890984533375045</v>
       </c>
       <c r="MH2">
-        <v>-0.1191289901124003</v>
+        <v>-0.08889018434505776</v>
       </c>
       <c r="MI2">
-        <v>-0.1198482705392533</v>
+        <v>-0.09003232597999261</v>
       </c>
       <c r="MJ2">
-        <v>-0.1198892427933638</v>
+        <v>-0.0900958671251984</v>
       </c>
       <c r="MK2">
-        <v>-0.1201497181502326</v>
+        <v>-0.08924033721547175</v>
       </c>
       <c r="ML2">
-        <v>-0.1151871088076143</v>
+        <v>-0.08565660845128138</v>
       </c>
       <c r="MM2">
-        <v>-0.119177682715463</v>
+        <v>-0.08894473670427158</v>
       </c>
       <c r="MN2">
-        <v>-0.1191309331747701</v>
+        <v>-0.08889069356317351</v>
       </c>
       <c r="MO2">
-        <v>-0.1198500155788528</v>
+        <v>-0.09003406624056963</v>
       </c>
       <c r="MP2">
-        <v>-0.119920732553416</v>
+        <v>-0.09013463226212813</v>
       </c>
       <c r="MQ2">
-        <v>-0.1201740161755089</v>
+        <v>-0.08925613346378837</v>
       </c>
       <c r="MR2">
-        <v>-0.1151891953707881</v>
+        <v>-0.08565820908022316</v>
       </c>
       <c r="MS2">
-        <v>-0.1191330434790662</v>
+        <v>-0.08889124660998288</v>
       </c>
       <c r="MT2">
-        <v>-0.1198507362588563</v>
+        <v>-0.09003478494689346</v>
       </c>
       <c r="MU2">
-        <v>-0.1199605208314368</v>
+        <v>-0.09018361329016582</v>
       </c>
       <c r="MV2">
-        <v>-0.1201941261375962</v>
+        <v>-0.08926920702128395</v>
       </c>
       <c r="MW2">
-        <v>-0.1151907219970344</v>
+        <v>-0.08565938017425875</v>
       </c>
       <c r="MX2">
-        <v>-0.1191348919557171</v>
+        <v>-0.08889173103937721</v>
       </c>
       <c r="MY2">
-        <v>-0.119851244773448</v>
+        <v>-0.09003529206884725</v>
       </c>
       <c r="MZ2">
-        <v>-0.1199854520136759</v>
+        <v>-0.09021430466439948</v>
       </c>
       <c r="NA2">
-        <v>-0.120217454950059</v>
+        <v>-0.08928437314964144</v>
       </c>
       <c r="NB2">
-        <v>-0.1151914972268859</v>
+        <v>-0.085659974862676</v>
       </c>
       <c r="NC2">
-        <v>-0.1191368559638769</v>
+        <v>-0.08889224574572784</v>
       </c>
       <c r="ND2">
-        <v>-0.1198517649049819</v>
+        <v>-0.09003581077592772</v>
       </c>
       <c r="NE2">
-        <v>-0.1200237367893619</v>
+        <v>-0.09026143497059158</v>
       </c>
       <c r="NF2">
-        <v>-0.120243095027251</v>
+        <v>-0.08930104181911135</v>
       </c>
       <c r="NG2">
-        <v>-0.1151926369798433</v>
+        <v>-0.08566084918119231</v>
       </c>
       <c r="NH2">
-        <v>-0.1191396590269338</v>
+        <v>-0.0888929803420658</v>
       </c>
       <c r="NI2">
-        <v>-0.1198523786232008</v>
+        <v>-0.09003642281339405</v>
       </c>
       <c r="NJ2">
-        <v>-0.120061902539255</v>
+        <v>-0.09030841884124606</v>
       </c>
       <c r="NK2">
-        <v>-0.1203828771849604</v>
+        <v>-0.08939191415567961</v>
       </c>
       <c r="NL2">
-        <v>-0.1151945475793641</v>
+        <v>-0.08566231482535429</v>
       </c>
       <c r="NM2">
-        <v>-0.1191430666687694</v>
+        <v>-0.08889387337891218</v>
       </c>
       <c r="NN2">
-        <v>-0.1198531527851572</v>
+        <v>-0.09003719485520058</v>
       </c>
       <c r="NO2">
-        <v>-0.1201047260778501</v>
+        <v>-0.09036113678117848</v>
       </c>
       <c r="NP2">
-        <v>-0.1214187257383865</v>
+        <v>-0.09006817523166706</v>
       </c>
       <c r="NQ2">
-        <v>-0.1203909977616563</v>
+        <v>-0.08939586615896641</v>
       </c>
       <c r="NR2">
-        <v>-0.1152030696991307</v>
+        <v>-0.08566885224359426</v>
       </c>
       <c r="NS2">
-        <v>-0.1191641884396626</v>
+        <v>-0.08889940871469983</v>
       </c>
       <c r="NT2">
-        <v>-0.1198538461227676</v>
+        <v>-0.0900378862940099</v>
       </c>
       <c r="NU2">
-        <v>-0.1201357149474368</v>
+        <v>-0.09039928571660182</v>
       </c>
       <c r="NV2">
-        <v>-0.1224109650172358</v>
+        <v>-0.0907159357209804</v>
       </c>
       <c r="NW2">
-        <v>-0.1204408598554468</v>
+        <v>-0.08942013214774019</v>
       </c>
       <c r="NX2">
-        <v>-0.1203909977616859</v>
+        <v>-0.08939586615894037</v>
       </c>
       <c r="NY2">
-        <v>-0.1152343970558985</v>
+        <v>-0.08569288377632978</v>
       </c>
       <c r="NZ2">
-        <v>-0.1192364629925792</v>
+        <v>-0.08891834924925443</v>
       </c>
       <c r="OA2">
-        <v>-0.1198543947435243</v>
+        <v>-0.09003843341229241</v>
       </c>
       <c r="OB2">
-        <v>-0.1201726511093266</v>
+        <v>-0.09044475616095243</v>
       </c>
       <c r="OC2">
-        <v>-0.122455139704686</v>
+        <v>-0.09074477346346396</v>
       </c>
       <c r="OD2">
-        <v>-0.1204590834938615</v>
+        <v>-0.08942900083027916</v>
       </c>
       <c r="OE2">
-        <v>-0.1203909977618388</v>
+        <v>-0.08939586615879758</v>
       </c>
       <c r="OF2">
-        <v>-0.1198553363090392</v>
+        <v>-0.09003937239919683</v>
       </c>
       <c r="OG2">
-        <v>-0.1202262454403991</v>
+        <v>-0.09051073387740267</v>
       </c>
       <c r="OH2">
-        <v>-0.1225244004785508</v>
+        <v>-0.09086984353459171</v>
       </c>
       <c r="OI2">
-        <v>-0.12322400849185</v>
+        <v>-0.09119970604093455</v>
       </c>
       <c r="OJ2">
-        <v>-0.120460938429929</v>
+        <v>-0.08942990354795081</v>
       </c>
       <c r="OK2">
-        <v>-0.120390997761848</v>
+        <v>-0.08939586615878649</v>
       </c>
       <c r="OL2">
-        <v>-0.1198586232158836</v>
+        <v>-0.09004265030437397</v>
       </c>
       <c r="OM2">
-        <v>-0.1202659794968457</v>
+        <v>-0.09055964891060847</v>
       </c>
       <c r="ON2">
-        <v>-0.1225307466634445</v>
+        <v>-0.09088130353977129</v>
       </c>
       <c r="OO2">
-        <v>-0.1235949720950203</v>
+        <v>-0.09141919507913374</v>
       </c>
       <c r="OP2">
-        <v>-0.1204622329335643</v>
+        <v>-0.08943053352700767</v>
       </c>
       <c r="OQ2">
-        <v>-0.1203909977618507</v>
+        <v>-0.08939586615878126</v>
       </c>
       <c r="OR2">
-        <v>-0.1198787182557066</v>
+        <v>-0.09006269031075226</v>
       </c>
       <c r="OS2">
-        <v>-0.1203043097017619</v>
+        <v>-0.09060683581040858</v>
       </c>
       <c r="OT2">
-        <v>-0.1225343543467361</v>
+        <v>-0.09088781834284823</v>
       </c>
       <c r="OU2">
-        <v>-0.1247142213869013</v>
+        <v>-0.09208139787559197</v>
       </c>
       <c r="OV2">
-        <v>-0.1235949720950814</v>
+        <v>-0.09141919507919284</v>
       </c>
       <c r="OW2">
-        <v>-0.1204635739251216</v>
+        <v>-0.08943118612952813</v>
       </c>
       <c r="OX2">
-        <v>-0.1203909977618529</v>
+        <v>-0.08939586615877822</v>
       </c>
       <c r="OY2">
-        <v>-0.1203418237288434</v>
+        <v>-0.09065301803221333</v>
       </c>
       <c r="OZ2">
-        <v>-0.122536804053763</v>
+        <v>-0.09089224206171265</v>
       </c>
       <c r="PA2">
-        <v>-0.1263085946824459</v>
+        <v>-0.0930246387185449</v>
       </c>
       <c r="PB2">
-        <v>-0.1235949720950967</v>
+        <v>-0.09141919507921036</v>
       </c>
       <c r="PC2">
-        <v>-0.1204692053160506</v>
+        <v>-0.0894339266813968</v>
       </c>
       <c r="PD2">
-        <v>-0.1203909977618522</v>
+        <v>-0.08939586615877214</v>
       </c>
       <c r="PE2">
-        <v>-0.1203869404149513</v>
+        <v>-0.09070855974052669</v>
       </c>
       <c r="PF2">
-        <v>-0.1225407964337399</v>
+        <v>-0.09089945157180315</v>
       </c>
       <c r="PG2">
-        <v>-0.1266422782904469</v>
+        <v>-0.09322203774667309</v>
       </c>
       <c r="PH2">
-        <v>-0.1235949720951009</v>
+        <v>-0.0914191950792185</v>
       </c>
       <c r="PI2">
-        <v>-0.1204705803718159</v>
+        <v>-0.08943459586039763</v>
       </c>
       <c r="PJ2">
-        <v>-0.1203909977618468</v>
+        <v>-0.08939586615871088</v>
       </c>
       <c r="PK2">
-        <v>-0.1204625035596373</v>
+        <v>-0.09080158339285947</v>
       </c>
       <c r="PL2">
-        <v>-0.1203869404149513</v>
+        <v>-0.09070855974052669</v>
       </c>
       <c r="PM2">
-        <v>-0.1225540674011247</v>
+        <v>-0.09092341659452162</v>
       </c>
       <c r="PN2">
-        <v>-0.1267275663170104</v>
+        <v>-0.09327249148204671</v>
       </c>
       <c r="PO2">
-        <v>-0.1235949720950987</v>
+        <v>-0.09141919507922602</v>
       </c>
       <c r="PP2">
-        <v>-0.1204718920261987</v>
+        <v>-0.0894352341845427</v>
       </c>
       <c r="PQ2">
-        <v>-0.120390997761846</v>
+        <v>-0.08939586615868995</v>
       </c>
       <c r="PR2">
-        <v>-0.1207173816480338</v>
+        <v>-0.09111535922230279</v>
       </c>
       <c r="PS2">
-        <v>-0.1204625035596373</v>
+        <v>-0.09080158339285947</v>
       </c>
       <c r="PT2">
-        <v>-0.1225688422427621</v>
+        <v>-0.09095009748602247</v>
       </c>
       <c r="PU2">
-        <v>-0.1267722478667759</v>
+        <v>-0.09329892360064455</v>
       </c>
       <c r="PV2">
-        <v>-0.1235949720950991</v>
+        <v>-0.09141919507923731</v>
       </c>
       <c r="PW2">
-        <v>-0.1204731965471865</v>
+        <v>-0.08943586903698582</v>
       </c>
       <c r="PX2">
-        <v>-0.1203909977618465</v>
+        <v>-0.08939586615868464</v>
       </c>
       <c r="PY2">
-        <v>-0.1210779046575005</v>
+        <v>-0.091559199506509</v>
       </c>
       <c r="PZ2">
-        <v>-0.1207173816480338</v>
+        <v>-0.09111535922230279</v>
       </c>
       <c r="QA2">
-        <v>-0.1225771515994555</v>
+        <v>-0.09096510285735238</v>
       </c>
       <c r="QB2">
-        <v>-0.1268092885463248</v>
+        <v>-0.09332083558657614</v>
       </c>
       <c r="QC2">
-        <v>-0.1235949720950994</v>
+        <v>-0.09141919507923971</v>
       </c>
       <c r="QD2">
-        <v>-0.1204746930018514</v>
+        <v>-0.08943659729478971</v>
       </c>
       <c r="QE2">
-        <v>-0.1203909977618445</v>
+        <v>-0.08939586615867534</v>
       </c>
       <c r="QF2">
-        <v>-0.1213366180897165</v>
+        <v>-0.091877706882512</v>
       </c>
       <c r="QG2">
-        <v>-0.1210779046575005</v>
+        <v>-0.091559199506509</v>
       </c>
       <c r="QH2">
-        <v>-0.1225849573876881</v>
+        <v>-0.09097919890620883</v>
       </c>
       <c r="QI2">
-        <v>-0.1268393080877118</v>
+        <v>-0.09333859407789592</v>
       </c>
       <c r="QJ2">
-        <v>-0.1235949720951</v>
+        <v>-0.09141919507924448</v>
       </c>
       <c r="QK2">
-        <v>-0.1204798609276515</v>
+        <v>-0.08943911229203434</v>
       </c>
       <c r="QL2">
-        <v>-0.1203909977618447</v>
+        <v>-0.0893958661586688</v>
       </c>
       <c r="QM2">
-        <v>-0.1214151145794914</v>
+        <v>-0.09197434633231655</v>
       </c>
       <c r="QN2">
-        <v>-0.1213366180897165</v>
+        <v>-0.091877706882512</v>
       </c>
       <c r="QO2">
-        <v>-0.1225924047797921</v>
+        <v>-0.09099264778467749</v>
       </c>
       <c r="QP2">
-        <v>-0.1268851952519829</v>
+        <v>-0.09336573923443454</v>
       </c>
       <c r="QQ2">
-        <v>-0.1235949720950969</v>
+        <v>-0.0914191950792457</v>
       </c>
       <c r="QR2">
-        <v>-0.1205050454188046</v>
+        <v>-0.08945136840856009</v>
       </c>
       <c r="QS2">
-        <v>-0.1203909977618456</v>
+        <v>-0.08939586615866174</v>
       </c>
       <c r="QT2">
-        <v>-0.1216222516170815</v>
+        <v>-0.09219506013577276</v>
       </c>
       <c r="QU2">
-        <v>-0.1214151145794914</v>
+        <v>-0.09197434633231659</v>
       </c>
       <c r="QV2">
-        <v>-0.1214353186345862</v>
+        <v>-0.09202673760223629</v>
       </c>
       <c r="QW2">
-        <v>-0.1226046323414989</v>
+        <v>-0.09101472901577468</v>
       </c>
       <c r="QX2">
-        <v>-0.1269265620680006</v>
+        <v>-0.09339021026217857</v>
       </c>
       <c r="QY2">
-        <v>-0.1235949720950919</v>
+        <v>-0.09141919507924416</v>
       </c>
       <c r="QZ2">
-        <v>-0.1203909977618461</v>
+        <v>-0.0893958661586545</v>
       </c>
       <c r="RA2">
-        <v>-0.1218524016152724</v>
+        <v>-0.09244029604924153</v>
       </c>
       <c r="RB2">
-        <v>-0.1216222516170815</v>
+        <v>-0.09219506013577274</v>
       </c>
       <c r="RC2">
-        <v>-0.1216222516170815</v>
+        <v>-0.09219506013577276</v>
       </c>
       <c r="RD2">
-        <v>-0.1214382692019352</v>
+        <v>-0.09203438880246952</v>
       </c>
       <c r="RE2">
-        <v>-0.1226131491110319</v>
+        <v>-0.09103010914452653</v>
       </c>
       <c r="RF2">
-        <v>-0.1269659332879666</v>
+        <v>-0.09341350072113515</v>
       </c>
       <c r="RG2">
-        <v>-0.1235949720950876</v>
+        <v>-0.09141919507924347</v>
       </c>
       <c r="RH2">
-        <v>-0.1203909977618534</v>
+        <v>-0.08939586615861958</v>
       </c>
       <c r="RI2">
-        <v>-0.1219367427625039</v>
+        <v>-0.09253016580833136</v>
       </c>
       <c r="RJ2">
-        <v>-0.1218524016152724</v>
+        <v>-0.09244029604924153</v>
       </c>
       <c r="RK2">
-        <v>-0.1214398780708103</v>
+        <v>-0.09203856081308695</v>
       </c>
       <c r="RL2">
-        <v>-0.1226191332006391</v>
+        <v>-0.09104091562620938</v>
       </c>
       <c r="RM2">
-        <v>-0.1270102876037885</v>
+        <v>-0.09343973892392338</v>
       </c>
       <c r="RN2">
-        <v>-0.1235949720950834</v>
+        <v>-0.09141919507924494</v>
       </c>
       <c r="RO2">
-        <v>-0.1203909977618531</v>
+        <v>-0.08939586615861675</v>
       </c>
       <c r="RP2">
-        <v>-0.1220468435611466</v>
+        <v>-0.09268568380326295</v>
       </c>
       <c r="RQ2">
-        <v>-0.1219367427625039</v>
+        <v>-0.09253016580833136</v>
       </c>
       <c r="RR2">
-        <v>-0.12211421591399</v>
+        <v>-0.09262007010637284</v>
       </c>
       <c r="RS2">
-        <v>-0.1214409679539464</v>
+        <v>-0.09204138702754827</v>
       </c>
       <c r="RT2">
-        <v>-0.1226219924401698</v>
+        <v>-0.09104607904652511</v>
       </c>
       <c r="RU2">
-        <v>-0.1270571403191875</v>
+        <v>-0.09346745501015083</v>
       </c>
       <c r="RV2">
-        <v>-0.1235949720950764</v>
+        <v>-0.09141919507925272</v>
       </c>
       <c r="RW2">
-        <v>-0.1203909977618527</v>
+        <v>-0.08939586615861589</v>
       </c>
       <c r="RX2">
-        <v>-0.1222046485692642</v>
+        <v>-0.09290858695055849</v>
       </c>
       <c r="RY2">
-        <v>-0.1220468435611466</v>
+        <v>-0.09268568380326295</v>
       </c>
       <c r="RZ2">
-        <v>-0.1221175430050654</v>
+        <v>-0.09262338824528447</v>
       </c>
       <c r="SA2">
-        <v>-0.1221611051773456</v>
+        <v>-0.09263231748407931</v>
       </c>
       <c r="SB2">
-        <v>-0.1214426234174821</v>
+        <v>-0.09204567987280364</v>
       </c>
       <c r="SC2">
-        <v>-0.1226238036919522</v>
+        <v>-0.09104934993802517</v>
       </c>
       <c r="SD2">
-        <v>-0.1271595835492307</v>
+        <v>-0.09352805585279222</v>
       </c>
       <c r="SE2">
-        <v>-0.1235949720950724</v>
+        <v>-0.09141919507926474</v>
       </c>
       <c r="SF2">
-        <v>-0.1203909977618517</v>
+        <v>-0.08939586615861475</v>
       </c>
       <c r="SG2">
-        <v>-0.1223009543200058</v>
+        <v>-0.09304462256092096</v>
       </c>
       <c r="SH2">
-        <v>-0.1222046485692642</v>
+        <v>-0.09290858695055849</v>
       </c>
       <c r="SI2">
-        <v>-0.1221189492891058</v>
+        <v>-0.09262479074545045</v>
       </c>
       <c r="SJ2">
-        <v>-0.1221911094901242</v>
+        <v>-0.09264015444641237</v>
       </c>
       <c r="SK2">
-        <v>-0.1214451357491881</v>
+        <v>-0.09205219470526095</v>
       </c>
       <c r="SL2">
-        <v>-0.1226250283221427</v>
+        <v>-0.09105156146640422</v>
       </c>
       <c r="SM2">
-        <v>-0.1294834014820975</v>
+        <v>-0.09490263341897145</v>
       </c>
       <c r="SN2">
-        <v>-0.1235949720950754</v>
+        <v>-0.09141919507927009</v>
       </c>
       <c r="SO2">
-        <v>-0.1203909977618517</v>
+        <v>-0.08939586615861475</v>
       </c>
       <c r="SP2">
-        <v>-0.1223175393547488</v>
+        <v>-0.09306804968523194</v>
       </c>
       <c r="SQ2">
-        <v>-0.1223009543200058</v>
+        <v>-0.09304462256092096</v>
       </c>
       <c r="SR2">
-        <v>-0.1221197755944454</v>
+        <v>-0.09262561482745943</v>
       </c>
       <c r="SS2">
-        <v>-0.1214469181672841</v>
+        <v>-0.09205681677541259</v>
       </c>
       <c r="ST2">
-        <v>-0.1226267365342391</v>
+        <v>-0.09105464628466348</v>
       </c>
       <c r="SU2">
-        <v>-0.1294990466219745</v>
+        <v>-0.09493457791958776</v>
       </c>
       <c r="SV2">
-        <v>-0.1298375997200875</v>
+        <v>-0.09510761040976741</v>
       </c>
       <c r="SW2">
-        <v>-0.1235949720950757</v>
+        <v>-0.09141919507927992</v>
       </c>
       <c r="SX2">
-        <v>-0.1223534457131552</v>
+        <v>-0.09311748388978522</v>
       </c>
       <c r="SY2">
-        <v>-0.1223175393547488</v>
+        <v>-0.09306804968523195</v>
       </c>
       <c r="SZ2">
-        <v>-0.122343480484141</v>
+        <v>-0.09310847676955035</v>
       </c>
       <c r="TA2">
-        <v>-0.1221205360443062</v>
+        <v>-0.09262637323118536</v>
       </c>
       <c r="TB2">
-        <v>-0.1214481359373141</v>
+        <v>-0.09205997463419908</v>
       </c>
       <c r="TC2">
-        <v>-0.1226280402560427</v>
+        <v>-0.09105700064514254</v>
       </c>
       <c r="TD2">
-        <v>-0.1295128436089477</v>
+        <v>-0.09496274902868726</v>
       </c>
       <c r="TE2">
-        <v>-0.1300286865408546</v>
+        <v>-0.09521819201895618</v>
       </c>
       <c r="TF2">
-        <v>-0.1235949720950758</v>
+        <v>-0.09141919507928355</v>
       </c>
       <c r="TG2">
-        <v>-0.1223798772522483</v>
+        <v>-0.09315387369699568</v>
       </c>
       <c r="TH2">
-        <v>-0.1223534457131552</v>
+        <v>-0.09311748388978522</v>
       </c>
       <c r="TI2">
-        <v>-0.122358809776654</v>
+        <v>-0.09313236631766046</v>
       </c>
       <c r="TJ2">
-        <v>-0.1221212135414299</v>
+        <v>-0.09262704890537268</v>
       </c>
       <c r="TK2">
-        <v>-0.1214490982150942</v>
+        <v>-0.0920624699655644</v>
       </c>
       <c r="TL2">
-        <v>-0.1226373439254969</v>
+        <v>-0.09107380195529644</v>
       </c>
       <c r="TM2">
-        <v>-0.1300572246550077</v>
+        <v>-0.09523470687547705</v>
       </c>
       <c r="TN2">
-        <v>-0.1235949720950777</v>
+        <v>-0.09141919507929248</v>
       </c>
       <c r="TO2">
-        <v>-0.1224158640728509</v>
+        <v>-0.09320341893236837</v>
       </c>
       <c r="TP2">
-        <v>-0.1223798772522483</v>
+        <v>-0.09315387369699568</v>
       </c>
       <c r="TQ2">
-        <v>-0.1223709559597006</v>
+        <v>-0.09315129529559586</v>
       </c>
       <c r="TR2">
-        <v>-0.1221219163679482</v>
+        <v>-0.0926277498408009</v>
       </c>
       <c r="TS2">
-        <v>-0.1214521835364761</v>
+        <v>-0.09207047068084052</v>
       </c>
       <c r="TT2">
-        <v>-0.1226427449500501</v>
+        <v>-0.0911168826489481</v>
       </c>
       <c r="TU2">
-        <v>-0.1227169184118176</v>
+        <v>-0.09112071832947942</v>
       </c>
       <c r="TV2">
-        <v>-0.1300790089167454</v>
+        <v>-0.09524731329560722</v>
       </c>
       <c r="TW2">
-        <v>-0.1235949720950781</v>
+        <v>-0.09141919507929583</v>
       </c>
       <c r="TX2">
-        <v>-0.1224413305524465</v>
+        <v>-0.09323848026575221</v>
       </c>
       <c r="TY2">
-        <v>-0.1224158640728509</v>
+        <v>-0.09320341893236837</v>
       </c>
       <c r="TZ2">
-        <v>-0.1223759748736606</v>
+        <v>-0.09315911693956065</v>
       </c>
       <c r="UA2">
-        <v>-0.1221240380891261</v>
+        <v>-0.09262986585308002</v>
       </c>
       <c r="UB2">
-        <v>-0.1214771393567635</v>
+        <v>-0.09213518563995546</v>
       </c>
       <c r="UC2">
-        <v>-0.1226487089304084</v>
+        <v>-0.09116445455952385</v>
       </c>
       <c r="UD2">
-        <v>-0.1300993828851035</v>
+        <v>-0.0952591035737682</v>
       </c>
       <c r="UE2">
-        <v>-0.1235949720950751</v>
+        <v>-0.09141919507930012</v>
       </c>
       <c r="UF2">
-        <v>-0.1225125494699546</v>
+        <v>-0.09333653230038064</v>
       </c>
       <c r="UG2">
-        <v>-0.1224413305524465</v>
+        <v>-0.09323848026575221</v>
       </c>
       <c r="UH2">
-        <v>-0.1223775540942713</v>
+        <v>-0.09316077080681316</v>
       </c>
       <c r="UI2">
-        <v>-0.1223759748736584</v>
+        <v>-0.09316973580040006</v>
       </c>
       <c r="UJ2">
-        <v>-0.1221261762763658</v>
+        <v>-0.0926319982871113</v>
       </c>
       <c r="UK2">
-        <v>-0.1214783821395846</v>
+        <v>-0.0921384084314411</v>
       </c>
       <c r="UL2">
-        <v>-0.1226648747671165</v>
+        <v>-0.09129340649645301</v>
       </c>
       <c r="UM2">
-        <v>-0.1301211092421606</v>
+        <v>-0.09527167645551665</v>
       </c>
       <c r="UN2">
-        <v>-0.123594972095073</v>
+        <v>-0.09141919507929919</v>
       </c>
       <c r="UO2">
-        <v>-0.1225641196557771</v>
+        <v>-0.09340753291873677</v>
       </c>
       <c r="UP2">
-        <v>-0.1225125494699546</v>
+        <v>-0.09333653230038064</v>
       </c>
       <c r="UQ2">
-        <v>-0.122378135199949</v>
+        <v>-0.09316137938022383</v>
       </c>
       <c r="UR2">
-        <v>-0.1223759748736584</v>
+        <v>-0.09317776906292652</v>
       </c>
       <c r="US2">
-        <v>-0.122146154781131</v>
+        <v>-0.09265192303553998</v>
       </c>
       <c r="UT2">
-        <v>-0.1214793627391116</v>
+        <v>-0.09214095132976989</v>
       </c>
       <c r="UU2">
-        <v>-0.1301403344696466</v>
+        <v>-0.09528280193953136</v>
       </c>
       <c r="UV2">
-        <v>-0.123594972095073</v>
+        <v>-0.09141919507929919</v>
       </c>
       <c r="UW2">
-        <v>-0.122566926571115</v>
+        <v>-0.09341768171246774</v>
       </c>
       <c r="UX2">
-        <v>-0.1225641196557771</v>
+        <v>-0.09340753291873677</v>
       </c>
       <c r="UY2">
-        <v>-0.1226289996493739</v>
+        <v>-0.09344962153766084</v>
       </c>
       <c r="UZ2">
-        <v>-0.1223790008004071</v>
+        <v>-0.09316228589594419</v>
       </c>
       <c r="VA2">
-        <v>-0.121480471334038</v>
+        <v>-0.09214382614894417</v>
       </c>
       <c r="VB2">
-        <v>-0.1301599985150647</v>
+        <v>-0.09529418135171169</v>
       </c>
       <c r="VC2">
-        <v>-0.1225675911973799</v>
+        <v>-0.09342008476376962</v>
       </c>
       <c r="VD2">
-        <v>-0.122566926571115</v>
+        <v>-0.09341768171246774</v>
       </c>
       <c r="VE2">
-        <v>-0.1226372017559545</v>
+        <v>-0.0934549423353062</v>
       </c>
       <c r="VF2">
-        <v>-0.1223795216521429</v>
+        <v>-0.09316283136734475</v>
       </c>
       <c r="VG2">
-        <v>-0.121481458019089</v>
+        <v>-0.09214638483219006</v>
       </c>
       <c r="VH2">
-        <v>-0.1302614910884484</v>
+        <v>-0.09535291402514853</v>
       </c>
       <c r="VI2">
-        <v>-0.1225856089949588</v>
+        <v>-0.09348523103211669</v>
       </c>
       <c r="VJ2">
-        <v>-0.1225675911973799</v>
+        <v>-0.09342008476376958</v>
       </c>
       <c r="VK2">
-        <v>-0.122567591197315</v>
+        <v>-0.0934200847637616</v>
       </c>
       <c r="VL2">
-        <v>-0.1226432543863108</v>
+        <v>-0.09345886873936758</v>
       </c>
       <c r="VM2">
-        <v>-0.12238015012843</v>
+        <v>-0.09316348955051205</v>
       </c>
       <c r="VN2">
-        <v>-0.1214825936941</v>
+        <v>-0.09214932988021773</v>
       </c>
       <c r="VO2">
-        <v>-0.130288100267654</v>
+        <v>-0.09538007829748099</v>
       </c>
       <c r="VP2">
-        <v>-0.1304765583664145</v>
+        <v>-0.09547566577042393</v>
       </c>
       <c r="VQ2">
-        <v>-0.1225982361687512</v>
+        <v>-0.09353088702560702</v>
       </c>
       <c r="VR2">
-        <v>-0.1225856089949588</v>
+        <v>-0.09348523103211669</v>
       </c>
       <c r="VS2">
-        <v>-0.1225675911972929</v>
+        <v>-0.0934200847637611</v>
       </c>
       <c r="VT2">
-        <v>-0.1226491436581314</v>
+        <v>-0.09346268916740025</v>
       </c>
       <c r="VU2">
-        <v>-0.1223807019574253</v>
+        <v>-0.0931640674634238</v>
       </c>
       <c r="VV2">
-        <v>-0.12148375814803</v>
+        <v>-0.09215234956065592</v>
       </c>
       <c r="VW2">
-        <v>-0.1302896336877664</v>
+        <v>-0.09538164370642628</v>
       </c>
       <c r="VX2">
-        <v>-0.1315043827926512</v>
+        <v>-0.09606228604787714</v>
       </c>
       <c r="VY2">
-        <v>-0.1226235364149846</v>
+        <v>-0.09359649975858128</v>
       </c>
       <c r="VZ2">
-        <v>-0.12259823616875</v>
+        <v>-0.0935339559276771</v>
       </c>
       <c r="WA2">
-        <v>-0.1225675911972781</v>
+        <v>-0.09342008476375768</v>
       </c>
       <c r="WB2">
-        <v>-0.1227044661552939</v>
+        <v>-0.09349857723455487</v>
       </c>
       <c r="WC2">
-        <v>-0.1223843129453499</v>
+        <v>-0.09316784913610372</v>
       </c>
       <c r="WD2">
-        <v>-0.1214851578178639</v>
+        <v>-0.09215597921009844</v>
       </c>
       <c r="WE2">
-        <v>-0.1302904038285803</v>
+        <v>-0.09538242991323538</v>
       </c>
       <c r="WF2">
-        <v>-0.1315320482627975</v>
+        <v>-0.09611241026271326</v>
       </c>
       <c r="WG2">
-        <v>-0.1327014486880077</v>
+        <v>-0.09673103072559726</v>
       </c>
       <c r="WH2">
-        <v>-0.1226460989012415</v>
+        <v>-0.09365501297202304</v>
       </c>
       <c r="WI2">
-        <v>-0.1226235364149846</v>
+        <v>-0.09359649975858128</v>
       </c>
       <c r="WJ2">
-        <v>-0.1226235364149846</v>
+        <v>-0.09359649975858128</v>
       </c>
       <c r="WK2">
-        <v>-0.1225982361687462</v>
+        <v>-0.09359933967635074</v>
       </c>
       <c r="WL2">
-        <v>-0.12259823616875</v>
+        <v>-0.0935339559276771</v>
       </c>
       <c r="WM2">
-        <v>-0.1225675911972651</v>
+        <v>-0.09342008476375629</v>
       </c>
       <c r="WN2">
-        <v>-0.1227302142184515</v>
+        <v>-0.09351528006371086</v>
       </c>
       <c r="WO2">
-        <v>-0.1224109380114029</v>
+        <v>-0.0931957327291478</v>
       </c>
       <c r="WP2">
-        <v>-0.1214860353116213</v>
+        <v>-0.09215825474486372</v>
       </c>
       <c r="WQ2">
-        <v>-0.1302910496336228</v>
+        <v>-0.09538308919049436</v>
       </c>
       <c r="WR2">
-        <v>-0.1315466475525297</v>
+        <v>-0.09613886141853993</v>
       </c>
       <c r="WS2">
-        <v>-0.1338482027846546</v>
+        <v>-0.09737162509061432</v>
       </c>
       <c r="WT2">
-        <v>-0.1226669127238653</v>
+        <v>-0.09370899081208139</v>
       </c>
       <c r="WU2">
-        <v>-0.1226460989012415</v>
+        <v>-0.09365501297202304</v>
       </c>
       <c r="WV2">
-        <v>-0.1226460989012415</v>
+        <v>-0.09365501297202301</v>
       </c>
       <c r="WW2">
-        <v>-0.1225982361687462</v>
+        <v>-0.09361472931752929</v>
       </c>
       <c r="WX2">
-        <v>-0.1225675911972587</v>
+        <v>-0.09342008476375438</v>
       </c>
       <c r="WY2">
-        <v>-0.1227422989340801</v>
+        <v>-0.0935231194234148</v>
       </c>
       <c r="WZ2">
-        <v>-0.1214898064887307</v>
+        <v>-0.09216803425502147</v>
       </c>
       <c r="XA2">
-        <v>-0.1302915762651781</v>
+        <v>-0.09538362680817689</v>
       </c>
       <c r="XB2">
-        <v>-0.1338665686701158</v>
+        <v>-0.09738590711000152</v>
       </c>
       <c r="XC2">
-        <v>-0.1341592069850865</v>
+        <v>-0.09754279140727169</v>
       </c>
       <c r="XD2">
-        <v>-0.1226952662976915</v>
+        <v>-0.09378252346624621</v>
       </c>
       <c r="XE2">
-        <v>-0.122567591197255</v>
+        <v>-0.09342008476375299</v>
       </c>
       <c r="XF2">
-        <v>-0.122750359663128</v>
+        <v>-0.09352834841302815</v>
       </c>
       <c r="XG2">
-        <v>-0.1215057053951637</v>
+        <v>-0.09220926398881785</v>
       </c>
       <c r="XH2">
-        <v>-0.1302924029231173</v>
+        <v>-0.09538447071113845</v>
       </c>
       <c r="XI2">
-        <v>-0.1338710720599444</v>
+        <v>-0.09738940911519454</v>
       </c>
       <c r="XJ2">
-        <v>-0.1342307613726741</v>
+        <v>-0.09758217210626441</v>
       </c>
       <c r="XK2">
-        <v>-0.1227035827962191</v>
+        <v>-0.09380409194423116</v>
       </c>
       <c r="XL2">
-        <v>-0.1225675911972515</v>
+        <v>-0.09342008476374854</v>
       </c>
       <c r="XM2">
-        <v>-0.1227626830742933</v>
+        <v>-0.09353634258866152</v>
       </c>
       <c r="XN2">
-        <v>-0.1302943741380314</v>
+        <v>-0.09538648304785849</v>
       </c>
       <c r="XO2">
-        <v>-0.133874164418502</v>
+        <v>-0.09739181384851227</v>
       </c>
       <c r="XP2">
-        <v>-0.134266270337663</v>
+        <v>-0.09760171477156133</v>
       </c>
       <c r="XQ2">
-        <v>-0.1227311091109921</v>
+        <v>-0.09387548129927263</v>
       </c>
       <c r="XR2">
-        <v>-0.1225675911972495</v>
+        <v>-0.09342008476374249</v>
       </c>
       <c r="XS2">
-        <v>-0.1227867507506716</v>
+        <v>-0.09355195520343243</v>
       </c>
       <c r="XT2">
-        <v>-0.1302957379005832</v>
+        <v>-0.09538787526008405</v>
       </c>
       <c r="XU2">
-        <v>-0.133878451104123</v>
+        <v>-0.09739514733383973</v>
       </c>
       <c r="XV2">
-        <v>-0.1343052921057828</v>
+        <v>-0.09762319069117235</v>
       </c>
       <c r="XW2">
-        <v>-0.1225675911972475</v>
+        <v>-0.09342008476373892</v>
       </c>
       <c r="XX2">
-        <v>-0.1227934037206453</v>
+        <v>-0.0935562709504127</v>
       </c>
       <c r="XY2">
-        <v>-0.1302974719176307</v>
+        <v>-0.09538964545077216</v>
       </c>
       <c r="XZ2">
-        <v>-0.133888616149865</v>
+        <v>-0.0974030520436765</v>
       </c>
       <c r="YA2">
-        <v>-0.1343503176645475</v>
+        <v>-0.09764797078009926</v>
       </c>
       <c r="YB2">
-        <v>-0.1225675911972449</v>
+        <v>-0.09342008476373671</v>
       </c>
       <c r="YC2">
-        <v>-0.1227953351883055</v>
+        <v>-0.09355752388256516</v>
       </c>
       <c r="YD2">
-        <v>-0.1302985253188944</v>
+        <v>-0.09539072082724533</v>
       </c>
       <c r="YE2">
-        <v>-0.1338963432907425</v>
+        <v>-0.09740906094443823</v>
       </c>
       <c r="YF2">
-        <v>-0.1343958357098304</v>
+        <v>-0.0976730218450705</v>
       </c>
       <c r="YG2">
-        <v>-0.1225675911972446</v>
+        <v>-0.09342008476373621</v>
       </c>
       <c r="YH2">
-        <v>-0.1227964521748585</v>
+        <v>-0.09355833903807591</v>
       </c>
       <c r="YI2">
-        <v>-0.1227983017214644</v>
+        <v>-0.0935589671619587</v>
       </c>
       <c r="YJ2">
-        <v>-0.1302994763160056</v>
+        <v>-0.09539169166330136</v>
       </c>
       <c r="YK2">
-        <v>-0.1339017676424859</v>
+        <v>-0.09741327911130042</v>
       </c>
       <c r="YL2">
-        <v>-0.1344462986620574</v>
+        <v>-0.09770079428365658</v>
       </c>
       <c r="YM2">
-        <v>-0.1225675911972457</v>
+        <v>-0.09342008476373444</v>
       </c>
       <c r="YN2">
-        <v>-0.1227974975798449</v>
+        <v>-0.09355910195462096</v>
       </c>
       <c r="YO2">
-        <v>-0.1228022162629702</v>
+        <v>-0.09356087166537332</v>
       </c>
       <c r="YP2">
-        <v>-0.1303010802071882</v>
+        <v>-0.0953933290136065</v>
       </c>
       <c r="YQ2">
-        <v>-0.1339074501398235</v>
+        <v>-0.09741769801877713</v>
       </c>
       <c r="YR2">
-        <v>-0.1345196829622215</v>
+        <v>-0.09774118140801637</v>
       </c>
       <c r="YS2">
-        <v>-0.1225675911972458</v>
+        <v>-0.09342008476373313</v>
       </c>
       <c r="YT2">
-        <v>-0.1227985744823974</v>
+        <v>-0.09355988785738412</v>
       </c>
       <c r="YU2">
-        <v>-0.1228184791540218</v>
+        <v>-0.09356878387126001</v>
       </c>
       <c r="YV2">
-        <v>-0.1303026570503212</v>
+        <v>-0.0953949387516294</v>
       </c>
       <c r="YW2">
-        <v>-0.1339121155373322</v>
+        <v>-0.09742132599216774</v>
       </c>
       <c r="YX2">
-        <v>-0.1345305563208084</v>
+        <v>-0.09778677086328162</v>
       </c>
       <c r="YY2">
-        <v>-0.1347062033584242</v>
+        <v>-0.09778827028821711</v>
       </c>
       <c r="YZ2">
-        <v>-0.1225675911972481</v>
+        <v>-0.09342008476373422</v>
       </c>
       <c r="ZA2">
-        <v>-0.1228063607455029</v>
+        <v>-0.09356557011928328</v>
       </c>
       <c r="ZB2">
-        <v>-0.122825385650172</v>
+        <v>-0.09357214400391078</v>
       </c>
       <c r="ZC2">
-        <v>-0.1303034031269309</v>
+        <v>-0.09539570039232532</v>
       </c>
       <c r="ZD2">
-        <v>-0.1339198401731806</v>
+        <v>-0.09742733293062378</v>
       </c>
       <c r="ZE2">
-        <v>-0.1345370857978589</v>
+        <v>-0.09781414778404679</v>
       </c>
       <c r="ZF2">
-        <v>-0.1358873990140826</v>
+        <v>-0.0980864545836321</v>
       </c>
       <c r="ZG2">
-        <v>-0.1225675911972481</v>
+        <v>-0.09342008476373424</v>
       </c>
       <c r="ZH2">
-        <v>-0.1228630620120777</v>
+        <v>-0.09360694942564722</v>
       </c>
       <c r="ZI2">
-        <v>-0.1303042225911697</v>
+        <v>-0.09539653695161417</v>
       </c>
       <c r="ZJ2">
-        <v>-0.1339448040933109</v>
+        <v>-0.09744674568823189</v>
       </c>
       <c r="ZK2">
-        <v>-0.1345431428502295</v>
+        <v>-0.09783954414615116</v>
       </c>
       <c r="ZL2">
-        <v>-0.1367330086378362</v>
+        <v>-0.09829990141355359</v>
       </c>
       <c r="ZM2">
-        <v>-0.1303050091016819</v>
+        <v>-0.09539733986972622</v>
       </c>
       <c r="ZN2">
-        <v>-0.1340031364934577</v>
+        <v>-0.09749210667147658</v>
       </c>
       <c r="ZO2">
-        <v>-0.1345490529319381</v>
+        <v>-0.09786432449716918</v>
       </c>
       <c r="ZP2">
-        <v>-0.1368023273219448</v>
+        <v>-0.09841516807580869</v>
       </c>
       <c r="ZQ2">
-        <v>-0.1390786262561163</v>
+        <v>-0.09878706242849131</v>
       </c>
       <c r="ZR2">
-        <v>-0.1303059576272008</v>
+        <v>-0.09539830818268953</v>
       </c>
       <c r="ZS2">
-        <v>-0.1345534858998278</v>
+        <v>-0.0978829116053721</v>
       </c>
       <c r="ZT2">
-        <v>-0.1368067182904869</v>
+        <v>-0.09842157273250603</v>
       </c>
       <c r="ZU2">
-        <v>-0.136808164675061</v>
+        <v>-0.09842737889213894</v>
       </c>
       <c r="ZV2">
-        <v>-0.1395057199428485</v>
+        <v>-0.09889079188610689</v>
       </c>
       <c r="ZW2">
-        <v>-0.1394850575496826</v>
+        <v>-0.09886858007573918</v>
       </c>
       <c r="ZX2">
-        <v>-0.1303074706463981</v>
+        <v>-0.0953998527654018</v>
       </c>
       <c r="ZY2">
-        <v>-0.1345605279795997</v>
+        <v>-0.09791243877460633</v>
       </c>
       <c r="ZZ2">
-        <v>-0.1368080922536913</v>
+        <v>-0.09842357679331039</v>
       </c>
       <c r="AAA2">
-        <v>-0.1368200563290121</v>
+        <v>-0.09845225445482748</v>
       </c>
       <c r="AAB2">
-        <v>-0.1397531847001333</v>
+        <v>-0.09895088735499671</v>
       </c>
       <c r="AAC2">
-        <v>-0.1399424184020303</v>
+        <v>-0.09896032828710459</v>
       </c>
       <c r="AAD2">
-        <v>-0.1303116116170851</v>
+        <v>-0.09540408012214453</v>
       </c>
       <c r="AAE2">
-        <v>-0.1345724012505532</v>
+        <v>-0.09796222362851115</v>
       </c>
       <c r="AAF2">
-        <v>-0.1368089756726977</v>
+        <v>-0.09842486534734367</v>
       </c>
       <c r="AAG2">
-        <v>-0.1411490792341075</v>
+        <v>-0.09920235357366705</v>
       </c>
       <c r="AAH2">
-        <v>-0.1399424184020116</v>
+        <v>-0.09896032828711414</v>
       </c>
       <c r="AAI2">
-        <v>-0.1303171225011258</v>
+        <v>-0.09540970597068074</v>
       </c>
       <c r="AAJ2">
-        <v>-0.1346613690305068</v>
+        <v>-0.09833529465599004</v>
       </c>
       <c r="AAK2">
-        <v>-0.1368095085264017</v>
+        <v>-0.09842564256731176</v>
       </c>
       <c r="AAL2">
-        <v>-0.1421647212622665</v>
+        <v>-0.09945420856761561</v>
       </c>
       <c r="AAM2">
-        <v>-0.141404875435147</v>
+        <v>-0.0992239329778445</v>
       </c>
       <c r="AAN2">
-        <v>-0.1399424184019989</v>
+        <v>-0.09896032828712578</v>
       </c>
       <c r="AAO2">
-        <v>-0.1303176473956316</v>
+        <v>-0.09541024181521125</v>
       </c>
       <c r="AAP2">
-        <v>-0.1347343583235242</v>
+        <v>-0.09864139877935607</v>
       </c>
       <c r="AAQ2">
-        <v>-0.1368100470882901</v>
+        <v>-0.09842642811332059</v>
       </c>
       <c r="AAR2">
-        <v>-0.1432132111370931</v>
+        <v>-0.09971416497237234</v>
       </c>
       <c r="AAS2">
-        <v>-0.1414322607836924</v>
+        <v>-0.09922624311596903</v>
       </c>
       <c r="AAT2">
-        <v>-0.1399424184019878</v>
+        <v>-0.09896032828713432</v>
       </c>
       <c r="AAU2">
-        <v>-0.1303180625121463</v>
+        <v>-0.09541066559163304</v>
       </c>
       <c r="AAV2">
-        <v>-0.134757484374864</v>
+        <v>-0.09873839212191209</v>
       </c>
       <c r="AAW2">
-        <v>-0.1368105281374814</v>
+        <v>-0.09842712977142183</v>
       </c>
       <c r="AAX2">
-        <v>-0.1436061787963459</v>
+        <v>-0.09979153502268666</v>
       </c>
       <c r="AAY2">
-        <v>-0.1433738012051858</v>
+        <v>-0.09982156039678418</v>
       </c>
       <c r="AAZ2">
-        <v>-0.1414427169792667</v>
+        <v>-0.09922712515933937</v>
       </c>
       <c r="ABA2">
-        <v>-0.1399424184019819</v>
+        <v>-0.09896032828714252</v>
       </c>
       <c r="ABB2">
-        <v>-0.1303184656898505</v>
+        <v>-0.09541107718018517</v>
       </c>
       <c r="ABC2">
-        <v>-0.134778537901896</v>
+        <v>-0.098826695899945</v>
       </c>
       <c r="ABD2">
-        <v>-0.1368110701129174</v>
+        <v>-0.09842792029659922</v>
       </c>
       <c r="ABE2">
-        <v>-0.1441402147063663</v>
+        <v>-0.0998966709688399</v>
       </c>
       <c r="ABF2">
-        <v>-0.1433953441037578</v>
+        <v>-0.09983596712154995</v>
       </c>
       <c r="ABG2">
-        <v>-0.141453777618967</v>
+        <v>-0.09922805818703689</v>
       </c>
       <c r="ABH2">
-        <v>-0.1399424184019813</v>
+        <v>-0.09896032828715041</v>
       </c>
       <c r="ABI2">
-        <v>-0.1303188975367122</v>
+        <v>-0.09541151803597321</v>
       </c>
       <c r="ABJ2">
-        <v>-0.1347900048645548</v>
+        <v>-0.09887479236003369</v>
       </c>
       <c r="ABK2">
-        <v>-0.1368115043448797</v>
+        <v>-0.09842855366724577</v>
       </c>
       <c r="ABL2">
-        <v>-0.1447655422775566</v>
+        <v>-0.1000197670405795</v>
       </c>
       <c r="ABM2">
-        <v>-0.1434066623277729</v>
+        <v>-0.09984353611849754</v>
       </c>
       <c r="ABN2">
-        <v>-0.1414629570325549</v>
+        <v>-0.09922883251936704</v>
       </c>
       <c r="ABO2">
-        <v>-0.1399424184019798</v>
+        <v>-0.09896032828716063</v>
       </c>
       <c r="ABP2">
-        <v>-0.1303192968118251</v>
+        <v>-0.09541192564051949</v>
       </c>
       <c r="ABQ2">
-        <v>-0.1347991630747075</v>
+        <v>-0.09891320568036453</v>
       </c>
       <c r="ABR2">
-        <v>-0.1368120252065439</v>
+        <v>-0.0984293133960373</v>
       </c>
       <c r="ABS2">
-        <v>-0.1452677169885702</v>
+        <v>-0.1001186106327782</v>
       </c>
       <c r="ABT2">
-        <v>-0.143449828124491</v>
+        <v>-0.09988649274311047</v>
       </c>
       <c r="ABU2">
-        <v>-0.1434073499510273</v>
+        <v>-0.09984353611849896</v>
       </c>
       <c r="ABV2">
-        <v>-0.1414738277647402</v>
+        <v>-0.09922974951957186</v>
       </c>
       <c r="ABW2">
-        <v>-0.1399424184019813</v>
+        <v>-0.09896032828717741</v>
       </c>
       <c r="ABX2">
-        <v>-0.1303196730864818</v>
+        <v>-0.09541230976478857</v>
       </c>
       <c r="ABY2">
-        <v>-0.1348069724544761</v>
+        <v>-0.09894596185335094</v>
       </c>
       <c r="ABZ2">
-        <v>-0.1368125864974298</v>
+        <v>-0.09843013209497599</v>
       </c>
       <c r="ACA2">
-        <v>-0.1454388387343594</v>
+        <v>-0.1001481194098728</v>
       </c>
       <c r="ACB2">
-        <v>-0.1453369380224445</v>
+        <v>-0.1001510163874048</v>
       </c>
       <c r="ACC2">
-        <v>-0.1434849171967994</v>
+        <v>-0.09992141177841915</v>
       </c>
       <c r="ACD2">
-        <v>-0.1434078472016055</v>
+        <v>-0.09984353611850016</v>
       </c>
       <c r="ACE2">
-        <v>-0.1414844294230007</v>
+        <v>-0.09923064381804617</v>
       </c>
       <c r="ACF2">
-        <v>-0.1399424184019822</v>
+        <v>-0.09896032828719446</v>
       </c>
       <c r="ACG2">
-        <v>-0.1303201964126395</v>
+        <v>-0.09541284400825795</v>
       </c>
       <c r="ACH2">
-        <v>-0.1348161368518846</v>
+        <v>-0.09898440207638211</v>
       </c>
       <c r="ACI2">
-        <v>-0.1368136105437474</v>
+        <v>-0.09843162576927855</v>
       </c>
       <c r="ACJ2">
-        <v>-0.1456747763706326</v>
+        <v>-0.1001888037487884</v>
       </c>
       <c r="ACK2">
-        <v>-0.145394799404394</v>
+        <v>-0.1001781037153968</v>
       </c>
       <c r="ACL2">
-        <v>-0.1434082668368458</v>
+        <v>-0.0998435361185004</v>
       </c>
       <c r="ACM2">
-        <v>-0.1414990045167548</v>
+        <v>-0.09923187328755108</v>
       </c>
       <c r="ACN2">
-        <v>-0.1399424184019841</v>
+        <v>-0.09896032828721056</v>
       </c>
       <c r="ACO2">
-        <v>-0.1303208377275913</v>
+        <v>-0.09541349870193264</v>
       </c>
       <c r="ACP2">
-        <v>-0.1348245107602943</v>
+        <v>-0.09901952702861551</v>
       </c>
       <c r="ACQ2">
-        <v>-0.1368212720237328</v>
+        <v>-0.0984428008167218</v>
       </c>
       <c r="ACR2">
-        <v>-0.1462552420106341</v>
+        <v>-0.1002888900241746</v>
       </c>
       <c r="ACS2">
-        <v>-0.1454150991345517</v>
+        <v>-0.1001978052425127</v>
       </c>
       <c r="ACT2">
-        <v>-0.1453955882313489</v>
+        <v>-0.1001781037153967</v>
       </c>
       <c r="ACU2">
-        <v>-0.143408975649491</v>
+        <v>-0.09984353611850065</v>
       </c>
       <c r="ACV2">
-        <v>-0.1415190550761688</v>
+        <v>-0.09923356462302509</v>
       </c>
       <c r="ACW2">
-        <v>-0.1399424184019885</v>
+        <v>-0.0989603282872176</v>
       </c>
       <c r="ACX2">
-        <v>-0.1303238773966382</v>
+        <v>-0.09541660178276266</v>
       </c>
       <c r="ACY2">
-        <v>-0.134837501944221</v>
+        <v>-0.09907402031867549</v>
       </c>
       <c r="ACZ2">
-        <v>-0.1368447507517984</v>
+        <v>-0.09847704704006682</v>
       </c>
       <c r="ADA2">
-        <v>-0.1467257717790083</v>
+        <v>-0.1003700130019763</v>
       </c>
       <c r="ADB2">
-        <v>-0.1454349908757801</v>
+        <v>-0.1002171107983391</v>
       </c>
       <c r="ADC2">
-        <v>-0.1453963424513776</v>
+        <v>-0.100178103715396</v>
       </c>
       <c r="ADD2">
-        <v>-0.1434099682580775</v>
+        <v>-0.09984353611850072</v>
       </c>
       <c r="ADE2">
-        <v>-0.1415402744451613</v>
+        <v>-0.09923535453628796</v>
       </c>
       <c r="ADF2">
-        <v>-0.1399424184019947</v>
+        <v>-0.09896032828722837</v>
       </c>
       <c r="ADG2">
-        <v>-0.1303498676036688</v>
+        <v>-0.0954431341858316</v>
       </c>
       <c r="ADH2">
-        <v>-0.134863730086739</v>
+        <v>-0.09918404097867708</v>
       </c>
       <c r="ADI2">
-        <v>-0.1470934636297434</v>
+        <v>-0.1004334011264162</v>
       </c>
       <c r="ADJ2">
-        <v>-0.145397155540261</v>
+        <v>-0.1001781037153959</v>
       </c>
       <c r="ADK2">
-        <v>-0.1434107047971648</v>
+        <v>-0.09984353611850169</v>
       </c>
       <c r="ADL2">
-        <v>-0.1415543700046831</v>
+        <v>-0.09923654352748158</v>
       </c>
       <c r="ADM2">
-        <v>-0.1399424184019971</v>
+        <v>-0.09896032828723671</v>
       </c>
       <c r="ADN2">
-        <v>-0.1348706153586034</v>
+        <v>-0.09921302617435822</v>
       </c>
       <c r="ADO2">
-        <v>-0.1348693905066753</v>
+        <v>-0.09920717477045334</v>
       </c>
       <c r="ADP2">
-        <v>-0.1474258113845414</v>
+        <v>-0.1004906924935667</v>
       </c>
       <c r="ADQ2">
-        <v>-0.1453978815667703</v>
+        <v>-0.1001781037153954</v>
       </c>
       <c r="ADR2">
-        <v>-0.1434119249053745</v>
+        <v>-0.09984353611850197</v>
       </c>
       <c r="ADS2">
-        <v>-0.141568715985415</v>
+        <v>-0.09923775363506403</v>
       </c>
       <c r="ADT2">
-        <v>-0.1399424184019991</v>
+        <v>-0.09896032828724469</v>
       </c>
       <c r="ADU2">
-        <v>-0.1348766199829452</v>
+        <v>-0.09923830431262273</v>
       </c>
       <c r="ADV2">
-        <v>-0.1348784480323206</v>
+        <v>-0.09924419271009612</v>
       </c>
       <c r="ADW2">
-        <v>-0.147442663715473</v>
+        <v>-0.1004923796001058</v>
       </c>
       <c r="ADX2">
-        <v>-0.1475393175824165</v>
+        <v>-0.1005242287198844</v>
       </c>
       <c r="ADY2">
-        <v>-0.1453986833423379</v>
+        <v>-0.100178103715395</v>
       </c>
       <c r="ADZ2">
-        <v>-0.1434203937183719</v>
+        <v>-0.09984353611850347</v>
       </c>
       <c r="AEA2">
-        <v>-0.1415755754481617</v>
+        <v>-0.09923833223971136</v>
       </c>
       <c r="AEB2">
-        <v>-0.139942418401999</v>
+        <v>-0.09896032828724832</v>
       </c>
       <c r="AEC2">
-        <v>-0.13488158609309</v>
+        <v>-0.09925921070411607</v>
       </c>
       <c r="AED2">
-        <v>-0.1348861868312227</v>
+        <v>-0.0992758214119733</v>
       </c>
       <c r="AEE2">
-        <v>-0.14745956044978</v>
+        <v>-0.1004940711402004</v>
       </c>
       <c r="AEF2">
-        <v>-0.1476655100389327</v>
+        <v>-0.1005615136898053</v>
       </c>
       <c r="AEG2">
-        <v>-0.1475393175824165</v>
+        <v>-0.1005242287198844</v>
       </c>
       <c r="AEH2">
-        <v>-0.1453992002735531</v>
+        <v>-0.1001781037153957</v>
       </c>
       <c r="AEI2">
-        <v>-0.1434391003981928</v>
+        <v>-0.09984353611850347</v>
       </c>
       <c r="AEJ2">
-        <v>-0.1415864862992703</v>
+        <v>-0.09923925258084733</v>
       </c>
       <c r="AEK2">
-        <v>-0.1399424184019961</v>
+        <v>-0.09896032828725426</v>
       </c>
       <c r="AEL2">
-        <v>-0.1348854479893709</v>
+        <v>-0.09927546866759898</v>
       </c>
       <c r="AEM2">
-        <v>-0.1348905667001188</v>
+        <v>-0.0992937222194884</v>
       </c>
       <c r="AEN2">
-        <v>-0.1474764901098252</v>
+        <v>-0.1004957659647398</v>
       </c>
       <c r="AEO2">
-        <v>-0.1477713208414667</v>
+        <v>-0.1005927761148936</v>
       </c>
       <c r="AEP2">
-        <v>-0.1476655100389327</v>
+        <v>-0.1005615136898053</v>
       </c>
       <c r="AEQ2">
-        <v>-0.1453999942448216</v>
+        <v>-0.1001781037153961</v>
       </c>
       <c r="AER2">
-        <v>-0.1415967292146219</v>
+        <v>-0.09924011657712233</v>
       </c>
       <c r="AES2">
-        <v>-0.1399424184019961</v>
+        <v>-0.09896032828725743</v>
       </c>
       <c r="AET2">
-        <v>-0.1348893757839044</v>
+        <v>-0.09929200414645313</v>
       </c>
       <c r="AEU2">
-        <v>-0.1474933174139139</v>
+        <v>-0.1004974505307736</v>
       </c>
       <c r="AEV2">
-        <v>-0.1478850675099737</v>
+        <v>-0.1006263826710418</v>
       </c>
       <c r="AEW2">
-        <v>-0.1477713208414667</v>
+        <v>-0.1005927761148936</v>
       </c>
       <c r="AEX2">
-        <v>-0.1454065248702509</v>
+        <v>-0.1001781037153965</v>
       </c>
       <c r="AEY2">
-        <v>-0.1416113647205667</v>
+        <v>-0.0992413510847331</v>
       </c>
       <c r="AEZ2">
-        <v>-0.1399424184019961</v>
+        <v>-0.09896032828725743</v>
       </c>
       <c r="AFA2">
-        <v>-0.1348927844169241</v>
+        <v>-0.09930635410327829</v>
       </c>
       <c r="AFB2">
-        <v>-0.1475102087998521</v>
+        <v>-0.1004991415002792</v>
       </c>
       <c r="AFC2">
-        <v>-0.1479784596766066</v>
+        <v>-0.1006539750317654</v>
       </c>
       <c r="AFD2">
-        <v>-0.1478850675099737</v>
+        <v>-0.1006263826710418</v>
       </c>
       <c r="AFE2">
-        <v>-0.145429032505808</v>
+        <v>-0.1001781037153965</v>
       </c>
       <c r="AFF2">
-        <v>-0.1417658583864092</v>
+        <v>-0.09925438219353611</v>
       </c>
       <c r="AFG2">
-        <v>-0.1348952325523936</v>
+        <v>-0.09931666051899973</v>
       </c>
       <c r="AFH2">
-        <v>-0.1475270888370213</v>
+        <v>-0.1005008313219623</v>
       </c>
       <c r="AFI2">
-        <v>-0.1480787285777495</v>
+        <v>-0.1006835986564907</v>
       </c>
       <c r="AFJ2">
-        <v>-0.1479784596766066</v>
+        <v>-0.1006539750317654</v>
       </c>
       <c r="AFK2">
-        <v>-0.1418276550080225</v>
+        <v>-0.09925959433038627</v>
       </c>
       <c r="AFL2">
-        <v>-0.1348980748455987</v>
+        <v>-0.09932862634736533</v>
       </c>
       <c r="AFM2">
-        <v>-0.1475439796623244</v>
+        <v>-0.1005025222119</v>
       </c>
       <c r="AFN2">
-        <v>-0.1483024243780321</v>
+        <v>-0.1007496894378933</v>
       </c>
       <c r="AFO2">
-        <v>-0.1480787285777208</v>
+        <v>-0.1006835986565075</v>
       </c>
       <c r="AFP2">
-        <v>-0.1480787285777495</v>
+        <v>-0.1006835986564907</v>
       </c>
       <c r="AFQ2">
-        <v>-0.1418590358903452</v>
+        <v>-0.09926224104902991</v>
       </c>
       <c r="AFR2">
-        <v>-0.1349023568055092</v>
+        <v>-0.09934665315211805</v>
       </c>
       <c r="AFS2">
-        <v>-0.147552224656058</v>
+        <v>-0.1005033475892729</v>
       </c>
       <c r="AFT2">
-        <v>-0.1483351538938702</v>
+        <v>-0.1007593589015954</v>
       </c>
       <c r="AFU2">
-        <v>-0.1480787285776922</v>
+        <v>-0.1006835986565252</v>
       </c>
       <c r="AFV2">
-        <v>-0.1480787285777208</v>
+        <v>-0.1006835986565075</v>
       </c>
       <c r="AFW2">
-        <v>-0.1418659799324809</v>
+        <v>-0.09926282671703247</v>
       </c>
       <c r="AFX2">
-        <v>-0.1349093526823361</v>
+        <v>-0.09937610563407839</v>
       </c>
       <c r="AFY2">
-        <v>-0.1477375402294473</v>
+        <v>-0.100521898143615</v>
       </c>
       <c r="AFZ2">
-        <v>-0.1484273632978077</v>
+        <v>-0.1007866002220618</v>
       </c>
       <c r="AGA2">
-        <v>-0.1480787285776463</v>
+        <v>-0.1006835986565495</v>
       </c>
       <c r="AGB2">
-        <v>-0.1480787285776922</v>
+        <v>-0.1006835986565252</v>
       </c>
       <c r="AGC2">
-        <v>-0.1418714487216274</v>
+        <v>-0.09926328795941126</v>
       </c>
       <c r="AGD2">
-        <v>-0.1349325769076229</v>
+        <v>-0.09938401576277001</v>
       </c>
       <c r="AGE2">
-        <v>-0.1349969962919156</v>
+        <v>-0.09998445033463754</v>
       </c>
       <c r="AGF2">
-        <v>-0.1478580558210168</v>
+        <v>-0.1005339612997531</v>
       </c>
       <c r="AGG2">
-        <v>-0.1485356458731306</v>
+        <v>-0.1008185888553277</v>
       </c>
       <c r="AGH2">
-        <v>-0.1480787285776317</v>
+        <v>-0.1006835986565581</v>
       </c>
       <c r="AGI2">
-        <v>-0.1480787285776463</v>
+        <v>-0.1006835986565495</v>
       </c>
       <c r="AGJ2">
-        <v>-0.1418773081862387</v>
+        <v>-0.09926378215052696</v>
       </c>
       <c r="AGK2">
-        <v>-0.1479634642195425</v>
+        <v>-0.1005445117936066</v>
       </c>
       <c r="AGL2">
-        <v>-0.1485496929049581</v>
+        <v>-0.1008227385105598</v>
       </c>
       <c r="AGM2">
-        <v>-0.1480787285776226</v>
+        <v>-0.1006835986565621</v>
       </c>
       <c r="AGN2">
-        <v>-0.1480787285776317</v>
+        <v>-0.1006835986565581</v>
       </c>
       <c r="AGO2">
-        <v>-0.1418819961972453</v>
+        <v>-0.09926417753960076</v>
       </c>
       <c r="AGP2">
-        <v>-0.1480740361395793</v>
+        <v>-0.1005555786219317</v>
       </c>
       <c r="AGQ2">
-        <v>-0.1485538295323005</v>
+        <v>-0.1008259482782216</v>
       </c>
       <c r="AGR2">
-        <v>-0.1485797729673433</v>
+        <v>-0.1008272018709121</v>
       </c>
       <c r="AGS2">
-        <v>-0.1480787285776186</v>
+        <v>-0.1006835986565672</v>
       </c>
       <c r="AGT2">
-        <v>-0.1480787285776226</v>
+        <v>-0.1006835986565621</v>
       </c>
       <c r="AGU2">
-        <v>-0.1418865480732478</v>
+        <v>-0.09926456144624256</v>
       </c>
       <c r="AGV2">
-        <v>-0.1482628487622075</v>
+        <v>-0.1005744751780447</v>
       </c>
       <c r="AGW2">
-        <v>-0.1485576572720098</v>
+        <v>-0.1008289183667654</v>
       </c>
       <c r="AGX2">
-        <v>-0.1486501702391921</v>
+        <v>-0.1008376473763075</v>
       </c>
       <c r="AGY2">
-        <v>-0.1480787285776186</v>
+        <v>-0.1006835986565672</v>
       </c>
       <c r="AGZ2">
-        <v>-0.1480787285776186</v>
+        <v>-0.1006835986565672</v>
       </c>
       <c r="AHA2">
-        <v>-0.1418910884133154</v>
+        <v>-0.09926494437921125</v>
       </c>
       <c r="AHB2">
-        <v>-0.1483091629100172</v>
+        <v>-0.1005791101206096</v>
       </c>
       <c r="AHC2">
-        <v>-0.1485634777004157</v>
+        <v>-0.1008334346555932</v>
       </c>
       <c r="AHD2">
-        <v>-0.148817183850833</v>
+        <v>-0.1008624274639301</v>
       </c>
       <c r="AHE2">
-        <v>-0.1418955756404095</v>
+        <v>-0.09926532283191045</v>
       </c>
       <c r="AHF2">
-        <v>-0.1483444821961064</v>
+        <v>-0.1005825188356152</v>
       </c>
       <c r="AHG2">
-        <v>-0.148392748298869</v>
+        <v>-0.1005881415692501</v>
       </c>
       <c r="AHH2">
-        <v>-0.1485708331556165</v>
+        <v>-0.1008391420249716</v>
       </c>
       <c r="AHI2">
-        <v>-0.1419758181347107</v>
+        <v>-0.0992720903635509</v>
       </c>
       <c r="AHJ2">
-        <v>-0.1484024748017532</v>
+        <v>-0.1005881156776328</v>
       </c>
       <c r="AHK2">
-        <v>-0.1484636417564034</v>
+        <v>-0.1005958014737553</v>
       </c>
       <c r="AHL2">
-        <v>-0.1485994680662369</v>
+        <v>-0.1008613608635944</v>
       </c>
       <c r="AHM2">
-        <v>-0.1420910912604809</v>
+        <v>-0.09930395564869211</v>
       </c>
       <c r="AHN2">
-        <v>-0.1421227101853207</v>
+        <v>-0.0992720903635509</v>
       </c>
       <c r="AHO2">
-        <v>-0.1484139413941793</v>
+        <v>-0.1005892222978156</v>
       </c>
       <c r="AHP2">
-        <v>-0.148582802829564</v>
+        <v>-0.100608676243863</v>
       </c>
       <c r="AHQ2">
-        <v>-0.1486514863450208</v>
+        <v>-0.1009017234954094</v>
       </c>
       <c r="AHR2">
-        <v>-0.1421676491475678</v>
+        <v>-0.09932511809805294</v>
       </c>
       <c r="AHS2">
-        <v>-0.148423630464572</v>
+        <v>-0.1005901573684734</v>
       </c>
       <c r="AHT2">
-        <v>-0.1484317954451934</v>
+        <v>-0.1005909453497149</v>
       </c>
       <c r="AHU2">
-        <v>-0.1484424167689667</v>
+        <v>-0.1005919703823386</v>
       </c>
       <c r="AHV2">
-        <v>-0.1484616398415396</v>
+        <v>-0.1005938255329535</v>
       </c>
       <c r="AHW2">
-        <v>-0.1484949696063731</v>
+        <v>-0.1005970420356242</v>
       </c>
       <c r="AHX2">
-        <v>-0.1487679945111263</v>
+        <v>-0.1006233887533975</v>
       </c>
     </row>
     <row r="3" spans="1:908">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.08661412705499728</v>
+        <v>-0.06079605725139101</v>
       </c>
       <c r="D3">
-        <v>-0.08738821383140569</v>
+        <v>-0.06134024668620605</v>
       </c>
       <c r="E3">
-        <v>-0.08746937372079096</v>
+        <v>-0.06139730115375461</v>
       </c>
       <c r="F3">
-        <v>-0.08754540911931138</v>
+        <v>-0.0614507528861954</v>
       </c>
       <c r="G3">
-        <v>-0.08761170211522011</v>
+        <v>-0.06149735563859866</v>
       </c>
       <c r="H3">
-        <v>-0.0877161415906355</v>
+        <v>-0.06157077424863668</v>
       </c>
       <c r="I3">
-        <v>-0.0948336752054468</v>
+        <v>-0.06657304968242274</v>
       </c>
       <c r="J3">
-        <v>-0.09515272082598945</v>
+        <v>-0.06679722324243656</v>
       </c>
       <c r="K3">
-        <v>-0.09541828563781156</v>
+        <v>-0.06698381556103582</v>
       </c>
       <c r="L3">
-        <v>-0.0956513527837286</v>
+        <v>-0.06714757153484356</v>
       </c>
       <c r="M3">
-        <v>-0.09582527275751042</v>
+        <v>-0.06726976830561815</v>
       </c>
       <c r="N3">
-        <v>-0.09598854690090107</v>
+        <v>-0.06738448400438533</v>
       </c>
       <c r="O3">
-        <v>-0.09608894851558678</v>
+        <v>-0.06745502512648158</v>
       </c>
       <c r="P3">
-        <v>-0.09633891322212498</v>
+        <v>-0.06763064568106314</v>
       </c>
       <c r="Q3">
-        <v>-0.0983643453689594</v>
+        <v>-0.06905356992356178</v>
       </c>
       <c r="R3">
-        <v>-0.09836434536896205</v>
+        <v>-0.06905356992356393</v>
       </c>
       <c r="S3">
-        <v>-0.1008217443930527</v>
+        <v>-0.07077970824991583</v>
       </c>
       <c r="T3">
-        <v>-0.09836434536896299</v>
+        <v>-0.06905356992356458</v>
       </c>
       <c r="U3">
-        <v>-0.1009908774820378</v>
+        <v>-0.07089850126384233</v>
       </c>
       <c r="V3">
-        <v>-0.09836434536896357</v>
+        <v>-0.06905356992356469</v>
       </c>
       <c r="W3">
-        <v>-0.1011808017289566</v>
+        <v>-0.07103189566275021</v>
       </c>
       <c r="X3">
-        <v>-0.09836434536896395</v>
+        <v>-0.06905356992356472</v>
       </c>
       <c r="Y3">
-        <v>-0.1014900538762568</v>
+        <v>-0.07124909713308611</v>
       </c>
       <c r="Z3">
-        <v>-0.09836434536896461</v>
+        <v>-0.06905356992356466</v>
       </c>
       <c r="AA3">
-        <v>-0.1020527125609408</v>
+        <v>-0.07164426587545415</v>
       </c>
       <c r="AB3">
-        <v>-0.09836434536896557</v>
+        <v>-0.06905356992356441</v>
       </c>
       <c r="AC3">
-        <v>-0.1022486588316277</v>
+        <v>-0.07172849128671453</v>
       </c>
       <c r="AD3">
-        <v>-0.1088421577656609</v>
+        <v>-0.07648429752084349</v>
       </c>
       <c r="AE3">
-        <v>-0.09836434536896554</v>
+        <v>-0.06905356992356351</v>
       </c>
       <c r="AF3">
-        <v>-0.1022663558471916</v>
+        <v>-0.07173755046606109</v>
       </c>
       <c r="AG3">
-        <v>-0.1022840054898262</v>
+        <v>-0.0717422690203945</v>
       </c>
       <c r="AH3">
-        <v>-0.1106513322457523</v>
+        <v>-0.07777366189496064</v>
       </c>
       <c r="AI3">
-        <v>-0.0983643453689657</v>
+        <v>-0.06905356992356083</v>
       </c>
       <c r="AJ3">
-        <v>-0.1023068838007121</v>
+        <v>-0.07175829676751096</v>
       </c>
       <c r="AK3">
-        <v>-0.1022852025174336</v>
+        <v>-0.07174273560605081</v>
       </c>
       <c r="AL3">
-        <v>-0.1107621292763371</v>
+        <v>-0.07785175286435189</v>
       </c>
       <c r="AM3">
-        <v>-0.116000788743513</v>
+        <v>-0.08158623205812467</v>
       </c>
       <c r="AN3">
-        <v>-0.09836434536896577</v>
+        <v>-0.06905356992355795</v>
       </c>
       <c r="AO3">
-        <v>-0.1022869236277868</v>
+        <v>-0.07174340647201299</v>
       </c>
       <c r="AP3">
-        <v>-0.1107653997942074</v>
+        <v>-0.07785610626599596</v>
       </c>
       <c r="AQ3">
-        <v>-0.1107823114158263</v>
+        <v>-0.07785672852065582</v>
       </c>
       <c r="AR3">
-        <v>-0.1197166687168107</v>
+        <v>-0.0842337859709042</v>
       </c>
       <c r="AS3">
-        <v>-0.1160007887434884</v>
+        <v>-0.08158623205808439</v>
       </c>
       <c r="AT3">
-        <v>-0.09836434536896603</v>
+        <v>-0.06905356992355707</v>
       </c>
       <c r="AU3">
-        <v>-0.1022891308363161</v>
+        <v>-0.07174426681211947</v>
       </c>
       <c r="AV3">
-        <v>-0.1107668739160736</v>
+        <v>-0.07785806847721458</v>
       </c>
       <c r="AW3">
-        <v>-0.1108308742269536</v>
+        <v>-0.07786870093828896</v>
       </c>
       <c r="AX3">
-        <v>-0.1225266197457787</v>
+        <v>-0.08623545320811489</v>
       </c>
       <c r="AY3">
-        <v>-0.1160007887434727</v>
+        <v>-0.08158623205806437</v>
       </c>
       <c r="AZ3">
-        <v>-0.09836434536896629</v>
+        <v>-0.06905356992355588</v>
       </c>
       <c r="BA3">
-        <v>-0.1022945063925297</v>
+        <v>-0.07174636212919625</v>
       </c>
       <c r="BB3">
-        <v>-0.1107684361707643</v>
+        <v>-0.07786014800296728</v>
       </c>
       <c r="BC3">
-        <v>-0.1229319016412226</v>
+        <v>-0.08652412609241382</v>
       </c>
       <c r="BD3">
-        <v>-0.1225266197457495</v>
+        <v>-0.08623545320804521</v>
       </c>
       <c r="BE3">
-        <v>-0.1160007887434597</v>
+        <v>-0.08158623205804998</v>
       </c>
       <c r="BF3">
-        <v>-0.09836434536896678</v>
+        <v>-0.06905356992355377</v>
       </c>
       <c r="BG3">
-        <v>-0.1022991088605764</v>
+        <v>-0.07174815610476169</v>
       </c>
       <c r="BH3">
-        <v>-0.1107699241112791</v>
+        <v>-0.07786212860916804</v>
       </c>
       <c r="BI3">
-        <v>-0.1247681749639386</v>
+        <v>-0.08783196785619429</v>
       </c>
       <c r="BJ3">
-        <v>-0.1225266197457443</v>
+        <v>-0.08623545320803916</v>
       </c>
       <c r="BK3">
-        <v>-0.1160007887434515</v>
+        <v>-0.08158623205803449</v>
       </c>
       <c r="BL3">
-        <v>-0.09836434536896672</v>
+        <v>-0.06905356992355119</v>
       </c>
       <c r="BM3">
-        <v>-0.102321171576346</v>
+        <v>-0.07175675580077179</v>
       </c>
       <c r="BN3">
-        <v>-0.1107708152409592</v>
+        <v>-0.07786331479723688</v>
       </c>
       <c r="BO3">
-        <v>-0.1251339959280031</v>
+        <v>-0.08808806116944927</v>
       </c>
       <c r="BP3">
-        <v>-0.1249070104798282</v>
+        <v>-0.08801210809068895</v>
       </c>
       <c r="BQ3">
-        <v>-0.1225266197457391</v>
+        <v>-0.08623545320803304</v>
       </c>
       <c r="BR3">
-        <v>-0.1160007887434407</v>
+        <v>-0.08158623205802326</v>
       </c>
       <c r="BS3">
-        <v>-0.0983643453689662</v>
+        <v>-0.06905356992354902</v>
       </c>
       <c r="BT3">
-        <v>-0.1023991574929044</v>
+        <v>-0.0717871530484958</v>
       </c>
       <c r="BU3">
-        <v>-0.1107725635730217</v>
+        <v>-0.07786564201300686</v>
       </c>
       <c r="BV3">
-        <v>-0.129458270381522</v>
+        <v>-0.09111480394810917</v>
       </c>
       <c r="BW3">
-        <v>-0.1249296319261044</v>
+        <v>-0.08803412195288191</v>
       </c>
       <c r="BX3">
-        <v>-0.124952253604307</v>
+        <v>-0.08807815025018161</v>
       </c>
       <c r="BY3">
-        <v>-0.1225266197457277</v>
+        <v>-0.08623545320802192</v>
       </c>
       <c r="BZ3">
-        <v>-0.1160007887434144</v>
+        <v>-0.08158623205799136</v>
       </c>
       <c r="CA3">
-        <v>-0.09836434536896296</v>
+        <v>-0.06905356992354029</v>
       </c>
       <c r="CB3">
-        <v>-0.1107814242083489</v>
+        <v>-0.07787743646969462</v>
       </c>
       <c r="CC3">
-        <v>-0.1309665701383897</v>
+        <v>-0.09217032313195742</v>
       </c>
       <c r="CD3">
-        <v>-0.1225266197457193</v>
+        <v>-0.08623545320801475</v>
       </c>
       <c r="CE3">
-        <v>-0.1160007887433421</v>
+        <v>-0.08158623205789806</v>
       </c>
       <c r="CF3">
-        <v>-0.09836434536895897</v>
+        <v>-0.06905356992352857</v>
       </c>
       <c r="CG3">
-        <v>-0.1108148133787892</v>
+        <v>-0.07792188118122341</v>
       </c>
       <c r="CH3">
-        <v>-0.1312957971869148</v>
+        <v>-0.09240070462131214</v>
       </c>
       <c r="CI3">
-        <v>-0.1225266197457161</v>
+        <v>-0.08623545320801193</v>
       </c>
       <c r="CJ3">
-        <v>-0.1160007887432056</v>
+        <v>-0.08158623205771325</v>
       </c>
       <c r="CK3">
-        <v>-0.09836434536895707</v>
+        <v>-0.06905356992352191</v>
       </c>
       <c r="CL3">
-        <v>-0.1319634910410177</v>
+        <v>-0.0928679178500582</v>
       </c>
       <c r="CM3">
-        <v>-0.1225266197457161</v>
+        <v>-0.08623545320801193</v>
       </c>
       <c r="CN3">
-        <v>-0.1160007887431752</v>
+        <v>-0.08158623205767303</v>
       </c>
       <c r="CO3">
-        <v>-0.0983643453689567</v>
+        <v>-0.06905356992351931</v>
       </c>
       <c r="CP3">
-        <v>-0.1325932473872334</v>
+        <v>-0.09330856571228315</v>
       </c>
       <c r="CQ3">
-        <v>-0.1160007887431687</v>
+        <v>-0.08158623205766294</v>
       </c>
       <c r="CR3">
-        <v>-0.0983643453689562</v>
+        <v>-0.06905356992351852</v>
       </c>
       <c r="CS3">
-        <v>-0.1329593254897692</v>
+        <v>-0.09356470639457362</v>
       </c>
       <c r="CT3">
-        <v>-0.1160007887431634</v>
+        <v>-0.08158623205765343</v>
       </c>
       <c r="CU3">
-        <v>-0.09836434536895616</v>
+        <v>-0.06905356992351815</v>
       </c>
       <c r="CV3">
-        <v>-0.1332011089255404</v>
+        <v>-0.09373387611187586</v>
       </c>
       <c r="CW3">
-        <v>-0.1160007887431639</v>
+        <v>-0.08158623205765564</v>
       </c>
       <c r="CX3">
-        <v>-0.09836434536895648</v>
+        <v>-0.06905356992351804</v>
       </c>
       <c r="CY3">
-        <v>-0.1335349655729097</v>
+        <v>-0.09396746266506673</v>
       </c>
       <c r="CZ3">
-        <v>-0.1160007887434339</v>
+        <v>-0.08158623205810987</v>
       </c>
       <c r="DA3">
-        <v>-0.09836434536895648</v>
+        <v>-0.06905356992351804</v>
       </c>
       <c r="DB3">
-        <v>-0.1335606109621903</v>
+        <v>-0.09397760155665298</v>
       </c>
       <c r="DC3">
-        <v>-0.1337239896154257</v>
+        <v>-0.09410927181904773</v>
       </c>
       <c r="DD3">
-        <v>-0.116000788743449</v>
+        <v>-0.08158623205813229</v>
       </c>
       <c r="DE3">
-        <v>-0.1335916383861354</v>
+        <v>-0.09398986822323503</v>
       </c>
       <c r="DF3">
-        <v>-0.1338311791176439</v>
+        <v>-0.09418968660857982</v>
       </c>
       <c r="DG3">
-        <v>-0.1160007887434883</v>
+        <v>-0.08158623205816568</v>
       </c>
       <c r="DH3">
-        <v>-0.1336276014389156</v>
+        <v>-0.09400408617337913</v>
       </c>
       <c r="DI3">
-        <v>-0.1380626116852062</v>
+        <v>-0.09736377633368774</v>
       </c>
       <c r="DJ3">
-        <v>-0.1160007887445497</v>
+        <v>-0.08158623205879903</v>
       </c>
       <c r="DK3">
-        <v>-0.1336824345406082</v>
+        <v>-0.09402576434751479</v>
       </c>
       <c r="DL3">
-        <v>-0.1384867264211894</v>
+        <v>-0.09768187324071838</v>
       </c>
       <c r="DM3">
-        <v>-0.1160007887454952</v>
+        <v>-0.08158623205936487</v>
       </c>
       <c r="DN3">
-        <v>-0.1337529301231082</v>
+        <v>-0.09405363460837328</v>
       </c>
       <c r="DO3">
-        <v>-0.1385295120730819</v>
+        <v>-0.09770122285101907</v>
       </c>
       <c r="DP3">
-        <v>-0.1404538126992537</v>
+        <v>-0.09920251652167886</v>
       </c>
       <c r="DQ3">
-        <v>-0.1160007887455773</v>
+        <v>-0.0815862320594147</v>
       </c>
       <c r="DR3">
-        <v>-0.1338035393549591</v>
+        <v>-0.0940736428140863</v>
       </c>
       <c r="DS3">
-        <v>-0.13852951207308</v>
+        <v>-0.09770122285101776</v>
       </c>
       <c r="DT3">
-        <v>-0.1385503441789713</v>
+        <v>-0.09771064406560402</v>
       </c>
       <c r="DU3">
-        <v>-0.1440024825721886</v>
+        <v>-0.1019455669982521</v>
       </c>
       <c r="DV3">
-        <v>-0.1160007887456371</v>
+        <v>-0.08158623205945043</v>
       </c>
       <c r="DW3">
-        <v>-0.1338750500258013</v>
+        <v>-0.09410191429200007</v>
       </c>
       <c r="DX3">
-        <v>-0.1385295120730785</v>
+        <v>-0.09770122285101633</v>
       </c>
       <c r="DY3">
-        <v>-0.1386482067005647</v>
+        <v>-0.09775490183011391</v>
       </c>
       <c r="DZ3">
-        <v>-0.1455988573926421</v>
+        <v>-0.1031794379325514</v>
       </c>
       <c r="EA3">
-        <v>-0.1160007887456867</v>
+        <v>-0.08158623205948354</v>
       </c>
       <c r="EB3">
-        <v>-0.1339524196943429</v>
+        <v>-0.0941325020394928</v>
       </c>
       <c r="EC3">
-        <v>-0.138529512073077</v>
+        <v>-0.09770122285101447</v>
       </c>
       <c r="ED3">
-        <v>-0.1386901150605024</v>
+        <v>-0.09777787281075714</v>
       </c>
       <c r="EE3">
-        <v>-0.1388656114202386</v>
+        <v>-0.0978474318120318</v>
       </c>
       <c r="EF3">
-        <v>-0.1460738873946039</v>
+        <v>-0.1035465870464182</v>
       </c>
       <c r="EG3">
-        <v>-0.1160007887458124</v>
+        <v>-0.08158623205958991</v>
       </c>
       <c r="EH3">
-        <v>-0.1340253857699644</v>
+        <v>-0.09416134878614971</v>
       </c>
       <c r="EI3">
-        <v>-0.1385295120730753</v>
+        <v>-0.09770122285101272</v>
       </c>
       <c r="EJ3">
-        <v>-0.1386937242269057</v>
+        <v>-0.09777985107243974</v>
       </c>
       <c r="EK3">
-        <v>-0.1390273504084566</v>
+        <v>-0.09791626946501115</v>
       </c>
       <c r="EL3">
-        <v>-0.1466101378831198</v>
+        <v>-0.1039610470188758</v>
       </c>
       <c r="EM3">
-        <v>-0.1160007887459042</v>
+        <v>-0.0815862320596691</v>
       </c>
       <c r="EN3">
-        <v>-0.1341453541732905</v>
+        <v>-0.09420877752362361</v>
       </c>
       <c r="EO3">
-        <v>-0.1385295120730726</v>
+        <v>-0.09770122285101081</v>
       </c>
       <c r="EP3">
-        <v>-0.1386972655105376</v>
+        <v>-0.09778179212468674</v>
       </c>
       <c r="EQ3">
-        <v>-0.1391356636872758</v>
+        <v>-0.09796236846294816</v>
       </c>
       <c r="ER3">
-        <v>-0.1471145061323096</v>
+        <v>-0.104350859634747</v>
       </c>
       <c r="ES3">
-        <v>-0.1160007887459139</v>
+        <v>-0.08158623205967816</v>
       </c>
       <c r="ET3">
-        <v>-0.134715786764651</v>
+        <v>-0.09443429221681722</v>
       </c>
       <c r="EU3">
-        <v>-0.1385295120730706</v>
+        <v>-0.09770122285100935</v>
       </c>
       <c r="EV3">
-        <v>-0.1387001249512479</v>
+        <v>-0.097783359443414</v>
       </c>
       <c r="EW3">
-        <v>-0.1392130331398859</v>
+        <v>-0.09799305927291883</v>
       </c>
       <c r="EX3">
-        <v>-0.1391933498868883</v>
+        <v>-0.09799111277164488</v>
       </c>
       <c r="EY3">
-        <v>-0.1477030498035092</v>
+        <v>-0.1048057217481232</v>
       </c>
       <c r="EZ3">
-        <v>-0.1160007887459178</v>
+        <v>-0.08158623205968385</v>
       </c>
       <c r="FA3">
-        <v>-0.1348400545155623</v>
+        <v>-0.09448341972671692</v>
       </c>
       <c r="FB3">
-        <v>-0.1385295120730683</v>
+        <v>-0.09770122285100796</v>
       </c>
       <c r="FC3">
-        <v>-0.138704416751562</v>
+        <v>-0.09778571186639486</v>
       </c>
       <c r="FD3">
-        <v>-0.1394182228612172</v>
+        <v>-0.09807445333514192</v>
       </c>
       <c r="FE3">
-        <v>-0.1391968610887844</v>
+        <v>-0.0979928623471939</v>
       </c>
       <c r="FF3">
-        <v>-0.1478724086156817</v>
+        <v>-0.1049366109923127</v>
       </c>
       <c r="FG3">
-        <v>-0.1160007887459182</v>
+        <v>-0.08158623205968303</v>
       </c>
       <c r="FH3">
-        <v>-0.1348730202454643</v>
+        <v>-0.09455395211180426</v>
       </c>
       <c r="FI3">
-        <v>-0.1352986448465342</v>
+        <v>-0.09464486639748691</v>
       </c>
       <c r="FJ3">
-        <v>-0.1385295120730662</v>
+        <v>-0.0977012228510067</v>
       </c>
       <c r="FK3">
-        <v>-0.1387095910075461</v>
+        <v>-0.09778854797849484</v>
       </c>
       <c r="FL3">
-        <v>-0.1394894969164591</v>
+        <v>-0.09810272601167808</v>
       </c>
       <c r="FM3">
-        <v>-0.1392000687626065</v>
+        <v>-0.09799446067834527</v>
       </c>
       <c r="FN3">
-        <v>-0.1488346346476901</v>
+        <v>-0.1056802564546523</v>
       </c>
       <c r="FO3">
-        <v>-0.1160007887459182</v>
+        <v>-0.08158623205968303</v>
       </c>
       <c r="FP3">
-        <v>-0.1348792480840736</v>
+        <v>-0.0945672771263929</v>
       </c>
       <c r="FQ3">
-        <v>-0.1359074869453117</v>
+        <v>-0.09485920577308148</v>
       </c>
       <c r="FR3">
-        <v>-0.1385295120730644</v>
+        <v>-0.09770122285100503</v>
       </c>
       <c r="FS3">
-        <v>-0.1387135000587734</v>
+        <v>-0.09779069060482454</v>
       </c>
       <c r="FT3">
-        <v>-0.139489496916177</v>
+        <v>-0.09810272601171957</v>
       </c>
       <c r="FU3">
-        <v>-0.1396082422655363</v>
+        <v>-0.09814983078561527</v>
       </c>
       <c r="FV3">
-        <v>-0.1392014012757458</v>
+        <v>-0.0979951246473999</v>
       </c>
       <c r="FW3">
-        <v>-0.1493781594028679</v>
+        <v>-0.1061003039550143</v>
       </c>
       <c r="FX3">
-        <v>-0.1348920974253561</v>
+        <v>-0.09459476957251498</v>
       </c>
       <c r="FY3">
-        <v>-0.1359914884243617</v>
+        <v>-0.09487978036789695</v>
       </c>
       <c r="FZ3">
-        <v>-0.1359570855158213</v>
+        <v>-0.09490070883881828</v>
       </c>
       <c r="GA3">
-        <v>-0.1385295120730626</v>
+        <v>-0.09770122285100344</v>
       </c>
       <c r="GB3">
-        <v>-0.1387180235202131</v>
+        <v>-0.09779316999908165</v>
       </c>
       <c r="GC3">
-        <v>-0.1394894969161375</v>
+        <v>-0.09810272601172577</v>
       </c>
       <c r="GD3">
-        <v>-0.1396210672614255</v>
+        <v>-0.09815491820670817</v>
       </c>
       <c r="GE3">
-        <v>-0.1392042734948391</v>
+        <v>-0.09799655582554209</v>
       </c>
       <c r="GF3">
-        <v>-0.1497816578688611</v>
+        <v>-0.1064121317534891</v>
       </c>
       <c r="GG3">
-        <v>-0.1363220599140451</v>
+        <v>-0.09496074710250167</v>
       </c>
       <c r="GH3">
-        <v>-0.1361623754179266</v>
+        <v>-0.09507248958482734</v>
       </c>
       <c r="GI3">
-        <v>-0.1385295120730619</v>
+        <v>-0.09770122285100222</v>
       </c>
       <c r="GJ3">
-        <v>-0.1387222767497259</v>
+        <v>-0.09779550127203007</v>
       </c>
       <c r="GK3">
-        <v>-0.1394894969161376</v>
+        <v>-0.09810272601173757</v>
       </c>
       <c r="GL3">
-        <v>-0.1394894969161228</v>
+        <v>-0.09810272601172723</v>
       </c>
       <c r="GM3">
-        <v>-0.1396334726331797</v>
+        <v>-0.09815983915415823</v>
       </c>
       <c r="GN3">
-        <v>-0.1392115890192556</v>
+        <v>-0.09800020102324446</v>
       </c>
       <c r="GO3">
-        <v>-0.1501444400204259</v>
+        <v>-0.1066924903574361</v>
       </c>
       <c r="GP3">
-        <v>-0.1369122918717051</v>
+        <v>-0.09510531005213334</v>
       </c>
       <c r="GQ3">
-        <v>-0.1361859942320901</v>
+        <v>-0.0950889427987254</v>
       </c>
       <c r="GR3">
-        <v>-0.1361719152724266</v>
+        <v>-0.09508238531569832</v>
       </c>
       <c r="GS3">
-        <v>-0.1385295120730617</v>
+        <v>-0.09770122285100198</v>
       </c>
       <c r="GT3">
-        <v>-0.1387268529837316</v>
+        <v>-0.09779800958737277</v>
       </c>
       <c r="GU3">
-        <v>-0.1394894969161376</v>
+        <v>-0.09810272601173757</v>
       </c>
       <c r="GV3">
-        <v>-0.1394894969161094</v>
+        <v>-0.09810272601172471</v>
       </c>
       <c r="GW3">
-        <v>-0.1396433957379394</v>
+        <v>-0.09816377542692581</v>
       </c>
       <c r="GX3">
-        <v>-0.1392158810119284</v>
+        <v>-0.09800233964518722</v>
       </c>
       <c r="GY3">
-        <v>-0.1505951424649578</v>
+        <v>-0.1070407896725226</v>
       </c>
       <c r="GZ3">
-        <v>-0.137058184962767</v>
+        <v>-0.09514166453260105</v>
       </c>
       <c r="HA3">
-        <v>-0.1369905491590009</v>
+        <v>-0.09512416497741262</v>
       </c>
       <c r="HB3">
-        <v>-0.1362457095676081</v>
+        <v>-0.09513054114129121</v>
       </c>
       <c r="HC3">
-        <v>-0.1361732637436956</v>
+        <v>-0.09508378409070035</v>
       </c>
       <c r="HD3">
-        <v>-0.1385295120730616</v>
+        <v>-0.09770122285100188</v>
       </c>
       <c r="HE3">
-        <v>-0.1387338486904991</v>
+        <v>-0.09780184405424283</v>
       </c>
       <c r="HF3">
-        <v>-0.1394894969160982</v>
+        <v>-0.09810272601172225</v>
       </c>
       <c r="HG3">
-        <v>-0.1396513003054218</v>
+        <v>-0.09816691098360326</v>
       </c>
       <c r="HH3">
-        <v>-0.1392188871430467</v>
+        <v>-0.09800383754443881</v>
       </c>
       <c r="HI3">
-        <v>-0.15142690876071</v>
+        <v>-0.1076835598479978</v>
       </c>
       <c r="HJ3">
-        <v>-0.1375357804216066</v>
+        <v>-0.09526066181076201</v>
       </c>
       <c r="HK3">
-        <v>-0.1371317908829125</v>
+        <v>-0.0951581949320783</v>
       </c>
       <c r="HL3">
-        <v>-0.1361743512482322</v>
+        <v>-0.09508491216382008</v>
       </c>
       <c r="HM3">
-        <v>-0.1385295120730616</v>
+        <v>-0.09770122285100186</v>
       </c>
       <c r="HN3">
-        <v>-0.1387529533289241</v>
+        <v>-0.09781231560607533</v>
       </c>
       <c r="HO3">
-        <v>-0.1394894969160859</v>
+        <v>-0.09810272601172315</v>
       </c>
       <c r="HP3">
-        <v>-0.1396680119210867</v>
+        <v>-0.09817354006744873</v>
       </c>
       <c r="HQ3">
-        <v>-0.139224669741083</v>
+        <v>-0.0980067189026393</v>
       </c>
       <c r="HR3">
-        <v>-0.1521521511418104</v>
+        <v>-0.1082439977364957</v>
       </c>
       <c r="HS3">
-        <v>-0.1377416959560793</v>
+        <v>-0.09531196154436009</v>
       </c>
       <c r="HT3">
-        <v>-0.1371822222862247</v>
+        <v>-0.0951703455386822</v>
       </c>
       <c r="HU3">
-        <v>-0.136175220325693</v>
+        <v>-0.09508581366161335</v>
       </c>
       <c r="HV3">
-        <v>-0.1387545822596412</v>
+        <v>-0.0978132084466309</v>
       </c>
       <c r="HW3">
-        <v>-0.139489496916082</v>
+        <v>-0.09810272601173509</v>
       </c>
       <c r="HX3">
-        <v>-0.1396811728065429</v>
+        <v>-0.09817876064314093</v>
       </c>
       <c r="HY3">
-        <v>-0.1392275479487747</v>
+        <v>-0.098008153057159</v>
       </c>
       <c r="HZ3">
-        <v>-0.1526455343356692</v>
+        <v>-0.1086252573217933</v>
       </c>
       <c r="IA3">
-        <v>-0.1377500577411345</v>
+        <v>-0.09530716154277988</v>
       </c>
       <c r="IB3">
-        <v>-0.1371822222862247</v>
+        <v>-0.0951703455386822</v>
       </c>
       <c r="IC3">
-        <v>-0.136176546981418</v>
+        <v>-0.0950871898073375</v>
       </c>
       <c r="ID3">
-        <v>-0.1387553346478847</v>
+        <v>-0.09781362084143926</v>
       </c>
       <c r="IE3">
-        <v>-0.1394894969160803</v>
+        <v>-0.09810272601173957</v>
       </c>
       <c r="IF3">
-        <v>-0.1396903018990633</v>
+        <v>-0.09818238190194362</v>
       </c>
       <c r="IG3">
-        <v>-0.1392295916562601</v>
+        <v>-0.09800917139599502</v>
       </c>
       <c r="IH3">
-        <v>-0.1529696622306565</v>
+        <v>-0.1088757226022117</v>
       </c>
       <c r="II3">
-        <v>-0.1378325321167972</v>
+        <v>-0.09532703093257174</v>
       </c>
       <c r="IJ3">
-        <v>-0.1361781020902531</v>
+        <v>-0.09508880292850259</v>
       </c>
       <c r="IK3">
-        <v>-0.1387561394184756</v>
+        <v>-0.09781406194769435</v>
       </c>
       <c r="IL3">
-        <v>-0.139489496916091</v>
+        <v>-0.09810272601174287</v>
       </c>
       <c r="IM3">
-        <v>-0.1396994092814239</v>
+        <v>-0.09818599453985852</v>
       </c>
       <c r="IN3">
-        <v>-0.1392529709325105</v>
+        <v>-0.09802082079096443</v>
       </c>
       <c r="IO3">
-        <v>-0.1536672874261274</v>
+        <v>-0.1094147944627465</v>
       </c>
       <c r="IP3">
-        <v>-0.1380708107396008</v>
+        <v>-0.09537336115491389</v>
       </c>
       <c r="IQ3">
-        <v>-0.1378474237648501</v>
+        <v>-0.09534168999373227</v>
       </c>
       <c r="IR3">
-        <v>-0.1361804906472205</v>
+        <v>-0.09509128058912682</v>
       </c>
       <c r="IS3">
-        <v>-0.1387569084124896</v>
+        <v>-0.09781448344422916</v>
       </c>
       <c r="IT3">
-        <v>-0.1394894969161103</v>
+        <v>-0.09810272601175639</v>
       </c>
       <c r="IU3">
-        <v>-0.1397127330439328</v>
+        <v>-0.09819127967878405</v>
       </c>
       <c r="IV3">
-        <v>-0.1392598651460019</v>
+        <v>-0.09802425601867859</v>
       </c>
       <c r="IW3">
-        <v>-0.1537073915540673</v>
+        <v>-0.1094547440877763</v>
       </c>
       <c r="IX3">
-        <v>-0.1541229479478222</v>
+        <v>-0.109765492163811</v>
       </c>
       <c r="IY3">
-        <v>-0.1361892311618262</v>
+        <v>-0.09510034716414363</v>
       </c>
       <c r="IZ3">
-        <v>-0.1387577651050932</v>
+        <v>-0.09781495300952876</v>
       </c>
       <c r="JA3">
-        <v>-0.13948949691613</v>
+        <v>-0.0981027260117756</v>
       </c>
       <c r="JB3">
-        <v>-0.1397628451040301</v>
+        <v>-0.09821115746384762</v>
       </c>
       <c r="JC3">
-        <v>-0.1392614075892354</v>
+        <v>-0.0980250245818569</v>
       </c>
       <c r="JD3">
-        <v>-0.1537129354023929</v>
+        <v>-0.1094602665779619</v>
       </c>
       <c r="JE3">
-        <v>-0.1558318511321558</v>
+        <v>-0.1110807011433565</v>
       </c>
       <c r="JF3">
-        <v>-0.1362317717496919</v>
+        <v>-0.09514447472605832</v>
       </c>
       <c r="JG3">
-        <v>-0.1387595334397981</v>
+        <v>-0.09781592225846328</v>
       </c>
       <c r="JH3">
-        <v>-0.1394894969161502</v>
+        <v>-0.09810272601180095</v>
       </c>
       <c r="JI3">
-        <v>-0.1397745414725766</v>
+        <v>-0.09821579698419311</v>
       </c>
       <c r="JJ3">
-        <v>-0.1392803704394135</v>
+        <v>-0.09804439448010692</v>
       </c>
       <c r="JK3">
-        <v>-0.1392620911507231</v>
+        <v>-0.09802502458185784</v>
       </c>
       <c r="JL3">
-        <v>-0.153715484117905</v>
+        <v>-0.1094628054743163</v>
       </c>
       <c r="JM3">
-        <v>-0.1558552353725156</v>
+        <v>-0.1110926385841902</v>
       </c>
       <c r="JN3">
-        <v>-0.1564010477949831</v>
+        <v>-0.1115200271755034</v>
       </c>
       <c r="JO3">
-        <v>-0.1387613751505615</v>
+        <v>-0.0978169317254626</v>
       </c>
       <c r="JP3">
-        <v>-0.1394894969161562</v>
+        <v>-0.09810272601180822</v>
       </c>
       <c r="JQ3">
-        <v>-0.1397798999045184</v>
+        <v>-0.09821792247259277</v>
       </c>
       <c r="JR3">
-        <v>-0.1392991634449435</v>
+        <v>-0.09806359089144789</v>
       </c>
       <c r="JS3">
-        <v>-0.1392628925838229</v>
+        <v>-0.09802502458185888</v>
       </c>
       <c r="JT3">
-        <v>-0.1537185112653894</v>
+        <v>-0.109465820959426</v>
       </c>
       <c r="JU3">
-        <v>-0.1558569351597966</v>
+        <v>-0.1110935063076206</v>
       </c>
       <c r="JV3">
-        <v>-0.158464742225192</v>
+        <v>-0.1131127964504447</v>
       </c>
       <c r="JW3">
-        <v>-0.1387683785352215</v>
+        <v>-0.0978207703734139</v>
       </c>
       <c r="JX3">
-        <v>-0.1394894969161486</v>
+        <v>-0.09810272601179543</v>
       </c>
       <c r="JY3">
-        <v>-0.1397834226759655</v>
+        <v>-0.09821931982181241</v>
       </c>
       <c r="JZ3">
-        <v>-0.1392636168566398</v>
+        <v>-0.09802502458186026</v>
       </c>
       <c r="KA3">
-        <v>-0.153723181799768</v>
+        <v>-0.1094704735000947</v>
       </c>
       <c r="KB3">
-        <v>-0.1558583361786426</v>
+        <v>-0.1110942215126779</v>
       </c>
       <c r="KC3">
-        <v>-0.1587920271167522</v>
+        <v>-0.1133399695902036</v>
       </c>
       <c r="KD3">
-        <v>-0.1587805853544008</v>
+        <v>-0.1133694493634084</v>
       </c>
       <c r="KE3">
-        <v>-0.1388055608785368</v>
+        <v>-0.09784115041576746</v>
       </c>
       <c r="KF3">
-        <v>-0.1394894969161486</v>
+        <v>-0.09810272601179543</v>
       </c>
       <c r="KG3">
-        <v>-0.1398031251467567</v>
+        <v>-0.09822913647190437</v>
       </c>
       <c r="KH3">
-        <v>-0.1397840450275795</v>
+        <v>-0.09821931982182082</v>
       </c>
       <c r="KI3">
-        <v>-0.1392643504004541</v>
+        <v>-0.09802502458186073</v>
       </c>
       <c r="KJ3">
-        <v>-0.1537273435828106</v>
+        <v>-0.1094746192494103</v>
       </c>
       <c r="KK3">
-        <v>-0.1558603262193933</v>
+        <v>-0.1110952374067011</v>
       </c>
       <c r="KL3">
-        <v>-0.1589426770843705</v>
+        <v>-0.1134445362233345</v>
       </c>
       <c r="KM3">
-        <v>-0.1601044144202099</v>
+        <v>-0.1144451660942752</v>
       </c>
       <c r="KN3">
-        <v>-0.1398121756866585</v>
+        <v>-0.0982336458398885</v>
       </c>
       <c r="KO3">
-        <v>-0.1397844854881347</v>
+        <v>-0.09821931982182729</v>
       </c>
       <c r="KP3">
-        <v>-0.1392651391086375</v>
+        <v>-0.09802502458186069</v>
       </c>
       <c r="KQ3">
-        <v>-0.1537305792802816</v>
+        <v>-0.109477842480981</v>
       </c>
       <c r="KR3">
-        <v>-0.1558692646071626</v>
+        <v>-0.1110998003502603</v>
       </c>
       <c r="KS3">
-        <v>-0.1599269440616527</v>
+        <v>-0.1141276932107995</v>
       </c>
       <c r="KT3">
-        <v>-0.1603966661544365</v>
+        <v>-0.1146826392269425</v>
       </c>
       <c r="KU3">
-        <v>-0.1398274936446136</v>
+        <v>-0.09824127788364141</v>
       </c>
       <c r="KV3">
-        <v>-0.1397849980545275</v>
+        <v>-0.09821931982183407</v>
       </c>
       <c r="KW3">
-        <v>-0.1392697131839063</v>
+        <v>-0.09802502458186163</v>
       </c>
       <c r="KX3">
-        <v>-0.1537346069192164</v>
+        <v>-0.1094818546029421</v>
       </c>
       <c r="KY3">
-        <v>-0.1558709853457717</v>
+        <v>-0.1111006787663709</v>
       </c>
       <c r="KZ3">
-        <v>-0.1600004693499723</v>
+        <v>-0.1141787236110587</v>
       </c>
       <c r="LA3">
-        <v>-0.160493777949114</v>
+        <v>-0.1147615483625718</v>
       </c>
       <c r="LB3">
-        <v>-0.1398568957697435</v>
+        <v>-0.09825592717028885</v>
       </c>
       <c r="LC3">
-        <v>-0.1397859784304329</v>
+        <v>-0.09821931982184698</v>
       </c>
       <c r="LD3">
-        <v>-0.1392890598974447</v>
+        <v>-0.09802502458186163</v>
       </c>
       <c r="LE3">
-        <v>-0.1537387726799009</v>
+        <v>-0.1094860043144909</v>
       </c>
       <c r="LF3">
-        <v>-0.1558722594121071</v>
+        <v>-0.1111013291615059</v>
       </c>
       <c r="LG3">
-        <v>-0.1600222436711327</v>
+        <v>-0.1141884404009221</v>
       </c>
       <c r="LH3">
-        <v>-0.1611410319330404</v>
+        <v>-0.115021445312697</v>
       </c>
       <c r="LI3">
-        <v>-0.1605444639653278</v>
+        <v>-0.1148027337044291</v>
       </c>
       <c r="LJ3">
-        <v>-0.1399434628688249</v>
+        <v>-0.09829905770633408</v>
       </c>
       <c r="LK3">
-        <v>-0.1397897383466032</v>
+        <v>-0.09821931982189509</v>
       </c>
       <c r="LL3">
-        <v>-0.1537436864308027</v>
+        <v>-0.1094908991344897</v>
       </c>
       <c r="LM3">
-        <v>-0.1558737269993154</v>
+        <v>-0.1111020783464295</v>
       </c>
       <c r="LN3">
-        <v>-0.1601343914133318</v>
+        <v>-0.114238485479367</v>
       </c>
       <c r="LO3">
-        <v>-0.1616884885058404</v>
+        <v>-0.1154259222847172</v>
       </c>
       <c r="LP3">
-        <v>-0.1605878530394363</v>
+        <v>-0.1148379898148335</v>
       </c>
       <c r="LQ3">
-        <v>-0.1398025695626197</v>
+        <v>-0.09821931982206002</v>
       </c>
       <c r="LR3">
-        <v>-0.1537464866197275</v>
+        <v>-0.1094936885352807</v>
       </c>
       <c r="LS3">
-        <v>-0.155875182825665</v>
+        <v>-0.1111028215273398</v>
       </c>
       <c r="LT3">
-        <v>-0.1601735456712562</v>
+        <v>-0.1142559574357518</v>
       </c>
       <c r="LU3">
-        <v>-0.1618172563803519</v>
+        <v>-0.1154259222897944</v>
       </c>
       <c r="LV3">
-        <v>-0.1626633447179543</v>
+        <v>-0.1162053925743279</v>
       </c>
       <c r="LW3">
-        <v>-0.1606372006296404</v>
+        <v>-0.1148780875154879</v>
       </c>
       <c r="LX3">
-        <v>-0.1537591367913948</v>
+        <v>-0.109506289970158</v>
       </c>
       <c r="LY3">
-        <v>-0.1558879724630237</v>
+        <v>-0.1111093504648121</v>
       </c>
       <c r="LZ3">
-        <v>-0.160258764791826</v>
+        <v>-0.1142939844970535</v>
       </c>
       <c r="MA3">
-        <v>-0.1618682569338185</v>
+        <v>-0.1154259222917387</v>
       </c>
       <c r="MB3">
-        <v>-0.1627214044098791</v>
+        <v>-0.1162426915365872</v>
       </c>
       <c r="MC3">
-        <v>-0.1628317440306089</v>
+        <v>-0.1163414225770139</v>
       </c>
       <c r="MD3">
-        <v>-0.1606760782573347</v>
+        <v>-0.1149096777467556</v>
       </c>
       <c r="ME3">
-        <v>-0.1537640599952313</v>
+        <v>-0.1095111942064963</v>
       </c>
       <c r="MF3">
-        <v>-0.1559141164272904</v>
+        <v>-0.1111226965481447</v>
       </c>
       <c r="MG3">
-        <v>-0.1602816688228593</v>
+        <v>-0.1143173634094841</v>
       </c>
       <c r="MH3">
-        <v>-0.1602808567361642</v>
+        <v>-0.1142976511422643</v>
       </c>
       <c r="MI3">
-        <v>-0.1627505947709419</v>
+        <v>-0.1162614440030884</v>
       </c>
       <c r="MJ3">
-        <v>-0.1629760178349188</v>
+        <v>-0.1164579636522736</v>
       </c>
       <c r="MK3">
-        <v>-0.1607086731961588</v>
+        <v>-0.1149361629211909</v>
       </c>
       <c r="ML3">
-        <v>-0.1537657703141961</v>
+        <v>-0.109512897936152</v>
       </c>
       <c r="MM3">
-        <v>-0.1603159406094693</v>
+        <v>-0.1143523457806414</v>
       </c>
       <c r="MN3">
-        <v>-0.1602839328474347</v>
+        <v>-0.1142981616883019</v>
       </c>
       <c r="MO3">
-        <v>-0.1627533112402244</v>
+        <v>-0.1162631891122547</v>
       </c>
       <c r="MP3">
-        <v>-0.1630775037328848</v>
+        <v>-0.1165399412130341</v>
       </c>
       <c r="MQ3">
-        <v>-0.1607380842608978</v>
+        <v>-0.1149600610052064</v>
       </c>
       <c r="MR3">
-        <v>-0.1537670588128668</v>
+        <v>-0.1095141814706478</v>
       </c>
       <c r="MS3">
-        <v>-0.1602872737254393</v>
+        <v>-0.1142987161773288</v>
       </c>
       <c r="MT3">
-        <v>-0.1627544331091501</v>
+        <v>-0.1162639098209873</v>
       </c>
       <c r="MU3">
-        <v>-0.1632057364993844</v>
+        <v>-0.1166435236697727</v>
       </c>
       <c r="MV3">
-        <v>-0.160762425982189</v>
+        <v>-0.1149798399598682</v>
       </c>
       <c r="MW3">
-        <v>-0.1537680015378669</v>
+        <v>-0.1095151205636282</v>
       </c>
       <c r="MX3">
-        <v>-0.1602902000987811</v>
+        <v>-0.1142992018700027</v>
       </c>
       <c r="MY3">
-        <v>-0.1627552247043146</v>
+        <v>-0.1162644183558498</v>
       </c>
       <c r="MZ3">
-        <v>-0.1632860879219093</v>
+        <v>-0.1167084287753477</v>
       </c>
       <c r="NA3">
-        <v>-0.1607906639166345</v>
+        <v>-0.1150027847819576</v>
       </c>
       <c r="NB3">
-        <v>-0.1537684802591118</v>
+        <v>-0.109515597440511</v>
       </c>
       <c r="NC3">
-        <v>-0.1602933093747559</v>
+        <v>-0.1142997179185876</v>
       </c>
       <c r="ND3">
-        <v>-0.1627560343834624</v>
+        <v>-0.1162649385081163</v>
       </c>
       <c r="NE3">
-        <v>-0.163409478918935</v>
+        <v>-0.1168080993366277</v>
       </c>
       <c r="NF3">
-        <v>-0.1608216995001809</v>
+        <v>-0.1150280028242088</v>
       </c>
       <c r="NG3">
-        <v>-0.1537691840811634</v>
+        <v>-0.1095162985509562</v>
       </c>
       <c r="NH3">
-        <v>-0.1602977469847043</v>
+        <v>-0.1143004544305809</v>
       </c>
       <c r="NI3">
-        <v>-0.1627569897474123</v>
+        <v>-0.1162655522508008</v>
       </c>
       <c r="NJ3">
-        <v>-0.1635324885831612</v>
+        <v>-0.1169074613570098</v>
       </c>
       <c r="NK3">
-        <v>-0.1609908967573761</v>
+        <v>-0.1151654841469881</v>
       </c>
       <c r="NL3">
-        <v>-0.1537703639172908</v>
+        <v>-0.1095174738415425</v>
       </c>
       <c r="NM3">
-        <v>-0.160303141725208</v>
+        <v>-0.1143013497962625</v>
       </c>
       <c r="NN3">
-        <v>-0.1627581948714116</v>
+        <v>-0.1162663264436186</v>
       </c>
       <c r="NO3">
-        <v>-0.1636705131934403</v>
+        <v>-0.117018951205874</v>
       </c>
       <c r="NP3">
-        <v>-0.1622660350699059</v>
+        <v>-0.1161758334355546</v>
       </c>
       <c r="NQ3">
-        <v>-0.1609908967577231</v>
+        <v>-0.1151773712963442</v>
       </c>
       <c r="NR3">
-        <v>-0.1537756265039941</v>
+        <v>-0.1095227161531136</v>
       </c>
       <c r="NS3">
-        <v>-0.1603365803464883</v>
+        <v>-0.1143068995669599</v>
       </c>
       <c r="NT3">
-        <v>-0.1627592741778038</v>
+        <v>-0.1162670198088675</v>
       </c>
       <c r="NU3">
-        <v>-0.1637703952557943</v>
+        <v>-0.1170996308782442</v>
       </c>
       <c r="NV3">
-        <v>-0.1634875275147094</v>
+        <v>-0.1171436438024882</v>
       </c>
       <c r="NW3">
-        <v>-0.1609908967599885</v>
+        <v>-0.1152503614075791</v>
       </c>
       <c r="NX3">
-        <v>-0.1609908967577</v>
+        <v>-0.1151773712963175</v>
       </c>
       <c r="NY3">
-        <v>-0.1537949717329652</v>
+        <v>-0.1095419868504377</v>
       </c>
       <c r="NZ3">
-        <v>-0.1604510021648427</v>
+        <v>-0.1143258894944497</v>
       </c>
       <c r="OA3">
-        <v>-0.1627601282061627</v>
+        <v>-0.1162675684514951</v>
       </c>
       <c r="OB3">
-        <v>-0.1638894483531905</v>
+        <v>-0.1171957954993311</v>
       </c>
       <c r="OC3">
-        <v>-0.1635419094516975</v>
+        <v>-0.1171867308379353</v>
       </c>
       <c r="OD3">
-        <v>-0.1609908967608109</v>
+        <v>-0.1152770380847528</v>
       </c>
       <c r="OE3">
-        <v>-0.1609908967575782</v>
+        <v>-0.1151773712961804</v>
       </c>
       <c r="OF3">
-        <v>-0.1627615939250475</v>
+        <v>-0.1162685100545459</v>
       </c>
       <c r="OG3">
-        <v>-0.164062198068755</v>
+        <v>-0.1173353324739003</v>
       </c>
       <c r="OH3">
-        <v>-0.1636792873614926</v>
+        <v>-0.1172203766169593</v>
       </c>
       <c r="OI3">
-        <v>-0.1644577850718414</v>
+        <v>-0.1179566192582443</v>
       </c>
       <c r="OJ3">
-        <v>-0.1609908967608956</v>
+        <v>-0.115279753439101</v>
       </c>
       <c r="OK3">
-        <v>-0.1609908967575676</v>
+        <v>-0.1151773712961709</v>
       </c>
       <c r="OL3">
-        <v>-0.1627667105992939</v>
+        <v>-0.1162717970924234</v>
       </c>
       <c r="OM3">
-        <v>-0.1641902750958926</v>
+        <v>-0.1174387848459609</v>
       </c>
       <c r="ON3">
-        <v>-0.1636918751562499</v>
+        <v>-0.1172234594650049</v>
       </c>
       <c r="OO3">
-        <v>-0.1648996828041492</v>
+        <v>-0.1183280748500903</v>
       </c>
       <c r="OP3">
-        <v>-0.1609908967609537</v>
+        <v>-0.1152816484031948</v>
       </c>
       <c r="OQ3">
-        <v>-0.1609908967575631</v>
+        <v>-0.1151773712961681</v>
       </c>
       <c r="OR3">
-        <v>-0.162797992312757</v>
+        <v>-0.1162918929333603</v>
       </c>
       <c r="OS3">
-        <v>-0.1643138293525704</v>
+        <v>-0.1175385834874163</v>
       </c>
       <c r="OT3">
-        <v>-0.1636990310899376</v>
+        <v>-0.1172252120024096</v>
       </c>
       <c r="OU3">
-        <v>-0.1662329752263544</v>
+        <v>-0.1194488086837396</v>
       </c>
       <c r="OV3">
-        <v>-0.1648996828042463</v>
+        <v>-0.118328074850205</v>
       </c>
       <c r="OW3">
-        <v>-0.1609908967610143</v>
+        <v>-0.1152836114193611</v>
       </c>
       <c r="OX3">
-        <v>-0.1609908967575605</v>
+        <v>-0.1151773712961686</v>
       </c>
       <c r="OY3">
-        <v>-0.1644347549556163</v>
+        <v>-0.1176362583809873</v>
       </c>
       <c r="OZ3">
-        <v>-0.1637038901541719</v>
+        <v>-0.1172264020182164</v>
       </c>
       <c r="PA3">
-        <v>-0.1681323180667462</v>
+        <v>-0.1210452970853416</v>
       </c>
       <c r="PB3">
-        <v>-0.1648996828042709</v>
+        <v>-0.1183280748502307</v>
       </c>
       <c r="PC3">
-        <v>-0.16099089676127</v>
+        <v>-0.1152918549608828</v>
       </c>
       <c r="PD3">
-        <v>-0.1609908967575537</v>
+        <v>-0.1151773712961686</v>
       </c>
       <c r="PE3">
-        <v>-0.1645801904749266</v>
+        <v>-0.1177537299416996</v>
       </c>
       <c r="PF3">
-        <v>-0.1637118091659471</v>
+        <v>-0.1172283414304161</v>
       </c>
       <c r="PG3">
-        <v>-0.1685298378247171</v>
+        <v>-0.1213794234157206</v>
       </c>
       <c r="PH3">
-        <v>-0.1648996828042834</v>
+        <v>-0.1183280748502447</v>
       </c>
       <c r="PI3">
-        <v>-0.1609908967613318</v>
+        <v>-0.115293867845062</v>
       </c>
       <c r="PJ3">
-        <v>-0.1609908967574782</v>
+        <v>-0.1151773712961699</v>
       </c>
       <c r="PK3">
-        